--- a/plans/todo.xlsx
+++ b/plans/todo.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Edsquid\Documents\Personal Projects\Business\RogueLikeGame\plans\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3103B45-4309-4B98-AC52-427238811293}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DB4E7AD-5AB8-45C8-921F-4714515E6668}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20265" yWindow="0" windowWidth="8535" windowHeight="16200" firstSheet="1" activeTab="1" xr2:uid="{BA1E511D-BF64-4842-98DF-72E30276ED1C}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{BA1E511D-BF64-4842-98DF-72E30276ED1C}"/>
   </bookViews>
   <sheets>
     <sheet name="Attributes" sheetId="1" r:id="rId1"/>
-    <sheet name="Weapons and Secondary" sheetId="2" r:id="rId2"/>
+    <sheet name="Attributes_Detailed" sheetId="3" r:id="rId2"/>
+    <sheet name="Weapons and Secondary" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="203">
   <si>
     <t>Attributes</t>
   </si>
@@ -474,9 +475,6 @@
     <t>melee, increase damage taken, increase lifesteal</t>
   </si>
   <si>
-    <t>Lifesteal</t>
-  </si>
-  <si>
     <t>Reduce max health, increase life steal</t>
   </si>
   <si>
@@ -507,20 +505,155 @@
     <t>Damage increase</t>
   </si>
   <si>
-    <t>damage type increase</t>
-  </si>
-  <si>
     <t>XP range</t>
   </si>
   <si>
     <t>Life steal is now stamina steal</t>
+  </si>
+  <si>
+    <t>Damage type increase</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Damage Type Resistence </t>
+  </si>
+  <si>
+    <t>essensesteal</t>
+  </si>
+  <si>
+    <t>Attributes Detailed</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Category</t>
+  </si>
+  <si>
+    <t>What Do</t>
+  </si>
+  <si>
+    <t>Max Level</t>
+  </si>
+  <si>
+    <t>Permanent</t>
+  </si>
+  <si>
+    <t>Utility</t>
+  </si>
+  <si>
+    <t>Guns</t>
+  </si>
+  <si>
+    <t>Offence</t>
+  </si>
+  <si>
+    <t>Mobility</t>
+  </si>
+  <si>
+    <t>Defence</t>
+  </si>
+  <si>
+    <t>Status Effect Duration</t>
+  </si>
+  <si>
+    <t>Essence Steal</t>
+  </si>
+  <si>
+    <t>Increase size of Area Effects</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Increase Melee Damage </t>
+  </si>
+  <si>
+    <t>How Do</t>
+  </si>
+  <si>
+    <t>Increase Projectile Damage</t>
+  </si>
+  <si>
+    <t>Increase Dot Damage</t>
+  </si>
+  <si>
+    <t>Increase Damage of Area Based Attacks</t>
+  </si>
+  <si>
+    <t>Increase Effect of Status Effects</t>
+  </si>
+  <si>
+    <t>Increase Base Speed</t>
+  </si>
+  <si>
+    <t>Increase Base Stamina</t>
+  </si>
+  <si>
+    <t>Increase Base Health</t>
+  </si>
+  <si>
+    <t>Increase Stamina Regen</t>
+  </si>
+  <si>
+    <t>Increase Health Regen</t>
+  </si>
+  <si>
+    <t>Increase Experience Gain</t>
+  </si>
+  <si>
+    <t>Increace Dodge Chance</t>
+  </si>
+  <si>
+    <t>Increase Critical Hit Chance</t>
+  </si>
+  <si>
+    <t>Increase Critical Hit Damage</t>
+  </si>
+  <si>
+    <t>Increase Duration of Status Effects</t>
+  </si>
+  <si>
+    <t>Steals Stamina and Health from Enemy</t>
+  </si>
+  <si>
+    <t>Increase overall damage</t>
+  </si>
+  <si>
+    <t>Increase Damage by type</t>
+  </si>
+  <si>
+    <t>Increase Resistance by type</t>
+  </si>
+  <si>
+    <t>Increase maximum lives</t>
+  </si>
+  <si>
+    <t>% increase ontop of default values of effects</t>
+  </si>
+  <si>
+    <t>%</t>
+  </si>
+  <si>
+    <t>Flat</t>
+  </si>
+  <si>
+    <t>Area Size Increase</t>
+  </si>
+  <si>
+    <t>Melee Damage</t>
+  </si>
+  <si>
+    <t>Attack Speed</t>
+  </si>
+  <si>
+    <t>increase of attack speed</t>
+  </si>
+  <si>
+    <t>How much of an increase</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -554,6 +687,14 @@
     <font>
       <b/>
       <sz val="18"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -628,7 +769,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -741,11 +882,35 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -756,6 +921,9 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -774,13 +942,13 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -807,6 +975,9 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -819,6 +990,12 @@
     <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -828,11 +1005,8 @@
     <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1150,8 +1324,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CFBBEE3-C6F6-4CA4-994F-0BEAD2BE121A}">
   <dimension ref="A1:X43"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M17" sqref="M17:O17"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F44" sqref="F44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1170,1081 +1344,1083 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
-      <c r="J1" s="17"/>
-      <c r="K1" s="17"/>
-      <c r="L1" s="17"/>
-      <c r="M1" s="17"/>
-      <c r="N1" s="18"/>
-      <c r="O1" s="13" t="s">
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="20"/>
+      <c r="J1" s="20"/>
+      <c r="K1" s="20"/>
+      <c r="L1" s="20"/>
+      <c r="M1" s="20"/>
+      <c r="N1" s="21"/>
+      <c r="O1" s="15" t="s">
         <v>92</v>
       </c>
-      <c r="P1" s="13"/>
-      <c r="Q1" s="13"/>
-      <c r="R1" s="13"/>
-      <c r="S1" s="13"/>
-      <c r="T1" s="7" t="s">
+      <c r="P1" s="15"/>
+      <c r="Q1" s="15"/>
+      <c r="R1" s="15"/>
+      <c r="S1" s="15"/>
+      <c r="T1" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="U1" s="7"/>
-      <c r="V1" s="7"/>
+      <c r="U1" s="10"/>
+      <c r="V1" s="10"/>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A2" s="19"/>
-      <c r="B2" s="20"/>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="20"/>
-      <c r="G2" s="20"/>
-      <c r="H2" s="20"/>
-      <c r="I2" s="20"/>
-      <c r="J2" s="20"/>
-      <c r="K2" s="20"/>
-      <c r="L2" s="20"/>
-      <c r="M2" s="20"/>
-      <c r="N2" s="21"/>
-      <c r="O2" s="13"/>
-      <c r="P2" s="13"/>
-      <c r="Q2" s="13"/>
-      <c r="R2" s="13"/>
-      <c r="S2" s="13"/>
-      <c r="T2" s="7"/>
-      <c r="U2" s="7"/>
-      <c r="V2" s="7"/>
+      <c r="A2" s="22"/>
+      <c r="B2" s="23"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="23"/>
+      <c r="H2" s="23"/>
+      <c r="I2" s="23"/>
+      <c r="J2" s="23"/>
+      <c r="K2" s="23"/>
+      <c r="L2" s="23"/>
+      <c r="M2" s="23"/>
+      <c r="N2" s="24"/>
+      <c r="O2" s="15"/>
+      <c r="P2" s="15"/>
+      <c r="Q2" s="15"/>
+      <c r="R2" s="15"/>
+      <c r="S2" s="15"/>
+      <c r="T2" s="10"/>
+      <c r="U2" s="10"/>
+      <c r="V2" s="10"/>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A3" s="22" t="s">
+      <c r="A3" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="22"/>
-      <c r="C3" s="22"/>
-      <c r="D3" s="22"/>
-      <c r="E3" s="14" t="s">
+      <c r="B3" s="25"/>
+      <c r="C3" s="25"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="14"/>
-      <c r="G3" s="14"/>
-      <c r="H3" s="14"/>
-      <c r="I3" s="14" t="s">
+      <c r="F3" s="16"/>
+      <c r="G3" s="16"/>
+      <c r="H3" s="16"/>
+      <c r="I3" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="J3" s="14"/>
-      <c r="K3" s="14"/>
-      <c r="L3" s="14"/>
-      <c r="M3" s="14" t="s">
+      <c r="J3" s="16"/>
+      <c r="K3" s="16"/>
+      <c r="L3" s="16"/>
+      <c r="M3" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="N3" s="14"/>
-      <c r="O3" s="14"/>
-      <c r="P3" s="14"/>
-      <c r="Q3" s="14" t="s">
+      <c r="N3" s="16"/>
+      <c r="O3" s="16"/>
+      <c r="P3" s="16"/>
+      <c r="Q3" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="R3" s="14"/>
-      <c r="S3" s="14"/>
-      <c r="T3" s="14"/>
-      <c r="U3" s="10" t="s">
+      <c r="R3" s="16"/>
+      <c r="S3" s="16"/>
+      <c r="T3" s="16"/>
+      <c r="U3" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="V3" s="10"/>
-      <c r="W3" s="10"/>
-      <c r="X3" s="10"/>
+      <c r="V3" s="13"/>
+      <c r="W3" s="13"/>
+      <c r="X3" s="13"/>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="11"/>
-      <c r="C4" s="11"/>
+      <c r="B4" s="14"/>
+      <c r="C4" s="14"/>
       <c r="D4" s="3"/>
-      <c r="E4" s="9" t="s">
+      <c r="E4" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="12"/>
       <c r="H4" s="3"/>
-      <c r="I4" s="15" t="s">
+      <c r="I4" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="J4" s="15"/>
-      <c r="K4" s="15"/>
+      <c r="J4" s="18"/>
+      <c r="K4" s="18"/>
       <c r="L4" s="3"/>
-      <c r="M4" s="9" t="s">
+      <c r="M4" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="N4" s="9"/>
-      <c r="O4" s="9"/>
+      <c r="N4" s="12"/>
+      <c r="O4" s="12"/>
       <c r="P4" s="3"/>
-      <c r="Q4" s="9" t="s">
+      <c r="Q4" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="R4" s="9"/>
-      <c r="S4" s="9"/>
+      <c r="R4" s="12"/>
+      <c r="S4" s="12"/>
       <c r="T4" s="3"/>
-      <c r="U4" s="9" t="s">
+      <c r="U4" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="V4" s="9"/>
-      <c r="W4" s="9"/>
+      <c r="V4" s="12"/>
+      <c r="W4" s="12"/>
       <c r="X4" s="3"/>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A5" s="11" t="s">
+      <c r="A5" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="11"/>
-      <c r="C5" s="11"/>
+      <c r="B5" s="14"/>
+      <c r="C5" s="14"/>
       <c r="D5" s="3"/>
-      <c r="E5" s="11" t="s">
+      <c r="E5" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="F5" s="11"/>
-      <c r="G5" s="11"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="14"/>
       <c r="H5" s="3"/>
-      <c r="I5" s="11" t="s">
+      <c r="I5" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="J5" s="11"/>
-      <c r="K5" s="11"/>
+      <c r="J5" s="14"/>
+      <c r="K5" s="14"/>
       <c r="L5" s="3"/>
-      <c r="M5" s="11" t="s">
+      <c r="M5" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="N5" s="11"/>
-      <c r="O5" s="11"/>
+      <c r="N5" s="14"/>
+      <c r="O5" s="14"/>
       <c r="P5" s="3"/>
-      <c r="Q5" s="8" t="s">
+      <c r="Q5" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="R5" s="8"/>
-      <c r="S5" s="8"/>
+      <c r="R5" s="11"/>
+      <c r="S5" s="11"/>
       <c r="T5" s="3"/>
-      <c r="U5" s="11" t="s">
+      <c r="U5" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="V5" s="11"/>
-      <c r="W5" s="11"/>
+      <c r="V5" s="14"/>
+      <c r="W5" s="14"/>
       <c r="X5" s="3"/>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A6" s="11" t="s">
+      <c r="A6" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="B6" s="11"/>
-      <c r="C6" s="11"/>
+      <c r="B6" s="14"/>
+      <c r="C6" s="14"/>
       <c r="D6" s="3"/>
-      <c r="E6" s="11" t="s">
+      <c r="E6" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="F6" s="11"/>
-      <c r="G6" s="11"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
       <c r="H6" s="3"/>
-      <c r="I6" s="11" t="s">
+      <c r="I6" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="J6" s="11"/>
-      <c r="K6" s="11"/>
+      <c r="J6" s="14"/>
+      <c r="K6" s="14"/>
       <c r="L6" s="3"/>
-      <c r="M6" s="11" t="s">
+      <c r="M6" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="N6" s="11"/>
-      <c r="O6" s="11"/>
+      <c r="N6" s="14"/>
+      <c r="O6" s="14"/>
       <c r="P6" s="3"/>
-      <c r="Q6" s="6" t="s">
+      <c r="Q6" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="R6" s="6"/>
-      <c r="S6" s="6"/>
+      <c r="R6" s="9"/>
+      <c r="S6" s="9"/>
       <c r="T6" s="3"/>
-      <c r="U6" s="9" t="s">
+      <c r="U6" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="V6" s="9"/>
-      <c r="W6" s="9"/>
+      <c r="V6" s="12"/>
+      <c r="W6" s="12"/>
       <c r="X6" s="3"/>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A7" s="11" t="s">
+      <c r="A7" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="11"/>
-      <c r="C7" s="11"/>
+      <c r="B7" s="14"/>
+      <c r="C7" s="14"/>
       <c r="D7" s="3"/>
-      <c r="E7" s="11" t="s">
+      <c r="E7" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="F7" s="11"/>
-      <c r="G7" s="11"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="14"/>
       <c r="H7" s="3"/>
-      <c r="I7" s="11" t="s">
+      <c r="I7" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="J7" s="11"/>
-      <c r="K7" s="11"/>
+      <c r="J7" s="14"/>
+      <c r="K7" s="14"/>
       <c r="L7" s="3"/>
-      <c r="M7" s="11" t="s">
+      <c r="M7" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="N7" s="11"/>
-      <c r="O7" s="11"/>
+      <c r="N7" s="14"/>
+      <c r="O7" s="14"/>
       <c r="P7" s="3"/>
-      <c r="Q7" s="6" t="s">
+      <c r="Q7" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="R7" s="6"/>
-      <c r="S7" s="6"/>
+      <c r="R7" s="9"/>
+      <c r="S7" s="9"/>
       <c r="T7" s="3"/>
-      <c r="U7" s="11" t="s">
+      <c r="U7" s="14" t="s">
         <v>76</v>
       </c>
-      <c r="V7" s="11"/>
-      <c r="W7" s="11"/>
+      <c r="V7" s="14"/>
+      <c r="W7" s="14"/>
       <c r="X7" s="3"/>
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A8" s="11" t="s">
+      <c r="A8" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="11"/>
-      <c r="C8" s="11"/>
+      <c r="B8" s="14"/>
+      <c r="C8" s="14"/>
       <c r="D8" s="3"/>
-      <c r="E8" s="9" t="s">
+      <c r="E8" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="12"/>
       <c r="H8" s="3"/>
-      <c r="I8" s="11" t="s">
+      <c r="I8" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="J8" s="11"/>
-      <c r="K8" s="11"/>
+      <c r="J8" s="14"/>
+      <c r="K8" s="14"/>
       <c r="L8" s="3"/>
-      <c r="M8" s="11" t="s">
+      <c r="M8" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="N8" s="11"/>
-      <c r="O8" s="11"/>
+      <c r="N8" s="14"/>
+      <c r="O8" s="14"/>
       <c r="P8" s="3"/>
-      <c r="Q8" s="6" t="s">
+      <c r="Q8" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="R8" s="6"/>
-      <c r="S8" s="6"/>
+      <c r="R8" s="9"/>
+      <c r="S8" s="9"/>
       <c r="T8" s="3"/>
-      <c r="U8" s="11" t="s">
+      <c r="U8" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="V8" s="11"/>
-      <c r="W8" s="11"/>
+      <c r="V8" s="14"/>
+      <c r="W8" s="14"/>
       <c r="X8" s="3"/>
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A9" s="11" t="s">
+      <c r="A9" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="11"/>
-      <c r="C9" s="11"/>
+      <c r="B9" s="14"/>
+      <c r="C9" s="14"/>
       <c r="D9" s="3"/>
-      <c r="E9" s="8" t="s">
+      <c r="E9" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
       <c r="H9" s="3"/>
-      <c r="I9" s="11" t="s">
+      <c r="I9" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="J9" s="11"/>
-      <c r="K9" s="11"/>
+      <c r="J9" s="14"/>
+      <c r="K9" s="14"/>
       <c r="L9" s="3"/>
-      <c r="M9" s="11" t="s">
+      <c r="M9" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="N9" s="11"/>
-      <c r="O9" s="11"/>
+      <c r="N9" s="14"/>
+      <c r="O9" s="14"/>
       <c r="P9" s="3"/>
-      <c r="Q9" s="11" t="s">
+      <c r="Q9" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="R9" s="11"/>
-      <c r="S9" s="11"/>
+      <c r="R9" s="14"/>
+      <c r="S9" s="14"/>
       <c r="T9" s="3"/>
-      <c r="U9" s="9" t="s">
+      <c r="U9" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="V9" s="9"/>
-      <c r="W9" s="9"/>
+      <c r="V9" s="12"/>
+      <c r="W9" s="12"/>
       <c r="X9" s="3"/>
     </row>
     <row r="10" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="11" t="s">
+      <c r="A10" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="11"/>
-      <c r="C10" s="11"/>
+      <c r="B10" s="14"/>
+      <c r="C10" s="14"/>
       <c r="D10" s="3"/>
-      <c r="E10" s="6" t="s">
+      <c r="E10" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
       <c r="H10" s="3"/>
-      <c r="I10" s="11" t="s">
+      <c r="I10" s="14" t="s">
         <v>68</v>
       </c>
-      <c r="J10" s="11"/>
-      <c r="K10" s="11"/>
+      <c r="J10" s="14"/>
+      <c r="K10" s="14"/>
       <c r="L10" s="3"/>
-      <c r="M10" s="11" t="s">
+      <c r="M10" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="N10" s="11"/>
-      <c r="O10" s="11"/>
+      <c r="N10" s="14"/>
+      <c r="O10" s="14"/>
       <c r="P10" s="3"/>
-      <c r="Q10" s="9" t="s">
+      <c r="Q10" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="R10" s="9"/>
-      <c r="S10" s="9"/>
+      <c r="R10" s="12"/>
+      <c r="S10" s="12"/>
       <c r="T10" s="3"/>
-      <c r="U10" s="11" t="s">
+      <c r="U10" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="V10" s="11"/>
-      <c r="W10" s="11"/>
+      <c r="V10" s="14"/>
+      <c r="W10" s="14"/>
       <c r="X10" s="3"/>
     </row>
     <row r="11" spans="1:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="11" t="s">
+      <c r="A11" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="11"/>
-      <c r="C11" s="11"/>
+      <c r="B11" s="14"/>
+      <c r="C11" s="14"/>
       <c r="D11" s="3"/>
-      <c r="E11" s="6" t="s">
+      <c r="E11" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
       <c r="H11" s="3"/>
-      <c r="I11" s="11" t="s">
+      <c r="I11" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="J11" s="11"/>
-      <c r="K11" s="11"/>
+      <c r="J11" s="14"/>
+      <c r="K11" s="14"/>
       <c r="L11" s="3"/>
-      <c r="M11" s="11" t="s">
+      <c r="M11" s="14" t="s">
         <v>82</v>
       </c>
-      <c r="N11" s="11"/>
-      <c r="O11" s="11"/>
+      <c r="N11" s="14"/>
+      <c r="O11" s="14"/>
       <c r="P11" s="3"/>
-      <c r="Q11" s="8" t="s">
+      <c r="Q11" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="R11" s="8"/>
-      <c r="S11" s="8"/>
+      <c r="R11" s="11"/>
+      <c r="S11" s="11"/>
       <c r="T11" s="3"/>
-      <c r="U11" s="9" t="s">
+      <c r="U11" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="V11" s="9"/>
-      <c r="W11" s="9"/>
+      <c r="V11" s="12"/>
+      <c r="W11" s="12"/>
       <c r="X11" s="3"/>
     </row>
     <row r="12" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A12" s="11" t="s">
+      <c r="A12" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="11"/>
-      <c r="C12" s="11"/>
+      <c r="B12" s="14"/>
+      <c r="C12" s="14"/>
       <c r="D12" s="3"/>
-      <c r="E12" s="6" t="s">
+      <c r="E12" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="F12" s="6"/>
-      <c r="G12" s="6"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
       <c r="H12" s="3"/>
-      <c r="I12" s="11" t="s">
+      <c r="I12" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="J12" s="11"/>
-      <c r="K12" s="11"/>
+      <c r="J12" s="14"/>
+      <c r="K12" s="14"/>
       <c r="L12" s="3"/>
-      <c r="M12" s="11" t="s">
+      <c r="M12" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="N12" s="11"/>
-      <c r="O12" s="11"/>
+      <c r="N12" s="14"/>
+      <c r="O12" s="14"/>
       <c r="P12" s="3"/>
-      <c r="Q12" s="11" t="s">
+      <c r="Q12" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="R12" s="11"/>
-      <c r="S12" s="11"/>
+      <c r="R12" s="14"/>
+      <c r="S12" s="14"/>
       <c r="T12" s="3"/>
-      <c r="U12" s="11" t="s">
+      <c r="U12" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="V12" s="11"/>
-      <c r="W12" s="11"/>
+      <c r="V12" s="14"/>
+      <c r="W12" s="14"/>
       <c r="X12" s="3"/>
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A13" s="11" t="s">
+      <c r="A13" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="B13" s="11"/>
-      <c r="C13" s="11"/>
+      <c r="B13" s="14"/>
+      <c r="C13" s="14"/>
       <c r="D13" s="3"/>
-      <c r="E13" s="8" t="s">
+      <c r="E13" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="F13" s="8"/>
-      <c r="G13" s="8"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="11"/>
       <c r="H13" s="3"/>
-      <c r="I13" s="11" t="s">
+      <c r="I13" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="J13" s="11"/>
-      <c r="K13" s="11"/>
+      <c r="J13" s="14"/>
+      <c r="K13" s="14"/>
       <c r="L13" s="3"/>
-      <c r="M13" s="11" t="s">
+      <c r="M13" s="14" t="s">
         <v>91</v>
       </c>
-      <c r="N13" s="11"/>
-      <c r="O13" s="11"/>
+      <c r="N13" s="14"/>
+      <c r="O13" s="14"/>
       <c r="P13" s="3"/>
-      <c r="Q13" s="11" t="s">
+      <c r="Q13" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="R13" s="11"/>
-      <c r="S13" s="11"/>
+      <c r="R13" s="14"/>
+      <c r="S13" s="14"/>
       <c r="T13" s="3"/>
-      <c r="U13" s="9" t="s">
+      <c r="U13" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="V13" s="9"/>
-      <c r="W13" s="9"/>
+      <c r="V13" s="12"/>
+      <c r="W13" s="12"/>
       <c r="X13" s="3"/>
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A14" s="11" t="s">
+      <c r="A14" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="B14" s="11"/>
-      <c r="C14" s="11"/>
+      <c r="B14" s="14"/>
+      <c r="C14" s="14"/>
       <c r="D14" s="3"/>
-      <c r="E14" s="6" t="s">
+      <c r="E14" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="F14" s="6"/>
-      <c r="G14" s="6"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
       <c r="H14" s="3"/>
-      <c r="I14" s="11" t="s">
+      <c r="I14" s="14" t="s">
         <v>74</v>
       </c>
-      <c r="J14" s="11"/>
-      <c r="K14" s="11"/>
+      <c r="J14" s="14"/>
+      <c r="K14" s="14"/>
       <c r="L14" s="3"/>
-      <c r="M14" s="11" t="s">
+      <c r="M14" s="14" t="s">
         <v>108</v>
       </c>
-      <c r="N14" s="11"/>
-      <c r="O14" s="11"/>
+      <c r="N14" s="14"/>
+      <c r="O14" s="14"/>
       <c r="P14" s="3"/>
-      <c r="Q14" s="6"/>
-      <c r="R14" s="6"/>
-      <c r="S14" s="6"/>
+      <c r="Q14" s="9"/>
+      <c r="R14" s="9"/>
+      <c r="S14" s="9"/>
       <c r="T14" s="3"/>
-      <c r="U14" s="11" t="s">
+      <c r="U14" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="V14" s="11"/>
-      <c r="W14" s="11"/>
+      <c r="V14" s="14"/>
+      <c r="W14" s="14"/>
       <c r="X14" s="3"/>
     </row>
     <row r="15" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A15" s="11" t="s">
+      <c r="A15" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="B15" s="11"/>
-      <c r="C15" s="11"/>
+      <c r="B15" s="14"/>
+      <c r="C15" s="14"/>
       <c r="D15" s="3"/>
-      <c r="E15" s="6" t="s">
+      <c r="E15" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="F15" s="6"/>
-      <c r="G15" s="6"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="9"/>
       <c r="H15" s="3"/>
-      <c r="I15" s="11" t="s">
+      <c r="I15" s="14" t="s">
         <v>84</v>
       </c>
-      <c r="J15" s="11"/>
-      <c r="K15" s="11"/>
+      <c r="J15" s="14"/>
+      <c r="K15" s="14"/>
       <c r="L15" s="3"/>
-      <c r="M15" s="6" t="s">
+      <c r="M15" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="N15" s="9"/>
+      <c r="O15" s="9"/>
+      <c r="P15" s="3"/>
+      <c r="Q15" s="9"/>
+      <c r="R15" s="9"/>
+      <c r="S15" s="9"/>
+      <c r="T15" s="3"/>
+      <c r="U15" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="V15" s="12"/>
+      <c r="W15" s="12"/>
+      <c r="X15" s="3"/>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A16" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="B16" s="14"/>
+      <c r="C16" s="14"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="F16" s="9"/>
+      <c r="G16" s="9"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="J16" s="14"/>
+      <c r="K16" s="14"/>
+      <c r="L16" s="3"/>
+      <c r="M16" s="14" t="s">
+        <v>156</v>
+      </c>
+      <c r="N16" s="14"/>
+      <c r="O16" s="14"/>
+      <c r="P16" s="3"/>
+      <c r="Q16" s="14"/>
+      <c r="R16" s="14"/>
+      <c r="S16" s="14"/>
+      <c r="T16" s="3"/>
+      <c r="U16" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="V16" s="14"/>
+      <c r="W16" s="14"/>
+      <c r="X16" s="3"/>
+    </row>
+    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A17" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="B17" s="14"/>
+      <c r="C17" s="14"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="F17" s="11"/>
+      <c r="G17" s="11"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="J17" s="14"/>
+      <c r="K17" s="14"/>
+      <c r="L17" s="3"/>
+      <c r="M17" s="9"/>
+      <c r="N17" s="9"/>
+      <c r="O17" s="9"/>
+      <c r="P17" s="3"/>
+      <c r="Q17" s="9"/>
+      <c r="R17" s="9"/>
+      <c r="S17" s="9"/>
+      <c r="T17" s="3"/>
+      <c r="U17" s="14"/>
+      <c r="V17" s="14"/>
+      <c r="W17" s="14"/>
+      <c r="X17" s="3"/>
+    </row>
+    <row r="18" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A18" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="B18" s="14"/>
+      <c r="C18" s="14"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="F18" s="9"/>
+      <c r="G18" s="9"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="J18" s="14"/>
+      <c r="K18" s="14"/>
+      <c r="L18" s="3"/>
+      <c r="M18" s="9"/>
+      <c r="N18" s="9"/>
+      <c r="O18" s="9"/>
+      <c r="P18" s="3"/>
+      <c r="Q18" s="9"/>
+      <c r="R18" s="9"/>
+      <c r="S18" s="9"/>
+      <c r="T18" s="3"/>
+      <c r="U18" s="14"/>
+      <c r="V18" s="14"/>
+      <c r="W18" s="14"/>
+      <c r="X18" s="3"/>
+    </row>
+    <row r="19" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A19" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="B19" s="14"/>
+      <c r="C19" s="14"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="F19" s="9"/>
+      <c r="G19" s="9"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="J19" s="14"/>
+      <c r="K19" s="14"/>
+      <c r="L19" s="3"/>
+      <c r="M19" s="9"/>
+      <c r="N19" s="9"/>
+      <c r="O19" s="9"/>
+      <c r="P19" s="3"/>
+      <c r="Q19" s="9"/>
+      <c r="R19" s="9"/>
+      <c r="S19" s="9"/>
+      <c r="T19" s="3"/>
+      <c r="U19" s="14"/>
+      <c r="V19" s="14"/>
+      <c r="W19" s="14"/>
+      <c r="X19" s="3"/>
+    </row>
+    <row r="20" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A20" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="B20" s="14"/>
+      <c r="C20" s="14"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F20" s="9"/>
+      <c r="G20" s="9"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="J20" s="14"/>
+      <c r="K20" s="14"/>
+      <c r="L20" s="3"/>
+      <c r="M20" s="14"/>
+      <c r="N20" s="14"/>
+      <c r="O20" s="14"/>
+      <c r="P20" s="3"/>
+      <c r="Q20" s="14"/>
+      <c r="R20" s="14"/>
+      <c r="S20" s="14"/>
+      <c r="T20" s="3"/>
+      <c r="U20" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="V20" s="13"/>
+      <c r="W20" s="13"/>
+      <c r="X20" s="13"/>
+    </row>
+    <row r="21" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A21" s="14" t="s">
+        <v>159</v>
+      </c>
+      <c r="B21" s="14"/>
+      <c r="C21" s="14"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="F21" s="11"/>
+      <c r="G21" s="11"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="17" t="s">
+        <v>93</v>
+      </c>
+      <c r="J21" s="17"/>
+      <c r="K21" s="17"/>
+      <c r="L21" s="3"/>
+      <c r="M21" s="9"/>
+      <c r="N21" s="9"/>
+      <c r="O21" s="9"/>
+      <c r="P21" s="3"/>
+      <c r="Q21" s="9"/>
+      <c r="R21" s="9"/>
+      <c r="S21" s="9"/>
+      <c r="T21" s="3"/>
+      <c r="U21" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="V21" s="12"/>
+      <c r="W21" s="12"/>
+      <c r="X21" s="3"/>
+    </row>
+    <row r="22" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A22" s="14" t="s">
+        <v>153</v>
+      </c>
+      <c r="B22" s="14"/>
+      <c r="C22" s="14"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="F22" s="9"/>
+      <c r="G22" s="9"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="J22" s="17"/>
+      <c r="K22" s="17"/>
+      <c r="L22" s="3"/>
+      <c r="M22" s="9"/>
+      <c r="N22" s="9"/>
+      <c r="O22" s="9"/>
+      <c r="P22" s="3"/>
+      <c r="Q22" s="9"/>
+      <c r="R22" s="9"/>
+      <c r="S22" s="9"/>
+      <c r="T22" s="3"/>
+      <c r="U22" s="14"/>
+      <c r="V22" s="14"/>
+      <c r="W22" s="14"/>
+      <c r="X22" s="3"/>
+    </row>
+    <row r="23" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A23" s="14" t="s">
+        <v>154</v>
+      </c>
+      <c r="B23" s="14"/>
+      <c r="C23" s="14"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="F23" s="9"/>
+      <c r="G23" s="9"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="17" t="s">
+        <v>145</v>
+      </c>
+      <c r="J23" s="17"/>
+      <c r="K23" s="17"/>
+      <c r="L23" s="3"/>
+      <c r="M23" s="9"/>
+      <c r="N23" s="9"/>
+      <c r="O23" s="9"/>
+      <c r="P23" s="3"/>
+      <c r="Q23" s="9"/>
+      <c r="R23" s="9"/>
+      <c r="S23" s="9"/>
+      <c r="T23" s="3"/>
+      <c r="U23" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="V23" s="12"/>
+      <c r="W23" s="12"/>
+      <c r="X23" s="3"/>
+    </row>
+    <row r="24" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A24" s="14" t="s">
         <v>157</v>
       </c>
-      <c r="N15" s="6"/>
-      <c r="O15" s="6"/>
-      <c r="P15" s="3"/>
-      <c r="Q15" s="6"/>
-      <c r="R15" s="6"/>
-      <c r="S15" s="6"/>
-      <c r="T15" s="3"/>
-      <c r="U15" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="V15" s="9"/>
-      <c r="W15" s="9"/>
-      <c r="X15" s="3"/>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A16" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="B16" s="11"/>
-      <c r="C16" s="11"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="F16" s="6"/>
-      <c r="G16" s="6"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="11" t="s">
-        <v>85</v>
-      </c>
-      <c r="J16" s="11"/>
-      <c r="K16" s="11"/>
-      <c r="L16" s="3"/>
-      <c r="M16" s="11" t="s">
+      <c r="B24" s="14"/>
+      <c r="C24" s="14"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="F24" s="9"/>
+      <c r="G24" s="9"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="14"/>
+      <c r="J24" s="14"/>
+      <c r="K24" s="14"/>
+      <c r="L24" s="3"/>
+      <c r="M24" s="14"/>
+      <c r="N24" s="14"/>
+      <c r="O24" s="14"/>
+      <c r="P24" s="3"/>
+      <c r="Q24" s="14"/>
+      <c r="R24" s="14"/>
+      <c r="S24" s="14"/>
+      <c r="T24" s="3"/>
+      <c r="U24" s="14"/>
+      <c r="V24" s="14"/>
+      <c r="W24" s="14"/>
+      <c r="X24" s="3"/>
+    </row>
+    <row r="25" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A25" s="14" t="s">
         <v>158</v>
       </c>
-      <c r="N16" s="11"/>
-      <c r="O16" s="11"/>
-      <c r="P16" s="3"/>
-      <c r="Q16" s="11"/>
-      <c r="R16" s="11"/>
-      <c r="S16" s="11"/>
-      <c r="T16" s="3"/>
-      <c r="U16" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="V16" s="11"/>
-      <c r="W16" s="11"/>
-      <c r="X16" s="3"/>
-    </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A17" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="B17" s="11"/>
-      <c r="C17" s="11"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="F17" s="8"/>
-      <c r="G17" s="8"/>
-      <c r="H17" s="3"/>
-      <c r="I17" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="J17" s="11"/>
-      <c r="K17" s="11"/>
-      <c r="L17" s="3"/>
-      <c r="M17" s="6"/>
-      <c r="N17" s="6"/>
-      <c r="O17" s="6"/>
-      <c r="P17" s="3"/>
-      <c r="Q17" s="6"/>
-      <c r="R17" s="6"/>
-      <c r="S17" s="6"/>
-      <c r="T17" s="3"/>
-      <c r="U17" s="11"/>
-      <c r="V17" s="11"/>
-      <c r="W17" s="11"/>
-      <c r="X17" s="3"/>
-    </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A18" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="B18" s="11"/>
-      <c r="C18" s="11"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="F18" s="6"/>
-      <c r="G18" s="6"/>
-      <c r="H18" s="3"/>
-      <c r="I18" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="J18" s="11"/>
-      <c r="K18" s="11"/>
-      <c r="L18" s="3"/>
-      <c r="M18" s="6"/>
-      <c r="N18" s="6"/>
-      <c r="O18" s="6"/>
-      <c r="P18" s="3"/>
-      <c r="Q18" s="6"/>
-      <c r="R18" s="6"/>
-      <c r="S18" s="6"/>
-      <c r="T18" s="3"/>
-      <c r="U18" s="11"/>
-      <c r="V18" s="11"/>
-      <c r="W18" s="11"/>
-      <c r="X18" s="3"/>
-    </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A19" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="B19" s="11"/>
-      <c r="C19" s="11"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="F19" s="6"/>
-      <c r="G19" s="6"/>
-      <c r="H19" s="3"/>
-      <c r="I19" s="11" t="s">
-        <v>88</v>
-      </c>
-      <c r="J19" s="11"/>
-      <c r="K19" s="11"/>
-      <c r="L19" s="3"/>
-      <c r="M19" s="6"/>
-      <c r="N19" s="6"/>
-      <c r="O19" s="6"/>
-      <c r="P19" s="3"/>
-      <c r="Q19" s="6"/>
-      <c r="R19" s="6"/>
-      <c r="S19" s="6"/>
-      <c r="T19" s="3"/>
-      <c r="U19" s="11"/>
-      <c r="V19" s="11"/>
-      <c r="W19" s="11"/>
-      <c r="X19" s="3"/>
-    </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A20" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="B20" s="11"/>
-      <c r="C20" s="11"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="F20" s="6"/>
-      <c r="G20" s="6"/>
-      <c r="H20" s="3"/>
-      <c r="I20" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="J20" s="11"/>
-      <c r="K20" s="11"/>
-      <c r="L20" s="3"/>
-      <c r="M20" s="11"/>
-      <c r="N20" s="11"/>
-      <c r="O20" s="11"/>
-      <c r="P20" s="3"/>
-      <c r="Q20" s="11"/>
-      <c r="R20" s="11"/>
-      <c r="S20" s="11"/>
-      <c r="T20" s="3"/>
-      <c r="U20" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="V20" s="10"/>
-      <c r="W20" s="10"/>
-      <c r="X20" s="10"/>
-    </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A21" s="11" t="s">
-        <v>145</v>
-      </c>
-      <c r="B21" s="11"/>
-      <c r="C21" s="11"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="F21" s="8"/>
-      <c r="G21" s="8"/>
-      <c r="H21" s="3"/>
-      <c r="I21" s="12" t="s">
-        <v>93</v>
-      </c>
-      <c r="J21" s="12"/>
-      <c r="K21" s="12"/>
-      <c r="L21" s="3"/>
-      <c r="M21" s="6"/>
-      <c r="N21" s="6"/>
-      <c r="O21" s="6"/>
-      <c r="P21" s="3"/>
-      <c r="Q21" s="6"/>
-      <c r="R21" s="6"/>
-      <c r="S21" s="6"/>
-      <c r="T21" s="3"/>
-      <c r="U21" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="V21" s="9"/>
-      <c r="W21" s="9"/>
-      <c r="X21" s="3"/>
-    </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A22" s="11" t="s">
-        <v>154</v>
-      </c>
-      <c r="B22" s="11"/>
-      <c r="C22" s="11"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="F22" s="6"/>
-      <c r="G22" s="6"/>
-      <c r="H22" s="3"/>
-      <c r="I22" s="12" t="s">
-        <v>95</v>
-      </c>
-      <c r="J22" s="12"/>
-      <c r="K22" s="12"/>
-      <c r="L22" s="3"/>
-      <c r="M22" s="6"/>
-      <c r="N22" s="6"/>
-      <c r="O22" s="6"/>
-      <c r="P22" s="3"/>
-      <c r="Q22" s="6"/>
-      <c r="R22" s="6"/>
-      <c r="S22" s="6"/>
-      <c r="T22" s="3"/>
-      <c r="U22" s="11"/>
-      <c r="V22" s="11"/>
-      <c r="W22" s="11"/>
-      <c r="X22" s="3"/>
-    </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A23" s="11" t="s">
-        <v>155</v>
-      </c>
-      <c r="B23" s="11"/>
-      <c r="C23" s="11"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="F23" s="6"/>
-      <c r="G23" s="6"/>
-      <c r="H23" s="3"/>
-      <c r="I23" s="12" t="s">
-        <v>146</v>
-      </c>
-      <c r="J23" s="12"/>
-      <c r="K23" s="12"/>
-      <c r="L23" s="3"/>
-      <c r="M23" s="6"/>
-      <c r="N23" s="6"/>
-      <c r="O23" s="6"/>
-      <c r="P23" s="3"/>
-      <c r="Q23" s="6"/>
-      <c r="R23" s="6"/>
-      <c r="S23" s="6"/>
-      <c r="T23" s="3"/>
-      <c r="U23" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="V23" s="9"/>
-      <c r="W23" s="9"/>
-      <c r="X23" s="3"/>
-    </row>
-    <row r="24" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A24" s="11" t="s">
-        <v>156</v>
-      </c>
-      <c r="B24" s="11"/>
-      <c r="C24" s="11"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="F24" s="6"/>
-      <c r="G24" s="6"/>
-      <c r="H24" s="3"/>
-      <c r="I24" s="11"/>
-      <c r="J24" s="11"/>
-      <c r="K24" s="11"/>
-      <c r="L24" s="3"/>
-      <c r="M24" s="11"/>
-      <c r="N24" s="11"/>
-      <c r="O24" s="11"/>
-      <c r="P24" s="3"/>
-      <c r="Q24" s="11"/>
-      <c r="R24" s="11"/>
-      <c r="S24" s="11"/>
-      <c r="T24" s="3"/>
-      <c r="U24" s="11"/>
-      <c r="V24" s="11"/>
-      <c r="W24" s="11"/>
-      <c r="X24" s="3"/>
-    </row>
-    <row r="25" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A25" s="11"/>
-      <c r="B25" s="11"/>
-      <c r="C25" s="11"/>
+      <c r="B25" s="14"/>
+      <c r="C25" s="14"/>
       <c r="D25" s="3"/>
-      <c r="E25" s="8" t="s">
-        <v>151</v>
-      </c>
-      <c r="F25" s="8"/>
-      <c r="G25" s="8"/>
+      <c r="E25" s="11" t="s">
+        <v>150</v>
+      </c>
+      <c r="F25" s="11"/>
+      <c r="G25" s="11"/>
       <c r="H25" s="3"/>
-      <c r="I25" s="6" t="s">
+      <c r="I25" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="J25" s="6"/>
-      <c r="K25" s="6"/>
+      <c r="J25" s="9"/>
+      <c r="K25" s="9"/>
       <c r="L25" s="3"/>
-      <c r="M25" s="6"/>
-      <c r="N25" s="6"/>
-      <c r="O25" s="6"/>
+      <c r="M25" s="9"/>
+      <c r="N25" s="9"/>
+      <c r="O25" s="9"/>
       <c r="P25" s="3"/>
-      <c r="Q25" s="6"/>
-      <c r="R25" s="6"/>
-      <c r="S25" s="6"/>
+      <c r="Q25" s="9"/>
+      <c r="R25" s="9"/>
+      <c r="S25" s="9"/>
       <c r="T25" s="3"/>
-      <c r="U25" s="9" t="s">
+      <c r="U25" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="V25" s="9"/>
-      <c r="W25" s="9"/>
+      <c r="V25" s="12"/>
+      <c r="W25" s="12"/>
       <c r="X25" s="3"/>
     </row>
     <row r="26" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A26" s="11"/>
-      <c r="B26" s="11"/>
-      <c r="C26" s="11"/>
+      <c r="A26" s="14"/>
+      <c r="B26" s="14"/>
+      <c r="C26" s="14"/>
       <c r="D26" s="3"/>
-      <c r="E26" s="6" t="s">
+      <c r="E26" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="F26" s="6"/>
-      <c r="G26" s="6"/>
+      <c r="F26" s="9"/>
+      <c r="G26" s="9"/>
       <c r="H26" s="3"/>
-      <c r="M26" s="6"/>
-      <c r="N26" s="6"/>
-      <c r="O26" s="6"/>
+      <c r="M26" s="9"/>
+      <c r="N26" s="9"/>
+      <c r="O26" s="9"/>
       <c r="P26" s="3"/>
-      <c r="Q26" s="6"/>
-      <c r="R26" s="6"/>
-      <c r="S26" s="6"/>
+      <c r="Q26" s="9"/>
+      <c r="R26" s="9"/>
+      <c r="S26" s="9"/>
       <c r="T26" s="3"/>
-      <c r="U26" s="11"/>
-      <c r="V26" s="11"/>
-      <c r="W26" s="11"/>
+      <c r="U26" s="14"/>
+      <c r="V26" s="14"/>
+      <c r="W26" s="14"/>
       <c r="X26" s="3"/>
     </row>
     <row r="27" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A27" s="11"/>
-      <c r="B27" s="11"/>
-      <c r="C27" s="11"/>
+      <c r="A27" s="14"/>
+      <c r="B27" s="14"/>
+      <c r="C27" s="14"/>
       <c r="D27" s="3"/>
-      <c r="E27" s="6" t="s">
+      <c r="E27" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="F27" s="6"/>
-      <c r="G27" s="6"/>
+      <c r="F27" s="9"/>
+      <c r="G27" s="9"/>
       <c r="H27" s="3"/>
-      <c r="M27" s="6"/>
-      <c r="N27" s="6"/>
-      <c r="O27" s="6"/>
+      <c r="M27" s="9"/>
+      <c r="N27" s="9"/>
+      <c r="O27" s="9"/>
       <c r="P27" s="3"/>
-      <c r="Q27" s="6"/>
-      <c r="R27" s="6"/>
-      <c r="S27" s="6"/>
+      <c r="Q27" s="9"/>
+      <c r="R27" s="9"/>
+      <c r="S27" s="9"/>
       <c r="T27" s="3"/>
-      <c r="U27" s="9" t="s">
+      <c r="U27" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="V27" s="9"/>
-      <c r="W27" s="9"/>
+      <c r="V27" s="12"/>
+      <c r="W27" s="12"/>
       <c r="X27" s="3"/>
     </row>
     <row r="28" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A28" s="11"/>
-      <c r="B28" s="11"/>
-      <c r="C28" s="11"/>
+      <c r="A28" s="14"/>
+      <c r="B28" s="14"/>
+      <c r="C28" s="14"/>
       <c r="D28" s="3"/>
-      <c r="E28" s="6" t="s">
+      <c r="E28" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="F28" s="6"/>
-      <c r="G28" s="6"/>
+      <c r="F28" s="9"/>
+      <c r="G28" s="9"/>
       <c r="H28" s="3"/>
-      <c r="M28" s="11"/>
-      <c r="N28" s="11"/>
-      <c r="O28" s="11"/>
+      <c r="M28" s="14"/>
+      <c r="N28" s="14"/>
+      <c r="O28" s="14"/>
       <c r="P28" s="3"/>
-      <c r="Q28" s="11"/>
-      <c r="R28" s="11"/>
-      <c r="S28" s="11"/>
+      <c r="Q28" s="14"/>
+      <c r="R28" s="14"/>
+      <c r="S28" s="14"/>
       <c r="T28" s="3"/>
-      <c r="U28" s="11"/>
-      <c r="V28" s="11"/>
-      <c r="W28" s="11"/>
+      <c r="U28" s="14"/>
+      <c r="V28" s="14"/>
+      <c r="W28" s="14"/>
       <c r="X28" s="3"/>
     </row>
     <row r="29" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A29" s="11"/>
-      <c r="B29" s="11"/>
-      <c r="C29" s="11"/>
+      <c r="A29" s="14"/>
+      <c r="B29" s="14"/>
+      <c r="C29" s="14"/>
       <c r="D29" s="3"/>
-      <c r="E29" s="8" t="s">
+      <c r="E29" s="11" t="s">
         <v>97</v>
       </c>
-      <c r="F29" s="8"/>
-      <c r="G29" s="8"/>
+      <c r="F29" s="11"/>
+      <c r="G29" s="11"/>
       <c r="H29" s="3"/>
-      <c r="M29" s="11"/>
-      <c r="N29" s="11"/>
-      <c r="O29" s="11"/>
+      <c r="M29" s="14"/>
+      <c r="N29" s="14"/>
+      <c r="O29" s="14"/>
       <c r="P29" s="3"/>
-      <c r="Q29" s="11"/>
-      <c r="R29" s="11"/>
-      <c r="S29" s="11"/>
+      <c r="Q29" s="14"/>
+      <c r="R29" s="14"/>
+      <c r="S29" s="14"/>
       <c r="T29" s="3"/>
-      <c r="U29" s="11"/>
-      <c r="V29" s="11"/>
-      <c r="W29" s="11"/>
+      <c r="U29" s="14"/>
+      <c r="V29" s="14"/>
+      <c r="W29" s="14"/>
       <c r="X29" s="3"/>
     </row>
     <row r="30" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A30" s="11"/>
-      <c r="B30" s="11"/>
-      <c r="C30" s="11"/>
+      <c r="A30" s="14"/>
+      <c r="B30" s="14"/>
+      <c r="C30" s="14"/>
       <c r="D30" s="3"/>
-      <c r="E30" s="6" t="s">
+      <c r="E30" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="F30" s="6"/>
-      <c r="G30" s="6"/>
+      <c r="F30" s="9"/>
+      <c r="G30" s="9"/>
       <c r="H30" s="3"/>
-      <c r="M30" s="6"/>
-      <c r="N30" s="6"/>
-      <c r="O30" s="6"/>
+      <c r="M30" s="9"/>
+      <c r="N30" s="9"/>
+      <c r="O30" s="9"/>
       <c r="P30" s="3"/>
-      <c r="Q30" s="6"/>
-      <c r="R30" s="6"/>
-      <c r="S30" s="6"/>
+      <c r="Q30" s="9"/>
+      <c r="R30" s="9"/>
+      <c r="S30" s="9"/>
       <c r="T30" s="3"/>
-      <c r="U30" s="11"/>
-      <c r="V30" s="11"/>
-      <c r="W30" s="11"/>
+      <c r="U30" s="14"/>
+      <c r="V30" s="14"/>
+      <c r="W30" s="14"/>
       <c r="X30" s="3"/>
     </row>
     <row r="31" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A31" s="11"/>
-      <c r="B31" s="11"/>
-      <c r="C31" s="11"/>
+      <c r="A31" s="14"/>
+      <c r="B31" s="14"/>
+      <c r="C31" s="14"/>
       <c r="D31" s="3"/>
-      <c r="E31" s="6" t="s">
+      <c r="E31" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="F31" s="6"/>
-      <c r="G31" s="6"/>
+      <c r="F31" s="9"/>
+      <c r="G31" s="9"/>
       <c r="H31" s="3"/>
-      <c r="M31" s="6"/>
-      <c r="N31" s="6"/>
-      <c r="O31" s="6"/>
+      <c r="M31" s="9"/>
+      <c r="N31" s="9"/>
+      <c r="O31" s="9"/>
       <c r="P31" s="3"/>
-      <c r="Q31" s="6"/>
-      <c r="R31" s="6"/>
-      <c r="S31" s="6"/>
+      <c r="Q31" s="9"/>
+      <c r="R31" s="9"/>
+      <c r="S31" s="9"/>
       <c r="T31" s="3"/>
-      <c r="U31" s="11"/>
-      <c r="V31" s="11"/>
-      <c r="W31" s="11"/>
+      <c r="U31" s="14"/>
+      <c r="V31" s="14"/>
+      <c r="W31" s="14"/>
       <c r="X31" s="3"/>
     </row>
     <row r="32" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A32" s="11"/>
-      <c r="B32" s="11"/>
-      <c r="C32" s="11"/>
+      <c r="A32" s="14"/>
+      <c r="B32" s="14"/>
+      <c r="C32" s="14"/>
       <c r="D32" s="3"/>
-      <c r="E32" s="6" t="s">
+      <c r="E32" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="F32" s="6"/>
-      <c r="G32" s="6"/>
+      <c r="F32" s="9"/>
+      <c r="G32" s="9"/>
       <c r="H32" s="3"/>
-      <c r="M32" s="6"/>
-      <c r="N32" s="6"/>
-      <c r="O32" s="6"/>
+      <c r="M32" s="9"/>
+      <c r="N32" s="9"/>
+      <c r="O32" s="9"/>
       <c r="P32" s="3"/>
-      <c r="Q32" s="6"/>
-      <c r="R32" s="6"/>
-      <c r="S32" s="6"/>
+      <c r="Q32" s="9"/>
+      <c r="R32" s="9"/>
+      <c r="S32" s="9"/>
       <c r="T32" s="3"/>
-      <c r="U32" s="11"/>
-      <c r="V32" s="11"/>
-      <c r="W32" s="11"/>
+      <c r="U32" s="14"/>
+      <c r="V32" s="14"/>
+      <c r="W32" s="14"/>
       <c r="X32" s="3"/>
     </row>
     <row r="33" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A33" s="11"/>
-      <c r="B33" s="11"/>
-      <c r="C33" s="11"/>
+      <c r="A33" s="14"/>
+      <c r="B33" s="14"/>
+      <c r="C33" s="14"/>
       <c r="D33" s="3"/>
-      <c r="E33" s="8" t="s">
+      <c r="E33" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="F33" s="8"/>
-      <c r="G33" s="8"/>
+      <c r="F33" s="11"/>
+      <c r="G33" s="11"/>
       <c r="H33" s="3"/>
-      <c r="M33" s="11"/>
-      <c r="N33" s="11"/>
-      <c r="O33" s="11"/>
+      <c r="M33" s="14"/>
+      <c r="N33" s="14"/>
+      <c r="O33" s="14"/>
       <c r="P33" s="3"/>
-      <c r="Q33" s="11"/>
-      <c r="R33" s="11"/>
-      <c r="S33" s="11"/>
+      <c r="Q33" s="14"/>
+      <c r="R33" s="14"/>
+      <c r="S33" s="14"/>
       <c r="T33" s="3"/>
-      <c r="U33" s="11"/>
-      <c r="V33" s="11"/>
-      <c r="W33" s="11"/>
+      <c r="U33" s="14"/>
+      <c r="V33" s="14"/>
+      <c r="W33" s="14"/>
       <c r="X33" s="3"/>
     </row>
     <row r="34" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A34" s="11"/>
-      <c r="B34" s="11"/>
-      <c r="C34" s="11"/>
+      <c r="A34" s="14"/>
+      <c r="B34" s="14"/>
+      <c r="C34" s="14"/>
       <c r="D34" s="3"/>
-      <c r="E34" s="6" t="s">
+      <c r="E34" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="F34" s="6"/>
-      <c r="G34" s="6"/>
+      <c r="F34" s="9"/>
+      <c r="G34" s="9"/>
       <c r="H34" s="3"/>
       <c r="M34" s="2"/>
       <c r="N34" s="2"/>
@@ -2254,19 +2430,19 @@
       <c r="R34" s="2"/>
       <c r="S34" s="2"/>
       <c r="T34" s="3"/>
-      <c r="U34" s="11"/>
-      <c r="V34" s="11"/>
-      <c r="W34" s="11"/>
+      <c r="U34" s="14"/>
+      <c r="V34" s="14"/>
+      <c r="W34" s="14"/>
       <c r="X34" s="3"/>
     </row>
     <row r="35" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A35" s="11"/>
-      <c r="B35" s="11"/>
-      <c r="C35" s="11"/>
+      <c r="A35" s="14"/>
+      <c r="B35" s="14"/>
+      <c r="C35" s="14"/>
       <c r="D35" s="3"/>
-      <c r="E35" s="6"/>
-      <c r="F35" s="6"/>
-      <c r="G35" s="6"/>
+      <c r="E35" s="9"/>
+      <c r="F35" s="9"/>
+      <c r="G35" s="9"/>
       <c r="H35" s="3"/>
       <c r="M35" s="4"/>
       <c r="N35" s="4"/>
@@ -2276,31 +2452,31 @@
       <c r="R35" s="4"/>
       <c r="S35" s="4"/>
       <c r="T35" s="3"/>
-      <c r="U35" s="11"/>
-      <c r="V35" s="11"/>
-      <c r="W35" s="11"/>
+      <c r="U35" s="14"/>
+      <c r="V35" s="14"/>
+      <c r="W35" s="14"/>
       <c r="X35" s="3"/>
     </row>
     <row r="36" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A36" s="11"/>
-      <c r="B36" s="11"/>
-      <c r="C36" s="11"/>
+      <c r="A36" s="14"/>
+      <c r="B36" s="14"/>
+      <c r="C36" s="14"/>
       <c r="D36" s="3"/>
-      <c r="E36" s="6" t="s">
+      <c r="E36" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="F36" s="6"/>
-      <c r="G36" s="6"/>
+      <c r="F36" s="9"/>
+      <c r="G36" s="9"/>
       <c r="H36" s="3"/>
-      <c r="U36" s="11"/>
-      <c r="V36" s="11"/>
-      <c r="W36" s="11"/>
+      <c r="U36" s="14"/>
+      <c r="V36" s="14"/>
+      <c r="W36" s="14"/>
       <c r="X36" s="3"/>
     </row>
     <row r="37" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A37" s="11"/>
-      <c r="B37" s="11"/>
-      <c r="C37" s="11"/>
+      <c r="A37" s="14"/>
+      <c r="B37" s="14"/>
+      <c r="C37" s="14"/>
       <c r="D37" s="3"/>
       <c r="U37" s="2"/>
       <c r="V37" s="2"/>
@@ -2308,9 +2484,9 @@
       <c r="X37" s="3"/>
     </row>
     <row r="38" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A38" s="11"/>
-      <c r="B38" s="11"/>
-      <c r="C38" s="11"/>
+      <c r="A38" s="14"/>
+      <c r="B38" s="14"/>
+      <c r="C38" s="14"/>
       <c r="D38" s="3"/>
       <c r="U38" s="2"/>
       <c r="V38" s="2"/>
@@ -2318,33 +2494,33 @@
       <c r="X38" s="3"/>
     </row>
     <row r="39" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A39" s="11"/>
-      <c r="B39" s="11"/>
-      <c r="C39" s="11"/>
+      <c r="A39" s="14"/>
+      <c r="B39" s="14"/>
+      <c r="C39" s="14"/>
       <c r="D39" s="3"/>
     </row>
     <row r="40" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A40" s="11"/>
-      <c r="B40" s="11"/>
-      <c r="C40" s="11"/>
+      <c r="A40" s="14"/>
+      <c r="B40" s="14"/>
+      <c r="C40" s="14"/>
       <c r="D40" s="3"/>
     </row>
     <row r="41" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A41" s="11"/>
-      <c r="B41" s="11"/>
-      <c r="C41" s="11"/>
+      <c r="A41" s="14"/>
+      <c r="B41" s="14"/>
+      <c r="C41" s="14"/>
       <c r="D41" s="3"/>
     </row>
     <row r="42" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A42" s="11"/>
-      <c r="B42" s="11"/>
-      <c r="C42" s="11"/>
+      <c r="A42" s="14"/>
+      <c r="B42" s="14"/>
+      <c r="C42" s="14"/>
       <c r="D42" s="3"/>
     </row>
     <row r="43" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A43" s="11"/>
-      <c r="B43" s="11"/>
-      <c r="C43" s="11"/>
+      <c r="A43" s="14"/>
+      <c r="B43" s="14"/>
+      <c r="C43" s="14"/>
       <c r="D43" s="3"/>
     </row>
   </sheetData>
@@ -2404,6 +2580,14 @@
     <mergeCell ref="Q6:S6"/>
     <mergeCell ref="Q7:S7"/>
     <mergeCell ref="Q8:S8"/>
+    <mergeCell ref="I25:K25"/>
+    <mergeCell ref="M6:O6"/>
+    <mergeCell ref="I17:K17"/>
+    <mergeCell ref="I18:K18"/>
+    <mergeCell ref="I19:K19"/>
+    <mergeCell ref="I20:K20"/>
+    <mergeCell ref="M13:O13"/>
+    <mergeCell ref="I22:K22"/>
     <mergeCell ref="E34:G34"/>
     <mergeCell ref="E33:G33"/>
     <mergeCell ref="E32:G32"/>
@@ -2452,15 +2636,6 @@
     <mergeCell ref="E15:G15"/>
     <mergeCell ref="E7:G7"/>
     <mergeCell ref="E8:G8"/>
-    <mergeCell ref="I25:K25"/>
-    <mergeCell ref="M6:O6"/>
-    <mergeCell ref="I17:K17"/>
-    <mergeCell ref="I18:K18"/>
-    <mergeCell ref="I19:K19"/>
-    <mergeCell ref="I20:K20"/>
-    <mergeCell ref="M13:O13"/>
-    <mergeCell ref="I22:K22"/>
-    <mergeCell ref="Q12:S12"/>
     <mergeCell ref="I12:K12"/>
     <mergeCell ref="I13:K13"/>
     <mergeCell ref="I14:K14"/>
@@ -2474,7 +2649,7 @@
     <mergeCell ref="M10:O10"/>
     <mergeCell ref="M11:O11"/>
     <mergeCell ref="I23:K23"/>
-    <mergeCell ref="I24:K24"/>
+    <mergeCell ref="I21:K21"/>
     <mergeCell ref="Q17:S17"/>
     <mergeCell ref="M30:O30"/>
     <mergeCell ref="M31:O31"/>
@@ -2498,7 +2673,7 @@
     <mergeCell ref="M15:O15"/>
     <mergeCell ref="M16:O16"/>
     <mergeCell ref="M17:O17"/>
-    <mergeCell ref="I21:K21"/>
+    <mergeCell ref="Q12:S12"/>
     <mergeCell ref="O1:S2"/>
     <mergeCell ref="Q11:S11"/>
     <mergeCell ref="I10:K10"/>
@@ -2522,6 +2697,7 @@
     <mergeCell ref="Q14:S14"/>
     <mergeCell ref="Q15:S15"/>
     <mergeCell ref="Q16:S16"/>
+    <mergeCell ref="I24:K24"/>
     <mergeCell ref="E35:G35"/>
     <mergeCell ref="E36:G36"/>
     <mergeCell ref="T1:V2"/>
@@ -2553,11 +2729,555 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11CE061F-AFA4-4B9D-BFD1-A05915568E6D}">
+  <dimension ref="A1:H26"/>
+  <sheetViews>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="D30" sqref="D30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="28.140625" style="6" customWidth="1"/>
+    <col min="2" max="2" width="28.140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="29.42578125" style="6" customWidth="1"/>
+    <col min="4" max="4" width="41.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="28" style="6" customWidth="1"/>
+    <col min="6" max="6" width="22.7109375" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="26" t="s">
+        <v>160</v>
+      </c>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="26"/>
+      <c r="B2" s="26"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="26"/>
+      <c r="H2" s="26"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>202</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="36" t="s">
+        <v>165</v>
+      </c>
+      <c r="B4" s="36"/>
+      <c r="C4" s="36"/>
+      <c r="D4" s="36"/>
+      <c r="E4" s="36"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
+        <v>198</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="E5" s="6">
+        <v>0.05</v>
+      </c>
+      <c r="F5" s="1">
+        <v>7</v>
+      </c>
+      <c r="G5" s="6"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
+        <v>199</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="E6" s="6">
+        <v>0.05</v>
+      </c>
+      <c r="F6" s="1">
+        <v>7</v>
+      </c>
+      <c r="G6" s="6"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="E7" s="6">
+        <v>0.05</v>
+      </c>
+      <c r="F7" s="1">
+        <v>7</v>
+      </c>
+      <c r="G7" s="6"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="E8" s="6">
+        <v>0.05</v>
+      </c>
+      <c r="F8" s="1">
+        <v>7</v>
+      </c>
+      <c r="G8" s="6"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="E9" s="6">
+        <v>0.05</v>
+      </c>
+      <c r="F9" s="1">
+        <v>7</v>
+      </c>
+      <c r="G9" s="6"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="E10" s="6">
+        <v>0.05</v>
+      </c>
+      <c r="F10" s="1">
+        <v>7</v>
+      </c>
+      <c r="G10" s="6"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>180</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="E11" s="6">
+        <v>0.05</v>
+      </c>
+      <c r="F11" s="1">
+        <v>7</v>
+      </c>
+      <c r="G11" s="6"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="E12" s="6">
+        <v>0.05</v>
+      </c>
+      <c r="F12" s="1">
+        <v>7</v>
+      </c>
+      <c r="G12" s="6"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>182</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="E13" s="6">
+        <v>0.05</v>
+      </c>
+      <c r="F13" s="1">
+        <v>7</v>
+      </c>
+      <c r="G13" s="6"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="E14" s="6">
+        <v>0.05</v>
+      </c>
+      <c r="F14" s="1">
+        <v>7</v>
+      </c>
+      <c r="G14" s="6"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="E15" s="6">
+        <v>0.05</v>
+      </c>
+      <c r="F15" s="1">
+        <v>7</v>
+      </c>
+      <c r="G15" s="6"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="E16" s="6">
+        <v>0.05</v>
+      </c>
+      <c r="F16" s="1">
+        <v>7</v>
+      </c>
+      <c r="G16" s="6"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="E17" s="6">
+        <v>0.05</v>
+      </c>
+      <c r="F17" s="1">
+        <v>7</v>
+      </c>
+      <c r="G17" s="6"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="E18" s="6">
+        <v>0.05</v>
+      </c>
+      <c r="F18" s="1">
+        <v>7</v>
+      </c>
+      <c r="G18" s="6"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="E19" s="6">
+        <v>0.05</v>
+      </c>
+      <c r="F19" s="1">
+        <v>7</v>
+      </c>
+      <c r="G19" s="6"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="E20" s="6">
+        <v>0.05</v>
+      </c>
+      <c r="F20" s="1">
+        <v>7</v>
+      </c>
+      <c r="G20" s="6"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="E21" s="6">
+        <v>0.05</v>
+      </c>
+      <c r="F21" s="1">
+        <v>7</v>
+      </c>
+      <c r="G21" s="6"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>201</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="E22" s="6">
+        <v>0.01</v>
+      </c>
+      <c r="F22" s="1">
+        <v>7</v>
+      </c>
+      <c r="G22" s="6"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="E23" s="6">
+        <v>0.05</v>
+      </c>
+      <c r="F23" s="1">
+        <v>7</v>
+      </c>
+      <c r="G23" s="6"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="E24" s="6">
+        <v>0.05</v>
+      </c>
+      <c r="F24" s="1">
+        <v>7</v>
+      </c>
+      <c r="G24" s="6"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="E25" s="6">
+        <v>0.05</v>
+      </c>
+      <c r="F25" s="1">
+        <v>7</v>
+      </c>
+      <c r="G25" s="6"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>194</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="E26" s="6">
+        <v>1</v>
+      </c>
+      <c r="F26" s="1">
+        <v>2</v>
+      </c>
+      <c r="G26" s="6"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A4:E4"/>
+    <mergeCell ref="A1:H2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E13E4A5-10AD-4171-99FD-31881C0A6C11}">
   <dimension ref="A1:AB34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10:I10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J16" sqref="J16:N16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2570,914 +3290,914 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="27" t="s">
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="33" t="s">
         <v>40</v>
       </c>
-      <c r="I1" s="27"/>
-      <c r="J1" s="27"/>
-      <c r="K1" s="27"/>
-      <c r="L1" s="27"/>
-      <c r="M1" s="27"/>
-      <c r="N1" s="27"/>
-      <c r="O1" s="27" t="s">
+      <c r="I1" s="33"/>
+      <c r="J1" s="33"/>
+      <c r="K1" s="33"/>
+      <c r="L1" s="33"/>
+      <c r="M1" s="33"/>
+      <c r="N1" s="33"/>
+      <c r="O1" s="33" t="s">
         <v>103</v>
       </c>
-      <c r="P1" s="27"/>
-      <c r="Q1" s="27"/>
-      <c r="R1" s="27"/>
-      <c r="S1" s="27"/>
-      <c r="T1" s="27"/>
-      <c r="U1" s="27"/>
-      <c r="V1" s="27" t="s">
+      <c r="P1" s="33"/>
+      <c r="Q1" s="33"/>
+      <c r="R1" s="33"/>
+      <c r="S1" s="33"/>
+      <c r="T1" s="33"/>
+      <c r="U1" s="33"/>
+      <c r="V1" s="33" t="s">
         <v>101</v>
       </c>
-      <c r="W1" s="27"/>
-      <c r="X1" s="27"/>
-      <c r="Y1" s="27"/>
-      <c r="Z1" s="27"/>
-      <c r="AA1" s="27"/>
-      <c r="AB1" s="27"/>
+      <c r="W1" s="33"/>
+      <c r="X1" s="33"/>
+      <c r="Y1" s="33"/>
+      <c r="Z1" s="33"/>
+      <c r="AA1" s="33"/>
+      <c r="AB1" s="33"/>
     </row>
     <row r="2" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A2" s="27"/>
-      <c r="B2" s="27"/>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="27"/>
-      <c r="H2" s="27"/>
-      <c r="I2" s="27"/>
-      <c r="J2" s="27"/>
-      <c r="K2" s="27"/>
-      <c r="L2" s="27"/>
-      <c r="M2" s="27"/>
-      <c r="N2" s="27"/>
-      <c r="O2" s="27"/>
-      <c r="P2" s="27"/>
-      <c r="Q2" s="27"/>
-      <c r="R2" s="27"/>
-      <c r="S2" s="27"/>
-      <c r="T2" s="27"/>
-      <c r="U2" s="27"/>
-      <c r="V2" s="27"/>
-      <c r="W2" s="27"/>
-      <c r="X2" s="27"/>
-      <c r="Y2" s="27"/>
-      <c r="Z2" s="27"/>
-      <c r="AA2" s="27"/>
-      <c r="AB2" s="27"/>
+      <c r="A2" s="33"/>
+      <c r="B2" s="33"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="33"/>
+      <c r="H2" s="33"/>
+      <c r="I2" s="33"/>
+      <c r="J2" s="33"/>
+      <c r="K2" s="33"/>
+      <c r="L2" s="33"/>
+      <c r="M2" s="33"/>
+      <c r="N2" s="33"/>
+      <c r="O2" s="33"/>
+      <c r="P2" s="33"/>
+      <c r="Q2" s="33"/>
+      <c r="R2" s="33"/>
+      <c r="S2" s="33"/>
+      <c r="T2" s="33"/>
+      <c r="U2" s="33"/>
+      <c r="V2" s="33"/>
+      <c r="W2" s="33"/>
+      <c r="X2" s="33"/>
+      <c r="Y2" s="33"/>
+      <c r="Z2" s="33"/>
+      <c r="AA2" s="33"/>
+      <c r="AB2" s="33"/>
     </row>
     <row r="3" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A3" s="28" t="s">
+      <c r="A3" s="34" t="s">
         <v>102</v>
       </c>
-      <c r="B3" s="28"/>
-      <c r="C3" s="29" t="s">
+      <c r="B3" s="34"/>
+      <c r="C3" s="35" t="s">
         <v>104</v>
       </c>
-      <c r="D3" s="29"/>
-      <c r="E3" s="29"/>
-      <c r="F3" s="29"/>
-      <c r="G3" s="29"/>
-      <c r="H3" s="28" t="s">
+      <c r="D3" s="35"/>
+      <c r="E3" s="35"/>
+      <c r="F3" s="35"/>
+      <c r="G3" s="35"/>
+      <c r="H3" s="34" t="s">
         <v>102</v>
       </c>
-      <c r="I3" s="28"/>
-      <c r="J3" s="29" t="s">
+      <c r="I3" s="34"/>
+      <c r="J3" s="35" t="s">
         <v>104</v>
       </c>
-      <c r="K3" s="29"/>
-      <c r="L3" s="29"/>
-      <c r="M3" s="29"/>
-      <c r="N3" s="29"/>
-      <c r="O3" s="28" t="s">
+      <c r="K3" s="35"/>
+      <c r="L3" s="35"/>
+      <c r="M3" s="35"/>
+      <c r="N3" s="35"/>
+      <c r="O3" s="34" t="s">
         <v>102</v>
       </c>
-      <c r="P3" s="28"/>
-      <c r="Q3" s="29" t="s">
+      <c r="P3" s="34"/>
+      <c r="Q3" s="35" t="s">
         <v>104</v>
       </c>
-      <c r="R3" s="29"/>
-      <c r="S3" s="29"/>
-      <c r="T3" s="29"/>
-      <c r="U3" s="29"/>
+      <c r="R3" s="35"/>
+      <c r="S3" s="35"/>
+      <c r="T3" s="35"/>
+      <c r="U3" s="35"/>
     </row>
     <row r="4" spans="1:28" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="11" t="s">
         <v>110</v>
       </c>
-      <c r="B4" s="8"/>
-      <c r="C4" s="25" t="s">
+      <c r="B4" s="11"/>
+      <c r="C4" s="29" t="s">
         <v>115</v>
       </c>
-      <c r="D4" s="25"/>
-      <c r="E4" s="25"/>
-      <c r="F4" s="25"/>
-      <c r="G4" s="25"/>
-      <c r="H4" s="8" t="s">
+      <c r="D4" s="29"/>
+      <c r="E4" s="29"/>
+      <c r="F4" s="29"/>
+      <c r="G4" s="29"/>
+      <c r="H4" s="11" t="s">
         <v>116</v>
       </c>
-      <c r="I4" s="8"/>
-      <c r="J4" s="25" t="s">
+      <c r="I4" s="11"/>
+      <c r="J4" s="29" t="s">
         <v>117</v>
       </c>
-      <c r="K4" s="25"/>
-      <c r="L4" s="25"/>
-      <c r="M4" s="25"/>
-      <c r="N4" s="25"/>
-      <c r="O4" s="26" t="s">
+      <c r="K4" s="29"/>
+      <c r="L4" s="29"/>
+      <c r="M4" s="29"/>
+      <c r="N4" s="29"/>
+      <c r="O4" s="30" t="s">
         <v>135</v>
       </c>
-      <c r="P4" s="26"/>
-      <c r="Q4" s="25" t="s">
+      <c r="P4" s="30"/>
+      <c r="Q4" s="29" t="s">
         <v>134</v>
       </c>
-      <c r="R4" s="25"/>
-      <c r="S4" s="25"/>
-      <c r="T4" s="25"/>
-      <c r="U4" s="25"/>
+      <c r="R4" s="29"/>
+      <c r="S4" s="29"/>
+      <c r="T4" s="29"/>
+      <c r="U4" s="29"/>
     </row>
     <row r="5" spans="1:28" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="11" t="s">
         <v>105</v>
       </c>
-      <c r="B5" s="8"/>
-      <c r="C5" s="25" t="s">
+      <c r="B5" s="11"/>
+      <c r="C5" s="29" t="s">
         <v>113</v>
       </c>
-      <c r="D5" s="25"/>
-      <c r="E5" s="25"/>
-      <c r="F5" s="25"/>
-      <c r="G5" s="25"/>
-      <c r="H5" s="8" t="s">
+      <c r="D5" s="29"/>
+      <c r="E5" s="29"/>
+      <c r="F5" s="29"/>
+      <c r="G5" s="29"/>
+      <c r="H5" s="11" t="s">
         <v>118</v>
       </c>
-      <c r="I5" s="8"/>
-      <c r="J5" s="25" t="s">
+      <c r="I5" s="11"/>
+      <c r="J5" s="29" t="s">
         <v>119</v>
       </c>
-      <c r="K5" s="25"/>
-      <c r="L5" s="25"/>
-      <c r="M5" s="25"/>
-      <c r="N5" s="25"/>
-      <c r="O5" s="26" t="s">
+      <c r="K5" s="29"/>
+      <c r="L5" s="29"/>
+      <c r="M5" s="29"/>
+      <c r="N5" s="29"/>
+      <c r="O5" s="30" t="s">
         <v>136</v>
       </c>
-      <c r="P5" s="26"/>
-      <c r="Q5" s="25" t="s">
+      <c r="P5" s="30"/>
+      <c r="Q5" s="29" t="s">
         <v>139</v>
       </c>
-      <c r="R5" s="25"/>
-      <c r="S5" s="25"/>
-      <c r="T5" s="25"/>
-      <c r="U5" s="25"/>
+      <c r="R5" s="29"/>
+      <c r="S5" s="29"/>
+      <c r="T5" s="29"/>
+      <c r="U5" s="29"/>
     </row>
     <row r="6" spans="1:28" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="8" t="s">
+      <c r="A6" s="11" t="s">
         <v>106</v>
       </c>
-      <c r="B6" s="8"/>
-      <c r="C6" s="25" t="s">
+      <c r="B6" s="11"/>
+      <c r="C6" s="29" t="s">
         <v>125</v>
       </c>
-      <c r="D6" s="25"/>
-      <c r="E6" s="25"/>
-      <c r="F6" s="25"/>
-      <c r="G6" s="25"/>
-      <c r="H6" s="8" t="s">
+      <c r="D6" s="29"/>
+      <c r="E6" s="29"/>
+      <c r="F6" s="29"/>
+      <c r="G6" s="29"/>
+      <c r="H6" s="11" t="s">
         <v>121</v>
       </c>
-      <c r="I6" s="8"/>
-      <c r="J6" s="25" t="s">
+      <c r="I6" s="11"/>
+      <c r="J6" s="29" t="s">
         <v>120</v>
       </c>
-      <c r="K6" s="25"/>
-      <c r="L6" s="25"/>
-      <c r="M6" s="25"/>
-      <c r="N6" s="25"/>
-      <c r="O6" s="26" t="s">
+      <c r="K6" s="29"/>
+      <c r="L6" s="29"/>
+      <c r="M6" s="29"/>
+      <c r="N6" s="29"/>
+      <c r="O6" s="30" t="s">
         <v>137</v>
       </c>
-      <c r="P6" s="26"/>
-      <c r="Q6" s="25" t="s">
+      <c r="P6" s="30"/>
+      <c r="Q6" s="29" t="s">
         <v>138</v>
       </c>
-      <c r="R6" s="25"/>
-      <c r="S6" s="25"/>
-      <c r="T6" s="25"/>
-      <c r="U6" s="25"/>
+      <c r="R6" s="29"/>
+      <c r="S6" s="29"/>
+      <c r="T6" s="29"/>
+      <c r="U6" s="29"/>
     </row>
     <row r="7" spans="1:28" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="8" t="s">
+      <c r="A7" s="11" t="s">
         <v>107</v>
       </c>
-      <c r="B7" s="8"/>
-      <c r="C7" s="25" t="s">
+      <c r="B7" s="11"/>
+      <c r="C7" s="29" t="s">
         <v>114</v>
       </c>
-      <c r="D7" s="25"/>
-      <c r="E7" s="25"/>
-      <c r="F7" s="25"/>
-      <c r="G7" s="25"/>
-      <c r="H7" s="8" t="s">
+      <c r="D7" s="29"/>
+      <c r="E7" s="29"/>
+      <c r="F7" s="29"/>
+      <c r="G7" s="29"/>
+      <c r="H7" s="11" t="s">
         <v>122</v>
       </c>
-      <c r="I7" s="8"/>
-      <c r="J7" s="25" t="s">
+      <c r="I7" s="11"/>
+      <c r="J7" s="29" t="s">
         <v>123</v>
       </c>
-      <c r="K7" s="25"/>
-      <c r="L7" s="25"/>
-      <c r="M7" s="25"/>
-      <c r="N7" s="25"/>
-      <c r="O7" s="26" t="s">
+      <c r="K7" s="29"/>
+      <c r="L7" s="29"/>
+      <c r="M7" s="29"/>
+      <c r="N7" s="29"/>
+      <c r="O7" s="30" t="s">
         <v>140</v>
       </c>
-      <c r="P7" s="26"/>
-      <c r="Q7" s="25" t="s">
+      <c r="P7" s="30"/>
+      <c r="Q7" s="29" t="s">
         <v>141</v>
       </c>
-      <c r="R7" s="25"/>
-      <c r="S7" s="25"/>
-      <c r="T7" s="25"/>
-      <c r="U7" s="25"/>
+      <c r="R7" s="29"/>
+      <c r="S7" s="29"/>
+      <c r="T7" s="29"/>
+      <c r="U7" s="29"/>
     </row>
     <row r="8" spans="1:28" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="8" t="s">
+      <c r="A8" s="11" t="s">
         <v>109</v>
       </c>
-      <c r="B8" s="8"/>
-      <c r="C8" s="25" t="s">
+      <c r="B8" s="11"/>
+      <c r="C8" s="29" t="s">
         <v>127</v>
       </c>
-      <c r="D8" s="25"/>
-      <c r="E8" s="25"/>
-      <c r="F8" s="25"/>
-      <c r="G8" s="25"/>
-      <c r="H8" s="30" t="s">
+      <c r="D8" s="29"/>
+      <c r="E8" s="29"/>
+      <c r="F8" s="29"/>
+      <c r="G8" s="29"/>
+      <c r="H8" s="31" t="s">
         <v>124</v>
       </c>
-      <c r="I8" s="30"/>
-      <c r="J8" s="31" t="s">
+      <c r="I8" s="31"/>
+      <c r="J8" s="32" t="s">
         <v>123</v>
       </c>
-      <c r="K8" s="31"/>
-      <c r="L8" s="31"/>
-      <c r="M8" s="31"/>
-      <c r="N8" s="31"/>
-      <c r="O8" s="26" t="s">
+      <c r="K8" s="32"/>
+      <c r="L8" s="32"/>
+      <c r="M8" s="32"/>
+      <c r="N8" s="32"/>
+      <c r="O8" s="30" t="s">
         <v>142</v>
       </c>
-      <c r="P8" s="26"/>
-      <c r="Q8" s="25" t="s">
+      <c r="P8" s="30"/>
+      <c r="Q8" s="29" t="s">
         <v>134</v>
       </c>
-      <c r="R8" s="25"/>
-      <c r="S8" s="25"/>
-      <c r="T8" s="25"/>
-      <c r="U8" s="25"/>
+      <c r="R8" s="29"/>
+      <c r="S8" s="29"/>
+      <c r="T8" s="29"/>
+      <c r="U8" s="29"/>
     </row>
     <row r="9" spans="1:28" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="8" t="s">
+      <c r="A9" s="11" t="s">
         <v>111</v>
       </c>
-      <c r="B9" s="8"/>
-      <c r="C9" s="25" t="s">
+      <c r="B9" s="11"/>
+      <c r="C9" s="29" t="s">
         <v>128</v>
       </c>
-      <c r="D9" s="25"/>
-      <c r="E9" s="25"/>
-      <c r="F9" s="25"/>
-      <c r="G9" s="25"/>
-      <c r="H9" s="8" t="s">
-        <v>153</v>
-      </c>
-      <c r="I9" s="8"/>
-      <c r="J9" s="25" t="s">
+      <c r="D9" s="29"/>
+      <c r="E9" s="29"/>
+      <c r="F9" s="29"/>
+      <c r="G9" s="29"/>
+      <c r="H9" s="11" t="s">
+        <v>152</v>
+      </c>
+      <c r="I9" s="11"/>
+      <c r="J9" s="29" t="s">
         <v>129</v>
       </c>
-      <c r="K9" s="25"/>
-      <c r="L9" s="25"/>
-      <c r="M9" s="25"/>
-      <c r="N9" s="25"/>
-      <c r="O9" s="26" t="s">
+      <c r="K9" s="29"/>
+      <c r="L9" s="29"/>
+      <c r="M9" s="29"/>
+      <c r="N9" s="29"/>
+      <c r="O9" s="30" t="s">
         <v>143</v>
       </c>
-      <c r="P9" s="26"/>
-      <c r="Q9" s="25" t="s">
+      <c r="P9" s="30"/>
+      <c r="Q9" s="29" t="s">
         <v>144</v>
       </c>
-      <c r="R9" s="25"/>
-      <c r="S9" s="25"/>
-      <c r="T9" s="25"/>
-      <c r="U9" s="25"/>
+      <c r="R9" s="29"/>
+      <c r="S9" s="29"/>
+      <c r="T9" s="29"/>
+      <c r="U9" s="29"/>
     </row>
     <row r="10" spans="1:28" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="8" t="s">
+      <c r="A10" s="11" t="s">
         <v>112</v>
       </c>
-      <c r="B10" s="8"/>
-      <c r="C10" s="25" t="s">
+      <c r="B10" s="11"/>
+      <c r="C10" s="29" t="s">
         <v>126</v>
       </c>
-      <c r="D10" s="25"/>
-      <c r="E10" s="25"/>
-      <c r="F10" s="25"/>
-      <c r="G10" s="25"/>
-      <c r="H10" s="8" t="s">
+      <c r="D10" s="29"/>
+      <c r="E10" s="29"/>
+      <c r="F10" s="29"/>
+      <c r="G10" s="29"/>
+      <c r="H10" s="11" t="s">
         <v>130</v>
       </c>
-      <c r="I10" s="8"/>
-      <c r="J10" s="25" t="s">
+      <c r="I10" s="11"/>
+      <c r="J10" s="29" t="s">
         <v>131</v>
       </c>
-      <c r="K10" s="25"/>
-      <c r="L10" s="25"/>
-      <c r="M10" s="25"/>
-      <c r="N10" s="25"/>
-      <c r="O10" s="26" t="s">
+      <c r="K10" s="29"/>
+      <c r="L10" s="29"/>
+      <c r="M10" s="29"/>
+      <c r="N10" s="29"/>
+      <c r="O10" s="30" t="s">
+        <v>146</v>
+      </c>
+      <c r="P10" s="30"/>
+      <c r="Q10" s="29" t="s">
         <v>147</v>
       </c>
-      <c r="P10" s="26"/>
-      <c r="Q10" s="25" t="s">
+      <c r="R10" s="29"/>
+      <c r="S10" s="29"/>
+      <c r="T10" s="29"/>
+      <c r="U10" s="29"/>
+    </row>
+    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A11" s="11"/>
+      <c r="B11" s="11"/>
+      <c r="C11" s="29"/>
+      <c r="D11" s="29"/>
+      <c r="E11" s="29"/>
+      <c r="F11" s="29"/>
+      <c r="G11" s="29"/>
+      <c r="H11" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="I11" s="11"/>
+      <c r="J11" s="29" t="s">
+        <v>133</v>
+      </c>
+      <c r="K11" s="29"/>
+      <c r="L11" s="29"/>
+      <c r="M11" s="29"/>
+      <c r="N11" s="29"/>
+      <c r="O11" s="30" t="s">
         <v>148</v>
       </c>
-      <c r="R10" s="25"/>
-      <c r="S10" s="25"/>
-      <c r="T10" s="25"/>
-      <c r="U10" s="25"/>
-    </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A11" s="8"/>
-      <c r="B11" s="8"/>
-      <c r="C11" s="25"/>
-      <c r="D11" s="25"/>
-      <c r="E11" s="25"/>
-      <c r="F11" s="25"/>
-      <c r="G11" s="25"/>
-      <c r="H11" s="8" t="s">
-        <v>132</v>
-      </c>
-      <c r="I11" s="8"/>
-      <c r="J11" s="25" t="s">
-        <v>133</v>
-      </c>
-      <c r="K11" s="25"/>
-      <c r="L11" s="25"/>
-      <c r="M11" s="25"/>
-      <c r="N11" s="25"/>
-      <c r="O11" s="26" t="s">
+      <c r="P11" s="30"/>
+      <c r="Q11" s="29" t="s">
         <v>149</v>
       </c>
-      <c r="P11" s="26"/>
-      <c r="Q11" s="25" t="s">
-        <v>150</v>
-      </c>
-      <c r="R11" s="25"/>
-      <c r="S11" s="25"/>
-      <c r="T11" s="25"/>
-      <c r="U11" s="25"/>
+      <c r="R11" s="29"/>
+      <c r="S11" s="29"/>
+      <c r="T11" s="29"/>
+      <c r="U11" s="29"/>
     </row>
     <row r="12" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A12" s="8"/>
-      <c r="B12" s="8"/>
-      <c r="C12" s="25"/>
-      <c r="D12" s="25"/>
-      <c r="E12" s="25"/>
-      <c r="F12" s="25"/>
-      <c r="G12" s="25"/>
-      <c r="H12" s="8" t="s">
-        <v>152</v>
-      </c>
-      <c r="I12" s="8"/>
-      <c r="J12" s="25"/>
-      <c r="K12" s="25"/>
-      <c r="L12" s="25"/>
-      <c r="M12" s="25"/>
-      <c r="N12" s="25"/>
-      <c r="O12" s="26"/>
-      <c r="P12" s="26"/>
-      <c r="Q12" s="25"/>
-      <c r="R12" s="25"/>
-      <c r="S12" s="25"/>
-      <c r="T12" s="25"/>
-      <c r="U12" s="25"/>
+      <c r="A12" s="11"/>
+      <c r="B12" s="11"/>
+      <c r="C12" s="29"/>
+      <c r="D12" s="29"/>
+      <c r="E12" s="29"/>
+      <c r="F12" s="29"/>
+      <c r="G12" s="29"/>
+      <c r="H12" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="I12" s="11"/>
+      <c r="J12" s="29"/>
+      <c r="K12" s="29"/>
+      <c r="L12" s="29"/>
+      <c r="M12" s="29"/>
+      <c r="N12" s="29"/>
+      <c r="O12" s="30"/>
+      <c r="P12" s="30"/>
+      <c r="Q12" s="29"/>
+      <c r="R12" s="29"/>
+      <c r="S12" s="29"/>
+      <c r="T12" s="29"/>
+      <c r="U12" s="29"/>
     </row>
     <row r="13" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A13" s="8"/>
-      <c r="B13" s="8"/>
-      <c r="C13" s="25"/>
-      <c r="D13" s="25"/>
-      <c r="E13" s="25"/>
-      <c r="F13" s="25"/>
-      <c r="G13" s="25"/>
-      <c r="H13" s="8"/>
-      <c r="I13" s="8"/>
-      <c r="J13" s="25"/>
-      <c r="K13" s="25"/>
-      <c r="L13" s="25"/>
-      <c r="M13" s="25"/>
-      <c r="N13" s="25"/>
-      <c r="O13" s="26"/>
-      <c r="P13" s="26"/>
-      <c r="Q13" s="25"/>
-      <c r="R13" s="25"/>
-      <c r="S13" s="25"/>
-      <c r="T13" s="25"/>
-      <c r="U13" s="25"/>
+      <c r="A13" s="11"/>
+      <c r="B13" s="11"/>
+      <c r="C13" s="29"/>
+      <c r="D13" s="29"/>
+      <c r="E13" s="29"/>
+      <c r="F13" s="29"/>
+      <c r="G13" s="29"/>
+      <c r="H13" s="11"/>
+      <c r="I13" s="11"/>
+      <c r="J13" s="29"/>
+      <c r="K13" s="29"/>
+      <c r="L13" s="29"/>
+      <c r="M13" s="29"/>
+      <c r="N13" s="29"/>
+      <c r="O13" s="30"/>
+      <c r="P13" s="30"/>
+      <c r="Q13" s="29"/>
+      <c r="R13" s="29"/>
+      <c r="S13" s="29"/>
+      <c r="T13" s="29"/>
+      <c r="U13" s="29"/>
     </row>
     <row r="14" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A14" s="8"/>
-      <c r="B14" s="8"/>
-      <c r="C14" s="25"/>
-      <c r="D14" s="25"/>
-      <c r="E14" s="25"/>
-      <c r="F14" s="25"/>
-      <c r="G14" s="25"/>
-      <c r="H14" s="8"/>
-      <c r="I14" s="8"/>
-      <c r="J14" s="25"/>
-      <c r="K14" s="25"/>
-      <c r="L14" s="25"/>
-      <c r="M14" s="25"/>
-      <c r="N14" s="25"/>
-      <c r="O14" s="26"/>
-      <c r="P14" s="26"/>
-      <c r="Q14" s="25"/>
-      <c r="R14" s="25"/>
-      <c r="S14" s="25"/>
-      <c r="T14" s="25"/>
-      <c r="U14" s="25"/>
+      <c r="A14" s="11"/>
+      <c r="B14" s="11"/>
+      <c r="C14" s="29"/>
+      <c r="D14" s="29"/>
+      <c r="E14" s="29"/>
+      <c r="F14" s="29"/>
+      <c r="G14" s="29"/>
+      <c r="H14" s="11"/>
+      <c r="I14" s="11"/>
+      <c r="J14" s="29"/>
+      <c r="K14" s="29"/>
+      <c r="L14" s="29"/>
+      <c r="M14" s="29"/>
+      <c r="N14" s="29"/>
+      <c r="O14" s="30"/>
+      <c r="P14" s="30"/>
+      <c r="Q14" s="29"/>
+      <c r="R14" s="29"/>
+      <c r="S14" s="29"/>
+      <c r="T14" s="29"/>
+      <c r="U14" s="29"/>
     </row>
     <row r="15" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A15" s="8"/>
-      <c r="B15" s="8"/>
-      <c r="C15" s="25"/>
-      <c r="D15" s="25"/>
-      <c r="E15" s="25"/>
-      <c r="F15" s="25"/>
-      <c r="G15" s="25"/>
-      <c r="H15" s="8"/>
-      <c r="I15" s="8"/>
-      <c r="J15" s="25"/>
-      <c r="K15" s="25"/>
-      <c r="L15" s="25"/>
-      <c r="M15" s="25"/>
-      <c r="N15" s="25"/>
-      <c r="O15" s="26"/>
-      <c r="P15" s="26"/>
-      <c r="Q15" s="25"/>
-      <c r="R15" s="25"/>
-      <c r="S15" s="25"/>
-      <c r="T15" s="25"/>
-      <c r="U15" s="25"/>
+      <c r="A15" s="11"/>
+      <c r="B15" s="11"/>
+      <c r="C15" s="29"/>
+      <c r="D15" s="29"/>
+      <c r="E15" s="29"/>
+      <c r="F15" s="29"/>
+      <c r="G15" s="29"/>
+      <c r="H15" s="11"/>
+      <c r="I15" s="11"/>
+      <c r="J15" s="29"/>
+      <c r="K15" s="29"/>
+      <c r="L15" s="29"/>
+      <c r="M15" s="29"/>
+      <c r="N15" s="29"/>
+      <c r="O15" s="30"/>
+      <c r="P15" s="30"/>
+      <c r="Q15" s="29"/>
+      <c r="R15" s="29"/>
+      <c r="S15" s="29"/>
+      <c r="T15" s="29"/>
+      <c r="U15" s="29"/>
     </row>
     <row r="16" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A16" s="8"/>
-      <c r="B16" s="8"/>
-      <c r="C16" s="25"/>
-      <c r="D16" s="25"/>
-      <c r="E16" s="25"/>
-      <c r="F16" s="25"/>
-      <c r="G16" s="25"/>
-      <c r="H16" s="8"/>
-      <c r="I16" s="8"/>
-      <c r="J16" s="25"/>
-      <c r="K16" s="25"/>
-      <c r="L16" s="25"/>
-      <c r="M16" s="25"/>
-      <c r="N16" s="25"/>
-      <c r="O16" s="26"/>
-      <c r="P16" s="26"/>
-      <c r="Q16" s="25"/>
-      <c r="R16" s="25"/>
-      <c r="S16" s="25"/>
-      <c r="T16" s="25"/>
-      <c r="U16" s="25"/>
+      <c r="A16" s="11"/>
+      <c r="B16" s="11"/>
+      <c r="C16" s="29"/>
+      <c r="D16" s="29"/>
+      <c r="E16" s="29"/>
+      <c r="F16" s="29"/>
+      <c r="G16" s="29"/>
+      <c r="H16" s="11"/>
+      <c r="I16" s="11"/>
+      <c r="J16" s="29"/>
+      <c r="K16" s="29"/>
+      <c r="L16" s="29"/>
+      <c r="M16" s="29"/>
+      <c r="N16" s="29"/>
+      <c r="O16" s="30"/>
+      <c r="P16" s="30"/>
+      <c r="Q16" s="29"/>
+      <c r="R16" s="29"/>
+      <c r="S16" s="29"/>
+      <c r="T16" s="29"/>
+      <c r="U16" s="29"/>
     </row>
     <row r="17" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A17" s="8"/>
-      <c r="B17" s="8"/>
-      <c r="C17" s="25"/>
-      <c r="D17" s="25"/>
-      <c r="E17" s="25"/>
-      <c r="F17" s="25"/>
-      <c r="G17" s="25"/>
-      <c r="H17" s="8"/>
-      <c r="I17" s="8"/>
-      <c r="J17" s="25"/>
-      <c r="K17" s="25"/>
-      <c r="L17" s="25"/>
-      <c r="M17" s="25"/>
-      <c r="N17" s="25"/>
-      <c r="O17" s="26"/>
-      <c r="P17" s="26"/>
-      <c r="Q17" s="25"/>
-      <c r="R17" s="25"/>
-      <c r="S17" s="25"/>
-      <c r="T17" s="25"/>
-      <c r="U17" s="25"/>
+      <c r="A17" s="11"/>
+      <c r="B17" s="11"/>
+      <c r="C17" s="29"/>
+      <c r="D17" s="29"/>
+      <c r="E17" s="29"/>
+      <c r="F17" s="29"/>
+      <c r="G17" s="29"/>
+      <c r="H17" s="11"/>
+      <c r="I17" s="11"/>
+      <c r="J17" s="29"/>
+      <c r="K17" s="29"/>
+      <c r="L17" s="29"/>
+      <c r="M17" s="29"/>
+      <c r="N17" s="29"/>
+      <c r="O17" s="30"/>
+      <c r="P17" s="30"/>
+      <c r="Q17" s="29"/>
+      <c r="R17" s="29"/>
+      <c r="S17" s="29"/>
+      <c r="T17" s="29"/>
+      <c r="U17" s="29"/>
     </row>
     <row r="18" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A18" s="8"/>
-      <c r="B18" s="8"/>
-      <c r="C18" s="25"/>
-      <c r="D18" s="25"/>
-      <c r="E18" s="25"/>
-      <c r="F18" s="25"/>
-      <c r="G18" s="25"/>
-      <c r="H18" s="8"/>
-      <c r="I18" s="8"/>
-      <c r="J18" s="25"/>
-      <c r="K18" s="25"/>
-      <c r="L18" s="25"/>
-      <c r="M18" s="25"/>
-      <c r="N18" s="25"/>
-      <c r="O18" s="26"/>
-      <c r="P18" s="26"/>
-      <c r="Q18" s="25"/>
-      <c r="R18" s="25"/>
-      <c r="S18" s="25"/>
-      <c r="T18" s="25"/>
-      <c r="U18" s="25"/>
+      <c r="A18" s="11"/>
+      <c r="B18" s="11"/>
+      <c r="C18" s="29"/>
+      <c r="D18" s="29"/>
+      <c r="E18" s="29"/>
+      <c r="F18" s="29"/>
+      <c r="G18" s="29"/>
+      <c r="H18" s="11"/>
+      <c r="I18" s="11"/>
+      <c r="J18" s="29"/>
+      <c r="K18" s="29"/>
+      <c r="L18" s="29"/>
+      <c r="M18" s="29"/>
+      <c r="N18" s="29"/>
+      <c r="O18" s="30"/>
+      <c r="P18" s="30"/>
+      <c r="Q18" s="29"/>
+      <c r="R18" s="29"/>
+      <c r="S18" s="29"/>
+      <c r="T18" s="29"/>
+      <c r="U18" s="29"/>
     </row>
     <row r="19" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A19" s="8"/>
-      <c r="B19" s="8"/>
-      <c r="C19" s="25"/>
-      <c r="D19" s="25"/>
-      <c r="E19" s="25"/>
-      <c r="F19" s="25"/>
-      <c r="G19" s="25"/>
-      <c r="H19" s="8"/>
-      <c r="I19" s="8"/>
-      <c r="J19" s="25"/>
-      <c r="K19" s="25"/>
-      <c r="L19" s="25"/>
-      <c r="M19" s="25"/>
-      <c r="N19" s="25"/>
-      <c r="O19" s="26"/>
-      <c r="P19" s="26"/>
-      <c r="Q19" s="25"/>
-      <c r="R19" s="25"/>
-      <c r="S19" s="25"/>
-      <c r="T19" s="25"/>
-      <c r="U19" s="25"/>
+      <c r="A19" s="11"/>
+      <c r="B19" s="11"/>
+      <c r="C19" s="29"/>
+      <c r="D19" s="29"/>
+      <c r="E19" s="29"/>
+      <c r="F19" s="29"/>
+      <c r="G19" s="29"/>
+      <c r="H19" s="11"/>
+      <c r="I19" s="11"/>
+      <c r="J19" s="29"/>
+      <c r="K19" s="29"/>
+      <c r="L19" s="29"/>
+      <c r="M19" s="29"/>
+      <c r="N19" s="29"/>
+      <c r="O19" s="30"/>
+      <c r="P19" s="30"/>
+      <c r="Q19" s="29"/>
+      <c r="R19" s="29"/>
+      <c r="S19" s="29"/>
+      <c r="T19" s="29"/>
+      <c r="U19" s="29"/>
     </row>
     <row r="20" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A20" s="8"/>
-      <c r="B20" s="8"/>
-      <c r="C20" s="25"/>
-      <c r="D20" s="25"/>
-      <c r="E20" s="25"/>
-      <c r="F20" s="25"/>
-      <c r="G20" s="25"/>
-      <c r="H20" s="8"/>
-      <c r="I20" s="8"/>
-      <c r="J20" s="25"/>
-      <c r="K20" s="25"/>
-      <c r="L20" s="25"/>
-      <c r="M20" s="25"/>
-      <c r="N20" s="25"/>
-      <c r="O20" s="26"/>
-      <c r="P20" s="26"/>
-      <c r="Q20" s="25"/>
-      <c r="R20" s="25"/>
-      <c r="S20" s="25"/>
-      <c r="T20" s="25"/>
-      <c r="U20" s="25"/>
+      <c r="A20" s="11"/>
+      <c r="B20" s="11"/>
+      <c r="C20" s="29"/>
+      <c r="D20" s="29"/>
+      <c r="E20" s="29"/>
+      <c r="F20" s="29"/>
+      <c r="G20" s="29"/>
+      <c r="H20" s="11"/>
+      <c r="I20" s="11"/>
+      <c r="J20" s="29"/>
+      <c r="K20" s="29"/>
+      <c r="L20" s="29"/>
+      <c r="M20" s="29"/>
+      <c r="N20" s="29"/>
+      <c r="O20" s="30"/>
+      <c r="P20" s="30"/>
+      <c r="Q20" s="29"/>
+      <c r="R20" s="29"/>
+      <c r="S20" s="29"/>
+      <c r="T20" s="29"/>
+      <c r="U20" s="29"/>
     </row>
     <row r="21" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A21" s="8"/>
-      <c r="B21" s="8"/>
-      <c r="C21" s="25"/>
-      <c r="D21" s="25"/>
-      <c r="E21" s="25"/>
-      <c r="F21" s="25"/>
-      <c r="G21" s="25"/>
-      <c r="H21" s="8"/>
-      <c r="I21" s="8"/>
-      <c r="J21" s="25"/>
-      <c r="K21" s="25"/>
-      <c r="L21" s="25"/>
-      <c r="M21" s="25"/>
-      <c r="N21" s="25"/>
-      <c r="O21" s="26"/>
-      <c r="P21" s="26"/>
-      <c r="Q21" s="25"/>
-      <c r="R21" s="25"/>
-      <c r="S21" s="25"/>
-      <c r="T21" s="25"/>
-      <c r="U21" s="25"/>
+      <c r="A21" s="11"/>
+      <c r="B21" s="11"/>
+      <c r="C21" s="29"/>
+      <c r="D21" s="29"/>
+      <c r="E21" s="29"/>
+      <c r="F21" s="29"/>
+      <c r="G21" s="29"/>
+      <c r="H21" s="11"/>
+      <c r="I21" s="11"/>
+      <c r="J21" s="29"/>
+      <c r="K21" s="29"/>
+      <c r="L21" s="29"/>
+      <c r="M21" s="29"/>
+      <c r="N21" s="29"/>
+      <c r="O21" s="30"/>
+      <c r="P21" s="30"/>
+      <c r="Q21" s="29"/>
+      <c r="R21" s="29"/>
+      <c r="S21" s="29"/>
+      <c r="T21" s="29"/>
+      <c r="U21" s="29"/>
     </row>
     <row r="22" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A22" s="8"/>
-      <c r="B22" s="8"/>
-      <c r="C22" s="25"/>
-      <c r="D22" s="25"/>
-      <c r="E22" s="25"/>
-      <c r="F22" s="25"/>
-      <c r="G22" s="25"/>
-      <c r="H22" s="8"/>
-      <c r="I22" s="8"/>
-      <c r="J22" s="25"/>
-      <c r="K22" s="25"/>
-      <c r="L22" s="25"/>
-      <c r="M22" s="25"/>
-      <c r="N22" s="25"/>
-      <c r="O22" s="26"/>
-      <c r="P22" s="26"/>
-      <c r="Q22" s="25"/>
-      <c r="R22" s="25"/>
-      <c r="S22" s="25"/>
-      <c r="T22" s="25"/>
-      <c r="U22" s="25"/>
+      <c r="A22" s="11"/>
+      <c r="B22" s="11"/>
+      <c r="C22" s="29"/>
+      <c r="D22" s="29"/>
+      <c r="E22" s="29"/>
+      <c r="F22" s="29"/>
+      <c r="G22" s="29"/>
+      <c r="H22" s="11"/>
+      <c r="I22" s="11"/>
+      <c r="J22" s="29"/>
+      <c r="K22" s="29"/>
+      <c r="L22" s="29"/>
+      <c r="M22" s="29"/>
+      <c r="N22" s="29"/>
+      <c r="O22" s="30"/>
+      <c r="P22" s="30"/>
+      <c r="Q22" s="29"/>
+      <c r="R22" s="29"/>
+      <c r="S22" s="29"/>
+      <c r="T22" s="29"/>
+      <c r="U22" s="29"/>
     </row>
     <row r="23" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A23" s="8"/>
-      <c r="B23" s="8"/>
-      <c r="C23" s="25"/>
-      <c r="D23" s="25"/>
-      <c r="E23" s="25"/>
-      <c r="F23" s="25"/>
-      <c r="G23" s="25"/>
-      <c r="H23" s="8"/>
-      <c r="I23" s="8"/>
-      <c r="J23" s="25"/>
-      <c r="K23" s="25"/>
-      <c r="L23" s="25"/>
-      <c r="M23" s="25"/>
-      <c r="N23" s="25"/>
-      <c r="O23" s="26"/>
-      <c r="P23" s="26"/>
-      <c r="Q23" s="25"/>
-      <c r="R23" s="25"/>
-      <c r="S23" s="25"/>
-      <c r="T23" s="25"/>
-      <c r="U23" s="25"/>
+      <c r="A23" s="11"/>
+      <c r="B23" s="11"/>
+      <c r="C23" s="29"/>
+      <c r="D23" s="29"/>
+      <c r="E23" s="29"/>
+      <c r="F23" s="29"/>
+      <c r="G23" s="29"/>
+      <c r="H23" s="11"/>
+      <c r="I23" s="11"/>
+      <c r="J23" s="29"/>
+      <c r="K23" s="29"/>
+      <c r="L23" s="29"/>
+      <c r="M23" s="29"/>
+      <c r="N23" s="29"/>
+      <c r="O23" s="30"/>
+      <c r="P23" s="30"/>
+      <c r="Q23" s="29"/>
+      <c r="R23" s="29"/>
+      <c r="S23" s="29"/>
+      <c r="T23" s="29"/>
+      <c r="U23" s="29"/>
     </row>
     <row r="24" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A24" s="8"/>
-      <c r="B24" s="8"/>
-      <c r="C24" s="25"/>
-      <c r="D24" s="25"/>
-      <c r="E24" s="25"/>
-      <c r="F24" s="25"/>
-      <c r="G24" s="25"/>
-      <c r="H24" s="8"/>
-      <c r="I24" s="8"/>
-      <c r="J24" s="25"/>
-      <c r="K24" s="25"/>
-      <c r="L24" s="25"/>
-      <c r="M24" s="25"/>
-      <c r="N24" s="25"/>
-      <c r="O24" s="26"/>
-      <c r="P24" s="26"/>
-      <c r="Q24" s="25"/>
-      <c r="R24" s="25"/>
-      <c r="S24" s="25"/>
-      <c r="T24" s="25"/>
-      <c r="U24" s="25"/>
+      <c r="A24" s="11"/>
+      <c r="B24" s="11"/>
+      <c r="C24" s="29"/>
+      <c r="D24" s="29"/>
+      <c r="E24" s="29"/>
+      <c r="F24" s="29"/>
+      <c r="G24" s="29"/>
+      <c r="H24" s="11"/>
+      <c r="I24" s="11"/>
+      <c r="J24" s="29"/>
+      <c r="K24" s="29"/>
+      <c r="L24" s="29"/>
+      <c r="M24" s="29"/>
+      <c r="N24" s="29"/>
+      <c r="O24" s="30"/>
+      <c r="P24" s="30"/>
+      <c r="Q24" s="29"/>
+      <c r="R24" s="29"/>
+      <c r="S24" s="29"/>
+      <c r="T24" s="29"/>
+      <c r="U24" s="29"/>
     </row>
     <row r="25" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A25" s="8"/>
-      <c r="B25" s="8"/>
-      <c r="C25" s="25"/>
-      <c r="D25" s="25"/>
-      <c r="E25" s="25"/>
-      <c r="F25" s="25"/>
-      <c r="G25" s="25"/>
-      <c r="H25" s="8"/>
-      <c r="I25" s="8"/>
-      <c r="J25" s="25"/>
-      <c r="K25" s="25"/>
-      <c r="L25" s="25"/>
-      <c r="M25" s="25"/>
-      <c r="N25" s="25"/>
-      <c r="O25" s="26"/>
-      <c r="P25" s="26"/>
-      <c r="Q25" s="25"/>
-      <c r="R25" s="25"/>
-      <c r="S25" s="25"/>
-      <c r="T25" s="25"/>
-      <c r="U25" s="25"/>
+      <c r="A25" s="11"/>
+      <c r="B25" s="11"/>
+      <c r="C25" s="29"/>
+      <c r="D25" s="29"/>
+      <c r="E25" s="29"/>
+      <c r="F25" s="29"/>
+      <c r="G25" s="29"/>
+      <c r="H25" s="11"/>
+      <c r="I25" s="11"/>
+      <c r="J25" s="29"/>
+      <c r="K25" s="29"/>
+      <c r="L25" s="29"/>
+      <c r="M25" s="29"/>
+      <c r="N25" s="29"/>
+      <c r="O25" s="30"/>
+      <c r="P25" s="30"/>
+      <c r="Q25" s="29"/>
+      <c r="R25" s="29"/>
+      <c r="S25" s="29"/>
+      <c r="T25" s="29"/>
+      <c r="U25" s="29"/>
     </row>
     <row r="26" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A26" s="8"/>
-      <c r="B26" s="8"/>
-      <c r="C26" s="25"/>
-      <c r="D26" s="25"/>
-      <c r="E26" s="25"/>
-      <c r="F26" s="25"/>
-      <c r="G26" s="25"/>
-      <c r="H26" s="8"/>
-      <c r="I26" s="8"/>
-      <c r="J26" s="25"/>
-      <c r="K26" s="25"/>
-      <c r="L26" s="25"/>
-      <c r="M26" s="25"/>
-      <c r="N26" s="25"/>
-      <c r="O26" s="26"/>
-      <c r="P26" s="26"/>
-      <c r="Q26" s="25"/>
-      <c r="R26" s="25"/>
-      <c r="S26" s="25"/>
-      <c r="T26" s="25"/>
-      <c r="U26" s="25"/>
+      <c r="A26" s="11"/>
+      <c r="B26" s="11"/>
+      <c r="C26" s="29"/>
+      <c r="D26" s="29"/>
+      <c r="E26" s="29"/>
+      <c r="F26" s="29"/>
+      <c r="G26" s="29"/>
+      <c r="H26" s="11"/>
+      <c r="I26" s="11"/>
+      <c r="J26" s="29"/>
+      <c r="K26" s="29"/>
+      <c r="L26" s="29"/>
+      <c r="M26" s="29"/>
+      <c r="N26" s="29"/>
+      <c r="O26" s="30"/>
+      <c r="P26" s="30"/>
+      <c r="Q26" s="29"/>
+      <c r="R26" s="29"/>
+      <c r="S26" s="29"/>
+      <c r="T26" s="29"/>
+      <c r="U26" s="29"/>
     </row>
     <row r="27" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A27" s="8"/>
-      <c r="B27" s="8"/>
-      <c r="C27" s="25"/>
-      <c r="D27" s="25"/>
-      <c r="E27" s="25"/>
-      <c r="F27" s="25"/>
-      <c r="G27" s="25"/>
-      <c r="H27" s="8"/>
-      <c r="I27" s="8"/>
-      <c r="J27" s="25"/>
-      <c r="K27" s="25"/>
-      <c r="L27" s="25"/>
-      <c r="M27" s="25"/>
-      <c r="N27" s="25"/>
-      <c r="O27" s="26"/>
-      <c r="P27" s="26"/>
-      <c r="Q27" s="25"/>
-      <c r="R27" s="25"/>
-      <c r="S27" s="25"/>
-      <c r="T27" s="25"/>
-      <c r="U27" s="25"/>
+      <c r="A27" s="11"/>
+      <c r="B27" s="11"/>
+      <c r="C27" s="29"/>
+      <c r="D27" s="29"/>
+      <c r="E27" s="29"/>
+      <c r="F27" s="29"/>
+      <c r="G27" s="29"/>
+      <c r="H27" s="11"/>
+      <c r="I27" s="11"/>
+      <c r="J27" s="29"/>
+      <c r="K27" s="29"/>
+      <c r="L27" s="29"/>
+      <c r="M27" s="29"/>
+      <c r="N27" s="29"/>
+      <c r="O27" s="30"/>
+      <c r="P27" s="30"/>
+      <c r="Q27" s="29"/>
+      <c r="R27" s="29"/>
+      <c r="S27" s="29"/>
+      <c r="T27" s="29"/>
+      <c r="U27" s="29"/>
     </row>
     <row r="28" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A28" s="8"/>
-      <c r="B28" s="8"/>
-      <c r="C28" s="25"/>
-      <c r="D28" s="25"/>
-      <c r="E28" s="25"/>
-      <c r="F28" s="25"/>
-      <c r="G28" s="25"/>
-      <c r="H28" s="8"/>
-      <c r="I28" s="8"/>
-      <c r="J28" s="25"/>
-      <c r="K28" s="25"/>
-      <c r="L28" s="25"/>
-      <c r="M28" s="25"/>
-      <c r="N28" s="25"/>
-      <c r="O28" s="26"/>
-      <c r="P28" s="26"/>
-      <c r="Q28" s="25"/>
-      <c r="R28" s="25"/>
-      <c r="S28" s="25"/>
-      <c r="T28" s="25"/>
-      <c r="U28" s="25"/>
+      <c r="A28" s="11"/>
+      <c r="B28" s="11"/>
+      <c r="C28" s="29"/>
+      <c r="D28" s="29"/>
+      <c r="E28" s="29"/>
+      <c r="F28" s="29"/>
+      <c r="G28" s="29"/>
+      <c r="H28" s="11"/>
+      <c r="I28" s="11"/>
+      <c r="J28" s="29"/>
+      <c r="K28" s="29"/>
+      <c r="L28" s="29"/>
+      <c r="M28" s="29"/>
+      <c r="N28" s="29"/>
+      <c r="O28" s="30"/>
+      <c r="P28" s="30"/>
+      <c r="Q28" s="29"/>
+      <c r="R28" s="29"/>
+      <c r="S28" s="29"/>
+      <c r="T28" s="29"/>
+      <c r="U28" s="29"/>
     </row>
     <row r="29" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A29" s="8"/>
-      <c r="B29" s="8"/>
-      <c r="C29" s="25"/>
-      <c r="D29" s="25"/>
-      <c r="E29" s="25"/>
-      <c r="F29" s="25"/>
-      <c r="G29" s="25"/>
-      <c r="H29" s="8"/>
-      <c r="I29" s="8"/>
-      <c r="J29" s="25"/>
-      <c r="K29" s="25"/>
-      <c r="L29" s="25"/>
-      <c r="M29" s="25"/>
-      <c r="N29" s="25"/>
-      <c r="O29" s="26"/>
-      <c r="P29" s="26"/>
-      <c r="Q29" s="25"/>
-      <c r="R29" s="25"/>
-      <c r="S29" s="25"/>
-      <c r="T29" s="25"/>
-      <c r="U29" s="25"/>
+      <c r="A29" s="11"/>
+      <c r="B29" s="11"/>
+      <c r="C29" s="29"/>
+      <c r="D29" s="29"/>
+      <c r="E29" s="29"/>
+      <c r="F29" s="29"/>
+      <c r="G29" s="29"/>
+      <c r="H29" s="11"/>
+      <c r="I29" s="11"/>
+      <c r="J29" s="29"/>
+      <c r="K29" s="29"/>
+      <c r="L29" s="29"/>
+      <c r="M29" s="29"/>
+      <c r="N29" s="29"/>
+      <c r="O29" s="30"/>
+      <c r="P29" s="30"/>
+      <c r="Q29" s="29"/>
+      <c r="R29" s="29"/>
+      <c r="S29" s="29"/>
+      <c r="T29" s="29"/>
+      <c r="U29" s="29"/>
     </row>
     <row r="30" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A30" s="8"/>
-      <c r="B30" s="8"/>
-      <c r="C30" s="25"/>
-      <c r="D30" s="25"/>
-      <c r="E30" s="25"/>
-      <c r="F30" s="25"/>
-      <c r="G30" s="25"/>
-      <c r="H30" s="8"/>
-      <c r="I30" s="8"/>
-      <c r="J30" s="25"/>
-      <c r="K30" s="25"/>
-      <c r="L30" s="25"/>
-      <c r="M30" s="25"/>
-      <c r="N30" s="25"/>
-      <c r="O30" s="26"/>
-      <c r="P30" s="26"/>
-      <c r="Q30" s="25"/>
-      <c r="R30" s="25"/>
-      <c r="S30" s="25"/>
-      <c r="T30" s="25"/>
-      <c r="U30" s="25"/>
+      <c r="A30" s="11"/>
+      <c r="B30" s="11"/>
+      <c r="C30" s="29"/>
+      <c r="D30" s="29"/>
+      <c r="E30" s="29"/>
+      <c r="F30" s="29"/>
+      <c r="G30" s="29"/>
+      <c r="H30" s="11"/>
+      <c r="I30" s="11"/>
+      <c r="J30" s="29"/>
+      <c r="K30" s="29"/>
+      <c r="L30" s="29"/>
+      <c r="M30" s="29"/>
+      <c r="N30" s="29"/>
+      <c r="O30" s="30"/>
+      <c r="P30" s="30"/>
+      <c r="Q30" s="29"/>
+      <c r="R30" s="29"/>
+      <c r="S30" s="29"/>
+      <c r="T30" s="29"/>
+      <c r="U30" s="29"/>
     </row>
     <row r="31" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A31" s="8"/>
-      <c r="B31" s="8"/>
-      <c r="C31" s="25"/>
-      <c r="D31" s="25"/>
-      <c r="E31" s="25"/>
-      <c r="F31" s="25"/>
-      <c r="G31" s="25"/>
-      <c r="H31" s="8"/>
-      <c r="I31" s="8"/>
-      <c r="J31" s="25"/>
-      <c r="K31" s="25"/>
-      <c r="L31" s="25"/>
-      <c r="M31" s="25"/>
-      <c r="N31" s="25"/>
-      <c r="O31" s="26"/>
-      <c r="P31" s="26"/>
-      <c r="Q31" s="25"/>
-      <c r="R31" s="25"/>
-      <c r="S31" s="25"/>
-      <c r="T31" s="25"/>
-      <c r="U31" s="25"/>
+      <c r="A31" s="11"/>
+      <c r="B31" s="11"/>
+      <c r="C31" s="29"/>
+      <c r="D31" s="29"/>
+      <c r="E31" s="29"/>
+      <c r="F31" s="29"/>
+      <c r="G31" s="29"/>
+      <c r="H31" s="11"/>
+      <c r="I31" s="11"/>
+      <c r="J31" s="29"/>
+      <c r="K31" s="29"/>
+      <c r="L31" s="29"/>
+      <c r="M31" s="29"/>
+      <c r="N31" s="29"/>
+      <c r="O31" s="30"/>
+      <c r="P31" s="30"/>
+      <c r="Q31" s="29"/>
+      <c r="R31" s="29"/>
+      <c r="S31" s="29"/>
+      <c r="T31" s="29"/>
+      <c r="U31" s="29"/>
     </row>
     <row r="32" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A32" s="8"/>
-      <c r="B32" s="8"/>
-      <c r="C32" s="25"/>
-      <c r="D32" s="25"/>
-      <c r="E32" s="25"/>
-      <c r="F32" s="25"/>
-      <c r="G32" s="25"/>
-      <c r="H32" s="8"/>
-      <c r="I32" s="8"/>
-      <c r="J32" s="25"/>
-      <c r="K32" s="25"/>
-      <c r="L32" s="25"/>
-      <c r="M32" s="25"/>
-      <c r="N32" s="25"/>
-      <c r="O32" s="26"/>
-      <c r="P32" s="26"/>
-      <c r="Q32" s="25"/>
-      <c r="R32" s="25"/>
-      <c r="S32" s="25"/>
-      <c r="T32" s="25"/>
-      <c r="U32" s="25"/>
+      <c r="A32" s="11"/>
+      <c r="B32" s="11"/>
+      <c r="C32" s="29"/>
+      <c r="D32" s="29"/>
+      <c r="E32" s="29"/>
+      <c r="F32" s="29"/>
+      <c r="G32" s="29"/>
+      <c r="H32" s="11"/>
+      <c r="I32" s="11"/>
+      <c r="J32" s="29"/>
+      <c r="K32" s="29"/>
+      <c r="L32" s="29"/>
+      <c r="M32" s="29"/>
+      <c r="N32" s="29"/>
+      <c r="O32" s="30"/>
+      <c r="P32" s="30"/>
+      <c r="Q32" s="29"/>
+      <c r="R32" s="29"/>
+      <c r="S32" s="29"/>
+      <c r="T32" s="29"/>
+      <c r="U32" s="29"/>
     </row>
     <row r="33" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A33" s="8"/>
-      <c r="B33" s="8"/>
-      <c r="C33" s="25"/>
-      <c r="D33" s="25"/>
-      <c r="E33" s="25"/>
-      <c r="F33" s="25"/>
-      <c r="G33" s="25"/>
-      <c r="H33" s="8"/>
-      <c r="I33" s="8"/>
-      <c r="J33" s="25"/>
-      <c r="K33" s="25"/>
-      <c r="L33" s="25"/>
-      <c r="M33" s="25"/>
-      <c r="N33" s="25"/>
-      <c r="O33" s="8"/>
-      <c r="P33" s="8"/>
-      <c r="Q33" s="25"/>
-      <c r="R33" s="25"/>
-      <c r="S33" s="25"/>
-      <c r="T33" s="25"/>
-      <c r="U33" s="25"/>
+      <c r="A33" s="11"/>
+      <c r="B33" s="11"/>
+      <c r="C33" s="29"/>
+      <c r="D33" s="29"/>
+      <c r="E33" s="29"/>
+      <c r="F33" s="29"/>
+      <c r="G33" s="29"/>
+      <c r="H33" s="11"/>
+      <c r="I33" s="11"/>
+      <c r="J33" s="29"/>
+      <c r="K33" s="29"/>
+      <c r="L33" s="29"/>
+      <c r="M33" s="29"/>
+      <c r="N33" s="29"/>
+      <c r="O33" s="11"/>
+      <c r="P33" s="11"/>
+      <c r="Q33" s="29"/>
+      <c r="R33" s="29"/>
+      <c r="S33" s="29"/>
+      <c r="T33" s="29"/>
+      <c r="U33" s="29"/>
     </row>
     <row r="34" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A34" s="23"/>
-      <c r="B34" s="23"/>
-      <c r="C34" s="24"/>
-      <c r="D34" s="24"/>
-      <c r="E34" s="24"/>
-      <c r="F34" s="24"/>
-      <c r="G34" s="24"/>
-      <c r="H34" s="23"/>
-      <c r="I34" s="23"/>
-      <c r="J34" s="24"/>
-      <c r="K34" s="24"/>
-      <c r="L34" s="24"/>
-      <c r="M34" s="24"/>
-      <c r="N34" s="24"/>
-      <c r="O34" s="23"/>
-      <c r="P34" s="23"/>
-      <c r="Q34" s="24"/>
-      <c r="R34" s="24"/>
-      <c r="S34" s="24"/>
-      <c r="T34" s="24"/>
-      <c r="U34" s="24"/>
+      <c r="A34" s="27"/>
+      <c r="B34" s="27"/>
+      <c r="C34" s="28"/>
+      <c r="D34" s="28"/>
+      <c r="E34" s="28"/>
+      <c r="F34" s="28"/>
+      <c r="G34" s="28"/>
+      <c r="H34" s="27"/>
+      <c r="I34" s="27"/>
+      <c r="J34" s="28"/>
+      <c r="K34" s="28"/>
+      <c r="L34" s="28"/>
+      <c r="M34" s="28"/>
+      <c r="N34" s="28"/>
+      <c r="O34" s="27"/>
+      <c r="P34" s="27"/>
+      <c r="Q34" s="28"/>
+      <c r="R34" s="28"/>
+      <c r="S34" s="28"/>
+      <c r="T34" s="28"/>
+      <c r="U34" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="196">

--- a/plans/todo.xlsx
+++ b/plans/todo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Edsquid\Documents\Personal Projects\Business\RogueLikeGame\plans\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B5417BB-BC2C-47F8-979E-8BC330114147}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1067F591-0E19-4E83-8553-730AB03AE054}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{BA1E511D-BF64-4842-98DF-72E30276ED1C}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="221">
   <si>
     <t>Max Lives</t>
   </si>
@@ -123,9 +123,6 @@
     <t>Increase crit chance, decrease damage</t>
   </si>
   <si>
-    <t>Split damage (spread base damage across all damage types)</t>
-  </si>
-  <si>
     <t>Punch with your body (more health = more melee dmg)</t>
   </si>
   <si>
@@ -688,6 +685,21 @@
   </si>
   <si>
     <t>Permanent (unlocked in main menu)</t>
+  </si>
+  <si>
+    <t>Maybe combination of all 3</t>
+  </si>
+  <si>
+    <t>Gravity well</t>
+  </si>
+  <si>
+    <t>Pulls in enemies when dash</t>
+  </si>
+  <si>
+    <t>area + time</t>
+  </si>
+  <si>
+    <t>Split damage (spread damage across all damage types)</t>
   </si>
 </sst>
 </file>
@@ -923,48 +935,37 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -977,27 +978,36 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1312,10 +1322,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11CE061F-AFA4-4B9D-BFD1-A05915568E6D}">
-  <dimension ref="A1:J336"/>
+  <dimension ref="A1:H338"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
-      <selection activeCell="B95" sqref="B95"/>
+    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
+      <selection activeCell="D39" sqref="D39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1331,88 +1341,80 @@
     <col min="9" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="19" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="10" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="20"/>
+      <c r="B2" s="21"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="12" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="26" t="s">
-        <v>212</v>
-      </c>
-      <c r="I1" s="24"/>
-      <c r="J1" s="24"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="21"/>
-      <c r="B2" s="22"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="32" t="s">
+      <c r="B3" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="H3" s="9"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="14" t="s">
         <v>215</v>
       </c>
-      <c r="I2" s="24"/>
-      <c r="J2" s="24"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="16" t="s">
-        <v>90</v>
-      </c>
-      <c r="B3" s="16" t="s">
-        <v>91</v>
-      </c>
-      <c r="C3" s="16" t="s">
-        <v>92</v>
-      </c>
-      <c r="D3" s="17" t="s">
-        <v>103</v>
-      </c>
-      <c r="E3" s="16" t="s">
-        <v>141</v>
-      </c>
-      <c r="F3" s="16" t="s">
+      <c r="B4" s="14"/>
+      <c r="C4" s="14"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14"/>
+      <c r="H4" s="9"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="G3" s="23" t="s">
-        <v>211</v>
-      </c>
-      <c r="H3" s="25"/>
-      <c r="I3" s="24"/>
-      <c r="J3" s="24"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
-        <v>216</v>
-      </c>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="25"/>
-      <c r="I4" s="24"/>
-      <c r="J4" s="24"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>94</v>
-      </c>
       <c r="C5" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E5" s="3">
         <v>0.05</v>
@@ -1420,23 +1422,20 @@
       <c r="F5" s="1">
         <v>7</v>
       </c>
-      <c r="G5" s="28"/>
-      <c r="H5" s="24"/>
-      <c r="I5" s="24"/>
-      <c r="J5" s="24"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G5" s="11"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E6" s="3">
         <v>0.05</v>
@@ -1444,23 +1443,20 @@
       <c r="F6" s="1">
         <v>7</v>
       </c>
-      <c r="G6" s="27"/>
-      <c r="H6" s="24"/>
-      <c r="I6" s="24"/>
-      <c r="J6" s="24"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G6" s="3"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>1</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E7" s="3">
         <v>0.05</v>
@@ -1468,20 +1464,20 @@
       <c r="F7" s="1">
         <v>7</v>
       </c>
-      <c r="G7" s="27"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G7" s="3"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E8" s="3">
         <v>0.05</v>
@@ -1491,18 +1487,18 @@
       </c>
       <c r="G8" s="3"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>3</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E9" s="3">
         <v>0.05</v>
@@ -1512,18 +1508,18 @@
       </c>
       <c r="G9" s="3"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E10" s="3">
         <v>0.05</v>
@@ -1533,18 +1529,18 @@
       </c>
       <c r="G10" s="3"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E11" s="3">
         <v>0.05</v>
@@ -1554,18 +1550,18 @@
       </c>
       <c r="G11" s="3"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E12" s="3">
         <v>0.05</v>
@@ -1575,18 +1571,18 @@
       </c>
       <c r="G12" s="3"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E13" s="3">
         <v>0.05</v>
@@ -1596,18 +1592,18 @@
       </c>
       <c r="G13" s="3"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E14" s="3">
         <v>0.05</v>
@@ -1617,18 +1613,18 @@
       </c>
       <c r="G14" s="3"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>9</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E15" s="3">
         <v>0.05</v>
@@ -1638,18 +1634,18 @@
       </c>
       <c r="G15" s="3"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>10</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E16" s="3">
         <v>0.05</v>
@@ -1664,13 +1660,13 @@
         <v>12</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E17" s="3">
         <v>0.05</v>
@@ -1685,13 +1681,13 @@
         <v>25</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E18" s="3">
         <v>0.05</v>
@@ -1706,13 +1702,13 @@
         <v>26</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E19" s="3">
         <v>0.05</v>
@@ -1724,16 +1720,16 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E20" s="3">
         <v>0.05</v>
@@ -1745,16 +1741,16 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E21" s="3">
         <v>0.05</v>
@@ -1766,16 +1762,16 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C22" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="B22" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>129</v>
-      </c>
       <c r="D22" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E22" s="3">
         <v>0.01</v>
@@ -1787,16 +1783,16 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E23" s="3">
         <v>0.05</v>
@@ -1808,16 +1804,16 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E24" s="3">
         <v>0.05</v>
@@ -1829,16 +1825,16 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E25" s="3">
         <v>0.05</v>
@@ -1853,13 +1849,13 @@
         <v>0</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E26" s="3">
         <v>1</v>
@@ -1888,49 +1884,49 @@
       <c r="G32" s="3"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="16" t="s">
+      <c r="A33" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="B33" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="B33" s="16" t="s">
+      <c r="C33" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="C33" s="16" t="s">
+      <c r="D33" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="E33" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="F33" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="D33" s="16" t="s">
-        <v>103</v>
-      </c>
-      <c r="E33" s="16" t="s">
-        <v>141</v>
-      </c>
-      <c r="F33" s="16" t="s">
-        <v>93</v>
-      </c>
-      <c r="G33" s="16"/>
+      <c r="G33" s="5"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="30" t="s">
+      <c r="A34" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="B34" s="30"/>
-      <c r="C34" s="30"/>
-      <c r="D34" s="30"/>
-      <c r="E34" s="30"/>
-      <c r="F34" s="30"/>
-      <c r="G34" s="30"/>
+      <c r="B34" s="16"/>
+      <c r="C34" s="16"/>
+      <c r="D34" s="16"/>
+      <c r="E34" s="16"/>
+      <c r="F34" s="16"/>
+      <c r="G34" s="16"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="B35" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="B35" s="1" t="s">
+      <c r="C35" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="C35" s="3" t="s">
-        <v>133</v>
-      </c>
       <c r="D35" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F35" s="1">
         <v>10</v>
@@ -1939,16 +1935,16 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F36" s="1">
         <v>10</v>
@@ -1960,13 +1956,13 @@
         <v>15</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F37" s="1">
         <v>10</v>
@@ -1978,13 +1974,13 @@
         <v>16</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F38" s="1">
         <v>1</v>
@@ -1996,13 +1992,13 @@
         <v>17</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F39" s="1">
         <v>5</v>
@@ -2019,49 +2015,49 @@
       <c r="G42" s="3"/>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43" s="16" t="s">
+      <c r="A43" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="B43" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="B43" s="16" t="s">
+      <c r="C43" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="C43" s="16" t="s">
+      <c r="D43" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="E43" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="F43" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="D43" s="16" t="s">
-        <v>103</v>
-      </c>
-      <c r="E43" s="16" t="s">
-        <v>141</v>
-      </c>
-      <c r="F43" s="16" t="s">
-        <v>93</v>
-      </c>
-      <c r="G43" s="16"/>
+      <c r="G43" s="5"/>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A44" s="31" t="s">
-        <v>174</v>
-      </c>
-      <c r="B44" s="31"/>
-      <c r="C44" s="31"/>
-      <c r="D44" s="31"/>
-      <c r="E44" s="31"/>
-      <c r="F44" s="31"/>
-      <c r="G44" s="31"/>
+      <c r="A44" s="17" t="s">
+        <v>173</v>
+      </c>
+      <c r="B44" s="17"/>
+      <c r="C44" s="17"/>
+      <c r="D44" s="17"/>
+      <c r="E44" s="17"/>
+      <c r="F44" s="17"/>
+      <c r="G44" s="17"/>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C45" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="B45" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="C45" s="3" t="s">
+      <c r="D45" s="1" t="s">
         <v>143</v>
-      </c>
-      <c r="D45" s="1" t="s">
-        <v>144</v>
       </c>
       <c r="F45" s="1">
         <v>5</v>
@@ -2070,16 +2066,16 @@
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F46" s="1">
         <v>5</v>
@@ -2088,16 +2084,16 @@
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F47" s="1">
         <v>5</v>
@@ -2118,13 +2114,13 @@
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F50" s="1">
         <v>5</v>
@@ -2133,13 +2129,13 @@
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F51" s="1">
         <v>5</v>
@@ -2148,20 +2144,32 @@
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C52" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="B52" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="C52" s="3" t="s">
-        <v>152</v>
-      </c>
       <c r="F52" s="1">
         <v>5</v>
       </c>
       <c r="G52" s="3"/>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A53" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="E53" s="3" t="s">
+        <v>219</v>
+      </c>
       <c r="F53" s="1">
         <v>5</v>
       </c>
@@ -2175,13 +2183,13 @@
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F55" s="1">
         <v>5</v>
@@ -2208,13 +2216,13 @@
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F59" s="1">
         <v>5</v>
@@ -2223,13 +2231,13 @@
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F60" s="1">
         <v>5</v>
@@ -2238,13 +2246,13 @@
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F61" s="1">
         <v>5</v>
@@ -2253,13 +2261,13 @@
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C62" s="3" t="s">
         <v>159</v>
-      </c>
-      <c r="B62" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="C62" s="3" t="s">
-        <v>160</v>
       </c>
       <c r="F62" s="1">
         <v>5</v>
@@ -2280,13 +2288,13 @@
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F65" s="1">
         <v>5</v>
@@ -2295,10 +2303,10 @@
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F66" s="1">
         <v>5</v>
@@ -2307,13 +2315,13 @@
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F67" s="1">
         <v>5</v>
@@ -2322,13 +2330,13 @@
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F68" s="1">
         <v>5</v>
@@ -2337,13 +2345,13 @@
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F69" s="1">
         <v>5</v>
@@ -2351,27 +2359,15 @@
       <c r="G69" s="3"/>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="F70" s="1">
-        <v>5</v>
+      <c r="A70" s="13" t="s">
+        <v>216</v>
       </c>
       <c r="G70" s="3"/>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A71" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="F71" s="1">
-        <v>5</v>
-      </c>
       <c r="G71" s="3"/>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A72" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="B72" s="1" t="s">
-        <v>98</v>
-      </c>
       <c r="F72" s="1">
         <v>5</v>
       </c>
@@ -2379,10 +2375,7 @@
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="B73" s="1" t="s">
-        <v>96</v>
+        <v>181</v>
       </c>
       <c r="F73" s="1">
         <v>5</v>
@@ -2390,24 +2383,30 @@
       <c r="G73" s="3"/>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A74" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>97</v>
+      </c>
       <c r="F74" s="1">
         <v>5</v>
       </c>
       <c r="G74" s="3"/>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A75" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>95</v>
+      </c>
       <c r="F75" s="1">
         <v>5</v>
       </c>
       <c r="G75" s="3"/>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A76" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="B76" s="1" t="s">
-        <v>96</v>
-      </c>
       <c r="F76" s="1">
         <v>5</v>
       </c>
@@ -2420,30 +2419,24 @@
       <c r="G77" s="3"/>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A78" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>95</v>
+      </c>
       <c r="F78" s="1">
         <v>5</v>
       </c>
       <c r="G78" s="3"/>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A79" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="B79" s="1" t="s">
-        <v>96</v>
-      </c>
       <c r="F79" s="1">
         <v>5</v>
       </c>
       <c r="G79" s="3"/>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A80" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="B80" s="1" t="s">
-        <v>96</v>
-      </c>
       <c r="F80" s="1">
         <v>5</v>
       </c>
@@ -2451,10 +2444,10 @@
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F81" s="1">
         <v>5</v>
@@ -2462,6 +2455,12 @@
       <c r="G81" s="3"/>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A82" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>95</v>
+      </c>
       <c r="F82" s="1">
         <v>5</v>
       </c>
@@ -2469,10 +2468,10 @@
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="F83" s="1">
         <v>5</v>
@@ -2480,12 +2479,6 @@
       <c r="G83" s="3"/>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A84" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="B84" s="1" t="s">
-        <v>98</v>
-      </c>
       <c r="F84" s="1">
         <v>5</v>
       </c>
@@ -2493,59 +2486,71 @@
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="F85" s="1">
+        <v>5</v>
+      </c>
+      <c r="G85" s="3"/>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A86" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="F86" s="1">
+        <v>5</v>
+      </c>
+      <c r="G86" s="3"/>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A87" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="F87" s="1">
+        <v>5</v>
+      </c>
+      <c r="G87" s="3"/>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F88" s="1">
+        <v>5</v>
+      </c>
+      <c r="G88" s="3"/>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F89" s="1">
+        <v>5</v>
+      </c>
+      <c r="G89" s="3"/>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A90" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="B85" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="F85" s="1">
-        <v>5</v>
-      </c>
-      <c r="G85" s="3"/>
-    </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="F86" s="1">
-        <v>5</v>
-      </c>
-      <c r="G86" s="3"/>
-    </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="F87" s="1">
-        <v>5</v>
-      </c>
-      <c r="G87" s="3"/>
-    </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A88" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="B88" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="F88" s="1">
-        <v>5</v>
-      </c>
-      <c r="G88" s="3"/>
-    </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A89" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="B89" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="F89" s="1">
-        <v>5</v>
-      </c>
-      <c r="G89" s="3"/>
-    </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B90" s="1" t="s">
+        <v>93</v>
+      </c>
       <c r="F90" s="1">
         <v>5</v>
       </c>
       <c r="G90" s="3"/>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A91" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>97</v>
+      </c>
       <c r="F91" s="1">
         <v>5</v>
       </c>
@@ -2558,12 +2563,6 @@
       <c r="G92" s="3"/>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A93" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="B93" s="1" t="s">
-        <v>98</v>
-      </c>
       <c r="F93" s="1">
         <v>5</v>
       </c>
@@ -2577,7 +2576,10 @@
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" s="3" t="s">
-        <v>181</v>
+        <v>178</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>97</v>
       </c>
       <c r="F95" s="1">
         <v>5</v>
@@ -2592,7 +2594,7 @@
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97" s="3" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="F97" s="1">
         <v>5</v>
@@ -2600,9 +2602,6 @@
       <c r="G97" s="3"/>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A98" s="3" t="s">
-        <v>188</v>
-      </c>
       <c r="F98" s="1">
         <v>5</v>
       </c>
@@ -2610,29 +2609,35 @@
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="F99" s="1">
+        <v>5</v>
+      </c>
+      <c r="G99" s="3"/>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A100" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="F100" s="1">
+        <v>5</v>
+      </c>
+      <c r="G100" s="3"/>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A101" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="F101" s="1">
+        <v>5</v>
+      </c>
+      <c r="G101" s="3"/>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A102" s="4" t="s">
         <v>189</v>
       </c>
-      <c r="F99" s="1">
-        <v>5</v>
-      </c>
-      <c r="G99" s="3"/>
-    </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A100" s="15" t="s">
-        <v>190</v>
-      </c>
-      <c r="F100" s="1">
-        <v>5</v>
-      </c>
-      <c r="G100" s="3"/>
-    </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="F101" s="1">
-        <v>5</v>
-      </c>
-      <c r="G101" s="3"/>
-    </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F102" s="1">
         <v>5</v>
       </c>
@@ -2645,39 +2650,36 @@
       <c r="G103" s="3"/>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A104" s="3" t="s">
-        <v>187</v>
-      </c>
       <c r="F104" s="1">
         <v>5</v>
       </c>
       <c r="G104" s="3"/>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A105" s="3" t="s">
-        <v>191</v>
-      </c>
       <c r="F105" s="1">
         <v>5</v>
       </c>
       <c r="G105" s="3"/>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A106" s="3" t="s">
+        <v>186</v>
+      </c>
       <c r="F106" s="1">
         <v>5</v>
       </c>
       <c r="G106" s="3"/>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A107" s="3" t="s">
+        <v>190</v>
+      </c>
       <c r="F107" s="1">
         <v>5</v>
       </c>
       <c r="G107" s="3"/>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A108" s="33" t="s">
-        <v>192</v>
-      </c>
       <c r="F108" s="1">
         <v>5</v>
       </c>
@@ -2690,8 +2692,8 @@
       <c r="G109" s="3"/>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A110" s="3" t="s">
-        <v>193</v>
+      <c r="A110" s="13" t="s">
+        <v>191</v>
       </c>
       <c r="F110" s="1">
         <v>5</v>
@@ -2706,7 +2708,7 @@
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A112" s="3" t="s">
-        <v>86</v>
+        <v>192</v>
       </c>
       <c r="F112" s="1">
         <v>5</v>
@@ -2720,8 +2722,8 @@
       <c r="G113" s="3"/>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A114" s="18" t="s">
-        <v>195</v>
+      <c r="A114" s="3" t="s">
+        <v>85</v>
       </c>
       <c r="F114" s="1">
         <v>5</v>
@@ -2729,17 +2731,14 @@
       <c r="G114" s="3"/>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A115" s="3" t="s">
-        <v>198</v>
-      </c>
       <c r="F115" s="1">
         <v>5</v>
       </c>
       <c r="G115" s="3"/>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A116" s="3" t="s">
-        <v>196</v>
+      <c r="A116" s="7" t="s">
+        <v>194</v>
       </c>
       <c r="F116" s="1">
         <v>5</v>
@@ -2757,59 +2756,65 @@
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A118" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="F118" s="1">
+        <v>5</v>
+      </c>
+      <c r="G118" s="3"/>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A119" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="F119" s="1">
+        <v>5</v>
+      </c>
+      <c r="G119" s="3"/>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A120" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="F120" s="1">
+        <v>5</v>
+      </c>
+      <c r="G120" s="3"/>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F121" s="1">
+        <v>5</v>
+      </c>
+      <c r="G121" s="3"/>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F122" s="1">
+        <v>5</v>
+      </c>
+      <c r="G122" s="3"/>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A123" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F123" s="1">
+        <v>5</v>
+      </c>
+      <c r="G123" s="3"/>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A124" s="3" t="s">
         <v>199</v>
       </c>
-      <c r="F118" s="1">
-        <v>5</v>
-      </c>
-      <c r="G118" s="3"/>
-    </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="F119" s="1">
-        <v>5</v>
-      </c>
-      <c r="G119" s="3"/>
-    </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="F120" s="1">
-        <v>5</v>
-      </c>
-      <c r="G120" s="3"/>
-    </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A121" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="F121" s="1">
-        <v>5</v>
-      </c>
-      <c r="G121" s="3"/>
-    </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A122" s="3" t="s">
+      <c r="F124" s="1">
+        <v>5</v>
+      </c>
+      <c r="G124" s="3"/>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A125" s="3" t="s">
         <v>200</v>
       </c>
-      <c r="F122" s="1">
-        <v>5</v>
-      </c>
-      <c r="G122" s="3"/>
-    </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A123" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="F123" s="1">
-        <v>5</v>
-      </c>
-      <c r="G123" s="3"/>
-    </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="F124" s="1">
-        <v>5</v>
-      </c>
-      <c r="G124" s="3"/>
-    </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F125" s="1">
         <v>5</v>
       </c>
@@ -2846,58 +2851,52 @@
       <c r="G130" s="3"/>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A131" s="16" t="s">
+      <c r="F131" s="1">
+        <v>5</v>
+      </c>
+      <c r="G131" s="3"/>
+    </row>
+    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F132" s="1">
+        <v>5</v>
+      </c>
+      <c r="G132" s="3"/>
+    </row>
+    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A133" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="B133" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="B131" s="16" t="s">
+      <c r="C133" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="C131" s="16" t="s">
+      <c r="D133" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="E133" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="F133" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="D131" s="16" t="s">
-        <v>103</v>
-      </c>
-      <c r="E131" s="16" t="s">
-        <v>141</v>
-      </c>
-      <c r="F131" s="16" t="s">
-        <v>93</v>
-      </c>
-      <c r="G131" s="16"/>
-    </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A132" s="29" t="s">
-        <v>186</v>
-      </c>
-      <c r="B132" s="29"/>
-      <c r="C132" s="29"/>
-      <c r="D132" s="29"/>
-      <c r="E132" s="29"/>
-      <c r="F132" s="29"/>
-      <c r="G132" s="29"/>
-    </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A133" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="F133" s="1">
-        <v>1</v>
-      </c>
-      <c r="G133" s="3"/>
+      <c r="G133" s="5"/>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A134" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F134" s="1">
-        <v>1</v>
-      </c>
-      <c r="G134" s="3"/>
+      <c r="A134" s="15" t="s">
+        <v>185</v>
+      </c>
+      <c r="B134" s="15"/>
+      <c r="C134" s="15"/>
+      <c r="D134" s="15"/>
+      <c r="E134" s="15"/>
+      <c r="F134" s="15"/>
+      <c r="G134" s="15"/>
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A135" s="3" t="s">
-        <v>19</v>
+        <v>193</v>
       </c>
       <c r="F135" s="1">
         <v>1</v>
@@ -2906,7 +2905,7 @@
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A136" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F136" s="1">
         <v>1</v>
@@ -2915,7 +2914,7 @@
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A137" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F137" s="1">
         <v>1</v>
@@ -2924,7 +2923,7 @@
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A138" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F138" s="1">
         <v>1</v>
@@ -2933,7 +2932,7 @@
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A139" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F139" s="1">
         <v>1</v>
@@ -2942,7 +2941,7 @@
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A140" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F140" s="1">
         <v>1</v>
@@ -2951,7 +2950,7 @@
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A141" s="3" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="F141" s="1">
         <v>1</v>
@@ -2960,7 +2959,7 @@
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A142" s="3" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="F142" s="1">
         <v>1</v>
@@ -2968,8 +2967,8 @@
       <c r="G142" s="3"/>
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A143" s="33" t="s">
-        <v>213</v>
+      <c r="A143" s="3" t="s">
+        <v>27</v>
       </c>
       <c r="F143" s="1">
         <v>1</v>
@@ -2977,8 +2976,8 @@
       <c r="G143" s="3"/>
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A144" s="3" t="s">
-        <v>29</v>
+      <c r="A144" s="13" t="s">
+        <v>220</v>
       </c>
       <c r="F144" s="1">
         <v>1</v>
@@ -2986,8 +2985,8 @@
       <c r="G144" s="3"/>
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A145" s="3" t="s">
-        <v>30</v>
+      <c r="A145" s="13" t="s">
+        <v>212</v>
       </c>
       <c r="F145" s="1">
         <v>1</v>
@@ -2996,7 +2995,7 @@
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A146" s="3" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="F146" s="1">
         <v>1</v>
@@ -3005,7 +3004,7 @@
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A147" s="3" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F147" s="1">
         <v>1</v>
@@ -3014,7 +3013,7 @@
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A148" s="3" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F148" s="1">
         <v>1</v>
@@ -3023,7 +3022,7 @@
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A149" s="3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F149" s="1">
         <v>1</v>
@@ -3031,6 +3030,9 @@
       <c r="G149" s="3"/>
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A150" s="3" t="s">
+        <v>32</v>
+      </c>
       <c r="F150" s="1">
         <v>1</v>
       </c>
@@ -3038,7 +3040,7 @@
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A151" s="3" t="s">
-        <v>214</v>
+        <v>33</v>
       </c>
       <c r="F151" s="1">
         <v>1</v>
@@ -3052,42 +3054,45 @@
       <c r="G152" s="3"/>
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A153" s="3" t="s">
+        <v>213</v>
+      </c>
       <c r="F153" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G153" s="3"/>
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F154" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G154" s="3"/>
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A155" s="33" t="s">
-        <v>35</v>
-      </c>
       <c r="F155" s="1">
         <v>5</v>
       </c>
       <c r="G155" s="3"/>
     </row>
     <row r="156" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A156" s="3" t="s">
-        <v>78</v>
-      </c>
       <c r="F156" s="1">
         <v>5</v>
       </c>
       <c r="G156" s="3"/>
     </row>
     <row r="157" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A157" s="13" t="s">
+        <v>34</v>
+      </c>
       <c r="F157" s="1">
         <v>5</v>
       </c>
       <c r="G157" s="3"/>
     </row>
     <row r="158" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A158" s="3" t="s">
+        <v>77</v>
+      </c>
       <c r="F158" s="1">
         <v>5</v>
       </c>
@@ -4160,11 +4165,23 @@
         <v>5</v>
       </c>
       <c r="G336" s="3"/>
+    </row>
+    <row r="337" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F337" s="1">
+        <v>5</v>
+      </c>
+      <c r="G337" s="3"/>
+    </row>
+    <row r="338" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F338" s="1">
+        <v>5</v>
+      </c>
+      <c r="G338" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="A4:G4"/>
-    <mergeCell ref="A132:G132"/>
+    <mergeCell ref="A134:G134"/>
     <mergeCell ref="A34:G34"/>
     <mergeCell ref="A44:G44"/>
     <mergeCell ref="A1:G2"/>
@@ -4192,1291 +4209,1075 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8" t="s">
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="29" t="s">
+        <v>201</v>
+      </c>
+      <c r="I1" s="29"/>
+      <c r="J1" s="29"/>
+      <c r="K1" s="29"/>
+      <c r="L1" s="29"/>
+      <c r="M1" s="29"/>
+      <c r="N1" s="29"/>
+      <c r="O1" s="29" t="s">
         <v>202</v>
       </c>
-      <c r="I1" s="8"/>
-      <c r="J1" s="8"/>
-      <c r="K1" s="8"/>
-      <c r="L1" s="8"/>
-      <c r="M1" s="8"/>
-      <c r="N1" s="8"/>
-      <c r="O1" s="8" t="s">
+      <c r="P1" s="29"/>
+      <c r="Q1" s="29"/>
+      <c r="R1" s="29"/>
+      <c r="S1" s="29"/>
+      <c r="T1" s="29"/>
+      <c r="U1" s="29"/>
+      <c r="V1" s="29" t="s">
+        <v>36</v>
+      </c>
+      <c r="W1" s="29"/>
+      <c r="X1" s="29"/>
+      <c r="Y1" s="29"/>
+      <c r="Z1" s="29"/>
+      <c r="AA1" s="29"/>
+      <c r="AB1" s="29"/>
+    </row>
+    <row r="2" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="29"/>
+      <c r="B2" s="29"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="29"/>
+      <c r="G2" s="29"/>
+      <c r="H2" s="29"/>
+      <c r="I2" s="29"/>
+      <c r="J2" s="29"/>
+      <c r="K2" s="29"/>
+      <c r="L2" s="29"/>
+      <c r="M2" s="29"/>
+      <c r="N2" s="29"/>
+      <c r="O2" s="29"/>
+      <c r="P2" s="29"/>
+      <c r="Q2" s="29"/>
+      <c r="R2" s="29"/>
+      <c r="S2" s="29"/>
+      <c r="T2" s="29"/>
+      <c r="U2" s="29"/>
+      <c r="V2" s="29"/>
+      <c r="W2" s="29"/>
+      <c r="X2" s="29"/>
+      <c r="Y2" s="29"/>
+      <c r="Z2" s="29"/>
+      <c r="AA2" s="29"/>
+      <c r="AB2" s="29"/>
+    </row>
+    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A3" s="30" t="s">
+        <v>35</v>
+      </c>
+      <c r="B3" s="30"/>
+      <c r="C3" s="31" t="s">
+        <v>37</v>
+      </c>
+      <c r="D3" s="31"/>
+      <c r="E3" s="31"/>
+      <c r="F3" s="31"/>
+      <c r="G3" s="31"/>
+      <c r="H3" s="30" t="s">
+        <v>35</v>
+      </c>
+      <c r="I3" s="30"/>
+      <c r="J3" s="31" t="s">
+        <v>37</v>
+      </c>
+      <c r="K3" s="31"/>
+      <c r="L3" s="31"/>
+      <c r="M3" s="31"/>
+      <c r="N3" s="31"/>
+      <c r="O3" s="30" t="s">
+        <v>35</v>
+      </c>
+      <c r="P3" s="30"/>
+      <c r="Q3" s="31" t="s">
+        <v>37</v>
+      </c>
+      <c r="R3" s="31"/>
+      <c r="S3" s="31"/>
+      <c r="T3" s="31"/>
+      <c r="U3" s="31"/>
+      <c r="V3" s="30" t="s">
+        <v>35</v>
+      </c>
+      <c r="W3" s="30"/>
+      <c r="X3" s="31" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y3" s="31"/>
+      <c r="Z3" s="31"/>
+      <c r="AA3" s="31"/>
+      <c r="AB3" s="31"/>
+    </row>
+    <row r="4" spans="1:28" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="24" t="s">
+        <v>42</v>
+      </c>
+      <c r="B4" s="24"/>
+      <c r="C4" s="25" t="s">
+        <v>47</v>
+      </c>
+      <c r="D4" s="25"/>
+      <c r="E4" s="25"/>
+      <c r="F4" s="25"/>
+      <c r="G4" s="25"/>
+      <c r="H4" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="I4" s="24"/>
+      <c r="J4" s="25" t="s">
+        <v>49</v>
+      </c>
+      <c r="K4" s="25"/>
+      <c r="L4" s="25"/>
+      <c r="M4" s="25"/>
+      <c r="N4" s="25"/>
+      <c r="O4" s="26" t="s">
         <v>203</v>
       </c>
-      <c r="P1" s="8"/>
-      <c r="Q1" s="8"/>
-      <c r="R1" s="8"/>
-      <c r="S1" s="8"/>
-      <c r="T1" s="8"/>
-      <c r="U1" s="8"/>
-      <c r="V1" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="W1" s="8"/>
-      <c r="X1" s="8"/>
-      <c r="Y1" s="8"/>
-      <c r="Z1" s="8"/>
-      <c r="AA1" s="8"/>
-      <c r="AB1" s="8"/>
-    </row>
-    <row r="2" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="8"/>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
-      <c r="J2" s="8"/>
-      <c r="K2" s="8"/>
-      <c r="L2" s="8"/>
-      <c r="M2" s="8"/>
-      <c r="N2" s="8"/>
-      <c r="O2" s="8"/>
-      <c r="P2" s="8"/>
-      <c r="Q2" s="8"/>
-      <c r="R2" s="8"/>
-      <c r="S2" s="8"/>
-      <c r="T2" s="8"/>
-      <c r="U2" s="8"/>
-      <c r="V2" s="8"/>
-      <c r="W2" s="8"/>
-      <c r="X2" s="8"/>
-      <c r="Y2" s="8"/>
-      <c r="Z2" s="8"/>
-      <c r="AA2" s="8"/>
-      <c r="AB2" s="8"/>
-    </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A3" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="B3" s="9"/>
-      <c r="C3" s="10" t="s">
+      <c r="P4" s="26"/>
+      <c r="Q4" s="25" t="s">
+        <v>204</v>
+      </c>
+      <c r="R4" s="25"/>
+      <c r="S4" s="25"/>
+      <c r="T4" s="25"/>
+      <c r="U4" s="25"/>
+      <c r="V4" s="26" t="s">
+        <v>67</v>
+      </c>
+      <c r="W4" s="26"/>
+      <c r="X4" s="25" t="s">
+        <v>66</v>
+      </c>
+      <c r="Y4" s="25"/>
+      <c r="Z4" s="25"/>
+      <c r="AA4" s="25"/>
+      <c r="AB4" s="25"/>
+    </row>
+    <row r="5" spans="1:28" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="10"/>
-      <c r="H3" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="I3" s="9"/>
-      <c r="J3" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="K3" s="10"/>
-      <c r="L3" s="10"/>
-      <c r="M3" s="10"/>
-      <c r="N3" s="10"/>
-      <c r="O3" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="P3" s="9"/>
-      <c r="Q3" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="R3" s="10"/>
-      <c r="S3" s="10"/>
-      <c r="T3" s="10"/>
-      <c r="U3" s="10"/>
-      <c r="V3" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="W3" s="9"/>
-      <c r="X3" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="Y3" s="10"/>
-      <c r="Z3" s="10"/>
-      <c r="AA3" s="10"/>
-      <c r="AB3" s="10"/>
-    </row>
-    <row r="4" spans="1:28" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
+      <c r="B5" s="24"/>
+      <c r="C5" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="D5" s="25"/>
+      <c r="E5" s="25"/>
+      <c r="F5" s="25"/>
+      <c r="G5" s="25"/>
+      <c r="H5" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="I5" s="24"/>
+      <c r="J5" s="25" t="s">
+        <v>51</v>
+      </c>
+      <c r="K5" s="25"/>
+      <c r="L5" s="25"/>
+      <c r="M5" s="25"/>
+      <c r="N5" s="25"/>
+      <c r="O5" s="26" t="s">
+        <v>205</v>
+      </c>
+      <c r="P5" s="26"/>
+      <c r="Q5" s="25"/>
+      <c r="R5" s="25"/>
+      <c r="S5" s="25"/>
+      <c r="T5" s="25"/>
+      <c r="U5" s="25"/>
+      <c r="V5" s="26" t="s">
+        <v>68</v>
+      </c>
+      <c r="W5" s="26"/>
+      <c r="X5" s="25" t="s">
+        <v>71</v>
+      </c>
+      <c r="Y5" s="25"/>
+      <c r="Z5" s="25"/>
+      <c r="AA5" s="25"/>
+      <c r="AB5" s="25"/>
+    </row>
+    <row r="6" spans="1:28" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="B6" s="24"/>
+      <c r="C6" s="25" t="s">
+        <v>57</v>
+      </c>
+      <c r="D6" s="25"/>
+      <c r="E6" s="25"/>
+      <c r="F6" s="25"/>
+      <c r="G6" s="25"/>
+      <c r="H6" s="24" t="s">
+        <v>53</v>
+      </c>
+      <c r="I6" s="24"/>
+      <c r="J6" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="K6" s="25"/>
+      <c r="L6" s="25"/>
+      <c r="M6" s="25"/>
+      <c r="N6" s="25"/>
+      <c r="O6" s="26" t="s">
+        <v>206</v>
+      </c>
+      <c r="P6" s="26"/>
+      <c r="Q6" s="25"/>
+      <c r="R6" s="25"/>
+      <c r="S6" s="25"/>
+      <c r="T6" s="25"/>
+      <c r="U6" s="25"/>
+      <c r="V6" s="26" t="s">
+        <v>69</v>
+      </c>
+      <c r="W6" s="26"/>
+      <c r="X6" s="25" t="s">
+        <v>70</v>
+      </c>
+      <c r="Y6" s="25"/>
+      <c r="Z6" s="25"/>
+      <c r="AA6" s="25"/>
+      <c r="AB6" s="25"/>
+    </row>
+    <row r="7" spans="1:28" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="B7" s="24"/>
+      <c r="C7" s="25" t="s">
+        <v>46</v>
+      </c>
+      <c r="D7" s="25"/>
+      <c r="E7" s="25"/>
+      <c r="F7" s="25"/>
+      <c r="G7" s="25"/>
+      <c r="H7" s="24" t="s">
+        <v>54</v>
+      </c>
+      <c r="I7" s="24"/>
+      <c r="J7" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="K7" s="25"/>
+      <c r="L7" s="25"/>
+      <c r="M7" s="25"/>
+      <c r="N7" s="25"/>
+      <c r="O7" s="26" t="s">
+        <v>207</v>
+      </c>
+      <c r="P7" s="26"/>
+      <c r="Q7" s="25"/>
+      <c r="R7" s="25"/>
+      <c r="S7" s="25"/>
+      <c r="T7" s="25"/>
+      <c r="U7" s="25"/>
+      <c r="V7" s="26" t="s">
+        <v>72</v>
+      </c>
+      <c r="W7" s="26"/>
+      <c r="X7" s="25" t="s">
+        <v>73</v>
+      </c>
+      <c r="Y7" s="25"/>
+      <c r="Z7" s="25"/>
+      <c r="AA7" s="25"/>
+      <c r="AB7" s="25"/>
+    </row>
+    <row r="8" spans="1:28" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="24" t="s">
+        <v>41</v>
+      </c>
+      <c r="B8" s="24"/>
+      <c r="C8" s="25" t="s">
+        <v>59</v>
+      </c>
+      <c r="D8" s="25"/>
+      <c r="E8" s="25"/>
+      <c r="F8" s="25"/>
+      <c r="G8" s="25"/>
+      <c r="H8" s="27" t="s">
+        <v>56</v>
+      </c>
+      <c r="I8" s="27"/>
+      <c r="J8" s="28" t="s">
+        <v>55</v>
+      </c>
+      <c r="K8" s="28"/>
+      <c r="L8" s="28"/>
+      <c r="M8" s="28"/>
+      <c r="N8" s="28"/>
+      <c r="O8" s="26" t="s">
+        <v>208</v>
+      </c>
+      <c r="P8" s="26"/>
+      <c r="Q8" s="25" t="s">
+        <v>209</v>
+      </c>
+      <c r="R8" s="25"/>
+      <c r="S8" s="25"/>
+      <c r="T8" s="25"/>
+      <c r="U8" s="25"/>
+      <c r="V8" s="26" t="s">
+        <v>74</v>
+      </c>
+      <c r="W8" s="26"/>
+      <c r="X8" s="25" t="s">
+        <v>66</v>
+      </c>
+      <c r="Y8" s="25"/>
+      <c r="Z8" s="25"/>
+      <c r="AA8" s="25"/>
+      <c r="AB8" s="25"/>
+    </row>
+    <row r="9" spans="1:28" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="B4" s="4"/>
-      <c r="C4" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="I4" s="4"/>
-      <c r="J4" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="K4" s="6"/>
-      <c r="L4" s="6"/>
-      <c r="M4" s="6"/>
-      <c r="N4" s="6"/>
-      <c r="O4" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="P4" s="7"/>
-      <c r="Q4" s="6" t="s">
-        <v>205</v>
-      </c>
-      <c r="R4" s="6"/>
-      <c r="S4" s="6"/>
-      <c r="T4" s="6"/>
-      <c r="U4" s="6"/>
-      <c r="V4" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="W4" s="7"/>
-      <c r="X4" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="Y4" s="6"/>
-      <c r="Z4" s="6"/>
-      <c r="AA4" s="6"/>
-      <c r="AB4" s="6"/>
-    </row>
-    <row r="5" spans="1:28" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="B5" s="4"/>
-      <c r="C5" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="I5" s="4"/>
-      <c r="J5" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="K5" s="6"/>
-      <c r="L5" s="6"/>
-      <c r="M5" s="6"/>
-      <c r="N5" s="6"/>
-      <c r="O5" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="P5" s="7"/>
-      <c r="Q5" s="6"/>
-      <c r="R5" s="6"/>
-      <c r="S5" s="6"/>
-      <c r="T5" s="6"/>
-      <c r="U5" s="6"/>
-      <c r="V5" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="W5" s="7"/>
-      <c r="X5" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="Y5" s="6"/>
-      <c r="Z5" s="6"/>
-      <c r="AA5" s="6"/>
-      <c r="AB5" s="6"/>
-    </row>
-    <row r="6" spans="1:28" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="B6" s="4"/>
-      <c r="C6" s="6" t="s">
+      <c r="B9" s="24"/>
+      <c r="C9" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="D9" s="25"/>
+      <c r="E9" s="25"/>
+      <c r="F9" s="25"/>
+      <c r="G9" s="25"/>
+      <c r="H9" s="24" t="s">
+        <v>83</v>
+      </c>
+      <c r="I9" s="24"/>
+      <c r="J9" s="25" t="s">
+        <v>61</v>
+      </c>
+      <c r="K9" s="25"/>
+      <c r="L9" s="25"/>
+      <c r="M9" s="25"/>
+      <c r="N9" s="25"/>
+      <c r="O9" s="26"/>
+      <c r="P9" s="26"/>
+      <c r="Q9" s="25"/>
+      <c r="R9" s="25"/>
+      <c r="S9" s="25"/>
+      <c r="T9" s="25"/>
+      <c r="U9" s="25"/>
+      <c r="V9" s="26" t="s">
+        <v>75</v>
+      </c>
+      <c r="W9" s="26"/>
+      <c r="X9" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="Y9" s="25"/>
+      <c r="Z9" s="25"/>
+      <c r="AA9" s="25"/>
+      <c r="AB9" s="25"/>
+    </row>
+    <row r="10" spans="1:28" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="B10" s="24"/>
+      <c r="C10" s="25" t="s">
         <v>58</v>
       </c>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="I6" s="4"/>
-      <c r="J6" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="K6" s="6"/>
-      <c r="L6" s="6"/>
-      <c r="M6" s="6"/>
-      <c r="N6" s="6"/>
-      <c r="O6" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="P6" s="7"/>
-      <c r="Q6" s="6"/>
-      <c r="R6" s="6"/>
-      <c r="S6" s="6"/>
-      <c r="T6" s="6"/>
-      <c r="U6" s="6"/>
-      <c r="V6" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="W6" s="7"/>
-      <c r="X6" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="Y6" s="6"/>
-      <c r="Z6" s="6"/>
-      <c r="AA6" s="6"/>
-      <c r="AB6" s="6"/>
-    </row>
-    <row r="7" spans="1:28" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="B7" s="4"/>
-      <c r="C7" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="I7" s="4"/>
-      <c r="J7" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="K7" s="6"/>
-      <c r="L7" s="6"/>
-      <c r="M7" s="6"/>
-      <c r="N7" s="6"/>
-      <c r="O7" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="P7" s="7"/>
-      <c r="Q7" s="6"/>
-      <c r="R7" s="6"/>
-      <c r="S7" s="6"/>
-      <c r="T7" s="6"/>
-      <c r="U7" s="6"/>
-      <c r="V7" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="W7" s="7"/>
-      <c r="X7" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="Y7" s="6"/>
-      <c r="Z7" s="6"/>
-      <c r="AA7" s="6"/>
-      <c r="AB7" s="6"/>
-    </row>
-    <row r="8" spans="1:28" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="B8" s="4"/>
-      <c r="C8" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="I8" s="11"/>
-      <c r="J8" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="K8" s="12"/>
-      <c r="L8" s="12"/>
-      <c r="M8" s="12"/>
-      <c r="N8" s="12"/>
-      <c r="O8" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="P8" s="7"/>
-      <c r="Q8" s="6" t="s">
-        <v>210</v>
-      </c>
-      <c r="R8" s="6"/>
-      <c r="S8" s="6"/>
-      <c r="T8" s="6"/>
-      <c r="U8" s="6"/>
-      <c r="V8" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="W8" s="7"/>
-      <c r="X8" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="Y8" s="6"/>
-      <c r="Z8" s="6"/>
-      <c r="AA8" s="6"/>
-      <c r="AB8" s="6"/>
-    </row>
-    <row r="9" spans="1:28" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="B9" s="4"/>
-      <c r="C9" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="I9" s="4"/>
-      <c r="J9" s="6" t="s">
+      <c r="D10" s="25"/>
+      <c r="E10" s="25"/>
+      <c r="F10" s="25"/>
+      <c r="G10" s="25"/>
+      <c r="H10" s="24" t="s">
         <v>62</v>
       </c>
-      <c r="K9" s="6"/>
-      <c r="L9" s="6"/>
-      <c r="M9" s="6"/>
-      <c r="N9" s="6"/>
-      <c r="O9" s="7"/>
-      <c r="P9" s="7"/>
-      <c r="Q9" s="6"/>
-      <c r="R9" s="6"/>
-      <c r="S9" s="6"/>
-      <c r="T9" s="6"/>
-      <c r="U9" s="6"/>
-      <c r="V9" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="W9" s="7"/>
-      <c r="X9" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="Y9" s="6"/>
-      <c r="Z9" s="6"/>
-      <c r="AA9" s="6"/>
-      <c r="AB9" s="6"/>
-    </row>
-    <row r="10" spans="1:28" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="B10" s="4"/>
-      <c r="C10" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="4" t="s">
+      <c r="I10" s="24"/>
+      <c r="J10" s="25" t="s">
         <v>63</v>
       </c>
-      <c r="I10" s="4"/>
-      <c r="J10" s="6" t="s">
+      <c r="K10" s="25"/>
+      <c r="L10" s="25"/>
+      <c r="M10" s="25"/>
+      <c r="N10" s="25"/>
+      <c r="O10" s="26"/>
+      <c r="P10" s="26"/>
+      <c r="Q10" s="25"/>
+      <c r="R10" s="25"/>
+      <c r="S10" s="25"/>
+      <c r="T10" s="25"/>
+      <c r="U10" s="25"/>
+      <c r="V10" s="26" t="s">
+        <v>78</v>
+      </c>
+      <c r="W10" s="26"/>
+      <c r="X10" s="25" t="s">
+        <v>79</v>
+      </c>
+      <c r="Y10" s="25"/>
+      <c r="Z10" s="25"/>
+      <c r="AA10" s="25"/>
+      <c r="AB10" s="25"/>
+    </row>
+    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A11" s="24"/>
+      <c r="B11" s="24"/>
+      <c r="C11" s="25"/>
+      <c r="D11" s="25"/>
+      <c r="E11" s="25"/>
+      <c r="F11" s="25"/>
+      <c r="G11" s="25"/>
+      <c r="H11" s="24" t="s">
         <v>64</v>
       </c>
-      <c r="K10" s="6"/>
-      <c r="L10" s="6"/>
-      <c r="M10" s="6"/>
-      <c r="N10" s="6"/>
-      <c r="O10" s="7"/>
-      <c r="P10" s="7"/>
-      <c r="Q10" s="6"/>
-      <c r="R10" s="6"/>
-      <c r="S10" s="6"/>
-      <c r="T10" s="6"/>
-      <c r="U10" s="6"/>
-      <c r="V10" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="W10" s="7"/>
-      <c r="X10" s="6" t="s">
+      <c r="I11" s="24"/>
+      <c r="J11" s="25" t="s">
+        <v>65</v>
+      </c>
+      <c r="K11" s="25"/>
+      <c r="L11" s="25"/>
+      <c r="M11" s="25"/>
+      <c r="N11" s="25"/>
+      <c r="O11" s="26"/>
+      <c r="P11" s="26"/>
+      <c r="Q11" s="25"/>
+      <c r="R11" s="25"/>
+      <c r="S11" s="25"/>
+      <c r="T11" s="25"/>
+      <c r="U11" s="25"/>
+      <c r="V11" s="26" t="s">
         <v>80</v>
       </c>
-      <c r="Y10" s="6"/>
-      <c r="Z10" s="6"/>
-      <c r="AA10" s="6"/>
-      <c r="AB10" s="6"/>
-    </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A11" s="4"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="I11" s="4"/>
-      <c r="J11" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="K11" s="6"/>
-      <c r="L11" s="6"/>
-      <c r="M11" s="6"/>
-      <c r="N11" s="6"/>
-      <c r="O11" s="7"/>
-      <c r="P11" s="7"/>
-      <c r="Q11" s="6"/>
-      <c r="R11" s="6"/>
-      <c r="S11" s="6"/>
-      <c r="T11" s="6"/>
-      <c r="U11" s="6"/>
-      <c r="V11" s="7" t="s">
+      <c r="W11" s="26"/>
+      <c r="X11" s="25" t="s">
         <v>81</v>
       </c>
-      <c r="W11" s="7"/>
-      <c r="X11" s="6" t="s">
+      <c r="Y11" s="25"/>
+      <c r="Z11" s="25"/>
+      <c r="AA11" s="25"/>
+      <c r="AB11" s="25"/>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A12" s="24"/>
+      <c r="B12" s="24"/>
+      <c r="C12" s="25"/>
+      <c r="D12" s="25"/>
+      <c r="E12" s="25"/>
+      <c r="F12" s="25"/>
+      <c r="G12" s="25"/>
+      <c r="H12" s="24" t="s">
         <v>82</v>
       </c>
-      <c r="Y11" s="6"/>
-      <c r="Z11" s="6"/>
-      <c r="AA11" s="6"/>
-      <c r="AB11" s="6"/>
-    </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A12" s="4"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="I12" s="4"/>
-      <c r="J12" s="6"/>
-      <c r="K12" s="6"/>
-      <c r="L12" s="6"/>
-      <c r="M12" s="6"/>
-      <c r="N12" s="6"/>
-      <c r="O12" s="7"/>
-      <c r="P12" s="7"/>
-      <c r="Q12" s="6"/>
-      <c r="R12" s="6"/>
-      <c r="S12" s="6"/>
-      <c r="T12" s="6"/>
-      <c r="U12" s="6"/>
-      <c r="V12" s="7"/>
-      <c r="W12" s="7"/>
-      <c r="X12" s="6"/>
-      <c r="Y12" s="6"/>
-      <c r="Z12" s="6"/>
-      <c r="AA12" s="6"/>
-      <c r="AB12" s="6"/>
+      <c r="I12" s="24"/>
+      <c r="J12" s="25"/>
+      <c r="K12" s="25"/>
+      <c r="L12" s="25"/>
+      <c r="M12" s="25"/>
+      <c r="N12" s="25"/>
+      <c r="O12" s="26"/>
+      <c r="P12" s="26"/>
+      <c r="Q12" s="25"/>
+      <c r="R12" s="25"/>
+      <c r="S12" s="25"/>
+      <c r="T12" s="25"/>
+      <c r="U12" s="25"/>
+      <c r="V12" s="26"/>
+      <c r="W12" s="26"/>
+      <c r="X12" s="25"/>
+      <c r="Y12" s="25"/>
+      <c r="Z12" s="25"/>
+      <c r="AA12" s="25"/>
+      <c r="AB12" s="25"/>
     </row>
     <row r="13" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A13" s="4"/>
-      <c r="B13" s="4"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="4"/>
-      <c r="I13" s="4"/>
-      <c r="J13" s="6"/>
-      <c r="K13" s="6"/>
-      <c r="L13" s="6"/>
-      <c r="M13" s="6"/>
-      <c r="N13" s="6"/>
-      <c r="O13" s="7"/>
-      <c r="P13" s="7"/>
-      <c r="Q13" s="6"/>
-      <c r="R13" s="6"/>
-      <c r="S13" s="6"/>
-      <c r="T13" s="6"/>
-      <c r="U13" s="6"/>
-      <c r="V13" s="7"/>
-      <c r="W13" s="7"/>
-      <c r="X13" s="6"/>
-      <c r="Y13" s="6"/>
-      <c r="Z13" s="6"/>
-      <c r="AA13" s="6"/>
-      <c r="AB13" s="6"/>
+      <c r="A13" s="24"/>
+      <c r="B13" s="24"/>
+      <c r="C13" s="25"/>
+      <c r="D13" s="25"/>
+      <c r="E13" s="25"/>
+      <c r="F13" s="25"/>
+      <c r="G13" s="25"/>
+      <c r="H13" s="24"/>
+      <c r="I13" s="24"/>
+      <c r="J13" s="25"/>
+      <c r="K13" s="25"/>
+      <c r="L13" s="25"/>
+      <c r="M13" s="25"/>
+      <c r="N13" s="25"/>
+      <c r="O13" s="26"/>
+      <c r="P13" s="26"/>
+      <c r="Q13" s="25"/>
+      <c r="R13" s="25"/>
+      <c r="S13" s="25"/>
+      <c r="T13" s="25"/>
+      <c r="U13" s="25"/>
+      <c r="V13" s="26"/>
+      <c r="W13" s="26"/>
+      <c r="X13" s="25"/>
+      <c r="Y13" s="25"/>
+      <c r="Z13" s="25"/>
+      <c r="AA13" s="25"/>
+      <c r="AB13" s="25"/>
     </row>
     <row r="14" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A14" s="4"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="6"/>
-      <c r="H14" s="4"/>
-      <c r="I14" s="4"/>
-      <c r="J14" s="6"/>
-      <c r="K14" s="6"/>
-      <c r="L14" s="6"/>
-      <c r="M14" s="6"/>
-      <c r="N14" s="6"/>
-      <c r="O14" s="7"/>
-      <c r="P14" s="7"/>
-      <c r="Q14" s="6"/>
-      <c r="R14" s="6"/>
-      <c r="S14" s="6"/>
-      <c r="T14" s="6"/>
-      <c r="U14" s="6"/>
-      <c r="V14" s="7"/>
-      <c r="W14" s="7"/>
-      <c r="X14" s="6"/>
-      <c r="Y14" s="6"/>
-      <c r="Z14" s="6"/>
-      <c r="AA14" s="6"/>
-      <c r="AB14" s="6"/>
+      <c r="A14" s="24"/>
+      <c r="B14" s="24"/>
+      <c r="C14" s="25"/>
+      <c r="D14" s="25"/>
+      <c r="E14" s="25"/>
+      <c r="F14" s="25"/>
+      <c r="G14" s="25"/>
+      <c r="H14" s="24"/>
+      <c r="I14" s="24"/>
+      <c r="J14" s="25"/>
+      <c r="K14" s="25"/>
+      <c r="L14" s="25"/>
+      <c r="M14" s="25"/>
+      <c r="N14" s="25"/>
+      <c r="O14" s="26"/>
+      <c r="P14" s="26"/>
+      <c r="Q14" s="25"/>
+      <c r="R14" s="25"/>
+      <c r="S14" s="25"/>
+      <c r="T14" s="25"/>
+      <c r="U14" s="25"/>
+      <c r="V14" s="26"/>
+      <c r="W14" s="26"/>
+      <c r="X14" s="25"/>
+      <c r="Y14" s="25"/>
+      <c r="Z14" s="25"/>
+      <c r="AA14" s="25"/>
+      <c r="AB14" s="25"/>
     </row>
     <row r="15" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A15" s="4"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="6"/>
-      <c r="H15" s="4"/>
-      <c r="I15" s="4"/>
-      <c r="J15" s="6"/>
-      <c r="K15" s="6"/>
-      <c r="L15" s="6"/>
-      <c r="M15" s="6"/>
-      <c r="N15" s="6"/>
-      <c r="O15" s="7"/>
-      <c r="P15" s="7"/>
-      <c r="Q15" s="6"/>
-      <c r="R15" s="6"/>
-      <c r="S15" s="6"/>
-      <c r="T15" s="6"/>
-      <c r="U15" s="6"/>
-      <c r="V15" s="7"/>
-      <c r="W15" s="7"/>
-      <c r="X15" s="6"/>
-      <c r="Y15" s="6"/>
-      <c r="Z15" s="6"/>
-      <c r="AA15" s="6"/>
-      <c r="AB15" s="6"/>
+      <c r="A15" s="24"/>
+      <c r="B15" s="24"/>
+      <c r="C15" s="25"/>
+      <c r="D15" s="25"/>
+      <c r="E15" s="25"/>
+      <c r="F15" s="25"/>
+      <c r="G15" s="25"/>
+      <c r="H15" s="24"/>
+      <c r="I15" s="24"/>
+      <c r="J15" s="25"/>
+      <c r="K15" s="25"/>
+      <c r="L15" s="25"/>
+      <c r="M15" s="25"/>
+      <c r="N15" s="25"/>
+      <c r="O15" s="26"/>
+      <c r="P15" s="26"/>
+      <c r="Q15" s="25"/>
+      <c r="R15" s="25"/>
+      <c r="S15" s="25"/>
+      <c r="T15" s="25"/>
+      <c r="U15" s="25"/>
+      <c r="V15" s="26"/>
+      <c r="W15" s="26"/>
+      <c r="X15" s="25"/>
+      <c r="Y15" s="25"/>
+      <c r="Z15" s="25"/>
+      <c r="AA15" s="25"/>
+      <c r="AB15" s="25"/>
     </row>
     <row r="16" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A16" s="4"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="6"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="6"/>
-      <c r="G16" s="6"/>
-      <c r="H16" s="4"/>
-      <c r="I16" s="4"/>
-      <c r="J16" s="6"/>
-      <c r="K16" s="6"/>
-      <c r="L16" s="6"/>
-      <c r="M16" s="6"/>
-      <c r="N16" s="6"/>
-      <c r="O16" s="7"/>
-      <c r="P16" s="7"/>
-      <c r="Q16" s="6"/>
-      <c r="R16" s="6"/>
-      <c r="S16" s="6"/>
-      <c r="T16" s="6"/>
-      <c r="U16" s="6"/>
-      <c r="V16" s="7"/>
-      <c r="W16" s="7"/>
-      <c r="X16" s="6"/>
-      <c r="Y16" s="6"/>
-      <c r="Z16" s="6"/>
-      <c r="AA16" s="6"/>
-      <c r="AB16" s="6"/>
+      <c r="A16" s="24"/>
+      <c r="B16" s="24"/>
+      <c r="C16" s="25"/>
+      <c r="D16" s="25"/>
+      <c r="E16" s="25"/>
+      <c r="F16" s="25"/>
+      <c r="G16" s="25"/>
+      <c r="H16" s="24"/>
+      <c r="I16" s="24"/>
+      <c r="J16" s="25"/>
+      <c r="K16" s="25"/>
+      <c r="L16" s="25"/>
+      <c r="M16" s="25"/>
+      <c r="N16" s="25"/>
+      <c r="O16" s="26"/>
+      <c r="P16" s="26"/>
+      <c r="Q16" s="25"/>
+      <c r="R16" s="25"/>
+      <c r="S16" s="25"/>
+      <c r="T16" s="25"/>
+      <c r="U16" s="25"/>
+      <c r="V16" s="26"/>
+      <c r="W16" s="26"/>
+      <c r="X16" s="25"/>
+      <c r="Y16" s="25"/>
+      <c r="Z16" s="25"/>
+      <c r="AA16" s="25"/>
+      <c r="AB16" s="25"/>
     </row>
     <row r="17" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A17" s="4"/>
-      <c r="B17" s="4"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="6"/>
-      <c r="H17" s="4"/>
-      <c r="I17" s="4"/>
-      <c r="J17" s="6"/>
-      <c r="K17" s="6"/>
-      <c r="L17" s="6"/>
-      <c r="M17" s="6"/>
-      <c r="N17" s="6"/>
-      <c r="O17" s="7"/>
-      <c r="P17" s="7"/>
-      <c r="Q17" s="6"/>
-      <c r="R17" s="6"/>
-      <c r="S17" s="6"/>
-      <c r="T17" s="6"/>
-      <c r="U17" s="6"/>
-      <c r="V17" s="7"/>
-      <c r="W17" s="7"/>
-      <c r="X17" s="6"/>
-      <c r="Y17" s="6"/>
-      <c r="Z17" s="6"/>
-      <c r="AA17" s="6"/>
-      <c r="AB17" s="6"/>
+      <c r="A17" s="24"/>
+      <c r="B17" s="24"/>
+      <c r="C17" s="25"/>
+      <c r="D17" s="25"/>
+      <c r="E17" s="25"/>
+      <c r="F17" s="25"/>
+      <c r="G17" s="25"/>
+      <c r="H17" s="24"/>
+      <c r="I17" s="24"/>
+      <c r="J17" s="25"/>
+      <c r="K17" s="25"/>
+      <c r="L17" s="25"/>
+      <c r="M17" s="25"/>
+      <c r="N17" s="25"/>
+      <c r="O17" s="26"/>
+      <c r="P17" s="26"/>
+      <c r="Q17" s="25"/>
+      <c r="R17" s="25"/>
+      <c r="S17" s="25"/>
+      <c r="T17" s="25"/>
+      <c r="U17" s="25"/>
+      <c r="V17" s="26"/>
+      <c r="W17" s="26"/>
+      <c r="X17" s="25"/>
+      <c r="Y17" s="25"/>
+      <c r="Z17" s="25"/>
+      <c r="AA17" s="25"/>
+      <c r="AB17" s="25"/>
     </row>
     <row r="18" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A18" s="4"/>
-      <c r="B18" s="4"/>
-      <c r="C18" s="6"/>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="6"/>
-      <c r="G18" s="6"/>
-      <c r="H18" s="4"/>
-      <c r="I18" s="4"/>
-      <c r="J18" s="6"/>
-      <c r="K18" s="6"/>
-      <c r="L18" s="6"/>
-      <c r="M18" s="6"/>
-      <c r="N18" s="6"/>
-      <c r="O18" s="7"/>
-      <c r="P18" s="7"/>
-      <c r="Q18" s="6"/>
-      <c r="R18" s="6"/>
-      <c r="S18" s="6"/>
-      <c r="T18" s="6"/>
-      <c r="U18" s="6"/>
-      <c r="V18" s="7"/>
-      <c r="W18" s="7"/>
-      <c r="X18" s="6"/>
-      <c r="Y18" s="6"/>
-      <c r="Z18" s="6"/>
-      <c r="AA18" s="6"/>
-      <c r="AB18" s="6"/>
+      <c r="A18" s="24"/>
+      <c r="B18" s="24"/>
+      <c r="C18" s="25"/>
+      <c r="D18" s="25"/>
+      <c r="E18" s="25"/>
+      <c r="F18" s="25"/>
+      <c r="G18" s="25"/>
+      <c r="H18" s="24"/>
+      <c r="I18" s="24"/>
+      <c r="J18" s="25"/>
+      <c r="K18" s="25"/>
+      <c r="L18" s="25"/>
+      <c r="M18" s="25"/>
+      <c r="N18" s="25"/>
+      <c r="O18" s="26"/>
+      <c r="P18" s="26"/>
+      <c r="Q18" s="25"/>
+      <c r="R18" s="25"/>
+      <c r="S18" s="25"/>
+      <c r="T18" s="25"/>
+      <c r="U18" s="25"/>
+      <c r="V18" s="26"/>
+      <c r="W18" s="26"/>
+      <c r="X18" s="25"/>
+      <c r="Y18" s="25"/>
+      <c r="Z18" s="25"/>
+      <c r="AA18" s="25"/>
+      <c r="AB18" s="25"/>
     </row>
     <row r="19" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A19" s="4"/>
-      <c r="B19" s="4"/>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
-      <c r="G19" s="6"/>
-      <c r="H19" s="4"/>
-      <c r="I19" s="4"/>
-      <c r="J19" s="6"/>
-      <c r="K19" s="6"/>
-      <c r="L19" s="6"/>
-      <c r="M19" s="6"/>
-      <c r="N19" s="6"/>
-      <c r="O19" s="7"/>
-      <c r="P19" s="7"/>
-      <c r="Q19" s="6"/>
-      <c r="R19" s="6"/>
-      <c r="S19" s="6"/>
-      <c r="T19" s="6"/>
-      <c r="U19" s="6"/>
-      <c r="V19" s="7"/>
-      <c r="W19" s="7"/>
-      <c r="X19" s="6"/>
-      <c r="Y19" s="6"/>
-      <c r="Z19" s="6"/>
-      <c r="AA19" s="6"/>
-      <c r="AB19" s="6"/>
+      <c r="A19" s="24"/>
+      <c r="B19" s="24"/>
+      <c r="C19" s="25"/>
+      <c r="D19" s="25"/>
+      <c r="E19" s="25"/>
+      <c r="F19" s="25"/>
+      <c r="G19" s="25"/>
+      <c r="H19" s="24"/>
+      <c r="I19" s="24"/>
+      <c r="J19" s="25"/>
+      <c r="K19" s="25"/>
+      <c r="L19" s="25"/>
+      <c r="M19" s="25"/>
+      <c r="N19" s="25"/>
+      <c r="O19" s="26"/>
+      <c r="P19" s="26"/>
+      <c r="Q19" s="25"/>
+      <c r="R19" s="25"/>
+      <c r="S19" s="25"/>
+      <c r="T19" s="25"/>
+      <c r="U19" s="25"/>
+      <c r="V19" s="26"/>
+      <c r="W19" s="26"/>
+      <c r="X19" s="25"/>
+      <c r="Y19" s="25"/>
+      <c r="Z19" s="25"/>
+      <c r="AA19" s="25"/>
+      <c r="AB19" s="25"/>
     </row>
     <row r="20" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A20" s="4"/>
-      <c r="B20" s="4"/>
-      <c r="C20" s="6"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="6"/>
-      <c r="G20" s="6"/>
-      <c r="H20" s="4"/>
-      <c r="I20" s="4"/>
-      <c r="J20" s="6"/>
-      <c r="K20" s="6"/>
-      <c r="L20" s="6"/>
-      <c r="M20" s="6"/>
-      <c r="N20" s="6"/>
-      <c r="O20" s="7"/>
-      <c r="P20" s="7"/>
-      <c r="Q20" s="6"/>
-      <c r="R20" s="6"/>
-      <c r="S20" s="6"/>
-      <c r="T20" s="6"/>
-      <c r="U20" s="6"/>
-      <c r="V20" s="7"/>
-      <c r="W20" s="7"/>
-      <c r="X20" s="6"/>
-      <c r="Y20" s="6"/>
-      <c r="Z20" s="6"/>
-      <c r="AA20" s="6"/>
-      <c r="AB20" s="6"/>
+      <c r="A20" s="24"/>
+      <c r="B20" s="24"/>
+      <c r="C20" s="25"/>
+      <c r="D20" s="25"/>
+      <c r="E20" s="25"/>
+      <c r="F20" s="25"/>
+      <c r="G20" s="25"/>
+      <c r="H20" s="24"/>
+      <c r="I20" s="24"/>
+      <c r="J20" s="25"/>
+      <c r="K20" s="25"/>
+      <c r="L20" s="25"/>
+      <c r="M20" s="25"/>
+      <c r="N20" s="25"/>
+      <c r="O20" s="26"/>
+      <c r="P20" s="26"/>
+      <c r="Q20" s="25"/>
+      <c r="R20" s="25"/>
+      <c r="S20" s="25"/>
+      <c r="T20" s="25"/>
+      <c r="U20" s="25"/>
+      <c r="V20" s="26"/>
+      <c r="W20" s="26"/>
+      <c r="X20" s="25"/>
+      <c r="Y20" s="25"/>
+      <c r="Z20" s="25"/>
+      <c r="AA20" s="25"/>
+      <c r="AB20" s="25"/>
     </row>
     <row r="21" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A21" s="4"/>
-      <c r="B21" s="4"/>
-      <c r="C21" s="6"/>
-      <c r="D21" s="6"/>
-      <c r="E21" s="6"/>
-      <c r="F21" s="6"/>
-      <c r="G21" s="6"/>
-      <c r="H21" s="4"/>
-      <c r="I21" s="4"/>
-      <c r="J21" s="6"/>
-      <c r="K21" s="6"/>
-      <c r="L21" s="6"/>
-      <c r="M21" s="6"/>
-      <c r="N21" s="6"/>
-      <c r="O21" s="7"/>
-      <c r="P21" s="7"/>
-      <c r="Q21" s="6"/>
-      <c r="R21" s="6"/>
-      <c r="S21" s="6"/>
-      <c r="T21" s="6"/>
-      <c r="U21" s="6"/>
-      <c r="V21" s="7"/>
-      <c r="W21" s="7"/>
-      <c r="X21" s="6"/>
-      <c r="Y21" s="6"/>
-      <c r="Z21" s="6"/>
-      <c r="AA21" s="6"/>
-      <c r="AB21" s="6"/>
+      <c r="A21" s="24"/>
+      <c r="B21" s="24"/>
+      <c r="C21" s="25"/>
+      <c r="D21" s="25"/>
+      <c r="E21" s="25"/>
+      <c r="F21" s="25"/>
+      <c r="G21" s="25"/>
+      <c r="H21" s="24"/>
+      <c r="I21" s="24"/>
+      <c r="J21" s="25"/>
+      <c r="K21" s="25"/>
+      <c r="L21" s="25"/>
+      <c r="M21" s="25"/>
+      <c r="N21" s="25"/>
+      <c r="O21" s="26"/>
+      <c r="P21" s="26"/>
+      <c r="Q21" s="25"/>
+      <c r="R21" s="25"/>
+      <c r="S21" s="25"/>
+      <c r="T21" s="25"/>
+      <c r="U21" s="25"/>
+      <c r="V21" s="26"/>
+      <c r="W21" s="26"/>
+      <c r="X21" s="25"/>
+      <c r="Y21" s="25"/>
+      <c r="Z21" s="25"/>
+      <c r="AA21" s="25"/>
+      <c r="AB21" s="25"/>
     </row>
     <row r="22" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A22" s="4"/>
-      <c r="B22" s="4"/>
-      <c r="C22" s="6"/>
-      <c r="D22" s="6"/>
-      <c r="E22" s="6"/>
-      <c r="F22" s="6"/>
-      <c r="G22" s="6"/>
-      <c r="H22" s="4"/>
-      <c r="I22" s="4"/>
-      <c r="J22" s="6"/>
-      <c r="K22" s="6"/>
-      <c r="L22" s="6"/>
-      <c r="M22" s="6"/>
-      <c r="N22" s="6"/>
-      <c r="O22" s="7"/>
-      <c r="P22" s="7"/>
-      <c r="Q22" s="6"/>
-      <c r="R22" s="6"/>
-      <c r="S22" s="6"/>
-      <c r="T22" s="6"/>
-      <c r="U22" s="6"/>
-      <c r="V22" s="7"/>
-      <c r="W22" s="7"/>
-      <c r="X22" s="6"/>
-      <c r="Y22" s="6"/>
-      <c r="Z22" s="6"/>
-      <c r="AA22" s="6"/>
-      <c r="AB22" s="6"/>
+      <c r="A22" s="24"/>
+      <c r="B22" s="24"/>
+      <c r="C22" s="25"/>
+      <c r="D22" s="25"/>
+      <c r="E22" s="25"/>
+      <c r="F22" s="25"/>
+      <c r="G22" s="25"/>
+      <c r="H22" s="24"/>
+      <c r="I22" s="24"/>
+      <c r="J22" s="25"/>
+      <c r="K22" s="25"/>
+      <c r="L22" s="25"/>
+      <c r="M22" s="25"/>
+      <c r="N22" s="25"/>
+      <c r="O22" s="26"/>
+      <c r="P22" s="26"/>
+      <c r="Q22" s="25"/>
+      <c r="R22" s="25"/>
+      <c r="S22" s="25"/>
+      <c r="T22" s="25"/>
+      <c r="U22" s="25"/>
+      <c r="V22" s="26"/>
+      <c r="W22" s="26"/>
+      <c r="X22" s="25"/>
+      <c r="Y22" s="25"/>
+      <c r="Z22" s="25"/>
+      <c r="AA22" s="25"/>
+      <c r="AB22" s="25"/>
     </row>
     <row r="23" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A23" s="4"/>
-      <c r="B23" s="4"/>
-      <c r="C23" s="6"/>
-      <c r="D23" s="6"/>
-      <c r="E23" s="6"/>
-      <c r="F23" s="6"/>
-      <c r="G23" s="6"/>
-      <c r="H23" s="4"/>
-      <c r="I23" s="4"/>
-      <c r="J23" s="6"/>
-      <c r="K23" s="6"/>
-      <c r="L23" s="6"/>
-      <c r="M23" s="6"/>
-      <c r="N23" s="6"/>
-      <c r="O23" s="7"/>
-      <c r="P23" s="7"/>
-      <c r="Q23" s="6"/>
-      <c r="R23" s="6"/>
-      <c r="S23" s="6"/>
-      <c r="T23" s="6"/>
-      <c r="U23" s="6"/>
+      <c r="A23" s="24"/>
+      <c r="B23" s="24"/>
+      <c r="C23" s="25"/>
+      <c r="D23" s="25"/>
+      <c r="E23" s="25"/>
+      <c r="F23" s="25"/>
+      <c r="G23" s="25"/>
+      <c r="H23" s="24"/>
+      <c r="I23" s="24"/>
+      <c r="J23" s="25"/>
+      <c r="K23" s="25"/>
+      <c r="L23" s="25"/>
+      <c r="M23" s="25"/>
+      <c r="N23" s="25"/>
+      <c r="O23" s="26"/>
+      <c r="P23" s="26"/>
+      <c r="Q23" s="25"/>
+      <c r="R23" s="25"/>
+      <c r="S23" s="25"/>
+      <c r="T23" s="25"/>
+      <c r="U23" s="25"/>
     </row>
     <row r="24" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A24" s="4"/>
-      <c r="B24" s="4"/>
-      <c r="C24" s="6"/>
-      <c r="D24" s="6"/>
-      <c r="E24" s="6"/>
-      <c r="F24" s="6"/>
-      <c r="G24" s="6"/>
-      <c r="H24" s="4"/>
-      <c r="I24" s="4"/>
-      <c r="J24" s="6"/>
-      <c r="K24" s="6"/>
-      <c r="L24" s="6"/>
-      <c r="M24" s="6"/>
-      <c r="N24" s="6"/>
-      <c r="O24" s="7"/>
-      <c r="P24" s="7"/>
-      <c r="Q24" s="6"/>
-      <c r="R24" s="6"/>
-      <c r="S24" s="6"/>
-      <c r="T24" s="6"/>
-      <c r="U24" s="6"/>
+      <c r="A24" s="24"/>
+      <c r="B24" s="24"/>
+      <c r="C24" s="25"/>
+      <c r="D24" s="25"/>
+      <c r="E24" s="25"/>
+      <c r="F24" s="25"/>
+      <c r="G24" s="25"/>
+      <c r="H24" s="24"/>
+      <c r="I24" s="24"/>
+      <c r="J24" s="25"/>
+      <c r="K24" s="25"/>
+      <c r="L24" s="25"/>
+      <c r="M24" s="25"/>
+      <c r="N24" s="25"/>
+      <c r="O24" s="26"/>
+      <c r="P24" s="26"/>
+      <c r="Q24" s="25"/>
+      <c r="R24" s="25"/>
+      <c r="S24" s="25"/>
+      <c r="T24" s="25"/>
+      <c r="U24" s="25"/>
     </row>
     <row r="25" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A25" s="4"/>
-      <c r="B25" s="4"/>
-      <c r="C25" s="6"/>
-      <c r="D25" s="6"/>
-      <c r="E25" s="6"/>
-      <c r="F25" s="6"/>
-      <c r="G25" s="6"/>
-      <c r="H25" s="4"/>
-      <c r="I25" s="4"/>
-      <c r="J25" s="6"/>
-      <c r="K25" s="6"/>
-      <c r="L25" s="6"/>
-      <c r="M25" s="6"/>
-      <c r="N25" s="6"/>
-      <c r="O25" s="7"/>
-      <c r="P25" s="7"/>
-      <c r="Q25" s="6"/>
-      <c r="R25" s="6"/>
-      <c r="S25" s="6"/>
-      <c r="T25" s="6"/>
-      <c r="U25" s="6"/>
+      <c r="A25" s="24"/>
+      <c r="B25" s="24"/>
+      <c r="C25" s="25"/>
+      <c r="D25" s="25"/>
+      <c r="E25" s="25"/>
+      <c r="F25" s="25"/>
+      <c r="G25" s="25"/>
+      <c r="H25" s="24"/>
+      <c r="I25" s="24"/>
+      <c r="J25" s="25"/>
+      <c r="K25" s="25"/>
+      <c r="L25" s="25"/>
+      <c r="M25" s="25"/>
+      <c r="N25" s="25"/>
+      <c r="O25" s="26"/>
+      <c r="P25" s="26"/>
+      <c r="Q25" s="25"/>
+      <c r="R25" s="25"/>
+      <c r="S25" s="25"/>
+      <c r="T25" s="25"/>
+      <c r="U25" s="25"/>
     </row>
     <row r="26" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A26" s="4"/>
-      <c r="B26" s="4"/>
-      <c r="C26" s="6"/>
-      <c r="D26" s="6"/>
-      <c r="E26" s="6"/>
-      <c r="F26" s="6"/>
-      <c r="G26" s="6"/>
-      <c r="H26" s="4"/>
-      <c r="I26" s="4"/>
-      <c r="J26" s="6"/>
-      <c r="K26" s="6"/>
-      <c r="L26" s="6"/>
-      <c r="M26" s="6"/>
-      <c r="N26" s="6"/>
-      <c r="O26" s="7"/>
-      <c r="P26" s="7"/>
-      <c r="Q26" s="6"/>
-      <c r="R26" s="6"/>
-      <c r="S26" s="6"/>
-      <c r="T26" s="6"/>
-      <c r="U26" s="6"/>
+      <c r="A26" s="24"/>
+      <c r="B26" s="24"/>
+      <c r="C26" s="25"/>
+      <c r="D26" s="25"/>
+      <c r="E26" s="25"/>
+      <c r="F26" s="25"/>
+      <c r="G26" s="25"/>
+      <c r="H26" s="24"/>
+      <c r="I26" s="24"/>
+      <c r="J26" s="25"/>
+      <c r="K26" s="25"/>
+      <c r="L26" s="25"/>
+      <c r="M26" s="25"/>
+      <c r="N26" s="25"/>
+      <c r="O26" s="26"/>
+      <c r="P26" s="26"/>
+      <c r="Q26" s="25"/>
+      <c r="R26" s="25"/>
+      <c r="S26" s="25"/>
+      <c r="T26" s="25"/>
+      <c r="U26" s="25"/>
     </row>
     <row r="27" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A27" s="4"/>
-      <c r="B27" s="4"/>
-      <c r="C27" s="6"/>
-      <c r="D27" s="6"/>
-      <c r="E27" s="6"/>
-      <c r="F27" s="6"/>
-      <c r="G27" s="6"/>
-      <c r="H27" s="4"/>
-      <c r="I27" s="4"/>
-      <c r="J27" s="6"/>
-      <c r="K27" s="6"/>
-      <c r="L27" s="6"/>
-      <c r="M27" s="6"/>
-      <c r="N27" s="6"/>
-      <c r="O27" s="7"/>
-      <c r="P27" s="7"/>
-      <c r="Q27" s="6"/>
-      <c r="R27" s="6"/>
-      <c r="S27" s="6"/>
-      <c r="T27" s="6"/>
-      <c r="U27" s="6"/>
+      <c r="A27" s="24"/>
+      <c r="B27" s="24"/>
+      <c r="C27" s="25"/>
+      <c r="D27" s="25"/>
+      <c r="E27" s="25"/>
+      <c r="F27" s="25"/>
+      <c r="G27" s="25"/>
+      <c r="H27" s="24"/>
+      <c r="I27" s="24"/>
+      <c r="J27" s="25"/>
+      <c r="K27" s="25"/>
+      <c r="L27" s="25"/>
+      <c r="M27" s="25"/>
+      <c r="N27" s="25"/>
+      <c r="O27" s="26"/>
+      <c r="P27" s="26"/>
+      <c r="Q27" s="25"/>
+      <c r="R27" s="25"/>
+      <c r="S27" s="25"/>
+      <c r="T27" s="25"/>
+      <c r="U27" s="25"/>
     </row>
     <row r="28" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A28" s="4"/>
-      <c r="B28" s="4"/>
-      <c r="C28" s="6"/>
-      <c r="D28" s="6"/>
-      <c r="E28" s="6"/>
-      <c r="F28" s="6"/>
-      <c r="G28" s="6"/>
-      <c r="H28" s="4"/>
-      <c r="I28" s="4"/>
-      <c r="J28" s="6"/>
-      <c r="K28" s="6"/>
-      <c r="L28" s="6"/>
-      <c r="M28" s="6"/>
-      <c r="N28" s="6"/>
-      <c r="O28" s="7"/>
-      <c r="P28" s="7"/>
-      <c r="Q28" s="6"/>
-      <c r="R28" s="6"/>
-      <c r="S28" s="6"/>
-      <c r="T28" s="6"/>
-      <c r="U28" s="6"/>
+      <c r="A28" s="24"/>
+      <c r="B28" s="24"/>
+      <c r="C28" s="25"/>
+      <c r="D28" s="25"/>
+      <c r="E28" s="25"/>
+      <c r="F28" s="25"/>
+      <c r="G28" s="25"/>
+      <c r="H28" s="24"/>
+      <c r="I28" s="24"/>
+      <c r="J28" s="25"/>
+      <c r="K28" s="25"/>
+      <c r="L28" s="25"/>
+      <c r="M28" s="25"/>
+      <c r="N28" s="25"/>
+      <c r="O28" s="26"/>
+      <c r="P28" s="26"/>
+      <c r="Q28" s="25"/>
+      <c r="R28" s="25"/>
+      <c r="S28" s="25"/>
+      <c r="T28" s="25"/>
+      <c r="U28" s="25"/>
     </row>
     <row r="29" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A29" s="4"/>
-      <c r="B29" s="4"/>
-      <c r="C29" s="6"/>
-      <c r="D29" s="6"/>
-      <c r="E29" s="6"/>
-      <c r="F29" s="6"/>
-      <c r="G29" s="6"/>
-      <c r="H29" s="4"/>
-      <c r="I29" s="4"/>
-      <c r="J29" s="6"/>
-      <c r="K29" s="6"/>
-      <c r="L29" s="6"/>
-      <c r="M29" s="6"/>
-      <c r="N29" s="6"/>
-      <c r="O29" s="7"/>
-      <c r="P29" s="7"/>
-      <c r="Q29" s="6"/>
-      <c r="R29" s="6"/>
-      <c r="S29" s="6"/>
-      <c r="T29" s="6"/>
-      <c r="U29" s="6"/>
+      <c r="A29" s="24"/>
+      <c r="B29" s="24"/>
+      <c r="C29" s="25"/>
+      <c r="D29" s="25"/>
+      <c r="E29" s="25"/>
+      <c r="F29" s="25"/>
+      <c r="G29" s="25"/>
+      <c r="H29" s="24"/>
+      <c r="I29" s="24"/>
+      <c r="J29" s="25"/>
+      <c r="K29" s="25"/>
+      <c r="L29" s="25"/>
+      <c r="M29" s="25"/>
+      <c r="N29" s="25"/>
+      <c r="O29" s="26"/>
+      <c r="P29" s="26"/>
+      <c r="Q29" s="25"/>
+      <c r="R29" s="25"/>
+      <c r="S29" s="25"/>
+      <c r="T29" s="25"/>
+      <c r="U29" s="25"/>
     </row>
     <row r="30" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A30" s="4"/>
-      <c r="B30" s="4"/>
-      <c r="C30" s="6"/>
-      <c r="D30" s="6"/>
-      <c r="E30" s="6"/>
-      <c r="F30" s="6"/>
-      <c r="G30" s="6"/>
-      <c r="H30" s="4"/>
-      <c r="I30" s="4"/>
-      <c r="J30" s="6"/>
-      <c r="K30" s="6"/>
-      <c r="L30" s="6"/>
-      <c r="M30" s="6"/>
-      <c r="N30" s="6"/>
-      <c r="O30" s="7"/>
-      <c r="P30" s="7"/>
-      <c r="Q30" s="6"/>
-      <c r="R30" s="6"/>
-      <c r="S30" s="6"/>
-      <c r="T30" s="6"/>
-      <c r="U30" s="6"/>
+      <c r="A30" s="24"/>
+      <c r="B30" s="24"/>
+      <c r="C30" s="25"/>
+      <c r="D30" s="25"/>
+      <c r="E30" s="25"/>
+      <c r="F30" s="25"/>
+      <c r="G30" s="25"/>
+      <c r="H30" s="24"/>
+      <c r="I30" s="24"/>
+      <c r="J30" s="25"/>
+      <c r="K30" s="25"/>
+      <c r="L30" s="25"/>
+      <c r="M30" s="25"/>
+      <c r="N30" s="25"/>
+      <c r="O30" s="26"/>
+      <c r="P30" s="26"/>
+      <c r="Q30" s="25"/>
+      <c r="R30" s="25"/>
+      <c r="S30" s="25"/>
+      <c r="T30" s="25"/>
+      <c r="U30" s="25"/>
     </row>
     <row r="31" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A31" s="4"/>
-      <c r="B31" s="4"/>
-      <c r="C31" s="6"/>
-      <c r="D31" s="6"/>
-      <c r="E31" s="6"/>
-      <c r="F31" s="6"/>
-      <c r="G31" s="6"/>
-      <c r="H31" s="4"/>
-      <c r="I31" s="4"/>
-      <c r="J31" s="6"/>
-      <c r="K31" s="6"/>
-      <c r="L31" s="6"/>
-      <c r="M31" s="6"/>
-      <c r="N31" s="6"/>
-      <c r="O31" s="7"/>
-      <c r="P31" s="7"/>
-      <c r="Q31" s="6"/>
-      <c r="R31" s="6"/>
-      <c r="S31" s="6"/>
-      <c r="T31" s="6"/>
-      <c r="U31" s="6"/>
+      <c r="A31" s="24"/>
+      <c r="B31" s="24"/>
+      <c r="C31" s="25"/>
+      <c r="D31" s="25"/>
+      <c r="E31" s="25"/>
+      <c r="F31" s="25"/>
+      <c r="G31" s="25"/>
+      <c r="H31" s="24"/>
+      <c r="I31" s="24"/>
+      <c r="J31" s="25"/>
+      <c r="K31" s="25"/>
+      <c r="L31" s="25"/>
+      <c r="M31" s="25"/>
+      <c r="N31" s="25"/>
+      <c r="O31" s="26"/>
+      <c r="P31" s="26"/>
+      <c r="Q31" s="25"/>
+      <c r="R31" s="25"/>
+      <c r="S31" s="25"/>
+      <c r="T31" s="25"/>
+      <c r="U31" s="25"/>
     </row>
     <row r="32" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A32" s="4"/>
-      <c r="B32" s="4"/>
-      <c r="C32" s="6"/>
-      <c r="D32" s="6"/>
-      <c r="E32" s="6"/>
-      <c r="F32" s="6"/>
-      <c r="G32" s="6"/>
-      <c r="H32" s="4"/>
-      <c r="I32" s="4"/>
-      <c r="J32" s="6"/>
-      <c r="K32" s="6"/>
-      <c r="L32" s="6"/>
-      <c r="M32" s="6"/>
-      <c r="N32" s="6"/>
-      <c r="O32" s="7"/>
-      <c r="P32" s="7"/>
-      <c r="Q32" s="6"/>
-      <c r="R32" s="6"/>
-      <c r="S32" s="6"/>
-      <c r="T32" s="6"/>
-      <c r="U32" s="6"/>
+      <c r="A32" s="24"/>
+      <c r="B32" s="24"/>
+      <c r="C32" s="25"/>
+      <c r="D32" s="25"/>
+      <c r="E32" s="25"/>
+      <c r="F32" s="25"/>
+      <c r="G32" s="25"/>
+      <c r="H32" s="24"/>
+      <c r="I32" s="24"/>
+      <c r="J32" s="25"/>
+      <c r="K32" s="25"/>
+      <c r="L32" s="25"/>
+      <c r="M32" s="25"/>
+      <c r="N32" s="25"/>
+      <c r="O32" s="26"/>
+      <c r="P32" s="26"/>
+      <c r="Q32" s="25"/>
+      <c r="R32" s="25"/>
+      <c r="S32" s="25"/>
+      <c r="T32" s="25"/>
+      <c r="U32" s="25"/>
     </row>
     <row r="33" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A33" s="4"/>
-      <c r="B33" s="4"/>
-      <c r="C33" s="6"/>
-      <c r="D33" s="6"/>
-      <c r="E33" s="6"/>
-      <c r="F33" s="6"/>
-      <c r="G33" s="6"/>
-      <c r="H33" s="4"/>
-      <c r="I33" s="4"/>
-      <c r="J33" s="6"/>
-      <c r="K33" s="6"/>
-      <c r="L33" s="6"/>
-      <c r="M33" s="6"/>
-      <c r="N33" s="6"/>
-      <c r="O33" s="4"/>
-      <c r="P33" s="4"/>
-      <c r="Q33" s="6"/>
-      <c r="R33" s="6"/>
-      <c r="S33" s="6"/>
-      <c r="T33" s="6"/>
-      <c r="U33" s="6"/>
+      <c r="A33" s="24"/>
+      <c r="B33" s="24"/>
+      <c r="C33" s="25"/>
+      <c r="D33" s="25"/>
+      <c r="E33" s="25"/>
+      <c r="F33" s="25"/>
+      <c r="G33" s="25"/>
+      <c r="H33" s="24"/>
+      <c r="I33" s="24"/>
+      <c r="J33" s="25"/>
+      <c r="K33" s="25"/>
+      <c r="L33" s="25"/>
+      <c r="M33" s="25"/>
+      <c r="N33" s="25"/>
+      <c r="O33" s="24"/>
+      <c r="P33" s="24"/>
+      <c r="Q33" s="25"/>
+      <c r="R33" s="25"/>
+      <c r="S33" s="25"/>
+      <c r="T33" s="25"/>
+      <c r="U33" s="25"/>
     </row>
     <row r="34" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A34" s="13"/>
-      <c r="B34" s="13"/>
-      <c r="C34" s="14"/>
-      <c r="D34" s="14"/>
-      <c r="E34" s="14"/>
-      <c r="F34" s="14"/>
-      <c r="G34" s="14"/>
-      <c r="H34" s="13"/>
-      <c r="I34" s="13"/>
-      <c r="J34" s="14"/>
-      <c r="K34" s="14"/>
-      <c r="L34" s="14"/>
-      <c r="M34" s="14"/>
-      <c r="N34" s="14"/>
-      <c r="O34" s="13"/>
-      <c r="P34" s="13"/>
-      <c r="Q34" s="14"/>
-      <c r="R34" s="14"/>
-      <c r="S34" s="14"/>
-      <c r="T34" s="14"/>
-      <c r="U34" s="14"/>
+      <c r="A34" s="22"/>
+      <c r="B34" s="22"/>
+      <c r="C34" s="23"/>
+      <c r="D34" s="23"/>
+      <c r="E34" s="23"/>
+      <c r="F34" s="23"/>
+      <c r="G34" s="23"/>
+      <c r="H34" s="22"/>
+      <c r="I34" s="22"/>
+      <c r="J34" s="23"/>
+      <c r="K34" s="23"/>
+      <c r="L34" s="23"/>
+      <c r="M34" s="23"/>
+      <c r="N34" s="23"/>
+      <c r="O34" s="22"/>
+      <c r="P34" s="22"/>
+      <c r="Q34" s="23"/>
+      <c r="R34" s="23"/>
+      <c r="S34" s="23"/>
+      <c r="T34" s="23"/>
+      <c r="U34" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="236">
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="C34:G34"/>
-    <mergeCell ref="H34:I34"/>
-    <mergeCell ref="J34:N34"/>
-    <mergeCell ref="O34:P34"/>
-    <mergeCell ref="Q34:U34"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="C33:G33"/>
-    <mergeCell ref="H33:I33"/>
-    <mergeCell ref="J33:N33"/>
-    <mergeCell ref="O33:P33"/>
-    <mergeCell ref="Q33:U33"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="C32:G32"/>
-    <mergeCell ref="H32:I32"/>
-    <mergeCell ref="J32:N32"/>
-    <mergeCell ref="O32:P32"/>
-    <mergeCell ref="Q32:U32"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="C31:G31"/>
-    <mergeCell ref="H31:I31"/>
-    <mergeCell ref="J31:N31"/>
-    <mergeCell ref="O31:P31"/>
-    <mergeCell ref="Q31:U31"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="C30:G30"/>
-    <mergeCell ref="H30:I30"/>
-    <mergeCell ref="J30:N30"/>
-    <mergeCell ref="O30:P30"/>
-    <mergeCell ref="Q30:U30"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="C29:G29"/>
-    <mergeCell ref="H29:I29"/>
-    <mergeCell ref="J29:N29"/>
-    <mergeCell ref="O29:P29"/>
-    <mergeCell ref="Q29:U29"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="C28:G28"/>
-    <mergeCell ref="H28:I28"/>
-    <mergeCell ref="J28:N28"/>
-    <mergeCell ref="O28:P28"/>
-    <mergeCell ref="Q28:U28"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="C27:G27"/>
-    <mergeCell ref="H27:I27"/>
-    <mergeCell ref="J27:N27"/>
-    <mergeCell ref="O27:P27"/>
-    <mergeCell ref="Q27:U27"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="C26:G26"/>
-    <mergeCell ref="H26:I26"/>
-    <mergeCell ref="J26:N26"/>
-    <mergeCell ref="O26:P26"/>
-    <mergeCell ref="Q26:U26"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="C25:G25"/>
-    <mergeCell ref="H25:I25"/>
-    <mergeCell ref="J25:N25"/>
-    <mergeCell ref="O25:P25"/>
-    <mergeCell ref="Q25:U25"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="C24:G24"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="J24:N24"/>
-    <mergeCell ref="O24:P24"/>
-    <mergeCell ref="Q24:U24"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="C23:G23"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="J23:N23"/>
-    <mergeCell ref="O23:P23"/>
-    <mergeCell ref="Q23:U23"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="C22:G22"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="J22:N22"/>
-    <mergeCell ref="V22:W22"/>
-    <mergeCell ref="X22:AB22"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="C21:G21"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="J21:N21"/>
-    <mergeCell ref="V21:W21"/>
-    <mergeCell ref="X21:AB21"/>
-    <mergeCell ref="O21:P21"/>
-    <mergeCell ref="Q21:U21"/>
-    <mergeCell ref="O22:P22"/>
-    <mergeCell ref="Q22:U22"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="C20:G20"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="J20:N20"/>
-    <mergeCell ref="V20:W20"/>
-    <mergeCell ref="X20:AB20"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="C19:G19"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="J19:N19"/>
-    <mergeCell ref="V19:W19"/>
-    <mergeCell ref="X19:AB19"/>
-    <mergeCell ref="O19:P19"/>
-    <mergeCell ref="Q19:U19"/>
-    <mergeCell ref="O20:P20"/>
-    <mergeCell ref="Q20:U20"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C18:G18"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="J18:N18"/>
-    <mergeCell ref="V18:W18"/>
-    <mergeCell ref="X18:AB18"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="C17:G17"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="J17:N17"/>
-    <mergeCell ref="V17:W17"/>
-    <mergeCell ref="X17:AB17"/>
-    <mergeCell ref="O17:P17"/>
-    <mergeCell ref="Q17:U17"/>
-    <mergeCell ref="O18:P18"/>
-    <mergeCell ref="Q18:U18"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="C16:G16"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="J16:N16"/>
-    <mergeCell ref="V16:W16"/>
-    <mergeCell ref="X16:AB16"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="C15:G15"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="J15:N15"/>
-    <mergeCell ref="V15:W15"/>
-    <mergeCell ref="X15:AB15"/>
-    <mergeCell ref="O15:P15"/>
-    <mergeCell ref="Q15:U15"/>
-    <mergeCell ref="O16:P16"/>
-    <mergeCell ref="Q16:U16"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="C14:G14"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="J14:N14"/>
-    <mergeCell ref="V14:W14"/>
-    <mergeCell ref="X14:AB14"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="C13:G13"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="J13:N13"/>
-    <mergeCell ref="V13:W13"/>
-    <mergeCell ref="X13:AB13"/>
-    <mergeCell ref="O13:P13"/>
-    <mergeCell ref="Q13:U13"/>
-    <mergeCell ref="O14:P14"/>
-    <mergeCell ref="Q14:U14"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="C12:G12"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="J12:N12"/>
-    <mergeCell ref="V12:W12"/>
-    <mergeCell ref="X12:AB12"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:G11"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="J11:N11"/>
-    <mergeCell ref="V11:W11"/>
-    <mergeCell ref="X11:AB11"/>
-    <mergeCell ref="O11:P11"/>
-    <mergeCell ref="Q11:U11"/>
-    <mergeCell ref="O12:P12"/>
-    <mergeCell ref="Q12:U12"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="C10:G10"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="J10:N10"/>
-    <mergeCell ref="V10:W10"/>
-    <mergeCell ref="X10:AB10"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="C9:G9"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="J9:N9"/>
-    <mergeCell ref="V9:W9"/>
-    <mergeCell ref="X9:AB9"/>
-    <mergeCell ref="O9:P9"/>
-    <mergeCell ref="Q9:U9"/>
-    <mergeCell ref="O10:P10"/>
-    <mergeCell ref="Q10:U10"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="C8:G8"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="J8:N8"/>
-    <mergeCell ref="V8:W8"/>
-    <mergeCell ref="X8:AB8"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="J7:N7"/>
-    <mergeCell ref="V7:W7"/>
-    <mergeCell ref="X7:AB7"/>
-    <mergeCell ref="O7:P7"/>
-    <mergeCell ref="Q7:U7"/>
-    <mergeCell ref="O8:P8"/>
-    <mergeCell ref="Q8:U8"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="J6:N6"/>
-    <mergeCell ref="V6:W6"/>
-    <mergeCell ref="X6:AB6"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:G5"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="J5:N5"/>
-    <mergeCell ref="V5:W5"/>
-    <mergeCell ref="X5:AB5"/>
-    <mergeCell ref="O5:P5"/>
-    <mergeCell ref="Q5:U5"/>
-    <mergeCell ref="O6:P6"/>
-    <mergeCell ref="Q6:U6"/>
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="C4:G4"/>
     <mergeCell ref="H4:I4"/>
@@ -5497,6 +5298,222 @@
     <mergeCell ref="Q3:U3"/>
     <mergeCell ref="O4:P4"/>
     <mergeCell ref="Q4:U4"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="J6:N6"/>
+    <mergeCell ref="V6:W6"/>
+    <mergeCell ref="X6:AB6"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="J5:N5"/>
+    <mergeCell ref="V5:W5"/>
+    <mergeCell ref="X5:AB5"/>
+    <mergeCell ref="O5:P5"/>
+    <mergeCell ref="Q5:U5"/>
+    <mergeCell ref="O6:P6"/>
+    <mergeCell ref="Q6:U6"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="J8:N8"/>
+    <mergeCell ref="V8:W8"/>
+    <mergeCell ref="X8:AB8"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:N7"/>
+    <mergeCell ref="V7:W7"/>
+    <mergeCell ref="X7:AB7"/>
+    <mergeCell ref="O7:P7"/>
+    <mergeCell ref="Q7:U7"/>
+    <mergeCell ref="O8:P8"/>
+    <mergeCell ref="Q8:U8"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C10:G10"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="J10:N10"/>
+    <mergeCell ref="V10:W10"/>
+    <mergeCell ref="X10:AB10"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:G9"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="J9:N9"/>
+    <mergeCell ref="V9:W9"/>
+    <mergeCell ref="X9:AB9"/>
+    <mergeCell ref="O9:P9"/>
+    <mergeCell ref="Q9:U9"/>
+    <mergeCell ref="O10:P10"/>
+    <mergeCell ref="Q10:U10"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="J12:N12"/>
+    <mergeCell ref="V12:W12"/>
+    <mergeCell ref="X12:AB12"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:G11"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="J11:N11"/>
+    <mergeCell ref="V11:W11"/>
+    <mergeCell ref="X11:AB11"/>
+    <mergeCell ref="O11:P11"/>
+    <mergeCell ref="Q11:U11"/>
+    <mergeCell ref="O12:P12"/>
+    <mergeCell ref="Q12:U12"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C14:G14"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="J14:N14"/>
+    <mergeCell ref="V14:W14"/>
+    <mergeCell ref="X14:AB14"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C13:G13"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="J13:N13"/>
+    <mergeCell ref="V13:W13"/>
+    <mergeCell ref="X13:AB13"/>
+    <mergeCell ref="O13:P13"/>
+    <mergeCell ref="Q13:U13"/>
+    <mergeCell ref="O14:P14"/>
+    <mergeCell ref="Q14:U14"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:G16"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="J16:N16"/>
+    <mergeCell ref="V16:W16"/>
+    <mergeCell ref="X16:AB16"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C15:G15"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="J15:N15"/>
+    <mergeCell ref="V15:W15"/>
+    <mergeCell ref="X15:AB15"/>
+    <mergeCell ref="O15:P15"/>
+    <mergeCell ref="Q15:U15"/>
+    <mergeCell ref="O16:P16"/>
+    <mergeCell ref="Q16:U16"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="J18:N18"/>
+    <mergeCell ref="V18:W18"/>
+    <mergeCell ref="X18:AB18"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C17:G17"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="J17:N17"/>
+    <mergeCell ref="V17:W17"/>
+    <mergeCell ref="X17:AB17"/>
+    <mergeCell ref="O17:P17"/>
+    <mergeCell ref="Q17:U17"/>
+    <mergeCell ref="O18:P18"/>
+    <mergeCell ref="Q18:U18"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="J20:N20"/>
+    <mergeCell ref="V20:W20"/>
+    <mergeCell ref="X20:AB20"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="J19:N19"/>
+    <mergeCell ref="V19:W19"/>
+    <mergeCell ref="X19:AB19"/>
+    <mergeCell ref="O19:P19"/>
+    <mergeCell ref="Q19:U19"/>
+    <mergeCell ref="O20:P20"/>
+    <mergeCell ref="Q20:U20"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="C22:G22"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="J22:N22"/>
+    <mergeCell ref="V22:W22"/>
+    <mergeCell ref="X22:AB22"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="J21:N21"/>
+    <mergeCell ref="V21:W21"/>
+    <mergeCell ref="X21:AB21"/>
+    <mergeCell ref="O21:P21"/>
+    <mergeCell ref="Q21:U21"/>
+    <mergeCell ref="O22:P22"/>
+    <mergeCell ref="Q22:U22"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="C24:G24"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="J24:N24"/>
+    <mergeCell ref="O24:P24"/>
+    <mergeCell ref="Q24:U24"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="C23:G23"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="J23:N23"/>
+    <mergeCell ref="O23:P23"/>
+    <mergeCell ref="Q23:U23"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="C26:G26"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="J26:N26"/>
+    <mergeCell ref="O26:P26"/>
+    <mergeCell ref="Q26:U26"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="C25:G25"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="J25:N25"/>
+    <mergeCell ref="O25:P25"/>
+    <mergeCell ref="Q25:U25"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="C28:G28"/>
+    <mergeCell ref="H28:I28"/>
+    <mergeCell ref="J28:N28"/>
+    <mergeCell ref="O28:P28"/>
+    <mergeCell ref="Q28:U28"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="C27:G27"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="J27:N27"/>
+    <mergeCell ref="O27:P27"/>
+    <mergeCell ref="Q27:U27"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="C30:G30"/>
+    <mergeCell ref="H30:I30"/>
+    <mergeCell ref="J30:N30"/>
+    <mergeCell ref="O30:P30"/>
+    <mergeCell ref="Q30:U30"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="C29:G29"/>
+    <mergeCell ref="H29:I29"/>
+    <mergeCell ref="J29:N29"/>
+    <mergeCell ref="O29:P29"/>
+    <mergeCell ref="Q29:U29"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="C32:G32"/>
+    <mergeCell ref="H32:I32"/>
+    <mergeCell ref="J32:N32"/>
+    <mergeCell ref="O32:P32"/>
+    <mergeCell ref="Q32:U32"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="C31:G31"/>
+    <mergeCell ref="H31:I31"/>
+    <mergeCell ref="J31:N31"/>
+    <mergeCell ref="O31:P31"/>
+    <mergeCell ref="Q31:U31"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="C34:G34"/>
+    <mergeCell ref="H34:I34"/>
+    <mergeCell ref="J34:N34"/>
+    <mergeCell ref="O34:P34"/>
+    <mergeCell ref="Q34:U34"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="C33:G33"/>
+    <mergeCell ref="H33:I33"/>
+    <mergeCell ref="J33:N33"/>
+    <mergeCell ref="O33:P33"/>
+    <mergeCell ref="Q33:U33"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/plans/todo.xlsx
+++ b/plans/todo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Edsquid\Documents\Personal Projects\Business\RogueLikeGame\plans\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1067F591-0E19-4E83-8553-730AB03AE054}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E1D7F5E-B9C1-4706-AA7D-9BE31AB012D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{BA1E511D-BF64-4842-98DF-72E30276ED1C}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="226">
   <si>
     <t>Max Lives</t>
   </si>
@@ -105,9 +105,6 @@
     <t>Seconds please (Increase size, increase health)</t>
   </si>
   <si>
-    <t>Monkey man (Increase stamina regen)</t>
-  </si>
-  <si>
     <t xml:space="preserve">Each and every day (Increase health regen) </t>
   </si>
   <si>
@@ -700,6 +697,24 @@
   </si>
   <si>
     <t>Split damage (spread damage across all damage types)</t>
+  </si>
+  <si>
+    <t>Grab surrounding XP</t>
+  </si>
+  <si>
+    <t>Primal instincts (Increase stamina regen)</t>
+  </si>
+  <si>
+    <t>On crit</t>
+  </si>
+  <si>
+    <t>Explode</t>
+  </si>
+  <si>
+    <t>Scatter projectiles</t>
+  </si>
+  <si>
+    <t xml:space="preserve">remove second weapon, add dual wield </t>
   </si>
 </sst>
 </file>
@@ -751,7 +766,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="14">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -827,6 +842,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF7030A0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -935,7 +956,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
@@ -978,12 +999,6 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -991,12 +1006,6 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1008,6 +1017,19 @@
     <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1324,8 +1346,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11CE061F-AFA4-4B9D-BFD1-A05915568E6D}">
   <dimension ref="A1:H338"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
-      <selection activeCell="D39" sqref="D39"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1343,7 +1365,7 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="18" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B1" s="19"/>
       <c r="C1" s="19"/>
@@ -1352,7 +1374,7 @@
       <c r="F1" s="19"/>
       <c r="G1" s="19"/>
       <c r="H1" s="10" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -1364,36 +1386,36 @@
       <c r="F2" s="21"/>
       <c r="G2" s="21"/>
       <c r="H2" s="12" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="B3" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="C3" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="D3" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="F3" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="D3" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>92</v>
-      </c>
       <c r="G3" s="8" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="H3" s="9"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B4" s="14"/>
       <c r="C4" s="14"/>
@@ -1405,16 +1427,16 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E5" s="3">
         <v>0.05</v>
@@ -1426,16 +1448,16 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E6" s="3">
         <v>0.05</v>
@@ -1450,13 +1472,13 @@
         <v>1</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E7" s="3">
         <v>0.05</v>
@@ -1471,13 +1493,13 @@
         <v>2</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E8" s="3">
         <v>0.05</v>
@@ -1492,13 +1514,13 @@
         <v>3</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E9" s="3">
         <v>0.05</v>
@@ -1513,13 +1535,13 @@
         <v>4</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E10" s="3">
         <v>0.05</v>
@@ -1534,13 +1556,13 @@
         <v>5</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E11" s="3">
         <v>0.05</v>
@@ -1555,13 +1577,13 @@
         <v>6</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E12" s="3">
         <v>0.05</v>
@@ -1576,13 +1598,13 @@
         <v>7</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E13" s="3">
         <v>0.05</v>
@@ -1597,13 +1619,13 @@
         <v>8</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E14" s="3">
         <v>0.05</v>
@@ -1618,13 +1640,13 @@
         <v>9</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E15" s="3">
         <v>0.05</v>
@@ -1639,13 +1661,13 @@
         <v>10</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E16" s="3">
         <v>0.05</v>
@@ -1660,13 +1682,13 @@
         <v>12</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E17" s="3">
         <v>0.05</v>
@@ -1678,16 +1700,16 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E18" s="3">
         <v>0.05</v>
@@ -1699,16 +1721,16 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E19" s="3">
         <v>0.05</v>
@@ -1720,16 +1742,16 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E20" s="3">
         <v>0.05</v>
@@ -1741,16 +1763,16 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E21" s="3">
         <v>0.05</v>
@@ -1762,16 +1784,16 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C22" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="B22" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>128</v>
-      </c>
       <c r="D22" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E22" s="3">
         <v>0.01</v>
@@ -1783,16 +1805,16 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E23" s="3">
         <v>0.05</v>
@@ -1804,16 +1826,16 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E24" s="3">
         <v>0.05</v>
@@ -1824,17 +1846,17 @@
       <c r="G24" s="3"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="3" t="s">
-        <v>87</v>
+      <c r="A25" s="32" t="s">
+        <v>86</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E25" s="3">
         <v>0.05</v>
@@ -1849,13 +1871,13 @@
         <v>0</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E26" s="3">
         <v>1</v>
@@ -1885,22 +1907,22 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="B33" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="B33" s="5" t="s">
+      <c r="C33" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="C33" s="5" t="s">
+      <c r="D33" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="E33" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="F33" s="5" t="s">
         <v>91</v>
-      </c>
-      <c r="D33" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="E33" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="F33" s="5" t="s">
-        <v>92</v>
       </c>
       <c r="G33" s="5"/>
     </row>
@@ -1917,16 +1939,16 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="B35" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="B35" s="1" t="s">
+      <c r="C35" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="C35" s="3" t="s">
-        <v>132</v>
-      </c>
       <c r="D35" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F35" s="1">
         <v>10</v>
@@ -1935,16 +1957,16 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F36" s="1">
         <v>10</v>
@@ -1956,13 +1978,13 @@
         <v>15</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F37" s="1">
         <v>10</v>
@@ -1974,13 +1996,13 @@
         <v>16</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F38" s="1">
         <v>1</v>
@@ -1992,13 +2014,13 @@
         <v>17</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F39" s="1">
         <v>5</v>
@@ -2016,28 +2038,28 @@
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="B43" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="B43" s="5" t="s">
+      <c r="C43" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="C43" s="5" t="s">
+      <c r="D43" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="E43" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="F43" s="5" t="s">
         <v>91</v>
-      </c>
-      <c r="D43" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="E43" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="F43" s="5" t="s">
-        <v>92</v>
       </c>
       <c r="G43" s="5"/>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="17" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B44" s="17"/>
       <c r="C44" s="17"/>
@@ -2048,16 +2070,16 @@
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C45" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="B45" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="C45" s="3" t="s">
+      <c r="D45" s="1" t="s">
         <v>142</v>
-      </c>
-      <c r="D45" s="1" t="s">
-        <v>143</v>
       </c>
       <c r="F45" s="1">
         <v>5</v>
@@ -2066,16 +2088,16 @@
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F46" s="1">
         <v>5</v>
@@ -2084,16 +2106,16 @@
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F47" s="1">
         <v>5</v>
@@ -2114,13 +2136,13 @@
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F50" s="1">
         <v>5</v>
@@ -2129,13 +2151,13 @@
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F51" s="1">
         <v>5</v>
@@ -2144,13 +2166,13 @@
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C52" s="3" t="s">
         <v>150</v>
-      </c>
-      <c r="B52" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="C52" s="3" t="s">
-        <v>151</v>
       </c>
       <c r="F52" s="1">
         <v>5</v>
@@ -2159,16 +2181,16 @@
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C53" s="3" t="s">
         <v>217</v>
       </c>
-      <c r="B53" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="C53" s="3" t="s">
+      <c r="E53" s="3" t="s">
         <v>218</v>
-      </c>
-      <c r="E53" s="3" t="s">
-        <v>219</v>
       </c>
       <c r="F53" s="1">
         <v>5</v>
@@ -2183,13 +2205,13 @@
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F55" s="1">
         <v>5</v>
@@ -2216,13 +2238,13 @@
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F59" s="1">
         <v>5</v>
@@ -2231,13 +2253,13 @@
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F60" s="1">
         <v>5</v>
@@ -2246,13 +2268,13 @@
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F61" s="1">
         <v>5</v>
@@ -2261,20 +2283,26 @@
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="C62" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="B62" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="C62" s="3" t="s">
-        <v>159</v>
-      </c>
       <c r="F62" s="1">
         <v>5</v>
       </c>
       <c r="G62" s="3"/>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A63" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>92</v>
+      </c>
       <c r="F63" s="1">
         <v>5</v>
       </c>
@@ -2288,13 +2316,13 @@
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F65" s="1">
         <v>5</v>
@@ -2303,10 +2331,10 @@
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F66" s="1">
         <v>5</v>
@@ -2315,13 +2343,13 @@
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F67" s="1">
         <v>5</v>
@@ -2330,13 +2358,13 @@
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F68" s="1">
         <v>5</v>
@@ -2345,13 +2373,13 @@
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F69" s="1">
         <v>5</v>
@@ -2360,7 +2388,7 @@
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" s="13" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="G70" s="3"/>
     </row>
@@ -2375,7 +2403,7 @@
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F73" s="1">
         <v>5</v>
@@ -2384,10 +2412,10 @@
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F74" s="1">
         <v>5</v>
@@ -2396,10 +2424,10 @@
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F75" s="1">
         <v>5</v>
@@ -2420,10 +2448,10 @@
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F78" s="1">
         <v>5</v>
@@ -2444,10 +2472,10 @@
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F81" s="1">
         <v>5</v>
@@ -2456,10 +2484,10 @@
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F82" s="1">
         <v>5</v>
@@ -2468,10 +2496,10 @@
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F83" s="1">
         <v>5</v>
@@ -2486,10 +2514,10 @@
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F85" s="1">
         <v>5</v>
@@ -2498,10 +2526,10 @@
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F86" s="1">
         <v>5</v>
@@ -2510,10 +2538,10 @@
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F87" s="1">
         <v>5</v>
@@ -2534,10 +2562,10 @@
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F90" s="1">
         <v>5</v>
@@ -2546,10 +2574,10 @@
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F91" s="1">
         <v>5</v>
@@ -2563,6 +2591,9 @@
       <c r="G92" s="3"/>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A93" s="3" t="s">
+        <v>225</v>
+      </c>
       <c r="F93" s="1">
         <v>5</v>
       </c>
@@ -2576,10 +2607,10 @@
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F95" s="1">
         <v>5</v>
@@ -2594,7 +2625,7 @@
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97" s="3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F97" s="1">
         <v>5</v>
@@ -2609,7 +2640,7 @@
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F99" s="1">
         <v>5</v>
@@ -2618,7 +2649,7 @@
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100" s="3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F100" s="1">
         <v>5</v>
@@ -2627,7 +2658,7 @@
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F101" s="1">
         <v>5</v>
@@ -2636,7 +2667,7 @@
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102" s="4" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F102" s="1">
         <v>5</v>
@@ -2663,7 +2694,7 @@
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F106" s="1">
         <v>5</v>
@@ -2672,7 +2703,7 @@
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107" s="3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F107" s="1">
         <v>5</v>
@@ -2693,7 +2724,7 @@
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110" s="13" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F110" s="1">
         <v>5</v>
@@ -2708,7 +2739,7 @@
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A112" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F112" s="1">
         <v>5</v>
@@ -2723,7 +2754,7 @@
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A114" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F114" s="1">
         <v>5</v>
@@ -2738,7 +2769,7 @@
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A116" s="7" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F116" s="1">
         <v>5</v>
@@ -2747,7 +2778,7 @@
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A117" s="3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F117" s="1">
         <v>5</v>
@@ -2756,7 +2787,7 @@
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A118" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F118" s="1">
         <v>5</v>
@@ -2765,7 +2796,7 @@
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A119" s="3" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F119" s="1">
         <v>5</v>
@@ -2774,7 +2805,7 @@
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A120" s="3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F120" s="1">
         <v>5</v>
@@ -2804,7 +2835,7 @@
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A124" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F124" s="1">
         <v>5</v>
@@ -2813,7 +2844,7 @@
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A125" s="3" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F125" s="1">
         <v>5</v>
@@ -2827,18 +2858,27 @@
       <c r="G126" s="3"/>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A127" s="3" t="s">
+        <v>222</v>
+      </c>
       <c r="F127" s="1">
         <v>5</v>
       </c>
       <c r="G127" s="3"/>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A128" s="3" t="s">
+        <v>223</v>
+      </c>
       <c r="F128" s="1">
         <v>5</v>
       </c>
       <c r="G128" s="3"/>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A129" s="3" t="s">
+        <v>224</v>
+      </c>
       <c r="F129" s="1">
         <v>5</v>
       </c>
@@ -2864,28 +2904,28 @@
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A133" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="B133" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="B133" s="5" t="s">
+      <c r="C133" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="C133" s="5" t="s">
+      <c r="D133" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="E133" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="F133" s="5" t="s">
         <v>91</v>
-      </c>
-      <c r="D133" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="E133" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="F133" s="5" t="s">
-        <v>92</v>
       </c>
       <c r="G133" s="5"/>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A134" s="15" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B134" s="15"/>
       <c r="C134" s="15"/>
@@ -2896,7 +2936,7 @@
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A135" s="3" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F135" s="1">
         <v>1</v>
@@ -2941,7 +2981,7 @@
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A140" s="3" t="s">
-        <v>22</v>
+        <v>221</v>
       </c>
       <c r="F140" s="1">
         <v>1</v>
@@ -2950,7 +2990,7 @@
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A141" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F141" s="1">
         <v>1</v>
@@ -2959,7 +2999,7 @@
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A142" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F142" s="1">
         <v>1</v>
@@ -2968,7 +3008,7 @@
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A143" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F143" s="1">
         <v>1</v>
@@ -2977,7 +3017,7 @@
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A144" s="13" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F144" s="1">
         <v>1</v>
@@ -2986,7 +3026,7 @@
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A145" s="13" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F145" s="1">
         <v>1</v>
@@ -2995,7 +3035,7 @@
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A146" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F146" s="1">
         <v>1</v>
@@ -3004,7 +3044,7 @@
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A147" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F147" s="1">
         <v>1</v>
@@ -3013,7 +3053,7 @@
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A148" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F148" s="1">
         <v>1</v>
@@ -3022,7 +3062,7 @@
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A149" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F149" s="1">
         <v>1</v>
@@ -3031,7 +3071,7 @@
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A150" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F150" s="1">
         <v>1</v>
@@ -3040,7 +3080,7 @@
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A151" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F151" s="1">
         <v>1</v>
@@ -3055,7 +3095,7 @@
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A153" s="3" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F153" s="1">
         <v>1</v>
@@ -3082,7 +3122,7 @@
     </row>
     <row r="157" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A157" s="13" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F157" s="1">
         <v>5</v>
@@ -3091,7 +3131,7 @@
     </row>
     <row r="158" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A158" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F158" s="1">
         <v>5</v>
@@ -4209,1075 +4249,1291 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
-      <c r="G1" s="29"/>
-      <c r="H1" s="29" t="s">
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25" t="s">
+        <v>200</v>
+      </c>
+      <c r="I1" s="25"/>
+      <c r="J1" s="25"/>
+      <c r="K1" s="25"/>
+      <c r="L1" s="25"/>
+      <c r="M1" s="25"/>
+      <c r="N1" s="25"/>
+      <c r="O1" s="25" t="s">
         <v>201</v>
       </c>
-      <c r="I1" s="29"/>
-      <c r="J1" s="29"/>
-      <c r="K1" s="29"/>
-      <c r="L1" s="29"/>
-      <c r="M1" s="29"/>
-      <c r="N1" s="29"/>
-      <c r="O1" s="29" t="s">
+      <c r="P1" s="25"/>
+      <c r="Q1" s="25"/>
+      <c r="R1" s="25"/>
+      <c r="S1" s="25"/>
+      <c r="T1" s="25"/>
+      <c r="U1" s="25"/>
+      <c r="V1" s="25" t="s">
+        <v>35</v>
+      </c>
+      <c r="W1" s="25"/>
+      <c r="X1" s="25"/>
+      <c r="Y1" s="25"/>
+      <c r="Z1" s="25"/>
+      <c r="AA1" s="25"/>
+      <c r="AB1" s="25"/>
+    </row>
+    <row r="2" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="25"/>
+      <c r="B2" s="25"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="25"/>
+      <c r="I2" s="25"/>
+      <c r="J2" s="25"/>
+      <c r="K2" s="25"/>
+      <c r="L2" s="25"/>
+      <c r="M2" s="25"/>
+      <c r="N2" s="25"/>
+      <c r="O2" s="25"/>
+      <c r="P2" s="25"/>
+      <c r="Q2" s="25"/>
+      <c r="R2" s="25"/>
+      <c r="S2" s="25"/>
+      <c r="T2" s="25"/>
+      <c r="U2" s="25"/>
+      <c r="V2" s="25"/>
+      <c r="W2" s="25"/>
+      <c r="X2" s="25"/>
+      <c r="Y2" s="25"/>
+      <c r="Z2" s="25"/>
+      <c r="AA2" s="25"/>
+      <c r="AB2" s="25"/>
+    </row>
+    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A3" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="B3" s="26"/>
+      <c r="C3" s="27" t="s">
+        <v>36</v>
+      </c>
+      <c r="D3" s="27"/>
+      <c r="E3" s="27"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="27"/>
+      <c r="H3" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="I3" s="26"/>
+      <c r="J3" s="27" t="s">
+        <v>36</v>
+      </c>
+      <c r="K3" s="27"/>
+      <c r="L3" s="27"/>
+      <c r="M3" s="27"/>
+      <c r="N3" s="27"/>
+      <c r="O3" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="P3" s="26"/>
+      <c r="Q3" s="27" t="s">
+        <v>36</v>
+      </c>
+      <c r="R3" s="27"/>
+      <c r="S3" s="27"/>
+      <c r="T3" s="27"/>
+      <c r="U3" s="27"/>
+      <c r="V3" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="W3" s="26"/>
+      <c r="X3" s="27" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y3" s="27"/>
+      <c r="Z3" s="27"/>
+      <c r="AA3" s="27"/>
+      <c r="AB3" s="27"/>
+    </row>
+    <row r="4" spans="1:28" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="B4" s="22"/>
+      <c r="C4" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="D4" s="23"/>
+      <c r="E4" s="23"/>
+      <c r="F4" s="23"/>
+      <c r="G4" s="23"/>
+      <c r="H4" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" s="22"/>
+      <c r="J4" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="K4" s="23"/>
+      <c r="L4" s="23"/>
+      <c r="M4" s="23"/>
+      <c r="N4" s="23"/>
+      <c r="O4" s="24" t="s">
         <v>202</v>
       </c>
-      <c r="P1" s="29"/>
-      <c r="Q1" s="29"/>
-      <c r="R1" s="29"/>
-      <c r="S1" s="29"/>
-      <c r="T1" s="29"/>
-      <c r="U1" s="29"/>
-      <c r="V1" s="29" t="s">
-        <v>36</v>
-      </c>
-      <c r="W1" s="29"/>
-      <c r="X1" s="29"/>
-      <c r="Y1" s="29"/>
-      <c r="Z1" s="29"/>
-      <c r="AA1" s="29"/>
-      <c r="AB1" s="29"/>
-    </row>
-    <row r="2" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="29"/>
-      <c r="B2" s="29"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="29"/>
-      <c r="H2" s="29"/>
-      <c r="I2" s="29"/>
-      <c r="J2" s="29"/>
-      <c r="K2" s="29"/>
-      <c r="L2" s="29"/>
-      <c r="M2" s="29"/>
-      <c r="N2" s="29"/>
-      <c r="O2" s="29"/>
-      <c r="P2" s="29"/>
-      <c r="Q2" s="29"/>
-      <c r="R2" s="29"/>
-      <c r="S2" s="29"/>
-      <c r="T2" s="29"/>
-      <c r="U2" s="29"/>
-      <c r="V2" s="29"/>
-      <c r="W2" s="29"/>
-      <c r="X2" s="29"/>
-      <c r="Y2" s="29"/>
-      <c r="Z2" s="29"/>
-      <c r="AA2" s="29"/>
-      <c r="AB2" s="29"/>
-    </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A3" s="30" t="s">
-        <v>35</v>
-      </c>
-      <c r="B3" s="30"/>
-      <c r="C3" s="31" t="s">
+      <c r="P4" s="24"/>
+      <c r="Q4" s="23" t="s">
+        <v>203</v>
+      </c>
+      <c r="R4" s="23"/>
+      <c r="S4" s="23"/>
+      <c r="T4" s="23"/>
+      <c r="U4" s="23"/>
+      <c r="V4" s="24" t="s">
+        <v>66</v>
+      </c>
+      <c r="W4" s="24"/>
+      <c r="X4" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="Y4" s="23"/>
+      <c r="Z4" s="23"/>
+      <c r="AA4" s="23"/>
+      <c r="AB4" s="23"/>
+    </row>
+    <row r="5" spans="1:28" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="D3" s="31"/>
-      <c r="E3" s="31"/>
-      <c r="F3" s="31"/>
-      <c r="G3" s="31"/>
-      <c r="H3" s="30" t="s">
-        <v>35</v>
-      </c>
-      <c r="I3" s="30"/>
-      <c r="J3" s="31" t="s">
-        <v>37</v>
-      </c>
-      <c r="K3" s="31"/>
-      <c r="L3" s="31"/>
-      <c r="M3" s="31"/>
-      <c r="N3" s="31"/>
-      <c r="O3" s="30" t="s">
-        <v>35</v>
-      </c>
-      <c r="P3" s="30"/>
-      <c r="Q3" s="31" t="s">
-        <v>37</v>
-      </c>
-      <c r="R3" s="31"/>
-      <c r="S3" s="31"/>
-      <c r="T3" s="31"/>
-      <c r="U3" s="31"/>
-      <c r="V3" s="30" t="s">
-        <v>35</v>
-      </c>
-      <c r="W3" s="30"/>
-      <c r="X3" s="31" t="s">
-        <v>37</v>
-      </c>
-      <c r="Y3" s="31"/>
-      <c r="Z3" s="31"/>
-      <c r="AA3" s="31"/>
-      <c r="AB3" s="31"/>
-    </row>
-    <row r="4" spans="1:28" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="24" t="s">
+      <c r="B5" s="22"/>
+      <c r="C5" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="D5" s="23"/>
+      <c r="E5" s="23"/>
+      <c r="F5" s="23"/>
+      <c r="G5" s="23"/>
+      <c r="H5" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="I5" s="22"/>
+      <c r="J5" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="K5" s="23"/>
+      <c r="L5" s="23"/>
+      <c r="M5" s="23"/>
+      <c r="N5" s="23"/>
+      <c r="O5" s="24" t="s">
+        <v>204</v>
+      </c>
+      <c r="P5" s="24"/>
+      <c r="Q5" s="23"/>
+      <c r="R5" s="23"/>
+      <c r="S5" s="23"/>
+      <c r="T5" s="23"/>
+      <c r="U5" s="23"/>
+      <c r="V5" s="24" t="s">
+        <v>67</v>
+      </c>
+      <c r="W5" s="24"/>
+      <c r="X5" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="Y5" s="23"/>
+      <c r="Z5" s="23"/>
+      <c r="AA5" s="23"/>
+      <c r="AB5" s="23"/>
+    </row>
+    <row r="6" spans="1:28" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="B6" s="22"/>
+      <c r="C6" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="D6" s="23"/>
+      <c r="E6" s="23"/>
+      <c r="F6" s="23"/>
+      <c r="G6" s="23"/>
+      <c r="H6" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="I6" s="22"/>
+      <c r="J6" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="K6" s="23"/>
+      <c r="L6" s="23"/>
+      <c r="M6" s="23"/>
+      <c r="N6" s="23"/>
+      <c r="O6" s="24" t="s">
+        <v>205</v>
+      </c>
+      <c r="P6" s="24"/>
+      <c r="Q6" s="23"/>
+      <c r="R6" s="23"/>
+      <c r="S6" s="23"/>
+      <c r="T6" s="23"/>
+      <c r="U6" s="23"/>
+      <c r="V6" s="24" t="s">
+        <v>68</v>
+      </c>
+      <c r="W6" s="24"/>
+      <c r="X6" s="23" t="s">
+        <v>69</v>
+      </c>
+      <c r="Y6" s="23"/>
+      <c r="Z6" s="23"/>
+      <c r="AA6" s="23"/>
+      <c r="AB6" s="23"/>
+    </row>
+    <row r="7" spans="1:28" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="B7" s="22"/>
+      <c r="C7" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="D7" s="23"/>
+      <c r="E7" s="23"/>
+      <c r="F7" s="23"/>
+      <c r="G7" s="23"/>
+      <c r="H7" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="I7" s="22"/>
+      <c r="J7" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="K7" s="23"/>
+      <c r="L7" s="23"/>
+      <c r="M7" s="23"/>
+      <c r="N7" s="23"/>
+      <c r="O7" s="24" t="s">
+        <v>206</v>
+      </c>
+      <c r="P7" s="24"/>
+      <c r="Q7" s="23"/>
+      <c r="R7" s="23"/>
+      <c r="S7" s="23"/>
+      <c r="T7" s="23"/>
+      <c r="U7" s="23"/>
+      <c r="V7" s="24" t="s">
+        <v>71</v>
+      </c>
+      <c r="W7" s="24"/>
+      <c r="X7" s="23" t="s">
+        <v>72</v>
+      </c>
+      <c r="Y7" s="23"/>
+      <c r="Z7" s="23"/>
+      <c r="AA7" s="23"/>
+      <c r="AB7" s="23"/>
+    </row>
+    <row r="8" spans="1:28" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="B8" s="22"/>
+      <c r="C8" s="23" t="s">
+        <v>58</v>
+      </c>
+      <c r="D8" s="23"/>
+      <c r="E8" s="23"/>
+      <c r="F8" s="23"/>
+      <c r="G8" s="23"/>
+      <c r="H8" s="28" t="s">
+        <v>55</v>
+      </c>
+      <c r="I8" s="28"/>
+      <c r="J8" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="K8" s="29"/>
+      <c r="L8" s="29"/>
+      <c r="M8" s="29"/>
+      <c r="N8" s="29"/>
+      <c r="O8" s="24" t="s">
+        <v>207</v>
+      </c>
+      <c r="P8" s="24"/>
+      <c r="Q8" s="23" t="s">
+        <v>208</v>
+      </c>
+      <c r="R8" s="23"/>
+      <c r="S8" s="23"/>
+      <c r="T8" s="23"/>
+      <c r="U8" s="23"/>
+      <c r="V8" s="24" t="s">
+        <v>73</v>
+      </c>
+      <c r="W8" s="24"/>
+      <c r="X8" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="Y8" s="23"/>
+      <c r="Z8" s="23"/>
+      <c r="AA8" s="23"/>
+      <c r="AB8" s="23"/>
+    </row>
+    <row r="9" spans="1:28" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="B4" s="24"/>
-      <c r="C4" s="25" t="s">
-        <v>47</v>
-      </c>
-      <c r="D4" s="25"/>
-      <c r="E4" s="25"/>
-      <c r="F4" s="25"/>
-      <c r="G4" s="25"/>
-      <c r="H4" s="24" t="s">
-        <v>48</v>
-      </c>
-      <c r="I4" s="24"/>
-      <c r="J4" s="25" t="s">
-        <v>49</v>
-      </c>
-      <c r="K4" s="25"/>
-      <c r="L4" s="25"/>
-      <c r="M4" s="25"/>
-      <c r="N4" s="25"/>
-      <c r="O4" s="26" t="s">
-        <v>203</v>
-      </c>
-      <c r="P4" s="26"/>
-      <c r="Q4" s="25" t="s">
-        <v>204</v>
-      </c>
-      <c r="R4" s="25"/>
-      <c r="S4" s="25"/>
-      <c r="T4" s="25"/>
-      <c r="U4" s="25"/>
-      <c r="V4" s="26" t="s">
-        <v>67</v>
-      </c>
-      <c r="W4" s="26"/>
-      <c r="X4" s="25" t="s">
-        <v>66</v>
-      </c>
-      <c r="Y4" s="25"/>
-      <c r="Z4" s="25"/>
-      <c r="AA4" s="25"/>
-      <c r="AB4" s="25"/>
-    </row>
-    <row r="5" spans="1:28" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="24" t="s">
-        <v>38</v>
-      </c>
-      <c r="B5" s="24"/>
-      <c r="C5" s="25" t="s">
-        <v>45</v>
-      </c>
-      <c r="D5" s="25"/>
-      <c r="E5" s="25"/>
-      <c r="F5" s="25"/>
-      <c r="G5" s="25"/>
-      <c r="H5" s="24" t="s">
-        <v>50</v>
-      </c>
-      <c r="I5" s="24"/>
-      <c r="J5" s="25" t="s">
-        <v>51</v>
-      </c>
-      <c r="K5" s="25"/>
-      <c r="L5" s="25"/>
-      <c r="M5" s="25"/>
-      <c r="N5" s="25"/>
-      <c r="O5" s="26" t="s">
-        <v>205</v>
-      </c>
-      <c r="P5" s="26"/>
-      <c r="Q5" s="25"/>
-      <c r="R5" s="25"/>
-      <c r="S5" s="25"/>
-      <c r="T5" s="25"/>
-      <c r="U5" s="25"/>
-      <c r="V5" s="26" t="s">
-        <v>68</v>
-      </c>
-      <c r="W5" s="26"/>
-      <c r="X5" s="25" t="s">
-        <v>71</v>
-      </c>
-      <c r="Y5" s="25"/>
-      <c r="Z5" s="25"/>
-      <c r="AA5" s="25"/>
-      <c r="AB5" s="25"/>
-    </row>
-    <row r="6" spans="1:28" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="B6" s="24"/>
-      <c r="C6" s="25" t="s">
+      <c r="B9" s="22"/>
+      <c r="C9" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="D9" s="23"/>
+      <c r="E9" s="23"/>
+      <c r="F9" s="23"/>
+      <c r="G9" s="23"/>
+      <c r="H9" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="I9" s="22"/>
+      <c r="J9" s="23" t="s">
+        <v>60</v>
+      </c>
+      <c r="K9" s="23"/>
+      <c r="L9" s="23"/>
+      <c r="M9" s="23"/>
+      <c r="N9" s="23"/>
+      <c r="O9" s="24"/>
+      <c r="P9" s="24"/>
+      <c r="Q9" s="23"/>
+      <c r="R9" s="23"/>
+      <c r="S9" s="23"/>
+      <c r="T9" s="23"/>
+      <c r="U9" s="23"/>
+      <c r="V9" s="24" t="s">
+        <v>74</v>
+      </c>
+      <c r="W9" s="24"/>
+      <c r="X9" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y9" s="23"/>
+      <c r="Z9" s="23"/>
+      <c r="AA9" s="23"/>
+      <c r="AB9" s="23"/>
+    </row>
+    <row r="10" spans="1:28" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="B10" s="22"/>
+      <c r="C10" s="23" t="s">
         <v>57</v>
       </c>
-      <c r="D6" s="25"/>
-      <c r="E6" s="25"/>
-      <c r="F6" s="25"/>
-      <c r="G6" s="25"/>
-      <c r="H6" s="24" t="s">
-        <v>53</v>
-      </c>
-      <c r="I6" s="24"/>
-      <c r="J6" s="25" t="s">
-        <v>52</v>
-      </c>
-      <c r="K6" s="25"/>
-      <c r="L6" s="25"/>
-      <c r="M6" s="25"/>
-      <c r="N6" s="25"/>
-      <c r="O6" s="26" t="s">
-        <v>206</v>
-      </c>
-      <c r="P6" s="26"/>
-      <c r="Q6" s="25"/>
-      <c r="R6" s="25"/>
-      <c r="S6" s="25"/>
-      <c r="T6" s="25"/>
-      <c r="U6" s="25"/>
-      <c r="V6" s="26" t="s">
-        <v>69</v>
-      </c>
-      <c r="W6" s="26"/>
-      <c r="X6" s="25" t="s">
-        <v>70</v>
-      </c>
-      <c r="Y6" s="25"/>
-      <c r="Z6" s="25"/>
-      <c r="AA6" s="25"/>
-      <c r="AB6" s="25"/>
-    </row>
-    <row r="7" spans="1:28" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="24" t="s">
-        <v>40</v>
-      </c>
-      <c r="B7" s="24"/>
-      <c r="C7" s="25" t="s">
-        <v>46</v>
-      </c>
-      <c r="D7" s="25"/>
-      <c r="E7" s="25"/>
-      <c r="F7" s="25"/>
-      <c r="G7" s="25"/>
-      <c r="H7" s="24" t="s">
-        <v>54</v>
-      </c>
-      <c r="I7" s="24"/>
-      <c r="J7" s="25" t="s">
-        <v>55</v>
-      </c>
-      <c r="K7" s="25"/>
-      <c r="L7" s="25"/>
-      <c r="M7" s="25"/>
-      <c r="N7" s="25"/>
-      <c r="O7" s="26" t="s">
-        <v>207</v>
-      </c>
-      <c r="P7" s="26"/>
-      <c r="Q7" s="25"/>
-      <c r="R7" s="25"/>
-      <c r="S7" s="25"/>
-      <c r="T7" s="25"/>
-      <c r="U7" s="25"/>
-      <c r="V7" s="26" t="s">
-        <v>72</v>
-      </c>
-      <c r="W7" s="26"/>
-      <c r="X7" s="25" t="s">
-        <v>73</v>
-      </c>
-      <c r="Y7" s="25"/>
-      <c r="Z7" s="25"/>
-      <c r="AA7" s="25"/>
-      <c r="AB7" s="25"/>
-    </row>
-    <row r="8" spans="1:28" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="24" t="s">
-        <v>41</v>
-      </c>
-      <c r="B8" s="24"/>
-      <c r="C8" s="25" t="s">
-        <v>59</v>
-      </c>
-      <c r="D8" s="25"/>
-      <c r="E8" s="25"/>
-      <c r="F8" s="25"/>
-      <c r="G8" s="25"/>
-      <c r="H8" s="27" t="s">
-        <v>56</v>
-      </c>
-      <c r="I8" s="27"/>
-      <c r="J8" s="28" t="s">
-        <v>55</v>
-      </c>
-      <c r="K8" s="28"/>
-      <c r="L8" s="28"/>
-      <c r="M8" s="28"/>
-      <c r="N8" s="28"/>
-      <c r="O8" s="26" t="s">
-        <v>208</v>
-      </c>
-      <c r="P8" s="26"/>
-      <c r="Q8" s="25" t="s">
-        <v>209</v>
-      </c>
-      <c r="R8" s="25"/>
-      <c r="S8" s="25"/>
-      <c r="T8" s="25"/>
-      <c r="U8" s="25"/>
-      <c r="V8" s="26" t="s">
-        <v>74</v>
-      </c>
-      <c r="W8" s="26"/>
-      <c r="X8" s="25" t="s">
-        <v>66</v>
-      </c>
-      <c r="Y8" s="25"/>
-      <c r="Z8" s="25"/>
-      <c r="AA8" s="25"/>
-      <c r="AB8" s="25"/>
-    </row>
-    <row r="9" spans="1:28" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="24" t="s">
-        <v>43</v>
-      </c>
-      <c r="B9" s="24"/>
-      <c r="C9" s="25" t="s">
-        <v>60</v>
-      </c>
-      <c r="D9" s="25"/>
-      <c r="E9" s="25"/>
-      <c r="F9" s="25"/>
-      <c r="G9" s="25"/>
-      <c r="H9" s="24" t="s">
-        <v>83</v>
-      </c>
-      <c r="I9" s="24"/>
-      <c r="J9" s="25" t="s">
+      <c r="D10" s="23"/>
+      <c r="E10" s="23"/>
+      <c r="F10" s="23"/>
+      <c r="G10" s="23"/>
+      <c r="H10" s="22" t="s">
         <v>61</v>
       </c>
-      <c r="K9" s="25"/>
-      <c r="L9" s="25"/>
-      <c r="M9" s="25"/>
-      <c r="N9" s="25"/>
-      <c r="O9" s="26"/>
-      <c r="P9" s="26"/>
-      <c r="Q9" s="25"/>
-      <c r="R9" s="25"/>
-      <c r="S9" s="25"/>
-      <c r="T9" s="25"/>
-      <c r="U9" s="25"/>
-      <c r="V9" s="26" t="s">
-        <v>75</v>
-      </c>
-      <c r="W9" s="26"/>
-      <c r="X9" s="25" t="s">
-        <v>76</v>
-      </c>
-      <c r="Y9" s="25"/>
-      <c r="Z9" s="25"/>
-      <c r="AA9" s="25"/>
-      <c r="AB9" s="25"/>
-    </row>
-    <row r="10" spans="1:28" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="24" t="s">
-        <v>44</v>
-      </c>
-      <c r="B10" s="24"/>
-      <c r="C10" s="25" t="s">
-        <v>58</v>
-      </c>
-      <c r="D10" s="25"/>
-      <c r="E10" s="25"/>
-      <c r="F10" s="25"/>
-      <c r="G10" s="25"/>
-      <c r="H10" s="24" t="s">
+      <c r="I10" s="22"/>
+      <c r="J10" s="23" t="s">
         <v>62</v>
       </c>
-      <c r="I10" s="24"/>
-      <c r="J10" s="25" t="s">
+      <c r="K10" s="23"/>
+      <c r="L10" s="23"/>
+      <c r="M10" s="23"/>
+      <c r="N10" s="23"/>
+      <c r="O10" s="24"/>
+      <c r="P10" s="24"/>
+      <c r="Q10" s="23"/>
+      <c r="R10" s="23"/>
+      <c r="S10" s="23"/>
+      <c r="T10" s="23"/>
+      <c r="U10" s="23"/>
+      <c r="V10" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="W10" s="24"/>
+      <c r="X10" s="23" t="s">
+        <v>78</v>
+      </c>
+      <c r="Y10" s="23"/>
+      <c r="Z10" s="23"/>
+      <c r="AA10" s="23"/>
+      <c r="AB10" s="23"/>
+    </row>
+    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A11" s="22"/>
+      <c r="B11" s="22"/>
+      <c r="C11" s="23"/>
+      <c r="D11" s="23"/>
+      <c r="E11" s="23"/>
+      <c r="F11" s="23"/>
+      <c r="G11" s="23"/>
+      <c r="H11" s="22" t="s">
         <v>63</v>
       </c>
-      <c r="K10" s="25"/>
-      <c r="L10" s="25"/>
-      <c r="M10" s="25"/>
-      <c r="N10" s="25"/>
-      <c r="O10" s="26"/>
-      <c r="P10" s="26"/>
-      <c r="Q10" s="25"/>
-      <c r="R10" s="25"/>
-      <c r="S10" s="25"/>
-      <c r="T10" s="25"/>
-      <c r="U10" s="25"/>
-      <c r="V10" s="26" t="s">
-        <v>78</v>
-      </c>
-      <c r="W10" s="26"/>
-      <c r="X10" s="25" t="s">
+      <c r="I11" s="22"/>
+      <c r="J11" s="23" t="s">
+        <v>64</v>
+      </c>
+      <c r="K11" s="23"/>
+      <c r="L11" s="23"/>
+      <c r="M11" s="23"/>
+      <c r="N11" s="23"/>
+      <c r="O11" s="24"/>
+      <c r="P11" s="24"/>
+      <c r="Q11" s="23"/>
+      <c r="R11" s="23"/>
+      <c r="S11" s="23"/>
+      <c r="T11" s="23"/>
+      <c r="U11" s="23"/>
+      <c r="V11" s="24" t="s">
         <v>79</v>
       </c>
-      <c r="Y10" s="25"/>
-      <c r="Z10" s="25"/>
-      <c r="AA10" s="25"/>
-      <c r="AB10" s="25"/>
-    </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A11" s="24"/>
-      <c r="B11" s="24"/>
-      <c r="C11" s="25"/>
-      <c r="D11" s="25"/>
-      <c r="E11" s="25"/>
-      <c r="F11" s="25"/>
-      <c r="G11" s="25"/>
-      <c r="H11" s="24" t="s">
-        <v>64</v>
-      </c>
-      <c r="I11" s="24"/>
-      <c r="J11" s="25" t="s">
-        <v>65</v>
-      </c>
-      <c r="K11" s="25"/>
-      <c r="L11" s="25"/>
-      <c r="M11" s="25"/>
-      <c r="N11" s="25"/>
-      <c r="O11" s="26"/>
-      <c r="P11" s="26"/>
-      <c r="Q11" s="25"/>
-      <c r="R11" s="25"/>
-      <c r="S11" s="25"/>
-      <c r="T11" s="25"/>
-      <c r="U11" s="25"/>
-      <c r="V11" s="26" t="s">
+      <c r="W11" s="24"/>
+      <c r="X11" s="23" t="s">
         <v>80</v>
       </c>
-      <c r="W11" s="26"/>
-      <c r="X11" s="25" t="s">
+      <c r="Y11" s="23"/>
+      <c r="Z11" s="23"/>
+      <c r="AA11" s="23"/>
+      <c r="AB11" s="23"/>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A12" s="22"/>
+      <c r="B12" s="22"/>
+      <c r="C12" s="23"/>
+      <c r="D12" s="23"/>
+      <c r="E12" s="23"/>
+      <c r="F12" s="23"/>
+      <c r="G12" s="23"/>
+      <c r="H12" s="22" t="s">
         <v>81</v>
       </c>
-      <c r="Y11" s="25"/>
-      <c r="Z11" s="25"/>
-      <c r="AA11" s="25"/>
-      <c r="AB11" s="25"/>
-    </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A12" s="24"/>
-      <c r="B12" s="24"/>
-      <c r="C12" s="25"/>
-      <c r="D12" s="25"/>
-      <c r="E12" s="25"/>
-      <c r="F12" s="25"/>
-      <c r="G12" s="25"/>
-      <c r="H12" s="24" t="s">
-        <v>82</v>
-      </c>
-      <c r="I12" s="24"/>
-      <c r="J12" s="25"/>
-      <c r="K12" s="25"/>
-      <c r="L12" s="25"/>
-      <c r="M12" s="25"/>
-      <c r="N12" s="25"/>
-      <c r="O12" s="26"/>
-      <c r="P12" s="26"/>
-      <c r="Q12" s="25"/>
-      <c r="R12" s="25"/>
-      <c r="S12" s="25"/>
-      <c r="T12" s="25"/>
-      <c r="U12" s="25"/>
-      <c r="V12" s="26"/>
-      <c r="W12" s="26"/>
-      <c r="X12" s="25"/>
-      <c r="Y12" s="25"/>
-      <c r="Z12" s="25"/>
-      <c r="AA12" s="25"/>
-      <c r="AB12" s="25"/>
+      <c r="I12" s="22"/>
+      <c r="J12" s="23"/>
+      <c r="K12" s="23"/>
+      <c r="L12" s="23"/>
+      <c r="M12" s="23"/>
+      <c r="N12" s="23"/>
+      <c r="O12" s="24"/>
+      <c r="P12" s="24"/>
+      <c r="Q12" s="23"/>
+      <c r="R12" s="23"/>
+      <c r="S12" s="23"/>
+      <c r="T12" s="23"/>
+      <c r="U12" s="23"/>
+      <c r="V12" s="24"/>
+      <c r="W12" s="24"/>
+      <c r="X12" s="23"/>
+      <c r="Y12" s="23"/>
+      <c r="Z12" s="23"/>
+      <c r="AA12" s="23"/>
+      <c r="AB12" s="23"/>
     </row>
     <row r="13" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A13" s="24"/>
-      <c r="B13" s="24"/>
-      <c r="C13" s="25"/>
-      <c r="D13" s="25"/>
-      <c r="E13" s="25"/>
-      <c r="F13" s="25"/>
-      <c r="G13" s="25"/>
-      <c r="H13" s="24"/>
-      <c r="I13" s="24"/>
-      <c r="J13" s="25"/>
-      <c r="K13" s="25"/>
-      <c r="L13" s="25"/>
-      <c r="M13" s="25"/>
-      <c r="N13" s="25"/>
-      <c r="O13" s="26"/>
-      <c r="P13" s="26"/>
-      <c r="Q13" s="25"/>
-      <c r="R13" s="25"/>
-      <c r="S13" s="25"/>
-      <c r="T13" s="25"/>
-      <c r="U13" s="25"/>
-      <c r="V13" s="26"/>
-      <c r="W13" s="26"/>
-      <c r="X13" s="25"/>
-      <c r="Y13" s="25"/>
-      <c r="Z13" s="25"/>
-      <c r="AA13" s="25"/>
-      <c r="AB13" s="25"/>
+      <c r="A13" s="22"/>
+      <c r="B13" s="22"/>
+      <c r="C13" s="23"/>
+      <c r="D13" s="23"/>
+      <c r="E13" s="23"/>
+      <c r="F13" s="23"/>
+      <c r="G13" s="23"/>
+      <c r="H13" s="22"/>
+      <c r="I13" s="22"/>
+      <c r="J13" s="23"/>
+      <c r="K13" s="23"/>
+      <c r="L13" s="23"/>
+      <c r="M13" s="23"/>
+      <c r="N13" s="23"/>
+      <c r="O13" s="24"/>
+      <c r="P13" s="24"/>
+      <c r="Q13" s="23"/>
+      <c r="R13" s="23"/>
+      <c r="S13" s="23"/>
+      <c r="T13" s="23"/>
+      <c r="U13" s="23"/>
+      <c r="V13" s="24"/>
+      <c r="W13" s="24"/>
+      <c r="X13" s="23"/>
+      <c r="Y13" s="23"/>
+      <c r="Z13" s="23"/>
+      <c r="AA13" s="23"/>
+      <c r="AB13" s="23"/>
     </row>
     <row r="14" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A14" s="24"/>
-      <c r="B14" s="24"/>
-      <c r="C14" s="25"/>
-      <c r="D14" s="25"/>
-      <c r="E14" s="25"/>
-      <c r="F14" s="25"/>
-      <c r="G14" s="25"/>
-      <c r="H14" s="24"/>
-      <c r="I14" s="24"/>
-      <c r="J14" s="25"/>
-      <c r="K14" s="25"/>
-      <c r="L14" s="25"/>
-      <c r="M14" s="25"/>
-      <c r="N14" s="25"/>
-      <c r="O14" s="26"/>
-      <c r="P14" s="26"/>
-      <c r="Q14" s="25"/>
-      <c r="R14" s="25"/>
-      <c r="S14" s="25"/>
-      <c r="T14" s="25"/>
-      <c r="U14" s="25"/>
-      <c r="V14" s="26"/>
-      <c r="W14" s="26"/>
-      <c r="X14" s="25"/>
-      <c r="Y14" s="25"/>
-      <c r="Z14" s="25"/>
-      <c r="AA14" s="25"/>
-      <c r="AB14" s="25"/>
+      <c r="A14" s="22"/>
+      <c r="B14" s="22"/>
+      <c r="C14" s="23"/>
+      <c r="D14" s="23"/>
+      <c r="E14" s="23"/>
+      <c r="F14" s="23"/>
+      <c r="G14" s="23"/>
+      <c r="H14" s="22"/>
+      <c r="I14" s="22"/>
+      <c r="J14" s="23"/>
+      <c r="K14" s="23"/>
+      <c r="L14" s="23"/>
+      <c r="M14" s="23"/>
+      <c r="N14" s="23"/>
+      <c r="O14" s="24"/>
+      <c r="P14" s="24"/>
+      <c r="Q14" s="23"/>
+      <c r="R14" s="23"/>
+      <c r="S14" s="23"/>
+      <c r="T14" s="23"/>
+      <c r="U14" s="23"/>
+      <c r="V14" s="24"/>
+      <c r="W14" s="24"/>
+      <c r="X14" s="23"/>
+      <c r="Y14" s="23"/>
+      <c r="Z14" s="23"/>
+      <c r="AA14" s="23"/>
+      <c r="AB14" s="23"/>
     </row>
     <row r="15" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A15" s="24"/>
-      <c r="B15" s="24"/>
-      <c r="C15" s="25"/>
-      <c r="D15" s="25"/>
-      <c r="E15" s="25"/>
-      <c r="F15" s="25"/>
-      <c r="G15" s="25"/>
-      <c r="H15" s="24"/>
-      <c r="I15" s="24"/>
-      <c r="J15" s="25"/>
-      <c r="K15" s="25"/>
-      <c r="L15" s="25"/>
-      <c r="M15" s="25"/>
-      <c r="N15" s="25"/>
-      <c r="O15" s="26"/>
-      <c r="P15" s="26"/>
-      <c r="Q15" s="25"/>
-      <c r="R15" s="25"/>
-      <c r="S15" s="25"/>
-      <c r="T15" s="25"/>
-      <c r="U15" s="25"/>
-      <c r="V15" s="26"/>
-      <c r="W15" s="26"/>
-      <c r="X15" s="25"/>
-      <c r="Y15" s="25"/>
-      <c r="Z15" s="25"/>
-      <c r="AA15" s="25"/>
-      <c r="AB15" s="25"/>
+      <c r="A15" s="22"/>
+      <c r="B15" s="22"/>
+      <c r="C15" s="23"/>
+      <c r="D15" s="23"/>
+      <c r="E15" s="23"/>
+      <c r="F15" s="23"/>
+      <c r="G15" s="23"/>
+      <c r="H15" s="22"/>
+      <c r="I15" s="22"/>
+      <c r="J15" s="23"/>
+      <c r="K15" s="23"/>
+      <c r="L15" s="23"/>
+      <c r="M15" s="23"/>
+      <c r="N15" s="23"/>
+      <c r="O15" s="24"/>
+      <c r="P15" s="24"/>
+      <c r="Q15" s="23"/>
+      <c r="R15" s="23"/>
+      <c r="S15" s="23"/>
+      <c r="T15" s="23"/>
+      <c r="U15" s="23"/>
+      <c r="V15" s="24"/>
+      <c r="W15" s="24"/>
+      <c r="X15" s="23"/>
+      <c r="Y15" s="23"/>
+      <c r="Z15" s="23"/>
+      <c r="AA15" s="23"/>
+      <c r="AB15" s="23"/>
     </row>
     <row r="16" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A16" s="24"/>
-      <c r="B16" s="24"/>
-      <c r="C16" s="25"/>
-      <c r="D16" s="25"/>
-      <c r="E16" s="25"/>
-      <c r="F16" s="25"/>
-      <c r="G16" s="25"/>
-      <c r="H16" s="24"/>
-      <c r="I16" s="24"/>
-      <c r="J16" s="25"/>
-      <c r="K16" s="25"/>
-      <c r="L16" s="25"/>
-      <c r="M16" s="25"/>
-      <c r="N16" s="25"/>
-      <c r="O16" s="26"/>
-      <c r="P16" s="26"/>
-      <c r="Q16" s="25"/>
-      <c r="R16" s="25"/>
-      <c r="S16" s="25"/>
-      <c r="T16" s="25"/>
-      <c r="U16" s="25"/>
-      <c r="V16" s="26"/>
-      <c r="W16" s="26"/>
-      <c r="X16" s="25"/>
-      <c r="Y16" s="25"/>
-      <c r="Z16" s="25"/>
-      <c r="AA16" s="25"/>
-      <c r="AB16" s="25"/>
+      <c r="A16" s="22"/>
+      <c r="B16" s="22"/>
+      <c r="C16" s="23"/>
+      <c r="D16" s="23"/>
+      <c r="E16" s="23"/>
+      <c r="F16" s="23"/>
+      <c r="G16" s="23"/>
+      <c r="H16" s="22"/>
+      <c r="I16" s="22"/>
+      <c r="J16" s="23"/>
+      <c r="K16" s="23"/>
+      <c r="L16" s="23"/>
+      <c r="M16" s="23"/>
+      <c r="N16" s="23"/>
+      <c r="O16" s="24"/>
+      <c r="P16" s="24"/>
+      <c r="Q16" s="23"/>
+      <c r="R16" s="23"/>
+      <c r="S16" s="23"/>
+      <c r="T16" s="23"/>
+      <c r="U16" s="23"/>
+      <c r="V16" s="24"/>
+      <c r="W16" s="24"/>
+      <c r="X16" s="23"/>
+      <c r="Y16" s="23"/>
+      <c r="Z16" s="23"/>
+      <c r="AA16" s="23"/>
+      <c r="AB16" s="23"/>
     </row>
     <row r="17" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A17" s="24"/>
-      <c r="B17" s="24"/>
-      <c r="C17" s="25"/>
-      <c r="D17" s="25"/>
-      <c r="E17" s="25"/>
-      <c r="F17" s="25"/>
-      <c r="G17" s="25"/>
-      <c r="H17" s="24"/>
-      <c r="I17" s="24"/>
-      <c r="J17" s="25"/>
-      <c r="K17" s="25"/>
-      <c r="L17" s="25"/>
-      <c r="M17" s="25"/>
-      <c r="N17" s="25"/>
-      <c r="O17" s="26"/>
-      <c r="P17" s="26"/>
-      <c r="Q17" s="25"/>
-      <c r="R17" s="25"/>
-      <c r="S17" s="25"/>
-      <c r="T17" s="25"/>
-      <c r="U17" s="25"/>
-      <c r="V17" s="26"/>
-      <c r="W17" s="26"/>
-      <c r="X17" s="25"/>
-      <c r="Y17" s="25"/>
-      <c r="Z17" s="25"/>
-      <c r="AA17" s="25"/>
-      <c r="AB17" s="25"/>
+      <c r="A17" s="22"/>
+      <c r="B17" s="22"/>
+      <c r="C17" s="23"/>
+      <c r="D17" s="23"/>
+      <c r="E17" s="23"/>
+      <c r="F17" s="23"/>
+      <c r="G17" s="23"/>
+      <c r="H17" s="22"/>
+      <c r="I17" s="22"/>
+      <c r="J17" s="23"/>
+      <c r="K17" s="23"/>
+      <c r="L17" s="23"/>
+      <c r="M17" s="23"/>
+      <c r="N17" s="23"/>
+      <c r="O17" s="24"/>
+      <c r="P17" s="24"/>
+      <c r="Q17" s="23"/>
+      <c r="R17" s="23"/>
+      <c r="S17" s="23"/>
+      <c r="T17" s="23"/>
+      <c r="U17" s="23"/>
+      <c r="V17" s="24"/>
+      <c r="W17" s="24"/>
+      <c r="X17" s="23"/>
+      <c r="Y17" s="23"/>
+      <c r="Z17" s="23"/>
+      <c r="AA17" s="23"/>
+      <c r="AB17" s="23"/>
     </row>
     <row r="18" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A18" s="24"/>
-      <c r="B18" s="24"/>
-      <c r="C18" s="25"/>
-      <c r="D18" s="25"/>
-      <c r="E18" s="25"/>
-      <c r="F18" s="25"/>
-      <c r="G18" s="25"/>
-      <c r="H18" s="24"/>
-      <c r="I18" s="24"/>
-      <c r="J18" s="25"/>
-      <c r="K18" s="25"/>
-      <c r="L18" s="25"/>
-      <c r="M18" s="25"/>
-      <c r="N18" s="25"/>
-      <c r="O18" s="26"/>
-      <c r="P18" s="26"/>
-      <c r="Q18" s="25"/>
-      <c r="R18" s="25"/>
-      <c r="S18" s="25"/>
-      <c r="T18" s="25"/>
-      <c r="U18" s="25"/>
-      <c r="V18" s="26"/>
-      <c r="W18" s="26"/>
-      <c r="X18" s="25"/>
-      <c r="Y18" s="25"/>
-      <c r="Z18" s="25"/>
-      <c r="AA18" s="25"/>
-      <c r="AB18" s="25"/>
+      <c r="A18" s="22"/>
+      <c r="B18" s="22"/>
+      <c r="C18" s="23"/>
+      <c r="D18" s="23"/>
+      <c r="E18" s="23"/>
+      <c r="F18" s="23"/>
+      <c r="G18" s="23"/>
+      <c r="H18" s="22"/>
+      <c r="I18" s="22"/>
+      <c r="J18" s="23"/>
+      <c r="K18" s="23"/>
+      <c r="L18" s="23"/>
+      <c r="M18" s="23"/>
+      <c r="N18" s="23"/>
+      <c r="O18" s="24"/>
+      <c r="P18" s="24"/>
+      <c r="Q18" s="23"/>
+      <c r="R18" s="23"/>
+      <c r="S18" s="23"/>
+      <c r="T18" s="23"/>
+      <c r="U18" s="23"/>
+      <c r="V18" s="24"/>
+      <c r="W18" s="24"/>
+      <c r="X18" s="23"/>
+      <c r="Y18" s="23"/>
+      <c r="Z18" s="23"/>
+      <c r="AA18" s="23"/>
+      <c r="AB18" s="23"/>
     </row>
     <row r="19" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A19" s="24"/>
-      <c r="B19" s="24"/>
-      <c r="C19" s="25"/>
-      <c r="D19" s="25"/>
-      <c r="E19" s="25"/>
-      <c r="F19" s="25"/>
-      <c r="G19" s="25"/>
-      <c r="H19" s="24"/>
-      <c r="I19" s="24"/>
-      <c r="J19" s="25"/>
-      <c r="K19" s="25"/>
-      <c r="L19" s="25"/>
-      <c r="M19" s="25"/>
-      <c r="N19" s="25"/>
-      <c r="O19" s="26"/>
-      <c r="P19" s="26"/>
-      <c r="Q19" s="25"/>
-      <c r="R19" s="25"/>
-      <c r="S19" s="25"/>
-      <c r="T19" s="25"/>
-      <c r="U19" s="25"/>
-      <c r="V19" s="26"/>
-      <c r="W19" s="26"/>
-      <c r="X19" s="25"/>
-      <c r="Y19" s="25"/>
-      <c r="Z19" s="25"/>
-      <c r="AA19" s="25"/>
-      <c r="AB19" s="25"/>
+      <c r="A19" s="22"/>
+      <c r="B19" s="22"/>
+      <c r="C19" s="23"/>
+      <c r="D19" s="23"/>
+      <c r="E19" s="23"/>
+      <c r="F19" s="23"/>
+      <c r="G19" s="23"/>
+      <c r="H19" s="22"/>
+      <c r="I19" s="22"/>
+      <c r="J19" s="23"/>
+      <c r="K19" s="23"/>
+      <c r="L19" s="23"/>
+      <c r="M19" s="23"/>
+      <c r="N19" s="23"/>
+      <c r="O19" s="24"/>
+      <c r="P19" s="24"/>
+      <c r="Q19" s="23"/>
+      <c r="R19" s="23"/>
+      <c r="S19" s="23"/>
+      <c r="T19" s="23"/>
+      <c r="U19" s="23"/>
+      <c r="V19" s="24"/>
+      <c r="W19" s="24"/>
+      <c r="X19" s="23"/>
+      <c r="Y19" s="23"/>
+      <c r="Z19" s="23"/>
+      <c r="AA19" s="23"/>
+      <c r="AB19" s="23"/>
     </row>
     <row r="20" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A20" s="24"/>
-      <c r="B20" s="24"/>
-      <c r="C20" s="25"/>
-      <c r="D20" s="25"/>
-      <c r="E20" s="25"/>
-      <c r="F20" s="25"/>
-      <c r="G20" s="25"/>
-      <c r="H20" s="24"/>
-      <c r="I20" s="24"/>
-      <c r="J20" s="25"/>
-      <c r="K20" s="25"/>
-      <c r="L20" s="25"/>
-      <c r="M20" s="25"/>
-      <c r="N20" s="25"/>
-      <c r="O20" s="26"/>
-      <c r="P20" s="26"/>
-      <c r="Q20" s="25"/>
-      <c r="R20" s="25"/>
-      <c r="S20" s="25"/>
-      <c r="T20" s="25"/>
-      <c r="U20" s="25"/>
-      <c r="V20" s="26"/>
-      <c r="W20" s="26"/>
-      <c r="X20" s="25"/>
-      <c r="Y20" s="25"/>
-      <c r="Z20" s="25"/>
-      <c r="AA20" s="25"/>
-      <c r="AB20" s="25"/>
+      <c r="A20" s="22"/>
+      <c r="B20" s="22"/>
+      <c r="C20" s="23"/>
+      <c r="D20" s="23"/>
+      <c r="E20" s="23"/>
+      <c r="F20" s="23"/>
+      <c r="G20" s="23"/>
+      <c r="H20" s="22"/>
+      <c r="I20" s="22"/>
+      <c r="J20" s="23"/>
+      <c r="K20" s="23"/>
+      <c r="L20" s="23"/>
+      <c r="M20" s="23"/>
+      <c r="N20" s="23"/>
+      <c r="O20" s="24"/>
+      <c r="P20" s="24"/>
+      <c r="Q20" s="23"/>
+      <c r="R20" s="23"/>
+      <c r="S20" s="23"/>
+      <c r="T20" s="23"/>
+      <c r="U20" s="23"/>
+      <c r="V20" s="24"/>
+      <c r="W20" s="24"/>
+      <c r="X20" s="23"/>
+      <c r="Y20" s="23"/>
+      <c r="Z20" s="23"/>
+      <c r="AA20" s="23"/>
+      <c r="AB20" s="23"/>
     </row>
     <row r="21" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A21" s="24"/>
-      <c r="B21" s="24"/>
-      <c r="C21" s="25"/>
-      <c r="D21" s="25"/>
-      <c r="E21" s="25"/>
-      <c r="F21" s="25"/>
-      <c r="G21" s="25"/>
-      <c r="H21" s="24"/>
-      <c r="I21" s="24"/>
-      <c r="J21" s="25"/>
-      <c r="K21" s="25"/>
-      <c r="L21" s="25"/>
-      <c r="M21" s="25"/>
-      <c r="N21" s="25"/>
-      <c r="O21" s="26"/>
-      <c r="P21" s="26"/>
-      <c r="Q21" s="25"/>
-      <c r="R21" s="25"/>
-      <c r="S21" s="25"/>
-      <c r="T21" s="25"/>
-      <c r="U21" s="25"/>
-      <c r="V21" s="26"/>
-      <c r="W21" s="26"/>
-      <c r="X21" s="25"/>
-      <c r="Y21" s="25"/>
-      <c r="Z21" s="25"/>
-      <c r="AA21" s="25"/>
-      <c r="AB21" s="25"/>
+      <c r="A21" s="22"/>
+      <c r="B21" s="22"/>
+      <c r="C21" s="23"/>
+      <c r="D21" s="23"/>
+      <c r="E21" s="23"/>
+      <c r="F21" s="23"/>
+      <c r="G21" s="23"/>
+      <c r="H21" s="22"/>
+      <c r="I21" s="22"/>
+      <c r="J21" s="23"/>
+      <c r="K21" s="23"/>
+      <c r="L21" s="23"/>
+      <c r="M21" s="23"/>
+      <c r="N21" s="23"/>
+      <c r="O21" s="24"/>
+      <c r="P21" s="24"/>
+      <c r="Q21" s="23"/>
+      <c r="R21" s="23"/>
+      <c r="S21" s="23"/>
+      <c r="T21" s="23"/>
+      <c r="U21" s="23"/>
+      <c r="V21" s="24"/>
+      <c r="W21" s="24"/>
+      <c r="X21" s="23"/>
+      <c r="Y21" s="23"/>
+      <c r="Z21" s="23"/>
+      <c r="AA21" s="23"/>
+      <c r="AB21" s="23"/>
     </row>
     <row r="22" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A22" s="24"/>
-      <c r="B22" s="24"/>
-      <c r="C22" s="25"/>
-      <c r="D22" s="25"/>
-      <c r="E22" s="25"/>
-      <c r="F22" s="25"/>
-      <c r="G22" s="25"/>
-      <c r="H22" s="24"/>
-      <c r="I22" s="24"/>
-      <c r="J22" s="25"/>
-      <c r="K22" s="25"/>
-      <c r="L22" s="25"/>
-      <c r="M22" s="25"/>
-      <c r="N22" s="25"/>
-      <c r="O22" s="26"/>
-      <c r="P22" s="26"/>
-      <c r="Q22" s="25"/>
-      <c r="R22" s="25"/>
-      <c r="S22" s="25"/>
-      <c r="T22" s="25"/>
-      <c r="U22" s="25"/>
-      <c r="V22" s="26"/>
-      <c r="W22" s="26"/>
-      <c r="X22" s="25"/>
-      <c r="Y22" s="25"/>
-      <c r="Z22" s="25"/>
-      <c r="AA22" s="25"/>
-      <c r="AB22" s="25"/>
+      <c r="A22" s="22"/>
+      <c r="B22" s="22"/>
+      <c r="C22" s="23"/>
+      <c r="D22" s="23"/>
+      <c r="E22" s="23"/>
+      <c r="F22" s="23"/>
+      <c r="G22" s="23"/>
+      <c r="H22" s="22"/>
+      <c r="I22" s="22"/>
+      <c r="J22" s="23"/>
+      <c r="K22" s="23"/>
+      <c r="L22" s="23"/>
+      <c r="M22" s="23"/>
+      <c r="N22" s="23"/>
+      <c r="O22" s="24"/>
+      <c r="P22" s="24"/>
+      <c r="Q22" s="23"/>
+      <c r="R22" s="23"/>
+      <c r="S22" s="23"/>
+      <c r="T22" s="23"/>
+      <c r="U22" s="23"/>
+      <c r="V22" s="24"/>
+      <c r="W22" s="24"/>
+      <c r="X22" s="23"/>
+      <c r="Y22" s="23"/>
+      <c r="Z22" s="23"/>
+      <c r="AA22" s="23"/>
+      <c r="AB22" s="23"/>
     </row>
     <row r="23" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A23" s="24"/>
-      <c r="B23" s="24"/>
-      <c r="C23" s="25"/>
-      <c r="D23" s="25"/>
-      <c r="E23" s="25"/>
-      <c r="F23" s="25"/>
-      <c r="G23" s="25"/>
-      <c r="H23" s="24"/>
-      <c r="I23" s="24"/>
-      <c r="J23" s="25"/>
-      <c r="K23" s="25"/>
-      <c r="L23" s="25"/>
-      <c r="M23" s="25"/>
-      <c r="N23" s="25"/>
-      <c r="O23" s="26"/>
-      <c r="P23" s="26"/>
-      <c r="Q23" s="25"/>
-      <c r="R23" s="25"/>
-      <c r="S23" s="25"/>
-      <c r="T23" s="25"/>
-      <c r="U23" s="25"/>
+      <c r="A23" s="22"/>
+      <c r="B23" s="22"/>
+      <c r="C23" s="23"/>
+      <c r="D23" s="23"/>
+      <c r="E23" s="23"/>
+      <c r="F23" s="23"/>
+      <c r="G23" s="23"/>
+      <c r="H23" s="22"/>
+      <c r="I23" s="22"/>
+      <c r="J23" s="23"/>
+      <c r="K23" s="23"/>
+      <c r="L23" s="23"/>
+      <c r="M23" s="23"/>
+      <c r="N23" s="23"/>
+      <c r="O23" s="24"/>
+      <c r="P23" s="24"/>
+      <c r="Q23" s="23"/>
+      <c r="R23" s="23"/>
+      <c r="S23" s="23"/>
+      <c r="T23" s="23"/>
+      <c r="U23" s="23"/>
     </row>
     <row r="24" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A24" s="24"/>
-      <c r="B24" s="24"/>
-      <c r="C24" s="25"/>
-      <c r="D24" s="25"/>
-      <c r="E24" s="25"/>
-      <c r="F24" s="25"/>
-      <c r="G24" s="25"/>
-      <c r="H24" s="24"/>
-      <c r="I24" s="24"/>
-      <c r="J24" s="25"/>
-      <c r="K24" s="25"/>
-      <c r="L24" s="25"/>
-      <c r="M24" s="25"/>
-      <c r="N24" s="25"/>
-      <c r="O24" s="26"/>
-      <c r="P24" s="26"/>
-      <c r="Q24" s="25"/>
-      <c r="R24" s="25"/>
-      <c r="S24" s="25"/>
-      <c r="T24" s="25"/>
-      <c r="U24" s="25"/>
+      <c r="A24" s="22"/>
+      <c r="B24" s="22"/>
+      <c r="C24" s="23"/>
+      <c r="D24" s="23"/>
+      <c r="E24" s="23"/>
+      <c r="F24" s="23"/>
+      <c r="G24" s="23"/>
+      <c r="H24" s="22"/>
+      <c r="I24" s="22"/>
+      <c r="J24" s="23"/>
+      <c r="K24" s="23"/>
+      <c r="L24" s="23"/>
+      <c r="M24" s="23"/>
+      <c r="N24" s="23"/>
+      <c r="O24" s="24"/>
+      <c r="P24" s="24"/>
+      <c r="Q24" s="23"/>
+      <c r="R24" s="23"/>
+      <c r="S24" s="23"/>
+      <c r="T24" s="23"/>
+      <c r="U24" s="23"/>
     </row>
     <row r="25" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A25" s="24"/>
-      <c r="B25" s="24"/>
-      <c r="C25" s="25"/>
-      <c r="D25" s="25"/>
-      <c r="E25" s="25"/>
-      <c r="F25" s="25"/>
-      <c r="G25" s="25"/>
-      <c r="H25" s="24"/>
-      <c r="I25" s="24"/>
-      <c r="J25" s="25"/>
-      <c r="K25" s="25"/>
-      <c r="L25" s="25"/>
-      <c r="M25" s="25"/>
-      <c r="N25" s="25"/>
-      <c r="O25" s="26"/>
-      <c r="P25" s="26"/>
-      <c r="Q25" s="25"/>
-      <c r="R25" s="25"/>
-      <c r="S25" s="25"/>
-      <c r="T25" s="25"/>
-      <c r="U25" s="25"/>
+      <c r="A25" s="22"/>
+      <c r="B25" s="22"/>
+      <c r="C25" s="23"/>
+      <c r="D25" s="23"/>
+      <c r="E25" s="23"/>
+      <c r="F25" s="23"/>
+      <c r="G25" s="23"/>
+      <c r="H25" s="22"/>
+      <c r="I25" s="22"/>
+      <c r="J25" s="23"/>
+      <c r="K25" s="23"/>
+      <c r="L25" s="23"/>
+      <c r="M25" s="23"/>
+      <c r="N25" s="23"/>
+      <c r="O25" s="24"/>
+      <c r="P25" s="24"/>
+      <c r="Q25" s="23"/>
+      <c r="R25" s="23"/>
+      <c r="S25" s="23"/>
+      <c r="T25" s="23"/>
+      <c r="U25" s="23"/>
     </row>
     <row r="26" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A26" s="24"/>
-      <c r="B26" s="24"/>
-      <c r="C26" s="25"/>
-      <c r="D26" s="25"/>
-      <c r="E26" s="25"/>
-      <c r="F26" s="25"/>
-      <c r="G26" s="25"/>
-      <c r="H26" s="24"/>
-      <c r="I26" s="24"/>
-      <c r="J26" s="25"/>
-      <c r="K26" s="25"/>
-      <c r="L26" s="25"/>
-      <c r="M26" s="25"/>
-      <c r="N26" s="25"/>
-      <c r="O26" s="26"/>
-      <c r="P26" s="26"/>
-      <c r="Q26" s="25"/>
-      <c r="R26" s="25"/>
-      <c r="S26" s="25"/>
-      <c r="T26" s="25"/>
-      <c r="U26" s="25"/>
+      <c r="A26" s="22"/>
+      <c r="B26" s="22"/>
+      <c r="C26" s="23"/>
+      <c r="D26" s="23"/>
+      <c r="E26" s="23"/>
+      <c r="F26" s="23"/>
+      <c r="G26" s="23"/>
+      <c r="H26" s="22"/>
+      <c r="I26" s="22"/>
+      <c r="J26" s="23"/>
+      <c r="K26" s="23"/>
+      <c r="L26" s="23"/>
+      <c r="M26" s="23"/>
+      <c r="N26" s="23"/>
+      <c r="O26" s="24"/>
+      <c r="P26" s="24"/>
+      <c r="Q26" s="23"/>
+      <c r="R26" s="23"/>
+      <c r="S26" s="23"/>
+      <c r="T26" s="23"/>
+      <c r="U26" s="23"/>
     </row>
     <row r="27" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A27" s="24"/>
-      <c r="B27" s="24"/>
-      <c r="C27" s="25"/>
-      <c r="D27" s="25"/>
-      <c r="E27" s="25"/>
-      <c r="F27" s="25"/>
-      <c r="G27" s="25"/>
-      <c r="H27" s="24"/>
-      <c r="I27" s="24"/>
-      <c r="J27" s="25"/>
-      <c r="K27" s="25"/>
-      <c r="L27" s="25"/>
-      <c r="M27" s="25"/>
-      <c r="N27" s="25"/>
-      <c r="O27" s="26"/>
-      <c r="P27" s="26"/>
-      <c r="Q27" s="25"/>
-      <c r="R27" s="25"/>
-      <c r="S27" s="25"/>
-      <c r="T27" s="25"/>
-      <c r="U27" s="25"/>
+      <c r="A27" s="22"/>
+      <c r="B27" s="22"/>
+      <c r="C27" s="23"/>
+      <c r="D27" s="23"/>
+      <c r="E27" s="23"/>
+      <c r="F27" s="23"/>
+      <c r="G27" s="23"/>
+      <c r="H27" s="22"/>
+      <c r="I27" s="22"/>
+      <c r="J27" s="23"/>
+      <c r="K27" s="23"/>
+      <c r="L27" s="23"/>
+      <c r="M27" s="23"/>
+      <c r="N27" s="23"/>
+      <c r="O27" s="24"/>
+      <c r="P27" s="24"/>
+      <c r="Q27" s="23"/>
+      <c r="R27" s="23"/>
+      <c r="S27" s="23"/>
+      <c r="T27" s="23"/>
+      <c r="U27" s="23"/>
     </row>
     <row r="28" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A28" s="24"/>
-      <c r="B28" s="24"/>
-      <c r="C28" s="25"/>
-      <c r="D28" s="25"/>
-      <c r="E28" s="25"/>
-      <c r="F28" s="25"/>
-      <c r="G28" s="25"/>
-      <c r="H28" s="24"/>
-      <c r="I28" s="24"/>
-      <c r="J28" s="25"/>
-      <c r="K28" s="25"/>
-      <c r="L28" s="25"/>
-      <c r="M28" s="25"/>
-      <c r="N28" s="25"/>
-      <c r="O28" s="26"/>
-      <c r="P28" s="26"/>
-      <c r="Q28" s="25"/>
-      <c r="R28" s="25"/>
-      <c r="S28" s="25"/>
-      <c r="T28" s="25"/>
-      <c r="U28" s="25"/>
+      <c r="A28" s="22"/>
+      <c r="B28" s="22"/>
+      <c r="C28" s="23"/>
+      <c r="D28" s="23"/>
+      <c r="E28" s="23"/>
+      <c r="F28" s="23"/>
+      <c r="G28" s="23"/>
+      <c r="H28" s="22"/>
+      <c r="I28" s="22"/>
+      <c r="J28" s="23"/>
+      <c r="K28" s="23"/>
+      <c r="L28" s="23"/>
+      <c r="M28" s="23"/>
+      <c r="N28" s="23"/>
+      <c r="O28" s="24"/>
+      <c r="P28" s="24"/>
+      <c r="Q28" s="23"/>
+      <c r="R28" s="23"/>
+      <c r="S28" s="23"/>
+      <c r="T28" s="23"/>
+      <c r="U28" s="23"/>
     </row>
     <row r="29" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A29" s="24"/>
-      <c r="B29" s="24"/>
-      <c r="C29" s="25"/>
-      <c r="D29" s="25"/>
-      <c r="E29" s="25"/>
-      <c r="F29" s="25"/>
-      <c r="G29" s="25"/>
-      <c r="H29" s="24"/>
-      <c r="I29" s="24"/>
-      <c r="J29" s="25"/>
-      <c r="K29" s="25"/>
-      <c r="L29" s="25"/>
-      <c r="M29" s="25"/>
-      <c r="N29" s="25"/>
-      <c r="O29" s="26"/>
-      <c r="P29" s="26"/>
-      <c r="Q29" s="25"/>
-      <c r="R29" s="25"/>
-      <c r="S29" s="25"/>
-      <c r="T29" s="25"/>
-      <c r="U29" s="25"/>
+      <c r="A29" s="22"/>
+      <c r="B29" s="22"/>
+      <c r="C29" s="23"/>
+      <c r="D29" s="23"/>
+      <c r="E29" s="23"/>
+      <c r="F29" s="23"/>
+      <c r="G29" s="23"/>
+      <c r="H29" s="22"/>
+      <c r="I29" s="22"/>
+      <c r="J29" s="23"/>
+      <c r="K29" s="23"/>
+      <c r="L29" s="23"/>
+      <c r="M29" s="23"/>
+      <c r="N29" s="23"/>
+      <c r="O29" s="24"/>
+      <c r="P29" s="24"/>
+      <c r="Q29" s="23"/>
+      <c r="R29" s="23"/>
+      <c r="S29" s="23"/>
+      <c r="T29" s="23"/>
+      <c r="U29" s="23"/>
     </row>
     <row r="30" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A30" s="24"/>
-      <c r="B30" s="24"/>
-      <c r="C30" s="25"/>
-      <c r="D30" s="25"/>
-      <c r="E30" s="25"/>
-      <c r="F30" s="25"/>
-      <c r="G30" s="25"/>
-      <c r="H30" s="24"/>
-      <c r="I30" s="24"/>
-      <c r="J30" s="25"/>
-      <c r="K30" s="25"/>
-      <c r="L30" s="25"/>
-      <c r="M30" s="25"/>
-      <c r="N30" s="25"/>
-      <c r="O30" s="26"/>
-      <c r="P30" s="26"/>
-      <c r="Q30" s="25"/>
-      <c r="R30" s="25"/>
-      <c r="S30" s="25"/>
-      <c r="T30" s="25"/>
-      <c r="U30" s="25"/>
+      <c r="A30" s="22"/>
+      <c r="B30" s="22"/>
+      <c r="C30" s="23"/>
+      <c r="D30" s="23"/>
+      <c r="E30" s="23"/>
+      <c r="F30" s="23"/>
+      <c r="G30" s="23"/>
+      <c r="H30" s="22"/>
+      <c r="I30" s="22"/>
+      <c r="J30" s="23"/>
+      <c r="K30" s="23"/>
+      <c r="L30" s="23"/>
+      <c r="M30" s="23"/>
+      <c r="N30" s="23"/>
+      <c r="O30" s="24"/>
+      <c r="P30" s="24"/>
+      <c r="Q30" s="23"/>
+      <c r="R30" s="23"/>
+      <c r="S30" s="23"/>
+      <c r="T30" s="23"/>
+      <c r="U30" s="23"/>
     </row>
     <row r="31" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A31" s="24"/>
-      <c r="B31" s="24"/>
-      <c r="C31" s="25"/>
-      <c r="D31" s="25"/>
-      <c r="E31" s="25"/>
-      <c r="F31" s="25"/>
-      <c r="G31" s="25"/>
-      <c r="H31" s="24"/>
-      <c r="I31" s="24"/>
-      <c r="J31" s="25"/>
-      <c r="K31" s="25"/>
-      <c r="L31" s="25"/>
-      <c r="M31" s="25"/>
-      <c r="N31" s="25"/>
-      <c r="O31" s="26"/>
-      <c r="P31" s="26"/>
-      <c r="Q31" s="25"/>
-      <c r="R31" s="25"/>
-      <c r="S31" s="25"/>
-      <c r="T31" s="25"/>
-      <c r="U31" s="25"/>
+      <c r="A31" s="22"/>
+      <c r="B31" s="22"/>
+      <c r="C31" s="23"/>
+      <c r="D31" s="23"/>
+      <c r="E31" s="23"/>
+      <c r="F31" s="23"/>
+      <c r="G31" s="23"/>
+      <c r="H31" s="22"/>
+      <c r="I31" s="22"/>
+      <c r="J31" s="23"/>
+      <c r="K31" s="23"/>
+      <c r="L31" s="23"/>
+      <c r="M31" s="23"/>
+      <c r="N31" s="23"/>
+      <c r="O31" s="24"/>
+      <c r="P31" s="24"/>
+      <c r="Q31" s="23"/>
+      <c r="R31" s="23"/>
+      <c r="S31" s="23"/>
+      <c r="T31" s="23"/>
+      <c r="U31" s="23"/>
     </row>
     <row r="32" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A32" s="24"/>
-      <c r="B32" s="24"/>
-      <c r="C32" s="25"/>
-      <c r="D32" s="25"/>
-      <c r="E32" s="25"/>
-      <c r="F32" s="25"/>
-      <c r="G32" s="25"/>
-      <c r="H32" s="24"/>
-      <c r="I32" s="24"/>
-      <c r="J32" s="25"/>
-      <c r="K32" s="25"/>
-      <c r="L32" s="25"/>
-      <c r="M32" s="25"/>
-      <c r="N32" s="25"/>
-      <c r="O32" s="26"/>
-      <c r="P32" s="26"/>
-      <c r="Q32" s="25"/>
-      <c r="R32" s="25"/>
-      <c r="S32" s="25"/>
-      <c r="T32" s="25"/>
-      <c r="U32" s="25"/>
+      <c r="A32" s="22"/>
+      <c r="B32" s="22"/>
+      <c r="C32" s="23"/>
+      <c r="D32" s="23"/>
+      <c r="E32" s="23"/>
+      <c r="F32" s="23"/>
+      <c r="G32" s="23"/>
+      <c r="H32" s="22"/>
+      <c r="I32" s="22"/>
+      <c r="J32" s="23"/>
+      <c r="K32" s="23"/>
+      <c r="L32" s="23"/>
+      <c r="M32" s="23"/>
+      <c r="N32" s="23"/>
+      <c r="O32" s="24"/>
+      <c r="P32" s="24"/>
+      <c r="Q32" s="23"/>
+      <c r="R32" s="23"/>
+      <c r="S32" s="23"/>
+      <c r="T32" s="23"/>
+      <c r="U32" s="23"/>
     </row>
     <row r="33" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A33" s="24"/>
-      <c r="B33" s="24"/>
-      <c r="C33" s="25"/>
-      <c r="D33" s="25"/>
-      <c r="E33" s="25"/>
-      <c r="F33" s="25"/>
-      <c r="G33" s="25"/>
-      <c r="H33" s="24"/>
-      <c r="I33" s="24"/>
-      <c r="J33" s="25"/>
-      <c r="K33" s="25"/>
-      <c r="L33" s="25"/>
-      <c r="M33" s="25"/>
-      <c r="N33" s="25"/>
-      <c r="O33" s="24"/>
-      <c r="P33" s="24"/>
-      <c r="Q33" s="25"/>
-      <c r="R33" s="25"/>
-      <c r="S33" s="25"/>
-      <c r="T33" s="25"/>
-      <c r="U33" s="25"/>
+      <c r="A33" s="22"/>
+      <c r="B33" s="22"/>
+      <c r="C33" s="23"/>
+      <c r="D33" s="23"/>
+      <c r="E33" s="23"/>
+      <c r="F33" s="23"/>
+      <c r="G33" s="23"/>
+      <c r="H33" s="22"/>
+      <c r="I33" s="22"/>
+      <c r="J33" s="23"/>
+      <c r="K33" s="23"/>
+      <c r="L33" s="23"/>
+      <c r="M33" s="23"/>
+      <c r="N33" s="23"/>
+      <c r="O33" s="22"/>
+      <c r="P33" s="22"/>
+      <c r="Q33" s="23"/>
+      <c r="R33" s="23"/>
+      <c r="S33" s="23"/>
+      <c r="T33" s="23"/>
+      <c r="U33" s="23"/>
     </row>
     <row r="34" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A34" s="22"/>
-      <c r="B34" s="22"/>
-      <c r="C34" s="23"/>
-      <c r="D34" s="23"/>
-      <c r="E34" s="23"/>
-      <c r="F34" s="23"/>
-      <c r="G34" s="23"/>
-      <c r="H34" s="22"/>
-      <c r="I34" s="22"/>
-      <c r="J34" s="23"/>
-      <c r="K34" s="23"/>
-      <c r="L34" s="23"/>
-      <c r="M34" s="23"/>
-      <c r="N34" s="23"/>
-      <c r="O34" s="22"/>
-      <c r="P34" s="22"/>
-      <c r="Q34" s="23"/>
-      <c r="R34" s="23"/>
-      <c r="S34" s="23"/>
-      <c r="T34" s="23"/>
-      <c r="U34" s="23"/>
+      <c r="A34" s="30"/>
+      <c r="B34" s="30"/>
+      <c r="C34" s="31"/>
+      <c r="D34" s="31"/>
+      <c r="E34" s="31"/>
+      <c r="F34" s="31"/>
+      <c r="G34" s="31"/>
+      <c r="H34" s="30"/>
+      <c r="I34" s="30"/>
+      <c r="J34" s="31"/>
+      <c r="K34" s="31"/>
+      <c r="L34" s="31"/>
+      <c r="M34" s="31"/>
+      <c r="N34" s="31"/>
+      <c r="O34" s="30"/>
+      <c r="P34" s="30"/>
+      <c r="Q34" s="31"/>
+      <c r="R34" s="31"/>
+      <c r="S34" s="31"/>
+      <c r="T34" s="31"/>
+      <c r="U34" s="31"/>
     </row>
   </sheetData>
   <mergeCells count="236">
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="C34:G34"/>
+    <mergeCell ref="H34:I34"/>
+    <mergeCell ref="J34:N34"/>
+    <mergeCell ref="O34:P34"/>
+    <mergeCell ref="Q34:U34"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="C33:G33"/>
+    <mergeCell ref="H33:I33"/>
+    <mergeCell ref="J33:N33"/>
+    <mergeCell ref="O33:P33"/>
+    <mergeCell ref="Q33:U33"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="C32:G32"/>
+    <mergeCell ref="H32:I32"/>
+    <mergeCell ref="J32:N32"/>
+    <mergeCell ref="O32:P32"/>
+    <mergeCell ref="Q32:U32"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="C31:G31"/>
+    <mergeCell ref="H31:I31"/>
+    <mergeCell ref="J31:N31"/>
+    <mergeCell ref="O31:P31"/>
+    <mergeCell ref="Q31:U31"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="C30:G30"/>
+    <mergeCell ref="H30:I30"/>
+    <mergeCell ref="J30:N30"/>
+    <mergeCell ref="O30:P30"/>
+    <mergeCell ref="Q30:U30"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="C29:G29"/>
+    <mergeCell ref="H29:I29"/>
+    <mergeCell ref="J29:N29"/>
+    <mergeCell ref="O29:P29"/>
+    <mergeCell ref="Q29:U29"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="C28:G28"/>
+    <mergeCell ref="H28:I28"/>
+    <mergeCell ref="J28:N28"/>
+    <mergeCell ref="O28:P28"/>
+    <mergeCell ref="Q28:U28"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="C27:G27"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="J27:N27"/>
+    <mergeCell ref="O27:P27"/>
+    <mergeCell ref="Q27:U27"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="C26:G26"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="J26:N26"/>
+    <mergeCell ref="O26:P26"/>
+    <mergeCell ref="Q26:U26"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="C25:G25"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="J25:N25"/>
+    <mergeCell ref="O25:P25"/>
+    <mergeCell ref="Q25:U25"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="C24:G24"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="J24:N24"/>
+    <mergeCell ref="O24:P24"/>
+    <mergeCell ref="Q24:U24"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="C23:G23"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="J23:N23"/>
+    <mergeCell ref="O23:P23"/>
+    <mergeCell ref="Q23:U23"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="C22:G22"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="J22:N22"/>
+    <mergeCell ref="V22:W22"/>
+    <mergeCell ref="X22:AB22"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="J21:N21"/>
+    <mergeCell ref="V21:W21"/>
+    <mergeCell ref="X21:AB21"/>
+    <mergeCell ref="O21:P21"/>
+    <mergeCell ref="Q21:U21"/>
+    <mergeCell ref="O22:P22"/>
+    <mergeCell ref="Q22:U22"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="J20:N20"/>
+    <mergeCell ref="V20:W20"/>
+    <mergeCell ref="X20:AB20"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="J19:N19"/>
+    <mergeCell ref="V19:W19"/>
+    <mergeCell ref="X19:AB19"/>
+    <mergeCell ref="O19:P19"/>
+    <mergeCell ref="Q19:U19"/>
+    <mergeCell ref="O20:P20"/>
+    <mergeCell ref="Q20:U20"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="J18:N18"/>
+    <mergeCell ref="V18:W18"/>
+    <mergeCell ref="X18:AB18"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C17:G17"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="J17:N17"/>
+    <mergeCell ref="V17:W17"/>
+    <mergeCell ref="X17:AB17"/>
+    <mergeCell ref="O17:P17"/>
+    <mergeCell ref="Q17:U17"/>
+    <mergeCell ref="O18:P18"/>
+    <mergeCell ref="Q18:U18"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:G16"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="J16:N16"/>
+    <mergeCell ref="V16:W16"/>
+    <mergeCell ref="X16:AB16"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C15:G15"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="J15:N15"/>
+    <mergeCell ref="V15:W15"/>
+    <mergeCell ref="X15:AB15"/>
+    <mergeCell ref="O15:P15"/>
+    <mergeCell ref="Q15:U15"/>
+    <mergeCell ref="O16:P16"/>
+    <mergeCell ref="Q16:U16"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C14:G14"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="J14:N14"/>
+    <mergeCell ref="V14:W14"/>
+    <mergeCell ref="X14:AB14"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C13:G13"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="J13:N13"/>
+    <mergeCell ref="V13:W13"/>
+    <mergeCell ref="X13:AB13"/>
+    <mergeCell ref="O13:P13"/>
+    <mergeCell ref="Q13:U13"/>
+    <mergeCell ref="O14:P14"/>
+    <mergeCell ref="Q14:U14"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="J12:N12"/>
+    <mergeCell ref="V12:W12"/>
+    <mergeCell ref="X12:AB12"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:G11"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="J11:N11"/>
+    <mergeCell ref="V11:W11"/>
+    <mergeCell ref="X11:AB11"/>
+    <mergeCell ref="O11:P11"/>
+    <mergeCell ref="Q11:U11"/>
+    <mergeCell ref="O12:P12"/>
+    <mergeCell ref="Q12:U12"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C10:G10"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="J10:N10"/>
+    <mergeCell ref="V10:W10"/>
+    <mergeCell ref="X10:AB10"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:G9"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="J9:N9"/>
+    <mergeCell ref="V9:W9"/>
+    <mergeCell ref="X9:AB9"/>
+    <mergeCell ref="O9:P9"/>
+    <mergeCell ref="Q9:U9"/>
+    <mergeCell ref="O10:P10"/>
+    <mergeCell ref="Q10:U10"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="J8:N8"/>
+    <mergeCell ref="V8:W8"/>
+    <mergeCell ref="X8:AB8"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:N7"/>
+    <mergeCell ref="V7:W7"/>
+    <mergeCell ref="X7:AB7"/>
+    <mergeCell ref="O7:P7"/>
+    <mergeCell ref="Q7:U7"/>
+    <mergeCell ref="O8:P8"/>
+    <mergeCell ref="Q8:U8"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="J6:N6"/>
+    <mergeCell ref="V6:W6"/>
+    <mergeCell ref="X6:AB6"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="J5:N5"/>
+    <mergeCell ref="V5:W5"/>
+    <mergeCell ref="X5:AB5"/>
+    <mergeCell ref="O5:P5"/>
+    <mergeCell ref="Q5:U5"/>
+    <mergeCell ref="O6:P6"/>
+    <mergeCell ref="Q6:U6"/>
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="C4:G4"/>
     <mergeCell ref="H4:I4"/>
@@ -5298,222 +5554,6 @@
     <mergeCell ref="Q3:U3"/>
     <mergeCell ref="O4:P4"/>
     <mergeCell ref="Q4:U4"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="J6:N6"/>
-    <mergeCell ref="V6:W6"/>
-    <mergeCell ref="X6:AB6"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:G5"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="J5:N5"/>
-    <mergeCell ref="V5:W5"/>
-    <mergeCell ref="X5:AB5"/>
-    <mergeCell ref="O5:P5"/>
-    <mergeCell ref="Q5:U5"/>
-    <mergeCell ref="O6:P6"/>
-    <mergeCell ref="Q6:U6"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="C8:G8"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="J8:N8"/>
-    <mergeCell ref="V8:W8"/>
-    <mergeCell ref="X8:AB8"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="J7:N7"/>
-    <mergeCell ref="V7:W7"/>
-    <mergeCell ref="X7:AB7"/>
-    <mergeCell ref="O7:P7"/>
-    <mergeCell ref="Q7:U7"/>
-    <mergeCell ref="O8:P8"/>
-    <mergeCell ref="Q8:U8"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="C10:G10"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="J10:N10"/>
-    <mergeCell ref="V10:W10"/>
-    <mergeCell ref="X10:AB10"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="C9:G9"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="J9:N9"/>
-    <mergeCell ref="V9:W9"/>
-    <mergeCell ref="X9:AB9"/>
-    <mergeCell ref="O9:P9"/>
-    <mergeCell ref="Q9:U9"/>
-    <mergeCell ref="O10:P10"/>
-    <mergeCell ref="Q10:U10"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="C12:G12"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="J12:N12"/>
-    <mergeCell ref="V12:W12"/>
-    <mergeCell ref="X12:AB12"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:G11"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="J11:N11"/>
-    <mergeCell ref="V11:W11"/>
-    <mergeCell ref="X11:AB11"/>
-    <mergeCell ref="O11:P11"/>
-    <mergeCell ref="Q11:U11"/>
-    <mergeCell ref="O12:P12"/>
-    <mergeCell ref="Q12:U12"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="C14:G14"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="J14:N14"/>
-    <mergeCell ref="V14:W14"/>
-    <mergeCell ref="X14:AB14"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="C13:G13"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="J13:N13"/>
-    <mergeCell ref="V13:W13"/>
-    <mergeCell ref="X13:AB13"/>
-    <mergeCell ref="O13:P13"/>
-    <mergeCell ref="Q13:U13"/>
-    <mergeCell ref="O14:P14"/>
-    <mergeCell ref="Q14:U14"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="C16:G16"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="J16:N16"/>
-    <mergeCell ref="V16:W16"/>
-    <mergeCell ref="X16:AB16"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="C15:G15"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="J15:N15"/>
-    <mergeCell ref="V15:W15"/>
-    <mergeCell ref="X15:AB15"/>
-    <mergeCell ref="O15:P15"/>
-    <mergeCell ref="Q15:U15"/>
-    <mergeCell ref="O16:P16"/>
-    <mergeCell ref="Q16:U16"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C18:G18"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="J18:N18"/>
-    <mergeCell ref="V18:W18"/>
-    <mergeCell ref="X18:AB18"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="C17:G17"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="J17:N17"/>
-    <mergeCell ref="V17:W17"/>
-    <mergeCell ref="X17:AB17"/>
-    <mergeCell ref="O17:P17"/>
-    <mergeCell ref="Q17:U17"/>
-    <mergeCell ref="O18:P18"/>
-    <mergeCell ref="Q18:U18"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="C20:G20"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="J20:N20"/>
-    <mergeCell ref="V20:W20"/>
-    <mergeCell ref="X20:AB20"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="C19:G19"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="J19:N19"/>
-    <mergeCell ref="V19:W19"/>
-    <mergeCell ref="X19:AB19"/>
-    <mergeCell ref="O19:P19"/>
-    <mergeCell ref="Q19:U19"/>
-    <mergeCell ref="O20:P20"/>
-    <mergeCell ref="Q20:U20"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="C22:G22"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="J22:N22"/>
-    <mergeCell ref="V22:W22"/>
-    <mergeCell ref="X22:AB22"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="C21:G21"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="J21:N21"/>
-    <mergeCell ref="V21:W21"/>
-    <mergeCell ref="X21:AB21"/>
-    <mergeCell ref="O21:P21"/>
-    <mergeCell ref="Q21:U21"/>
-    <mergeCell ref="O22:P22"/>
-    <mergeCell ref="Q22:U22"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="C24:G24"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="J24:N24"/>
-    <mergeCell ref="O24:P24"/>
-    <mergeCell ref="Q24:U24"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="C23:G23"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="J23:N23"/>
-    <mergeCell ref="O23:P23"/>
-    <mergeCell ref="Q23:U23"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="C26:G26"/>
-    <mergeCell ref="H26:I26"/>
-    <mergeCell ref="J26:N26"/>
-    <mergeCell ref="O26:P26"/>
-    <mergeCell ref="Q26:U26"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="C25:G25"/>
-    <mergeCell ref="H25:I25"/>
-    <mergeCell ref="J25:N25"/>
-    <mergeCell ref="O25:P25"/>
-    <mergeCell ref="Q25:U25"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="C28:G28"/>
-    <mergeCell ref="H28:I28"/>
-    <mergeCell ref="J28:N28"/>
-    <mergeCell ref="O28:P28"/>
-    <mergeCell ref="Q28:U28"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="C27:G27"/>
-    <mergeCell ref="H27:I27"/>
-    <mergeCell ref="J27:N27"/>
-    <mergeCell ref="O27:P27"/>
-    <mergeCell ref="Q27:U27"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="C30:G30"/>
-    <mergeCell ref="H30:I30"/>
-    <mergeCell ref="J30:N30"/>
-    <mergeCell ref="O30:P30"/>
-    <mergeCell ref="Q30:U30"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="C29:G29"/>
-    <mergeCell ref="H29:I29"/>
-    <mergeCell ref="J29:N29"/>
-    <mergeCell ref="O29:P29"/>
-    <mergeCell ref="Q29:U29"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="C32:G32"/>
-    <mergeCell ref="H32:I32"/>
-    <mergeCell ref="J32:N32"/>
-    <mergeCell ref="O32:P32"/>
-    <mergeCell ref="Q32:U32"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="C31:G31"/>
-    <mergeCell ref="H31:I31"/>
-    <mergeCell ref="J31:N31"/>
-    <mergeCell ref="O31:P31"/>
-    <mergeCell ref="Q31:U31"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="C34:G34"/>
-    <mergeCell ref="H34:I34"/>
-    <mergeCell ref="J34:N34"/>
-    <mergeCell ref="O34:P34"/>
-    <mergeCell ref="Q34:U34"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="C33:G33"/>
-    <mergeCell ref="H33:I33"/>
-    <mergeCell ref="J33:N33"/>
-    <mergeCell ref="O33:P33"/>
-    <mergeCell ref="Q33:U33"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/plans/todo.xlsx
+++ b/plans/todo.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Edsquid\Documents\Personal Projects\Business\RogueLikeGame\plans\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E1D7F5E-B9C1-4706-AA7D-9BE31AB012D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFC1159C-A320-4922-8CF4-35319D865F53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{BA1E511D-BF64-4842-98DF-72E30276ED1C}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="7170" windowHeight="15585" xr2:uid="{BA1E511D-BF64-4842-98DF-72E30276ED1C}"/>
   </bookViews>
   <sheets>
     <sheet name="Attributes" sheetId="3" r:id="rId1"/>
@@ -297,9 +297,6 @@
     <t>Damage type increase</t>
   </si>
   <si>
-    <t xml:space="preserve">Damage Type Resistence </t>
-  </si>
-  <si>
     <t>Attributes Detailed</t>
   </si>
   <si>
@@ -715,6 +712,9 @@
   </si>
   <si>
     <t xml:space="preserve">remove second weapon, add dual wield </t>
+  </si>
+  <si>
+    <t>Damage Type Resistence (all types)</t>
   </si>
 </sst>
 </file>
@@ -975,6 +975,7 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -999,6 +1000,12 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1006,6 +1013,12 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1017,19 +1030,6 @@
     <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1347,7 +1347,7 @@
   <dimension ref="A1:H338"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1364,79 +1364,79 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="18" t="s">
-        <v>87</v>
-      </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
+      <c r="A1" s="19" t="s">
+        <v>86</v>
+      </c>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
       <c r="H1" s="10" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="20"/>
-      <c r="B2" s="21"/>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21"/>
-      <c r="G2" s="21"/>
+      <c r="A2" s="21"/>
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
       <c r="H2" s="12" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="B3" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="C3" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="D3" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="F3" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="D3" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>91</v>
-      </c>
       <c r="G3" s="8" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="H3" s="9"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="14" t="s">
-        <v>214</v>
-      </c>
-      <c r="B4" s="14"/>
-      <c r="C4" s="14"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14"/>
-      <c r="G4" s="14"/>
+      <c r="A4" s="15" t="s">
+        <v>213</v>
+      </c>
+      <c r="B4" s="15"/>
+      <c r="C4" s="15"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="15"/>
       <c r="H4" s="9"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E5" s="3">
         <v>0.05</v>
@@ -1448,16 +1448,16 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E6" s="3">
         <v>0.05</v>
@@ -1472,13 +1472,13 @@
         <v>1</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E7" s="3">
         <v>0.05</v>
@@ -1493,13 +1493,13 @@
         <v>2</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E8" s="3">
         <v>0.05</v>
@@ -1514,13 +1514,13 @@
         <v>3</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E9" s="3">
         <v>0.05</v>
@@ -1535,13 +1535,13 @@
         <v>4</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E10" s="3">
         <v>0.05</v>
@@ -1556,13 +1556,13 @@
         <v>5</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E11" s="3">
         <v>0.05</v>
@@ -1577,13 +1577,13 @@
         <v>6</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E12" s="3">
         <v>0.05</v>
@@ -1598,13 +1598,13 @@
         <v>7</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E13" s="3">
         <v>0.05</v>
@@ -1619,13 +1619,13 @@
         <v>8</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E14" s="3">
         <v>0.05</v>
@@ -1640,13 +1640,13 @@
         <v>9</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E15" s="3">
         <v>0.05</v>
@@ -1661,13 +1661,13 @@
         <v>10</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E16" s="3">
         <v>0.05</v>
@@ -1682,13 +1682,13 @@
         <v>12</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E17" s="3">
         <v>0.05</v>
@@ -1703,13 +1703,13 @@
         <v>24</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E18" s="3">
         <v>0.05</v>
@@ -1724,13 +1724,13 @@
         <v>25</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E19" s="3">
         <v>0.05</v>
@@ -1742,16 +1742,16 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E20" s="3">
         <v>0.05</v>
@@ -1763,16 +1763,16 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E21" s="3">
         <v>0.05</v>
@@ -1784,16 +1784,16 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C22" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="B22" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>127</v>
-      </c>
       <c r="D22" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E22" s="3">
         <v>0.01</v>
@@ -1808,13 +1808,13 @@
         <v>83</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E23" s="3">
         <v>0.05</v>
@@ -1829,13 +1829,13 @@
         <v>85</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E24" s="3">
         <v>0.05</v>
@@ -1846,17 +1846,17 @@
       <c r="G24" s="3"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="32" t="s">
-        <v>86</v>
+      <c r="A25" s="14" t="s">
+        <v>225</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E25" s="3">
         <v>0.05</v>
@@ -1871,13 +1871,13 @@
         <v>0</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E26" s="3">
         <v>1</v>
@@ -1907,48 +1907,48 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="B33" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="B33" s="5" t="s">
+      <c r="C33" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="C33" s="5" t="s">
+      <c r="D33" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="E33" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="F33" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="D33" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="E33" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="F33" s="5" t="s">
-        <v>91</v>
-      </c>
       <c r="G33" s="5"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="16" t="s">
+      <c r="A34" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="B34" s="16"/>
-      <c r="C34" s="16"/>
-      <c r="D34" s="16"/>
-      <c r="E34" s="16"/>
-      <c r="F34" s="16"/>
-      <c r="G34" s="16"/>
+      <c r="B34" s="17"/>
+      <c r="C34" s="17"/>
+      <c r="D34" s="17"/>
+      <c r="E34" s="17"/>
+      <c r="F34" s="17"/>
+      <c r="G34" s="17"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="B35" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="B35" s="1" t="s">
+      <c r="C35" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="C35" s="3" t="s">
-        <v>131</v>
-      </c>
       <c r="D35" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F35" s="1">
         <v>10</v>
@@ -1957,16 +1957,16 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F36" s="1">
         <v>10</v>
@@ -1978,13 +1978,13 @@
         <v>15</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F37" s="1">
         <v>10</v>
@@ -1996,13 +1996,13 @@
         <v>16</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F38" s="1">
         <v>1</v>
@@ -2014,13 +2014,13 @@
         <v>17</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F39" s="1">
         <v>5</v>
@@ -2038,48 +2038,48 @@
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="B43" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="B43" s="5" t="s">
+      <c r="C43" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="C43" s="5" t="s">
+      <c r="D43" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="E43" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="F43" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="D43" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="E43" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="F43" s="5" t="s">
-        <v>91</v>
-      </c>
       <c r="G43" s="5"/>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A44" s="17" t="s">
-        <v>172</v>
-      </c>
-      <c r="B44" s="17"/>
-      <c r="C44" s="17"/>
-      <c r="D44" s="17"/>
-      <c r="E44" s="17"/>
-      <c r="F44" s="17"/>
-      <c r="G44" s="17"/>
+      <c r="A44" s="18" t="s">
+        <v>171</v>
+      </c>
+      <c r="B44" s="18"/>
+      <c r="C44" s="18"/>
+      <c r="D44" s="18"/>
+      <c r="E44" s="18"/>
+      <c r="F44" s="18"/>
+      <c r="G44" s="18"/>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C45" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="B45" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="C45" s="3" t="s">
+      <c r="D45" s="1" t="s">
         <v>141</v>
-      </c>
-      <c r="D45" s="1" t="s">
-        <v>142</v>
       </c>
       <c r="F45" s="1">
         <v>5</v>
@@ -2088,16 +2088,16 @@
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F46" s="1">
         <v>5</v>
@@ -2106,16 +2106,16 @@
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F47" s="1">
         <v>5</v>
@@ -2136,13 +2136,13 @@
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F50" s="1">
         <v>5</v>
@@ -2151,13 +2151,13 @@
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F51" s="1">
         <v>5</v>
@@ -2166,13 +2166,13 @@
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C52" s="3" t="s">
         <v>149</v>
-      </c>
-      <c r="B52" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="C52" s="3" t="s">
-        <v>150</v>
       </c>
       <c r="F52" s="1">
         <v>5</v>
@@ -2181,16 +2181,16 @@
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C53" s="3" t="s">
         <v>216</v>
       </c>
-      <c r="B53" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C53" s="3" t="s">
+      <c r="E53" s="3" t="s">
         <v>217</v>
-      </c>
-      <c r="E53" s="3" t="s">
-        <v>218</v>
       </c>
       <c r="F53" s="1">
         <v>5</v>
@@ -2205,13 +2205,13 @@
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F55" s="1">
         <v>5</v>
@@ -2238,13 +2238,13 @@
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F59" s="1">
         <v>5</v>
@@ -2253,13 +2253,13 @@
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F60" s="1">
         <v>5</v>
@@ -2268,13 +2268,13 @@
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F61" s="1">
         <v>5</v>
@@ -2283,13 +2283,13 @@
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="C62" s="3" t="s">
         <v>157</v>
-      </c>
-      <c r="B62" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="C62" s="3" t="s">
-        <v>158</v>
       </c>
       <c r="F62" s="1">
         <v>5</v>
@@ -2298,10 +2298,10 @@
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F63" s="1">
         <v>5</v>
@@ -2316,13 +2316,13 @@
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F65" s="1">
         <v>5</v>
@@ -2331,10 +2331,10 @@
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F66" s="1">
         <v>5</v>
@@ -2343,13 +2343,13 @@
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F67" s="1">
         <v>5</v>
@@ -2358,13 +2358,13 @@
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F68" s="1">
         <v>5</v>
@@ -2373,13 +2373,13 @@
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F69" s="1">
         <v>5</v>
@@ -2388,7 +2388,7 @@
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" s="13" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="G70" s="3"/>
     </row>
@@ -2403,7 +2403,7 @@
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F73" s="1">
         <v>5</v>
@@ -2412,10 +2412,10 @@
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F74" s="1">
         <v>5</v>
@@ -2424,10 +2424,10 @@
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F75" s="1">
         <v>5</v>
@@ -2448,10 +2448,10 @@
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F78" s="1">
         <v>5</v>
@@ -2472,10 +2472,10 @@
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F81" s="1">
         <v>5</v>
@@ -2484,10 +2484,10 @@
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F82" s="1">
         <v>5</v>
@@ -2496,10 +2496,10 @@
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F83" s="1">
         <v>5</v>
@@ -2514,10 +2514,10 @@
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F85" s="1">
         <v>5</v>
@@ -2526,10 +2526,10 @@
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F86" s="1">
         <v>5</v>
@@ -2538,10 +2538,10 @@
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F87" s="1">
         <v>5</v>
@@ -2562,10 +2562,10 @@
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F90" s="1">
         <v>5</v>
@@ -2574,10 +2574,10 @@
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F91" s="1">
         <v>5</v>
@@ -2592,7 +2592,7 @@
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" s="3" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="F93" s="1">
         <v>5</v>
@@ -2607,10 +2607,10 @@
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F95" s="1">
         <v>5</v>
@@ -2625,7 +2625,7 @@
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F97" s="1">
         <v>5</v>
@@ -2640,7 +2640,7 @@
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99" s="3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="F99" s="1">
         <v>5</v>
@@ -2649,7 +2649,7 @@
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F100" s="1">
         <v>5</v>
@@ -2658,7 +2658,7 @@
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101" s="3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F101" s="1">
         <v>5</v>
@@ -2667,7 +2667,7 @@
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102" s="4" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F102" s="1">
         <v>5</v>
@@ -2694,7 +2694,7 @@
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F106" s="1">
         <v>5</v>
@@ -2703,7 +2703,7 @@
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F107" s="1">
         <v>5</v>
@@ -2724,7 +2724,7 @@
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110" s="13" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F110" s="1">
         <v>5</v>
@@ -2739,7 +2739,7 @@
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A112" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F112" s="1">
         <v>5</v>
@@ -2769,7 +2769,7 @@
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A116" s="7" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F116" s="1">
         <v>5</v>
@@ -2778,7 +2778,7 @@
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A117" s="3" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F117" s="1">
         <v>5</v>
@@ -2787,7 +2787,7 @@
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A118" s="3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F118" s="1">
         <v>5</v>
@@ -2796,7 +2796,7 @@
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A119" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F119" s="1">
         <v>5</v>
@@ -2805,7 +2805,7 @@
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A120" s="3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F120" s="1">
         <v>5</v>
@@ -2835,7 +2835,7 @@
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A124" s="3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F124" s="1">
         <v>5</v>
@@ -2844,7 +2844,7 @@
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A125" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F125" s="1">
         <v>5</v>
@@ -2859,7 +2859,7 @@
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A127" s="3" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F127" s="1">
         <v>5</v>
@@ -2868,7 +2868,7 @@
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A128" s="3" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F128" s="1">
         <v>5</v>
@@ -2877,7 +2877,7 @@
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A129" s="3" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="F129" s="1">
         <v>5</v>
@@ -2904,39 +2904,39 @@
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A133" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="B133" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="B133" s="5" t="s">
+      <c r="C133" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="C133" s="5" t="s">
+      <c r="D133" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="E133" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="F133" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="D133" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="E133" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="F133" s="5" t="s">
-        <v>91</v>
-      </c>
       <c r="G133" s="5"/>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A134" s="15" t="s">
-        <v>184</v>
-      </c>
-      <c r="B134" s="15"/>
-      <c r="C134" s="15"/>
-      <c r="D134" s="15"/>
-      <c r="E134" s="15"/>
-      <c r="F134" s="15"/>
-      <c r="G134" s="15"/>
+      <c r="A134" s="16" t="s">
+        <v>183</v>
+      </c>
+      <c r="B134" s="16"/>
+      <c r="C134" s="16"/>
+      <c r="D134" s="16"/>
+      <c r="E134" s="16"/>
+      <c r="F134" s="16"/>
+      <c r="G134" s="16"/>
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A135" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F135" s="1">
         <v>1</v>
@@ -2981,7 +2981,7 @@
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A140" s="3" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F140" s="1">
         <v>1</v>
@@ -3017,7 +3017,7 @@
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A144" s="13" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="F144" s="1">
         <v>1</v>
@@ -3026,7 +3026,7 @@
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A145" s="13" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F145" s="1">
         <v>1</v>
@@ -3095,7 +3095,7 @@
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A153" s="3" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F153" s="1">
         <v>1</v>
@@ -4249,309 +4249,309 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25" t="s">
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30" t="s">
+        <v>199</v>
+      </c>
+      <c r="I1" s="30"/>
+      <c r="J1" s="30"/>
+      <c r="K1" s="30"/>
+      <c r="L1" s="30"/>
+      <c r="M1" s="30"/>
+      <c r="N1" s="30"/>
+      <c r="O1" s="30" t="s">
         <v>200</v>
       </c>
-      <c r="I1" s="25"/>
-      <c r="J1" s="25"/>
-      <c r="K1" s="25"/>
-      <c r="L1" s="25"/>
-      <c r="M1" s="25"/>
-      <c r="N1" s="25"/>
-      <c r="O1" s="25" t="s">
+      <c r="P1" s="30"/>
+      <c r="Q1" s="30"/>
+      <c r="R1" s="30"/>
+      <c r="S1" s="30"/>
+      <c r="T1" s="30"/>
+      <c r="U1" s="30"/>
+      <c r="V1" s="30" t="s">
+        <v>35</v>
+      </c>
+      <c r="W1" s="30"/>
+      <c r="X1" s="30"/>
+      <c r="Y1" s="30"/>
+      <c r="Z1" s="30"/>
+      <c r="AA1" s="30"/>
+      <c r="AB1" s="30"/>
+    </row>
+    <row r="2" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="30"/>
+      <c r="B2" s="30"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="30"/>
+      <c r="I2" s="30"/>
+      <c r="J2" s="30"/>
+      <c r="K2" s="30"/>
+      <c r="L2" s="30"/>
+      <c r="M2" s="30"/>
+      <c r="N2" s="30"/>
+      <c r="O2" s="30"/>
+      <c r="P2" s="30"/>
+      <c r="Q2" s="30"/>
+      <c r="R2" s="30"/>
+      <c r="S2" s="30"/>
+      <c r="T2" s="30"/>
+      <c r="U2" s="30"/>
+      <c r="V2" s="30"/>
+      <c r="W2" s="30"/>
+      <c r="X2" s="30"/>
+      <c r="Y2" s="30"/>
+      <c r="Z2" s="30"/>
+      <c r="AA2" s="30"/>
+      <c r="AB2" s="30"/>
+    </row>
+    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A3" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="B3" s="31"/>
+      <c r="C3" s="32" t="s">
+        <v>36</v>
+      </c>
+      <c r="D3" s="32"/>
+      <c r="E3" s="32"/>
+      <c r="F3" s="32"/>
+      <c r="G3" s="32"/>
+      <c r="H3" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="I3" s="31"/>
+      <c r="J3" s="32" t="s">
+        <v>36</v>
+      </c>
+      <c r="K3" s="32"/>
+      <c r="L3" s="32"/>
+      <c r="M3" s="32"/>
+      <c r="N3" s="32"/>
+      <c r="O3" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="P3" s="31"/>
+      <c r="Q3" s="32" t="s">
+        <v>36</v>
+      </c>
+      <c r="R3" s="32"/>
+      <c r="S3" s="32"/>
+      <c r="T3" s="32"/>
+      <c r="U3" s="32"/>
+      <c r="V3" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="W3" s="31"/>
+      <c r="X3" s="32" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y3" s="32"/>
+      <c r="Z3" s="32"/>
+      <c r="AA3" s="32"/>
+      <c r="AB3" s="32"/>
+    </row>
+    <row r="4" spans="1:28" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="25" t="s">
+        <v>41</v>
+      </c>
+      <c r="B4" s="25"/>
+      <c r="C4" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="D4" s="26"/>
+      <c r="E4" s="26"/>
+      <c r="F4" s="26"/>
+      <c r="G4" s="26"/>
+      <c r="H4" s="25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" s="25"/>
+      <c r="J4" s="26" t="s">
+        <v>48</v>
+      </c>
+      <c r="K4" s="26"/>
+      <c r="L4" s="26"/>
+      <c r="M4" s="26"/>
+      <c r="N4" s="26"/>
+      <c r="O4" s="27" t="s">
         <v>201</v>
       </c>
-      <c r="P1" s="25"/>
-      <c r="Q1" s="25"/>
-      <c r="R1" s="25"/>
-      <c r="S1" s="25"/>
-      <c r="T1" s="25"/>
-      <c r="U1" s="25"/>
-      <c r="V1" s="25" t="s">
-        <v>35</v>
-      </c>
-      <c r="W1" s="25"/>
-      <c r="X1" s="25"/>
-      <c r="Y1" s="25"/>
-      <c r="Z1" s="25"/>
-      <c r="AA1" s="25"/>
-      <c r="AB1" s="25"/>
-    </row>
-    <row r="2" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="25"/>
-      <c r="B2" s="25"/>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="25"/>
-      <c r="H2" s="25"/>
-      <c r="I2" s="25"/>
-      <c r="J2" s="25"/>
-      <c r="K2" s="25"/>
-      <c r="L2" s="25"/>
-      <c r="M2" s="25"/>
-      <c r="N2" s="25"/>
-      <c r="O2" s="25"/>
-      <c r="P2" s="25"/>
-      <c r="Q2" s="25"/>
-      <c r="R2" s="25"/>
-      <c r="S2" s="25"/>
-      <c r="T2" s="25"/>
-      <c r="U2" s="25"/>
-      <c r="V2" s="25"/>
-      <c r="W2" s="25"/>
-      <c r="X2" s="25"/>
-      <c r="Y2" s="25"/>
-      <c r="Z2" s="25"/>
-      <c r="AA2" s="25"/>
-      <c r="AB2" s="25"/>
-    </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A3" s="26" t="s">
-        <v>34</v>
-      </c>
-      <c r="B3" s="26"/>
-      <c r="C3" s="27" t="s">
-        <v>36</v>
-      </c>
-      <c r="D3" s="27"/>
-      <c r="E3" s="27"/>
-      <c r="F3" s="27"/>
-      <c r="G3" s="27"/>
-      <c r="H3" s="26" t="s">
-        <v>34</v>
-      </c>
-      <c r="I3" s="26"/>
-      <c r="J3" s="27" t="s">
-        <v>36</v>
-      </c>
-      <c r="K3" s="27"/>
-      <c r="L3" s="27"/>
-      <c r="M3" s="27"/>
-      <c r="N3" s="27"/>
-      <c r="O3" s="26" t="s">
-        <v>34</v>
-      </c>
-      <c r="P3" s="26"/>
-      <c r="Q3" s="27" t="s">
-        <v>36</v>
-      </c>
-      <c r="R3" s="27"/>
-      <c r="S3" s="27"/>
-      <c r="T3" s="27"/>
-      <c r="U3" s="27"/>
-      <c r="V3" s="26" t="s">
-        <v>34</v>
-      </c>
-      <c r="W3" s="26"/>
-      <c r="X3" s="27" t="s">
-        <v>36</v>
-      </c>
-      <c r="Y3" s="27"/>
-      <c r="Z3" s="27"/>
-      <c r="AA3" s="27"/>
-      <c r="AB3" s="27"/>
-    </row>
-    <row r="4" spans="1:28" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="22" t="s">
-        <v>41</v>
-      </c>
-      <c r="B4" s="22"/>
-      <c r="C4" s="23" t="s">
-        <v>46</v>
-      </c>
-      <c r="D4" s="23"/>
-      <c r="E4" s="23"/>
-      <c r="F4" s="23"/>
-      <c r="G4" s="23"/>
-      <c r="H4" s="22" t="s">
-        <v>47</v>
-      </c>
-      <c r="I4" s="22"/>
-      <c r="J4" s="23" t="s">
-        <v>48</v>
-      </c>
-      <c r="K4" s="23"/>
-      <c r="L4" s="23"/>
-      <c r="M4" s="23"/>
-      <c r="N4" s="23"/>
-      <c r="O4" s="24" t="s">
+      <c r="P4" s="27"/>
+      <c r="Q4" s="26" t="s">
         <v>202</v>
       </c>
-      <c r="P4" s="24"/>
-      <c r="Q4" s="23" t="s">
+      <c r="R4" s="26"/>
+      <c r="S4" s="26"/>
+      <c r="T4" s="26"/>
+      <c r="U4" s="26"/>
+      <c r="V4" s="27" t="s">
+        <v>66</v>
+      </c>
+      <c r="W4" s="27"/>
+      <c r="X4" s="26" t="s">
+        <v>65</v>
+      </c>
+      <c r="Y4" s="26"/>
+      <c r="Z4" s="26"/>
+      <c r="AA4" s="26"/>
+      <c r="AB4" s="26"/>
+    </row>
+    <row r="5" spans="1:28" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="25" t="s">
+        <v>37</v>
+      </c>
+      <c r="B5" s="25"/>
+      <c r="C5" s="26" t="s">
+        <v>44</v>
+      </c>
+      <c r="D5" s="26"/>
+      <c r="E5" s="26"/>
+      <c r="F5" s="26"/>
+      <c r="G5" s="26"/>
+      <c r="H5" s="25" t="s">
+        <v>49</v>
+      </c>
+      <c r="I5" s="25"/>
+      <c r="J5" s="26" t="s">
+        <v>50</v>
+      </c>
+      <c r="K5" s="26"/>
+      <c r="L5" s="26"/>
+      <c r="M5" s="26"/>
+      <c r="N5" s="26"/>
+      <c r="O5" s="27" t="s">
         <v>203</v>
       </c>
-      <c r="R4" s="23"/>
-      <c r="S4" s="23"/>
-      <c r="T4" s="23"/>
-      <c r="U4" s="23"/>
-      <c r="V4" s="24" t="s">
-        <v>66</v>
-      </c>
-      <c r="W4" s="24"/>
-      <c r="X4" s="23" t="s">
-        <v>65</v>
-      </c>
-      <c r="Y4" s="23"/>
-      <c r="Z4" s="23"/>
-      <c r="AA4" s="23"/>
-      <c r="AB4" s="23"/>
-    </row>
-    <row r="5" spans="1:28" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="22" t="s">
-        <v>37</v>
-      </c>
-      <c r="B5" s="22"/>
-      <c r="C5" s="23" t="s">
-        <v>44</v>
-      </c>
-      <c r="D5" s="23"/>
-      <c r="E5" s="23"/>
-      <c r="F5" s="23"/>
-      <c r="G5" s="23"/>
-      <c r="H5" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="I5" s="22"/>
-      <c r="J5" s="23" t="s">
-        <v>50</v>
-      </c>
-      <c r="K5" s="23"/>
-      <c r="L5" s="23"/>
-      <c r="M5" s="23"/>
-      <c r="N5" s="23"/>
-      <c r="O5" s="24" t="s">
+      <c r="P5" s="27"/>
+      <c r="Q5" s="26"/>
+      <c r="R5" s="26"/>
+      <c r="S5" s="26"/>
+      <c r="T5" s="26"/>
+      <c r="U5" s="26"/>
+      <c r="V5" s="27" t="s">
+        <v>67</v>
+      </c>
+      <c r="W5" s="27"/>
+      <c r="X5" s="26" t="s">
+        <v>70</v>
+      </c>
+      <c r="Y5" s="26"/>
+      <c r="Z5" s="26"/>
+      <c r="AA5" s="26"/>
+      <c r="AB5" s="26"/>
+    </row>
+    <row r="6" spans="1:28" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="B6" s="25"/>
+      <c r="C6" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="D6" s="26"/>
+      <c r="E6" s="26"/>
+      <c r="F6" s="26"/>
+      <c r="G6" s="26"/>
+      <c r="H6" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="I6" s="25"/>
+      <c r="J6" s="26" t="s">
+        <v>51</v>
+      </c>
+      <c r="K6" s="26"/>
+      <c r="L6" s="26"/>
+      <c r="M6" s="26"/>
+      <c r="N6" s="26"/>
+      <c r="O6" s="27" t="s">
         <v>204</v>
       </c>
-      <c r="P5" s="24"/>
-      <c r="Q5" s="23"/>
-      <c r="R5" s="23"/>
-      <c r="S5" s="23"/>
-      <c r="T5" s="23"/>
-      <c r="U5" s="23"/>
-      <c r="V5" s="24" t="s">
-        <v>67</v>
-      </c>
-      <c r="W5" s="24"/>
-      <c r="X5" s="23" t="s">
-        <v>70</v>
-      </c>
-      <c r="Y5" s="23"/>
-      <c r="Z5" s="23"/>
-      <c r="AA5" s="23"/>
-      <c r="AB5" s="23"/>
-    </row>
-    <row r="6" spans="1:28" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="22" t="s">
-        <v>38</v>
-      </c>
-      <c r="B6" s="22"/>
-      <c r="C6" s="23" t="s">
-        <v>56</v>
-      </c>
-      <c r="D6" s="23"/>
-      <c r="E6" s="23"/>
-      <c r="F6" s="23"/>
-      <c r="G6" s="23"/>
-      <c r="H6" s="22" t="s">
-        <v>52</v>
-      </c>
-      <c r="I6" s="22"/>
-      <c r="J6" s="23" t="s">
-        <v>51</v>
-      </c>
-      <c r="K6" s="23"/>
-      <c r="L6" s="23"/>
-      <c r="M6" s="23"/>
-      <c r="N6" s="23"/>
-      <c r="O6" s="24" t="s">
+      <c r="P6" s="27"/>
+      <c r="Q6" s="26"/>
+      <c r="R6" s="26"/>
+      <c r="S6" s="26"/>
+      <c r="T6" s="26"/>
+      <c r="U6" s="26"/>
+      <c r="V6" s="27" t="s">
+        <v>68</v>
+      </c>
+      <c r="W6" s="27"/>
+      <c r="X6" s="26" t="s">
+        <v>69</v>
+      </c>
+      <c r="Y6" s="26"/>
+      <c r="Z6" s="26"/>
+      <c r="AA6" s="26"/>
+      <c r="AB6" s="26"/>
+    </row>
+    <row r="7" spans="1:28" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="B7" s="25"/>
+      <c r="C7" s="26" t="s">
+        <v>45</v>
+      </c>
+      <c r="D7" s="26"/>
+      <c r="E7" s="26"/>
+      <c r="F7" s="26"/>
+      <c r="G7" s="26"/>
+      <c r="H7" s="25" t="s">
+        <v>53</v>
+      </c>
+      <c r="I7" s="25"/>
+      <c r="J7" s="26" t="s">
+        <v>54</v>
+      </c>
+      <c r="K7" s="26"/>
+      <c r="L7" s="26"/>
+      <c r="M7" s="26"/>
+      <c r="N7" s="26"/>
+      <c r="O7" s="27" t="s">
         <v>205</v>
       </c>
-      <c r="P6" s="24"/>
-      <c r="Q6" s="23"/>
-      <c r="R6" s="23"/>
-      <c r="S6" s="23"/>
-      <c r="T6" s="23"/>
-      <c r="U6" s="23"/>
-      <c r="V6" s="24" t="s">
-        <v>68</v>
-      </c>
-      <c r="W6" s="24"/>
-      <c r="X6" s="23" t="s">
-        <v>69</v>
-      </c>
-      <c r="Y6" s="23"/>
-      <c r="Z6" s="23"/>
-      <c r="AA6" s="23"/>
-      <c r="AB6" s="23"/>
-    </row>
-    <row r="7" spans="1:28" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="22" t="s">
-        <v>39</v>
-      </c>
-      <c r="B7" s="22"/>
-      <c r="C7" s="23" t="s">
-        <v>45</v>
-      </c>
-      <c r="D7" s="23"/>
-      <c r="E7" s="23"/>
-      <c r="F7" s="23"/>
-      <c r="G7" s="23"/>
-      <c r="H7" s="22" t="s">
-        <v>53</v>
-      </c>
-      <c r="I7" s="22"/>
-      <c r="J7" s="23" t="s">
-        <v>54</v>
-      </c>
-      <c r="K7" s="23"/>
-      <c r="L7" s="23"/>
-      <c r="M7" s="23"/>
-      <c r="N7" s="23"/>
-      <c r="O7" s="24" t="s">
-        <v>206</v>
-      </c>
-      <c r="P7" s="24"/>
-      <c r="Q7" s="23"/>
-      <c r="R7" s="23"/>
-      <c r="S7" s="23"/>
-      <c r="T7" s="23"/>
-      <c r="U7" s="23"/>
-      <c r="V7" s="24" t="s">
+      <c r="P7" s="27"/>
+      <c r="Q7" s="26"/>
+      <c r="R7" s="26"/>
+      <c r="S7" s="26"/>
+      <c r="T7" s="26"/>
+      <c r="U7" s="26"/>
+      <c r="V7" s="27" t="s">
         <v>71</v>
       </c>
-      <c r="W7" s="24"/>
-      <c r="X7" s="23" t="s">
+      <c r="W7" s="27"/>
+      <c r="X7" s="26" t="s">
         <v>72</v>
       </c>
-      <c r="Y7" s="23"/>
-      <c r="Z7" s="23"/>
-      <c r="AA7" s="23"/>
-      <c r="AB7" s="23"/>
+      <c r="Y7" s="26"/>
+      <c r="Z7" s="26"/>
+      <c r="AA7" s="26"/>
+      <c r="AB7" s="26"/>
     </row>
     <row r="8" spans="1:28" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="22" t="s">
+      <c r="A8" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="B8" s="22"/>
-      <c r="C8" s="23" t="s">
+      <c r="B8" s="25"/>
+      <c r="C8" s="26" t="s">
         <v>58</v>
       </c>
-      <c r="D8" s="23"/>
-      <c r="E8" s="23"/>
-      <c r="F8" s="23"/>
-      <c r="G8" s="23"/>
+      <c r="D8" s="26"/>
+      <c r="E8" s="26"/>
+      <c r="F8" s="26"/>
+      <c r="G8" s="26"/>
       <c r="H8" s="28" t="s">
         <v>55</v>
       </c>
@@ -4563,977 +4563,761 @@
       <c r="L8" s="29"/>
       <c r="M8" s="29"/>
       <c r="N8" s="29"/>
-      <c r="O8" s="24" t="s">
+      <c r="O8" s="27" t="s">
+        <v>206</v>
+      </c>
+      <c r="P8" s="27"/>
+      <c r="Q8" s="26" t="s">
         <v>207</v>
       </c>
-      <c r="P8" s="24"/>
-      <c r="Q8" s="23" t="s">
-        <v>208</v>
-      </c>
-      <c r="R8" s="23"/>
-      <c r="S8" s="23"/>
-      <c r="T8" s="23"/>
-      <c r="U8" s="23"/>
-      <c r="V8" s="24" t="s">
+      <c r="R8" s="26"/>
+      <c r="S8" s="26"/>
+      <c r="T8" s="26"/>
+      <c r="U8" s="26"/>
+      <c r="V8" s="27" t="s">
         <v>73</v>
       </c>
-      <c r="W8" s="24"/>
-      <c r="X8" s="23" t="s">
+      <c r="W8" s="27"/>
+      <c r="X8" s="26" t="s">
         <v>65</v>
       </c>
-      <c r="Y8" s="23"/>
-      <c r="Z8" s="23"/>
-      <c r="AA8" s="23"/>
-      <c r="AB8" s="23"/>
+      <c r="Y8" s="26"/>
+      <c r="Z8" s="26"/>
+      <c r="AA8" s="26"/>
+      <c r="AB8" s="26"/>
     </row>
     <row r="9" spans="1:28" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="22" t="s">
+      <c r="A9" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="B9" s="22"/>
-      <c r="C9" s="23" t="s">
+      <c r="B9" s="25"/>
+      <c r="C9" s="26" t="s">
         <v>59</v>
       </c>
-      <c r="D9" s="23"/>
-      <c r="E9" s="23"/>
-      <c r="F9" s="23"/>
-      <c r="G9" s="23"/>
-      <c r="H9" s="22" t="s">
+      <c r="D9" s="26"/>
+      <c r="E9" s="26"/>
+      <c r="F9" s="26"/>
+      <c r="G9" s="26"/>
+      <c r="H9" s="25" t="s">
         <v>82</v>
       </c>
-      <c r="I9" s="22"/>
-      <c r="J9" s="23" t="s">
+      <c r="I9" s="25"/>
+      <c r="J9" s="26" t="s">
         <v>60</v>
       </c>
-      <c r="K9" s="23"/>
-      <c r="L9" s="23"/>
-      <c r="M9" s="23"/>
-      <c r="N9" s="23"/>
-      <c r="O9" s="24"/>
-      <c r="P9" s="24"/>
-      <c r="Q9" s="23"/>
-      <c r="R9" s="23"/>
-      <c r="S9" s="23"/>
-      <c r="T9" s="23"/>
-      <c r="U9" s="23"/>
-      <c r="V9" s="24" t="s">
+      <c r="K9" s="26"/>
+      <c r="L9" s="26"/>
+      <c r="M9" s="26"/>
+      <c r="N9" s="26"/>
+      <c r="O9" s="27"/>
+      <c r="P9" s="27"/>
+      <c r="Q9" s="26"/>
+      <c r="R9" s="26"/>
+      <c r="S9" s="26"/>
+      <c r="T9" s="26"/>
+      <c r="U9" s="26"/>
+      <c r="V9" s="27" t="s">
         <v>74</v>
       </c>
-      <c r="W9" s="24"/>
-      <c r="X9" s="23" t="s">
+      <c r="W9" s="27"/>
+      <c r="X9" s="26" t="s">
         <v>75</v>
       </c>
-      <c r="Y9" s="23"/>
-      <c r="Z9" s="23"/>
-      <c r="AA9" s="23"/>
-      <c r="AB9" s="23"/>
+      <c r="Y9" s="26"/>
+      <c r="Z9" s="26"/>
+      <c r="AA9" s="26"/>
+      <c r="AB9" s="26"/>
     </row>
     <row r="10" spans="1:28" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="22" t="s">
+      <c r="A10" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="B10" s="22"/>
-      <c r="C10" s="23" t="s">
+      <c r="B10" s="25"/>
+      <c r="C10" s="26" t="s">
         <v>57</v>
       </c>
-      <c r="D10" s="23"/>
-      <c r="E10" s="23"/>
-      <c r="F10" s="23"/>
-      <c r="G10" s="23"/>
-      <c r="H10" s="22" t="s">
+      <c r="D10" s="26"/>
+      <c r="E10" s="26"/>
+      <c r="F10" s="26"/>
+      <c r="G10" s="26"/>
+      <c r="H10" s="25" t="s">
         <v>61</v>
       </c>
-      <c r="I10" s="22"/>
-      <c r="J10" s="23" t="s">
+      <c r="I10" s="25"/>
+      <c r="J10" s="26" t="s">
         <v>62</v>
       </c>
-      <c r="K10" s="23"/>
-      <c r="L10" s="23"/>
-      <c r="M10" s="23"/>
-      <c r="N10" s="23"/>
-      <c r="O10" s="24"/>
-      <c r="P10" s="24"/>
-      <c r="Q10" s="23"/>
-      <c r="R10" s="23"/>
-      <c r="S10" s="23"/>
-      <c r="T10" s="23"/>
-      <c r="U10" s="23"/>
-      <c r="V10" s="24" t="s">
+      <c r="K10" s="26"/>
+      <c r="L10" s="26"/>
+      <c r="M10" s="26"/>
+      <c r="N10" s="26"/>
+      <c r="O10" s="27"/>
+      <c r="P10" s="27"/>
+      <c r="Q10" s="26"/>
+      <c r="R10" s="26"/>
+      <c r="S10" s="26"/>
+      <c r="T10" s="26"/>
+      <c r="U10" s="26"/>
+      <c r="V10" s="27" t="s">
         <v>77</v>
       </c>
-      <c r="W10" s="24"/>
-      <c r="X10" s="23" t="s">
+      <c r="W10" s="27"/>
+      <c r="X10" s="26" t="s">
         <v>78</v>
       </c>
-      <c r="Y10" s="23"/>
-      <c r="Z10" s="23"/>
-      <c r="AA10" s="23"/>
-      <c r="AB10" s="23"/>
+      <c r="Y10" s="26"/>
+      <c r="Z10" s="26"/>
+      <c r="AA10" s="26"/>
+      <c r="AB10" s="26"/>
     </row>
     <row r="11" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A11" s="22"/>
-      <c r="B11" s="22"/>
-      <c r="C11" s="23"/>
-      <c r="D11" s="23"/>
-      <c r="E11" s="23"/>
-      <c r="F11" s="23"/>
-      <c r="G11" s="23"/>
-      <c r="H11" s="22" t="s">
+      <c r="A11" s="25"/>
+      <c r="B11" s="25"/>
+      <c r="C11" s="26"/>
+      <c r="D11" s="26"/>
+      <c r="E11" s="26"/>
+      <c r="F11" s="26"/>
+      <c r="G11" s="26"/>
+      <c r="H11" s="25" t="s">
         <v>63</v>
       </c>
-      <c r="I11" s="22"/>
-      <c r="J11" s="23" t="s">
+      <c r="I11" s="25"/>
+      <c r="J11" s="26" t="s">
         <v>64</v>
       </c>
-      <c r="K11" s="23"/>
-      <c r="L11" s="23"/>
-      <c r="M11" s="23"/>
-      <c r="N11" s="23"/>
-      <c r="O11" s="24"/>
-      <c r="P11" s="24"/>
-      <c r="Q11" s="23"/>
-      <c r="R11" s="23"/>
-      <c r="S11" s="23"/>
-      <c r="T11" s="23"/>
-      <c r="U11" s="23"/>
-      <c r="V11" s="24" t="s">
+      <c r="K11" s="26"/>
+      <c r="L11" s="26"/>
+      <c r="M11" s="26"/>
+      <c r="N11" s="26"/>
+      <c r="O11" s="27"/>
+      <c r="P11" s="27"/>
+      <c r="Q11" s="26"/>
+      <c r="R11" s="26"/>
+      <c r="S11" s="26"/>
+      <c r="T11" s="26"/>
+      <c r="U11" s="26"/>
+      <c r="V11" s="27" t="s">
         <v>79</v>
       </c>
-      <c r="W11" s="24"/>
-      <c r="X11" s="23" t="s">
+      <c r="W11" s="27"/>
+      <c r="X11" s="26" t="s">
         <v>80</v>
       </c>
-      <c r="Y11" s="23"/>
-      <c r="Z11" s="23"/>
-      <c r="AA11" s="23"/>
-      <c r="AB11" s="23"/>
+      <c r="Y11" s="26"/>
+      <c r="Z11" s="26"/>
+      <c r="AA11" s="26"/>
+      <c r="AB11" s="26"/>
     </row>
     <row r="12" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A12" s="22"/>
-      <c r="B12" s="22"/>
-      <c r="C12" s="23"/>
-      <c r="D12" s="23"/>
-      <c r="E12" s="23"/>
-      <c r="F12" s="23"/>
-      <c r="G12" s="23"/>
-      <c r="H12" s="22" t="s">
+      <c r="A12" s="25"/>
+      <c r="B12" s="25"/>
+      <c r="C12" s="26"/>
+      <c r="D12" s="26"/>
+      <c r="E12" s="26"/>
+      <c r="F12" s="26"/>
+      <c r="G12" s="26"/>
+      <c r="H12" s="25" t="s">
         <v>81</v>
       </c>
-      <c r="I12" s="22"/>
-      <c r="J12" s="23"/>
-      <c r="K12" s="23"/>
-      <c r="L12" s="23"/>
-      <c r="M12" s="23"/>
-      <c r="N12" s="23"/>
-      <c r="O12" s="24"/>
-      <c r="P12" s="24"/>
-      <c r="Q12" s="23"/>
-      <c r="R12" s="23"/>
-      <c r="S12" s="23"/>
-      <c r="T12" s="23"/>
-      <c r="U12" s="23"/>
-      <c r="V12" s="24"/>
-      <c r="W12" s="24"/>
-      <c r="X12" s="23"/>
-      <c r="Y12" s="23"/>
-      <c r="Z12" s="23"/>
-      <c r="AA12" s="23"/>
-      <c r="AB12" s="23"/>
+      <c r="I12" s="25"/>
+      <c r="J12" s="26"/>
+      <c r="K12" s="26"/>
+      <c r="L12" s="26"/>
+      <c r="M12" s="26"/>
+      <c r="N12" s="26"/>
+      <c r="O12" s="27"/>
+      <c r="P12" s="27"/>
+      <c r="Q12" s="26"/>
+      <c r="R12" s="26"/>
+      <c r="S12" s="26"/>
+      <c r="T12" s="26"/>
+      <c r="U12" s="26"/>
+      <c r="V12" s="27"/>
+      <c r="W12" s="27"/>
+      <c r="X12" s="26"/>
+      <c r="Y12" s="26"/>
+      <c r="Z12" s="26"/>
+      <c r="AA12" s="26"/>
+      <c r="AB12" s="26"/>
     </row>
     <row r="13" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A13" s="22"/>
-      <c r="B13" s="22"/>
-      <c r="C13" s="23"/>
-      <c r="D13" s="23"/>
-      <c r="E13" s="23"/>
-      <c r="F13" s="23"/>
-      <c r="G13" s="23"/>
-      <c r="H13" s="22"/>
-      <c r="I13" s="22"/>
-      <c r="J13" s="23"/>
-      <c r="K13" s="23"/>
-      <c r="L13" s="23"/>
-      <c r="M13" s="23"/>
-      <c r="N13" s="23"/>
-      <c r="O13" s="24"/>
-      <c r="P13" s="24"/>
-      <c r="Q13" s="23"/>
-      <c r="R13" s="23"/>
-      <c r="S13" s="23"/>
-      <c r="T13" s="23"/>
-      <c r="U13" s="23"/>
-      <c r="V13" s="24"/>
-      <c r="W13" s="24"/>
-      <c r="X13" s="23"/>
-      <c r="Y13" s="23"/>
-      <c r="Z13" s="23"/>
-      <c r="AA13" s="23"/>
-      <c r="AB13" s="23"/>
+      <c r="A13" s="25"/>
+      <c r="B13" s="25"/>
+      <c r="C13" s="26"/>
+      <c r="D13" s="26"/>
+      <c r="E13" s="26"/>
+      <c r="F13" s="26"/>
+      <c r="G13" s="26"/>
+      <c r="H13" s="25"/>
+      <c r="I13" s="25"/>
+      <c r="J13" s="26"/>
+      <c r="K13" s="26"/>
+      <c r="L13" s="26"/>
+      <c r="M13" s="26"/>
+      <c r="N13" s="26"/>
+      <c r="O13" s="27"/>
+      <c r="P13" s="27"/>
+      <c r="Q13" s="26"/>
+      <c r="R13" s="26"/>
+      <c r="S13" s="26"/>
+      <c r="T13" s="26"/>
+      <c r="U13" s="26"/>
+      <c r="V13" s="27"/>
+      <c r="W13" s="27"/>
+      <c r="X13" s="26"/>
+      <c r="Y13" s="26"/>
+      <c r="Z13" s="26"/>
+      <c r="AA13" s="26"/>
+      <c r="AB13" s="26"/>
     </row>
     <row r="14" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A14" s="22"/>
-      <c r="B14" s="22"/>
-      <c r="C14" s="23"/>
-      <c r="D14" s="23"/>
-      <c r="E14" s="23"/>
-      <c r="F14" s="23"/>
-      <c r="G14" s="23"/>
-      <c r="H14" s="22"/>
-      <c r="I14" s="22"/>
-      <c r="J14" s="23"/>
-      <c r="K14" s="23"/>
-      <c r="L14" s="23"/>
-      <c r="M14" s="23"/>
-      <c r="N14" s="23"/>
-      <c r="O14" s="24"/>
-      <c r="P14" s="24"/>
-      <c r="Q14" s="23"/>
-      <c r="R14" s="23"/>
-      <c r="S14" s="23"/>
-      <c r="T14" s="23"/>
-      <c r="U14" s="23"/>
-      <c r="V14" s="24"/>
-      <c r="W14" s="24"/>
-      <c r="X14" s="23"/>
-      <c r="Y14" s="23"/>
-      <c r="Z14" s="23"/>
-      <c r="AA14" s="23"/>
-      <c r="AB14" s="23"/>
+      <c r="A14" s="25"/>
+      <c r="B14" s="25"/>
+      <c r="C14" s="26"/>
+      <c r="D14" s="26"/>
+      <c r="E14" s="26"/>
+      <c r="F14" s="26"/>
+      <c r="G14" s="26"/>
+      <c r="H14" s="25"/>
+      <c r="I14" s="25"/>
+      <c r="J14" s="26"/>
+      <c r="K14" s="26"/>
+      <c r="L14" s="26"/>
+      <c r="M14" s="26"/>
+      <c r="N14" s="26"/>
+      <c r="O14" s="27"/>
+      <c r="P14" s="27"/>
+      <c r="Q14" s="26"/>
+      <c r="R14" s="26"/>
+      <c r="S14" s="26"/>
+      <c r="T14" s="26"/>
+      <c r="U14" s="26"/>
+      <c r="V14" s="27"/>
+      <c r="W14" s="27"/>
+      <c r="X14" s="26"/>
+      <c r="Y14" s="26"/>
+      <c r="Z14" s="26"/>
+      <c r="AA14" s="26"/>
+      <c r="AB14" s="26"/>
     </row>
     <row r="15" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A15" s="22"/>
-      <c r="B15" s="22"/>
-      <c r="C15" s="23"/>
-      <c r="D15" s="23"/>
-      <c r="E15" s="23"/>
-      <c r="F15" s="23"/>
-      <c r="G15" s="23"/>
-      <c r="H15" s="22"/>
-      <c r="I15" s="22"/>
-      <c r="J15" s="23"/>
-      <c r="K15" s="23"/>
-      <c r="L15" s="23"/>
-      <c r="M15" s="23"/>
-      <c r="N15" s="23"/>
-      <c r="O15" s="24"/>
-      <c r="P15" s="24"/>
-      <c r="Q15" s="23"/>
-      <c r="R15" s="23"/>
-      <c r="S15" s="23"/>
-      <c r="T15" s="23"/>
-      <c r="U15" s="23"/>
-      <c r="V15" s="24"/>
-      <c r="W15" s="24"/>
-      <c r="X15" s="23"/>
-      <c r="Y15" s="23"/>
-      <c r="Z15" s="23"/>
-      <c r="AA15" s="23"/>
-      <c r="AB15" s="23"/>
+      <c r="A15" s="25"/>
+      <c r="B15" s="25"/>
+      <c r="C15" s="26"/>
+      <c r="D15" s="26"/>
+      <c r="E15" s="26"/>
+      <c r="F15" s="26"/>
+      <c r="G15" s="26"/>
+      <c r="H15" s="25"/>
+      <c r="I15" s="25"/>
+      <c r="J15" s="26"/>
+      <c r="K15" s="26"/>
+      <c r="L15" s="26"/>
+      <c r="M15" s="26"/>
+      <c r="N15" s="26"/>
+      <c r="O15" s="27"/>
+      <c r="P15" s="27"/>
+      <c r="Q15" s="26"/>
+      <c r="R15" s="26"/>
+      <c r="S15" s="26"/>
+      <c r="T15" s="26"/>
+      <c r="U15" s="26"/>
+      <c r="V15" s="27"/>
+      <c r="W15" s="27"/>
+      <c r="X15" s="26"/>
+      <c r="Y15" s="26"/>
+      <c r="Z15" s="26"/>
+      <c r="AA15" s="26"/>
+      <c r="AB15" s="26"/>
     </row>
     <row r="16" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A16" s="22"/>
-      <c r="B16" s="22"/>
-      <c r="C16" s="23"/>
-      <c r="D16" s="23"/>
-      <c r="E16" s="23"/>
-      <c r="F16" s="23"/>
-      <c r="G16" s="23"/>
-      <c r="H16" s="22"/>
-      <c r="I16" s="22"/>
-      <c r="J16" s="23"/>
-      <c r="K16" s="23"/>
-      <c r="L16" s="23"/>
-      <c r="M16" s="23"/>
-      <c r="N16" s="23"/>
-      <c r="O16" s="24"/>
-      <c r="P16" s="24"/>
-      <c r="Q16" s="23"/>
-      <c r="R16" s="23"/>
-      <c r="S16" s="23"/>
-      <c r="T16" s="23"/>
-      <c r="U16" s="23"/>
-      <c r="V16" s="24"/>
-      <c r="W16" s="24"/>
-      <c r="X16" s="23"/>
-      <c r="Y16" s="23"/>
-      <c r="Z16" s="23"/>
-      <c r="AA16" s="23"/>
-      <c r="AB16" s="23"/>
+      <c r="A16" s="25"/>
+      <c r="B16" s="25"/>
+      <c r="C16" s="26"/>
+      <c r="D16" s="26"/>
+      <c r="E16" s="26"/>
+      <c r="F16" s="26"/>
+      <c r="G16" s="26"/>
+      <c r="H16" s="25"/>
+      <c r="I16" s="25"/>
+      <c r="J16" s="26"/>
+      <c r="K16" s="26"/>
+      <c r="L16" s="26"/>
+      <c r="M16" s="26"/>
+      <c r="N16" s="26"/>
+      <c r="O16" s="27"/>
+      <c r="P16" s="27"/>
+      <c r="Q16" s="26"/>
+      <c r="R16" s="26"/>
+      <c r="S16" s="26"/>
+      <c r="T16" s="26"/>
+      <c r="U16" s="26"/>
+      <c r="V16" s="27"/>
+      <c r="W16" s="27"/>
+      <c r="X16" s="26"/>
+      <c r="Y16" s="26"/>
+      <c r="Z16" s="26"/>
+      <c r="AA16" s="26"/>
+      <c r="AB16" s="26"/>
     </row>
     <row r="17" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A17" s="22"/>
-      <c r="B17" s="22"/>
-      <c r="C17" s="23"/>
-      <c r="D17" s="23"/>
-      <c r="E17" s="23"/>
-      <c r="F17" s="23"/>
-      <c r="G17" s="23"/>
-      <c r="H17" s="22"/>
-      <c r="I17" s="22"/>
-      <c r="J17" s="23"/>
-      <c r="K17" s="23"/>
-      <c r="L17" s="23"/>
-      <c r="M17" s="23"/>
-      <c r="N17" s="23"/>
-      <c r="O17" s="24"/>
-      <c r="P17" s="24"/>
-      <c r="Q17" s="23"/>
-      <c r="R17" s="23"/>
-      <c r="S17" s="23"/>
-      <c r="T17" s="23"/>
-      <c r="U17" s="23"/>
-      <c r="V17" s="24"/>
-      <c r="W17" s="24"/>
-      <c r="X17" s="23"/>
-      <c r="Y17" s="23"/>
-      <c r="Z17" s="23"/>
-      <c r="AA17" s="23"/>
-      <c r="AB17" s="23"/>
+      <c r="A17" s="25"/>
+      <c r="B17" s="25"/>
+      <c r="C17" s="26"/>
+      <c r="D17" s="26"/>
+      <c r="E17" s="26"/>
+      <c r="F17" s="26"/>
+      <c r="G17" s="26"/>
+      <c r="H17" s="25"/>
+      <c r="I17" s="25"/>
+      <c r="J17" s="26"/>
+      <c r="K17" s="26"/>
+      <c r="L17" s="26"/>
+      <c r="M17" s="26"/>
+      <c r="N17" s="26"/>
+      <c r="O17" s="27"/>
+      <c r="P17" s="27"/>
+      <c r="Q17" s="26"/>
+      <c r="R17" s="26"/>
+      <c r="S17" s="26"/>
+      <c r="T17" s="26"/>
+      <c r="U17" s="26"/>
+      <c r="V17" s="27"/>
+      <c r="W17" s="27"/>
+      <c r="X17" s="26"/>
+      <c r="Y17" s="26"/>
+      <c r="Z17" s="26"/>
+      <c r="AA17" s="26"/>
+      <c r="AB17" s="26"/>
     </row>
     <row r="18" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A18" s="22"/>
-      <c r="B18" s="22"/>
-      <c r="C18" s="23"/>
-      <c r="D18" s="23"/>
-      <c r="E18" s="23"/>
-      <c r="F18" s="23"/>
-      <c r="G18" s="23"/>
-      <c r="H18" s="22"/>
-      <c r="I18" s="22"/>
-      <c r="J18" s="23"/>
-      <c r="K18" s="23"/>
-      <c r="L18" s="23"/>
-      <c r="M18" s="23"/>
-      <c r="N18" s="23"/>
-      <c r="O18" s="24"/>
-      <c r="P18" s="24"/>
-      <c r="Q18" s="23"/>
-      <c r="R18" s="23"/>
-      <c r="S18" s="23"/>
-      <c r="T18" s="23"/>
-      <c r="U18" s="23"/>
-      <c r="V18" s="24"/>
-      <c r="W18" s="24"/>
-      <c r="X18" s="23"/>
-      <c r="Y18" s="23"/>
-      <c r="Z18" s="23"/>
-      <c r="AA18" s="23"/>
-      <c r="AB18" s="23"/>
+      <c r="A18" s="25"/>
+      <c r="B18" s="25"/>
+      <c r="C18" s="26"/>
+      <c r="D18" s="26"/>
+      <c r="E18" s="26"/>
+      <c r="F18" s="26"/>
+      <c r="G18" s="26"/>
+      <c r="H18" s="25"/>
+      <c r="I18" s="25"/>
+      <c r="J18" s="26"/>
+      <c r="K18" s="26"/>
+      <c r="L18" s="26"/>
+      <c r="M18" s="26"/>
+      <c r="N18" s="26"/>
+      <c r="O18" s="27"/>
+      <c r="P18" s="27"/>
+      <c r="Q18" s="26"/>
+      <c r="R18" s="26"/>
+      <c r="S18" s="26"/>
+      <c r="T18" s="26"/>
+      <c r="U18" s="26"/>
+      <c r="V18" s="27"/>
+      <c r="W18" s="27"/>
+      <c r="X18" s="26"/>
+      <c r="Y18" s="26"/>
+      <c r="Z18" s="26"/>
+      <c r="AA18" s="26"/>
+      <c r="AB18" s="26"/>
     </row>
     <row r="19" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A19" s="22"/>
-      <c r="B19" s="22"/>
-      <c r="C19" s="23"/>
-      <c r="D19" s="23"/>
-      <c r="E19" s="23"/>
-      <c r="F19" s="23"/>
-      <c r="G19" s="23"/>
-      <c r="H19" s="22"/>
-      <c r="I19" s="22"/>
-      <c r="J19" s="23"/>
-      <c r="K19" s="23"/>
-      <c r="L19" s="23"/>
-      <c r="M19" s="23"/>
-      <c r="N19" s="23"/>
-      <c r="O19" s="24"/>
-      <c r="P19" s="24"/>
-      <c r="Q19" s="23"/>
-      <c r="R19" s="23"/>
-      <c r="S19" s="23"/>
-      <c r="T19" s="23"/>
-      <c r="U19" s="23"/>
-      <c r="V19" s="24"/>
-      <c r="W19" s="24"/>
-      <c r="X19" s="23"/>
-      <c r="Y19" s="23"/>
-      <c r="Z19" s="23"/>
-      <c r="AA19" s="23"/>
-      <c r="AB19" s="23"/>
+      <c r="A19" s="25"/>
+      <c r="B19" s="25"/>
+      <c r="C19" s="26"/>
+      <c r="D19" s="26"/>
+      <c r="E19" s="26"/>
+      <c r="F19" s="26"/>
+      <c r="G19" s="26"/>
+      <c r="H19" s="25"/>
+      <c r="I19" s="25"/>
+      <c r="J19" s="26"/>
+      <c r="K19" s="26"/>
+      <c r="L19" s="26"/>
+      <c r="M19" s="26"/>
+      <c r="N19" s="26"/>
+      <c r="O19" s="27"/>
+      <c r="P19" s="27"/>
+      <c r="Q19" s="26"/>
+      <c r="R19" s="26"/>
+      <c r="S19" s="26"/>
+      <c r="T19" s="26"/>
+      <c r="U19" s="26"/>
+      <c r="V19" s="27"/>
+      <c r="W19" s="27"/>
+      <c r="X19" s="26"/>
+      <c r="Y19" s="26"/>
+      <c r="Z19" s="26"/>
+      <c r="AA19" s="26"/>
+      <c r="AB19" s="26"/>
     </row>
     <row r="20" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A20" s="22"/>
-      <c r="B20" s="22"/>
-      <c r="C20" s="23"/>
-      <c r="D20" s="23"/>
-      <c r="E20" s="23"/>
-      <c r="F20" s="23"/>
-      <c r="G20" s="23"/>
-      <c r="H20" s="22"/>
-      <c r="I20" s="22"/>
-      <c r="J20" s="23"/>
-      <c r="K20" s="23"/>
-      <c r="L20" s="23"/>
-      <c r="M20" s="23"/>
-      <c r="N20" s="23"/>
-      <c r="O20" s="24"/>
-      <c r="P20" s="24"/>
-      <c r="Q20" s="23"/>
-      <c r="R20" s="23"/>
-      <c r="S20" s="23"/>
-      <c r="T20" s="23"/>
-      <c r="U20" s="23"/>
-      <c r="V20" s="24"/>
-      <c r="W20" s="24"/>
-      <c r="X20" s="23"/>
-      <c r="Y20" s="23"/>
-      <c r="Z20" s="23"/>
-      <c r="AA20" s="23"/>
-      <c r="AB20" s="23"/>
+      <c r="A20" s="25"/>
+      <c r="B20" s="25"/>
+      <c r="C20" s="26"/>
+      <c r="D20" s="26"/>
+      <c r="E20" s="26"/>
+      <c r="F20" s="26"/>
+      <c r="G20" s="26"/>
+      <c r="H20" s="25"/>
+      <c r="I20" s="25"/>
+      <c r="J20" s="26"/>
+      <c r="K20" s="26"/>
+      <c r="L20" s="26"/>
+      <c r="M20" s="26"/>
+      <c r="N20" s="26"/>
+      <c r="O20" s="27"/>
+      <c r="P20" s="27"/>
+      <c r="Q20" s="26"/>
+      <c r="R20" s="26"/>
+      <c r="S20" s="26"/>
+      <c r="T20" s="26"/>
+      <c r="U20" s="26"/>
+      <c r="V20" s="27"/>
+      <c r="W20" s="27"/>
+      <c r="X20" s="26"/>
+      <c r="Y20" s="26"/>
+      <c r="Z20" s="26"/>
+      <c r="AA20" s="26"/>
+      <c r="AB20" s="26"/>
     </row>
     <row r="21" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A21" s="22"/>
-      <c r="B21" s="22"/>
-      <c r="C21" s="23"/>
-      <c r="D21" s="23"/>
-      <c r="E21" s="23"/>
-      <c r="F21" s="23"/>
-      <c r="G21" s="23"/>
-      <c r="H21" s="22"/>
-      <c r="I21" s="22"/>
-      <c r="J21" s="23"/>
-      <c r="K21" s="23"/>
-      <c r="L21" s="23"/>
-      <c r="M21" s="23"/>
-      <c r="N21" s="23"/>
-      <c r="O21" s="24"/>
-      <c r="P21" s="24"/>
-      <c r="Q21" s="23"/>
-      <c r="R21" s="23"/>
-      <c r="S21" s="23"/>
-      <c r="T21" s="23"/>
-      <c r="U21" s="23"/>
-      <c r="V21" s="24"/>
-      <c r="W21" s="24"/>
-      <c r="X21" s="23"/>
-      <c r="Y21" s="23"/>
-      <c r="Z21" s="23"/>
-      <c r="AA21" s="23"/>
-      <c r="AB21" s="23"/>
+      <c r="A21" s="25"/>
+      <c r="B21" s="25"/>
+      <c r="C21" s="26"/>
+      <c r="D21" s="26"/>
+      <c r="E21" s="26"/>
+      <c r="F21" s="26"/>
+      <c r="G21" s="26"/>
+      <c r="H21" s="25"/>
+      <c r="I21" s="25"/>
+      <c r="J21" s="26"/>
+      <c r="K21" s="26"/>
+      <c r="L21" s="26"/>
+      <c r="M21" s="26"/>
+      <c r="N21" s="26"/>
+      <c r="O21" s="27"/>
+      <c r="P21" s="27"/>
+      <c r="Q21" s="26"/>
+      <c r="R21" s="26"/>
+      <c r="S21" s="26"/>
+      <c r="T21" s="26"/>
+      <c r="U21" s="26"/>
+      <c r="V21" s="27"/>
+      <c r="W21" s="27"/>
+      <c r="X21" s="26"/>
+      <c r="Y21" s="26"/>
+      <c r="Z21" s="26"/>
+      <c r="AA21" s="26"/>
+      <c r="AB21" s="26"/>
     </row>
     <row r="22" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A22" s="22"/>
-      <c r="B22" s="22"/>
-      <c r="C22" s="23"/>
-      <c r="D22" s="23"/>
-      <c r="E22" s="23"/>
-      <c r="F22" s="23"/>
-      <c r="G22" s="23"/>
-      <c r="H22" s="22"/>
-      <c r="I22" s="22"/>
-      <c r="J22" s="23"/>
-      <c r="K22" s="23"/>
-      <c r="L22" s="23"/>
-      <c r="M22" s="23"/>
-      <c r="N22" s="23"/>
-      <c r="O22" s="24"/>
-      <c r="P22" s="24"/>
-      <c r="Q22" s="23"/>
-      <c r="R22" s="23"/>
-      <c r="S22" s="23"/>
-      <c r="T22" s="23"/>
-      <c r="U22" s="23"/>
-      <c r="V22" s="24"/>
-      <c r="W22" s="24"/>
-      <c r="X22" s="23"/>
-      <c r="Y22" s="23"/>
-      <c r="Z22" s="23"/>
-      <c r="AA22" s="23"/>
-      <c r="AB22" s="23"/>
+      <c r="A22" s="25"/>
+      <c r="B22" s="25"/>
+      <c r="C22" s="26"/>
+      <c r="D22" s="26"/>
+      <c r="E22" s="26"/>
+      <c r="F22" s="26"/>
+      <c r="G22" s="26"/>
+      <c r="H22" s="25"/>
+      <c r="I22" s="25"/>
+      <c r="J22" s="26"/>
+      <c r="K22" s="26"/>
+      <c r="L22" s="26"/>
+      <c r="M22" s="26"/>
+      <c r="N22" s="26"/>
+      <c r="O22" s="27"/>
+      <c r="P22" s="27"/>
+      <c r="Q22" s="26"/>
+      <c r="R22" s="26"/>
+      <c r="S22" s="26"/>
+      <c r="T22" s="26"/>
+      <c r="U22" s="26"/>
+      <c r="V22" s="27"/>
+      <c r="W22" s="27"/>
+      <c r="X22" s="26"/>
+      <c r="Y22" s="26"/>
+      <c r="Z22" s="26"/>
+      <c r="AA22" s="26"/>
+      <c r="AB22" s="26"/>
     </row>
     <row r="23" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A23" s="22"/>
-      <c r="B23" s="22"/>
-      <c r="C23" s="23"/>
-      <c r="D23" s="23"/>
-      <c r="E23" s="23"/>
-      <c r="F23" s="23"/>
-      <c r="G23" s="23"/>
-      <c r="H23" s="22"/>
-      <c r="I23" s="22"/>
-      <c r="J23" s="23"/>
-      <c r="K23" s="23"/>
-      <c r="L23" s="23"/>
-      <c r="M23" s="23"/>
-      <c r="N23" s="23"/>
-      <c r="O23" s="24"/>
-      <c r="P23" s="24"/>
-      <c r="Q23" s="23"/>
-      <c r="R23" s="23"/>
-      <c r="S23" s="23"/>
-      <c r="T23" s="23"/>
-      <c r="U23" s="23"/>
+      <c r="A23" s="25"/>
+      <c r="B23" s="25"/>
+      <c r="C23" s="26"/>
+      <c r="D23" s="26"/>
+      <c r="E23" s="26"/>
+      <c r="F23" s="26"/>
+      <c r="G23" s="26"/>
+      <c r="H23" s="25"/>
+      <c r="I23" s="25"/>
+      <c r="J23" s="26"/>
+      <c r="K23" s="26"/>
+      <c r="L23" s="26"/>
+      <c r="M23" s="26"/>
+      <c r="N23" s="26"/>
+      <c r="O23" s="27"/>
+      <c r="P23" s="27"/>
+      <c r="Q23" s="26"/>
+      <c r="R23" s="26"/>
+      <c r="S23" s="26"/>
+      <c r="T23" s="26"/>
+      <c r="U23" s="26"/>
     </row>
     <row r="24" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A24" s="22"/>
-      <c r="B24" s="22"/>
-      <c r="C24" s="23"/>
-      <c r="D24" s="23"/>
-      <c r="E24" s="23"/>
-      <c r="F24" s="23"/>
-      <c r="G24" s="23"/>
-      <c r="H24" s="22"/>
-      <c r="I24" s="22"/>
-      <c r="J24" s="23"/>
-      <c r="K24" s="23"/>
-      <c r="L24" s="23"/>
-      <c r="M24" s="23"/>
-      <c r="N24" s="23"/>
-      <c r="O24" s="24"/>
-      <c r="P24" s="24"/>
-      <c r="Q24" s="23"/>
-      <c r="R24" s="23"/>
-      <c r="S24" s="23"/>
-      <c r="T24" s="23"/>
-      <c r="U24" s="23"/>
+      <c r="A24" s="25"/>
+      <c r="B24" s="25"/>
+      <c r="C24" s="26"/>
+      <c r="D24" s="26"/>
+      <c r="E24" s="26"/>
+      <c r="F24" s="26"/>
+      <c r="G24" s="26"/>
+      <c r="H24" s="25"/>
+      <c r="I24" s="25"/>
+      <c r="J24" s="26"/>
+      <c r="K24" s="26"/>
+      <c r="L24" s="26"/>
+      <c r="M24" s="26"/>
+      <c r="N24" s="26"/>
+      <c r="O24" s="27"/>
+      <c r="P24" s="27"/>
+      <c r="Q24" s="26"/>
+      <c r="R24" s="26"/>
+      <c r="S24" s="26"/>
+      <c r="T24" s="26"/>
+      <c r="U24" s="26"/>
     </row>
     <row r="25" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A25" s="22"/>
-      <c r="B25" s="22"/>
-      <c r="C25" s="23"/>
-      <c r="D25" s="23"/>
-      <c r="E25" s="23"/>
-      <c r="F25" s="23"/>
-      <c r="G25" s="23"/>
-      <c r="H25" s="22"/>
-      <c r="I25" s="22"/>
-      <c r="J25" s="23"/>
-      <c r="K25" s="23"/>
-      <c r="L25" s="23"/>
-      <c r="M25" s="23"/>
-      <c r="N25" s="23"/>
-      <c r="O25" s="24"/>
-      <c r="P25" s="24"/>
-      <c r="Q25" s="23"/>
-      <c r="R25" s="23"/>
-      <c r="S25" s="23"/>
-      <c r="T25" s="23"/>
-      <c r="U25" s="23"/>
+      <c r="A25" s="25"/>
+      <c r="B25" s="25"/>
+      <c r="C25" s="26"/>
+      <c r="D25" s="26"/>
+      <c r="E25" s="26"/>
+      <c r="F25" s="26"/>
+      <c r="G25" s="26"/>
+      <c r="H25" s="25"/>
+      <c r="I25" s="25"/>
+      <c r="J25" s="26"/>
+      <c r="K25" s="26"/>
+      <c r="L25" s="26"/>
+      <c r="M25" s="26"/>
+      <c r="N25" s="26"/>
+      <c r="O25" s="27"/>
+      <c r="P25" s="27"/>
+      <c r="Q25" s="26"/>
+      <c r="R25" s="26"/>
+      <c r="S25" s="26"/>
+      <c r="T25" s="26"/>
+      <c r="U25" s="26"/>
     </row>
     <row r="26" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A26" s="22"/>
-      <c r="B26" s="22"/>
-      <c r="C26" s="23"/>
-      <c r="D26" s="23"/>
-      <c r="E26" s="23"/>
-      <c r="F26" s="23"/>
-      <c r="G26" s="23"/>
-      <c r="H26" s="22"/>
-      <c r="I26" s="22"/>
-      <c r="J26" s="23"/>
-      <c r="K26" s="23"/>
-      <c r="L26" s="23"/>
-      <c r="M26" s="23"/>
-      <c r="N26" s="23"/>
-      <c r="O26" s="24"/>
-      <c r="P26" s="24"/>
-      <c r="Q26" s="23"/>
-      <c r="R26" s="23"/>
-      <c r="S26" s="23"/>
-      <c r="T26" s="23"/>
-      <c r="U26" s="23"/>
+      <c r="A26" s="25"/>
+      <c r="B26" s="25"/>
+      <c r="C26" s="26"/>
+      <c r="D26" s="26"/>
+      <c r="E26" s="26"/>
+      <c r="F26" s="26"/>
+      <c r="G26" s="26"/>
+      <c r="H26" s="25"/>
+      <c r="I26" s="25"/>
+      <c r="J26" s="26"/>
+      <c r="K26" s="26"/>
+      <c r="L26" s="26"/>
+      <c r="M26" s="26"/>
+      <c r="N26" s="26"/>
+      <c r="O26" s="27"/>
+      <c r="P26" s="27"/>
+      <c r="Q26" s="26"/>
+      <c r="R26" s="26"/>
+      <c r="S26" s="26"/>
+      <c r="T26" s="26"/>
+      <c r="U26" s="26"/>
     </row>
     <row r="27" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A27" s="22"/>
-      <c r="B27" s="22"/>
-      <c r="C27" s="23"/>
-      <c r="D27" s="23"/>
-      <c r="E27" s="23"/>
-      <c r="F27" s="23"/>
-      <c r="G27" s="23"/>
-      <c r="H27" s="22"/>
-      <c r="I27" s="22"/>
-      <c r="J27" s="23"/>
-      <c r="K27" s="23"/>
-      <c r="L27" s="23"/>
-      <c r="M27" s="23"/>
-      <c r="N27" s="23"/>
-      <c r="O27" s="24"/>
-      <c r="P27" s="24"/>
-      <c r="Q27" s="23"/>
-      <c r="R27" s="23"/>
-      <c r="S27" s="23"/>
-      <c r="T27" s="23"/>
-      <c r="U27" s="23"/>
+      <c r="A27" s="25"/>
+      <c r="B27" s="25"/>
+      <c r="C27" s="26"/>
+      <c r="D27" s="26"/>
+      <c r="E27" s="26"/>
+      <c r="F27" s="26"/>
+      <c r="G27" s="26"/>
+      <c r="H27" s="25"/>
+      <c r="I27" s="25"/>
+      <c r="J27" s="26"/>
+      <c r="K27" s="26"/>
+      <c r="L27" s="26"/>
+      <c r="M27" s="26"/>
+      <c r="N27" s="26"/>
+      <c r="O27" s="27"/>
+      <c r="P27" s="27"/>
+      <c r="Q27" s="26"/>
+      <c r="R27" s="26"/>
+      <c r="S27" s="26"/>
+      <c r="T27" s="26"/>
+      <c r="U27" s="26"/>
     </row>
     <row r="28" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A28" s="22"/>
-      <c r="B28" s="22"/>
-      <c r="C28" s="23"/>
-      <c r="D28" s="23"/>
-      <c r="E28" s="23"/>
-      <c r="F28" s="23"/>
-      <c r="G28" s="23"/>
-      <c r="H28" s="22"/>
-      <c r="I28" s="22"/>
-      <c r="J28" s="23"/>
-      <c r="K28" s="23"/>
-      <c r="L28" s="23"/>
-      <c r="M28" s="23"/>
-      <c r="N28" s="23"/>
-      <c r="O28" s="24"/>
-      <c r="P28" s="24"/>
-      <c r="Q28" s="23"/>
-      <c r="R28" s="23"/>
-      <c r="S28" s="23"/>
-      <c r="T28" s="23"/>
-      <c r="U28" s="23"/>
+      <c r="A28" s="25"/>
+      <c r="B28" s="25"/>
+      <c r="C28" s="26"/>
+      <c r="D28" s="26"/>
+      <c r="E28" s="26"/>
+      <c r="F28" s="26"/>
+      <c r="G28" s="26"/>
+      <c r="H28" s="25"/>
+      <c r="I28" s="25"/>
+      <c r="J28" s="26"/>
+      <c r="K28" s="26"/>
+      <c r="L28" s="26"/>
+      <c r="M28" s="26"/>
+      <c r="N28" s="26"/>
+      <c r="O28" s="27"/>
+      <c r="P28" s="27"/>
+      <c r="Q28" s="26"/>
+      <c r="R28" s="26"/>
+      <c r="S28" s="26"/>
+      <c r="T28" s="26"/>
+      <c r="U28" s="26"/>
     </row>
     <row r="29" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A29" s="22"/>
-      <c r="B29" s="22"/>
-      <c r="C29" s="23"/>
-      <c r="D29" s="23"/>
-      <c r="E29" s="23"/>
-      <c r="F29" s="23"/>
-      <c r="G29" s="23"/>
-      <c r="H29" s="22"/>
-      <c r="I29" s="22"/>
-      <c r="J29" s="23"/>
-      <c r="K29" s="23"/>
-      <c r="L29" s="23"/>
-      <c r="M29" s="23"/>
-      <c r="N29" s="23"/>
-      <c r="O29" s="24"/>
-      <c r="P29" s="24"/>
-      <c r="Q29" s="23"/>
-      <c r="R29" s="23"/>
-      <c r="S29" s="23"/>
-      <c r="T29" s="23"/>
-      <c r="U29" s="23"/>
+      <c r="A29" s="25"/>
+      <c r="B29" s="25"/>
+      <c r="C29" s="26"/>
+      <c r="D29" s="26"/>
+      <c r="E29" s="26"/>
+      <c r="F29" s="26"/>
+      <c r="G29" s="26"/>
+      <c r="H29" s="25"/>
+      <c r="I29" s="25"/>
+      <c r="J29" s="26"/>
+      <c r="K29" s="26"/>
+      <c r="L29" s="26"/>
+      <c r="M29" s="26"/>
+      <c r="N29" s="26"/>
+      <c r="O29" s="27"/>
+      <c r="P29" s="27"/>
+      <c r="Q29" s="26"/>
+      <c r="R29" s="26"/>
+      <c r="S29" s="26"/>
+      <c r="T29" s="26"/>
+      <c r="U29" s="26"/>
     </row>
     <row r="30" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A30" s="22"/>
-      <c r="B30" s="22"/>
-      <c r="C30" s="23"/>
-      <c r="D30" s="23"/>
-      <c r="E30" s="23"/>
-      <c r="F30" s="23"/>
-      <c r="G30" s="23"/>
-      <c r="H30" s="22"/>
-      <c r="I30" s="22"/>
-      <c r="J30" s="23"/>
-      <c r="K30" s="23"/>
-      <c r="L30" s="23"/>
-      <c r="M30" s="23"/>
-      <c r="N30" s="23"/>
-      <c r="O30" s="24"/>
-      <c r="P30" s="24"/>
-      <c r="Q30" s="23"/>
-      <c r="R30" s="23"/>
-      <c r="S30" s="23"/>
-      <c r="T30" s="23"/>
-      <c r="U30" s="23"/>
+      <c r="A30" s="25"/>
+      <c r="B30" s="25"/>
+      <c r="C30" s="26"/>
+      <c r="D30" s="26"/>
+      <c r="E30" s="26"/>
+      <c r="F30" s="26"/>
+      <c r="G30" s="26"/>
+      <c r="H30" s="25"/>
+      <c r="I30" s="25"/>
+      <c r="J30" s="26"/>
+      <c r="K30" s="26"/>
+      <c r="L30" s="26"/>
+      <c r="M30" s="26"/>
+      <c r="N30" s="26"/>
+      <c r="O30" s="27"/>
+      <c r="P30" s="27"/>
+      <c r="Q30" s="26"/>
+      <c r="R30" s="26"/>
+      <c r="S30" s="26"/>
+      <c r="T30" s="26"/>
+      <c r="U30" s="26"/>
     </row>
     <row r="31" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A31" s="22"/>
-      <c r="B31" s="22"/>
-      <c r="C31" s="23"/>
-      <c r="D31" s="23"/>
-      <c r="E31" s="23"/>
-      <c r="F31" s="23"/>
-      <c r="G31" s="23"/>
-      <c r="H31" s="22"/>
-      <c r="I31" s="22"/>
-      <c r="J31" s="23"/>
-      <c r="K31" s="23"/>
-      <c r="L31" s="23"/>
-      <c r="M31" s="23"/>
-      <c r="N31" s="23"/>
-      <c r="O31" s="24"/>
-      <c r="P31" s="24"/>
-      <c r="Q31" s="23"/>
-      <c r="R31" s="23"/>
-      <c r="S31" s="23"/>
-      <c r="T31" s="23"/>
-      <c r="U31" s="23"/>
+      <c r="A31" s="25"/>
+      <c r="B31" s="25"/>
+      <c r="C31" s="26"/>
+      <c r="D31" s="26"/>
+      <c r="E31" s="26"/>
+      <c r="F31" s="26"/>
+      <c r="G31" s="26"/>
+      <c r="H31" s="25"/>
+      <c r="I31" s="25"/>
+      <c r="J31" s="26"/>
+      <c r="K31" s="26"/>
+      <c r="L31" s="26"/>
+      <c r="M31" s="26"/>
+      <c r="N31" s="26"/>
+      <c r="O31" s="27"/>
+      <c r="P31" s="27"/>
+      <c r="Q31" s="26"/>
+      <c r="R31" s="26"/>
+      <c r="S31" s="26"/>
+      <c r="T31" s="26"/>
+      <c r="U31" s="26"/>
     </row>
     <row r="32" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A32" s="22"/>
-      <c r="B32" s="22"/>
-      <c r="C32" s="23"/>
-      <c r="D32" s="23"/>
-      <c r="E32" s="23"/>
-      <c r="F32" s="23"/>
-      <c r="G32" s="23"/>
-      <c r="H32" s="22"/>
-      <c r="I32" s="22"/>
-      <c r="J32" s="23"/>
-      <c r="K32" s="23"/>
-      <c r="L32" s="23"/>
-      <c r="M32" s="23"/>
-      <c r="N32" s="23"/>
-      <c r="O32" s="24"/>
-      <c r="P32" s="24"/>
-      <c r="Q32" s="23"/>
-      <c r="R32" s="23"/>
-      <c r="S32" s="23"/>
-      <c r="T32" s="23"/>
-      <c r="U32" s="23"/>
+      <c r="A32" s="25"/>
+      <c r="B32" s="25"/>
+      <c r="C32" s="26"/>
+      <c r="D32" s="26"/>
+      <c r="E32" s="26"/>
+      <c r="F32" s="26"/>
+      <c r="G32" s="26"/>
+      <c r="H32" s="25"/>
+      <c r="I32" s="25"/>
+      <c r="J32" s="26"/>
+      <c r="K32" s="26"/>
+      <c r="L32" s="26"/>
+      <c r="M32" s="26"/>
+      <c r="N32" s="26"/>
+      <c r="O32" s="27"/>
+      <c r="P32" s="27"/>
+      <c r="Q32" s="26"/>
+      <c r="R32" s="26"/>
+      <c r="S32" s="26"/>
+      <c r="T32" s="26"/>
+      <c r="U32" s="26"/>
     </row>
     <row r="33" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A33" s="22"/>
-      <c r="B33" s="22"/>
-      <c r="C33" s="23"/>
-      <c r="D33" s="23"/>
-      <c r="E33" s="23"/>
-      <c r="F33" s="23"/>
-      <c r="G33" s="23"/>
-      <c r="H33" s="22"/>
-      <c r="I33" s="22"/>
-      <c r="J33" s="23"/>
-      <c r="K33" s="23"/>
-      <c r="L33" s="23"/>
-      <c r="M33" s="23"/>
-      <c r="N33" s="23"/>
-      <c r="O33" s="22"/>
-      <c r="P33" s="22"/>
-      <c r="Q33" s="23"/>
-      <c r="R33" s="23"/>
-      <c r="S33" s="23"/>
-      <c r="T33" s="23"/>
-      <c r="U33" s="23"/>
+      <c r="A33" s="25"/>
+      <c r="B33" s="25"/>
+      <c r="C33" s="26"/>
+      <c r="D33" s="26"/>
+      <c r="E33" s="26"/>
+      <c r="F33" s="26"/>
+      <c r="G33" s="26"/>
+      <c r="H33" s="25"/>
+      <c r="I33" s="25"/>
+      <c r="J33" s="26"/>
+      <c r="K33" s="26"/>
+      <c r="L33" s="26"/>
+      <c r="M33" s="26"/>
+      <c r="N33" s="26"/>
+      <c r="O33" s="25"/>
+      <c r="P33" s="25"/>
+      <c r="Q33" s="26"/>
+      <c r="R33" s="26"/>
+      <c r="S33" s="26"/>
+      <c r="T33" s="26"/>
+      <c r="U33" s="26"/>
     </row>
     <row r="34" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A34" s="30"/>
-      <c r="B34" s="30"/>
-      <c r="C34" s="31"/>
-      <c r="D34" s="31"/>
-      <c r="E34" s="31"/>
-      <c r="F34" s="31"/>
-      <c r="G34" s="31"/>
-      <c r="H34" s="30"/>
-      <c r="I34" s="30"/>
-      <c r="J34" s="31"/>
-      <c r="K34" s="31"/>
-      <c r="L34" s="31"/>
-      <c r="M34" s="31"/>
-      <c r="N34" s="31"/>
-      <c r="O34" s="30"/>
-      <c r="P34" s="30"/>
-      <c r="Q34" s="31"/>
-      <c r="R34" s="31"/>
-      <c r="S34" s="31"/>
-      <c r="T34" s="31"/>
-      <c r="U34" s="31"/>
+      <c r="A34" s="23"/>
+      <c r="B34" s="23"/>
+      <c r="C34" s="24"/>
+      <c r="D34" s="24"/>
+      <c r="E34" s="24"/>
+      <c r="F34" s="24"/>
+      <c r="G34" s="24"/>
+      <c r="H34" s="23"/>
+      <c r="I34" s="23"/>
+      <c r="J34" s="24"/>
+      <c r="K34" s="24"/>
+      <c r="L34" s="24"/>
+      <c r="M34" s="24"/>
+      <c r="N34" s="24"/>
+      <c r="O34" s="23"/>
+      <c r="P34" s="23"/>
+      <c r="Q34" s="24"/>
+      <c r="R34" s="24"/>
+      <c r="S34" s="24"/>
+      <c r="T34" s="24"/>
+      <c r="U34" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="236">
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="C34:G34"/>
-    <mergeCell ref="H34:I34"/>
-    <mergeCell ref="J34:N34"/>
-    <mergeCell ref="O34:P34"/>
-    <mergeCell ref="Q34:U34"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="C33:G33"/>
-    <mergeCell ref="H33:I33"/>
-    <mergeCell ref="J33:N33"/>
-    <mergeCell ref="O33:P33"/>
-    <mergeCell ref="Q33:U33"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="C32:G32"/>
-    <mergeCell ref="H32:I32"/>
-    <mergeCell ref="J32:N32"/>
-    <mergeCell ref="O32:P32"/>
-    <mergeCell ref="Q32:U32"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="C31:G31"/>
-    <mergeCell ref="H31:I31"/>
-    <mergeCell ref="J31:N31"/>
-    <mergeCell ref="O31:P31"/>
-    <mergeCell ref="Q31:U31"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="C30:G30"/>
-    <mergeCell ref="H30:I30"/>
-    <mergeCell ref="J30:N30"/>
-    <mergeCell ref="O30:P30"/>
-    <mergeCell ref="Q30:U30"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="C29:G29"/>
-    <mergeCell ref="H29:I29"/>
-    <mergeCell ref="J29:N29"/>
-    <mergeCell ref="O29:P29"/>
-    <mergeCell ref="Q29:U29"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="C28:G28"/>
-    <mergeCell ref="H28:I28"/>
-    <mergeCell ref="J28:N28"/>
-    <mergeCell ref="O28:P28"/>
-    <mergeCell ref="Q28:U28"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="C27:G27"/>
-    <mergeCell ref="H27:I27"/>
-    <mergeCell ref="J27:N27"/>
-    <mergeCell ref="O27:P27"/>
-    <mergeCell ref="Q27:U27"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="C26:G26"/>
-    <mergeCell ref="H26:I26"/>
-    <mergeCell ref="J26:N26"/>
-    <mergeCell ref="O26:P26"/>
-    <mergeCell ref="Q26:U26"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="C25:G25"/>
-    <mergeCell ref="H25:I25"/>
-    <mergeCell ref="J25:N25"/>
-    <mergeCell ref="O25:P25"/>
-    <mergeCell ref="Q25:U25"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="C24:G24"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="J24:N24"/>
-    <mergeCell ref="O24:P24"/>
-    <mergeCell ref="Q24:U24"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="C23:G23"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="J23:N23"/>
-    <mergeCell ref="O23:P23"/>
-    <mergeCell ref="Q23:U23"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="C22:G22"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="J22:N22"/>
-    <mergeCell ref="V22:W22"/>
-    <mergeCell ref="X22:AB22"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="C21:G21"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="J21:N21"/>
-    <mergeCell ref="V21:W21"/>
-    <mergeCell ref="X21:AB21"/>
-    <mergeCell ref="O21:P21"/>
-    <mergeCell ref="Q21:U21"/>
-    <mergeCell ref="O22:P22"/>
-    <mergeCell ref="Q22:U22"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="C20:G20"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="J20:N20"/>
-    <mergeCell ref="V20:W20"/>
-    <mergeCell ref="X20:AB20"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="C19:G19"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="J19:N19"/>
-    <mergeCell ref="V19:W19"/>
-    <mergeCell ref="X19:AB19"/>
-    <mergeCell ref="O19:P19"/>
-    <mergeCell ref="Q19:U19"/>
-    <mergeCell ref="O20:P20"/>
-    <mergeCell ref="Q20:U20"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C18:G18"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="J18:N18"/>
-    <mergeCell ref="V18:W18"/>
-    <mergeCell ref="X18:AB18"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="C17:G17"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="J17:N17"/>
-    <mergeCell ref="V17:W17"/>
-    <mergeCell ref="X17:AB17"/>
-    <mergeCell ref="O17:P17"/>
-    <mergeCell ref="Q17:U17"/>
-    <mergeCell ref="O18:P18"/>
-    <mergeCell ref="Q18:U18"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="C16:G16"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="J16:N16"/>
-    <mergeCell ref="V16:W16"/>
-    <mergeCell ref="X16:AB16"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="C15:G15"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="J15:N15"/>
-    <mergeCell ref="V15:W15"/>
-    <mergeCell ref="X15:AB15"/>
-    <mergeCell ref="O15:P15"/>
-    <mergeCell ref="Q15:U15"/>
-    <mergeCell ref="O16:P16"/>
-    <mergeCell ref="Q16:U16"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="C14:G14"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="J14:N14"/>
-    <mergeCell ref="V14:W14"/>
-    <mergeCell ref="X14:AB14"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="C13:G13"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="J13:N13"/>
-    <mergeCell ref="V13:W13"/>
-    <mergeCell ref="X13:AB13"/>
-    <mergeCell ref="O13:P13"/>
-    <mergeCell ref="Q13:U13"/>
-    <mergeCell ref="O14:P14"/>
-    <mergeCell ref="Q14:U14"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="C12:G12"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="J12:N12"/>
-    <mergeCell ref="V12:W12"/>
-    <mergeCell ref="X12:AB12"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:G11"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="J11:N11"/>
-    <mergeCell ref="V11:W11"/>
-    <mergeCell ref="X11:AB11"/>
-    <mergeCell ref="O11:P11"/>
-    <mergeCell ref="Q11:U11"/>
-    <mergeCell ref="O12:P12"/>
-    <mergeCell ref="Q12:U12"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="C10:G10"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="J10:N10"/>
-    <mergeCell ref="V10:W10"/>
-    <mergeCell ref="X10:AB10"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="C9:G9"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="J9:N9"/>
-    <mergeCell ref="V9:W9"/>
-    <mergeCell ref="X9:AB9"/>
-    <mergeCell ref="O9:P9"/>
-    <mergeCell ref="Q9:U9"/>
-    <mergeCell ref="O10:P10"/>
-    <mergeCell ref="Q10:U10"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="C8:G8"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="J8:N8"/>
-    <mergeCell ref="V8:W8"/>
-    <mergeCell ref="X8:AB8"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="J7:N7"/>
-    <mergeCell ref="V7:W7"/>
-    <mergeCell ref="X7:AB7"/>
-    <mergeCell ref="O7:P7"/>
-    <mergeCell ref="Q7:U7"/>
-    <mergeCell ref="O8:P8"/>
-    <mergeCell ref="Q8:U8"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="J6:N6"/>
-    <mergeCell ref="V6:W6"/>
-    <mergeCell ref="X6:AB6"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:G5"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="J5:N5"/>
-    <mergeCell ref="V5:W5"/>
-    <mergeCell ref="X5:AB5"/>
-    <mergeCell ref="O5:P5"/>
-    <mergeCell ref="Q5:U5"/>
-    <mergeCell ref="O6:P6"/>
-    <mergeCell ref="Q6:U6"/>
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="C4:G4"/>
     <mergeCell ref="H4:I4"/>
@@ -5554,6 +5338,222 @@
     <mergeCell ref="Q3:U3"/>
     <mergeCell ref="O4:P4"/>
     <mergeCell ref="Q4:U4"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="J6:N6"/>
+    <mergeCell ref="V6:W6"/>
+    <mergeCell ref="X6:AB6"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="J5:N5"/>
+    <mergeCell ref="V5:W5"/>
+    <mergeCell ref="X5:AB5"/>
+    <mergeCell ref="O5:P5"/>
+    <mergeCell ref="Q5:U5"/>
+    <mergeCell ref="O6:P6"/>
+    <mergeCell ref="Q6:U6"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="J8:N8"/>
+    <mergeCell ref="V8:W8"/>
+    <mergeCell ref="X8:AB8"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:N7"/>
+    <mergeCell ref="V7:W7"/>
+    <mergeCell ref="X7:AB7"/>
+    <mergeCell ref="O7:P7"/>
+    <mergeCell ref="Q7:U7"/>
+    <mergeCell ref="O8:P8"/>
+    <mergeCell ref="Q8:U8"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C10:G10"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="J10:N10"/>
+    <mergeCell ref="V10:W10"/>
+    <mergeCell ref="X10:AB10"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:G9"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="J9:N9"/>
+    <mergeCell ref="V9:W9"/>
+    <mergeCell ref="X9:AB9"/>
+    <mergeCell ref="O9:P9"/>
+    <mergeCell ref="Q9:U9"/>
+    <mergeCell ref="O10:P10"/>
+    <mergeCell ref="Q10:U10"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="J12:N12"/>
+    <mergeCell ref="V12:W12"/>
+    <mergeCell ref="X12:AB12"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:G11"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="J11:N11"/>
+    <mergeCell ref="V11:W11"/>
+    <mergeCell ref="X11:AB11"/>
+    <mergeCell ref="O11:P11"/>
+    <mergeCell ref="Q11:U11"/>
+    <mergeCell ref="O12:P12"/>
+    <mergeCell ref="Q12:U12"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C14:G14"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="J14:N14"/>
+    <mergeCell ref="V14:W14"/>
+    <mergeCell ref="X14:AB14"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C13:G13"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="J13:N13"/>
+    <mergeCell ref="V13:W13"/>
+    <mergeCell ref="X13:AB13"/>
+    <mergeCell ref="O13:P13"/>
+    <mergeCell ref="Q13:U13"/>
+    <mergeCell ref="O14:P14"/>
+    <mergeCell ref="Q14:U14"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:G16"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="J16:N16"/>
+    <mergeCell ref="V16:W16"/>
+    <mergeCell ref="X16:AB16"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C15:G15"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="J15:N15"/>
+    <mergeCell ref="V15:W15"/>
+    <mergeCell ref="X15:AB15"/>
+    <mergeCell ref="O15:P15"/>
+    <mergeCell ref="Q15:U15"/>
+    <mergeCell ref="O16:P16"/>
+    <mergeCell ref="Q16:U16"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="J18:N18"/>
+    <mergeCell ref="V18:W18"/>
+    <mergeCell ref="X18:AB18"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C17:G17"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="J17:N17"/>
+    <mergeCell ref="V17:W17"/>
+    <mergeCell ref="X17:AB17"/>
+    <mergeCell ref="O17:P17"/>
+    <mergeCell ref="Q17:U17"/>
+    <mergeCell ref="O18:P18"/>
+    <mergeCell ref="Q18:U18"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="J20:N20"/>
+    <mergeCell ref="V20:W20"/>
+    <mergeCell ref="X20:AB20"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="J19:N19"/>
+    <mergeCell ref="V19:W19"/>
+    <mergeCell ref="X19:AB19"/>
+    <mergeCell ref="O19:P19"/>
+    <mergeCell ref="Q19:U19"/>
+    <mergeCell ref="O20:P20"/>
+    <mergeCell ref="Q20:U20"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="C22:G22"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="J22:N22"/>
+    <mergeCell ref="V22:W22"/>
+    <mergeCell ref="X22:AB22"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="J21:N21"/>
+    <mergeCell ref="V21:W21"/>
+    <mergeCell ref="X21:AB21"/>
+    <mergeCell ref="O21:P21"/>
+    <mergeCell ref="Q21:U21"/>
+    <mergeCell ref="O22:P22"/>
+    <mergeCell ref="Q22:U22"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="C24:G24"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="J24:N24"/>
+    <mergeCell ref="O24:P24"/>
+    <mergeCell ref="Q24:U24"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="C23:G23"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="J23:N23"/>
+    <mergeCell ref="O23:P23"/>
+    <mergeCell ref="Q23:U23"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="C26:G26"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="J26:N26"/>
+    <mergeCell ref="O26:P26"/>
+    <mergeCell ref="Q26:U26"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="C25:G25"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="J25:N25"/>
+    <mergeCell ref="O25:P25"/>
+    <mergeCell ref="Q25:U25"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="C28:G28"/>
+    <mergeCell ref="H28:I28"/>
+    <mergeCell ref="J28:N28"/>
+    <mergeCell ref="O28:P28"/>
+    <mergeCell ref="Q28:U28"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="C27:G27"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="J27:N27"/>
+    <mergeCell ref="O27:P27"/>
+    <mergeCell ref="Q27:U27"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="C30:G30"/>
+    <mergeCell ref="H30:I30"/>
+    <mergeCell ref="J30:N30"/>
+    <mergeCell ref="O30:P30"/>
+    <mergeCell ref="Q30:U30"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="C29:G29"/>
+    <mergeCell ref="H29:I29"/>
+    <mergeCell ref="J29:N29"/>
+    <mergeCell ref="O29:P29"/>
+    <mergeCell ref="Q29:U29"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="C32:G32"/>
+    <mergeCell ref="H32:I32"/>
+    <mergeCell ref="J32:N32"/>
+    <mergeCell ref="O32:P32"/>
+    <mergeCell ref="Q32:U32"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="C31:G31"/>
+    <mergeCell ref="H31:I31"/>
+    <mergeCell ref="J31:N31"/>
+    <mergeCell ref="O31:P31"/>
+    <mergeCell ref="Q31:U31"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="C34:G34"/>
+    <mergeCell ref="H34:I34"/>
+    <mergeCell ref="J34:N34"/>
+    <mergeCell ref="O34:P34"/>
+    <mergeCell ref="Q34:U34"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="C33:G33"/>
+    <mergeCell ref="H33:I33"/>
+    <mergeCell ref="J33:N33"/>
+    <mergeCell ref="O33:P33"/>
+    <mergeCell ref="Q33:U33"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/plans/todo.xlsx
+++ b/plans/todo.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Edsquid\Documents\Personal Projects\Business\RogueLikeGame\plans\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFC1159C-A320-4922-8CF4-35319D865F53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AD6DCAE-814F-4867-A35F-86D1AB33CB5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="7170" windowHeight="15585" xr2:uid="{BA1E511D-BF64-4842-98DF-72E30276ED1C}"/>
+    <workbookView xWindow="31050" yWindow="2100" windowWidth="21600" windowHeight="11295" xr2:uid="{BA1E511D-BF64-4842-98DF-72E30276ED1C}"/>
   </bookViews>
   <sheets>
     <sheet name="Attributes" sheetId="3" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="226">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="227">
   <si>
     <t>Max Lives</t>
   </si>
@@ -715,6 +715,9 @@
   </si>
   <si>
     <t>Damage Type Resistence (all types)</t>
+  </si>
+  <si>
+    <t>Reload Time</t>
   </si>
 </sst>
 </file>
@@ -1000,12 +1003,6 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1013,12 +1010,6 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1029,6 +1020,18 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1346,8 +1349,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11CE061F-AFA4-4B9D-BFD1-A05915568E6D}">
   <dimension ref="A1:H338"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1888,6 +1891,9 @@
       <c r="G26" s="3"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="3" t="s">
+        <v>226</v>
+      </c>
       <c r="G27" s="3"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
@@ -4249,1075 +4255,1291 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30" t="s">
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26" t="s">
         <v>199</v>
       </c>
-      <c r="I1" s="30"/>
-      <c r="J1" s="30"/>
-      <c r="K1" s="30"/>
-      <c r="L1" s="30"/>
-      <c r="M1" s="30"/>
-      <c r="N1" s="30"/>
-      <c r="O1" s="30" t="s">
+      <c r="I1" s="26"/>
+      <c r="J1" s="26"/>
+      <c r="K1" s="26"/>
+      <c r="L1" s="26"/>
+      <c r="M1" s="26"/>
+      <c r="N1" s="26"/>
+      <c r="O1" s="26" t="s">
         <v>200</v>
       </c>
-      <c r="P1" s="30"/>
-      <c r="Q1" s="30"/>
-      <c r="R1" s="30"/>
-      <c r="S1" s="30"/>
-      <c r="T1" s="30"/>
-      <c r="U1" s="30"/>
-      <c r="V1" s="30" t="s">
+      <c r="P1" s="26"/>
+      <c r="Q1" s="26"/>
+      <c r="R1" s="26"/>
+      <c r="S1" s="26"/>
+      <c r="T1" s="26"/>
+      <c r="U1" s="26"/>
+      <c r="V1" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="W1" s="30"/>
-      <c r="X1" s="30"/>
-      <c r="Y1" s="30"/>
-      <c r="Z1" s="30"/>
-      <c r="AA1" s="30"/>
-      <c r="AB1" s="30"/>
+      <c r="W1" s="26"/>
+      <c r="X1" s="26"/>
+      <c r="Y1" s="26"/>
+      <c r="Z1" s="26"/>
+      <c r="AA1" s="26"/>
+      <c r="AB1" s="26"/>
     </row>
     <row r="2" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="30"/>
-      <c r="B2" s="30"/>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
-      <c r="G2" s="30"/>
-      <c r="H2" s="30"/>
-      <c r="I2" s="30"/>
-      <c r="J2" s="30"/>
-      <c r="K2" s="30"/>
-      <c r="L2" s="30"/>
-      <c r="M2" s="30"/>
-      <c r="N2" s="30"/>
-      <c r="O2" s="30"/>
-      <c r="P2" s="30"/>
-      <c r="Q2" s="30"/>
-      <c r="R2" s="30"/>
-      <c r="S2" s="30"/>
-      <c r="T2" s="30"/>
-      <c r="U2" s="30"/>
-      <c r="V2" s="30"/>
-      <c r="W2" s="30"/>
-      <c r="X2" s="30"/>
-      <c r="Y2" s="30"/>
-      <c r="Z2" s="30"/>
-      <c r="AA2" s="30"/>
-      <c r="AB2" s="30"/>
+      <c r="A2" s="26"/>
+      <c r="B2" s="26"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="26"/>
+      <c r="H2" s="26"/>
+      <c r="I2" s="26"/>
+      <c r="J2" s="26"/>
+      <c r="K2" s="26"/>
+      <c r="L2" s="26"/>
+      <c r="M2" s="26"/>
+      <c r="N2" s="26"/>
+      <c r="O2" s="26"/>
+      <c r="P2" s="26"/>
+      <c r="Q2" s="26"/>
+      <c r="R2" s="26"/>
+      <c r="S2" s="26"/>
+      <c r="T2" s="26"/>
+      <c r="U2" s="26"/>
+      <c r="V2" s="26"/>
+      <c r="W2" s="26"/>
+      <c r="X2" s="26"/>
+      <c r="Y2" s="26"/>
+      <c r="Z2" s="26"/>
+      <c r="AA2" s="26"/>
+      <c r="AB2" s="26"/>
     </row>
     <row r="3" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A3" s="31" t="s">
+      <c r="A3" s="27" t="s">
         <v>34</v>
       </c>
-      <c r="B3" s="31"/>
-      <c r="C3" s="32" t="s">
+      <c r="B3" s="27"/>
+      <c r="C3" s="28" t="s">
         <v>36</v>
       </c>
-      <c r="D3" s="32"/>
-      <c r="E3" s="32"/>
-      <c r="F3" s="32"/>
-      <c r="G3" s="32"/>
-      <c r="H3" s="31" t="s">
+      <c r="D3" s="28"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="28"/>
+      <c r="G3" s="28"/>
+      <c r="H3" s="27" t="s">
         <v>34</v>
       </c>
-      <c r="I3" s="31"/>
-      <c r="J3" s="32" t="s">
+      <c r="I3" s="27"/>
+      <c r="J3" s="28" t="s">
         <v>36</v>
       </c>
-      <c r="K3" s="32"/>
-      <c r="L3" s="32"/>
-      <c r="M3" s="32"/>
-      <c r="N3" s="32"/>
-      <c r="O3" s="31" t="s">
+      <c r="K3" s="28"/>
+      <c r="L3" s="28"/>
+      <c r="M3" s="28"/>
+      <c r="N3" s="28"/>
+      <c r="O3" s="27" t="s">
         <v>34</v>
       </c>
-      <c r="P3" s="31"/>
-      <c r="Q3" s="32" t="s">
+      <c r="P3" s="27"/>
+      <c r="Q3" s="28" t="s">
         <v>36</v>
       </c>
-      <c r="R3" s="32"/>
-      <c r="S3" s="32"/>
-      <c r="T3" s="32"/>
-      <c r="U3" s="32"/>
-      <c r="V3" s="31" t="s">
+      <c r="R3" s="28"/>
+      <c r="S3" s="28"/>
+      <c r="T3" s="28"/>
+      <c r="U3" s="28"/>
+      <c r="V3" s="27" t="s">
         <v>34</v>
       </c>
-      <c r="W3" s="31"/>
-      <c r="X3" s="32" t="s">
+      <c r="W3" s="27"/>
+      <c r="X3" s="28" t="s">
         <v>36</v>
       </c>
-      <c r="Y3" s="32"/>
-      <c r="Z3" s="32"/>
-      <c r="AA3" s="32"/>
-      <c r="AB3" s="32"/>
+      <c r="Y3" s="28"/>
+      <c r="Z3" s="28"/>
+      <c r="AA3" s="28"/>
+      <c r="AB3" s="28"/>
     </row>
     <row r="4" spans="1:28" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="25" t="s">
+      <c r="A4" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="B4" s="25"/>
-      <c r="C4" s="26" t="s">
+      <c r="B4" s="23"/>
+      <c r="C4" s="24" t="s">
         <v>46</v>
       </c>
-      <c r="D4" s="26"/>
-      <c r="E4" s="26"/>
-      <c r="F4" s="26"/>
-      <c r="G4" s="26"/>
-      <c r="H4" s="25" t="s">
+      <c r="D4" s="24"/>
+      <c r="E4" s="24"/>
+      <c r="F4" s="24"/>
+      <c r="G4" s="24"/>
+      <c r="H4" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="I4" s="25"/>
-      <c r="J4" s="26" t="s">
+      <c r="I4" s="23"/>
+      <c r="J4" s="24" t="s">
         <v>48</v>
       </c>
-      <c r="K4" s="26"/>
-      <c r="L4" s="26"/>
-      <c r="M4" s="26"/>
-      <c r="N4" s="26"/>
-      <c r="O4" s="27" t="s">
+      <c r="K4" s="24"/>
+      <c r="L4" s="24"/>
+      <c r="M4" s="24"/>
+      <c r="N4" s="24"/>
+      <c r="O4" s="25" t="s">
         <v>201</v>
       </c>
-      <c r="P4" s="27"/>
-      <c r="Q4" s="26" t="s">
+      <c r="P4" s="25"/>
+      <c r="Q4" s="24" t="s">
         <v>202</v>
       </c>
-      <c r="R4" s="26"/>
-      <c r="S4" s="26"/>
-      <c r="T4" s="26"/>
-      <c r="U4" s="26"/>
-      <c r="V4" s="27" t="s">
+      <c r="R4" s="24"/>
+      <c r="S4" s="24"/>
+      <c r="T4" s="24"/>
+      <c r="U4" s="24"/>
+      <c r="V4" s="25" t="s">
         <v>66</v>
       </c>
-      <c r="W4" s="27"/>
-      <c r="X4" s="26" t="s">
+      <c r="W4" s="25"/>
+      <c r="X4" s="24" t="s">
         <v>65</v>
       </c>
-      <c r="Y4" s="26"/>
-      <c r="Z4" s="26"/>
-      <c r="AA4" s="26"/>
-      <c r="AB4" s="26"/>
+      <c r="Y4" s="24"/>
+      <c r="Z4" s="24"/>
+      <c r="AA4" s="24"/>
+      <c r="AB4" s="24"/>
     </row>
     <row r="5" spans="1:28" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="25" t="s">
+      <c r="A5" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="B5" s="25"/>
-      <c r="C5" s="26" t="s">
+      <c r="B5" s="23"/>
+      <c r="C5" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="D5" s="26"/>
-      <c r="E5" s="26"/>
-      <c r="F5" s="26"/>
-      <c r="G5" s="26"/>
-      <c r="H5" s="25" t="s">
+      <c r="D5" s="24"/>
+      <c r="E5" s="24"/>
+      <c r="F5" s="24"/>
+      <c r="G5" s="24"/>
+      <c r="H5" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="I5" s="25"/>
-      <c r="J5" s="26" t="s">
+      <c r="I5" s="23"/>
+      <c r="J5" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="K5" s="26"/>
-      <c r="L5" s="26"/>
-      <c r="M5" s="26"/>
-      <c r="N5" s="26"/>
-      <c r="O5" s="27" t="s">
+      <c r="K5" s="24"/>
+      <c r="L5" s="24"/>
+      <c r="M5" s="24"/>
+      <c r="N5" s="24"/>
+      <c r="O5" s="25" t="s">
         <v>203</v>
       </c>
-      <c r="P5" s="27"/>
-      <c r="Q5" s="26"/>
-      <c r="R5" s="26"/>
-      <c r="S5" s="26"/>
-      <c r="T5" s="26"/>
-      <c r="U5" s="26"/>
-      <c r="V5" s="27" t="s">
+      <c r="P5" s="25"/>
+      <c r="Q5" s="24"/>
+      <c r="R5" s="24"/>
+      <c r="S5" s="24"/>
+      <c r="T5" s="24"/>
+      <c r="U5" s="24"/>
+      <c r="V5" s="25" t="s">
         <v>67</v>
       </c>
-      <c r="W5" s="27"/>
-      <c r="X5" s="26" t="s">
+      <c r="W5" s="25"/>
+      <c r="X5" s="24" t="s">
         <v>70</v>
       </c>
-      <c r="Y5" s="26"/>
-      <c r="Z5" s="26"/>
-      <c r="AA5" s="26"/>
-      <c r="AB5" s="26"/>
+      <c r="Y5" s="24"/>
+      <c r="Z5" s="24"/>
+      <c r="AA5" s="24"/>
+      <c r="AB5" s="24"/>
     </row>
     <row r="6" spans="1:28" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="25" t="s">
+      <c r="A6" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="B6" s="25"/>
-      <c r="C6" s="26" t="s">
+      <c r="B6" s="23"/>
+      <c r="C6" s="24" t="s">
         <v>56</v>
       </c>
-      <c r="D6" s="26"/>
-      <c r="E6" s="26"/>
-      <c r="F6" s="26"/>
-      <c r="G6" s="26"/>
-      <c r="H6" s="25" t="s">
+      <c r="D6" s="24"/>
+      <c r="E6" s="24"/>
+      <c r="F6" s="24"/>
+      <c r="G6" s="24"/>
+      <c r="H6" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="I6" s="25"/>
-      <c r="J6" s="26" t="s">
+      <c r="I6" s="23"/>
+      <c r="J6" s="24" t="s">
         <v>51</v>
       </c>
-      <c r="K6" s="26"/>
-      <c r="L6" s="26"/>
-      <c r="M6" s="26"/>
-      <c r="N6" s="26"/>
-      <c r="O6" s="27" t="s">
+      <c r="K6" s="24"/>
+      <c r="L6" s="24"/>
+      <c r="M6" s="24"/>
+      <c r="N6" s="24"/>
+      <c r="O6" s="25" t="s">
         <v>204</v>
       </c>
-      <c r="P6" s="27"/>
-      <c r="Q6" s="26"/>
-      <c r="R6" s="26"/>
-      <c r="S6" s="26"/>
-      <c r="T6" s="26"/>
-      <c r="U6" s="26"/>
-      <c r="V6" s="27" t="s">
+      <c r="P6" s="25"/>
+      <c r="Q6" s="24"/>
+      <c r="R6" s="24"/>
+      <c r="S6" s="24"/>
+      <c r="T6" s="24"/>
+      <c r="U6" s="24"/>
+      <c r="V6" s="25" t="s">
         <v>68</v>
       </c>
-      <c r="W6" s="27"/>
-      <c r="X6" s="26" t="s">
+      <c r="W6" s="25"/>
+      <c r="X6" s="24" t="s">
         <v>69</v>
       </c>
-      <c r="Y6" s="26"/>
-      <c r="Z6" s="26"/>
-      <c r="AA6" s="26"/>
-      <c r="AB6" s="26"/>
+      <c r="Y6" s="24"/>
+      <c r="Z6" s="24"/>
+      <c r="AA6" s="24"/>
+      <c r="AB6" s="24"/>
     </row>
     <row r="7" spans="1:28" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="25" t="s">
+      <c r="A7" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="B7" s="25"/>
-      <c r="C7" s="26" t="s">
+      <c r="B7" s="23"/>
+      <c r="C7" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="D7" s="26"/>
-      <c r="E7" s="26"/>
-      <c r="F7" s="26"/>
-      <c r="G7" s="26"/>
-      <c r="H7" s="25" t="s">
+      <c r="D7" s="24"/>
+      <c r="E7" s="24"/>
+      <c r="F7" s="24"/>
+      <c r="G7" s="24"/>
+      <c r="H7" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="I7" s="25"/>
-      <c r="J7" s="26" t="s">
+      <c r="I7" s="23"/>
+      <c r="J7" s="24" t="s">
         <v>54</v>
       </c>
-      <c r="K7" s="26"/>
-      <c r="L7" s="26"/>
-      <c r="M7" s="26"/>
-      <c r="N7" s="26"/>
-      <c r="O7" s="27" t="s">
+      <c r="K7" s="24"/>
+      <c r="L7" s="24"/>
+      <c r="M7" s="24"/>
+      <c r="N7" s="24"/>
+      <c r="O7" s="25" t="s">
         <v>205</v>
       </c>
-      <c r="P7" s="27"/>
-      <c r="Q7" s="26"/>
-      <c r="R7" s="26"/>
-      <c r="S7" s="26"/>
-      <c r="T7" s="26"/>
-      <c r="U7" s="26"/>
-      <c r="V7" s="27" t="s">
+      <c r="P7" s="25"/>
+      <c r="Q7" s="24"/>
+      <c r="R7" s="24"/>
+      <c r="S7" s="24"/>
+      <c r="T7" s="24"/>
+      <c r="U7" s="24"/>
+      <c r="V7" s="25" t="s">
         <v>71</v>
       </c>
-      <c r="W7" s="27"/>
-      <c r="X7" s="26" t="s">
+      <c r="W7" s="25"/>
+      <c r="X7" s="24" t="s">
         <v>72</v>
       </c>
-      <c r="Y7" s="26"/>
-      <c r="Z7" s="26"/>
-      <c r="AA7" s="26"/>
-      <c r="AB7" s="26"/>
+      <c r="Y7" s="24"/>
+      <c r="Z7" s="24"/>
+      <c r="AA7" s="24"/>
+      <c r="AB7" s="24"/>
     </row>
     <row r="8" spans="1:28" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="25" t="s">
+      <c r="A8" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="B8" s="25"/>
-      <c r="C8" s="26" t="s">
+      <c r="B8" s="23"/>
+      <c r="C8" s="24" t="s">
         <v>58</v>
       </c>
-      <c r="D8" s="26"/>
-      <c r="E8" s="26"/>
-      <c r="F8" s="26"/>
-      <c r="G8" s="26"/>
-      <c r="H8" s="28" t="s">
+      <c r="D8" s="24"/>
+      <c r="E8" s="24"/>
+      <c r="F8" s="24"/>
+      <c r="G8" s="24"/>
+      <c r="H8" s="29" t="s">
         <v>55</v>
       </c>
-      <c r="I8" s="28"/>
-      <c r="J8" s="29" t="s">
+      <c r="I8" s="29"/>
+      <c r="J8" s="30" t="s">
         <v>54</v>
       </c>
-      <c r="K8" s="29"/>
-      <c r="L8" s="29"/>
-      <c r="M8" s="29"/>
-      <c r="N8" s="29"/>
-      <c r="O8" s="27" t="s">
+      <c r="K8" s="30"/>
+      <c r="L8" s="30"/>
+      <c r="M8" s="30"/>
+      <c r="N8" s="30"/>
+      <c r="O8" s="25" t="s">
         <v>206</v>
       </c>
-      <c r="P8" s="27"/>
-      <c r="Q8" s="26" t="s">
+      <c r="P8" s="25"/>
+      <c r="Q8" s="24" t="s">
         <v>207</v>
       </c>
-      <c r="R8" s="26"/>
-      <c r="S8" s="26"/>
-      <c r="T8" s="26"/>
-      <c r="U8" s="26"/>
-      <c r="V8" s="27" t="s">
+      <c r="R8" s="24"/>
+      <c r="S8" s="24"/>
+      <c r="T8" s="24"/>
+      <c r="U8" s="24"/>
+      <c r="V8" s="25" t="s">
         <v>73</v>
       </c>
-      <c r="W8" s="27"/>
-      <c r="X8" s="26" t="s">
+      <c r="W8" s="25"/>
+      <c r="X8" s="24" t="s">
         <v>65</v>
       </c>
-      <c r="Y8" s="26"/>
-      <c r="Z8" s="26"/>
-      <c r="AA8" s="26"/>
-      <c r="AB8" s="26"/>
+      <c r="Y8" s="24"/>
+      <c r="Z8" s="24"/>
+      <c r="AA8" s="24"/>
+      <c r="AB8" s="24"/>
     </row>
     <row r="9" spans="1:28" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="25" t="s">
+      <c r="A9" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="B9" s="25"/>
-      <c r="C9" s="26" t="s">
+      <c r="B9" s="23"/>
+      <c r="C9" s="24" t="s">
         <v>59</v>
       </c>
-      <c r="D9" s="26"/>
-      <c r="E9" s="26"/>
-      <c r="F9" s="26"/>
-      <c r="G9" s="26"/>
-      <c r="H9" s="25" t="s">
+      <c r="D9" s="24"/>
+      <c r="E9" s="24"/>
+      <c r="F9" s="24"/>
+      <c r="G9" s="24"/>
+      <c r="H9" s="23" t="s">
         <v>82</v>
       </c>
-      <c r="I9" s="25"/>
-      <c r="J9" s="26" t="s">
+      <c r="I9" s="23"/>
+      <c r="J9" s="24" t="s">
         <v>60</v>
       </c>
-      <c r="K9" s="26"/>
-      <c r="L9" s="26"/>
-      <c r="M9" s="26"/>
-      <c r="N9" s="26"/>
-      <c r="O9" s="27"/>
-      <c r="P9" s="27"/>
-      <c r="Q9" s="26"/>
-      <c r="R9" s="26"/>
-      <c r="S9" s="26"/>
-      <c r="T9" s="26"/>
-      <c r="U9" s="26"/>
-      <c r="V9" s="27" t="s">
+      <c r="K9" s="24"/>
+      <c r="L9" s="24"/>
+      <c r="M9" s="24"/>
+      <c r="N9" s="24"/>
+      <c r="O9" s="25"/>
+      <c r="P9" s="25"/>
+      <c r="Q9" s="24"/>
+      <c r="R9" s="24"/>
+      <c r="S9" s="24"/>
+      <c r="T9" s="24"/>
+      <c r="U9" s="24"/>
+      <c r="V9" s="25" t="s">
         <v>74</v>
       </c>
-      <c r="W9" s="27"/>
-      <c r="X9" s="26" t="s">
+      <c r="W9" s="25"/>
+      <c r="X9" s="24" t="s">
         <v>75</v>
       </c>
-      <c r="Y9" s="26"/>
-      <c r="Z9" s="26"/>
-      <c r="AA9" s="26"/>
-      <c r="AB9" s="26"/>
+      <c r="Y9" s="24"/>
+      <c r="Z9" s="24"/>
+      <c r="AA9" s="24"/>
+      <c r="AB9" s="24"/>
     </row>
     <row r="10" spans="1:28" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="25" t="s">
+      <c r="A10" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="B10" s="25"/>
-      <c r="C10" s="26" t="s">
+      <c r="B10" s="23"/>
+      <c r="C10" s="24" t="s">
         <v>57</v>
       </c>
-      <c r="D10" s="26"/>
-      <c r="E10" s="26"/>
-      <c r="F10" s="26"/>
-      <c r="G10" s="26"/>
-      <c r="H10" s="25" t="s">
+      <c r="D10" s="24"/>
+      <c r="E10" s="24"/>
+      <c r="F10" s="24"/>
+      <c r="G10" s="24"/>
+      <c r="H10" s="23" t="s">
         <v>61</v>
       </c>
-      <c r="I10" s="25"/>
-      <c r="J10" s="26" t="s">
+      <c r="I10" s="23"/>
+      <c r="J10" s="24" t="s">
         <v>62</v>
       </c>
-      <c r="K10" s="26"/>
-      <c r="L10" s="26"/>
-      <c r="M10" s="26"/>
-      <c r="N10" s="26"/>
-      <c r="O10" s="27"/>
-      <c r="P10" s="27"/>
-      <c r="Q10" s="26"/>
-      <c r="R10" s="26"/>
-      <c r="S10" s="26"/>
-      <c r="T10" s="26"/>
-      <c r="U10" s="26"/>
-      <c r="V10" s="27" t="s">
+      <c r="K10" s="24"/>
+      <c r="L10" s="24"/>
+      <c r="M10" s="24"/>
+      <c r="N10" s="24"/>
+      <c r="O10" s="25"/>
+      <c r="P10" s="25"/>
+      <c r="Q10" s="24"/>
+      <c r="R10" s="24"/>
+      <c r="S10" s="24"/>
+      <c r="T10" s="24"/>
+      <c r="U10" s="24"/>
+      <c r="V10" s="25" t="s">
         <v>77</v>
       </c>
-      <c r="W10" s="27"/>
-      <c r="X10" s="26" t="s">
+      <c r="W10" s="25"/>
+      <c r="X10" s="24" t="s">
         <v>78</v>
       </c>
-      <c r="Y10" s="26"/>
-      <c r="Z10" s="26"/>
-      <c r="AA10" s="26"/>
-      <c r="AB10" s="26"/>
+      <c r="Y10" s="24"/>
+      <c r="Z10" s="24"/>
+      <c r="AA10" s="24"/>
+      <c r="AB10" s="24"/>
     </row>
     <row r="11" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A11" s="25"/>
-      <c r="B11" s="25"/>
-      <c r="C11" s="26"/>
-      <c r="D11" s="26"/>
-      <c r="E11" s="26"/>
-      <c r="F11" s="26"/>
-      <c r="G11" s="26"/>
-      <c r="H11" s="25" t="s">
+      <c r="A11" s="23"/>
+      <c r="B11" s="23"/>
+      <c r="C11" s="24"/>
+      <c r="D11" s="24"/>
+      <c r="E11" s="24"/>
+      <c r="F11" s="24"/>
+      <c r="G11" s="24"/>
+      <c r="H11" s="23" t="s">
         <v>63</v>
       </c>
-      <c r="I11" s="25"/>
-      <c r="J11" s="26" t="s">
+      <c r="I11" s="23"/>
+      <c r="J11" s="24" t="s">
         <v>64</v>
       </c>
-      <c r="K11" s="26"/>
-      <c r="L11" s="26"/>
-      <c r="M11" s="26"/>
-      <c r="N11" s="26"/>
-      <c r="O11" s="27"/>
-      <c r="P11" s="27"/>
-      <c r="Q11" s="26"/>
-      <c r="R11" s="26"/>
-      <c r="S11" s="26"/>
-      <c r="T11" s="26"/>
-      <c r="U11" s="26"/>
-      <c r="V11" s="27" t="s">
+      <c r="K11" s="24"/>
+      <c r="L11" s="24"/>
+      <c r="M11" s="24"/>
+      <c r="N11" s="24"/>
+      <c r="O11" s="25"/>
+      <c r="P11" s="25"/>
+      <c r="Q11" s="24"/>
+      <c r="R11" s="24"/>
+      <c r="S11" s="24"/>
+      <c r="T11" s="24"/>
+      <c r="U11" s="24"/>
+      <c r="V11" s="25" t="s">
         <v>79</v>
       </c>
-      <c r="W11" s="27"/>
-      <c r="X11" s="26" t="s">
+      <c r="W11" s="25"/>
+      <c r="X11" s="24" t="s">
         <v>80</v>
       </c>
-      <c r="Y11" s="26"/>
-      <c r="Z11" s="26"/>
-      <c r="AA11" s="26"/>
-      <c r="AB11" s="26"/>
+      <c r="Y11" s="24"/>
+      <c r="Z11" s="24"/>
+      <c r="AA11" s="24"/>
+      <c r="AB11" s="24"/>
     </row>
     <row r="12" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A12" s="25"/>
-      <c r="B12" s="25"/>
-      <c r="C12" s="26"/>
-      <c r="D12" s="26"/>
-      <c r="E12" s="26"/>
-      <c r="F12" s="26"/>
-      <c r="G12" s="26"/>
-      <c r="H12" s="25" t="s">
+      <c r="A12" s="23"/>
+      <c r="B12" s="23"/>
+      <c r="C12" s="24"/>
+      <c r="D12" s="24"/>
+      <c r="E12" s="24"/>
+      <c r="F12" s="24"/>
+      <c r="G12" s="24"/>
+      <c r="H12" s="23" t="s">
         <v>81</v>
       </c>
-      <c r="I12" s="25"/>
-      <c r="J12" s="26"/>
-      <c r="K12" s="26"/>
-      <c r="L12" s="26"/>
-      <c r="M12" s="26"/>
-      <c r="N12" s="26"/>
-      <c r="O12" s="27"/>
-      <c r="P12" s="27"/>
-      <c r="Q12" s="26"/>
-      <c r="R12" s="26"/>
-      <c r="S12" s="26"/>
-      <c r="T12" s="26"/>
-      <c r="U12" s="26"/>
-      <c r="V12" s="27"/>
-      <c r="W12" s="27"/>
-      <c r="X12" s="26"/>
-      <c r="Y12" s="26"/>
-      <c r="Z12" s="26"/>
-      <c r="AA12" s="26"/>
-      <c r="AB12" s="26"/>
+      <c r="I12" s="23"/>
+      <c r="J12" s="24"/>
+      <c r="K12" s="24"/>
+      <c r="L12" s="24"/>
+      <c r="M12" s="24"/>
+      <c r="N12" s="24"/>
+      <c r="O12" s="25"/>
+      <c r="P12" s="25"/>
+      <c r="Q12" s="24"/>
+      <c r="R12" s="24"/>
+      <c r="S12" s="24"/>
+      <c r="T12" s="24"/>
+      <c r="U12" s="24"/>
+      <c r="V12" s="25"/>
+      <c r="W12" s="25"/>
+      <c r="X12" s="24"/>
+      <c r="Y12" s="24"/>
+      <c r="Z12" s="24"/>
+      <c r="AA12" s="24"/>
+      <c r="AB12" s="24"/>
     </row>
     <row r="13" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A13" s="25"/>
-      <c r="B13" s="25"/>
-      <c r="C13" s="26"/>
-      <c r="D13" s="26"/>
-      <c r="E13" s="26"/>
-      <c r="F13" s="26"/>
-      <c r="G13" s="26"/>
-      <c r="H13" s="25"/>
-      <c r="I13" s="25"/>
-      <c r="J13" s="26"/>
-      <c r="K13" s="26"/>
-      <c r="L13" s="26"/>
-      <c r="M13" s="26"/>
-      <c r="N13" s="26"/>
-      <c r="O13" s="27"/>
-      <c r="P13" s="27"/>
-      <c r="Q13" s="26"/>
-      <c r="R13" s="26"/>
-      <c r="S13" s="26"/>
-      <c r="T13" s="26"/>
-      <c r="U13" s="26"/>
-      <c r="V13" s="27"/>
-      <c r="W13" s="27"/>
-      <c r="X13" s="26"/>
-      <c r="Y13" s="26"/>
-      <c r="Z13" s="26"/>
-      <c r="AA13" s="26"/>
-      <c r="AB13" s="26"/>
+      <c r="A13" s="23"/>
+      <c r="B13" s="23"/>
+      <c r="C13" s="24"/>
+      <c r="D13" s="24"/>
+      <c r="E13" s="24"/>
+      <c r="F13" s="24"/>
+      <c r="G13" s="24"/>
+      <c r="H13" s="23"/>
+      <c r="I13" s="23"/>
+      <c r="J13" s="24"/>
+      <c r="K13" s="24"/>
+      <c r="L13" s="24"/>
+      <c r="M13" s="24"/>
+      <c r="N13" s="24"/>
+      <c r="O13" s="25"/>
+      <c r="P13" s="25"/>
+      <c r="Q13" s="24"/>
+      <c r="R13" s="24"/>
+      <c r="S13" s="24"/>
+      <c r="T13" s="24"/>
+      <c r="U13" s="24"/>
+      <c r="V13" s="25"/>
+      <c r="W13" s="25"/>
+      <c r="X13" s="24"/>
+      <c r="Y13" s="24"/>
+      <c r="Z13" s="24"/>
+      <c r="AA13" s="24"/>
+      <c r="AB13" s="24"/>
     </row>
     <row r="14" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A14" s="25"/>
-      <c r="B14" s="25"/>
-      <c r="C14" s="26"/>
-      <c r="D14" s="26"/>
-      <c r="E14" s="26"/>
-      <c r="F14" s="26"/>
-      <c r="G14" s="26"/>
-      <c r="H14" s="25"/>
-      <c r="I14" s="25"/>
-      <c r="J14" s="26"/>
-      <c r="K14" s="26"/>
-      <c r="L14" s="26"/>
-      <c r="M14" s="26"/>
-      <c r="N14" s="26"/>
-      <c r="O14" s="27"/>
-      <c r="P14" s="27"/>
-      <c r="Q14" s="26"/>
-      <c r="R14" s="26"/>
-      <c r="S14" s="26"/>
-      <c r="T14" s="26"/>
-      <c r="U14" s="26"/>
-      <c r="V14" s="27"/>
-      <c r="W14" s="27"/>
-      <c r="X14" s="26"/>
-      <c r="Y14" s="26"/>
-      <c r="Z14" s="26"/>
-      <c r="AA14" s="26"/>
-      <c r="AB14" s="26"/>
+      <c r="A14" s="23"/>
+      <c r="B14" s="23"/>
+      <c r="C14" s="24"/>
+      <c r="D14" s="24"/>
+      <c r="E14" s="24"/>
+      <c r="F14" s="24"/>
+      <c r="G14" s="24"/>
+      <c r="H14" s="23"/>
+      <c r="I14" s="23"/>
+      <c r="J14" s="24"/>
+      <c r="K14" s="24"/>
+      <c r="L14" s="24"/>
+      <c r="M14" s="24"/>
+      <c r="N14" s="24"/>
+      <c r="O14" s="25"/>
+      <c r="P14" s="25"/>
+      <c r="Q14" s="24"/>
+      <c r="R14" s="24"/>
+      <c r="S14" s="24"/>
+      <c r="T14" s="24"/>
+      <c r="U14" s="24"/>
+      <c r="V14" s="25"/>
+      <c r="W14" s="25"/>
+      <c r="X14" s="24"/>
+      <c r="Y14" s="24"/>
+      <c r="Z14" s="24"/>
+      <c r="AA14" s="24"/>
+      <c r="AB14" s="24"/>
     </row>
     <row r="15" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A15" s="25"/>
-      <c r="B15" s="25"/>
-      <c r="C15" s="26"/>
-      <c r="D15" s="26"/>
-      <c r="E15" s="26"/>
-      <c r="F15" s="26"/>
-      <c r="G15" s="26"/>
-      <c r="H15" s="25"/>
-      <c r="I15" s="25"/>
-      <c r="J15" s="26"/>
-      <c r="K15" s="26"/>
-      <c r="L15" s="26"/>
-      <c r="M15" s="26"/>
-      <c r="N15" s="26"/>
-      <c r="O15" s="27"/>
-      <c r="P15" s="27"/>
-      <c r="Q15" s="26"/>
-      <c r="R15" s="26"/>
-      <c r="S15" s="26"/>
-      <c r="T15" s="26"/>
-      <c r="U15" s="26"/>
-      <c r="V15" s="27"/>
-      <c r="W15" s="27"/>
-      <c r="X15" s="26"/>
-      <c r="Y15" s="26"/>
-      <c r="Z15" s="26"/>
-      <c r="AA15" s="26"/>
-      <c r="AB15" s="26"/>
+      <c r="A15" s="23"/>
+      <c r="B15" s="23"/>
+      <c r="C15" s="24"/>
+      <c r="D15" s="24"/>
+      <c r="E15" s="24"/>
+      <c r="F15" s="24"/>
+      <c r="G15" s="24"/>
+      <c r="H15" s="23"/>
+      <c r="I15" s="23"/>
+      <c r="J15" s="24"/>
+      <c r="K15" s="24"/>
+      <c r="L15" s="24"/>
+      <c r="M15" s="24"/>
+      <c r="N15" s="24"/>
+      <c r="O15" s="25"/>
+      <c r="P15" s="25"/>
+      <c r="Q15" s="24"/>
+      <c r="R15" s="24"/>
+      <c r="S15" s="24"/>
+      <c r="T15" s="24"/>
+      <c r="U15" s="24"/>
+      <c r="V15" s="25"/>
+      <c r="W15" s="25"/>
+      <c r="X15" s="24"/>
+      <c r="Y15" s="24"/>
+      <c r="Z15" s="24"/>
+      <c r="AA15" s="24"/>
+      <c r="AB15" s="24"/>
     </row>
     <row r="16" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A16" s="25"/>
-      <c r="B16" s="25"/>
-      <c r="C16" s="26"/>
-      <c r="D16" s="26"/>
-      <c r="E16" s="26"/>
-      <c r="F16" s="26"/>
-      <c r="G16" s="26"/>
-      <c r="H16" s="25"/>
-      <c r="I16" s="25"/>
-      <c r="J16" s="26"/>
-      <c r="K16" s="26"/>
-      <c r="L16" s="26"/>
-      <c r="M16" s="26"/>
-      <c r="N16" s="26"/>
-      <c r="O16" s="27"/>
-      <c r="P16" s="27"/>
-      <c r="Q16" s="26"/>
-      <c r="R16" s="26"/>
-      <c r="S16" s="26"/>
-      <c r="T16" s="26"/>
-      <c r="U16" s="26"/>
-      <c r="V16" s="27"/>
-      <c r="W16" s="27"/>
-      <c r="X16" s="26"/>
-      <c r="Y16" s="26"/>
-      <c r="Z16" s="26"/>
-      <c r="AA16" s="26"/>
-      <c r="AB16" s="26"/>
+      <c r="A16" s="23"/>
+      <c r="B16" s="23"/>
+      <c r="C16" s="24"/>
+      <c r="D16" s="24"/>
+      <c r="E16" s="24"/>
+      <c r="F16" s="24"/>
+      <c r="G16" s="24"/>
+      <c r="H16" s="23"/>
+      <c r="I16" s="23"/>
+      <c r="J16" s="24"/>
+      <c r="K16" s="24"/>
+      <c r="L16" s="24"/>
+      <c r="M16" s="24"/>
+      <c r="N16" s="24"/>
+      <c r="O16" s="25"/>
+      <c r="P16" s="25"/>
+      <c r="Q16" s="24"/>
+      <c r="R16" s="24"/>
+      <c r="S16" s="24"/>
+      <c r="T16" s="24"/>
+      <c r="U16" s="24"/>
+      <c r="V16" s="25"/>
+      <c r="W16" s="25"/>
+      <c r="X16" s="24"/>
+      <c r="Y16" s="24"/>
+      <c r="Z16" s="24"/>
+      <c r="AA16" s="24"/>
+      <c r="AB16" s="24"/>
     </row>
     <row r="17" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A17" s="25"/>
-      <c r="B17" s="25"/>
-      <c r="C17" s="26"/>
-      <c r="D17" s="26"/>
-      <c r="E17" s="26"/>
-      <c r="F17" s="26"/>
-      <c r="G17" s="26"/>
-      <c r="H17" s="25"/>
-      <c r="I17" s="25"/>
-      <c r="J17" s="26"/>
-      <c r="K17" s="26"/>
-      <c r="L17" s="26"/>
-      <c r="M17" s="26"/>
-      <c r="N17" s="26"/>
-      <c r="O17" s="27"/>
-      <c r="P17" s="27"/>
-      <c r="Q17" s="26"/>
-      <c r="R17" s="26"/>
-      <c r="S17" s="26"/>
-      <c r="T17" s="26"/>
-      <c r="U17" s="26"/>
-      <c r="V17" s="27"/>
-      <c r="W17" s="27"/>
-      <c r="X17" s="26"/>
-      <c r="Y17" s="26"/>
-      <c r="Z17" s="26"/>
-      <c r="AA17" s="26"/>
-      <c r="AB17" s="26"/>
+      <c r="A17" s="23"/>
+      <c r="B17" s="23"/>
+      <c r="C17" s="24"/>
+      <c r="D17" s="24"/>
+      <c r="E17" s="24"/>
+      <c r="F17" s="24"/>
+      <c r="G17" s="24"/>
+      <c r="H17" s="23"/>
+      <c r="I17" s="23"/>
+      <c r="J17" s="24"/>
+      <c r="K17" s="24"/>
+      <c r="L17" s="24"/>
+      <c r="M17" s="24"/>
+      <c r="N17" s="24"/>
+      <c r="O17" s="25"/>
+      <c r="P17" s="25"/>
+      <c r="Q17" s="24"/>
+      <c r="R17" s="24"/>
+      <c r="S17" s="24"/>
+      <c r="T17" s="24"/>
+      <c r="U17" s="24"/>
+      <c r="V17" s="25"/>
+      <c r="W17" s="25"/>
+      <c r="X17" s="24"/>
+      <c r="Y17" s="24"/>
+      <c r="Z17" s="24"/>
+      <c r="AA17" s="24"/>
+      <c r="AB17" s="24"/>
     </row>
     <row r="18" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A18" s="25"/>
-      <c r="B18" s="25"/>
-      <c r="C18" s="26"/>
-      <c r="D18" s="26"/>
-      <c r="E18" s="26"/>
-      <c r="F18" s="26"/>
-      <c r="G18" s="26"/>
-      <c r="H18" s="25"/>
-      <c r="I18" s="25"/>
-      <c r="J18" s="26"/>
-      <c r="K18" s="26"/>
-      <c r="L18" s="26"/>
-      <c r="M18" s="26"/>
-      <c r="N18" s="26"/>
-      <c r="O18" s="27"/>
-      <c r="P18" s="27"/>
-      <c r="Q18" s="26"/>
-      <c r="R18" s="26"/>
-      <c r="S18" s="26"/>
-      <c r="T18" s="26"/>
-      <c r="U18" s="26"/>
-      <c r="V18" s="27"/>
-      <c r="W18" s="27"/>
-      <c r="X18" s="26"/>
-      <c r="Y18" s="26"/>
-      <c r="Z18" s="26"/>
-      <c r="AA18" s="26"/>
-      <c r="AB18" s="26"/>
+      <c r="A18" s="23"/>
+      <c r="B18" s="23"/>
+      <c r="C18" s="24"/>
+      <c r="D18" s="24"/>
+      <c r="E18" s="24"/>
+      <c r="F18" s="24"/>
+      <c r="G18" s="24"/>
+      <c r="H18" s="23"/>
+      <c r="I18" s="23"/>
+      <c r="J18" s="24"/>
+      <c r="K18" s="24"/>
+      <c r="L18" s="24"/>
+      <c r="M18" s="24"/>
+      <c r="N18" s="24"/>
+      <c r="O18" s="25"/>
+      <c r="P18" s="25"/>
+      <c r="Q18" s="24"/>
+      <c r="R18" s="24"/>
+      <c r="S18" s="24"/>
+      <c r="T18" s="24"/>
+      <c r="U18" s="24"/>
+      <c r="V18" s="25"/>
+      <c r="W18" s="25"/>
+      <c r="X18" s="24"/>
+      <c r="Y18" s="24"/>
+      <c r="Z18" s="24"/>
+      <c r="AA18" s="24"/>
+      <c r="AB18" s="24"/>
     </row>
     <row r="19" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A19" s="25"/>
-      <c r="B19" s="25"/>
-      <c r="C19" s="26"/>
-      <c r="D19" s="26"/>
-      <c r="E19" s="26"/>
-      <c r="F19" s="26"/>
-      <c r="G19" s="26"/>
-      <c r="H19" s="25"/>
-      <c r="I19" s="25"/>
-      <c r="J19" s="26"/>
-      <c r="K19" s="26"/>
-      <c r="L19" s="26"/>
-      <c r="M19" s="26"/>
-      <c r="N19" s="26"/>
-      <c r="O19" s="27"/>
-      <c r="P19" s="27"/>
-      <c r="Q19" s="26"/>
-      <c r="R19" s="26"/>
-      <c r="S19" s="26"/>
-      <c r="T19" s="26"/>
-      <c r="U19" s="26"/>
-      <c r="V19" s="27"/>
-      <c r="W19" s="27"/>
-      <c r="X19" s="26"/>
-      <c r="Y19" s="26"/>
-      <c r="Z19" s="26"/>
-      <c r="AA19" s="26"/>
-      <c r="AB19" s="26"/>
+      <c r="A19" s="23"/>
+      <c r="B19" s="23"/>
+      <c r="C19" s="24"/>
+      <c r="D19" s="24"/>
+      <c r="E19" s="24"/>
+      <c r="F19" s="24"/>
+      <c r="G19" s="24"/>
+      <c r="H19" s="23"/>
+      <c r="I19" s="23"/>
+      <c r="J19" s="24"/>
+      <c r="K19" s="24"/>
+      <c r="L19" s="24"/>
+      <c r="M19" s="24"/>
+      <c r="N19" s="24"/>
+      <c r="O19" s="25"/>
+      <c r="P19" s="25"/>
+      <c r="Q19" s="24"/>
+      <c r="R19" s="24"/>
+      <c r="S19" s="24"/>
+      <c r="T19" s="24"/>
+      <c r="U19" s="24"/>
+      <c r="V19" s="25"/>
+      <c r="W19" s="25"/>
+      <c r="X19" s="24"/>
+      <c r="Y19" s="24"/>
+      <c r="Z19" s="24"/>
+      <c r="AA19" s="24"/>
+      <c r="AB19" s="24"/>
     </row>
     <row r="20" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A20" s="25"/>
-      <c r="B20" s="25"/>
-      <c r="C20" s="26"/>
-      <c r="D20" s="26"/>
-      <c r="E20" s="26"/>
-      <c r="F20" s="26"/>
-      <c r="G20" s="26"/>
-      <c r="H20" s="25"/>
-      <c r="I20" s="25"/>
-      <c r="J20" s="26"/>
-      <c r="K20" s="26"/>
-      <c r="L20" s="26"/>
-      <c r="M20" s="26"/>
-      <c r="N20" s="26"/>
-      <c r="O20" s="27"/>
-      <c r="P20" s="27"/>
-      <c r="Q20" s="26"/>
-      <c r="R20" s="26"/>
-      <c r="S20" s="26"/>
-      <c r="T20" s="26"/>
-      <c r="U20" s="26"/>
-      <c r="V20" s="27"/>
-      <c r="W20" s="27"/>
-      <c r="X20" s="26"/>
-      <c r="Y20" s="26"/>
-      <c r="Z20" s="26"/>
-      <c r="AA20" s="26"/>
-      <c r="AB20" s="26"/>
+      <c r="A20" s="23"/>
+      <c r="B20" s="23"/>
+      <c r="C20" s="24"/>
+      <c r="D20" s="24"/>
+      <c r="E20" s="24"/>
+      <c r="F20" s="24"/>
+      <c r="G20" s="24"/>
+      <c r="H20" s="23"/>
+      <c r="I20" s="23"/>
+      <c r="J20" s="24"/>
+      <c r="K20" s="24"/>
+      <c r="L20" s="24"/>
+      <c r="M20" s="24"/>
+      <c r="N20" s="24"/>
+      <c r="O20" s="25"/>
+      <c r="P20" s="25"/>
+      <c r="Q20" s="24"/>
+      <c r="R20" s="24"/>
+      <c r="S20" s="24"/>
+      <c r="T20" s="24"/>
+      <c r="U20" s="24"/>
+      <c r="V20" s="25"/>
+      <c r="W20" s="25"/>
+      <c r="X20" s="24"/>
+      <c r="Y20" s="24"/>
+      <c r="Z20" s="24"/>
+      <c r="AA20" s="24"/>
+      <c r="AB20" s="24"/>
     </row>
     <row r="21" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A21" s="25"/>
-      <c r="B21" s="25"/>
-      <c r="C21" s="26"/>
-      <c r="D21" s="26"/>
-      <c r="E21" s="26"/>
-      <c r="F21" s="26"/>
-      <c r="G21" s="26"/>
-      <c r="H21" s="25"/>
-      <c r="I21" s="25"/>
-      <c r="J21" s="26"/>
-      <c r="K21" s="26"/>
-      <c r="L21" s="26"/>
-      <c r="M21" s="26"/>
-      <c r="N21" s="26"/>
-      <c r="O21" s="27"/>
-      <c r="P21" s="27"/>
-      <c r="Q21" s="26"/>
-      <c r="R21" s="26"/>
-      <c r="S21" s="26"/>
-      <c r="T21" s="26"/>
-      <c r="U21" s="26"/>
-      <c r="V21" s="27"/>
-      <c r="W21" s="27"/>
-      <c r="X21" s="26"/>
-      <c r="Y21" s="26"/>
-      <c r="Z21" s="26"/>
-      <c r="AA21" s="26"/>
-      <c r="AB21" s="26"/>
+      <c r="A21" s="23"/>
+      <c r="B21" s="23"/>
+      <c r="C21" s="24"/>
+      <c r="D21" s="24"/>
+      <c r="E21" s="24"/>
+      <c r="F21" s="24"/>
+      <c r="G21" s="24"/>
+      <c r="H21" s="23"/>
+      <c r="I21" s="23"/>
+      <c r="J21" s="24"/>
+      <c r="K21" s="24"/>
+      <c r="L21" s="24"/>
+      <c r="M21" s="24"/>
+      <c r="N21" s="24"/>
+      <c r="O21" s="25"/>
+      <c r="P21" s="25"/>
+      <c r="Q21" s="24"/>
+      <c r="R21" s="24"/>
+      <c r="S21" s="24"/>
+      <c r="T21" s="24"/>
+      <c r="U21" s="24"/>
+      <c r="V21" s="25"/>
+      <c r="W21" s="25"/>
+      <c r="X21" s="24"/>
+      <c r="Y21" s="24"/>
+      <c r="Z21" s="24"/>
+      <c r="AA21" s="24"/>
+      <c r="AB21" s="24"/>
     </row>
     <row r="22" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A22" s="25"/>
-      <c r="B22" s="25"/>
-      <c r="C22" s="26"/>
-      <c r="D22" s="26"/>
-      <c r="E22" s="26"/>
-      <c r="F22" s="26"/>
-      <c r="G22" s="26"/>
-      <c r="H22" s="25"/>
-      <c r="I22" s="25"/>
-      <c r="J22" s="26"/>
-      <c r="K22" s="26"/>
-      <c r="L22" s="26"/>
-      <c r="M22" s="26"/>
-      <c r="N22" s="26"/>
-      <c r="O22" s="27"/>
-      <c r="P22" s="27"/>
-      <c r="Q22" s="26"/>
-      <c r="R22" s="26"/>
-      <c r="S22" s="26"/>
-      <c r="T22" s="26"/>
-      <c r="U22" s="26"/>
-      <c r="V22" s="27"/>
-      <c r="W22" s="27"/>
-      <c r="X22" s="26"/>
-      <c r="Y22" s="26"/>
-      <c r="Z22" s="26"/>
-      <c r="AA22" s="26"/>
-      <c r="AB22" s="26"/>
+      <c r="A22" s="23"/>
+      <c r="B22" s="23"/>
+      <c r="C22" s="24"/>
+      <c r="D22" s="24"/>
+      <c r="E22" s="24"/>
+      <c r="F22" s="24"/>
+      <c r="G22" s="24"/>
+      <c r="H22" s="23"/>
+      <c r="I22" s="23"/>
+      <c r="J22" s="24"/>
+      <c r="K22" s="24"/>
+      <c r="L22" s="24"/>
+      <c r="M22" s="24"/>
+      <c r="N22" s="24"/>
+      <c r="O22" s="25"/>
+      <c r="P22" s="25"/>
+      <c r="Q22" s="24"/>
+      <c r="R22" s="24"/>
+      <c r="S22" s="24"/>
+      <c r="T22" s="24"/>
+      <c r="U22" s="24"/>
+      <c r="V22" s="25"/>
+      <c r="W22" s="25"/>
+      <c r="X22" s="24"/>
+      <c r="Y22" s="24"/>
+      <c r="Z22" s="24"/>
+      <c r="AA22" s="24"/>
+      <c r="AB22" s="24"/>
     </row>
     <row r="23" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A23" s="25"/>
-      <c r="B23" s="25"/>
-      <c r="C23" s="26"/>
-      <c r="D23" s="26"/>
-      <c r="E23" s="26"/>
-      <c r="F23" s="26"/>
-      <c r="G23" s="26"/>
-      <c r="H23" s="25"/>
-      <c r="I23" s="25"/>
-      <c r="J23" s="26"/>
-      <c r="K23" s="26"/>
-      <c r="L23" s="26"/>
-      <c r="M23" s="26"/>
-      <c r="N23" s="26"/>
-      <c r="O23" s="27"/>
-      <c r="P23" s="27"/>
-      <c r="Q23" s="26"/>
-      <c r="R23" s="26"/>
-      <c r="S23" s="26"/>
-      <c r="T23" s="26"/>
-      <c r="U23" s="26"/>
+      <c r="A23" s="23"/>
+      <c r="B23" s="23"/>
+      <c r="C23" s="24"/>
+      <c r="D23" s="24"/>
+      <c r="E23" s="24"/>
+      <c r="F23" s="24"/>
+      <c r="G23" s="24"/>
+      <c r="H23" s="23"/>
+      <c r="I23" s="23"/>
+      <c r="J23" s="24"/>
+      <c r="K23" s="24"/>
+      <c r="L23" s="24"/>
+      <c r="M23" s="24"/>
+      <c r="N23" s="24"/>
+      <c r="O23" s="25"/>
+      <c r="P23" s="25"/>
+      <c r="Q23" s="24"/>
+      <c r="R23" s="24"/>
+      <c r="S23" s="24"/>
+      <c r="T23" s="24"/>
+      <c r="U23" s="24"/>
     </row>
     <row r="24" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A24" s="25"/>
-      <c r="B24" s="25"/>
-      <c r="C24" s="26"/>
-      <c r="D24" s="26"/>
-      <c r="E24" s="26"/>
-      <c r="F24" s="26"/>
-      <c r="G24" s="26"/>
-      <c r="H24" s="25"/>
-      <c r="I24" s="25"/>
-      <c r="J24" s="26"/>
-      <c r="K24" s="26"/>
-      <c r="L24" s="26"/>
-      <c r="M24" s="26"/>
-      <c r="N24" s="26"/>
-      <c r="O24" s="27"/>
-      <c r="P24" s="27"/>
-      <c r="Q24" s="26"/>
-      <c r="R24" s="26"/>
-      <c r="S24" s="26"/>
-      <c r="T24" s="26"/>
-      <c r="U24" s="26"/>
+      <c r="A24" s="23"/>
+      <c r="B24" s="23"/>
+      <c r="C24" s="24"/>
+      <c r="D24" s="24"/>
+      <c r="E24" s="24"/>
+      <c r="F24" s="24"/>
+      <c r="G24" s="24"/>
+      <c r="H24" s="23"/>
+      <c r="I24" s="23"/>
+      <c r="J24" s="24"/>
+      <c r="K24" s="24"/>
+      <c r="L24" s="24"/>
+      <c r="M24" s="24"/>
+      <c r="N24" s="24"/>
+      <c r="O24" s="25"/>
+      <c r="P24" s="25"/>
+      <c r="Q24" s="24"/>
+      <c r="R24" s="24"/>
+      <c r="S24" s="24"/>
+      <c r="T24" s="24"/>
+      <c r="U24" s="24"/>
     </row>
     <row r="25" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A25" s="25"/>
-      <c r="B25" s="25"/>
-      <c r="C25" s="26"/>
-      <c r="D25" s="26"/>
-      <c r="E25" s="26"/>
-      <c r="F25" s="26"/>
-      <c r="G25" s="26"/>
-      <c r="H25" s="25"/>
-      <c r="I25" s="25"/>
-      <c r="J25" s="26"/>
-      <c r="K25" s="26"/>
-      <c r="L25" s="26"/>
-      <c r="M25" s="26"/>
-      <c r="N25" s="26"/>
-      <c r="O25" s="27"/>
-      <c r="P25" s="27"/>
-      <c r="Q25" s="26"/>
-      <c r="R25" s="26"/>
-      <c r="S25" s="26"/>
-      <c r="T25" s="26"/>
-      <c r="U25" s="26"/>
+      <c r="A25" s="23"/>
+      <c r="B25" s="23"/>
+      <c r="C25" s="24"/>
+      <c r="D25" s="24"/>
+      <c r="E25" s="24"/>
+      <c r="F25" s="24"/>
+      <c r="G25" s="24"/>
+      <c r="H25" s="23"/>
+      <c r="I25" s="23"/>
+      <c r="J25" s="24"/>
+      <c r="K25" s="24"/>
+      <c r="L25" s="24"/>
+      <c r="M25" s="24"/>
+      <c r="N25" s="24"/>
+      <c r="O25" s="25"/>
+      <c r="P25" s="25"/>
+      <c r="Q25" s="24"/>
+      <c r="R25" s="24"/>
+      <c r="S25" s="24"/>
+      <c r="T25" s="24"/>
+      <c r="U25" s="24"/>
     </row>
     <row r="26" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A26" s="25"/>
-      <c r="B26" s="25"/>
-      <c r="C26" s="26"/>
-      <c r="D26" s="26"/>
-      <c r="E26" s="26"/>
-      <c r="F26" s="26"/>
-      <c r="G26" s="26"/>
-      <c r="H26" s="25"/>
-      <c r="I26" s="25"/>
-      <c r="J26" s="26"/>
-      <c r="K26" s="26"/>
-      <c r="L26" s="26"/>
-      <c r="M26" s="26"/>
-      <c r="N26" s="26"/>
-      <c r="O26" s="27"/>
-      <c r="P26" s="27"/>
-      <c r="Q26" s="26"/>
-      <c r="R26" s="26"/>
-      <c r="S26" s="26"/>
-      <c r="T26" s="26"/>
-      <c r="U26" s="26"/>
+      <c r="A26" s="23"/>
+      <c r="B26" s="23"/>
+      <c r="C26" s="24"/>
+      <c r="D26" s="24"/>
+      <c r="E26" s="24"/>
+      <c r="F26" s="24"/>
+      <c r="G26" s="24"/>
+      <c r="H26" s="23"/>
+      <c r="I26" s="23"/>
+      <c r="J26" s="24"/>
+      <c r="K26" s="24"/>
+      <c r="L26" s="24"/>
+      <c r="M26" s="24"/>
+      <c r="N26" s="24"/>
+      <c r="O26" s="25"/>
+      <c r="P26" s="25"/>
+      <c r="Q26" s="24"/>
+      <c r="R26" s="24"/>
+      <c r="S26" s="24"/>
+      <c r="T26" s="24"/>
+      <c r="U26" s="24"/>
     </row>
     <row r="27" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A27" s="25"/>
-      <c r="B27" s="25"/>
-      <c r="C27" s="26"/>
-      <c r="D27" s="26"/>
-      <c r="E27" s="26"/>
-      <c r="F27" s="26"/>
-      <c r="G27" s="26"/>
-      <c r="H27" s="25"/>
-      <c r="I27" s="25"/>
-      <c r="J27" s="26"/>
-      <c r="K27" s="26"/>
-      <c r="L27" s="26"/>
-      <c r="M27" s="26"/>
-      <c r="N27" s="26"/>
-      <c r="O27" s="27"/>
-      <c r="P27" s="27"/>
-      <c r="Q27" s="26"/>
-      <c r="R27" s="26"/>
-      <c r="S27" s="26"/>
-      <c r="T27" s="26"/>
-      <c r="U27" s="26"/>
+      <c r="A27" s="23"/>
+      <c r="B27" s="23"/>
+      <c r="C27" s="24"/>
+      <c r="D27" s="24"/>
+      <c r="E27" s="24"/>
+      <c r="F27" s="24"/>
+      <c r="G27" s="24"/>
+      <c r="H27" s="23"/>
+      <c r="I27" s="23"/>
+      <c r="J27" s="24"/>
+      <c r="K27" s="24"/>
+      <c r="L27" s="24"/>
+      <c r="M27" s="24"/>
+      <c r="N27" s="24"/>
+      <c r="O27" s="25"/>
+      <c r="P27" s="25"/>
+      <c r="Q27" s="24"/>
+      <c r="R27" s="24"/>
+      <c r="S27" s="24"/>
+      <c r="T27" s="24"/>
+      <c r="U27" s="24"/>
     </row>
     <row r="28" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A28" s="25"/>
-      <c r="B28" s="25"/>
-      <c r="C28" s="26"/>
-      <c r="D28" s="26"/>
-      <c r="E28" s="26"/>
-      <c r="F28" s="26"/>
-      <c r="G28" s="26"/>
-      <c r="H28" s="25"/>
-      <c r="I28" s="25"/>
-      <c r="J28" s="26"/>
-      <c r="K28" s="26"/>
-      <c r="L28" s="26"/>
-      <c r="M28" s="26"/>
-      <c r="N28" s="26"/>
-      <c r="O28" s="27"/>
-      <c r="P28" s="27"/>
-      <c r="Q28" s="26"/>
-      <c r="R28" s="26"/>
-      <c r="S28" s="26"/>
-      <c r="T28" s="26"/>
-      <c r="U28" s="26"/>
+      <c r="A28" s="23"/>
+      <c r="B28" s="23"/>
+      <c r="C28" s="24"/>
+      <c r="D28" s="24"/>
+      <c r="E28" s="24"/>
+      <c r="F28" s="24"/>
+      <c r="G28" s="24"/>
+      <c r="H28" s="23"/>
+      <c r="I28" s="23"/>
+      <c r="J28" s="24"/>
+      <c r="K28" s="24"/>
+      <c r="L28" s="24"/>
+      <c r="M28" s="24"/>
+      <c r="N28" s="24"/>
+      <c r="O28" s="25"/>
+      <c r="P28" s="25"/>
+      <c r="Q28" s="24"/>
+      <c r="R28" s="24"/>
+      <c r="S28" s="24"/>
+      <c r="T28" s="24"/>
+      <c r="U28" s="24"/>
     </row>
     <row r="29" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A29" s="25"/>
-      <c r="B29" s="25"/>
-      <c r="C29" s="26"/>
-      <c r="D29" s="26"/>
-      <c r="E29" s="26"/>
-      <c r="F29" s="26"/>
-      <c r="G29" s="26"/>
-      <c r="H29" s="25"/>
-      <c r="I29" s="25"/>
-      <c r="J29" s="26"/>
-      <c r="K29" s="26"/>
-      <c r="L29" s="26"/>
-      <c r="M29" s="26"/>
-      <c r="N29" s="26"/>
-      <c r="O29" s="27"/>
-      <c r="P29" s="27"/>
-      <c r="Q29" s="26"/>
-      <c r="R29" s="26"/>
-      <c r="S29" s="26"/>
-      <c r="T29" s="26"/>
-      <c r="U29" s="26"/>
+      <c r="A29" s="23"/>
+      <c r="B29" s="23"/>
+      <c r="C29" s="24"/>
+      <c r="D29" s="24"/>
+      <c r="E29" s="24"/>
+      <c r="F29" s="24"/>
+      <c r="G29" s="24"/>
+      <c r="H29" s="23"/>
+      <c r="I29" s="23"/>
+      <c r="J29" s="24"/>
+      <c r="K29" s="24"/>
+      <c r="L29" s="24"/>
+      <c r="M29" s="24"/>
+      <c r="N29" s="24"/>
+      <c r="O29" s="25"/>
+      <c r="P29" s="25"/>
+      <c r="Q29" s="24"/>
+      <c r="R29" s="24"/>
+      <c r="S29" s="24"/>
+      <c r="T29" s="24"/>
+      <c r="U29" s="24"/>
     </row>
     <row r="30" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A30" s="25"/>
-      <c r="B30" s="25"/>
-      <c r="C30" s="26"/>
-      <c r="D30" s="26"/>
-      <c r="E30" s="26"/>
-      <c r="F30" s="26"/>
-      <c r="G30" s="26"/>
-      <c r="H30" s="25"/>
-      <c r="I30" s="25"/>
-      <c r="J30" s="26"/>
-      <c r="K30" s="26"/>
-      <c r="L30" s="26"/>
-      <c r="M30" s="26"/>
-      <c r="N30" s="26"/>
-      <c r="O30" s="27"/>
-      <c r="P30" s="27"/>
-      <c r="Q30" s="26"/>
-      <c r="R30" s="26"/>
-      <c r="S30" s="26"/>
-      <c r="T30" s="26"/>
-      <c r="U30" s="26"/>
+      <c r="A30" s="23"/>
+      <c r="B30" s="23"/>
+      <c r="C30" s="24"/>
+      <c r="D30" s="24"/>
+      <c r="E30" s="24"/>
+      <c r="F30" s="24"/>
+      <c r="G30" s="24"/>
+      <c r="H30" s="23"/>
+      <c r="I30" s="23"/>
+      <c r="J30" s="24"/>
+      <c r="K30" s="24"/>
+      <c r="L30" s="24"/>
+      <c r="M30" s="24"/>
+      <c r="N30" s="24"/>
+      <c r="O30" s="25"/>
+      <c r="P30" s="25"/>
+      <c r="Q30" s="24"/>
+      <c r="R30" s="24"/>
+      <c r="S30" s="24"/>
+      <c r="T30" s="24"/>
+      <c r="U30" s="24"/>
     </row>
     <row r="31" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A31" s="25"/>
-      <c r="B31" s="25"/>
-      <c r="C31" s="26"/>
-      <c r="D31" s="26"/>
-      <c r="E31" s="26"/>
-      <c r="F31" s="26"/>
-      <c r="G31" s="26"/>
-      <c r="H31" s="25"/>
-      <c r="I31" s="25"/>
-      <c r="J31" s="26"/>
-      <c r="K31" s="26"/>
-      <c r="L31" s="26"/>
-      <c r="M31" s="26"/>
-      <c r="N31" s="26"/>
-      <c r="O31" s="27"/>
-      <c r="P31" s="27"/>
-      <c r="Q31" s="26"/>
-      <c r="R31" s="26"/>
-      <c r="S31" s="26"/>
-      <c r="T31" s="26"/>
-      <c r="U31" s="26"/>
+      <c r="A31" s="23"/>
+      <c r="B31" s="23"/>
+      <c r="C31" s="24"/>
+      <c r="D31" s="24"/>
+      <c r="E31" s="24"/>
+      <c r="F31" s="24"/>
+      <c r="G31" s="24"/>
+      <c r="H31" s="23"/>
+      <c r="I31" s="23"/>
+      <c r="J31" s="24"/>
+      <c r="K31" s="24"/>
+      <c r="L31" s="24"/>
+      <c r="M31" s="24"/>
+      <c r="N31" s="24"/>
+      <c r="O31" s="25"/>
+      <c r="P31" s="25"/>
+      <c r="Q31" s="24"/>
+      <c r="R31" s="24"/>
+      <c r="S31" s="24"/>
+      <c r="T31" s="24"/>
+      <c r="U31" s="24"/>
     </row>
     <row r="32" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A32" s="25"/>
-      <c r="B32" s="25"/>
-      <c r="C32" s="26"/>
-      <c r="D32" s="26"/>
-      <c r="E32" s="26"/>
-      <c r="F32" s="26"/>
-      <c r="G32" s="26"/>
-      <c r="H32" s="25"/>
-      <c r="I32" s="25"/>
-      <c r="J32" s="26"/>
-      <c r="K32" s="26"/>
-      <c r="L32" s="26"/>
-      <c r="M32" s="26"/>
-      <c r="N32" s="26"/>
-      <c r="O32" s="27"/>
-      <c r="P32" s="27"/>
-      <c r="Q32" s="26"/>
-      <c r="R32" s="26"/>
-      <c r="S32" s="26"/>
-      <c r="T32" s="26"/>
-      <c r="U32" s="26"/>
+      <c r="A32" s="23"/>
+      <c r="B32" s="23"/>
+      <c r="C32" s="24"/>
+      <c r="D32" s="24"/>
+      <c r="E32" s="24"/>
+      <c r="F32" s="24"/>
+      <c r="G32" s="24"/>
+      <c r="H32" s="23"/>
+      <c r="I32" s="23"/>
+      <c r="J32" s="24"/>
+      <c r="K32" s="24"/>
+      <c r="L32" s="24"/>
+      <c r="M32" s="24"/>
+      <c r="N32" s="24"/>
+      <c r="O32" s="25"/>
+      <c r="P32" s="25"/>
+      <c r="Q32" s="24"/>
+      <c r="R32" s="24"/>
+      <c r="S32" s="24"/>
+      <c r="T32" s="24"/>
+      <c r="U32" s="24"/>
     </row>
     <row r="33" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A33" s="25"/>
-      <c r="B33" s="25"/>
-      <c r="C33" s="26"/>
-      <c r="D33" s="26"/>
-      <c r="E33" s="26"/>
-      <c r="F33" s="26"/>
-      <c r="G33" s="26"/>
-      <c r="H33" s="25"/>
-      <c r="I33" s="25"/>
-      <c r="J33" s="26"/>
-      <c r="K33" s="26"/>
-      <c r="L33" s="26"/>
-      <c r="M33" s="26"/>
-      <c r="N33" s="26"/>
-      <c r="O33" s="25"/>
-      <c r="P33" s="25"/>
-      <c r="Q33" s="26"/>
-      <c r="R33" s="26"/>
-      <c r="S33" s="26"/>
-      <c r="T33" s="26"/>
-      <c r="U33" s="26"/>
+      <c r="A33" s="23"/>
+      <c r="B33" s="23"/>
+      <c r="C33" s="24"/>
+      <c r="D33" s="24"/>
+      <c r="E33" s="24"/>
+      <c r="F33" s="24"/>
+      <c r="G33" s="24"/>
+      <c r="H33" s="23"/>
+      <c r="I33" s="23"/>
+      <c r="J33" s="24"/>
+      <c r="K33" s="24"/>
+      <c r="L33" s="24"/>
+      <c r="M33" s="24"/>
+      <c r="N33" s="24"/>
+      <c r="O33" s="23"/>
+      <c r="P33" s="23"/>
+      <c r="Q33" s="24"/>
+      <c r="R33" s="24"/>
+      <c r="S33" s="24"/>
+      <c r="T33" s="24"/>
+      <c r="U33" s="24"/>
     </row>
     <row r="34" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A34" s="23"/>
-      <c r="B34" s="23"/>
-      <c r="C34" s="24"/>
-      <c r="D34" s="24"/>
-      <c r="E34" s="24"/>
-      <c r="F34" s="24"/>
-      <c r="G34" s="24"/>
-      <c r="H34" s="23"/>
-      <c r="I34" s="23"/>
-      <c r="J34" s="24"/>
-      <c r="K34" s="24"/>
-      <c r="L34" s="24"/>
-      <c r="M34" s="24"/>
-      <c r="N34" s="24"/>
-      <c r="O34" s="23"/>
-      <c r="P34" s="23"/>
-      <c r="Q34" s="24"/>
-      <c r="R34" s="24"/>
-      <c r="S34" s="24"/>
-      <c r="T34" s="24"/>
-      <c r="U34" s="24"/>
+      <c r="A34" s="31"/>
+      <c r="B34" s="31"/>
+      <c r="C34" s="32"/>
+      <c r="D34" s="32"/>
+      <c r="E34" s="32"/>
+      <c r="F34" s="32"/>
+      <c r="G34" s="32"/>
+      <c r="H34" s="31"/>
+      <c r="I34" s="31"/>
+      <c r="J34" s="32"/>
+      <c r="K34" s="32"/>
+      <c r="L34" s="32"/>
+      <c r="M34" s="32"/>
+      <c r="N34" s="32"/>
+      <c r="O34" s="31"/>
+      <c r="P34" s="31"/>
+      <c r="Q34" s="32"/>
+      <c r="R34" s="32"/>
+      <c r="S34" s="32"/>
+      <c r="T34" s="32"/>
+      <c r="U34" s="32"/>
     </row>
   </sheetData>
   <mergeCells count="236">
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="C34:G34"/>
+    <mergeCell ref="H34:I34"/>
+    <mergeCell ref="J34:N34"/>
+    <mergeCell ref="O34:P34"/>
+    <mergeCell ref="Q34:U34"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="C33:G33"/>
+    <mergeCell ref="H33:I33"/>
+    <mergeCell ref="J33:N33"/>
+    <mergeCell ref="O33:P33"/>
+    <mergeCell ref="Q33:U33"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="C32:G32"/>
+    <mergeCell ref="H32:I32"/>
+    <mergeCell ref="J32:N32"/>
+    <mergeCell ref="O32:P32"/>
+    <mergeCell ref="Q32:U32"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="C31:G31"/>
+    <mergeCell ref="H31:I31"/>
+    <mergeCell ref="J31:N31"/>
+    <mergeCell ref="O31:P31"/>
+    <mergeCell ref="Q31:U31"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="C30:G30"/>
+    <mergeCell ref="H30:I30"/>
+    <mergeCell ref="J30:N30"/>
+    <mergeCell ref="O30:P30"/>
+    <mergeCell ref="Q30:U30"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="C29:G29"/>
+    <mergeCell ref="H29:I29"/>
+    <mergeCell ref="J29:N29"/>
+    <mergeCell ref="O29:P29"/>
+    <mergeCell ref="Q29:U29"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="C28:G28"/>
+    <mergeCell ref="H28:I28"/>
+    <mergeCell ref="J28:N28"/>
+    <mergeCell ref="O28:P28"/>
+    <mergeCell ref="Q28:U28"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="C27:G27"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="J27:N27"/>
+    <mergeCell ref="O27:P27"/>
+    <mergeCell ref="Q27:U27"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="C26:G26"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="J26:N26"/>
+    <mergeCell ref="O26:P26"/>
+    <mergeCell ref="Q26:U26"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="C25:G25"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="J25:N25"/>
+    <mergeCell ref="O25:P25"/>
+    <mergeCell ref="Q25:U25"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="C24:G24"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="J24:N24"/>
+    <mergeCell ref="O24:P24"/>
+    <mergeCell ref="Q24:U24"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="C23:G23"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="J23:N23"/>
+    <mergeCell ref="O23:P23"/>
+    <mergeCell ref="Q23:U23"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="C22:G22"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="J22:N22"/>
+    <mergeCell ref="V22:W22"/>
+    <mergeCell ref="X22:AB22"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="J21:N21"/>
+    <mergeCell ref="V21:W21"/>
+    <mergeCell ref="X21:AB21"/>
+    <mergeCell ref="O21:P21"/>
+    <mergeCell ref="Q21:U21"/>
+    <mergeCell ref="O22:P22"/>
+    <mergeCell ref="Q22:U22"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="J20:N20"/>
+    <mergeCell ref="V20:W20"/>
+    <mergeCell ref="X20:AB20"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="J19:N19"/>
+    <mergeCell ref="V19:W19"/>
+    <mergeCell ref="X19:AB19"/>
+    <mergeCell ref="O19:P19"/>
+    <mergeCell ref="Q19:U19"/>
+    <mergeCell ref="O20:P20"/>
+    <mergeCell ref="Q20:U20"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="J18:N18"/>
+    <mergeCell ref="V18:W18"/>
+    <mergeCell ref="X18:AB18"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C17:G17"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="J17:N17"/>
+    <mergeCell ref="V17:W17"/>
+    <mergeCell ref="X17:AB17"/>
+    <mergeCell ref="O17:P17"/>
+    <mergeCell ref="Q17:U17"/>
+    <mergeCell ref="O18:P18"/>
+    <mergeCell ref="Q18:U18"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:G16"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="J16:N16"/>
+    <mergeCell ref="V16:W16"/>
+    <mergeCell ref="X16:AB16"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C15:G15"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="J15:N15"/>
+    <mergeCell ref="V15:W15"/>
+    <mergeCell ref="X15:AB15"/>
+    <mergeCell ref="O15:P15"/>
+    <mergeCell ref="Q15:U15"/>
+    <mergeCell ref="O16:P16"/>
+    <mergeCell ref="Q16:U16"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C14:G14"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="J14:N14"/>
+    <mergeCell ref="V14:W14"/>
+    <mergeCell ref="X14:AB14"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C13:G13"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="J13:N13"/>
+    <mergeCell ref="V13:W13"/>
+    <mergeCell ref="X13:AB13"/>
+    <mergeCell ref="O13:P13"/>
+    <mergeCell ref="Q13:U13"/>
+    <mergeCell ref="O14:P14"/>
+    <mergeCell ref="Q14:U14"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="J12:N12"/>
+    <mergeCell ref="V12:W12"/>
+    <mergeCell ref="X12:AB12"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:G11"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="J11:N11"/>
+    <mergeCell ref="V11:W11"/>
+    <mergeCell ref="X11:AB11"/>
+    <mergeCell ref="O11:P11"/>
+    <mergeCell ref="Q11:U11"/>
+    <mergeCell ref="O12:P12"/>
+    <mergeCell ref="Q12:U12"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C10:G10"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="J10:N10"/>
+    <mergeCell ref="V10:W10"/>
+    <mergeCell ref="X10:AB10"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:G9"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="J9:N9"/>
+    <mergeCell ref="V9:W9"/>
+    <mergeCell ref="X9:AB9"/>
+    <mergeCell ref="O9:P9"/>
+    <mergeCell ref="Q9:U9"/>
+    <mergeCell ref="O10:P10"/>
+    <mergeCell ref="Q10:U10"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="J8:N8"/>
+    <mergeCell ref="V8:W8"/>
+    <mergeCell ref="X8:AB8"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:N7"/>
+    <mergeCell ref="V7:W7"/>
+    <mergeCell ref="X7:AB7"/>
+    <mergeCell ref="O7:P7"/>
+    <mergeCell ref="Q7:U7"/>
+    <mergeCell ref="O8:P8"/>
+    <mergeCell ref="Q8:U8"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="J6:N6"/>
+    <mergeCell ref="V6:W6"/>
+    <mergeCell ref="X6:AB6"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="J5:N5"/>
+    <mergeCell ref="V5:W5"/>
+    <mergeCell ref="X5:AB5"/>
+    <mergeCell ref="O5:P5"/>
+    <mergeCell ref="Q5:U5"/>
+    <mergeCell ref="O6:P6"/>
+    <mergeCell ref="Q6:U6"/>
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="C4:G4"/>
     <mergeCell ref="H4:I4"/>
@@ -5338,222 +5560,6 @@
     <mergeCell ref="Q3:U3"/>
     <mergeCell ref="O4:P4"/>
     <mergeCell ref="Q4:U4"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="J6:N6"/>
-    <mergeCell ref="V6:W6"/>
-    <mergeCell ref="X6:AB6"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:G5"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="J5:N5"/>
-    <mergeCell ref="V5:W5"/>
-    <mergeCell ref="X5:AB5"/>
-    <mergeCell ref="O5:P5"/>
-    <mergeCell ref="Q5:U5"/>
-    <mergeCell ref="O6:P6"/>
-    <mergeCell ref="Q6:U6"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="C8:G8"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="J8:N8"/>
-    <mergeCell ref="V8:W8"/>
-    <mergeCell ref="X8:AB8"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="J7:N7"/>
-    <mergeCell ref="V7:W7"/>
-    <mergeCell ref="X7:AB7"/>
-    <mergeCell ref="O7:P7"/>
-    <mergeCell ref="Q7:U7"/>
-    <mergeCell ref="O8:P8"/>
-    <mergeCell ref="Q8:U8"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="C10:G10"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="J10:N10"/>
-    <mergeCell ref="V10:W10"/>
-    <mergeCell ref="X10:AB10"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="C9:G9"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="J9:N9"/>
-    <mergeCell ref="V9:W9"/>
-    <mergeCell ref="X9:AB9"/>
-    <mergeCell ref="O9:P9"/>
-    <mergeCell ref="Q9:U9"/>
-    <mergeCell ref="O10:P10"/>
-    <mergeCell ref="Q10:U10"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="C12:G12"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="J12:N12"/>
-    <mergeCell ref="V12:W12"/>
-    <mergeCell ref="X12:AB12"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:G11"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="J11:N11"/>
-    <mergeCell ref="V11:W11"/>
-    <mergeCell ref="X11:AB11"/>
-    <mergeCell ref="O11:P11"/>
-    <mergeCell ref="Q11:U11"/>
-    <mergeCell ref="O12:P12"/>
-    <mergeCell ref="Q12:U12"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="C14:G14"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="J14:N14"/>
-    <mergeCell ref="V14:W14"/>
-    <mergeCell ref="X14:AB14"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="C13:G13"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="J13:N13"/>
-    <mergeCell ref="V13:W13"/>
-    <mergeCell ref="X13:AB13"/>
-    <mergeCell ref="O13:P13"/>
-    <mergeCell ref="Q13:U13"/>
-    <mergeCell ref="O14:P14"/>
-    <mergeCell ref="Q14:U14"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="C16:G16"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="J16:N16"/>
-    <mergeCell ref="V16:W16"/>
-    <mergeCell ref="X16:AB16"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="C15:G15"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="J15:N15"/>
-    <mergeCell ref="V15:W15"/>
-    <mergeCell ref="X15:AB15"/>
-    <mergeCell ref="O15:P15"/>
-    <mergeCell ref="Q15:U15"/>
-    <mergeCell ref="O16:P16"/>
-    <mergeCell ref="Q16:U16"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C18:G18"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="J18:N18"/>
-    <mergeCell ref="V18:W18"/>
-    <mergeCell ref="X18:AB18"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="C17:G17"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="J17:N17"/>
-    <mergeCell ref="V17:W17"/>
-    <mergeCell ref="X17:AB17"/>
-    <mergeCell ref="O17:P17"/>
-    <mergeCell ref="Q17:U17"/>
-    <mergeCell ref="O18:P18"/>
-    <mergeCell ref="Q18:U18"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="C20:G20"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="J20:N20"/>
-    <mergeCell ref="V20:W20"/>
-    <mergeCell ref="X20:AB20"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="C19:G19"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="J19:N19"/>
-    <mergeCell ref="V19:W19"/>
-    <mergeCell ref="X19:AB19"/>
-    <mergeCell ref="O19:P19"/>
-    <mergeCell ref="Q19:U19"/>
-    <mergeCell ref="O20:P20"/>
-    <mergeCell ref="Q20:U20"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="C22:G22"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="J22:N22"/>
-    <mergeCell ref="V22:W22"/>
-    <mergeCell ref="X22:AB22"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="C21:G21"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="J21:N21"/>
-    <mergeCell ref="V21:W21"/>
-    <mergeCell ref="X21:AB21"/>
-    <mergeCell ref="O21:P21"/>
-    <mergeCell ref="Q21:U21"/>
-    <mergeCell ref="O22:P22"/>
-    <mergeCell ref="Q22:U22"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="C24:G24"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="J24:N24"/>
-    <mergeCell ref="O24:P24"/>
-    <mergeCell ref="Q24:U24"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="C23:G23"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="J23:N23"/>
-    <mergeCell ref="O23:P23"/>
-    <mergeCell ref="Q23:U23"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="C26:G26"/>
-    <mergeCell ref="H26:I26"/>
-    <mergeCell ref="J26:N26"/>
-    <mergeCell ref="O26:P26"/>
-    <mergeCell ref="Q26:U26"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="C25:G25"/>
-    <mergeCell ref="H25:I25"/>
-    <mergeCell ref="J25:N25"/>
-    <mergeCell ref="O25:P25"/>
-    <mergeCell ref="Q25:U25"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="C28:G28"/>
-    <mergeCell ref="H28:I28"/>
-    <mergeCell ref="J28:N28"/>
-    <mergeCell ref="O28:P28"/>
-    <mergeCell ref="Q28:U28"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="C27:G27"/>
-    <mergeCell ref="H27:I27"/>
-    <mergeCell ref="J27:N27"/>
-    <mergeCell ref="O27:P27"/>
-    <mergeCell ref="Q27:U27"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="C30:G30"/>
-    <mergeCell ref="H30:I30"/>
-    <mergeCell ref="J30:N30"/>
-    <mergeCell ref="O30:P30"/>
-    <mergeCell ref="Q30:U30"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="C29:G29"/>
-    <mergeCell ref="H29:I29"/>
-    <mergeCell ref="J29:N29"/>
-    <mergeCell ref="O29:P29"/>
-    <mergeCell ref="Q29:U29"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="C32:G32"/>
-    <mergeCell ref="H32:I32"/>
-    <mergeCell ref="J32:N32"/>
-    <mergeCell ref="O32:P32"/>
-    <mergeCell ref="Q32:U32"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="C31:G31"/>
-    <mergeCell ref="H31:I31"/>
-    <mergeCell ref="J31:N31"/>
-    <mergeCell ref="O31:P31"/>
-    <mergeCell ref="Q31:U31"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="C34:G34"/>
-    <mergeCell ref="H34:I34"/>
-    <mergeCell ref="J34:N34"/>
-    <mergeCell ref="O34:P34"/>
-    <mergeCell ref="Q34:U34"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="C33:G33"/>
-    <mergeCell ref="H33:I33"/>
-    <mergeCell ref="J33:N33"/>
-    <mergeCell ref="O33:P33"/>
-    <mergeCell ref="Q33:U33"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/plans/todo.xlsx
+++ b/plans/todo.xlsx
@@ -8,13 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Edsquid\Documents\Personal Projects\Business\RogueLikeGame\plans\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AD6DCAE-814F-4867-A35F-86D1AB33CB5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8671C77E-0966-4DF3-B5C8-2E02F426E29B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31050" yWindow="2100" windowWidth="21600" windowHeight="11295" xr2:uid="{BA1E511D-BF64-4842-98DF-72E30276ED1C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{BA1E511D-BF64-4842-98DF-72E30276ED1C}"/>
   </bookViews>
   <sheets>
     <sheet name="Attributes" sheetId="3" r:id="rId1"/>
-    <sheet name="Weapons and Secondary" sheetId="2" r:id="rId2"/>
+    <sheet name="Maps" sheetId="5" r:id="rId2"/>
+    <sheet name="Characters" sheetId="4" r:id="rId3"/>
+    <sheet name="Weapons and Secondary" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="227">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="240">
   <si>
     <t>Max Lives</t>
   </si>
@@ -718,6 +720,45 @@
   </si>
   <si>
     <t>Reload Time</t>
+  </si>
+  <si>
+    <t>Characters</t>
+  </si>
+  <si>
+    <t>Regular</t>
+  </si>
+  <si>
+    <t>Maps</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>Mushroom Garden</t>
+  </si>
+  <si>
+    <t>War Torn Graveyard</t>
+  </si>
+  <si>
+    <t>Catacombs of the past</t>
+  </si>
+  <si>
+    <t>difficulty (1-5) 1 = easy</t>
+  </si>
+  <si>
+    <t>Items</t>
+  </si>
+  <si>
+    <t>Simple area, simple enemies, simple bosses. Make it quite pretty.</t>
+  </si>
+  <si>
+    <t>River (moves enemies and players that stand in it), health items, have areas that heal the player (and enemies)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Weapons found, easier weapons </t>
+  </si>
+  <si>
+    <t>Zombies, skeles, ghosts (zombie dies -&gt; skele dies -&gt; ghost dies)</t>
   </si>
 </sst>
 </file>
@@ -959,7 +1000,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
@@ -1003,6 +1044,12 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1010,6 +1057,12 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1021,17 +1074,12 @@
     <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1349,8 +1397,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11CE061F-AFA4-4B9D-BFD1-A05915568E6D}">
   <dimension ref="A1:H338"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4238,6 +4286,130 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{214FE451-EC37-4DAA-9890-BA50B23E22A7}">
+  <dimension ref="A1:G5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="29.140625" style="6" customWidth="1"/>
+    <col min="2" max="2" width="30.5703125" style="6" customWidth="1"/>
+    <col min="3" max="3" width="68.7109375" style="6" customWidth="1"/>
+    <col min="4" max="4" width="45.7109375" style="6" customWidth="1"/>
+    <col min="5" max="5" width="40.140625" style="6" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A1" s="33" t="s">
+        <v>229</v>
+      </c>
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="34" t="s">
+        <v>230</v>
+      </c>
+      <c r="B2" s="34" t="s">
+        <v>234</v>
+      </c>
+      <c r="C2" s="34" t="s">
+        <v>36</v>
+      </c>
+      <c r="D2" s="34" t="s">
+        <v>235</v>
+      </c>
+      <c r="E2" s="34"/>
+    </row>
+    <row r="3" spans="1:7" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>231</v>
+      </c>
+      <c r="B3" s="6">
+        <v>1</v>
+      </c>
+      <c r="C3" s="35" t="s">
+        <v>236</v>
+      </c>
+      <c r="D3" s="35" t="s">
+        <v>237</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
+        <v>232</v>
+      </c>
+      <c r="B4" s="6">
+        <v>3</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
+        <v>233</v>
+      </c>
+      <c r="B5" s="6">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:G1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADB02B54-F017-44DA-9118-EA158E750E4A}">
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="16384" width="9.140625" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A1" s="33" t="s">
+        <v>227</v>
+      </c>
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>228</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:E1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E13E4A5-10AD-4171-99FD-31881C0A6C11}">
   <dimension ref="A1:AB34"/>
   <sheetViews>
@@ -4255,1291 +4427,1075 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="26" t="s">
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30" t="s">
         <v>199</v>
       </c>
-      <c r="I1" s="26"/>
-      <c r="J1" s="26"/>
-      <c r="K1" s="26"/>
-      <c r="L1" s="26"/>
-      <c r="M1" s="26"/>
-      <c r="N1" s="26"/>
-      <c r="O1" s="26" t="s">
+      <c r="I1" s="30"/>
+      <c r="J1" s="30"/>
+      <c r="K1" s="30"/>
+      <c r="L1" s="30"/>
+      <c r="M1" s="30"/>
+      <c r="N1" s="30"/>
+      <c r="O1" s="30" t="s">
         <v>200</v>
       </c>
-      <c r="P1" s="26"/>
-      <c r="Q1" s="26"/>
-      <c r="R1" s="26"/>
-      <c r="S1" s="26"/>
-      <c r="T1" s="26"/>
-      <c r="U1" s="26"/>
-      <c r="V1" s="26" t="s">
+      <c r="P1" s="30"/>
+      <c r="Q1" s="30"/>
+      <c r="R1" s="30"/>
+      <c r="S1" s="30"/>
+      <c r="T1" s="30"/>
+      <c r="U1" s="30"/>
+      <c r="V1" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="W1" s="26"/>
-      <c r="X1" s="26"/>
-      <c r="Y1" s="26"/>
-      <c r="Z1" s="26"/>
-      <c r="AA1" s="26"/>
-      <c r="AB1" s="26"/>
+      <c r="W1" s="30"/>
+      <c r="X1" s="30"/>
+      <c r="Y1" s="30"/>
+      <c r="Z1" s="30"/>
+      <c r="AA1" s="30"/>
+      <c r="AB1" s="30"/>
     </row>
     <row r="2" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="26"/>
-      <c r="B2" s="26"/>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="26"/>
-      <c r="G2" s="26"/>
-      <c r="H2" s="26"/>
-      <c r="I2" s="26"/>
-      <c r="J2" s="26"/>
-      <c r="K2" s="26"/>
-      <c r="L2" s="26"/>
-      <c r="M2" s="26"/>
-      <c r="N2" s="26"/>
-      <c r="O2" s="26"/>
-      <c r="P2" s="26"/>
-      <c r="Q2" s="26"/>
-      <c r="R2" s="26"/>
-      <c r="S2" s="26"/>
-      <c r="T2" s="26"/>
-      <c r="U2" s="26"/>
-      <c r="V2" s="26"/>
-      <c r="W2" s="26"/>
-      <c r="X2" s="26"/>
-      <c r="Y2" s="26"/>
-      <c r="Z2" s="26"/>
-      <c r="AA2" s="26"/>
-      <c r="AB2" s="26"/>
+      <c r="A2" s="30"/>
+      <c r="B2" s="30"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="30"/>
+      <c r="I2" s="30"/>
+      <c r="J2" s="30"/>
+      <c r="K2" s="30"/>
+      <c r="L2" s="30"/>
+      <c r="M2" s="30"/>
+      <c r="N2" s="30"/>
+      <c r="O2" s="30"/>
+      <c r="P2" s="30"/>
+      <c r="Q2" s="30"/>
+      <c r="R2" s="30"/>
+      <c r="S2" s="30"/>
+      <c r="T2" s="30"/>
+      <c r="U2" s="30"/>
+      <c r="V2" s="30"/>
+      <c r="W2" s="30"/>
+      <c r="X2" s="30"/>
+      <c r="Y2" s="30"/>
+      <c r="Z2" s="30"/>
+      <c r="AA2" s="30"/>
+      <c r="AB2" s="30"/>
     </row>
     <row r="3" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A3" s="27" t="s">
+      <c r="A3" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="B3" s="27"/>
-      <c r="C3" s="28" t="s">
+      <c r="B3" s="31"/>
+      <c r="C3" s="32" t="s">
         <v>36</v>
       </c>
-      <c r="D3" s="28"/>
-      <c r="E3" s="28"/>
-      <c r="F3" s="28"/>
-      <c r="G3" s="28"/>
-      <c r="H3" s="27" t="s">
+      <c r="D3" s="32"/>
+      <c r="E3" s="32"/>
+      <c r="F3" s="32"/>
+      <c r="G3" s="32"/>
+      <c r="H3" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="I3" s="27"/>
-      <c r="J3" s="28" t="s">
+      <c r="I3" s="31"/>
+      <c r="J3" s="32" t="s">
         <v>36</v>
       </c>
-      <c r="K3" s="28"/>
-      <c r="L3" s="28"/>
-      <c r="M3" s="28"/>
-      <c r="N3" s="28"/>
-      <c r="O3" s="27" t="s">
+      <c r="K3" s="32"/>
+      <c r="L3" s="32"/>
+      <c r="M3" s="32"/>
+      <c r="N3" s="32"/>
+      <c r="O3" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="P3" s="27"/>
-      <c r="Q3" s="28" t="s">
+      <c r="P3" s="31"/>
+      <c r="Q3" s="32" t="s">
         <v>36</v>
       </c>
-      <c r="R3" s="28"/>
-      <c r="S3" s="28"/>
-      <c r="T3" s="28"/>
-      <c r="U3" s="28"/>
-      <c r="V3" s="27" t="s">
+      <c r="R3" s="32"/>
+      <c r="S3" s="32"/>
+      <c r="T3" s="32"/>
+      <c r="U3" s="32"/>
+      <c r="V3" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="W3" s="27"/>
-      <c r="X3" s="28" t="s">
+      <c r="W3" s="31"/>
+      <c r="X3" s="32" t="s">
         <v>36</v>
       </c>
-      <c r="Y3" s="28"/>
-      <c r="Z3" s="28"/>
-      <c r="AA3" s="28"/>
-      <c r="AB3" s="28"/>
+      <c r="Y3" s="32"/>
+      <c r="Z3" s="32"/>
+      <c r="AA3" s="32"/>
+      <c r="AB3" s="32"/>
     </row>
     <row r="4" spans="1:28" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="23" t="s">
+      <c r="A4" s="25" t="s">
         <v>41</v>
       </c>
-      <c r="B4" s="23"/>
-      <c r="C4" s="24" t="s">
+      <c r="B4" s="25"/>
+      <c r="C4" s="26" t="s">
         <v>46</v>
       </c>
-      <c r="D4" s="24"/>
-      <c r="E4" s="24"/>
-      <c r="F4" s="24"/>
-      <c r="G4" s="24"/>
-      <c r="H4" s="23" t="s">
+      <c r="D4" s="26"/>
+      <c r="E4" s="26"/>
+      <c r="F4" s="26"/>
+      <c r="G4" s="26"/>
+      <c r="H4" s="25" t="s">
         <v>47</v>
       </c>
-      <c r="I4" s="23"/>
-      <c r="J4" s="24" t="s">
+      <c r="I4" s="25"/>
+      <c r="J4" s="26" t="s">
         <v>48</v>
       </c>
-      <c r="K4" s="24"/>
-      <c r="L4" s="24"/>
-      <c r="M4" s="24"/>
-      <c r="N4" s="24"/>
-      <c r="O4" s="25" t="s">
+      <c r="K4" s="26"/>
+      <c r="L4" s="26"/>
+      <c r="M4" s="26"/>
+      <c r="N4" s="26"/>
+      <c r="O4" s="27" t="s">
         <v>201</v>
       </c>
-      <c r="P4" s="25"/>
-      <c r="Q4" s="24" t="s">
+      <c r="P4" s="27"/>
+      <c r="Q4" s="26" t="s">
         <v>202</v>
       </c>
-      <c r="R4" s="24"/>
-      <c r="S4" s="24"/>
-      <c r="T4" s="24"/>
-      <c r="U4" s="24"/>
-      <c r="V4" s="25" t="s">
+      <c r="R4" s="26"/>
+      <c r="S4" s="26"/>
+      <c r="T4" s="26"/>
+      <c r="U4" s="26"/>
+      <c r="V4" s="27" t="s">
         <v>66</v>
       </c>
-      <c r="W4" s="25"/>
-      <c r="X4" s="24" t="s">
+      <c r="W4" s="27"/>
+      <c r="X4" s="26" t="s">
         <v>65</v>
       </c>
-      <c r="Y4" s="24"/>
-      <c r="Z4" s="24"/>
-      <c r="AA4" s="24"/>
-      <c r="AB4" s="24"/>
+      <c r="Y4" s="26"/>
+      <c r="Z4" s="26"/>
+      <c r="AA4" s="26"/>
+      <c r="AB4" s="26"/>
     </row>
     <row r="5" spans="1:28" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="23" t="s">
+      <c r="A5" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="B5" s="23"/>
-      <c r="C5" s="24" t="s">
+      <c r="B5" s="25"/>
+      <c r="C5" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="D5" s="24"/>
-      <c r="E5" s="24"/>
-      <c r="F5" s="24"/>
-      <c r="G5" s="24"/>
-      <c r="H5" s="23" t="s">
+      <c r="D5" s="26"/>
+      <c r="E5" s="26"/>
+      <c r="F5" s="26"/>
+      <c r="G5" s="26"/>
+      <c r="H5" s="25" t="s">
         <v>49</v>
       </c>
-      <c r="I5" s="23"/>
-      <c r="J5" s="24" t="s">
+      <c r="I5" s="25"/>
+      <c r="J5" s="26" t="s">
         <v>50</v>
       </c>
-      <c r="K5" s="24"/>
-      <c r="L5" s="24"/>
-      <c r="M5" s="24"/>
-      <c r="N5" s="24"/>
-      <c r="O5" s="25" t="s">
+      <c r="K5" s="26"/>
+      <c r="L5" s="26"/>
+      <c r="M5" s="26"/>
+      <c r="N5" s="26"/>
+      <c r="O5" s="27" t="s">
         <v>203</v>
       </c>
-      <c r="P5" s="25"/>
-      <c r="Q5" s="24"/>
-      <c r="R5" s="24"/>
-      <c r="S5" s="24"/>
-      <c r="T5" s="24"/>
-      <c r="U5" s="24"/>
-      <c r="V5" s="25" t="s">
+      <c r="P5" s="27"/>
+      <c r="Q5" s="26"/>
+      <c r="R5" s="26"/>
+      <c r="S5" s="26"/>
+      <c r="T5" s="26"/>
+      <c r="U5" s="26"/>
+      <c r="V5" s="27" t="s">
         <v>67</v>
       </c>
-      <c r="W5" s="25"/>
-      <c r="X5" s="24" t="s">
+      <c r="W5" s="27"/>
+      <c r="X5" s="26" t="s">
         <v>70</v>
       </c>
-      <c r="Y5" s="24"/>
-      <c r="Z5" s="24"/>
-      <c r="AA5" s="24"/>
-      <c r="AB5" s="24"/>
+      <c r="Y5" s="26"/>
+      <c r="Z5" s="26"/>
+      <c r="AA5" s="26"/>
+      <c r="AB5" s="26"/>
     </row>
     <row r="6" spans="1:28" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="23" t="s">
+      <c r="A6" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="B6" s="23"/>
-      <c r="C6" s="24" t="s">
+      <c r="B6" s="25"/>
+      <c r="C6" s="26" t="s">
         <v>56</v>
       </c>
-      <c r="D6" s="24"/>
-      <c r="E6" s="24"/>
-      <c r="F6" s="24"/>
-      <c r="G6" s="24"/>
-      <c r="H6" s="23" t="s">
+      <c r="D6" s="26"/>
+      <c r="E6" s="26"/>
+      <c r="F6" s="26"/>
+      <c r="G6" s="26"/>
+      <c r="H6" s="25" t="s">
         <v>52</v>
       </c>
-      <c r="I6" s="23"/>
-      <c r="J6" s="24" t="s">
+      <c r="I6" s="25"/>
+      <c r="J6" s="26" t="s">
         <v>51</v>
       </c>
-      <c r="K6" s="24"/>
-      <c r="L6" s="24"/>
-      <c r="M6" s="24"/>
-      <c r="N6" s="24"/>
-      <c r="O6" s="25" t="s">
+      <c r="K6" s="26"/>
+      <c r="L6" s="26"/>
+      <c r="M6" s="26"/>
+      <c r="N6" s="26"/>
+      <c r="O6" s="27" t="s">
         <v>204</v>
       </c>
-      <c r="P6" s="25"/>
-      <c r="Q6" s="24"/>
-      <c r="R6" s="24"/>
-      <c r="S6" s="24"/>
-      <c r="T6" s="24"/>
-      <c r="U6" s="24"/>
-      <c r="V6" s="25" t="s">
+      <c r="P6" s="27"/>
+      <c r="Q6" s="26"/>
+      <c r="R6" s="26"/>
+      <c r="S6" s="26"/>
+      <c r="T6" s="26"/>
+      <c r="U6" s="26"/>
+      <c r="V6" s="27" t="s">
         <v>68</v>
       </c>
-      <c r="W6" s="25"/>
-      <c r="X6" s="24" t="s">
+      <c r="W6" s="27"/>
+      <c r="X6" s="26" t="s">
         <v>69</v>
       </c>
-      <c r="Y6" s="24"/>
-      <c r="Z6" s="24"/>
-      <c r="AA6" s="24"/>
-      <c r="AB6" s="24"/>
+      <c r="Y6" s="26"/>
+      <c r="Z6" s="26"/>
+      <c r="AA6" s="26"/>
+      <c r="AB6" s="26"/>
     </row>
     <row r="7" spans="1:28" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="23" t="s">
+      <c r="A7" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="B7" s="23"/>
-      <c r="C7" s="24" t="s">
+      <c r="B7" s="25"/>
+      <c r="C7" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="D7" s="24"/>
-      <c r="E7" s="24"/>
-      <c r="F7" s="24"/>
-      <c r="G7" s="24"/>
-      <c r="H7" s="23" t="s">
+      <c r="D7" s="26"/>
+      <c r="E7" s="26"/>
+      <c r="F7" s="26"/>
+      <c r="G7" s="26"/>
+      <c r="H7" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="I7" s="23"/>
-      <c r="J7" s="24" t="s">
+      <c r="I7" s="25"/>
+      <c r="J7" s="26" t="s">
         <v>54</v>
       </c>
-      <c r="K7" s="24"/>
-      <c r="L7" s="24"/>
-      <c r="M7" s="24"/>
-      <c r="N7" s="24"/>
-      <c r="O7" s="25" t="s">
+      <c r="K7" s="26"/>
+      <c r="L7" s="26"/>
+      <c r="M7" s="26"/>
+      <c r="N7" s="26"/>
+      <c r="O7" s="27" t="s">
         <v>205</v>
       </c>
-      <c r="P7" s="25"/>
-      <c r="Q7" s="24"/>
-      <c r="R7" s="24"/>
-      <c r="S7" s="24"/>
-      <c r="T7" s="24"/>
-      <c r="U7" s="24"/>
-      <c r="V7" s="25" t="s">
+      <c r="P7" s="27"/>
+      <c r="Q7" s="26"/>
+      <c r="R7" s="26"/>
+      <c r="S7" s="26"/>
+      <c r="T7" s="26"/>
+      <c r="U7" s="26"/>
+      <c r="V7" s="27" t="s">
         <v>71</v>
       </c>
-      <c r="W7" s="25"/>
-      <c r="X7" s="24" t="s">
+      <c r="W7" s="27"/>
+      <c r="X7" s="26" t="s">
         <v>72</v>
       </c>
-      <c r="Y7" s="24"/>
-      <c r="Z7" s="24"/>
-      <c r="AA7" s="24"/>
-      <c r="AB7" s="24"/>
+      <c r="Y7" s="26"/>
+      <c r="Z7" s="26"/>
+      <c r="AA7" s="26"/>
+      <c r="AB7" s="26"/>
     </row>
     <row r="8" spans="1:28" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="23" t="s">
+      <c r="A8" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="B8" s="23"/>
-      <c r="C8" s="24" t="s">
+      <c r="B8" s="25"/>
+      <c r="C8" s="26" t="s">
         <v>58</v>
       </c>
-      <c r="D8" s="24"/>
-      <c r="E8" s="24"/>
-      <c r="F8" s="24"/>
-      <c r="G8" s="24"/>
-      <c r="H8" s="29" t="s">
+      <c r="D8" s="26"/>
+      <c r="E8" s="26"/>
+      <c r="F8" s="26"/>
+      <c r="G8" s="26"/>
+      <c r="H8" s="28" t="s">
         <v>55</v>
       </c>
-      <c r="I8" s="29"/>
-      <c r="J8" s="30" t="s">
+      <c r="I8" s="28"/>
+      <c r="J8" s="29" t="s">
         <v>54</v>
       </c>
-      <c r="K8" s="30"/>
-      <c r="L8" s="30"/>
-      <c r="M8" s="30"/>
-      <c r="N8" s="30"/>
-      <c r="O8" s="25" t="s">
+      <c r="K8" s="29"/>
+      <c r="L8" s="29"/>
+      <c r="M8" s="29"/>
+      <c r="N8" s="29"/>
+      <c r="O8" s="27" t="s">
         <v>206</v>
       </c>
-      <c r="P8" s="25"/>
-      <c r="Q8" s="24" t="s">
+      <c r="P8" s="27"/>
+      <c r="Q8" s="26" t="s">
         <v>207</v>
       </c>
-      <c r="R8" s="24"/>
-      <c r="S8" s="24"/>
-      <c r="T8" s="24"/>
-      <c r="U8" s="24"/>
-      <c r="V8" s="25" t="s">
+      <c r="R8" s="26"/>
+      <c r="S8" s="26"/>
+      <c r="T8" s="26"/>
+      <c r="U8" s="26"/>
+      <c r="V8" s="27" t="s">
         <v>73</v>
       </c>
-      <c r="W8" s="25"/>
-      <c r="X8" s="24" t="s">
+      <c r="W8" s="27"/>
+      <c r="X8" s="26" t="s">
         <v>65</v>
       </c>
-      <c r="Y8" s="24"/>
-      <c r="Z8" s="24"/>
-      <c r="AA8" s="24"/>
-      <c r="AB8" s="24"/>
+      <c r="Y8" s="26"/>
+      <c r="Z8" s="26"/>
+      <c r="AA8" s="26"/>
+      <c r="AB8" s="26"/>
     </row>
     <row r="9" spans="1:28" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="23" t="s">
+      <c r="A9" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="B9" s="23"/>
-      <c r="C9" s="24" t="s">
+      <c r="B9" s="25"/>
+      <c r="C9" s="26" t="s">
         <v>59</v>
       </c>
-      <c r="D9" s="24"/>
-      <c r="E9" s="24"/>
-      <c r="F9" s="24"/>
-      <c r="G9" s="24"/>
-      <c r="H9" s="23" t="s">
+      <c r="D9" s="26"/>
+      <c r="E9" s="26"/>
+      <c r="F9" s="26"/>
+      <c r="G9" s="26"/>
+      <c r="H9" s="25" t="s">
         <v>82</v>
       </c>
-      <c r="I9" s="23"/>
-      <c r="J9" s="24" t="s">
+      <c r="I9" s="25"/>
+      <c r="J9" s="26" t="s">
         <v>60</v>
       </c>
-      <c r="K9" s="24"/>
-      <c r="L9" s="24"/>
-      <c r="M9" s="24"/>
-      <c r="N9" s="24"/>
-      <c r="O9" s="25"/>
-      <c r="P9" s="25"/>
-      <c r="Q9" s="24"/>
-      <c r="R9" s="24"/>
-      <c r="S9" s="24"/>
-      <c r="T9" s="24"/>
-      <c r="U9" s="24"/>
-      <c r="V9" s="25" t="s">
+      <c r="K9" s="26"/>
+      <c r="L9" s="26"/>
+      <c r="M9" s="26"/>
+      <c r="N9" s="26"/>
+      <c r="O9" s="27"/>
+      <c r="P9" s="27"/>
+      <c r="Q9" s="26"/>
+      <c r="R9" s="26"/>
+      <c r="S9" s="26"/>
+      <c r="T9" s="26"/>
+      <c r="U9" s="26"/>
+      <c r="V9" s="27" t="s">
         <v>74</v>
       </c>
-      <c r="W9" s="25"/>
-      <c r="X9" s="24" t="s">
+      <c r="W9" s="27"/>
+      <c r="X9" s="26" t="s">
         <v>75</v>
       </c>
-      <c r="Y9" s="24"/>
-      <c r="Z9" s="24"/>
-      <c r="AA9" s="24"/>
-      <c r="AB9" s="24"/>
+      <c r="Y9" s="26"/>
+      <c r="Z9" s="26"/>
+      <c r="AA9" s="26"/>
+      <c r="AB9" s="26"/>
     </row>
     <row r="10" spans="1:28" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="23" t="s">
+      <c r="A10" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="B10" s="23"/>
-      <c r="C10" s="24" t="s">
+      <c r="B10" s="25"/>
+      <c r="C10" s="26" t="s">
         <v>57</v>
       </c>
-      <c r="D10" s="24"/>
-      <c r="E10" s="24"/>
-      <c r="F10" s="24"/>
-      <c r="G10" s="24"/>
-      <c r="H10" s="23" t="s">
+      <c r="D10" s="26"/>
+      <c r="E10" s="26"/>
+      <c r="F10" s="26"/>
+      <c r="G10" s="26"/>
+      <c r="H10" s="25" t="s">
         <v>61</v>
       </c>
-      <c r="I10" s="23"/>
-      <c r="J10" s="24" t="s">
+      <c r="I10" s="25"/>
+      <c r="J10" s="26" t="s">
         <v>62</v>
       </c>
-      <c r="K10" s="24"/>
-      <c r="L10" s="24"/>
-      <c r="M10" s="24"/>
-      <c r="N10" s="24"/>
-      <c r="O10" s="25"/>
-      <c r="P10" s="25"/>
-      <c r="Q10" s="24"/>
-      <c r="R10" s="24"/>
-      <c r="S10" s="24"/>
-      <c r="T10" s="24"/>
-      <c r="U10" s="24"/>
-      <c r="V10" s="25" t="s">
+      <c r="K10" s="26"/>
+      <c r="L10" s="26"/>
+      <c r="M10" s="26"/>
+      <c r="N10" s="26"/>
+      <c r="O10" s="27"/>
+      <c r="P10" s="27"/>
+      <c r="Q10" s="26"/>
+      <c r="R10" s="26"/>
+      <c r="S10" s="26"/>
+      <c r="T10" s="26"/>
+      <c r="U10" s="26"/>
+      <c r="V10" s="27" t="s">
         <v>77</v>
       </c>
-      <c r="W10" s="25"/>
-      <c r="X10" s="24" t="s">
+      <c r="W10" s="27"/>
+      <c r="X10" s="26" t="s">
         <v>78</v>
       </c>
-      <c r="Y10" s="24"/>
-      <c r="Z10" s="24"/>
-      <c r="AA10" s="24"/>
-      <c r="AB10" s="24"/>
+      <c r="Y10" s="26"/>
+      <c r="Z10" s="26"/>
+      <c r="AA10" s="26"/>
+      <c r="AB10" s="26"/>
     </row>
     <row r="11" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A11" s="23"/>
-      <c r="B11" s="23"/>
-      <c r="C11" s="24"/>
-      <c r="D11" s="24"/>
-      <c r="E11" s="24"/>
-      <c r="F11" s="24"/>
-      <c r="G11" s="24"/>
-      <c r="H11" s="23" t="s">
+      <c r="A11" s="25"/>
+      <c r="B11" s="25"/>
+      <c r="C11" s="26"/>
+      <c r="D11" s="26"/>
+      <c r="E11" s="26"/>
+      <c r="F11" s="26"/>
+      <c r="G11" s="26"/>
+      <c r="H11" s="25" t="s">
         <v>63</v>
       </c>
-      <c r="I11" s="23"/>
-      <c r="J11" s="24" t="s">
+      <c r="I11" s="25"/>
+      <c r="J11" s="26" t="s">
         <v>64</v>
       </c>
-      <c r="K11" s="24"/>
-      <c r="L11" s="24"/>
-      <c r="M11" s="24"/>
-      <c r="N11" s="24"/>
-      <c r="O11" s="25"/>
-      <c r="P11" s="25"/>
-      <c r="Q11" s="24"/>
-      <c r="R11" s="24"/>
-      <c r="S11" s="24"/>
-      <c r="T11" s="24"/>
-      <c r="U11" s="24"/>
-      <c r="V11" s="25" t="s">
+      <c r="K11" s="26"/>
+      <c r="L11" s="26"/>
+      <c r="M11" s="26"/>
+      <c r="N11" s="26"/>
+      <c r="O11" s="27"/>
+      <c r="P11" s="27"/>
+      <c r="Q11" s="26"/>
+      <c r="R11" s="26"/>
+      <c r="S11" s="26"/>
+      <c r="T11" s="26"/>
+      <c r="U11" s="26"/>
+      <c r="V11" s="27" t="s">
         <v>79</v>
       </c>
-      <c r="W11" s="25"/>
-      <c r="X11" s="24" t="s">
+      <c r="W11" s="27"/>
+      <c r="X11" s="26" t="s">
         <v>80</v>
       </c>
-      <c r="Y11" s="24"/>
-      <c r="Z11" s="24"/>
-      <c r="AA11" s="24"/>
-      <c r="AB11" s="24"/>
+      <c r="Y11" s="26"/>
+      <c r="Z11" s="26"/>
+      <c r="AA11" s="26"/>
+      <c r="AB11" s="26"/>
     </row>
     <row r="12" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A12" s="23"/>
-      <c r="B12" s="23"/>
-      <c r="C12" s="24"/>
-      <c r="D12" s="24"/>
-      <c r="E12" s="24"/>
-      <c r="F12" s="24"/>
-      <c r="G12" s="24"/>
-      <c r="H12" s="23" t="s">
+      <c r="A12" s="25"/>
+      <c r="B12" s="25"/>
+      <c r="C12" s="26"/>
+      <c r="D12" s="26"/>
+      <c r="E12" s="26"/>
+      <c r="F12" s="26"/>
+      <c r="G12" s="26"/>
+      <c r="H12" s="25" t="s">
         <v>81</v>
       </c>
-      <c r="I12" s="23"/>
-      <c r="J12" s="24"/>
-      <c r="K12" s="24"/>
-      <c r="L12" s="24"/>
-      <c r="M12" s="24"/>
-      <c r="N12" s="24"/>
-      <c r="O12" s="25"/>
-      <c r="P12" s="25"/>
-      <c r="Q12" s="24"/>
-      <c r="R12" s="24"/>
-      <c r="S12" s="24"/>
-      <c r="T12" s="24"/>
-      <c r="U12" s="24"/>
-      <c r="V12" s="25"/>
-      <c r="W12" s="25"/>
-      <c r="X12" s="24"/>
-      <c r="Y12" s="24"/>
-      <c r="Z12" s="24"/>
-      <c r="AA12" s="24"/>
-      <c r="AB12" s="24"/>
+      <c r="I12" s="25"/>
+      <c r="J12" s="26"/>
+      <c r="K12" s="26"/>
+      <c r="L12" s="26"/>
+      <c r="M12" s="26"/>
+      <c r="N12" s="26"/>
+      <c r="O12" s="27"/>
+      <c r="P12" s="27"/>
+      <c r="Q12" s="26"/>
+      <c r="R12" s="26"/>
+      <c r="S12" s="26"/>
+      <c r="T12" s="26"/>
+      <c r="U12" s="26"/>
+      <c r="V12" s="27"/>
+      <c r="W12" s="27"/>
+      <c r="X12" s="26"/>
+      <c r="Y12" s="26"/>
+      <c r="Z12" s="26"/>
+      <c r="AA12" s="26"/>
+      <c r="AB12" s="26"/>
     </row>
     <row r="13" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A13" s="23"/>
-      <c r="B13" s="23"/>
-      <c r="C13" s="24"/>
-      <c r="D13" s="24"/>
-      <c r="E13" s="24"/>
-      <c r="F13" s="24"/>
-      <c r="G13" s="24"/>
-      <c r="H13" s="23"/>
-      <c r="I13" s="23"/>
-      <c r="J13" s="24"/>
-      <c r="K13" s="24"/>
-      <c r="L13" s="24"/>
-      <c r="M13" s="24"/>
-      <c r="N13" s="24"/>
-      <c r="O13" s="25"/>
-      <c r="P13" s="25"/>
-      <c r="Q13" s="24"/>
-      <c r="R13" s="24"/>
-      <c r="S13" s="24"/>
-      <c r="T13" s="24"/>
-      <c r="U13" s="24"/>
-      <c r="V13" s="25"/>
-      <c r="W13" s="25"/>
-      <c r="X13" s="24"/>
-      <c r="Y13" s="24"/>
-      <c r="Z13" s="24"/>
-      <c r="AA13" s="24"/>
-      <c r="AB13" s="24"/>
+      <c r="A13" s="25"/>
+      <c r="B13" s="25"/>
+      <c r="C13" s="26"/>
+      <c r="D13" s="26"/>
+      <c r="E13" s="26"/>
+      <c r="F13" s="26"/>
+      <c r="G13" s="26"/>
+      <c r="H13" s="25"/>
+      <c r="I13" s="25"/>
+      <c r="J13" s="26"/>
+      <c r="K13" s="26"/>
+      <c r="L13" s="26"/>
+      <c r="M13" s="26"/>
+      <c r="N13" s="26"/>
+      <c r="O13" s="27"/>
+      <c r="P13" s="27"/>
+      <c r="Q13" s="26"/>
+      <c r="R13" s="26"/>
+      <c r="S13" s="26"/>
+      <c r="T13" s="26"/>
+      <c r="U13" s="26"/>
+      <c r="V13" s="27"/>
+      <c r="W13" s="27"/>
+      <c r="X13" s="26"/>
+      <c r="Y13" s="26"/>
+      <c r="Z13" s="26"/>
+      <c r="AA13" s="26"/>
+      <c r="AB13" s="26"/>
     </row>
     <row r="14" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A14" s="23"/>
-      <c r="B14" s="23"/>
-      <c r="C14" s="24"/>
-      <c r="D14" s="24"/>
-      <c r="E14" s="24"/>
-      <c r="F14" s="24"/>
-      <c r="G14" s="24"/>
-      <c r="H14" s="23"/>
-      <c r="I14" s="23"/>
-      <c r="J14" s="24"/>
-      <c r="K14" s="24"/>
-      <c r="L14" s="24"/>
-      <c r="M14" s="24"/>
-      <c r="N14" s="24"/>
-      <c r="O14" s="25"/>
-      <c r="P14" s="25"/>
-      <c r="Q14" s="24"/>
-      <c r="R14" s="24"/>
-      <c r="S14" s="24"/>
-      <c r="T14" s="24"/>
-      <c r="U14" s="24"/>
-      <c r="V14" s="25"/>
-      <c r="W14" s="25"/>
-      <c r="X14" s="24"/>
-      <c r="Y14" s="24"/>
-      <c r="Z14" s="24"/>
-      <c r="AA14" s="24"/>
-      <c r="AB14" s="24"/>
+      <c r="A14" s="25"/>
+      <c r="B14" s="25"/>
+      <c r="C14" s="26"/>
+      <c r="D14" s="26"/>
+      <c r="E14" s="26"/>
+      <c r="F14" s="26"/>
+      <c r="G14" s="26"/>
+      <c r="H14" s="25"/>
+      <c r="I14" s="25"/>
+      <c r="J14" s="26"/>
+      <c r="K14" s="26"/>
+      <c r="L14" s="26"/>
+      <c r="M14" s="26"/>
+      <c r="N14" s="26"/>
+      <c r="O14" s="27"/>
+      <c r="P14" s="27"/>
+      <c r="Q14" s="26"/>
+      <c r="R14" s="26"/>
+      <c r="S14" s="26"/>
+      <c r="T14" s="26"/>
+      <c r="U14" s="26"/>
+      <c r="V14" s="27"/>
+      <c r="W14" s="27"/>
+      <c r="X14" s="26"/>
+      <c r="Y14" s="26"/>
+      <c r="Z14" s="26"/>
+      <c r="AA14" s="26"/>
+      <c r="AB14" s="26"/>
     </row>
     <row r="15" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A15" s="23"/>
-      <c r="B15" s="23"/>
-      <c r="C15" s="24"/>
-      <c r="D15" s="24"/>
-      <c r="E15" s="24"/>
-      <c r="F15" s="24"/>
-      <c r="G15" s="24"/>
-      <c r="H15" s="23"/>
-      <c r="I15" s="23"/>
-      <c r="J15" s="24"/>
-      <c r="K15" s="24"/>
-      <c r="L15" s="24"/>
-      <c r="M15" s="24"/>
-      <c r="N15" s="24"/>
-      <c r="O15" s="25"/>
-      <c r="P15" s="25"/>
-      <c r="Q15" s="24"/>
-      <c r="R15" s="24"/>
-      <c r="S15" s="24"/>
-      <c r="T15" s="24"/>
-      <c r="U15" s="24"/>
-      <c r="V15" s="25"/>
-      <c r="W15" s="25"/>
-      <c r="X15" s="24"/>
-      <c r="Y15" s="24"/>
-      <c r="Z15" s="24"/>
-      <c r="AA15" s="24"/>
-      <c r="AB15" s="24"/>
+      <c r="A15" s="25"/>
+      <c r="B15" s="25"/>
+      <c r="C15" s="26"/>
+      <c r="D15" s="26"/>
+      <c r="E15" s="26"/>
+      <c r="F15" s="26"/>
+      <c r="G15" s="26"/>
+      <c r="H15" s="25"/>
+      <c r="I15" s="25"/>
+      <c r="J15" s="26"/>
+      <c r="K15" s="26"/>
+      <c r="L15" s="26"/>
+      <c r="M15" s="26"/>
+      <c r="N15" s="26"/>
+      <c r="O15" s="27"/>
+      <c r="P15" s="27"/>
+      <c r="Q15" s="26"/>
+      <c r="R15" s="26"/>
+      <c r="S15" s="26"/>
+      <c r="T15" s="26"/>
+      <c r="U15" s="26"/>
+      <c r="V15" s="27"/>
+      <c r="W15" s="27"/>
+      <c r="X15" s="26"/>
+      <c r="Y15" s="26"/>
+      <c r="Z15" s="26"/>
+      <c r="AA15" s="26"/>
+      <c r="AB15" s="26"/>
     </row>
     <row r="16" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A16" s="23"/>
-      <c r="B16" s="23"/>
-      <c r="C16" s="24"/>
-      <c r="D16" s="24"/>
-      <c r="E16" s="24"/>
-      <c r="F16" s="24"/>
-      <c r="G16" s="24"/>
-      <c r="H16" s="23"/>
-      <c r="I16" s="23"/>
-      <c r="J16" s="24"/>
-      <c r="K16" s="24"/>
-      <c r="L16" s="24"/>
-      <c r="M16" s="24"/>
-      <c r="N16" s="24"/>
-      <c r="O16" s="25"/>
-      <c r="P16" s="25"/>
-      <c r="Q16" s="24"/>
-      <c r="R16" s="24"/>
-      <c r="S16" s="24"/>
-      <c r="T16" s="24"/>
-      <c r="U16" s="24"/>
-      <c r="V16" s="25"/>
-      <c r="W16" s="25"/>
-      <c r="X16" s="24"/>
-      <c r="Y16" s="24"/>
-      <c r="Z16" s="24"/>
-      <c r="AA16" s="24"/>
-      <c r="AB16" s="24"/>
+      <c r="A16" s="25"/>
+      <c r="B16" s="25"/>
+      <c r="C16" s="26"/>
+      <c r="D16" s="26"/>
+      <c r="E16" s="26"/>
+      <c r="F16" s="26"/>
+      <c r="G16" s="26"/>
+      <c r="H16" s="25"/>
+      <c r="I16" s="25"/>
+      <c r="J16" s="26"/>
+      <c r="K16" s="26"/>
+      <c r="L16" s="26"/>
+      <c r="M16" s="26"/>
+      <c r="N16" s="26"/>
+      <c r="O16" s="27"/>
+      <c r="P16" s="27"/>
+      <c r="Q16" s="26"/>
+      <c r="R16" s="26"/>
+      <c r="S16" s="26"/>
+      <c r="T16" s="26"/>
+      <c r="U16" s="26"/>
+      <c r="V16" s="27"/>
+      <c r="W16" s="27"/>
+      <c r="X16" s="26"/>
+      <c r="Y16" s="26"/>
+      <c r="Z16" s="26"/>
+      <c r="AA16" s="26"/>
+      <c r="AB16" s="26"/>
     </row>
     <row r="17" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A17" s="23"/>
-      <c r="B17" s="23"/>
-      <c r="C17" s="24"/>
-      <c r="D17" s="24"/>
-      <c r="E17" s="24"/>
-      <c r="F17" s="24"/>
-      <c r="G17" s="24"/>
-      <c r="H17" s="23"/>
-      <c r="I17" s="23"/>
-      <c r="J17" s="24"/>
-      <c r="K17" s="24"/>
-      <c r="L17" s="24"/>
-      <c r="M17" s="24"/>
-      <c r="N17" s="24"/>
-      <c r="O17" s="25"/>
-      <c r="P17" s="25"/>
-      <c r="Q17" s="24"/>
-      <c r="R17" s="24"/>
-      <c r="S17" s="24"/>
-      <c r="T17" s="24"/>
-      <c r="U17" s="24"/>
-      <c r="V17" s="25"/>
-      <c r="W17" s="25"/>
-      <c r="X17" s="24"/>
-      <c r="Y17" s="24"/>
-      <c r="Z17" s="24"/>
-      <c r="AA17" s="24"/>
-      <c r="AB17" s="24"/>
+      <c r="A17" s="25"/>
+      <c r="B17" s="25"/>
+      <c r="C17" s="26"/>
+      <c r="D17" s="26"/>
+      <c r="E17" s="26"/>
+      <c r="F17" s="26"/>
+      <c r="G17" s="26"/>
+      <c r="H17" s="25"/>
+      <c r="I17" s="25"/>
+      <c r="J17" s="26"/>
+      <c r="K17" s="26"/>
+      <c r="L17" s="26"/>
+      <c r="M17" s="26"/>
+      <c r="N17" s="26"/>
+      <c r="O17" s="27"/>
+      <c r="P17" s="27"/>
+      <c r="Q17" s="26"/>
+      <c r="R17" s="26"/>
+      <c r="S17" s="26"/>
+      <c r="T17" s="26"/>
+      <c r="U17" s="26"/>
+      <c r="V17" s="27"/>
+      <c r="W17" s="27"/>
+      <c r="X17" s="26"/>
+      <c r="Y17" s="26"/>
+      <c r="Z17" s="26"/>
+      <c r="AA17" s="26"/>
+      <c r="AB17" s="26"/>
     </row>
     <row r="18" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A18" s="23"/>
-      <c r="B18" s="23"/>
-      <c r="C18" s="24"/>
-      <c r="D18" s="24"/>
-      <c r="E18" s="24"/>
-      <c r="F18" s="24"/>
-      <c r="G18" s="24"/>
-      <c r="H18" s="23"/>
-      <c r="I18" s="23"/>
-      <c r="J18" s="24"/>
-      <c r="K18" s="24"/>
-      <c r="L18" s="24"/>
-      <c r="M18" s="24"/>
-      <c r="N18" s="24"/>
-      <c r="O18" s="25"/>
-      <c r="P18" s="25"/>
-      <c r="Q18" s="24"/>
-      <c r="R18" s="24"/>
-      <c r="S18" s="24"/>
-      <c r="T18" s="24"/>
-      <c r="U18" s="24"/>
-      <c r="V18" s="25"/>
-      <c r="W18" s="25"/>
-      <c r="X18" s="24"/>
-      <c r="Y18" s="24"/>
-      <c r="Z18" s="24"/>
-      <c r="AA18" s="24"/>
-      <c r="AB18" s="24"/>
+      <c r="A18" s="25"/>
+      <c r="B18" s="25"/>
+      <c r="C18" s="26"/>
+      <c r="D18" s="26"/>
+      <c r="E18" s="26"/>
+      <c r="F18" s="26"/>
+      <c r="G18" s="26"/>
+      <c r="H18" s="25"/>
+      <c r="I18" s="25"/>
+      <c r="J18" s="26"/>
+      <c r="K18" s="26"/>
+      <c r="L18" s="26"/>
+      <c r="M18" s="26"/>
+      <c r="N18" s="26"/>
+      <c r="O18" s="27"/>
+      <c r="P18" s="27"/>
+      <c r="Q18" s="26"/>
+      <c r="R18" s="26"/>
+      <c r="S18" s="26"/>
+      <c r="T18" s="26"/>
+      <c r="U18" s="26"/>
+      <c r="V18" s="27"/>
+      <c r="W18" s="27"/>
+      <c r="X18" s="26"/>
+      <c r="Y18" s="26"/>
+      <c r="Z18" s="26"/>
+      <c r="AA18" s="26"/>
+      <c r="AB18" s="26"/>
     </row>
     <row r="19" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A19" s="23"/>
-      <c r="B19" s="23"/>
-      <c r="C19" s="24"/>
-      <c r="D19" s="24"/>
-      <c r="E19" s="24"/>
-      <c r="F19" s="24"/>
-      <c r="G19" s="24"/>
-      <c r="H19" s="23"/>
-      <c r="I19" s="23"/>
-      <c r="J19" s="24"/>
-      <c r="K19" s="24"/>
-      <c r="L19" s="24"/>
-      <c r="M19" s="24"/>
-      <c r="N19" s="24"/>
-      <c r="O19" s="25"/>
-      <c r="P19" s="25"/>
-      <c r="Q19" s="24"/>
-      <c r="R19" s="24"/>
-      <c r="S19" s="24"/>
-      <c r="T19" s="24"/>
-      <c r="U19" s="24"/>
-      <c r="V19" s="25"/>
-      <c r="W19" s="25"/>
-      <c r="X19" s="24"/>
-      <c r="Y19" s="24"/>
-      <c r="Z19" s="24"/>
-      <c r="AA19" s="24"/>
-      <c r="AB19" s="24"/>
+      <c r="A19" s="25"/>
+      <c r="B19" s="25"/>
+      <c r="C19" s="26"/>
+      <c r="D19" s="26"/>
+      <c r="E19" s="26"/>
+      <c r="F19" s="26"/>
+      <c r="G19" s="26"/>
+      <c r="H19" s="25"/>
+      <c r="I19" s="25"/>
+      <c r="J19" s="26"/>
+      <c r="K19" s="26"/>
+      <c r="L19" s="26"/>
+      <c r="M19" s="26"/>
+      <c r="N19" s="26"/>
+      <c r="O19" s="27"/>
+      <c r="P19" s="27"/>
+      <c r="Q19" s="26"/>
+      <c r="R19" s="26"/>
+      <c r="S19" s="26"/>
+      <c r="T19" s="26"/>
+      <c r="U19" s="26"/>
+      <c r="V19" s="27"/>
+      <c r="W19" s="27"/>
+      <c r="X19" s="26"/>
+      <c r="Y19" s="26"/>
+      <c r="Z19" s="26"/>
+      <c r="AA19" s="26"/>
+      <c r="AB19" s="26"/>
     </row>
     <row r="20" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A20" s="23"/>
-      <c r="B20" s="23"/>
-      <c r="C20" s="24"/>
-      <c r="D20" s="24"/>
-      <c r="E20" s="24"/>
-      <c r="F20" s="24"/>
-      <c r="G20" s="24"/>
-      <c r="H20" s="23"/>
-      <c r="I20" s="23"/>
-      <c r="J20" s="24"/>
-      <c r="K20" s="24"/>
-      <c r="L20" s="24"/>
-      <c r="M20" s="24"/>
-      <c r="N20" s="24"/>
-      <c r="O20" s="25"/>
-      <c r="P20" s="25"/>
-      <c r="Q20" s="24"/>
-      <c r="R20" s="24"/>
-      <c r="S20" s="24"/>
-      <c r="T20" s="24"/>
-      <c r="U20" s="24"/>
-      <c r="V20" s="25"/>
-      <c r="W20" s="25"/>
-      <c r="X20" s="24"/>
-      <c r="Y20" s="24"/>
-      <c r="Z20" s="24"/>
-      <c r="AA20" s="24"/>
-      <c r="AB20" s="24"/>
+      <c r="A20" s="25"/>
+      <c r="B20" s="25"/>
+      <c r="C20" s="26"/>
+      <c r="D20" s="26"/>
+      <c r="E20" s="26"/>
+      <c r="F20" s="26"/>
+      <c r="G20" s="26"/>
+      <c r="H20" s="25"/>
+      <c r="I20" s="25"/>
+      <c r="J20" s="26"/>
+      <c r="K20" s="26"/>
+      <c r="L20" s="26"/>
+      <c r="M20" s="26"/>
+      <c r="N20" s="26"/>
+      <c r="O20" s="27"/>
+      <c r="P20" s="27"/>
+      <c r="Q20" s="26"/>
+      <c r="R20" s="26"/>
+      <c r="S20" s="26"/>
+      <c r="T20" s="26"/>
+      <c r="U20" s="26"/>
+      <c r="V20" s="27"/>
+      <c r="W20" s="27"/>
+      <c r="X20" s="26"/>
+      <c r="Y20" s="26"/>
+      <c r="Z20" s="26"/>
+      <c r="AA20" s="26"/>
+      <c r="AB20" s="26"/>
     </row>
     <row r="21" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A21" s="23"/>
-      <c r="B21" s="23"/>
-      <c r="C21" s="24"/>
-      <c r="D21" s="24"/>
-      <c r="E21" s="24"/>
-      <c r="F21" s="24"/>
-      <c r="G21" s="24"/>
-      <c r="H21" s="23"/>
-      <c r="I21" s="23"/>
-      <c r="J21" s="24"/>
-      <c r="K21" s="24"/>
-      <c r="L21" s="24"/>
-      <c r="M21" s="24"/>
-      <c r="N21" s="24"/>
-      <c r="O21" s="25"/>
-      <c r="P21" s="25"/>
-      <c r="Q21" s="24"/>
-      <c r="R21" s="24"/>
-      <c r="S21" s="24"/>
-      <c r="T21" s="24"/>
-      <c r="U21" s="24"/>
-      <c r="V21" s="25"/>
-      <c r="W21" s="25"/>
-      <c r="X21" s="24"/>
-      <c r="Y21" s="24"/>
-      <c r="Z21" s="24"/>
-      <c r="AA21" s="24"/>
-      <c r="AB21" s="24"/>
+      <c r="A21" s="25"/>
+      <c r="B21" s="25"/>
+      <c r="C21" s="26"/>
+      <c r="D21" s="26"/>
+      <c r="E21" s="26"/>
+      <c r="F21" s="26"/>
+      <c r="G21" s="26"/>
+      <c r="H21" s="25"/>
+      <c r="I21" s="25"/>
+      <c r="J21" s="26"/>
+      <c r="K21" s="26"/>
+      <c r="L21" s="26"/>
+      <c r="M21" s="26"/>
+      <c r="N21" s="26"/>
+      <c r="O21" s="27"/>
+      <c r="P21" s="27"/>
+      <c r="Q21" s="26"/>
+      <c r="R21" s="26"/>
+      <c r="S21" s="26"/>
+      <c r="T21" s="26"/>
+      <c r="U21" s="26"/>
+      <c r="V21" s="27"/>
+      <c r="W21" s="27"/>
+      <c r="X21" s="26"/>
+      <c r="Y21" s="26"/>
+      <c r="Z21" s="26"/>
+      <c r="AA21" s="26"/>
+      <c r="AB21" s="26"/>
     </row>
     <row r="22" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A22" s="23"/>
-      <c r="B22" s="23"/>
-      <c r="C22" s="24"/>
-      <c r="D22" s="24"/>
-      <c r="E22" s="24"/>
-      <c r="F22" s="24"/>
-      <c r="G22" s="24"/>
-      <c r="H22" s="23"/>
-      <c r="I22" s="23"/>
-      <c r="J22" s="24"/>
-      <c r="K22" s="24"/>
-      <c r="L22" s="24"/>
-      <c r="M22" s="24"/>
-      <c r="N22" s="24"/>
-      <c r="O22" s="25"/>
-      <c r="P22" s="25"/>
-      <c r="Q22" s="24"/>
-      <c r="R22" s="24"/>
-      <c r="S22" s="24"/>
-      <c r="T22" s="24"/>
-      <c r="U22" s="24"/>
-      <c r="V22" s="25"/>
-      <c r="W22" s="25"/>
-      <c r="X22" s="24"/>
-      <c r="Y22" s="24"/>
-      <c r="Z22" s="24"/>
-      <c r="AA22" s="24"/>
-      <c r="AB22" s="24"/>
+      <c r="A22" s="25"/>
+      <c r="B22" s="25"/>
+      <c r="C22" s="26"/>
+      <c r="D22" s="26"/>
+      <c r="E22" s="26"/>
+      <c r="F22" s="26"/>
+      <c r="G22" s="26"/>
+      <c r="H22" s="25"/>
+      <c r="I22" s="25"/>
+      <c r="J22" s="26"/>
+      <c r="K22" s="26"/>
+      <c r="L22" s="26"/>
+      <c r="M22" s="26"/>
+      <c r="N22" s="26"/>
+      <c r="O22" s="27"/>
+      <c r="P22" s="27"/>
+      <c r="Q22" s="26"/>
+      <c r="R22" s="26"/>
+      <c r="S22" s="26"/>
+      <c r="T22" s="26"/>
+      <c r="U22" s="26"/>
+      <c r="V22" s="27"/>
+      <c r="W22" s="27"/>
+      <c r="X22" s="26"/>
+      <c r="Y22" s="26"/>
+      <c r="Z22" s="26"/>
+      <c r="AA22" s="26"/>
+      <c r="AB22" s="26"/>
     </row>
     <row r="23" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A23" s="23"/>
-      <c r="B23" s="23"/>
-      <c r="C23" s="24"/>
-      <c r="D23" s="24"/>
-      <c r="E23" s="24"/>
-      <c r="F23" s="24"/>
-      <c r="G23" s="24"/>
-      <c r="H23" s="23"/>
-      <c r="I23" s="23"/>
-      <c r="J23" s="24"/>
-      <c r="K23" s="24"/>
-      <c r="L23" s="24"/>
-      <c r="M23" s="24"/>
-      <c r="N23" s="24"/>
-      <c r="O23" s="25"/>
-      <c r="P23" s="25"/>
-      <c r="Q23" s="24"/>
-      <c r="R23" s="24"/>
-      <c r="S23" s="24"/>
-      <c r="T23" s="24"/>
-      <c r="U23" s="24"/>
+      <c r="A23" s="25"/>
+      <c r="B23" s="25"/>
+      <c r="C23" s="26"/>
+      <c r="D23" s="26"/>
+      <c r="E23" s="26"/>
+      <c r="F23" s="26"/>
+      <c r="G23" s="26"/>
+      <c r="H23" s="25"/>
+      <c r="I23" s="25"/>
+      <c r="J23" s="26"/>
+      <c r="K23" s="26"/>
+      <c r="L23" s="26"/>
+      <c r="M23" s="26"/>
+      <c r="N23" s="26"/>
+      <c r="O23" s="27"/>
+      <c r="P23" s="27"/>
+      <c r="Q23" s="26"/>
+      <c r="R23" s="26"/>
+      <c r="S23" s="26"/>
+      <c r="T23" s="26"/>
+      <c r="U23" s="26"/>
     </row>
     <row r="24" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A24" s="23"/>
-      <c r="B24" s="23"/>
-      <c r="C24" s="24"/>
-      <c r="D24" s="24"/>
-      <c r="E24" s="24"/>
-      <c r="F24" s="24"/>
-      <c r="G24" s="24"/>
-      <c r="H24" s="23"/>
-      <c r="I24" s="23"/>
-      <c r="J24" s="24"/>
-      <c r="K24" s="24"/>
-      <c r="L24" s="24"/>
-      <c r="M24" s="24"/>
-      <c r="N24" s="24"/>
-      <c r="O24" s="25"/>
-      <c r="P24" s="25"/>
-      <c r="Q24" s="24"/>
-      <c r="R24" s="24"/>
-      <c r="S24" s="24"/>
-      <c r="T24" s="24"/>
-      <c r="U24" s="24"/>
+      <c r="A24" s="25"/>
+      <c r="B24" s="25"/>
+      <c r="C24" s="26"/>
+      <c r="D24" s="26"/>
+      <c r="E24" s="26"/>
+      <c r="F24" s="26"/>
+      <c r="G24" s="26"/>
+      <c r="H24" s="25"/>
+      <c r="I24" s="25"/>
+      <c r="J24" s="26"/>
+      <c r="K24" s="26"/>
+      <c r="L24" s="26"/>
+      <c r="M24" s="26"/>
+      <c r="N24" s="26"/>
+      <c r="O24" s="27"/>
+      <c r="P24" s="27"/>
+      <c r="Q24" s="26"/>
+      <c r="R24" s="26"/>
+      <c r="S24" s="26"/>
+      <c r="T24" s="26"/>
+      <c r="U24" s="26"/>
     </row>
     <row r="25" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A25" s="23"/>
-      <c r="B25" s="23"/>
-      <c r="C25" s="24"/>
-      <c r="D25" s="24"/>
-      <c r="E25" s="24"/>
-      <c r="F25" s="24"/>
-      <c r="G25" s="24"/>
-      <c r="H25" s="23"/>
-      <c r="I25" s="23"/>
-      <c r="J25" s="24"/>
-      <c r="K25" s="24"/>
-      <c r="L25" s="24"/>
-      <c r="M25" s="24"/>
-      <c r="N25" s="24"/>
-      <c r="O25" s="25"/>
-      <c r="P25" s="25"/>
-      <c r="Q25" s="24"/>
-      <c r="R25" s="24"/>
-      <c r="S25" s="24"/>
-      <c r="T25" s="24"/>
-      <c r="U25" s="24"/>
+      <c r="A25" s="25"/>
+      <c r="B25" s="25"/>
+      <c r="C25" s="26"/>
+      <c r="D25" s="26"/>
+      <c r="E25" s="26"/>
+      <c r="F25" s="26"/>
+      <c r="G25" s="26"/>
+      <c r="H25" s="25"/>
+      <c r="I25" s="25"/>
+      <c r="J25" s="26"/>
+      <c r="K25" s="26"/>
+      <c r="L25" s="26"/>
+      <c r="M25" s="26"/>
+      <c r="N25" s="26"/>
+      <c r="O25" s="27"/>
+      <c r="P25" s="27"/>
+      <c r="Q25" s="26"/>
+      <c r="R25" s="26"/>
+      <c r="S25" s="26"/>
+      <c r="T25" s="26"/>
+      <c r="U25" s="26"/>
     </row>
     <row r="26" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A26" s="23"/>
-      <c r="B26" s="23"/>
-      <c r="C26" s="24"/>
-      <c r="D26" s="24"/>
-      <c r="E26" s="24"/>
-      <c r="F26" s="24"/>
-      <c r="G26" s="24"/>
-      <c r="H26" s="23"/>
-      <c r="I26" s="23"/>
-      <c r="J26" s="24"/>
-      <c r="K26" s="24"/>
-      <c r="L26" s="24"/>
-      <c r="M26" s="24"/>
-      <c r="N26" s="24"/>
-      <c r="O26" s="25"/>
-      <c r="P26" s="25"/>
-      <c r="Q26" s="24"/>
-      <c r="R26" s="24"/>
-      <c r="S26" s="24"/>
-      <c r="T26" s="24"/>
-      <c r="U26" s="24"/>
+      <c r="A26" s="25"/>
+      <c r="B26" s="25"/>
+      <c r="C26" s="26"/>
+      <c r="D26" s="26"/>
+      <c r="E26" s="26"/>
+      <c r="F26" s="26"/>
+      <c r="G26" s="26"/>
+      <c r="H26" s="25"/>
+      <c r="I26" s="25"/>
+      <c r="J26" s="26"/>
+      <c r="K26" s="26"/>
+      <c r="L26" s="26"/>
+      <c r="M26" s="26"/>
+      <c r="N26" s="26"/>
+      <c r="O26" s="27"/>
+      <c r="P26" s="27"/>
+      <c r="Q26" s="26"/>
+      <c r="R26" s="26"/>
+      <c r="S26" s="26"/>
+      <c r="T26" s="26"/>
+      <c r="U26" s="26"/>
     </row>
     <row r="27" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A27" s="23"/>
-      <c r="B27" s="23"/>
-      <c r="C27" s="24"/>
-      <c r="D27" s="24"/>
-      <c r="E27" s="24"/>
-      <c r="F27" s="24"/>
-      <c r="G27" s="24"/>
-      <c r="H27" s="23"/>
-      <c r="I27" s="23"/>
-      <c r="J27" s="24"/>
-      <c r="K27" s="24"/>
-      <c r="L27" s="24"/>
-      <c r="M27" s="24"/>
-      <c r="N27" s="24"/>
-      <c r="O27" s="25"/>
-      <c r="P27" s="25"/>
-      <c r="Q27" s="24"/>
-      <c r="R27" s="24"/>
-      <c r="S27" s="24"/>
-      <c r="T27" s="24"/>
-      <c r="U27" s="24"/>
+      <c r="A27" s="25"/>
+      <c r="B27" s="25"/>
+      <c r="C27" s="26"/>
+      <c r="D27" s="26"/>
+      <c r="E27" s="26"/>
+      <c r="F27" s="26"/>
+      <c r="G27" s="26"/>
+      <c r="H27" s="25"/>
+      <c r="I27" s="25"/>
+      <c r="J27" s="26"/>
+      <c r="K27" s="26"/>
+      <c r="L27" s="26"/>
+      <c r="M27" s="26"/>
+      <c r="N27" s="26"/>
+      <c r="O27" s="27"/>
+      <c r="P27" s="27"/>
+      <c r="Q27" s="26"/>
+      <c r="R27" s="26"/>
+      <c r="S27" s="26"/>
+      <c r="T27" s="26"/>
+      <c r="U27" s="26"/>
     </row>
     <row r="28" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A28" s="23"/>
-      <c r="B28" s="23"/>
-      <c r="C28" s="24"/>
-      <c r="D28" s="24"/>
-      <c r="E28" s="24"/>
-      <c r="F28" s="24"/>
-      <c r="G28" s="24"/>
-      <c r="H28" s="23"/>
-      <c r="I28" s="23"/>
-      <c r="J28" s="24"/>
-      <c r="K28" s="24"/>
-      <c r="L28" s="24"/>
-      <c r="M28" s="24"/>
-      <c r="N28" s="24"/>
-      <c r="O28" s="25"/>
-      <c r="P28" s="25"/>
-      <c r="Q28" s="24"/>
-      <c r="R28" s="24"/>
-      <c r="S28" s="24"/>
-      <c r="T28" s="24"/>
-      <c r="U28" s="24"/>
+      <c r="A28" s="25"/>
+      <c r="B28" s="25"/>
+      <c r="C28" s="26"/>
+      <c r="D28" s="26"/>
+      <c r="E28" s="26"/>
+      <c r="F28" s="26"/>
+      <c r="G28" s="26"/>
+      <c r="H28" s="25"/>
+      <c r="I28" s="25"/>
+      <c r="J28" s="26"/>
+      <c r="K28" s="26"/>
+      <c r="L28" s="26"/>
+      <c r="M28" s="26"/>
+      <c r="N28" s="26"/>
+      <c r="O28" s="27"/>
+      <c r="P28" s="27"/>
+      <c r="Q28" s="26"/>
+      <c r="R28" s="26"/>
+      <c r="S28" s="26"/>
+      <c r="T28" s="26"/>
+      <c r="U28" s="26"/>
     </row>
     <row r="29" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A29" s="23"/>
-      <c r="B29" s="23"/>
-      <c r="C29" s="24"/>
-      <c r="D29" s="24"/>
-      <c r="E29" s="24"/>
-      <c r="F29" s="24"/>
-      <c r="G29" s="24"/>
-      <c r="H29" s="23"/>
-      <c r="I29" s="23"/>
-      <c r="J29" s="24"/>
-      <c r="K29" s="24"/>
-      <c r="L29" s="24"/>
-      <c r="M29" s="24"/>
-      <c r="N29" s="24"/>
-      <c r="O29" s="25"/>
-      <c r="P29" s="25"/>
-      <c r="Q29" s="24"/>
-      <c r="R29" s="24"/>
-      <c r="S29" s="24"/>
-      <c r="T29" s="24"/>
-      <c r="U29" s="24"/>
+      <c r="A29" s="25"/>
+      <c r="B29" s="25"/>
+      <c r="C29" s="26"/>
+      <c r="D29" s="26"/>
+      <c r="E29" s="26"/>
+      <c r="F29" s="26"/>
+      <c r="G29" s="26"/>
+      <c r="H29" s="25"/>
+      <c r="I29" s="25"/>
+      <c r="J29" s="26"/>
+      <c r="K29" s="26"/>
+      <c r="L29" s="26"/>
+      <c r="M29" s="26"/>
+      <c r="N29" s="26"/>
+      <c r="O29" s="27"/>
+      <c r="P29" s="27"/>
+      <c r="Q29" s="26"/>
+      <c r="R29" s="26"/>
+      <c r="S29" s="26"/>
+      <c r="T29" s="26"/>
+      <c r="U29" s="26"/>
     </row>
     <row r="30" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A30" s="23"/>
-      <c r="B30" s="23"/>
-      <c r="C30" s="24"/>
-      <c r="D30" s="24"/>
-      <c r="E30" s="24"/>
-      <c r="F30" s="24"/>
-      <c r="G30" s="24"/>
-      <c r="H30" s="23"/>
-      <c r="I30" s="23"/>
-      <c r="J30" s="24"/>
-      <c r="K30" s="24"/>
-      <c r="L30" s="24"/>
-      <c r="M30" s="24"/>
-      <c r="N30" s="24"/>
-      <c r="O30" s="25"/>
-      <c r="P30" s="25"/>
-      <c r="Q30" s="24"/>
-      <c r="R30" s="24"/>
-      <c r="S30" s="24"/>
-      <c r="T30" s="24"/>
-      <c r="U30" s="24"/>
+      <c r="A30" s="25"/>
+      <c r="B30" s="25"/>
+      <c r="C30" s="26"/>
+      <c r="D30" s="26"/>
+      <c r="E30" s="26"/>
+      <c r="F30" s="26"/>
+      <c r="G30" s="26"/>
+      <c r="H30" s="25"/>
+      <c r="I30" s="25"/>
+      <c r="J30" s="26"/>
+      <c r="K30" s="26"/>
+      <c r="L30" s="26"/>
+      <c r="M30" s="26"/>
+      <c r="N30" s="26"/>
+      <c r="O30" s="27"/>
+      <c r="P30" s="27"/>
+      <c r="Q30" s="26"/>
+      <c r="R30" s="26"/>
+      <c r="S30" s="26"/>
+      <c r="T30" s="26"/>
+      <c r="U30" s="26"/>
     </row>
     <row r="31" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A31" s="23"/>
-      <c r="B31" s="23"/>
-      <c r="C31" s="24"/>
-      <c r="D31" s="24"/>
-      <c r="E31" s="24"/>
-      <c r="F31" s="24"/>
-      <c r="G31" s="24"/>
-      <c r="H31" s="23"/>
-      <c r="I31" s="23"/>
-      <c r="J31" s="24"/>
-      <c r="K31" s="24"/>
-      <c r="L31" s="24"/>
-      <c r="M31" s="24"/>
-      <c r="N31" s="24"/>
-      <c r="O31" s="25"/>
-      <c r="P31" s="25"/>
-      <c r="Q31" s="24"/>
-      <c r="R31" s="24"/>
-      <c r="S31" s="24"/>
-      <c r="T31" s="24"/>
-      <c r="U31" s="24"/>
+      <c r="A31" s="25"/>
+      <c r="B31" s="25"/>
+      <c r="C31" s="26"/>
+      <c r="D31" s="26"/>
+      <c r="E31" s="26"/>
+      <c r="F31" s="26"/>
+      <c r="G31" s="26"/>
+      <c r="H31" s="25"/>
+      <c r="I31" s="25"/>
+      <c r="J31" s="26"/>
+      <c r="K31" s="26"/>
+      <c r="L31" s="26"/>
+      <c r="M31" s="26"/>
+      <c r="N31" s="26"/>
+      <c r="O31" s="27"/>
+      <c r="P31" s="27"/>
+      <c r="Q31" s="26"/>
+      <c r="R31" s="26"/>
+      <c r="S31" s="26"/>
+      <c r="T31" s="26"/>
+      <c r="U31" s="26"/>
     </row>
     <row r="32" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A32" s="23"/>
-      <c r="B32" s="23"/>
-      <c r="C32" s="24"/>
-      <c r="D32" s="24"/>
-      <c r="E32" s="24"/>
-      <c r="F32" s="24"/>
-      <c r="G32" s="24"/>
-      <c r="H32" s="23"/>
-      <c r="I32" s="23"/>
-      <c r="J32" s="24"/>
-      <c r="K32" s="24"/>
-      <c r="L32" s="24"/>
-      <c r="M32" s="24"/>
-      <c r="N32" s="24"/>
-      <c r="O32" s="25"/>
-      <c r="P32" s="25"/>
-      <c r="Q32" s="24"/>
-      <c r="R32" s="24"/>
-      <c r="S32" s="24"/>
-      <c r="T32" s="24"/>
-      <c r="U32" s="24"/>
+      <c r="A32" s="25"/>
+      <c r="B32" s="25"/>
+      <c r="C32" s="26"/>
+      <c r="D32" s="26"/>
+      <c r="E32" s="26"/>
+      <c r="F32" s="26"/>
+      <c r="G32" s="26"/>
+      <c r="H32" s="25"/>
+      <c r="I32" s="25"/>
+      <c r="J32" s="26"/>
+      <c r="K32" s="26"/>
+      <c r="L32" s="26"/>
+      <c r="M32" s="26"/>
+      <c r="N32" s="26"/>
+      <c r="O32" s="27"/>
+      <c r="P32" s="27"/>
+      <c r="Q32" s="26"/>
+      <c r="R32" s="26"/>
+      <c r="S32" s="26"/>
+      <c r="T32" s="26"/>
+      <c r="U32" s="26"/>
     </row>
     <row r="33" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A33" s="23"/>
-      <c r="B33" s="23"/>
-      <c r="C33" s="24"/>
-      <c r="D33" s="24"/>
-      <c r="E33" s="24"/>
-      <c r="F33" s="24"/>
-      <c r="G33" s="24"/>
-      <c r="H33" s="23"/>
-      <c r="I33" s="23"/>
-      <c r="J33" s="24"/>
-      <c r="K33" s="24"/>
-      <c r="L33" s="24"/>
-      <c r="M33" s="24"/>
-      <c r="N33" s="24"/>
-      <c r="O33" s="23"/>
-      <c r="P33" s="23"/>
-      <c r="Q33" s="24"/>
-      <c r="R33" s="24"/>
-      <c r="S33" s="24"/>
-      <c r="T33" s="24"/>
-      <c r="U33" s="24"/>
+      <c r="A33" s="25"/>
+      <c r="B33" s="25"/>
+      <c r="C33" s="26"/>
+      <c r="D33" s="26"/>
+      <c r="E33" s="26"/>
+      <c r="F33" s="26"/>
+      <c r="G33" s="26"/>
+      <c r="H33" s="25"/>
+      <c r="I33" s="25"/>
+      <c r="J33" s="26"/>
+      <c r="K33" s="26"/>
+      <c r="L33" s="26"/>
+      <c r="M33" s="26"/>
+      <c r="N33" s="26"/>
+      <c r="O33" s="25"/>
+      <c r="P33" s="25"/>
+      <c r="Q33" s="26"/>
+      <c r="R33" s="26"/>
+      <c r="S33" s="26"/>
+      <c r="T33" s="26"/>
+      <c r="U33" s="26"/>
     </row>
     <row r="34" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A34" s="31"/>
-      <c r="B34" s="31"/>
-      <c r="C34" s="32"/>
-      <c r="D34" s="32"/>
-      <c r="E34" s="32"/>
-      <c r="F34" s="32"/>
-      <c r="G34" s="32"/>
-      <c r="H34" s="31"/>
-      <c r="I34" s="31"/>
-      <c r="J34" s="32"/>
-      <c r="K34" s="32"/>
-      <c r="L34" s="32"/>
-      <c r="M34" s="32"/>
-      <c r="N34" s="32"/>
-      <c r="O34" s="31"/>
-      <c r="P34" s="31"/>
-      <c r="Q34" s="32"/>
-      <c r="R34" s="32"/>
-      <c r="S34" s="32"/>
-      <c r="T34" s="32"/>
-      <c r="U34" s="32"/>
+      <c r="A34" s="23"/>
+      <c r="B34" s="23"/>
+      <c r="C34" s="24"/>
+      <c r="D34" s="24"/>
+      <c r="E34" s="24"/>
+      <c r="F34" s="24"/>
+      <c r="G34" s="24"/>
+      <c r="H34" s="23"/>
+      <c r="I34" s="23"/>
+      <c r="J34" s="24"/>
+      <c r="K34" s="24"/>
+      <c r="L34" s="24"/>
+      <c r="M34" s="24"/>
+      <c r="N34" s="24"/>
+      <c r="O34" s="23"/>
+      <c r="P34" s="23"/>
+      <c r="Q34" s="24"/>
+      <c r="R34" s="24"/>
+      <c r="S34" s="24"/>
+      <c r="T34" s="24"/>
+      <c r="U34" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="236">
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="C34:G34"/>
-    <mergeCell ref="H34:I34"/>
-    <mergeCell ref="J34:N34"/>
-    <mergeCell ref="O34:P34"/>
-    <mergeCell ref="Q34:U34"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="C33:G33"/>
-    <mergeCell ref="H33:I33"/>
-    <mergeCell ref="J33:N33"/>
-    <mergeCell ref="O33:P33"/>
-    <mergeCell ref="Q33:U33"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="C32:G32"/>
-    <mergeCell ref="H32:I32"/>
-    <mergeCell ref="J32:N32"/>
-    <mergeCell ref="O32:P32"/>
-    <mergeCell ref="Q32:U32"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="C31:G31"/>
-    <mergeCell ref="H31:I31"/>
-    <mergeCell ref="J31:N31"/>
-    <mergeCell ref="O31:P31"/>
-    <mergeCell ref="Q31:U31"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="C30:G30"/>
-    <mergeCell ref="H30:I30"/>
-    <mergeCell ref="J30:N30"/>
-    <mergeCell ref="O30:P30"/>
-    <mergeCell ref="Q30:U30"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="C29:G29"/>
-    <mergeCell ref="H29:I29"/>
-    <mergeCell ref="J29:N29"/>
-    <mergeCell ref="O29:P29"/>
-    <mergeCell ref="Q29:U29"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="C28:G28"/>
-    <mergeCell ref="H28:I28"/>
-    <mergeCell ref="J28:N28"/>
-    <mergeCell ref="O28:P28"/>
-    <mergeCell ref="Q28:U28"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="C27:G27"/>
-    <mergeCell ref="H27:I27"/>
-    <mergeCell ref="J27:N27"/>
-    <mergeCell ref="O27:P27"/>
-    <mergeCell ref="Q27:U27"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="C26:G26"/>
-    <mergeCell ref="H26:I26"/>
-    <mergeCell ref="J26:N26"/>
-    <mergeCell ref="O26:P26"/>
-    <mergeCell ref="Q26:U26"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="C25:G25"/>
-    <mergeCell ref="H25:I25"/>
-    <mergeCell ref="J25:N25"/>
-    <mergeCell ref="O25:P25"/>
-    <mergeCell ref="Q25:U25"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="C24:G24"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="J24:N24"/>
-    <mergeCell ref="O24:P24"/>
-    <mergeCell ref="Q24:U24"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="C23:G23"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="J23:N23"/>
-    <mergeCell ref="O23:P23"/>
-    <mergeCell ref="Q23:U23"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="C22:G22"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="J22:N22"/>
-    <mergeCell ref="V22:W22"/>
-    <mergeCell ref="X22:AB22"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="C21:G21"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="J21:N21"/>
-    <mergeCell ref="V21:W21"/>
-    <mergeCell ref="X21:AB21"/>
-    <mergeCell ref="O21:P21"/>
-    <mergeCell ref="Q21:U21"/>
-    <mergeCell ref="O22:P22"/>
-    <mergeCell ref="Q22:U22"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="C20:G20"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="J20:N20"/>
-    <mergeCell ref="V20:W20"/>
-    <mergeCell ref="X20:AB20"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="C19:G19"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="J19:N19"/>
-    <mergeCell ref="V19:W19"/>
-    <mergeCell ref="X19:AB19"/>
-    <mergeCell ref="O19:P19"/>
-    <mergeCell ref="Q19:U19"/>
-    <mergeCell ref="O20:P20"/>
-    <mergeCell ref="Q20:U20"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C18:G18"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="J18:N18"/>
-    <mergeCell ref="V18:W18"/>
-    <mergeCell ref="X18:AB18"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="C17:G17"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="J17:N17"/>
-    <mergeCell ref="V17:W17"/>
-    <mergeCell ref="X17:AB17"/>
-    <mergeCell ref="O17:P17"/>
-    <mergeCell ref="Q17:U17"/>
-    <mergeCell ref="O18:P18"/>
-    <mergeCell ref="Q18:U18"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="C16:G16"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="J16:N16"/>
-    <mergeCell ref="V16:W16"/>
-    <mergeCell ref="X16:AB16"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="C15:G15"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="J15:N15"/>
-    <mergeCell ref="V15:W15"/>
-    <mergeCell ref="X15:AB15"/>
-    <mergeCell ref="O15:P15"/>
-    <mergeCell ref="Q15:U15"/>
-    <mergeCell ref="O16:P16"/>
-    <mergeCell ref="Q16:U16"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="C14:G14"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="J14:N14"/>
-    <mergeCell ref="V14:W14"/>
-    <mergeCell ref="X14:AB14"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="C13:G13"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="J13:N13"/>
-    <mergeCell ref="V13:W13"/>
-    <mergeCell ref="X13:AB13"/>
-    <mergeCell ref="O13:P13"/>
-    <mergeCell ref="Q13:U13"/>
-    <mergeCell ref="O14:P14"/>
-    <mergeCell ref="Q14:U14"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="C12:G12"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="J12:N12"/>
-    <mergeCell ref="V12:W12"/>
-    <mergeCell ref="X12:AB12"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:G11"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="J11:N11"/>
-    <mergeCell ref="V11:W11"/>
-    <mergeCell ref="X11:AB11"/>
-    <mergeCell ref="O11:P11"/>
-    <mergeCell ref="Q11:U11"/>
-    <mergeCell ref="O12:P12"/>
-    <mergeCell ref="Q12:U12"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="C10:G10"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="J10:N10"/>
-    <mergeCell ref="V10:W10"/>
-    <mergeCell ref="X10:AB10"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="C9:G9"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="J9:N9"/>
-    <mergeCell ref="V9:W9"/>
-    <mergeCell ref="X9:AB9"/>
-    <mergeCell ref="O9:P9"/>
-    <mergeCell ref="Q9:U9"/>
-    <mergeCell ref="O10:P10"/>
-    <mergeCell ref="Q10:U10"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="C8:G8"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="J8:N8"/>
-    <mergeCell ref="V8:W8"/>
-    <mergeCell ref="X8:AB8"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="J7:N7"/>
-    <mergeCell ref="V7:W7"/>
-    <mergeCell ref="X7:AB7"/>
-    <mergeCell ref="O7:P7"/>
-    <mergeCell ref="Q7:U7"/>
-    <mergeCell ref="O8:P8"/>
-    <mergeCell ref="Q8:U8"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="J6:N6"/>
-    <mergeCell ref="V6:W6"/>
-    <mergeCell ref="X6:AB6"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:G5"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="J5:N5"/>
-    <mergeCell ref="V5:W5"/>
-    <mergeCell ref="X5:AB5"/>
-    <mergeCell ref="O5:P5"/>
-    <mergeCell ref="Q5:U5"/>
-    <mergeCell ref="O6:P6"/>
-    <mergeCell ref="Q6:U6"/>
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="C4:G4"/>
     <mergeCell ref="H4:I4"/>
@@ -5560,6 +5516,222 @@
     <mergeCell ref="Q3:U3"/>
     <mergeCell ref="O4:P4"/>
     <mergeCell ref="Q4:U4"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="J6:N6"/>
+    <mergeCell ref="V6:W6"/>
+    <mergeCell ref="X6:AB6"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="J5:N5"/>
+    <mergeCell ref="V5:W5"/>
+    <mergeCell ref="X5:AB5"/>
+    <mergeCell ref="O5:P5"/>
+    <mergeCell ref="Q5:U5"/>
+    <mergeCell ref="O6:P6"/>
+    <mergeCell ref="Q6:U6"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="J8:N8"/>
+    <mergeCell ref="V8:W8"/>
+    <mergeCell ref="X8:AB8"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:N7"/>
+    <mergeCell ref="V7:W7"/>
+    <mergeCell ref="X7:AB7"/>
+    <mergeCell ref="O7:P7"/>
+    <mergeCell ref="Q7:U7"/>
+    <mergeCell ref="O8:P8"/>
+    <mergeCell ref="Q8:U8"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C10:G10"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="J10:N10"/>
+    <mergeCell ref="V10:W10"/>
+    <mergeCell ref="X10:AB10"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:G9"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="J9:N9"/>
+    <mergeCell ref="V9:W9"/>
+    <mergeCell ref="X9:AB9"/>
+    <mergeCell ref="O9:P9"/>
+    <mergeCell ref="Q9:U9"/>
+    <mergeCell ref="O10:P10"/>
+    <mergeCell ref="Q10:U10"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="J12:N12"/>
+    <mergeCell ref="V12:W12"/>
+    <mergeCell ref="X12:AB12"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:G11"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="J11:N11"/>
+    <mergeCell ref="V11:W11"/>
+    <mergeCell ref="X11:AB11"/>
+    <mergeCell ref="O11:P11"/>
+    <mergeCell ref="Q11:U11"/>
+    <mergeCell ref="O12:P12"/>
+    <mergeCell ref="Q12:U12"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C14:G14"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="J14:N14"/>
+    <mergeCell ref="V14:W14"/>
+    <mergeCell ref="X14:AB14"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C13:G13"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="J13:N13"/>
+    <mergeCell ref="V13:W13"/>
+    <mergeCell ref="X13:AB13"/>
+    <mergeCell ref="O13:P13"/>
+    <mergeCell ref="Q13:U13"/>
+    <mergeCell ref="O14:P14"/>
+    <mergeCell ref="Q14:U14"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:G16"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="J16:N16"/>
+    <mergeCell ref="V16:W16"/>
+    <mergeCell ref="X16:AB16"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C15:G15"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="J15:N15"/>
+    <mergeCell ref="V15:W15"/>
+    <mergeCell ref="X15:AB15"/>
+    <mergeCell ref="O15:P15"/>
+    <mergeCell ref="Q15:U15"/>
+    <mergeCell ref="O16:P16"/>
+    <mergeCell ref="Q16:U16"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="J18:N18"/>
+    <mergeCell ref="V18:W18"/>
+    <mergeCell ref="X18:AB18"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C17:G17"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="J17:N17"/>
+    <mergeCell ref="V17:W17"/>
+    <mergeCell ref="X17:AB17"/>
+    <mergeCell ref="O17:P17"/>
+    <mergeCell ref="Q17:U17"/>
+    <mergeCell ref="O18:P18"/>
+    <mergeCell ref="Q18:U18"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="J20:N20"/>
+    <mergeCell ref="V20:W20"/>
+    <mergeCell ref="X20:AB20"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="J19:N19"/>
+    <mergeCell ref="V19:W19"/>
+    <mergeCell ref="X19:AB19"/>
+    <mergeCell ref="O19:P19"/>
+    <mergeCell ref="Q19:U19"/>
+    <mergeCell ref="O20:P20"/>
+    <mergeCell ref="Q20:U20"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="C22:G22"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="J22:N22"/>
+    <mergeCell ref="V22:W22"/>
+    <mergeCell ref="X22:AB22"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="J21:N21"/>
+    <mergeCell ref="V21:W21"/>
+    <mergeCell ref="X21:AB21"/>
+    <mergeCell ref="O21:P21"/>
+    <mergeCell ref="Q21:U21"/>
+    <mergeCell ref="O22:P22"/>
+    <mergeCell ref="Q22:U22"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="C24:G24"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="J24:N24"/>
+    <mergeCell ref="O24:P24"/>
+    <mergeCell ref="Q24:U24"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="C23:G23"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="J23:N23"/>
+    <mergeCell ref="O23:P23"/>
+    <mergeCell ref="Q23:U23"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="C26:G26"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="J26:N26"/>
+    <mergeCell ref="O26:P26"/>
+    <mergeCell ref="Q26:U26"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="C25:G25"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="J25:N25"/>
+    <mergeCell ref="O25:P25"/>
+    <mergeCell ref="Q25:U25"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="C28:G28"/>
+    <mergeCell ref="H28:I28"/>
+    <mergeCell ref="J28:N28"/>
+    <mergeCell ref="O28:P28"/>
+    <mergeCell ref="Q28:U28"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="C27:G27"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="J27:N27"/>
+    <mergeCell ref="O27:P27"/>
+    <mergeCell ref="Q27:U27"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="C30:G30"/>
+    <mergeCell ref="H30:I30"/>
+    <mergeCell ref="J30:N30"/>
+    <mergeCell ref="O30:P30"/>
+    <mergeCell ref="Q30:U30"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="C29:G29"/>
+    <mergeCell ref="H29:I29"/>
+    <mergeCell ref="J29:N29"/>
+    <mergeCell ref="O29:P29"/>
+    <mergeCell ref="Q29:U29"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="C32:G32"/>
+    <mergeCell ref="H32:I32"/>
+    <mergeCell ref="J32:N32"/>
+    <mergeCell ref="O32:P32"/>
+    <mergeCell ref="Q32:U32"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="C31:G31"/>
+    <mergeCell ref="H31:I31"/>
+    <mergeCell ref="J31:N31"/>
+    <mergeCell ref="O31:P31"/>
+    <mergeCell ref="Q31:U31"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="C34:G34"/>
+    <mergeCell ref="H34:I34"/>
+    <mergeCell ref="J34:N34"/>
+    <mergeCell ref="O34:P34"/>
+    <mergeCell ref="Q34:U34"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="C33:G33"/>
+    <mergeCell ref="H33:I33"/>
+    <mergeCell ref="J33:N33"/>
+    <mergeCell ref="O33:P33"/>
+    <mergeCell ref="Q33:U33"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/plans/todo.xlsx
+++ b/plans/todo.xlsx
@@ -8,15 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Edsquid\Documents\Personal Projects\Business\RogueLikeGame\plans\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8671C77E-0966-4DF3-B5C8-2E02F426E29B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92B8160F-564D-4450-BB27-30942EF5A7D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{BA1E511D-BF64-4842-98DF-72E30276ED1C}"/>
+    <workbookView xWindow="43095" yWindow="0" windowWidth="14610" windowHeight="15585" firstSheet="4" activeTab="5" xr2:uid="{BA1E511D-BF64-4842-98DF-72E30276ED1C}"/>
   </bookViews>
   <sheets>
     <sheet name="Attributes" sheetId="3" r:id="rId1"/>
     <sheet name="Maps" sheetId="5" r:id="rId2"/>
     <sheet name="Characters" sheetId="4" r:id="rId3"/>
     <sheet name="Weapons and Secondary" sheetId="2" r:id="rId4"/>
+    <sheet name="Enemies" sheetId="6" r:id="rId5"/>
+    <sheet name="Interactables" sheetId="7" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="240">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="459" uniqueCount="325">
   <si>
     <t>Max Lives</t>
   </si>
@@ -161,9 +163,6 @@
     <t>Flame Sword</t>
   </si>
   <si>
-    <t xml:space="preserve">Dual battons </t>
-  </si>
-  <si>
     <t>Dagger</t>
   </si>
   <si>
@@ -173,9 +172,6 @@
     <t>Giga sword</t>
   </si>
   <si>
-    <t>Longer range, thrust and spin attack, at higher range shoots projectile</t>
-  </si>
-  <si>
     <t>Flame damage type, high damage, needs reloading</t>
   </si>
   <si>
@@ -215,9 +211,6 @@
     <t>Huge sword, huge damage, hold and release</t>
   </si>
   <si>
-    <t>Fast attacks, pushes enemies back, frost?</t>
-  </si>
-  <si>
     <t>Fast attacks, similar to first daggers, but more and stronger, applies bleed, at max charge, dash through enemies</t>
   </si>
   <si>
@@ -725,9 +718,6 @@
     <t>Characters</t>
   </si>
   <si>
-    <t>Regular</t>
-  </si>
-  <si>
     <t>Maps</t>
   </si>
   <si>
@@ -759,13 +749,280 @@
   </si>
   <si>
     <t>Zombies, skeles, ghosts (zombie dies -&gt; skele dies -&gt; ghost dies)</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Positives</t>
+  </si>
+  <si>
+    <t>Negitives</t>
+  </si>
+  <si>
+    <t>Look</t>
+  </si>
+  <si>
+    <t>Apprentice</t>
+  </si>
+  <si>
+    <t>Young, whitish robes, blue trim</t>
+  </si>
+  <si>
+    <t>weakish stats</t>
+  </si>
+  <si>
+    <t>Melee, incr res</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reduced projectile damage, </t>
+  </si>
+  <si>
+    <t>Spellblade</t>
+  </si>
+  <si>
+    <t>Archmage</t>
+  </si>
+  <si>
+    <t>incr spell</t>
+  </si>
+  <si>
+    <t>Old lad</t>
+  </si>
+  <si>
+    <t>Roguemage</t>
+  </si>
+  <si>
+    <t>low health</t>
+  </si>
+  <si>
+    <t>proje,dodge%,fast, inc dash, stamina</t>
+  </si>
+  <si>
+    <t>elementalist</t>
+  </si>
+  <si>
+    <t>fire,frost,energy up</t>
+  </si>
+  <si>
+    <t>magic down, physical down</t>
+  </si>
+  <si>
+    <t>reduce health, inc stamina, reduce projectile, reduce melee, slow, physical down</t>
+  </si>
+  <si>
+    <t>Test subject</t>
+  </si>
+  <si>
+    <t>slow, reduce spell</t>
+  </si>
+  <si>
+    <t>???</t>
+  </si>
+  <si>
+    <t>cant jump, cant dash</t>
+  </si>
+  <si>
+    <t>copy enemy attacks with rclick, ghost thru enemies, faster</t>
+  </si>
+  <si>
+    <t>melee incr, health incr, jump slam default</t>
+  </si>
+  <si>
+    <t>Mage</t>
+  </si>
+  <si>
+    <t>nameless look</t>
+  </si>
+  <si>
+    <t>Randomly fire additonal projectiles 1= 100 2 = .3 3 = .05, 5 = .001</t>
+  </si>
+  <si>
+    <t>4 rounds, close range, damage falls off</t>
+  </si>
+  <si>
+    <t>Katana</t>
+  </si>
+  <si>
+    <t>Charge and slash, dash</t>
+  </si>
+  <si>
+    <t>Longer range, thrust and spin attack, at higher range shoots projectile, minor dash</t>
+  </si>
+  <si>
+    <t>Mjollnir</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Name from history </t>
+  </si>
+  <si>
+    <t>Tizona</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Tizona - Fear</t>
+  </si>
+  <si>
+    <t>Fear</t>
+  </si>
+  <si>
+    <t>Enemies/player move away from source of fear</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Sword_of_justice - Instant kill under X percent</t>
+  </si>
+  <si>
+    <t>Sword of Justice</t>
+  </si>
+  <si>
+    <t>Self explanitory</t>
+  </si>
+  <si>
+    <t>Throw and retrieve</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Kogarasu_Maru - Little crow circle</t>
+  </si>
+  <si>
+    <t>Little Crow Circle</t>
+  </si>
+  <si>
+    <t>Sword Kladenets</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Sword_Kladenets</t>
+  </si>
+  <si>
+    <t>charge</t>
+  </si>
+  <si>
+    <t>fire missile</t>
+  </si>
+  <si>
+    <t>auto</t>
+  </si>
+  <si>
+    <t>electric (constant stream)</t>
+  </si>
+  <si>
+    <t>Enemies</t>
+  </si>
+  <si>
+    <t>Scope</t>
+  </si>
+  <si>
+    <t>Attack Type</t>
+  </si>
+  <si>
+    <t>Scope (map/general)</t>
+  </si>
+  <si>
+    <t>Info</t>
+  </si>
+  <si>
+    <t>General</t>
+  </si>
+  <si>
+    <t>Soul</t>
+  </si>
+  <si>
+    <t>Touch damage</t>
+  </si>
+  <si>
+    <t>Difficulty (1-5 - boss)</t>
+  </si>
+  <si>
+    <t>Mushroom garden</t>
+  </si>
+  <si>
+    <t>Touch</t>
+  </si>
+  <si>
+    <t>Mushroom bouncer</t>
+  </si>
+  <si>
+    <t>Different damage types = different colors, float like a ghost</t>
+  </si>
+  <si>
+    <t>Bounces towards player, big health, slow, low dmg</t>
+  </si>
+  <si>
+    <t>Mushroom shooter</t>
+  </si>
+  <si>
+    <t>*</t>
+  </si>
+  <si>
+    <t>Stays in X range, shoots a cluster of spore like projectiles</t>
+  </si>
+  <si>
+    <t>Skeleton</t>
+  </si>
+  <si>
+    <t>Various</t>
+  </si>
+  <si>
+    <t>Bounces towards player, changes state to spining when close, inc speed etc</t>
+  </si>
+  <si>
+    <t>Shroom Spinner</t>
+  </si>
+  <si>
+    <t>Shroom Burrower</t>
+  </si>
+  <si>
+    <t>Touch/Projectile</t>
+  </si>
+  <si>
+    <t>Borrows, then comes back in a new location, either under the player and melee or away and shoots</t>
+  </si>
+  <si>
+    <t>Shroom Boss</t>
+  </si>
+  <si>
+    <t>Center of screen, pops up, shoots diffferent arrangement of projectiles, spawns enemies in arena. Different stages for difficulties, increasing projectiles etc</t>
+  </si>
+  <si>
+    <t>Interactables</t>
+  </si>
+  <si>
+    <t>Attraction Rune</t>
+  </si>
+  <si>
+    <t>Pickup</t>
+  </si>
+  <si>
+    <t>Grab all da xp on da map</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Use with E </t>
+  </si>
+  <si>
+    <t>Stun all enemies on the screen</t>
+  </si>
+  <si>
+    <t>Stun Rune</t>
+  </si>
+  <si>
+    <t>Teleport rune</t>
+  </si>
+  <si>
+    <t>Teleport to a random place in the game</t>
+  </si>
+  <si>
+    <t>Fear rune</t>
+  </si>
+  <si>
+    <t>Hardmode</t>
+  </si>
+  <si>
+    <t>Enemies run away from player</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -809,8 +1066,40 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="22"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="15">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -855,12 +1144,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="-0.499984740745262"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -891,7 +1174,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="3" tint="-0.249977111117893"/>
+        <fgColor theme="9" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -997,36 +1292,39 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1044,11 +1342,8 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1057,12 +1352,6 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1074,15 +1363,55 @@
     <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1397,17 +1726,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11CE061F-AFA4-4B9D-BFD1-A05915568E6D}">
   <dimension ref="A1:H338"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A41" sqref="A41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="75" style="3" customWidth="1"/>
+    <col min="1" max="1" width="75" style="2" customWidth="1"/>
     <col min="2" max="2" width="28.140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="36" style="3" customWidth="1"/>
+    <col min="3" max="3" width="44.42578125" style="2" customWidth="1"/>
     <col min="4" max="4" width="41.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16" style="3" customWidth="1"/>
+    <col min="5" max="5" width="16" style="2" customWidth="1"/>
     <col min="6" max="6" width="12.42578125" style="1" customWidth="1"/>
     <col min="7" max="7" width="26.85546875" style="1" customWidth="1"/>
     <col min="8" max="8" width="53.42578125" style="1" customWidth="1"/>
@@ -1416,7 +1745,7 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="19" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B1" s="20"/>
       <c r="C1" s="20"/>
@@ -1424,8 +1753,8 @@
       <c r="E1" s="20"/>
       <c r="F1" s="20"/>
       <c r="G1" s="20"/>
-      <c r="H1" s="10" t="s">
-        <v>209</v>
+      <c r="H1" s="9" t="s">
+        <v>206</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -1436,37 +1765,37 @@
       <c r="E2" s="22"/>
       <c r="F2" s="22"/>
       <c r="G2" s="22"/>
-      <c r="H2" s="12" t="s">
-        <v>212</v>
+      <c r="H2" s="11" t="s">
+        <v>209</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="F3" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="B3" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="G3" s="8" t="s">
-        <v>208</v>
-      </c>
-      <c r="H3" s="9"/>
+      <c r="G3" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="H3" s="8"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="B4" s="15"/>
       <c r="C4" s="15"/>
@@ -1474,511 +1803,511 @@
       <c r="E4" s="15"/>
       <c r="F4" s="15"/>
       <c r="G4" s="15"/>
-      <c r="H4" s="9"/>
+      <c r="H4" s="8"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
-        <v>123</v>
+      <c r="A5" s="30" t="s">
+        <v>120</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>98</v>
+        <v>88</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>95</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="E5" s="3">
+        <v>117</v>
+      </c>
+      <c r="E5" s="2">
         <v>0.05</v>
       </c>
       <c r="F5" s="1">
         <v>7</v>
       </c>
-      <c r="G5" s="11"/>
+      <c r="G5" s="10"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
-        <v>124</v>
+      <c r="A6" s="30" t="s">
+        <v>121</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="3" t="s">
-        <v>99</v>
+      <c r="C6" s="2" t="s">
+        <v>96</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="E6" s="3">
+        <v>118</v>
+      </c>
+      <c r="E6" s="2">
         <v>0.05</v>
       </c>
       <c r="F6" s="1">
         <v>7</v>
       </c>
-      <c r="G6" s="3"/>
+      <c r="G6" s="2"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="30" t="s">
         <v>1</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>101</v>
+        <v>89</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>98</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="E7" s="3">
+        <v>118</v>
+      </c>
+      <c r="E7" s="2">
         <v>0.05</v>
       </c>
       <c r="F7" s="1">
         <v>7</v>
       </c>
-      <c r="G7" s="3"/>
+      <c r="G7" s="2"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="30" t="s">
         <v>2</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>102</v>
+        <v>90</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>99</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="E8" s="3">
+        <v>118</v>
+      </c>
+      <c r="E8" s="2">
         <v>0.05</v>
       </c>
       <c r="F8" s="1">
         <v>7</v>
       </c>
-      <c r="G8" s="3"/>
+      <c r="G8" s="2"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="30" t="s">
         <v>3</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>103</v>
+        <v>90</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>100</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="E9" s="3">
+        <v>118</v>
+      </c>
+      <c r="E9" s="2">
         <v>0.05</v>
       </c>
       <c r="F9" s="1">
         <v>7</v>
       </c>
-      <c r="G9" s="3"/>
+      <c r="G9" s="2"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="30" t="s">
         <v>4</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>104</v>
+        <v>88</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>101</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="E10" s="3">
+        <v>118</v>
+      </c>
+      <c r="E10" s="2">
         <v>0.05</v>
       </c>
       <c r="F10" s="1">
         <v>7</v>
       </c>
-      <c r="G10" s="3"/>
+      <c r="G10" s="2"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="30" t="s">
         <v>5</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>105</v>
+        <v>91</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>102</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="E11" s="3">
+        <v>119</v>
+      </c>
+      <c r="E11" s="2">
         <v>0.05</v>
       </c>
       <c r="F11" s="1">
         <v>7</v>
       </c>
-      <c r="G11" s="3"/>
+      <c r="G11" s="2"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
+      <c r="A12" s="30" t="s">
         <v>6</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>106</v>
+        <v>91</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>103</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="E12" s="3">
+        <v>119</v>
+      </c>
+      <c r="E12" s="2">
         <v>0.05</v>
       </c>
       <c r="F12" s="1">
         <v>7</v>
       </c>
-      <c r="G12" s="3"/>
+      <c r="G12" s="2"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
+      <c r="A13" s="30" t="s">
         <v>7</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>107</v>
+        <v>91</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>104</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="E13" s="3">
+        <v>119</v>
+      </c>
+      <c r="E13" s="2">
         <v>0.05</v>
       </c>
       <c r="F13" s="1">
         <v>7</v>
       </c>
-      <c r="G13" s="3"/>
+      <c r="G13" s="2"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
+      <c r="A14" s="30" t="s">
         <v>8</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>108</v>
+        <v>92</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>105</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="E14" s="3">
+        <v>119</v>
+      </c>
+      <c r="E14" s="2">
         <v>0.05</v>
       </c>
       <c r="F14" s="1">
         <v>7</v>
       </c>
-      <c r="G14" s="3"/>
+      <c r="G14" s="2"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
+      <c r="A15" s="30" t="s">
         <v>9</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>109</v>
+        <v>92</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>106</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="E15" s="3">
+        <v>119</v>
+      </c>
+      <c r="E15" s="2">
         <v>0.05</v>
       </c>
       <c r="F15" s="1">
         <v>7</v>
       </c>
-      <c r="G15" s="3"/>
+      <c r="G15" s="2"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="3" t="s">
+      <c r="A16" s="30" t="s">
         <v>10</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>110</v>
+        <v>88</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>107</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="E16" s="3">
+        <v>118</v>
+      </c>
+      <c r="E16" s="2">
         <v>0.05</v>
       </c>
       <c r="F16" s="1">
         <v>7</v>
       </c>
-      <c r="G16" s="3"/>
+      <c r="G16" s="2"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="3" t="s">
+      <c r="A17" s="30" t="s">
         <v>12</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>111</v>
+        <v>92</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>108</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="E17" s="3">
+        <v>119</v>
+      </c>
+      <c r="E17" s="2">
         <v>0.05</v>
       </c>
       <c r="F17" s="1">
         <v>7</v>
       </c>
-      <c r="G17" s="3"/>
+      <c r="G17" s="2"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="3" t="s">
+      <c r="A18" s="30" t="s">
         <v>24</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>112</v>
+        <v>90</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>109</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="E18" s="3">
+        <v>119</v>
+      </c>
+      <c r="E18" s="2">
         <v>0.05</v>
       </c>
       <c r="F18" s="1">
         <v>7</v>
       </c>
-      <c r="G18" s="3"/>
+      <c r="G18" s="2"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="3" t="s">
+      <c r="A19" s="30" t="s">
         <v>25</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>113</v>
+        <v>90</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>110</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="E19" s="3">
+        <v>119</v>
+      </c>
+      <c r="E19" s="2">
         <v>0.05</v>
       </c>
       <c r="F19" s="1">
         <v>7</v>
       </c>
-      <c r="G19" s="3"/>
+      <c r="G19" s="2"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="3" t="s">
-        <v>96</v>
+      <c r="A20" s="30" t="s">
+        <v>93</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>114</v>
+        <v>88</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>111</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="E20" s="3">
+        <v>119</v>
+      </c>
+      <c r="E20" s="2">
         <v>0.05</v>
       </c>
       <c r="F20" s="1">
         <v>7</v>
       </c>
-      <c r="G20" s="3"/>
+      <c r="G20" s="2"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="3" t="s">
-        <v>97</v>
+      <c r="A21" s="30" t="s">
+        <v>94</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>115</v>
+        <v>90</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>112</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="E21" s="3">
+        <v>119</v>
+      </c>
+      <c r="E21" s="2">
         <v>0.05</v>
       </c>
       <c r="F21" s="1">
         <v>7</v>
       </c>
-      <c r="G21" s="3"/>
+      <c r="G21" s="2"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="3" t="s">
-        <v>125</v>
+      <c r="A22" s="30" t="s">
+        <v>122</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>126</v>
+        <v>90</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>123</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="E22" s="3">
+        <v>118</v>
+      </c>
+      <c r="E22" s="2">
         <v>0.01</v>
       </c>
       <c r="F22" s="1">
         <v>7</v>
       </c>
-      <c r="G22" s="3"/>
+      <c r="G22" s="2"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="3" t="s">
-        <v>83</v>
+      <c r="A23" s="30" t="s">
+        <v>80</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>116</v>
+        <v>90</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>113</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="E23" s="3">
+        <v>118</v>
+      </c>
+      <c r="E23" s="2">
         <v>0.05</v>
       </c>
       <c r="F23" s="1">
         <v>7</v>
       </c>
-      <c r="G23" s="3"/>
+      <c r="G23" s="2"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="3" t="s">
-        <v>85</v>
+      <c r="A24" s="30" t="s">
+        <v>82</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>117</v>
+        <v>90</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>114</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="E24" s="3">
+        <v>118</v>
+      </c>
+      <c r="E24" s="2">
         <v>0.05</v>
       </c>
       <c r="F24" s="1">
         <v>7</v>
       </c>
-      <c r="G24" s="3"/>
+      <c r="G24" s="2"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="14" t="s">
-        <v>225</v>
+      <c r="A25" s="30" t="s">
+        <v>222</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="C25" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="D25" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="D25" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="E25" s="3">
+      <c r="E25" s="2">
         <v>0.05</v>
       </c>
       <c r="F25" s="1">
         <v>7</v>
       </c>
-      <c r="G25" s="3"/>
+      <c r="G25" s="2"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="3" t="s">
+      <c r="A26" s="30" t="s">
         <v>0</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="C26" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="D26" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="D26" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="E26" s="3">
+      <c r="E26" s="2">
         <v>1</v>
       </c>
       <c r="F26" s="1">
         <v>2</v>
       </c>
-      <c r="G26" s="3"/>
+      <c r="G26" s="2"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="3" t="s">
-        <v>226</v>
-      </c>
-      <c r="G27" s="3"/>
+      <c r="A27" s="30" t="s">
+        <v>223</v>
+      </c>
+      <c r="G27" s="2"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="G28" s="3"/>
+      <c r="G28" s="2"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="G29" s="3"/>
+      <c r="G29" s="2"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="G30" s="3"/>
+      <c r="G30" s="2"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="G31" s="3"/>
+      <c r="G31" s="2"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="G32" s="3"/>
+      <c r="G32" s="2"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="5" t="s">
+      <c r="A33" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="E33" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="F33" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="B33" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="C33" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="D33" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="E33" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="F33" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="G33" s="5"/>
+      <c r="G33" s="4"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="17" t="s">
@@ -1992,128 +2321,137 @@
       <c r="G34" s="17"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="3" t="s">
-        <v>128</v>
+      <c r="A35" s="2" t="s">
+        <v>125</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="C35" s="3" t="s">
-        <v>130</v>
+        <v>126</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>127</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="F35" s="1">
         <v>10</v>
       </c>
-      <c r="G35" s="3"/>
+      <c r="G35" s="2"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="3" t="s">
-        <v>127</v>
+      <c r="A36" s="2" t="s">
+        <v>124</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="C36" s="3" t="s">
-        <v>131</v>
+        <v>126</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>128</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="F36" s="1">
         <v>10</v>
       </c>
-      <c r="G36" s="3"/>
+      <c r="G36" s="2"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="3" t="s">
+      <c r="A37" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B37" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C37" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="C37" s="3" t="s">
-        <v>132</v>
-      </c>
       <c r="D37" s="1" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="F37" s="1">
         <v>10</v>
       </c>
-      <c r="G37" s="3"/>
+      <c r="G37" s="2"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="3" t="s">
+      <c r="A38" s="2" t="s">
         <v>16</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="C38" s="3" t="s">
-        <v>133</v>
+        <v>126</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>130</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="F38" s="1">
         <v>1</v>
       </c>
-      <c r="G38" s="3"/>
+      <c r="G38" s="2"/>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" s="3" t="s">
+      <c r="A39" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="C39" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="D39" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="D39" s="1" t="s">
-        <v>137</v>
-      </c>
       <c r="F39" s="1">
         <v>5</v>
       </c>
-      <c r="G39" s="3"/>
+      <c r="G39" s="2"/>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="G40" s="3"/>
+      <c r="A40" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="G40" s="2"/>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="G41" s="3"/>
+      <c r="G41" s="2"/>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="G42" s="3"/>
+      <c r="G42" s="2"/>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43" s="5" t="s">
+      <c r="A43" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="D43" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="E43" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="F43" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="B43" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="C43" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="D43" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="E43" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="F43" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="G43" s="5"/>
+      <c r="G43" s="4"/>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="18" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="B44" s="18"/>
       <c r="C44" s="18"/>
@@ -2123,863 +2461,863 @@
       <c r="G44" s="18"/>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A45" s="3" t="s">
+      <c r="A45" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="F45" s="1">
+        <v>5</v>
+      </c>
+      <c r="G45" s="2"/>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="B45" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="C45" s="3" t="s">
+      <c r="B46" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="F46" s="1">
+        <v>5</v>
+      </c>
+      <c r="G46" s="2"/>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="D45" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="F45" s="1">
-        <v>5</v>
-      </c>
-      <c r="G45" s="3"/>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A46" s="3" t="s">
+      <c r="B47" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C47" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="B46" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="C46" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="D46" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="F46" s="1">
-        <v>5</v>
-      </c>
-      <c r="G46" s="3"/>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A47" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="C47" s="3" t="s">
-        <v>145</v>
-      </c>
       <c r="D47" s="1" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="F47" s="1">
         <v>5</v>
       </c>
-      <c r="G47" s="3"/>
+      <c r="G47" s="2"/>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F48" s="1">
         <v>5</v>
       </c>
-      <c r="G48" s="3"/>
+      <c r="G48" s="2"/>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F49" s="1">
         <v>5</v>
       </c>
-      <c r="G49" s="3"/>
+      <c r="G49" s="2"/>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A50" s="3" t="s">
+      <c r="A50" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="F50" s="1">
+        <v>5</v>
+      </c>
+      <c r="G50" s="2"/>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A51" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="B50" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="C50" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="F50" s="1">
-        <v>5</v>
-      </c>
-      <c r="G50" s="3"/>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A51" s="3" t="s">
-        <v>147</v>
-      </c>
       <c r="B51" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="C51" s="3" t="s">
-        <v>149</v>
+        <v>90</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>146</v>
       </c>
       <c r="F51" s="1">
         <v>5</v>
       </c>
-      <c r="G51" s="3"/>
+      <c r="G51" s="2"/>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A52" s="3" t="s">
-        <v>148</v>
+      <c r="A52" s="2" t="s">
+        <v>145</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="C52" s="3" t="s">
-        <v>149</v>
+        <v>90</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>146</v>
       </c>
       <c r="F52" s="1">
         <v>5</v>
       </c>
-      <c r="G52" s="3"/>
+      <c r="G52" s="2"/>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A53" s="3" t="s">
-        <v>215</v>
+      <c r="A53" s="2" t="s">
+        <v>212</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="C53" s="3" t="s">
-        <v>216</v>
-      </c>
-      <c r="E53" s="3" t="s">
-        <v>217</v>
+        <v>88</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="E53" s="2" t="s">
+        <v>214</v>
       </c>
       <c r="F53" s="1">
         <v>5</v>
       </c>
-      <c r="G53" s="3"/>
+      <c r="G53" s="2"/>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F54" s="1">
         <v>5</v>
       </c>
-      <c r="G54" s="3"/>
+      <c r="G54" s="2"/>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A55" s="3" t="s">
-        <v>150</v>
+      <c r="A55" s="2" t="s">
+        <v>147</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="C55" s="3" t="s">
-        <v>152</v>
+        <v>90</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>149</v>
       </c>
       <c r="F55" s="1">
         <v>5</v>
       </c>
-      <c r="G55" s="3"/>
+      <c r="G55" s="2"/>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F56" s="1">
         <v>5</v>
       </c>
-      <c r="G56" s="3"/>
+      <c r="G56" s="2"/>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F57" s="1">
         <v>5</v>
       </c>
-      <c r="G57" s="3"/>
+      <c r="G57" s="2"/>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F58" s="1">
         <v>5</v>
       </c>
-      <c r="G58" s="3"/>
+      <c r="G58" s="2"/>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A59" s="3" t="s">
+      <c r="A59" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="F59" s="1">
+        <v>5</v>
+      </c>
+      <c r="G59" s="2"/>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A60" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="F60" s="1">
+        <v>5</v>
+      </c>
+      <c r="G60" s="2"/>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A61" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="F61" s="1">
+        <v>5</v>
+      </c>
+      <c r="G61" s="2"/>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A62" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="B59" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="C59" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="F59" s="1">
-        <v>5</v>
-      </c>
-      <c r="G59" s="3"/>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A60" s="3" t="s">
+      <c r="B62" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C62" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="B60" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="C60" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="F60" s="1">
-        <v>5</v>
-      </c>
-      <c r="G60" s="3"/>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A61" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="B61" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="C61" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="F61" s="1">
-        <v>5</v>
-      </c>
-      <c r="G61" s="3"/>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A62" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="B62" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="C62" s="3" t="s">
-        <v>157</v>
-      </c>
       <c r="F62" s="1">
         <v>5</v>
       </c>
-      <c r="G62" s="3"/>
+      <c r="G62" s="2"/>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A63" s="3" t="s">
-        <v>219</v>
+      <c r="A63" s="2" t="s">
+        <v>216</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="F63" s="1">
         <v>5</v>
       </c>
-      <c r="G63" s="3"/>
+      <c r="G63" s="2"/>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F64" s="1">
         <v>5</v>
       </c>
-      <c r="G64" s="3"/>
+      <c r="G64" s="2"/>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A65" s="3" t="s">
+      <c r="A65" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="F65" s="1">
+        <v>5</v>
+      </c>
+      <c r="G65" s="2"/>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A66" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="F66" s="1">
+        <v>5</v>
+      </c>
+      <c r="G66" s="2"/>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A67" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="F67" s="1">
+        <v>5</v>
+      </c>
+      <c r="G67" s="2"/>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A68" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="B65" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="C65" s="3" t="s">
+      <c r="B68" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="F68" s="1">
+        <v>5</v>
+      </c>
+      <c r="G68" s="2"/>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A69" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C69" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="F65" s="1">
-        <v>5</v>
-      </c>
-      <c r="G65" s="3"/>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A66" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="B66" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="F66" s="1">
-        <v>5</v>
-      </c>
-      <c r="G66" s="3"/>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A67" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="B67" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="C67" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="F67" s="1">
-        <v>5</v>
-      </c>
-      <c r="G67" s="3"/>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A68" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="B68" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="C68" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="F68" s="1">
-        <v>5</v>
-      </c>
-      <c r="G68" s="3"/>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A69" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="B69" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="C69" s="3" t="s">
-        <v>166</v>
-      </c>
       <c r="F69" s="1">
         <v>5</v>
       </c>
-      <c r="G69" s="3"/>
+      <c r="G69" s="2"/>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A70" s="13" t="s">
-        <v>214</v>
-      </c>
-      <c r="G70" s="3"/>
+      <c r="A70" s="12" t="s">
+        <v>211</v>
+      </c>
+      <c r="G70" s="2"/>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="G71" s="3"/>
+      <c r="G71" s="2"/>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F72" s="1">
         <v>5</v>
       </c>
-      <c r="G72" s="3"/>
+      <c r="G72" s="2"/>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A73" s="3" t="s">
-        <v>179</v>
+      <c r="A73" s="2" t="s">
+        <v>176</v>
       </c>
       <c r="F73" s="1">
         <v>5</v>
       </c>
-      <c r="G73" s="3"/>
+      <c r="G73" s="2"/>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A74" s="3" t="s">
-        <v>180</v>
+      <c r="A74" s="2" t="s">
+        <v>177</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="F74" s="1">
         <v>5</v>
       </c>
-      <c r="G74" s="3"/>
+      <c r="G74" s="2"/>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A75" s="3" t="s">
-        <v>181</v>
+      <c r="A75" s="2" t="s">
+        <v>178</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="F75" s="1">
         <v>5</v>
       </c>
-      <c r="G75" s="3"/>
+      <c r="G75" s="2"/>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F76" s="1">
         <v>5</v>
       </c>
-      <c r="G76" s="3"/>
+      <c r="G76" s="2"/>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F77" s="1">
         <v>5</v>
       </c>
-      <c r="G77" s="3"/>
+      <c r="G77" s="2"/>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A78" s="3" t="s">
-        <v>168</v>
+      <c r="A78" s="2" t="s">
+        <v>165</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="F78" s="1">
         <v>5</v>
       </c>
-      <c r="G78" s="3"/>
+      <c r="G78" s="2"/>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F79" s="1">
         <v>5</v>
       </c>
-      <c r="G79" s="3"/>
+      <c r="G79" s="2"/>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F80" s="1">
         <v>5</v>
       </c>
-      <c r="G80" s="3"/>
+      <c r="G80" s="2"/>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A81" s="3" t="s">
+      <c r="A81" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="F81" s="1">
+        <v>5</v>
+      </c>
+      <c r="G81" s="2"/>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A82" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="F82" s="1">
+        <v>5</v>
+      </c>
+      <c r="G82" s="2"/>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A83" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="B81" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="F81" s="1">
-        <v>5</v>
-      </c>
-      <c r="G81" s="3"/>
-    </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A82" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="B82" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="F82" s="1">
-        <v>5</v>
-      </c>
-      <c r="G82" s="3"/>
-    </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A83" s="3" t="s">
-        <v>170</v>
-      </c>
       <c r="B83" s="1" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="F83" s="1">
         <v>5</v>
       </c>
-      <c r="G83" s="3"/>
+      <c r="G83" s="2"/>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F84" s="1">
         <v>5</v>
       </c>
-      <c r="G84" s="3"/>
+      <c r="G84" s="2"/>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A85" s="3" t="s">
-        <v>172</v>
+      <c r="A85" s="2" t="s">
+        <v>169</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="F85" s="1">
         <v>5</v>
       </c>
-      <c r="G85" s="3"/>
+      <c r="G85" s="2"/>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A86" s="3" t="s">
-        <v>173</v>
+      <c r="A86" s="2" t="s">
+        <v>170</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="F86" s="1">
         <v>5</v>
       </c>
-      <c r="G86" s="3"/>
+      <c r="G86" s="2"/>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A87" s="3" t="s">
-        <v>174</v>
+      <c r="A87" s="2" t="s">
+        <v>171</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="F87" s="1">
         <v>5</v>
       </c>
-      <c r="G87" s="3"/>
+      <c r="G87" s="2"/>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F88" s="1">
         <v>5</v>
       </c>
-      <c r="G88" s="3"/>
+      <c r="G88" s="2"/>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F89" s="1">
         <v>5</v>
       </c>
-      <c r="G89" s="3"/>
+      <c r="G89" s="2"/>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A90" s="3" t="s">
-        <v>175</v>
+      <c r="A90" s="2" t="s">
+        <v>172</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="F90" s="1">
         <v>5</v>
       </c>
-      <c r="G90" s="3"/>
+      <c r="G90" s="2"/>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A91" s="3" t="s">
-        <v>177</v>
+      <c r="A91" s="2" t="s">
+        <v>174</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="F91" s="1">
         <v>5</v>
       </c>
-      <c r="G91" s="3"/>
+      <c r="G91" s="2"/>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F92" s="1">
         <v>5</v>
       </c>
-      <c r="G92" s="3"/>
+      <c r="G92" s="2"/>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A93" s="3" t="s">
-        <v>224</v>
+      <c r="A93" s="2" t="s">
+        <v>221</v>
       </c>
       <c r="F93" s="1">
         <v>5</v>
       </c>
-      <c r="G93" s="3"/>
+      <c r="G93" s="2"/>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F94" s="1">
         <v>5</v>
       </c>
-      <c r="G94" s="3"/>
+      <c r="G94" s="2"/>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A95" s="3" t="s">
-        <v>176</v>
+      <c r="A95" s="2" t="s">
+        <v>173</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="F95" s="1">
         <v>5</v>
       </c>
-      <c r="G95" s="3"/>
+      <c r="G95" s="2"/>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F96" s="1">
         <v>5</v>
       </c>
-      <c r="G96" s="3"/>
+      <c r="G96" s="2"/>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A97" s="3" t="s">
-        <v>178</v>
+      <c r="A97" s="2" t="s">
+        <v>175</v>
       </c>
       <c r="F97" s="1">
         <v>5</v>
       </c>
-      <c r="G97" s="3"/>
+      <c r="G97" s="2"/>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F98" s="1">
         <v>5</v>
       </c>
-      <c r="G98" s="3"/>
+      <c r="G98" s="2"/>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A99" s="3" t="s">
+      <c r="A99" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="F99" s="1">
+        <v>5</v>
+      </c>
+      <c r="G99" s="2"/>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A100" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="F99" s="1">
-        <v>5</v>
-      </c>
-      <c r="G99" s="3"/>
-    </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A100" s="3" t="s">
-        <v>185</v>
-      </c>
       <c r="F100" s="1">
         <v>5</v>
       </c>
-      <c r="G100" s="3"/>
+      <c r="G100" s="2"/>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A101" s="3" t="s">
-        <v>186</v>
+      <c r="A101" s="2" t="s">
+        <v>183</v>
       </c>
       <c r="F101" s="1">
         <v>5</v>
       </c>
-      <c r="G101" s="3"/>
+      <c r="G101" s="2"/>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A102" s="4" t="s">
-        <v>187</v>
+      <c r="A102" s="3" t="s">
+        <v>184</v>
       </c>
       <c r="F102" s="1">
         <v>5</v>
       </c>
-      <c r="G102" s="3"/>
+      <c r="G102" s="2"/>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F103" s="1">
         <v>5</v>
       </c>
-      <c r="G103" s="3"/>
+      <c r="G103" s="2"/>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F104" s="1">
         <v>5</v>
       </c>
-      <c r="G104" s="3"/>
+      <c r="G104" s="2"/>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F105" s="1">
         <v>5</v>
       </c>
-      <c r="G105" s="3"/>
+      <c r="G105" s="2"/>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A106" s="3" t="s">
-        <v>184</v>
+      <c r="A106" s="2" t="s">
+        <v>181</v>
       </c>
       <c r="F106" s="1">
         <v>5</v>
       </c>
-      <c r="G106" s="3"/>
+      <c r="G106" s="2"/>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A107" s="3" t="s">
-        <v>188</v>
+      <c r="A107" s="2" t="s">
+        <v>185</v>
       </c>
       <c r="F107" s="1">
         <v>5</v>
       </c>
-      <c r="G107" s="3"/>
+      <c r="G107" s="2"/>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F108" s="1">
         <v>5</v>
       </c>
-      <c r="G108" s="3"/>
+      <c r="G108" s="2"/>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F109" s="1">
         <v>5</v>
       </c>
-      <c r="G109" s="3"/>
+      <c r="G109" s="2"/>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A110" s="13" t="s">
-        <v>189</v>
+      <c r="A110" s="12" t="s">
+        <v>186</v>
       </c>
       <c r="F110" s="1">
         <v>5</v>
       </c>
-      <c r="G110" s="3"/>
+      <c r="G110" s="2"/>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F111" s="1">
         <v>5</v>
       </c>
-      <c r="G111" s="3"/>
+      <c r="G111" s="2"/>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A112" s="3" t="s">
-        <v>190</v>
+      <c r="A112" s="2" t="s">
+        <v>187</v>
       </c>
       <c r="F112" s="1">
         <v>5</v>
       </c>
-      <c r="G112" s="3"/>
+      <c r="G112" s="2"/>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F113" s="1">
         <v>5</v>
       </c>
-      <c r="G113" s="3"/>
+      <c r="G113" s="2"/>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A114" s="3" t="s">
-        <v>84</v>
+      <c r="A114" s="2" t="s">
+        <v>81</v>
       </c>
       <c r="F114" s="1">
         <v>5</v>
       </c>
-      <c r="G114" s="3"/>
+      <c r="G114" s="2"/>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F115" s="1">
         <v>5</v>
       </c>
-      <c r="G115" s="3"/>
+      <c r="G115" s="2"/>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A116" s="7" t="s">
+      <c r="A116" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="F116" s="1">
+        <v>5</v>
+      </c>
+      <c r="G116" s="2"/>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A117" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="F116" s="1">
-        <v>5</v>
-      </c>
-      <c r="G116" s="3"/>
-    </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A117" s="3" t="s">
-        <v>195</v>
-      </c>
       <c r="F117" s="1">
         <v>5</v>
       </c>
-      <c r="G117" s="3"/>
+      <c r="G117" s="2"/>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A118" s="3" t="s">
+      <c r="A118" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="F118" s="1">
+        <v>5</v>
+      </c>
+      <c r="G118" s="2"/>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A119" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="F119" s="1">
+        <v>5</v>
+      </c>
+      <c r="G119" s="2"/>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A120" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="F118" s="1">
-        <v>5</v>
-      </c>
-      <c r="G118" s="3"/>
-    </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A119" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="F119" s="1">
-        <v>5</v>
-      </c>
-      <c r="G119" s="3"/>
-    </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A120" s="3" t="s">
-        <v>196</v>
-      </c>
       <c r="F120" s="1">
         <v>5</v>
       </c>
-      <c r="G120" s="3"/>
+      <c r="G120" s="2"/>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F121" s="1">
         <v>5</v>
       </c>
-      <c r="G121" s="3"/>
+      <c r="G121" s="2"/>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F122" s="1">
         <v>5</v>
       </c>
-      <c r="G122" s="3"/>
+      <c r="G122" s="2"/>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A123" s="7" t="s">
+      <c r="A123" s="6" t="s">
         <v>14</v>
       </c>
       <c r="F123" s="1">
         <v>5</v>
       </c>
-      <c r="G123" s="3"/>
+      <c r="G123" s="2"/>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A124" s="3" t="s">
-        <v>197</v>
+      <c r="A124" s="2" t="s">
+        <v>194</v>
       </c>
       <c r="F124" s="1">
         <v>5</v>
       </c>
-      <c r="G124" s="3"/>
+      <c r="G124" s="2"/>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A125" s="3" t="s">
-        <v>198</v>
+      <c r="A125" s="2" t="s">
+        <v>195</v>
       </c>
       <c r="F125" s="1">
         <v>5</v>
       </c>
-      <c r="G125" s="3"/>
+      <c r="G125" s="2"/>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F126" s="1">
         <v>5</v>
       </c>
-      <c r="G126" s="3"/>
+      <c r="G126" s="2"/>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A127" s="3" t="s">
-        <v>221</v>
+      <c r="A127" s="2" t="s">
+        <v>218</v>
       </c>
       <c r="F127" s="1">
         <v>5</v>
       </c>
-      <c r="G127" s="3"/>
+      <c r="G127" s="2"/>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A128" s="3" t="s">
-        <v>222</v>
+      <c r="A128" s="2" t="s">
+        <v>219</v>
       </c>
       <c r="F128" s="1">
         <v>5</v>
       </c>
-      <c r="G128" s="3"/>
+      <c r="G128" s="2"/>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A129" s="3" t="s">
-        <v>223</v>
+      <c r="A129" s="2" t="s">
+        <v>220</v>
       </c>
       <c r="F129" s="1">
         <v>5</v>
       </c>
-      <c r="G129" s="3"/>
+      <c r="G129" s="2"/>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F130" s="1">
         <v>5</v>
       </c>
-      <c r="G130" s="3"/>
+      <c r="G130" s="2"/>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F131" s="1">
         <v>5</v>
       </c>
-      <c r="G131" s="3"/>
+      <c r="G131" s="2"/>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F132" s="1">
         <v>5</v>
       </c>
-      <c r="G132" s="3"/>
+      <c r="G132" s="2"/>
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A133" s="5" t="s">
+      <c r="A133" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="B133" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="C133" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="D133" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="E133" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="F133" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="B133" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="C133" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="D133" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="E133" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="F133" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="G133" s="5"/>
+      <c r="G133" s="4"/>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A134" s="16" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="B134" s="16"/>
       <c r="C134" s="16"/>
@@ -2989,1288 +3327,1288 @@
       <c r="G134" s="16"/>
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A135" s="3" t="s">
-        <v>191</v>
+      <c r="A135" s="2" t="s">
+        <v>188</v>
       </c>
       <c r="F135" s="1">
         <v>1</v>
       </c>
-      <c r="G135" s="3"/>
+      <c r="G135" s="2"/>
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A136" s="3" t="s">
+      <c r="A136" s="2" t="s">
         <v>18</v>
       </c>
       <c r="F136" s="1">
         <v>1</v>
       </c>
-      <c r="G136" s="3"/>
+      <c r="G136" s="2"/>
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A137" s="3" t="s">
+      <c r="A137" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F137" s="1">
         <v>1</v>
       </c>
-      <c r="G137" s="3"/>
+      <c r="G137" s="2"/>
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A138" s="3" t="s">
+      <c r="A138" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F138" s="1">
         <v>1</v>
       </c>
-      <c r="G138" s="3"/>
+      <c r="G138" s="2"/>
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A139" s="3" t="s">
+      <c r="A139" s="2" t="s">
         <v>21</v>
       </c>
       <c r="F139" s="1">
         <v>1</v>
       </c>
-      <c r="G139" s="3"/>
+      <c r="G139" s="2"/>
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A140" s="3" t="s">
-        <v>220</v>
+      <c r="A140" s="2" t="s">
+        <v>217</v>
       </c>
       <c r="F140" s="1">
         <v>1</v>
       </c>
-      <c r="G140" s="3"/>
+      <c r="G140" s="2"/>
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A141" s="3" t="s">
+      <c r="A141" s="2" t="s">
         <v>22</v>
       </c>
       <c r="F141" s="1">
         <v>1</v>
       </c>
-      <c r="G141" s="3"/>
+      <c r="G141" s="2"/>
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A142" s="3" t="s">
+      <c r="A142" s="2" t="s">
         <v>23</v>
       </c>
       <c r="F142" s="1">
         <v>1</v>
       </c>
-      <c r="G142" s="3"/>
+      <c r="G142" s="2"/>
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A143" s="3" t="s">
+      <c r="A143" s="2" t="s">
         <v>26</v>
       </c>
       <c r="F143" s="1">
         <v>1</v>
       </c>
-      <c r="G143" s="3"/>
+      <c r="G143" s="2"/>
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A144" s="13" t="s">
-        <v>218</v>
+      <c r="A144" s="12" t="s">
+        <v>215</v>
       </c>
       <c r="F144" s="1">
         <v>1</v>
       </c>
-      <c r="G144" s="3"/>
+      <c r="G144" s="2"/>
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A145" s="13" t="s">
-        <v>210</v>
+      <c r="A145" s="12" t="s">
+        <v>207</v>
       </c>
       <c r="F145" s="1">
         <v>1</v>
       </c>
-      <c r="G145" s="3"/>
+      <c r="G145" s="2"/>
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A146" s="3" t="s">
+      <c r="A146" s="2" t="s">
         <v>27</v>
       </c>
       <c r="F146" s="1">
         <v>1</v>
       </c>
-      <c r="G146" s="3"/>
+      <c r="G146" s="2"/>
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A147" s="3" t="s">
+      <c r="A147" s="2" t="s">
         <v>28</v>
       </c>
       <c r="F147" s="1">
         <v>1</v>
       </c>
-      <c r="G147" s="3"/>
+      <c r="G147" s="2"/>
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A148" s="3" t="s">
+      <c r="A148" s="2" t="s">
         <v>29</v>
       </c>
       <c r="F148" s="1">
         <v>1</v>
       </c>
-      <c r="G148" s="3"/>
+      <c r="G148" s="2"/>
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A149" s="3" t="s">
+      <c r="A149" s="2" t="s">
         <v>30</v>
       </c>
       <c r="F149" s="1">
         <v>1</v>
       </c>
-      <c r="G149" s="3"/>
+      <c r="G149" s="2"/>
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A150" s="3" t="s">
+      <c r="A150" s="2" t="s">
         <v>31</v>
       </c>
       <c r="F150" s="1">
         <v>1</v>
       </c>
-      <c r="G150" s="3"/>
+      <c r="G150" s="2"/>
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A151" s="3" t="s">
+      <c r="A151" s="2" t="s">
         <v>32</v>
       </c>
       <c r="F151" s="1">
         <v>1</v>
       </c>
-      <c r="G151" s="3"/>
+      <c r="G151" s="2"/>
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F152" s="1">
         <v>1</v>
       </c>
-      <c r="G152" s="3"/>
+      <c r="G152" s="2"/>
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A153" s="3" t="s">
-        <v>211</v>
+      <c r="A153" s="2" t="s">
+        <v>208</v>
       </c>
       <c r="F153" s="1">
         <v>1</v>
       </c>
-      <c r="G153" s="3"/>
+      <c r="G153" s="2"/>
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F154" s="1">
         <v>1</v>
       </c>
-      <c r="G154" s="3"/>
+      <c r="G154" s="2"/>
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F155" s="1">
         <v>5</v>
       </c>
-      <c r="G155" s="3"/>
+      <c r="G155" s="2"/>
     </row>
     <row r="156" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F156" s="1">
         <v>5</v>
       </c>
-      <c r="G156" s="3"/>
+      <c r="G156" s="2"/>
     </row>
     <row r="157" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A157" s="13" t="s">
+      <c r="A157" s="12" t="s">
         <v>33</v>
       </c>
       <c r="F157" s="1">
         <v>5</v>
       </c>
-      <c r="G157" s="3"/>
+      <c r="G157" s="2"/>
     </row>
     <row r="158" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A158" s="3" t="s">
-        <v>76</v>
+      <c r="A158" s="2" t="s">
+        <v>73</v>
       </c>
       <c r="F158" s="1">
         <v>5</v>
       </c>
-      <c r="G158" s="3"/>
+      <c r="G158" s="2"/>
     </row>
     <row r="159" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F159" s="1">
         <v>5</v>
       </c>
-      <c r="G159" s="3"/>
+      <c r="G159" s="2"/>
     </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F160" s="1">
         <v>5</v>
       </c>
-      <c r="G160" s="3"/>
+      <c r="G160" s="2"/>
     </row>
     <row r="161" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F161" s="1">
         <v>5</v>
       </c>
-      <c r="G161" s="3"/>
+      <c r="G161" s="2"/>
     </row>
     <row r="162" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F162" s="1">
         <v>5</v>
       </c>
-      <c r="G162" s="3"/>
+      <c r="G162" s="2"/>
     </row>
     <row r="163" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F163" s="1">
         <v>5</v>
       </c>
-      <c r="G163" s="3"/>
+      <c r="G163" s="2"/>
     </row>
     <row r="164" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F164" s="1">
         <v>5</v>
       </c>
-      <c r="G164" s="3"/>
+      <c r="G164" s="2"/>
     </row>
     <row r="165" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F165" s="1">
         <v>5</v>
       </c>
-      <c r="G165" s="3"/>
+      <c r="G165" s="2"/>
     </row>
     <row r="166" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F166" s="1">
         <v>5</v>
       </c>
-      <c r="G166" s="3"/>
+      <c r="G166" s="2"/>
     </row>
     <row r="167" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F167" s="1">
         <v>5</v>
       </c>
-      <c r="G167" s="3"/>
+      <c r="G167" s="2"/>
     </row>
     <row r="168" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F168" s="1">
         <v>5</v>
       </c>
-      <c r="G168" s="3"/>
+      <c r="G168" s="2"/>
     </row>
     <row r="169" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F169" s="1">
         <v>5</v>
       </c>
-      <c r="G169" s="3"/>
+      <c r="G169" s="2"/>
     </row>
     <row r="170" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F170" s="1">
         <v>5</v>
       </c>
-      <c r="G170" s="3"/>
+      <c r="G170" s="2"/>
     </row>
     <row r="171" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F171" s="1">
         <v>5</v>
       </c>
-      <c r="G171" s="3"/>
+      <c r="G171" s="2"/>
     </row>
     <row r="172" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F172" s="1">
         <v>5</v>
       </c>
-      <c r="G172" s="3"/>
+      <c r="G172" s="2"/>
     </row>
     <row r="173" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F173" s="1">
         <v>5</v>
       </c>
-      <c r="G173" s="3"/>
+      <c r="G173" s="2"/>
     </row>
     <row r="174" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F174" s="1">
         <v>5</v>
       </c>
-      <c r="G174" s="3"/>
+      <c r="G174" s="2"/>
     </row>
     <row r="175" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F175" s="1">
         <v>5</v>
       </c>
-      <c r="G175" s="3"/>
+      <c r="G175" s="2"/>
     </row>
     <row r="176" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F176" s="1">
         <v>5</v>
       </c>
-      <c r="G176" s="3"/>
+      <c r="G176" s="2"/>
     </row>
     <row r="177" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F177" s="1">
         <v>5</v>
       </c>
-      <c r="G177" s="3"/>
+      <c r="G177" s="2"/>
     </row>
     <row r="178" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F178" s="1">
         <v>5</v>
       </c>
-      <c r="G178" s="3"/>
+      <c r="G178" s="2"/>
     </row>
     <row r="179" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F179" s="1">
         <v>5</v>
       </c>
-      <c r="G179" s="3"/>
+      <c r="G179" s="2"/>
     </row>
     <row r="180" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F180" s="1">
         <v>5</v>
       </c>
-      <c r="G180" s="3"/>
+      <c r="G180" s="2"/>
     </row>
     <row r="181" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F181" s="1">
         <v>5</v>
       </c>
-      <c r="G181" s="3"/>
+      <c r="G181" s="2"/>
     </row>
     <row r="182" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F182" s="1">
         <v>5</v>
       </c>
-      <c r="G182" s="3"/>
+      <c r="G182" s="2"/>
     </row>
     <row r="183" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F183" s="1">
         <v>5</v>
       </c>
-      <c r="G183" s="3"/>
+      <c r="G183" s="2"/>
     </row>
     <row r="184" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F184" s="1">
         <v>5</v>
       </c>
-      <c r="G184" s="3"/>
+      <c r="G184" s="2"/>
     </row>
     <row r="185" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F185" s="1">
         <v>5</v>
       </c>
-      <c r="G185" s="3"/>
+      <c r="G185" s="2"/>
     </row>
     <row r="186" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F186" s="1">
         <v>5</v>
       </c>
-      <c r="G186" s="3"/>
+      <c r="G186" s="2"/>
     </row>
     <row r="187" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F187" s="1">
         <v>5</v>
       </c>
-      <c r="G187" s="3"/>
+      <c r="G187" s="2"/>
     </row>
     <row r="188" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F188" s="1">
         <v>5</v>
       </c>
-      <c r="G188" s="3"/>
+      <c r="G188" s="2"/>
     </row>
     <row r="189" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F189" s="1">
         <v>5</v>
       </c>
-      <c r="G189" s="3"/>
+      <c r="G189" s="2"/>
     </row>
     <row r="190" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F190" s="1">
         <v>5</v>
       </c>
-      <c r="G190" s="3"/>
+      <c r="G190" s="2"/>
     </row>
     <row r="191" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F191" s="1">
         <v>5</v>
       </c>
-      <c r="G191" s="3"/>
+      <c r="G191" s="2"/>
     </row>
     <row r="192" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F192" s="1">
         <v>5</v>
       </c>
-      <c r="G192" s="3"/>
+      <c r="G192" s="2"/>
     </row>
     <row r="193" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F193" s="1">
         <v>5</v>
       </c>
-      <c r="G193" s="3"/>
+      <c r="G193" s="2"/>
     </row>
     <row r="194" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F194" s="1">
         <v>5</v>
       </c>
-      <c r="G194" s="3"/>
+      <c r="G194" s="2"/>
     </row>
     <row r="195" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F195" s="1">
         <v>5</v>
       </c>
-      <c r="G195" s="3"/>
+      <c r="G195" s="2"/>
     </row>
     <row r="196" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F196" s="1">
         <v>5</v>
       </c>
-      <c r="G196" s="3"/>
+      <c r="G196" s="2"/>
     </row>
     <row r="197" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F197" s="1">
         <v>5</v>
       </c>
-      <c r="G197" s="3"/>
+      <c r="G197" s="2"/>
     </row>
     <row r="198" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F198" s="1">
         <v>5</v>
       </c>
-      <c r="G198" s="3"/>
+      <c r="G198" s="2"/>
     </row>
     <row r="199" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F199" s="1">
         <v>5</v>
       </c>
-      <c r="G199" s="3"/>
+      <c r="G199" s="2"/>
     </row>
     <row r="200" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F200" s="1">
         <v>5</v>
       </c>
-      <c r="G200" s="3"/>
+      <c r="G200" s="2"/>
     </row>
     <row r="201" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F201" s="1">
         <v>5</v>
       </c>
-      <c r="G201" s="3"/>
+      <c r="G201" s="2"/>
     </row>
     <row r="202" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F202" s="1">
         <v>5</v>
       </c>
-      <c r="G202" s="3"/>
+      <c r="G202" s="2"/>
     </row>
     <row r="203" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F203" s="1">
         <v>5</v>
       </c>
-      <c r="G203" s="3"/>
+      <c r="G203" s="2"/>
     </row>
     <row r="204" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F204" s="1">
         <v>5</v>
       </c>
-      <c r="G204" s="3"/>
+      <c r="G204" s="2"/>
     </row>
     <row r="205" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F205" s="1">
         <v>5</v>
       </c>
-      <c r="G205" s="3"/>
+      <c r="G205" s="2"/>
     </row>
     <row r="206" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F206" s="1">
         <v>5</v>
       </c>
-      <c r="G206" s="3"/>
+      <c r="G206" s="2"/>
     </row>
     <row r="207" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F207" s="1">
         <v>5</v>
       </c>
-      <c r="G207" s="3"/>
+      <c r="G207" s="2"/>
     </row>
     <row r="208" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F208" s="1">
         <v>5</v>
       </c>
-      <c r="G208" s="3"/>
+      <c r="G208" s="2"/>
     </row>
     <row r="209" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F209" s="1">
         <v>5</v>
       </c>
-      <c r="G209" s="3"/>
+      <c r="G209" s="2"/>
     </row>
     <row r="210" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F210" s="1">
         <v>5</v>
       </c>
-      <c r="G210" s="3"/>
+      <c r="G210" s="2"/>
     </row>
     <row r="211" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F211" s="1">
         <v>5</v>
       </c>
-      <c r="G211" s="3"/>
+      <c r="G211" s="2"/>
     </row>
     <row r="212" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F212" s="1">
         <v>5</v>
       </c>
-      <c r="G212" s="3"/>
+      <c r="G212" s="2"/>
     </row>
     <row r="213" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F213" s="1">
         <v>5</v>
       </c>
-      <c r="G213" s="3"/>
+      <c r="G213" s="2"/>
     </row>
     <row r="214" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F214" s="1">
         <v>5</v>
       </c>
-      <c r="G214" s="3"/>
+      <c r="G214" s="2"/>
     </row>
     <row r="215" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F215" s="1">
         <v>5</v>
       </c>
-      <c r="G215" s="3"/>
+      <c r="G215" s="2"/>
     </row>
     <row r="216" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F216" s="1">
         <v>5</v>
       </c>
-      <c r="G216" s="3"/>
+      <c r="G216" s="2"/>
     </row>
     <row r="217" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F217" s="1">
         <v>5</v>
       </c>
-      <c r="G217" s="3"/>
+      <c r="G217" s="2"/>
     </row>
     <row r="218" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F218" s="1">
         <v>5</v>
       </c>
-      <c r="G218" s="3"/>
+      <c r="G218" s="2"/>
     </row>
     <row r="219" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F219" s="1">
         <v>5</v>
       </c>
-      <c r="G219" s="3"/>
+      <c r="G219" s="2"/>
     </row>
     <row r="220" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F220" s="1">
         <v>5</v>
       </c>
-      <c r="G220" s="3"/>
+      <c r="G220" s="2"/>
     </row>
     <row r="221" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F221" s="1">
         <v>5</v>
       </c>
-      <c r="G221" s="3"/>
+      <c r="G221" s="2"/>
     </row>
     <row r="222" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F222" s="1">
         <v>5</v>
       </c>
-      <c r="G222" s="3"/>
+      <c r="G222" s="2"/>
     </row>
     <row r="223" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F223" s="1">
         <v>5</v>
       </c>
-      <c r="G223" s="3"/>
+      <c r="G223" s="2"/>
     </row>
     <row r="224" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F224" s="1">
         <v>5</v>
       </c>
-      <c r="G224" s="3"/>
+      <c r="G224" s="2"/>
     </row>
     <row r="225" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F225" s="1">
         <v>5</v>
       </c>
-      <c r="G225" s="3"/>
+      <c r="G225" s="2"/>
     </row>
     <row r="226" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F226" s="1">
         <v>5</v>
       </c>
-      <c r="G226" s="3"/>
+      <c r="G226" s="2"/>
     </row>
     <row r="227" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F227" s="1">
         <v>5</v>
       </c>
-      <c r="G227" s="3"/>
+      <c r="G227" s="2"/>
     </row>
     <row r="228" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F228" s="1">
         <v>5</v>
       </c>
-      <c r="G228" s="3"/>
+      <c r="G228" s="2"/>
     </row>
     <row r="229" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F229" s="1">
         <v>5</v>
       </c>
-      <c r="G229" s="3"/>
+      <c r="G229" s="2"/>
     </row>
     <row r="230" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F230" s="1">
         <v>5</v>
       </c>
-      <c r="G230" s="3"/>
+      <c r="G230" s="2"/>
     </row>
     <row r="231" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F231" s="1">
         <v>5</v>
       </c>
-      <c r="G231" s="3"/>
+      <c r="G231" s="2"/>
     </row>
     <row r="232" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F232" s="1">
         <v>5</v>
       </c>
-      <c r="G232" s="3"/>
+      <c r="G232" s="2"/>
     </row>
     <row r="233" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F233" s="1">
         <v>5</v>
       </c>
-      <c r="G233" s="3"/>
+      <c r="G233" s="2"/>
     </row>
     <row r="234" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F234" s="1">
         <v>5</v>
       </c>
-      <c r="G234" s="3"/>
+      <c r="G234" s="2"/>
     </row>
     <row r="235" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F235" s="1">
         <v>5</v>
       </c>
-      <c r="G235" s="3"/>
+      <c r="G235" s="2"/>
     </row>
     <row r="236" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F236" s="1">
         <v>5</v>
       </c>
-      <c r="G236" s="3"/>
+      <c r="G236" s="2"/>
     </row>
     <row r="237" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F237" s="1">
         <v>5</v>
       </c>
-      <c r="G237" s="3"/>
+      <c r="G237" s="2"/>
     </row>
     <row r="238" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F238" s="1">
         <v>5</v>
       </c>
-      <c r="G238" s="3"/>
+      <c r="G238" s="2"/>
     </row>
     <row r="239" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F239" s="1">
         <v>5</v>
       </c>
-      <c r="G239" s="3"/>
+      <c r="G239" s="2"/>
     </row>
     <row r="240" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F240" s="1">
         <v>5</v>
       </c>
-      <c r="G240" s="3"/>
+      <c r="G240" s="2"/>
     </row>
     <row r="241" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F241" s="1">
         <v>5</v>
       </c>
-      <c r="G241" s="3"/>
+      <c r="G241" s="2"/>
     </row>
     <row r="242" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F242" s="1">
         <v>5</v>
       </c>
-      <c r="G242" s="3"/>
+      <c r="G242" s="2"/>
     </row>
     <row r="243" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F243" s="1">
         <v>5</v>
       </c>
-      <c r="G243" s="3"/>
+      <c r="G243" s="2"/>
     </row>
     <row r="244" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F244" s="1">
         <v>5</v>
       </c>
-      <c r="G244" s="3"/>
+      <c r="G244" s="2"/>
     </row>
     <row r="245" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F245" s="1">
         <v>5</v>
       </c>
-      <c r="G245" s="3"/>
+      <c r="G245" s="2"/>
     </row>
     <row r="246" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F246" s="1">
         <v>5</v>
       </c>
-      <c r="G246" s="3"/>
+      <c r="G246" s="2"/>
     </row>
     <row r="247" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F247" s="1">
         <v>5</v>
       </c>
-      <c r="G247" s="3"/>
+      <c r="G247" s="2"/>
     </row>
     <row r="248" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F248" s="1">
         <v>5</v>
       </c>
-      <c r="G248" s="3"/>
+      <c r="G248" s="2"/>
     </row>
     <row r="249" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F249" s="1">
         <v>5</v>
       </c>
-      <c r="G249" s="3"/>
+      <c r="G249" s="2"/>
     </row>
     <row r="250" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F250" s="1">
         <v>5</v>
       </c>
-      <c r="G250" s="3"/>
+      <c r="G250" s="2"/>
     </row>
     <row r="251" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F251" s="1">
         <v>5</v>
       </c>
-      <c r="G251" s="3"/>
+      <c r="G251" s="2"/>
     </row>
     <row r="252" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F252" s="1">
         <v>5</v>
       </c>
-      <c r="G252" s="3"/>
+      <c r="G252" s="2"/>
     </row>
     <row r="253" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F253" s="1">
         <v>5</v>
       </c>
-      <c r="G253" s="3"/>
+      <c r="G253" s="2"/>
     </row>
     <row r="254" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F254" s="1">
         <v>5</v>
       </c>
-      <c r="G254" s="3"/>
+      <c r="G254" s="2"/>
     </row>
     <row r="255" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F255" s="1">
         <v>5</v>
       </c>
-      <c r="G255" s="3"/>
+      <c r="G255" s="2"/>
     </row>
     <row r="256" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F256" s="1">
         <v>5</v>
       </c>
-      <c r="G256" s="3"/>
+      <c r="G256" s="2"/>
     </row>
     <row r="257" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F257" s="1">
         <v>5</v>
       </c>
-      <c r="G257" s="3"/>
+      <c r="G257" s="2"/>
     </row>
     <row r="258" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F258" s="1">
         <v>5</v>
       </c>
-      <c r="G258" s="3"/>
+      <c r="G258" s="2"/>
     </row>
     <row r="259" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F259" s="1">
         <v>5</v>
       </c>
-      <c r="G259" s="3"/>
+      <c r="G259" s="2"/>
     </row>
     <row r="260" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F260" s="1">
         <v>5</v>
       </c>
-      <c r="G260" s="3"/>
+      <c r="G260" s="2"/>
     </row>
     <row r="261" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F261" s="1">
         <v>5</v>
       </c>
-      <c r="G261" s="3"/>
+      <c r="G261" s="2"/>
     </row>
     <row r="262" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F262" s="1">
         <v>5</v>
       </c>
-      <c r="G262" s="3"/>
+      <c r="G262" s="2"/>
     </row>
     <row r="263" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F263" s="1">
         <v>5</v>
       </c>
-      <c r="G263" s="3"/>
+      <c r="G263" s="2"/>
     </row>
     <row r="264" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F264" s="1">
         <v>5</v>
       </c>
-      <c r="G264" s="3"/>
+      <c r="G264" s="2"/>
     </row>
     <row r="265" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F265" s="1">
         <v>5</v>
       </c>
-      <c r="G265" s="3"/>
+      <c r="G265" s="2"/>
     </row>
     <row r="266" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F266" s="1">
         <v>5</v>
       </c>
-      <c r="G266" s="3"/>
+      <c r="G266" s="2"/>
     </row>
     <row r="267" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F267" s="1">
         <v>5</v>
       </c>
-      <c r="G267" s="3"/>
+      <c r="G267" s="2"/>
     </row>
     <row r="268" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F268" s="1">
         <v>5</v>
       </c>
-      <c r="G268" s="3"/>
+      <c r="G268" s="2"/>
     </row>
     <row r="269" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F269" s="1">
         <v>5</v>
       </c>
-      <c r="G269" s="3"/>
+      <c r="G269" s="2"/>
     </row>
     <row r="270" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F270" s="1">
         <v>5</v>
       </c>
-      <c r="G270" s="3"/>
+      <c r="G270" s="2"/>
     </row>
     <row r="271" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F271" s="1">
         <v>5</v>
       </c>
-      <c r="G271" s="3"/>
+      <c r="G271" s="2"/>
     </row>
     <row r="272" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F272" s="1">
         <v>5</v>
       </c>
-      <c r="G272" s="3"/>
+      <c r="G272" s="2"/>
     </row>
     <row r="273" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F273" s="1">
         <v>5</v>
       </c>
-      <c r="G273" s="3"/>
+      <c r="G273" s="2"/>
     </row>
     <row r="274" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F274" s="1">
         <v>5</v>
       </c>
-      <c r="G274" s="3"/>
+      <c r="G274" s="2"/>
     </row>
     <row r="275" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F275" s="1">
         <v>5</v>
       </c>
-      <c r="G275" s="3"/>
+      <c r="G275" s="2"/>
     </row>
     <row r="276" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F276" s="1">
         <v>5</v>
       </c>
-      <c r="G276" s="3"/>
+      <c r="G276" s="2"/>
     </row>
     <row r="277" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F277" s="1">
         <v>5</v>
       </c>
-      <c r="G277" s="3"/>
+      <c r="G277" s="2"/>
     </row>
     <row r="278" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F278" s="1">
         <v>5</v>
       </c>
-      <c r="G278" s="3"/>
+      <c r="G278" s="2"/>
     </row>
     <row r="279" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F279" s="1">
         <v>5</v>
       </c>
-      <c r="G279" s="3"/>
+      <c r="G279" s="2"/>
     </row>
     <row r="280" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F280" s="1">
         <v>5</v>
       </c>
-      <c r="G280" s="3"/>
+      <c r="G280" s="2"/>
     </row>
     <row r="281" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F281" s="1">
         <v>5</v>
       </c>
-      <c r="G281" s="3"/>
+      <c r="G281" s="2"/>
     </row>
     <row r="282" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F282" s="1">
         <v>5</v>
       </c>
-      <c r="G282" s="3"/>
+      <c r="G282" s="2"/>
     </row>
     <row r="283" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F283" s="1">
         <v>5</v>
       </c>
-      <c r="G283" s="3"/>
+      <c r="G283" s="2"/>
     </row>
     <row r="284" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F284" s="1">
         <v>5</v>
       </c>
-      <c r="G284" s="3"/>
+      <c r="G284" s="2"/>
     </row>
     <row r="285" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F285" s="1">
         <v>5</v>
       </c>
-      <c r="G285" s="3"/>
+      <c r="G285" s="2"/>
     </row>
     <row r="286" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F286" s="1">
         <v>5</v>
       </c>
-      <c r="G286" s="3"/>
+      <c r="G286" s="2"/>
     </row>
     <row r="287" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F287" s="1">
         <v>5</v>
       </c>
-      <c r="G287" s="3"/>
+      <c r="G287" s="2"/>
     </row>
     <row r="288" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F288" s="1">
         <v>5</v>
       </c>
-      <c r="G288" s="3"/>
+      <c r="G288" s="2"/>
     </row>
     <row r="289" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F289" s="1">
         <v>5</v>
       </c>
-      <c r="G289" s="3"/>
+      <c r="G289" s="2"/>
     </row>
     <row r="290" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F290" s="1">
         <v>5</v>
       </c>
-      <c r="G290" s="3"/>
+      <c r="G290" s="2"/>
     </row>
     <row r="291" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F291" s="1">
         <v>5</v>
       </c>
-      <c r="G291" s="3"/>
+      <c r="G291" s="2"/>
     </row>
     <row r="292" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F292" s="1">
         <v>5</v>
       </c>
-      <c r="G292" s="3"/>
+      <c r="G292" s="2"/>
     </row>
     <row r="293" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F293" s="1">
         <v>5</v>
       </c>
-      <c r="G293" s="3"/>
+      <c r="G293" s="2"/>
     </row>
     <row r="294" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F294" s="1">
         <v>5</v>
       </c>
-      <c r="G294" s="3"/>
+      <c r="G294" s="2"/>
     </row>
     <row r="295" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F295" s="1">
         <v>5</v>
       </c>
-      <c r="G295" s="3"/>
+      <c r="G295" s="2"/>
     </row>
     <row r="296" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F296" s="1">
         <v>5</v>
       </c>
-      <c r="G296" s="3"/>
+      <c r="G296" s="2"/>
     </row>
     <row r="297" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F297" s="1">
         <v>5</v>
       </c>
-      <c r="G297" s="3"/>
+      <c r="G297" s="2"/>
     </row>
     <row r="298" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F298" s="1">
         <v>5</v>
       </c>
-      <c r="G298" s="3"/>
+      <c r="G298" s="2"/>
     </row>
     <row r="299" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F299" s="1">
         <v>5</v>
       </c>
-      <c r="G299" s="3"/>
+      <c r="G299" s="2"/>
     </row>
     <row r="300" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F300" s="1">
         <v>5</v>
       </c>
-      <c r="G300" s="3"/>
+      <c r="G300" s="2"/>
     </row>
     <row r="301" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F301" s="1">
         <v>5</v>
       </c>
-      <c r="G301" s="3"/>
+      <c r="G301" s="2"/>
     </row>
     <row r="302" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F302" s="1">
         <v>5</v>
       </c>
-      <c r="G302" s="3"/>
+      <c r="G302" s="2"/>
     </row>
     <row r="303" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F303" s="1">
         <v>5</v>
       </c>
-      <c r="G303" s="3"/>
+      <c r="G303" s="2"/>
     </row>
     <row r="304" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F304" s="1">
         <v>5</v>
       </c>
-      <c r="G304" s="3"/>
+      <c r="G304" s="2"/>
     </row>
     <row r="305" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F305" s="1">
         <v>5</v>
       </c>
-      <c r="G305" s="3"/>
+      <c r="G305" s="2"/>
     </row>
     <row r="306" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F306" s="1">
         <v>5</v>
       </c>
-      <c r="G306" s="3"/>
+      <c r="G306" s="2"/>
     </row>
     <row r="307" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F307" s="1">
         <v>5</v>
       </c>
-      <c r="G307" s="3"/>
+      <c r="G307" s="2"/>
     </row>
     <row r="308" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F308" s="1">
         <v>5</v>
       </c>
-      <c r="G308" s="3"/>
+      <c r="G308" s="2"/>
     </row>
     <row r="309" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F309" s="1">
         <v>5</v>
       </c>
-      <c r="G309" s="3"/>
+      <c r="G309" s="2"/>
     </row>
     <row r="310" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F310" s="1">
         <v>5</v>
       </c>
-      <c r="G310" s="3"/>
+      <c r="G310" s="2"/>
     </row>
     <row r="311" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F311" s="1">
         <v>5</v>
       </c>
-      <c r="G311" s="3"/>
+      <c r="G311" s="2"/>
     </row>
     <row r="312" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F312" s="1">
         <v>5</v>
       </c>
-      <c r="G312" s="3"/>
+      <c r="G312" s="2"/>
     </row>
     <row r="313" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F313" s="1">
         <v>5</v>
       </c>
-      <c r="G313" s="3"/>
+      <c r="G313" s="2"/>
     </row>
     <row r="314" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F314" s="1">
         <v>5</v>
       </c>
-      <c r="G314" s="3"/>
+      <c r="G314" s="2"/>
     </row>
     <row r="315" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F315" s="1">
         <v>5</v>
       </c>
-      <c r="G315" s="3"/>
+      <c r="G315" s="2"/>
     </row>
     <row r="316" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F316" s="1">
         <v>5</v>
       </c>
-      <c r="G316" s="3"/>
+      <c r="G316" s="2"/>
     </row>
     <row r="317" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F317" s="1">
         <v>5</v>
       </c>
-      <c r="G317" s="3"/>
+      <c r="G317" s="2"/>
     </row>
     <row r="318" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F318" s="1">
         <v>5</v>
       </c>
-      <c r="G318" s="3"/>
+      <c r="G318" s="2"/>
     </row>
     <row r="319" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F319" s="1">
         <v>5</v>
       </c>
-      <c r="G319" s="3"/>
+      <c r="G319" s="2"/>
     </row>
     <row r="320" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F320" s="1">
         <v>5</v>
       </c>
-      <c r="G320" s="3"/>
+      <c r="G320" s="2"/>
     </row>
     <row r="321" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F321" s="1">
         <v>5</v>
       </c>
-      <c r="G321" s="3"/>
+      <c r="G321" s="2"/>
     </row>
     <row r="322" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F322" s="1">
         <v>5</v>
       </c>
-      <c r="G322" s="3"/>
+      <c r="G322" s="2"/>
     </row>
     <row r="323" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F323" s="1">
         <v>5</v>
       </c>
-      <c r="G323" s="3"/>
+      <c r="G323" s="2"/>
     </row>
     <row r="324" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F324" s="1">
         <v>5</v>
       </c>
-      <c r="G324" s="3"/>
+      <c r="G324" s="2"/>
     </row>
     <row r="325" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F325" s="1">
         <v>5</v>
       </c>
-      <c r="G325" s="3"/>
+      <c r="G325" s="2"/>
     </row>
     <row r="326" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F326" s="1">
         <v>5</v>
       </c>
-      <c r="G326" s="3"/>
+      <c r="G326" s="2"/>
     </row>
     <row r="327" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F327" s="1">
         <v>5</v>
       </c>
-      <c r="G327" s="3"/>
+      <c r="G327" s="2"/>
     </row>
     <row r="328" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F328" s="1">
         <v>5</v>
       </c>
-      <c r="G328" s="3"/>
+      <c r="G328" s="2"/>
     </row>
     <row r="329" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F329" s="1">
         <v>5</v>
       </c>
-      <c r="G329" s="3"/>
+      <c r="G329" s="2"/>
     </row>
     <row r="330" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F330" s="1">
         <v>5</v>
       </c>
-      <c r="G330" s="3"/>
+      <c r="G330" s="2"/>
     </row>
     <row r="331" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F331" s="1">
         <v>5</v>
       </c>
-      <c r="G331" s="3"/>
+      <c r="G331" s="2"/>
     </row>
     <row r="332" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F332" s="1">
         <v>5</v>
       </c>
-      <c r="G332" s="3"/>
+      <c r="G332" s="2"/>
     </row>
     <row r="333" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F333" s="1">
         <v>5</v>
       </c>
-      <c r="G333" s="3"/>
+      <c r="G333" s="2"/>
     </row>
     <row r="334" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F334" s="1">
         <v>5</v>
       </c>
-      <c r="G334" s="3"/>
+      <c r="G334" s="2"/>
     </row>
     <row r="335" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F335" s="1">
         <v>5</v>
       </c>
-      <c r="G335" s="3"/>
+      <c r="G335" s="2"/>
     </row>
     <row r="336" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F336" s="1">
         <v>5</v>
       </c>
-      <c r="G336" s="3"/>
+      <c r="G336" s="2"/>
     </row>
     <row r="337" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F337" s="1">
         <v>5</v>
       </c>
-      <c r="G337" s="3"/>
+      <c r="G337" s="2"/>
     </row>
     <row r="338" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F338" s="1">
         <v>5</v>
       </c>
-      <c r="G338" s="3"/>
+      <c r="G338" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -4289,79 +4627,79 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{214FE451-EC37-4DAA-9890-BA50B23E22A7}">
   <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.140625" style="6" customWidth="1"/>
-    <col min="2" max="2" width="30.5703125" style="6" customWidth="1"/>
-    <col min="3" max="3" width="68.7109375" style="6" customWidth="1"/>
-    <col min="4" max="4" width="45.7109375" style="6" customWidth="1"/>
-    <col min="5" max="5" width="40.140625" style="6" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="6"/>
+    <col min="1" max="1" width="29.140625" style="5" customWidth="1"/>
+    <col min="2" max="2" width="30.5703125" style="5" customWidth="1"/>
+    <col min="3" max="3" width="68.7109375" style="5" customWidth="1"/>
+    <col min="4" max="4" width="45.7109375" style="5" customWidth="1"/>
+    <col min="5" max="5" width="40.140625" style="5" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="23" t="s">
+        <v>225</v>
+      </c>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="13" t="s">
+        <v>226</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>230</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>231</v>
+      </c>
+      <c r="E2" s="13"/>
+    </row>
+    <row r="3" spans="1:7" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="B3" s="5">
+        <v>1</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>232</v>
+      </c>
+      <c r="D3" s="14" t="s">
+        <v>233</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="B4" s="5">
+        <v>3</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
         <v>229</v>
       </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="34" t="s">
-        <v>230</v>
-      </c>
-      <c r="B2" s="34" t="s">
-        <v>234</v>
-      </c>
-      <c r="C2" s="34" t="s">
-        <v>36</v>
-      </c>
-      <c r="D2" s="34" t="s">
-        <v>235</v>
-      </c>
-      <c r="E2" s="34"/>
-    </row>
-    <row r="3" spans="1:7" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
-        <v>231</v>
-      </c>
-      <c r="B3" s="6">
-        <v>1</v>
-      </c>
-      <c r="C3" s="35" t="s">
-        <v>236</v>
-      </c>
-      <c r="D3" s="35" t="s">
-        <v>237</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
-        <v>232</v>
-      </c>
-      <c r="B4" s="6">
-        <v>3</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
-        <v>233</v>
-      </c>
-      <c r="B5" s="6">
+      <c r="B5" s="5">
         <v>4</v>
       </c>
     </row>
@@ -4375,29 +4713,133 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADB02B54-F017-44DA-9118-EA158E750E4A}">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="9.140625" style="6"/>
+    <col min="1" max="1" width="41.28515625" style="5" customWidth="1"/>
+    <col min="2" max="2" width="65" style="5" customWidth="1"/>
+    <col min="3" max="3" width="74.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="51.85546875" style="5" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A1" s="33" t="s">
-        <v>227</v>
-      </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
+      <c r="A1" s="23" t="s">
+        <v>224</v>
+      </c>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="31" t="s">
+        <v>236</v>
+      </c>
+      <c r="B2" s="31" t="s">
+        <v>237</v>
+      </c>
+      <c r="C2" s="31" t="s">
+        <v>238</v>
+      </c>
+      <c r="D2" s="31" t="s">
+        <v>239</v>
+      </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
-        <v>228</v>
+      <c r="A3" s="5" t="s">
+        <v>262</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>240</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>264</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>245</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>251</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>252</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
+        <v>246</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>247</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>255</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
+        <v>256</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>261</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
+        <v>258</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>260</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>259</v>
       </c>
     </row>
   </sheetData>
@@ -4411,1091 +4853,1353 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E13E4A5-10AD-4171-99FD-31881C0A6C11}">
-  <dimension ref="A1:AB34"/>
+  <dimension ref="A1:AD34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="Q9" sqref="Q9:U9"/>
+    <sheetView topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="O10" sqref="O10:P10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="6" width="9.140625" style="2"/>
-    <col min="7" max="7" width="4.5703125" style="2" customWidth="1"/>
-    <col min="8" max="15" width="9.140625" style="2"/>
-    <col min="16" max="16" width="13.42578125" style="2" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="6" width="9.140625" style="32"/>
+    <col min="7" max="7" width="4.5703125" style="32" customWidth="1"/>
+    <col min="8" max="13" width="9.140625" style="32"/>
+    <col min="14" max="14" width="16.140625" style="32" customWidth="1"/>
+    <col min="15" max="15" width="9.140625" style="32"/>
+    <col min="16" max="16" width="13.42578125" style="32" customWidth="1"/>
+    <col min="17" max="29" width="9.140625" style="32"/>
+    <col min="30" max="30" width="19.28515625" style="32" customWidth="1"/>
+    <col min="31" max="16384" width="9.140625" style="32"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="30" t="s">
+    <row r="1" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30" t="s">
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27" t="s">
+        <v>196</v>
+      </c>
+      <c r="I1" s="27"/>
+      <c r="J1" s="27"/>
+      <c r="K1" s="27"/>
+      <c r="L1" s="27"/>
+      <c r="M1" s="27"/>
+      <c r="N1" s="27"/>
+      <c r="O1" s="27" t="s">
+        <v>197</v>
+      </c>
+      <c r="P1" s="27"/>
+      <c r="Q1" s="27"/>
+      <c r="R1" s="27"/>
+      <c r="S1" s="27"/>
+      <c r="T1" s="27"/>
+      <c r="U1" s="27"/>
+      <c r="V1" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="W1" s="27"/>
+      <c r="X1" s="27"/>
+      <c r="Y1" s="27"/>
+      <c r="Z1" s="27"/>
+      <c r="AA1" s="27"/>
+      <c r="AB1" s="27"/>
+      <c r="AD1" s="33" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="2" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="27"/>
+      <c r="B2" s="27"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="27"/>
+      <c r="I2" s="27"/>
+      <c r="J2" s="27"/>
+      <c r="K2" s="27"/>
+      <c r="L2" s="27"/>
+      <c r="M2" s="27"/>
+      <c r="N2" s="27"/>
+      <c r="O2" s="27"/>
+      <c r="P2" s="27"/>
+      <c r="Q2" s="27"/>
+      <c r="R2" s="27"/>
+      <c r="S2" s="27"/>
+      <c r="T2" s="27"/>
+      <c r="U2" s="27"/>
+      <c r="V2" s="27"/>
+      <c r="W2" s="27"/>
+      <c r="X2" s="27"/>
+      <c r="Y2" s="27"/>
+      <c r="Z2" s="27"/>
+      <c r="AA2" s="27"/>
+      <c r="AB2" s="27"/>
+    </row>
+    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A3" s="28" t="s">
+        <v>34</v>
+      </c>
+      <c r="B3" s="28"/>
+      <c r="C3" s="29" t="s">
+        <v>36</v>
+      </c>
+      <c r="D3" s="29"/>
+      <c r="E3" s="29"/>
+      <c r="F3" s="29"/>
+      <c r="G3" s="29"/>
+      <c r="H3" s="28" t="s">
+        <v>34</v>
+      </c>
+      <c r="I3" s="28"/>
+      <c r="J3" s="29" t="s">
+        <v>36</v>
+      </c>
+      <c r="K3" s="29"/>
+      <c r="L3" s="29"/>
+      <c r="M3" s="29"/>
+      <c r="N3" s="29"/>
+      <c r="O3" s="28" t="s">
+        <v>34</v>
+      </c>
+      <c r="P3" s="28"/>
+      <c r="Q3" s="29" t="s">
+        <v>36</v>
+      </c>
+      <c r="R3" s="29"/>
+      <c r="S3" s="29"/>
+      <c r="T3" s="29"/>
+      <c r="U3" s="29"/>
+      <c r="V3" s="28" t="s">
+        <v>34</v>
+      </c>
+      <c r="W3" s="28"/>
+      <c r="X3" s="29" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y3" s="29"/>
+      <c r="Z3" s="29"/>
+      <c r="AA3" s="29"/>
+      <c r="AB3" s="29"/>
+    </row>
+    <row r="4" spans="1:30" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="B4" s="24"/>
+      <c r="C4" s="25" t="s">
+        <v>44</v>
+      </c>
+      <c r="D4" s="25"/>
+      <c r="E4" s="25"/>
+      <c r="F4" s="25"/>
+      <c r="G4" s="25"/>
+      <c r="H4" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="I4" s="24"/>
+      <c r="J4" s="25" t="s">
+        <v>46</v>
+      </c>
+      <c r="K4" s="25"/>
+      <c r="L4" s="25"/>
+      <c r="M4" s="25"/>
+      <c r="N4" s="25"/>
+      <c r="O4" s="26" t="s">
+        <v>198</v>
+      </c>
+      <c r="P4" s="26"/>
+      <c r="Q4" s="25" t="s">
         <v>199</v>
       </c>
-      <c r="I1" s="30"/>
-      <c r="J1" s="30"/>
-      <c r="K1" s="30"/>
-      <c r="L1" s="30"/>
-      <c r="M1" s="30"/>
-      <c r="N1" s="30"/>
-      <c r="O1" s="30" t="s">
+      <c r="R4" s="25"/>
+      <c r="S4" s="25"/>
+      <c r="T4" s="25"/>
+      <c r="U4" s="25"/>
+      <c r="V4" s="26" t="s">
+        <v>63</v>
+      </c>
+      <c r="W4" s="26"/>
+      <c r="X4" s="25" t="s">
+        <v>62</v>
+      </c>
+      <c r="Y4" s="25"/>
+      <c r="Z4" s="25"/>
+      <c r="AA4" s="25"/>
+      <c r="AB4" s="25"/>
+    </row>
+    <row r="5" spans="1:30" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="B5" s="24"/>
+      <c r="C5" s="25" t="s">
+        <v>268</v>
+      </c>
+      <c r="D5" s="25"/>
+      <c r="E5" s="25"/>
+      <c r="F5" s="25"/>
+      <c r="G5" s="25"/>
+      <c r="H5" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="I5" s="24"/>
+      <c r="J5" s="25" t="s">
+        <v>59</v>
+      </c>
+      <c r="K5" s="25"/>
+      <c r="L5" s="25"/>
+      <c r="M5" s="25"/>
+      <c r="N5" s="25"/>
+      <c r="O5" s="26" t="s">
         <v>200</v>
       </c>
-      <c r="P1" s="30"/>
-      <c r="Q1" s="30"/>
-      <c r="R1" s="30"/>
-      <c r="S1" s="30"/>
-      <c r="T1" s="30"/>
-      <c r="U1" s="30"/>
-      <c r="V1" s="30" t="s">
-        <v>35</v>
-      </c>
-      <c r="W1" s="30"/>
-      <c r="X1" s="30"/>
-      <c r="Y1" s="30"/>
-      <c r="Z1" s="30"/>
-      <c r="AA1" s="30"/>
-      <c r="AB1" s="30"/>
-    </row>
-    <row r="2" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="30"/>
-      <c r="B2" s="30"/>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
-      <c r="G2" s="30"/>
-      <c r="H2" s="30"/>
-      <c r="I2" s="30"/>
-      <c r="J2" s="30"/>
-      <c r="K2" s="30"/>
-      <c r="L2" s="30"/>
-      <c r="M2" s="30"/>
-      <c r="N2" s="30"/>
-      <c r="O2" s="30"/>
-      <c r="P2" s="30"/>
-      <c r="Q2" s="30"/>
-      <c r="R2" s="30"/>
-      <c r="S2" s="30"/>
-      <c r="T2" s="30"/>
-      <c r="U2" s="30"/>
-      <c r="V2" s="30"/>
-      <c r="W2" s="30"/>
-      <c r="X2" s="30"/>
-      <c r="Y2" s="30"/>
-      <c r="Z2" s="30"/>
-      <c r="AA2" s="30"/>
-      <c r="AB2" s="30"/>
-    </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A3" s="31" t="s">
-        <v>34</v>
-      </c>
-      <c r="B3" s="31"/>
-      <c r="C3" s="32" t="s">
-        <v>36</v>
-      </c>
-      <c r="D3" s="32"/>
-      <c r="E3" s="32"/>
-      <c r="F3" s="32"/>
-      <c r="G3" s="32"/>
-      <c r="H3" s="31" t="s">
-        <v>34</v>
-      </c>
-      <c r="I3" s="31"/>
-      <c r="J3" s="32" t="s">
-        <v>36</v>
-      </c>
-      <c r="K3" s="32"/>
-      <c r="L3" s="32"/>
-      <c r="M3" s="32"/>
-      <c r="N3" s="32"/>
-      <c r="O3" s="31" t="s">
-        <v>34</v>
-      </c>
-      <c r="P3" s="31"/>
-      <c r="Q3" s="32" t="s">
-        <v>36</v>
-      </c>
-      <c r="R3" s="32"/>
-      <c r="S3" s="32"/>
-      <c r="T3" s="32"/>
-      <c r="U3" s="32"/>
-      <c r="V3" s="31" t="s">
-        <v>34</v>
-      </c>
-      <c r="W3" s="31"/>
-      <c r="X3" s="32" t="s">
-        <v>36</v>
-      </c>
-      <c r="Y3" s="32"/>
-      <c r="Z3" s="32"/>
-      <c r="AA3" s="32"/>
-      <c r="AB3" s="32"/>
-    </row>
-    <row r="4" spans="1:28" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="25" t="s">
+      <c r="P5" s="26"/>
+      <c r="Q5" s="25" t="s">
+        <v>283</v>
+      </c>
+      <c r="R5" s="25"/>
+      <c r="S5" s="25"/>
+      <c r="T5" s="25"/>
+      <c r="U5" s="25"/>
+      <c r="V5" s="26" t="s">
+        <v>64</v>
+      </c>
+      <c r="W5" s="26"/>
+      <c r="X5" s="25" t="s">
+        <v>67</v>
+      </c>
+      <c r="Y5" s="25"/>
+      <c r="Z5" s="25"/>
+      <c r="AA5" s="25"/>
+      <c r="AB5" s="25"/>
+    </row>
+    <row r="6" spans="1:30" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="B6" s="24"/>
+      <c r="C6" s="25" t="s">
+        <v>54</v>
+      </c>
+      <c r="D6" s="25"/>
+      <c r="E6" s="25"/>
+      <c r="F6" s="25"/>
+      <c r="G6" s="25"/>
+      <c r="H6" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="I6" s="24"/>
+      <c r="J6" s="25" t="s">
+        <v>49</v>
+      </c>
+      <c r="K6" s="25"/>
+      <c r="L6" s="25"/>
+      <c r="M6" s="25"/>
+      <c r="N6" s="25"/>
+      <c r="O6" s="26" t="s">
+        <v>201</v>
+      </c>
+      <c r="P6" s="26"/>
+      <c r="Q6" s="25" t="s">
+        <v>283</v>
+      </c>
+      <c r="R6" s="25"/>
+      <c r="S6" s="25"/>
+      <c r="T6" s="25"/>
+      <c r="U6" s="25"/>
+      <c r="V6" s="26" t="s">
+        <v>65</v>
+      </c>
+      <c r="W6" s="26"/>
+      <c r="X6" s="25" t="s">
+        <v>66</v>
+      </c>
+      <c r="Y6" s="25"/>
+      <c r="Z6" s="25"/>
+      <c r="AA6" s="25"/>
+      <c r="AB6" s="25"/>
+    </row>
+    <row r="7" spans="1:30" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="B7" s="24"/>
+      <c r="C7" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="D7" s="25"/>
+      <c r="E7" s="25"/>
+      <c r="F7" s="25"/>
+      <c r="G7" s="25"/>
+      <c r="H7" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="I7" s="24"/>
+      <c r="J7" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="K7" s="25"/>
+      <c r="L7" s="25"/>
+      <c r="M7" s="25"/>
+      <c r="N7" s="25"/>
+      <c r="O7" s="26" t="s">
+        <v>202</v>
+      </c>
+      <c r="P7" s="26"/>
+      <c r="Q7" s="25" t="s">
+        <v>285</v>
+      </c>
+      <c r="R7" s="25"/>
+      <c r="S7" s="25"/>
+      <c r="T7" s="25"/>
+      <c r="U7" s="25"/>
+      <c r="V7" s="26" t="s">
+        <v>68</v>
+      </c>
+      <c r="W7" s="26"/>
+      <c r="X7" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="Y7" s="25"/>
+      <c r="Z7" s="25"/>
+      <c r="AA7" s="25"/>
+      <c r="AB7" s="25"/>
+    </row>
+    <row r="8" spans="1:30" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="24" t="s">
+        <v>266</v>
+      </c>
+      <c r="B8" s="24"/>
+      <c r="C8" s="25" t="s">
+        <v>267</v>
+      </c>
+      <c r="D8" s="25"/>
+      <c r="E8" s="25"/>
+      <c r="F8" s="25"/>
+      <c r="G8" s="25"/>
+      <c r="H8" s="24" t="s">
+        <v>53</v>
+      </c>
+      <c r="I8" s="24"/>
+      <c r="J8" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="K8" s="25"/>
+      <c r="L8" s="25"/>
+      <c r="M8" s="25"/>
+      <c r="N8" s="25"/>
+      <c r="O8" s="26" t="s">
+        <v>284</v>
+      </c>
+      <c r="P8" s="26"/>
+      <c r="Q8" s="25" t="s">
+        <v>285</v>
+      </c>
+      <c r="R8" s="25"/>
+      <c r="S8" s="25"/>
+      <c r="T8" s="25"/>
+      <c r="U8" s="25"/>
+      <c r="V8" s="26" t="s">
+        <v>70</v>
+      </c>
+      <c r="W8" s="26"/>
+      <c r="X8" s="25" t="s">
+        <v>62</v>
+      </c>
+      <c r="Y8" s="25"/>
+      <c r="Z8" s="25"/>
+      <c r="AA8" s="25"/>
+      <c r="AB8" s="25"/>
+    </row>
+    <row r="9" spans="1:30" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="B4" s="25"/>
-      <c r="C4" s="26" t="s">
-        <v>46</v>
-      </c>
-      <c r="D4" s="26"/>
-      <c r="E4" s="26"/>
-      <c r="F4" s="26"/>
-      <c r="G4" s="26"/>
-      <c r="H4" s="25" t="s">
+      <c r="B9" s="24"/>
+      <c r="C9" s="25" t="s">
+        <v>56</v>
+      </c>
+      <c r="D9" s="25"/>
+      <c r="E9" s="25"/>
+      <c r="F9" s="25"/>
+      <c r="G9" s="25"/>
+      <c r="H9" s="24" t="s">
+        <v>79</v>
+      </c>
+      <c r="I9" s="24"/>
+      <c r="J9" s="25" t="s">
+        <v>57</v>
+      </c>
+      <c r="K9" s="25"/>
+      <c r="L9" s="25"/>
+      <c r="M9" s="25"/>
+      <c r="N9" s="25"/>
+      <c r="O9" s="26" t="s">
+        <v>286</v>
+      </c>
+      <c r="P9" s="26"/>
+      <c r="Q9" s="25"/>
+      <c r="R9" s="25"/>
+      <c r="S9" s="25"/>
+      <c r="T9" s="25"/>
+      <c r="U9" s="25"/>
+      <c r="V9" s="26" t="s">
+        <v>71</v>
+      </c>
+      <c r="W9" s="26"/>
+      <c r="X9" s="25" t="s">
+        <v>72</v>
+      </c>
+      <c r="Y9" s="25"/>
+      <c r="Z9" s="25"/>
+      <c r="AA9" s="25"/>
+      <c r="AB9" s="25"/>
+    </row>
+    <row r="10" spans="1:30" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="24" t="s">
+        <v>42</v>
+      </c>
+      <c r="B10" s="24"/>
+      <c r="C10" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="D10" s="25"/>
+      <c r="E10" s="25"/>
+      <c r="F10" s="25"/>
+      <c r="G10" s="25"/>
+      <c r="H10" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="I10" s="24"/>
+      <c r="J10" s="25" t="s">
+        <v>59</v>
+      </c>
+      <c r="K10" s="25"/>
+      <c r="L10" s="25"/>
+      <c r="M10" s="25"/>
+      <c r="N10" s="25"/>
+      <c r="O10" s="26"/>
+      <c r="P10" s="26"/>
+      <c r="Q10" s="25"/>
+      <c r="R10" s="25"/>
+      <c r="S10" s="25"/>
+      <c r="T10" s="25"/>
+      <c r="U10" s="25"/>
+      <c r="V10" s="26" t="s">
+        <v>74</v>
+      </c>
+      <c r="W10" s="26"/>
+      <c r="X10" s="25" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y10" s="25"/>
+      <c r="Z10" s="25"/>
+      <c r="AA10" s="25"/>
+      <c r="AB10" s="25"/>
+    </row>
+    <row r="11" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A11" s="24" t="s">
+        <v>269</v>
+      </c>
+      <c r="B11" s="24"/>
+      <c r="C11" s="25" t="s">
+        <v>277</v>
+      </c>
+      <c r="D11" s="25"/>
+      <c r="E11" s="25"/>
+      <c r="F11" s="25"/>
+      <c r="G11" s="25"/>
+      <c r="H11" s="24" t="s">
+        <v>60</v>
+      </c>
+      <c r="I11" s="24"/>
+      <c r="J11" s="25" t="s">
+        <v>61</v>
+      </c>
+      <c r="K11" s="25"/>
+      <c r="L11" s="25"/>
+      <c r="M11" s="25"/>
+      <c r="N11" s="25"/>
+      <c r="O11" s="26"/>
+      <c r="P11" s="26"/>
+      <c r="Q11" s="25"/>
+      <c r="R11" s="25"/>
+      <c r="S11" s="25"/>
+      <c r="T11" s="25"/>
+      <c r="U11" s="25"/>
+      <c r="V11" s="26" t="s">
+        <v>76</v>
+      </c>
+      <c r="W11" s="26"/>
+      <c r="X11" s="25" t="s">
+        <v>77</v>
+      </c>
+      <c r="Y11" s="25"/>
+      <c r="Z11" s="25"/>
+      <c r="AA11" s="25"/>
+      <c r="AB11" s="25"/>
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A12" s="24" t="s">
+        <v>271</v>
+      </c>
+      <c r="B12" s="24"/>
+      <c r="C12" s="35" t="s">
+        <v>272</v>
+      </c>
+      <c r="D12" s="25"/>
+      <c r="E12" s="25"/>
+      <c r="F12" s="25"/>
+      <c r="G12" s="25"/>
+      <c r="H12" s="24" t="s">
+        <v>78</v>
+      </c>
+      <c r="I12" s="24"/>
+      <c r="J12" s="25" t="s">
+        <v>265</v>
+      </c>
+      <c r="K12" s="25"/>
+      <c r="L12" s="25"/>
+      <c r="M12" s="25"/>
+      <c r="N12" s="25"/>
+      <c r="O12" s="26"/>
+      <c r="P12" s="26"/>
+      <c r="Q12" s="25"/>
+      <c r="R12" s="25"/>
+      <c r="S12" s="25"/>
+      <c r="T12" s="25"/>
+      <c r="U12" s="25"/>
+      <c r="V12" s="26"/>
+      <c r="W12" s="26"/>
+      <c r="X12" s="25"/>
+      <c r="Y12" s="25"/>
+      <c r="Z12" s="25"/>
+      <c r="AA12" s="25"/>
+      <c r="AB12" s="25"/>
+    </row>
+    <row r="13" spans="1:30" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="24" t="s">
+        <v>276</v>
+      </c>
+      <c r="B13" s="24"/>
+      <c r="C13" s="35" t="s">
+        <v>275</v>
+      </c>
+      <c r="D13" s="25"/>
+      <c r="E13" s="25"/>
+      <c r="F13" s="25"/>
+      <c r="G13" s="25"/>
+      <c r="H13" s="24" t="s">
         <v>47</v>
       </c>
-      <c r="I4" s="25"/>
-      <c r="J4" s="26" t="s">
+      <c r="I13" s="24"/>
+      <c r="J13" s="25" t="s">
         <v>48</v>
       </c>
-      <c r="K4" s="26"/>
-      <c r="L4" s="26"/>
-      <c r="M4" s="26"/>
-      <c r="N4" s="26"/>
-      <c r="O4" s="27" t="s">
-        <v>201</v>
-      </c>
-      <c r="P4" s="27"/>
-      <c r="Q4" s="26" t="s">
-        <v>202</v>
-      </c>
-      <c r="R4" s="26"/>
-      <c r="S4" s="26"/>
-      <c r="T4" s="26"/>
-      <c r="U4" s="26"/>
-      <c r="V4" s="27" t="s">
-        <v>66</v>
-      </c>
-      <c r="W4" s="27"/>
-      <c r="X4" s="26" t="s">
-        <v>65</v>
-      </c>
-      <c r="Y4" s="26"/>
-      <c r="Z4" s="26"/>
-      <c r="AA4" s="26"/>
-      <c r="AB4" s="26"/>
-    </row>
-    <row r="5" spans="1:28" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="25" t="s">
-        <v>37</v>
-      </c>
-      <c r="B5" s="25"/>
-      <c r="C5" s="26" t="s">
-        <v>44</v>
-      </c>
-      <c r="D5" s="26"/>
-      <c r="E5" s="26"/>
-      <c r="F5" s="26"/>
-      <c r="G5" s="26"/>
-      <c r="H5" s="25" t="s">
-        <v>49</v>
-      </c>
-      <c r="I5" s="25"/>
-      <c r="J5" s="26" t="s">
-        <v>50</v>
-      </c>
-      <c r="K5" s="26"/>
-      <c r="L5" s="26"/>
-      <c r="M5" s="26"/>
-      <c r="N5" s="26"/>
-      <c r="O5" s="27" t="s">
+      <c r="K13" s="25"/>
+      <c r="L13" s="25"/>
+      <c r="M13" s="25"/>
+      <c r="N13" s="25"/>
+      <c r="O13" s="26" t="s">
         <v>203</v>
       </c>
-      <c r="P5" s="27"/>
-      <c r="Q5" s="26"/>
-      <c r="R5" s="26"/>
-      <c r="S5" s="26"/>
-      <c r="T5" s="26"/>
-      <c r="U5" s="26"/>
-      <c r="V5" s="27" t="s">
-        <v>67</v>
-      </c>
-      <c r="W5" s="27"/>
-      <c r="X5" s="26" t="s">
-        <v>70</v>
-      </c>
-      <c r="Y5" s="26"/>
-      <c r="Z5" s="26"/>
-      <c r="AA5" s="26"/>
-      <c r="AB5" s="26"/>
-    </row>
-    <row r="6" spans="1:28" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="25" t="s">
-        <v>38</v>
-      </c>
-      <c r="B6" s="25"/>
-      <c r="C6" s="26" t="s">
-        <v>56</v>
-      </c>
-      <c r="D6" s="26"/>
-      <c r="E6" s="26"/>
-      <c r="F6" s="26"/>
-      <c r="G6" s="26"/>
-      <c r="H6" s="25" t="s">
-        <v>52</v>
-      </c>
-      <c r="I6" s="25"/>
-      <c r="J6" s="26" t="s">
-        <v>51</v>
-      </c>
-      <c r="K6" s="26"/>
-      <c r="L6" s="26"/>
-      <c r="M6" s="26"/>
-      <c r="N6" s="26"/>
-      <c r="O6" s="27" t="s">
+      <c r="P13" s="26"/>
+      <c r="Q13" s="25" t="s">
         <v>204</v>
       </c>
-      <c r="P6" s="27"/>
-      <c r="Q6" s="26"/>
-      <c r="R6" s="26"/>
-      <c r="S6" s="26"/>
-      <c r="T6" s="26"/>
-      <c r="U6" s="26"/>
-      <c r="V6" s="27" t="s">
-        <v>68</v>
-      </c>
-      <c r="W6" s="27"/>
-      <c r="X6" s="26" t="s">
+      <c r="R13" s="25"/>
+      <c r="S13" s="25"/>
+      <c r="T13" s="25"/>
+      <c r="U13" s="25"/>
+      <c r="V13" s="24" t="s">
+        <v>278</v>
+      </c>
+      <c r="W13" s="24"/>
+      <c r="X13" s="25" t="s">
         <v>69</v>
       </c>
-      <c r="Y6" s="26"/>
-      <c r="Z6" s="26"/>
-      <c r="AA6" s="26"/>
-      <c r="AB6" s="26"/>
-    </row>
-    <row r="7" spans="1:28" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="B7" s="25"/>
-      <c r="C7" s="26" t="s">
-        <v>45</v>
-      </c>
-      <c r="D7" s="26"/>
-      <c r="E7" s="26"/>
-      <c r="F7" s="26"/>
-      <c r="G7" s="26"/>
-      <c r="H7" s="25" t="s">
-        <v>53</v>
-      </c>
-      <c r="I7" s="25"/>
-      <c r="J7" s="26" t="s">
-        <v>54</v>
-      </c>
-      <c r="K7" s="26"/>
-      <c r="L7" s="26"/>
-      <c r="M7" s="26"/>
-      <c r="N7" s="26"/>
-      <c r="O7" s="27" t="s">
-        <v>205</v>
-      </c>
-      <c r="P7" s="27"/>
-      <c r="Q7" s="26"/>
-      <c r="R7" s="26"/>
-      <c r="S7" s="26"/>
-      <c r="T7" s="26"/>
-      <c r="U7" s="26"/>
-      <c r="V7" s="27" t="s">
-        <v>71</v>
-      </c>
-      <c r="W7" s="27"/>
-      <c r="X7" s="26" t="s">
-        <v>72</v>
-      </c>
-      <c r="Y7" s="26"/>
-      <c r="Z7" s="26"/>
-      <c r="AA7" s="26"/>
-      <c r="AB7" s="26"/>
-    </row>
-    <row r="8" spans="1:28" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="25" t="s">
-        <v>40</v>
-      </c>
-      <c r="B8" s="25"/>
-      <c r="C8" s="26" t="s">
-        <v>58</v>
-      </c>
-      <c r="D8" s="26"/>
-      <c r="E8" s="26"/>
-      <c r="F8" s="26"/>
-      <c r="G8" s="26"/>
-      <c r="H8" s="28" t="s">
-        <v>55</v>
-      </c>
-      <c r="I8" s="28"/>
-      <c r="J8" s="29" t="s">
-        <v>54</v>
-      </c>
-      <c r="K8" s="29"/>
-      <c r="L8" s="29"/>
-      <c r="M8" s="29"/>
-      <c r="N8" s="29"/>
-      <c r="O8" s="27" t="s">
-        <v>206</v>
-      </c>
-      <c r="P8" s="27"/>
-      <c r="Q8" s="26" t="s">
-        <v>207</v>
-      </c>
-      <c r="R8" s="26"/>
-      <c r="S8" s="26"/>
-      <c r="T8" s="26"/>
-      <c r="U8" s="26"/>
-      <c r="V8" s="27" t="s">
-        <v>73</v>
-      </c>
-      <c r="W8" s="27"/>
-      <c r="X8" s="26" t="s">
-        <v>65</v>
-      </c>
-      <c r="Y8" s="26"/>
-      <c r="Z8" s="26"/>
-      <c r="AA8" s="26"/>
-      <c r="AB8" s="26"/>
-    </row>
-    <row r="9" spans="1:28" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="25" t="s">
-        <v>42</v>
-      </c>
-      <c r="B9" s="25"/>
-      <c r="C9" s="26" t="s">
-        <v>59</v>
-      </c>
-      <c r="D9" s="26"/>
-      <c r="E9" s="26"/>
-      <c r="F9" s="26"/>
-      <c r="G9" s="26"/>
-      <c r="H9" s="25" t="s">
-        <v>82</v>
-      </c>
-      <c r="I9" s="25"/>
-      <c r="J9" s="26" t="s">
-        <v>60</v>
-      </c>
-      <c r="K9" s="26"/>
-      <c r="L9" s="26"/>
-      <c r="M9" s="26"/>
-      <c r="N9" s="26"/>
-      <c r="O9" s="27"/>
-      <c r="P9" s="27"/>
-      <c r="Q9" s="26"/>
-      <c r="R9" s="26"/>
-      <c r="S9" s="26"/>
-      <c r="T9" s="26"/>
-      <c r="U9" s="26"/>
-      <c r="V9" s="27" t="s">
-        <v>74</v>
-      </c>
-      <c r="W9" s="27"/>
-      <c r="X9" s="26" t="s">
-        <v>75</v>
-      </c>
-      <c r="Y9" s="26"/>
-      <c r="Z9" s="26"/>
-      <c r="AA9" s="26"/>
-      <c r="AB9" s="26"/>
-    </row>
-    <row r="10" spans="1:28" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="25" t="s">
-        <v>43</v>
-      </c>
-      <c r="B10" s="25"/>
-      <c r="C10" s="26" t="s">
-        <v>57</v>
-      </c>
-      <c r="D10" s="26"/>
-      <c r="E10" s="26"/>
-      <c r="F10" s="26"/>
-      <c r="G10" s="26"/>
-      <c r="H10" s="25" t="s">
-        <v>61</v>
-      </c>
-      <c r="I10" s="25"/>
-      <c r="J10" s="26" t="s">
-        <v>62</v>
-      </c>
-      <c r="K10" s="26"/>
-      <c r="L10" s="26"/>
-      <c r="M10" s="26"/>
-      <c r="N10" s="26"/>
-      <c r="O10" s="27"/>
-      <c r="P10" s="27"/>
-      <c r="Q10" s="26"/>
-      <c r="R10" s="26"/>
-      <c r="S10" s="26"/>
-      <c r="T10" s="26"/>
-      <c r="U10" s="26"/>
-      <c r="V10" s="27" t="s">
-        <v>77</v>
-      </c>
-      <c r="W10" s="27"/>
-      <c r="X10" s="26" t="s">
-        <v>78</v>
-      </c>
-      <c r="Y10" s="26"/>
-      <c r="Z10" s="26"/>
-      <c r="AA10" s="26"/>
-      <c r="AB10" s="26"/>
-    </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A11" s="25"/>
-      <c r="B11" s="25"/>
-      <c r="C11" s="26"/>
-      <c r="D11" s="26"/>
-      <c r="E11" s="26"/>
-      <c r="F11" s="26"/>
-      <c r="G11" s="26"/>
-      <c r="H11" s="25" t="s">
-        <v>63</v>
-      </c>
-      <c r="I11" s="25"/>
-      <c r="J11" s="26" t="s">
-        <v>64</v>
-      </c>
-      <c r="K11" s="26"/>
-      <c r="L11" s="26"/>
-      <c r="M11" s="26"/>
-      <c r="N11" s="26"/>
-      <c r="O11" s="27"/>
-      <c r="P11" s="27"/>
-      <c r="Q11" s="26"/>
-      <c r="R11" s="26"/>
-      <c r="S11" s="26"/>
-      <c r="T11" s="26"/>
-      <c r="U11" s="26"/>
-      <c r="V11" s="27" t="s">
-        <v>79</v>
-      </c>
-      <c r="W11" s="27"/>
-      <c r="X11" s="26" t="s">
-        <v>80</v>
-      </c>
-      <c r="Y11" s="26"/>
-      <c r="Z11" s="26"/>
-      <c r="AA11" s="26"/>
-      <c r="AB11" s="26"/>
-    </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A12" s="25"/>
-      <c r="B12" s="25"/>
-      <c r="C12" s="26"/>
-      <c r="D12" s="26"/>
-      <c r="E12" s="26"/>
-      <c r="F12" s="26"/>
-      <c r="G12" s="26"/>
-      <c r="H12" s="25" t="s">
-        <v>81</v>
-      </c>
-      <c r="I12" s="25"/>
-      <c r="J12" s="26"/>
-      <c r="K12" s="26"/>
-      <c r="L12" s="26"/>
-      <c r="M12" s="26"/>
-      <c r="N12" s="26"/>
-      <c r="O12" s="27"/>
-      <c r="P12" s="27"/>
-      <c r="Q12" s="26"/>
-      <c r="R12" s="26"/>
-      <c r="S12" s="26"/>
-      <c r="T12" s="26"/>
-      <c r="U12" s="26"/>
-      <c r="V12" s="27"/>
-      <c r="W12" s="27"/>
-      <c r="X12" s="26"/>
-      <c r="Y12" s="26"/>
-      <c r="Z12" s="26"/>
-      <c r="AA12" s="26"/>
-      <c r="AB12" s="26"/>
-    </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A13" s="25"/>
-      <c r="B13" s="25"/>
-      <c r="C13" s="26"/>
-      <c r="D13" s="26"/>
-      <c r="E13" s="26"/>
-      <c r="F13" s="26"/>
-      <c r="G13" s="26"/>
-      <c r="H13" s="25"/>
-      <c r="I13" s="25"/>
-      <c r="J13" s="26"/>
-      <c r="K13" s="26"/>
-      <c r="L13" s="26"/>
-      <c r="M13" s="26"/>
-      <c r="N13" s="26"/>
-      <c r="O13" s="27"/>
-      <c r="P13" s="27"/>
-      <c r="Q13" s="26"/>
-      <c r="R13" s="26"/>
-      <c r="S13" s="26"/>
-      <c r="T13" s="26"/>
-      <c r="U13" s="26"/>
-      <c r="V13" s="27"/>
-      <c r="W13" s="27"/>
-      <c r="X13" s="26"/>
-      <c r="Y13" s="26"/>
-      <c r="Z13" s="26"/>
-      <c r="AA13" s="26"/>
-      <c r="AB13" s="26"/>
-    </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A14" s="25"/>
-      <c r="B14" s="25"/>
-      <c r="C14" s="26"/>
-      <c r="D14" s="26"/>
-      <c r="E14" s="26"/>
-      <c r="F14" s="26"/>
-      <c r="G14" s="26"/>
-      <c r="H14" s="25"/>
-      <c r="I14" s="25"/>
-      <c r="J14" s="26"/>
-      <c r="K14" s="26"/>
-      <c r="L14" s="26"/>
-      <c r="M14" s="26"/>
-      <c r="N14" s="26"/>
-      <c r="O14" s="27"/>
-      <c r="P14" s="27"/>
-      <c r="Q14" s="26"/>
-      <c r="R14" s="26"/>
-      <c r="S14" s="26"/>
-      <c r="T14" s="26"/>
-      <c r="U14" s="26"/>
-      <c r="V14" s="27"/>
-      <c r="W14" s="27"/>
-      <c r="X14" s="26"/>
-      <c r="Y14" s="26"/>
-      <c r="Z14" s="26"/>
-      <c r="AA14" s="26"/>
-      <c r="AB14" s="26"/>
-    </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A15" s="25"/>
-      <c r="B15" s="25"/>
-      <c r="C15" s="26"/>
-      <c r="D15" s="26"/>
-      <c r="E15" s="26"/>
-      <c r="F15" s="26"/>
-      <c r="G15" s="26"/>
-      <c r="H15" s="25"/>
-      <c r="I15" s="25"/>
-      <c r="J15" s="26"/>
-      <c r="K15" s="26"/>
-      <c r="L15" s="26"/>
-      <c r="M15" s="26"/>
-      <c r="N15" s="26"/>
-      <c r="O15" s="27"/>
-      <c r="P15" s="27"/>
-      <c r="Q15" s="26"/>
-      <c r="R15" s="26"/>
-      <c r="S15" s="26"/>
-      <c r="T15" s="26"/>
-      <c r="U15" s="26"/>
-      <c r="V15" s="27"/>
-      <c r="W15" s="27"/>
-      <c r="X15" s="26"/>
-      <c r="Y15" s="26"/>
-      <c r="Z15" s="26"/>
-      <c r="AA15" s="26"/>
-      <c r="AB15" s="26"/>
-    </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A16" s="25"/>
-      <c r="B16" s="25"/>
-      <c r="C16" s="26"/>
-      <c r="D16" s="26"/>
-      <c r="E16" s="26"/>
-      <c r="F16" s="26"/>
-      <c r="G16" s="26"/>
-      <c r="H16" s="25"/>
-      <c r="I16" s="25"/>
-      <c r="J16" s="26"/>
-      <c r="K16" s="26"/>
-      <c r="L16" s="26"/>
-      <c r="M16" s="26"/>
-      <c r="N16" s="26"/>
-      <c r="O16" s="27"/>
-      <c r="P16" s="27"/>
-      <c r="Q16" s="26"/>
-      <c r="R16" s="26"/>
-      <c r="S16" s="26"/>
-      <c r="T16" s="26"/>
-      <c r="U16" s="26"/>
-      <c r="V16" s="27"/>
-      <c r="W16" s="27"/>
-      <c r="X16" s="26"/>
-      <c r="Y16" s="26"/>
-      <c r="Z16" s="26"/>
-      <c r="AA16" s="26"/>
-      <c r="AB16" s="26"/>
+      <c r="Y13" s="25"/>
+      <c r="Z13" s="25"/>
+      <c r="AA13" s="25"/>
+      <c r="AB13" s="25"/>
+    </row>
+    <row r="14" spans="1:30" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="24" t="s">
+        <v>280</v>
+      </c>
+      <c r="B14" s="24"/>
+      <c r="C14" s="35" t="s">
+        <v>279</v>
+      </c>
+      <c r="D14" s="25"/>
+      <c r="E14" s="25"/>
+      <c r="F14" s="25"/>
+      <c r="G14" s="25"/>
+      <c r="J14" s="25"/>
+      <c r="K14" s="25"/>
+      <c r="L14" s="25"/>
+      <c r="M14" s="25"/>
+      <c r="N14" s="25"/>
+      <c r="O14" s="26"/>
+      <c r="P14" s="26"/>
+      <c r="Q14" s="25"/>
+      <c r="R14" s="25"/>
+      <c r="S14" s="25"/>
+      <c r="T14" s="25"/>
+      <c r="U14" s="25"/>
+      <c r="V14" s="26"/>
+      <c r="W14" s="26"/>
+      <c r="X14" s="25"/>
+      <c r="Y14" s="25"/>
+      <c r="Z14" s="25"/>
+      <c r="AA14" s="25"/>
+      <c r="AB14" s="25"/>
+    </row>
+    <row r="15" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A15" s="24" t="s">
+        <v>281</v>
+      </c>
+      <c r="B15" s="24"/>
+      <c r="C15" s="34" t="s">
+        <v>282</v>
+      </c>
+      <c r="D15" s="25"/>
+      <c r="E15" s="25"/>
+      <c r="F15" s="25"/>
+      <c r="G15" s="25"/>
+      <c r="H15" s="24"/>
+      <c r="I15" s="24"/>
+      <c r="J15" s="25"/>
+      <c r="K15" s="25"/>
+      <c r="L15" s="25"/>
+      <c r="M15" s="25"/>
+      <c r="N15" s="25"/>
+      <c r="O15" s="26"/>
+      <c r="P15" s="26"/>
+      <c r="Q15" s="25"/>
+      <c r="R15" s="25"/>
+      <c r="S15" s="25"/>
+      <c r="T15" s="25"/>
+      <c r="U15" s="25"/>
+      <c r="V15" s="26"/>
+      <c r="W15" s="26"/>
+      <c r="X15" s="25"/>
+      <c r="Y15" s="25"/>
+      <c r="Z15" s="25"/>
+      <c r="AA15" s="25"/>
+      <c r="AB15" s="25"/>
+    </row>
+    <row r="16" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A16" s="24"/>
+      <c r="B16" s="24"/>
+      <c r="C16" s="25"/>
+      <c r="D16" s="25"/>
+      <c r="E16" s="25"/>
+      <c r="F16" s="25"/>
+      <c r="G16" s="25"/>
+      <c r="H16" s="24"/>
+      <c r="I16" s="24"/>
+      <c r="J16" s="25"/>
+      <c r="K16" s="25"/>
+      <c r="L16" s="25"/>
+      <c r="M16" s="25"/>
+      <c r="N16" s="25"/>
+      <c r="O16" s="26"/>
+      <c r="P16" s="26"/>
+      <c r="Q16" s="25"/>
+      <c r="R16" s="25"/>
+      <c r="S16" s="25"/>
+      <c r="T16" s="25"/>
+      <c r="U16" s="25"/>
+      <c r="V16" s="26"/>
+      <c r="W16" s="26"/>
+      <c r="X16" s="25"/>
+      <c r="Y16" s="25"/>
+      <c r="Z16" s="25"/>
+      <c r="AA16" s="25"/>
+      <c r="AB16" s="25"/>
     </row>
     <row r="17" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A17" s="25"/>
-      <c r="B17" s="25"/>
-      <c r="C17" s="26"/>
-      <c r="D17" s="26"/>
-      <c r="E17" s="26"/>
-      <c r="F17" s="26"/>
-      <c r="G17" s="26"/>
-      <c r="H17" s="25"/>
-      <c r="I17" s="25"/>
-      <c r="J17" s="26"/>
-      <c r="K17" s="26"/>
-      <c r="L17" s="26"/>
-      <c r="M17" s="26"/>
-      <c r="N17" s="26"/>
-      <c r="O17" s="27"/>
-      <c r="P17" s="27"/>
-      <c r="Q17" s="26"/>
-      <c r="R17" s="26"/>
-      <c r="S17" s="26"/>
-      <c r="T17" s="26"/>
-      <c r="U17" s="26"/>
-      <c r="V17" s="27"/>
-      <c r="W17" s="27"/>
-      <c r="X17" s="26"/>
-      <c r="Y17" s="26"/>
-      <c r="Z17" s="26"/>
-      <c r="AA17" s="26"/>
-      <c r="AB17" s="26"/>
+      <c r="A17" s="24"/>
+      <c r="B17" s="24"/>
+      <c r="C17" s="25"/>
+      <c r="D17" s="25"/>
+      <c r="E17" s="25"/>
+      <c r="F17" s="25"/>
+      <c r="G17" s="25"/>
+      <c r="H17" s="24"/>
+      <c r="I17" s="24"/>
+      <c r="J17" s="25"/>
+      <c r="K17" s="25"/>
+      <c r="L17" s="25"/>
+      <c r="M17" s="25"/>
+      <c r="N17" s="25"/>
+      <c r="O17" s="26"/>
+      <c r="P17" s="26"/>
+      <c r="Q17" s="25"/>
+      <c r="R17" s="25"/>
+      <c r="S17" s="25"/>
+      <c r="T17" s="25"/>
+      <c r="U17" s="25"/>
+      <c r="V17" s="26"/>
+      <c r="W17" s="26"/>
+      <c r="X17" s="25"/>
+      <c r="Y17" s="25"/>
+      <c r="Z17" s="25"/>
+      <c r="AA17" s="25"/>
+      <c r="AB17" s="25"/>
     </row>
     <row r="18" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A18" s="25"/>
-      <c r="B18" s="25"/>
-      <c r="C18" s="26"/>
-      <c r="D18" s="26"/>
-      <c r="E18" s="26"/>
-      <c r="F18" s="26"/>
-      <c r="G18" s="26"/>
-      <c r="H18" s="25"/>
-      <c r="I18" s="25"/>
-      <c r="J18" s="26"/>
-      <c r="K18" s="26"/>
-      <c r="L18" s="26"/>
-      <c r="M18" s="26"/>
-      <c r="N18" s="26"/>
-      <c r="O18" s="27"/>
-      <c r="P18" s="27"/>
-      <c r="Q18" s="26"/>
-      <c r="R18" s="26"/>
-      <c r="S18" s="26"/>
-      <c r="T18" s="26"/>
-      <c r="U18" s="26"/>
-      <c r="V18" s="27"/>
-      <c r="W18" s="27"/>
-      <c r="X18" s="26"/>
-      <c r="Y18" s="26"/>
-      <c r="Z18" s="26"/>
-      <c r="AA18" s="26"/>
-      <c r="AB18" s="26"/>
+      <c r="A18" s="24"/>
+      <c r="B18" s="24"/>
+      <c r="C18" s="25"/>
+      <c r="D18" s="25"/>
+      <c r="E18" s="25"/>
+      <c r="F18" s="25"/>
+      <c r="G18" s="25"/>
+      <c r="H18" s="24"/>
+      <c r="I18" s="24"/>
+      <c r="J18" s="25"/>
+      <c r="K18" s="25"/>
+      <c r="L18" s="25"/>
+      <c r="M18" s="25"/>
+      <c r="N18" s="25"/>
+      <c r="O18" s="26"/>
+      <c r="P18" s="26"/>
+      <c r="Q18" s="25"/>
+      <c r="R18" s="25"/>
+      <c r="S18" s="25"/>
+      <c r="T18" s="25"/>
+      <c r="U18" s="25"/>
+      <c r="V18" s="26"/>
+      <c r="W18" s="26"/>
+      <c r="X18" s="25"/>
+      <c r="Y18" s="25"/>
+      <c r="Z18" s="25"/>
+      <c r="AA18" s="25"/>
+      <c r="AB18" s="25"/>
     </row>
     <row r="19" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A19" s="25"/>
-      <c r="B19" s="25"/>
-      <c r="C19" s="26"/>
-      <c r="D19" s="26"/>
-      <c r="E19" s="26"/>
-      <c r="F19" s="26"/>
-      <c r="G19" s="26"/>
-      <c r="H19" s="25"/>
-      <c r="I19" s="25"/>
-      <c r="J19" s="26"/>
-      <c r="K19" s="26"/>
-      <c r="L19" s="26"/>
-      <c r="M19" s="26"/>
-      <c r="N19" s="26"/>
-      <c r="O19" s="27"/>
-      <c r="P19" s="27"/>
-      <c r="Q19" s="26"/>
-      <c r="R19" s="26"/>
-      <c r="S19" s="26"/>
-      <c r="T19" s="26"/>
-      <c r="U19" s="26"/>
-      <c r="V19" s="27"/>
-      <c r="W19" s="27"/>
-      <c r="X19" s="26"/>
-      <c r="Y19" s="26"/>
-      <c r="Z19" s="26"/>
-      <c r="AA19" s="26"/>
-      <c r="AB19" s="26"/>
+      <c r="A19" s="24"/>
+      <c r="B19" s="24"/>
+      <c r="C19" s="25"/>
+      <c r="D19" s="25"/>
+      <c r="E19" s="25"/>
+      <c r="F19" s="25"/>
+      <c r="G19" s="25"/>
+      <c r="H19" s="24"/>
+      <c r="I19" s="24"/>
+      <c r="J19" s="25"/>
+      <c r="K19" s="25"/>
+      <c r="L19" s="25"/>
+      <c r="M19" s="25"/>
+      <c r="N19" s="25"/>
+      <c r="O19" s="26"/>
+      <c r="P19" s="26"/>
+      <c r="Q19" s="25"/>
+      <c r="R19" s="25"/>
+      <c r="S19" s="25"/>
+      <c r="T19" s="25"/>
+      <c r="U19" s="25"/>
+      <c r="V19" s="26"/>
+      <c r="W19" s="26"/>
+      <c r="X19" s="25"/>
+      <c r="Y19" s="25"/>
+      <c r="Z19" s="25"/>
+      <c r="AA19" s="25"/>
+      <c r="AB19" s="25"/>
     </row>
     <row r="20" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A20" s="25"/>
-      <c r="B20" s="25"/>
-      <c r="C20" s="26"/>
-      <c r="D20" s="26"/>
-      <c r="E20" s="26"/>
-      <c r="F20" s="26"/>
-      <c r="G20" s="26"/>
-      <c r="H20" s="25"/>
-      <c r="I20" s="25"/>
-      <c r="J20" s="26"/>
-      <c r="K20" s="26"/>
-      <c r="L20" s="26"/>
-      <c r="M20" s="26"/>
-      <c r="N20" s="26"/>
-      <c r="O20" s="27"/>
-      <c r="P20" s="27"/>
-      <c r="Q20" s="26"/>
-      <c r="R20" s="26"/>
-      <c r="S20" s="26"/>
-      <c r="T20" s="26"/>
-      <c r="U20" s="26"/>
-      <c r="V20" s="27"/>
-      <c r="W20" s="27"/>
-      <c r="X20" s="26"/>
-      <c r="Y20" s="26"/>
-      <c r="Z20" s="26"/>
-      <c r="AA20" s="26"/>
-      <c r="AB20" s="26"/>
+      <c r="A20" s="24"/>
+      <c r="B20" s="24"/>
+      <c r="C20" s="25"/>
+      <c r="D20" s="25"/>
+      <c r="E20" s="25"/>
+      <c r="F20" s="25"/>
+      <c r="G20" s="25"/>
+      <c r="H20" s="24"/>
+      <c r="I20" s="24"/>
+      <c r="J20" s="25"/>
+      <c r="K20" s="25"/>
+      <c r="L20" s="25"/>
+      <c r="M20" s="25"/>
+      <c r="N20" s="25"/>
+      <c r="O20" s="26"/>
+      <c r="P20" s="26"/>
+      <c r="Q20" s="25"/>
+      <c r="R20" s="25"/>
+      <c r="S20" s="25"/>
+      <c r="T20" s="25"/>
+      <c r="U20" s="25"/>
+      <c r="V20" s="26"/>
+      <c r="W20" s="26"/>
+      <c r="X20" s="25"/>
+      <c r="Y20" s="25"/>
+      <c r="Z20" s="25"/>
+      <c r="AA20" s="25"/>
+      <c r="AB20" s="25"/>
     </row>
     <row r="21" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A21" s="25"/>
-      <c r="B21" s="25"/>
-      <c r="C21" s="26"/>
-      <c r="D21" s="26"/>
-      <c r="E21" s="26"/>
-      <c r="F21" s="26"/>
-      <c r="G21" s="26"/>
-      <c r="H21" s="25"/>
-      <c r="I21" s="25"/>
-      <c r="J21" s="26"/>
-      <c r="K21" s="26"/>
-      <c r="L21" s="26"/>
-      <c r="M21" s="26"/>
-      <c r="N21" s="26"/>
-      <c r="O21" s="27"/>
-      <c r="P21" s="27"/>
-      <c r="Q21" s="26"/>
-      <c r="R21" s="26"/>
-      <c r="S21" s="26"/>
-      <c r="T21" s="26"/>
-      <c r="U21" s="26"/>
-      <c r="V21" s="27"/>
-      <c r="W21" s="27"/>
-      <c r="X21" s="26"/>
-      <c r="Y21" s="26"/>
-      <c r="Z21" s="26"/>
-      <c r="AA21" s="26"/>
-      <c r="AB21" s="26"/>
+      <c r="A21" s="24"/>
+      <c r="B21" s="24"/>
+      <c r="C21" s="25"/>
+      <c r="D21" s="25"/>
+      <c r="E21" s="25"/>
+      <c r="F21" s="25"/>
+      <c r="G21" s="25"/>
+      <c r="H21" s="24"/>
+      <c r="I21" s="24"/>
+      <c r="J21" s="25"/>
+      <c r="K21" s="25"/>
+      <c r="L21" s="25"/>
+      <c r="M21" s="25"/>
+      <c r="N21" s="25"/>
+      <c r="O21" s="26"/>
+      <c r="P21" s="26"/>
+      <c r="Q21" s="25"/>
+      <c r="R21" s="25"/>
+      <c r="S21" s="25"/>
+      <c r="T21" s="25"/>
+      <c r="U21" s="25"/>
+      <c r="V21" s="26"/>
+      <c r="W21" s="26"/>
+      <c r="X21" s="25"/>
+      <c r="Y21" s="25"/>
+      <c r="Z21" s="25"/>
+      <c r="AA21" s="25"/>
+      <c r="AB21" s="25"/>
     </row>
     <row r="22" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A22" s="25"/>
-      <c r="B22" s="25"/>
-      <c r="C22" s="26"/>
-      <c r="D22" s="26"/>
-      <c r="E22" s="26"/>
-      <c r="F22" s="26"/>
-      <c r="G22" s="26"/>
-      <c r="H22" s="25"/>
-      <c r="I22" s="25"/>
-      <c r="J22" s="26"/>
-      <c r="K22" s="26"/>
-      <c r="L22" s="26"/>
-      <c r="M22" s="26"/>
-      <c r="N22" s="26"/>
-      <c r="O22" s="27"/>
-      <c r="P22" s="27"/>
-      <c r="Q22" s="26"/>
-      <c r="R22" s="26"/>
-      <c r="S22" s="26"/>
-      <c r="T22" s="26"/>
-      <c r="U22" s="26"/>
-      <c r="V22" s="27"/>
-      <c r="W22" s="27"/>
-      <c r="X22" s="26"/>
-      <c r="Y22" s="26"/>
-      <c r="Z22" s="26"/>
-      <c r="AA22" s="26"/>
-      <c r="AB22" s="26"/>
+      <c r="A22" s="24"/>
+      <c r="B22" s="24"/>
+      <c r="C22" s="25"/>
+      <c r="D22" s="25"/>
+      <c r="E22" s="25"/>
+      <c r="F22" s="25"/>
+      <c r="G22" s="25"/>
+      <c r="H22" s="24"/>
+      <c r="I22" s="24"/>
+      <c r="J22" s="25"/>
+      <c r="K22" s="25"/>
+      <c r="L22" s="25"/>
+      <c r="M22" s="25"/>
+      <c r="N22" s="25"/>
+      <c r="O22" s="26"/>
+      <c r="P22" s="26"/>
+      <c r="Q22" s="25"/>
+      <c r="R22" s="25"/>
+      <c r="S22" s="25"/>
+      <c r="T22" s="25"/>
+      <c r="U22" s="25"/>
+      <c r="V22" s="26"/>
+      <c r="W22" s="26"/>
+      <c r="X22" s="25"/>
+      <c r="Y22" s="25"/>
+      <c r="Z22" s="25"/>
+      <c r="AA22" s="25"/>
+      <c r="AB22" s="25"/>
     </row>
     <row r="23" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A23" s="25"/>
-      <c r="B23" s="25"/>
-      <c r="C23" s="26"/>
-      <c r="D23" s="26"/>
-      <c r="E23" s="26"/>
-      <c r="F23" s="26"/>
-      <c r="G23" s="26"/>
-      <c r="H23" s="25"/>
-      <c r="I23" s="25"/>
-      <c r="J23" s="26"/>
-      <c r="K23" s="26"/>
-      <c r="L23" s="26"/>
-      <c r="M23" s="26"/>
-      <c r="N23" s="26"/>
-      <c r="O23" s="27"/>
-      <c r="P23" s="27"/>
-      <c r="Q23" s="26"/>
-      <c r="R23" s="26"/>
-      <c r="S23" s="26"/>
-      <c r="T23" s="26"/>
-      <c r="U23" s="26"/>
+      <c r="A23" s="24"/>
+      <c r="B23" s="24"/>
+      <c r="C23" s="25"/>
+      <c r="D23" s="25"/>
+      <c r="E23" s="25"/>
+      <c r="F23" s="25"/>
+      <c r="G23" s="25"/>
+      <c r="H23" s="24"/>
+      <c r="I23" s="24"/>
+      <c r="J23" s="25"/>
+      <c r="K23" s="25"/>
+      <c r="L23" s="25"/>
+      <c r="M23" s="25"/>
+      <c r="N23" s="25"/>
+      <c r="O23" s="26"/>
+      <c r="P23" s="26"/>
+      <c r="Q23" s="25"/>
+      <c r="R23" s="25"/>
+      <c r="S23" s="25"/>
+      <c r="T23" s="25"/>
+      <c r="U23" s="25"/>
     </row>
     <row r="24" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A24" s="25"/>
-      <c r="B24" s="25"/>
-      <c r="C24" s="26"/>
-      <c r="D24" s="26"/>
-      <c r="E24" s="26"/>
-      <c r="F24" s="26"/>
-      <c r="G24" s="26"/>
-      <c r="H24" s="25"/>
-      <c r="I24" s="25"/>
-      <c r="J24" s="26"/>
-      <c r="K24" s="26"/>
-      <c r="L24" s="26"/>
-      <c r="M24" s="26"/>
-      <c r="N24" s="26"/>
-      <c r="O24" s="27"/>
-      <c r="P24" s="27"/>
-      <c r="Q24" s="26"/>
-      <c r="R24" s="26"/>
-      <c r="S24" s="26"/>
-      <c r="T24" s="26"/>
-      <c r="U24" s="26"/>
+      <c r="A24" s="24"/>
+      <c r="B24" s="24"/>
+      <c r="C24" s="25"/>
+      <c r="D24" s="25"/>
+      <c r="E24" s="25"/>
+      <c r="F24" s="25"/>
+      <c r="G24" s="25"/>
+      <c r="H24" s="24"/>
+      <c r="I24" s="24"/>
+      <c r="J24" s="25"/>
+      <c r="K24" s="25"/>
+      <c r="L24" s="25"/>
+      <c r="M24" s="25"/>
+      <c r="N24" s="25"/>
+      <c r="O24" s="26"/>
+      <c r="P24" s="26"/>
+      <c r="Q24" s="25"/>
+      <c r="R24" s="25"/>
+      <c r="S24" s="25"/>
+      <c r="T24" s="25"/>
+      <c r="U24" s="25"/>
     </row>
     <row r="25" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A25" s="25"/>
-      <c r="B25" s="25"/>
-      <c r="C25" s="26"/>
-      <c r="D25" s="26"/>
-      <c r="E25" s="26"/>
-      <c r="F25" s="26"/>
-      <c r="G25" s="26"/>
-      <c r="H25" s="25"/>
-      <c r="I25" s="25"/>
-      <c r="J25" s="26"/>
-      <c r="K25" s="26"/>
-      <c r="L25" s="26"/>
-      <c r="M25" s="26"/>
-      <c r="N25" s="26"/>
-      <c r="O25" s="27"/>
-      <c r="P25" s="27"/>
-      <c r="Q25" s="26"/>
-      <c r="R25" s="26"/>
-      <c r="S25" s="26"/>
-      <c r="T25" s="26"/>
-      <c r="U25" s="26"/>
+      <c r="A25" s="24"/>
+      <c r="B25" s="24"/>
+      <c r="C25" s="25"/>
+      <c r="D25" s="25"/>
+      <c r="E25" s="25"/>
+      <c r="F25" s="25"/>
+      <c r="G25" s="25"/>
+      <c r="H25" s="24"/>
+      <c r="I25" s="24"/>
+      <c r="J25" s="25"/>
+      <c r="K25" s="25"/>
+      <c r="L25" s="25"/>
+      <c r="M25" s="25"/>
+      <c r="N25" s="25"/>
+      <c r="O25" s="26"/>
+      <c r="P25" s="26"/>
+      <c r="Q25" s="25"/>
+      <c r="R25" s="25"/>
+      <c r="S25" s="25"/>
+      <c r="T25" s="25"/>
+      <c r="U25" s="25"/>
     </row>
     <row r="26" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A26" s="25"/>
-      <c r="B26" s="25"/>
-      <c r="C26" s="26"/>
-      <c r="D26" s="26"/>
-      <c r="E26" s="26"/>
-      <c r="F26" s="26"/>
-      <c r="G26" s="26"/>
-      <c r="H26" s="25"/>
-      <c r="I26" s="25"/>
-      <c r="J26" s="26"/>
-      <c r="K26" s="26"/>
-      <c r="L26" s="26"/>
-      <c r="M26" s="26"/>
-      <c r="N26" s="26"/>
-      <c r="O26" s="27"/>
-      <c r="P26" s="27"/>
-      <c r="Q26" s="26"/>
-      <c r="R26" s="26"/>
-      <c r="S26" s="26"/>
-      <c r="T26" s="26"/>
-      <c r="U26" s="26"/>
+      <c r="A26" s="24"/>
+      <c r="B26" s="24"/>
+      <c r="C26" s="25"/>
+      <c r="D26" s="25"/>
+      <c r="E26" s="25"/>
+      <c r="F26" s="25"/>
+      <c r="G26" s="25"/>
+      <c r="H26" s="24"/>
+      <c r="I26" s="24"/>
+      <c r="J26" s="25"/>
+      <c r="K26" s="25"/>
+      <c r="L26" s="25"/>
+      <c r="M26" s="25"/>
+      <c r="N26" s="25"/>
+      <c r="O26" s="26"/>
+      <c r="P26" s="26"/>
+      <c r="Q26" s="25"/>
+      <c r="R26" s="25"/>
+      <c r="S26" s="25"/>
+      <c r="T26" s="25"/>
+      <c r="U26" s="25"/>
     </row>
     <row r="27" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A27" s="25"/>
-      <c r="B27" s="25"/>
-      <c r="C27" s="26"/>
-      <c r="D27" s="26"/>
-      <c r="E27" s="26"/>
-      <c r="F27" s="26"/>
-      <c r="G27" s="26"/>
-      <c r="H27" s="25"/>
-      <c r="I27" s="25"/>
-      <c r="J27" s="26"/>
-      <c r="K27" s="26"/>
-      <c r="L27" s="26"/>
-      <c r="M27" s="26"/>
-      <c r="N27" s="26"/>
-      <c r="O27" s="27"/>
-      <c r="P27" s="27"/>
-      <c r="Q27" s="26"/>
-      <c r="R27" s="26"/>
-      <c r="S27" s="26"/>
-      <c r="T27" s="26"/>
-      <c r="U27" s="26"/>
+      <c r="A27" s="24"/>
+      <c r="B27" s="24"/>
+      <c r="C27" s="25"/>
+      <c r="D27" s="25"/>
+      <c r="E27" s="25"/>
+      <c r="F27" s="25"/>
+      <c r="G27" s="25"/>
+      <c r="H27" s="24"/>
+      <c r="I27" s="24"/>
+      <c r="J27" s="25"/>
+      <c r="K27" s="25"/>
+      <c r="L27" s="25"/>
+      <c r="M27" s="25"/>
+      <c r="N27" s="25"/>
+      <c r="O27" s="26"/>
+      <c r="P27" s="26"/>
+      <c r="Q27" s="25"/>
+      <c r="R27" s="25"/>
+      <c r="S27" s="25"/>
+      <c r="T27" s="25"/>
+      <c r="U27" s="25"/>
     </row>
     <row r="28" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A28" s="25"/>
-      <c r="B28" s="25"/>
-      <c r="C28" s="26"/>
-      <c r="D28" s="26"/>
-      <c r="E28" s="26"/>
-      <c r="F28" s="26"/>
-      <c r="G28" s="26"/>
-      <c r="H28" s="25"/>
-      <c r="I28" s="25"/>
-      <c r="J28" s="26"/>
-      <c r="K28" s="26"/>
-      <c r="L28" s="26"/>
-      <c r="M28" s="26"/>
-      <c r="N28" s="26"/>
-      <c r="O28" s="27"/>
-      <c r="P28" s="27"/>
-      <c r="Q28" s="26"/>
-      <c r="R28" s="26"/>
-      <c r="S28" s="26"/>
-      <c r="T28" s="26"/>
-      <c r="U28" s="26"/>
+      <c r="A28" s="24"/>
+      <c r="B28" s="24"/>
+      <c r="C28" s="25"/>
+      <c r="D28" s="25"/>
+      <c r="E28" s="25"/>
+      <c r="F28" s="25"/>
+      <c r="G28" s="25"/>
+      <c r="H28" s="24"/>
+      <c r="I28" s="24"/>
+      <c r="J28" s="25"/>
+      <c r="K28" s="25"/>
+      <c r="L28" s="25"/>
+      <c r="M28" s="25"/>
+      <c r="N28" s="25"/>
+      <c r="O28" s="26"/>
+      <c r="P28" s="26"/>
+      <c r="Q28" s="25"/>
+      <c r="R28" s="25"/>
+      <c r="S28" s="25"/>
+      <c r="T28" s="25"/>
+      <c r="U28" s="25"/>
     </row>
     <row r="29" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A29" s="25"/>
-      <c r="B29" s="25"/>
-      <c r="C29" s="26"/>
-      <c r="D29" s="26"/>
-      <c r="E29" s="26"/>
-      <c r="F29" s="26"/>
-      <c r="G29" s="26"/>
-      <c r="H29" s="25"/>
-      <c r="I29" s="25"/>
-      <c r="J29" s="26"/>
-      <c r="K29" s="26"/>
-      <c r="L29" s="26"/>
-      <c r="M29" s="26"/>
-      <c r="N29" s="26"/>
-      <c r="O29" s="27"/>
-      <c r="P29" s="27"/>
-      <c r="Q29" s="26"/>
-      <c r="R29" s="26"/>
-      <c r="S29" s="26"/>
-      <c r="T29" s="26"/>
-      <c r="U29" s="26"/>
+      <c r="A29" s="24"/>
+      <c r="B29" s="24"/>
+      <c r="C29" s="25"/>
+      <c r="D29" s="25"/>
+      <c r="E29" s="25"/>
+      <c r="F29" s="25"/>
+      <c r="G29" s="25"/>
+      <c r="H29" s="24"/>
+      <c r="I29" s="24"/>
+      <c r="J29" s="25"/>
+      <c r="K29" s="25"/>
+      <c r="L29" s="25"/>
+      <c r="M29" s="25"/>
+      <c r="N29" s="25"/>
+      <c r="O29" s="26"/>
+      <c r="P29" s="26"/>
+      <c r="Q29" s="25"/>
+      <c r="R29" s="25"/>
+      <c r="S29" s="25"/>
+      <c r="T29" s="25"/>
+      <c r="U29" s="25"/>
     </row>
     <row r="30" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A30" s="25"/>
-      <c r="B30" s="25"/>
-      <c r="C30" s="26"/>
-      <c r="D30" s="26"/>
-      <c r="E30" s="26"/>
-      <c r="F30" s="26"/>
-      <c r="G30" s="26"/>
-      <c r="H30" s="25"/>
-      <c r="I30" s="25"/>
-      <c r="J30" s="26"/>
-      <c r="K30" s="26"/>
-      <c r="L30" s="26"/>
-      <c r="M30" s="26"/>
-      <c r="N30" s="26"/>
-      <c r="O30" s="27"/>
-      <c r="P30" s="27"/>
-      <c r="Q30" s="26"/>
-      <c r="R30" s="26"/>
-      <c r="S30" s="26"/>
-      <c r="T30" s="26"/>
-      <c r="U30" s="26"/>
+      <c r="A30" s="24"/>
+      <c r="B30" s="24"/>
+      <c r="C30" s="25"/>
+      <c r="D30" s="25"/>
+      <c r="E30" s="25"/>
+      <c r="F30" s="25"/>
+      <c r="G30" s="25"/>
+      <c r="H30" s="24"/>
+      <c r="I30" s="24"/>
+      <c r="J30" s="25"/>
+      <c r="K30" s="25"/>
+      <c r="L30" s="25"/>
+      <c r="M30" s="25"/>
+      <c r="N30" s="25"/>
+      <c r="O30" s="26"/>
+      <c r="P30" s="26"/>
+      <c r="Q30" s="25"/>
+      <c r="R30" s="25"/>
+      <c r="S30" s="25"/>
+      <c r="T30" s="25"/>
+      <c r="U30" s="25"/>
     </row>
     <row r="31" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A31" s="25"/>
-      <c r="B31" s="25"/>
-      <c r="C31" s="26"/>
-      <c r="D31" s="26"/>
-      <c r="E31" s="26"/>
-      <c r="F31" s="26"/>
-      <c r="G31" s="26"/>
-      <c r="H31" s="25"/>
-      <c r="I31" s="25"/>
-      <c r="J31" s="26"/>
-      <c r="K31" s="26"/>
-      <c r="L31" s="26"/>
-      <c r="M31" s="26"/>
-      <c r="N31" s="26"/>
-      <c r="O31" s="27"/>
-      <c r="P31" s="27"/>
-      <c r="Q31" s="26"/>
-      <c r="R31" s="26"/>
-      <c r="S31" s="26"/>
-      <c r="T31" s="26"/>
-      <c r="U31" s="26"/>
+      <c r="A31" s="24"/>
+      <c r="B31" s="24"/>
+      <c r="C31" s="25"/>
+      <c r="D31" s="25"/>
+      <c r="E31" s="25"/>
+      <c r="F31" s="25"/>
+      <c r="G31" s="25"/>
+      <c r="H31" s="24"/>
+      <c r="I31" s="24"/>
+      <c r="J31" s="25"/>
+      <c r="K31" s="25"/>
+      <c r="L31" s="25"/>
+      <c r="M31" s="25"/>
+      <c r="N31" s="25"/>
+      <c r="O31" s="26"/>
+      <c r="P31" s="26"/>
+      <c r="Q31" s="25"/>
+      <c r="R31" s="25"/>
+      <c r="S31" s="25"/>
+      <c r="T31" s="25"/>
+      <c r="U31" s="25"/>
     </row>
     <row r="32" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A32" s="25"/>
-      <c r="B32" s="25"/>
-      <c r="C32" s="26"/>
-      <c r="D32" s="26"/>
-      <c r="E32" s="26"/>
-      <c r="F32" s="26"/>
-      <c r="G32" s="26"/>
-      <c r="H32" s="25"/>
-      <c r="I32" s="25"/>
-      <c r="J32" s="26"/>
-      <c r="K32" s="26"/>
-      <c r="L32" s="26"/>
-      <c r="M32" s="26"/>
-      <c r="N32" s="26"/>
-      <c r="O32" s="27"/>
-      <c r="P32" s="27"/>
-      <c r="Q32" s="26"/>
-      <c r="R32" s="26"/>
-      <c r="S32" s="26"/>
-      <c r="T32" s="26"/>
-      <c r="U32" s="26"/>
+      <c r="A32" s="24"/>
+      <c r="B32" s="24"/>
+      <c r="C32" s="25"/>
+      <c r="D32" s="25"/>
+      <c r="E32" s="25"/>
+      <c r="F32" s="25"/>
+      <c r="G32" s="25"/>
+      <c r="H32" s="24"/>
+      <c r="I32" s="24"/>
+      <c r="J32" s="25"/>
+      <c r="K32" s="25"/>
+      <c r="L32" s="25"/>
+      <c r="M32" s="25"/>
+      <c r="N32" s="25"/>
+      <c r="O32" s="26"/>
+      <c r="P32" s="26"/>
+      <c r="Q32" s="25"/>
+      <c r="R32" s="25"/>
+      <c r="S32" s="25"/>
+      <c r="T32" s="25"/>
+      <c r="U32" s="25"/>
     </row>
     <row r="33" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A33" s="25"/>
-      <c r="B33" s="25"/>
-      <c r="C33" s="26"/>
-      <c r="D33" s="26"/>
-      <c r="E33" s="26"/>
-      <c r="F33" s="26"/>
-      <c r="G33" s="26"/>
-      <c r="H33" s="25"/>
-      <c r="I33" s="25"/>
-      <c r="J33" s="26"/>
-      <c r="K33" s="26"/>
-      <c r="L33" s="26"/>
-      <c r="M33" s="26"/>
-      <c r="N33" s="26"/>
-      <c r="O33" s="25"/>
-      <c r="P33" s="25"/>
-      <c r="Q33" s="26"/>
-      <c r="R33" s="26"/>
-      <c r="S33" s="26"/>
-      <c r="T33" s="26"/>
-      <c r="U33" s="26"/>
+      <c r="A33" s="24"/>
+      <c r="B33" s="24"/>
+      <c r="C33" s="25"/>
+      <c r="D33" s="25"/>
+      <c r="E33" s="25"/>
+      <c r="F33" s="25"/>
+      <c r="G33" s="25"/>
+      <c r="H33" s="24"/>
+      <c r="I33" s="24"/>
+      <c r="J33" s="25"/>
+      <c r="K33" s="25"/>
+      <c r="L33" s="25"/>
+      <c r="M33" s="25"/>
+      <c r="N33" s="25"/>
+      <c r="O33" s="24"/>
+      <c r="P33" s="24"/>
+      <c r="Q33" s="25"/>
+      <c r="R33" s="25"/>
+      <c r="S33" s="25"/>
+      <c r="T33" s="25"/>
+      <c r="U33" s="25"/>
     </row>
     <row r="34" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A34" s="23"/>
-      <c r="B34" s="23"/>
-      <c r="C34" s="24"/>
-      <c r="D34" s="24"/>
-      <c r="E34" s="24"/>
-      <c r="F34" s="24"/>
-      <c r="G34" s="24"/>
-      <c r="H34" s="23"/>
-      <c r="I34" s="23"/>
-      <c r="J34" s="24"/>
-      <c r="K34" s="24"/>
-      <c r="L34" s="24"/>
-      <c r="M34" s="24"/>
-      <c r="N34" s="24"/>
-      <c r="O34" s="23"/>
-      <c r="P34" s="23"/>
-      <c r="Q34" s="24"/>
-      <c r="R34" s="24"/>
-      <c r="S34" s="24"/>
-      <c r="T34" s="24"/>
-      <c r="U34" s="24"/>
+      <c r="A34" s="24"/>
+      <c r="B34" s="24"/>
+      <c r="C34" s="25"/>
+      <c r="D34" s="25"/>
+      <c r="E34" s="25"/>
+      <c r="F34" s="25"/>
+      <c r="G34" s="25"/>
+      <c r="H34" s="24"/>
+      <c r="I34" s="24"/>
+      <c r="J34" s="25"/>
+      <c r="K34" s="25"/>
+      <c r="L34" s="25"/>
+      <c r="M34" s="25"/>
+      <c r="N34" s="25"/>
+      <c r="O34" s="24"/>
+      <c r="P34" s="24"/>
+      <c r="Q34" s="25"/>
+      <c r="R34" s="25"/>
+      <c r="S34" s="25"/>
+      <c r="T34" s="25"/>
+      <c r="U34" s="25"/>
     </row>
   </sheetData>
-  <mergeCells count="236">
+  <mergeCells count="235">
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="C34:G34"/>
+    <mergeCell ref="H34:I34"/>
+    <mergeCell ref="J34:N34"/>
+    <mergeCell ref="O34:P34"/>
+    <mergeCell ref="Q34:U34"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="C33:G33"/>
+    <mergeCell ref="H33:I33"/>
+    <mergeCell ref="J33:N33"/>
+    <mergeCell ref="O33:P33"/>
+    <mergeCell ref="Q33:U33"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="C32:G32"/>
+    <mergeCell ref="H32:I32"/>
+    <mergeCell ref="J32:N32"/>
+    <mergeCell ref="O32:P32"/>
+    <mergeCell ref="Q32:U32"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="C31:G31"/>
+    <mergeCell ref="H31:I31"/>
+    <mergeCell ref="J31:N31"/>
+    <mergeCell ref="O31:P31"/>
+    <mergeCell ref="Q31:U31"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="C30:G30"/>
+    <mergeCell ref="H30:I30"/>
+    <mergeCell ref="J30:N30"/>
+    <mergeCell ref="O30:P30"/>
+    <mergeCell ref="Q30:U30"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="C29:G29"/>
+    <mergeCell ref="H29:I29"/>
+    <mergeCell ref="J29:N29"/>
+    <mergeCell ref="O29:P29"/>
+    <mergeCell ref="Q29:U29"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="C28:G28"/>
+    <mergeCell ref="H28:I28"/>
+    <mergeCell ref="J28:N28"/>
+    <mergeCell ref="O28:P28"/>
+    <mergeCell ref="Q28:U28"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="C27:G27"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="J27:N27"/>
+    <mergeCell ref="O27:P27"/>
+    <mergeCell ref="Q27:U27"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="C26:G26"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="J26:N26"/>
+    <mergeCell ref="O26:P26"/>
+    <mergeCell ref="Q26:U26"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="C25:G25"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="J25:N25"/>
+    <mergeCell ref="O25:P25"/>
+    <mergeCell ref="Q25:U25"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="C24:G24"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="J24:N24"/>
+    <mergeCell ref="O24:P24"/>
+    <mergeCell ref="Q24:U24"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="C23:G23"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="J23:N23"/>
+    <mergeCell ref="O23:P23"/>
+    <mergeCell ref="Q23:U23"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="C22:G22"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="J22:N22"/>
+    <mergeCell ref="V22:W22"/>
+    <mergeCell ref="X22:AB22"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="J21:N21"/>
+    <mergeCell ref="V21:W21"/>
+    <mergeCell ref="X21:AB21"/>
+    <mergeCell ref="O21:P21"/>
+    <mergeCell ref="Q21:U21"/>
+    <mergeCell ref="O22:P22"/>
+    <mergeCell ref="Q22:U22"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="J20:N20"/>
+    <mergeCell ref="V20:W20"/>
+    <mergeCell ref="X20:AB20"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="J19:N19"/>
+    <mergeCell ref="V19:W19"/>
+    <mergeCell ref="X19:AB19"/>
+    <mergeCell ref="O19:P19"/>
+    <mergeCell ref="Q19:U19"/>
+    <mergeCell ref="O20:P20"/>
+    <mergeCell ref="Q20:U20"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="J18:N18"/>
+    <mergeCell ref="V18:W18"/>
+    <mergeCell ref="X18:AB18"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C17:G17"/>
+    <mergeCell ref="V17:W17"/>
+    <mergeCell ref="X17:AB17"/>
+    <mergeCell ref="O17:P17"/>
+    <mergeCell ref="Q17:U17"/>
+    <mergeCell ref="O18:P18"/>
+    <mergeCell ref="Q18:U18"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:G16"/>
+    <mergeCell ref="V16:W16"/>
+    <mergeCell ref="X16:AB16"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C15:G15"/>
+    <mergeCell ref="V15:W15"/>
+    <mergeCell ref="X15:AB15"/>
+    <mergeCell ref="O15:P15"/>
+    <mergeCell ref="Q15:U15"/>
+    <mergeCell ref="O16:P16"/>
+    <mergeCell ref="Q16:U16"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C14:G14"/>
+    <mergeCell ref="V13:W13"/>
+    <mergeCell ref="J14:N14"/>
+    <mergeCell ref="V14:W14"/>
+    <mergeCell ref="X14:AB14"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C13:G13"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="J13:N13"/>
+    <mergeCell ref="X13:AB13"/>
+    <mergeCell ref="O14:P14"/>
+    <mergeCell ref="Q14:U14"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="J16:N16"/>
+    <mergeCell ref="V12:W12"/>
+    <mergeCell ref="X12:AB12"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:G11"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="J15:N15"/>
+    <mergeCell ref="V11:W11"/>
+    <mergeCell ref="X11:AB11"/>
+    <mergeCell ref="O11:P11"/>
+    <mergeCell ref="Q11:U11"/>
+    <mergeCell ref="O12:P12"/>
+    <mergeCell ref="Q12:U12"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="J11:N11"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="J12:N12"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C10:G10"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="J10:N10"/>
+    <mergeCell ref="V10:W10"/>
+    <mergeCell ref="X10:AB10"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:G9"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="J9:N9"/>
+    <mergeCell ref="V9:W9"/>
+    <mergeCell ref="X9:AB9"/>
+    <mergeCell ref="O9:P9"/>
+    <mergeCell ref="Q9:U9"/>
+    <mergeCell ref="O10:P10"/>
+    <mergeCell ref="Q10:U10"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="J8:N8"/>
+    <mergeCell ref="V8:W8"/>
+    <mergeCell ref="X8:AB8"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:N7"/>
+    <mergeCell ref="V7:W7"/>
+    <mergeCell ref="X7:AB7"/>
+    <mergeCell ref="O7:P7"/>
+    <mergeCell ref="Q7:U7"/>
+    <mergeCell ref="O13:P13"/>
+    <mergeCell ref="Q13:U13"/>
+    <mergeCell ref="Q8:U8"/>
+    <mergeCell ref="O8:P8"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="J6:N6"/>
+    <mergeCell ref="V6:W6"/>
+    <mergeCell ref="X6:AB6"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="J17:N17"/>
+    <mergeCell ref="V5:W5"/>
+    <mergeCell ref="X5:AB5"/>
+    <mergeCell ref="O5:P5"/>
+    <mergeCell ref="Q5:U5"/>
+    <mergeCell ref="O6:P6"/>
+    <mergeCell ref="Q6:U6"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="J5:N5"/>
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="C4:G4"/>
     <mergeCell ref="H4:I4"/>
@@ -5516,224 +6220,723 @@
     <mergeCell ref="Q3:U3"/>
     <mergeCell ref="O4:P4"/>
     <mergeCell ref="Q4:U4"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="J6:N6"/>
-    <mergeCell ref="V6:W6"/>
-    <mergeCell ref="X6:AB6"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:G5"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="J5:N5"/>
-    <mergeCell ref="V5:W5"/>
-    <mergeCell ref="X5:AB5"/>
-    <mergeCell ref="O5:P5"/>
-    <mergeCell ref="Q5:U5"/>
-    <mergeCell ref="O6:P6"/>
-    <mergeCell ref="Q6:U6"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="C8:G8"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="J8:N8"/>
-    <mergeCell ref="V8:W8"/>
-    <mergeCell ref="X8:AB8"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="J7:N7"/>
-    <mergeCell ref="V7:W7"/>
-    <mergeCell ref="X7:AB7"/>
-    <mergeCell ref="O7:P7"/>
-    <mergeCell ref="Q7:U7"/>
-    <mergeCell ref="O8:P8"/>
-    <mergeCell ref="Q8:U8"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="C10:G10"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="J10:N10"/>
-    <mergeCell ref="V10:W10"/>
-    <mergeCell ref="X10:AB10"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="C9:G9"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="J9:N9"/>
-    <mergeCell ref="V9:W9"/>
-    <mergeCell ref="X9:AB9"/>
-    <mergeCell ref="O9:P9"/>
-    <mergeCell ref="Q9:U9"/>
-    <mergeCell ref="O10:P10"/>
-    <mergeCell ref="Q10:U10"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="C12:G12"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="J12:N12"/>
-    <mergeCell ref="V12:W12"/>
-    <mergeCell ref="X12:AB12"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:G11"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="J11:N11"/>
-    <mergeCell ref="V11:W11"/>
-    <mergeCell ref="X11:AB11"/>
-    <mergeCell ref="O11:P11"/>
-    <mergeCell ref="Q11:U11"/>
-    <mergeCell ref="O12:P12"/>
-    <mergeCell ref="Q12:U12"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="C14:G14"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="J14:N14"/>
-    <mergeCell ref="V14:W14"/>
-    <mergeCell ref="X14:AB14"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="C13:G13"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="J13:N13"/>
-    <mergeCell ref="V13:W13"/>
-    <mergeCell ref="X13:AB13"/>
-    <mergeCell ref="O13:P13"/>
-    <mergeCell ref="Q13:U13"/>
-    <mergeCell ref="O14:P14"/>
-    <mergeCell ref="Q14:U14"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="C16:G16"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="J16:N16"/>
-    <mergeCell ref="V16:W16"/>
-    <mergeCell ref="X16:AB16"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="C15:G15"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="J15:N15"/>
-    <mergeCell ref="V15:W15"/>
-    <mergeCell ref="X15:AB15"/>
-    <mergeCell ref="O15:P15"/>
-    <mergeCell ref="Q15:U15"/>
-    <mergeCell ref="O16:P16"/>
-    <mergeCell ref="Q16:U16"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C18:G18"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="J18:N18"/>
-    <mergeCell ref="V18:W18"/>
-    <mergeCell ref="X18:AB18"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="C17:G17"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="J17:N17"/>
-    <mergeCell ref="V17:W17"/>
-    <mergeCell ref="X17:AB17"/>
-    <mergeCell ref="O17:P17"/>
-    <mergeCell ref="Q17:U17"/>
-    <mergeCell ref="O18:P18"/>
-    <mergeCell ref="Q18:U18"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="C20:G20"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="J20:N20"/>
-    <mergeCell ref="V20:W20"/>
-    <mergeCell ref="X20:AB20"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="C19:G19"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="J19:N19"/>
-    <mergeCell ref="V19:W19"/>
-    <mergeCell ref="X19:AB19"/>
-    <mergeCell ref="O19:P19"/>
-    <mergeCell ref="Q19:U19"/>
-    <mergeCell ref="O20:P20"/>
-    <mergeCell ref="Q20:U20"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="C22:G22"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="J22:N22"/>
-    <mergeCell ref="V22:W22"/>
-    <mergeCell ref="X22:AB22"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="C21:G21"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="J21:N21"/>
-    <mergeCell ref="V21:W21"/>
-    <mergeCell ref="X21:AB21"/>
-    <mergeCell ref="O21:P21"/>
-    <mergeCell ref="Q21:U21"/>
-    <mergeCell ref="O22:P22"/>
-    <mergeCell ref="Q22:U22"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="C24:G24"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="J24:N24"/>
-    <mergeCell ref="O24:P24"/>
-    <mergeCell ref="Q24:U24"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="C23:G23"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="J23:N23"/>
-    <mergeCell ref="O23:P23"/>
-    <mergeCell ref="Q23:U23"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="C26:G26"/>
-    <mergeCell ref="H26:I26"/>
-    <mergeCell ref="J26:N26"/>
-    <mergeCell ref="O26:P26"/>
-    <mergeCell ref="Q26:U26"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="C25:G25"/>
-    <mergeCell ref="H25:I25"/>
-    <mergeCell ref="J25:N25"/>
-    <mergeCell ref="O25:P25"/>
-    <mergeCell ref="Q25:U25"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="C28:G28"/>
-    <mergeCell ref="H28:I28"/>
-    <mergeCell ref="J28:N28"/>
-    <mergeCell ref="O28:P28"/>
-    <mergeCell ref="Q28:U28"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="C27:G27"/>
-    <mergeCell ref="H27:I27"/>
-    <mergeCell ref="J27:N27"/>
-    <mergeCell ref="O27:P27"/>
-    <mergeCell ref="Q27:U27"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="C30:G30"/>
-    <mergeCell ref="H30:I30"/>
-    <mergeCell ref="J30:N30"/>
-    <mergeCell ref="O30:P30"/>
-    <mergeCell ref="Q30:U30"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="C29:G29"/>
-    <mergeCell ref="H29:I29"/>
-    <mergeCell ref="J29:N29"/>
-    <mergeCell ref="O29:P29"/>
-    <mergeCell ref="Q29:U29"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="C32:G32"/>
-    <mergeCell ref="H32:I32"/>
-    <mergeCell ref="J32:N32"/>
-    <mergeCell ref="O32:P32"/>
-    <mergeCell ref="Q32:U32"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="C31:G31"/>
-    <mergeCell ref="H31:I31"/>
-    <mergeCell ref="J31:N31"/>
-    <mergeCell ref="O31:P31"/>
-    <mergeCell ref="Q31:U31"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="C34:G34"/>
-    <mergeCell ref="H34:I34"/>
-    <mergeCell ref="J34:N34"/>
-    <mergeCell ref="O34:P34"/>
-    <mergeCell ref="Q34:U34"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="C33:G33"/>
-    <mergeCell ref="H33:I33"/>
-    <mergeCell ref="J33:N33"/>
-    <mergeCell ref="O33:P33"/>
-    <mergeCell ref="Q33:U33"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="C12" r:id="rId1" xr:uid="{8224474B-9947-417C-AC37-AD95665A9723}"/>
+    <hyperlink ref="C13" r:id="rId2" xr:uid="{CE321704-25F7-4D6A-8585-A2ECF5644FEF}"/>
+    <hyperlink ref="C14" r:id="rId3" xr:uid="{86E514BE-A9C9-4B5A-AB4D-57536B7FEAAB}"/>
+    <hyperlink ref="C15" r:id="rId4" xr:uid="{868F8F85-B252-4B04-B081-E9B23AD46A23}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1908B5E3-0D9D-48A8-894B-90B53E0249A0}">
+  <dimension ref="A1:H26"/>
+  <sheetViews>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="20.5703125" style="14" customWidth="1"/>
+    <col min="2" max="2" width="19.5703125" style="14" customWidth="1"/>
+    <col min="3" max="3" width="21.5703125" style="46" customWidth="1"/>
+    <col min="4" max="4" width="21" style="14" customWidth="1"/>
+    <col min="5" max="7" width="9.140625" style="14"/>
+    <col min="8" max="8" width="19" style="14" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="14"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A1" s="40" t="s">
+        <v>287</v>
+      </c>
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="40"/>
+      <c r="H1" s="40"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="41" t="s">
+        <v>84</v>
+      </c>
+      <c r="B2" s="41" t="s">
+        <v>289</v>
+      </c>
+      <c r="C2" s="42" t="s">
+        <v>295</v>
+      </c>
+      <c r="D2" s="41" t="s">
+        <v>290</v>
+      </c>
+      <c r="E2" s="43" t="s">
+        <v>291</v>
+      </c>
+      <c r="F2" s="43"/>
+      <c r="G2" s="43"/>
+      <c r="H2" s="43"/>
+    </row>
+    <row r="3" spans="1:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="44" t="s">
+        <v>293</v>
+      </c>
+      <c r="B3" s="44" t="s">
+        <v>294</v>
+      </c>
+      <c r="C3" s="45">
+        <v>1</v>
+      </c>
+      <c r="D3" s="44" t="s">
+        <v>292</v>
+      </c>
+      <c r="E3" s="39" t="s">
+        <v>299</v>
+      </c>
+      <c r="F3" s="39"/>
+      <c r="G3" s="39"/>
+      <c r="H3" s="39"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="44" t="s">
+        <v>304</v>
+      </c>
+      <c r="B4" s="44" t="s">
+        <v>305</v>
+      </c>
+      <c r="C4" s="45">
+        <v>2</v>
+      </c>
+      <c r="D4" s="44" t="s">
+        <v>302</v>
+      </c>
+      <c r="E4" s="39"/>
+      <c r="F4" s="39"/>
+      <c r="G4" s="39"/>
+      <c r="H4" s="39"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="44"/>
+      <c r="B5" s="44"/>
+      <c r="C5" s="45"/>
+      <c r="D5" s="44"/>
+      <c r="E5" s="39"/>
+      <c r="F5" s="39"/>
+      <c r="G5" s="39"/>
+      <c r="H5" s="39"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="44"/>
+      <c r="B6" s="44"/>
+      <c r="C6" s="45"/>
+      <c r="D6" s="44"/>
+      <c r="E6" s="39"/>
+      <c r="F6" s="39"/>
+      <c r="G6" s="39"/>
+      <c r="H6" s="39"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="44"/>
+      <c r="B7" s="44"/>
+      <c r="C7" s="45"/>
+      <c r="D7" s="44"/>
+      <c r="E7" s="39"/>
+      <c r="F7" s="39"/>
+      <c r="G7" s="39"/>
+      <c r="H7" s="39"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="44"/>
+      <c r="B8" s="44"/>
+      <c r="C8" s="45"/>
+      <c r="D8" s="44"/>
+      <c r="E8" s="39"/>
+      <c r="F8" s="39"/>
+      <c r="G8" s="39"/>
+      <c r="H8" s="39"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="44" t="s">
+        <v>298</v>
+      </c>
+      <c r="B9" s="44" t="s">
+        <v>297</v>
+      </c>
+      <c r="C9" s="45">
+        <v>1</v>
+      </c>
+      <c r="D9" s="44" t="s">
+        <v>296</v>
+      </c>
+      <c r="E9" s="39" t="s">
+        <v>300</v>
+      </c>
+      <c r="F9" s="39"/>
+      <c r="G9" s="39"/>
+      <c r="H9" s="39"/>
+    </row>
+    <row r="10" spans="1:8" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="44" t="s">
+        <v>301</v>
+      </c>
+      <c r="B10" s="44" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="45">
+        <v>2</v>
+      </c>
+      <c r="D10" s="44" t="s">
+        <v>302</v>
+      </c>
+      <c r="E10" s="39" t="s">
+        <v>303</v>
+      </c>
+      <c r="F10" s="39"/>
+      <c r="G10" s="39"/>
+      <c r="H10" s="39"/>
+    </row>
+    <row r="11" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="44" t="s">
+        <v>307</v>
+      </c>
+      <c r="B11" s="44" t="s">
+        <v>297</v>
+      </c>
+      <c r="C11" s="45">
+        <v>2</v>
+      </c>
+      <c r="D11" s="44" t="s">
+        <v>302</v>
+      </c>
+      <c r="E11" s="39" t="s">
+        <v>306</v>
+      </c>
+      <c r="F11" s="39"/>
+      <c r="G11" s="39"/>
+      <c r="H11" s="39"/>
+    </row>
+    <row r="12" spans="1:8" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="44" t="s">
+        <v>308</v>
+      </c>
+      <c r="B12" s="44" t="s">
+        <v>309</v>
+      </c>
+      <c r="C12" s="45">
+        <v>3</v>
+      </c>
+      <c r="D12" s="44" t="s">
+        <v>302</v>
+      </c>
+      <c r="E12" s="39" t="s">
+        <v>310</v>
+      </c>
+      <c r="F12" s="39"/>
+      <c r="G12" s="39"/>
+      <c r="H12" s="39"/>
+    </row>
+    <row r="13" spans="1:8" ht="79.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="44" t="s">
+        <v>311</v>
+      </c>
+      <c r="B13" s="44" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" s="45">
+        <v>4</v>
+      </c>
+      <c r="D13" s="44" t="s">
+        <v>302</v>
+      </c>
+      <c r="E13" s="39" t="s">
+        <v>312</v>
+      </c>
+      <c r="F13" s="39"/>
+      <c r="G13" s="39"/>
+      <c r="H13" s="39"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="44"/>
+      <c r="B14" s="44"/>
+      <c r="C14" s="45"/>
+      <c r="D14" s="44"/>
+      <c r="E14" s="39"/>
+      <c r="F14" s="39"/>
+      <c r="G14" s="39"/>
+      <c r="H14" s="39"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="44"/>
+      <c r="B15" s="44"/>
+      <c r="C15" s="45"/>
+      <c r="D15" s="44"/>
+      <c r="E15" s="39"/>
+      <c r="F15" s="39"/>
+      <c r="G15" s="39"/>
+      <c r="H15" s="39"/>
+    </row>
+    <row r="16" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="44"/>
+      <c r="B16" s="44"/>
+      <c r="C16" s="45"/>
+      <c r="D16" s="44"/>
+      <c r="E16" s="39"/>
+      <c r="F16" s="39"/>
+      <c r="G16" s="39"/>
+      <c r="H16" s="39"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="44"/>
+      <c r="B17" s="44"/>
+      <c r="C17" s="45"/>
+      <c r="D17" s="44"/>
+      <c r="E17" s="39"/>
+      <c r="F17" s="39"/>
+      <c r="G17" s="39"/>
+      <c r="H17" s="39"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="44"/>
+      <c r="B18" s="44"/>
+      <c r="C18" s="45"/>
+      <c r="D18" s="44"/>
+      <c r="E18" s="39"/>
+      <c r="F18" s="39"/>
+      <c r="G18" s="39"/>
+      <c r="H18" s="39"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="44"/>
+      <c r="B19" s="44"/>
+      <c r="C19" s="45"/>
+      <c r="D19" s="44"/>
+      <c r="E19" s="39"/>
+      <c r="F19" s="39"/>
+      <c r="G19" s="39"/>
+      <c r="H19" s="39"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="44"/>
+      <c r="B20" s="44"/>
+      <c r="C20" s="45"/>
+      <c r="D20" s="44"/>
+      <c r="E20" s="39"/>
+      <c r="F20" s="39"/>
+      <c r="G20" s="39"/>
+      <c r="H20" s="39"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="44"/>
+      <c r="B21" s="44"/>
+      <c r="C21" s="45"/>
+      <c r="D21" s="44"/>
+      <c r="E21" s="39"/>
+      <c r="F21" s="39"/>
+      <c r="G21" s="39"/>
+      <c r="H21" s="39"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="44"/>
+      <c r="B22" s="44"/>
+      <c r="C22" s="45"/>
+      <c r="D22" s="44"/>
+      <c r="E22" s="39"/>
+      <c r="F22" s="39"/>
+      <c r="G22" s="39"/>
+      <c r="H22" s="39"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="44"/>
+      <c r="B23" s="44"/>
+      <c r="C23" s="45"/>
+      <c r="D23" s="44"/>
+      <c r="E23" s="39"/>
+      <c r="F23" s="39"/>
+      <c r="G23" s="39"/>
+      <c r="H23" s="39"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="44"/>
+      <c r="B24" s="44"/>
+      <c r="C24" s="45"/>
+      <c r="D24" s="44"/>
+      <c r="E24" s="39"/>
+      <c r="F24" s="39"/>
+      <c r="G24" s="39"/>
+      <c r="H24" s="39"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="44"/>
+      <c r="B25" s="44"/>
+      <c r="C25" s="45"/>
+      <c r="D25" s="44"/>
+      <c r="E25" s="39"/>
+      <c r="F25" s="39"/>
+      <c r="G25" s="39"/>
+      <c r="H25" s="39"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="44"/>
+      <c r="B26" s="44"/>
+      <c r="C26" s="45"/>
+      <c r="D26" s="44"/>
+      <c r="E26" s="39"/>
+      <c r="F26" s="39"/>
+      <c r="G26" s="39"/>
+      <c r="H26" s="39"/>
+    </row>
+  </sheetData>
+  <mergeCells count="26">
+    <mergeCell ref="E25:H25"/>
+    <mergeCell ref="E26:H26"/>
+    <mergeCell ref="E19:H19"/>
+    <mergeCell ref="E20:H20"/>
+    <mergeCell ref="E21:H21"/>
+    <mergeCell ref="E22:H22"/>
+    <mergeCell ref="E23:H23"/>
+    <mergeCell ref="E24:H24"/>
+    <mergeCell ref="E13:H13"/>
+    <mergeCell ref="E14:H14"/>
+    <mergeCell ref="E15:H15"/>
+    <mergeCell ref="E16:H16"/>
+    <mergeCell ref="E17:H17"/>
+    <mergeCell ref="E18:H18"/>
+    <mergeCell ref="E7:H7"/>
+    <mergeCell ref="E8:H8"/>
+    <mergeCell ref="E9:H9"/>
+    <mergeCell ref="E10:H10"/>
+    <mergeCell ref="E11:H11"/>
+    <mergeCell ref="E12:H12"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="E2:H2"/>
+    <mergeCell ref="E3:H3"/>
+    <mergeCell ref="E4:H4"/>
+    <mergeCell ref="E5:H5"/>
+    <mergeCell ref="E6:H6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DD47BAA-02B8-4E56-868D-4BC0DFE6F64A}">
+  <dimension ref="A1:H30"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19" style="5" customWidth="1"/>
+    <col min="2" max="2" width="14" style="5" customWidth="1"/>
+    <col min="3" max="3" width="13" style="5" customWidth="1"/>
+    <col min="4" max="4" width="12.140625" style="5" customWidth="1"/>
+    <col min="5" max="7" width="9.140625" style="5"/>
+    <col min="8" max="8" width="15.140625" style="5" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="5"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A1" s="47" t="s">
+        <v>313</v>
+      </c>
+      <c r="B1" s="47"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="47"/>
+      <c r="G1" s="47"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="37" t="s">
+        <v>84</v>
+      </c>
+      <c r="B2" s="37" t="s">
+        <v>236</v>
+      </c>
+      <c r="C2" s="37" t="s">
+        <v>288</v>
+      </c>
+      <c r="D2" s="38" t="s">
+        <v>291</v>
+      </c>
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="38"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>314</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>315</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>292</v>
+      </c>
+      <c r="D3" s="36" t="s">
+        <v>316</v>
+      </c>
+      <c r="E3" s="36"/>
+      <c r="F3" s="36"/>
+      <c r="G3" s="36"/>
+      <c r="H3" s="5" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>319</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>315</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>292</v>
+      </c>
+      <c r="D4" s="36" t="s">
+        <v>318</v>
+      </c>
+      <c r="E4" s="36"/>
+      <c r="F4" s="36"/>
+      <c r="G4" s="36"/>
+      <c r="H4" s="5" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>320</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>315</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>292</v>
+      </c>
+      <c r="D5" s="36" t="s">
+        <v>321</v>
+      </c>
+      <c r="E5" s="36"/>
+      <c r="F5" s="36"/>
+      <c r="G5" s="36"/>
+      <c r="H5" s="5" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>322</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>315</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>323</v>
+      </c>
+      <c r="D6" s="36" t="s">
+        <v>324</v>
+      </c>
+      <c r="E6" s="36"/>
+      <c r="F6" s="36"/>
+      <c r="G6" s="36"/>
+      <c r="H6" s="5" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D7" s="36"/>
+      <c r="E7" s="36"/>
+      <c r="F7" s="36"/>
+      <c r="G7" s="36"/>
+      <c r="H7" s="5" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D8" s="36"/>
+      <c r="E8" s="36"/>
+      <c r="F8" s="36"/>
+      <c r="G8" s="36"/>
+      <c r="H8" s="5" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D9" s="36"/>
+      <c r="E9" s="36"/>
+      <c r="F9" s="36"/>
+      <c r="G9" s="36"/>
+      <c r="H9" s="5" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D10" s="36"/>
+      <c r="E10" s="36"/>
+      <c r="F10" s="36"/>
+      <c r="G10" s="36"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D11" s="36"/>
+      <c r="E11" s="36"/>
+      <c r="F11" s="36"/>
+      <c r="G11" s="36"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D12" s="36"/>
+      <c r="E12" s="36"/>
+      <c r="F12" s="36"/>
+      <c r="G12" s="36"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D13" s="36"/>
+      <c r="E13" s="36"/>
+      <c r="F13" s="36"/>
+      <c r="G13" s="36"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D14" s="36"/>
+      <c r="E14" s="36"/>
+      <c r="F14" s="36"/>
+      <c r="G14" s="36"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D15" s="36"/>
+      <c r="E15" s="36"/>
+      <c r="F15" s="36"/>
+      <c r="G15" s="36"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D16" s="36"/>
+      <c r="E16" s="36"/>
+      <c r="F16" s="36"/>
+      <c r="G16" s="36"/>
+    </row>
+    <row r="17" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D17" s="36"/>
+      <c r="E17" s="36"/>
+      <c r="F17" s="36"/>
+      <c r="G17" s="36"/>
+    </row>
+    <row r="18" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D18" s="36"/>
+      <c r="E18" s="36"/>
+      <c r="F18" s="36"/>
+      <c r="G18" s="36"/>
+    </row>
+    <row r="19" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D19" s="36"/>
+      <c r="E19" s="36"/>
+      <c r="F19" s="36"/>
+      <c r="G19" s="36"/>
+    </row>
+    <row r="20" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D20" s="36"/>
+      <c r="E20" s="36"/>
+      <c r="F20" s="36"/>
+      <c r="G20" s="36"/>
+    </row>
+    <row r="21" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D21" s="36"/>
+      <c r="E21" s="36"/>
+      <c r="F21" s="36"/>
+      <c r="G21" s="36"/>
+    </row>
+    <row r="22" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D22" s="36"/>
+      <c r="E22" s="36"/>
+      <c r="F22" s="36"/>
+      <c r="G22" s="36"/>
+    </row>
+    <row r="23" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D23" s="36"/>
+      <c r="E23" s="36"/>
+      <c r="F23" s="36"/>
+      <c r="G23" s="36"/>
+    </row>
+    <row r="24" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D24" s="36"/>
+      <c r="E24" s="36"/>
+      <c r="F24" s="36"/>
+      <c r="G24" s="36"/>
+    </row>
+    <row r="25" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D25" s="36"/>
+      <c r="E25" s="36"/>
+      <c r="F25" s="36"/>
+      <c r="G25" s="36"/>
+    </row>
+    <row r="26" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D26" s="36"/>
+      <c r="E26" s="36"/>
+      <c r="F26" s="36"/>
+      <c r="G26" s="36"/>
+    </row>
+    <row r="27" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D27" s="36"/>
+      <c r="E27" s="36"/>
+      <c r="F27" s="36"/>
+      <c r="G27" s="36"/>
+    </row>
+    <row r="28" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D28" s="36"/>
+      <c r="E28" s="36"/>
+      <c r="F28" s="36"/>
+      <c r="G28" s="36"/>
+    </row>
+    <row r="29" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D29" s="36"/>
+      <c r="E29" s="36"/>
+      <c r="F29" s="36"/>
+      <c r="G29" s="36"/>
+    </row>
+    <row r="30" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D30" s="36"/>
+      <c r="E30" s="36"/>
+      <c r="F30" s="36"/>
+      <c r="G30" s="36"/>
+    </row>
+  </sheetData>
+  <mergeCells count="30">
+    <mergeCell ref="D25:G25"/>
+    <mergeCell ref="D26:G26"/>
+    <mergeCell ref="D27:G27"/>
+    <mergeCell ref="D28:G28"/>
+    <mergeCell ref="D29:G29"/>
+    <mergeCell ref="D30:G30"/>
+    <mergeCell ref="D19:G19"/>
+    <mergeCell ref="D20:G20"/>
+    <mergeCell ref="D21:G21"/>
+    <mergeCell ref="D22:G22"/>
+    <mergeCell ref="D23:G23"/>
+    <mergeCell ref="D24:G24"/>
+    <mergeCell ref="D13:G13"/>
+    <mergeCell ref="D14:G14"/>
+    <mergeCell ref="D15:G15"/>
+    <mergeCell ref="D16:G16"/>
+    <mergeCell ref="D17:G17"/>
+    <mergeCell ref="D18:G18"/>
+    <mergeCell ref="D7:G7"/>
+    <mergeCell ref="D8:G8"/>
+    <mergeCell ref="D9:G9"/>
+    <mergeCell ref="D10:G10"/>
+    <mergeCell ref="D11:G11"/>
+    <mergeCell ref="D12:G12"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="D3:G3"/>
+    <mergeCell ref="D4:G4"/>
+    <mergeCell ref="D5:G5"/>
+    <mergeCell ref="D6:G6"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/plans/todo.xlsx
+++ b/plans/todo.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Edsquid\Documents\Personal Projects\Business\RogueLikeGame\plans\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92B8160F-564D-4450-BB27-30942EF5A7D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B300622-0910-4EFD-B163-AF6DE155AF28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="43095" yWindow="0" windowWidth="14610" windowHeight="15585" firstSheet="4" activeTab="5" xr2:uid="{BA1E511D-BF64-4842-98DF-72E30276ED1C}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{BA1E511D-BF64-4842-98DF-72E30276ED1C}"/>
   </bookViews>
   <sheets>
     <sheet name="Attributes" sheetId="3" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="459" uniqueCount="325">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="464" uniqueCount="335">
   <si>
     <t>Max Lives</t>
   </si>
@@ -166,9 +166,6 @@
     <t>Dagger</t>
   </si>
   <si>
-    <t>Dual Daggers</t>
-  </si>
-  <si>
     <t>Giga sword</t>
   </si>
   <si>
@@ -211,9 +208,6 @@
     <t>Huge sword, huge damage, hold and release</t>
   </si>
   <si>
-    <t>Fast attacks, similar to first daggers, but more and stronger, applies bleed, at max charge, dash through enemies</t>
-  </si>
-  <si>
     <t>Big dmg, single bullet, fire dmg</t>
   </si>
   <si>
@@ -988,15 +982,9 @@
     <t>Attraction Rune</t>
   </si>
   <si>
-    <t>Pickup</t>
-  </si>
-  <si>
     <t>Grab all da xp on da map</t>
   </si>
   <si>
-    <t xml:space="preserve">Use with E </t>
-  </si>
-  <si>
     <t>Stun all enemies on the screen</t>
   </si>
   <si>
@@ -1016,6 +1004,48 @@
   </si>
   <si>
     <t>Enemies run away from player</t>
+  </si>
+  <si>
+    <t>Pickup - Use</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pickup </t>
+  </si>
+  <si>
+    <t>Healing font</t>
+  </si>
+  <si>
+    <t>Area Effect</t>
+  </si>
+  <si>
+    <t>Quick + Regular mode?</t>
+  </si>
+  <si>
+    <t>Area effect heal that heals everything in its vicinity</t>
+  </si>
+  <si>
+    <t>Vine trap</t>
+  </si>
+  <si>
+    <t>Area trap</t>
+  </si>
+  <si>
+    <t>Anything walks over it, they will stop moving for X seconds</t>
+  </si>
+  <si>
+    <t>start single, auto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Different elements at different levels, an elemental version will be tougher </t>
+  </si>
+  <si>
+    <t>Shroomsploder</t>
+  </si>
+  <si>
+    <t>Explode when killed/close</t>
+  </si>
+  <si>
+    <t>Runs up to player, explodes when close or killed</t>
   </si>
 </sst>
 </file>
@@ -1296,7 +1326,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1316,6 +1346,22 @@
     <xf numFmtId="0" fontId="1" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1354,6 +1400,9 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1363,50 +1412,19 @@
     <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1726,8 +1744,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11CE061F-AFA4-4B9D-BFD1-A05915568E6D}">
   <dimension ref="A1:H338"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A41" sqref="A41"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F41" sqref="F41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1744,79 +1762,79 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="19" t="s">
-        <v>83</v>
-      </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
+      <c r="A1" s="27" t="s">
+        <v>81</v>
+      </c>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
       <c r="H1" s="9" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="21"/>
-      <c r="B2" s="22"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
+      <c r="A2" s="29"/>
+      <c r="B2" s="30"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="30"/>
       <c r="H2" s="11" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="D3" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="F3" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="G3" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="H3" s="8"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="23" t="s">
+        <v>208</v>
+      </c>
+      <c r="B4" s="23"/>
+      <c r="C4" s="23"/>
+      <c r="D4" s="23"/>
+      <c r="E4" s="23"/>
+      <c r="F4" s="23"/>
+      <c r="G4" s="23"/>
+      <c r="H4" s="8"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="16" t="s">
+        <v>118</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="D3" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="G3" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="H3" s="8"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="15" t="s">
-        <v>210</v>
-      </c>
-      <c r="B4" s="15"/>
-      <c r="C4" s="15"/>
-      <c r="D4" s="15"/>
-      <c r="E4" s="15"/>
-      <c r="F4" s="15"/>
-      <c r="G4" s="15"/>
-      <c r="H4" s="8"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="30" t="s">
-        <v>120</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>88</v>
-      </c>
       <c r="C5" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E5" s="2">
         <v>0.05</v>
@@ -1827,17 +1845,17 @@
       <c r="G5" s="10"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="30" t="s">
-        <v>121</v>
+      <c r="A6" s="16" t="s">
+        <v>119</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E6" s="2">
         <v>0.05</v>
@@ -1848,17 +1866,17 @@
       <c r="G6" s="2"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="30" t="s">
+      <c r="A7" s="16" t="s">
         <v>1</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E7" s="2">
         <v>0.05</v>
@@ -1869,17 +1887,17 @@
       <c r="G7" s="2"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="30" t="s">
+      <c r="A8" s="16" t="s">
         <v>2</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E8" s="2">
         <v>0.05</v>
@@ -1890,17 +1908,17 @@
       <c r="G8" s="2"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="30" t="s">
+      <c r="A9" s="16" t="s">
         <v>3</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E9" s="2">
         <v>0.05</v>
@@ -1911,17 +1929,17 @@
       <c r="G9" s="2"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="30" t="s">
+      <c r="A10" s="16" t="s">
         <v>4</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E10" s="2">
         <v>0.05</v>
@@ -1932,17 +1950,17 @@
       <c r="G10" s="2"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="30" t="s">
+      <c r="A11" s="16" t="s">
         <v>5</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E11" s="2">
         <v>0.05</v>
@@ -1953,17 +1971,17 @@
       <c r="G11" s="2"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="30" t="s">
+      <c r="A12" s="16" t="s">
         <v>6</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E12" s="2">
         <v>0.05</v>
@@ -1974,17 +1992,17 @@
       <c r="G12" s="2"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="30" t="s">
+      <c r="A13" s="16" t="s">
         <v>7</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E13" s="2">
         <v>0.05</v>
@@ -1995,17 +2013,17 @@
       <c r="G13" s="2"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="30" t="s">
+      <c r="A14" s="16" t="s">
         <v>8</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E14" s="2">
         <v>0.05</v>
@@ -2016,17 +2034,17 @@
       <c r="G14" s="2"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="30" t="s">
+      <c r="A15" s="16" t="s">
         <v>9</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E15" s="2">
         <v>0.05</v>
@@ -2037,17 +2055,17 @@
       <c r="G15" s="2"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="30" t="s">
+      <c r="A16" s="16" t="s">
         <v>10</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E16" s="2">
         <v>0.05</v>
@@ -2058,17 +2076,17 @@
       <c r="G16" s="2"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="30" t="s">
+      <c r="A17" s="16" t="s">
         <v>12</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E17" s="2">
         <v>0.05</v>
@@ -2079,17 +2097,17 @@
       <c r="G17" s="2"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="30" t="s">
+      <c r="A18" s="16" t="s">
         <v>24</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E18" s="2">
         <v>0.05</v>
@@ -2100,17 +2118,17 @@
       <c r="G18" s="2"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="30" t="s">
+      <c r="A19" s="16" t="s">
         <v>25</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E19" s="2">
         <v>0.05</v>
@@ -2121,17 +2139,17 @@
       <c r="G19" s="2"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="30" t="s">
-        <v>93</v>
+      <c r="A20" s="16" t="s">
+        <v>91</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E20" s="2">
         <v>0.05</v>
@@ -2142,17 +2160,17 @@
       <c r="G20" s="2"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="30" t="s">
-        <v>94</v>
+      <c r="A21" s="16" t="s">
+        <v>92</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E21" s="2">
         <v>0.05</v>
@@ -2163,17 +2181,17 @@
       <c r="G21" s="2"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="30" t="s">
-        <v>122</v>
+      <c r="A22" s="16" t="s">
+        <v>120</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E22" s="2">
         <v>0.01</v>
@@ -2184,17 +2202,17 @@
       <c r="G22" s="2"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="30" t="s">
-        <v>80</v>
+      <c r="A23" s="16" t="s">
+        <v>78</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E23" s="2">
         <v>0.05</v>
@@ -2205,17 +2223,17 @@
       <c r="G23" s="2"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="30" t="s">
-        <v>82</v>
+      <c r="A24" s="16" t="s">
+        <v>80</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E24" s="2">
         <v>0.05</v>
@@ -2226,17 +2244,17 @@
       <c r="G24" s="2"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="30" t="s">
-        <v>222</v>
+      <c r="A25" s="16" t="s">
+        <v>220</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E25" s="2">
         <v>0.05</v>
@@ -2247,17 +2265,17 @@
       <c r="G25" s="2"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="30" t="s">
+      <c r="A26" s="16" t="s">
         <v>0</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E26" s="2">
         <v>1</v>
@@ -2268,8 +2286,8 @@
       <c r="G26" s="2"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="30" t="s">
-        <v>223</v>
+      <c r="A27" s="16" t="s">
+        <v>221</v>
       </c>
       <c r="G27" s="2"/>
     </row>
@@ -2290,48 +2308,48 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C33" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="B33" s="4" t="s">
+      <c r="D33" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="E33" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="F33" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="C33" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="D33" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="E33" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="F33" s="4" t="s">
-        <v>87</v>
-      </c>
       <c r="G33" s="4"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="17" t="s">
+      <c r="A34" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="B34" s="17"/>
-      <c r="C34" s="17"/>
-      <c r="D34" s="17"/>
-      <c r="E34" s="17"/>
-      <c r="F34" s="17"/>
-      <c r="G34" s="17"/>
+      <c r="B34" s="25"/>
+      <c r="C34" s="25"/>
+      <c r="D34" s="25"/>
+      <c r="E34" s="25"/>
+      <c r="F34" s="25"/>
+      <c r="G34" s="25"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C35" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="B35" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>127</v>
-      </c>
       <c r="D35" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F35" s="1">
         <v>10</v>
@@ -2340,16 +2358,16 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B36" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="B36" s="1" t="s">
+      <c r="C36" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="C36" s="2" t="s">
-        <v>128</v>
-      </c>
       <c r="D36" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F36" s="1">
         <v>10</v>
@@ -2361,13 +2379,13 @@
         <v>15</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="F37" s="1">
         <v>10</v>
@@ -2379,13 +2397,13 @@
         <v>16</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="F38" s="1">
         <v>1</v>
@@ -2397,13 +2415,13 @@
         <v>17</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="F39" s="1">
         <v>5</v>
@@ -2412,13 +2430,16 @@
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>274</v>
+        <v>272</v>
+      </c>
+      <c r="F40" s="1">
+        <v>10</v>
       </c>
       <c r="G40" s="2"/>
     </row>
@@ -2430,48 +2451,48 @@
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C43" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="B43" s="4" t="s">
+      <c r="D43" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="E43" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="F43" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="C43" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="D43" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="E43" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="F43" s="4" t="s">
-        <v>87</v>
-      </c>
       <c r="G43" s="4"/>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A44" s="18" t="s">
-        <v>168</v>
-      </c>
-      <c r="B44" s="18"/>
-      <c r="C44" s="18"/>
-      <c r="D44" s="18"/>
-      <c r="E44" s="18"/>
-      <c r="F44" s="18"/>
-      <c r="G44" s="18"/>
+      <c r="A44" s="26" t="s">
+        <v>166</v>
+      </c>
+      <c r="B44" s="26"/>
+      <c r="C44" s="26"/>
+      <c r="D44" s="26"/>
+      <c r="E44" s="26"/>
+      <c r="F44" s="26"/>
+      <c r="G44" s="26"/>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="D45" s="1" t="s">
         <v>136</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="C45" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="D45" s="1" t="s">
-        <v>138</v>
       </c>
       <c r="F45" s="1">
         <v>5</v>
@@ -2480,16 +2501,16 @@
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F46" s="1">
         <v>5</v>
@@ -2498,16 +2519,16 @@
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C47" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="B47" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="C47" s="2" t="s">
-        <v>142</v>
-      </c>
       <c r="D47" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F47" s="1">
         <v>5</v>
@@ -2528,13 +2549,13 @@
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="F50" s="1">
         <v>5</v>
@@ -2543,13 +2564,13 @@
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C51" s="2" t="s">
         <v>144</v>
-      </c>
-      <c r="B51" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="C51" s="2" t="s">
-        <v>146</v>
       </c>
       <c r="F51" s="1">
         <v>5</v>
@@ -2558,13 +2579,13 @@
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="F52" s="1">
         <v>5</v>
@@ -2573,16 +2594,16 @@
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="E53" s="2" t="s">
         <v>212</v>
-      </c>
-      <c r="B53" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="C53" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="E53" s="2" t="s">
-        <v>214</v>
       </c>
       <c r="F53" s="1">
         <v>5</v>
@@ -2597,13 +2618,13 @@
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C55" s="2" t="s">
         <v>147</v>
-      </c>
-      <c r="B55" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="C55" s="2" t="s">
-        <v>149</v>
       </c>
       <c r="F55" s="1">
         <v>5</v>
@@ -2630,13 +2651,13 @@
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="F59" s="1">
         <v>5</v>
@@ -2645,13 +2666,13 @@
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="F60" s="1">
         <v>5</v>
@@ -2660,13 +2681,13 @@
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C61" s="2" t="s">
         <v>152</v>
-      </c>
-      <c r="B61" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C61" s="2" t="s">
-        <v>154</v>
       </c>
       <c r="F61" s="1">
         <v>5</v>
@@ -2675,13 +2696,13 @@
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="F62" s="1">
         <v>5</v>
@@ -2690,10 +2711,10 @@
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F63" s="1">
         <v>5</v>
@@ -2708,13 +2729,13 @@
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="F65" s="1">
         <v>5</v>
@@ -2723,10 +2744,10 @@
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="F66" s="1">
         <v>5</v>
@@ -2735,13 +2756,13 @@
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="F67" s="1">
         <v>5</v>
@@ -2750,13 +2771,13 @@
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="F68" s="1">
         <v>5</v>
@@ -2765,13 +2786,13 @@
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="F69" s="1">
         <v>5</v>
@@ -2780,7 +2801,7 @@
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" s="12" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="G70" s="2"/>
     </row>
@@ -2795,7 +2816,7 @@
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="F73" s="1">
         <v>5</v>
@@ -2804,10 +2825,10 @@
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F74" s="1">
         <v>5</v>
@@ -2816,10 +2837,10 @@
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F75" s="1">
         <v>5</v>
@@ -2840,10 +2861,10 @@
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F78" s="1">
         <v>5</v>
@@ -2864,10 +2885,10 @@
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F81" s="1">
         <v>5</v>
@@ -2876,10 +2897,10 @@
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F82" s="1">
         <v>5</v>
@@ -2888,10 +2909,10 @@
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F83" s="1">
         <v>5</v>
@@ -2906,10 +2927,10 @@
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F85" s="1">
         <v>5</v>
@@ -2918,10 +2939,10 @@
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F86" s="1">
         <v>5</v>
@@ -2930,10 +2951,10 @@
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F87" s="1">
         <v>5</v>
@@ -2954,10 +2975,10 @@
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F90" s="1">
         <v>5</v>
@@ -2966,10 +2987,10 @@
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" s="2" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F91" s="1">
         <v>5</v>
@@ -2984,7 +3005,7 @@
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" s="2" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="F93" s="1">
         <v>5</v>
@@ -2999,10 +3020,10 @@
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F95" s="1">
         <v>5</v>
@@ -3017,7 +3038,7 @@
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97" s="2" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="F97" s="1">
         <v>5</v>
@@ -3032,7 +3053,7 @@
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99" s="2" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="F99" s="1">
         <v>5</v>
@@ -3041,7 +3062,7 @@
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100" s="2" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="F100" s="1">
         <v>5</v>
@@ -3050,7 +3071,7 @@
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101" s="2" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="F101" s="1">
         <v>5</v>
@@ -3059,7 +3080,7 @@
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102" s="3" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="F102" s="1">
         <v>5</v>
@@ -3086,7 +3107,7 @@
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106" s="2" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="F106" s="1">
         <v>5</v>
@@ -3095,7 +3116,7 @@
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107" s="2" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="F107" s="1">
         <v>5</v>
@@ -3116,7 +3137,7 @@
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110" s="12" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="F110" s="1">
         <v>5</v>
@@ -3131,7 +3152,7 @@
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A112" s="2" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="F112" s="1">
         <v>5</v>
@@ -3146,7 +3167,7 @@
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A114" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F114" s="1">
         <v>5</v>
@@ -3161,7 +3182,7 @@
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A116" s="6" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F116" s="1">
         <v>5</v>
@@ -3170,7 +3191,7 @@
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A117" s="2" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="F117" s="1">
         <v>5</v>
@@ -3179,7 +3200,7 @@
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A118" s="2" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="F118" s="1">
         <v>5</v>
@@ -3188,7 +3209,7 @@
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A119" s="2" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="F119" s="1">
         <v>5</v>
@@ -3197,7 +3218,7 @@
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A120" s="2" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="F120" s="1">
         <v>5</v>
@@ -3227,7 +3248,7 @@
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A124" s="2" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="F124" s="1">
         <v>5</v>
@@ -3236,7 +3257,7 @@
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A125" s="2" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="F125" s="1">
         <v>5</v>
@@ -3251,7 +3272,7 @@
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A127" s="2" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="F127" s="1">
         <v>5</v>
@@ -3260,7 +3281,7 @@
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A128" s="2" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="F128" s="1">
         <v>5</v>
@@ -3269,7 +3290,7 @@
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A129" s="2" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="F129" s="1">
         <v>5</v>
@@ -3296,39 +3317,39 @@
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A133" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="B133" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C133" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="B133" s="4" t="s">
+      <c r="D133" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="E133" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="F133" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="C133" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="D133" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="E133" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="F133" s="4" t="s">
-        <v>87</v>
-      </c>
       <c r="G133" s="4"/>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A134" s="16" t="s">
-        <v>180</v>
-      </c>
-      <c r="B134" s="16"/>
-      <c r="C134" s="16"/>
-      <c r="D134" s="16"/>
-      <c r="E134" s="16"/>
-      <c r="F134" s="16"/>
-      <c r="G134" s="16"/>
+      <c r="A134" s="24" t="s">
+        <v>178</v>
+      </c>
+      <c r="B134" s="24"/>
+      <c r="C134" s="24"/>
+      <c r="D134" s="24"/>
+      <c r="E134" s="24"/>
+      <c r="F134" s="24"/>
+      <c r="G134" s="24"/>
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A135" s="2" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="F135" s="1">
         <v>1</v>
@@ -3373,7 +3394,7 @@
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A140" s="2" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="F140" s="1">
         <v>1</v>
@@ -3409,7 +3430,7 @@
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A144" s="12" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="F144" s="1">
         <v>1</v>
@@ -3418,7 +3439,7 @@
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A145" s="12" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="F145" s="1">
         <v>1</v>
@@ -3487,7 +3508,7 @@
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A153" s="2" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="F153" s="1">
         <v>1</v>
@@ -3523,7 +3544,7 @@
     </row>
     <row r="158" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A158" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F158" s="1">
         <v>5</v>
@@ -4642,62 +4663,62 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A1" s="23" t="s">
-        <v>225</v>
-      </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
+      <c r="A1" s="31" t="s">
+        <v>223</v>
+      </c>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C2" s="13" t="s">
         <v>36</v>
       </c>
       <c r="D2" s="13" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="E2" s="13"/>
     </row>
     <row r="3" spans="1:7" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B3" s="5">
         <v>1</v>
       </c>
       <c r="C3" s="14" t="s">
+        <v>230</v>
+      </c>
+      <c r="D3" s="14" t="s">
+        <v>231</v>
+      </c>
+      <c r="E3" s="5" t="s">
         <v>232</v>
-      </c>
-      <c r="D3" s="14" t="s">
-        <v>233</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>234</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B4" s="5">
         <v>3</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B5" s="5">
         <v>4</v>
@@ -4729,117 +4750,117 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A1" s="23" t="s">
-        <v>224</v>
-      </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
+      <c r="A1" s="31" t="s">
+        <v>222</v>
+      </c>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="31" t="s">
+      <c r="A2" s="17" t="s">
+        <v>234</v>
+      </c>
+      <c r="B2" s="17" t="s">
+        <v>235</v>
+      </c>
+      <c r="C2" s="17" t="s">
         <v>236</v>
       </c>
-      <c r="B2" s="31" t="s">
+      <c r="D2" s="17" t="s">
         <v>237</v>
-      </c>
-      <c r="C2" s="31" t="s">
-        <v>238</v>
-      </c>
-      <c r="D2" s="31" t="s">
-        <v>239</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>262</v>
+      </c>
+      <c r="C4" s="5" t="s">
         <v>240</v>
       </c>
-      <c r="B4" s="5" t="s">
-        <v>264</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>242</v>
-      </c>
       <c r="D4" s="5" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
+        <v>247</v>
+      </c>
+      <c r="B6" s="5" t="s">
         <v>249</v>
       </c>
-      <c r="B6" s="5" t="s">
-        <v>251</v>
-      </c>
       <c r="C6" s="5" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
+        <v>250</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>251</v>
+      </c>
+      <c r="C7" s="5" t="s">
         <v>252</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>253</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>254</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
+        <v>244</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>245</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="D8" s="5" t="s">
         <v>246</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>247</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>255</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
+        <v>256</v>
+      </c>
+      <c r="B10" s="5" t="s">
         <v>258</v>
       </c>
-      <c r="B10" s="5" t="s">
-        <v>260</v>
-      </c>
       <c r="C10" s="5" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
   </sheetData>
@@ -4855,1279 +4876,1207 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E13E4A5-10AD-4171-99FD-31881C0A6C11}">
   <dimension ref="A1:AD34"/>
   <sheetViews>
-    <sheetView topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="O10" sqref="O10:P10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J19" sqref="J19:N19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="6" width="9.140625" style="32"/>
-    <col min="7" max="7" width="4.5703125" style="32" customWidth="1"/>
-    <col min="8" max="13" width="9.140625" style="32"/>
-    <col min="14" max="14" width="16.140625" style="32" customWidth="1"/>
-    <col min="15" max="15" width="9.140625" style="32"/>
-    <col min="16" max="16" width="13.42578125" style="32" customWidth="1"/>
-    <col min="17" max="29" width="9.140625" style="32"/>
-    <col min="30" max="30" width="19.28515625" style="32" customWidth="1"/>
-    <col min="31" max="16384" width="9.140625" style="32"/>
+    <col min="1" max="6" width="9.140625" style="18"/>
+    <col min="7" max="7" width="4.5703125" style="18" customWidth="1"/>
+    <col min="8" max="13" width="9.140625" style="18"/>
+    <col min="14" max="14" width="16.140625" style="18" customWidth="1"/>
+    <col min="15" max="15" width="9.140625" style="18"/>
+    <col min="16" max="16" width="13.42578125" style="18" customWidth="1"/>
+    <col min="17" max="29" width="9.140625" style="18"/>
+    <col min="30" max="30" width="19.28515625" style="18" customWidth="1"/>
+    <col min="31" max="16384" width="9.140625" style="18"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="27" t="s">
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
+      <c r="H1" s="36" t="s">
+        <v>194</v>
+      </c>
+      <c r="I1" s="36"/>
+      <c r="J1" s="36"/>
+      <c r="K1" s="36"/>
+      <c r="L1" s="36"/>
+      <c r="M1" s="36"/>
+      <c r="N1" s="36"/>
+      <c r="O1" s="36" t="s">
+        <v>195</v>
+      </c>
+      <c r="P1" s="36"/>
+      <c r="Q1" s="36"/>
+      <c r="R1" s="36"/>
+      <c r="S1" s="36"/>
+      <c r="T1" s="36"/>
+      <c r="U1" s="36"/>
+      <c r="V1" s="36" t="s">
+        <v>35</v>
+      </c>
+      <c r="W1" s="36"/>
+      <c r="X1" s="36"/>
+      <c r="Y1" s="36"/>
+      <c r="Z1" s="36"/>
+      <c r="AA1" s="36"/>
+      <c r="AB1" s="36"/>
+      <c r="AD1" s="19" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="2" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="36"/>
+      <c r="B2" s="36"/>
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="36"/>
+      <c r="H2" s="36"/>
+      <c r="I2" s="36"/>
+      <c r="J2" s="36"/>
+      <c r="K2" s="36"/>
+      <c r="L2" s="36"/>
+      <c r="M2" s="36"/>
+      <c r="N2" s="36"/>
+      <c r="O2" s="36"/>
+      <c r="P2" s="36"/>
+      <c r="Q2" s="36"/>
+      <c r="R2" s="36"/>
+      <c r="S2" s="36"/>
+      <c r="T2" s="36"/>
+      <c r="U2" s="36"/>
+      <c r="V2" s="36"/>
+      <c r="W2" s="36"/>
+      <c r="X2" s="36"/>
+      <c r="Y2" s="36"/>
+      <c r="Z2" s="36"/>
+      <c r="AA2" s="36"/>
+      <c r="AB2" s="36"/>
+    </row>
+    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A3" s="37" t="s">
+        <v>34</v>
+      </c>
+      <c r="B3" s="37"/>
+      <c r="C3" s="38" t="s">
+        <v>36</v>
+      </c>
+      <c r="D3" s="38"/>
+      <c r="E3" s="38"/>
+      <c r="F3" s="38"/>
+      <c r="G3" s="38"/>
+      <c r="H3" s="37" t="s">
+        <v>34</v>
+      </c>
+      <c r="I3" s="37"/>
+      <c r="J3" s="38" t="s">
+        <v>36</v>
+      </c>
+      <c r="K3" s="38"/>
+      <c r="L3" s="38"/>
+      <c r="M3" s="38"/>
+      <c r="N3" s="38"/>
+      <c r="O3" s="37" t="s">
+        <v>34</v>
+      </c>
+      <c r="P3" s="37"/>
+      <c r="Q3" s="38" t="s">
+        <v>36</v>
+      </c>
+      <c r="R3" s="38"/>
+      <c r="S3" s="38"/>
+      <c r="T3" s="38"/>
+      <c r="U3" s="38"/>
+      <c r="V3" s="37" t="s">
+        <v>34</v>
+      </c>
+      <c r="W3" s="37"/>
+      <c r="X3" s="38" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y3" s="38"/>
+      <c r="Z3" s="38"/>
+      <c r="AA3" s="38"/>
+      <c r="AB3" s="38"/>
+    </row>
+    <row r="4" spans="1:30" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="32" t="s">
+        <v>40</v>
+      </c>
+      <c r="B4" s="32"/>
+      <c r="C4" s="33" t="s">
+        <v>43</v>
+      </c>
+      <c r="D4" s="33"/>
+      <c r="E4" s="33"/>
+      <c r="F4" s="33"/>
+      <c r="G4" s="33"/>
+      <c r="H4" s="32" t="s">
+        <v>44</v>
+      </c>
+      <c r="I4" s="32"/>
+      <c r="J4" s="33" t="s">
+        <v>45</v>
+      </c>
+      <c r="K4" s="33"/>
+      <c r="L4" s="33"/>
+      <c r="M4" s="33"/>
+      <c r="N4" s="33"/>
+      <c r="O4" s="34" t="s">
         <v>196</v>
       </c>
-      <c r="I1" s="27"/>
-      <c r="J1" s="27"/>
-      <c r="K1" s="27"/>
-      <c r="L1" s="27"/>
-      <c r="M1" s="27"/>
-      <c r="N1" s="27"/>
-      <c r="O1" s="27" t="s">
+      <c r="P4" s="34"/>
+      <c r="Q4" s="33" t="s">
         <v>197</v>
       </c>
-      <c r="P1" s="27"/>
-      <c r="Q1" s="27"/>
-      <c r="R1" s="27"/>
-      <c r="S1" s="27"/>
-      <c r="T1" s="27"/>
-      <c r="U1" s="27"/>
-      <c r="V1" s="27" t="s">
-        <v>35</v>
-      </c>
-      <c r="W1" s="27"/>
-      <c r="X1" s="27"/>
-      <c r="Y1" s="27"/>
-      <c r="Z1" s="27"/>
-      <c r="AA1" s="27"/>
-      <c r="AB1" s="27"/>
-      <c r="AD1" s="33" t="s">
+      <c r="R4" s="33"/>
+      <c r="S4" s="33"/>
+      <c r="T4" s="33"/>
+      <c r="U4" s="33"/>
+      <c r="V4" s="34" t="s">
+        <v>61</v>
+      </c>
+      <c r="W4" s="34"/>
+      <c r="X4" s="33" t="s">
+        <v>60</v>
+      </c>
+      <c r="Y4" s="33"/>
+      <c r="Z4" s="33"/>
+      <c r="AA4" s="33"/>
+      <c r="AB4" s="33"/>
+    </row>
+    <row r="5" spans="1:30" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="32" t="s">
+        <v>37</v>
+      </c>
+      <c r="B5" s="32"/>
+      <c r="C5" s="33" t="s">
+        <v>266</v>
+      </c>
+      <c r="D5" s="33"/>
+      <c r="E5" s="33"/>
+      <c r="F5" s="33"/>
+      <c r="G5" s="33"/>
+      <c r="H5" s="32" t="s">
+        <v>56</v>
+      </c>
+      <c r="I5" s="32"/>
+      <c r="J5" s="33" t="s">
+        <v>57</v>
+      </c>
+      <c r="K5" s="33"/>
+      <c r="L5" s="33"/>
+      <c r="M5" s="33"/>
+      <c r="N5" s="33"/>
+      <c r="O5" s="34" t="s">
+        <v>198</v>
+      </c>
+      <c r="P5" s="34"/>
+      <c r="Q5" s="33" t="s">
+        <v>281</v>
+      </c>
+      <c r="R5" s="33"/>
+      <c r="S5" s="33"/>
+      <c r="T5" s="33"/>
+      <c r="U5" s="33"/>
+      <c r="V5" s="34" t="s">
+        <v>62</v>
+      </c>
+      <c r="W5" s="34"/>
+      <c r="X5" s="33" t="s">
+        <v>65</v>
+      </c>
+      <c r="Y5" s="33"/>
+      <c r="Z5" s="33"/>
+      <c r="AA5" s="33"/>
+      <c r="AB5" s="33"/>
+    </row>
+    <row r="6" spans="1:30" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="32" t="s">
+        <v>38</v>
+      </c>
+      <c r="B6" s="32"/>
+      <c r="C6" s="33" t="s">
+        <v>53</v>
+      </c>
+      <c r="D6" s="33"/>
+      <c r="E6" s="33"/>
+      <c r="F6" s="33"/>
+      <c r="G6" s="33"/>
+      <c r="H6" s="32" t="s">
+        <v>49</v>
+      </c>
+      <c r="I6" s="32"/>
+      <c r="J6" s="33" t="s">
+        <v>48</v>
+      </c>
+      <c r="K6" s="33"/>
+      <c r="L6" s="33"/>
+      <c r="M6" s="33"/>
+      <c r="N6" s="33"/>
+      <c r="O6" s="34" t="s">
+        <v>199</v>
+      </c>
+      <c r="P6" s="34"/>
+      <c r="Q6" s="33" t="s">
+        <v>281</v>
+      </c>
+      <c r="R6" s="33"/>
+      <c r="S6" s="33"/>
+      <c r="T6" s="33"/>
+      <c r="U6" s="33"/>
+      <c r="V6" s="34" t="s">
+        <v>63</v>
+      </c>
+      <c r="W6" s="34"/>
+      <c r="X6" s="33" t="s">
+        <v>64</v>
+      </c>
+      <c r="Y6" s="33"/>
+      <c r="Z6" s="33"/>
+      <c r="AA6" s="33"/>
+      <c r="AB6" s="33"/>
+    </row>
+    <row r="7" spans="1:30" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="32" t="s">
+        <v>39</v>
+      </c>
+      <c r="B7" s="32"/>
+      <c r="C7" s="33" t="s">
+        <v>42</v>
+      </c>
+      <c r="D7" s="33"/>
+      <c r="E7" s="33"/>
+      <c r="F7" s="33"/>
+      <c r="G7" s="33"/>
+      <c r="H7" s="32" t="s">
+        <v>50</v>
+      </c>
+      <c r="I7" s="32"/>
+      <c r="J7" s="33" t="s">
+        <v>51</v>
+      </c>
+      <c r="K7" s="33"/>
+      <c r="L7" s="33"/>
+      <c r="M7" s="33"/>
+      <c r="N7" s="33"/>
+      <c r="O7" s="34" t="s">
+        <v>200</v>
+      </c>
+      <c r="P7" s="34"/>
+      <c r="Q7" s="33" t="s">
+        <v>283</v>
+      </c>
+      <c r="R7" s="33"/>
+      <c r="S7" s="33"/>
+      <c r="T7" s="33"/>
+      <c r="U7" s="33"/>
+      <c r="V7" s="34" t="s">
+        <v>66</v>
+      </c>
+      <c r="W7" s="34"/>
+      <c r="X7" s="33" t="s">
+        <v>67</v>
+      </c>
+      <c r="Y7" s="33"/>
+      <c r="Z7" s="33"/>
+      <c r="AA7" s="33"/>
+      <c r="AB7" s="33"/>
+    </row>
+    <row r="8" spans="1:30" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="32" t="s">
+        <v>264</v>
+      </c>
+      <c r="B8" s="32"/>
+      <c r="C8" s="33" t="s">
+        <v>265</v>
+      </c>
+      <c r="D8" s="33"/>
+      <c r="E8" s="33"/>
+      <c r="F8" s="33"/>
+      <c r="G8" s="33"/>
+      <c r="H8" s="32" t="s">
+        <v>52</v>
+      </c>
+      <c r="I8" s="32"/>
+      <c r="J8" s="33" t="s">
+        <v>51</v>
+      </c>
+      <c r="K8" s="33"/>
+      <c r="L8" s="33"/>
+      <c r="M8" s="33"/>
+      <c r="N8" s="33"/>
+      <c r="O8" s="34" t="s">
+        <v>282</v>
+      </c>
+      <c r="P8" s="34"/>
+      <c r="Q8" s="33" t="s">
+        <v>283</v>
+      </c>
+      <c r="R8" s="33"/>
+      <c r="S8" s="33"/>
+      <c r="T8" s="33"/>
+      <c r="U8" s="33"/>
+      <c r="V8" s="34" t="s">
+        <v>68</v>
+      </c>
+      <c r="W8" s="34"/>
+      <c r="X8" s="33" t="s">
+        <v>60</v>
+      </c>
+      <c r="Y8" s="33"/>
+      <c r="Z8" s="33"/>
+      <c r="AA8" s="33"/>
+      <c r="AB8" s="33"/>
+    </row>
+    <row r="9" spans="1:30" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="32"/>
+      <c r="B9" s="32"/>
+      <c r="C9" s="33"/>
+      <c r="D9" s="33"/>
+      <c r="E9" s="33"/>
+      <c r="F9" s="33"/>
+      <c r="G9" s="33"/>
+      <c r="H9" s="32" t="s">
+        <v>77</v>
+      </c>
+      <c r="I9" s="32"/>
+      <c r="J9" s="33" t="s">
+        <v>55</v>
+      </c>
+      <c r="K9" s="33"/>
+      <c r="L9" s="33"/>
+      <c r="M9" s="33"/>
+      <c r="N9" s="33"/>
+      <c r="O9" s="34" t="s">
+        <v>284</v>
+      </c>
+      <c r="P9" s="34"/>
+      <c r="Q9" s="33" t="s">
+        <v>330</v>
+      </c>
+      <c r="R9" s="33"/>
+      <c r="S9" s="33"/>
+      <c r="T9" s="33"/>
+      <c r="U9" s="33"/>
+      <c r="V9" s="34" t="s">
+        <v>69</v>
+      </c>
+      <c r="W9" s="34"/>
+      <c r="X9" s="33" t="s">
+        <v>70</v>
+      </c>
+      <c r="Y9" s="33"/>
+      <c r="Z9" s="33"/>
+      <c r="AA9" s="33"/>
+      <c r="AB9" s="33"/>
+    </row>
+    <row r="10" spans="1:30" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="B10" s="32"/>
+      <c r="C10" s="33" t="s">
+        <v>54</v>
+      </c>
+      <c r="D10" s="33"/>
+      <c r="E10" s="33"/>
+      <c r="F10" s="33"/>
+      <c r="G10" s="33"/>
+      <c r="H10" s="32" t="s">
+        <v>56</v>
+      </c>
+      <c r="I10" s="32"/>
+      <c r="J10" s="33" t="s">
+        <v>57</v>
+      </c>
+      <c r="K10" s="33"/>
+      <c r="L10" s="33"/>
+      <c r="M10" s="33"/>
+      <c r="N10" s="33"/>
+      <c r="O10" s="34"/>
+      <c r="P10" s="34"/>
+      <c r="Q10" s="33"/>
+      <c r="R10" s="33"/>
+      <c r="S10" s="33"/>
+      <c r="T10" s="33"/>
+      <c r="U10" s="33"/>
+      <c r="V10" s="34" t="s">
+        <v>72</v>
+      </c>
+      <c r="W10" s="34"/>
+      <c r="X10" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="Y10" s="33"/>
+      <c r="Z10" s="33"/>
+      <c r="AA10" s="33"/>
+      <c r="AB10" s="33"/>
+    </row>
+    <row r="11" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="32" t="s">
+        <v>267</v>
+      </c>
+      <c r="B11" s="32"/>
+      <c r="C11" s="33" t="s">
+        <v>275</v>
+      </c>
+      <c r="D11" s="33"/>
+      <c r="E11" s="33"/>
+      <c r="F11" s="33"/>
+      <c r="G11" s="33"/>
+      <c r="H11" s="32" t="s">
+        <v>58</v>
+      </c>
+      <c r="I11" s="32"/>
+      <c r="J11" s="33" t="s">
+        <v>59</v>
+      </c>
+      <c r="K11" s="33"/>
+      <c r="L11" s="33"/>
+      <c r="M11" s="33"/>
+      <c r="N11" s="33"/>
+      <c r="O11" s="34"/>
+      <c r="P11" s="34"/>
+      <c r="Q11" s="33"/>
+      <c r="R11" s="33"/>
+      <c r="S11" s="33"/>
+      <c r="T11" s="33"/>
+      <c r="U11" s="33"/>
+      <c r="V11" s="34" t="s">
+        <v>74</v>
+      </c>
+      <c r="W11" s="34"/>
+      <c r="X11" s="33" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y11" s="33"/>
+      <c r="Z11" s="33"/>
+      <c r="AA11" s="33"/>
+      <c r="AB11" s="33"/>
+    </row>
+    <row r="12" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="32" t="s">
+        <v>269</v>
+      </c>
+      <c r="B12" s="32"/>
+      <c r="C12" s="35" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="2" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="27"/>
-      <c r="B2" s="27"/>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="27"/>
-      <c r="H2" s="27"/>
-      <c r="I2" s="27"/>
-      <c r="J2" s="27"/>
-      <c r="K2" s="27"/>
-      <c r="L2" s="27"/>
-      <c r="M2" s="27"/>
-      <c r="N2" s="27"/>
-      <c r="O2" s="27"/>
-      <c r="P2" s="27"/>
-      <c r="Q2" s="27"/>
-      <c r="R2" s="27"/>
-      <c r="S2" s="27"/>
-      <c r="T2" s="27"/>
-      <c r="U2" s="27"/>
-      <c r="V2" s="27"/>
-      <c r="W2" s="27"/>
-      <c r="X2" s="27"/>
-      <c r="Y2" s="27"/>
-      <c r="Z2" s="27"/>
-      <c r="AA2" s="27"/>
-      <c r="AB2" s="27"/>
-    </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A3" s="28" t="s">
-        <v>34</v>
-      </c>
-      <c r="B3" s="28"/>
-      <c r="C3" s="29" t="s">
-        <v>36</v>
-      </c>
-      <c r="D3" s="29"/>
-      <c r="E3" s="29"/>
-      <c r="F3" s="29"/>
-      <c r="G3" s="29"/>
-      <c r="H3" s="28" t="s">
-        <v>34</v>
-      </c>
-      <c r="I3" s="28"/>
-      <c r="J3" s="29" t="s">
-        <v>36</v>
-      </c>
-      <c r="K3" s="29"/>
-      <c r="L3" s="29"/>
-      <c r="M3" s="29"/>
-      <c r="N3" s="29"/>
-      <c r="O3" s="28" t="s">
-        <v>34</v>
-      </c>
-      <c r="P3" s="28"/>
-      <c r="Q3" s="29" t="s">
-        <v>36</v>
-      </c>
-      <c r="R3" s="29"/>
-      <c r="S3" s="29"/>
-      <c r="T3" s="29"/>
-      <c r="U3" s="29"/>
-      <c r="V3" s="28" t="s">
-        <v>34</v>
-      </c>
-      <c r="W3" s="28"/>
-      <c r="X3" s="29" t="s">
-        <v>36</v>
-      </c>
-      <c r="Y3" s="29"/>
-      <c r="Z3" s="29"/>
-      <c r="AA3" s="29"/>
-      <c r="AB3" s="29"/>
-    </row>
-    <row r="4" spans="1:30" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="24" t="s">
-        <v>40</v>
-      </c>
-      <c r="B4" s="24"/>
-      <c r="C4" s="25" t="s">
-        <v>44</v>
-      </c>
-      <c r="D4" s="25"/>
-      <c r="E4" s="25"/>
-      <c r="F4" s="25"/>
-      <c r="G4" s="25"/>
-      <c r="H4" s="24" t="s">
-        <v>45</v>
-      </c>
-      <c r="I4" s="24"/>
-      <c r="J4" s="25" t="s">
+      <c r="D12" s="35"/>
+      <c r="E12" s="35"/>
+      <c r="F12" s="35"/>
+      <c r="G12" s="35"/>
+      <c r="H12" s="32" t="s">
+        <v>76</v>
+      </c>
+      <c r="I12" s="32"/>
+      <c r="J12" s="33" t="s">
+        <v>263</v>
+      </c>
+      <c r="K12" s="33"/>
+      <c r="L12" s="33"/>
+      <c r="M12" s="33"/>
+      <c r="N12" s="33"/>
+      <c r="O12" s="34"/>
+      <c r="P12" s="34"/>
+      <c r="Q12" s="33"/>
+      <c r="R12" s="33"/>
+      <c r="S12" s="33"/>
+      <c r="T12" s="33"/>
+      <c r="U12" s="33"/>
+      <c r="V12" s="34"/>
+      <c r="W12" s="34"/>
+      <c r="X12" s="33"/>
+      <c r="Y12" s="33"/>
+      <c r="Z12" s="33"/>
+      <c r="AA12" s="33"/>
+      <c r="AB12" s="33"/>
+    </row>
+    <row r="13" spans="1:30" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="32" t="s">
+        <v>274</v>
+      </c>
+      <c r="B13" s="32"/>
+      <c r="C13" s="35" t="s">
+        <v>273</v>
+      </c>
+      <c r="D13" s="35"/>
+      <c r="E13" s="35"/>
+      <c r="F13" s="35"/>
+      <c r="G13" s="35"/>
+      <c r="H13" s="32" t="s">
         <v>46</v>
       </c>
-      <c r="K4" s="25"/>
-      <c r="L4" s="25"/>
-      <c r="M4" s="25"/>
-      <c r="N4" s="25"/>
-      <c r="O4" s="26" t="s">
-        <v>198</v>
-      </c>
-      <c r="P4" s="26"/>
-      <c r="Q4" s="25" t="s">
-        <v>199</v>
-      </c>
-      <c r="R4" s="25"/>
-      <c r="S4" s="25"/>
-      <c r="T4" s="25"/>
-      <c r="U4" s="25"/>
-      <c r="V4" s="26" t="s">
-        <v>63</v>
-      </c>
-      <c r="W4" s="26"/>
-      <c r="X4" s="25" t="s">
-        <v>62</v>
-      </c>
-      <c r="Y4" s="25"/>
-      <c r="Z4" s="25"/>
-      <c r="AA4" s="25"/>
-      <c r="AB4" s="25"/>
-    </row>
-    <row r="5" spans="1:30" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="24" t="s">
-        <v>37</v>
-      </c>
-      <c r="B5" s="24"/>
-      <c r="C5" s="25" t="s">
-        <v>268</v>
-      </c>
-      <c r="D5" s="25"/>
-      <c r="E5" s="25"/>
-      <c r="F5" s="25"/>
-      <c r="G5" s="25"/>
-      <c r="H5" s="24" t="s">
-        <v>58</v>
-      </c>
-      <c r="I5" s="24"/>
-      <c r="J5" s="25" t="s">
-        <v>59</v>
-      </c>
-      <c r="K5" s="25"/>
-      <c r="L5" s="25"/>
-      <c r="M5" s="25"/>
-      <c r="N5" s="25"/>
-      <c r="O5" s="26" t="s">
-        <v>200</v>
-      </c>
-      <c r="P5" s="26"/>
-      <c r="Q5" s="25" t="s">
-        <v>283</v>
-      </c>
-      <c r="R5" s="25"/>
-      <c r="S5" s="25"/>
-      <c r="T5" s="25"/>
-      <c r="U5" s="25"/>
-      <c r="V5" s="26" t="s">
-        <v>64</v>
-      </c>
-      <c r="W5" s="26"/>
-      <c r="X5" s="25" t="s">
+      <c r="I13" s="32"/>
+      <c r="J13" s="33" t="s">
+        <v>47</v>
+      </c>
+      <c r="K13" s="33"/>
+      <c r="L13" s="33"/>
+      <c r="M13" s="33"/>
+      <c r="N13" s="33"/>
+      <c r="O13" s="34" t="s">
+        <v>201</v>
+      </c>
+      <c r="P13" s="34"/>
+      <c r="Q13" s="33" t="s">
+        <v>202</v>
+      </c>
+      <c r="R13" s="33"/>
+      <c r="S13" s="33"/>
+      <c r="T13" s="33"/>
+      <c r="U13" s="33"/>
+      <c r="V13" s="32" t="s">
+        <v>276</v>
+      </c>
+      <c r="W13" s="32"/>
+      <c r="X13" s="33" t="s">
         <v>67</v>
       </c>
-      <c r="Y5" s="25"/>
-      <c r="Z5" s="25"/>
-      <c r="AA5" s="25"/>
-      <c r="AB5" s="25"/>
-    </row>
-    <row r="6" spans="1:30" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="24" t="s">
-        <v>38</v>
-      </c>
-      <c r="B6" s="24"/>
-      <c r="C6" s="25" t="s">
-        <v>54</v>
-      </c>
-      <c r="D6" s="25"/>
-      <c r="E6" s="25"/>
-      <c r="F6" s="25"/>
-      <c r="G6" s="25"/>
-      <c r="H6" s="24" t="s">
-        <v>50</v>
-      </c>
-      <c r="I6" s="24"/>
-      <c r="J6" s="25" t="s">
-        <v>49</v>
-      </c>
-      <c r="K6" s="25"/>
-      <c r="L6" s="25"/>
-      <c r="M6" s="25"/>
-      <c r="N6" s="25"/>
-      <c r="O6" s="26" t="s">
-        <v>201</v>
-      </c>
-      <c r="P6" s="26"/>
-      <c r="Q6" s="25" t="s">
-        <v>283</v>
-      </c>
-      <c r="R6" s="25"/>
-      <c r="S6" s="25"/>
-      <c r="T6" s="25"/>
-      <c r="U6" s="25"/>
-      <c r="V6" s="26" t="s">
-        <v>65</v>
-      </c>
-      <c r="W6" s="26"/>
-      <c r="X6" s="25" t="s">
-        <v>66</v>
-      </c>
-      <c r="Y6" s="25"/>
-      <c r="Z6" s="25"/>
-      <c r="AA6" s="25"/>
-      <c r="AB6" s="25"/>
-    </row>
-    <row r="7" spans="1:30" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="B7" s="24"/>
-      <c r="C7" s="25" t="s">
-        <v>43</v>
-      </c>
-      <c r="D7" s="25"/>
-      <c r="E7" s="25"/>
-      <c r="F7" s="25"/>
-      <c r="G7" s="25"/>
-      <c r="H7" s="24" t="s">
-        <v>51</v>
-      </c>
-      <c r="I7" s="24"/>
-      <c r="J7" s="25" t="s">
-        <v>52</v>
-      </c>
-      <c r="K7" s="25"/>
-      <c r="L7" s="25"/>
-      <c r="M7" s="25"/>
-      <c r="N7" s="25"/>
-      <c r="O7" s="26" t="s">
-        <v>202</v>
-      </c>
-      <c r="P7" s="26"/>
-      <c r="Q7" s="25" t="s">
-        <v>285</v>
-      </c>
-      <c r="R7" s="25"/>
-      <c r="S7" s="25"/>
-      <c r="T7" s="25"/>
-      <c r="U7" s="25"/>
-      <c r="V7" s="26" t="s">
-        <v>68</v>
-      </c>
-      <c r="W7" s="26"/>
-      <c r="X7" s="25" t="s">
-        <v>69</v>
-      </c>
-      <c r="Y7" s="25"/>
-      <c r="Z7" s="25"/>
-      <c r="AA7" s="25"/>
-      <c r="AB7" s="25"/>
-    </row>
-    <row r="8" spans="1:30" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="24" t="s">
-        <v>266</v>
-      </c>
-      <c r="B8" s="24"/>
-      <c r="C8" s="25" t="s">
-        <v>267</v>
-      </c>
-      <c r="D8" s="25"/>
-      <c r="E8" s="25"/>
-      <c r="F8" s="25"/>
-      <c r="G8" s="25"/>
-      <c r="H8" s="24" t="s">
-        <v>53</v>
-      </c>
-      <c r="I8" s="24"/>
-      <c r="J8" s="25" t="s">
-        <v>52</v>
-      </c>
-      <c r="K8" s="25"/>
-      <c r="L8" s="25"/>
-      <c r="M8" s="25"/>
-      <c r="N8" s="25"/>
-      <c r="O8" s="26" t="s">
-        <v>284</v>
-      </c>
-      <c r="P8" s="26"/>
-      <c r="Q8" s="25" t="s">
-        <v>285</v>
-      </c>
-      <c r="R8" s="25"/>
-      <c r="S8" s="25"/>
-      <c r="T8" s="25"/>
-      <c r="U8" s="25"/>
-      <c r="V8" s="26" t="s">
-        <v>70</v>
-      </c>
-      <c r="W8" s="26"/>
-      <c r="X8" s="25" t="s">
-        <v>62</v>
-      </c>
-      <c r="Y8" s="25"/>
-      <c r="Z8" s="25"/>
-      <c r="AA8" s="25"/>
-      <c r="AB8" s="25"/>
-    </row>
-    <row r="9" spans="1:30" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="24" t="s">
-        <v>41</v>
-      </c>
-      <c r="B9" s="24"/>
-      <c r="C9" s="25" t="s">
-        <v>56</v>
-      </c>
-      <c r="D9" s="25"/>
-      <c r="E9" s="25"/>
-      <c r="F9" s="25"/>
-      <c r="G9" s="25"/>
-      <c r="H9" s="24" t="s">
-        <v>79</v>
-      </c>
-      <c r="I9" s="24"/>
-      <c r="J9" s="25" t="s">
-        <v>57</v>
-      </c>
-      <c r="K9" s="25"/>
-      <c r="L9" s="25"/>
-      <c r="M9" s="25"/>
-      <c r="N9" s="25"/>
-      <c r="O9" s="26" t="s">
-        <v>286</v>
-      </c>
-      <c r="P9" s="26"/>
-      <c r="Q9" s="25"/>
-      <c r="R9" s="25"/>
-      <c r="S9" s="25"/>
-      <c r="T9" s="25"/>
-      <c r="U9" s="25"/>
-      <c r="V9" s="26" t="s">
-        <v>71</v>
-      </c>
-      <c r="W9" s="26"/>
-      <c r="X9" s="25" t="s">
-        <v>72</v>
-      </c>
-      <c r="Y9" s="25"/>
-      <c r="Z9" s="25"/>
-      <c r="AA9" s="25"/>
-      <c r="AB9" s="25"/>
-    </row>
-    <row r="10" spans="1:30" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="24" t="s">
-        <v>42</v>
-      </c>
-      <c r="B10" s="24"/>
-      <c r="C10" s="25" t="s">
-        <v>55</v>
-      </c>
-      <c r="D10" s="25"/>
-      <c r="E10" s="25"/>
-      <c r="F10" s="25"/>
-      <c r="G10" s="25"/>
-      <c r="H10" s="24" t="s">
-        <v>58</v>
-      </c>
-      <c r="I10" s="24"/>
-      <c r="J10" s="25" t="s">
-        <v>59</v>
-      </c>
-      <c r="K10" s="25"/>
-      <c r="L10" s="25"/>
-      <c r="M10" s="25"/>
-      <c r="N10" s="25"/>
-      <c r="O10" s="26"/>
-      <c r="P10" s="26"/>
-      <c r="Q10" s="25"/>
-      <c r="R10" s="25"/>
-      <c r="S10" s="25"/>
-      <c r="T10" s="25"/>
-      <c r="U10" s="25"/>
-      <c r="V10" s="26" t="s">
-        <v>74</v>
-      </c>
-      <c r="W10" s="26"/>
-      <c r="X10" s="25" t="s">
-        <v>75</v>
-      </c>
-      <c r="Y10" s="25"/>
-      <c r="Z10" s="25"/>
-      <c r="AA10" s="25"/>
-      <c r="AB10" s="25"/>
-    </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A11" s="24" t="s">
-        <v>269</v>
-      </c>
-      <c r="B11" s="24"/>
-      <c r="C11" s="25" t="s">
+      <c r="Y13" s="33"/>
+      <c r="Z13" s="33"/>
+      <c r="AA13" s="33"/>
+      <c r="AB13" s="33"/>
+    </row>
+    <row r="14" spans="1:30" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="32" t="s">
+        <v>278</v>
+      </c>
+      <c r="B14" s="32"/>
+      <c r="C14" s="35" t="s">
         <v>277</v>
       </c>
-      <c r="D11" s="25"/>
-      <c r="E11" s="25"/>
-      <c r="F11" s="25"/>
-      <c r="G11" s="25"/>
-      <c r="H11" s="24" t="s">
-        <v>60</v>
-      </c>
-      <c r="I11" s="24"/>
-      <c r="J11" s="25" t="s">
-        <v>61</v>
-      </c>
-      <c r="K11" s="25"/>
-      <c r="L11" s="25"/>
-      <c r="M11" s="25"/>
-      <c r="N11" s="25"/>
-      <c r="O11" s="26"/>
-      <c r="P11" s="26"/>
-      <c r="Q11" s="25"/>
-      <c r="R11" s="25"/>
-      <c r="S11" s="25"/>
-      <c r="T11" s="25"/>
-      <c r="U11" s="25"/>
-      <c r="V11" s="26" t="s">
-        <v>76</v>
-      </c>
-      <c r="W11" s="26"/>
-      <c r="X11" s="25" t="s">
-        <v>77</v>
-      </c>
-      <c r="Y11" s="25"/>
-      <c r="Z11" s="25"/>
-      <c r="AA11" s="25"/>
-      <c r="AB11" s="25"/>
-    </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A12" s="24" t="s">
-        <v>271</v>
-      </c>
-      <c r="B12" s="24"/>
-      <c r="C12" s="35" t="s">
-        <v>272</v>
-      </c>
-      <c r="D12" s="25"/>
-      <c r="E12" s="25"/>
-      <c r="F12" s="25"/>
-      <c r="G12" s="25"/>
-      <c r="H12" s="24" t="s">
-        <v>78</v>
-      </c>
-      <c r="I12" s="24"/>
-      <c r="J12" s="25" t="s">
-        <v>265</v>
-      </c>
-      <c r="K12" s="25"/>
-      <c r="L12" s="25"/>
-      <c r="M12" s="25"/>
-      <c r="N12" s="25"/>
-      <c r="O12" s="26"/>
-      <c r="P12" s="26"/>
-      <c r="Q12" s="25"/>
-      <c r="R12" s="25"/>
-      <c r="S12" s="25"/>
-      <c r="T12" s="25"/>
-      <c r="U12" s="25"/>
-      <c r="V12" s="26"/>
-      <c r="W12" s="26"/>
-      <c r="X12" s="25"/>
-      <c r="Y12" s="25"/>
-      <c r="Z12" s="25"/>
-      <c r="AA12" s="25"/>
-      <c r="AB12" s="25"/>
-    </row>
-    <row r="13" spans="1:30" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="24" t="s">
-        <v>276</v>
-      </c>
-      <c r="B13" s="24"/>
-      <c r="C13" s="35" t="s">
-        <v>275</v>
-      </c>
-      <c r="D13" s="25"/>
-      <c r="E13" s="25"/>
-      <c r="F13" s="25"/>
-      <c r="G13" s="25"/>
-      <c r="H13" s="24" t="s">
-        <v>47</v>
-      </c>
-      <c r="I13" s="24"/>
-      <c r="J13" s="25" t="s">
-        <v>48</v>
-      </c>
-      <c r="K13" s="25"/>
-      <c r="L13" s="25"/>
-      <c r="M13" s="25"/>
-      <c r="N13" s="25"/>
-      <c r="O13" s="26" t="s">
-        <v>203</v>
-      </c>
-      <c r="P13" s="26"/>
-      <c r="Q13" s="25" t="s">
-        <v>204</v>
-      </c>
-      <c r="R13" s="25"/>
-      <c r="S13" s="25"/>
-      <c r="T13" s="25"/>
-      <c r="U13" s="25"/>
-      <c r="V13" s="24" t="s">
-        <v>278</v>
-      </c>
-      <c r="W13" s="24"/>
-      <c r="X13" s="25" t="s">
-        <v>69</v>
-      </c>
-      <c r="Y13" s="25"/>
-      <c r="Z13" s="25"/>
-      <c r="AA13" s="25"/>
-      <c r="AB13" s="25"/>
-    </row>
-    <row r="14" spans="1:30" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="24" t="s">
+      <c r="D14" s="35"/>
+      <c r="E14" s="35"/>
+      <c r="F14" s="35"/>
+      <c r="G14" s="35"/>
+      <c r="H14" s="32"/>
+      <c r="I14" s="32"/>
+      <c r="J14" s="33"/>
+      <c r="K14" s="33"/>
+      <c r="L14" s="33"/>
+      <c r="M14" s="33"/>
+      <c r="N14" s="33"/>
+      <c r="O14" s="34"/>
+      <c r="P14" s="34"/>
+      <c r="Q14" s="33"/>
+      <c r="R14" s="33"/>
+      <c r="S14" s="33"/>
+      <c r="T14" s="33"/>
+      <c r="U14" s="33"/>
+      <c r="V14" s="34"/>
+      <c r="W14" s="34"/>
+      <c r="X14" s="33"/>
+      <c r="Y14" s="33"/>
+      <c r="Z14" s="33"/>
+      <c r="AA14" s="33"/>
+      <c r="AB14" s="33"/>
+    </row>
+    <row r="15" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A15" s="32" t="s">
+        <v>279</v>
+      </c>
+      <c r="B15" s="32"/>
+      <c r="C15" s="35" t="s">
         <v>280</v>
       </c>
-      <c r="B14" s="24"/>
-      <c r="C14" s="35" t="s">
-        <v>279</v>
-      </c>
-      <c r="D14" s="25"/>
-      <c r="E14" s="25"/>
-      <c r="F14" s="25"/>
-      <c r="G14" s="25"/>
-      <c r="J14" s="25"/>
-      <c r="K14" s="25"/>
-      <c r="L14" s="25"/>
-      <c r="M14" s="25"/>
-      <c r="N14" s="25"/>
-      <c r="O14" s="26"/>
-      <c r="P14" s="26"/>
-      <c r="Q14" s="25"/>
-      <c r="R14" s="25"/>
-      <c r="S14" s="25"/>
-      <c r="T14" s="25"/>
-      <c r="U14" s="25"/>
-      <c r="V14" s="26"/>
-      <c r="W14" s="26"/>
-      <c r="X14" s="25"/>
-      <c r="Y14" s="25"/>
-      <c r="Z14" s="25"/>
-      <c r="AA14" s="25"/>
-      <c r="AB14" s="25"/>
-    </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A15" s="24" t="s">
-        <v>281</v>
-      </c>
-      <c r="B15" s="24"/>
-      <c r="C15" s="34" t="s">
-        <v>282</v>
-      </c>
-      <c r="D15" s="25"/>
-      <c r="E15" s="25"/>
-      <c r="F15" s="25"/>
-      <c r="G15" s="25"/>
-      <c r="H15" s="24"/>
-      <c r="I15" s="24"/>
-      <c r="J15" s="25"/>
-      <c r="K15" s="25"/>
-      <c r="L15" s="25"/>
-      <c r="M15" s="25"/>
-      <c r="N15" s="25"/>
-      <c r="O15" s="26"/>
-      <c r="P15" s="26"/>
-      <c r="Q15" s="25"/>
-      <c r="R15" s="25"/>
-      <c r="S15" s="25"/>
-      <c r="T15" s="25"/>
-      <c r="U15" s="25"/>
-      <c r="V15" s="26"/>
-      <c r="W15" s="26"/>
-      <c r="X15" s="25"/>
-      <c r="Y15" s="25"/>
-      <c r="Z15" s="25"/>
-      <c r="AA15" s="25"/>
-      <c r="AB15" s="25"/>
+      <c r="D15" s="33"/>
+      <c r="E15" s="33"/>
+      <c r="F15" s="33"/>
+      <c r="G15" s="33"/>
+      <c r="H15" s="32"/>
+      <c r="I15" s="32"/>
+      <c r="J15" s="33"/>
+      <c r="K15" s="33"/>
+      <c r="L15" s="33"/>
+      <c r="M15" s="33"/>
+      <c r="N15" s="33"/>
+      <c r="O15" s="34"/>
+      <c r="P15" s="34"/>
+      <c r="Q15" s="33"/>
+      <c r="R15" s="33"/>
+      <c r="S15" s="33"/>
+      <c r="T15" s="33"/>
+      <c r="U15" s="33"/>
+      <c r="V15" s="34"/>
+      <c r="W15" s="34"/>
+      <c r="X15" s="33"/>
+      <c r="Y15" s="33"/>
+      <c r="Z15" s="33"/>
+      <c r="AA15" s="33"/>
+      <c r="AB15" s="33"/>
     </row>
     <row r="16" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A16" s="24"/>
-      <c r="B16" s="24"/>
-      <c r="C16" s="25"/>
-      <c r="D16" s="25"/>
-      <c r="E16" s="25"/>
-      <c r="F16" s="25"/>
-      <c r="G16" s="25"/>
-      <c r="H16" s="24"/>
-      <c r="I16" s="24"/>
-      <c r="J16" s="25"/>
-      <c r="K16" s="25"/>
-      <c r="L16" s="25"/>
-      <c r="M16" s="25"/>
-      <c r="N16" s="25"/>
-      <c r="O16" s="26"/>
-      <c r="P16" s="26"/>
-      <c r="Q16" s="25"/>
-      <c r="R16" s="25"/>
-      <c r="S16" s="25"/>
-      <c r="T16" s="25"/>
-      <c r="U16" s="25"/>
-      <c r="V16" s="26"/>
-      <c r="W16" s="26"/>
-      <c r="X16" s="25"/>
-      <c r="Y16" s="25"/>
-      <c r="Z16" s="25"/>
-      <c r="AA16" s="25"/>
-      <c r="AB16" s="25"/>
+      <c r="A16" s="32"/>
+      <c r="B16" s="32"/>
+      <c r="C16" s="33"/>
+      <c r="D16" s="33"/>
+      <c r="E16" s="33"/>
+      <c r="F16" s="33"/>
+      <c r="G16" s="33"/>
+      <c r="H16" s="32"/>
+      <c r="I16" s="32"/>
+      <c r="J16" s="33"/>
+      <c r="K16" s="33"/>
+      <c r="L16" s="33"/>
+      <c r="M16" s="33"/>
+      <c r="N16" s="33"/>
+      <c r="O16" s="34"/>
+      <c r="P16" s="34"/>
+      <c r="Q16" s="33"/>
+      <c r="R16" s="33"/>
+      <c r="S16" s="33"/>
+      <c r="T16" s="33"/>
+      <c r="U16" s="33"/>
+      <c r="V16" s="34"/>
+      <c r="W16" s="34"/>
+      <c r="X16" s="33"/>
+      <c r="Y16" s="33"/>
+      <c r="Z16" s="33"/>
+      <c r="AA16" s="33"/>
+      <c r="AB16" s="33"/>
     </row>
     <row r="17" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A17" s="24"/>
-      <c r="B17" s="24"/>
-      <c r="C17" s="25"/>
-      <c r="D17" s="25"/>
-      <c r="E17" s="25"/>
-      <c r="F17" s="25"/>
-      <c r="G17" s="25"/>
-      <c r="H17" s="24"/>
-      <c r="I17" s="24"/>
-      <c r="J17" s="25"/>
-      <c r="K17" s="25"/>
-      <c r="L17" s="25"/>
-      <c r="M17" s="25"/>
-      <c r="N17" s="25"/>
-      <c r="O17" s="26"/>
-      <c r="P17" s="26"/>
-      <c r="Q17" s="25"/>
-      <c r="R17" s="25"/>
-      <c r="S17" s="25"/>
-      <c r="T17" s="25"/>
-      <c r="U17" s="25"/>
-      <c r="V17" s="26"/>
-      <c r="W17" s="26"/>
-      <c r="X17" s="25"/>
-      <c r="Y17" s="25"/>
-      <c r="Z17" s="25"/>
-      <c r="AA17" s="25"/>
-      <c r="AB17" s="25"/>
+      <c r="A17" s="32"/>
+      <c r="B17" s="32"/>
+      <c r="C17" s="33"/>
+      <c r="D17" s="33"/>
+      <c r="E17" s="33"/>
+      <c r="F17" s="33"/>
+      <c r="G17" s="33"/>
+      <c r="H17" s="32"/>
+      <c r="I17" s="32"/>
+      <c r="J17" s="33"/>
+      <c r="K17" s="33"/>
+      <c r="L17" s="33"/>
+      <c r="M17" s="33"/>
+      <c r="N17" s="33"/>
+      <c r="O17" s="34"/>
+      <c r="P17" s="34"/>
+      <c r="Q17" s="33"/>
+      <c r="R17" s="33"/>
+      <c r="S17" s="33"/>
+      <c r="T17" s="33"/>
+      <c r="U17" s="33"/>
+      <c r="V17" s="34"/>
+      <c r="W17" s="34"/>
+      <c r="X17" s="33"/>
+      <c r="Y17" s="33"/>
+      <c r="Z17" s="33"/>
+      <c r="AA17" s="33"/>
+      <c r="AB17" s="33"/>
     </row>
     <row r="18" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A18" s="24"/>
-      <c r="B18" s="24"/>
-      <c r="C18" s="25"/>
-      <c r="D18" s="25"/>
-      <c r="E18" s="25"/>
-      <c r="F18" s="25"/>
-      <c r="G18" s="25"/>
-      <c r="H18" s="24"/>
-      <c r="I18" s="24"/>
-      <c r="J18" s="25"/>
-      <c r="K18" s="25"/>
-      <c r="L18" s="25"/>
-      <c r="M18" s="25"/>
-      <c r="N18" s="25"/>
-      <c r="O18" s="26"/>
-      <c r="P18" s="26"/>
-      <c r="Q18" s="25"/>
-      <c r="R18" s="25"/>
-      <c r="S18" s="25"/>
-      <c r="T18" s="25"/>
-      <c r="U18" s="25"/>
-      <c r="V18" s="26"/>
-      <c r="W18" s="26"/>
-      <c r="X18" s="25"/>
-      <c r="Y18" s="25"/>
-      <c r="Z18" s="25"/>
-      <c r="AA18" s="25"/>
-      <c r="AB18" s="25"/>
+      <c r="A18" s="32"/>
+      <c r="B18" s="32"/>
+      <c r="C18" s="33"/>
+      <c r="D18" s="33"/>
+      <c r="E18" s="33"/>
+      <c r="F18" s="33"/>
+      <c r="G18" s="33"/>
+      <c r="H18" s="32"/>
+      <c r="I18" s="32"/>
+      <c r="J18" s="33"/>
+      <c r="K18" s="33"/>
+      <c r="L18" s="33"/>
+      <c r="M18" s="33"/>
+      <c r="N18" s="33"/>
+      <c r="O18" s="34"/>
+      <c r="P18" s="34"/>
+      <c r="Q18" s="33"/>
+      <c r="R18" s="33"/>
+      <c r="S18" s="33"/>
+      <c r="T18" s="33"/>
+      <c r="U18" s="33"/>
+      <c r="V18" s="34"/>
+      <c r="W18" s="34"/>
+      <c r="X18" s="33"/>
+      <c r="Y18" s="33"/>
+      <c r="Z18" s="33"/>
+      <c r="AA18" s="33"/>
+      <c r="AB18" s="33"/>
     </row>
     <row r="19" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A19" s="24"/>
-      <c r="B19" s="24"/>
-      <c r="C19" s="25"/>
-      <c r="D19" s="25"/>
-      <c r="E19" s="25"/>
-      <c r="F19" s="25"/>
-      <c r="G19" s="25"/>
-      <c r="H19" s="24"/>
-      <c r="I19" s="24"/>
-      <c r="J19" s="25"/>
-      <c r="K19" s="25"/>
-      <c r="L19" s="25"/>
-      <c r="M19" s="25"/>
-      <c r="N19" s="25"/>
-      <c r="O19" s="26"/>
-      <c r="P19" s="26"/>
-      <c r="Q19" s="25"/>
-      <c r="R19" s="25"/>
-      <c r="S19" s="25"/>
-      <c r="T19" s="25"/>
-      <c r="U19" s="25"/>
-      <c r="V19" s="26"/>
-      <c r="W19" s="26"/>
-      <c r="X19" s="25"/>
-      <c r="Y19" s="25"/>
-      <c r="Z19" s="25"/>
-      <c r="AA19" s="25"/>
-      <c r="AB19" s="25"/>
+      <c r="A19" s="32"/>
+      <c r="B19" s="32"/>
+      <c r="C19" s="33"/>
+      <c r="D19" s="33"/>
+      <c r="E19" s="33"/>
+      <c r="F19" s="33"/>
+      <c r="G19" s="33"/>
+      <c r="H19" s="32"/>
+      <c r="I19" s="32"/>
+      <c r="J19" s="33"/>
+      <c r="K19" s="33"/>
+      <c r="L19" s="33"/>
+      <c r="M19" s="33"/>
+      <c r="N19" s="33"/>
+      <c r="O19" s="34"/>
+      <c r="P19" s="34"/>
+      <c r="Q19" s="33"/>
+      <c r="R19" s="33"/>
+      <c r="S19" s="33"/>
+      <c r="T19" s="33"/>
+      <c r="U19" s="33"/>
+      <c r="V19" s="34"/>
+      <c r="W19" s="34"/>
+      <c r="X19" s="33"/>
+      <c r="Y19" s="33"/>
+      <c r="Z19" s="33"/>
+      <c r="AA19" s="33"/>
+      <c r="AB19" s="33"/>
     </row>
     <row r="20" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A20" s="24"/>
-      <c r="B20" s="24"/>
-      <c r="C20" s="25"/>
-      <c r="D20" s="25"/>
-      <c r="E20" s="25"/>
-      <c r="F20" s="25"/>
-      <c r="G20" s="25"/>
-      <c r="H20" s="24"/>
-      <c r="I20" s="24"/>
-      <c r="J20" s="25"/>
-      <c r="K20" s="25"/>
-      <c r="L20" s="25"/>
-      <c r="M20" s="25"/>
-      <c r="N20" s="25"/>
-      <c r="O20" s="26"/>
-      <c r="P20" s="26"/>
-      <c r="Q20" s="25"/>
-      <c r="R20" s="25"/>
-      <c r="S20" s="25"/>
-      <c r="T20" s="25"/>
-      <c r="U20" s="25"/>
-      <c r="V20" s="26"/>
-      <c r="W20" s="26"/>
-      <c r="X20" s="25"/>
-      <c r="Y20" s="25"/>
-      <c r="Z20" s="25"/>
-      <c r="AA20" s="25"/>
-      <c r="AB20" s="25"/>
+      <c r="A20" s="32"/>
+      <c r="B20" s="32"/>
+      <c r="C20" s="33"/>
+      <c r="D20" s="33"/>
+      <c r="E20" s="33"/>
+      <c r="F20" s="33"/>
+      <c r="G20" s="33"/>
+      <c r="H20" s="32"/>
+      <c r="I20" s="32"/>
+      <c r="J20" s="33"/>
+      <c r="K20" s="33"/>
+      <c r="L20" s="33"/>
+      <c r="M20" s="33"/>
+      <c r="N20" s="33"/>
+      <c r="O20" s="34"/>
+      <c r="P20" s="34"/>
+      <c r="Q20" s="33"/>
+      <c r="R20" s="33"/>
+      <c r="S20" s="33"/>
+      <c r="T20" s="33"/>
+      <c r="U20" s="33"/>
+      <c r="V20" s="34"/>
+      <c r="W20" s="34"/>
+      <c r="X20" s="33"/>
+      <c r="Y20" s="33"/>
+      <c r="Z20" s="33"/>
+      <c r="AA20" s="33"/>
+      <c r="AB20" s="33"/>
     </row>
     <row r="21" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A21" s="24"/>
-      <c r="B21" s="24"/>
-      <c r="C21" s="25"/>
-      <c r="D21" s="25"/>
-      <c r="E21" s="25"/>
-      <c r="F21" s="25"/>
-      <c r="G21" s="25"/>
-      <c r="H21" s="24"/>
-      <c r="I21" s="24"/>
-      <c r="J21" s="25"/>
-      <c r="K21" s="25"/>
-      <c r="L21" s="25"/>
-      <c r="M21" s="25"/>
-      <c r="N21" s="25"/>
-      <c r="O21" s="26"/>
-      <c r="P21" s="26"/>
-      <c r="Q21" s="25"/>
-      <c r="R21" s="25"/>
-      <c r="S21" s="25"/>
-      <c r="T21" s="25"/>
-      <c r="U21" s="25"/>
-      <c r="V21" s="26"/>
-      <c r="W21" s="26"/>
-      <c r="X21" s="25"/>
-      <c r="Y21" s="25"/>
-      <c r="Z21" s="25"/>
-      <c r="AA21" s="25"/>
-      <c r="AB21" s="25"/>
+      <c r="A21" s="32"/>
+      <c r="B21" s="32"/>
+      <c r="C21" s="33"/>
+      <c r="D21" s="33"/>
+      <c r="E21" s="33"/>
+      <c r="F21" s="33"/>
+      <c r="G21" s="33"/>
+      <c r="H21" s="32"/>
+      <c r="I21" s="32"/>
+      <c r="J21" s="33"/>
+      <c r="K21" s="33"/>
+      <c r="L21" s="33"/>
+      <c r="M21" s="33"/>
+      <c r="N21" s="33"/>
+      <c r="O21" s="34"/>
+      <c r="P21" s="34"/>
+      <c r="Q21" s="33"/>
+      <c r="R21" s="33"/>
+      <c r="S21" s="33"/>
+      <c r="T21" s="33"/>
+      <c r="U21" s="33"/>
+      <c r="V21" s="34"/>
+      <c r="W21" s="34"/>
+      <c r="X21" s="33"/>
+      <c r="Y21" s="33"/>
+      <c r="Z21" s="33"/>
+      <c r="AA21" s="33"/>
+      <c r="AB21" s="33"/>
     </row>
     <row r="22" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A22" s="24"/>
-      <c r="B22" s="24"/>
-      <c r="C22" s="25"/>
-      <c r="D22" s="25"/>
-      <c r="E22" s="25"/>
-      <c r="F22" s="25"/>
-      <c r="G22" s="25"/>
-      <c r="H22" s="24"/>
-      <c r="I22" s="24"/>
-      <c r="J22" s="25"/>
-      <c r="K22" s="25"/>
-      <c r="L22" s="25"/>
-      <c r="M22" s="25"/>
-      <c r="N22" s="25"/>
-      <c r="O22" s="26"/>
-      <c r="P22" s="26"/>
-      <c r="Q22" s="25"/>
-      <c r="R22" s="25"/>
-      <c r="S22" s="25"/>
-      <c r="T22" s="25"/>
-      <c r="U22" s="25"/>
-      <c r="V22" s="26"/>
-      <c r="W22" s="26"/>
-      <c r="X22" s="25"/>
-      <c r="Y22" s="25"/>
-      <c r="Z22" s="25"/>
-      <c r="AA22" s="25"/>
-      <c r="AB22" s="25"/>
+      <c r="A22" s="32"/>
+      <c r="B22" s="32"/>
+      <c r="C22" s="33"/>
+      <c r="D22" s="33"/>
+      <c r="E22" s="33"/>
+      <c r="F22" s="33"/>
+      <c r="G22" s="33"/>
+      <c r="H22" s="32"/>
+      <c r="I22" s="32"/>
+      <c r="J22" s="33"/>
+      <c r="K22" s="33"/>
+      <c r="L22" s="33"/>
+      <c r="M22" s="33"/>
+      <c r="N22" s="33"/>
+      <c r="O22" s="34"/>
+      <c r="P22" s="34"/>
+      <c r="Q22" s="33"/>
+      <c r="R22" s="33"/>
+      <c r="S22" s="33"/>
+      <c r="T22" s="33"/>
+      <c r="U22" s="33"/>
+      <c r="V22" s="34"/>
+      <c r="W22" s="34"/>
+      <c r="X22" s="33"/>
+      <c r="Y22" s="33"/>
+      <c r="Z22" s="33"/>
+      <c r="AA22" s="33"/>
+      <c r="AB22" s="33"/>
     </row>
     <row r="23" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A23" s="24"/>
-      <c r="B23" s="24"/>
-      <c r="C23" s="25"/>
-      <c r="D23" s="25"/>
-      <c r="E23" s="25"/>
-      <c r="F23" s="25"/>
-      <c r="G23" s="25"/>
-      <c r="H23" s="24"/>
-      <c r="I23" s="24"/>
-      <c r="J23" s="25"/>
-      <c r="K23" s="25"/>
-      <c r="L23" s="25"/>
-      <c r="M23" s="25"/>
-      <c r="N23" s="25"/>
-      <c r="O23" s="26"/>
-      <c r="P23" s="26"/>
-      <c r="Q23" s="25"/>
-      <c r="R23" s="25"/>
-      <c r="S23" s="25"/>
-      <c r="T23" s="25"/>
-      <c r="U23" s="25"/>
+      <c r="A23" s="32"/>
+      <c r="B23" s="32"/>
+      <c r="C23" s="33"/>
+      <c r="D23" s="33"/>
+      <c r="E23" s="33"/>
+      <c r="F23" s="33"/>
+      <c r="G23" s="33"/>
+      <c r="H23" s="32"/>
+      <c r="I23" s="32"/>
+      <c r="J23" s="33"/>
+      <c r="K23" s="33"/>
+      <c r="L23" s="33"/>
+      <c r="M23" s="33"/>
+      <c r="N23" s="33"/>
+      <c r="O23" s="34"/>
+      <c r="P23" s="34"/>
+      <c r="Q23" s="33"/>
+      <c r="R23" s="33"/>
+      <c r="S23" s="33"/>
+      <c r="T23" s="33"/>
+      <c r="U23" s="33"/>
     </row>
     <row r="24" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A24" s="24"/>
-      <c r="B24" s="24"/>
-      <c r="C24" s="25"/>
-      <c r="D24" s="25"/>
-      <c r="E24" s="25"/>
-      <c r="F24" s="25"/>
-      <c r="G24" s="25"/>
-      <c r="H24" s="24"/>
-      <c r="I24" s="24"/>
-      <c r="J24" s="25"/>
-      <c r="K24" s="25"/>
-      <c r="L24" s="25"/>
-      <c r="M24" s="25"/>
-      <c r="N24" s="25"/>
-      <c r="O24" s="26"/>
-      <c r="P24" s="26"/>
-      <c r="Q24" s="25"/>
-      <c r="R24" s="25"/>
-      <c r="S24" s="25"/>
-      <c r="T24" s="25"/>
-      <c r="U24" s="25"/>
+      <c r="A24" s="32"/>
+      <c r="B24" s="32"/>
+      <c r="C24" s="33"/>
+      <c r="D24" s="33"/>
+      <c r="E24" s="33"/>
+      <c r="F24" s="33"/>
+      <c r="G24" s="33"/>
+      <c r="H24" s="32"/>
+      <c r="I24" s="32"/>
+      <c r="J24" s="33"/>
+      <c r="K24" s="33"/>
+      <c r="L24" s="33"/>
+      <c r="M24" s="33"/>
+      <c r="N24" s="33"/>
+      <c r="O24" s="34"/>
+      <c r="P24" s="34"/>
+      <c r="Q24" s="33"/>
+      <c r="R24" s="33"/>
+      <c r="S24" s="33"/>
+      <c r="T24" s="33"/>
+      <c r="U24" s="33"/>
     </row>
     <row r="25" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A25" s="24"/>
-      <c r="B25" s="24"/>
-      <c r="C25" s="25"/>
-      <c r="D25" s="25"/>
-      <c r="E25" s="25"/>
-      <c r="F25" s="25"/>
-      <c r="G25" s="25"/>
-      <c r="H25" s="24"/>
-      <c r="I25" s="24"/>
-      <c r="J25" s="25"/>
-      <c r="K25" s="25"/>
-      <c r="L25" s="25"/>
-      <c r="M25" s="25"/>
-      <c r="N25" s="25"/>
-      <c r="O25" s="26"/>
-      <c r="P25" s="26"/>
-      <c r="Q25" s="25"/>
-      <c r="R25" s="25"/>
-      <c r="S25" s="25"/>
-      <c r="T25" s="25"/>
-      <c r="U25" s="25"/>
+      <c r="A25" s="32"/>
+      <c r="B25" s="32"/>
+      <c r="C25" s="33"/>
+      <c r="D25" s="33"/>
+      <c r="E25" s="33"/>
+      <c r="F25" s="33"/>
+      <c r="G25" s="33"/>
+      <c r="H25" s="32"/>
+      <c r="I25" s="32"/>
+      <c r="J25" s="33"/>
+      <c r="K25" s="33"/>
+      <c r="L25" s="33"/>
+      <c r="M25" s="33"/>
+      <c r="N25" s="33"/>
+      <c r="O25" s="34"/>
+      <c r="P25" s="34"/>
+      <c r="Q25" s="33"/>
+      <c r="R25" s="33"/>
+      <c r="S25" s="33"/>
+      <c r="T25" s="33"/>
+      <c r="U25" s="33"/>
     </row>
     <row r="26" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A26" s="24"/>
-      <c r="B26" s="24"/>
-      <c r="C26" s="25"/>
-      <c r="D26" s="25"/>
-      <c r="E26" s="25"/>
-      <c r="F26" s="25"/>
-      <c r="G26" s="25"/>
-      <c r="H26" s="24"/>
-      <c r="I26" s="24"/>
-      <c r="J26" s="25"/>
-      <c r="K26" s="25"/>
-      <c r="L26" s="25"/>
-      <c r="M26" s="25"/>
-      <c r="N26" s="25"/>
-      <c r="O26" s="26"/>
-      <c r="P26" s="26"/>
-      <c r="Q26" s="25"/>
-      <c r="R26" s="25"/>
-      <c r="S26" s="25"/>
-      <c r="T26" s="25"/>
-      <c r="U26" s="25"/>
+      <c r="A26" s="32"/>
+      <c r="B26" s="32"/>
+      <c r="C26" s="33"/>
+      <c r="D26" s="33"/>
+      <c r="E26" s="33"/>
+      <c r="F26" s="33"/>
+      <c r="G26" s="33"/>
+      <c r="H26" s="32"/>
+      <c r="I26" s="32"/>
+      <c r="J26" s="33"/>
+      <c r="K26" s="33"/>
+      <c r="L26" s="33"/>
+      <c r="M26" s="33"/>
+      <c r="N26" s="33"/>
+      <c r="O26" s="34"/>
+      <c r="P26" s="34"/>
+      <c r="Q26" s="33"/>
+      <c r="R26" s="33"/>
+      <c r="S26" s="33"/>
+      <c r="T26" s="33"/>
+      <c r="U26" s="33"/>
     </row>
     <row r="27" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A27" s="24"/>
-      <c r="B27" s="24"/>
-      <c r="C27" s="25"/>
-      <c r="D27" s="25"/>
-      <c r="E27" s="25"/>
-      <c r="F27" s="25"/>
-      <c r="G27" s="25"/>
-      <c r="H27" s="24"/>
-      <c r="I27" s="24"/>
-      <c r="J27" s="25"/>
-      <c r="K27" s="25"/>
-      <c r="L27" s="25"/>
-      <c r="M27" s="25"/>
-      <c r="N27" s="25"/>
-      <c r="O27" s="26"/>
-      <c r="P27" s="26"/>
-      <c r="Q27" s="25"/>
-      <c r="R27" s="25"/>
-      <c r="S27" s="25"/>
-      <c r="T27" s="25"/>
-      <c r="U27" s="25"/>
+      <c r="A27" s="32"/>
+      <c r="B27" s="32"/>
+      <c r="C27" s="33"/>
+      <c r="D27" s="33"/>
+      <c r="E27" s="33"/>
+      <c r="F27" s="33"/>
+      <c r="G27" s="33"/>
+      <c r="H27" s="32"/>
+      <c r="I27" s="32"/>
+      <c r="J27" s="33"/>
+      <c r="K27" s="33"/>
+      <c r="L27" s="33"/>
+      <c r="M27" s="33"/>
+      <c r="N27" s="33"/>
+      <c r="O27" s="34"/>
+      <c r="P27" s="34"/>
+      <c r="Q27" s="33"/>
+      <c r="R27" s="33"/>
+      <c r="S27" s="33"/>
+      <c r="T27" s="33"/>
+      <c r="U27" s="33"/>
     </row>
     <row r="28" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A28" s="24"/>
-      <c r="B28" s="24"/>
-      <c r="C28" s="25"/>
-      <c r="D28" s="25"/>
-      <c r="E28" s="25"/>
-      <c r="F28" s="25"/>
-      <c r="G28" s="25"/>
-      <c r="H28" s="24"/>
-      <c r="I28" s="24"/>
-      <c r="J28" s="25"/>
-      <c r="K28" s="25"/>
-      <c r="L28" s="25"/>
-      <c r="M28" s="25"/>
-      <c r="N28" s="25"/>
-      <c r="O28" s="26"/>
-      <c r="P28" s="26"/>
-      <c r="Q28" s="25"/>
-      <c r="R28" s="25"/>
-      <c r="S28" s="25"/>
-      <c r="T28" s="25"/>
-      <c r="U28" s="25"/>
+      <c r="A28" s="32"/>
+      <c r="B28" s="32"/>
+      <c r="C28" s="33"/>
+      <c r="D28" s="33"/>
+      <c r="E28" s="33"/>
+      <c r="F28" s="33"/>
+      <c r="G28" s="33"/>
+      <c r="H28" s="32"/>
+      <c r="I28" s="32"/>
+      <c r="J28" s="33"/>
+      <c r="K28" s="33"/>
+      <c r="L28" s="33"/>
+      <c r="M28" s="33"/>
+      <c r="N28" s="33"/>
+      <c r="O28" s="34"/>
+      <c r="P28" s="34"/>
+      <c r="Q28" s="33"/>
+      <c r="R28" s="33"/>
+      <c r="S28" s="33"/>
+      <c r="T28" s="33"/>
+      <c r="U28" s="33"/>
     </row>
     <row r="29" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A29" s="24"/>
-      <c r="B29" s="24"/>
-      <c r="C29" s="25"/>
-      <c r="D29" s="25"/>
-      <c r="E29" s="25"/>
-      <c r="F29" s="25"/>
-      <c r="G29" s="25"/>
-      <c r="H29" s="24"/>
-      <c r="I29" s="24"/>
-      <c r="J29" s="25"/>
-      <c r="K29" s="25"/>
-      <c r="L29" s="25"/>
-      <c r="M29" s="25"/>
-      <c r="N29" s="25"/>
-      <c r="O29" s="26"/>
-      <c r="P29" s="26"/>
-      <c r="Q29" s="25"/>
-      <c r="R29" s="25"/>
-      <c r="S29" s="25"/>
-      <c r="T29" s="25"/>
-      <c r="U29" s="25"/>
+      <c r="A29" s="32"/>
+      <c r="B29" s="32"/>
+      <c r="C29" s="33"/>
+      <c r="D29" s="33"/>
+      <c r="E29" s="33"/>
+      <c r="F29" s="33"/>
+      <c r="G29" s="33"/>
+      <c r="H29" s="32"/>
+      <c r="I29" s="32"/>
+      <c r="J29" s="33"/>
+      <c r="K29" s="33"/>
+      <c r="L29" s="33"/>
+      <c r="M29" s="33"/>
+      <c r="N29" s="33"/>
+      <c r="O29" s="34"/>
+      <c r="P29" s="34"/>
+      <c r="Q29" s="33"/>
+      <c r="R29" s="33"/>
+      <c r="S29" s="33"/>
+      <c r="T29" s="33"/>
+      <c r="U29" s="33"/>
     </row>
     <row r="30" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A30" s="24"/>
-      <c r="B30" s="24"/>
-      <c r="C30" s="25"/>
-      <c r="D30" s="25"/>
-      <c r="E30" s="25"/>
-      <c r="F30" s="25"/>
-      <c r="G30" s="25"/>
-      <c r="H30" s="24"/>
-      <c r="I30" s="24"/>
-      <c r="J30" s="25"/>
-      <c r="K30" s="25"/>
-      <c r="L30" s="25"/>
-      <c r="M30" s="25"/>
-      <c r="N30" s="25"/>
-      <c r="O30" s="26"/>
-      <c r="P30" s="26"/>
-      <c r="Q30" s="25"/>
-      <c r="R30" s="25"/>
-      <c r="S30" s="25"/>
-      <c r="T30" s="25"/>
-      <c r="U30" s="25"/>
+      <c r="A30" s="32"/>
+      <c r="B30" s="32"/>
+      <c r="C30" s="33"/>
+      <c r="D30" s="33"/>
+      <c r="E30" s="33"/>
+      <c r="F30" s="33"/>
+      <c r="G30" s="33"/>
+      <c r="H30" s="32"/>
+      <c r="I30" s="32"/>
+      <c r="J30" s="33"/>
+      <c r="K30" s="33"/>
+      <c r="L30" s="33"/>
+      <c r="M30" s="33"/>
+      <c r="N30" s="33"/>
+      <c r="O30" s="34"/>
+      <c r="P30" s="34"/>
+      <c r="Q30" s="33"/>
+      <c r="R30" s="33"/>
+      <c r="S30" s="33"/>
+      <c r="T30" s="33"/>
+      <c r="U30" s="33"/>
     </row>
     <row r="31" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A31" s="24"/>
-      <c r="B31" s="24"/>
-      <c r="C31" s="25"/>
-      <c r="D31" s="25"/>
-      <c r="E31" s="25"/>
-      <c r="F31" s="25"/>
-      <c r="G31" s="25"/>
-      <c r="H31" s="24"/>
-      <c r="I31" s="24"/>
-      <c r="J31" s="25"/>
-      <c r="K31" s="25"/>
-      <c r="L31" s="25"/>
-      <c r="M31" s="25"/>
-      <c r="N31" s="25"/>
-      <c r="O31" s="26"/>
-      <c r="P31" s="26"/>
-      <c r="Q31" s="25"/>
-      <c r="R31" s="25"/>
-      <c r="S31" s="25"/>
-      <c r="T31" s="25"/>
-      <c r="U31" s="25"/>
+      <c r="A31" s="32"/>
+      <c r="B31" s="32"/>
+      <c r="C31" s="33"/>
+      <c r="D31" s="33"/>
+      <c r="E31" s="33"/>
+      <c r="F31" s="33"/>
+      <c r="G31" s="33"/>
+      <c r="H31" s="32"/>
+      <c r="I31" s="32"/>
+      <c r="J31" s="33"/>
+      <c r="K31" s="33"/>
+      <c r="L31" s="33"/>
+      <c r="M31" s="33"/>
+      <c r="N31" s="33"/>
+      <c r="O31" s="34"/>
+      <c r="P31" s="34"/>
+      <c r="Q31" s="33"/>
+      <c r="R31" s="33"/>
+      <c r="S31" s="33"/>
+      <c r="T31" s="33"/>
+      <c r="U31" s="33"/>
     </row>
     <row r="32" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A32" s="24"/>
-      <c r="B32" s="24"/>
-      <c r="C32" s="25"/>
-      <c r="D32" s="25"/>
-      <c r="E32" s="25"/>
-      <c r="F32" s="25"/>
-      <c r="G32" s="25"/>
-      <c r="H32" s="24"/>
-      <c r="I32" s="24"/>
-      <c r="J32" s="25"/>
-      <c r="K32" s="25"/>
-      <c r="L32" s="25"/>
-      <c r="M32" s="25"/>
-      <c r="N32" s="25"/>
-      <c r="O32" s="26"/>
-      <c r="P32" s="26"/>
-      <c r="Q32" s="25"/>
-      <c r="R32" s="25"/>
-      <c r="S32" s="25"/>
-      <c r="T32" s="25"/>
-      <c r="U32" s="25"/>
+      <c r="A32" s="32"/>
+      <c r="B32" s="32"/>
+      <c r="C32" s="33"/>
+      <c r="D32" s="33"/>
+      <c r="E32" s="33"/>
+      <c r="F32" s="33"/>
+      <c r="G32" s="33"/>
+      <c r="H32" s="32"/>
+      <c r="I32" s="32"/>
+      <c r="J32" s="33"/>
+      <c r="K32" s="33"/>
+      <c r="L32" s="33"/>
+      <c r="M32" s="33"/>
+      <c r="N32" s="33"/>
+      <c r="O32" s="34"/>
+      <c r="P32" s="34"/>
+      <c r="Q32" s="33"/>
+      <c r="R32" s="33"/>
+      <c r="S32" s="33"/>
+      <c r="T32" s="33"/>
+      <c r="U32" s="33"/>
     </row>
     <row r="33" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A33" s="24"/>
-      <c r="B33" s="24"/>
-      <c r="C33" s="25"/>
-      <c r="D33" s="25"/>
-      <c r="E33" s="25"/>
-      <c r="F33" s="25"/>
-      <c r="G33" s="25"/>
-      <c r="H33" s="24"/>
-      <c r="I33" s="24"/>
-      <c r="J33" s="25"/>
-      <c r="K33" s="25"/>
-      <c r="L33" s="25"/>
-      <c r="M33" s="25"/>
-      <c r="N33" s="25"/>
-      <c r="O33" s="24"/>
-      <c r="P33" s="24"/>
-      <c r="Q33" s="25"/>
-      <c r="R33" s="25"/>
-      <c r="S33" s="25"/>
-      <c r="T33" s="25"/>
-      <c r="U33" s="25"/>
+      <c r="A33" s="32"/>
+      <c r="B33" s="32"/>
+      <c r="C33" s="33"/>
+      <c r="D33" s="33"/>
+      <c r="E33" s="33"/>
+      <c r="F33" s="33"/>
+      <c r="G33" s="33"/>
+      <c r="H33" s="32"/>
+      <c r="I33" s="32"/>
+      <c r="J33" s="33"/>
+      <c r="K33" s="33"/>
+      <c r="L33" s="33"/>
+      <c r="M33" s="33"/>
+      <c r="N33" s="33"/>
+      <c r="O33" s="32"/>
+      <c r="P33" s="32"/>
+      <c r="Q33" s="33"/>
+      <c r="R33" s="33"/>
+      <c r="S33" s="33"/>
+      <c r="T33" s="33"/>
+      <c r="U33" s="33"/>
     </row>
     <row r="34" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A34" s="24"/>
-      <c r="B34" s="24"/>
-      <c r="C34" s="25"/>
-      <c r="D34" s="25"/>
-      <c r="E34" s="25"/>
-      <c r="F34" s="25"/>
-      <c r="G34" s="25"/>
-      <c r="H34" s="24"/>
-      <c r="I34" s="24"/>
-      <c r="J34" s="25"/>
-      <c r="K34" s="25"/>
-      <c r="L34" s="25"/>
-      <c r="M34" s="25"/>
-      <c r="N34" s="25"/>
-      <c r="O34" s="24"/>
-      <c r="P34" s="24"/>
-      <c r="Q34" s="25"/>
-      <c r="R34" s="25"/>
-      <c r="S34" s="25"/>
-      <c r="T34" s="25"/>
-      <c r="U34" s="25"/>
+      <c r="A34" s="32"/>
+      <c r="B34" s="32"/>
+      <c r="C34" s="33"/>
+      <c r="D34" s="33"/>
+      <c r="E34" s="33"/>
+      <c r="F34" s="33"/>
+      <c r="G34" s="33"/>
+      <c r="H34" s="32"/>
+      <c r="I34" s="32"/>
+      <c r="J34" s="33"/>
+      <c r="K34" s="33"/>
+      <c r="L34" s="33"/>
+      <c r="M34" s="33"/>
+      <c r="N34" s="33"/>
+      <c r="O34" s="32"/>
+      <c r="P34" s="32"/>
+      <c r="Q34" s="33"/>
+      <c r="R34" s="33"/>
+      <c r="S34" s="33"/>
+      <c r="T34" s="33"/>
+      <c r="U34" s="33"/>
     </row>
   </sheetData>
-  <mergeCells count="235">
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="C34:G34"/>
-    <mergeCell ref="H34:I34"/>
-    <mergeCell ref="J34:N34"/>
-    <mergeCell ref="O34:P34"/>
-    <mergeCell ref="Q34:U34"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="C33:G33"/>
-    <mergeCell ref="H33:I33"/>
-    <mergeCell ref="J33:N33"/>
-    <mergeCell ref="O33:P33"/>
-    <mergeCell ref="Q33:U33"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="C32:G32"/>
-    <mergeCell ref="H32:I32"/>
-    <mergeCell ref="J32:N32"/>
-    <mergeCell ref="O32:P32"/>
-    <mergeCell ref="Q32:U32"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="C31:G31"/>
-    <mergeCell ref="H31:I31"/>
-    <mergeCell ref="J31:N31"/>
-    <mergeCell ref="O31:P31"/>
-    <mergeCell ref="Q31:U31"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="C30:G30"/>
-    <mergeCell ref="H30:I30"/>
-    <mergeCell ref="J30:N30"/>
-    <mergeCell ref="O30:P30"/>
-    <mergeCell ref="Q30:U30"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="C29:G29"/>
-    <mergeCell ref="H29:I29"/>
-    <mergeCell ref="J29:N29"/>
-    <mergeCell ref="O29:P29"/>
-    <mergeCell ref="Q29:U29"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="C28:G28"/>
-    <mergeCell ref="H28:I28"/>
-    <mergeCell ref="J28:N28"/>
-    <mergeCell ref="O28:P28"/>
-    <mergeCell ref="Q28:U28"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="C27:G27"/>
-    <mergeCell ref="H27:I27"/>
-    <mergeCell ref="J27:N27"/>
-    <mergeCell ref="O27:P27"/>
-    <mergeCell ref="Q27:U27"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="C26:G26"/>
-    <mergeCell ref="H26:I26"/>
-    <mergeCell ref="J26:N26"/>
-    <mergeCell ref="O26:P26"/>
-    <mergeCell ref="Q26:U26"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="C25:G25"/>
-    <mergeCell ref="H25:I25"/>
-    <mergeCell ref="J25:N25"/>
-    <mergeCell ref="O25:P25"/>
-    <mergeCell ref="Q25:U25"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="C24:G24"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="J24:N24"/>
-    <mergeCell ref="O24:P24"/>
-    <mergeCell ref="Q24:U24"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="C23:G23"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="J23:N23"/>
-    <mergeCell ref="O23:P23"/>
-    <mergeCell ref="Q23:U23"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="C22:G22"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="J22:N22"/>
-    <mergeCell ref="V22:W22"/>
-    <mergeCell ref="X22:AB22"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="C21:G21"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="J21:N21"/>
-    <mergeCell ref="V21:W21"/>
-    <mergeCell ref="X21:AB21"/>
-    <mergeCell ref="O21:P21"/>
-    <mergeCell ref="Q21:U21"/>
-    <mergeCell ref="O22:P22"/>
-    <mergeCell ref="Q22:U22"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="C20:G20"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="J20:N20"/>
-    <mergeCell ref="V20:W20"/>
-    <mergeCell ref="X20:AB20"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="C19:G19"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="J19:N19"/>
-    <mergeCell ref="V19:W19"/>
-    <mergeCell ref="X19:AB19"/>
-    <mergeCell ref="O19:P19"/>
-    <mergeCell ref="Q19:U19"/>
-    <mergeCell ref="O20:P20"/>
-    <mergeCell ref="Q20:U20"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C18:G18"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="J18:N18"/>
-    <mergeCell ref="V18:W18"/>
-    <mergeCell ref="X18:AB18"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="C17:G17"/>
-    <mergeCell ref="V17:W17"/>
-    <mergeCell ref="X17:AB17"/>
-    <mergeCell ref="O17:P17"/>
-    <mergeCell ref="Q17:U17"/>
-    <mergeCell ref="O18:P18"/>
-    <mergeCell ref="Q18:U18"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="C16:G16"/>
-    <mergeCell ref="V16:W16"/>
-    <mergeCell ref="X16:AB16"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="C15:G15"/>
-    <mergeCell ref="V15:W15"/>
-    <mergeCell ref="X15:AB15"/>
-    <mergeCell ref="O15:P15"/>
-    <mergeCell ref="Q15:U15"/>
-    <mergeCell ref="O16:P16"/>
-    <mergeCell ref="Q16:U16"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="C14:G14"/>
-    <mergeCell ref="V13:W13"/>
-    <mergeCell ref="J14:N14"/>
-    <mergeCell ref="V14:W14"/>
-    <mergeCell ref="X14:AB14"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="C13:G13"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="J13:N13"/>
-    <mergeCell ref="X13:AB13"/>
-    <mergeCell ref="O14:P14"/>
-    <mergeCell ref="Q14:U14"/>
+  <mergeCells count="236">
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="J4:N4"/>
+    <mergeCell ref="V4:W4"/>
+    <mergeCell ref="X4:AB4"/>
+    <mergeCell ref="A1:G2"/>
+    <mergeCell ref="H1:N2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:G3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="V1:AB2"/>
+    <mergeCell ref="V3:W3"/>
+    <mergeCell ref="J3:N3"/>
+    <mergeCell ref="X3:AB3"/>
+    <mergeCell ref="O1:U2"/>
+    <mergeCell ref="O3:P3"/>
+    <mergeCell ref="Q3:U3"/>
+    <mergeCell ref="O4:P4"/>
+    <mergeCell ref="Q4:U4"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="J6:N6"/>
+    <mergeCell ref="V6:W6"/>
+    <mergeCell ref="X6:AB6"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="J17:N17"/>
+    <mergeCell ref="V5:W5"/>
+    <mergeCell ref="X5:AB5"/>
+    <mergeCell ref="O5:P5"/>
+    <mergeCell ref="Q5:U5"/>
+    <mergeCell ref="O6:P6"/>
+    <mergeCell ref="Q6:U6"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="J5:N5"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="J8:N8"/>
+    <mergeCell ref="V8:W8"/>
+    <mergeCell ref="X8:AB8"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:N7"/>
+    <mergeCell ref="V7:W7"/>
+    <mergeCell ref="X7:AB7"/>
+    <mergeCell ref="O7:P7"/>
+    <mergeCell ref="Q7:U7"/>
+    <mergeCell ref="Q8:U8"/>
+    <mergeCell ref="O8:P8"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C10:G10"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="J10:N10"/>
+    <mergeCell ref="V10:W10"/>
+    <mergeCell ref="X10:AB10"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:G9"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="J9:N9"/>
+    <mergeCell ref="V9:W9"/>
+    <mergeCell ref="X9:AB9"/>
+    <mergeCell ref="O9:P9"/>
+    <mergeCell ref="Q9:U9"/>
+    <mergeCell ref="O10:P10"/>
+    <mergeCell ref="Q10:U10"/>
     <mergeCell ref="A12:B12"/>
     <mergeCell ref="C12:G12"/>
     <mergeCell ref="H16:I16"/>
@@ -6148,84 +6097,157 @@
     <mergeCell ref="J11:N11"/>
     <mergeCell ref="H12:I12"/>
     <mergeCell ref="J12:N12"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="C10:G10"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="J10:N10"/>
-    <mergeCell ref="V10:W10"/>
-    <mergeCell ref="X10:AB10"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="C9:G9"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="J9:N9"/>
-    <mergeCell ref="V9:W9"/>
-    <mergeCell ref="X9:AB9"/>
-    <mergeCell ref="O9:P9"/>
-    <mergeCell ref="Q9:U9"/>
-    <mergeCell ref="O10:P10"/>
-    <mergeCell ref="Q10:U10"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="C8:G8"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="J8:N8"/>
-    <mergeCell ref="V8:W8"/>
-    <mergeCell ref="X8:AB8"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="J7:N7"/>
-    <mergeCell ref="V7:W7"/>
-    <mergeCell ref="X7:AB7"/>
-    <mergeCell ref="O7:P7"/>
-    <mergeCell ref="Q7:U7"/>
     <mergeCell ref="O13:P13"/>
     <mergeCell ref="Q13:U13"/>
-    <mergeCell ref="Q8:U8"/>
-    <mergeCell ref="O8:P8"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="J6:N6"/>
-    <mergeCell ref="V6:W6"/>
-    <mergeCell ref="X6:AB6"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:G5"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="J17:N17"/>
-    <mergeCell ref="V5:W5"/>
-    <mergeCell ref="X5:AB5"/>
-    <mergeCell ref="O5:P5"/>
-    <mergeCell ref="Q5:U5"/>
-    <mergeCell ref="O6:P6"/>
-    <mergeCell ref="Q6:U6"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="J5:N5"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:G4"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="J4:N4"/>
-    <mergeCell ref="V4:W4"/>
-    <mergeCell ref="X4:AB4"/>
-    <mergeCell ref="A1:G2"/>
-    <mergeCell ref="H1:N2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:G3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="V1:AB2"/>
-    <mergeCell ref="V3:W3"/>
-    <mergeCell ref="J3:N3"/>
-    <mergeCell ref="X3:AB3"/>
-    <mergeCell ref="O1:U2"/>
-    <mergeCell ref="O3:P3"/>
-    <mergeCell ref="Q3:U3"/>
-    <mergeCell ref="O4:P4"/>
-    <mergeCell ref="Q4:U4"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C14:G14"/>
+    <mergeCell ref="V13:W13"/>
+    <mergeCell ref="J14:N14"/>
+    <mergeCell ref="V14:W14"/>
+    <mergeCell ref="X14:AB14"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C13:G13"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="J13:N13"/>
+    <mergeCell ref="X13:AB13"/>
+    <mergeCell ref="O14:P14"/>
+    <mergeCell ref="Q14:U14"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:G16"/>
+    <mergeCell ref="V16:W16"/>
+    <mergeCell ref="X16:AB16"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C15:G15"/>
+    <mergeCell ref="V15:W15"/>
+    <mergeCell ref="X15:AB15"/>
+    <mergeCell ref="O15:P15"/>
+    <mergeCell ref="Q15:U15"/>
+    <mergeCell ref="O16:P16"/>
+    <mergeCell ref="Q16:U16"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="J18:N18"/>
+    <mergeCell ref="V18:W18"/>
+    <mergeCell ref="X18:AB18"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C17:G17"/>
+    <mergeCell ref="V17:W17"/>
+    <mergeCell ref="X17:AB17"/>
+    <mergeCell ref="O17:P17"/>
+    <mergeCell ref="Q17:U17"/>
+    <mergeCell ref="O18:P18"/>
+    <mergeCell ref="Q18:U18"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="J20:N20"/>
+    <mergeCell ref="V20:W20"/>
+    <mergeCell ref="X20:AB20"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="J19:N19"/>
+    <mergeCell ref="V19:W19"/>
+    <mergeCell ref="X19:AB19"/>
+    <mergeCell ref="O19:P19"/>
+    <mergeCell ref="Q19:U19"/>
+    <mergeCell ref="O20:P20"/>
+    <mergeCell ref="Q20:U20"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="C22:G22"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="J22:N22"/>
+    <mergeCell ref="V22:W22"/>
+    <mergeCell ref="X22:AB22"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="J21:N21"/>
+    <mergeCell ref="V21:W21"/>
+    <mergeCell ref="X21:AB21"/>
+    <mergeCell ref="O21:P21"/>
+    <mergeCell ref="Q21:U21"/>
+    <mergeCell ref="O22:P22"/>
+    <mergeCell ref="Q22:U22"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="C24:G24"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="J24:N24"/>
+    <mergeCell ref="O24:P24"/>
+    <mergeCell ref="Q24:U24"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="C23:G23"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="J23:N23"/>
+    <mergeCell ref="O23:P23"/>
+    <mergeCell ref="Q23:U23"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="C26:G26"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="J26:N26"/>
+    <mergeCell ref="O26:P26"/>
+    <mergeCell ref="Q26:U26"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="C25:G25"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="J25:N25"/>
+    <mergeCell ref="O25:P25"/>
+    <mergeCell ref="Q25:U25"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="C28:G28"/>
+    <mergeCell ref="H28:I28"/>
+    <mergeCell ref="J28:N28"/>
+    <mergeCell ref="O28:P28"/>
+    <mergeCell ref="Q28:U28"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="C27:G27"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="J27:N27"/>
+    <mergeCell ref="O27:P27"/>
+    <mergeCell ref="Q27:U27"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="C30:G30"/>
+    <mergeCell ref="H30:I30"/>
+    <mergeCell ref="J30:N30"/>
+    <mergeCell ref="O30:P30"/>
+    <mergeCell ref="Q30:U30"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="C29:G29"/>
+    <mergeCell ref="H29:I29"/>
+    <mergeCell ref="J29:N29"/>
+    <mergeCell ref="O29:P29"/>
+    <mergeCell ref="Q29:U29"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="C32:G32"/>
+    <mergeCell ref="H32:I32"/>
+    <mergeCell ref="J32:N32"/>
+    <mergeCell ref="O32:P32"/>
+    <mergeCell ref="Q32:U32"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="C31:G31"/>
+    <mergeCell ref="H31:I31"/>
+    <mergeCell ref="J31:N31"/>
+    <mergeCell ref="O31:P31"/>
+    <mergeCell ref="Q31:U31"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="C34:G34"/>
+    <mergeCell ref="H34:I34"/>
+    <mergeCell ref="J34:N34"/>
+    <mergeCell ref="O34:P34"/>
+    <mergeCell ref="Q34:U34"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="C33:G33"/>
+    <mergeCell ref="H33:I33"/>
+    <mergeCell ref="J33:N33"/>
+    <mergeCell ref="O33:P33"/>
+    <mergeCell ref="Q33:U33"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="C12" r:id="rId1" xr:uid="{8224474B-9947-417C-AC37-AD95665A9723}"/>
-    <hyperlink ref="C13" r:id="rId2" xr:uid="{CE321704-25F7-4D6A-8585-A2ECF5644FEF}"/>
-    <hyperlink ref="C14" r:id="rId3" xr:uid="{86E514BE-A9C9-4B5A-AB4D-57536B7FEAAB}"/>
-    <hyperlink ref="C15" r:id="rId4" xr:uid="{868F8F85-B252-4B04-B081-E9B23AD46A23}"/>
+    <hyperlink ref="C15" r:id="rId1" xr:uid="{868F8F85-B252-4B04-B081-E9B23AD46A23}"/>
+    <hyperlink ref="C14" r:id="rId2" xr:uid="{86E514BE-A9C9-4B5A-AB4D-57536B7FEAAB}"/>
+    <hyperlink ref="C13" r:id="rId3" xr:uid="{CE321704-25F7-4D6A-8585-A2ECF5644FEF}"/>
+    <hyperlink ref="C12" r:id="rId4" xr:uid="{8224474B-9947-417C-AC37-AD95665A9723}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
@@ -6234,26 +6256,27 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1908B5E3-0D9D-48A8-894B-90B53E0249A0}">
-  <dimension ref="A1:H26"/>
+  <dimension ref="A1:I26"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20.5703125" style="14" customWidth="1"/>
-    <col min="2" max="2" width="19.5703125" style="14" customWidth="1"/>
-    <col min="3" max="3" width="21.5703125" style="46" customWidth="1"/>
+    <col min="2" max="2" width="27" style="14" customWidth="1"/>
+    <col min="3" max="3" width="21.5703125" style="21" customWidth="1"/>
     <col min="4" max="4" width="21" style="14" customWidth="1"/>
     <col min="5" max="7" width="9.140625" style="14"/>
     <col min="8" max="8" width="19" style="14" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="14"/>
+    <col min="9" max="9" width="55.7109375" style="14" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="14"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:9" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A1" s="40" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="B1" s="40"/>
       <c r="C1" s="40"/>
@@ -6263,329 +6286,278 @@
       <c r="G1" s="40"/>
       <c r="H1" s="40"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="41" t="s">
-        <v>84</v>
-      </c>
-      <c r="B2" s="41" t="s">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="B2" s="22" t="s">
+        <v>287</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>293</v>
+      </c>
+      <c r="D2" s="22" t="s">
+        <v>288</v>
+      </c>
+      <c r="E2" s="33" t="s">
         <v>289</v>
       </c>
-      <c r="C2" s="42" t="s">
-        <v>295</v>
-      </c>
-      <c r="D2" s="41" t="s">
+      <c r="F2" s="33"/>
+      <c r="G2" s="33"/>
+      <c r="H2" s="33"/>
+    </row>
+    <row r="3" spans="1:9" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="14" t="s">
+        <v>291</v>
+      </c>
+      <c r="B3" s="14" t="s">
+        <v>292</v>
+      </c>
+      <c r="C3" s="21">
+        <v>1</v>
+      </c>
+      <c r="D3" s="14" t="s">
         <v>290</v>
       </c>
-      <c r="E2" s="43" t="s">
-        <v>291</v>
-      </c>
-      <c r="F2" s="43"/>
-      <c r="G2" s="43"/>
-      <c r="H2" s="43"/>
-    </row>
-    <row r="3" spans="1:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="44" t="s">
-        <v>293</v>
-      </c>
-      <c r="B3" s="44" t="s">
-        <v>294</v>
-      </c>
-      <c r="C3" s="45">
-        <v>1</v>
-      </c>
-      <c r="D3" s="44" t="s">
-        <v>292</v>
-      </c>
       <c r="E3" s="39" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="F3" s="39"/>
       <c r="G3" s="39"/>
       <c r="H3" s="39"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="44" t="s">
-        <v>304</v>
-      </c>
-      <c r="B4" s="44" t="s">
-        <v>305</v>
-      </c>
-      <c r="C4" s="45">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="14" t="s">
+        <v>302</v>
+      </c>
+      <c r="B4" s="14" t="s">
+        <v>303</v>
+      </c>
+      <c r="C4" s="21">
         <v>2</v>
       </c>
-      <c r="D4" s="44" t="s">
-        <v>302</v>
+      <c r="D4" s="14" t="s">
+        <v>300</v>
       </c>
       <c r="E4" s="39"/>
       <c r="F4" s="39"/>
       <c r="G4" s="39"/>
       <c r="H4" s="39"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="44"/>
-      <c r="B5" s="44"/>
-      <c r="C5" s="45"/>
-      <c r="D5" s="44"/>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E5" s="39"/>
       <c r="F5" s="39"/>
       <c r="G5" s="39"/>
       <c r="H5" s="39"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="44"/>
-      <c r="B6" s="44"/>
-      <c r="C6" s="45"/>
-      <c r="D6" s="44"/>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E6" s="39"/>
       <c r="F6" s="39"/>
       <c r="G6" s="39"/>
       <c r="H6" s="39"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="44"/>
-      <c r="B7" s="44"/>
-      <c r="C7" s="45"/>
-      <c r="D7" s="44"/>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E7" s="39"/>
       <c r="F7" s="39"/>
       <c r="G7" s="39"/>
       <c r="H7" s="39"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="44"/>
-      <c r="B8" s="44"/>
-      <c r="C8" s="45"/>
-      <c r="D8" s="44"/>
-      <c r="E8" s="39"/>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="14" t="s">
+        <v>332</v>
+      </c>
+      <c r="B8" s="14" t="s">
+        <v>333</v>
+      </c>
+      <c r="C8" s="21">
+        <v>2</v>
+      </c>
+      <c r="D8" s="14" t="s">
+        <v>294</v>
+      </c>
+      <c r="E8" s="39" t="s">
+        <v>334</v>
+      </c>
       <c r="F8" s="39"/>
       <c r="G8" s="39"/>
       <c r="H8" s="39"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="44" t="s">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="14" t="s">
+        <v>296</v>
+      </c>
+      <c r="B9" s="14" t="s">
+        <v>295</v>
+      </c>
+      <c r="C9" s="21">
+        <v>1</v>
+      </c>
+      <c r="D9" s="14" t="s">
+        <v>300</v>
+      </c>
+      <c r="E9" s="39" t="s">
         <v>298</v>
-      </c>
-      <c r="B9" s="44" t="s">
-        <v>297</v>
-      </c>
-      <c r="C9" s="45">
-        <v>1</v>
-      </c>
-      <c r="D9" s="44" t="s">
-        <v>296</v>
-      </c>
-      <c r="E9" s="39" t="s">
-        <v>300</v>
       </c>
       <c r="F9" s="39"/>
       <c r="G9" s="39"/>
       <c r="H9" s="39"/>
     </row>
-    <row r="10" spans="1:8" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="44" t="s">
+    <row r="10" spans="1:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="14" t="s">
+        <v>299</v>
+      </c>
+      <c r="B10" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="21">
+        <v>2</v>
+      </c>
+      <c r="D10" s="14" t="s">
+        <v>300</v>
+      </c>
+      <c r="E10" s="39" t="s">
         <v>301</v>
-      </c>
-      <c r="B10" s="44" t="s">
-        <v>14</v>
-      </c>
-      <c r="C10" s="45">
-        <v>2</v>
-      </c>
-      <c r="D10" s="44" t="s">
-        <v>302</v>
-      </c>
-      <c r="E10" s="39" t="s">
-        <v>303</v>
       </c>
       <c r="F10" s="39"/>
       <c r="G10" s="39"/>
       <c r="H10" s="39"/>
-    </row>
-    <row r="11" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="44" t="s">
-        <v>307</v>
-      </c>
-      <c r="B11" s="44" t="s">
-        <v>297</v>
-      </c>
-      <c r="C11" s="45">
+      <c r="I10" s="14" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="14" t="s">
+        <v>305</v>
+      </c>
+      <c r="B11" s="14" t="s">
+        <v>295</v>
+      </c>
+      <c r="C11" s="21">
         <v>2</v>
       </c>
-      <c r="D11" s="44" t="s">
-        <v>302</v>
+      <c r="D11" s="14" t="s">
+        <v>300</v>
       </c>
       <c r="E11" s="39" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="F11" s="39"/>
       <c r="G11" s="39"/>
       <c r="H11" s="39"/>
     </row>
-    <row r="12" spans="1:8" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="44" t="s">
+    <row r="12" spans="1:9" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="14" t="s">
+        <v>306</v>
+      </c>
+      <c r="B12" s="14" t="s">
+        <v>307</v>
+      </c>
+      <c r="C12" s="21">
+        <v>3</v>
+      </c>
+      <c r="D12" s="14" t="s">
+        <v>300</v>
+      </c>
+      <c r="E12" s="39" t="s">
         <v>308</v>
-      </c>
-      <c r="B12" s="44" t="s">
-        <v>309</v>
-      </c>
-      <c r="C12" s="45">
-        <v>3</v>
-      </c>
-      <c r="D12" s="44" t="s">
-        <v>302</v>
-      </c>
-      <c r="E12" s="39" t="s">
-        <v>310</v>
       </c>
       <c r="F12" s="39"/>
       <c r="G12" s="39"/>
       <c r="H12" s="39"/>
     </row>
-    <row r="13" spans="1:8" ht="79.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="44" t="s">
-        <v>311</v>
-      </c>
-      <c r="B13" s="44" t="s">
+    <row r="13" spans="1:9" ht="79.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="14" t="s">
+        <v>309</v>
+      </c>
+      <c r="B13" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="C13" s="45">
+      <c r="C13" s="21">
         <v>4</v>
       </c>
-      <c r="D13" s="44" t="s">
-        <v>302</v>
+      <c r="D13" s="14" t="s">
+        <v>300</v>
       </c>
       <c r="E13" s="39" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="F13" s="39"/>
       <c r="G13" s="39"/>
       <c r="H13" s="39"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="44"/>
-      <c r="B14" s="44"/>
-      <c r="C14" s="45"/>
-      <c r="D14" s="44"/>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E14" s="39"/>
       <c r="F14" s="39"/>
       <c r="G14" s="39"/>
       <c r="H14" s="39"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="44"/>
-      <c r="B15" s="44"/>
-      <c r="C15" s="45"/>
-      <c r="D15" s="44"/>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E15" s="39"/>
       <c r="F15" s="39"/>
       <c r="G15" s="39"/>
       <c r="H15" s="39"/>
     </row>
-    <row r="16" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="44"/>
-      <c r="B16" s="44"/>
-      <c r="C16" s="45"/>
-      <c r="D16" s="44"/>
+    <row r="16" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E16" s="39"/>
       <c r="F16" s="39"/>
       <c r="G16" s="39"/>
       <c r="H16" s="39"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="44"/>
-      <c r="B17" s="44"/>
-      <c r="C17" s="45"/>
-      <c r="D17" s="44"/>
+    <row r="17" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E17" s="39"/>
       <c r="F17" s="39"/>
       <c r="G17" s="39"/>
       <c r="H17" s="39"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="44"/>
-      <c r="B18" s="44"/>
-      <c r="C18" s="45"/>
-      <c r="D18" s="44"/>
+    <row r="18" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E18" s="39"/>
       <c r="F18" s="39"/>
       <c r="G18" s="39"/>
       <c r="H18" s="39"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="44"/>
-      <c r="B19" s="44"/>
-      <c r="C19" s="45"/>
-      <c r="D19" s="44"/>
+    <row r="19" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E19" s="39"/>
       <c r="F19" s="39"/>
       <c r="G19" s="39"/>
       <c r="H19" s="39"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="44"/>
-      <c r="B20" s="44"/>
-      <c r="C20" s="45"/>
-      <c r="D20" s="44"/>
+    <row r="20" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E20" s="39"/>
       <c r="F20" s="39"/>
       <c r="G20" s="39"/>
       <c r="H20" s="39"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="44"/>
-      <c r="B21" s="44"/>
-      <c r="C21" s="45"/>
-      <c r="D21" s="44"/>
+    <row r="21" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E21" s="39"/>
       <c r="F21" s="39"/>
       <c r="G21" s="39"/>
       <c r="H21" s="39"/>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="44"/>
-      <c r="B22" s="44"/>
-      <c r="C22" s="45"/>
-      <c r="D22" s="44"/>
+    <row r="22" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E22" s="39"/>
       <c r="F22" s="39"/>
       <c r="G22" s="39"/>
       <c r="H22" s="39"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="44"/>
-      <c r="B23" s="44"/>
-      <c r="C23" s="45"/>
-      <c r="D23" s="44"/>
+    <row r="23" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E23" s="39"/>
       <c r="F23" s="39"/>
       <c r="G23" s="39"/>
       <c r="H23" s="39"/>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="44"/>
-      <c r="B24" s="44"/>
-      <c r="C24" s="45"/>
-      <c r="D24" s="44"/>
+    <row r="24" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E24" s="39"/>
       <c r="F24" s="39"/>
       <c r="G24" s="39"/>
       <c r="H24" s="39"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="44"/>
-      <c r="B25" s="44"/>
-      <c r="C25" s="45"/>
-      <c r="D25" s="44"/>
+    <row r="25" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E25" s="39"/>
       <c r="F25" s="39"/>
       <c r="G25" s="39"/>
       <c r="H25" s="39"/>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="44"/>
-      <c r="B26" s="44"/>
-      <c r="C26" s="45"/>
-      <c r="D26" s="44"/>
+    <row r="26" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E26" s="39"/>
       <c r="F26" s="39"/>
       <c r="G26" s="39"/>
@@ -6593,6 +6565,24 @@
     </row>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="E6:H6"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="E2:H2"/>
+    <mergeCell ref="E3:H3"/>
+    <mergeCell ref="E4:H4"/>
+    <mergeCell ref="E5:H5"/>
+    <mergeCell ref="E18:H18"/>
+    <mergeCell ref="E7:H7"/>
+    <mergeCell ref="E8:H8"/>
+    <mergeCell ref="E9:H9"/>
+    <mergeCell ref="E10:H10"/>
+    <mergeCell ref="E11:H11"/>
+    <mergeCell ref="E12:H12"/>
+    <mergeCell ref="E13:H13"/>
+    <mergeCell ref="E14:H14"/>
+    <mergeCell ref="E15:H15"/>
+    <mergeCell ref="E16:H16"/>
+    <mergeCell ref="E17:H17"/>
     <mergeCell ref="E25:H25"/>
     <mergeCell ref="E26:H26"/>
     <mergeCell ref="E19:H19"/>
@@ -6601,24 +6591,6 @@
     <mergeCell ref="E22:H22"/>
     <mergeCell ref="E23:H23"/>
     <mergeCell ref="E24:H24"/>
-    <mergeCell ref="E13:H13"/>
-    <mergeCell ref="E14:H14"/>
-    <mergeCell ref="E15:H15"/>
-    <mergeCell ref="E16:H16"/>
-    <mergeCell ref="E17:H17"/>
-    <mergeCell ref="E18:H18"/>
-    <mergeCell ref="E7:H7"/>
-    <mergeCell ref="E8:H8"/>
-    <mergeCell ref="E9:H9"/>
-    <mergeCell ref="E10:H10"/>
-    <mergeCell ref="E11:H11"/>
-    <mergeCell ref="E12:H12"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="E2:H2"/>
-    <mergeCell ref="E3:H3"/>
-    <mergeCell ref="E4:H4"/>
-    <mergeCell ref="E5:H5"/>
-    <mergeCell ref="E6:H6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6626,291 +6598,300 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DD47BAA-02B8-4E56-868D-4BC0DFE6F64A}">
-  <dimension ref="A1:H30"/>
+  <dimension ref="A1:G30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19" style="5" customWidth="1"/>
     <col min="2" max="2" width="14" style="5" customWidth="1"/>
-    <col min="3" max="3" width="13" style="5" customWidth="1"/>
+    <col min="3" max="3" width="27.85546875" style="5" customWidth="1"/>
     <col min="4" max="4" width="12.140625" style="5" customWidth="1"/>
-    <col min="5" max="7" width="9.140625" style="5"/>
+    <col min="5" max="5" width="9.140625" style="5"/>
+    <col min="6" max="6" width="17.140625" style="5" customWidth="1"/>
+    <col min="7" max="7" width="19.5703125" style="5" customWidth="1"/>
     <col min="8" max="8" width="15.140625" style="5" customWidth="1"/>
     <col min="9" max="16384" width="9.140625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A1" s="47" t="s">
+    <row r="1" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A1" s="42" t="s">
+        <v>311</v>
+      </c>
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="42"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="B2" s="20" t="s">
+        <v>234</v>
+      </c>
+      <c r="C2" s="20" t="s">
+        <v>286</v>
+      </c>
+      <c r="D2" s="43" t="s">
+        <v>289</v>
+      </c>
+      <c r="E2" s="43"/>
+      <c r="F2" s="43"/>
+      <c r="G2" s="43"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>312</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>322</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>290</v>
+      </c>
+      <c r="D3" s="41" t="s">
         <v>313</v>
       </c>
-      <c r="B1" s="47"/>
-      <c r="C1" s="47"/>
-      <c r="D1" s="47"/>
-      <c r="E1" s="47"/>
-      <c r="F1" s="47"/>
-      <c r="G1" s="47"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="37" t="s">
-        <v>84</v>
-      </c>
-      <c r="B2" s="37" t="s">
-        <v>236</v>
-      </c>
-      <c r="C2" s="37" t="s">
-        <v>288</v>
-      </c>
-      <c r="D2" s="38" t="s">
-        <v>291</v>
-      </c>
-      <c r="E2" s="38"/>
-      <c r="F2" s="38"/>
-      <c r="G2" s="38"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
+      <c r="E3" s="41"/>
+      <c r="F3" s="41"/>
+      <c r="G3" s="41"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>318</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>321</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>290</v>
+      </c>
+      <c r="D4" s="41" t="s">
+        <v>320</v>
+      </c>
+      <c r="E4" s="41"/>
+      <c r="F4" s="41"/>
+      <c r="G4" s="41"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>316</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>321</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>290</v>
+      </c>
+      <c r="D5" s="41" t="s">
+        <v>317</v>
+      </c>
+      <c r="E5" s="41"/>
+      <c r="F5" s="41"/>
+      <c r="G5" s="41"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>315</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>321</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>319</v>
+      </c>
+      <c r="D6" s="41" t="s">
         <v>314</v>
       </c>
-      <c r="B3" s="5" t="s">
-        <v>315</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>292</v>
-      </c>
-      <c r="D3" s="36" t="s">
-        <v>316</v>
-      </c>
-      <c r="E3" s="36"/>
-      <c r="F3" s="36"/>
-      <c r="G3" s="36"/>
-      <c r="H3" s="5" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
-        <v>319</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>315</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>292</v>
-      </c>
-      <c r="D4" s="36" t="s">
-        <v>318</v>
-      </c>
-      <c r="E4" s="36"/>
-      <c r="F4" s="36"/>
-      <c r="G4" s="36"/>
-      <c r="H4" s="5" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
-        <v>320</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>315</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>292</v>
-      </c>
-      <c r="D5" s="36" t="s">
-        <v>321</v>
-      </c>
-      <c r="E5" s="36"/>
-      <c r="F5" s="36"/>
-      <c r="G5" s="36"/>
-      <c r="H5" s="5" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
-        <v>322</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>315</v>
-      </c>
-      <c r="C6" s="5" t="s">
+      <c r="E6" s="41"/>
+      <c r="F6" s="41"/>
+      <c r="G6" s="41"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D8" s="41"/>
+      <c r="E8" s="41"/>
+      <c r="F8" s="41"/>
+      <c r="G8" s="41"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D9" s="41"/>
+      <c r="E9" s="41"/>
+      <c r="F9" s="41"/>
+      <c r="G9" s="41"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D10" s="41"/>
+      <c r="E10" s="41"/>
+      <c r="F10" s="41"/>
+      <c r="G10" s="41"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D11" s="41"/>
+      <c r="E11" s="41"/>
+      <c r="F11" s="41"/>
+      <c r="G11" s="41"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
         <v>323</v>
       </c>
-      <c r="D6" s="36" t="s">
+      <c r="B12" s="5" t="s">
         <v>324</v>
       </c>
-      <c r="E6" s="36"/>
-      <c r="F6" s="36"/>
-      <c r="G6" s="36"/>
-      <c r="H6" s="5" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D7" s="36"/>
-      <c r="E7" s="36"/>
-      <c r="F7" s="36"/>
-      <c r="G7" s="36"/>
-      <c r="H7" s="5" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D8" s="36"/>
-      <c r="E8" s="36"/>
-      <c r="F8" s="36"/>
-      <c r="G8" s="36"/>
-      <c r="H8" s="5" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D9" s="36"/>
-      <c r="E9" s="36"/>
-      <c r="F9" s="36"/>
-      <c r="G9" s="36"/>
-      <c r="H9" s="5" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D10" s="36"/>
-      <c r="E10" s="36"/>
-      <c r="F10" s="36"/>
-      <c r="G10" s="36"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D11" s="36"/>
-      <c r="E11" s="36"/>
-      <c r="F11" s="36"/>
-      <c r="G11" s="36"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D12" s="36"/>
-      <c r="E12" s="36"/>
-      <c r="F12" s="36"/>
-      <c r="G12" s="36"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D13" s="36"/>
-      <c r="E13" s="36"/>
-      <c r="F13" s="36"/>
-      <c r="G13" s="36"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D14" s="36"/>
-      <c r="E14" s="36"/>
-      <c r="F14" s="36"/>
-      <c r="G14" s="36"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D15" s="36"/>
-      <c r="E15" s="36"/>
-      <c r="F15" s="36"/>
-      <c r="G15" s="36"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D16" s="36"/>
-      <c r="E16" s="36"/>
-      <c r="F16" s="36"/>
-      <c r="G16" s="36"/>
+      <c r="C12" s="5" t="s">
+        <v>325</v>
+      </c>
+      <c r="D12" s="41" t="s">
+        <v>326</v>
+      </c>
+      <c r="E12" s="41"/>
+      <c r="F12" s="41"/>
+      <c r="G12" s="41"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="5" t="s">
+        <v>327</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>328</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>290</v>
+      </c>
+      <c r="D13" s="41" t="s">
+        <v>329</v>
+      </c>
+      <c r="E13" s="41"/>
+      <c r="F13" s="41"/>
+      <c r="G13" s="41"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D14" s="41"/>
+      <c r="E14" s="41"/>
+      <c r="F14" s="41"/>
+      <c r="G14" s="41"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D15" s="41"/>
+      <c r="E15" s="41"/>
+      <c r="F15" s="41"/>
+      <c r="G15" s="41"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D16" s="41"/>
+      <c r="E16" s="41"/>
+      <c r="F16" s="41"/>
+      <c r="G16" s="41"/>
     </row>
     <row r="17" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D17" s="36"/>
-      <c r="E17" s="36"/>
-      <c r="F17" s="36"/>
-      <c r="G17" s="36"/>
+      <c r="D17" s="41"/>
+      <c r="E17" s="41"/>
+      <c r="F17" s="41"/>
+      <c r="G17" s="41"/>
     </row>
     <row r="18" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D18" s="36"/>
-      <c r="E18" s="36"/>
-      <c r="F18" s="36"/>
-      <c r="G18" s="36"/>
+      <c r="D18" s="41"/>
+      <c r="E18" s="41"/>
+      <c r="F18" s="41"/>
+      <c r="G18" s="41"/>
     </row>
     <row r="19" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D19" s="36"/>
-      <c r="E19" s="36"/>
-      <c r="F19" s="36"/>
-      <c r="G19" s="36"/>
+      <c r="D19" s="41"/>
+      <c r="E19" s="41"/>
+      <c r="F19" s="41"/>
+      <c r="G19" s="41"/>
     </row>
     <row r="20" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D20" s="36"/>
-      <c r="E20" s="36"/>
-      <c r="F20" s="36"/>
-      <c r="G20" s="36"/>
+      <c r="D20" s="41"/>
+      <c r="E20" s="41"/>
+      <c r="F20" s="41"/>
+      <c r="G20" s="41"/>
     </row>
     <row r="21" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D21" s="36"/>
-      <c r="E21" s="36"/>
-      <c r="F21" s="36"/>
-      <c r="G21" s="36"/>
+      <c r="D21" s="41"/>
+      <c r="E21" s="41"/>
+      <c r="F21" s="41"/>
+      <c r="G21" s="41"/>
     </row>
     <row r="22" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D22" s="36"/>
-      <c r="E22" s="36"/>
-      <c r="F22" s="36"/>
-      <c r="G22" s="36"/>
+      <c r="D22" s="41"/>
+      <c r="E22" s="41"/>
+      <c r="F22" s="41"/>
+      <c r="G22" s="41"/>
     </row>
     <row r="23" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D23" s="36"/>
-      <c r="E23" s="36"/>
-      <c r="F23" s="36"/>
-      <c r="G23" s="36"/>
+      <c r="D23" s="41"/>
+      <c r="E23" s="41"/>
+      <c r="F23" s="41"/>
+      <c r="G23" s="41"/>
     </row>
     <row r="24" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D24" s="36"/>
-      <c r="E24" s="36"/>
-      <c r="F24" s="36"/>
-      <c r="G24" s="36"/>
+      <c r="D24" s="41"/>
+      <c r="E24" s="41"/>
+      <c r="F24" s="41"/>
+      <c r="G24" s="41"/>
     </row>
     <row r="25" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D25" s="36"/>
-      <c r="E25" s="36"/>
-      <c r="F25" s="36"/>
-      <c r="G25" s="36"/>
+      <c r="D25" s="41"/>
+      <c r="E25" s="41"/>
+      <c r="F25" s="41"/>
+      <c r="G25" s="41"/>
     </row>
     <row r="26" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D26" s="36"/>
-      <c r="E26" s="36"/>
-      <c r="F26" s="36"/>
-      <c r="G26" s="36"/>
+      <c r="D26" s="41"/>
+      <c r="E26" s="41"/>
+      <c r="F26" s="41"/>
+      <c r="G26" s="41"/>
     </row>
     <row r="27" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D27" s="36"/>
-      <c r="E27" s="36"/>
-      <c r="F27" s="36"/>
-      <c r="G27" s="36"/>
+      <c r="D27" s="41"/>
+      <c r="E27" s="41"/>
+      <c r="F27" s="41"/>
+      <c r="G27" s="41"/>
     </row>
     <row r="28" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D28" s="36"/>
-      <c r="E28" s="36"/>
-      <c r="F28" s="36"/>
-      <c r="G28" s="36"/>
+      <c r="D28" s="41"/>
+      <c r="E28" s="41"/>
+      <c r="F28" s="41"/>
+      <c r="G28" s="41"/>
     </row>
     <row r="29" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D29" s="36"/>
-      <c r="E29" s="36"/>
-      <c r="F29" s="36"/>
-      <c r="G29" s="36"/>
+      <c r="D29" s="41"/>
+      <c r="E29" s="41"/>
+      <c r="F29" s="41"/>
+      <c r="G29" s="41"/>
     </row>
     <row r="30" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D30" s="36"/>
-      <c r="E30" s="36"/>
-      <c r="F30" s="36"/>
-      <c r="G30" s="36"/>
+      <c r="D30" s="41"/>
+      <c r="E30" s="41"/>
+      <c r="F30" s="41"/>
+      <c r="G30" s="41"/>
     </row>
   </sheetData>
-  <mergeCells count="30">
-    <mergeCell ref="D25:G25"/>
-    <mergeCell ref="D26:G26"/>
-    <mergeCell ref="D27:G27"/>
-    <mergeCell ref="D28:G28"/>
-    <mergeCell ref="D29:G29"/>
+  <mergeCells count="29">
+    <mergeCell ref="D4:G4"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="D3:G3"/>
+    <mergeCell ref="D6:G6"/>
+    <mergeCell ref="D5:G5"/>
+    <mergeCell ref="D18:G18"/>
+    <mergeCell ref="D8:G8"/>
+    <mergeCell ref="D9:G9"/>
+    <mergeCell ref="D10:G10"/>
+    <mergeCell ref="D11:G11"/>
+    <mergeCell ref="D12:G12"/>
+    <mergeCell ref="D13:G13"/>
+    <mergeCell ref="D14:G14"/>
+    <mergeCell ref="D15:G15"/>
+    <mergeCell ref="D16:G16"/>
+    <mergeCell ref="D17:G17"/>
     <mergeCell ref="D30:G30"/>
     <mergeCell ref="D19:G19"/>
     <mergeCell ref="D20:G20"/>
@@ -6918,24 +6899,11 @@
     <mergeCell ref="D22:G22"/>
     <mergeCell ref="D23:G23"/>
     <mergeCell ref="D24:G24"/>
-    <mergeCell ref="D13:G13"/>
-    <mergeCell ref="D14:G14"/>
-    <mergeCell ref="D15:G15"/>
-    <mergeCell ref="D16:G16"/>
-    <mergeCell ref="D17:G17"/>
-    <mergeCell ref="D18:G18"/>
-    <mergeCell ref="D7:G7"/>
-    <mergeCell ref="D8:G8"/>
-    <mergeCell ref="D9:G9"/>
-    <mergeCell ref="D10:G10"/>
-    <mergeCell ref="D11:G11"/>
-    <mergeCell ref="D12:G12"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="D2:G2"/>
-    <mergeCell ref="D3:G3"/>
-    <mergeCell ref="D4:G4"/>
-    <mergeCell ref="D5:G5"/>
-    <mergeCell ref="D6:G6"/>
+    <mergeCell ref="D25:G25"/>
+    <mergeCell ref="D26:G26"/>
+    <mergeCell ref="D27:G27"/>
+    <mergeCell ref="D28:G28"/>
+    <mergeCell ref="D29:G29"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/plans/todo.xlsx
+++ b/plans/todo.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Edsquid\Documents\Personal Projects\Business\RogueLikeGame\plans\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B300622-0910-4EFD-B163-AF6DE155AF28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF4C75BA-BB77-457A-8EAC-711E76E07FBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{BA1E511D-BF64-4842-98DF-72E30276ED1C}"/>
+    <workbookView xWindow="5400" yWindow="2880" windowWidth="21600" windowHeight="11295" xr2:uid="{BA1E511D-BF64-4842-98DF-72E30276ED1C}"/>
   </bookViews>
   <sheets>
     <sheet name="Attributes" sheetId="3" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="464" uniqueCount="335">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="465" uniqueCount="336">
   <si>
     <t>Max Lives</t>
   </si>
@@ -1046,6 +1046,9 @@
   </si>
   <si>
     <t>Runs up to player, explodes when close or killed</t>
+  </si>
+  <si>
+    <t>Knockback</t>
   </si>
 </sst>
 </file>
@@ -1400,9 +1403,6 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1411,6 +1411,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -1744,8 +1747,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11CE061F-AFA4-4B9D-BFD1-A05915568E6D}">
   <dimension ref="A1:H338"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F41" sqref="F41"/>
+    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="A80" sqref="A80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2872,6 +2875,9 @@
       <c r="G78" s="2"/>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A79" s="2" t="s">
+        <v>335</v>
+      </c>
       <c r="F79" s="1">
         <v>5</v>
       </c>
@@ -4894,121 +4900,121 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="36"/>
-      <c r="G1" s="36"/>
-      <c r="H1" s="36" t="s">
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="35" t="s">
         <v>194</v>
       </c>
-      <c r="I1" s="36"/>
-      <c r="J1" s="36"/>
-      <c r="K1" s="36"/>
-      <c r="L1" s="36"/>
-      <c r="M1" s="36"/>
-      <c r="N1" s="36"/>
-      <c r="O1" s="36" t="s">
+      <c r="I1" s="35"/>
+      <c r="J1" s="35"/>
+      <c r="K1" s="35"/>
+      <c r="L1" s="35"/>
+      <c r="M1" s="35"/>
+      <c r="N1" s="35"/>
+      <c r="O1" s="35" t="s">
         <v>195</v>
       </c>
-      <c r="P1" s="36"/>
-      <c r="Q1" s="36"/>
-      <c r="R1" s="36"/>
-      <c r="S1" s="36"/>
-      <c r="T1" s="36"/>
-      <c r="U1" s="36"/>
-      <c r="V1" s="36" t="s">
+      <c r="P1" s="35"/>
+      <c r="Q1" s="35"/>
+      <c r="R1" s="35"/>
+      <c r="S1" s="35"/>
+      <c r="T1" s="35"/>
+      <c r="U1" s="35"/>
+      <c r="V1" s="35" t="s">
         <v>35</v>
       </c>
-      <c r="W1" s="36"/>
-      <c r="X1" s="36"/>
-      <c r="Y1" s="36"/>
-      <c r="Z1" s="36"/>
-      <c r="AA1" s="36"/>
-      <c r="AB1" s="36"/>
+      <c r="W1" s="35"/>
+      <c r="X1" s="35"/>
+      <c r="Y1" s="35"/>
+      <c r="Z1" s="35"/>
+      <c r="AA1" s="35"/>
+      <c r="AB1" s="35"/>
       <c r="AD1" s="19" t="s">
         <v>268</v>
       </c>
     </row>
     <row r="2" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="36"/>
-      <c r="B2" s="36"/>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36"/>
-      <c r="E2" s="36"/>
-      <c r="F2" s="36"/>
-      <c r="G2" s="36"/>
-      <c r="H2" s="36"/>
-      <c r="I2" s="36"/>
-      <c r="J2" s="36"/>
-      <c r="K2" s="36"/>
-      <c r="L2" s="36"/>
-      <c r="M2" s="36"/>
-      <c r="N2" s="36"/>
-      <c r="O2" s="36"/>
-      <c r="P2" s="36"/>
-      <c r="Q2" s="36"/>
-      <c r="R2" s="36"/>
-      <c r="S2" s="36"/>
-      <c r="T2" s="36"/>
-      <c r="U2" s="36"/>
-      <c r="V2" s="36"/>
-      <c r="W2" s="36"/>
-      <c r="X2" s="36"/>
-      <c r="Y2" s="36"/>
-      <c r="Z2" s="36"/>
-      <c r="AA2" s="36"/>
-      <c r="AB2" s="36"/>
+      <c r="A2" s="35"/>
+      <c r="B2" s="35"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="35"/>
+      <c r="H2" s="35"/>
+      <c r="I2" s="35"/>
+      <c r="J2" s="35"/>
+      <c r="K2" s="35"/>
+      <c r="L2" s="35"/>
+      <c r="M2" s="35"/>
+      <c r="N2" s="35"/>
+      <c r="O2" s="35"/>
+      <c r="P2" s="35"/>
+      <c r="Q2" s="35"/>
+      <c r="R2" s="35"/>
+      <c r="S2" s="35"/>
+      <c r="T2" s="35"/>
+      <c r="U2" s="35"/>
+      <c r="V2" s="35"/>
+      <c r="W2" s="35"/>
+      <c r="X2" s="35"/>
+      <c r="Y2" s="35"/>
+      <c r="Z2" s="35"/>
+      <c r="AA2" s="35"/>
+      <c r="AB2" s="35"/>
     </row>
     <row r="3" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A3" s="37" t="s">
+      <c r="A3" s="36" t="s">
         <v>34</v>
       </c>
-      <c r="B3" s="37"/>
-      <c r="C3" s="38" t="s">
+      <c r="B3" s="36"/>
+      <c r="C3" s="37" t="s">
         <v>36</v>
       </c>
-      <c r="D3" s="38"/>
-      <c r="E3" s="38"/>
-      <c r="F3" s="38"/>
-      <c r="G3" s="38"/>
-      <c r="H3" s="37" t="s">
+      <c r="D3" s="37"/>
+      <c r="E3" s="37"/>
+      <c r="F3" s="37"/>
+      <c r="G3" s="37"/>
+      <c r="H3" s="36" t="s">
         <v>34</v>
       </c>
-      <c r="I3" s="37"/>
-      <c r="J3" s="38" t="s">
+      <c r="I3" s="36"/>
+      <c r="J3" s="37" t="s">
         <v>36</v>
       </c>
-      <c r="K3" s="38"/>
-      <c r="L3" s="38"/>
-      <c r="M3" s="38"/>
-      <c r="N3" s="38"/>
-      <c r="O3" s="37" t="s">
+      <c r="K3" s="37"/>
+      <c r="L3" s="37"/>
+      <c r="M3" s="37"/>
+      <c r="N3" s="37"/>
+      <c r="O3" s="36" t="s">
         <v>34</v>
       </c>
-      <c r="P3" s="37"/>
-      <c r="Q3" s="38" t="s">
+      <c r="P3" s="36"/>
+      <c r="Q3" s="37" t="s">
         <v>36</v>
       </c>
-      <c r="R3" s="38"/>
-      <c r="S3" s="38"/>
-      <c r="T3" s="38"/>
-      <c r="U3" s="38"/>
-      <c r="V3" s="37" t="s">
+      <c r="R3" s="37"/>
+      <c r="S3" s="37"/>
+      <c r="T3" s="37"/>
+      <c r="U3" s="37"/>
+      <c r="V3" s="36" t="s">
         <v>34</v>
       </c>
-      <c r="W3" s="37"/>
-      <c r="X3" s="38" t="s">
+      <c r="W3" s="36"/>
+      <c r="X3" s="37" t="s">
         <v>36</v>
       </c>
-      <c r="Y3" s="38"/>
-      <c r="Z3" s="38"/>
-      <c r="AA3" s="38"/>
-      <c r="AB3" s="38"/>
+      <c r="Y3" s="37"/>
+      <c r="Z3" s="37"/>
+      <c r="AA3" s="37"/>
+      <c r="AB3" s="37"/>
     </row>
     <row r="4" spans="1:30" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="32" t="s">
@@ -5371,13 +5377,13 @@
         <v>269</v>
       </c>
       <c r="B12" s="32"/>
-      <c r="C12" s="35" t="s">
+      <c r="C12" s="38" t="s">
         <v>270</v>
       </c>
-      <c r="D12" s="35"/>
-      <c r="E12" s="35"/>
-      <c r="F12" s="35"/>
-      <c r="G12" s="35"/>
+      <c r="D12" s="38"/>
+      <c r="E12" s="38"/>
+      <c r="F12" s="38"/>
+      <c r="G12" s="38"/>
       <c r="H12" s="32" t="s">
         <v>76</v>
       </c>
@@ -5409,13 +5415,13 @@
         <v>274</v>
       </c>
       <c r="B13" s="32"/>
-      <c r="C13" s="35" t="s">
+      <c r="C13" s="38" t="s">
         <v>273</v>
       </c>
-      <c r="D13" s="35"/>
-      <c r="E13" s="35"/>
-      <c r="F13" s="35"/>
-      <c r="G13" s="35"/>
+      <c r="D13" s="38"/>
+      <c r="E13" s="38"/>
+      <c r="F13" s="38"/>
+      <c r="G13" s="38"/>
       <c r="H13" s="32" t="s">
         <v>46</v>
       </c>
@@ -5455,13 +5461,13 @@
         <v>278</v>
       </c>
       <c r="B14" s="32"/>
-      <c r="C14" s="35" t="s">
+      <c r="C14" s="38" t="s">
         <v>277</v>
       </c>
-      <c r="D14" s="35"/>
-      <c r="E14" s="35"/>
-      <c r="F14" s="35"/>
-      <c r="G14" s="35"/>
+      <c r="D14" s="38"/>
+      <c r="E14" s="38"/>
+      <c r="F14" s="38"/>
+      <c r="G14" s="38"/>
       <c r="H14" s="32"/>
       <c r="I14" s="32"/>
       <c r="J14" s="33"/>
@@ -5489,7 +5495,7 @@
         <v>279</v>
       </c>
       <c r="B15" s="32"/>
-      <c r="C15" s="35" t="s">
+      <c r="C15" s="38" t="s">
         <v>280</v>
       </c>
       <c r="D15" s="33"/>
@@ -6006,26 +6012,198 @@
     </row>
   </sheetData>
   <mergeCells count="236">
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:G4"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="J4:N4"/>
-    <mergeCell ref="V4:W4"/>
-    <mergeCell ref="X4:AB4"/>
-    <mergeCell ref="A1:G2"/>
-    <mergeCell ref="H1:N2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:G3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="V1:AB2"/>
-    <mergeCell ref="V3:W3"/>
-    <mergeCell ref="J3:N3"/>
-    <mergeCell ref="X3:AB3"/>
-    <mergeCell ref="O1:U2"/>
-    <mergeCell ref="O3:P3"/>
-    <mergeCell ref="Q3:U3"/>
-    <mergeCell ref="O4:P4"/>
-    <mergeCell ref="Q4:U4"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="C34:G34"/>
+    <mergeCell ref="H34:I34"/>
+    <mergeCell ref="J34:N34"/>
+    <mergeCell ref="O34:P34"/>
+    <mergeCell ref="Q34:U34"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="C33:G33"/>
+    <mergeCell ref="H33:I33"/>
+    <mergeCell ref="J33:N33"/>
+    <mergeCell ref="O33:P33"/>
+    <mergeCell ref="Q33:U33"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="C32:G32"/>
+    <mergeCell ref="H32:I32"/>
+    <mergeCell ref="J32:N32"/>
+    <mergeCell ref="O32:P32"/>
+    <mergeCell ref="Q32:U32"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="C31:G31"/>
+    <mergeCell ref="H31:I31"/>
+    <mergeCell ref="J31:N31"/>
+    <mergeCell ref="O31:P31"/>
+    <mergeCell ref="Q31:U31"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="C30:G30"/>
+    <mergeCell ref="H30:I30"/>
+    <mergeCell ref="J30:N30"/>
+    <mergeCell ref="O30:P30"/>
+    <mergeCell ref="Q30:U30"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="C29:G29"/>
+    <mergeCell ref="H29:I29"/>
+    <mergeCell ref="J29:N29"/>
+    <mergeCell ref="O29:P29"/>
+    <mergeCell ref="Q29:U29"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="C28:G28"/>
+    <mergeCell ref="H28:I28"/>
+    <mergeCell ref="J28:N28"/>
+    <mergeCell ref="O28:P28"/>
+    <mergeCell ref="Q28:U28"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="C27:G27"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="J27:N27"/>
+    <mergeCell ref="O27:P27"/>
+    <mergeCell ref="Q27:U27"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="C26:G26"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="J26:N26"/>
+    <mergeCell ref="O26:P26"/>
+    <mergeCell ref="Q26:U26"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="C25:G25"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="J25:N25"/>
+    <mergeCell ref="O25:P25"/>
+    <mergeCell ref="Q25:U25"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="C24:G24"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="J24:N24"/>
+    <mergeCell ref="O24:P24"/>
+    <mergeCell ref="Q24:U24"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="C23:G23"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="J23:N23"/>
+    <mergeCell ref="O23:P23"/>
+    <mergeCell ref="Q23:U23"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="C22:G22"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="J22:N22"/>
+    <mergeCell ref="V22:W22"/>
+    <mergeCell ref="X22:AB22"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="J21:N21"/>
+    <mergeCell ref="V21:W21"/>
+    <mergeCell ref="X21:AB21"/>
+    <mergeCell ref="O21:P21"/>
+    <mergeCell ref="Q21:U21"/>
+    <mergeCell ref="O22:P22"/>
+    <mergeCell ref="Q22:U22"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="J20:N20"/>
+    <mergeCell ref="V20:W20"/>
+    <mergeCell ref="X20:AB20"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="J19:N19"/>
+    <mergeCell ref="V19:W19"/>
+    <mergeCell ref="X19:AB19"/>
+    <mergeCell ref="O19:P19"/>
+    <mergeCell ref="Q19:U19"/>
+    <mergeCell ref="O20:P20"/>
+    <mergeCell ref="Q20:U20"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="J18:N18"/>
+    <mergeCell ref="V18:W18"/>
+    <mergeCell ref="X18:AB18"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C17:G17"/>
+    <mergeCell ref="V17:W17"/>
+    <mergeCell ref="X17:AB17"/>
+    <mergeCell ref="O17:P17"/>
+    <mergeCell ref="Q17:U17"/>
+    <mergeCell ref="O18:P18"/>
+    <mergeCell ref="Q18:U18"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:G16"/>
+    <mergeCell ref="V16:W16"/>
+    <mergeCell ref="X16:AB16"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C15:G15"/>
+    <mergeCell ref="V15:W15"/>
+    <mergeCell ref="X15:AB15"/>
+    <mergeCell ref="O15:P15"/>
+    <mergeCell ref="Q15:U15"/>
+    <mergeCell ref="O16:P16"/>
+    <mergeCell ref="Q16:U16"/>
+    <mergeCell ref="V13:W13"/>
+    <mergeCell ref="J14:N14"/>
+    <mergeCell ref="V14:W14"/>
+    <mergeCell ref="X14:AB14"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C13:G13"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="J13:N13"/>
+    <mergeCell ref="X13:AB13"/>
+    <mergeCell ref="O14:P14"/>
+    <mergeCell ref="Q14:U14"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="J16:N16"/>
+    <mergeCell ref="V12:W12"/>
+    <mergeCell ref="X12:AB12"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:G11"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="J15:N15"/>
+    <mergeCell ref="V11:W11"/>
+    <mergeCell ref="X11:AB11"/>
+    <mergeCell ref="O11:P11"/>
+    <mergeCell ref="Q11:U11"/>
+    <mergeCell ref="O12:P12"/>
+    <mergeCell ref="Q12:U12"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="J11:N11"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="J12:N12"/>
+    <mergeCell ref="O13:P13"/>
+    <mergeCell ref="Q13:U13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C14:G14"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C10:G10"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="J10:N10"/>
+    <mergeCell ref="V10:W10"/>
+    <mergeCell ref="X10:AB10"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:G9"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="J9:N9"/>
+    <mergeCell ref="V9:W9"/>
+    <mergeCell ref="X9:AB9"/>
+    <mergeCell ref="O9:P9"/>
+    <mergeCell ref="Q9:U9"/>
+    <mergeCell ref="O10:P10"/>
+    <mergeCell ref="Q10:U10"/>
+    <mergeCell ref="X8:AB8"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:N7"/>
+    <mergeCell ref="V7:W7"/>
+    <mergeCell ref="X7:AB7"/>
+    <mergeCell ref="O7:P7"/>
+    <mergeCell ref="Q7:U7"/>
+    <mergeCell ref="Q8:U8"/>
+    <mergeCell ref="O8:P8"/>
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="C6:G6"/>
     <mergeCell ref="H6:I6"/>
@@ -6050,198 +6228,26 @@
     <mergeCell ref="H8:I8"/>
     <mergeCell ref="J8:N8"/>
     <mergeCell ref="V8:W8"/>
-    <mergeCell ref="X8:AB8"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="J7:N7"/>
-    <mergeCell ref="V7:W7"/>
-    <mergeCell ref="X7:AB7"/>
-    <mergeCell ref="O7:P7"/>
-    <mergeCell ref="Q7:U7"/>
-    <mergeCell ref="Q8:U8"/>
-    <mergeCell ref="O8:P8"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="C10:G10"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="J10:N10"/>
-    <mergeCell ref="V10:W10"/>
-    <mergeCell ref="X10:AB10"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="C9:G9"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="J9:N9"/>
-    <mergeCell ref="V9:W9"/>
-    <mergeCell ref="X9:AB9"/>
-    <mergeCell ref="O9:P9"/>
-    <mergeCell ref="Q9:U9"/>
-    <mergeCell ref="O10:P10"/>
-    <mergeCell ref="Q10:U10"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="C12:G12"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="J16:N16"/>
-    <mergeCell ref="V12:W12"/>
-    <mergeCell ref="X12:AB12"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:G11"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="J15:N15"/>
-    <mergeCell ref="V11:W11"/>
-    <mergeCell ref="X11:AB11"/>
-    <mergeCell ref="O11:P11"/>
-    <mergeCell ref="Q11:U11"/>
-    <mergeCell ref="O12:P12"/>
-    <mergeCell ref="Q12:U12"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="J11:N11"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="J12:N12"/>
-    <mergeCell ref="O13:P13"/>
-    <mergeCell ref="Q13:U13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="C14:G14"/>
-    <mergeCell ref="V13:W13"/>
-    <mergeCell ref="J14:N14"/>
-    <mergeCell ref="V14:W14"/>
-    <mergeCell ref="X14:AB14"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="C13:G13"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="J13:N13"/>
-    <mergeCell ref="X13:AB13"/>
-    <mergeCell ref="O14:P14"/>
-    <mergeCell ref="Q14:U14"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="C16:G16"/>
-    <mergeCell ref="V16:W16"/>
-    <mergeCell ref="X16:AB16"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="C15:G15"/>
-    <mergeCell ref="V15:W15"/>
-    <mergeCell ref="X15:AB15"/>
-    <mergeCell ref="O15:P15"/>
-    <mergeCell ref="Q15:U15"/>
-    <mergeCell ref="O16:P16"/>
-    <mergeCell ref="Q16:U16"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C18:G18"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="J18:N18"/>
-    <mergeCell ref="V18:W18"/>
-    <mergeCell ref="X18:AB18"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="C17:G17"/>
-    <mergeCell ref="V17:W17"/>
-    <mergeCell ref="X17:AB17"/>
-    <mergeCell ref="O17:P17"/>
-    <mergeCell ref="Q17:U17"/>
-    <mergeCell ref="O18:P18"/>
-    <mergeCell ref="Q18:U18"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="C20:G20"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="J20:N20"/>
-    <mergeCell ref="V20:W20"/>
-    <mergeCell ref="X20:AB20"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="C19:G19"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="J19:N19"/>
-    <mergeCell ref="V19:W19"/>
-    <mergeCell ref="X19:AB19"/>
-    <mergeCell ref="O19:P19"/>
-    <mergeCell ref="Q19:U19"/>
-    <mergeCell ref="O20:P20"/>
-    <mergeCell ref="Q20:U20"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="C22:G22"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="J22:N22"/>
-    <mergeCell ref="V22:W22"/>
-    <mergeCell ref="X22:AB22"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="C21:G21"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="J21:N21"/>
-    <mergeCell ref="V21:W21"/>
-    <mergeCell ref="X21:AB21"/>
-    <mergeCell ref="O21:P21"/>
-    <mergeCell ref="Q21:U21"/>
-    <mergeCell ref="O22:P22"/>
-    <mergeCell ref="Q22:U22"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="C24:G24"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="J24:N24"/>
-    <mergeCell ref="O24:P24"/>
-    <mergeCell ref="Q24:U24"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="C23:G23"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="J23:N23"/>
-    <mergeCell ref="O23:P23"/>
-    <mergeCell ref="Q23:U23"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="C26:G26"/>
-    <mergeCell ref="H26:I26"/>
-    <mergeCell ref="J26:N26"/>
-    <mergeCell ref="O26:P26"/>
-    <mergeCell ref="Q26:U26"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="C25:G25"/>
-    <mergeCell ref="H25:I25"/>
-    <mergeCell ref="J25:N25"/>
-    <mergeCell ref="O25:P25"/>
-    <mergeCell ref="Q25:U25"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="C28:G28"/>
-    <mergeCell ref="H28:I28"/>
-    <mergeCell ref="J28:N28"/>
-    <mergeCell ref="O28:P28"/>
-    <mergeCell ref="Q28:U28"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="C27:G27"/>
-    <mergeCell ref="H27:I27"/>
-    <mergeCell ref="J27:N27"/>
-    <mergeCell ref="O27:P27"/>
-    <mergeCell ref="Q27:U27"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="C30:G30"/>
-    <mergeCell ref="H30:I30"/>
-    <mergeCell ref="J30:N30"/>
-    <mergeCell ref="O30:P30"/>
-    <mergeCell ref="Q30:U30"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="C29:G29"/>
-    <mergeCell ref="H29:I29"/>
-    <mergeCell ref="J29:N29"/>
-    <mergeCell ref="O29:P29"/>
-    <mergeCell ref="Q29:U29"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="C32:G32"/>
-    <mergeCell ref="H32:I32"/>
-    <mergeCell ref="J32:N32"/>
-    <mergeCell ref="O32:P32"/>
-    <mergeCell ref="Q32:U32"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="C31:G31"/>
-    <mergeCell ref="H31:I31"/>
-    <mergeCell ref="J31:N31"/>
-    <mergeCell ref="O31:P31"/>
-    <mergeCell ref="Q31:U31"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="C34:G34"/>
-    <mergeCell ref="H34:I34"/>
-    <mergeCell ref="J34:N34"/>
-    <mergeCell ref="O34:P34"/>
-    <mergeCell ref="Q34:U34"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="C33:G33"/>
-    <mergeCell ref="H33:I33"/>
-    <mergeCell ref="J33:N33"/>
-    <mergeCell ref="O33:P33"/>
-    <mergeCell ref="Q33:U33"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="J4:N4"/>
+    <mergeCell ref="V4:W4"/>
+    <mergeCell ref="X4:AB4"/>
+    <mergeCell ref="A1:G2"/>
+    <mergeCell ref="H1:N2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:G3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="V1:AB2"/>
+    <mergeCell ref="V3:W3"/>
+    <mergeCell ref="J3:N3"/>
+    <mergeCell ref="X3:AB3"/>
+    <mergeCell ref="O1:U2"/>
+    <mergeCell ref="O3:P3"/>
+    <mergeCell ref="Q3:U3"/>
+    <mergeCell ref="O4:P4"/>
+    <mergeCell ref="Q4:U4"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C15" r:id="rId1" xr:uid="{868F8F85-B252-4B04-B081-E9B23AD46A23}"/>
@@ -6258,7 +6264,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1908B5E3-0D9D-48A8-894B-90B53E0249A0}">
   <dimension ref="A1:I26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
@@ -6565,12 +6571,14 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="E6:H6"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="E2:H2"/>
-    <mergeCell ref="E3:H3"/>
-    <mergeCell ref="E4:H4"/>
-    <mergeCell ref="E5:H5"/>
+    <mergeCell ref="E25:H25"/>
+    <mergeCell ref="E26:H26"/>
+    <mergeCell ref="E19:H19"/>
+    <mergeCell ref="E20:H20"/>
+    <mergeCell ref="E21:H21"/>
+    <mergeCell ref="E22:H22"/>
+    <mergeCell ref="E23:H23"/>
+    <mergeCell ref="E24:H24"/>
     <mergeCell ref="E18:H18"/>
     <mergeCell ref="E7:H7"/>
     <mergeCell ref="E8:H8"/>
@@ -6583,14 +6591,12 @@
     <mergeCell ref="E15:H15"/>
     <mergeCell ref="E16:H16"/>
     <mergeCell ref="E17:H17"/>
-    <mergeCell ref="E25:H25"/>
-    <mergeCell ref="E26:H26"/>
-    <mergeCell ref="E19:H19"/>
-    <mergeCell ref="E20:H20"/>
-    <mergeCell ref="E21:H21"/>
-    <mergeCell ref="E22:H22"/>
-    <mergeCell ref="E23:H23"/>
-    <mergeCell ref="E24:H24"/>
+    <mergeCell ref="E6:H6"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="E2:H2"/>
+    <mergeCell ref="E3:H3"/>
+    <mergeCell ref="E4:H4"/>
+    <mergeCell ref="E5:H5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6875,23 +6881,6 @@
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="D4:G4"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="D2:G2"/>
-    <mergeCell ref="D3:G3"/>
-    <mergeCell ref="D6:G6"/>
-    <mergeCell ref="D5:G5"/>
-    <mergeCell ref="D18:G18"/>
-    <mergeCell ref="D8:G8"/>
-    <mergeCell ref="D9:G9"/>
-    <mergeCell ref="D10:G10"/>
-    <mergeCell ref="D11:G11"/>
-    <mergeCell ref="D12:G12"/>
-    <mergeCell ref="D13:G13"/>
-    <mergeCell ref="D14:G14"/>
-    <mergeCell ref="D15:G15"/>
-    <mergeCell ref="D16:G16"/>
-    <mergeCell ref="D17:G17"/>
     <mergeCell ref="D30:G30"/>
     <mergeCell ref="D19:G19"/>
     <mergeCell ref="D20:G20"/>
@@ -6904,6 +6893,23 @@
     <mergeCell ref="D27:G27"/>
     <mergeCell ref="D28:G28"/>
     <mergeCell ref="D29:G29"/>
+    <mergeCell ref="D18:G18"/>
+    <mergeCell ref="D8:G8"/>
+    <mergeCell ref="D9:G9"/>
+    <mergeCell ref="D10:G10"/>
+    <mergeCell ref="D11:G11"/>
+    <mergeCell ref="D12:G12"/>
+    <mergeCell ref="D13:G13"/>
+    <mergeCell ref="D14:G14"/>
+    <mergeCell ref="D15:G15"/>
+    <mergeCell ref="D16:G16"/>
+    <mergeCell ref="D17:G17"/>
+    <mergeCell ref="D4:G4"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="D3:G3"/>
+    <mergeCell ref="D6:G6"/>
+    <mergeCell ref="D5:G5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/plans/todo.xlsx
+++ b/plans/todo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Edsquid\Documents\Personal Projects\Business\RogueLikeGame\plans\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF4C75BA-BB77-457A-8EAC-711E76E07FBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E9278C4-B7DF-40DF-87F8-3460AEBFB888}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5400" yWindow="2880" windowWidth="21600" windowHeight="11295" xr2:uid="{BA1E511D-BF64-4842-98DF-72E30276ED1C}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="465" uniqueCount="336">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="469" uniqueCount="338">
   <si>
     <t>Max Lives</t>
   </si>
@@ -1049,6 +1049,12 @@
   </si>
   <si>
     <t>Knockback</t>
+  </si>
+  <si>
+    <t>Shroom Runner</t>
+  </si>
+  <si>
+    <t>Yea yea</t>
   </si>
 </sst>
 </file>
@@ -1403,6 +1409,9 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1411,9 +1420,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -1747,8 +1753,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11CE061F-AFA4-4B9D-BFD1-A05915568E6D}">
   <dimension ref="A1:H338"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="A80" sqref="A80"/>
+    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="A74" sqref="A74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4900,121 +4906,121 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
-      <c r="H1" s="35" t="s">
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
+      <c r="H1" s="36" t="s">
         <v>194</v>
       </c>
-      <c r="I1" s="35"/>
-      <c r="J1" s="35"/>
-      <c r="K1" s="35"/>
-      <c r="L1" s="35"/>
-      <c r="M1" s="35"/>
-      <c r="N1" s="35"/>
-      <c r="O1" s="35" t="s">
+      <c r="I1" s="36"/>
+      <c r="J1" s="36"/>
+      <c r="K1" s="36"/>
+      <c r="L1" s="36"/>
+      <c r="M1" s="36"/>
+      <c r="N1" s="36"/>
+      <c r="O1" s="36" t="s">
         <v>195</v>
       </c>
-      <c r="P1" s="35"/>
-      <c r="Q1" s="35"/>
-      <c r="R1" s="35"/>
-      <c r="S1" s="35"/>
-      <c r="T1" s="35"/>
-      <c r="U1" s="35"/>
-      <c r="V1" s="35" t="s">
+      <c r="P1" s="36"/>
+      <c r="Q1" s="36"/>
+      <c r="R1" s="36"/>
+      <c r="S1" s="36"/>
+      <c r="T1" s="36"/>
+      <c r="U1" s="36"/>
+      <c r="V1" s="36" t="s">
         <v>35</v>
       </c>
-      <c r="W1" s="35"/>
-      <c r="X1" s="35"/>
-      <c r="Y1" s="35"/>
-      <c r="Z1" s="35"/>
-      <c r="AA1" s="35"/>
-      <c r="AB1" s="35"/>
+      <c r="W1" s="36"/>
+      <c r="X1" s="36"/>
+      <c r="Y1" s="36"/>
+      <c r="Z1" s="36"/>
+      <c r="AA1" s="36"/>
+      <c r="AB1" s="36"/>
       <c r="AD1" s="19" t="s">
         <v>268</v>
       </c>
     </row>
     <row r="2" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="35"/>
-      <c r="B2" s="35"/>
-      <c r="C2" s="35"/>
-      <c r="D2" s="35"/>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="35"/>
-      <c r="H2" s="35"/>
-      <c r="I2" s="35"/>
-      <c r="J2" s="35"/>
-      <c r="K2" s="35"/>
-      <c r="L2" s="35"/>
-      <c r="M2" s="35"/>
-      <c r="N2" s="35"/>
-      <c r="O2" s="35"/>
-      <c r="P2" s="35"/>
-      <c r="Q2" s="35"/>
-      <c r="R2" s="35"/>
-      <c r="S2" s="35"/>
-      <c r="T2" s="35"/>
-      <c r="U2" s="35"/>
-      <c r="V2" s="35"/>
-      <c r="W2" s="35"/>
-      <c r="X2" s="35"/>
-      <c r="Y2" s="35"/>
-      <c r="Z2" s="35"/>
-      <c r="AA2" s="35"/>
-      <c r="AB2" s="35"/>
+      <c r="A2" s="36"/>
+      <c r="B2" s="36"/>
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="36"/>
+      <c r="H2" s="36"/>
+      <c r="I2" s="36"/>
+      <c r="J2" s="36"/>
+      <c r="K2" s="36"/>
+      <c r="L2" s="36"/>
+      <c r="M2" s="36"/>
+      <c r="N2" s="36"/>
+      <c r="O2" s="36"/>
+      <c r="P2" s="36"/>
+      <c r="Q2" s="36"/>
+      <c r="R2" s="36"/>
+      <c r="S2" s="36"/>
+      <c r="T2" s="36"/>
+      <c r="U2" s="36"/>
+      <c r="V2" s="36"/>
+      <c r="W2" s="36"/>
+      <c r="X2" s="36"/>
+      <c r="Y2" s="36"/>
+      <c r="Z2" s="36"/>
+      <c r="AA2" s="36"/>
+      <c r="AB2" s="36"/>
     </row>
     <row r="3" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A3" s="36" t="s">
+      <c r="A3" s="37" t="s">
         <v>34</v>
       </c>
-      <c r="B3" s="36"/>
-      <c r="C3" s="37" t="s">
+      <c r="B3" s="37"/>
+      <c r="C3" s="38" t="s">
         <v>36</v>
       </c>
-      <c r="D3" s="37"/>
-      <c r="E3" s="37"/>
-      <c r="F3" s="37"/>
-      <c r="G3" s="37"/>
-      <c r="H3" s="36" t="s">
+      <c r="D3" s="38"/>
+      <c r="E3" s="38"/>
+      <c r="F3" s="38"/>
+      <c r="G3" s="38"/>
+      <c r="H3" s="37" t="s">
         <v>34</v>
       </c>
-      <c r="I3" s="36"/>
-      <c r="J3" s="37" t="s">
+      <c r="I3" s="37"/>
+      <c r="J3" s="38" t="s">
         <v>36</v>
       </c>
-      <c r="K3" s="37"/>
-      <c r="L3" s="37"/>
-      <c r="M3" s="37"/>
-      <c r="N3" s="37"/>
-      <c r="O3" s="36" t="s">
+      <c r="K3" s="38"/>
+      <c r="L3" s="38"/>
+      <c r="M3" s="38"/>
+      <c r="N3" s="38"/>
+      <c r="O3" s="37" t="s">
         <v>34</v>
       </c>
-      <c r="P3" s="36"/>
-      <c r="Q3" s="37" t="s">
+      <c r="P3" s="37"/>
+      <c r="Q3" s="38" t="s">
         <v>36</v>
       </c>
-      <c r="R3" s="37"/>
-      <c r="S3" s="37"/>
-      <c r="T3" s="37"/>
-      <c r="U3" s="37"/>
-      <c r="V3" s="36" t="s">
+      <c r="R3" s="38"/>
+      <c r="S3" s="38"/>
+      <c r="T3" s="38"/>
+      <c r="U3" s="38"/>
+      <c r="V3" s="37" t="s">
         <v>34</v>
       </c>
-      <c r="W3" s="36"/>
-      <c r="X3" s="37" t="s">
+      <c r="W3" s="37"/>
+      <c r="X3" s="38" t="s">
         <v>36</v>
       </c>
-      <c r="Y3" s="37"/>
-      <c r="Z3" s="37"/>
-      <c r="AA3" s="37"/>
-      <c r="AB3" s="37"/>
+      <c r="Y3" s="38"/>
+      <c r="Z3" s="38"/>
+      <c r="AA3" s="38"/>
+      <c r="AB3" s="38"/>
     </row>
     <row r="4" spans="1:30" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="32" t="s">
@@ -5377,13 +5383,13 @@
         <v>269</v>
       </c>
       <c r="B12" s="32"/>
-      <c r="C12" s="38" t="s">
+      <c r="C12" s="35" t="s">
         <v>270</v>
       </c>
-      <c r="D12" s="38"/>
-      <c r="E12" s="38"/>
-      <c r="F12" s="38"/>
-      <c r="G12" s="38"/>
+      <c r="D12" s="35"/>
+      <c r="E12" s="35"/>
+      <c r="F12" s="35"/>
+      <c r="G12" s="35"/>
       <c r="H12" s="32" t="s">
         <v>76</v>
       </c>
@@ -5415,13 +5421,13 @@
         <v>274</v>
       </c>
       <c r="B13" s="32"/>
-      <c r="C13" s="38" t="s">
+      <c r="C13" s="35" t="s">
         <v>273</v>
       </c>
-      <c r="D13" s="38"/>
-      <c r="E13" s="38"/>
-      <c r="F13" s="38"/>
-      <c r="G13" s="38"/>
+      <c r="D13" s="35"/>
+      <c r="E13" s="35"/>
+      <c r="F13" s="35"/>
+      <c r="G13" s="35"/>
       <c r="H13" s="32" t="s">
         <v>46</v>
       </c>
@@ -5461,13 +5467,13 @@
         <v>278</v>
       </c>
       <c r="B14" s="32"/>
-      <c r="C14" s="38" t="s">
+      <c r="C14" s="35" t="s">
         <v>277</v>
       </c>
-      <c r="D14" s="38"/>
-      <c r="E14" s="38"/>
-      <c r="F14" s="38"/>
-      <c r="G14" s="38"/>
+      <c r="D14" s="35"/>
+      <c r="E14" s="35"/>
+      <c r="F14" s="35"/>
+      <c r="G14" s="35"/>
       <c r="H14" s="32"/>
       <c r="I14" s="32"/>
       <c r="J14" s="33"/>
@@ -5495,7 +5501,7 @@
         <v>279</v>
       </c>
       <c r="B15" s="32"/>
-      <c r="C15" s="38" t="s">
+      <c r="C15" s="35" t="s">
         <v>280</v>
       </c>
       <c r="D15" s="33"/>
@@ -6012,147 +6018,77 @@
     </row>
   </sheetData>
   <mergeCells count="236">
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="C34:G34"/>
-    <mergeCell ref="H34:I34"/>
-    <mergeCell ref="J34:N34"/>
-    <mergeCell ref="O34:P34"/>
-    <mergeCell ref="Q34:U34"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="C33:G33"/>
-    <mergeCell ref="H33:I33"/>
-    <mergeCell ref="J33:N33"/>
-    <mergeCell ref="O33:P33"/>
-    <mergeCell ref="Q33:U33"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="C32:G32"/>
-    <mergeCell ref="H32:I32"/>
-    <mergeCell ref="J32:N32"/>
-    <mergeCell ref="O32:P32"/>
-    <mergeCell ref="Q32:U32"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="C31:G31"/>
-    <mergeCell ref="H31:I31"/>
-    <mergeCell ref="J31:N31"/>
-    <mergeCell ref="O31:P31"/>
-    <mergeCell ref="Q31:U31"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="C30:G30"/>
-    <mergeCell ref="H30:I30"/>
-    <mergeCell ref="J30:N30"/>
-    <mergeCell ref="O30:P30"/>
-    <mergeCell ref="Q30:U30"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="C29:G29"/>
-    <mergeCell ref="H29:I29"/>
-    <mergeCell ref="J29:N29"/>
-    <mergeCell ref="O29:P29"/>
-    <mergeCell ref="Q29:U29"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="C28:G28"/>
-    <mergeCell ref="H28:I28"/>
-    <mergeCell ref="J28:N28"/>
-    <mergeCell ref="O28:P28"/>
-    <mergeCell ref="Q28:U28"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="C27:G27"/>
-    <mergeCell ref="H27:I27"/>
-    <mergeCell ref="J27:N27"/>
-    <mergeCell ref="O27:P27"/>
-    <mergeCell ref="Q27:U27"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="C26:G26"/>
-    <mergeCell ref="H26:I26"/>
-    <mergeCell ref="J26:N26"/>
-    <mergeCell ref="O26:P26"/>
-    <mergeCell ref="Q26:U26"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="C25:G25"/>
-    <mergeCell ref="H25:I25"/>
-    <mergeCell ref="J25:N25"/>
-    <mergeCell ref="O25:P25"/>
-    <mergeCell ref="Q25:U25"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="C24:G24"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="J24:N24"/>
-    <mergeCell ref="O24:P24"/>
-    <mergeCell ref="Q24:U24"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="C23:G23"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="J23:N23"/>
-    <mergeCell ref="O23:P23"/>
-    <mergeCell ref="Q23:U23"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="C22:G22"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="J22:N22"/>
-    <mergeCell ref="V22:W22"/>
-    <mergeCell ref="X22:AB22"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="C21:G21"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="J21:N21"/>
-    <mergeCell ref="V21:W21"/>
-    <mergeCell ref="X21:AB21"/>
-    <mergeCell ref="O21:P21"/>
-    <mergeCell ref="Q21:U21"/>
-    <mergeCell ref="O22:P22"/>
-    <mergeCell ref="Q22:U22"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="C20:G20"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="J20:N20"/>
-    <mergeCell ref="V20:W20"/>
-    <mergeCell ref="X20:AB20"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="C19:G19"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="J19:N19"/>
-    <mergeCell ref="V19:W19"/>
-    <mergeCell ref="X19:AB19"/>
-    <mergeCell ref="O19:P19"/>
-    <mergeCell ref="Q19:U19"/>
-    <mergeCell ref="O20:P20"/>
-    <mergeCell ref="Q20:U20"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C18:G18"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="J18:N18"/>
-    <mergeCell ref="V18:W18"/>
-    <mergeCell ref="X18:AB18"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="C17:G17"/>
-    <mergeCell ref="V17:W17"/>
-    <mergeCell ref="X17:AB17"/>
-    <mergeCell ref="O17:P17"/>
-    <mergeCell ref="Q17:U17"/>
-    <mergeCell ref="O18:P18"/>
-    <mergeCell ref="Q18:U18"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="C16:G16"/>
-    <mergeCell ref="V16:W16"/>
-    <mergeCell ref="X16:AB16"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="C15:G15"/>
-    <mergeCell ref="V15:W15"/>
-    <mergeCell ref="X15:AB15"/>
-    <mergeCell ref="O15:P15"/>
-    <mergeCell ref="Q15:U15"/>
-    <mergeCell ref="O16:P16"/>
-    <mergeCell ref="Q16:U16"/>
-    <mergeCell ref="V13:W13"/>
-    <mergeCell ref="J14:N14"/>
-    <mergeCell ref="V14:W14"/>
-    <mergeCell ref="X14:AB14"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="C13:G13"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="J13:N13"/>
-    <mergeCell ref="X13:AB13"/>
-    <mergeCell ref="O14:P14"/>
-    <mergeCell ref="Q14:U14"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="J4:N4"/>
+    <mergeCell ref="V4:W4"/>
+    <mergeCell ref="X4:AB4"/>
+    <mergeCell ref="A1:G2"/>
+    <mergeCell ref="H1:N2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:G3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="V1:AB2"/>
+    <mergeCell ref="V3:W3"/>
+    <mergeCell ref="J3:N3"/>
+    <mergeCell ref="X3:AB3"/>
+    <mergeCell ref="O1:U2"/>
+    <mergeCell ref="O3:P3"/>
+    <mergeCell ref="Q3:U3"/>
+    <mergeCell ref="O4:P4"/>
+    <mergeCell ref="Q4:U4"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="J6:N6"/>
+    <mergeCell ref="V6:W6"/>
+    <mergeCell ref="X6:AB6"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="J17:N17"/>
+    <mergeCell ref="V5:W5"/>
+    <mergeCell ref="X5:AB5"/>
+    <mergeCell ref="O5:P5"/>
+    <mergeCell ref="Q5:U5"/>
+    <mergeCell ref="O6:P6"/>
+    <mergeCell ref="Q6:U6"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="J5:N5"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="J8:N8"/>
+    <mergeCell ref="V8:W8"/>
+    <mergeCell ref="X8:AB8"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:N7"/>
+    <mergeCell ref="V7:W7"/>
+    <mergeCell ref="X7:AB7"/>
+    <mergeCell ref="O7:P7"/>
+    <mergeCell ref="Q7:U7"/>
+    <mergeCell ref="Q8:U8"/>
+    <mergeCell ref="O8:P8"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C10:G10"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="J10:N10"/>
+    <mergeCell ref="V10:W10"/>
+    <mergeCell ref="X10:AB10"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:G9"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="J9:N9"/>
+    <mergeCell ref="V9:W9"/>
+    <mergeCell ref="X9:AB9"/>
+    <mergeCell ref="O9:P9"/>
+    <mergeCell ref="Q9:U9"/>
+    <mergeCell ref="O10:P10"/>
+    <mergeCell ref="Q10:U10"/>
     <mergeCell ref="A12:B12"/>
     <mergeCell ref="C12:G12"/>
     <mergeCell ref="H16:I16"/>
@@ -6177,77 +6113,147 @@
     <mergeCell ref="Q13:U13"/>
     <mergeCell ref="A14:B14"/>
     <mergeCell ref="C14:G14"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="C10:G10"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="J10:N10"/>
-    <mergeCell ref="V10:W10"/>
-    <mergeCell ref="X10:AB10"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="C9:G9"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="J9:N9"/>
-    <mergeCell ref="V9:W9"/>
-    <mergeCell ref="X9:AB9"/>
-    <mergeCell ref="O9:P9"/>
-    <mergeCell ref="Q9:U9"/>
-    <mergeCell ref="O10:P10"/>
-    <mergeCell ref="Q10:U10"/>
-    <mergeCell ref="X8:AB8"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="J7:N7"/>
-    <mergeCell ref="V7:W7"/>
-    <mergeCell ref="X7:AB7"/>
-    <mergeCell ref="O7:P7"/>
-    <mergeCell ref="Q7:U7"/>
-    <mergeCell ref="Q8:U8"/>
-    <mergeCell ref="O8:P8"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="J6:N6"/>
-    <mergeCell ref="V6:W6"/>
-    <mergeCell ref="X6:AB6"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:G5"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="J17:N17"/>
-    <mergeCell ref="V5:W5"/>
-    <mergeCell ref="X5:AB5"/>
-    <mergeCell ref="O5:P5"/>
-    <mergeCell ref="Q5:U5"/>
-    <mergeCell ref="O6:P6"/>
-    <mergeCell ref="Q6:U6"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="J5:N5"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="C8:G8"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="J8:N8"/>
-    <mergeCell ref="V8:W8"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:G4"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="J4:N4"/>
-    <mergeCell ref="V4:W4"/>
-    <mergeCell ref="X4:AB4"/>
-    <mergeCell ref="A1:G2"/>
-    <mergeCell ref="H1:N2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:G3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="V1:AB2"/>
-    <mergeCell ref="V3:W3"/>
-    <mergeCell ref="J3:N3"/>
-    <mergeCell ref="X3:AB3"/>
-    <mergeCell ref="O1:U2"/>
-    <mergeCell ref="O3:P3"/>
-    <mergeCell ref="Q3:U3"/>
-    <mergeCell ref="O4:P4"/>
-    <mergeCell ref="Q4:U4"/>
+    <mergeCell ref="V13:W13"/>
+    <mergeCell ref="J14:N14"/>
+    <mergeCell ref="V14:W14"/>
+    <mergeCell ref="X14:AB14"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C13:G13"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="J13:N13"/>
+    <mergeCell ref="X13:AB13"/>
+    <mergeCell ref="O14:P14"/>
+    <mergeCell ref="Q14:U14"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:G16"/>
+    <mergeCell ref="V16:W16"/>
+    <mergeCell ref="X16:AB16"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C15:G15"/>
+    <mergeCell ref="V15:W15"/>
+    <mergeCell ref="X15:AB15"/>
+    <mergeCell ref="O15:P15"/>
+    <mergeCell ref="Q15:U15"/>
+    <mergeCell ref="O16:P16"/>
+    <mergeCell ref="Q16:U16"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="J18:N18"/>
+    <mergeCell ref="V18:W18"/>
+    <mergeCell ref="X18:AB18"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C17:G17"/>
+    <mergeCell ref="V17:W17"/>
+    <mergeCell ref="X17:AB17"/>
+    <mergeCell ref="O17:P17"/>
+    <mergeCell ref="Q17:U17"/>
+    <mergeCell ref="O18:P18"/>
+    <mergeCell ref="Q18:U18"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="J20:N20"/>
+    <mergeCell ref="V20:W20"/>
+    <mergeCell ref="X20:AB20"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="J19:N19"/>
+    <mergeCell ref="V19:W19"/>
+    <mergeCell ref="X19:AB19"/>
+    <mergeCell ref="O19:P19"/>
+    <mergeCell ref="Q19:U19"/>
+    <mergeCell ref="O20:P20"/>
+    <mergeCell ref="Q20:U20"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="C22:G22"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="J22:N22"/>
+    <mergeCell ref="V22:W22"/>
+    <mergeCell ref="X22:AB22"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="J21:N21"/>
+    <mergeCell ref="V21:W21"/>
+    <mergeCell ref="X21:AB21"/>
+    <mergeCell ref="O21:P21"/>
+    <mergeCell ref="Q21:U21"/>
+    <mergeCell ref="O22:P22"/>
+    <mergeCell ref="Q22:U22"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="C24:G24"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="J24:N24"/>
+    <mergeCell ref="O24:P24"/>
+    <mergeCell ref="Q24:U24"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="C23:G23"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="J23:N23"/>
+    <mergeCell ref="O23:P23"/>
+    <mergeCell ref="Q23:U23"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="C26:G26"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="J26:N26"/>
+    <mergeCell ref="O26:P26"/>
+    <mergeCell ref="Q26:U26"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="C25:G25"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="J25:N25"/>
+    <mergeCell ref="O25:P25"/>
+    <mergeCell ref="Q25:U25"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="C28:G28"/>
+    <mergeCell ref="H28:I28"/>
+    <mergeCell ref="J28:N28"/>
+    <mergeCell ref="O28:P28"/>
+    <mergeCell ref="Q28:U28"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="C27:G27"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="J27:N27"/>
+    <mergeCell ref="O27:P27"/>
+    <mergeCell ref="Q27:U27"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="C30:G30"/>
+    <mergeCell ref="H30:I30"/>
+    <mergeCell ref="J30:N30"/>
+    <mergeCell ref="O30:P30"/>
+    <mergeCell ref="Q30:U30"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="C29:G29"/>
+    <mergeCell ref="H29:I29"/>
+    <mergeCell ref="J29:N29"/>
+    <mergeCell ref="O29:P29"/>
+    <mergeCell ref="Q29:U29"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="C32:G32"/>
+    <mergeCell ref="H32:I32"/>
+    <mergeCell ref="J32:N32"/>
+    <mergeCell ref="O32:P32"/>
+    <mergeCell ref="Q32:U32"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="C31:G31"/>
+    <mergeCell ref="H31:I31"/>
+    <mergeCell ref="J31:N31"/>
+    <mergeCell ref="O31:P31"/>
+    <mergeCell ref="Q31:U31"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="C34:G34"/>
+    <mergeCell ref="H34:I34"/>
+    <mergeCell ref="J34:N34"/>
+    <mergeCell ref="O34:P34"/>
+    <mergeCell ref="Q34:U34"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="C33:G33"/>
+    <mergeCell ref="H33:I33"/>
+    <mergeCell ref="J33:N33"/>
+    <mergeCell ref="O33:P33"/>
+    <mergeCell ref="Q33:U33"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C15" r:id="rId1" xr:uid="{868F8F85-B252-4B04-B081-E9B23AD46A23}"/>
@@ -6264,8 +6270,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1908B5E3-0D9D-48A8-894B-90B53E0249A0}">
   <dimension ref="A1:I26"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15:H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6492,7 +6498,21 @@
       <c r="H13" s="39"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="E14" s="39"/>
+      <c r="A14" s="14" t="s">
+        <v>336</v>
+      </c>
+      <c r="B14" s="14" t="s">
+        <v>295</v>
+      </c>
+      <c r="C14" s="21">
+        <v>1</v>
+      </c>
+      <c r="D14" s="14" t="s">
+        <v>300</v>
+      </c>
+      <c r="E14" s="39" t="s">
+        <v>337</v>
+      </c>
       <c r="F14" s="39"/>
       <c r="G14" s="39"/>
       <c r="H14" s="39"/>
@@ -6571,14 +6591,12 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="E25:H25"/>
-    <mergeCell ref="E26:H26"/>
-    <mergeCell ref="E19:H19"/>
-    <mergeCell ref="E20:H20"/>
-    <mergeCell ref="E21:H21"/>
-    <mergeCell ref="E22:H22"/>
-    <mergeCell ref="E23:H23"/>
-    <mergeCell ref="E24:H24"/>
+    <mergeCell ref="E6:H6"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="E2:H2"/>
+    <mergeCell ref="E3:H3"/>
+    <mergeCell ref="E4:H4"/>
+    <mergeCell ref="E5:H5"/>
     <mergeCell ref="E18:H18"/>
     <mergeCell ref="E7:H7"/>
     <mergeCell ref="E8:H8"/>
@@ -6591,12 +6609,14 @@
     <mergeCell ref="E15:H15"/>
     <mergeCell ref="E16:H16"/>
     <mergeCell ref="E17:H17"/>
-    <mergeCell ref="E6:H6"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="E2:H2"/>
-    <mergeCell ref="E3:H3"/>
-    <mergeCell ref="E4:H4"/>
-    <mergeCell ref="E5:H5"/>
+    <mergeCell ref="E25:H25"/>
+    <mergeCell ref="E26:H26"/>
+    <mergeCell ref="E19:H19"/>
+    <mergeCell ref="E20:H20"/>
+    <mergeCell ref="E21:H21"/>
+    <mergeCell ref="E22:H22"/>
+    <mergeCell ref="E23:H23"/>
+    <mergeCell ref="E24:H24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6881,6 +6901,23 @@
     </row>
   </sheetData>
   <mergeCells count="29">
+    <mergeCell ref="D4:G4"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="D3:G3"/>
+    <mergeCell ref="D6:G6"/>
+    <mergeCell ref="D5:G5"/>
+    <mergeCell ref="D18:G18"/>
+    <mergeCell ref="D8:G8"/>
+    <mergeCell ref="D9:G9"/>
+    <mergeCell ref="D10:G10"/>
+    <mergeCell ref="D11:G11"/>
+    <mergeCell ref="D12:G12"/>
+    <mergeCell ref="D13:G13"/>
+    <mergeCell ref="D14:G14"/>
+    <mergeCell ref="D15:G15"/>
+    <mergeCell ref="D16:G16"/>
+    <mergeCell ref="D17:G17"/>
     <mergeCell ref="D30:G30"/>
     <mergeCell ref="D19:G19"/>
     <mergeCell ref="D20:G20"/>
@@ -6893,23 +6930,6 @@
     <mergeCell ref="D27:G27"/>
     <mergeCell ref="D28:G28"/>
     <mergeCell ref="D29:G29"/>
-    <mergeCell ref="D18:G18"/>
-    <mergeCell ref="D8:G8"/>
-    <mergeCell ref="D9:G9"/>
-    <mergeCell ref="D10:G10"/>
-    <mergeCell ref="D11:G11"/>
-    <mergeCell ref="D12:G12"/>
-    <mergeCell ref="D13:G13"/>
-    <mergeCell ref="D14:G14"/>
-    <mergeCell ref="D15:G15"/>
-    <mergeCell ref="D16:G16"/>
-    <mergeCell ref="D17:G17"/>
-    <mergeCell ref="D4:G4"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="D2:G2"/>
-    <mergeCell ref="D3:G3"/>
-    <mergeCell ref="D6:G6"/>
-    <mergeCell ref="D5:G5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/plans/todo.xlsx
+++ b/plans/todo.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Edsquid\Documents\Personal Projects\Business\RogueLikeGame\plans\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E9278C4-B7DF-40DF-87F8-3460AEBFB888}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1755394E-7419-40D9-A2DD-839416B6D9F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5400" yWindow="2880" windowWidth="21600" windowHeight="11295" xr2:uid="{BA1E511D-BF64-4842-98DF-72E30276ED1C}"/>
+    <workbookView xWindow="6075" yWindow="1455" windowWidth="21600" windowHeight="14850" activeTab="5" xr2:uid="{BA1E511D-BF64-4842-98DF-72E30276ED1C}"/>
   </bookViews>
   <sheets>
     <sheet name="Attributes" sheetId="3" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="469" uniqueCount="338">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="496" uniqueCount="363">
   <si>
     <t>Max Lives</t>
   </si>
@@ -1048,13 +1048,88 @@
     <t>Runs up to player, explodes when close or killed</t>
   </si>
   <si>
-    <t>Knockback</t>
-  </si>
-  <si>
     <t>Shroom Runner</t>
   </si>
   <si>
     <t>Yea yea</t>
+  </si>
+  <si>
+    <t>XP Grab (big distance)</t>
+  </si>
+  <si>
+    <t>Knockfoward</t>
+  </si>
+  <si>
+    <t>Object</t>
+  </si>
+  <si>
+    <t>All maps</t>
+  </si>
+  <si>
+    <t>Pots/crates/trees</t>
+  </si>
+  <si>
+    <t>Player can destroy them, make them move when walking past them, make them physics objects in the world. Drop pickups ^^^</t>
+  </si>
+  <si>
+    <t>Healing Rune</t>
+  </si>
+  <si>
+    <t>Pickup Instant</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>Drops</t>
+  </si>
+  <si>
+    <t>XP</t>
+  </si>
+  <si>
+    <t>Enemies can drop only one type of item</t>
+  </si>
+  <si>
+    <t>All drops have a % chance</t>
+  </si>
+  <si>
+    <t>crates and vases have an increased chance</t>
+  </si>
+  <si>
+    <t>Weapon Unlock</t>
+  </si>
+  <si>
+    <t>Pickup, prompt</t>
+  </si>
+  <si>
+    <t>Drop a weapon that you can then unlock in the shop, can drop only under certain conditions</t>
+  </si>
+  <si>
+    <t>E to pickup</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q to use equipped item? </t>
+  </si>
+  <si>
+    <t>Conditional</t>
+  </si>
+  <si>
+    <t>Area Traps</t>
+  </si>
+  <si>
+    <t>Make area effect permanent option, when entity enter, create new one that does vine stuff or if healing then just heal</t>
+  </si>
+  <si>
+    <t>Mushroom spores</t>
+  </si>
+  <si>
+    <t>Area Trap</t>
+  </si>
+  <si>
+    <t>Mushroom map</t>
+  </si>
+  <si>
+    <t>Step on/shoot X themed mushroom = explode</t>
   </si>
 </sst>
 </file>
@@ -1138,7 +1213,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="16">
+  <fills count="17">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1226,6 +1301,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="-0.499984740745262"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1335,7 +1416,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1436,6 +1517,7 @@
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1753,8 +1835,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11CE061F-AFA4-4B9D-BFD1-A05915568E6D}">
   <dimension ref="A1:H338"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="A74" sqref="A74"/>
+    <sheetView topLeftCell="A121" workbookViewId="0">
+      <selection activeCell="A144" sqref="A144"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2857,6 +2939,9 @@
       <c r="G75" s="2"/>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A76" s="2" t="s">
+        <v>337</v>
+      </c>
       <c r="F76" s="1">
         <v>5</v>
       </c>
@@ -2882,7 +2967,7 @@
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="F79" s="1">
         <v>5</v>
@@ -6499,7 +6584,7 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="14" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B14" s="14" t="s">
         <v>295</v>
@@ -6511,7 +6596,7 @@
         <v>300</v>
       </c>
       <c r="E14" s="39" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="F14" s="39"/>
       <c r="G14" s="39"/>
@@ -6624,26 +6709,28 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DD47BAA-02B8-4E56-868D-4BC0DFE6F64A}">
-  <dimension ref="A1:G30"/>
+  <dimension ref="A1:J30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15:G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19" style="5" customWidth="1"/>
-    <col min="2" max="2" width="14" style="5" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" style="5" customWidth="1"/>
     <col min="3" max="3" width="27.85546875" style="5" customWidth="1"/>
     <col min="4" max="4" width="12.140625" style="5" customWidth="1"/>
     <col min="5" max="5" width="9.140625" style="5"/>
     <col min="6" max="6" width="17.140625" style="5" customWidth="1"/>
-    <col min="7" max="7" width="19.5703125" style="5" customWidth="1"/>
+    <col min="7" max="7" width="51" style="5" customWidth="1"/>
     <col min="8" max="8" width="15.140625" style="5" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="5"/>
+    <col min="9" max="9" width="14.85546875" style="5" customWidth="1"/>
+    <col min="10" max="10" width="48.85546875" style="5" customWidth="1"/>
+    <col min="11" max="16384" width="9.140625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:10" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A1" s="42" t="s">
         <v>311</v>
       </c>
@@ -6654,7 +6741,7 @@
       <c r="F1" s="42"/>
       <c r="G1" s="42"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="20" t="s">
         <v>82</v>
       </c>
@@ -6670,8 +6757,11 @@
       <c r="E2" s="43"/>
       <c r="F2" s="43"/>
       <c r="G2" s="43"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I2" s="44" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>312</v>
       </c>
@@ -6687,8 +6777,14 @@
       <c r="E3" s="41"/>
       <c r="F3" s="41"/>
       <c r="G3" s="41"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I3" s="5" t="s">
+        <v>346</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>318</v>
       </c>
@@ -6704,8 +6800,11 @@
       <c r="E4" s="41"/>
       <c r="F4" s="41"/>
       <c r="G4" s="41"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J4" s="5" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>316</v>
       </c>
@@ -6721,8 +6820,11 @@
       <c r="E5" s="41"/>
       <c r="F5" s="41"/>
       <c r="G5" s="41"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J5" s="5" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>315</v>
       </c>
@@ -6739,31 +6841,65 @@
       <c r="F6" s="41"/>
       <c r="G6" s="41"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>343</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>344</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
+        <v>347</v>
+      </c>
       <c r="D8" s="41"/>
       <c r="E8" s="41"/>
       <c r="F8" s="41"/>
       <c r="G8" s="41"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D9" s="41"/>
+      <c r="I8" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="J8" s="5" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
+        <v>351</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>352</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>356</v>
+      </c>
+      <c r="D9" s="41" t="s">
+        <v>353</v>
+      </c>
       <c r="E9" s="41"/>
       <c r="F9" s="41"/>
       <c r="G9" s="41"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J9" s="5" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D10" s="41"/>
       <c r="E10" s="41"/>
       <c r="F10" s="41"/>
       <c r="G10" s="41"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D11" s="41"/>
       <c r="E11" s="41"/>
       <c r="F11" s="41"/>
       <c r="G11" s="41"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>323</v>
       </c>
@@ -6779,8 +6915,14 @@
       <c r="E12" s="41"/>
       <c r="F12" s="41"/>
       <c r="G12" s="41"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I12" s="5" t="s">
+        <v>357</v>
+      </c>
+      <c r="J12" s="14" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>327</v>
       </c>
@@ -6797,103 +6939,125 @@
       <c r="F13" s="41"/>
       <c r="G13" s="41"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D14" s="41"/>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="5" t="s">
+        <v>359</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>360</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>361</v>
+      </c>
+      <c r="D14" s="41" t="s">
+        <v>362</v>
+      </c>
       <c r="E14" s="41"/>
       <c r="F14" s="41"/>
       <c r="G14" s="41"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D15" s="41"/>
       <c r="E15" s="41"/>
       <c r="F15" s="41"/>
       <c r="G15" s="41"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D16" s="41"/>
       <c r="E16" s="41"/>
       <c r="F16" s="41"/>
       <c r="G16" s="41"/>
     </row>
-    <row r="17" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D17" s="41"/>
-      <c r="E17" s="41"/>
-      <c r="F17" s="41"/>
-      <c r="G17" s="41"/>
-    </row>
-    <row r="18" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="5" t="s">
+        <v>341</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>339</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>340</v>
+      </c>
+      <c r="D17" s="39" t="s">
+        <v>342</v>
+      </c>
+      <c r="E17" s="39"/>
+      <c r="F17" s="39"/>
+      <c r="G17" s="39"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D18" s="41"/>
       <c r="E18" s="41"/>
       <c r="F18" s="41"/>
       <c r="G18" s="41"/>
     </row>
-    <row r="19" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D19" s="41"/>
       <c r="E19" s="41"/>
       <c r="F19" s="41"/>
       <c r="G19" s="41"/>
     </row>
-    <row r="20" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D20" s="41"/>
       <c r="E20" s="41"/>
       <c r="F20" s="41"/>
       <c r="G20" s="41"/>
     </row>
-    <row r="21" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D21" s="41"/>
       <c r="E21" s="41"/>
       <c r="F21" s="41"/>
       <c r="G21" s="41"/>
     </row>
-    <row r="22" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D22" s="41"/>
       <c r="E22" s="41"/>
       <c r="F22" s="41"/>
       <c r="G22" s="41"/>
     </row>
-    <row r="23" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D23" s="41"/>
       <c r="E23" s="41"/>
       <c r="F23" s="41"/>
       <c r="G23" s="41"/>
     </row>
-    <row r="24" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D24" s="41"/>
       <c r="E24" s="41"/>
       <c r="F24" s="41"/>
       <c r="G24" s="41"/>
     </row>
-    <row r="25" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D25" s="41"/>
       <c r="E25" s="41"/>
       <c r="F25" s="41"/>
       <c r="G25" s="41"/>
     </row>
-    <row r="26" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D26" s="41"/>
       <c r="E26" s="41"/>
       <c r="F26" s="41"/>
       <c r="G26" s="41"/>
     </row>
-    <row r="27" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D27" s="41"/>
       <c r="E27" s="41"/>
       <c r="F27" s="41"/>
       <c r="G27" s="41"/>
     </row>
-    <row r="28" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D28" s="41"/>
       <c r="E28" s="41"/>
       <c r="F28" s="41"/>
       <c r="G28" s="41"/>
     </row>
-    <row r="29" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D29" s="41"/>
       <c r="E29" s="41"/>
       <c r="F29" s="41"/>
       <c r="G29" s="41"/>
     </row>
-    <row r="30" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D30" s="41"/>
       <c r="E30" s="41"/>
       <c r="F30" s="41"/>

--- a/plans/todo.xlsx
+++ b/plans/todo.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Edsquid\Documents\Personal Projects\Business\RogueLikeGame\plans\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1755394E-7419-40D9-A2DD-839416B6D9F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA0D981C-4DCA-4138-AC9E-59BAE4247CD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6075" yWindow="1455" windowWidth="21600" windowHeight="14850" activeTab="5" xr2:uid="{BA1E511D-BF64-4842-98DF-72E30276ED1C}"/>
+    <workbookView xWindow="29610" yWindow="2385" windowWidth="14595" windowHeight="12540" activeTab="5" xr2:uid="{BA1E511D-BF64-4842-98DF-72E30276ED1C}"/>
   </bookViews>
   <sheets>
     <sheet name="Attributes" sheetId="3" r:id="rId1"/>
@@ -1454,6 +1454,7 @@
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1490,9 +1491,6 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1501,6 +1499,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -1517,7 +1518,6 @@
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1853,27 +1853,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="28" t="s">
         <v>81</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
       <c r="H1" s="9" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="29"/>
-      <c r="B2" s="30"/>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
-      <c r="G2" s="30"/>
+      <c r="A2" s="30"/>
+      <c r="B2" s="31"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
       <c r="H2" s="11" t="s">
         <v>207</v>
       </c>
@@ -1903,15 +1903,15 @@
       <c r="H3" s="8"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="23" t="s">
+      <c r="A4" s="24" t="s">
         <v>208</v>
       </c>
-      <c r="B4" s="23"/>
-      <c r="C4" s="23"/>
-      <c r="D4" s="23"/>
-      <c r="E4" s="23"/>
-      <c r="F4" s="23"/>
-      <c r="G4" s="23"/>
+      <c r="B4" s="24"/>
+      <c r="C4" s="24"/>
+      <c r="D4" s="24"/>
+      <c r="E4" s="24"/>
+      <c r="F4" s="24"/>
+      <c r="G4" s="24"/>
       <c r="H4" s="8"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -2419,15 +2419,15 @@
       <c r="G33" s="4"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="25" t="s">
+      <c r="A34" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="B34" s="25"/>
-      <c r="C34" s="25"/>
-      <c r="D34" s="25"/>
-      <c r="E34" s="25"/>
-      <c r="F34" s="25"/>
-      <c r="G34" s="25"/>
+      <c r="B34" s="26"/>
+      <c r="C34" s="26"/>
+      <c r="D34" s="26"/>
+      <c r="E34" s="26"/>
+      <c r="F34" s="26"/>
+      <c r="G34" s="26"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
@@ -2562,15 +2562,15 @@
       <c r="G43" s="4"/>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A44" s="26" t="s">
+      <c r="A44" s="27" t="s">
         <v>166</v>
       </c>
-      <c r="B44" s="26"/>
-      <c r="C44" s="26"/>
-      <c r="D44" s="26"/>
-      <c r="E44" s="26"/>
-      <c r="F44" s="26"/>
-      <c r="G44" s="26"/>
+      <c r="B44" s="27"/>
+      <c r="C44" s="27"/>
+      <c r="D44" s="27"/>
+      <c r="E44" s="27"/>
+      <c r="F44" s="27"/>
+      <c r="G44" s="27"/>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
@@ -3434,15 +3434,15 @@
       <c r="G133" s="4"/>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A134" s="24" t="s">
+      <c r="A134" s="25" t="s">
         <v>178</v>
       </c>
-      <c r="B134" s="24"/>
-      <c r="C134" s="24"/>
-      <c r="D134" s="24"/>
-      <c r="E134" s="24"/>
-      <c r="F134" s="24"/>
-      <c r="G134" s="24"/>
+      <c r="B134" s="25"/>
+      <c r="C134" s="25"/>
+      <c r="D134" s="25"/>
+      <c r="E134" s="25"/>
+      <c r="F134" s="25"/>
+      <c r="G134" s="25"/>
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A135" s="2" t="s">
@@ -4760,15 +4760,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="32" t="s">
         <v>223</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
@@ -4847,13 +4847,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="32" t="s">
         <v>222</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="17" t="s">
@@ -5108,1021 +5108,1193 @@
       <c r="AB3" s="38"/>
     </row>
     <row r="4" spans="1:30" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="32" t="s">
+      <c r="A4" s="33" t="s">
         <v>40</v>
       </c>
-      <c r="B4" s="32"/>
-      <c r="C4" s="33" t="s">
+      <c r="B4" s="33"/>
+      <c r="C4" s="34" t="s">
         <v>43</v>
       </c>
-      <c r="D4" s="33"/>
-      <c r="E4" s="33"/>
-      <c r="F4" s="33"/>
-      <c r="G4" s="33"/>
-      <c r="H4" s="32" t="s">
+      <c r="D4" s="34"/>
+      <c r="E4" s="34"/>
+      <c r="F4" s="34"/>
+      <c r="G4" s="34"/>
+      <c r="H4" s="33" t="s">
         <v>44</v>
       </c>
-      <c r="I4" s="32"/>
-      <c r="J4" s="33" t="s">
+      <c r="I4" s="33"/>
+      <c r="J4" s="34" t="s">
         <v>45</v>
       </c>
-      <c r="K4" s="33"/>
-      <c r="L4" s="33"/>
-      <c r="M4" s="33"/>
-      <c r="N4" s="33"/>
-      <c r="O4" s="34" t="s">
+      <c r="K4" s="34"/>
+      <c r="L4" s="34"/>
+      <c r="M4" s="34"/>
+      <c r="N4" s="34"/>
+      <c r="O4" s="35" t="s">
         <v>196</v>
       </c>
-      <c r="P4" s="34"/>
-      <c r="Q4" s="33" t="s">
+      <c r="P4" s="35"/>
+      <c r="Q4" s="34" t="s">
         <v>197</v>
       </c>
-      <c r="R4" s="33"/>
-      <c r="S4" s="33"/>
-      <c r="T4" s="33"/>
-      <c r="U4" s="33"/>
-      <c r="V4" s="34" t="s">
+      <c r="R4" s="34"/>
+      <c r="S4" s="34"/>
+      <c r="T4" s="34"/>
+      <c r="U4" s="34"/>
+      <c r="V4" s="35" t="s">
         <v>61</v>
       </c>
-      <c r="W4" s="34"/>
-      <c r="X4" s="33" t="s">
+      <c r="W4" s="35"/>
+      <c r="X4" s="34" t="s">
         <v>60</v>
       </c>
-      <c r="Y4" s="33"/>
-      <c r="Z4" s="33"/>
-      <c r="AA4" s="33"/>
-      <c r="AB4" s="33"/>
+      <c r="Y4" s="34"/>
+      <c r="Z4" s="34"/>
+      <c r="AA4" s="34"/>
+      <c r="AB4" s="34"/>
     </row>
     <row r="5" spans="1:30" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="32" t="s">
+      <c r="A5" s="33" t="s">
         <v>37</v>
       </c>
-      <c r="B5" s="32"/>
-      <c r="C5" s="33" t="s">
+      <c r="B5" s="33"/>
+      <c r="C5" s="34" t="s">
         <v>266</v>
       </c>
-      <c r="D5" s="33"/>
-      <c r="E5" s="33"/>
-      <c r="F5" s="33"/>
-      <c r="G5" s="33"/>
-      <c r="H5" s="32" t="s">
+      <c r="D5" s="34"/>
+      <c r="E5" s="34"/>
+      <c r="F5" s="34"/>
+      <c r="G5" s="34"/>
+      <c r="H5" s="33" t="s">
         <v>56</v>
       </c>
-      <c r="I5" s="32"/>
-      <c r="J5" s="33" t="s">
+      <c r="I5" s="33"/>
+      <c r="J5" s="34" t="s">
         <v>57</v>
       </c>
-      <c r="K5" s="33"/>
-      <c r="L5" s="33"/>
-      <c r="M5" s="33"/>
-      <c r="N5" s="33"/>
-      <c r="O5" s="34" t="s">
+      <c r="K5" s="34"/>
+      <c r="L5" s="34"/>
+      <c r="M5" s="34"/>
+      <c r="N5" s="34"/>
+      <c r="O5" s="35" t="s">
         <v>198</v>
       </c>
-      <c r="P5" s="34"/>
-      <c r="Q5" s="33" t="s">
+      <c r="P5" s="35"/>
+      <c r="Q5" s="34" t="s">
         <v>281</v>
       </c>
-      <c r="R5" s="33"/>
-      <c r="S5" s="33"/>
-      <c r="T5" s="33"/>
-      <c r="U5" s="33"/>
-      <c r="V5" s="34" t="s">
+      <c r="R5" s="34"/>
+      <c r="S5" s="34"/>
+      <c r="T5" s="34"/>
+      <c r="U5" s="34"/>
+      <c r="V5" s="35" t="s">
         <v>62</v>
       </c>
-      <c r="W5" s="34"/>
-      <c r="X5" s="33" t="s">
+      <c r="W5" s="35"/>
+      <c r="X5" s="34" t="s">
         <v>65</v>
       </c>
-      <c r="Y5" s="33"/>
-      <c r="Z5" s="33"/>
-      <c r="AA5" s="33"/>
-      <c r="AB5" s="33"/>
+      <c r="Y5" s="34"/>
+      <c r="Z5" s="34"/>
+      <c r="AA5" s="34"/>
+      <c r="AB5" s="34"/>
     </row>
     <row r="6" spans="1:30" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="32" t="s">
+      <c r="A6" s="33" t="s">
         <v>38</v>
       </c>
-      <c r="B6" s="32"/>
-      <c r="C6" s="33" t="s">
+      <c r="B6" s="33"/>
+      <c r="C6" s="34" t="s">
         <v>53</v>
       </c>
-      <c r="D6" s="33"/>
-      <c r="E6" s="33"/>
-      <c r="F6" s="33"/>
-      <c r="G6" s="33"/>
-      <c r="H6" s="32" t="s">
+      <c r="D6" s="34"/>
+      <c r="E6" s="34"/>
+      <c r="F6" s="34"/>
+      <c r="G6" s="34"/>
+      <c r="H6" s="33" t="s">
         <v>49</v>
       </c>
-      <c r="I6" s="32"/>
-      <c r="J6" s="33" t="s">
+      <c r="I6" s="33"/>
+      <c r="J6" s="34" t="s">
         <v>48</v>
       </c>
-      <c r="K6" s="33"/>
-      <c r="L6" s="33"/>
-      <c r="M6" s="33"/>
-      <c r="N6" s="33"/>
-      <c r="O6" s="34" t="s">
+      <c r="K6" s="34"/>
+      <c r="L6" s="34"/>
+      <c r="M6" s="34"/>
+      <c r="N6" s="34"/>
+      <c r="O6" s="35" t="s">
         <v>199</v>
       </c>
-      <c r="P6" s="34"/>
-      <c r="Q6" s="33" t="s">
+      <c r="P6" s="35"/>
+      <c r="Q6" s="34" t="s">
         <v>281</v>
       </c>
-      <c r="R6" s="33"/>
-      <c r="S6" s="33"/>
-      <c r="T6" s="33"/>
-      <c r="U6" s="33"/>
-      <c r="V6" s="34" t="s">
+      <c r="R6" s="34"/>
+      <c r="S6" s="34"/>
+      <c r="T6" s="34"/>
+      <c r="U6" s="34"/>
+      <c r="V6" s="35" t="s">
         <v>63</v>
       </c>
-      <c r="W6" s="34"/>
-      <c r="X6" s="33" t="s">
+      <c r="W6" s="35"/>
+      <c r="X6" s="34" t="s">
         <v>64</v>
       </c>
-      <c r="Y6" s="33"/>
-      <c r="Z6" s="33"/>
-      <c r="AA6" s="33"/>
-      <c r="AB6" s="33"/>
+      <c r="Y6" s="34"/>
+      <c r="Z6" s="34"/>
+      <c r="AA6" s="34"/>
+      <c r="AB6" s="34"/>
     </row>
     <row r="7" spans="1:30" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="32" t="s">
+      <c r="A7" s="33" t="s">
         <v>39</v>
       </c>
-      <c r="B7" s="32"/>
-      <c r="C7" s="33" t="s">
+      <c r="B7" s="33"/>
+      <c r="C7" s="34" t="s">
         <v>42</v>
       </c>
-      <c r="D7" s="33"/>
-      <c r="E7" s="33"/>
-      <c r="F7" s="33"/>
-      <c r="G7" s="33"/>
-      <c r="H7" s="32" t="s">
+      <c r="D7" s="34"/>
+      <c r="E7" s="34"/>
+      <c r="F7" s="34"/>
+      <c r="G7" s="34"/>
+      <c r="H7" s="33" t="s">
         <v>50</v>
       </c>
-      <c r="I7" s="32"/>
-      <c r="J7" s="33" t="s">
+      <c r="I7" s="33"/>
+      <c r="J7" s="34" t="s">
         <v>51</v>
       </c>
-      <c r="K7" s="33"/>
-      <c r="L7" s="33"/>
-      <c r="M7" s="33"/>
-      <c r="N7" s="33"/>
-      <c r="O7" s="34" t="s">
+      <c r="K7" s="34"/>
+      <c r="L7" s="34"/>
+      <c r="M7" s="34"/>
+      <c r="N7" s="34"/>
+      <c r="O7" s="35" t="s">
         <v>200</v>
       </c>
-      <c r="P7" s="34"/>
-      <c r="Q7" s="33" t="s">
+      <c r="P7" s="35"/>
+      <c r="Q7" s="34" t="s">
         <v>283</v>
       </c>
-      <c r="R7" s="33"/>
-      <c r="S7" s="33"/>
-      <c r="T7" s="33"/>
-      <c r="U7" s="33"/>
-      <c r="V7" s="34" t="s">
+      <c r="R7" s="34"/>
+      <c r="S7" s="34"/>
+      <c r="T7" s="34"/>
+      <c r="U7" s="34"/>
+      <c r="V7" s="35" t="s">
         <v>66</v>
       </c>
-      <c r="W7" s="34"/>
-      <c r="X7" s="33" t="s">
+      <c r="W7" s="35"/>
+      <c r="X7" s="34" t="s">
         <v>67</v>
       </c>
-      <c r="Y7" s="33"/>
-      <c r="Z7" s="33"/>
-      <c r="AA7" s="33"/>
-      <c r="AB7" s="33"/>
+      <c r="Y7" s="34"/>
+      <c r="Z7" s="34"/>
+      <c r="AA7" s="34"/>
+      <c r="AB7" s="34"/>
     </row>
     <row r="8" spans="1:30" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="32" t="s">
+      <c r="A8" s="33" t="s">
         <v>264</v>
       </c>
-      <c r="B8" s="32"/>
-      <c r="C8" s="33" t="s">
+      <c r="B8" s="33"/>
+      <c r="C8" s="34" t="s">
         <v>265</v>
       </c>
-      <c r="D8" s="33"/>
-      <c r="E8" s="33"/>
-      <c r="F8" s="33"/>
-      <c r="G8" s="33"/>
-      <c r="H8" s="32" t="s">
+      <c r="D8" s="34"/>
+      <c r="E8" s="34"/>
+      <c r="F8" s="34"/>
+      <c r="G8" s="34"/>
+      <c r="H8" s="33" t="s">
         <v>52</v>
       </c>
-      <c r="I8" s="32"/>
-      <c r="J8" s="33" t="s">
+      <c r="I8" s="33"/>
+      <c r="J8" s="34" t="s">
         <v>51</v>
       </c>
-      <c r="K8" s="33"/>
-      <c r="L8" s="33"/>
-      <c r="M8" s="33"/>
-      <c r="N8" s="33"/>
-      <c r="O8" s="34" t="s">
+      <c r="K8" s="34"/>
+      <c r="L8" s="34"/>
+      <c r="M8" s="34"/>
+      <c r="N8" s="34"/>
+      <c r="O8" s="35" t="s">
         <v>282</v>
       </c>
-      <c r="P8" s="34"/>
-      <c r="Q8" s="33" t="s">
+      <c r="P8" s="35"/>
+      <c r="Q8" s="34" t="s">
         <v>283</v>
       </c>
-      <c r="R8" s="33"/>
-      <c r="S8" s="33"/>
-      <c r="T8" s="33"/>
-      <c r="U8" s="33"/>
-      <c r="V8" s="34" t="s">
+      <c r="R8" s="34"/>
+      <c r="S8" s="34"/>
+      <c r="T8" s="34"/>
+      <c r="U8" s="34"/>
+      <c r="V8" s="35" t="s">
         <v>68</v>
       </c>
-      <c r="W8" s="34"/>
-      <c r="X8" s="33" t="s">
+      <c r="W8" s="35"/>
+      <c r="X8" s="34" t="s">
         <v>60</v>
       </c>
-      <c r="Y8" s="33"/>
-      <c r="Z8" s="33"/>
-      <c r="AA8" s="33"/>
-      <c r="AB8" s="33"/>
+      <c r="Y8" s="34"/>
+      <c r="Z8" s="34"/>
+      <c r="AA8" s="34"/>
+      <c r="AB8" s="34"/>
     </row>
     <row r="9" spans="1:30" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="32"/>
-      <c r="B9" s="32"/>
-      <c r="C9" s="33"/>
-      <c r="D9" s="33"/>
-      <c r="E9" s="33"/>
-      <c r="F9" s="33"/>
-      <c r="G9" s="33"/>
-      <c r="H9" s="32" t="s">
+      <c r="A9" s="33"/>
+      <c r="B9" s="33"/>
+      <c r="C9" s="34"/>
+      <c r="D9" s="34"/>
+      <c r="E9" s="34"/>
+      <c r="F9" s="34"/>
+      <c r="G9" s="34"/>
+      <c r="H9" s="33" t="s">
         <v>77</v>
       </c>
-      <c r="I9" s="32"/>
-      <c r="J9" s="33" t="s">
+      <c r="I9" s="33"/>
+      <c r="J9" s="34" t="s">
         <v>55</v>
       </c>
-      <c r="K9" s="33"/>
-      <c r="L9" s="33"/>
-      <c r="M9" s="33"/>
-      <c r="N9" s="33"/>
-      <c r="O9" s="34" t="s">
+      <c r="K9" s="34"/>
+      <c r="L9" s="34"/>
+      <c r="M9" s="34"/>
+      <c r="N9" s="34"/>
+      <c r="O9" s="35" t="s">
         <v>284</v>
       </c>
-      <c r="P9" s="34"/>
-      <c r="Q9" s="33" t="s">
+      <c r="P9" s="35"/>
+      <c r="Q9" s="34" t="s">
         <v>330</v>
       </c>
-      <c r="R9" s="33"/>
-      <c r="S9" s="33"/>
-      <c r="T9" s="33"/>
-      <c r="U9" s="33"/>
-      <c r="V9" s="34" t="s">
+      <c r="R9" s="34"/>
+      <c r="S9" s="34"/>
+      <c r="T9" s="34"/>
+      <c r="U9" s="34"/>
+      <c r="V9" s="35" t="s">
         <v>69</v>
       </c>
-      <c r="W9" s="34"/>
-      <c r="X9" s="33" t="s">
+      <c r="W9" s="35"/>
+      <c r="X9" s="34" t="s">
         <v>70</v>
       </c>
-      <c r="Y9" s="33"/>
-      <c r="Z9" s="33"/>
-      <c r="AA9" s="33"/>
-      <c r="AB9" s="33"/>
+      <c r="Y9" s="34"/>
+      <c r="Z9" s="34"/>
+      <c r="AA9" s="34"/>
+      <c r="AB9" s="34"/>
     </row>
     <row r="10" spans="1:30" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="32" t="s">
+      <c r="A10" s="33" t="s">
         <v>41</v>
       </c>
-      <c r="B10" s="32"/>
-      <c r="C10" s="33" t="s">
+      <c r="B10" s="33"/>
+      <c r="C10" s="34" t="s">
         <v>54</v>
       </c>
-      <c r="D10" s="33"/>
-      <c r="E10" s="33"/>
-      <c r="F10" s="33"/>
-      <c r="G10" s="33"/>
-      <c r="H10" s="32" t="s">
+      <c r="D10" s="34"/>
+      <c r="E10" s="34"/>
+      <c r="F10" s="34"/>
+      <c r="G10" s="34"/>
+      <c r="H10" s="33" t="s">
         <v>56</v>
       </c>
-      <c r="I10" s="32"/>
-      <c r="J10" s="33" t="s">
+      <c r="I10" s="33"/>
+      <c r="J10" s="34" t="s">
         <v>57</v>
       </c>
-      <c r="K10" s="33"/>
-      <c r="L10" s="33"/>
-      <c r="M10" s="33"/>
-      <c r="N10" s="33"/>
-      <c r="O10" s="34"/>
-      <c r="P10" s="34"/>
-      <c r="Q10" s="33"/>
-      <c r="R10" s="33"/>
-      <c r="S10" s="33"/>
-      <c r="T10" s="33"/>
-      <c r="U10" s="33"/>
-      <c r="V10" s="34" t="s">
+      <c r="K10" s="34"/>
+      <c r="L10" s="34"/>
+      <c r="M10" s="34"/>
+      <c r="N10" s="34"/>
+      <c r="O10" s="35"/>
+      <c r="P10" s="35"/>
+      <c r="Q10" s="34"/>
+      <c r="R10" s="34"/>
+      <c r="S10" s="34"/>
+      <c r="T10" s="34"/>
+      <c r="U10" s="34"/>
+      <c r="V10" s="35" t="s">
         <v>72</v>
       </c>
-      <c r="W10" s="34"/>
-      <c r="X10" s="33" t="s">
+      <c r="W10" s="35"/>
+      <c r="X10" s="34" t="s">
         <v>73</v>
       </c>
-      <c r="Y10" s="33"/>
-      <c r="Z10" s="33"/>
-      <c r="AA10" s="33"/>
-      <c r="AB10" s="33"/>
+      <c r="Y10" s="34"/>
+      <c r="Z10" s="34"/>
+      <c r="AA10" s="34"/>
+      <c r="AB10" s="34"/>
     </row>
     <row r="11" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="32" t="s">
+      <c r="A11" s="33" t="s">
         <v>267</v>
       </c>
-      <c r="B11" s="32"/>
-      <c r="C11" s="33" t="s">
+      <c r="B11" s="33"/>
+      <c r="C11" s="34" t="s">
         <v>275</v>
       </c>
-      <c r="D11" s="33"/>
-      <c r="E11" s="33"/>
-      <c r="F11" s="33"/>
-      <c r="G11" s="33"/>
-      <c r="H11" s="32" t="s">
+      <c r="D11" s="34"/>
+      <c r="E11" s="34"/>
+      <c r="F11" s="34"/>
+      <c r="G11" s="34"/>
+      <c r="H11" s="33" t="s">
         <v>58</v>
       </c>
-      <c r="I11" s="32"/>
-      <c r="J11" s="33" t="s">
+      <c r="I11" s="33"/>
+      <c r="J11" s="34" t="s">
         <v>59</v>
       </c>
-      <c r="K11" s="33"/>
-      <c r="L11" s="33"/>
-      <c r="M11" s="33"/>
-      <c r="N11" s="33"/>
-      <c r="O11" s="34"/>
-      <c r="P11" s="34"/>
-      <c r="Q11" s="33"/>
-      <c r="R11" s="33"/>
-      <c r="S11" s="33"/>
-      <c r="T11" s="33"/>
-      <c r="U11" s="33"/>
-      <c r="V11" s="34" t="s">
+      <c r="K11" s="34"/>
+      <c r="L11" s="34"/>
+      <c r="M11" s="34"/>
+      <c r="N11" s="34"/>
+      <c r="O11" s="35"/>
+      <c r="P11" s="35"/>
+      <c r="Q11" s="34"/>
+      <c r="R11" s="34"/>
+      <c r="S11" s="34"/>
+      <c r="T11" s="34"/>
+      <c r="U11" s="34"/>
+      <c r="V11" s="35" t="s">
         <v>74</v>
       </c>
-      <c r="W11" s="34"/>
-      <c r="X11" s="33" t="s">
+      <c r="W11" s="35"/>
+      <c r="X11" s="34" t="s">
         <v>75</v>
       </c>
-      <c r="Y11" s="33"/>
-      <c r="Z11" s="33"/>
-      <c r="AA11" s="33"/>
-      <c r="AB11" s="33"/>
+      <c r="Y11" s="34"/>
+      <c r="Z11" s="34"/>
+      <c r="AA11" s="34"/>
+      <c r="AB11" s="34"/>
     </row>
     <row r="12" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="32" t="s">
+      <c r="A12" s="33" t="s">
         <v>269</v>
       </c>
-      <c r="B12" s="32"/>
-      <c r="C12" s="35" t="s">
+      <c r="B12" s="33"/>
+      <c r="C12" s="39" t="s">
         <v>270</v>
       </c>
-      <c r="D12" s="35"/>
-      <c r="E12" s="35"/>
-      <c r="F12" s="35"/>
-      <c r="G12" s="35"/>
-      <c r="H12" s="32" t="s">
+      <c r="D12" s="39"/>
+      <c r="E12" s="39"/>
+      <c r="F12" s="39"/>
+      <c r="G12" s="39"/>
+      <c r="H12" s="33" t="s">
         <v>76</v>
       </c>
-      <c r="I12" s="32"/>
-      <c r="J12" s="33" t="s">
+      <c r="I12" s="33"/>
+      <c r="J12" s="34" t="s">
         <v>263</v>
       </c>
-      <c r="K12" s="33"/>
-      <c r="L12" s="33"/>
-      <c r="M12" s="33"/>
-      <c r="N12" s="33"/>
-      <c r="O12" s="34"/>
-      <c r="P12" s="34"/>
-      <c r="Q12" s="33"/>
-      <c r="R12" s="33"/>
-      <c r="S12" s="33"/>
-      <c r="T12" s="33"/>
-      <c r="U12" s="33"/>
-      <c r="V12" s="34"/>
-      <c r="W12" s="34"/>
-      <c r="X12" s="33"/>
-      <c r="Y12" s="33"/>
-      <c r="Z12" s="33"/>
-      <c r="AA12" s="33"/>
-      <c r="AB12" s="33"/>
+      <c r="K12" s="34"/>
+      <c r="L12" s="34"/>
+      <c r="M12" s="34"/>
+      <c r="N12" s="34"/>
+      <c r="O12" s="35"/>
+      <c r="P12" s="35"/>
+      <c r="Q12" s="34"/>
+      <c r="R12" s="34"/>
+      <c r="S12" s="34"/>
+      <c r="T12" s="34"/>
+      <c r="U12" s="34"/>
+      <c r="V12" s="35"/>
+      <c r="W12" s="35"/>
+      <c r="X12" s="34"/>
+      <c r="Y12" s="34"/>
+      <c r="Z12" s="34"/>
+      <c r="AA12" s="34"/>
+      <c r="AB12" s="34"/>
     </row>
     <row r="13" spans="1:30" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="32" t="s">
+      <c r="A13" s="33" t="s">
         <v>274</v>
       </c>
-      <c r="B13" s="32"/>
-      <c r="C13" s="35" t="s">
+      <c r="B13" s="33"/>
+      <c r="C13" s="39" t="s">
         <v>273</v>
       </c>
-      <c r="D13" s="35"/>
-      <c r="E13" s="35"/>
-      <c r="F13" s="35"/>
-      <c r="G13" s="35"/>
-      <c r="H13" s="32" t="s">
+      <c r="D13" s="39"/>
+      <c r="E13" s="39"/>
+      <c r="F13" s="39"/>
+      <c r="G13" s="39"/>
+      <c r="H13" s="33" t="s">
         <v>46</v>
       </c>
-      <c r="I13" s="32"/>
-      <c r="J13" s="33" t="s">
+      <c r="I13" s="33"/>
+      <c r="J13" s="34" t="s">
         <v>47</v>
       </c>
-      <c r="K13" s="33"/>
-      <c r="L13" s="33"/>
-      <c r="M13" s="33"/>
-      <c r="N13" s="33"/>
-      <c r="O13" s="34" t="s">
+      <c r="K13" s="34"/>
+      <c r="L13" s="34"/>
+      <c r="M13" s="34"/>
+      <c r="N13" s="34"/>
+      <c r="O13" s="35" t="s">
         <v>201</v>
       </c>
-      <c r="P13" s="34"/>
-      <c r="Q13" s="33" t="s">
+      <c r="P13" s="35"/>
+      <c r="Q13" s="34" t="s">
         <v>202</v>
       </c>
-      <c r="R13" s="33"/>
-      <c r="S13" s="33"/>
-      <c r="T13" s="33"/>
-      <c r="U13" s="33"/>
-      <c r="V13" s="32" t="s">
+      <c r="R13" s="34"/>
+      <c r="S13" s="34"/>
+      <c r="T13" s="34"/>
+      <c r="U13" s="34"/>
+      <c r="V13" s="33" t="s">
         <v>276</v>
       </c>
-      <c r="W13" s="32"/>
-      <c r="X13" s="33" t="s">
+      <c r="W13" s="33"/>
+      <c r="X13" s="34" t="s">
         <v>67</v>
       </c>
-      <c r="Y13" s="33"/>
-      <c r="Z13" s="33"/>
-      <c r="AA13" s="33"/>
-      <c r="AB13" s="33"/>
+      <c r="Y13" s="34"/>
+      <c r="Z13" s="34"/>
+      <c r="AA13" s="34"/>
+      <c r="AB13" s="34"/>
     </row>
     <row r="14" spans="1:30" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="32" t="s">
+      <c r="A14" s="33" t="s">
         <v>278</v>
       </c>
-      <c r="B14" s="32"/>
-      <c r="C14" s="35" t="s">
+      <c r="B14" s="33"/>
+      <c r="C14" s="39" t="s">
         <v>277</v>
       </c>
-      <c r="D14" s="35"/>
-      <c r="E14" s="35"/>
-      <c r="F14" s="35"/>
-      <c r="G14" s="35"/>
-      <c r="H14" s="32"/>
-      <c r="I14" s="32"/>
-      <c r="J14" s="33"/>
-      <c r="K14" s="33"/>
-      <c r="L14" s="33"/>
-      <c r="M14" s="33"/>
-      <c r="N14" s="33"/>
-      <c r="O14" s="34"/>
-      <c r="P14" s="34"/>
-      <c r="Q14" s="33"/>
-      <c r="R14" s="33"/>
-      <c r="S14" s="33"/>
-      <c r="T14" s="33"/>
-      <c r="U14" s="33"/>
-      <c r="V14" s="34"/>
-      <c r="W14" s="34"/>
-      <c r="X14" s="33"/>
-      <c r="Y14" s="33"/>
-      <c r="Z14" s="33"/>
-      <c r="AA14" s="33"/>
-      <c r="AB14" s="33"/>
+      <c r="D14" s="39"/>
+      <c r="E14" s="39"/>
+      <c r="F14" s="39"/>
+      <c r="G14" s="39"/>
+      <c r="H14" s="33"/>
+      <c r="I14" s="33"/>
+      <c r="J14" s="34"/>
+      <c r="K14" s="34"/>
+      <c r="L14" s="34"/>
+      <c r="M14" s="34"/>
+      <c r="N14" s="34"/>
+      <c r="O14" s="35"/>
+      <c r="P14" s="35"/>
+      <c r="Q14" s="34"/>
+      <c r="R14" s="34"/>
+      <c r="S14" s="34"/>
+      <c r="T14" s="34"/>
+      <c r="U14" s="34"/>
+      <c r="V14" s="35"/>
+      <c r="W14" s="35"/>
+      <c r="X14" s="34"/>
+      <c r="Y14" s="34"/>
+      <c r="Z14" s="34"/>
+      <c r="AA14" s="34"/>
+      <c r="AB14" s="34"/>
     </row>
     <row r="15" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A15" s="32" t="s">
+      <c r="A15" s="33" t="s">
         <v>279</v>
       </c>
-      <c r="B15" s="32"/>
-      <c r="C15" s="35" t="s">
+      <c r="B15" s="33"/>
+      <c r="C15" s="39" t="s">
         <v>280</v>
       </c>
-      <c r="D15" s="33"/>
-      <c r="E15" s="33"/>
-      <c r="F15" s="33"/>
-      <c r="G15" s="33"/>
-      <c r="H15" s="32"/>
-      <c r="I15" s="32"/>
-      <c r="J15" s="33"/>
-      <c r="K15" s="33"/>
-      <c r="L15" s="33"/>
-      <c r="M15" s="33"/>
-      <c r="N15" s="33"/>
-      <c r="O15" s="34"/>
-      <c r="P15" s="34"/>
-      <c r="Q15" s="33"/>
-      <c r="R15" s="33"/>
-      <c r="S15" s="33"/>
-      <c r="T15" s="33"/>
-      <c r="U15" s="33"/>
-      <c r="V15" s="34"/>
-      <c r="W15" s="34"/>
-      <c r="X15" s="33"/>
-      <c r="Y15" s="33"/>
-      <c r="Z15" s="33"/>
-      <c r="AA15" s="33"/>
-      <c r="AB15" s="33"/>
+      <c r="D15" s="34"/>
+      <c r="E15" s="34"/>
+      <c r="F15" s="34"/>
+      <c r="G15" s="34"/>
+      <c r="H15" s="33"/>
+      <c r="I15" s="33"/>
+      <c r="J15" s="34"/>
+      <c r="K15" s="34"/>
+      <c r="L15" s="34"/>
+      <c r="M15" s="34"/>
+      <c r="N15" s="34"/>
+      <c r="O15" s="35"/>
+      <c r="P15" s="35"/>
+      <c r="Q15" s="34"/>
+      <c r="R15" s="34"/>
+      <c r="S15" s="34"/>
+      <c r="T15" s="34"/>
+      <c r="U15" s="34"/>
+      <c r="V15" s="35"/>
+      <c r="W15" s="35"/>
+      <c r="X15" s="34"/>
+      <c r="Y15" s="34"/>
+      <c r="Z15" s="34"/>
+      <c r="AA15" s="34"/>
+      <c r="AB15" s="34"/>
     </row>
     <row r="16" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A16" s="32"/>
-      <c r="B16" s="32"/>
-      <c r="C16" s="33"/>
-      <c r="D16" s="33"/>
-      <c r="E16" s="33"/>
-      <c r="F16" s="33"/>
-      <c r="G16" s="33"/>
-      <c r="H16" s="32"/>
-      <c r="I16" s="32"/>
-      <c r="J16" s="33"/>
-      <c r="K16" s="33"/>
-      <c r="L16" s="33"/>
-      <c r="M16" s="33"/>
-      <c r="N16" s="33"/>
-      <c r="O16" s="34"/>
-      <c r="P16" s="34"/>
-      <c r="Q16" s="33"/>
-      <c r="R16" s="33"/>
-      <c r="S16" s="33"/>
-      <c r="T16" s="33"/>
-      <c r="U16" s="33"/>
-      <c r="V16" s="34"/>
-      <c r="W16" s="34"/>
-      <c r="X16" s="33"/>
-      <c r="Y16" s="33"/>
-      <c r="Z16" s="33"/>
-      <c r="AA16" s="33"/>
-      <c r="AB16" s="33"/>
+      <c r="A16" s="33"/>
+      <c r="B16" s="33"/>
+      <c r="C16" s="34"/>
+      <c r="D16" s="34"/>
+      <c r="E16" s="34"/>
+      <c r="F16" s="34"/>
+      <c r="G16" s="34"/>
+      <c r="H16" s="33"/>
+      <c r="I16" s="33"/>
+      <c r="J16" s="34"/>
+      <c r="K16" s="34"/>
+      <c r="L16" s="34"/>
+      <c r="M16" s="34"/>
+      <c r="N16" s="34"/>
+      <c r="O16" s="35"/>
+      <c r="P16" s="35"/>
+      <c r="Q16" s="34"/>
+      <c r="R16" s="34"/>
+      <c r="S16" s="34"/>
+      <c r="T16" s="34"/>
+      <c r="U16" s="34"/>
+      <c r="V16" s="35"/>
+      <c r="W16" s="35"/>
+      <c r="X16" s="34"/>
+      <c r="Y16" s="34"/>
+      <c r="Z16" s="34"/>
+      <c r="AA16" s="34"/>
+      <c r="AB16" s="34"/>
     </row>
     <row r="17" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A17" s="32"/>
-      <c r="B17" s="32"/>
-      <c r="C17" s="33"/>
-      <c r="D17" s="33"/>
-      <c r="E17" s="33"/>
-      <c r="F17" s="33"/>
-      <c r="G17" s="33"/>
-      <c r="H17" s="32"/>
-      <c r="I17" s="32"/>
-      <c r="J17" s="33"/>
-      <c r="K17" s="33"/>
-      <c r="L17" s="33"/>
-      <c r="M17" s="33"/>
-      <c r="N17" s="33"/>
-      <c r="O17" s="34"/>
-      <c r="P17" s="34"/>
-      <c r="Q17" s="33"/>
-      <c r="R17" s="33"/>
-      <c r="S17" s="33"/>
-      <c r="T17" s="33"/>
-      <c r="U17" s="33"/>
-      <c r="V17" s="34"/>
-      <c r="W17" s="34"/>
-      <c r="X17" s="33"/>
-      <c r="Y17" s="33"/>
-      <c r="Z17" s="33"/>
-      <c r="AA17" s="33"/>
-      <c r="AB17" s="33"/>
+      <c r="A17" s="33"/>
+      <c r="B17" s="33"/>
+      <c r="C17" s="34"/>
+      <c r="D17" s="34"/>
+      <c r="E17" s="34"/>
+      <c r="F17" s="34"/>
+      <c r="G17" s="34"/>
+      <c r="H17" s="33"/>
+      <c r="I17" s="33"/>
+      <c r="J17" s="34"/>
+      <c r="K17" s="34"/>
+      <c r="L17" s="34"/>
+      <c r="M17" s="34"/>
+      <c r="N17" s="34"/>
+      <c r="O17" s="35"/>
+      <c r="P17" s="35"/>
+      <c r="Q17" s="34"/>
+      <c r="R17" s="34"/>
+      <c r="S17" s="34"/>
+      <c r="T17" s="34"/>
+      <c r="U17" s="34"/>
+      <c r="V17" s="35"/>
+      <c r="W17" s="35"/>
+      <c r="X17" s="34"/>
+      <c r="Y17" s="34"/>
+      <c r="Z17" s="34"/>
+      <c r="AA17" s="34"/>
+      <c r="AB17" s="34"/>
     </row>
     <row r="18" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A18" s="32"/>
-      <c r="B18" s="32"/>
-      <c r="C18" s="33"/>
-      <c r="D18" s="33"/>
-      <c r="E18" s="33"/>
-      <c r="F18" s="33"/>
-      <c r="G18" s="33"/>
-      <c r="H18" s="32"/>
-      <c r="I18" s="32"/>
-      <c r="J18" s="33"/>
-      <c r="K18" s="33"/>
-      <c r="L18" s="33"/>
-      <c r="M18" s="33"/>
-      <c r="N18" s="33"/>
-      <c r="O18" s="34"/>
-      <c r="P18" s="34"/>
-      <c r="Q18" s="33"/>
-      <c r="R18" s="33"/>
-      <c r="S18" s="33"/>
-      <c r="T18" s="33"/>
-      <c r="U18" s="33"/>
-      <c r="V18" s="34"/>
-      <c r="W18" s="34"/>
-      <c r="X18" s="33"/>
-      <c r="Y18" s="33"/>
-      <c r="Z18" s="33"/>
-      <c r="AA18" s="33"/>
-      <c r="AB18" s="33"/>
+      <c r="A18" s="33"/>
+      <c r="B18" s="33"/>
+      <c r="C18" s="34"/>
+      <c r="D18" s="34"/>
+      <c r="E18" s="34"/>
+      <c r="F18" s="34"/>
+      <c r="G18" s="34"/>
+      <c r="H18" s="33"/>
+      <c r="I18" s="33"/>
+      <c r="J18" s="34"/>
+      <c r="K18" s="34"/>
+      <c r="L18" s="34"/>
+      <c r="M18" s="34"/>
+      <c r="N18" s="34"/>
+      <c r="O18" s="35"/>
+      <c r="P18" s="35"/>
+      <c r="Q18" s="34"/>
+      <c r="R18" s="34"/>
+      <c r="S18" s="34"/>
+      <c r="T18" s="34"/>
+      <c r="U18" s="34"/>
+      <c r="V18" s="35"/>
+      <c r="W18" s="35"/>
+      <c r="X18" s="34"/>
+      <c r="Y18" s="34"/>
+      <c r="Z18" s="34"/>
+      <c r="AA18" s="34"/>
+      <c r="AB18" s="34"/>
     </row>
     <row r="19" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A19" s="32"/>
-      <c r="B19" s="32"/>
-      <c r="C19" s="33"/>
-      <c r="D19" s="33"/>
-      <c r="E19" s="33"/>
-      <c r="F19" s="33"/>
-      <c r="G19" s="33"/>
-      <c r="H19" s="32"/>
-      <c r="I19" s="32"/>
-      <c r="J19" s="33"/>
-      <c r="K19" s="33"/>
-      <c r="L19" s="33"/>
-      <c r="M19" s="33"/>
-      <c r="N19" s="33"/>
-      <c r="O19" s="34"/>
-      <c r="P19" s="34"/>
-      <c r="Q19" s="33"/>
-      <c r="R19" s="33"/>
-      <c r="S19" s="33"/>
-      <c r="T19" s="33"/>
-      <c r="U19" s="33"/>
-      <c r="V19" s="34"/>
-      <c r="W19" s="34"/>
-      <c r="X19" s="33"/>
-      <c r="Y19" s="33"/>
-      <c r="Z19" s="33"/>
-      <c r="AA19" s="33"/>
-      <c r="AB19" s="33"/>
+      <c r="A19" s="33"/>
+      <c r="B19" s="33"/>
+      <c r="C19" s="34"/>
+      <c r="D19" s="34"/>
+      <c r="E19" s="34"/>
+      <c r="F19" s="34"/>
+      <c r="G19" s="34"/>
+      <c r="H19" s="33"/>
+      <c r="I19" s="33"/>
+      <c r="J19" s="34"/>
+      <c r="K19" s="34"/>
+      <c r="L19" s="34"/>
+      <c r="M19" s="34"/>
+      <c r="N19" s="34"/>
+      <c r="O19" s="35"/>
+      <c r="P19" s="35"/>
+      <c r="Q19" s="34"/>
+      <c r="R19" s="34"/>
+      <c r="S19" s="34"/>
+      <c r="T19" s="34"/>
+      <c r="U19" s="34"/>
+      <c r="V19" s="35"/>
+      <c r="W19" s="35"/>
+      <c r="X19" s="34"/>
+      <c r="Y19" s="34"/>
+      <c r="Z19" s="34"/>
+      <c r="AA19" s="34"/>
+      <c r="AB19" s="34"/>
     </row>
     <row r="20" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A20" s="32"/>
-      <c r="B20" s="32"/>
-      <c r="C20" s="33"/>
-      <c r="D20" s="33"/>
-      <c r="E20" s="33"/>
-      <c r="F20" s="33"/>
-      <c r="G20" s="33"/>
-      <c r="H20" s="32"/>
-      <c r="I20" s="32"/>
-      <c r="J20" s="33"/>
-      <c r="K20" s="33"/>
-      <c r="L20" s="33"/>
-      <c r="M20" s="33"/>
-      <c r="N20" s="33"/>
-      <c r="O20" s="34"/>
-      <c r="P20" s="34"/>
-      <c r="Q20" s="33"/>
-      <c r="R20" s="33"/>
-      <c r="S20" s="33"/>
-      <c r="T20" s="33"/>
-      <c r="U20" s="33"/>
-      <c r="V20" s="34"/>
-      <c r="W20" s="34"/>
-      <c r="X20" s="33"/>
-      <c r="Y20" s="33"/>
-      <c r="Z20" s="33"/>
-      <c r="AA20" s="33"/>
-      <c r="AB20" s="33"/>
+      <c r="A20" s="33"/>
+      <c r="B20" s="33"/>
+      <c r="C20" s="34"/>
+      <c r="D20" s="34"/>
+      <c r="E20" s="34"/>
+      <c r="F20" s="34"/>
+      <c r="G20" s="34"/>
+      <c r="H20" s="33"/>
+      <c r="I20" s="33"/>
+      <c r="J20" s="34"/>
+      <c r="K20" s="34"/>
+      <c r="L20" s="34"/>
+      <c r="M20" s="34"/>
+      <c r="N20" s="34"/>
+      <c r="O20" s="35"/>
+      <c r="P20" s="35"/>
+      <c r="Q20" s="34"/>
+      <c r="R20" s="34"/>
+      <c r="S20" s="34"/>
+      <c r="T20" s="34"/>
+      <c r="U20" s="34"/>
+      <c r="V20" s="35"/>
+      <c r="W20" s="35"/>
+      <c r="X20" s="34"/>
+      <c r="Y20" s="34"/>
+      <c r="Z20" s="34"/>
+      <c r="AA20" s="34"/>
+      <c r="AB20" s="34"/>
     </row>
     <row r="21" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A21" s="32"/>
-      <c r="B21" s="32"/>
-      <c r="C21" s="33"/>
-      <c r="D21" s="33"/>
-      <c r="E21" s="33"/>
-      <c r="F21" s="33"/>
-      <c r="G21" s="33"/>
-      <c r="H21" s="32"/>
-      <c r="I21" s="32"/>
-      <c r="J21" s="33"/>
-      <c r="K21" s="33"/>
-      <c r="L21" s="33"/>
-      <c r="M21" s="33"/>
-      <c r="N21" s="33"/>
-      <c r="O21" s="34"/>
-      <c r="P21" s="34"/>
-      <c r="Q21" s="33"/>
-      <c r="R21" s="33"/>
-      <c r="S21" s="33"/>
-      <c r="T21" s="33"/>
-      <c r="U21" s="33"/>
-      <c r="V21" s="34"/>
-      <c r="W21" s="34"/>
-      <c r="X21" s="33"/>
-      <c r="Y21" s="33"/>
-      <c r="Z21" s="33"/>
-      <c r="AA21" s="33"/>
-      <c r="AB21" s="33"/>
+      <c r="A21" s="33"/>
+      <c r="B21" s="33"/>
+      <c r="C21" s="34"/>
+      <c r="D21" s="34"/>
+      <c r="E21" s="34"/>
+      <c r="F21" s="34"/>
+      <c r="G21" s="34"/>
+      <c r="H21" s="33"/>
+      <c r="I21" s="33"/>
+      <c r="J21" s="34"/>
+      <c r="K21" s="34"/>
+      <c r="L21" s="34"/>
+      <c r="M21" s="34"/>
+      <c r="N21" s="34"/>
+      <c r="O21" s="35"/>
+      <c r="P21" s="35"/>
+      <c r="Q21" s="34"/>
+      <c r="R21" s="34"/>
+      <c r="S21" s="34"/>
+      <c r="T21" s="34"/>
+      <c r="U21" s="34"/>
+      <c r="V21" s="35"/>
+      <c r="W21" s="35"/>
+      <c r="X21" s="34"/>
+      <c r="Y21" s="34"/>
+      <c r="Z21" s="34"/>
+      <c r="AA21" s="34"/>
+      <c r="AB21" s="34"/>
     </row>
     <row r="22" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A22" s="32"/>
-      <c r="B22" s="32"/>
-      <c r="C22" s="33"/>
-      <c r="D22" s="33"/>
-      <c r="E22" s="33"/>
-      <c r="F22" s="33"/>
-      <c r="G22" s="33"/>
-      <c r="H22" s="32"/>
-      <c r="I22" s="32"/>
-      <c r="J22" s="33"/>
-      <c r="K22" s="33"/>
-      <c r="L22" s="33"/>
-      <c r="M22" s="33"/>
-      <c r="N22" s="33"/>
-      <c r="O22" s="34"/>
-      <c r="P22" s="34"/>
-      <c r="Q22" s="33"/>
-      <c r="R22" s="33"/>
-      <c r="S22" s="33"/>
-      <c r="T22" s="33"/>
-      <c r="U22" s="33"/>
-      <c r="V22" s="34"/>
-      <c r="W22" s="34"/>
-      <c r="X22" s="33"/>
-      <c r="Y22" s="33"/>
-      <c r="Z22" s="33"/>
-      <c r="AA22" s="33"/>
-      <c r="AB22" s="33"/>
+      <c r="A22" s="33"/>
+      <c r="B22" s="33"/>
+      <c r="C22" s="34"/>
+      <c r="D22" s="34"/>
+      <c r="E22" s="34"/>
+      <c r="F22" s="34"/>
+      <c r="G22" s="34"/>
+      <c r="H22" s="33"/>
+      <c r="I22" s="33"/>
+      <c r="J22" s="34"/>
+      <c r="K22" s="34"/>
+      <c r="L22" s="34"/>
+      <c r="M22" s="34"/>
+      <c r="N22" s="34"/>
+      <c r="O22" s="35"/>
+      <c r="P22" s="35"/>
+      <c r="Q22" s="34"/>
+      <c r="R22" s="34"/>
+      <c r="S22" s="34"/>
+      <c r="T22" s="34"/>
+      <c r="U22" s="34"/>
+      <c r="V22" s="35"/>
+      <c r="W22" s="35"/>
+      <c r="X22" s="34"/>
+      <c r="Y22" s="34"/>
+      <c r="Z22" s="34"/>
+      <c r="AA22" s="34"/>
+      <c r="AB22" s="34"/>
     </row>
     <row r="23" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A23" s="32"/>
-      <c r="B23" s="32"/>
-      <c r="C23" s="33"/>
-      <c r="D23" s="33"/>
-      <c r="E23" s="33"/>
-      <c r="F23" s="33"/>
-      <c r="G23" s="33"/>
-      <c r="H23" s="32"/>
-      <c r="I23" s="32"/>
-      <c r="J23" s="33"/>
-      <c r="K23" s="33"/>
-      <c r="L23" s="33"/>
-      <c r="M23" s="33"/>
-      <c r="N23" s="33"/>
-      <c r="O23" s="34"/>
-      <c r="P23" s="34"/>
-      <c r="Q23" s="33"/>
-      <c r="R23" s="33"/>
-      <c r="S23" s="33"/>
-      <c r="T23" s="33"/>
-      <c r="U23" s="33"/>
+      <c r="A23" s="33"/>
+      <c r="B23" s="33"/>
+      <c r="C23" s="34"/>
+      <c r="D23" s="34"/>
+      <c r="E23" s="34"/>
+      <c r="F23" s="34"/>
+      <c r="G23" s="34"/>
+      <c r="H23" s="33"/>
+      <c r="I23" s="33"/>
+      <c r="J23" s="34"/>
+      <c r="K23" s="34"/>
+      <c r="L23" s="34"/>
+      <c r="M23" s="34"/>
+      <c r="N23" s="34"/>
+      <c r="O23" s="35"/>
+      <c r="P23" s="35"/>
+      <c r="Q23" s="34"/>
+      <c r="R23" s="34"/>
+      <c r="S23" s="34"/>
+      <c r="T23" s="34"/>
+      <c r="U23" s="34"/>
     </row>
     <row r="24" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A24" s="32"/>
-      <c r="B24" s="32"/>
-      <c r="C24" s="33"/>
-      <c r="D24" s="33"/>
-      <c r="E24" s="33"/>
-      <c r="F24" s="33"/>
-      <c r="G24" s="33"/>
-      <c r="H24" s="32"/>
-      <c r="I24" s="32"/>
-      <c r="J24" s="33"/>
-      <c r="K24" s="33"/>
-      <c r="L24" s="33"/>
-      <c r="M24" s="33"/>
-      <c r="N24" s="33"/>
-      <c r="O24" s="34"/>
-      <c r="P24" s="34"/>
-      <c r="Q24" s="33"/>
-      <c r="R24" s="33"/>
-      <c r="S24" s="33"/>
-      <c r="T24" s="33"/>
-      <c r="U24" s="33"/>
+      <c r="A24" s="33"/>
+      <c r="B24" s="33"/>
+      <c r="C24" s="34"/>
+      <c r="D24" s="34"/>
+      <c r="E24" s="34"/>
+      <c r="F24" s="34"/>
+      <c r="G24" s="34"/>
+      <c r="H24" s="33"/>
+      <c r="I24" s="33"/>
+      <c r="J24" s="34"/>
+      <c r="K24" s="34"/>
+      <c r="L24" s="34"/>
+      <c r="M24" s="34"/>
+      <c r="N24" s="34"/>
+      <c r="O24" s="35"/>
+      <c r="P24" s="35"/>
+      <c r="Q24" s="34"/>
+      <c r="R24" s="34"/>
+      <c r="S24" s="34"/>
+      <c r="T24" s="34"/>
+      <c r="U24" s="34"/>
     </row>
     <row r="25" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A25" s="32"/>
-      <c r="B25" s="32"/>
-      <c r="C25" s="33"/>
-      <c r="D25" s="33"/>
-      <c r="E25" s="33"/>
-      <c r="F25" s="33"/>
-      <c r="G25" s="33"/>
-      <c r="H25" s="32"/>
-      <c r="I25" s="32"/>
-      <c r="J25" s="33"/>
-      <c r="K25" s="33"/>
-      <c r="L25" s="33"/>
-      <c r="M25" s="33"/>
-      <c r="N25" s="33"/>
-      <c r="O25" s="34"/>
-      <c r="P25" s="34"/>
-      <c r="Q25" s="33"/>
-      <c r="R25" s="33"/>
-      <c r="S25" s="33"/>
-      <c r="T25" s="33"/>
-      <c r="U25" s="33"/>
+      <c r="A25" s="33"/>
+      <c r="B25" s="33"/>
+      <c r="C25" s="34"/>
+      <c r="D25" s="34"/>
+      <c r="E25" s="34"/>
+      <c r="F25" s="34"/>
+      <c r="G25" s="34"/>
+      <c r="H25" s="33"/>
+      <c r="I25" s="33"/>
+      <c r="J25" s="34"/>
+      <c r="K25" s="34"/>
+      <c r="L25" s="34"/>
+      <c r="M25" s="34"/>
+      <c r="N25" s="34"/>
+      <c r="O25" s="35"/>
+      <c r="P25" s="35"/>
+      <c r="Q25" s="34"/>
+      <c r="R25" s="34"/>
+      <c r="S25" s="34"/>
+      <c r="T25" s="34"/>
+      <c r="U25" s="34"/>
     </row>
     <row r="26" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A26" s="32"/>
-      <c r="B26" s="32"/>
-      <c r="C26" s="33"/>
-      <c r="D26" s="33"/>
-      <c r="E26" s="33"/>
-      <c r="F26" s="33"/>
-      <c r="G26" s="33"/>
-      <c r="H26" s="32"/>
-      <c r="I26" s="32"/>
-      <c r="J26" s="33"/>
-      <c r="K26" s="33"/>
-      <c r="L26" s="33"/>
-      <c r="M26" s="33"/>
-      <c r="N26" s="33"/>
-      <c r="O26" s="34"/>
-      <c r="P26" s="34"/>
-      <c r="Q26" s="33"/>
-      <c r="R26" s="33"/>
-      <c r="S26" s="33"/>
-      <c r="T26" s="33"/>
-      <c r="U26" s="33"/>
+      <c r="A26" s="33"/>
+      <c r="B26" s="33"/>
+      <c r="C26" s="34"/>
+      <c r="D26" s="34"/>
+      <c r="E26" s="34"/>
+      <c r="F26" s="34"/>
+      <c r="G26" s="34"/>
+      <c r="H26" s="33"/>
+      <c r="I26" s="33"/>
+      <c r="J26" s="34"/>
+      <c r="K26" s="34"/>
+      <c r="L26" s="34"/>
+      <c r="M26" s="34"/>
+      <c r="N26" s="34"/>
+      <c r="O26" s="35"/>
+      <c r="P26" s="35"/>
+      <c r="Q26" s="34"/>
+      <c r="R26" s="34"/>
+      <c r="S26" s="34"/>
+      <c r="T26" s="34"/>
+      <c r="U26" s="34"/>
     </row>
     <row r="27" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A27" s="32"/>
-      <c r="B27" s="32"/>
-      <c r="C27" s="33"/>
-      <c r="D27" s="33"/>
-      <c r="E27" s="33"/>
-      <c r="F27" s="33"/>
-      <c r="G27" s="33"/>
-      <c r="H27" s="32"/>
-      <c r="I27" s="32"/>
-      <c r="J27" s="33"/>
-      <c r="K27" s="33"/>
-      <c r="L27" s="33"/>
-      <c r="M27" s="33"/>
-      <c r="N27" s="33"/>
-      <c r="O27" s="34"/>
-      <c r="P27" s="34"/>
-      <c r="Q27" s="33"/>
-      <c r="R27" s="33"/>
-      <c r="S27" s="33"/>
-      <c r="T27" s="33"/>
-      <c r="U27" s="33"/>
+      <c r="A27" s="33"/>
+      <c r="B27" s="33"/>
+      <c r="C27" s="34"/>
+      <c r="D27" s="34"/>
+      <c r="E27" s="34"/>
+      <c r="F27" s="34"/>
+      <c r="G27" s="34"/>
+      <c r="H27" s="33"/>
+      <c r="I27" s="33"/>
+      <c r="J27" s="34"/>
+      <c r="K27" s="34"/>
+      <c r="L27" s="34"/>
+      <c r="M27" s="34"/>
+      <c r="N27" s="34"/>
+      <c r="O27" s="35"/>
+      <c r="P27" s="35"/>
+      <c r="Q27" s="34"/>
+      <c r="R27" s="34"/>
+      <c r="S27" s="34"/>
+      <c r="T27" s="34"/>
+      <c r="U27" s="34"/>
     </row>
     <row r="28" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A28" s="32"/>
-      <c r="B28" s="32"/>
-      <c r="C28" s="33"/>
-      <c r="D28" s="33"/>
-      <c r="E28" s="33"/>
-      <c r="F28" s="33"/>
-      <c r="G28" s="33"/>
-      <c r="H28" s="32"/>
-      <c r="I28" s="32"/>
-      <c r="J28" s="33"/>
-      <c r="K28" s="33"/>
-      <c r="L28" s="33"/>
-      <c r="M28" s="33"/>
-      <c r="N28" s="33"/>
-      <c r="O28" s="34"/>
-      <c r="P28" s="34"/>
-      <c r="Q28" s="33"/>
-      <c r="R28" s="33"/>
-      <c r="S28" s="33"/>
-      <c r="T28" s="33"/>
-      <c r="U28" s="33"/>
+      <c r="A28" s="33"/>
+      <c r="B28" s="33"/>
+      <c r="C28" s="34"/>
+      <c r="D28" s="34"/>
+      <c r="E28" s="34"/>
+      <c r="F28" s="34"/>
+      <c r="G28" s="34"/>
+      <c r="H28" s="33"/>
+      <c r="I28" s="33"/>
+      <c r="J28" s="34"/>
+      <c r="K28" s="34"/>
+      <c r="L28" s="34"/>
+      <c r="M28" s="34"/>
+      <c r="N28" s="34"/>
+      <c r="O28" s="35"/>
+      <c r="P28" s="35"/>
+      <c r="Q28" s="34"/>
+      <c r="R28" s="34"/>
+      <c r="S28" s="34"/>
+      <c r="T28" s="34"/>
+      <c r="U28" s="34"/>
     </row>
     <row r="29" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A29" s="32"/>
-      <c r="B29" s="32"/>
-      <c r="C29" s="33"/>
-      <c r="D29" s="33"/>
-      <c r="E29" s="33"/>
-      <c r="F29" s="33"/>
-      <c r="G29" s="33"/>
-      <c r="H29" s="32"/>
-      <c r="I29" s="32"/>
-      <c r="J29" s="33"/>
-      <c r="K29" s="33"/>
-      <c r="L29" s="33"/>
-      <c r="M29" s="33"/>
-      <c r="N29" s="33"/>
-      <c r="O29" s="34"/>
-      <c r="P29" s="34"/>
-      <c r="Q29" s="33"/>
-      <c r="R29" s="33"/>
-      <c r="S29" s="33"/>
-      <c r="T29" s="33"/>
-      <c r="U29" s="33"/>
+      <c r="A29" s="33"/>
+      <c r="B29" s="33"/>
+      <c r="C29" s="34"/>
+      <c r="D29" s="34"/>
+      <c r="E29" s="34"/>
+      <c r="F29" s="34"/>
+      <c r="G29" s="34"/>
+      <c r="H29" s="33"/>
+      <c r="I29" s="33"/>
+      <c r="J29" s="34"/>
+      <c r="K29" s="34"/>
+      <c r="L29" s="34"/>
+      <c r="M29" s="34"/>
+      <c r="N29" s="34"/>
+      <c r="O29" s="35"/>
+      <c r="P29" s="35"/>
+      <c r="Q29" s="34"/>
+      <c r="R29" s="34"/>
+      <c r="S29" s="34"/>
+      <c r="T29" s="34"/>
+      <c r="U29" s="34"/>
     </row>
     <row r="30" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A30" s="32"/>
-      <c r="B30" s="32"/>
-      <c r="C30" s="33"/>
-      <c r="D30" s="33"/>
-      <c r="E30" s="33"/>
-      <c r="F30" s="33"/>
-      <c r="G30" s="33"/>
-      <c r="H30" s="32"/>
-      <c r="I30" s="32"/>
-      <c r="J30" s="33"/>
-      <c r="K30" s="33"/>
-      <c r="L30" s="33"/>
-      <c r="M30" s="33"/>
-      <c r="N30" s="33"/>
-      <c r="O30" s="34"/>
-      <c r="P30" s="34"/>
-      <c r="Q30" s="33"/>
-      <c r="R30" s="33"/>
-      <c r="S30" s="33"/>
-      <c r="T30" s="33"/>
-      <c r="U30" s="33"/>
+      <c r="A30" s="33"/>
+      <c r="B30" s="33"/>
+      <c r="C30" s="34"/>
+      <c r="D30" s="34"/>
+      <c r="E30" s="34"/>
+      <c r="F30" s="34"/>
+      <c r="G30" s="34"/>
+      <c r="H30" s="33"/>
+      <c r="I30" s="33"/>
+      <c r="J30" s="34"/>
+      <c r="K30" s="34"/>
+      <c r="L30" s="34"/>
+      <c r="M30" s="34"/>
+      <c r="N30" s="34"/>
+      <c r="O30" s="35"/>
+      <c r="P30" s="35"/>
+      <c r="Q30" s="34"/>
+      <c r="R30" s="34"/>
+      <c r="S30" s="34"/>
+      <c r="T30" s="34"/>
+      <c r="U30" s="34"/>
     </row>
     <row r="31" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A31" s="32"/>
-      <c r="B31" s="32"/>
-      <c r="C31" s="33"/>
-      <c r="D31" s="33"/>
-      <c r="E31" s="33"/>
-      <c r="F31" s="33"/>
-      <c r="G31" s="33"/>
-      <c r="H31" s="32"/>
-      <c r="I31" s="32"/>
-      <c r="J31" s="33"/>
-      <c r="K31" s="33"/>
-      <c r="L31" s="33"/>
-      <c r="M31" s="33"/>
-      <c r="N31" s="33"/>
-      <c r="O31" s="34"/>
-      <c r="P31" s="34"/>
-      <c r="Q31" s="33"/>
-      <c r="R31" s="33"/>
-      <c r="S31" s="33"/>
-      <c r="T31" s="33"/>
-      <c r="U31" s="33"/>
+      <c r="A31" s="33"/>
+      <c r="B31" s="33"/>
+      <c r="C31" s="34"/>
+      <c r="D31" s="34"/>
+      <c r="E31" s="34"/>
+      <c r="F31" s="34"/>
+      <c r="G31" s="34"/>
+      <c r="H31" s="33"/>
+      <c r="I31" s="33"/>
+      <c r="J31" s="34"/>
+      <c r="K31" s="34"/>
+      <c r="L31" s="34"/>
+      <c r="M31" s="34"/>
+      <c r="N31" s="34"/>
+      <c r="O31" s="35"/>
+      <c r="P31" s="35"/>
+      <c r="Q31" s="34"/>
+      <c r="R31" s="34"/>
+      <c r="S31" s="34"/>
+      <c r="T31" s="34"/>
+      <c r="U31" s="34"/>
     </row>
     <row r="32" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A32" s="32"/>
-      <c r="B32" s="32"/>
-      <c r="C32" s="33"/>
-      <c r="D32" s="33"/>
-      <c r="E32" s="33"/>
-      <c r="F32" s="33"/>
-      <c r="G32" s="33"/>
-      <c r="H32" s="32"/>
-      <c r="I32" s="32"/>
-      <c r="J32" s="33"/>
-      <c r="K32" s="33"/>
-      <c r="L32" s="33"/>
-      <c r="M32" s="33"/>
-      <c r="N32" s="33"/>
-      <c r="O32" s="34"/>
-      <c r="P32" s="34"/>
-      <c r="Q32" s="33"/>
-      <c r="R32" s="33"/>
-      <c r="S32" s="33"/>
-      <c r="T32" s="33"/>
-      <c r="U32" s="33"/>
+      <c r="A32" s="33"/>
+      <c r="B32" s="33"/>
+      <c r="C32" s="34"/>
+      <c r="D32" s="34"/>
+      <c r="E32" s="34"/>
+      <c r="F32" s="34"/>
+      <c r="G32" s="34"/>
+      <c r="H32" s="33"/>
+      <c r="I32" s="33"/>
+      <c r="J32" s="34"/>
+      <c r="K32" s="34"/>
+      <c r="L32" s="34"/>
+      <c r="M32" s="34"/>
+      <c r="N32" s="34"/>
+      <c r="O32" s="35"/>
+      <c r="P32" s="35"/>
+      <c r="Q32" s="34"/>
+      <c r="R32" s="34"/>
+      <c r="S32" s="34"/>
+      <c r="T32" s="34"/>
+      <c r="U32" s="34"/>
     </row>
     <row r="33" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A33" s="32"/>
-      <c r="B33" s="32"/>
-      <c r="C33" s="33"/>
-      <c r="D33" s="33"/>
-      <c r="E33" s="33"/>
-      <c r="F33" s="33"/>
-      <c r="G33" s="33"/>
-      <c r="H33" s="32"/>
-      <c r="I33" s="32"/>
-      <c r="J33" s="33"/>
-      <c r="K33" s="33"/>
-      <c r="L33" s="33"/>
-      <c r="M33" s="33"/>
-      <c r="N33" s="33"/>
-      <c r="O33" s="32"/>
-      <c r="P33" s="32"/>
-      <c r="Q33" s="33"/>
-      <c r="R33" s="33"/>
-      <c r="S33" s="33"/>
-      <c r="T33" s="33"/>
-      <c r="U33" s="33"/>
+      <c r="A33" s="33"/>
+      <c r="B33" s="33"/>
+      <c r="C33" s="34"/>
+      <c r="D33" s="34"/>
+      <c r="E33" s="34"/>
+      <c r="F33" s="34"/>
+      <c r="G33" s="34"/>
+      <c r="H33" s="33"/>
+      <c r="I33" s="33"/>
+      <c r="J33" s="34"/>
+      <c r="K33" s="34"/>
+      <c r="L33" s="34"/>
+      <c r="M33" s="34"/>
+      <c r="N33" s="34"/>
+      <c r="O33" s="33"/>
+      <c r="P33" s="33"/>
+      <c r="Q33" s="34"/>
+      <c r="R33" s="34"/>
+      <c r="S33" s="34"/>
+      <c r="T33" s="34"/>
+      <c r="U33" s="34"/>
     </row>
     <row r="34" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A34" s="32"/>
-      <c r="B34" s="32"/>
-      <c r="C34" s="33"/>
-      <c r="D34" s="33"/>
-      <c r="E34" s="33"/>
-      <c r="F34" s="33"/>
-      <c r="G34" s="33"/>
-      <c r="H34" s="32"/>
-      <c r="I34" s="32"/>
-      <c r="J34" s="33"/>
-      <c r="K34" s="33"/>
-      <c r="L34" s="33"/>
-      <c r="M34" s="33"/>
-      <c r="N34" s="33"/>
-      <c r="O34" s="32"/>
-      <c r="P34" s="32"/>
-      <c r="Q34" s="33"/>
-      <c r="R34" s="33"/>
-      <c r="S34" s="33"/>
-      <c r="T34" s="33"/>
-      <c r="U34" s="33"/>
+      <c r="A34" s="33"/>
+      <c r="B34" s="33"/>
+      <c r="C34" s="34"/>
+      <c r="D34" s="34"/>
+      <c r="E34" s="34"/>
+      <c r="F34" s="34"/>
+      <c r="G34" s="34"/>
+      <c r="H34" s="33"/>
+      <c r="I34" s="33"/>
+      <c r="J34" s="34"/>
+      <c r="K34" s="34"/>
+      <c r="L34" s="34"/>
+      <c r="M34" s="34"/>
+      <c r="N34" s="34"/>
+      <c r="O34" s="33"/>
+      <c r="P34" s="33"/>
+      <c r="Q34" s="34"/>
+      <c r="R34" s="34"/>
+      <c r="S34" s="34"/>
+      <c r="T34" s="34"/>
+      <c r="U34" s="34"/>
     </row>
   </sheetData>
   <mergeCells count="236">
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:G4"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="J4:N4"/>
-    <mergeCell ref="V4:W4"/>
-    <mergeCell ref="X4:AB4"/>
-    <mergeCell ref="A1:G2"/>
-    <mergeCell ref="H1:N2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:G3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="V1:AB2"/>
-    <mergeCell ref="V3:W3"/>
-    <mergeCell ref="J3:N3"/>
-    <mergeCell ref="X3:AB3"/>
-    <mergeCell ref="O1:U2"/>
-    <mergeCell ref="O3:P3"/>
-    <mergeCell ref="Q3:U3"/>
-    <mergeCell ref="O4:P4"/>
-    <mergeCell ref="Q4:U4"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="C34:G34"/>
+    <mergeCell ref="H34:I34"/>
+    <mergeCell ref="J34:N34"/>
+    <mergeCell ref="O34:P34"/>
+    <mergeCell ref="Q34:U34"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="C33:G33"/>
+    <mergeCell ref="H33:I33"/>
+    <mergeCell ref="J33:N33"/>
+    <mergeCell ref="O33:P33"/>
+    <mergeCell ref="Q33:U33"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="C32:G32"/>
+    <mergeCell ref="H32:I32"/>
+    <mergeCell ref="J32:N32"/>
+    <mergeCell ref="O32:P32"/>
+    <mergeCell ref="Q32:U32"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="C31:G31"/>
+    <mergeCell ref="H31:I31"/>
+    <mergeCell ref="J31:N31"/>
+    <mergeCell ref="O31:P31"/>
+    <mergeCell ref="Q31:U31"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="C30:G30"/>
+    <mergeCell ref="H30:I30"/>
+    <mergeCell ref="J30:N30"/>
+    <mergeCell ref="O30:P30"/>
+    <mergeCell ref="Q30:U30"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="C29:G29"/>
+    <mergeCell ref="H29:I29"/>
+    <mergeCell ref="J29:N29"/>
+    <mergeCell ref="O29:P29"/>
+    <mergeCell ref="Q29:U29"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="C28:G28"/>
+    <mergeCell ref="H28:I28"/>
+    <mergeCell ref="J28:N28"/>
+    <mergeCell ref="O28:P28"/>
+    <mergeCell ref="Q28:U28"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="C27:G27"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="J27:N27"/>
+    <mergeCell ref="O27:P27"/>
+    <mergeCell ref="Q27:U27"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="C26:G26"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="J26:N26"/>
+    <mergeCell ref="O26:P26"/>
+    <mergeCell ref="Q26:U26"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="C25:G25"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="J25:N25"/>
+    <mergeCell ref="O25:P25"/>
+    <mergeCell ref="Q25:U25"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="C24:G24"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="J24:N24"/>
+    <mergeCell ref="O24:P24"/>
+    <mergeCell ref="Q24:U24"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="C23:G23"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="J23:N23"/>
+    <mergeCell ref="O23:P23"/>
+    <mergeCell ref="Q23:U23"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="C22:G22"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="J22:N22"/>
+    <mergeCell ref="V22:W22"/>
+    <mergeCell ref="X22:AB22"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="J21:N21"/>
+    <mergeCell ref="V21:W21"/>
+    <mergeCell ref="X21:AB21"/>
+    <mergeCell ref="O21:P21"/>
+    <mergeCell ref="Q21:U21"/>
+    <mergeCell ref="O22:P22"/>
+    <mergeCell ref="Q22:U22"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="J20:N20"/>
+    <mergeCell ref="V20:W20"/>
+    <mergeCell ref="X20:AB20"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="J19:N19"/>
+    <mergeCell ref="V19:W19"/>
+    <mergeCell ref="X19:AB19"/>
+    <mergeCell ref="O19:P19"/>
+    <mergeCell ref="Q19:U19"/>
+    <mergeCell ref="O20:P20"/>
+    <mergeCell ref="Q20:U20"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="J18:N18"/>
+    <mergeCell ref="V18:W18"/>
+    <mergeCell ref="X18:AB18"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C17:G17"/>
+    <mergeCell ref="V17:W17"/>
+    <mergeCell ref="X17:AB17"/>
+    <mergeCell ref="O17:P17"/>
+    <mergeCell ref="Q17:U17"/>
+    <mergeCell ref="O18:P18"/>
+    <mergeCell ref="Q18:U18"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:G16"/>
+    <mergeCell ref="V16:W16"/>
+    <mergeCell ref="X16:AB16"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C15:G15"/>
+    <mergeCell ref="V15:W15"/>
+    <mergeCell ref="X15:AB15"/>
+    <mergeCell ref="O15:P15"/>
+    <mergeCell ref="Q15:U15"/>
+    <mergeCell ref="O16:P16"/>
+    <mergeCell ref="Q16:U16"/>
+    <mergeCell ref="V13:W13"/>
+    <mergeCell ref="J14:N14"/>
+    <mergeCell ref="V14:W14"/>
+    <mergeCell ref="X14:AB14"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C13:G13"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="J13:N13"/>
+    <mergeCell ref="X13:AB13"/>
+    <mergeCell ref="O14:P14"/>
+    <mergeCell ref="Q14:U14"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="J16:N16"/>
+    <mergeCell ref="V12:W12"/>
+    <mergeCell ref="X12:AB12"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:G11"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="J15:N15"/>
+    <mergeCell ref="V11:W11"/>
+    <mergeCell ref="X11:AB11"/>
+    <mergeCell ref="O11:P11"/>
+    <mergeCell ref="Q11:U11"/>
+    <mergeCell ref="O12:P12"/>
+    <mergeCell ref="Q12:U12"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="J11:N11"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="J12:N12"/>
+    <mergeCell ref="O13:P13"/>
+    <mergeCell ref="Q13:U13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C14:G14"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C10:G10"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="J10:N10"/>
+    <mergeCell ref="V10:W10"/>
+    <mergeCell ref="X10:AB10"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:G9"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="J9:N9"/>
+    <mergeCell ref="V9:W9"/>
+    <mergeCell ref="X9:AB9"/>
+    <mergeCell ref="O9:P9"/>
+    <mergeCell ref="Q9:U9"/>
+    <mergeCell ref="O10:P10"/>
+    <mergeCell ref="Q10:U10"/>
+    <mergeCell ref="X8:AB8"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:N7"/>
+    <mergeCell ref="V7:W7"/>
+    <mergeCell ref="X7:AB7"/>
+    <mergeCell ref="O7:P7"/>
+    <mergeCell ref="Q7:U7"/>
+    <mergeCell ref="Q8:U8"/>
+    <mergeCell ref="O8:P8"/>
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="C6:G6"/>
     <mergeCell ref="H6:I6"/>
@@ -6147,198 +6319,26 @@
     <mergeCell ref="H8:I8"/>
     <mergeCell ref="J8:N8"/>
     <mergeCell ref="V8:W8"/>
-    <mergeCell ref="X8:AB8"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="J7:N7"/>
-    <mergeCell ref="V7:W7"/>
-    <mergeCell ref="X7:AB7"/>
-    <mergeCell ref="O7:P7"/>
-    <mergeCell ref="Q7:U7"/>
-    <mergeCell ref="Q8:U8"/>
-    <mergeCell ref="O8:P8"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="C10:G10"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="J10:N10"/>
-    <mergeCell ref="V10:W10"/>
-    <mergeCell ref="X10:AB10"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="C9:G9"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="J9:N9"/>
-    <mergeCell ref="V9:W9"/>
-    <mergeCell ref="X9:AB9"/>
-    <mergeCell ref="O9:P9"/>
-    <mergeCell ref="Q9:U9"/>
-    <mergeCell ref="O10:P10"/>
-    <mergeCell ref="Q10:U10"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="C12:G12"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="J16:N16"/>
-    <mergeCell ref="V12:W12"/>
-    <mergeCell ref="X12:AB12"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:G11"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="J15:N15"/>
-    <mergeCell ref="V11:W11"/>
-    <mergeCell ref="X11:AB11"/>
-    <mergeCell ref="O11:P11"/>
-    <mergeCell ref="Q11:U11"/>
-    <mergeCell ref="O12:P12"/>
-    <mergeCell ref="Q12:U12"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="J11:N11"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="J12:N12"/>
-    <mergeCell ref="O13:P13"/>
-    <mergeCell ref="Q13:U13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="C14:G14"/>
-    <mergeCell ref="V13:W13"/>
-    <mergeCell ref="J14:N14"/>
-    <mergeCell ref="V14:W14"/>
-    <mergeCell ref="X14:AB14"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="C13:G13"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="J13:N13"/>
-    <mergeCell ref="X13:AB13"/>
-    <mergeCell ref="O14:P14"/>
-    <mergeCell ref="Q14:U14"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="C16:G16"/>
-    <mergeCell ref="V16:W16"/>
-    <mergeCell ref="X16:AB16"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="C15:G15"/>
-    <mergeCell ref="V15:W15"/>
-    <mergeCell ref="X15:AB15"/>
-    <mergeCell ref="O15:P15"/>
-    <mergeCell ref="Q15:U15"/>
-    <mergeCell ref="O16:P16"/>
-    <mergeCell ref="Q16:U16"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C18:G18"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="J18:N18"/>
-    <mergeCell ref="V18:W18"/>
-    <mergeCell ref="X18:AB18"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="C17:G17"/>
-    <mergeCell ref="V17:W17"/>
-    <mergeCell ref="X17:AB17"/>
-    <mergeCell ref="O17:P17"/>
-    <mergeCell ref="Q17:U17"/>
-    <mergeCell ref="O18:P18"/>
-    <mergeCell ref="Q18:U18"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="C20:G20"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="J20:N20"/>
-    <mergeCell ref="V20:W20"/>
-    <mergeCell ref="X20:AB20"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="C19:G19"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="J19:N19"/>
-    <mergeCell ref="V19:W19"/>
-    <mergeCell ref="X19:AB19"/>
-    <mergeCell ref="O19:P19"/>
-    <mergeCell ref="Q19:U19"/>
-    <mergeCell ref="O20:P20"/>
-    <mergeCell ref="Q20:U20"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="C22:G22"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="J22:N22"/>
-    <mergeCell ref="V22:W22"/>
-    <mergeCell ref="X22:AB22"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="C21:G21"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="J21:N21"/>
-    <mergeCell ref="V21:W21"/>
-    <mergeCell ref="X21:AB21"/>
-    <mergeCell ref="O21:P21"/>
-    <mergeCell ref="Q21:U21"/>
-    <mergeCell ref="O22:P22"/>
-    <mergeCell ref="Q22:U22"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="C24:G24"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="J24:N24"/>
-    <mergeCell ref="O24:P24"/>
-    <mergeCell ref="Q24:U24"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="C23:G23"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="J23:N23"/>
-    <mergeCell ref="O23:P23"/>
-    <mergeCell ref="Q23:U23"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="C26:G26"/>
-    <mergeCell ref="H26:I26"/>
-    <mergeCell ref="J26:N26"/>
-    <mergeCell ref="O26:P26"/>
-    <mergeCell ref="Q26:U26"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="C25:G25"/>
-    <mergeCell ref="H25:I25"/>
-    <mergeCell ref="J25:N25"/>
-    <mergeCell ref="O25:P25"/>
-    <mergeCell ref="Q25:U25"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="C28:G28"/>
-    <mergeCell ref="H28:I28"/>
-    <mergeCell ref="J28:N28"/>
-    <mergeCell ref="O28:P28"/>
-    <mergeCell ref="Q28:U28"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="C27:G27"/>
-    <mergeCell ref="H27:I27"/>
-    <mergeCell ref="J27:N27"/>
-    <mergeCell ref="O27:P27"/>
-    <mergeCell ref="Q27:U27"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="C30:G30"/>
-    <mergeCell ref="H30:I30"/>
-    <mergeCell ref="J30:N30"/>
-    <mergeCell ref="O30:P30"/>
-    <mergeCell ref="Q30:U30"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="C29:G29"/>
-    <mergeCell ref="H29:I29"/>
-    <mergeCell ref="J29:N29"/>
-    <mergeCell ref="O29:P29"/>
-    <mergeCell ref="Q29:U29"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="C32:G32"/>
-    <mergeCell ref="H32:I32"/>
-    <mergeCell ref="J32:N32"/>
-    <mergeCell ref="O32:P32"/>
-    <mergeCell ref="Q32:U32"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="C31:G31"/>
-    <mergeCell ref="H31:I31"/>
-    <mergeCell ref="J31:N31"/>
-    <mergeCell ref="O31:P31"/>
-    <mergeCell ref="Q31:U31"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="C34:G34"/>
-    <mergeCell ref="H34:I34"/>
-    <mergeCell ref="J34:N34"/>
-    <mergeCell ref="O34:P34"/>
-    <mergeCell ref="Q34:U34"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="C33:G33"/>
-    <mergeCell ref="H33:I33"/>
-    <mergeCell ref="J33:N33"/>
-    <mergeCell ref="O33:P33"/>
-    <mergeCell ref="Q33:U33"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="J4:N4"/>
+    <mergeCell ref="V4:W4"/>
+    <mergeCell ref="X4:AB4"/>
+    <mergeCell ref="A1:G2"/>
+    <mergeCell ref="H1:N2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:G3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="V1:AB2"/>
+    <mergeCell ref="V3:W3"/>
+    <mergeCell ref="J3:N3"/>
+    <mergeCell ref="X3:AB3"/>
+    <mergeCell ref="O1:U2"/>
+    <mergeCell ref="O3:P3"/>
+    <mergeCell ref="Q3:U3"/>
+    <mergeCell ref="O4:P4"/>
+    <mergeCell ref="Q4:U4"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C15" r:id="rId1" xr:uid="{868F8F85-B252-4B04-B081-E9B23AD46A23}"/>
@@ -6372,16 +6372,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="41" t="s">
         <v>285</v>
       </c>
-      <c r="B1" s="40"/>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
-      <c r="F1" s="40"/>
-      <c r="G1" s="40"/>
-      <c r="H1" s="40"/>
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="41"/>
+      <c r="H1" s="41"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="22" t="s">
@@ -6396,12 +6396,12 @@
       <c r="D2" s="22" t="s">
         <v>288</v>
       </c>
-      <c r="E2" s="33" t="s">
+      <c r="E2" s="34" t="s">
         <v>289</v>
       </c>
-      <c r="F2" s="33"/>
-      <c r="G2" s="33"/>
-      <c r="H2" s="33"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="34"/>
+      <c r="H2" s="34"/>
     </row>
     <row r="3" spans="1:9" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
@@ -6416,12 +6416,12 @@
       <c r="D3" s="14" t="s">
         <v>290</v>
       </c>
-      <c r="E3" s="39" t="s">
+      <c r="E3" s="40" t="s">
         <v>297</v>
       </c>
-      <c r="F3" s="39"/>
-      <c r="G3" s="39"/>
-      <c r="H3" s="39"/>
+      <c r="F3" s="40"/>
+      <c r="G3" s="40"/>
+      <c r="H3" s="40"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
@@ -6436,28 +6436,28 @@
       <c r="D4" s="14" t="s">
         <v>300</v>
       </c>
-      <c r="E4" s="39"/>
-      <c r="F4" s="39"/>
-      <c r="G4" s="39"/>
-      <c r="H4" s="39"/>
+      <c r="E4" s="40"/>
+      <c r="F4" s="40"/>
+      <c r="G4" s="40"/>
+      <c r="H4" s="40"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="E5" s="39"/>
-      <c r="F5" s="39"/>
-      <c r="G5" s="39"/>
-      <c r="H5" s="39"/>
+      <c r="E5" s="40"/>
+      <c r="F5" s="40"/>
+      <c r="G5" s="40"/>
+      <c r="H5" s="40"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="E6" s="39"/>
-      <c r="F6" s="39"/>
-      <c r="G6" s="39"/>
-      <c r="H6" s="39"/>
+      <c r="E6" s="40"/>
+      <c r="F6" s="40"/>
+      <c r="G6" s="40"/>
+      <c r="H6" s="40"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="E7" s="39"/>
-      <c r="F7" s="39"/>
-      <c r="G7" s="39"/>
-      <c r="H7" s="39"/>
+      <c r="E7" s="40"/>
+      <c r="F7" s="40"/>
+      <c r="G7" s="40"/>
+      <c r="H7" s="40"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="14" t="s">
@@ -6472,12 +6472,12 @@
       <c r="D8" s="14" t="s">
         <v>294</v>
       </c>
-      <c r="E8" s="39" t="s">
+      <c r="E8" s="40" t="s">
         <v>334</v>
       </c>
-      <c r="F8" s="39"/>
-      <c r="G8" s="39"/>
-      <c r="H8" s="39"/>
+      <c r="F8" s="40"/>
+      <c r="G8" s="40"/>
+      <c r="H8" s="40"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
@@ -6492,12 +6492,12 @@
       <c r="D9" s="14" t="s">
         <v>300</v>
       </c>
-      <c r="E9" s="39" t="s">
+      <c r="E9" s="40" t="s">
         <v>298</v>
       </c>
-      <c r="F9" s="39"/>
-      <c r="G9" s="39"/>
-      <c r="H9" s="39"/>
+      <c r="F9" s="40"/>
+      <c r="G9" s="40"/>
+      <c r="H9" s="40"/>
     </row>
     <row r="10" spans="1:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="14" t="s">
@@ -6512,12 +6512,12 @@
       <c r="D10" s="14" t="s">
         <v>300</v>
       </c>
-      <c r="E10" s="39" t="s">
+      <c r="E10" s="40" t="s">
         <v>301</v>
       </c>
-      <c r="F10" s="39"/>
-      <c r="G10" s="39"/>
-      <c r="H10" s="39"/>
+      <c r="F10" s="40"/>
+      <c r="G10" s="40"/>
+      <c r="H10" s="40"/>
       <c r="I10" s="14" t="s">
         <v>331</v>
       </c>
@@ -6535,12 +6535,12 @@
       <c r="D11" s="14" t="s">
         <v>300</v>
       </c>
-      <c r="E11" s="39" t="s">
+      <c r="E11" s="40" t="s">
         <v>304</v>
       </c>
-      <c r="F11" s="39"/>
-      <c r="G11" s="39"/>
-      <c r="H11" s="39"/>
+      <c r="F11" s="40"/>
+      <c r="G11" s="40"/>
+      <c r="H11" s="40"/>
     </row>
     <row r="12" spans="1:9" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="14" t="s">
@@ -6555,12 +6555,12 @@
       <c r="D12" s="14" t="s">
         <v>300</v>
       </c>
-      <c r="E12" s="39" t="s">
+      <c r="E12" s="40" t="s">
         <v>308</v>
       </c>
-      <c r="F12" s="39"/>
-      <c r="G12" s="39"/>
-      <c r="H12" s="39"/>
+      <c r="F12" s="40"/>
+      <c r="G12" s="40"/>
+      <c r="H12" s="40"/>
     </row>
     <row r="13" spans="1:9" ht="79.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="14" t="s">
@@ -6575,12 +6575,12 @@
       <c r="D13" s="14" t="s">
         <v>300</v>
       </c>
-      <c r="E13" s="39" t="s">
+      <c r="E13" s="40" t="s">
         <v>310</v>
       </c>
-      <c r="F13" s="39"/>
-      <c r="G13" s="39"/>
-      <c r="H13" s="39"/>
+      <c r="F13" s="40"/>
+      <c r="G13" s="40"/>
+      <c r="H13" s="40"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="14" t="s">
@@ -6595,93 +6595,95 @@
       <c r="D14" s="14" t="s">
         <v>300</v>
       </c>
-      <c r="E14" s="39" t="s">
+      <c r="E14" s="40" t="s">
         <v>336</v>
       </c>
-      <c r="F14" s="39"/>
-      <c r="G14" s="39"/>
-      <c r="H14" s="39"/>
+      <c r="F14" s="40"/>
+      <c r="G14" s="40"/>
+      <c r="H14" s="40"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="E15" s="39"/>
-      <c r="F15" s="39"/>
-      <c r="G15" s="39"/>
-      <c r="H15" s="39"/>
+      <c r="E15" s="40"/>
+      <c r="F15" s="40"/>
+      <c r="G15" s="40"/>
+      <c r="H15" s="40"/>
     </row>
     <row r="16" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E16" s="39"/>
-      <c r="F16" s="39"/>
-      <c r="G16" s="39"/>
-      <c r="H16" s="39"/>
+      <c r="E16" s="40"/>
+      <c r="F16" s="40"/>
+      <c r="G16" s="40"/>
+      <c r="H16" s="40"/>
     </row>
     <row r="17" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E17" s="39"/>
-      <c r="F17" s="39"/>
-      <c r="G17" s="39"/>
-      <c r="H17" s="39"/>
+      <c r="E17" s="40"/>
+      <c r="F17" s="40"/>
+      <c r="G17" s="40"/>
+      <c r="H17" s="40"/>
     </row>
     <row r="18" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E18" s="39"/>
-      <c r="F18" s="39"/>
-      <c r="G18" s="39"/>
-      <c r="H18" s="39"/>
+      <c r="E18" s="40"/>
+      <c r="F18" s="40"/>
+      <c r="G18" s="40"/>
+      <c r="H18" s="40"/>
     </row>
     <row r="19" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E19" s="39"/>
-      <c r="F19" s="39"/>
-      <c r="G19" s="39"/>
-      <c r="H19" s="39"/>
+      <c r="E19" s="40"/>
+      <c r="F19" s="40"/>
+      <c r="G19" s="40"/>
+      <c r="H19" s="40"/>
     </row>
     <row r="20" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E20" s="39"/>
-      <c r="F20" s="39"/>
-      <c r="G20" s="39"/>
-      <c r="H20" s="39"/>
+      <c r="E20" s="40"/>
+      <c r="F20" s="40"/>
+      <c r="G20" s="40"/>
+      <c r="H20" s="40"/>
     </row>
     <row r="21" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E21" s="39"/>
-      <c r="F21" s="39"/>
-      <c r="G21" s="39"/>
-      <c r="H21" s="39"/>
+      <c r="E21" s="40"/>
+      <c r="F21" s="40"/>
+      <c r="G21" s="40"/>
+      <c r="H21" s="40"/>
     </row>
     <row r="22" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E22" s="39"/>
-      <c r="F22" s="39"/>
-      <c r="G22" s="39"/>
-      <c r="H22" s="39"/>
+      <c r="E22" s="40"/>
+      <c r="F22" s="40"/>
+      <c r="G22" s="40"/>
+      <c r="H22" s="40"/>
     </row>
     <row r="23" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E23" s="39"/>
-      <c r="F23" s="39"/>
-      <c r="G23" s="39"/>
-      <c r="H23" s="39"/>
+      <c r="E23" s="40"/>
+      <c r="F23" s="40"/>
+      <c r="G23" s="40"/>
+      <c r="H23" s="40"/>
     </row>
     <row r="24" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E24" s="39"/>
-      <c r="F24" s="39"/>
-      <c r="G24" s="39"/>
-      <c r="H24" s="39"/>
+      <c r="E24" s="40"/>
+      <c r="F24" s="40"/>
+      <c r="G24" s="40"/>
+      <c r="H24" s="40"/>
     </row>
     <row r="25" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E25" s="39"/>
-      <c r="F25" s="39"/>
-      <c r="G25" s="39"/>
-      <c r="H25" s="39"/>
+      <c r="E25" s="40"/>
+      <c r="F25" s="40"/>
+      <c r="G25" s="40"/>
+      <c r="H25" s="40"/>
     </row>
     <row r="26" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E26" s="39"/>
-      <c r="F26" s="39"/>
-      <c r="G26" s="39"/>
-      <c r="H26" s="39"/>
+      <c r="E26" s="40"/>
+      <c r="F26" s="40"/>
+      <c r="G26" s="40"/>
+      <c r="H26" s="40"/>
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="E6:H6"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="E2:H2"/>
-    <mergeCell ref="E3:H3"/>
-    <mergeCell ref="E4:H4"/>
-    <mergeCell ref="E5:H5"/>
+    <mergeCell ref="E25:H25"/>
+    <mergeCell ref="E26:H26"/>
+    <mergeCell ref="E19:H19"/>
+    <mergeCell ref="E20:H20"/>
+    <mergeCell ref="E21:H21"/>
+    <mergeCell ref="E22:H22"/>
+    <mergeCell ref="E23:H23"/>
+    <mergeCell ref="E24:H24"/>
     <mergeCell ref="E18:H18"/>
     <mergeCell ref="E7:H7"/>
     <mergeCell ref="E8:H8"/>
@@ -6694,14 +6696,12 @@
     <mergeCell ref="E15:H15"/>
     <mergeCell ref="E16:H16"/>
     <mergeCell ref="E17:H17"/>
-    <mergeCell ref="E25:H25"/>
-    <mergeCell ref="E26:H26"/>
-    <mergeCell ref="E19:H19"/>
-    <mergeCell ref="E20:H20"/>
-    <mergeCell ref="E21:H21"/>
-    <mergeCell ref="E22:H22"/>
-    <mergeCell ref="E23:H23"/>
-    <mergeCell ref="E24:H24"/>
+    <mergeCell ref="E6:H6"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="E2:H2"/>
+    <mergeCell ref="E3:H3"/>
+    <mergeCell ref="E4:H4"/>
+    <mergeCell ref="E5:H5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6712,7 +6712,7 @@
   <dimension ref="A1:J30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15:G15"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6731,15 +6731,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="43" t="s">
         <v>311</v>
       </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
-      <c r="F1" s="42"/>
-      <c r="G1" s="42"/>
+      <c r="B1" s="43"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="43"/>
+      <c r="G1" s="43"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="20" t="s">
@@ -6751,13 +6751,13 @@
       <c r="C2" s="20" t="s">
         <v>286</v>
       </c>
-      <c r="D2" s="43" t="s">
+      <c r="D2" s="44" t="s">
         <v>289</v>
       </c>
-      <c r="E2" s="43"/>
-      <c r="F2" s="43"/>
-      <c r="G2" s="43"/>
-      <c r="I2" s="44" t="s">
+      <c r="E2" s="44"/>
+      <c r="F2" s="44"/>
+      <c r="G2" s="44"/>
+      <c r="I2" s="23" t="s">
         <v>345</v>
       </c>
     </row>
@@ -6771,12 +6771,12 @@
       <c r="C3" s="5" t="s">
         <v>290</v>
       </c>
-      <c r="D3" s="41" t="s">
+      <c r="D3" s="42" t="s">
         <v>313</v>
       </c>
-      <c r="E3" s="41"/>
-      <c r="F3" s="41"/>
-      <c r="G3" s="41"/>
+      <c r="E3" s="42"/>
+      <c r="F3" s="42"/>
+      <c r="G3" s="42"/>
       <c r="I3" s="5" t="s">
         <v>346</v>
       </c>
@@ -6794,12 +6794,12 @@
       <c r="C4" s="5" t="s">
         <v>290</v>
       </c>
-      <c r="D4" s="41" t="s">
+      <c r="D4" s="42" t="s">
         <v>320</v>
       </c>
-      <c r="E4" s="41"/>
-      <c r="F4" s="41"/>
-      <c r="G4" s="41"/>
+      <c r="E4" s="42"/>
+      <c r="F4" s="42"/>
+      <c r="G4" s="42"/>
       <c r="J4" s="5" t="s">
         <v>349</v>
       </c>
@@ -6814,12 +6814,12 @@
       <c r="C5" s="5" t="s">
         <v>290</v>
       </c>
-      <c r="D5" s="41" t="s">
+      <c r="D5" s="42" t="s">
         <v>317</v>
       </c>
-      <c r="E5" s="41"/>
-      <c r="F5" s="41"/>
-      <c r="G5" s="41"/>
+      <c r="E5" s="42"/>
+      <c r="F5" s="42"/>
+      <c r="G5" s="42"/>
       <c r="J5" s="5" t="s">
         <v>350</v>
       </c>
@@ -6834,12 +6834,12 @@
       <c r="C6" s="5" t="s">
         <v>319</v>
       </c>
-      <c r="D6" s="41" t="s">
+      <c r="D6" s="42" t="s">
         <v>314</v>
       </c>
-      <c r="E6" s="41"/>
-      <c r="F6" s="41"/>
-      <c r="G6" s="41"/>
+      <c r="E6" s="42"/>
+      <c r="F6" s="42"/>
+      <c r="G6" s="42"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
@@ -6856,10 +6856,10 @@
       <c r="A8" s="5" t="s">
         <v>347</v>
       </c>
-      <c r="D8" s="41"/>
-      <c r="E8" s="41"/>
-      <c r="F8" s="41"/>
-      <c r="G8" s="41"/>
+      <c r="D8" s="42"/>
+      <c r="E8" s="42"/>
+      <c r="F8" s="42"/>
+      <c r="G8" s="42"/>
       <c r="I8" s="5" t="s">
         <v>204</v>
       </c>
@@ -6877,27 +6877,27 @@
       <c r="C9" s="5" t="s">
         <v>356</v>
       </c>
-      <c r="D9" s="41" t="s">
+      <c r="D9" s="42" t="s">
         <v>353</v>
       </c>
-      <c r="E9" s="41"/>
-      <c r="F9" s="41"/>
-      <c r="G9" s="41"/>
+      <c r="E9" s="42"/>
+      <c r="F9" s="42"/>
+      <c r="G9" s="42"/>
       <c r="J9" s="5" t="s">
         <v>355</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D10" s="41"/>
-      <c r="E10" s="41"/>
-      <c r="F10" s="41"/>
-      <c r="G10" s="41"/>
+      <c r="D10" s="42"/>
+      <c r="E10" s="42"/>
+      <c r="F10" s="42"/>
+      <c r="G10" s="42"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D11" s="41"/>
-      <c r="E11" s="41"/>
-      <c r="F11" s="41"/>
-      <c r="G11" s="41"/>
+      <c r="D11" s="42"/>
+      <c r="E11" s="42"/>
+      <c r="F11" s="42"/>
+      <c r="G11" s="42"/>
     </row>
     <row r="12" spans="1:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
@@ -6909,12 +6909,12 @@
       <c r="C12" s="5" t="s">
         <v>325</v>
       </c>
-      <c r="D12" s="41" t="s">
+      <c r="D12" s="42" t="s">
         <v>326</v>
       </c>
-      <c r="E12" s="41"/>
-      <c r="F12" s="41"/>
-      <c r="G12" s="41"/>
+      <c r="E12" s="42"/>
+      <c r="F12" s="42"/>
+      <c r="G12" s="42"/>
       <c r="I12" s="5" t="s">
         <v>357</v>
       </c>
@@ -6932,12 +6932,12 @@
       <c r="C13" s="5" t="s">
         <v>290</v>
       </c>
-      <c r="D13" s="41" t="s">
+      <c r="D13" s="42" t="s">
         <v>329</v>
       </c>
-      <c r="E13" s="41"/>
-      <c r="F13" s="41"/>
-      <c r="G13" s="41"/>
+      <c r="E13" s="42"/>
+      <c r="F13" s="42"/>
+      <c r="G13" s="42"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
@@ -6949,24 +6949,24 @@
       <c r="C14" s="5" t="s">
         <v>361</v>
       </c>
-      <c r="D14" s="41" t="s">
+      <c r="D14" s="42" t="s">
         <v>362</v>
       </c>
-      <c r="E14" s="41"/>
-      <c r="F14" s="41"/>
-      <c r="G14" s="41"/>
+      <c r="E14" s="42"/>
+      <c r="F14" s="42"/>
+      <c r="G14" s="42"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D15" s="41"/>
-      <c r="E15" s="41"/>
-      <c r="F15" s="41"/>
-      <c r="G15" s="41"/>
+      <c r="D15" s="42"/>
+      <c r="E15" s="42"/>
+      <c r="F15" s="42"/>
+      <c r="G15" s="42"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D16" s="41"/>
-      <c r="E16" s="41"/>
-      <c r="F16" s="41"/>
-      <c r="G16" s="41"/>
+      <c r="D16" s="42"/>
+      <c r="E16" s="42"/>
+      <c r="F16" s="42"/>
+      <c r="G16" s="42"/>
     </row>
     <row r="17" spans="1:7" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
@@ -6978,110 +6978,93 @@
       <c r="C17" s="5" t="s">
         <v>340</v>
       </c>
-      <c r="D17" s="39" t="s">
+      <c r="D17" s="40" t="s">
         <v>342</v>
       </c>
-      <c r="E17" s="39"/>
-      <c r="F17" s="39"/>
-      <c r="G17" s="39"/>
+      <c r="E17" s="40"/>
+      <c r="F17" s="40"/>
+      <c r="G17" s="40"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D18" s="41"/>
-      <c r="E18" s="41"/>
-      <c r="F18" s="41"/>
-      <c r="G18" s="41"/>
+      <c r="D18" s="42"/>
+      <c r="E18" s="42"/>
+      <c r="F18" s="42"/>
+      <c r="G18" s="42"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D19" s="41"/>
-      <c r="E19" s="41"/>
-      <c r="F19" s="41"/>
-      <c r="G19" s="41"/>
+      <c r="D19" s="42"/>
+      <c r="E19" s="42"/>
+      <c r="F19" s="42"/>
+      <c r="G19" s="42"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D20" s="41"/>
-      <c r="E20" s="41"/>
-      <c r="F20" s="41"/>
-      <c r="G20" s="41"/>
+      <c r="D20" s="42"/>
+      <c r="E20" s="42"/>
+      <c r="F20" s="42"/>
+      <c r="G20" s="42"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D21" s="41"/>
-      <c r="E21" s="41"/>
-      <c r="F21" s="41"/>
-      <c r="G21" s="41"/>
+      <c r="D21" s="42"/>
+      <c r="E21" s="42"/>
+      <c r="F21" s="42"/>
+      <c r="G21" s="42"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D22" s="41"/>
-      <c r="E22" s="41"/>
-      <c r="F22" s="41"/>
-      <c r="G22" s="41"/>
+      <c r="D22" s="42"/>
+      <c r="E22" s="42"/>
+      <c r="F22" s="42"/>
+      <c r="G22" s="42"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D23" s="41"/>
-      <c r="E23" s="41"/>
-      <c r="F23" s="41"/>
-      <c r="G23" s="41"/>
+      <c r="D23" s="42"/>
+      <c r="E23" s="42"/>
+      <c r="F23" s="42"/>
+      <c r="G23" s="42"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D24" s="41"/>
-      <c r="E24" s="41"/>
-      <c r="F24" s="41"/>
-      <c r="G24" s="41"/>
+      <c r="D24" s="42"/>
+      <c r="E24" s="42"/>
+      <c r="F24" s="42"/>
+      <c r="G24" s="42"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D25" s="41"/>
-      <c r="E25" s="41"/>
-      <c r="F25" s="41"/>
-      <c r="G25" s="41"/>
+      <c r="D25" s="42"/>
+      <c r="E25" s="42"/>
+      <c r="F25" s="42"/>
+      <c r="G25" s="42"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D26" s="41"/>
-      <c r="E26" s="41"/>
-      <c r="F26" s="41"/>
-      <c r="G26" s="41"/>
+      <c r="D26" s="42"/>
+      <c r="E26" s="42"/>
+      <c r="F26" s="42"/>
+      <c r="G26" s="42"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D27" s="41"/>
-      <c r="E27" s="41"/>
-      <c r="F27" s="41"/>
-      <c r="G27" s="41"/>
+      <c r="D27" s="42"/>
+      <c r="E27" s="42"/>
+      <c r="F27" s="42"/>
+      <c r="G27" s="42"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D28" s="41"/>
-      <c r="E28" s="41"/>
-      <c r="F28" s="41"/>
-      <c r="G28" s="41"/>
+      <c r="D28" s="42"/>
+      <c r="E28" s="42"/>
+      <c r="F28" s="42"/>
+      <c r="G28" s="42"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D29" s="41"/>
-      <c r="E29" s="41"/>
-      <c r="F29" s="41"/>
-      <c r="G29" s="41"/>
+      <c r="D29" s="42"/>
+      <c r="E29" s="42"/>
+      <c r="F29" s="42"/>
+      <c r="G29" s="42"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D30" s="41"/>
-      <c r="E30" s="41"/>
-      <c r="F30" s="41"/>
-      <c r="G30" s="41"/>
+      <c r="D30" s="42"/>
+      <c r="E30" s="42"/>
+      <c r="F30" s="42"/>
+      <c r="G30" s="42"/>
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="D4:G4"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="D2:G2"/>
-    <mergeCell ref="D3:G3"/>
-    <mergeCell ref="D6:G6"/>
-    <mergeCell ref="D5:G5"/>
-    <mergeCell ref="D18:G18"/>
-    <mergeCell ref="D8:G8"/>
-    <mergeCell ref="D9:G9"/>
-    <mergeCell ref="D10:G10"/>
-    <mergeCell ref="D11:G11"/>
-    <mergeCell ref="D12:G12"/>
-    <mergeCell ref="D13:G13"/>
-    <mergeCell ref="D14:G14"/>
-    <mergeCell ref="D15:G15"/>
-    <mergeCell ref="D16:G16"/>
-    <mergeCell ref="D17:G17"/>
     <mergeCell ref="D30:G30"/>
     <mergeCell ref="D19:G19"/>
     <mergeCell ref="D20:G20"/>
@@ -7094,6 +7077,23 @@
     <mergeCell ref="D27:G27"/>
     <mergeCell ref="D28:G28"/>
     <mergeCell ref="D29:G29"/>
+    <mergeCell ref="D18:G18"/>
+    <mergeCell ref="D8:G8"/>
+    <mergeCell ref="D9:G9"/>
+    <mergeCell ref="D10:G10"/>
+    <mergeCell ref="D11:G11"/>
+    <mergeCell ref="D12:G12"/>
+    <mergeCell ref="D13:G13"/>
+    <mergeCell ref="D14:G14"/>
+    <mergeCell ref="D15:G15"/>
+    <mergeCell ref="D16:G16"/>
+    <mergeCell ref="D17:G17"/>
+    <mergeCell ref="D4:G4"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="D3:G3"/>
+    <mergeCell ref="D6:G6"/>
+    <mergeCell ref="D5:G5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/plans/todo.xlsx
+++ b/plans/todo.xlsx
@@ -8,17 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Edsquid\Documents\Personal Projects\Business\RogueLikeGame\plans\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA0D981C-4DCA-4138-AC9E-59BAE4247CD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90297A16-2F28-41CC-88F4-EEACC20D1CAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29610" yWindow="2385" windowWidth="14595" windowHeight="12540" activeTab="5" xr2:uid="{BA1E511D-BF64-4842-98DF-72E30276ED1C}"/>
+    <workbookView xWindow="29910" yWindow="1620" windowWidth="18900" windowHeight="13530" xr2:uid="{BA1E511D-BF64-4842-98DF-72E30276ED1C}"/>
   </bookViews>
   <sheets>
     <sheet name="Attributes" sheetId="3" r:id="rId1"/>
-    <sheet name="Maps" sheetId="5" r:id="rId2"/>
-    <sheet name="Characters" sheetId="4" r:id="rId3"/>
-    <sheet name="Weapons and Secondary" sheetId="2" r:id="rId4"/>
-    <sheet name="Enemies" sheetId="6" r:id="rId5"/>
-    <sheet name="Interactables" sheetId="7" r:id="rId6"/>
+    <sheet name="Sheet1" sheetId="8" r:id="rId2"/>
+    <sheet name="Maps" sheetId="5" r:id="rId3"/>
+    <sheet name="Characters" sheetId="4" r:id="rId4"/>
+    <sheet name="Weapons and Secondary" sheetId="2" r:id="rId5"/>
+    <sheet name="Enemies" sheetId="6" r:id="rId6"/>
+    <sheet name="Interactables" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="496" uniqueCount="363">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="484" uniqueCount="364">
   <si>
     <t>Max Lives</t>
   </si>
@@ -106,9 +107,6 @@
     <t>Big pockets (More max ammo, less move speed)</t>
   </si>
   <si>
-    <t>Seconds please (Increase size, increase health)</t>
-  </si>
-  <si>
     <t xml:space="preserve">Each and every day (Increase health regen) </t>
   </si>
   <si>
@@ -124,9 +122,6 @@
     <t>Increase crit chance, decrease damage</t>
   </si>
   <si>
-    <t>Punch with your body (more health = more melee dmg)</t>
-  </si>
-  <si>
     <t>Agile (Reduce max health, increase speed)</t>
   </si>
   <si>
@@ -139,9 +134,6 @@
     <t>Reduce regular damage, increase status effect potency</t>
   </si>
   <si>
-    <t>Remove ability to dash, double base health</t>
-  </si>
-  <si>
     <t xml:space="preserve">Increase base damage 200%, add 10 lives, max health set to 1 </t>
   </si>
   <si>
@@ -175,51 +167,21 @@
     <t>Small, shortish range, quick thrust  and slash attack, higher crit</t>
   </si>
   <si>
-    <t>Pistol</t>
-  </si>
-  <si>
     <t>Simple weapon, regular magazine, nothing spectacular</t>
   </si>
   <si>
-    <t>Longer range rifle</t>
-  </si>
-  <si>
     <t>Smaller ammo, higher crit, high pierce</t>
   </si>
   <si>
-    <t>More ammo, less dmg</t>
-  </si>
-  <si>
-    <t>Assault rifle</t>
-  </si>
-  <si>
-    <t>Laser rifle</t>
-  </si>
-  <si>
     <t>Charge and release</t>
   </si>
   <si>
-    <t>Psychic bow</t>
-  </si>
-  <si>
     <t xml:space="preserve"> energy damage type, charge and release, shoots projectile at max charge</t>
   </si>
   <si>
     <t>Huge sword, huge damage, hold and release</t>
   </si>
   <si>
-    <t>Big dmg, single bullet, fire dmg</t>
-  </si>
-  <si>
-    <t>dual smg</t>
-  </si>
-  <si>
-    <t>two smgs, fast reload, low dmg, lots of ammo</t>
-  </si>
-  <si>
-    <t>Rail gun</t>
-  </si>
-  <si>
     <t>Similar to laser rifle, but hold and relase, giga damage</t>
   </si>
   <si>
@@ -271,12 +233,6 @@
     <t>melee</t>
   </si>
   <si>
-    <t>Shotty</t>
-  </si>
-  <si>
-    <t>Rocket Launcher</t>
-  </si>
-  <si>
     <t>Damage increase</t>
   </si>
   <si>
@@ -445,36 +401,12 @@
     <t>Increase</t>
   </si>
   <si>
-    <t>Slug trail - Fire</t>
-  </si>
-  <si>
     <t>Leaves a trail of fire</t>
   </si>
   <si>
     <t xml:space="preserve">Periodically drop an area effect </t>
   </si>
   <si>
-    <t>Slug trail - Frost</t>
-  </si>
-  <si>
-    <t>Slug trail - Electricity</t>
-  </si>
-  <si>
-    <t>Explosive Dash - Fire</t>
-  </si>
-  <si>
-    <t>Leaves a trail of electricity</t>
-  </si>
-  <si>
-    <t>Leaves a trail of frost</t>
-  </si>
-  <si>
-    <t>Explosive Dash - Frost</t>
-  </si>
-  <si>
-    <t>Explosive Dash - Electricity</t>
-  </si>
-  <si>
     <t>Explosion at dash begin</t>
   </si>
   <si>
@@ -496,9 +428,6 @@
     <t>Periodic Pulse - Stun enemies</t>
   </si>
   <si>
-    <t>Periodic Pulse - Steal HP</t>
-  </si>
-  <si>
     <t>Circular pulse in an area around player</t>
   </si>
   <si>
@@ -517,9 +446,6 @@
     <t>Sentry - grab items (xp, health drops)</t>
   </si>
   <si>
-    <t>Mark an enemy, meaning the next hit on them will do giga damage</t>
-  </si>
-  <si>
     <t>tesla tower</t>
   </si>
   <si>
@@ -529,18 +455,12 @@
     <t>grab random items on the screen</t>
   </si>
   <si>
-    <t>Explode - On enemy kill</t>
-  </si>
-  <si>
     <t>On Enemy Hit</t>
   </si>
   <si>
     <t>Projectiles in all directions</t>
   </si>
   <si>
-    <t>Zap in all directions</t>
-  </si>
-  <si>
     <t>Attributes (in-game)</t>
   </si>
   <si>
@@ -556,27 +476,15 @@
     <t>Teleport instead of dash</t>
   </si>
   <si>
-    <t>Thorns (choose damage type)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Increase dodge while dashing </t>
-  </si>
-  <si>
     <t>Next attack after dash is empowered</t>
   </si>
   <si>
     <t>Objects surround player</t>
   </si>
   <si>
-    <t>Physics</t>
-  </si>
-  <si>
     <t>Damaging</t>
   </si>
   <si>
-    <t>Lightning - On reload - maybe</t>
-  </si>
-  <si>
     <t>Stat Attributes (in-game)</t>
   </si>
   <si>
@@ -631,9 +539,6 @@
     <t>Magic</t>
   </si>
   <si>
-    <t>Magic Pissle</t>
-  </si>
-  <si>
     <t>Simple wand swings that shoot a missile</t>
   </si>
   <si>
@@ -646,9 +551,6 @@
     <t>Psychic waves</t>
   </si>
   <si>
-    <t>Copy paste</t>
-  </si>
-  <si>
     <t xml:space="preserve">Select an enemy and copy their attack patterns </t>
   </si>
   <si>
@@ -670,9 +572,6 @@
     <t>Permanent (unlocked in main menu)</t>
   </si>
   <si>
-    <t>Maybe combination of all 3</t>
-  </si>
-  <si>
     <t>Gravity well</t>
   </si>
   <si>
@@ -685,9 +584,6 @@
     <t>Split damage (spread damage across all damage types)</t>
   </si>
   <si>
-    <t>Grab surrounding XP</t>
-  </si>
-  <si>
     <t>Primal instincts (Increase stamina regen)</t>
   </si>
   <si>
@@ -700,9 +596,6 @@
     <t>Scatter projectiles</t>
   </si>
   <si>
-    <t xml:space="preserve">remove second weapon, add dual wield </t>
-  </si>
-  <si>
     <t>Damage Type Resistence (all types)</t>
   </si>
   <si>
@@ -835,9 +728,6 @@
     <t>4 rounds, close range, damage falls off</t>
   </si>
   <si>
-    <t>Katana</t>
-  </si>
-  <si>
     <t>Charge and slash, dash</t>
   </si>
   <si>
@@ -850,12 +740,6 @@
     <t xml:space="preserve">Name from history </t>
   </si>
   <si>
-    <t>Tizona</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Tizona - Fear</t>
-  </si>
-  <si>
     <t>Fear</t>
   </si>
   <si>
@@ -889,15 +773,9 @@
     <t>charge</t>
   </si>
   <si>
-    <t>fire missile</t>
-  </si>
-  <si>
     <t>auto</t>
   </si>
   <si>
-    <t>electric (constant stream)</t>
-  </si>
-  <si>
     <t>Enemies</t>
   </si>
   <si>
@@ -1054,12 +932,6 @@
     <t>Yea yea</t>
   </si>
   <si>
-    <t>XP Grab (big distance)</t>
-  </si>
-  <si>
-    <t>Knockfoward</t>
-  </si>
-  <si>
     <t>Object</t>
   </si>
   <si>
@@ -1130,6 +1002,138 @@
   </si>
   <si>
     <t>Step on/shoot X themed mushroom = explode</t>
+  </si>
+  <si>
+    <t>Crystal Pistal</t>
+  </si>
+  <si>
+    <t>Arcane Blaster</t>
+  </si>
+  <si>
+    <t>More ammo, less dmg (assault rifle)</t>
+  </si>
+  <si>
+    <t>Emberbow</t>
+  </si>
+  <si>
+    <t>Random Electricity Strikes</t>
+  </si>
+  <si>
+    <t>Randomly strike with electricity on screen</t>
+  </si>
+  <si>
+    <t>Hexwood maim</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Form a hand </t>
+  </si>
+  <si>
+    <t>Electrastream</t>
+  </si>
+  <si>
+    <t>Mimicry</t>
+  </si>
+  <si>
+    <t>Scattercaster</t>
+  </si>
+  <si>
+    <t>Railspire</t>
+  </si>
+  <si>
+    <t>Eldritch Runner</t>
+  </si>
+  <si>
+    <t>Prismatic Caster</t>
+  </si>
+  <si>
+    <t>Charge, laser rifle, colorful (random damagetype)</t>
+  </si>
+  <si>
+    <t>Magic Missile</t>
+  </si>
+  <si>
+    <t>Big dmg, single bullet, fire dmg, fears enemies on hit</t>
+  </si>
+  <si>
+    <t>Scryshot</t>
+  </si>
+  <si>
+    <t>Frost Katana</t>
+  </si>
+  <si>
+    <t>Detach Melee Weapon to mousejoint</t>
+  </si>
+  <si>
+    <t>Flame thrower</t>
+  </si>
+  <si>
+    <t>Mind staff</t>
+  </si>
+  <si>
+    <t>Slug trail (Fire, frost, lightning)</t>
+  </si>
+  <si>
+    <t>Mark an enemy, meaning the next hit on them will crit</t>
+  </si>
+  <si>
+    <t>Combine</t>
+  </si>
+  <si>
+    <t>Maybe combination of 3, max 3 types at once</t>
+  </si>
+  <si>
+    <t>Increase xp grab range</t>
+  </si>
+  <si>
+    <t>Physics object</t>
+  </si>
+  <si>
+    <t>reverse knockback (remove touch damage from enemies)</t>
+  </si>
+  <si>
+    <t>Explode - On enemy kill - Frost, fire, zap</t>
+  </si>
+  <si>
+    <t>When leaving standstill next attack does 3x damage, standing still = invinc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Invinc while dashing </t>
+  </si>
+  <si>
+    <t>dash speed and distance</t>
+  </si>
+  <si>
+    <t>merge weapons</t>
+  </si>
+  <si>
+    <t>Thorns (physical, psychic)</t>
+  </si>
+  <si>
+    <t>Lightning - On reload - maybe - power increases with less ammo</t>
+  </si>
+  <si>
+    <t>Seconds please (Increase size, increase health, reduce speed)</t>
+  </si>
+  <si>
+    <t>putYourWeightIntoIt (more health = more melee dmg)</t>
+  </si>
+  <si>
+    <t>battleScars, Remove ability to dash, double base health</t>
+  </si>
+  <si>
+    <t>Types</t>
+  </si>
+  <si>
+    <t>weight</t>
+  </si>
+  <si>
+    <t>ratio of total</t>
+  </si>
+  <si>
+    <t>w/ weight</t>
+  </si>
+  <si>
+    <t>Explosive Dash - Fire, Frost</t>
   </si>
 </sst>
 </file>
@@ -1416,7 +1420,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1491,6 +1495,9 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1499,9 +1506,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -1518,6 +1522,7 @@
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1835,15 +1840,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11CE061F-AFA4-4B9D-BFD1-A05915568E6D}">
   <dimension ref="A1:H338"/>
   <sheetViews>
-    <sheetView topLeftCell="A121" workbookViewId="0">
-      <selection activeCell="A144" sqref="A144"/>
+    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
+      <selection activeCell="A59" sqref="A59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="75" style="2" customWidth="1"/>
+    <col min="1" max="1" width="76.42578125" style="2" customWidth="1"/>
     <col min="2" max="2" width="28.140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="44.42578125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="63.28515625" style="2" customWidth="1"/>
     <col min="4" max="4" width="41.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16" style="2" customWidth="1"/>
     <col min="6" max="6" width="12.42578125" style="1" customWidth="1"/>
@@ -1854,7 +1859,7 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="28" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
       <c r="B1" s="29"/>
       <c r="C1" s="29"/>
@@ -1863,7 +1868,7 @@
       <c r="F1" s="29"/>
       <c r="G1" s="29"/>
       <c r="H1" s="9" t="s">
-        <v>204</v>
+        <v>171</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -1875,36 +1880,36 @@
       <c r="F2" s="31"/>
       <c r="G2" s="31"/>
       <c r="H2" s="11" t="s">
-        <v>207</v>
+        <v>174</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>82</v>
+        <v>67</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>83</v>
+        <v>68</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>84</v>
+        <v>69</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>133</v>
+        <v>118</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>203</v>
+        <v>170</v>
       </c>
       <c r="H3" s="8"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="24" t="s">
-        <v>208</v>
+        <v>175</v>
       </c>
       <c r="B4" s="24"/>
       <c r="C4" s="24"/>
@@ -1916,16 +1921,16 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="16" t="s">
-        <v>118</v>
+        <v>103</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>86</v>
+        <v>71</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>93</v>
+        <v>78</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>115</v>
+        <v>100</v>
       </c>
       <c r="E5" s="2">
         <v>0.05</v>
@@ -1937,16 +1942,16 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="16" t="s">
-        <v>119</v>
+        <v>104</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>94</v>
+        <v>79</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>116</v>
+        <v>101</v>
       </c>
       <c r="E6" s="2">
         <v>0.05</v>
@@ -1961,13 +1966,13 @@
         <v>1</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>87</v>
+        <v>72</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>96</v>
+        <v>81</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>116</v>
+        <v>101</v>
       </c>
       <c r="E7" s="2">
         <v>0.05</v>
@@ -1982,13 +1987,13 @@
         <v>2</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>88</v>
+        <v>73</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>97</v>
+        <v>82</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>116</v>
+        <v>101</v>
       </c>
       <c r="E8" s="2">
         <v>0.05</v>
@@ -2003,13 +2008,13 @@
         <v>3</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>88</v>
+        <v>73</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>98</v>
+        <v>83</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>116</v>
+        <v>101</v>
       </c>
       <c r="E9" s="2">
         <v>0.05</v>
@@ -2024,13 +2029,13 @@
         <v>4</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>86</v>
+        <v>71</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>99</v>
+        <v>84</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>116</v>
+        <v>101</v>
       </c>
       <c r="E10" s="2">
         <v>0.05</v>
@@ -2045,13 +2050,13 @@
         <v>5</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>89</v>
+        <v>74</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="E11" s="2">
         <v>0.05</v>
@@ -2066,13 +2071,13 @@
         <v>6</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>89</v>
+        <v>74</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>101</v>
+        <v>86</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="E12" s="2">
         <v>0.05</v>
@@ -2087,13 +2092,13 @@
         <v>7</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>89</v>
+        <v>74</v>
       </c>
       <c r="C13" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="D13" s="1" t="s">
         <v>102</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>117</v>
       </c>
       <c r="E13" s="2">
         <v>0.05</v>
@@ -2108,13 +2113,13 @@
         <v>8</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>103</v>
+        <v>88</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="E14" s="2">
         <v>0.05</v>
@@ -2129,13 +2134,13 @@
         <v>9</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>104</v>
+        <v>89</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="E15" s="2">
         <v>0.05</v>
@@ -2150,13 +2155,13 @@
         <v>10</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>86</v>
+        <v>71</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>105</v>
+        <v>90</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>116</v>
+        <v>101</v>
       </c>
       <c r="E16" s="2">
         <v>0.05</v>
@@ -2171,13 +2176,13 @@
         <v>12</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>106</v>
+        <v>91</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="E17" s="2">
         <v>0.05</v>
@@ -2189,16 +2194,16 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>88</v>
+        <v>73</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>107</v>
+        <v>92</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="E18" s="2">
         <v>0.05</v>
@@ -2210,16 +2215,16 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>88</v>
+        <v>73</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>108</v>
+        <v>93</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="E19" s="2">
         <v>0.05</v>
@@ -2231,16 +2236,16 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="16" t="s">
-        <v>91</v>
+        <v>76</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>86</v>
+        <v>71</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>109</v>
+        <v>94</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="E20" s="2">
         <v>0.05</v>
@@ -2252,16 +2257,16 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="16" t="s">
-        <v>92</v>
+        <v>77</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>88</v>
+        <v>73</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="E21" s="2">
         <v>0.05</v>
@@ -2273,16 +2278,16 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="16" t="s">
-        <v>120</v>
+        <v>105</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>88</v>
+        <v>73</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>121</v>
+        <v>106</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>116</v>
+        <v>101</v>
       </c>
       <c r="E22" s="2">
         <v>0.01</v>
@@ -2294,16 +2299,16 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="16" t="s">
-        <v>78</v>
+        <v>63</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>88</v>
+        <v>73</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>111</v>
+        <v>96</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>116</v>
+        <v>101</v>
       </c>
       <c r="E23" s="2">
         <v>0.05</v>
@@ -2315,16 +2320,16 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="16" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>88</v>
+        <v>73</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>112</v>
+        <v>97</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>116</v>
+        <v>101</v>
       </c>
       <c r="E24" s="2">
         <v>0.05</v>
@@ -2336,16 +2341,16 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="16" t="s">
-        <v>220</v>
+        <v>184</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>116</v>
+        <v>101</v>
       </c>
       <c r="E25" s="2">
         <v>0.05</v>
@@ -2360,13 +2365,13 @@
         <v>0</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>114</v>
+        <v>99</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="E26" s="2">
         <v>1</v>
@@ -2378,7 +2383,7 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="16" t="s">
-        <v>221</v>
+        <v>185</v>
       </c>
       <c r="G27" s="2"/>
     </row>
@@ -2399,22 +2404,22 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
-        <v>82</v>
+        <v>67</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>83</v>
+        <v>68</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>84</v>
+        <v>69</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>133</v>
+        <v>118</v>
       </c>
       <c r="F33" s="4" t="s">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="G33" s="4"/>
     </row>
@@ -2431,16 +2436,16 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
-        <v>123</v>
+        <v>108</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>124</v>
+        <v>109</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>125</v>
+        <v>110</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>130</v>
+        <v>115</v>
       </c>
       <c r="F35" s="1">
         <v>10</v>
@@ -2449,16 +2454,16 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
-        <v>122</v>
+        <v>107</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>124</v>
+        <v>109</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>126</v>
+        <v>111</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>131</v>
+        <v>116</v>
       </c>
       <c r="F36" s="1">
         <v>10</v>
@@ -2470,13 +2475,13 @@
         <v>15</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>124</v>
+        <v>109</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>127</v>
+        <v>112</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>132</v>
+        <v>117</v>
       </c>
       <c r="F37" s="1">
         <v>10</v>
@@ -2488,13 +2493,13 @@
         <v>16</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>124</v>
+        <v>109</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>128</v>
+        <v>113</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>132</v>
+        <v>117</v>
       </c>
       <c r="F38" s="1">
         <v>1</v>
@@ -2506,13 +2511,13 @@
         <v>17</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>124</v>
+        <v>109</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>129</v>
+        <v>114</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>132</v>
+        <v>117</v>
       </c>
       <c r="F39" s="1">
         <v>5</v>
@@ -2521,13 +2526,13 @@
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
-        <v>271</v>
+        <v>232</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>124</v>
+        <v>109</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>272</v>
+        <v>233</v>
       </c>
       <c r="F40" s="1">
         <v>10</v>
@@ -2542,28 +2547,28 @@
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="4" t="s">
-        <v>82</v>
+        <v>67</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>83</v>
+        <v>68</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>84</v>
+        <v>69</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="E43" s="4" t="s">
-        <v>133</v>
+        <v>118</v>
       </c>
       <c r="F43" s="4" t="s">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="G43" s="4"/>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="27" t="s">
-        <v>166</v>
+        <v>139</v>
       </c>
       <c r="B44" s="27"/>
       <c r="C44" s="27"/>
@@ -2574,16 +2579,16 @@
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
-        <v>134</v>
+        <v>342</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>88</v>
+        <v>73</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>135</v>
+        <v>119</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>136</v>
+        <v>120</v>
       </c>
       <c r="F45" s="1">
         <v>5</v>
@@ -2591,35 +2596,17 @@
       <c r="G45" s="2"/>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A46" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="C46" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="D46" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="F46" s="1">
-        <v>5</v>
-      </c>
       <c r="G46" s="2"/>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
-        <v>138</v>
+        <v>363</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>88</v>
+        <v>73</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="D47" s="1" t="s">
-        <v>136</v>
+        <v>121</v>
       </c>
       <c r="F47" s="1">
         <v>5</v>
@@ -2627,6 +2614,18 @@
       <c r="G47" s="2"/>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A48" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>178</v>
+      </c>
       <c r="F48" s="1">
         <v>5</v>
       </c>
@@ -2640,13 +2639,13 @@
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
-        <v>139</v>
+        <v>122</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>88</v>
+        <v>73</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>144</v>
+        <v>124</v>
       </c>
       <c r="F50" s="1">
         <v>5</v>
@@ -2654,54 +2653,27 @@
       <c r="G50" s="2"/>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A51" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="B51" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="C51" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="F51" s="1">
-        <v>5</v>
-      </c>
       <c r="G51" s="2"/>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A52" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="B52" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="C52" s="2" t="s">
-        <v>144</v>
+      <c r="A52" s="12" t="s">
+        <v>339</v>
       </c>
       <c r="F52" s="1">
         <v>5</v>
       </c>
       <c r="G52" s="2"/>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A53" s="2" t="s">
-        <v>210</v>
-      </c>
-      <c r="B53" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="C53" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="E53" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="F53" s="1">
-        <v>5</v>
-      </c>
-      <c r="G53" s="2"/>
-    </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A54" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>128</v>
+      </c>
       <c r="F54" s="1">
         <v>5</v>
       </c>
@@ -2709,13 +2681,13 @@
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
-        <v>145</v>
+        <v>126</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>88</v>
+        <v>123</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>147</v>
+        <v>128</v>
       </c>
       <c r="F55" s="1">
         <v>5</v>
@@ -2723,16 +2695,24 @@
       <c r="G55" s="2"/>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A56" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>128</v>
+      </c>
       <c r="F56" s="1">
         <v>5</v>
       </c>
       <c r="G56" s="2"/>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="F57" s="1">
-        <v>5</v>
-      </c>
-      <c r="G57" s="2"/>
+      <c r="A57" s="12" t="s">
+        <v>344</v>
+      </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F58" s="1">
@@ -2742,75 +2722,18 @@
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
-        <v>148</v>
+        <v>346</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="C59" s="2" t="s">
-        <v>152</v>
+        <v>71</v>
       </c>
       <c r="F59" s="1">
         <v>5</v>
       </c>
       <c r="G59" s="2"/>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A60" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="B60" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="C60" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="F60" s="1">
-        <v>5</v>
-      </c>
-      <c r="G60" s="2"/>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A61" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="B61" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="C61" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="F61" s="1">
-        <v>5</v>
-      </c>
-      <c r="G61" s="2"/>
-    </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A62" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="B62" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="C62" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="F62" s="1">
-        <v>5</v>
-      </c>
       <c r="G62" s="2"/>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A63" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="B63" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="F63" s="1">
-        <v>5</v>
-      </c>
-      <c r="G63" s="2"/>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F64" s="1">
@@ -2820,13 +2743,13 @@
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
-        <v>153</v>
+        <v>129</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>86</v>
+        <v>71</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>158</v>
+        <v>343</v>
       </c>
       <c r="F65" s="1">
         <v>5</v>
@@ -2835,10 +2758,10 @@
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
-        <v>155</v>
+        <v>131</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>146</v>
+        <v>123</v>
       </c>
       <c r="F66" s="1">
         <v>5</v>
@@ -2847,13 +2770,13 @@
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
-        <v>154</v>
+        <v>130</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>146</v>
+        <v>123</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>159</v>
+        <v>134</v>
       </c>
       <c r="F67" s="1">
         <v>5</v>
@@ -2862,13 +2785,13 @@
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
-        <v>156</v>
+        <v>132</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>86</v>
+        <v>71</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>160</v>
+        <v>135</v>
       </c>
       <c r="F68" s="1">
         <v>5</v>
@@ -2877,13 +2800,13 @@
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
-        <v>157</v>
+        <v>133</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>86</v>
+        <v>71</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>161</v>
+        <v>136</v>
       </c>
       <c r="F69" s="1">
         <v>5</v>
@@ -2892,7 +2815,7 @@
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" s="12" t="s">
-        <v>209</v>
+        <v>345</v>
       </c>
       <c r="G70" s="2"/>
     </row>
@@ -2907,7 +2830,7 @@
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
-        <v>174</v>
+        <v>145</v>
       </c>
       <c r="F73" s="1">
         <v>5</v>
@@ -2916,10 +2839,10 @@
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
-        <v>175</v>
+        <v>347</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="F74" s="1">
         <v>5</v>
@@ -2928,10 +2851,10 @@
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
-        <v>176</v>
+        <v>146</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>88</v>
+        <v>73</v>
       </c>
       <c r="F75" s="1">
         <v>5</v>
@@ -2939,9 +2862,6 @@
       <c r="G75" s="2"/>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A76" s="2" t="s">
-        <v>337</v>
-      </c>
       <c r="F76" s="1">
         <v>5</v>
       </c>
@@ -2955,10 +2875,10 @@
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
-        <v>163</v>
+        <v>137</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>88</v>
+        <v>73</v>
       </c>
       <c r="F78" s="1">
         <v>5</v>
@@ -2966,8 +2886,8 @@
       <c r="G78" s="2"/>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A79" s="2" t="s">
-        <v>338</v>
+      <c r="A79" s="12" t="s">
+        <v>348</v>
       </c>
       <c r="F79" s="1">
         <v>5</v>
@@ -2982,10 +2902,10 @@
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
-        <v>162</v>
+        <v>349</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>88</v>
+        <v>73</v>
       </c>
       <c r="F81" s="1">
         <v>5</v>
@@ -2994,10 +2914,10 @@
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
-        <v>164</v>
+        <v>138</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>88</v>
+        <v>73</v>
       </c>
       <c r="F82" s="1">
         <v>5</v>
@@ -3005,15 +2925,6 @@
       <c r="G82" s="2"/>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A83" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="B83" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="F83" s="1">
-        <v>5</v>
-      </c>
       <c r="G83" s="2"/>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
@@ -3024,10 +2935,10 @@
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
-        <v>167</v>
+        <v>140</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="F85" s="1">
         <v>5</v>
@@ -3036,10 +2947,10 @@
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
-        <v>168</v>
+        <v>141</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="F86" s="1">
         <v>5</v>
@@ -3048,10 +2959,10 @@
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
-        <v>169</v>
+        <v>142</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>88</v>
+        <v>73</v>
       </c>
       <c r="F87" s="1">
         <v>5</v>
@@ -3059,6 +2970,9 @@
       <c r="G87" s="2"/>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A88" s="12" t="s">
+        <v>350</v>
+      </c>
       <c r="F88" s="1">
         <v>5</v>
       </c>
@@ -3071,11 +2985,11 @@
       <c r="G89" s="2"/>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A90" s="2" t="s">
-        <v>170</v>
+      <c r="A90" s="12" t="s">
+        <v>143</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>86</v>
+        <v>71</v>
       </c>
       <c r="F90" s="1">
         <v>5</v>
@@ -3084,10 +2998,10 @@
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" s="2" t="s">
-        <v>172</v>
+        <v>351</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="F91" s="1">
         <v>5</v>
@@ -3095,6 +3009,12 @@
       <c r="G91" s="2"/>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A92" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>75</v>
+      </c>
       <c r="F92" s="1">
         <v>5</v>
       </c>
@@ -3102,25 +3022,19 @@
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" s="2" t="s">
-        <v>219</v>
+        <v>144</v>
       </c>
       <c r="F93" s="1">
         <v>5</v>
       </c>
       <c r="G93" s="2"/>
-    </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="F94" s="1">
-        <v>5</v>
-      </c>
-      <c r="G94" s="2"/>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="s">
-        <v>171</v>
+        <v>354</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="F95" s="1">
         <v>5</v>
@@ -3134,8 +3048,8 @@
       <c r="G96" s="2"/>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A97" s="2" t="s">
-        <v>173</v>
+      <c r="A97" s="12" t="s">
+        <v>353</v>
       </c>
       <c r="F97" s="1">
         <v>5</v>
@@ -3150,7 +3064,7 @@
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99" s="2" t="s">
-        <v>177</v>
+        <v>355</v>
       </c>
       <c r="F99" s="1">
         <v>5</v>
@@ -3159,7 +3073,7 @@
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100" s="2" t="s">
-        <v>180</v>
+        <v>149</v>
       </c>
       <c r="F100" s="1">
         <v>5</v>
@@ -3168,7 +3082,7 @@
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101" s="2" t="s">
-        <v>181</v>
+        <v>150</v>
       </c>
       <c r="F101" s="1">
         <v>5</v>
@@ -3177,7 +3091,7 @@
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102" s="3" t="s">
-        <v>182</v>
+        <v>151</v>
       </c>
       <c r="F102" s="1">
         <v>5</v>
@@ -3204,7 +3118,7 @@
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106" s="2" t="s">
-        <v>179</v>
+        <v>148</v>
       </c>
       <c r="F106" s="1">
         <v>5</v>
@@ -3213,7 +3127,7 @@
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107" s="2" t="s">
-        <v>183</v>
+        <v>152</v>
       </c>
       <c r="F107" s="1">
         <v>5</v>
@@ -3234,7 +3148,7 @@
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110" s="12" t="s">
-        <v>184</v>
+        <v>153</v>
       </c>
       <c r="F110" s="1">
         <v>5</v>
@@ -3249,7 +3163,7 @@
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A112" s="2" t="s">
-        <v>185</v>
+        <v>154</v>
       </c>
       <c r="F112" s="1">
         <v>5</v>
@@ -3262,15 +3176,6 @@
       </c>
       <c r="G113" s="2"/>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A114" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="F114" s="1">
-        <v>5</v>
-      </c>
-      <c r="G114" s="2"/>
-    </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F115" s="1">
         <v>5</v>
@@ -3279,7 +3184,7 @@
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A116" s="6" t="s">
-        <v>187</v>
+        <v>156</v>
       </c>
       <c r="F116" s="1">
         <v>5</v>
@@ -3288,7 +3193,7 @@
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A117" s="2" t="s">
-        <v>190</v>
+        <v>159</v>
       </c>
       <c r="F117" s="1">
         <v>5</v>
@@ -3297,7 +3202,7 @@
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A118" s="2" t="s">
-        <v>188</v>
+        <v>157</v>
       </c>
       <c r="F118" s="1">
         <v>5</v>
@@ -3306,7 +3211,7 @@
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A119" s="2" t="s">
-        <v>189</v>
+        <v>158</v>
       </c>
       <c r="F119" s="1">
         <v>5</v>
@@ -3315,7 +3220,7 @@
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A120" s="2" t="s">
-        <v>191</v>
+        <v>160</v>
       </c>
       <c r="F120" s="1">
         <v>5</v>
@@ -3345,7 +3250,7 @@
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A124" s="2" t="s">
-        <v>192</v>
+        <v>161</v>
       </c>
       <c r="F124" s="1">
         <v>5</v>
@@ -3354,7 +3259,7 @@
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A125" s="2" t="s">
-        <v>193</v>
+        <v>162</v>
       </c>
       <c r="F125" s="1">
         <v>5</v>
@@ -3369,7 +3274,7 @@
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A127" s="2" t="s">
-        <v>216</v>
+        <v>181</v>
       </c>
       <c r="F127" s="1">
         <v>5</v>
@@ -3378,7 +3283,7 @@
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A128" s="2" t="s">
-        <v>217</v>
+        <v>182</v>
       </c>
       <c r="F128" s="1">
         <v>5</v>
@@ -3387,7 +3292,7 @@
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A129" s="2" t="s">
-        <v>218</v>
+        <v>183</v>
       </c>
       <c r="F129" s="1">
         <v>5</v>
@@ -3414,28 +3319,28 @@
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A133" s="4" t="s">
-        <v>82</v>
+        <v>67</v>
       </c>
       <c r="B133" s="4" t="s">
-        <v>83</v>
+        <v>68</v>
       </c>
       <c r="C133" s="4" t="s">
-        <v>84</v>
+        <v>69</v>
       </c>
       <c r="D133" s="4" t="s">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="E133" s="4" t="s">
-        <v>133</v>
+        <v>118</v>
       </c>
       <c r="F133" s="4" t="s">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="G133" s="4"/>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A134" s="25" t="s">
-        <v>178</v>
+        <v>147</v>
       </c>
       <c r="B134" s="25"/>
       <c r="C134" s="25"/>
@@ -3446,7 +3351,7 @@
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A135" s="2" t="s">
-        <v>186</v>
+        <v>155</v>
       </c>
       <c r="F135" s="1">
         <v>1</v>
@@ -3482,7 +3387,7 @@
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A139" s="2" t="s">
-        <v>21</v>
+        <v>356</v>
       </c>
       <c r="F139" s="1">
         <v>1</v>
@@ -3491,7 +3396,7 @@
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A140" s="2" t="s">
-        <v>215</v>
+        <v>180</v>
       </c>
       <c r="F140" s="1">
         <v>1</v>
@@ -3500,7 +3405,7 @@
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A141" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F141" s="1">
         <v>1</v>
@@ -3509,7 +3414,7 @@
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A142" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F142" s="1">
         <v>1</v>
@@ -3518,7 +3423,7 @@
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A143" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F143" s="1">
         <v>1</v>
@@ -3526,18 +3431,12 @@
       <c r="G143" s="2"/>
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A144" s="12" t="s">
-        <v>213</v>
-      </c>
       <c r="F144" s="1">
         <v>1</v>
       </c>
       <c r="G144" s="2"/>
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A145" s="12" t="s">
-        <v>205</v>
-      </c>
       <c r="F145" s="1">
         <v>1</v>
       </c>
@@ -3545,7 +3444,7 @@
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A146" s="2" t="s">
-        <v>27</v>
+        <v>357</v>
       </c>
       <c r="F146" s="1">
         <v>1</v>
@@ -3554,7 +3453,7 @@
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A147" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F147" s="1">
         <v>1</v>
@@ -3563,7 +3462,7 @@
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A148" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F148" s="1">
         <v>1</v>
@@ -3572,7 +3471,7 @@
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A149" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F149" s="1">
         <v>1</v>
@@ -3581,7 +3480,7 @@
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A150" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F150" s="1">
         <v>1</v>
@@ -3590,7 +3489,7 @@
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A151" s="2" t="s">
-        <v>32</v>
+        <v>358</v>
       </c>
       <c r="F151" s="1">
         <v>1</v>
@@ -3605,7 +3504,7 @@
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A153" s="2" t="s">
-        <v>206</v>
+        <v>173</v>
       </c>
       <c r="F153" s="1">
         <v>1</v>
@@ -3631,9 +3530,6 @@
       <c r="G156" s="2"/>
     </row>
     <row r="157" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A157" s="12" t="s">
-        <v>33</v>
-      </c>
       <c r="F157" s="1">
         <v>5</v>
       </c>
@@ -3641,7 +3537,7 @@
     </row>
     <row r="158" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A158" s="2" t="s">
-        <v>71</v>
+        <v>58</v>
       </c>
       <c r="F158" s="1">
         <v>5</v>
@@ -3655,102 +3551,114 @@
       <c r="G159" s="2"/>
     </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A160" s="2" t="s">
+        <v>64</v>
+      </c>
       <c r="F160" s="1">
         <v>5</v>
       </c>
       <c r="G160" s="2"/>
     </row>
-    <row r="161" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F161" s="1">
         <v>5</v>
       </c>
       <c r="G161" s="2"/>
     </row>
-    <row r="162" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F162" s="1">
         <v>5</v>
       </c>
       <c r="G162" s="2"/>
     </row>
-    <row r="163" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A163" s="12" t="s">
+        <v>179</v>
+      </c>
       <c r="F163" s="1">
         <v>5</v>
       </c>
       <c r="G163" s="2"/>
     </row>
-    <row r="164" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A164" s="12" t="s">
+        <v>172</v>
+      </c>
       <c r="F164" s="1">
         <v>5</v>
       </c>
       <c r="G164" s="2"/>
     </row>
-    <row r="165" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A165" s="12" t="s">
+        <v>30</v>
+      </c>
       <c r="F165" s="1">
         <v>5</v>
       </c>
       <c r="G165" s="2"/>
     </row>
-    <row r="166" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F166" s="1">
         <v>5</v>
       </c>
       <c r="G166" s="2"/>
     </row>
-    <row r="167" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F167" s="1">
         <v>5</v>
       </c>
       <c r="G167" s="2"/>
     </row>
-    <row r="168" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F168" s="1">
         <v>5</v>
       </c>
       <c r="G168" s="2"/>
     </row>
-    <row r="169" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F169" s="1">
         <v>5</v>
       </c>
       <c r="G169" s="2"/>
     </row>
-    <row r="170" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F170" s="1">
         <v>5</v>
       </c>
       <c r="G170" s="2"/>
     </row>
-    <row r="171" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F171" s="1">
         <v>5</v>
       </c>
       <c r="G171" s="2"/>
     </row>
-    <row r="172" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F172" s="1">
         <v>5</v>
       </c>
       <c r="G172" s="2"/>
     </row>
-    <row r="173" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F173" s="1">
         <v>5</v>
       </c>
       <c r="G173" s="2"/>
     </row>
-    <row r="174" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F174" s="1">
         <v>5</v>
       </c>
       <c r="G174" s="2"/>
     </row>
-    <row r="175" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F175" s="1">
         <v>5</v>
       </c>
       <c r="G175" s="2"/>
     </row>
-    <row r="176" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F176" s="1">
         <v>5</v>
       </c>
@@ -4742,6 +4650,175 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3EE930D2-8264-4C13-BA9D-8D981850F45C}">
+  <dimension ref="A2:G10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="9.140625" style="1"/>
+    <col min="3" max="3" width="13.85546875" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="45"/>
+      <c r="B3" s="45"/>
+      <c r="C3" s="45"/>
+      <c r="D3" s="45"/>
+      <c r="E3" s="45"/>
+      <c r="F3" s="45"/>
+      <c r="G3" s="45"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B4" s="45"/>
+      <c r="C4" s="45"/>
+      <c r="D4" s="45"/>
+      <c r="E4" s="45"/>
+      <c r="F4" s="45"/>
+      <c r="G4" s="45"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="45">
+        <v>1</v>
+      </c>
+      <c r="B5" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="C5" s="45">
+        <f>A5/$A$10</f>
+        <v>0.125</v>
+      </c>
+      <c r="D5" s="45">
+        <f>C5*B5</f>
+        <v>0.1</v>
+      </c>
+      <c r="E5" s="45"/>
+      <c r="F5" s="45">
+        <f>D5*$E$10</f>
+        <v>0.22535211267605637</v>
+      </c>
+      <c r="G5" s="45"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="45">
+        <v>1</v>
+      </c>
+      <c r="B6" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="C6" s="45">
+        <f>A6/$A$10</f>
+        <v>0.125</v>
+      </c>
+      <c r="D6" s="45">
+        <f t="shared" ref="D6:D8" si="0">C6*B6</f>
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="E6" s="45"/>
+      <c r="F6" s="45">
+        <f t="shared" ref="F6:F10" si="1">D6*$E$10</f>
+        <v>0.16901408450704225</v>
+      </c>
+      <c r="G6" s="45"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="45">
+        <v>1</v>
+      </c>
+      <c r="B7" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="C7" s="45">
+        <f>A7/$A$10</f>
+        <v>0.125</v>
+      </c>
+      <c r="D7" s="45">
+        <f t="shared" si="0"/>
+        <v>0.05</v>
+      </c>
+      <c r="E7" s="45"/>
+      <c r="F7" s="45">
+        <f t="shared" si="1"/>
+        <v>0.11267605633802819</v>
+      </c>
+      <c r="G7" s="45"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="45">
+        <v>5</v>
+      </c>
+      <c r="B8" s="1">
+        <v>0.35</v>
+      </c>
+      <c r="C8" s="45">
+        <f>A8/$A$10</f>
+        <v>0.625</v>
+      </c>
+      <c r="D8" s="45">
+        <f t="shared" si="0"/>
+        <v>0.21875</v>
+      </c>
+      <c r="E8" s="45"/>
+      <c r="F8" s="45">
+        <f t="shared" si="1"/>
+        <v>0.49295774647887325</v>
+      </c>
+      <c r="G8" s="45"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="45"/>
+      <c r="C9" s="45"/>
+      <c r="D9" s="45"/>
+      <c r="E9" s="45"/>
+      <c r="F9" s="45"/>
+      <c r="G9" s="45"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <f>SUM(A5:A8)</f>
+        <v>8</v>
+      </c>
+      <c r="C10" s="45">
+        <f>A10/$A$10</f>
+        <v>1</v>
+      </c>
+      <c r="D10" s="1">
+        <f>SUM(D5:D8)</f>
+        <v>0.44374999999999998</v>
+      </c>
+      <c r="E10" s="1">
+        <f>1/D10</f>
+        <v>2.2535211267605635</v>
+      </c>
+      <c r="F10" s="45">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{214FE451-EC37-4DAA-9890-BA50B23E22A7}">
   <dimension ref="A1:G5"/>
   <sheetViews>
@@ -4761,7 +4838,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A1" s="32" t="s">
-        <v>223</v>
+        <v>187</v>
       </c>
       <c r="B1" s="32"/>
       <c r="C1" s="32"/>
@@ -4772,50 +4849,50 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
-        <v>224</v>
+        <v>188</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>228</v>
+        <v>192</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D2" s="13" t="s">
-        <v>229</v>
+        <v>193</v>
       </c>
       <c r="E2" s="13"/>
     </row>
     <row r="3" spans="1:7" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>225</v>
+        <v>189</v>
       </c>
       <c r="B3" s="5">
         <v>1</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>230</v>
+        <v>194</v>
       </c>
       <c r="D3" s="14" t="s">
-        <v>231</v>
+        <v>195</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>232</v>
+        <v>196</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>226</v>
+        <v>190</v>
       </c>
       <c r="B4" s="5">
         <v>3</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>233</v>
+        <v>197</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>227</v>
+        <v>191</v>
       </c>
       <c r="B5" s="5">
         <v>4</v>
@@ -4829,7 +4906,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADB02B54-F017-44DA-9118-EA158E750E4A}">
   <dimension ref="A1:E10"/>
   <sheetViews>
@@ -4848,7 +4925,7 @@
   <sheetData>
     <row r="1" spans="1:5" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A1" s="32" t="s">
-        <v>222</v>
+        <v>186</v>
       </c>
       <c r="B1" s="32"/>
       <c r="C1" s="32"/>
@@ -4857,107 +4934,107 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="17" t="s">
-        <v>234</v>
+        <v>198</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>235</v>
+        <v>199</v>
       </c>
       <c r="C2" s="17" t="s">
-        <v>236</v>
+        <v>200</v>
       </c>
       <c r="D2" s="17" t="s">
-        <v>237</v>
+        <v>201</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>260</v>
+        <v>224</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>261</v>
+        <v>225</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>238</v>
+        <v>202</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>262</v>
+        <v>226</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>240</v>
+        <v>204</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>239</v>
+        <v>203</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>243</v>
+        <v>207</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>241</v>
+        <v>205</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>242</v>
+        <v>206</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>247</v>
+        <v>211</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>249</v>
+        <v>213</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>248</v>
+        <v>212</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
-        <v>250</v>
+        <v>214</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>251</v>
+        <v>215</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>252</v>
+        <v>216</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
-        <v>244</v>
+        <v>208</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>245</v>
+        <v>209</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>253</v>
+        <v>217</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>246</v>
+        <v>210</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
-        <v>254</v>
+        <v>218</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>259</v>
+        <v>223</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>255</v>
+        <v>219</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
-        <v>256</v>
+        <v>220</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>258</v>
+        <v>222</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>257</v>
+        <v>221</v>
       </c>
     </row>
   </sheetData>
@@ -4969,12 +5046,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E13E4A5-10AD-4171-99FD-31881C0A6C11}">
   <dimension ref="A1:AD34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J19" sqref="J19:N19"/>
+    <sheetView topLeftCell="D4" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10:I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4991,162 +5068,162 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="36"/>
-      <c r="G1" s="36"/>
-      <c r="H1" s="36" t="s">
-        <v>194</v>
-      </c>
-      <c r="I1" s="36"/>
-      <c r="J1" s="36"/>
-      <c r="K1" s="36"/>
-      <c r="L1" s="36"/>
-      <c r="M1" s="36"/>
-      <c r="N1" s="36"/>
-      <c r="O1" s="36" t="s">
-        <v>195</v>
-      </c>
-      <c r="P1" s="36"/>
-      <c r="Q1" s="36"/>
-      <c r="R1" s="36"/>
-      <c r="S1" s="36"/>
-      <c r="T1" s="36"/>
-      <c r="U1" s="36"/>
-      <c r="V1" s="36" t="s">
-        <v>35</v>
-      </c>
-      <c r="W1" s="36"/>
-      <c r="X1" s="36"/>
-      <c r="Y1" s="36"/>
-      <c r="Z1" s="36"/>
-      <c r="AA1" s="36"/>
-      <c r="AB1" s="36"/>
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
+      <c r="H1" s="37" t="s">
+        <v>163</v>
+      </c>
+      <c r="I1" s="37"/>
+      <c r="J1" s="37"/>
+      <c r="K1" s="37"/>
+      <c r="L1" s="37"/>
+      <c r="M1" s="37"/>
+      <c r="N1" s="37"/>
+      <c r="O1" s="37" t="s">
+        <v>164</v>
+      </c>
+      <c r="P1" s="37"/>
+      <c r="Q1" s="37"/>
+      <c r="R1" s="37"/>
+      <c r="S1" s="37"/>
+      <c r="T1" s="37"/>
+      <c r="U1" s="37"/>
+      <c r="V1" s="37" t="s">
+        <v>32</v>
+      </c>
+      <c r="W1" s="37"/>
+      <c r="X1" s="37"/>
+      <c r="Y1" s="37"/>
+      <c r="Z1" s="37"/>
+      <c r="AA1" s="37"/>
+      <c r="AB1" s="37"/>
       <c r="AD1" s="19" t="s">
-        <v>268</v>
+        <v>231</v>
       </c>
     </row>
     <row r="2" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="36"/>
-      <c r="B2" s="36"/>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36"/>
-      <c r="E2" s="36"/>
-      <c r="F2" s="36"/>
-      <c r="G2" s="36"/>
-      <c r="H2" s="36"/>
-      <c r="I2" s="36"/>
-      <c r="J2" s="36"/>
-      <c r="K2" s="36"/>
-      <c r="L2" s="36"/>
-      <c r="M2" s="36"/>
-      <c r="N2" s="36"/>
-      <c r="O2" s="36"/>
-      <c r="P2" s="36"/>
-      <c r="Q2" s="36"/>
-      <c r="R2" s="36"/>
-      <c r="S2" s="36"/>
-      <c r="T2" s="36"/>
-      <c r="U2" s="36"/>
-      <c r="V2" s="36"/>
-      <c r="W2" s="36"/>
-      <c r="X2" s="36"/>
-      <c r="Y2" s="36"/>
-      <c r="Z2" s="36"/>
-      <c r="AA2" s="36"/>
-      <c r="AB2" s="36"/>
+      <c r="A2" s="37"/>
+      <c r="B2" s="37"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="37"/>
+      <c r="H2" s="37"/>
+      <c r="I2" s="37"/>
+      <c r="J2" s="37"/>
+      <c r="K2" s="37"/>
+      <c r="L2" s="37"/>
+      <c r="M2" s="37"/>
+      <c r="N2" s="37"/>
+      <c r="O2" s="37"/>
+      <c r="P2" s="37"/>
+      <c r="Q2" s="37"/>
+      <c r="R2" s="37"/>
+      <c r="S2" s="37"/>
+      <c r="T2" s="37"/>
+      <c r="U2" s="37"/>
+      <c r="V2" s="37"/>
+      <c r="W2" s="37"/>
+      <c r="X2" s="37"/>
+      <c r="Y2" s="37"/>
+      <c r="Z2" s="37"/>
+      <c r="AA2" s="37"/>
+      <c r="AB2" s="37"/>
     </row>
     <row r="3" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A3" s="37" t="s">
-        <v>34</v>
-      </c>
-      <c r="B3" s="37"/>
-      <c r="C3" s="38" t="s">
-        <v>36</v>
-      </c>
-      <c r="D3" s="38"/>
-      <c r="E3" s="38"/>
-      <c r="F3" s="38"/>
-      <c r="G3" s="38"/>
-      <c r="H3" s="37" t="s">
-        <v>34</v>
-      </c>
-      <c r="I3" s="37"/>
-      <c r="J3" s="38" t="s">
-        <v>36</v>
-      </c>
-      <c r="K3" s="38"/>
-      <c r="L3" s="38"/>
-      <c r="M3" s="38"/>
-      <c r="N3" s="38"/>
-      <c r="O3" s="37" t="s">
-        <v>34</v>
-      </c>
-      <c r="P3" s="37"/>
-      <c r="Q3" s="38" t="s">
-        <v>36</v>
-      </c>
-      <c r="R3" s="38"/>
-      <c r="S3" s="38"/>
-      <c r="T3" s="38"/>
-      <c r="U3" s="38"/>
-      <c r="V3" s="37" t="s">
-        <v>34</v>
-      </c>
-      <c r="W3" s="37"/>
-      <c r="X3" s="38" t="s">
-        <v>36</v>
-      </c>
-      <c r="Y3" s="38"/>
-      <c r="Z3" s="38"/>
-      <c r="AA3" s="38"/>
-      <c r="AB3" s="38"/>
+      <c r="A3" s="38" t="s">
+        <v>31</v>
+      </c>
+      <c r="B3" s="38"/>
+      <c r="C3" s="39" t="s">
+        <v>33</v>
+      </c>
+      <c r="D3" s="39"/>
+      <c r="E3" s="39"/>
+      <c r="F3" s="39"/>
+      <c r="G3" s="39"/>
+      <c r="H3" s="38" t="s">
+        <v>31</v>
+      </c>
+      <c r="I3" s="38"/>
+      <c r="J3" s="39" t="s">
+        <v>33</v>
+      </c>
+      <c r="K3" s="39"/>
+      <c r="L3" s="39"/>
+      <c r="M3" s="39"/>
+      <c r="N3" s="39"/>
+      <c r="O3" s="38" t="s">
+        <v>31</v>
+      </c>
+      <c r="P3" s="38"/>
+      <c r="Q3" s="39" t="s">
+        <v>33</v>
+      </c>
+      <c r="R3" s="39"/>
+      <c r="S3" s="39"/>
+      <c r="T3" s="39"/>
+      <c r="U3" s="39"/>
+      <c r="V3" s="38" t="s">
+        <v>31</v>
+      </c>
+      <c r="W3" s="38"/>
+      <c r="X3" s="39" t="s">
+        <v>33</v>
+      </c>
+      <c r="Y3" s="39"/>
+      <c r="Z3" s="39"/>
+      <c r="AA3" s="39"/>
+      <c r="AB3" s="39"/>
     </row>
     <row r="4" spans="1:30" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="33" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B4" s="33"/>
       <c r="C4" s="34" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D4" s="34"/>
       <c r="E4" s="34"/>
       <c r="F4" s="34"/>
       <c r="G4" s="34"/>
       <c r="H4" s="33" t="s">
-        <v>44</v>
+        <v>320</v>
       </c>
       <c r="I4" s="33"/>
       <c r="J4" s="34" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="K4" s="34"/>
       <c r="L4" s="34"/>
       <c r="M4" s="34"/>
       <c r="N4" s="34"/>
       <c r="O4" s="35" t="s">
-        <v>196</v>
+        <v>335</v>
       </c>
       <c r="P4" s="35"/>
       <c r="Q4" s="34" t="s">
-        <v>197</v>
+        <v>165</v>
       </c>
       <c r="R4" s="34"/>
       <c r="S4" s="34"/>
       <c r="T4" s="34"/>
       <c r="U4" s="34"/>
       <c r="V4" s="35" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="W4" s="35"/>
       <c r="X4" s="34" t="s">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="Y4" s="34"/>
       <c r="Z4" s="34"/>
@@ -5155,44 +5232,44 @@
     </row>
     <row r="5" spans="1:30" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="33" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B5" s="33"/>
       <c r="C5" s="34" t="s">
-        <v>266</v>
+        <v>229</v>
       </c>
       <c r="D5" s="34"/>
       <c r="E5" s="34"/>
       <c r="F5" s="34"/>
       <c r="G5" s="34"/>
       <c r="H5" s="33" t="s">
-        <v>56</v>
+        <v>321</v>
       </c>
       <c r="I5" s="33"/>
       <c r="J5" s="34" t="s">
-        <v>57</v>
+        <v>322</v>
       </c>
       <c r="K5" s="34"/>
       <c r="L5" s="34"/>
       <c r="M5" s="34"/>
       <c r="N5" s="34"/>
       <c r="O5" s="35" t="s">
-        <v>198</v>
+        <v>166</v>
       </c>
       <c r="P5" s="35"/>
       <c r="Q5" s="34" t="s">
-        <v>281</v>
+        <v>242</v>
       </c>
       <c r="R5" s="34"/>
       <c r="S5" s="34"/>
       <c r="T5" s="34"/>
       <c r="U5" s="34"/>
       <c r="V5" s="35" t="s">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="W5" s="35"/>
       <c r="X5" s="34" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="Y5" s="34"/>
       <c r="Z5" s="34"/>
@@ -5201,44 +5278,44 @@
     </row>
     <row r="6" spans="1:30" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="33" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B6" s="33"/>
       <c r="C6" s="34" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="D6" s="34"/>
       <c r="E6" s="34"/>
       <c r="F6" s="34"/>
       <c r="G6" s="34"/>
       <c r="H6" s="33" t="s">
-        <v>49</v>
+        <v>323</v>
       </c>
       <c r="I6" s="33"/>
       <c r="J6" s="34" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="K6" s="34"/>
       <c r="L6" s="34"/>
       <c r="M6" s="34"/>
       <c r="N6" s="34"/>
       <c r="O6" s="35" t="s">
-        <v>199</v>
+        <v>167</v>
       </c>
       <c r="P6" s="35"/>
       <c r="Q6" s="34" t="s">
-        <v>281</v>
+        <v>242</v>
       </c>
       <c r="R6" s="34"/>
       <c r="S6" s="34"/>
       <c r="T6" s="34"/>
       <c r="U6" s="34"/>
       <c r="V6" s="35" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="W6" s="35"/>
       <c r="X6" s="34" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
       <c r="Y6" s="34"/>
       <c r="Z6" s="34"/>
@@ -5247,44 +5324,44 @@
     </row>
     <row r="7" spans="1:30" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="33" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B7" s="33"/>
       <c r="C7" s="34" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D7" s="34"/>
       <c r="E7" s="34"/>
       <c r="F7" s="34"/>
       <c r="G7" s="34"/>
       <c r="H7" s="33" t="s">
-        <v>50</v>
+        <v>333</v>
       </c>
       <c r="I7" s="33"/>
       <c r="J7" s="34" t="s">
-        <v>51</v>
+        <v>334</v>
       </c>
       <c r="K7" s="34"/>
       <c r="L7" s="34"/>
       <c r="M7" s="34"/>
       <c r="N7" s="34"/>
       <c r="O7" s="35" t="s">
-        <v>200</v>
+        <v>168</v>
       </c>
       <c r="P7" s="35"/>
       <c r="Q7" s="34" t="s">
-        <v>283</v>
+        <v>243</v>
       </c>
       <c r="R7" s="34"/>
       <c r="S7" s="34"/>
       <c r="T7" s="34"/>
       <c r="U7" s="34"/>
       <c r="V7" s="35" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="W7" s="35"/>
       <c r="X7" s="34" t="s">
-        <v>67</v>
+        <v>54</v>
       </c>
       <c r="Y7" s="34"/>
       <c r="Z7" s="34"/>
@@ -5293,44 +5370,40 @@
     </row>
     <row r="8" spans="1:30" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="33" t="s">
-        <v>264</v>
+        <v>338</v>
       </c>
       <c r="B8" s="33"/>
       <c r="C8" s="34" t="s">
-        <v>265</v>
+        <v>228</v>
       </c>
       <c r="D8" s="34"/>
       <c r="E8" s="34"/>
       <c r="F8" s="34"/>
       <c r="G8" s="34"/>
-      <c r="H8" s="33" t="s">
-        <v>52</v>
-      </c>
+      <c r="H8" s="33"/>
       <c r="I8" s="33"/>
-      <c r="J8" s="34" t="s">
-        <v>51</v>
-      </c>
+      <c r="J8" s="34"/>
       <c r="K8" s="34"/>
       <c r="L8" s="34"/>
       <c r="M8" s="34"/>
       <c r="N8" s="34"/>
       <c r="O8" s="35" t="s">
-        <v>282</v>
+        <v>340</v>
       </c>
       <c r="P8" s="35"/>
       <c r="Q8" s="34" t="s">
-        <v>283</v>
+        <v>243</v>
       </c>
       <c r="R8" s="34"/>
       <c r="S8" s="34"/>
       <c r="T8" s="34"/>
       <c r="U8" s="34"/>
       <c r="V8" s="35" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
       <c r="W8" s="35"/>
       <c r="X8" s="34" t="s">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="Y8" s="34"/>
       <c r="Z8" s="34"/>
@@ -5346,33 +5419,33 @@
       <c r="F9" s="34"/>
       <c r="G9" s="34"/>
       <c r="H9" s="33" t="s">
-        <v>77</v>
+        <v>332</v>
       </c>
       <c r="I9" s="33"/>
       <c r="J9" s="34" t="s">
-        <v>55</v>
+        <v>336</v>
       </c>
       <c r="K9" s="34"/>
       <c r="L9" s="34"/>
       <c r="M9" s="34"/>
       <c r="N9" s="34"/>
       <c r="O9" s="35" t="s">
-        <v>284</v>
+        <v>328</v>
       </c>
       <c r="P9" s="35"/>
       <c r="Q9" s="34" t="s">
-        <v>330</v>
+        <v>289</v>
       </c>
       <c r="R9" s="34"/>
       <c r="S9" s="34"/>
       <c r="T9" s="34"/>
       <c r="U9" s="34"/>
       <c r="V9" s="35" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
       <c r="W9" s="35"/>
       <c r="X9" s="34" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="Y9" s="34"/>
       <c r="Z9" s="34"/>
@@ -5381,40 +5454,40 @@
     </row>
     <row r="10" spans="1:30" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="33" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B10" s="33"/>
       <c r="C10" s="34" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="D10" s="34"/>
       <c r="E10" s="34"/>
       <c r="F10" s="34"/>
       <c r="G10" s="34"/>
-      <c r="H10" s="33" t="s">
-        <v>56</v>
-      </c>
+      <c r="H10" s="33"/>
       <c r="I10" s="33"/>
-      <c r="J10" s="34" t="s">
-        <v>57</v>
-      </c>
+      <c r="J10" s="34"/>
       <c r="K10" s="34"/>
       <c r="L10" s="34"/>
       <c r="M10" s="34"/>
       <c r="N10" s="34"/>
-      <c r="O10" s="35"/>
+      <c r="O10" s="35" t="s">
+        <v>324</v>
+      </c>
       <c r="P10" s="35"/>
-      <c r="Q10" s="34"/>
+      <c r="Q10" s="34" t="s">
+        <v>325</v>
+      </c>
       <c r="R10" s="34"/>
       <c r="S10" s="34"/>
       <c r="T10" s="34"/>
       <c r="U10" s="34"/>
       <c r="V10" s="35" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="W10" s="35"/>
       <c r="X10" s="34" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="Y10" s="34"/>
       <c r="Z10" s="34"/>
@@ -5423,40 +5496,44 @@
     </row>
     <row r="11" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="33" t="s">
-        <v>267</v>
+        <v>230</v>
       </c>
       <c r="B11" s="33"/>
       <c r="C11" s="34" t="s">
-        <v>275</v>
+        <v>236</v>
       </c>
       <c r="D11" s="34"/>
       <c r="E11" s="34"/>
       <c r="F11" s="34"/>
       <c r="G11" s="34"/>
       <c r="H11" s="33" t="s">
-        <v>58</v>
+        <v>331</v>
       </c>
       <c r="I11" s="33"/>
       <c r="J11" s="34" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="K11" s="34"/>
       <c r="L11" s="34"/>
       <c r="M11" s="34"/>
       <c r="N11" s="34"/>
-      <c r="O11" s="35"/>
+      <c r="O11" s="35" t="s">
+        <v>326</v>
+      </c>
       <c r="P11" s="35"/>
-      <c r="Q11" s="34"/>
+      <c r="Q11" s="34" t="s">
+        <v>327</v>
+      </c>
       <c r="R11" s="34"/>
       <c r="S11" s="34"/>
       <c r="T11" s="34"/>
       <c r="U11" s="34"/>
       <c r="V11" s="35" t="s">
-        <v>74</v>
+        <v>61</v>
       </c>
       <c r="W11" s="35"/>
       <c r="X11" s="34" t="s">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="Y11" s="34"/>
       <c r="Z11" s="34"/>
@@ -5464,23 +5541,19 @@
       <c r="AB11" s="34"/>
     </row>
     <row r="12" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="33" t="s">
-        <v>269</v>
-      </c>
+      <c r="A12" s="33"/>
       <c r="B12" s="33"/>
-      <c r="C12" s="39" t="s">
-        <v>270</v>
-      </c>
-      <c r="D12" s="39"/>
-      <c r="E12" s="39"/>
-      <c r="F12" s="39"/>
-      <c r="G12" s="39"/>
+      <c r="C12" s="36"/>
+      <c r="D12" s="36"/>
+      <c r="E12" s="36"/>
+      <c r="F12" s="36"/>
+      <c r="G12" s="36"/>
       <c r="H12" s="33" t="s">
-        <v>76</v>
+        <v>330</v>
       </c>
       <c r="I12" s="33"/>
       <c r="J12" s="34" t="s">
-        <v>263</v>
+        <v>227</v>
       </c>
       <c r="K12" s="34"/>
       <c r="L12" s="34"/>
@@ -5503,44 +5576,44 @@
     </row>
     <row r="13" spans="1:30" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="33" t="s">
-        <v>274</v>
+        <v>235</v>
       </c>
       <c r="B13" s="33"/>
-      <c r="C13" s="39" t="s">
-        <v>273</v>
-      </c>
-      <c r="D13" s="39"/>
-      <c r="E13" s="39"/>
-      <c r="F13" s="39"/>
-      <c r="G13" s="39"/>
+      <c r="C13" s="36" t="s">
+        <v>234</v>
+      </c>
+      <c r="D13" s="36"/>
+      <c r="E13" s="36"/>
+      <c r="F13" s="36"/>
+      <c r="G13" s="36"/>
       <c r="H13" s="33" t="s">
-        <v>46</v>
+        <v>337</v>
       </c>
       <c r="I13" s="33"/>
       <c r="J13" s="34" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="K13" s="34"/>
       <c r="L13" s="34"/>
       <c r="M13" s="34"/>
       <c r="N13" s="34"/>
       <c r="O13" s="35" t="s">
-        <v>201</v>
+        <v>329</v>
       </c>
       <c r="P13" s="35"/>
       <c r="Q13" s="34" t="s">
-        <v>202</v>
+        <v>169</v>
       </c>
       <c r="R13" s="34"/>
       <c r="S13" s="34"/>
       <c r="T13" s="34"/>
       <c r="U13" s="34"/>
       <c r="V13" s="33" t="s">
-        <v>276</v>
+        <v>237</v>
       </c>
       <c r="W13" s="33"/>
       <c r="X13" s="34" t="s">
-        <v>67</v>
+        <v>54</v>
       </c>
       <c r="Y13" s="34"/>
       <c r="Z13" s="34"/>
@@ -5549,16 +5622,16 @@
     </row>
     <row r="14" spans="1:30" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="33" t="s">
-        <v>278</v>
+        <v>239</v>
       </c>
       <c r="B14" s="33"/>
-      <c r="C14" s="39" t="s">
-        <v>277</v>
-      </c>
-      <c r="D14" s="39"/>
-      <c r="E14" s="39"/>
-      <c r="F14" s="39"/>
-      <c r="G14" s="39"/>
+      <c r="C14" s="36" t="s">
+        <v>238</v>
+      </c>
+      <c r="D14" s="36"/>
+      <c r="E14" s="36"/>
+      <c r="F14" s="36"/>
+      <c r="G14" s="36"/>
       <c r="H14" s="33"/>
       <c r="I14" s="33"/>
       <c r="J14" s="34"/>
@@ -5583,11 +5656,11 @@
     </row>
     <row r="15" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A15" s="33" t="s">
-        <v>279</v>
+        <v>240</v>
       </c>
       <c r="B15" s="33"/>
-      <c r="C15" s="39" t="s">
-        <v>280</v>
+      <c r="C15" s="36" t="s">
+        <v>241</v>
       </c>
       <c r="D15" s="34"/>
       <c r="E15" s="34"/>
@@ -5616,7 +5689,9 @@
       <c r="AB15" s="34"/>
     </row>
     <row r="16" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A16" s="33"/>
+      <c r="A16" s="33" t="s">
+        <v>341</v>
+      </c>
       <c r="B16" s="33"/>
       <c r="C16" s="34"/>
       <c r="D16" s="34"/>
@@ -6103,147 +6178,77 @@
     </row>
   </sheetData>
   <mergeCells count="236">
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="C34:G34"/>
-    <mergeCell ref="H34:I34"/>
-    <mergeCell ref="J34:N34"/>
-    <mergeCell ref="O34:P34"/>
-    <mergeCell ref="Q34:U34"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="C33:G33"/>
-    <mergeCell ref="H33:I33"/>
-    <mergeCell ref="J33:N33"/>
-    <mergeCell ref="O33:P33"/>
-    <mergeCell ref="Q33:U33"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="C32:G32"/>
-    <mergeCell ref="H32:I32"/>
-    <mergeCell ref="J32:N32"/>
-    <mergeCell ref="O32:P32"/>
-    <mergeCell ref="Q32:U32"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="C31:G31"/>
-    <mergeCell ref="H31:I31"/>
-    <mergeCell ref="J31:N31"/>
-    <mergeCell ref="O31:P31"/>
-    <mergeCell ref="Q31:U31"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="C30:G30"/>
-    <mergeCell ref="H30:I30"/>
-    <mergeCell ref="J30:N30"/>
-    <mergeCell ref="O30:P30"/>
-    <mergeCell ref="Q30:U30"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="C29:G29"/>
-    <mergeCell ref="H29:I29"/>
-    <mergeCell ref="J29:N29"/>
-    <mergeCell ref="O29:P29"/>
-    <mergeCell ref="Q29:U29"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="C28:G28"/>
-    <mergeCell ref="H28:I28"/>
-    <mergeCell ref="J28:N28"/>
-    <mergeCell ref="O28:P28"/>
-    <mergeCell ref="Q28:U28"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="C27:G27"/>
-    <mergeCell ref="H27:I27"/>
-    <mergeCell ref="J27:N27"/>
-    <mergeCell ref="O27:P27"/>
-    <mergeCell ref="Q27:U27"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="C26:G26"/>
-    <mergeCell ref="H26:I26"/>
-    <mergeCell ref="J26:N26"/>
-    <mergeCell ref="O26:P26"/>
-    <mergeCell ref="Q26:U26"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="C25:G25"/>
-    <mergeCell ref="H25:I25"/>
-    <mergeCell ref="J25:N25"/>
-    <mergeCell ref="O25:P25"/>
-    <mergeCell ref="Q25:U25"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="C24:G24"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="J24:N24"/>
-    <mergeCell ref="O24:P24"/>
-    <mergeCell ref="Q24:U24"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="C23:G23"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="J23:N23"/>
-    <mergeCell ref="O23:P23"/>
-    <mergeCell ref="Q23:U23"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="C22:G22"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="J22:N22"/>
-    <mergeCell ref="V22:W22"/>
-    <mergeCell ref="X22:AB22"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="C21:G21"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="J21:N21"/>
-    <mergeCell ref="V21:W21"/>
-    <mergeCell ref="X21:AB21"/>
-    <mergeCell ref="O21:P21"/>
-    <mergeCell ref="Q21:U21"/>
-    <mergeCell ref="O22:P22"/>
-    <mergeCell ref="Q22:U22"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="C20:G20"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="J20:N20"/>
-    <mergeCell ref="V20:W20"/>
-    <mergeCell ref="X20:AB20"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="C19:G19"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="J19:N19"/>
-    <mergeCell ref="V19:W19"/>
-    <mergeCell ref="X19:AB19"/>
-    <mergeCell ref="O19:P19"/>
-    <mergeCell ref="Q19:U19"/>
-    <mergeCell ref="O20:P20"/>
-    <mergeCell ref="Q20:U20"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C18:G18"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="J18:N18"/>
-    <mergeCell ref="V18:W18"/>
-    <mergeCell ref="X18:AB18"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="C17:G17"/>
-    <mergeCell ref="V17:W17"/>
-    <mergeCell ref="X17:AB17"/>
-    <mergeCell ref="O17:P17"/>
-    <mergeCell ref="Q17:U17"/>
-    <mergeCell ref="O18:P18"/>
-    <mergeCell ref="Q18:U18"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="C16:G16"/>
-    <mergeCell ref="V16:W16"/>
-    <mergeCell ref="X16:AB16"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="C15:G15"/>
-    <mergeCell ref="V15:W15"/>
-    <mergeCell ref="X15:AB15"/>
-    <mergeCell ref="O15:P15"/>
-    <mergeCell ref="Q15:U15"/>
-    <mergeCell ref="O16:P16"/>
-    <mergeCell ref="Q16:U16"/>
-    <mergeCell ref="V13:W13"/>
-    <mergeCell ref="J14:N14"/>
-    <mergeCell ref="V14:W14"/>
-    <mergeCell ref="X14:AB14"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="C13:G13"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="J13:N13"/>
-    <mergeCell ref="X13:AB13"/>
-    <mergeCell ref="O14:P14"/>
-    <mergeCell ref="Q14:U14"/>
+    <mergeCell ref="J8:N8"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="J4:N4"/>
+    <mergeCell ref="V4:W4"/>
+    <mergeCell ref="X4:AB4"/>
+    <mergeCell ref="A1:G2"/>
+    <mergeCell ref="H1:N2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:G3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="V1:AB2"/>
+    <mergeCell ref="V3:W3"/>
+    <mergeCell ref="J3:N3"/>
+    <mergeCell ref="X3:AB3"/>
+    <mergeCell ref="O1:U2"/>
+    <mergeCell ref="O3:P3"/>
+    <mergeCell ref="Q3:U3"/>
+    <mergeCell ref="O4:P4"/>
+    <mergeCell ref="Q4:U4"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="J5:N5"/>
+    <mergeCell ref="V6:W6"/>
+    <mergeCell ref="X6:AB6"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="J17:N17"/>
+    <mergeCell ref="V5:W5"/>
+    <mergeCell ref="X5:AB5"/>
+    <mergeCell ref="O5:P5"/>
+    <mergeCell ref="Q5:U5"/>
+    <mergeCell ref="O6:P6"/>
+    <mergeCell ref="Q6:U6"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="J6:N6"/>
+    <mergeCell ref="V8:W8"/>
+    <mergeCell ref="X8:AB8"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:N7"/>
+    <mergeCell ref="V7:W7"/>
+    <mergeCell ref="X7:AB7"/>
+    <mergeCell ref="O7:P7"/>
+    <mergeCell ref="Q7:U7"/>
+    <mergeCell ref="Q8:U8"/>
+    <mergeCell ref="O8:P8"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C10:G10"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="J10:N10"/>
+    <mergeCell ref="V10:W10"/>
+    <mergeCell ref="X10:AB10"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:G9"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="J9:N9"/>
+    <mergeCell ref="V9:W9"/>
+    <mergeCell ref="X9:AB9"/>
+    <mergeCell ref="O9:P9"/>
+    <mergeCell ref="Q9:U9"/>
+    <mergeCell ref="O10:P10"/>
+    <mergeCell ref="Q10:U10"/>
+    <mergeCell ref="H8:I8"/>
     <mergeCell ref="A12:B12"/>
     <mergeCell ref="C12:G12"/>
     <mergeCell ref="H16:I16"/>
@@ -6268,95 +6273,164 @@
     <mergeCell ref="Q13:U13"/>
     <mergeCell ref="A14:B14"/>
     <mergeCell ref="C14:G14"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="C10:G10"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="J10:N10"/>
-    <mergeCell ref="V10:W10"/>
-    <mergeCell ref="X10:AB10"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="C9:G9"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="J9:N9"/>
-    <mergeCell ref="V9:W9"/>
-    <mergeCell ref="X9:AB9"/>
-    <mergeCell ref="O9:P9"/>
-    <mergeCell ref="Q9:U9"/>
-    <mergeCell ref="O10:P10"/>
-    <mergeCell ref="Q10:U10"/>
-    <mergeCell ref="X8:AB8"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="J7:N7"/>
-    <mergeCell ref="V7:W7"/>
-    <mergeCell ref="X7:AB7"/>
-    <mergeCell ref="O7:P7"/>
-    <mergeCell ref="Q7:U7"/>
-    <mergeCell ref="Q8:U8"/>
-    <mergeCell ref="O8:P8"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="J6:N6"/>
-    <mergeCell ref="V6:W6"/>
-    <mergeCell ref="X6:AB6"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:G5"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="J17:N17"/>
-    <mergeCell ref="V5:W5"/>
-    <mergeCell ref="X5:AB5"/>
-    <mergeCell ref="O5:P5"/>
-    <mergeCell ref="Q5:U5"/>
-    <mergeCell ref="O6:P6"/>
-    <mergeCell ref="Q6:U6"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="J5:N5"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="C8:G8"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="J8:N8"/>
-    <mergeCell ref="V8:W8"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:G4"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="J4:N4"/>
-    <mergeCell ref="V4:W4"/>
-    <mergeCell ref="X4:AB4"/>
-    <mergeCell ref="A1:G2"/>
-    <mergeCell ref="H1:N2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:G3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="V1:AB2"/>
-    <mergeCell ref="V3:W3"/>
-    <mergeCell ref="J3:N3"/>
-    <mergeCell ref="X3:AB3"/>
-    <mergeCell ref="O1:U2"/>
-    <mergeCell ref="O3:P3"/>
-    <mergeCell ref="Q3:U3"/>
-    <mergeCell ref="O4:P4"/>
-    <mergeCell ref="Q4:U4"/>
+    <mergeCell ref="V13:W13"/>
+    <mergeCell ref="J14:N14"/>
+    <mergeCell ref="V14:W14"/>
+    <mergeCell ref="X14:AB14"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C13:G13"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="J13:N13"/>
+    <mergeCell ref="X13:AB13"/>
+    <mergeCell ref="O14:P14"/>
+    <mergeCell ref="Q14:U14"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:G16"/>
+    <mergeCell ref="V16:W16"/>
+    <mergeCell ref="X16:AB16"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C15:G15"/>
+    <mergeCell ref="V15:W15"/>
+    <mergeCell ref="X15:AB15"/>
+    <mergeCell ref="O15:P15"/>
+    <mergeCell ref="Q15:U15"/>
+    <mergeCell ref="O16:P16"/>
+    <mergeCell ref="Q16:U16"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="J18:N18"/>
+    <mergeCell ref="V18:W18"/>
+    <mergeCell ref="X18:AB18"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C17:G17"/>
+    <mergeCell ref="V17:W17"/>
+    <mergeCell ref="X17:AB17"/>
+    <mergeCell ref="O17:P17"/>
+    <mergeCell ref="Q17:U17"/>
+    <mergeCell ref="O18:P18"/>
+    <mergeCell ref="Q18:U18"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="J20:N20"/>
+    <mergeCell ref="V20:W20"/>
+    <mergeCell ref="X20:AB20"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="J19:N19"/>
+    <mergeCell ref="V19:W19"/>
+    <mergeCell ref="X19:AB19"/>
+    <mergeCell ref="O19:P19"/>
+    <mergeCell ref="Q19:U19"/>
+    <mergeCell ref="O20:P20"/>
+    <mergeCell ref="Q20:U20"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="C22:G22"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="J22:N22"/>
+    <mergeCell ref="V22:W22"/>
+    <mergeCell ref="X22:AB22"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="J21:N21"/>
+    <mergeCell ref="V21:W21"/>
+    <mergeCell ref="X21:AB21"/>
+    <mergeCell ref="O21:P21"/>
+    <mergeCell ref="Q21:U21"/>
+    <mergeCell ref="O22:P22"/>
+    <mergeCell ref="Q22:U22"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="C24:G24"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="J24:N24"/>
+    <mergeCell ref="O24:P24"/>
+    <mergeCell ref="Q24:U24"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="C23:G23"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="J23:N23"/>
+    <mergeCell ref="O23:P23"/>
+    <mergeCell ref="Q23:U23"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="C26:G26"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="J26:N26"/>
+    <mergeCell ref="O26:P26"/>
+    <mergeCell ref="Q26:U26"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="C25:G25"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="J25:N25"/>
+    <mergeCell ref="O25:P25"/>
+    <mergeCell ref="Q25:U25"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="C28:G28"/>
+    <mergeCell ref="H28:I28"/>
+    <mergeCell ref="J28:N28"/>
+    <mergeCell ref="O28:P28"/>
+    <mergeCell ref="Q28:U28"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="C27:G27"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="J27:N27"/>
+    <mergeCell ref="O27:P27"/>
+    <mergeCell ref="Q27:U27"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="C30:G30"/>
+    <mergeCell ref="H30:I30"/>
+    <mergeCell ref="J30:N30"/>
+    <mergeCell ref="O30:P30"/>
+    <mergeCell ref="Q30:U30"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="C29:G29"/>
+    <mergeCell ref="H29:I29"/>
+    <mergeCell ref="J29:N29"/>
+    <mergeCell ref="O29:P29"/>
+    <mergeCell ref="Q29:U29"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="C32:G32"/>
+    <mergeCell ref="H32:I32"/>
+    <mergeCell ref="J32:N32"/>
+    <mergeCell ref="O32:P32"/>
+    <mergeCell ref="Q32:U32"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="C31:G31"/>
+    <mergeCell ref="H31:I31"/>
+    <mergeCell ref="J31:N31"/>
+    <mergeCell ref="O31:P31"/>
+    <mergeCell ref="Q31:U31"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="C34:G34"/>
+    <mergeCell ref="H34:I34"/>
+    <mergeCell ref="J34:N34"/>
+    <mergeCell ref="O34:P34"/>
+    <mergeCell ref="Q34:U34"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="C33:G33"/>
+    <mergeCell ref="H33:I33"/>
+    <mergeCell ref="J33:N33"/>
+    <mergeCell ref="O33:P33"/>
+    <mergeCell ref="Q33:U33"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C15" r:id="rId1" xr:uid="{868F8F85-B252-4B04-B081-E9B23AD46A23}"/>
     <hyperlink ref="C14" r:id="rId2" xr:uid="{86E514BE-A9C9-4B5A-AB4D-57536B7FEAAB}"/>
     <hyperlink ref="C13" r:id="rId3" xr:uid="{CE321704-25F7-4D6A-8585-A2ECF5644FEF}"/>
-    <hyperlink ref="C12" r:id="rId4" xr:uid="{8224474B-9947-417C-AC37-AD95665A9723}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1908B5E3-0D9D-48A8-894B-90B53E0249A0}">
   <dimension ref="A1:I26"/>
   <sheetViews>
     <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15:H15"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6373,7 +6447,7 @@
   <sheetData>
     <row r="1" spans="1:9" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A1" s="41" t="s">
-        <v>285</v>
+        <v>244</v>
       </c>
       <c r="B1" s="41"/>
       <c r="C1" s="41"/>
@@ -6385,19 +6459,19 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="22" t="s">
-        <v>82</v>
+        <v>67</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>287</v>
+        <v>246</v>
       </c>
       <c r="C2" s="15" t="s">
-        <v>293</v>
+        <v>252</v>
       </c>
       <c r="D2" s="22" t="s">
-        <v>288</v>
+        <v>247</v>
       </c>
       <c r="E2" s="34" t="s">
-        <v>289</v>
+        <v>248</v>
       </c>
       <c r="F2" s="34"/>
       <c r="G2" s="34"/>
@@ -6405,19 +6479,19 @@
     </row>
     <row r="3" spans="1:9" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
-        <v>291</v>
+        <v>250</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>292</v>
+        <v>251</v>
       </c>
       <c r="C3" s="21">
         <v>1</v>
       </c>
       <c r="D3" s="14" t="s">
-        <v>290</v>
+        <v>249</v>
       </c>
       <c r="E3" s="40" t="s">
-        <v>297</v>
+        <v>256</v>
       </c>
       <c r="F3" s="40"/>
       <c r="G3" s="40"/>
@@ -6425,16 +6499,16 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
-        <v>302</v>
+        <v>261</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>303</v>
+        <v>262</v>
       </c>
       <c r="C4" s="21">
         <v>2</v>
       </c>
       <c r="D4" s="14" t="s">
-        <v>300</v>
+        <v>259</v>
       </c>
       <c r="E4" s="40"/>
       <c r="F4" s="40"/>
@@ -6461,19 +6535,19 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="14" t="s">
-        <v>332</v>
+        <v>291</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>333</v>
+        <v>292</v>
       </c>
       <c r="C8" s="21">
         <v>2</v>
       </c>
       <c r="D8" s="14" t="s">
-        <v>294</v>
+        <v>253</v>
       </c>
       <c r="E8" s="40" t="s">
-        <v>334</v>
+        <v>293</v>
       </c>
       <c r="F8" s="40"/>
       <c r="G8" s="40"/>
@@ -6481,19 +6555,19 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
-        <v>296</v>
+        <v>255</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>295</v>
+        <v>254</v>
       </c>
       <c r="C9" s="21">
         <v>1</v>
       </c>
       <c r="D9" s="14" t="s">
-        <v>300</v>
+        <v>259</v>
       </c>
       <c r="E9" s="40" t="s">
-        <v>298</v>
+        <v>257</v>
       </c>
       <c r="F9" s="40"/>
       <c r="G9" s="40"/>
@@ -6501,7 +6575,7 @@
     </row>
     <row r="10" spans="1:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="14" t="s">
-        <v>299</v>
+        <v>258</v>
       </c>
       <c r="B10" s="14" t="s">
         <v>14</v>
@@ -6510,33 +6584,33 @@
         <v>2</v>
       </c>
       <c r="D10" s="14" t="s">
-        <v>300</v>
+        <v>259</v>
       </c>
       <c r="E10" s="40" t="s">
-        <v>301</v>
+        <v>260</v>
       </c>
       <c r="F10" s="40"/>
       <c r="G10" s="40"/>
       <c r="H10" s="40"/>
       <c r="I10" s="14" t="s">
-        <v>331</v>
+        <v>290</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="14" t="s">
-        <v>305</v>
+        <v>264</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>295</v>
+        <v>254</v>
       </c>
       <c r="C11" s="21">
         <v>2</v>
       </c>
       <c r="D11" s="14" t="s">
-        <v>300</v>
+        <v>259</v>
       </c>
       <c r="E11" s="40" t="s">
-        <v>304</v>
+        <v>263</v>
       </c>
       <c r="F11" s="40"/>
       <c r="G11" s="40"/>
@@ -6544,19 +6618,19 @@
     </row>
     <row r="12" spans="1:9" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="14" t="s">
-        <v>306</v>
+        <v>265</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>307</v>
+        <v>266</v>
       </c>
       <c r="C12" s="21">
         <v>3</v>
       </c>
       <c r="D12" s="14" t="s">
-        <v>300</v>
+        <v>259</v>
       </c>
       <c r="E12" s="40" t="s">
-        <v>308</v>
+        <v>267</v>
       </c>
       <c r="F12" s="40"/>
       <c r="G12" s="40"/>
@@ -6564,7 +6638,7 @@
     </row>
     <row r="13" spans="1:9" ht="79.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="14" t="s">
-        <v>309</v>
+        <v>268</v>
       </c>
       <c r="B13" s="14" t="s">
         <v>14</v>
@@ -6573,10 +6647,10 @@
         <v>4</v>
       </c>
       <c r="D13" s="14" t="s">
-        <v>300</v>
+        <v>259</v>
       </c>
       <c r="E13" s="40" t="s">
-        <v>310</v>
+        <v>269</v>
       </c>
       <c r="F13" s="40"/>
       <c r="G13" s="40"/>
@@ -6584,19 +6658,19 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="14" t="s">
-        <v>335</v>
+        <v>294</v>
       </c>
       <c r="B14" s="14" t="s">
-        <v>295</v>
+        <v>254</v>
       </c>
       <c r="C14" s="21">
         <v>1</v>
       </c>
       <c r="D14" s="14" t="s">
-        <v>300</v>
+        <v>259</v>
       </c>
       <c r="E14" s="40" t="s">
-        <v>336</v>
+        <v>295</v>
       </c>
       <c r="F14" s="40"/>
       <c r="G14" s="40"/>
@@ -6676,14 +6750,12 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="E25:H25"/>
-    <mergeCell ref="E26:H26"/>
-    <mergeCell ref="E19:H19"/>
-    <mergeCell ref="E20:H20"/>
-    <mergeCell ref="E21:H21"/>
-    <mergeCell ref="E22:H22"/>
-    <mergeCell ref="E23:H23"/>
-    <mergeCell ref="E24:H24"/>
+    <mergeCell ref="E6:H6"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="E2:H2"/>
+    <mergeCell ref="E3:H3"/>
+    <mergeCell ref="E4:H4"/>
+    <mergeCell ref="E5:H5"/>
     <mergeCell ref="E18:H18"/>
     <mergeCell ref="E7:H7"/>
     <mergeCell ref="E8:H8"/>
@@ -6696,23 +6768,25 @@
     <mergeCell ref="E15:H15"/>
     <mergeCell ref="E16:H16"/>
     <mergeCell ref="E17:H17"/>
-    <mergeCell ref="E6:H6"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="E2:H2"/>
-    <mergeCell ref="E3:H3"/>
-    <mergeCell ref="E4:H4"/>
-    <mergeCell ref="E5:H5"/>
+    <mergeCell ref="E25:H25"/>
+    <mergeCell ref="E26:H26"/>
+    <mergeCell ref="E19:H19"/>
+    <mergeCell ref="E20:H20"/>
+    <mergeCell ref="E21:H21"/>
+    <mergeCell ref="E22:H22"/>
+    <mergeCell ref="E23:H23"/>
+    <mergeCell ref="E24:H24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DD47BAA-02B8-4E56-868D-4BC0DFE6F64A}">
   <dimension ref="A1:J30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6732,7 +6806,7 @@
   <sheetData>
     <row r="1" spans="1:10" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A1" s="43" t="s">
-        <v>311</v>
+        <v>270</v>
       </c>
       <c r="B1" s="43"/>
       <c r="C1" s="43"/>
@@ -6743,99 +6817,99 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="20" t="s">
-        <v>82</v>
+        <v>67</v>
       </c>
       <c r="B2" s="20" t="s">
-        <v>234</v>
+        <v>198</v>
       </c>
       <c r="C2" s="20" t="s">
-        <v>286</v>
+        <v>245</v>
       </c>
       <c r="D2" s="44" t="s">
-        <v>289</v>
+        <v>248</v>
       </c>
       <c r="E2" s="44"/>
       <c r="F2" s="44"/>
       <c r="G2" s="44"/>
       <c r="I2" s="23" t="s">
-        <v>345</v>
+        <v>302</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>312</v>
+        <v>271</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>322</v>
+        <v>281</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>290</v>
+        <v>249</v>
       </c>
       <c r="D3" s="42" t="s">
-        <v>313</v>
+        <v>272</v>
       </c>
       <c r="E3" s="42"/>
       <c r="F3" s="42"/>
       <c r="G3" s="42"/>
       <c r="I3" s="5" t="s">
-        <v>346</v>
+        <v>303</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>348</v>
+        <v>305</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>318</v>
+        <v>277</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>321</v>
+        <v>280</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>290</v>
+        <v>249</v>
       </c>
       <c r="D4" s="42" t="s">
-        <v>320</v>
+        <v>279</v>
       </c>
       <c r="E4" s="42"/>
       <c r="F4" s="42"/>
       <c r="G4" s="42"/>
       <c r="J4" s="5" t="s">
-        <v>349</v>
+        <v>306</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>316</v>
+        <v>275</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>321</v>
+        <v>280</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>290</v>
+        <v>249</v>
       </c>
       <c r="D5" s="42" t="s">
-        <v>317</v>
+        <v>276</v>
       </c>
       <c r="E5" s="42"/>
       <c r="F5" s="42"/>
       <c r="G5" s="42"/>
       <c r="J5" s="5" t="s">
-        <v>350</v>
+        <v>307</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>315</v>
+        <v>274</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>321</v>
+        <v>280</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>319</v>
+        <v>278</v>
       </c>
       <c r="D6" s="42" t="s">
-        <v>314</v>
+        <v>273</v>
       </c>
       <c r="E6" s="42"/>
       <c r="F6" s="42"/>
@@ -6843,48 +6917,48 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
-        <v>343</v>
+        <v>300</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>344</v>
+        <v>301</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>290</v>
+        <v>249</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
-        <v>347</v>
+        <v>304</v>
       </c>
       <c r="D8" s="42"/>
       <c r="E8" s="42"/>
       <c r="F8" s="42"/>
       <c r="G8" s="42"/>
       <c r="I8" s="5" t="s">
-        <v>204</v>
+        <v>171</v>
       </c>
       <c r="J8" s="5" t="s">
-        <v>354</v>
+        <v>311</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
-        <v>351</v>
+        <v>308</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>352</v>
+        <v>309</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>356</v>
+        <v>313</v>
       </c>
       <c r="D9" s="42" t="s">
-        <v>353</v>
+        <v>310</v>
       </c>
       <c r="E9" s="42"/>
       <c r="F9" s="42"/>
       <c r="G9" s="42"/>
       <c r="J9" s="5" t="s">
-        <v>355</v>
+        <v>312</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
@@ -6901,39 +6975,39 @@
     </row>
     <row r="12" spans="1:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
-        <v>323</v>
+        <v>282</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>324</v>
+        <v>283</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>325</v>
+        <v>284</v>
       </c>
       <c r="D12" s="42" t="s">
-        <v>326</v>
+        <v>285</v>
       </c>
       <c r="E12" s="42"/>
       <c r="F12" s="42"/>
       <c r="G12" s="42"/>
       <c r="I12" s="5" t="s">
-        <v>357</v>
+        <v>314</v>
       </c>
       <c r="J12" s="14" t="s">
-        <v>358</v>
+        <v>315</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
-        <v>327</v>
+        <v>286</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>328</v>
+        <v>287</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>290</v>
+        <v>249</v>
       </c>
       <c r="D13" s="42" t="s">
-        <v>329</v>
+        <v>288</v>
       </c>
       <c r="E13" s="42"/>
       <c r="F13" s="42"/>
@@ -6941,16 +7015,16 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
-        <v>359</v>
+        <v>316</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>360</v>
+        <v>317</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>361</v>
+        <v>318</v>
       </c>
       <c r="D14" s="42" t="s">
-        <v>362</v>
+        <v>319</v>
       </c>
       <c r="E14" s="42"/>
       <c r="F14" s="42"/>
@@ -6970,16 +7044,16 @@
     </row>
     <row r="17" spans="1:7" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
-        <v>341</v>
+        <v>298</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>339</v>
+        <v>296</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>340</v>
+        <v>297</v>
       </c>
       <c r="D17" s="40" t="s">
-        <v>342</v>
+        <v>299</v>
       </c>
       <c r="E17" s="40"/>
       <c r="F17" s="40"/>
@@ -7065,6 +7139,23 @@
     </row>
   </sheetData>
   <mergeCells count="29">
+    <mergeCell ref="D4:G4"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="D3:G3"/>
+    <mergeCell ref="D6:G6"/>
+    <mergeCell ref="D5:G5"/>
+    <mergeCell ref="D18:G18"/>
+    <mergeCell ref="D8:G8"/>
+    <mergeCell ref="D9:G9"/>
+    <mergeCell ref="D10:G10"/>
+    <mergeCell ref="D11:G11"/>
+    <mergeCell ref="D12:G12"/>
+    <mergeCell ref="D13:G13"/>
+    <mergeCell ref="D14:G14"/>
+    <mergeCell ref="D15:G15"/>
+    <mergeCell ref="D16:G16"/>
+    <mergeCell ref="D17:G17"/>
     <mergeCell ref="D30:G30"/>
     <mergeCell ref="D19:G19"/>
     <mergeCell ref="D20:G20"/>
@@ -7077,23 +7168,6 @@
     <mergeCell ref="D27:G27"/>
     <mergeCell ref="D28:G28"/>
     <mergeCell ref="D29:G29"/>
-    <mergeCell ref="D18:G18"/>
-    <mergeCell ref="D8:G8"/>
-    <mergeCell ref="D9:G9"/>
-    <mergeCell ref="D10:G10"/>
-    <mergeCell ref="D11:G11"/>
-    <mergeCell ref="D12:G12"/>
-    <mergeCell ref="D13:G13"/>
-    <mergeCell ref="D14:G14"/>
-    <mergeCell ref="D15:G15"/>
-    <mergeCell ref="D16:G16"/>
-    <mergeCell ref="D17:G17"/>
-    <mergeCell ref="D4:G4"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="D2:G2"/>
-    <mergeCell ref="D3:G3"/>
-    <mergeCell ref="D6:G6"/>
-    <mergeCell ref="D5:G5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/plans/todo.xlsx
+++ b/plans/todo.xlsx
@@ -1,25 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Edsquid\Documents\Personal Projects\Business\RogueLikeGame\plans\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90297A16-2F28-41CC-88F4-EEACC20D1CAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26C799F5-38A7-4EE5-9CC5-A6AC714F2703}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29910" yWindow="1620" windowWidth="18900" windowHeight="13530" xr2:uid="{BA1E511D-BF64-4842-98DF-72E30276ED1C}"/>
+    <workbookView xWindow="14985" yWindow="795" windowWidth="13470" windowHeight="13740" xr2:uid="{BA1E511D-BF64-4842-98DF-72E30276ED1C}"/>
   </bookViews>
   <sheets>
     <sheet name="Attributes" sheetId="3" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="8" r:id="rId2"/>
-    <sheet name="Maps" sheetId="5" r:id="rId3"/>
-    <sheet name="Characters" sheetId="4" r:id="rId4"/>
-    <sheet name="Weapons and Secondary" sheetId="2" r:id="rId5"/>
-    <sheet name="Enemies" sheetId="6" r:id="rId6"/>
-    <sheet name="Interactables" sheetId="7" r:id="rId7"/>
+    <sheet name="Maps" sheetId="5" r:id="rId2"/>
+    <sheet name="Characters" sheetId="4" r:id="rId3"/>
+    <sheet name="Weapons and Secondary" sheetId="2" r:id="rId4"/>
+    <sheet name="Enemies" sheetId="6" r:id="rId5"/>
+    <sheet name="Interactables" sheetId="7" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -42,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="484" uniqueCount="364">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="481" uniqueCount="361">
   <si>
     <t>Max Lives</t>
   </si>
@@ -110,9 +109,6 @@
     <t xml:space="preserve">Each and every day (Increase health regen) </t>
   </si>
   <si>
-    <t>Increase max damage, reduce min damage (able to heal enemies)</t>
-  </si>
-  <si>
     <t>Crit chance</t>
   </si>
   <si>
@@ -131,9 +127,6 @@
     <t>Reduce max ammo, reduce reload time</t>
   </si>
   <si>
-    <t>Reduce regular damage, increase status effect potency</t>
-  </si>
-  <si>
     <t xml:space="preserve">Increase base damage 200%, add 10 lives, max health set to 1 </t>
   </si>
   <si>
@@ -560,9 +553,6 @@
     <t>Keys</t>
   </si>
   <si>
-    <t>Roll the dice champ. "+50% crit chance, +25% crit damage, -50% base damage"</t>
-  </si>
-  <si>
     <t>Remove stamina bar, stamina actions reduce health, increase health regen by 200%</t>
   </si>
   <si>
@@ -1115,25 +1105,25 @@
     <t>Seconds please (Increase size, increase health, reduce speed)</t>
   </si>
   <si>
-    <t>putYourWeightIntoIt (more health = more melee dmg)</t>
-  </si>
-  <si>
     <t>battleScars, Remove ability to dash, double base health</t>
   </si>
   <si>
-    <t>Types</t>
-  </si>
-  <si>
-    <t>weight</t>
-  </si>
-  <si>
-    <t>ratio of total</t>
-  </si>
-  <si>
-    <t>w/ weight</t>
-  </si>
-  <si>
     <t>Explosive Dash - Fire, Frost</t>
+  </si>
+  <si>
+    <t>Chaotic Chances - Increase max damage, reduce min damage (able to heal enemies)</t>
+  </si>
+  <si>
+    <t>Balancing Technique - Opposite</t>
+  </si>
+  <si>
+    <t>putYourBackIntoIt (more health = more melee dmg)</t>
+  </si>
+  <si>
+    <t>potion sellar - Reduce regular damage, increase status effect potency</t>
+  </si>
+  <si>
+    <t>Roll the dice champ. "+25% crit chance, +25% crit damage, -50% base damage"</t>
   </si>
 </sst>
 </file>
@@ -1420,7 +1410,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1495,9 +1485,6 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1506,6 +1493,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -1522,7 +1512,6 @@
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1840,8 +1829,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11CE061F-AFA4-4B9D-BFD1-A05915568E6D}">
   <dimension ref="A1:H338"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
-      <selection activeCell="A59" sqref="A59"/>
+    <sheetView tabSelected="1" topLeftCell="A139" workbookViewId="0">
+      <selection activeCell="A150" sqref="A150"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1859,7 +1848,7 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="28" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B1" s="29"/>
       <c r="C1" s="29"/>
@@ -1868,7 +1857,7 @@
       <c r="F1" s="29"/>
       <c r="G1" s="29"/>
       <c r="H1" s="9" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -1880,36 +1869,36 @@
       <c r="F2" s="31"/>
       <c r="G2" s="31"/>
       <c r="H2" s="11" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="D3" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="F3" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="C3" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>70</v>
-      </c>
       <c r="G3" s="7" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="H3" s="8"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="24" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="B4" s="24"/>
       <c r="C4" s="24"/>
@@ -1921,16 +1910,16 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="16" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E5" s="2">
         <v>0.05</v>
@@ -1942,16 +1931,16 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="16" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E6" s="2">
         <v>0.05</v>
@@ -1966,13 +1955,13 @@
         <v>1</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E7" s="2">
         <v>0.05</v>
@@ -1987,13 +1976,13 @@
         <v>2</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E8" s="2">
         <v>0.05</v>
@@ -2008,13 +1997,13 @@
         <v>3</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E9" s="2">
         <v>0.05</v>
@@ -2029,13 +2018,13 @@
         <v>4</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E10" s="2">
         <v>0.05</v>
@@ -2050,13 +2039,13 @@
         <v>5</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E11" s="2">
         <v>0.05</v>
@@ -2071,13 +2060,13 @@
         <v>6</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E12" s="2">
         <v>0.05</v>
@@ -2092,13 +2081,13 @@
         <v>7</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E13" s="2">
         <v>0.05</v>
@@ -2113,13 +2102,13 @@
         <v>8</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E14" s="2">
         <v>0.05</v>
@@ -2134,13 +2123,13 @@
         <v>9</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E15" s="2">
         <v>0.05</v>
@@ -2155,13 +2144,13 @@
         <v>10</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E16" s="2">
         <v>0.05</v>
@@ -2176,13 +2165,13 @@
         <v>12</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E17" s="2">
         <v>0.05</v>
@@ -2194,16 +2183,16 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E18" s="2">
         <v>0.05</v>
@@ -2215,16 +2204,16 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E19" s="2">
         <v>0.05</v>
@@ -2236,16 +2225,16 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="16" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E20" s="2">
         <v>0.05</v>
@@ -2257,16 +2246,16 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="16" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E21" s="2">
         <v>0.05</v>
@@ -2278,16 +2267,16 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="16" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E22" s="2">
         <v>0.01</v>
@@ -2299,16 +2288,16 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="16" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E23" s="2">
         <v>0.05</v>
@@ -2320,16 +2309,16 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="16" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E24" s="2">
         <v>0.05</v>
@@ -2341,16 +2330,16 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="16" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E25" s="2">
         <v>0.05</v>
@@ -2365,13 +2354,13 @@
         <v>0</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E26" s="2">
         <v>1</v>
@@ -2383,7 +2372,7 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="16" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="G27" s="2"/>
     </row>
@@ -2404,22 +2393,22 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="C33" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="B33" s="4" t="s">
+      <c r="D33" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="E33" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="F33" s="4" t="s">
         <v>68</v>
-      </c>
-      <c r="C33" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="D33" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="E33" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="F33" s="4" t="s">
-        <v>70</v>
       </c>
       <c r="G33" s="4"/>
     </row>
@@ -2436,16 +2425,16 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C35" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="B35" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>110</v>
-      </c>
       <c r="D35" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F35" s="1">
         <v>10</v>
@@ -2454,16 +2443,16 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B36" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="B36" s="1" t="s">
+      <c r="C36" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="C36" s="2" t="s">
-        <v>111</v>
-      </c>
       <c r="D36" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="F36" s="1">
         <v>10</v>
@@ -2475,13 +2464,13 @@
         <v>15</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="F37" s="1">
         <v>10</v>
@@ -2493,13 +2482,13 @@
         <v>16</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="F38" s="1">
         <v>1</v>
@@ -2511,13 +2500,13 @@
         <v>17</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="F39" s="1">
         <v>5</v>
@@ -2526,13 +2515,13 @@
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="F40" s="1">
         <v>10</v>
@@ -2547,28 +2536,28 @@
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="C43" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="B43" s="4" t="s">
+      <c r="D43" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="E43" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="F43" s="4" t="s">
         <v>68</v>
-      </c>
-      <c r="C43" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="D43" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="E43" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="F43" s="4" t="s">
-        <v>70</v>
       </c>
       <c r="G43" s="4"/>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="27" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B44" s="27"/>
       <c r="C44" s="27"/>
@@ -2579,16 +2568,16 @@
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="F45" s="1">
         <v>5</v>
@@ -2600,13 +2589,13 @@
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
-        <v>363</v>
+        <v>355</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F47" s="1">
         <v>5</v>
@@ -2615,16 +2604,16 @@
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="F48" s="1">
         <v>5</v>
@@ -2639,13 +2628,13 @@
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C50" s="2" t="s">
         <v>122</v>
-      </c>
-      <c r="B50" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="C50" s="2" t="s">
-        <v>124</v>
       </c>
       <c r="F50" s="1">
         <v>5</v>
@@ -2657,7 +2646,7 @@
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="12" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="F52" s="1">
         <v>5</v>
@@ -2666,13 +2655,13 @@
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="F54" s="1">
         <v>5</v>
@@ -2681,13 +2670,13 @@
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C55" s="2" t="s">
         <v>126</v>
-      </c>
-      <c r="B55" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="C55" s="2" t="s">
-        <v>128</v>
       </c>
       <c r="F55" s="1">
         <v>5</v>
@@ -2696,13 +2685,13 @@
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="F56" s="1">
         <v>5</v>
@@ -2711,7 +2700,7 @@
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="12" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
@@ -2722,10 +2711,10 @@
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F59" s="1">
         <v>5</v>
@@ -2743,13 +2732,13 @@
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="F65" s="1">
         <v>5</v>
@@ -2758,10 +2747,10 @@
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="F66" s="1">
         <v>5</v>
@@ -2770,13 +2759,13 @@
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="F67" s="1">
         <v>5</v>
@@ -2785,13 +2774,13 @@
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="F68" s="1">
         <v>5</v>
@@ -2800,13 +2789,13 @@
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F69" s="1">
         <v>5</v>
@@ -2815,7 +2804,7 @@
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" s="12" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="G70" s="2"/>
     </row>
@@ -2830,7 +2819,7 @@
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="F73" s="1">
         <v>5</v>
@@ -2839,10 +2828,10 @@
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F74" s="1">
         <v>5</v>
@@ -2851,10 +2840,10 @@
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F75" s="1">
         <v>5</v>
@@ -2875,10 +2864,10 @@
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F78" s="1">
         <v>5</v>
@@ -2887,7 +2876,7 @@
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" s="12" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="F79" s="1">
         <v>5</v>
@@ -2902,10 +2891,10 @@
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F81" s="1">
         <v>5</v>
@@ -2914,10 +2903,10 @@
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F82" s="1">
         <v>5</v>
@@ -2935,10 +2924,10 @@
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F85" s="1">
         <v>5</v>
@@ -2947,10 +2936,10 @@
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F86" s="1">
         <v>5</v>
@@ -2959,10 +2948,10 @@
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F87" s="1">
         <v>5</v>
@@ -2971,7 +2960,7 @@
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" s="12" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="F88" s="1">
         <v>5</v>
@@ -2986,10 +2975,10 @@
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" s="12" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F90" s="1">
         <v>5</v>
@@ -2998,10 +2987,10 @@
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" s="2" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F91" s="1">
         <v>5</v>
@@ -3010,10 +2999,10 @@
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F92" s="1">
         <v>5</v>
@@ -3022,7 +3011,7 @@
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" s="2" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="F93" s="1">
         <v>5</v>
@@ -3031,10 +3020,10 @@
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F95" s="1">
         <v>5</v>
@@ -3049,7 +3038,7 @@
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97" s="12" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="F97" s="1">
         <v>5</v>
@@ -3064,7 +3053,7 @@
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99" s="2" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="F99" s="1">
         <v>5</v>
@@ -3073,7 +3062,7 @@
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="F100" s="1">
         <v>5</v>
@@ -3082,7 +3071,7 @@
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="F101" s="1">
         <v>5</v>
@@ -3091,7 +3080,7 @@
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102" s="3" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="F102" s="1">
         <v>5</v>
@@ -3118,7 +3107,7 @@
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106" s="2" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="F106" s="1">
         <v>5</v>
@@ -3127,7 +3116,7 @@
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="F107" s="1">
         <v>5</v>
@@ -3148,7 +3137,7 @@
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110" s="12" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="F110" s="1">
         <v>5</v>
@@ -3163,7 +3152,7 @@
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A112" s="2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="F112" s="1">
         <v>5</v>
@@ -3184,7 +3173,7 @@
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A116" s="6" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="F116" s="1">
         <v>5</v>
@@ -3193,7 +3182,7 @@
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A117" s="2" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="F117" s="1">
         <v>5</v>
@@ -3202,7 +3191,7 @@
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A118" s="2" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F118" s="1">
         <v>5</v>
@@ -3211,7 +3200,7 @@
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A119" s="2" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="F119" s="1">
         <v>5</v>
@@ -3220,7 +3209,7 @@
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A120" s="2" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="F120" s="1">
         <v>5</v>
@@ -3250,7 +3239,7 @@
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A124" s="2" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="F124" s="1">
         <v>5</v>
@@ -3259,7 +3248,7 @@
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A125" s="2" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="F125" s="1">
         <v>5</v>
@@ -3274,7 +3263,7 @@
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A127" s="2" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="F127" s="1">
         <v>5</v>
@@ -3283,7 +3272,7 @@
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A128" s="2" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="F128" s="1">
         <v>5</v>
@@ -3292,7 +3281,7 @@
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A129" s="2" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="F129" s="1">
         <v>5</v>
@@ -3319,28 +3308,28 @@
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A133" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="B133" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="C133" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="B133" s="4" t="s">
+      <c r="D133" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="E133" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="F133" s="4" t="s">
         <v>68</v>
-      </c>
-      <c r="C133" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="D133" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="E133" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="F133" s="4" t="s">
-        <v>70</v>
       </c>
       <c r="G133" s="4"/>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A134" s="25" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B134" s="25"/>
       <c r="C134" s="25"/>
@@ -3351,7 +3340,7 @@
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A135" s="2" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F135" s="1">
         <v>1</v>
@@ -3387,7 +3376,7 @@
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A139" s="2" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="F139" s="1">
         <v>1</v>
@@ -3396,7 +3385,7 @@
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A140" s="2" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="F140" s="1">
         <v>1</v>
@@ -3414,7 +3403,7 @@
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A142" s="2" t="s">
-        <v>22</v>
+        <v>356</v>
       </c>
       <c r="F142" s="1">
         <v>1</v>
@@ -3422,21 +3411,24 @@
       <c r="G142" s="2"/>
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A143" s="2" t="s">
-        <v>25</v>
-      </c>
       <c r="F143" s="1">
         <v>1</v>
       </c>
       <c r="G143" s="2"/>
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A144" s="2" t="s">
+        <v>357</v>
+      </c>
       <c r="F144" s="1">
         <v>1</v>
       </c>
       <c r="G144" s="2"/>
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A145" s="2" t="s">
+        <v>24</v>
+      </c>
       <c r="F145" s="1">
         <v>1</v>
       </c>
@@ -3444,7 +3436,7 @@
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A146" s="2" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="F146" s="1">
         <v>1</v>
@@ -3453,7 +3445,7 @@
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A147" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F147" s="1">
         <v>1</v>
@@ -3462,7 +3454,7 @@
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A148" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F148" s="1">
         <v>1</v>
@@ -3471,7 +3463,7 @@
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A149" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F149" s="1">
         <v>1</v>
@@ -3480,7 +3472,7 @@
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A150" s="2" t="s">
-        <v>29</v>
+        <v>359</v>
       </c>
       <c r="F150" s="1">
         <v>1</v>
@@ -3489,7 +3481,7 @@
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A151" s="2" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="F151" s="1">
         <v>1</v>
@@ -3504,7 +3496,7 @@
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A153" s="2" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="F153" s="1">
         <v>1</v>
@@ -3537,7 +3529,7 @@
     </row>
     <row r="158" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A158" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F158" s="1">
         <v>5</v>
@@ -3552,7 +3544,7 @@
     </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A160" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F160" s="1">
         <v>5</v>
@@ -3573,7 +3565,7 @@
     </row>
     <row r="163" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A163" s="12" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="F163" s="1">
         <v>5</v>
@@ -3582,7 +3574,7 @@
     </row>
     <row r="164" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A164" s="12" t="s">
-        <v>172</v>
+        <v>360</v>
       </c>
       <c r="F164" s="1">
         <v>5</v>
@@ -3591,7 +3583,7 @@
     </row>
     <row r="165" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A165" s="12" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F165" s="1">
         <v>5</v>
@@ -4650,175 +4642,6 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3EE930D2-8264-4C13-BA9D-8D981850F45C}">
-  <dimension ref="A2:G10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="2" width="9.140625" style="1"/>
-    <col min="3" max="3" width="13.85546875" style="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>359</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>360</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>361</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="45"/>
-      <c r="B3" s="45"/>
-      <c r="C3" s="45"/>
-      <c r="D3" s="45"/>
-      <c r="E3" s="45"/>
-      <c r="F3" s="45"/>
-      <c r="G3" s="45"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B4" s="45"/>
-      <c r="C4" s="45"/>
-      <c r="D4" s="45"/>
-      <c r="E4" s="45"/>
-      <c r="F4" s="45"/>
-      <c r="G4" s="45"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="45">
-        <v>1</v>
-      </c>
-      <c r="B5" s="1">
-        <v>0.8</v>
-      </c>
-      <c r="C5" s="45">
-        <f>A5/$A$10</f>
-        <v>0.125</v>
-      </c>
-      <c r="D5" s="45">
-        <f>C5*B5</f>
-        <v>0.1</v>
-      </c>
-      <c r="E5" s="45"/>
-      <c r="F5" s="45">
-        <f>D5*$E$10</f>
-        <v>0.22535211267605637</v>
-      </c>
-      <c r="G5" s="45"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="45">
-        <v>1</v>
-      </c>
-      <c r="B6" s="1">
-        <v>0.6</v>
-      </c>
-      <c r="C6" s="45">
-        <f>A6/$A$10</f>
-        <v>0.125</v>
-      </c>
-      <c r="D6" s="45">
-        <f t="shared" ref="D6:D8" si="0">C6*B6</f>
-        <v>7.4999999999999997E-2</v>
-      </c>
-      <c r="E6" s="45"/>
-      <c r="F6" s="45">
-        <f t="shared" ref="F6:F10" si="1">D6*$E$10</f>
-        <v>0.16901408450704225</v>
-      </c>
-      <c r="G6" s="45"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="45">
-        <v>1</v>
-      </c>
-      <c r="B7" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="C7" s="45">
-        <f>A7/$A$10</f>
-        <v>0.125</v>
-      </c>
-      <c r="D7" s="45">
-        <f t="shared" si="0"/>
-        <v>0.05</v>
-      </c>
-      <c r="E7" s="45"/>
-      <c r="F7" s="45">
-        <f t="shared" si="1"/>
-        <v>0.11267605633802819</v>
-      </c>
-      <c r="G7" s="45"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="45">
-        <v>5</v>
-      </c>
-      <c r="B8" s="1">
-        <v>0.35</v>
-      </c>
-      <c r="C8" s="45">
-        <f>A8/$A$10</f>
-        <v>0.625</v>
-      </c>
-      <c r="D8" s="45">
-        <f t="shared" si="0"/>
-        <v>0.21875</v>
-      </c>
-      <c r="E8" s="45"/>
-      <c r="F8" s="45">
-        <f t="shared" si="1"/>
-        <v>0.49295774647887325</v>
-      </c>
-      <c r="G8" s="45"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="45"/>
-      <c r="C9" s="45"/>
-      <c r="D9" s="45"/>
-      <c r="E9" s="45"/>
-      <c r="F9" s="45"/>
-      <c r="G9" s="45"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
-        <f>SUM(A5:A8)</f>
-        <v>8</v>
-      </c>
-      <c r="C10" s="45">
-        <f>A10/$A$10</f>
-        <v>1</v>
-      </c>
-      <c r="D10" s="1">
-        <f>SUM(D5:D8)</f>
-        <v>0.44374999999999998</v>
-      </c>
-      <c r="E10" s="1">
-        <f>1/D10</f>
-        <v>2.2535211267605635</v>
-      </c>
-      <c r="F10" s="45">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{214FE451-EC37-4DAA-9890-BA50B23E22A7}">
   <dimension ref="A1:G5"/>
   <sheetViews>
@@ -4838,7 +4661,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A1" s="32" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="B1" s="32"/>
       <c r="C1" s="32"/>
@@ -4849,50 +4672,50 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D2" s="13" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="E2" s="13"/>
     </row>
     <row r="3" spans="1:7" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="B3" s="5">
         <v>1</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="D3" s="14" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="B4" s="5">
         <v>3</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="B5" s="5">
         <v>4</v>
@@ -4906,7 +4729,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADB02B54-F017-44DA-9118-EA158E750E4A}">
   <dimension ref="A1:E10"/>
   <sheetViews>
@@ -4925,7 +4748,7 @@
   <sheetData>
     <row r="1" spans="1:5" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A1" s="32" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="B1" s="32"/>
       <c r="C1" s="32"/>
@@ -4934,107 +4757,107 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="17" t="s">
+        <v>195</v>
+      </c>
+      <c r="B2" s="17" t="s">
+        <v>196</v>
+      </c>
+      <c r="C2" s="17" t="s">
+        <v>197</v>
+      </c>
+      <c r="D2" s="17" t="s">
         <v>198</v>
-      </c>
-      <c r="B2" s="17" t="s">
-        <v>199</v>
-      </c>
-      <c r="C2" s="17" t="s">
-        <v>200</v>
-      </c>
-      <c r="D2" s="17" t="s">
-        <v>201</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
     </row>
   </sheetData>
@@ -5046,11 +4869,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E13E4A5-10AD-4171-99FD-31881C0A6C11}">
   <dimension ref="A1:AD34"/>
   <sheetViews>
-    <sheetView topLeftCell="D4" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="H10" sqref="H10:I10"/>
     </sheetView>
   </sheetViews>
@@ -5068,162 +4891,162 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="37"/>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37"/>
-      <c r="G1" s="37"/>
-      <c r="H1" s="37" t="s">
-        <v>163</v>
-      </c>
-      <c r="I1" s="37"/>
-      <c r="J1" s="37"/>
-      <c r="K1" s="37"/>
-      <c r="L1" s="37"/>
-      <c r="M1" s="37"/>
-      <c r="N1" s="37"/>
-      <c r="O1" s="37" t="s">
-        <v>164</v>
-      </c>
-      <c r="P1" s="37"/>
-      <c r="Q1" s="37"/>
-      <c r="R1" s="37"/>
-      <c r="S1" s="37"/>
-      <c r="T1" s="37"/>
-      <c r="U1" s="37"/>
-      <c r="V1" s="37" t="s">
-        <v>32</v>
-      </c>
-      <c r="W1" s="37"/>
-      <c r="X1" s="37"/>
-      <c r="Y1" s="37"/>
-      <c r="Z1" s="37"/>
-      <c r="AA1" s="37"/>
-      <c r="AB1" s="37"/>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
+      <c r="H1" s="36" t="s">
+        <v>161</v>
+      </c>
+      <c r="I1" s="36"/>
+      <c r="J1" s="36"/>
+      <c r="K1" s="36"/>
+      <c r="L1" s="36"/>
+      <c r="M1" s="36"/>
+      <c r="N1" s="36"/>
+      <c r="O1" s="36" t="s">
+        <v>162</v>
+      </c>
+      <c r="P1" s="36"/>
+      <c r="Q1" s="36"/>
+      <c r="R1" s="36"/>
+      <c r="S1" s="36"/>
+      <c r="T1" s="36"/>
+      <c r="U1" s="36"/>
+      <c r="V1" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="W1" s="36"/>
+      <c r="X1" s="36"/>
+      <c r="Y1" s="36"/>
+      <c r="Z1" s="36"/>
+      <c r="AA1" s="36"/>
+      <c r="AB1" s="36"/>
       <c r="AD1" s="19" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
     </row>
     <row r="2" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="37"/>
-      <c r="B2" s="37"/>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="37"/>
-      <c r="H2" s="37"/>
-      <c r="I2" s="37"/>
-      <c r="J2" s="37"/>
-      <c r="K2" s="37"/>
-      <c r="L2" s="37"/>
-      <c r="M2" s="37"/>
-      <c r="N2" s="37"/>
-      <c r="O2" s="37"/>
-      <c r="P2" s="37"/>
-      <c r="Q2" s="37"/>
-      <c r="R2" s="37"/>
-      <c r="S2" s="37"/>
-      <c r="T2" s="37"/>
-      <c r="U2" s="37"/>
-      <c r="V2" s="37"/>
-      <c r="W2" s="37"/>
-      <c r="X2" s="37"/>
-      <c r="Y2" s="37"/>
-      <c r="Z2" s="37"/>
-      <c r="AA2" s="37"/>
-      <c r="AB2" s="37"/>
+      <c r="A2" s="36"/>
+      <c r="B2" s="36"/>
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="36"/>
+      <c r="H2" s="36"/>
+      <c r="I2" s="36"/>
+      <c r="J2" s="36"/>
+      <c r="K2" s="36"/>
+      <c r="L2" s="36"/>
+      <c r="M2" s="36"/>
+      <c r="N2" s="36"/>
+      <c r="O2" s="36"/>
+      <c r="P2" s="36"/>
+      <c r="Q2" s="36"/>
+      <c r="R2" s="36"/>
+      <c r="S2" s="36"/>
+      <c r="T2" s="36"/>
+      <c r="U2" s="36"/>
+      <c r="V2" s="36"/>
+      <c r="W2" s="36"/>
+      <c r="X2" s="36"/>
+      <c r="Y2" s="36"/>
+      <c r="Z2" s="36"/>
+      <c r="AA2" s="36"/>
+      <c r="AB2" s="36"/>
     </row>
     <row r="3" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A3" s="38" t="s">
+      <c r="A3" s="37" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3" s="37"/>
+      <c r="C3" s="38" t="s">
         <v>31</v>
       </c>
-      <c r="B3" s="38"/>
-      <c r="C3" s="39" t="s">
-        <v>33</v>
-      </c>
-      <c r="D3" s="39"/>
-      <c r="E3" s="39"/>
-      <c r="F3" s="39"/>
-      <c r="G3" s="39"/>
-      <c r="H3" s="38" t="s">
+      <c r="D3" s="38"/>
+      <c r="E3" s="38"/>
+      <c r="F3" s="38"/>
+      <c r="G3" s="38"/>
+      <c r="H3" s="37" t="s">
+        <v>29</v>
+      </c>
+      <c r="I3" s="37"/>
+      <c r="J3" s="38" t="s">
         <v>31</v>
       </c>
-      <c r="I3" s="38"/>
-      <c r="J3" s="39" t="s">
-        <v>33</v>
-      </c>
-      <c r="K3" s="39"/>
-      <c r="L3" s="39"/>
-      <c r="M3" s="39"/>
-      <c r="N3" s="39"/>
-      <c r="O3" s="38" t="s">
+      <c r="K3" s="38"/>
+      <c r="L3" s="38"/>
+      <c r="M3" s="38"/>
+      <c r="N3" s="38"/>
+      <c r="O3" s="37" t="s">
+        <v>29</v>
+      </c>
+      <c r="P3" s="37"/>
+      <c r="Q3" s="38" t="s">
         <v>31</v>
       </c>
-      <c r="P3" s="38"/>
-      <c r="Q3" s="39" t="s">
-        <v>33</v>
-      </c>
-      <c r="R3" s="39"/>
-      <c r="S3" s="39"/>
-      <c r="T3" s="39"/>
-      <c r="U3" s="39"/>
-      <c r="V3" s="38" t="s">
+      <c r="R3" s="38"/>
+      <c r="S3" s="38"/>
+      <c r="T3" s="38"/>
+      <c r="U3" s="38"/>
+      <c r="V3" s="37" t="s">
+        <v>29</v>
+      </c>
+      <c r="W3" s="37"/>
+      <c r="X3" s="38" t="s">
         <v>31</v>
       </c>
-      <c r="W3" s="38"/>
-      <c r="X3" s="39" t="s">
-        <v>33</v>
-      </c>
-      <c r="Y3" s="39"/>
-      <c r="Z3" s="39"/>
-      <c r="AA3" s="39"/>
-      <c r="AB3" s="39"/>
+      <c r="Y3" s="38"/>
+      <c r="Z3" s="38"/>
+      <c r="AA3" s="38"/>
+      <c r="AB3" s="38"/>
     </row>
     <row r="4" spans="1:30" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="33" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B4" s="33"/>
       <c r="C4" s="34" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D4" s="34"/>
       <c r="E4" s="34"/>
       <c r="F4" s="34"/>
       <c r="G4" s="34"/>
       <c r="H4" s="33" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="I4" s="33"/>
       <c r="J4" s="34" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="K4" s="34"/>
       <c r="L4" s="34"/>
       <c r="M4" s="34"/>
       <c r="N4" s="34"/>
       <c r="O4" s="35" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="P4" s="35"/>
       <c r="Q4" s="34" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="R4" s="34"/>
       <c r="S4" s="34"/>
       <c r="T4" s="34"/>
       <c r="U4" s="34"/>
       <c r="V4" s="35" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="W4" s="35"/>
       <c r="X4" s="34" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="Y4" s="34"/>
       <c r="Z4" s="34"/>
@@ -5232,44 +5055,44 @@
     </row>
     <row r="5" spans="1:30" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="33" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B5" s="33"/>
       <c r="C5" s="34" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="D5" s="34"/>
       <c r="E5" s="34"/>
       <c r="F5" s="34"/>
       <c r="G5" s="34"/>
       <c r="H5" s="33" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="I5" s="33"/>
       <c r="J5" s="34" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="K5" s="34"/>
       <c r="L5" s="34"/>
       <c r="M5" s="34"/>
       <c r="N5" s="34"/>
       <c r="O5" s="35" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="P5" s="35"/>
       <c r="Q5" s="34" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="R5" s="34"/>
       <c r="S5" s="34"/>
       <c r="T5" s="34"/>
       <c r="U5" s="34"/>
       <c r="V5" s="35" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="W5" s="35"/>
       <c r="X5" s="34" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="Y5" s="34"/>
       <c r="Z5" s="34"/>
@@ -5278,44 +5101,44 @@
     </row>
     <row r="6" spans="1:30" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="33" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B6" s="33"/>
       <c r="C6" s="34" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D6" s="34"/>
       <c r="E6" s="34"/>
       <c r="F6" s="34"/>
       <c r="G6" s="34"/>
       <c r="H6" s="33" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="I6" s="33"/>
       <c r="J6" s="34" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K6" s="34"/>
       <c r="L6" s="34"/>
       <c r="M6" s="34"/>
       <c r="N6" s="34"/>
       <c r="O6" s="35" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="P6" s="35"/>
       <c r="Q6" s="34" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="R6" s="34"/>
       <c r="S6" s="34"/>
       <c r="T6" s="34"/>
       <c r="U6" s="34"/>
       <c r="V6" s="35" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="W6" s="35"/>
       <c r="X6" s="34" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="Y6" s="34"/>
       <c r="Z6" s="34"/>
@@ -5324,44 +5147,44 @@
     </row>
     <row r="7" spans="1:30" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="33" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B7" s="33"/>
       <c r="C7" s="34" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D7" s="34"/>
       <c r="E7" s="34"/>
       <c r="F7" s="34"/>
       <c r="G7" s="34"/>
       <c r="H7" s="33" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="I7" s="33"/>
       <c r="J7" s="34" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="K7" s="34"/>
       <c r="L7" s="34"/>
       <c r="M7" s="34"/>
       <c r="N7" s="34"/>
       <c r="O7" s="35" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="P7" s="35"/>
       <c r="Q7" s="34" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="R7" s="34"/>
       <c r="S7" s="34"/>
       <c r="T7" s="34"/>
       <c r="U7" s="34"/>
       <c r="V7" s="35" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="W7" s="35"/>
       <c r="X7" s="34" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="Y7" s="34"/>
       <c r="Z7" s="34"/>
@@ -5370,11 +5193,11 @@
     </row>
     <row r="8" spans="1:30" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="33" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="B8" s="33"/>
       <c r="C8" s="34" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="D8" s="34"/>
       <c r="E8" s="34"/>
@@ -5388,22 +5211,22 @@
       <c r="M8" s="34"/>
       <c r="N8" s="34"/>
       <c r="O8" s="35" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="P8" s="35"/>
       <c r="Q8" s="34" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="R8" s="34"/>
       <c r="S8" s="34"/>
       <c r="T8" s="34"/>
       <c r="U8" s="34"/>
       <c r="V8" s="35" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="W8" s="35"/>
       <c r="X8" s="34" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="Y8" s="34"/>
       <c r="Z8" s="34"/>
@@ -5419,33 +5242,33 @@
       <c r="F9" s="34"/>
       <c r="G9" s="34"/>
       <c r="H9" s="33" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="I9" s="33"/>
       <c r="J9" s="34" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="K9" s="34"/>
       <c r="L9" s="34"/>
       <c r="M9" s="34"/>
       <c r="N9" s="34"/>
       <c r="O9" s="35" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="P9" s="35"/>
       <c r="Q9" s="34" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="R9" s="34"/>
       <c r="S9" s="34"/>
       <c r="T9" s="34"/>
       <c r="U9" s="34"/>
       <c r="V9" s="35" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="W9" s="35"/>
       <c r="X9" s="34" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="Y9" s="34"/>
       <c r="Z9" s="34"/>
@@ -5454,11 +5277,11 @@
     </row>
     <row r="10" spans="1:30" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="33" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B10" s="33"/>
       <c r="C10" s="34" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D10" s="34"/>
       <c r="E10" s="34"/>
@@ -5472,22 +5295,22 @@
       <c r="M10" s="34"/>
       <c r="N10" s="34"/>
       <c r="O10" s="35" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="P10" s="35"/>
       <c r="Q10" s="34" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="R10" s="34"/>
       <c r="S10" s="34"/>
       <c r="T10" s="34"/>
       <c r="U10" s="34"/>
       <c r="V10" s="35" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="W10" s="35"/>
       <c r="X10" s="34" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="Y10" s="34"/>
       <c r="Z10" s="34"/>
@@ -5496,44 +5319,44 @@
     </row>
     <row r="11" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="33" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="B11" s="33"/>
       <c r="C11" s="34" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="D11" s="34"/>
       <c r="E11" s="34"/>
       <c r="F11" s="34"/>
       <c r="G11" s="34"/>
       <c r="H11" s="33" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="I11" s="33"/>
       <c r="J11" s="34" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="K11" s="34"/>
       <c r="L11" s="34"/>
       <c r="M11" s="34"/>
       <c r="N11" s="34"/>
       <c r="O11" s="35" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="P11" s="35"/>
       <c r="Q11" s="34" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="R11" s="34"/>
       <c r="S11" s="34"/>
       <c r="T11" s="34"/>
       <c r="U11" s="34"/>
       <c r="V11" s="35" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="W11" s="35"/>
       <c r="X11" s="34" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="Y11" s="34"/>
       <c r="Z11" s="34"/>
@@ -5543,17 +5366,17 @@
     <row r="12" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="33"/>
       <c r="B12" s="33"/>
-      <c r="C12" s="36"/>
-      <c r="D12" s="36"/>
-      <c r="E12" s="36"/>
-      <c r="F12" s="36"/>
-      <c r="G12" s="36"/>
+      <c r="C12" s="39"/>
+      <c r="D12" s="39"/>
+      <c r="E12" s="39"/>
+      <c r="F12" s="39"/>
+      <c r="G12" s="39"/>
       <c r="H12" s="33" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="I12" s="33"/>
       <c r="J12" s="34" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="K12" s="34"/>
       <c r="L12" s="34"/>
@@ -5576,44 +5399,44 @@
     </row>
     <row r="13" spans="1:30" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="33" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="B13" s="33"/>
-      <c r="C13" s="36" t="s">
-        <v>234</v>
-      </c>
-      <c r="D13" s="36"/>
-      <c r="E13" s="36"/>
-      <c r="F13" s="36"/>
-      <c r="G13" s="36"/>
+      <c r="C13" s="39" t="s">
+        <v>231</v>
+      </c>
+      <c r="D13" s="39"/>
+      <c r="E13" s="39"/>
+      <c r="F13" s="39"/>
+      <c r="G13" s="39"/>
       <c r="H13" s="33" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="I13" s="33"/>
       <c r="J13" s="34" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="K13" s="34"/>
       <c r="L13" s="34"/>
       <c r="M13" s="34"/>
       <c r="N13" s="34"/>
       <c r="O13" s="35" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="P13" s="35"/>
       <c r="Q13" s="34" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="R13" s="34"/>
       <c r="S13" s="34"/>
       <c r="T13" s="34"/>
       <c r="U13" s="34"/>
       <c r="V13" s="33" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="W13" s="33"/>
       <c r="X13" s="34" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="Y13" s="34"/>
       <c r="Z13" s="34"/>
@@ -5622,16 +5445,16 @@
     </row>
     <row r="14" spans="1:30" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="33" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="B14" s="33"/>
-      <c r="C14" s="36" t="s">
-        <v>238</v>
-      </c>
-      <c r="D14" s="36"/>
-      <c r="E14" s="36"/>
-      <c r="F14" s="36"/>
-      <c r="G14" s="36"/>
+      <c r="C14" s="39" t="s">
+        <v>235</v>
+      </c>
+      <c r="D14" s="39"/>
+      <c r="E14" s="39"/>
+      <c r="F14" s="39"/>
+      <c r="G14" s="39"/>
       <c r="H14" s="33"/>
       <c r="I14" s="33"/>
       <c r="J14" s="34"/>
@@ -5656,11 +5479,11 @@
     </row>
     <row r="15" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A15" s="33" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="B15" s="33"/>
-      <c r="C15" s="36" t="s">
-        <v>241</v>
+      <c r="C15" s="39" t="s">
+        <v>238</v>
       </c>
       <c r="D15" s="34"/>
       <c r="E15" s="34"/>
@@ -5690,7 +5513,7 @@
     </row>
     <row r="16" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A16" s="33" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="B16" s="33"/>
       <c r="C16" s="34"/>
@@ -6178,77 +6001,143 @@
     </row>
   </sheetData>
   <mergeCells count="236">
-    <mergeCell ref="J8:N8"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:G4"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="J4:N4"/>
-    <mergeCell ref="V4:W4"/>
-    <mergeCell ref="X4:AB4"/>
-    <mergeCell ref="A1:G2"/>
-    <mergeCell ref="H1:N2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:G3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="V1:AB2"/>
-    <mergeCell ref="V3:W3"/>
-    <mergeCell ref="J3:N3"/>
-    <mergeCell ref="X3:AB3"/>
-    <mergeCell ref="O1:U2"/>
-    <mergeCell ref="O3:P3"/>
-    <mergeCell ref="Q3:U3"/>
-    <mergeCell ref="O4:P4"/>
-    <mergeCell ref="Q4:U4"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="J5:N5"/>
-    <mergeCell ref="V6:W6"/>
-    <mergeCell ref="X6:AB6"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:G5"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="J17:N17"/>
-    <mergeCell ref="V5:W5"/>
-    <mergeCell ref="X5:AB5"/>
-    <mergeCell ref="O5:P5"/>
-    <mergeCell ref="Q5:U5"/>
-    <mergeCell ref="O6:P6"/>
-    <mergeCell ref="Q6:U6"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="C8:G8"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="J6:N6"/>
-    <mergeCell ref="V8:W8"/>
-    <mergeCell ref="X8:AB8"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="J7:N7"/>
-    <mergeCell ref="V7:W7"/>
-    <mergeCell ref="X7:AB7"/>
-    <mergeCell ref="O7:P7"/>
-    <mergeCell ref="Q7:U7"/>
-    <mergeCell ref="Q8:U8"/>
-    <mergeCell ref="O8:P8"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="C10:G10"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="J10:N10"/>
-    <mergeCell ref="V10:W10"/>
-    <mergeCell ref="X10:AB10"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="C9:G9"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="J9:N9"/>
-    <mergeCell ref="V9:W9"/>
-    <mergeCell ref="X9:AB9"/>
-    <mergeCell ref="O9:P9"/>
-    <mergeCell ref="Q9:U9"/>
-    <mergeCell ref="O10:P10"/>
-    <mergeCell ref="Q10:U10"/>
-    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="C34:G34"/>
+    <mergeCell ref="H34:I34"/>
+    <mergeCell ref="J34:N34"/>
+    <mergeCell ref="O34:P34"/>
+    <mergeCell ref="Q34:U34"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="C33:G33"/>
+    <mergeCell ref="H33:I33"/>
+    <mergeCell ref="J33:N33"/>
+    <mergeCell ref="O33:P33"/>
+    <mergeCell ref="Q33:U33"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="C32:G32"/>
+    <mergeCell ref="H32:I32"/>
+    <mergeCell ref="J32:N32"/>
+    <mergeCell ref="O32:P32"/>
+    <mergeCell ref="Q32:U32"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="C31:G31"/>
+    <mergeCell ref="H31:I31"/>
+    <mergeCell ref="J31:N31"/>
+    <mergeCell ref="O31:P31"/>
+    <mergeCell ref="Q31:U31"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="C30:G30"/>
+    <mergeCell ref="H30:I30"/>
+    <mergeCell ref="J30:N30"/>
+    <mergeCell ref="O30:P30"/>
+    <mergeCell ref="Q30:U30"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="C29:G29"/>
+    <mergeCell ref="H29:I29"/>
+    <mergeCell ref="J29:N29"/>
+    <mergeCell ref="O29:P29"/>
+    <mergeCell ref="Q29:U29"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="C28:G28"/>
+    <mergeCell ref="H28:I28"/>
+    <mergeCell ref="J28:N28"/>
+    <mergeCell ref="O28:P28"/>
+    <mergeCell ref="Q28:U28"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="C27:G27"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="J27:N27"/>
+    <mergeCell ref="O27:P27"/>
+    <mergeCell ref="Q27:U27"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="C26:G26"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="J26:N26"/>
+    <mergeCell ref="O26:P26"/>
+    <mergeCell ref="Q26:U26"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="C25:G25"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="J25:N25"/>
+    <mergeCell ref="O25:P25"/>
+    <mergeCell ref="Q25:U25"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="C24:G24"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="J24:N24"/>
+    <mergeCell ref="O24:P24"/>
+    <mergeCell ref="Q24:U24"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="C23:G23"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="J23:N23"/>
+    <mergeCell ref="O23:P23"/>
+    <mergeCell ref="Q23:U23"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="C22:G22"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="J22:N22"/>
+    <mergeCell ref="V22:W22"/>
+    <mergeCell ref="X22:AB22"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="J21:N21"/>
+    <mergeCell ref="V21:W21"/>
+    <mergeCell ref="X21:AB21"/>
+    <mergeCell ref="O21:P21"/>
+    <mergeCell ref="Q21:U21"/>
+    <mergeCell ref="O22:P22"/>
+    <mergeCell ref="Q22:U22"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="J20:N20"/>
+    <mergeCell ref="V20:W20"/>
+    <mergeCell ref="X20:AB20"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="J19:N19"/>
+    <mergeCell ref="V19:W19"/>
+    <mergeCell ref="X19:AB19"/>
+    <mergeCell ref="O19:P19"/>
+    <mergeCell ref="Q19:U19"/>
+    <mergeCell ref="O20:P20"/>
+    <mergeCell ref="Q20:U20"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="J18:N18"/>
+    <mergeCell ref="V18:W18"/>
+    <mergeCell ref="X18:AB18"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C17:G17"/>
+    <mergeCell ref="V17:W17"/>
+    <mergeCell ref="X17:AB17"/>
+    <mergeCell ref="O17:P17"/>
+    <mergeCell ref="Q17:U17"/>
+    <mergeCell ref="O18:P18"/>
+    <mergeCell ref="Q18:U18"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C13:G13"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="J13:N13"/>
+    <mergeCell ref="X13:AB13"/>
+    <mergeCell ref="O14:P14"/>
+    <mergeCell ref="Q14:U14"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:G16"/>
+    <mergeCell ref="V16:W16"/>
+    <mergeCell ref="X16:AB16"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C15:G15"/>
+    <mergeCell ref="V15:W15"/>
+    <mergeCell ref="X15:AB15"/>
+    <mergeCell ref="O15:P15"/>
+    <mergeCell ref="Q15:U15"/>
+    <mergeCell ref="O16:P16"/>
+    <mergeCell ref="Q16:U16"/>
     <mergeCell ref="A12:B12"/>
     <mergeCell ref="C12:G12"/>
     <mergeCell ref="H16:I16"/>
@@ -6273,147 +6162,81 @@
     <mergeCell ref="Q13:U13"/>
     <mergeCell ref="A14:B14"/>
     <mergeCell ref="C14:G14"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C10:G10"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="J10:N10"/>
+    <mergeCell ref="V10:W10"/>
+    <mergeCell ref="X10:AB10"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:G9"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="J9:N9"/>
+    <mergeCell ref="V9:W9"/>
+    <mergeCell ref="X9:AB9"/>
+    <mergeCell ref="O9:P9"/>
+    <mergeCell ref="Q9:U9"/>
+    <mergeCell ref="O10:P10"/>
+    <mergeCell ref="Q10:U10"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="J6:N6"/>
+    <mergeCell ref="V8:W8"/>
+    <mergeCell ref="X8:AB8"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:N7"/>
+    <mergeCell ref="V7:W7"/>
+    <mergeCell ref="X7:AB7"/>
+    <mergeCell ref="O7:P7"/>
+    <mergeCell ref="Q7:U7"/>
+    <mergeCell ref="Q8:U8"/>
+    <mergeCell ref="O8:P8"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="J8:N8"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="J17:N17"/>
+    <mergeCell ref="V5:W5"/>
+    <mergeCell ref="X5:AB5"/>
+    <mergeCell ref="O5:P5"/>
+    <mergeCell ref="Q5:U5"/>
+    <mergeCell ref="O6:P6"/>
+    <mergeCell ref="Q6:U6"/>
+    <mergeCell ref="H14:I14"/>
     <mergeCell ref="V13:W13"/>
     <mergeCell ref="J14:N14"/>
     <mergeCell ref="V14:W14"/>
     <mergeCell ref="X14:AB14"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="C13:G13"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="J13:N13"/>
-    <mergeCell ref="X13:AB13"/>
-    <mergeCell ref="O14:P14"/>
-    <mergeCell ref="Q14:U14"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="C16:G16"/>
-    <mergeCell ref="V16:W16"/>
-    <mergeCell ref="X16:AB16"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="C15:G15"/>
-    <mergeCell ref="V15:W15"/>
-    <mergeCell ref="X15:AB15"/>
-    <mergeCell ref="O15:P15"/>
-    <mergeCell ref="Q15:U15"/>
-    <mergeCell ref="O16:P16"/>
-    <mergeCell ref="Q16:U16"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C18:G18"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="J18:N18"/>
-    <mergeCell ref="V18:W18"/>
-    <mergeCell ref="X18:AB18"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="C17:G17"/>
-    <mergeCell ref="V17:W17"/>
-    <mergeCell ref="X17:AB17"/>
-    <mergeCell ref="O17:P17"/>
-    <mergeCell ref="Q17:U17"/>
-    <mergeCell ref="O18:P18"/>
-    <mergeCell ref="Q18:U18"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="C20:G20"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="J20:N20"/>
-    <mergeCell ref="V20:W20"/>
-    <mergeCell ref="X20:AB20"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="C19:G19"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="J19:N19"/>
-    <mergeCell ref="V19:W19"/>
-    <mergeCell ref="X19:AB19"/>
-    <mergeCell ref="O19:P19"/>
-    <mergeCell ref="Q19:U19"/>
-    <mergeCell ref="O20:P20"/>
-    <mergeCell ref="Q20:U20"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="C22:G22"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="J22:N22"/>
-    <mergeCell ref="V22:W22"/>
-    <mergeCell ref="X22:AB22"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="C21:G21"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="J21:N21"/>
-    <mergeCell ref="V21:W21"/>
-    <mergeCell ref="X21:AB21"/>
-    <mergeCell ref="O21:P21"/>
-    <mergeCell ref="Q21:U21"/>
-    <mergeCell ref="O22:P22"/>
-    <mergeCell ref="Q22:U22"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="C24:G24"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="J24:N24"/>
-    <mergeCell ref="O24:P24"/>
-    <mergeCell ref="Q24:U24"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="C23:G23"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="J23:N23"/>
-    <mergeCell ref="O23:P23"/>
-    <mergeCell ref="Q23:U23"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="C26:G26"/>
-    <mergeCell ref="H26:I26"/>
-    <mergeCell ref="J26:N26"/>
-    <mergeCell ref="O26:P26"/>
-    <mergeCell ref="Q26:U26"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="C25:G25"/>
-    <mergeCell ref="H25:I25"/>
-    <mergeCell ref="J25:N25"/>
-    <mergeCell ref="O25:P25"/>
-    <mergeCell ref="Q25:U25"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="C28:G28"/>
-    <mergeCell ref="H28:I28"/>
-    <mergeCell ref="J28:N28"/>
-    <mergeCell ref="O28:P28"/>
-    <mergeCell ref="Q28:U28"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="C27:G27"/>
-    <mergeCell ref="H27:I27"/>
-    <mergeCell ref="J27:N27"/>
-    <mergeCell ref="O27:P27"/>
-    <mergeCell ref="Q27:U27"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="C30:G30"/>
-    <mergeCell ref="H30:I30"/>
-    <mergeCell ref="J30:N30"/>
-    <mergeCell ref="O30:P30"/>
-    <mergeCell ref="Q30:U30"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="C29:G29"/>
-    <mergeCell ref="H29:I29"/>
-    <mergeCell ref="J29:N29"/>
-    <mergeCell ref="O29:P29"/>
-    <mergeCell ref="Q29:U29"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="C32:G32"/>
-    <mergeCell ref="H32:I32"/>
-    <mergeCell ref="J32:N32"/>
-    <mergeCell ref="O32:P32"/>
-    <mergeCell ref="Q32:U32"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="C31:G31"/>
-    <mergeCell ref="H31:I31"/>
-    <mergeCell ref="J31:N31"/>
-    <mergeCell ref="O31:P31"/>
-    <mergeCell ref="Q31:U31"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="C34:G34"/>
-    <mergeCell ref="H34:I34"/>
-    <mergeCell ref="J34:N34"/>
-    <mergeCell ref="O34:P34"/>
-    <mergeCell ref="Q34:U34"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="C33:G33"/>
-    <mergeCell ref="H33:I33"/>
-    <mergeCell ref="J33:N33"/>
-    <mergeCell ref="O33:P33"/>
-    <mergeCell ref="Q33:U33"/>
+    <mergeCell ref="A1:G2"/>
+    <mergeCell ref="H1:N2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:G3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="V1:AB2"/>
+    <mergeCell ref="V3:W3"/>
+    <mergeCell ref="J3:N3"/>
+    <mergeCell ref="X3:AB3"/>
+    <mergeCell ref="O1:U2"/>
+    <mergeCell ref="O3:P3"/>
+    <mergeCell ref="Q3:U3"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="J4:N4"/>
+    <mergeCell ref="V4:W4"/>
+    <mergeCell ref="X4:AB4"/>
+    <mergeCell ref="O4:P4"/>
+    <mergeCell ref="Q4:U4"/>
+    <mergeCell ref="J5:N5"/>
+    <mergeCell ref="V6:W6"/>
+    <mergeCell ref="X6:AB6"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:G5"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C15" r:id="rId1" xr:uid="{868F8F85-B252-4B04-B081-E9B23AD46A23}"/>
@@ -6425,7 +6248,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1908B5E3-0D9D-48A8-894B-90B53E0249A0}">
   <dimension ref="A1:I26"/>
   <sheetViews>
@@ -6447,7 +6270,7 @@
   <sheetData>
     <row r="1" spans="1:9" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A1" s="41" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="B1" s="41"/>
       <c r="C1" s="41"/>
@@ -6459,19 +6282,19 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="22" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="C2" s="15" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="D2" s="22" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="E2" s="34" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="F2" s="34"/>
       <c r="G2" s="34"/>
@@ -6479,19 +6302,19 @@
     </row>
     <row r="3" spans="1:9" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="C3" s="21">
         <v>1</v>
       </c>
       <c r="D3" s="14" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="E3" s="40" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="F3" s="40"/>
       <c r="G3" s="40"/>
@@ -6499,16 +6322,16 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="C4" s="21">
         <v>2</v>
       </c>
       <c r="D4" s="14" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="E4" s="40"/>
       <c r="F4" s="40"/>
@@ -6535,19 +6358,19 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="14" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="C8" s="21">
         <v>2</v>
       </c>
       <c r="D8" s="14" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="E8" s="40" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="F8" s="40"/>
       <c r="G8" s="40"/>
@@ -6555,19 +6378,19 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="C9" s="21">
         <v>1</v>
       </c>
       <c r="D9" s="14" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="E9" s="40" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="F9" s="40"/>
       <c r="G9" s="40"/>
@@ -6575,7 +6398,7 @@
     </row>
     <row r="10" spans="1:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="14" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="B10" s="14" t="s">
         <v>14</v>
@@ -6584,33 +6407,33 @@
         <v>2</v>
       </c>
       <c r="D10" s="14" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="E10" s="40" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="F10" s="40"/>
       <c r="G10" s="40"/>
       <c r="H10" s="40"/>
       <c r="I10" s="14" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="14" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="C11" s="21">
         <v>2</v>
       </c>
       <c r="D11" s="14" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="E11" s="40" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="F11" s="40"/>
       <c r="G11" s="40"/>
@@ -6618,19 +6441,19 @@
     </row>
     <row r="12" spans="1:9" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="14" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="C12" s="21">
         <v>3</v>
       </c>
       <c r="D12" s="14" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="E12" s="40" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="F12" s="40"/>
       <c r="G12" s="40"/>
@@ -6638,7 +6461,7 @@
     </row>
     <row r="13" spans="1:9" ht="79.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="14" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="B13" s="14" t="s">
         <v>14</v>
@@ -6647,10 +6470,10 @@
         <v>4</v>
       </c>
       <c r="D13" s="14" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="E13" s="40" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="F13" s="40"/>
       <c r="G13" s="40"/>
@@ -6658,19 +6481,19 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="14" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="B14" s="14" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="C14" s="21">
         <v>1</v>
       </c>
       <c r="D14" s="14" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="E14" s="40" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="F14" s="40"/>
       <c r="G14" s="40"/>
@@ -6750,12 +6573,14 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="E6:H6"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="E2:H2"/>
-    <mergeCell ref="E3:H3"/>
-    <mergeCell ref="E4:H4"/>
-    <mergeCell ref="E5:H5"/>
+    <mergeCell ref="E25:H25"/>
+    <mergeCell ref="E26:H26"/>
+    <mergeCell ref="E19:H19"/>
+    <mergeCell ref="E20:H20"/>
+    <mergeCell ref="E21:H21"/>
+    <mergeCell ref="E22:H22"/>
+    <mergeCell ref="E23:H23"/>
+    <mergeCell ref="E24:H24"/>
     <mergeCell ref="E18:H18"/>
     <mergeCell ref="E7:H7"/>
     <mergeCell ref="E8:H8"/>
@@ -6768,20 +6593,18 @@
     <mergeCell ref="E15:H15"/>
     <mergeCell ref="E16:H16"/>
     <mergeCell ref="E17:H17"/>
-    <mergeCell ref="E25:H25"/>
-    <mergeCell ref="E26:H26"/>
-    <mergeCell ref="E19:H19"/>
-    <mergeCell ref="E20:H20"/>
-    <mergeCell ref="E21:H21"/>
-    <mergeCell ref="E22:H22"/>
-    <mergeCell ref="E23:H23"/>
-    <mergeCell ref="E24:H24"/>
+    <mergeCell ref="E6:H6"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="E2:H2"/>
+    <mergeCell ref="E3:H3"/>
+    <mergeCell ref="E4:H4"/>
+    <mergeCell ref="E5:H5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DD47BAA-02B8-4E56-868D-4BC0DFE6F64A}">
   <dimension ref="A1:J30"/>
   <sheetViews>
@@ -6806,7 +6629,7 @@
   <sheetData>
     <row r="1" spans="1:10" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A1" s="43" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="B1" s="43"/>
       <c r="C1" s="43"/>
@@ -6817,99 +6640,99 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="20" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B2" s="20" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="C2" s="20" t="s">
+        <v>242</v>
+      </c>
+      <c r="D2" s="44" t="s">
         <v>245</v>
-      </c>
-      <c r="D2" s="44" t="s">
-        <v>248</v>
       </c>
       <c r="E2" s="44"/>
       <c r="F2" s="44"/>
       <c r="G2" s="44"/>
       <c r="I2" s="23" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="D3" s="42" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="E3" s="42"/>
       <c r="F3" s="42"/>
       <c r="G3" s="42"/>
       <c r="I3" s="5" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="B4" s="5" t="s">
         <v>277</v>
       </c>
-      <c r="B4" s="5" t="s">
-        <v>280</v>
-      </c>
       <c r="C4" s="5" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="D4" s="42" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="E4" s="42"/>
       <c r="F4" s="42"/>
       <c r="G4" s="42"/>
       <c r="J4" s="5" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="D5" s="42" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="E5" s="42"/>
       <c r="F5" s="42"/>
       <c r="G5" s="42"/>
       <c r="J5" s="5" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="D6" s="42" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="E6" s="42"/>
       <c r="F6" s="42"/>
@@ -6917,48 +6740,48 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="D8" s="42"/>
       <c r="E8" s="42"/>
       <c r="F8" s="42"/>
       <c r="G8" s="42"/>
       <c r="I8" s="5" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="J8" s="5" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="D9" s="42" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="E9" s="42"/>
       <c r="F9" s="42"/>
       <c r="G9" s="42"/>
       <c r="J9" s="5" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
@@ -6975,39 +6798,39 @@
     </row>
     <row r="12" spans="1:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
+        <v>279</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>280</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>281</v>
+      </c>
+      <c r="D12" s="42" t="s">
         <v>282</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>283</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>284</v>
-      </c>
-      <c r="D12" s="42" t="s">
-        <v>285</v>
       </c>
       <c r="E12" s="42"/>
       <c r="F12" s="42"/>
       <c r="G12" s="42"/>
       <c r="I12" s="5" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="J12" s="14" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="D13" s="42" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="E13" s="42"/>
       <c r="F13" s="42"/>
@@ -7015,16 +6838,16 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
+        <v>313</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>314</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>315</v>
+      </c>
+      <c r="D14" s="42" t="s">
         <v>316</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>317</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>318</v>
-      </c>
-      <c r="D14" s="42" t="s">
-        <v>319</v>
       </c>
       <c r="E14" s="42"/>
       <c r="F14" s="42"/>
@@ -7044,16 +6867,16 @@
     </row>
     <row r="17" spans="1:7" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="B17" s="5" t="s">
+        <v>293</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>294</v>
+      </c>
+      <c r="D17" s="40" t="s">
         <v>296</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>297</v>
-      </c>
-      <c r="D17" s="40" t="s">
-        <v>299</v>
       </c>
       <c r="E17" s="40"/>
       <c r="F17" s="40"/>
@@ -7139,23 +6962,6 @@
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="D4:G4"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="D2:G2"/>
-    <mergeCell ref="D3:G3"/>
-    <mergeCell ref="D6:G6"/>
-    <mergeCell ref="D5:G5"/>
-    <mergeCell ref="D18:G18"/>
-    <mergeCell ref="D8:G8"/>
-    <mergeCell ref="D9:G9"/>
-    <mergeCell ref="D10:G10"/>
-    <mergeCell ref="D11:G11"/>
-    <mergeCell ref="D12:G12"/>
-    <mergeCell ref="D13:G13"/>
-    <mergeCell ref="D14:G14"/>
-    <mergeCell ref="D15:G15"/>
-    <mergeCell ref="D16:G16"/>
-    <mergeCell ref="D17:G17"/>
     <mergeCell ref="D30:G30"/>
     <mergeCell ref="D19:G19"/>
     <mergeCell ref="D20:G20"/>
@@ -7168,6 +6974,23 @@
     <mergeCell ref="D27:G27"/>
     <mergeCell ref="D28:G28"/>
     <mergeCell ref="D29:G29"/>
+    <mergeCell ref="D18:G18"/>
+    <mergeCell ref="D8:G8"/>
+    <mergeCell ref="D9:G9"/>
+    <mergeCell ref="D10:G10"/>
+    <mergeCell ref="D11:G11"/>
+    <mergeCell ref="D12:G12"/>
+    <mergeCell ref="D13:G13"/>
+    <mergeCell ref="D14:G14"/>
+    <mergeCell ref="D15:G15"/>
+    <mergeCell ref="D16:G16"/>
+    <mergeCell ref="D17:G17"/>
+    <mergeCell ref="D4:G4"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="D3:G3"/>
+    <mergeCell ref="D6:G6"/>
+    <mergeCell ref="D5:G5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/plans/todo.xlsx
+++ b/plans/todo.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Edsquid\Documents\Personal Projects\Business\RogueLikeGame\plans\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26C799F5-38A7-4EE5-9CC5-A6AC714F2703}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AC723A1-5BAF-4D6A-A30D-FFB92BC5E71C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14985" yWindow="795" windowWidth="13470" windowHeight="13740" xr2:uid="{BA1E511D-BF64-4842-98DF-72E30276ED1C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="509" activeTab="3" xr2:uid="{BA1E511D-BF64-4842-98DF-72E30276ED1C}"/>
   </bookViews>
   <sheets>
     <sheet name="Attributes" sheetId="3" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="481" uniqueCount="361">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="482" uniqueCount="363">
   <si>
     <t>Max Lives</t>
   </si>
@@ -196,9 +196,6 @@
     <t>projectile functionality</t>
   </si>
   <si>
-    <t>teleport behind closest enemy to cursor</t>
-  </si>
-  <si>
     <t>melee weapons</t>
   </si>
   <si>
@@ -433,18 +430,12 @@
     <t>Sentry - fireball</t>
   </si>
   <si>
-    <t xml:space="preserve">Sentry - drop heal drops </t>
-  </si>
-  <si>
     <t>Sentry - grab items (xp, health drops)</t>
   </si>
   <si>
     <t>tesla tower</t>
   </si>
   <si>
-    <t>Randomly place item drops on the screen</t>
-  </si>
-  <si>
     <t>grab random items on the screen</t>
   </si>
   <si>
@@ -1015,9 +1006,6 @@
     <t>Hexwood maim</t>
   </si>
   <si>
-    <t xml:space="preserve">Form a hand </t>
-  </si>
-  <si>
     <t>Electrastream</t>
   </si>
   <si>
@@ -1124,6 +1112,24 @@
   </si>
   <si>
     <t>Roll the dice champ. "+25% crit chance, +25% crit damage, -50% base damage"</t>
+  </si>
+  <si>
+    <t>marked</t>
+  </si>
+  <si>
+    <t>Mirror attack from behind</t>
+  </si>
+  <si>
+    <t>Ghost (walk through enemies)</t>
+  </si>
+  <si>
+    <t>on hit touch damage by enemy, spawn thorns  (physical, cause bleed)</t>
+  </si>
+  <si>
+    <t>teleport behind closest enemy to cursor, then slash (crit)</t>
+  </si>
+  <si>
+    <t>Form a hand to swipe @ enemy</t>
   </si>
 </sst>
 </file>
@@ -1485,6 +1491,9 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1493,9 +1502,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -1827,10 +1833,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11CE061F-AFA4-4B9D-BFD1-A05915568E6D}">
-  <dimension ref="A1:H338"/>
+  <dimension ref="A1:H355"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A139" workbookViewId="0">
-      <selection activeCell="A150" sqref="A150"/>
+    <sheetView topLeftCell="A65" workbookViewId="0">
+      <selection activeCell="A136" sqref="A136"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1848,7 +1854,7 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="28" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B1" s="29"/>
       <c r="C1" s="29"/>
@@ -1857,7 +1863,7 @@
       <c r="F1" s="29"/>
       <c r="G1" s="29"/>
       <c r="H1" s="9" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -1869,36 +1875,36 @@
       <c r="F2" s="31"/>
       <c r="G2" s="31"/>
       <c r="H2" s="11" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="C3" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="D3" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="F3" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="D3" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>68</v>
-      </c>
       <c r="G3" s="7" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="H3" s="8"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="24" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="B4" s="24"/>
       <c r="C4" s="24"/>
@@ -1910,16 +1916,16 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="16" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E5" s="2">
         <v>0.05</v>
@@ -1931,16 +1937,16 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="16" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E6" s="2">
         <v>0.05</v>
@@ -1955,13 +1961,13 @@
         <v>1</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E7" s="2">
         <v>0.05</v>
@@ -1976,13 +1982,13 @@
         <v>2</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E8" s="2">
         <v>0.05</v>
@@ -1997,13 +2003,13 @@
         <v>3</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E9" s="2">
         <v>0.05</v>
@@ -2018,13 +2024,13 @@
         <v>4</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E10" s="2">
         <v>0.05</v>
@@ -2039,13 +2045,13 @@
         <v>5</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E11" s="2">
         <v>0.05</v>
@@ -2060,13 +2066,13 @@
         <v>6</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E12" s="2">
         <v>0.05</v>
@@ -2081,13 +2087,13 @@
         <v>7</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E13" s="2">
         <v>0.05</v>
@@ -2102,13 +2108,13 @@
         <v>8</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E14" s="2">
         <v>0.05</v>
@@ -2123,13 +2129,13 @@
         <v>9</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E15" s="2">
         <v>0.05</v>
@@ -2144,13 +2150,13 @@
         <v>10</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E16" s="2">
         <v>0.05</v>
@@ -2165,13 +2171,13 @@
         <v>12</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E17" s="2">
         <v>0.05</v>
@@ -2186,13 +2192,13 @@
         <v>22</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E18" s="2">
         <v>0.05</v>
@@ -2207,13 +2213,13 @@
         <v>23</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E19" s="2">
         <v>0.05</v>
@@ -2225,16 +2231,16 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="16" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E20" s="2">
         <v>0.05</v>
@@ -2246,16 +2252,16 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="16" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E21" s="2">
         <v>0.05</v>
@@ -2267,16 +2273,16 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="16" t="s">
+        <v>102</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C22" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="B22" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>104</v>
-      </c>
       <c r="D22" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E22" s="2">
         <v>0.01</v>
@@ -2288,16 +2294,16 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="16" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E23" s="2">
         <v>0.05</v>
@@ -2309,16 +2315,16 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="16" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E24" s="2">
         <v>0.05</v>
@@ -2330,16 +2336,16 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="16" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E25" s="2">
         <v>0.05</v>
@@ -2354,13 +2360,13 @@
         <v>0</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E26" s="2">
         <v>1</v>
@@ -2372,7 +2378,7 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="16" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="G27" s="2"/>
     </row>
@@ -2393,22 +2399,22 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="B33" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="B33" s="4" t="s">
+      <c r="C33" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="C33" s="4" t="s">
+      <c r="D33" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="E33" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="F33" s="4" t="s">
         <v>67</v>
-      </c>
-      <c r="D33" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="E33" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="F33" s="4" t="s">
-        <v>68</v>
       </c>
       <c r="G33" s="4"/>
     </row>
@@ -2425,16 +2431,16 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B35" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="B35" s="1" t="s">
+      <c r="C35" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="C35" s="2" t="s">
-        <v>108</v>
-      </c>
       <c r="D35" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F35" s="1">
         <v>10</v>
@@ -2443,16 +2449,16 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F36" s="1">
         <v>10</v>
@@ -2464,13 +2470,13 @@
         <v>15</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F37" s="1">
         <v>10</v>
@@ -2482,13 +2488,13 @@
         <v>16</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F38" s="1">
         <v>1</v>
@@ -2500,13 +2506,13 @@
         <v>17</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F39" s="1">
         <v>5</v>
@@ -2515,13 +2521,13 @@
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="F40" s="1">
         <v>10</v>
@@ -2529,6 +2535,9 @@
       <c r="G40" s="2"/>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41" s="2" t="s">
+        <v>357</v>
+      </c>
       <c r="G41" s="2"/>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
@@ -2536,28 +2545,28 @@
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="B43" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="B43" s="4" t="s">
+      <c r="C43" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="C43" s="4" t="s">
+      <c r="D43" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="E43" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="F43" s="4" t="s">
         <v>67</v>
-      </c>
-      <c r="D43" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="E43" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="F43" s="4" t="s">
-        <v>68</v>
       </c>
       <c r="G43" s="4"/>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="27" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="B44" s="27"/>
       <c r="C44" s="27"/>
@@ -2567,17 +2576,17 @@
       <c r="G44" s="27"/>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A45" s="2" t="s">
-        <v>339</v>
+      <c r="A45" s="16" t="s">
+        <v>335</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C45" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="D45" s="1" t="s">
         <v>117</v>
-      </c>
-      <c r="D45" s="1" t="s">
-        <v>118</v>
       </c>
       <c r="F45" s="1">
         <v>5</v>
@@ -2588,14 +2597,14 @@
       <c r="G46" s="2"/>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A47" s="2" t="s">
-        <v>355</v>
+      <c r="A47" s="16" t="s">
+        <v>351</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F47" s="1">
         <v>5</v>
@@ -2603,17 +2612,17 @@
       <c r="G47" s="2"/>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A48" s="2" t="s">
-        <v>173</v>
+      <c r="A48" s="16" t="s">
+        <v>170</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="F48" s="1">
         <v>5</v>
@@ -2627,14 +2636,14 @@
       <c r="G49" s="2"/>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A50" s="2" t="s">
-        <v>120</v>
+      <c r="A50" s="16" t="s">
+        <v>119</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F50" s="1">
         <v>5</v>
@@ -2646,7 +2655,7 @@
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="12" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="F52" s="1">
         <v>5</v>
@@ -2654,44 +2663,44 @@
       <c r="G52" s="2"/>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A54" s="2" t="s">
+      <c r="A54" s="16" t="s">
+        <v>122</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="F54" s="1">
+        <v>5</v>
+      </c>
+      <c r="G54" s="2"/>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A55" s="16" t="s">
         <v>123</v>
       </c>
-      <c r="B54" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="C54" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="F54" s="1">
-        <v>5</v>
-      </c>
-      <c r="G54" s="2"/>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A55" s="2" t="s">
+      <c r="B55" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="F55" s="1">
+        <v>5</v>
+      </c>
+      <c r="G55" s="2"/>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A56" s="16" t="s">
         <v>124</v>
       </c>
-      <c r="B55" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="C55" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="F55" s="1">
-        <v>5</v>
-      </c>
-      <c r="G55" s="2"/>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A56" s="2" t="s">
+      <c r="B56" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C56" s="2" t="s">
         <v>125</v>
-      </c>
-      <c r="B56" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="C56" s="2" t="s">
-        <v>126</v>
       </c>
       <c r="F56" s="1">
         <v>5</v>
@@ -2700,7 +2709,7 @@
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="12" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
@@ -2710,11 +2719,11 @@
       <c r="G58" s="2"/>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A59" s="2" t="s">
-        <v>343</v>
+      <c r="A59" s="16" t="s">
+        <v>339</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F59" s="1">
         <v>5</v>
@@ -2731,14 +2740,14 @@
       <c r="G64" s="2"/>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A65" s="2" t="s">
-        <v>127</v>
+      <c r="A65" s="16" t="s">
+        <v>126</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="F65" s="1">
         <v>5</v>
@@ -2747,10 +2756,10 @@
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F66" s="1">
         <v>5</v>
@@ -2759,13 +2768,13 @@
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F67" s="1">
         <v>5</v>
@@ -2773,29 +2782,20 @@
       <c r="G67" s="2"/>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A68" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="B68" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="C68" s="2" t="s">
-        <v>133</v>
-      </c>
       <c r="F68" s="1">
         <v>5</v>
       </c>
       <c r="G68" s="2"/>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A69" s="2" t="s">
+      <c r="A69" s="16" t="s">
+        <v>129</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C69" s="2" t="s">
         <v>131</v>
-      </c>
-      <c r="B69" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="C69" s="2" t="s">
-        <v>134</v>
       </c>
       <c r="F69" s="1">
         <v>5</v>
@@ -2804,7 +2804,7 @@
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" s="12" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="G70" s="2"/>
     </row>
@@ -2818,8 +2818,8 @@
       <c r="G72" s="2"/>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A73" s="2" t="s">
-        <v>143</v>
+      <c r="A73" s="16" t="s">
+        <v>140</v>
       </c>
       <c r="F73" s="1">
         <v>5</v>
@@ -2827,11 +2827,11 @@
       <c r="G73" s="2"/>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A74" s="2" t="s">
-        <v>344</v>
+      <c r="A74" s="16" t="s">
+        <v>340</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F74" s="1">
         <v>5</v>
@@ -2839,11 +2839,11 @@
       <c r="G74" s="2"/>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A75" s="2" t="s">
-        <v>144</v>
+      <c r="A75" s="16" t="s">
+        <v>141</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F75" s="1">
         <v>5</v>
@@ -2864,10 +2864,10 @@
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F78" s="1">
         <v>5</v>
@@ -2876,7 +2876,7 @@
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" s="12" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="F79" s="1">
         <v>5</v>
@@ -2890,11 +2890,11 @@
       <c r="G80" s="2"/>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A81" s="2" t="s">
-        <v>346</v>
+      <c r="A81" s="16" t="s">
+        <v>342</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F81" s="1">
         <v>5</v>
@@ -2902,11 +2902,11 @@
       <c r="G81" s="2"/>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A82" s="2" t="s">
-        <v>136</v>
+      <c r="A82" s="16" t="s">
+        <v>133</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F82" s="1">
         <v>5</v>
@@ -2923,11 +2923,11 @@
       <c r="G84" s="2"/>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A85" s="2" t="s">
-        <v>138</v>
+      <c r="A85" s="16" t="s">
+        <v>135</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F85" s="1">
         <v>5</v>
@@ -2935,11 +2935,11 @@
       <c r="G85" s="2"/>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A86" s="2" t="s">
-        <v>139</v>
+      <c r="A86" s="16" t="s">
+        <v>136</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F86" s="1">
         <v>5</v>
@@ -2947,11 +2947,11 @@
       <c r="G86" s="2"/>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A87" s="2" t="s">
-        <v>140</v>
+      <c r="A87" s="16" t="s">
+        <v>137</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F87" s="1">
         <v>5</v>
@@ -2960,7 +2960,7 @@
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" s="12" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="F88" s="1">
         <v>5</v>
@@ -2975,10 +2975,10 @@
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" s="12" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F90" s="1">
         <v>5</v>
@@ -2986,11 +2986,11 @@
       <c r="G90" s="2"/>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A91" s="2" t="s">
-        <v>348</v>
+      <c r="A91" s="16" t="s">
+        <v>344</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F91" s="1">
         <v>5</v>
@@ -2998,11 +2998,11 @@
       <c r="G91" s="2"/>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A92" s="2" t="s">
-        <v>349</v>
+      <c r="A92" s="16" t="s">
+        <v>345</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F92" s="1">
         <v>5</v>
@@ -3010,8 +3010,8 @@
       <c r="G92" s="2"/>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A93" s="2" t="s">
-        <v>142</v>
+      <c r="A93" s="16" t="s">
+        <v>139</v>
       </c>
       <c r="F93" s="1">
         <v>5</v>
@@ -3019,11 +3019,11 @@
       <c r="G93" s="2"/>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A95" s="2" t="s">
-        <v>351</v>
+      <c r="A95" s="16" t="s">
+        <v>347</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F95" s="1">
         <v>5</v>
@@ -3038,7 +3038,7 @@
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97" s="12" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="F97" s="1">
         <v>5</v>
@@ -3053,7 +3053,7 @@
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99" s="2" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="F99" s="1">
         <v>5</v>
@@ -3061,8 +3061,8 @@
       <c r="G99" s="2"/>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A100" s="2" t="s">
-        <v>147</v>
+      <c r="A100" s="16" t="s">
+        <v>144</v>
       </c>
       <c r="F100" s="1">
         <v>5</v>
@@ -3071,7 +3071,7 @@
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101" s="2" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="F101" s="1">
         <v>5</v>
@@ -3080,7 +3080,7 @@
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102" s="3" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="F102" s="1">
         <v>5</v>
@@ -3107,7 +3107,7 @@
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106" s="2" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="F106" s="1">
         <v>5</v>
@@ -3115,8 +3115,8 @@
       <c r="G106" s="2"/>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A107" s="2" t="s">
-        <v>150</v>
+      <c r="A107" s="16" t="s">
+        <v>147</v>
       </c>
       <c r="F107" s="1">
         <v>5</v>
@@ -3137,7 +3137,7 @@
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110" s="12" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="F110" s="1">
         <v>5</v>
@@ -3151,8 +3151,8 @@
       <c r="G111" s="2"/>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A112" s="2" t="s">
-        <v>152</v>
+      <c r="A112" s="16" t="s">
+        <v>149</v>
       </c>
       <c r="F112" s="1">
         <v>5</v>
@@ -3173,16 +3173,16 @@
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A116" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="F116" s="1">
+        <v>5</v>
+      </c>
+      <c r="G116" s="2"/>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A117" s="16" t="s">
         <v>154</v>
-      </c>
-      <c r="F116" s="1">
-        <v>5</v>
-      </c>
-      <c r="G116" s="2"/>
-    </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A117" s="2" t="s">
-        <v>157</v>
       </c>
       <c r="F117" s="1">
         <v>5</v>
@@ -3191,7 +3191,7 @@
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A118" s="2" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="F118" s="1">
         <v>5</v>
@@ -3200,7 +3200,7 @@
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A119" s="2" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="F119" s="1">
         <v>5</v>
@@ -3209,7 +3209,7 @@
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A120" s="2" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="F120" s="1">
         <v>5</v>
@@ -3238,8 +3238,8 @@
       <c r="G123" s="2"/>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A124" s="2" t="s">
-        <v>159</v>
+      <c r="A124" s="16" t="s">
+        <v>156</v>
       </c>
       <c r="F124" s="1">
         <v>5</v>
@@ -3247,8 +3247,8 @@
       <c r="G124" s="2"/>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A125" s="2" t="s">
-        <v>160</v>
+      <c r="A125" s="16" t="s">
+        <v>157</v>
       </c>
       <c r="F125" s="1">
         <v>5</v>
@@ -3263,7 +3263,7 @@
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A127" s="2" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="F127" s="1">
         <v>5</v>
@@ -3272,7 +3272,7 @@
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A128" s="2" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="F128" s="1">
         <v>5</v>
@@ -3280,8 +3280,8 @@
       <c r="G128" s="2"/>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A129" s="2" t="s">
-        <v>180</v>
+      <c r="A129" s="16" t="s">
+        <v>177</v>
       </c>
       <c r="F129" s="1">
         <v>5</v>
@@ -3289,214 +3289,127 @@
       <c r="G129" s="2"/>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="F130" s="1">
-        <v>5</v>
-      </c>
       <c r="G130" s="2"/>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="F131" s="1">
-        <v>5</v>
+      <c r="A131" s="2" t="s">
+        <v>358</v>
       </c>
       <c r="G131" s="2"/>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="F132" s="1">
-        <v>5</v>
+      <c r="A132" s="2" t="s">
+        <v>359</v>
       </c>
       <c r="G132" s="2"/>
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A133" s="4" t="s">
+      <c r="G133" s="2"/>
+    </row>
+    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A134" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="G134" s="2"/>
+    </row>
+    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G135" s="2"/>
+    </row>
+    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G136" s="2"/>
+    </row>
+    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G137" s="2"/>
+    </row>
+    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G138" s="2"/>
+    </row>
+    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G139" s="2"/>
+    </row>
+    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F140" s="1">
+        <v>5</v>
+      </c>
+      <c r="G140" s="2"/>
+    </row>
+    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G141" s="2"/>
+    </row>
+    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G142" s="2"/>
+    </row>
+    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G143" s="2"/>
+    </row>
+    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G144" s="2"/>
+    </row>
+    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F145" s="1">
+        <v>5</v>
+      </c>
+      <c r="G145" s="2"/>
+    </row>
+    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G146" s="2"/>
+    </row>
+    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G147" s="2"/>
+    </row>
+    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G148" s="2"/>
+    </row>
+    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F149" s="1">
+        <v>5</v>
+      </c>
+      <c r="G149" s="2"/>
+    </row>
+    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A150" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="B150" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="B133" s="4" t="s">
+      <c r="C150" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="C133" s="4" t="s">
+      <c r="D150" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="E150" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="F150" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="D133" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="E133" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="F133" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="G133" s="4"/>
-    </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A134" s="25" t="s">
-        <v>145</v>
-      </c>
-      <c r="B134" s="25"/>
-      <c r="C134" s="25"/>
-      <c r="D134" s="25"/>
-      <c r="E134" s="25"/>
-      <c r="F134" s="25"/>
-      <c r="G134" s="25"/>
-    </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A135" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="F135" s="1">
-        <v>1</v>
-      </c>
-      <c r="G135" s="2"/>
-    </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A136" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F136" s="1">
-        <v>1</v>
-      </c>
-      <c r="G136" s="2"/>
-    </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A137" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F137" s="1">
-        <v>1</v>
-      </c>
-      <c r="G137" s="2"/>
-    </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A138" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F138" s="1">
-        <v>1</v>
-      </c>
-      <c r="G138" s="2"/>
-    </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A139" s="2" t="s">
-        <v>353</v>
-      </c>
-      <c r="F139" s="1">
-        <v>1</v>
-      </c>
-      <c r="G139" s="2"/>
-    </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A140" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="F140" s="1">
-        <v>1</v>
-      </c>
-      <c r="G140" s="2"/>
-    </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A141" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="F141" s="1">
-        <v>1</v>
-      </c>
-      <c r="G141" s="2"/>
-    </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A142" s="2" t="s">
-        <v>356</v>
-      </c>
-      <c r="F142" s="1">
-        <v>1</v>
-      </c>
-      <c r="G142" s="2"/>
-    </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="F143" s="1">
-        <v>1</v>
-      </c>
-      <c r="G143" s="2"/>
-    </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A144" s="2" t="s">
-        <v>357</v>
-      </c>
-      <c r="F144" s="1">
-        <v>1</v>
-      </c>
-      <c r="G144" s="2"/>
-    </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A145" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F145" s="1">
-        <v>1</v>
-      </c>
-      <c r="G145" s="2"/>
-    </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A146" s="2" t="s">
-        <v>358</v>
-      </c>
-      <c r="F146" s="1">
-        <v>1</v>
-      </c>
-      <c r="G146" s="2"/>
-    </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A147" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F147" s="1">
-        <v>1</v>
-      </c>
-      <c r="G147" s="2"/>
-    </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A148" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="F148" s="1">
-        <v>1</v>
-      </c>
-      <c r="G148" s="2"/>
-    </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A149" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="F149" s="1">
-        <v>1</v>
-      </c>
-      <c r="G149" s="2"/>
-    </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A150" s="2" t="s">
-        <v>359</v>
-      </c>
-      <c r="F150" s="1">
-        <v>1</v>
-      </c>
-      <c r="G150" s="2"/>
+      <c r="G150" s="4"/>
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A151" s="2" t="s">
-        <v>354</v>
-      </c>
-      <c r="F151" s="1">
-        <v>1</v>
-      </c>
-      <c r="G151" s="2"/>
+      <c r="A151" s="25" t="s">
+        <v>142</v>
+      </c>
+      <c r="B151" s="25"/>
+      <c r="C151" s="25"/>
+      <c r="D151" s="25"/>
+      <c r="E151" s="25"/>
+      <c r="F151" s="25"/>
+      <c r="G151" s="25"/>
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A152" s="16" t="s">
+        <v>150</v>
+      </c>
       <c r="F152" s="1">
         <v>1</v>
       </c>
       <c r="G152" s="2"/>
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A153" s="2" t="s">
-        <v>170</v>
+      <c r="A153" s="16" t="s">
+        <v>18</v>
       </c>
       <c r="F153" s="1">
         <v>1</v>
@@ -3504,125 +3417,155 @@
       <c r="G153" s="2"/>
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A154" s="16" t="s">
+        <v>19</v>
+      </c>
       <c r="F154" s="1">
         <v>1</v>
       </c>
       <c r="G154" s="2"/>
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A155" s="16" t="s">
+        <v>20</v>
+      </c>
       <c r="F155" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G155" s="2"/>
     </row>
     <row r="156" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A156" s="16" t="s">
+        <v>349</v>
+      </c>
       <c r="F156" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G156" s="2"/>
     </row>
     <row r="157" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A157" s="16" t="s">
+        <v>174</v>
+      </c>
       <c r="F157" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G157" s="2"/>
     </row>
     <row r="158" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A158" s="2" t="s">
-        <v>56</v>
+      <c r="A158" s="16" t="s">
+        <v>21</v>
       </c>
       <c r="F158" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G158" s="2"/>
     </row>
     <row r="159" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A159" s="2" t="s">
+        <v>352</v>
+      </c>
       <c r="F159" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G159" s="2"/>
     </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A160" s="2" t="s">
-        <v>62</v>
-      </c>
       <c r="F160" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G160" s="2"/>
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A161" s="2" t="s">
+        <v>353</v>
+      </c>
       <c r="F161" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G161" s="2"/>
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A162" s="16" t="s">
+        <v>24</v>
+      </c>
       <c r="F162" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G162" s="2"/>
     </row>
     <row r="163" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A163" s="12" t="s">
-        <v>176</v>
+      <c r="A163" s="16" t="s">
+        <v>354</v>
       </c>
       <c r="F163" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G163" s="2"/>
     </row>
     <row r="164" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A164" s="12" t="s">
-        <v>360</v>
+      <c r="A164" s="16" t="s">
+        <v>25</v>
       </c>
       <c r="F164" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G164" s="2"/>
     </row>
     <row r="165" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A165" s="12" t="s">
-        <v>28</v>
+      <c r="A165" s="16" t="s">
+        <v>26</v>
       </c>
       <c r="F165" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G165" s="2"/>
     </row>
     <row r="166" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A166" s="16" t="s">
+        <v>27</v>
+      </c>
       <c r="F166" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G166" s="2"/>
     </row>
     <row r="167" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A167" s="16" t="s">
+        <v>355</v>
+      </c>
       <c r="F167" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G167" s="2"/>
     </row>
     <row r="168" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A168" s="16" t="s">
+        <v>350</v>
+      </c>
       <c r="F168" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G168" s="2"/>
     </row>
     <row r="169" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F169" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G169" s="2"/>
     </row>
     <row r="170" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A170" s="16" t="s">
+        <v>167</v>
+      </c>
       <c r="F170" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G170" s="2"/>
     </row>
     <row r="171" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F171" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G171" s="2"/>
     </row>
@@ -3645,6 +3588,9 @@
       <c r="G174" s="2"/>
     </row>
     <row r="175" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A175" s="16" t="s">
+        <v>55</v>
+      </c>
       <c r="F175" s="1">
         <v>5</v>
       </c>
@@ -3656,97 +3602,109 @@
       </c>
       <c r="G176" s="2"/>
     </row>
-    <row r="177" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A177" s="16" t="s">
+        <v>61</v>
+      </c>
       <c r="F177" s="1">
         <v>5</v>
       </c>
       <c r="G177" s="2"/>
     </row>
-    <row r="178" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F178" s="1">
         <v>5</v>
       </c>
       <c r="G178" s="2"/>
     </row>
-    <row r="179" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F179" s="1">
         <v>5</v>
       </c>
       <c r="G179" s="2"/>
     </row>
-    <row r="180" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A180" s="12" t="s">
+        <v>173</v>
+      </c>
       <c r="F180" s="1">
         <v>5</v>
       </c>
       <c r="G180" s="2"/>
     </row>
-    <row r="181" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A181" s="12" t="s">
+        <v>356</v>
+      </c>
       <c r="F181" s="1">
         <v>5</v>
       </c>
       <c r="G181" s="2"/>
     </row>
-    <row r="182" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A182" s="12" t="s">
+        <v>28</v>
+      </c>
       <c r="F182" s="1">
         <v>5</v>
       </c>
       <c r="G182" s="2"/>
     </row>
-    <row r="183" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F183" s="1">
         <v>5</v>
       </c>
       <c r="G183" s="2"/>
     </row>
-    <row r="184" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F184" s="1">
         <v>5</v>
       </c>
       <c r="G184" s="2"/>
     </row>
-    <row r="185" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F185" s="1">
         <v>5</v>
       </c>
       <c r="G185" s="2"/>
     </row>
-    <row r="186" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F186" s="1">
         <v>5</v>
       </c>
       <c r="G186" s="2"/>
     </row>
-    <row r="187" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F187" s="1">
         <v>5</v>
       </c>
       <c r="G187" s="2"/>
     </row>
-    <row r="188" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F188" s="1">
         <v>5</v>
       </c>
       <c r="G188" s="2"/>
     </row>
-    <row r="189" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F189" s="1">
         <v>5</v>
       </c>
       <c r="G189" s="2"/>
     </row>
-    <row r="190" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F190" s="1">
         <v>5</v>
       </c>
       <c r="G190" s="2"/>
     </row>
-    <row r="191" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F191" s="1">
         <v>5</v>
       </c>
       <c r="G191" s="2"/>
     </row>
-    <row r="192" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F192" s="1">
         <v>5</v>
       </c>
@@ -4627,11 +4585,113 @@
         <v>5</v>
       </c>
       <c r="G338" s="2"/>
+    </row>
+    <row r="339" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F339" s="1">
+        <v>5</v>
+      </c>
+      <c r="G339" s="2"/>
+    </row>
+    <row r="340" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F340" s="1">
+        <v>5</v>
+      </c>
+      <c r="G340" s="2"/>
+    </row>
+    <row r="341" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F341" s="1">
+        <v>5</v>
+      </c>
+      <c r="G341" s="2"/>
+    </row>
+    <row r="342" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F342" s="1">
+        <v>5</v>
+      </c>
+      <c r="G342" s="2"/>
+    </row>
+    <row r="343" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F343" s="1">
+        <v>5</v>
+      </c>
+      <c r="G343" s="2"/>
+    </row>
+    <row r="344" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F344" s="1">
+        <v>5</v>
+      </c>
+      <c r="G344" s="2"/>
+    </row>
+    <row r="345" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F345" s="1">
+        <v>5</v>
+      </c>
+      <c r="G345" s="2"/>
+    </row>
+    <row r="346" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F346" s="1">
+        <v>5</v>
+      </c>
+      <c r="G346" s="2"/>
+    </row>
+    <row r="347" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F347" s="1">
+        <v>5</v>
+      </c>
+      <c r="G347" s="2"/>
+    </row>
+    <row r="348" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F348" s="1">
+        <v>5</v>
+      </c>
+      <c r="G348" s="2"/>
+    </row>
+    <row r="349" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F349" s="1">
+        <v>5</v>
+      </c>
+      <c r="G349" s="2"/>
+    </row>
+    <row r="350" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F350" s="1">
+        <v>5</v>
+      </c>
+      <c r="G350" s="2"/>
+    </row>
+    <row r="351" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F351" s="1">
+        <v>5</v>
+      </c>
+      <c r="G351" s="2"/>
+    </row>
+    <row r="352" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F352" s="1">
+        <v>5</v>
+      </c>
+      <c r="G352" s="2"/>
+    </row>
+    <row r="353" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F353" s="1">
+        <v>5</v>
+      </c>
+      <c r="G353" s="2"/>
+    </row>
+    <row r="354" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F354" s="1">
+        <v>5</v>
+      </c>
+      <c r="G354" s="2"/>
+    </row>
+    <row r="355" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F355" s="1">
+        <v>5</v>
+      </c>
+      <c r="G355" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="A4:G4"/>
-    <mergeCell ref="A134:G134"/>
+    <mergeCell ref="A151:G151"/>
     <mergeCell ref="A34:G34"/>
     <mergeCell ref="A44:G44"/>
     <mergeCell ref="A1:G2"/>
@@ -4661,7 +4721,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A1" s="32" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B1" s="32"/>
       <c r="C1" s="32"/>
@@ -4672,50 +4732,50 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="C2" s="13" t="s">
         <v>31</v>
       </c>
       <c r="D2" s="13" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="E2" s="13"/>
     </row>
     <row r="3" spans="1:7" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="B3" s="5">
         <v>1</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="D3" s="14" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="B4" s="5">
         <v>3</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="B5" s="5">
         <v>4</v>
@@ -4748,7 +4808,7 @@
   <sheetData>
     <row r="1" spans="1:5" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A1" s="32" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="B1" s="32"/>
       <c r="C1" s="32"/>
@@ -4757,107 +4817,107 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="17" t="s">
+        <v>192</v>
+      </c>
+      <c r="B2" s="17" t="s">
+        <v>193</v>
+      </c>
+      <c r="C2" s="17" t="s">
+        <v>194</v>
+      </c>
+      <c r="D2" s="17" t="s">
         <v>195</v>
-      </c>
-      <c r="B2" s="17" t="s">
-        <v>196</v>
-      </c>
-      <c r="C2" s="17" t="s">
-        <v>197</v>
-      </c>
-      <c r="D2" s="17" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
     </row>
   </sheetData>
@@ -4873,8 +4933,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E13E4A5-10AD-4171-99FD-31881C0A6C11}">
   <dimension ref="A1:AD34"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10:I10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J13" sqref="J13:N13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4885,127 +4945,129 @@
     <col min="14" max="14" width="16.140625" style="18" customWidth="1"/>
     <col min="15" max="15" width="9.140625" style="18"/>
     <col min="16" max="16" width="13.42578125" style="18" customWidth="1"/>
-    <col min="17" max="29" width="9.140625" style="18"/>
+    <col min="17" max="22" width="9.140625" style="18"/>
+    <col min="23" max="23" width="18" style="18" customWidth="1"/>
+    <col min="24" max="29" width="9.140625" style="18"/>
     <col min="30" max="30" width="19.28515625" style="18" customWidth="1"/>
     <col min="31" max="16384" width="9.140625" style="18"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="36"/>
-      <c r="G1" s="36"/>
-      <c r="H1" s="36" t="s">
-        <v>161</v>
-      </c>
-      <c r="I1" s="36"/>
-      <c r="J1" s="36"/>
-      <c r="K1" s="36"/>
-      <c r="L1" s="36"/>
-      <c r="M1" s="36"/>
-      <c r="N1" s="36"/>
-      <c r="O1" s="36" t="s">
-        <v>162</v>
-      </c>
-      <c r="P1" s="36"/>
-      <c r="Q1" s="36"/>
-      <c r="R1" s="36"/>
-      <c r="S1" s="36"/>
-      <c r="T1" s="36"/>
-      <c r="U1" s="36"/>
-      <c r="V1" s="36" t="s">
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
+      <c r="H1" s="37" t="s">
+        <v>158</v>
+      </c>
+      <c r="I1" s="37"/>
+      <c r="J1" s="37"/>
+      <c r="K1" s="37"/>
+      <c r="L1" s="37"/>
+      <c r="M1" s="37"/>
+      <c r="N1" s="37"/>
+      <c r="O1" s="37" t="s">
+        <v>159</v>
+      </c>
+      <c r="P1" s="37"/>
+      <c r="Q1" s="37"/>
+      <c r="R1" s="37"/>
+      <c r="S1" s="37"/>
+      <c r="T1" s="37"/>
+      <c r="U1" s="37"/>
+      <c r="V1" s="37" t="s">
         <v>30</v>
       </c>
-      <c r="W1" s="36"/>
-      <c r="X1" s="36"/>
-      <c r="Y1" s="36"/>
-      <c r="Z1" s="36"/>
-      <c r="AA1" s="36"/>
-      <c r="AB1" s="36"/>
+      <c r="W1" s="37"/>
+      <c r="X1" s="37"/>
+      <c r="Y1" s="37"/>
+      <c r="Z1" s="37"/>
+      <c r="AA1" s="37"/>
+      <c r="AB1" s="37"/>
       <c r="AD1" s="19" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
     </row>
     <row r="2" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="36"/>
-      <c r="B2" s="36"/>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36"/>
-      <c r="E2" s="36"/>
-      <c r="F2" s="36"/>
-      <c r="G2" s="36"/>
-      <c r="H2" s="36"/>
-      <c r="I2" s="36"/>
-      <c r="J2" s="36"/>
-      <c r="K2" s="36"/>
-      <c r="L2" s="36"/>
-      <c r="M2" s="36"/>
-      <c r="N2" s="36"/>
-      <c r="O2" s="36"/>
-      <c r="P2" s="36"/>
-      <c r="Q2" s="36"/>
-      <c r="R2" s="36"/>
-      <c r="S2" s="36"/>
-      <c r="T2" s="36"/>
-      <c r="U2" s="36"/>
-      <c r="V2" s="36"/>
-      <c r="W2" s="36"/>
-      <c r="X2" s="36"/>
-      <c r="Y2" s="36"/>
-      <c r="Z2" s="36"/>
-      <c r="AA2" s="36"/>
-      <c r="AB2" s="36"/>
+      <c r="A2" s="37"/>
+      <c r="B2" s="37"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="37"/>
+      <c r="H2" s="37"/>
+      <c r="I2" s="37"/>
+      <c r="J2" s="37"/>
+      <c r="K2" s="37"/>
+      <c r="L2" s="37"/>
+      <c r="M2" s="37"/>
+      <c r="N2" s="37"/>
+      <c r="O2" s="37"/>
+      <c r="P2" s="37"/>
+      <c r="Q2" s="37"/>
+      <c r="R2" s="37"/>
+      <c r="S2" s="37"/>
+      <c r="T2" s="37"/>
+      <c r="U2" s="37"/>
+      <c r="V2" s="37"/>
+      <c r="W2" s="37"/>
+      <c r="X2" s="37"/>
+      <c r="Y2" s="37"/>
+      <c r="Z2" s="37"/>
+      <c r="AA2" s="37"/>
+      <c r="AB2" s="37"/>
     </row>
     <row r="3" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A3" s="37" t="s">
+      <c r="A3" s="38" t="s">
         <v>29</v>
       </c>
-      <c r="B3" s="37"/>
-      <c r="C3" s="38" t="s">
+      <c r="B3" s="38"/>
+      <c r="C3" s="39" t="s">
         <v>31</v>
       </c>
-      <c r="D3" s="38"/>
-      <c r="E3" s="38"/>
-      <c r="F3" s="38"/>
-      <c r="G3" s="38"/>
-      <c r="H3" s="37" t="s">
+      <c r="D3" s="39"/>
+      <c r="E3" s="39"/>
+      <c r="F3" s="39"/>
+      <c r="G3" s="39"/>
+      <c r="H3" s="38" t="s">
         <v>29</v>
       </c>
-      <c r="I3" s="37"/>
-      <c r="J3" s="38" t="s">
+      <c r="I3" s="38"/>
+      <c r="J3" s="39" t="s">
         <v>31</v>
       </c>
-      <c r="K3" s="38"/>
-      <c r="L3" s="38"/>
-      <c r="M3" s="38"/>
-      <c r="N3" s="38"/>
-      <c r="O3" s="37" t="s">
+      <c r="K3" s="39"/>
+      <c r="L3" s="39"/>
+      <c r="M3" s="39"/>
+      <c r="N3" s="39"/>
+      <c r="O3" s="38" t="s">
         <v>29</v>
       </c>
-      <c r="P3" s="37"/>
-      <c r="Q3" s="38" t="s">
+      <c r="P3" s="38"/>
+      <c r="Q3" s="39" t="s">
         <v>31</v>
       </c>
-      <c r="R3" s="38"/>
-      <c r="S3" s="38"/>
-      <c r="T3" s="38"/>
-      <c r="U3" s="38"/>
-      <c r="V3" s="37" t="s">
+      <c r="R3" s="39"/>
+      <c r="S3" s="39"/>
+      <c r="T3" s="39"/>
+      <c r="U3" s="39"/>
+      <c r="V3" s="38" t="s">
         <v>29</v>
       </c>
-      <c r="W3" s="37"/>
-      <c r="X3" s="38" t="s">
+      <c r="W3" s="38"/>
+      <c r="X3" s="39" t="s">
         <v>31</v>
       </c>
-      <c r="Y3" s="38"/>
-      <c r="Z3" s="38"/>
-      <c r="AA3" s="38"/>
-      <c r="AB3" s="38"/>
+      <c r="Y3" s="39"/>
+      <c r="Z3" s="39"/>
+      <c r="AA3" s="39"/>
+      <c r="AB3" s="39"/>
     </row>
     <row r="4" spans="1:30" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="33" t="s">
@@ -5020,7 +5082,7 @@
       <c r="F4" s="34"/>
       <c r="G4" s="34"/>
       <c r="H4" s="33" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="I4" s="33"/>
       <c r="J4" s="34" t="s">
@@ -5031,11 +5093,11 @@
       <c r="M4" s="34"/>
       <c r="N4" s="34"/>
       <c r="O4" s="35" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="P4" s="35"/>
       <c r="Q4" s="34" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="R4" s="34"/>
       <c r="S4" s="34"/>
@@ -5059,29 +5121,29 @@
       </c>
       <c r="B5" s="33"/>
       <c r="C5" s="34" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="D5" s="34"/>
       <c r="E5" s="34"/>
       <c r="F5" s="34"/>
       <c r="G5" s="34"/>
       <c r="H5" s="33" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="I5" s="33"/>
       <c r="J5" s="34" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="K5" s="34"/>
       <c r="L5" s="34"/>
       <c r="M5" s="34"/>
       <c r="N5" s="34"/>
       <c r="O5" s="35" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="P5" s="35"/>
       <c r="Q5" s="34" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="R5" s="34"/>
       <c r="S5" s="34"/>
@@ -5112,7 +5174,7 @@
       <c r="F6" s="34"/>
       <c r="G6" s="34"/>
       <c r="H6" s="33" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="I6" s="33"/>
       <c r="J6" s="34" t="s">
@@ -5123,11 +5185,11 @@
       <c r="M6" s="34"/>
       <c r="N6" s="34"/>
       <c r="O6" s="35" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="P6" s="35"/>
       <c r="Q6" s="34" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="R6" s="34"/>
       <c r="S6" s="34"/>
@@ -5145,7 +5207,7 @@
       <c r="AA6" s="34"/>
       <c r="AB6" s="34"/>
     </row>
-    <row r="7" spans="1:30" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:30" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="33" t="s">
         <v>34</v>
       </c>
@@ -5158,33 +5220,33 @@
       <c r="F7" s="34"/>
       <c r="G7" s="34"/>
       <c r="H7" s="33" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="I7" s="33"/>
       <c r="J7" s="34" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="K7" s="34"/>
       <c r="L7" s="34"/>
       <c r="M7" s="34"/>
       <c r="N7" s="34"/>
       <c r="O7" s="35" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="P7" s="35"/>
       <c r="Q7" s="34" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="R7" s="34"/>
       <c r="S7" s="34"/>
       <c r="T7" s="34"/>
       <c r="U7" s="34"/>
       <c r="V7" s="35" t="s">
-        <v>51</v>
+        <v>361</v>
       </c>
       <c r="W7" s="35"/>
       <c r="X7" s="34" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="Y7" s="34"/>
       <c r="Z7" s="34"/>
@@ -5193,11 +5255,11 @@
     </row>
     <row r="8" spans="1:30" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="33" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="B8" s="33"/>
       <c r="C8" s="34" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="D8" s="34"/>
       <c r="E8" s="34"/>
@@ -5211,18 +5273,18 @@
       <c r="M8" s="34"/>
       <c r="N8" s="34"/>
       <c r="O8" s="35" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="P8" s="35"/>
       <c r="Q8" s="34" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="R8" s="34"/>
       <c r="S8" s="34"/>
       <c r="T8" s="34"/>
       <c r="U8" s="34"/>
       <c r="V8" s="35" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="W8" s="35"/>
       <c r="X8" s="34" t="s">
@@ -5242,33 +5304,33 @@
       <c r="F9" s="34"/>
       <c r="G9" s="34"/>
       <c r="H9" s="33" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="I9" s="33"/>
       <c r="J9" s="34" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="K9" s="34"/>
       <c r="L9" s="34"/>
       <c r="M9" s="34"/>
       <c r="N9" s="34"/>
       <c r="O9" s="35" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="P9" s="35"/>
       <c r="Q9" s="34" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="R9" s="34"/>
       <c r="S9" s="34"/>
       <c r="T9" s="34"/>
       <c r="U9" s="34"/>
       <c r="V9" s="35" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="W9" s="35"/>
       <c r="X9" s="34" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Y9" s="34"/>
       <c r="Z9" s="34"/>
@@ -5295,22 +5357,22 @@
       <c r="M10" s="34"/>
       <c r="N10" s="34"/>
       <c r="O10" s="35" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="P10" s="35"/>
       <c r="Q10" s="34" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="R10" s="34"/>
       <c r="S10" s="34"/>
       <c r="T10" s="34"/>
       <c r="U10" s="34"/>
       <c r="V10" s="35" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="W10" s="35"/>
       <c r="X10" s="34" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="Y10" s="34"/>
       <c r="Z10" s="34"/>
@@ -5319,18 +5381,18 @@
     </row>
     <row r="11" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="33" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="B11" s="33"/>
       <c r="C11" s="34" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="D11" s="34"/>
       <c r="E11" s="34"/>
       <c r="F11" s="34"/>
       <c r="G11" s="34"/>
       <c r="H11" s="33" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="I11" s="33"/>
       <c r="J11" s="34" t="s">
@@ -5341,22 +5403,22 @@
       <c r="M11" s="34"/>
       <c r="N11" s="34"/>
       <c r="O11" s="35" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="P11" s="35"/>
       <c r="Q11" s="34" t="s">
-        <v>324</v>
+        <v>362</v>
       </c>
       <c r="R11" s="34"/>
       <c r="S11" s="34"/>
       <c r="T11" s="34"/>
       <c r="U11" s="34"/>
       <c r="V11" s="35" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="W11" s="35"/>
       <c r="X11" s="34" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Y11" s="34"/>
       <c r="Z11" s="34"/>
@@ -5366,17 +5428,17 @@
     <row r="12" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="33"/>
       <c r="B12" s="33"/>
-      <c r="C12" s="39"/>
-      <c r="D12" s="39"/>
-      <c r="E12" s="39"/>
-      <c r="F12" s="39"/>
-      <c r="G12" s="39"/>
+      <c r="C12" s="36"/>
+      <c r="D12" s="36"/>
+      <c r="E12" s="36"/>
+      <c r="F12" s="36"/>
+      <c r="G12" s="36"/>
       <c r="H12" s="33" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="I12" s="33"/>
       <c r="J12" s="34" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="K12" s="34"/>
       <c r="L12" s="34"/>
@@ -5399,18 +5461,18 @@
     </row>
     <row r="13" spans="1:30" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="33" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="B13" s="33"/>
-      <c r="C13" s="39" t="s">
-        <v>231</v>
-      </c>
-      <c r="D13" s="39"/>
-      <c r="E13" s="39"/>
-      <c r="F13" s="39"/>
-      <c r="G13" s="39"/>
+      <c r="C13" s="36" t="s">
+        <v>228</v>
+      </c>
+      <c r="D13" s="36"/>
+      <c r="E13" s="36"/>
+      <c r="F13" s="36"/>
+      <c r="G13" s="36"/>
       <c r="H13" s="33" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="I13" s="33"/>
       <c r="J13" s="34" t="s">
@@ -5421,22 +5483,22 @@
       <c r="M13" s="34"/>
       <c r="N13" s="34"/>
       <c r="O13" s="35" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="P13" s="35"/>
       <c r="Q13" s="34" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="R13" s="34"/>
       <c r="S13" s="34"/>
       <c r="T13" s="34"/>
       <c r="U13" s="34"/>
       <c r="V13" s="33" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="W13" s="33"/>
       <c r="X13" s="34" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="Y13" s="34"/>
       <c r="Z13" s="34"/>
@@ -5445,16 +5507,16 @@
     </row>
     <row r="14" spans="1:30" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="33" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="B14" s="33"/>
-      <c r="C14" s="39" t="s">
-        <v>235</v>
-      </c>
-      <c r="D14" s="39"/>
-      <c r="E14" s="39"/>
-      <c r="F14" s="39"/>
-      <c r="G14" s="39"/>
+      <c r="C14" s="36" t="s">
+        <v>232</v>
+      </c>
+      <c r="D14" s="36"/>
+      <c r="E14" s="36"/>
+      <c r="F14" s="36"/>
+      <c r="G14" s="36"/>
       <c r="H14" s="33"/>
       <c r="I14" s="33"/>
       <c r="J14" s="34"/>
@@ -5479,11 +5541,11 @@
     </row>
     <row r="15" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A15" s="33" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="B15" s="33"/>
-      <c r="C15" s="39" t="s">
-        <v>238</v>
+      <c r="C15" s="36" t="s">
+        <v>235</v>
       </c>
       <c r="D15" s="34"/>
       <c r="E15" s="34"/>
@@ -5513,7 +5575,7 @@
     </row>
     <row r="16" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A16" s="33" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="B16" s="33"/>
       <c r="C16" s="34"/>
@@ -6001,143 +6063,79 @@
     </row>
   </sheetData>
   <mergeCells count="236">
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="C34:G34"/>
-    <mergeCell ref="H34:I34"/>
-    <mergeCell ref="J34:N34"/>
-    <mergeCell ref="O34:P34"/>
-    <mergeCell ref="Q34:U34"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="C33:G33"/>
-    <mergeCell ref="H33:I33"/>
-    <mergeCell ref="J33:N33"/>
-    <mergeCell ref="O33:P33"/>
-    <mergeCell ref="Q33:U33"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="C32:G32"/>
-    <mergeCell ref="H32:I32"/>
-    <mergeCell ref="J32:N32"/>
-    <mergeCell ref="O32:P32"/>
-    <mergeCell ref="Q32:U32"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="C31:G31"/>
-    <mergeCell ref="H31:I31"/>
-    <mergeCell ref="J31:N31"/>
-    <mergeCell ref="O31:P31"/>
-    <mergeCell ref="Q31:U31"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="C30:G30"/>
-    <mergeCell ref="H30:I30"/>
-    <mergeCell ref="J30:N30"/>
-    <mergeCell ref="O30:P30"/>
-    <mergeCell ref="Q30:U30"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="C29:G29"/>
-    <mergeCell ref="H29:I29"/>
-    <mergeCell ref="J29:N29"/>
-    <mergeCell ref="O29:P29"/>
-    <mergeCell ref="Q29:U29"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="C28:G28"/>
-    <mergeCell ref="H28:I28"/>
-    <mergeCell ref="J28:N28"/>
-    <mergeCell ref="O28:P28"/>
-    <mergeCell ref="Q28:U28"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="C27:G27"/>
-    <mergeCell ref="H27:I27"/>
-    <mergeCell ref="J27:N27"/>
-    <mergeCell ref="O27:P27"/>
-    <mergeCell ref="Q27:U27"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="C26:G26"/>
-    <mergeCell ref="H26:I26"/>
-    <mergeCell ref="J26:N26"/>
-    <mergeCell ref="O26:P26"/>
-    <mergeCell ref="Q26:U26"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="C25:G25"/>
-    <mergeCell ref="H25:I25"/>
-    <mergeCell ref="J25:N25"/>
-    <mergeCell ref="O25:P25"/>
-    <mergeCell ref="Q25:U25"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="C24:G24"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="J24:N24"/>
-    <mergeCell ref="O24:P24"/>
-    <mergeCell ref="Q24:U24"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="C23:G23"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="J23:N23"/>
-    <mergeCell ref="O23:P23"/>
-    <mergeCell ref="Q23:U23"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="C22:G22"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="J22:N22"/>
-    <mergeCell ref="V22:W22"/>
-    <mergeCell ref="X22:AB22"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="C21:G21"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="J21:N21"/>
-    <mergeCell ref="V21:W21"/>
-    <mergeCell ref="X21:AB21"/>
-    <mergeCell ref="O21:P21"/>
-    <mergeCell ref="Q21:U21"/>
-    <mergeCell ref="O22:P22"/>
-    <mergeCell ref="Q22:U22"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="C20:G20"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="J20:N20"/>
-    <mergeCell ref="V20:W20"/>
-    <mergeCell ref="X20:AB20"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="C19:G19"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="J19:N19"/>
-    <mergeCell ref="V19:W19"/>
-    <mergeCell ref="X19:AB19"/>
-    <mergeCell ref="O19:P19"/>
-    <mergeCell ref="Q19:U19"/>
-    <mergeCell ref="O20:P20"/>
-    <mergeCell ref="Q20:U20"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C18:G18"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="J18:N18"/>
-    <mergeCell ref="V18:W18"/>
-    <mergeCell ref="X18:AB18"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="C17:G17"/>
-    <mergeCell ref="V17:W17"/>
-    <mergeCell ref="X17:AB17"/>
-    <mergeCell ref="O17:P17"/>
-    <mergeCell ref="Q17:U17"/>
-    <mergeCell ref="O18:P18"/>
-    <mergeCell ref="Q18:U18"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="C13:G13"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="J13:N13"/>
-    <mergeCell ref="X13:AB13"/>
-    <mergeCell ref="O14:P14"/>
-    <mergeCell ref="Q14:U14"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="C16:G16"/>
-    <mergeCell ref="V16:W16"/>
-    <mergeCell ref="X16:AB16"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="C15:G15"/>
-    <mergeCell ref="V15:W15"/>
-    <mergeCell ref="X15:AB15"/>
-    <mergeCell ref="O15:P15"/>
-    <mergeCell ref="Q15:U15"/>
-    <mergeCell ref="O16:P16"/>
-    <mergeCell ref="Q16:U16"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="J4:N4"/>
+    <mergeCell ref="V4:W4"/>
+    <mergeCell ref="X4:AB4"/>
+    <mergeCell ref="O4:P4"/>
+    <mergeCell ref="Q4:U4"/>
+    <mergeCell ref="J5:N5"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="A1:G2"/>
+    <mergeCell ref="H1:N2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:G3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="V1:AB2"/>
+    <mergeCell ref="V3:W3"/>
+    <mergeCell ref="J3:N3"/>
+    <mergeCell ref="X3:AB3"/>
+    <mergeCell ref="O1:U2"/>
+    <mergeCell ref="O3:P3"/>
+    <mergeCell ref="Q3:U3"/>
+    <mergeCell ref="V5:W5"/>
+    <mergeCell ref="X5:AB5"/>
+    <mergeCell ref="O5:P5"/>
+    <mergeCell ref="Q5:U5"/>
+    <mergeCell ref="O6:P6"/>
+    <mergeCell ref="Q6:U6"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="V13:W13"/>
+    <mergeCell ref="J14:N14"/>
+    <mergeCell ref="V14:W14"/>
+    <mergeCell ref="X14:AB14"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="V6:W6"/>
+    <mergeCell ref="X6:AB6"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="J6:N6"/>
+    <mergeCell ref="V8:W8"/>
+    <mergeCell ref="X8:AB8"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:N7"/>
+    <mergeCell ref="V7:W7"/>
+    <mergeCell ref="X7:AB7"/>
+    <mergeCell ref="O7:P7"/>
+    <mergeCell ref="Q7:U7"/>
+    <mergeCell ref="Q8:U8"/>
+    <mergeCell ref="O8:P8"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="J8:N8"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C10:G10"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="J10:N10"/>
+    <mergeCell ref="V10:W10"/>
+    <mergeCell ref="X10:AB10"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:G9"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="J9:N9"/>
+    <mergeCell ref="V9:W9"/>
+    <mergeCell ref="X9:AB9"/>
+    <mergeCell ref="O9:P9"/>
+    <mergeCell ref="Q9:U9"/>
+    <mergeCell ref="O10:P10"/>
+    <mergeCell ref="Q10:U10"/>
     <mergeCell ref="A12:B12"/>
     <mergeCell ref="C12:G12"/>
     <mergeCell ref="H16:I16"/>
@@ -6162,81 +6160,145 @@
     <mergeCell ref="Q13:U13"/>
     <mergeCell ref="A14:B14"/>
     <mergeCell ref="C14:G14"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="C10:G10"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="J10:N10"/>
-    <mergeCell ref="V10:W10"/>
-    <mergeCell ref="X10:AB10"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="C9:G9"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="J9:N9"/>
-    <mergeCell ref="V9:W9"/>
-    <mergeCell ref="X9:AB9"/>
-    <mergeCell ref="O9:P9"/>
-    <mergeCell ref="Q9:U9"/>
-    <mergeCell ref="O10:P10"/>
-    <mergeCell ref="Q10:U10"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="C8:G8"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="J6:N6"/>
-    <mergeCell ref="V8:W8"/>
-    <mergeCell ref="X8:AB8"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="J7:N7"/>
-    <mergeCell ref="V7:W7"/>
-    <mergeCell ref="X7:AB7"/>
-    <mergeCell ref="O7:P7"/>
-    <mergeCell ref="Q7:U7"/>
-    <mergeCell ref="Q8:U8"/>
-    <mergeCell ref="O8:P8"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="J8:N8"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C13:G13"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="J13:N13"/>
+    <mergeCell ref="X13:AB13"/>
+    <mergeCell ref="O14:P14"/>
+    <mergeCell ref="Q14:U14"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:G16"/>
+    <mergeCell ref="V16:W16"/>
+    <mergeCell ref="X16:AB16"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C15:G15"/>
+    <mergeCell ref="V15:W15"/>
+    <mergeCell ref="X15:AB15"/>
+    <mergeCell ref="O15:P15"/>
+    <mergeCell ref="Q15:U15"/>
+    <mergeCell ref="O16:P16"/>
+    <mergeCell ref="Q16:U16"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="J18:N18"/>
+    <mergeCell ref="V18:W18"/>
+    <mergeCell ref="X18:AB18"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C17:G17"/>
+    <mergeCell ref="V17:W17"/>
+    <mergeCell ref="X17:AB17"/>
+    <mergeCell ref="O17:P17"/>
+    <mergeCell ref="Q17:U17"/>
+    <mergeCell ref="O18:P18"/>
+    <mergeCell ref="Q18:U18"/>
     <mergeCell ref="H17:I17"/>
     <mergeCell ref="J17:N17"/>
-    <mergeCell ref="V5:W5"/>
-    <mergeCell ref="X5:AB5"/>
-    <mergeCell ref="O5:P5"/>
-    <mergeCell ref="Q5:U5"/>
-    <mergeCell ref="O6:P6"/>
-    <mergeCell ref="Q6:U6"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="V13:W13"/>
-    <mergeCell ref="J14:N14"/>
-    <mergeCell ref="V14:W14"/>
-    <mergeCell ref="X14:AB14"/>
-    <mergeCell ref="A1:G2"/>
-    <mergeCell ref="H1:N2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:G3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="V1:AB2"/>
-    <mergeCell ref="V3:W3"/>
-    <mergeCell ref="J3:N3"/>
-    <mergeCell ref="X3:AB3"/>
-    <mergeCell ref="O1:U2"/>
-    <mergeCell ref="O3:P3"/>
-    <mergeCell ref="Q3:U3"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:G4"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="J4:N4"/>
-    <mergeCell ref="V4:W4"/>
-    <mergeCell ref="X4:AB4"/>
-    <mergeCell ref="O4:P4"/>
-    <mergeCell ref="Q4:U4"/>
-    <mergeCell ref="J5:N5"/>
-    <mergeCell ref="V6:W6"/>
-    <mergeCell ref="X6:AB6"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="J20:N20"/>
+    <mergeCell ref="V20:W20"/>
+    <mergeCell ref="X20:AB20"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="J19:N19"/>
+    <mergeCell ref="V19:W19"/>
+    <mergeCell ref="X19:AB19"/>
+    <mergeCell ref="O19:P19"/>
+    <mergeCell ref="Q19:U19"/>
+    <mergeCell ref="O20:P20"/>
+    <mergeCell ref="Q20:U20"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="C22:G22"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="J22:N22"/>
+    <mergeCell ref="V22:W22"/>
+    <mergeCell ref="X22:AB22"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="J21:N21"/>
+    <mergeCell ref="V21:W21"/>
+    <mergeCell ref="X21:AB21"/>
+    <mergeCell ref="O21:P21"/>
+    <mergeCell ref="Q21:U21"/>
+    <mergeCell ref="O22:P22"/>
+    <mergeCell ref="Q22:U22"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="C24:G24"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="J24:N24"/>
+    <mergeCell ref="O24:P24"/>
+    <mergeCell ref="Q24:U24"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="C23:G23"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="J23:N23"/>
+    <mergeCell ref="O23:P23"/>
+    <mergeCell ref="Q23:U23"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="C26:G26"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="J26:N26"/>
+    <mergeCell ref="O26:P26"/>
+    <mergeCell ref="Q26:U26"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="C25:G25"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="J25:N25"/>
+    <mergeCell ref="O25:P25"/>
+    <mergeCell ref="Q25:U25"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="C28:G28"/>
+    <mergeCell ref="H28:I28"/>
+    <mergeCell ref="J28:N28"/>
+    <mergeCell ref="O28:P28"/>
+    <mergeCell ref="Q28:U28"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="C27:G27"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="J27:N27"/>
+    <mergeCell ref="O27:P27"/>
+    <mergeCell ref="Q27:U27"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="C30:G30"/>
+    <mergeCell ref="H30:I30"/>
+    <mergeCell ref="J30:N30"/>
+    <mergeCell ref="O30:P30"/>
+    <mergeCell ref="Q30:U30"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="C29:G29"/>
+    <mergeCell ref="H29:I29"/>
+    <mergeCell ref="J29:N29"/>
+    <mergeCell ref="O29:P29"/>
+    <mergeCell ref="Q29:U29"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="C32:G32"/>
+    <mergeCell ref="H32:I32"/>
+    <mergeCell ref="J32:N32"/>
+    <mergeCell ref="O32:P32"/>
+    <mergeCell ref="Q32:U32"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="C31:G31"/>
+    <mergeCell ref="H31:I31"/>
+    <mergeCell ref="J31:N31"/>
+    <mergeCell ref="O31:P31"/>
+    <mergeCell ref="Q31:U31"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="C34:G34"/>
+    <mergeCell ref="H34:I34"/>
+    <mergeCell ref="J34:N34"/>
+    <mergeCell ref="O34:P34"/>
+    <mergeCell ref="Q34:U34"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="C33:G33"/>
+    <mergeCell ref="H33:I33"/>
+    <mergeCell ref="J33:N33"/>
+    <mergeCell ref="O33:P33"/>
+    <mergeCell ref="Q33:U33"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C15" r:id="rId1" xr:uid="{868F8F85-B252-4B04-B081-E9B23AD46A23}"/>
@@ -6270,7 +6332,7 @@
   <sheetData>
     <row r="1" spans="1:9" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A1" s="41" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="B1" s="41"/>
       <c r="C1" s="41"/>
@@ -6282,19 +6344,19 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="22" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="C2" s="15" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="D2" s="22" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="E2" s="34" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="F2" s="34"/>
       <c r="G2" s="34"/>
@@ -6302,19 +6364,19 @@
     </row>
     <row r="3" spans="1:9" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="C3" s="21">
         <v>1</v>
       </c>
       <c r="D3" s="14" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="E3" s="40" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="F3" s="40"/>
       <c r="G3" s="40"/>
@@ -6322,16 +6384,16 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="C4" s="21">
         <v>2</v>
       </c>
       <c r="D4" s="14" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="E4" s="40"/>
       <c r="F4" s="40"/>
@@ -6358,19 +6420,19 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="14" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="C8" s="21">
         <v>2</v>
       </c>
       <c r="D8" s="14" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="E8" s="40" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="F8" s="40"/>
       <c r="G8" s="40"/>
@@ -6378,19 +6440,19 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="C9" s="21">
         <v>1</v>
       </c>
       <c r="D9" s="14" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="E9" s="40" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="F9" s="40"/>
       <c r="G9" s="40"/>
@@ -6398,7 +6460,7 @@
     </row>
     <row r="10" spans="1:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="14" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="B10" s="14" t="s">
         <v>14</v>
@@ -6407,33 +6469,33 @@
         <v>2</v>
       </c>
       <c r="D10" s="14" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="E10" s="40" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="F10" s="40"/>
       <c r="G10" s="40"/>
       <c r="H10" s="40"/>
       <c r="I10" s="14" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="14" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="C11" s="21">
         <v>2</v>
       </c>
       <c r="D11" s="14" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="E11" s="40" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="F11" s="40"/>
       <c r="G11" s="40"/>
@@ -6441,19 +6503,19 @@
     </row>
     <row r="12" spans="1:9" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="14" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="C12" s="21">
         <v>3</v>
       </c>
       <c r="D12" s="14" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="E12" s="40" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="F12" s="40"/>
       <c r="G12" s="40"/>
@@ -6461,7 +6523,7 @@
     </row>
     <row r="13" spans="1:9" ht="79.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="14" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="B13" s="14" t="s">
         <v>14</v>
@@ -6470,10 +6532,10 @@
         <v>4</v>
       </c>
       <c r="D13" s="14" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="E13" s="40" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="F13" s="40"/>
       <c r="G13" s="40"/>
@@ -6481,19 +6543,19 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="14" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="B14" s="14" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="C14" s="21">
         <v>1</v>
       </c>
       <c r="D14" s="14" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="E14" s="40" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="F14" s="40"/>
       <c r="G14" s="40"/>
@@ -6573,14 +6635,12 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="E25:H25"/>
-    <mergeCell ref="E26:H26"/>
-    <mergeCell ref="E19:H19"/>
-    <mergeCell ref="E20:H20"/>
-    <mergeCell ref="E21:H21"/>
-    <mergeCell ref="E22:H22"/>
-    <mergeCell ref="E23:H23"/>
-    <mergeCell ref="E24:H24"/>
+    <mergeCell ref="E6:H6"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="E2:H2"/>
+    <mergeCell ref="E3:H3"/>
+    <mergeCell ref="E4:H4"/>
+    <mergeCell ref="E5:H5"/>
     <mergeCell ref="E18:H18"/>
     <mergeCell ref="E7:H7"/>
     <mergeCell ref="E8:H8"/>
@@ -6593,12 +6653,14 @@
     <mergeCell ref="E15:H15"/>
     <mergeCell ref="E16:H16"/>
     <mergeCell ref="E17:H17"/>
-    <mergeCell ref="E6:H6"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="E2:H2"/>
-    <mergeCell ref="E3:H3"/>
-    <mergeCell ref="E4:H4"/>
-    <mergeCell ref="E5:H5"/>
+    <mergeCell ref="E25:H25"/>
+    <mergeCell ref="E26:H26"/>
+    <mergeCell ref="E19:H19"/>
+    <mergeCell ref="E20:H20"/>
+    <mergeCell ref="E21:H21"/>
+    <mergeCell ref="E22:H22"/>
+    <mergeCell ref="E23:H23"/>
+    <mergeCell ref="E24:H24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6609,7 +6671,7 @@
   <dimension ref="A1:J30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+      <selection activeCell="D12" sqref="D12:G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6629,7 +6691,7 @@
   <sheetData>
     <row r="1" spans="1:10" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A1" s="43" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="B1" s="43"/>
       <c r="C1" s="43"/>
@@ -6640,155 +6702,152 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="20" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B2" s="20" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="C2" s="20" t="s">
+        <v>239</v>
+      </c>
+      <c r="D2" s="44" t="s">
         <v>242</v>
-      </c>
-      <c r="D2" s="44" t="s">
-        <v>245</v>
       </c>
       <c r="E2" s="44"/>
       <c r="F2" s="44"/>
       <c r="G2" s="44"/>
       <c r="I2" s="23" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
-        <v>268</v>
+      <c r="A3" s="16" t="s">
+        <v>265</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="D3" s="42" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="E3" s="42"/>
       <c r="F3" s="42"/>
       <c r="G3" s="42"/>
       <c r="I3" s="5" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="16" t="s">
+        <v>271</v>
+      </c>
+      <c r="B4" s="5" t="s">
         <v>274</v>
       </c>
-      <c r="B4" s="5" t="s">
-        <v>277</v>
-      </c>
       <c r="C4" s="5" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="D4" s="42" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="E4" s="42"/>
       <c r="F4" s="42"/>
       <c r="G4" s="42"/>
       <c r="J4" s="5" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
-        <v>272</v>
+      <c r="A5" s="16" t="s">
+        <v>269</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="D5" s="42" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="E5" s="42"/>
       <c r="F5" s="42"/>
       <c r="G5" s="42"/>
       <c r="J5" s="5" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
-        <v>271</v>
+      <c r="A6" s="16" t="s">
+        <v>268</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="D6" s="42" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="E6" s="42"/>
       <c r="F6" s="42"/>
       <c r="G6" s="42"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
-        <v>297</v>
-      </c>
-      <c r="B7" s="5" t="s">
+      <c r="A7" s="16"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="16" t="s">
         <v>298</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="s">
-        <v>301</v>
       </c>
       <c r="D8" s="42"/>
       <c r="E8" s="42"/>
       <c r="F8" s="42"/>
       <c r="G8" s="42"/>
       <c r="I8" s="5" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="J8" s="5" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="5" t="s">
-        <v>305</v>
+      <c r="A9" s="16" t="s">
+        <v>302</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="D9" s="42" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="E9" s="42"/>
       <c r="F9" s="42"/>
       <c r="G9" s="42"/>
       <c r="J9" s="5" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D10" s="42"/>
-      <c r="E10" s="42"/>
-      <c r="F10" s="42"/>
-      <c r="G10" s="42"/>
+      <c r="A10" s="16" t="s">
+        <v>294</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>295</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>243</v>
+      </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D11" s="42"/>
@@ -6798,39 +6857,39 @@
     </row>
     <row r="12" spans="1:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
+        <v>276</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>278</v>
+      </c>
+      <c r="D12" s="42" t="s">
         <v>279</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>280</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>281</v>
-      </c>
-      <c r="D12" s="42" t="s">
-        <v>282</v>
       </c>
       <c r="E12" s="42"/>
       <c r="F12" s="42"/>
       <c r="G12" s="42"/>
       <c r="I12" s="5" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="J12" s="14" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="D13" s="42" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="E13" s="42"/>
       <c r="F13" s="42"/>
@@ -6838,16 +6897,16 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
+        <v>310</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>311</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>312</v>
+      </c>
+      <c r="D14" s="42" t="s">
         <v>313</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>314</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>315</v>
-      </c>
-      <c r="D14" s="42" t="s">
-        <v>316</v>
       </c>
       <c r="E14" s="42"/>
       <c r="F14" s="42"/>
@@ -6867,16 +6926,16 @@
     </row>
     <row r="17" spans="1:7" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="B17" s="5" t="s">
+        <v>290</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>291</v>
+      </c>
+      <c r="D17" s="40" t="s">
         <v>293</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>294</v>
-      </c>
-      <c r="D17" s="40" t="s">
-        <v>296</v>
       </c>
       <c r="E17" s="40"/>
       <c r="F17" s="40"/>
@@ -6961,7 +7020,23 @@
       <c r="G30" s="42"/>
     </row>
   </sheetData>
-  <mergeCells count="29">
+  <mergeCells count="28">
+    <mergeCell ref="D4:G4"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="D3:G3"/>
+    <mergeCell ref="D6:G6"/>
+    <mergeCell ref="D5:G5"/>
+    <mergeCell ref="D18:G18"/>
+    <mergeCell ref="D8:G8"/>
+    <mergeCell ref="D9:G9"/>
+    <mergeCell ref="D11:G11"/>
+    <mergeCell ref="D12:G12"/>
+    <mergeCell ref="D13:G13"/>
+    <mergeCell ref="D14:G14"/>
+    <mergeCell ref="D15:G15"/>
+    <mergeCell ref="D16:G16"/>
+    <mergeCell ref="D17:G17"/>
     <mergeCell ref="D30:G30"/>
     <mergeCell ref="D19:G19"/>
     <mergeCell ref="D20:G20"/>
@@ -6974,23 +7049,6 @@
     <mergeCell ref="D27:G27"/>
     <mergeCell ref="D28:G28"/>
     <mergeCell ref="D29:G29"/>
-    <mergeCell ref="D18:G18"/>
-    <mergeCell ref="D8:G8"/>
-    <mergeCell ref="D9:G9"/>
-    <mergeCell ref="D10:G10"/>
-    <mergeCell ref="D11:G11"/>
-    <mergeCell ref="D12:G12"/>
-    <mergeCell ref="D13:G13"/>
-    <mergeCell ref="D14:G14"/>
-    <mergeCell ref="D15:G15"/>
-    <mergeCell ref="D16:G16"/>
-    <mergeCell ref="D17:G17"/>
-    <mergeCell ref="D4:G4"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="D2:G2"/>
-    <mergeCell ref="D3:G3"/>
-    <mergeCell ref="D6:G6"/>
-    <mergeCell ref="D5:G5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/plans/todo.xlsx
+++ b/plans/todo.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Edsquid\Documents\Personal Projects\Business\RogueLikeGame\plans\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AC723A1-5BAF-4D6A-A30D-FFB92BC5E71C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{075354CF-D95D-4011-87D1-43F0A99BC315}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="509" activeTab="3" xr2:uid="{BA1E511D-BF64-4842-98DF-72E30276ED1C}"/>
+    <workbookView xWindow="29355" yWindow="1485" windowWidth="19920" windowHeight="13335" tabRatio="509" activeTab="3" xr2:uid="{BA1E511D-BF64-4842-98DF-72E30276ED1C}"/>
   </bookViews>
   <sheets>
     <sheet name="Attributes" sheetId="3" r:id="rId1"/>
@@ -1024,9 +1024,6 @@
     <t>Prismatic Caster</t>
   </si>
   <si>
-    <t>Charge, laser rifle, colorful (random damagetype)</t>
-  </si>
-  <si>
     <t>Magic Missile</t>
   </si>
   <si>
@@ -1130,6 +1127,9 @@
   </si>
   <si>
     <t>Form a hand to swipe @ enemy</t>
+  </si>
+  <si>
+    <t>Charge, laser rifle, colorful (random damagetype), level = additional beam</t>
   </si>
 </sst>
 </file>
@@ -1491,9 +1491,6 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1502,6 +1499,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -2536,7 +2536,7 @@
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="G41" s="2"/>
     </row>
@@ -2577,7 +2577,7 @@
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="16" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>70</v>
@@ -2598,7 +2598,7 @@
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="16" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B47" s="1" t="s">
         <v>70</v>
@@ -2655,7 +2655,7 @@
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="12" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="F52" s="1">
         <v>5</v>
@@ -2709,7 +2709,7 @@
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="12" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
@@ -2720,7 +2720,7 @@
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" s="16" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B59" s="1" t="s">
         <v>68</v>
@@ -2747,7 +2747,7 @@
         <v>68</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="F65" s="1">
         <v>5</v>
@@ -2804,7 +2804,7 @@
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" s="12" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="G70" s="2"/>
     </row>
@@ -2828,7 +2828,7 @@
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" s="16" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B74" s="1" t="s">
         <v>72</v>
@@ -2876,7 +2876,7 @@
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" s="12" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="F79" s="1">
         <v>5</v>
@@ -2891,7 +2891,7 @@
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" s="16" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B81" s="1" t="s">
         <v>70</v>
@@ -2960,7 +2960,7 @@
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" s="12" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="F88" s="1">
         <v>5</v>
@@ -2987,7 +2987,7 @@
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" s="16" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B91" s="1" t="s">
         <v>72</v>
@@ -2999,7 +2999,7 @@
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" s="16" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B92" s="1" t="s">
         <v>72</v>
@@ -3020,7 +3020,7 @@
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" s="16" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B95" s="1" t="s">
         <v>72</v>
@@ -3038,7 +3038,7 @@
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97" s="12" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="F97" s="1">
         <v>5</v>
@@ -3053,7 +3053,7 @@
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99" s="2" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="F99" s="1">
         <v>5</v>
@@ -3293,13 +3293,13 @@
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A131" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="G131" s="2"/>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A132" s="2" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="G132" s="2"/>
     </row>
@@ -3308,7 +3308,7 @@
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A134" s="2" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="G134" s="2"/>
     </row>
@@ -3436,7 +3436,7 @@
     </row>
     <row r="156" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A156" s="16" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="F156" s="1">
         <v>1</v>
@@ -3463,7 +3463,7 @@
     </row>
     <row r="159" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A159" s="2" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="F159" s="1">
         <v>1</v>
@@ -3478,7 +3478,7 @@
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A161" s="2" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="F161" s="1">
         <v>1</v>
@@ -3496,7 +3496,7 @@
     </row>
     <row r="163" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A163" s="16" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="F163" s="1">
         <v>1</v>
@@ -3532,7 +3532,7 @@
     </row>
     <row r="167" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A167" s="16" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="F167" s="1">
         <v>1</v>
@@ -3541,7 +3541,7 @@
     </row>
     <row r="168" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A168" s="16" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="F168" s="1">
         <v>1</v>
@@ -3634,7 +3634,7 @@
     </row>
     <row r="181" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A181" s="12" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="F181" s="1">
         <v>5</v>
@@ -4933,8 +4933,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E13E4A5-10AD-4171-99FD-31881C0A6C11}">
   <dimension ref="A1:AD34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13:N13"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11:I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4953,121 +4953,121 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="37"/>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37"/>
-      <c r="G1" s="37"/>
-      <c r="H1" s="37" t="s">
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
+      <c r="H1" s="36" t="s">
         <v>158</v>
       </c>
-      <c r="I1" s="37"/>
-      <c r="J1" s="37"/>
-      <c r="K1" s="37"/>
-      <c r="L1" s="37"/>
-      <c r="M1" s="37"/>
-      <c r="N1" s="37"/>
-      <c r="O1" s="37" t="s">
+      <c r="I1" s="36"/>
+      <c r="J1" s="36"/>
+      <c r="K1" s="36"/>
+      <c r="L1" s="36"/>
+      <c r="M1" s="36"/>
+      <c r="N1" s="36"/>
+      <c r="O1" s="36" t="s">
         <v>159</v>
       </c>
-      <c r="P1" s="37"/>
-      <c r="Q1" s="37"/>
-      <c r="R1" s="37"/>
-      <c r="S1" s="37"/>
-      <c r="T1" s="37"/>
-      <c r="U1" s="37"/>
-      <c r="V1" s="37" t="s">
+      <c r="P1" s="36"/>
+      <c r="Q1" s="36"/>
+      <c r="R1" s="36"/>
+      <c r="S1" s="36"/>
+      <c r="T1" s="36"/>
+      <c r="U1" s="36"/>
+      <c r="V1" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="W1" s="37"/>
-      <c r="X1" s="37"/>
-      <c r="Y1" s="37"/>
-      <c r="Z1" s="37"/>
-      <c r="AA1" s="37"/>
-      <c r="AB1" s="37"/>
+      <c r="W1" s="36"/>
+      <c r="X1" s="36"/>
+      <c r="Y1" s="36"/>
+      <c r="Z1" s="36"/>
+      <c r="AA1" s="36"/>
+      <c r="AB1" s="36"/>
       <c r="AD1" s="19" t="s">
         <v>225</v>
       </c>
     </row>
     <row r="2" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="37"/>
-      <c r="B2" s="37"/>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="37"/>
-      <c r="H2" s="37"/>
-      <c r="I2" s="37"/>
-      <c r="J2" s="37"/>
-      <c r="K2" s="37"/>
-      <c r="L2" s="37"/>
-      <c r="M2" s="37"/>
-      <c r="N2" s="37"/>
-      <c r="O2" s="37"/>
-      <c r="P2" s="37"/>
-      <c r="Q2" s="37"/>
-      <c r="R2" s="37"/>
-      <c r="S2" s="37"/>
-      <c r="T2" s="37"/>
-      <c r="U2" s="37"/>
-      <c r="V2" s="37"/>
-      <c r="W2" s="37"/>
-      <c r="X2" s="37"/>
-      <c r="Y2" s="37"/>
-      <c r="Z2" s="37"/>
-      <c r="AA2" s="37"/>
-      <c r="AB2" s="37"/>
+      <c r="A2" s="36"/>
+      <c r="B2" s="36"/>
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="36"/>
+      <c r="H2" s="36"/>
+      <c r="I2" s="36"/>
+      <c r="J2" s="36"/>
+      <c r="K2" s="36"/>
+      <c r="L2" s="36"/>
+      <c r="M2" s="36"/>
+      <c r="N2" s="36"/>
+      <c r="O2" s="36"/>
+      <c r="P2" s="36"/>
+      <c r="Q2" s="36"/>
+      <c r="R2" s="36"/>
+      <c r="S2" s="36"/>
+      <c r="T2" s="36"/>
+      <c r="U2" s="36"/>
+      <c r="V2" s="36"/>
+      <c r="W2" s="36"/>
+      <c r="X2" s="36"/>
+      <c r="Y2" s="36"/>
+      <c r="Z2" s="36"/>
+      <c r="AA2" s="36"/>
+      <c r="AB2" s="36"/>
     </row>
     <row r="3" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A3" s="38" t="s">
+      <c r="A3" s="37" t="s">
         <v>29</v>
       </c>
-      <c r="B3" s="38"/>
-      <c r="C3" s="39" t="s">
+      <c r="B3" s="37"/>
+      <c r="C3" s="38" t="s">
         <v>31</v>
       </c>
-      <c r="D3" s="39"/>
-      <c r="E3" s="39"/>
-      <c r="F3" s="39"/>
-      <c r="G3" s="39"/>
-      <c r="H3" s="38" t="s">
+      <c r="D3" s="38"/>
+      <c r="E3" s="38"/>
+      <c r="F3" s="38"/>
+      <c r="G3" s="38"/>
+      <c r="H3" s="37" t="s">
         <v>29</v>
       </c>
-      <c r="I3" s="38"/>
-      <c r="J3" s="39" t="s">
+      <c r="I3" s="37"/>
+      <c r="J3" s="38" t="s">
         <v>31</v>
       </c>
-      <c r="K3" s="39"/>
-      <c r="L3" s="39"/>
-      <c r="M3" s="39"/>
-      <c r="N3" s="39"/>
-      <c r="O3" s="38" t="s">
+      <c r="K3" s="38"/>
+      <c r="L3" s="38"/>
+      <c r="M3" s="38"/>
+      <c r="N3" s="38"/>
+      <c r="O3" s="37" t="s">
         <v>29</v>
       </c>
-      <c r="P3" s="38"/>
-      <c r="Q3" s="39" t="s">
+      <c r="P3" s="37"/>
+      <c r="Q3" s="38" t="s">
         <v>31</v>
       </c>
-      <c r="R3" s="39"/>
-      <c r="S3" s="39"/>
-      <c r="T3" s="39"/>
-      <c r="U3" s="39"/>
-      <c r="V3" s="38" t="s">
+      <c r="R3" s="38"/>
+      <c r="S3" s="38"/>
+      <c r="T3" s="38"/>
+      <c r="U3" s="38"/>
+      <c r="V3" s="37" t="s">
         <v>29</v>
       </c>
-      <c r="W3" s="38"/>
-      <c r="X3" s="39" t="s">
+      <c r="W3" s="37"/>
+      <c r="X3" s="38" t="s">
         <v>31</v>
       </c>
-      <c r="Y3" s="39"/>
-      <c r="Z3" s="39"/>
-      <c r="AA3" s="39"/>
-      <c r="AB3" s="39"/>
+      <c r="Y3" s="38"/>
+      <c r="Z3" s="38"/>
+      <c r="AA3" s="38"/>
+      <c r="AB3" s="38"/>
     </row>
     <row r="4" spans="1:30" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="33" t="s">
@@ -5093,7 +5093,7 @@
       <c r="M4" s="34"/>
       <c r="N4" s="34"/>
       <c r="O4" s="35" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="P4" s="35"/>
       <c r="Q4" s="34" t="s">
@@ -5224,7 +5224,7 @@
       </c>
       <c r="I7" s="33"/>
       <c r="J7" s="34" t="s">
-        <v>327</v>
+        <v>362</v>
       </c>
       <c r="K7" s="34"/>
       <c r="L7" s="34"/>
@@ -5242,7 +5242,7 @@
       <c r="T7" s="34"/>
       <c r="U7" s="34"/>
       <c r="V7" s="35" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="W7" s="35"/>
       <c r="X7" s="34" t="s">
@@ -5255,7 +5255,7 @@
     </row>
     <row r="8" spans="1:30" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="33" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B8" s="33"/>
       <c r="C8" s="34" t="s">
@@ -5273,7 +5273,7 @@
       <c r="M8" s="34"/>
       <c r="N8" s="34"/>
       <c r="O8" s="35" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="P8" s="35"/>
       <c r="Q8" s="34" t="s">
@@ -5308,7 +5308,7 @@
       </c>
       <c r="I9" s="33"/>
       <c r="J9" s="34" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="K9" s="34"/>
       <c r="L9" s="34"/>
@@ -5407,7 +5407,7 @@
       </c>
       <c r="P11" s="35"/>
       <c r="Q11" s="34" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="R11" s="34"/>
       <c r="S11" s="34"/>
@@ -5428,11 +5428,11 @@
     <row r="12" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="33"/>
       <c r="B12" s="33"/>
-      <c r="C12" s="36"/>
-      <c r="D12" s="36"/>
-      <c r="E12" s="36"/>
-      <c r="F12" s="36"/>
-      <c r="G12" s="36"/>
+      <c r="C12" s="39"/>
+      <c r="D12" s="39"/>
+      <c r="E12" s="39"/>
+      <c r="F12" s="39"/>
+      <c r="G12" s="39"/>
       <c r="H12" s="33" t="s">
         <v>323</v>
       </c>
@@ -5464,15 +5464,15 @@
         <v>229</v>
       </c>
       <c r="B13" s="33"/>
-      <c r="C13" s="36" t="s">
+      <c r="C13" s="39" t="s">
         <v>228</v>
       </c>
-      <c r="D13" s="36"/>
-      <c r="E13" s="36"/>
-      <c r="F13" s="36"/>
-      <c r="G13" s="36"/>
+      <c r="D13" s="39"/>
+      <c r="E13" s="39"/>
+      <c r="F13" s="39"/>
+      <c r="G13" s="39"/>
       <c r="H13" s="33" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="I13" s="33"/>
       <c r="J13" s="34" t="s">
@@ -5510,13 +5510,13 @@
         <v>233</v>
       </c>
       <c r="B14" s="33"/>
-      <c r="C14" s="36" t="s">
+      <c r="C14" s="39" t="s">
         <v>232</v>
       </c>
-      <c r="D14" s="36"/>
-      <c r="E14" s="36"/>
-      <c r="F14" s="36"/>
-      <c r="G14" s="36"/>
+      <c r="D14" s="39"/>
+      <c r="E14" s="39"/>
+      <c r="F14" s="39"/>
+      <c r="G14" s="39"/>
       <c r="H14" s="33"/>
       <c r="I14" s="33"/>
       <c r="J14" s="34"/>
@@ -5544,7 +5544,7 @@
         <v>234</v>
       </c>
       <c r="B15" s="33"/>
-      <c r="C15" s="36" t="s">
+      <c r="C15" s="39" t="s">
         <v>235</v>
       </c>
       <c r="D15" s="34"/>
@@ -5575,7 +5575,7 @@
     </row>
     <row r="16" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A16" s="33" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B16" s="33"/>
       <c r="C16" s="34"/>
@@ -6063,79 +6063,145 @@
     </row>
   </sheetData>
   <mergeCells count="236">
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:G4"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="J4:N4"/>
-    <mergeCell ref="V4:W4"/>
-    <mergeCell ref="X4:AB4"/>
-    <mergeCell ref="O4:P4"/>
-    <mergeCell ref="Q4:U4"/>
-    <mergeCell ref="J5:N5"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:G5"/>
-    <mergeCell ref="A1:G2"/>
-    <mergeCell ref="H1:N2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:G3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="V1:AB2"/>
-    <mergeCell ref="V3:W3"/>
-    <mergeCell ref="J3:N3"/>
-    <mergeCell ref="X3:AB3"/>
-    <mergeCell ref="O1:U2"/>
-    <mergeCell ref="O3:P3"/>
-    <mergeCell ref="Q3:U3"/>
-    <mergeCell ref="V5:W5"/>
-    <mergeCell ref="X5:AB5"/>
-    <mergeCell ref="O5:P5"/>
-    <mergeCell ref="Q5:U5"/>
-    <mergeCell ref="O6:P6"/>
-    <mergeCell ref="Q6:U6"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="V13:W13"/>
-    <mergeCell ref="J14:N14"/>
-    <mergeCell ref="V14:W14"/>
-    <mergeCell ref="X14:AB14"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="V6:W6"/>
-    <mergeCell ref="X6:AB6"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="C8:G8"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="J6:N6"/>
-    <mergeCell ref="V8:W8"/>
-    <mergeCell ref="X8:AB8"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="J7:N7"/>
-    <mergeCell ref="V7:W7"/>
-    <mergeCell ref="X7:AB7"/>
-    <mergeCell ref="O7:P7"/>
-    <mergeCell ref="Q7:U7"/>
-    <mergeCell ref="Q8:U8"/>
-    <mergeCell ref="O8:P8"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="J8:N8"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="C10:G10"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="J10:N10"/>
-    <mergeCell ref="V10:W10"/>
-    <mergeCell ref="X10:AB10"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="C9:G9"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="J9:N9"/>
-    <mergeCell ref="V9:W9"/>
-    <mergeCell ref="X9:AB9"/>
-    <mergeCell ref="O9:P9"/>
-    <mergeCell ref="Q9:U9"/>
-    <mergeCell ref="O10:P10"/>
-    <mergeCell ref="Q10:U10"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="C34:G34"/>
+    <mergeCell ref="H34:I34"/>
+    <mergeCell ref="J34:N34"/>
+    <mergeCell ref="O34:P34"/>
+    <mergeCell ref="Q34:U34"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="C33:G33"/>
+    <mergeCell ref="H33:I33"/>
+    <mergeCell ref="J33:N33"/>
+    <mergeCell ref="O33:P33"/>
+    <mergeCell ref="Q33:U33"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="C32:G32"/>
+    <mergeCell ref="H32:I32"/>
+    <mergeCell ref="J32:N32"/>
+    <mergeCell ref="O32:P32"/>
+    <mergeCell ref="Q32:U32"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="C31:G31"/>
+    <mergeCell ref="H31:I31"/>
+    <mergeCell ref="J31:N31"/>
+    <mergeCell ref="O31:P31"/>
+    <mergeCell ref="Q31:U31"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="C30:G30"/>
+    <mergeCell ref="H30:I30"/>
+    <mergeCell ref="J30:N30"/>
+    <mergeCell ref="O30:P30"/>
+    <mergeCell ref="Q30:U30"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="C29:G29"/>
+    <mergeCell ref="H29:I29"/>
+    <mergeCell ref="J29:N29"/>
+    <mergeCell ref="O29:P29"/>
+    <mergeCell ref="Q29:U29"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="C28:G28"/>
+    <mergeCell ref="H28:I28"/>
+    <mergeCell ref="J28:N28"/>
+    <mergeCell ref="O28:P28"/>
+    <mergeCell ref="Q28:U28"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="C27:G27"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="J27:N27"/>
+    <mergeCell ref="O27:P27"/>
+    <mergeCell ref="Q27:U27"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="C26:G26"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="J26:N26"/>
+    <mergeCell ref="O26:P26"/>
+    <mergeCell ref="Q26:U26"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="C25:G25"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="J25:N25"/>
+    <mergeCell ref="O25:P25"/>
+    <mergeCell ref="Q25:U25"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="C24:G24"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="J24:N24"/>
+    <mergeCell ref="O24:P24"/>
+    <mergeCell ref="Q24:U24"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="C23:G23"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="J23:N23"/>
+    <mergeCell ref="O23:P23"/>
+    <mergeCell ref="Q23:U23"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="C22:G22"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="J22:N22"/>
+    <mergeCell ref="V22:W22"/>
+    <mergeCell ref="X22:AB22"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="J21:N21"/>
+    <mergeCell ref="V21:W21"/>
+    <mergeCell ref="X21:AB21"/>
+    <mergeCell ref="O21:P21"/>
+    <mergeCell ref="Q21:U21"/>
+    <mergeCell ref="O22:P22"/>
+    <mergeCell ref="Q22:U22"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="J20:N20"/>
+    <mergeCell ref="V20:W20"/>
+    <mergeCell ref="X20:AB20"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="J19:N19"/>
+    <mergeCell ref="V19:W19"/>
+    <mergeCell ref="X19:AB19"/>
+    <mergeCell ref="O19:P19"/>
+    <mergeCell ref="Q19:U19"/>
+    <mergeCell ref="O20:P20"/>
+    <mergeCell ref="Q20:U20"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="J18:N18"/>
+    <mergeCell ref="V18:W18"/>
+    <mergeCell ref="X18:AB18"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C17:G17"/>
+    <mergeCell ref="V17:W17"/>
+    <mergeCell ref="X17:AB17"/>
+    <mergeCell ref="O17:P17"/>
+    <mergeCell ref="Q17:U17"/>
+    <mergeCell ref="O18:P18"/>
+    <mergeCell ref="Q18:U18"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="J17:N17"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C13:G13"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="J13:N13"/>
+    <mergeCell ref="X13:AB13"/>
+    <mergeCell ref="O14:P14"/>
+    <mergeCell ref="Q14:U14"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:G16"/>
+    <mergeCell ref="V16:W16"/>
+    <mergeCell ref="X16:AB16"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C15:G15"/>
+    <mergeCell ref="V15:W15"/>
+    <mergeCell ref="X15:AB15"/>
+    <mergeCell ref="O15:P15"/>
+    <mergeCell ref="Q15:U15"/>
+    <mergeCell ref="O16:P16"/>
+    <mergeCell ref="Q16:U16"/>
     <mergeCell ref="A12:B12"/>
     <mergeCell ref="C12:G12"/>
     <mergeCell ref="H16:I16"/>
@@ -6160,145 +6226,79 @@
     <mergeCell ref="Q13:U13"/>
     <mergeCell ref="A14:B14"/>
     <mergeCell ref="C14:G14"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="C13:G13"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="J13:N13"/>
-    <mergeCell ref="X13:AB13"/>
-    <mergeCell ref="O14:P14"/>
-    <mergeCell ref="Q14:U14"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="C16:G16"/>
-    <mergeCell ref="V16:W16"/>
-    <mergeCell ref="X16:AB16"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="C15:G15"/>
-    <mergeCell ref="V15:W15"/>
-    <mergeCell ref="X15:AB15"/>
-    <mergeCell ref="O15:P15"/>
-    <mergeCell ref="Q15:U15"/>
-    <mergeCell ref="O16:P16"/>
-    <mergeCell ref="Q16:U16"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C18:G18"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="J18:N18"/>
-    <mergeCell ref="V18:W18"/>
-    <mergeCell ref="X18:AB18"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="C17:G17"/>
-    <mergeCell ref="V17:W17"/>
-    <mergeCell ref="X17:AB17"/>
-    <mergeCell ref="O17:P17"/>
-    <mergeCell ref="Q17:U17"/>
-    <mergeCell ref="O18:P18"/>
-    <mergeCell ref="Q18:U18"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="J17:N17"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="C20:G20"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="J20:N20"/>
-    <mergeCell ref="V20:W20"/>
-    <mergeCell ref="X20:AB20"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="C19:G19"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="J19:N19"/>
-    <mergeCell ref="V19:W19"/>
-    <mergeCell ref="X19:AB19"/>
-    <mergeCell ref="O19:P19"/>
-    <mergeCell ref="Q19:U19"/>
-    <mergeCell ref="O20:P20"/>
-    <mergeCell ref="Q20:U20"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="C22:G22"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="J22:N22"/>
-    <mergeCell ref="V22:W22"/>
-    <mergeCell ref="X22:AB22"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="C21:G21"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="J21:N21"/>
-    <mergeCell ref="V21:W21"/>
-    <mergeCell ref="X21:AB21"/>
-    <mergeCell ref="O21:P21"/>
-    <mergeCell ref="Q21:U21"/>
-    <mergeCell ref="O22:P22"/>
-    <mergeCell ref="Q22:U22"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="C24:G24"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="J24:N24"/>
-    <mergeCell ref="O24:P24"/>
-    <mergeCell ref="Q24:U24"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="C23:G23"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="J23:N23"/>
-    <mergeCell ref="O23:P23"/>
-    <mergeCell ref="Q23:U23"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="C26:G26"/>
-    <mergeCell ref="H26:I26"/>
-    <mergeCell ref="J26:N26"/>
-    <mergeCell ref="O26:P26"/>
-    <mergeCell ref="Q26:U26"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="C25:G25"/>
-    <mergeCell ref="H25:I25"/>
-    <mergeCell ref="J25:N25"/>
-    <mergeCell ref="O25:P25"/>
-    <mergeCell ref="Q25:U25"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="C28:G28"/>
-    <mergeCell ref="H28:I28"/>
-    <mergeCell ref="J28:N28"/>
-    <mergeCell ref="O28:P28"/>
-    <mergeCell ref="Q28:U28"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="C27:G27"/>
-    <mergeCell ref="H27:I27"/>
-    <mergeCell ref="J27:N27"/>
-    <mergeCell ref="O27:P27"/>
-    <mergeCell ref="Q27:U27"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="C30:G30"/>
-    <mergeCell ref="H30:I30"/>
-    <mergeCell ref="J30:N30"/>
-    <mergeCell ref="O30:P30"/>
-    <mergeCell ref="Q30:U30"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="C29:G29"/>
-    <mergeCell ref="H29:I29"/>
-    <mergeCell ref="J29:N29"/>
-    <mergeCell ref="O29:P29"/>
-    <mergeCell ref="Q29:U29"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="C32:G32"/>
-    <mergeCell ref="H32:I32"/>
-    <mergeCell ref="J32:N32"/>
-    <mergeCell ref="O32:P32"/>
-    <mergeCell ref="Q32:U32"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="C31:G31"/>
-    <mergeCell ref="H31:I31"/>
-    <mergeCell ref="J31:N31"/>
-    <mergeCell ref="O31:P31"/>
-    <mergeCell ref="Q31:U31"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="C34:G34"/>
-    <mergeCell ref="H34:I34"/>
-    <mergeCell ref="J34:N34"/>
-    <mergeCell ref="O34:P34"/>
-    <mergeCell ref="Q34:U34"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="C33:G33"/>
-    <mergeCell ref="H33:I33"/>
-    <mergeCell ref="J33:N33"/>
-    <mergeCell ref="O33:P33"/>
-    <mergeCell ref="Q33:U33"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C10:G10"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="J10:N10"/>
+    <mergeCell ref="V10:W10"/>
+    <mergeCell ref="X10:AB10"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:G9"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="J9:N9"/>
+    <mergeCell ref="V9:W9"/>
+    <mergeCell ref="X9:AB9"/>
+    <mergeCell ref="O9:P9"/>
+    <mergeCell ref="Q9:U9"/>
+    <mergeCell ref="O10:P10"/>
+    <mergeCell ref="Q10:U10"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="J6:N6"/>
+    <mergeCell ref="V8:W8"/>
+    <mergeCell ref="X8:AB8"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:N7"/>
+    <mergeCell ref="V7:W7"/>
+    <mergeCell ref="X7:AB7"/>
+    <mergeCell ref="O7:P7"/>
+    <mergeCell ref="Q7:U7"/>
+    <mergeCell ref="Q8:U8"/>
+    <mergeCell ref="O8:P8"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="J8:N8"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="O6:P6"/>
+    <mergeCell ref="Q6:U6"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="V13:W13"/>
+    <mergeCell ref="J14:N14"/>
+    <mergeCell ref="V14:W14"/>
+    <mergeCell ref="X14:AB14"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="V6:W6"/>
+    <mergeCell ref="X6:AB6"/>
+    <mergeCell ref="A1:G2"/>
+    <mergeCell ref="H1:N2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:G3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="V1:AB2"/>
+    <mergeCell ref="V3:W3"/>
+    <mergeCell ref="J3:N3"/>
+    <mergeCell ref="X3:AB3"/>
+    <mergeCell ref="O1:U2"/>
+    <mergeCell ref="O3:P3"/>
+    <mergeCell ref="Q3:U3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="J4:N4"/>
+    <mergeCell ref="V4:W4"/>
+    <mergeCell ref="X4:AB4"/>
+    <mergeCell ref="O4:P4"/>
+    <mergeCell ref="Q4:U4"/>
+    <mergeCell ref="J5:N5"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="V5:W5"/>
+    <mergeCell ref="X5:AB5"/>
+    <mergeCell ref="O5:P5"/>
+    <mergeCell ref="Q5:U5"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C15" r:id="rId1" xr:uid="{868F8F85-B252-4B04-B081-E9B23AD46A23}"/>
@@ -6635,12 +6635,14 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="E6:H6"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="E2:H2"/>
-    <mergeCell ref="E3:H3"/>
-    <mergeCell ref="E4:H4"/>
-    <mergeCell ref="E5:H5"/>
+    <mergeCell ref="E25:H25"/>
+    <mergeCell ref="E26:H26"/>
+    <mergeCell ref="E19:H19"/>
+    <mergeCell ref="E20:H20"/>
+    <mergeCell ref="E21:H21"/>
+    <mergeCell ref="E22:H22"/>
+    <mergeCell ref="E23:H23"/>
+    <mergeCell ref="E24:H24"/>
     <mergeCell ref="E18:H18"/>
     <mergeCell ref="E7:H7"/>
     <mergeCell ref="E8:H8"/>
@@ -6653,14 +6655,12 @@
     <mergeCell ref="E15:H15"/>
     <mergeCell ref="E16:H16"/>
     <mergeCell ref="E17:H17"/>
-    <mergeCell ref="E25:H25"/>
-    <mergeCell ref="E26:H26"/>
-    <mergeCell ref="E19:H19"/>
-    <mergeCell ref="E20:H20"/>
-    <mergeCell ref="E21:H21"/>
-    <mergeCell ref="E22:H22"/>
-    <mergeCell ref="E23:H23"/>
-    <mergeCell ref="E24:H24"/>
+    <mergeCell ref="E6:H6"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="E2:H2"/>
+    <mergeCell ref="E3:H3"/>
+    <mergeCell ref="E4:H4"/>
+    <mergeCell ref="E5:H5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7021,22 +7021,6 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="D4:G4"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="D2:G2"/>
-    <mergeCell ref="D3:G3"/>
-    <mergeCell ref="D6:G6"/>
-    <mergeCell ref="D5:G5"/>
-    <mergeCell ref="D18:G18"/>
-    <mergeCell ref="D8:G8"/>
-    <mergeCell ref="D9:G9"/>
-    <mergeCell ref="D11:G11"/>
-    <mergeCell ref="D12:G12"/>
-    <mergeCell ref="D13:G13"/>
-    <mergeCell ref="D14:G14"/>
-    <mergeCell ref="D15:G15"/>
-    <mergeCell ref="D16:G16"/>
-    <mergeCell ref="D17:G17"/>
     <mergeCell ref="D30:G30"/>
     <mergeCell ref="D19:G19"/>
     <mergeCell ref="D20:G20"/>
@@ -7049,6 +7033,22 @@
     <mergeCell ref="D27:G27"/>
     <mergeCell ref="D28:G28"/>
     <mergeCell ref="D29:G29"/>
+    <mergeCell ref="D18:G18"/>
+    <mergeCell ref="D8:G8"/>
+    <mergeCell ref="D9:G9"/>
+    <mergeCell ref="D11:G11"/>
+    <mergeCell ref="D12:G12"/>
+    <mergeCell ref="D13:G13"/>
+    <mergeCell ref="D14:G14"/>
+    <mergeCell ref="D15:G15"/>
+    <mergeCell ref="D16:G16"/>
+    <mergeCell ref="D17:G17"/>
+    <mergeCell ref="D4:G4"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="D3:G3"/>
+    <mergeCell ref="D6:G6"/>
+    <mergeCell ref="D5:G5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/plans/todo.xlsx
+++ b/plans/todo.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Edsquid\Documents\Personal Projects\Business\RogueLikeGame\plans\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{075354CF-D95D-4011-87D1-43F0A99BC315}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AEC8ADC-2EAA-498D-9F62-21DA7A5F57C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29355" yWindow="1485" windowWidth="19920" windowHeight="13335" tabRatio="509" activeTab="3" xr2:uid="{BA1E511D-BF64-4842-98DF-72E30276ED1C}"/>
+    <workbookView xWindow="32865" yWindow="810" windowWidth="19920" windowHeight="13335" tabRatio="509" activeTab="3" xr2:uid="{BA1E511D-BF64-4842-98DF-72E30276ED1C}"/>
   </bookViews>
   <sheets>
     <sheet name="Attributes" sheetId="3" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="482" uniqueCount="363">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="484" uniqueCount="365">
   <si>
     <t>Max Lives</t>
   </si>
@@ -139,18 +139,12 @@
     <t>Desc</t>
   </si>
   <si>
-    <t>Spear</t>
-  </si>
-  <si>
     <t>Energy Sword</t>
   </si>
   <si>
     <t>Flame Sword</t>
   </si>
   <si>
-    <t>Dagger</t>
-  </si>
-  <si>
     <t>Giga sword</t>
   </si>
   <si>
@@ -1130,6 +1124,18 @@
   </si>
   <si>
     <t>Charge, laser rifle, colorful (random damagetype), level = additional beam</t>
+  </si>
+  <si>
+    <t>Phase Dagger</t>
+  </si>
+  <si>
+    <t>Crystal Longsword</t>
+  </si>
+  <si>
+    <t>Stock standard SWORD</t>
+  </si>
+  <si>
+    <t>Aethertide Lance</t>
   </si>
 </sst>
 </file>
@@ -1311,7 +1317,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -1411,12 +1417,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1491,6 +1506,9 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1499,9 +1517,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -1516,6 +1531,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1854,7 +1875,7 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="28" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B1" s="29"/>
       <c r="C1" s="29"/>
@@ -1863,7 +1884,7 @@
       <c r="F1" s="29"/>
       <c r="G1" s="29"/>
       <c r="H1" s="9" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -1875,36 +1896,36 @@
       <c r="F2" s="31"/>
       <c r="G2" s="31"/>
       <c r="H2" s="11" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="D3" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="F3" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="C3" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>67</v>
-      </c>
       <c r="G3" s="7" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="H3" s="8"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="24" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B4" s="24"/>
       <c r="C4" s="24"/>
@@ -1916,16 +1937,16 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="16" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E5" s="2">
         <v>0.05</v>
@@ -1937,16 +1958,16 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="16" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E6" s="2">
         <v>0.05</v>
@@ -1961,13 +1982,13 @@
         <v>1</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E7" s="2">
         <v>0.05</v>
@@ -1982,13 +2003,13 @@
         <v>2</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E8" s="2">
         <v>0.05</v>
@@ -2003,13 +2024,13 @@
         <v>3</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E9" s="2">
         <v>0.05</v>
@@ -2024,13 +2045,13 @@
         <v>4</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E10" s="2">
         <v>0.05</v>
@@ -2045,13 +2066,13 @@
         <v>5</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E11" s="2">
         <v>0.05</v>
@@ -2066,13 +2087,13 @@
         <v>6</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E12" s="2">
         <v>0.05</v>
@@ -2087,13 +2108,13 @@
         <v>7</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E13" s="2">
         <v>0.05</v>
@@ -2108,13 +2129,13 @@
         <v>8</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E14" s="2">
         <v>0.05</v>
@@ -2129,13 +2150,13 @@
         <v>9</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E15" s="2">
         <v>0.05</v>
@@ -2150,13 +2171,13 @@
         <v>10</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E16" s="2">
         <v>0.05</v>
@@ -2171,13 +2192,13 @@
         <v>12</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E17" s="2">
         <v>0.05</v>
@@ -2192,13 +2213,13 @@
         <v>22</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E18" s="2">
         <v>0.05</v>
@@ -2213,13 +2234,13 @@
         <v>23</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E19" s="2">
         <v>0.05</v>
@@ -2231,16 +2252,16 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="16" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E20" s="2">
         <v>0.05</v>
@@ -2252,16 +2273,16 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="16" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E21" s="2">
         <v>0.05</v>
@@ -2273,16 +2294,16 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="16" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E22" s="2">
         <v>0.01</v>
@@ -2294,16 +2315,16 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="16" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E23" s="2">
         <v>0.05</v>
@@ -2315,16 +2336,16 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="16" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E24" s="2">
         <v>0.05</v>
@@ -2336,16 +2357,16 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="16" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E25" s="2">
         <v>0.05</v>
@@ -2360,13 +2381,13 @@
         <v>0</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E26" s="2">
         <v>1</v>
@@ -2378,7 +2399,7 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="16" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="G27" s="2"/>
     </row>
@@ -2399,22 +2420,22 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C33" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="B33" s="4" t="s">
+      <c r="D33" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="E33" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="F33" s="4" t="s">
         <v>65</v>
-      </c>
-      <c r="C33" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="D33" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="E33" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="F33" s="4" t="s">
-        <v>67</v>
       </c>
       <c r="G33" s="4"/>
     </row>
@@ -2431,16 +2452,16 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C35" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="B35" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>107</v>
-      </c>
       <c r="D35" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="F35" s="1">
         <v>10</v>
@@ -2449,16 +2470,16 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B36" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="B36" s="1" t="s">
+      <c r="C36" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="C36" s="2" t="s">
-        <v>108</v>
-      </c>
       <c r="D36" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F36" s="1">
         <v>10</v>
@@ -2470,13 +2491,13 @@
         <v>15</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F37" s="1">
         <v>10</v>
@@ -2488,13 +2509,13 @@
         <v>16</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F38" s="1">
         <v>1</v>
@@ -2506,13 +2527,13 @@
         <v>17</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F39" s="1">
         <v>5</v>
@@ -2521,13 +2542,13 @@
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="F40" s="1">
         <v>10</v>
@@ -2536,7 +2557,7 @@
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="G41" s="2"/>
     </row>
@@ -2545,28 +2566,28 @@
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C43" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="B43" s="4" t="s">
+      <c r="D43" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="E43" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="F43" s="4" t="s">
         <v>65</v>
-      </c>
-      <c r="C43" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="D43" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="E43" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="F43" s="4" t="s">
-        <v>67</v>
       </c>
       <c r="G43" s="4"/>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="27" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B44" s="27"/>
       <c r="C44" s="27"/>
@@ -2577,16 +2598,16 @@
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="16" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="F45" s="1">
         <v>5</v>
@@ -2598,13 +2619,13 @@
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="16" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="F47" s="1">
         <v>5</v>
@@ -2613,16 +2634,16 @@
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="16" t="s">
+        <v>168</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="E48" s="2" t="s">
         <v>170</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C48" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="E48" s="2" t="s">
-        <v>172</v>
       </c>
       <c r="F48" s="1">
         <v>5</v>
@@ -2637,13 +2658,13 @@
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="16" t="s">
+        <v>117</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C50" s="2" t="s">
         <v>119</v>
-      </c>
-      <c r="B50" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="C50" s="2" t="s">
-        <v>121</v>
       </c>
       <c r="F50" s="1">
         <v>5</v>
@@ -2655,7 +2676,7 @@
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="12" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="F52" s="1">
         <v>5</v>
@@ -2664,13 +2685,13 @@
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="16" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F54" s="1">
         <v>5</v>
@@ -2679,13 +2700,13 @@
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="16" t="s">
+        <v>121</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C55" s="2" t="s">
         <v>123</v>
-      </c>
-      <c r="B55" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="C55" s="2" t="s">
-        <v>125</v>
       </c>
       <c r="F55" s="1">
         <v>5</v>
@@ -2694,13 +2715,13 @@
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" s="16" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F56" s="1">
         <v>5</v>
@@ -2709,7 +2730,7 @@
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="12" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
@@ -2720,10 +2741,10 @@
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" s="16" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F59" s="1">
         <v>5</v>
@@ -2741,13 +2762,13 @@
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" s="16" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="F65" s="1">
         <v>5</v>
@@ -2756,10 +2777,10 @@
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="F66" s="1">
         <v>5</v>
@@ -2768,13 +2789,13 @@
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F67" s="1">
         <v>5</v>
@@ -2789,13 +2810,13 @@
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" s="16" t="s">
+        <v>127</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C69" s="2" t="s">
         <v>129</v>
-      </c>
-      <c r="B69" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C69" s="2" t="s">
-        <v>131</v>
       </c>
       <c r="F69" s="1">
         <v>5</v>
@@ -2804,7 +2825,7 @@
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" s="12" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="G70" s="2"/>
     </row>
@@ -2819,7 +2840,7 @@
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" s="16" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="F73" s="1">
         <v>5</v>
@@ -2828,10 +2849,10 @@
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" s="16" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F74" s="1">
         <v>5</v>
@@ -2840,10 +2861,10 @@
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" s="16" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F75" s="1">
         <v>5</v>
@@ -2864,10 +2885,10 @@
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F78" s="1">
         <v>5</v>
@@ -2876,7 +2897,7 @@
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" s="12" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="F79" s="1">
         <v>5</v>
@@ -2891,10 +2912,10 @@
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" s="16" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F81" s="1">
         <v>5</v>
@@ -2903,10 +2924,10 @@
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" s="16" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F82" s="1">
         <v>5</v>
@@ -2924,10 +2945,10 @@
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" s="16" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F85" s="1">
         <v>5</v>
@@ -2936,10 +2957,10 @@
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" s="16" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F86" s="1">
         <v>5</v>
@@ -2948,10 +2969,10 @@
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" s="16" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F87" s="1">
         <v>5</v>
@@ -2960,7 +2981,7 @@
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" s="12" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="F88" s="1">
         <v>5</v>
@@ -2975,10 +2996,10 @@
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" s="12" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F90" s="1">
         <v>5</v>
@@ -2987,10 +3008,10 @@
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" s="16" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F91" s="1">
         <v>5</v>
@@ -2999,10 +3020,10 @@
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" s="16" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F92" s="1">
         <v>5</v>
@@ -3011,7 +3032,7 @@
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" s="16" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F93" s="1">
         <v>5</v>
@@ -3020,10 +3041,10 @@
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" s="16" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F95" s="1">
         <v>5</v>
@@ -3038,7 +3059,7 @@
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97" s="12" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="F97" s="1">
         <v>5</v>
@@ -3053,7 +3074,7 @@
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99" s="2" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="F99" s="1">
         <v>5</v>
@@ -3062,7 +3083,7 @@
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100" s="16" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="F100" s="1">
         <v>5</v>
@@ -3071,7 +3092,7 @@
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="F101" s="1">
         <v>5</v>
@@ -3080,7 +3101,7 @@
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102" s="3" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="F102" s="1">
         <v>5</v>
@@ -3107,7 +3128,7 @@
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106" s="2" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="F106" s="1">
         <v>5</v>
@@ -3116,7 +3137,7 @@
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107" s="16" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F107" s="1">
         <v>5</v>
@@ -3137,7 +3158,7 @@
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110" s="12" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="F110" s="1">
         <v>5</v>
@@ -3152,7 +3173,7 @@
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A112" s="16" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="F112" s="1">
         <v>5</v>
@@ -3173,7 +3194,7 @@
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A116" s="6" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="F116" s="1">
         <v>5</v>
@@ -3182,7 +3203,7 @@
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A117" s="16" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="F117" s="1">
         <v>5</v>
@@ -3191,7 +3212,7 @@
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A118" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="F118" s="1">
         <v>5</v>
@@ -3200,7 +3221,7 @@
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A119" s="2" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="F119" s="1">
         <v>5</v>
@@ -3209,7 +3230,7 @@
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A120" s="2" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F120" s="1">
         <v>5</v>
@@ -3239,7 +3260,7 @@
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A124" s="16" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="F124" s="1">
         <v>5</v>
@@ -3248,7 +3269,7 @@
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A125" s="16" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F125" s="1">
         <v>5</v>
@@ -3263,7 +3284,7 @@
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A127" s="2" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="F127" s="1">
         <v>5</v>
@@ -3272,7 +3293,7 @@
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A128" s="2" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="F128" s="1">
         <v>5</v>
@@ -3281,7 +3302,7 @@
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A129" s="16" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="F129" s="1">
         <v>5</v>
@@ -3293,13 +3314,13 @@
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A131" s="2" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="G131" s="2"/>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A132" s="2" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="G132" s="2"/>
     </row>
@@ -3308,7 +3329,7 @@
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A134" s="2" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="G134" s="2"/>
     </row>
@@ -3368,28 +3389,28 @@
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A150" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="B150" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C150" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="B150" s="4" t="s">
+      <c r="D150" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="E150" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="F150" s="4" t="s">
         <v>65</v>
-      </c>
-      <c r="C150" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="D150" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="E150" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="F150" s="4" t="s">
-        <v>67</v>
       </c>
       <c r="G150" s="4"/>
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A151" s="25" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B151" s="25"/>
       <c r="C151" s="25"/>
@@ -3400,7 +3421,7 @@
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A152" s="16" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="F152" s="1">
         <v>1</v>
@@ -3436,7 +3457,7 @@
     </row>
     <row r="156" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A156" s="16" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="F156" s="1">
         <v>1</v>
@@ -3445,7 +3466,7 @@
     </row>
     <row r="157" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A157" s="16" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="F157" s="1">
         <v>1</v>
@@ -3463,7 +3484,7 @@
     </row>
     <row r="159" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A159" s="2" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="F159" s="1">
         <v>1</v>
@@ -3478,7 +3499,7 @@
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A161" s="2" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="F161" s="1">
         <v>1</v>
@@ -3496,7 +3517,7 @@
     </row>
     <row r="163" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A163" s="16" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="F163" s="1">
         <v>1</v>
@@ -3532,7 +3553,7 @@
     </row>
     <row r="167" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A167" s="16" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="F167" s="1">
         <v>1</v>
@@ -3541,7 +3562,7 @@
     </row>
     <row r="168" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A168" s="16" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="F168" s="1">
         <v>1</v>
@@ -3556,7 +3577,7 @@
     </row>
     <row r="170" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A170" s="16" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F170" s="1">
         <v>1</v>
@@ -3589,7 +3610,7 @@
     </row>
     <row r="175" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A175" s="16" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F175" s="1">
         <v>5</v>
@@ -3604,7 +3625,7 @@
     </row>
     <row r="177" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A177" s="16" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F177" s="1">
         <v>5</v>
@@ -3625,7 +3646,7 @@
     </row>
     <row r="180" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A180" s="12" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="F180" s="1">
         <v>5</v>
@@ -3634,7 +3655,7 @@
     </row>
     <row r="181" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A181" s="12" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="F181" s="1">
         <v>5</v>
@@ -4721,7 +4742,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A1" s="32" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B1" s="32"/>
       <c r="C1" s="32"/>
@@ -4732,50 +4753,50 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C2" s="13" t="s">
         <v>31</v>
       </c>
       <c r="D2" s="13" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="E2" s="13"/>
     </row>
     <row r="3" spans="1:7" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B3" s="5">
         <v>1</v>
       </c>
       <c r="C3" s="14" t="s">
+        <v>186</v>
+      </c>
+      <c r="D3" s="14" t="s">
+        <v>187</v>
+      </c>
+      <c r="E3" s="5" t="s">
         <v>188</v>
-      </c>
-      <c r="D3" s="14" t="s">
-        <v>189</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B4" s="5">
         <v>3</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B5" s="5">
         <v>4</v>
@@ -4808,7 +4829,7 @@
   <sheetData>
     <row r="1" spans="1:5" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A1" s="32" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B1" s="32"/>
       <c r="C1" s="32"/>
@@ -4817,107 +4838,107 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="17" t="s">
+        <v>190</v>
+      </c>
+      <c r="B2" s="17" t="s">
+        <v>191</v>
+      </c>
+      <c r="C2" s="17" t="s">
         <v>192</v>
       </c>
-      <c r="B2" s="17" t="s">
+      <c r="D2" s="17" t="s">
         <v>193</v>
-      </c>
-      <c r="C2" s="17" t="s">
-        <v>194</v>
-      </c>
-      <c r="D2" s="17" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="C4" s="5" t="s">
         <v>196</v>
       </c>
-      <c r="B4" s="5" t="s">
-        <v>220</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>198</v>
-      </c>
       <c r="D4" s="5" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="B6" s="5" t="s">
         <v>205</v>
       </c>
-      <c r="B6" s="5" t="s">
-        <v>207</v>
-      </c>
       <c r="C6" s="5" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="C7" s="5" t="s">
         <v>208</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>209</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>210</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="D8" s="5" t="s">
         <v>202</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>203</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>211</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="B10" s="5" t="s">
         <v>214</v>
       </c>
-      <c r="B10" s="5" t="s">
-        <v>216</v>
-      </c>
       <c r="C10" s="5" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
   </sheetData>
@@ -4931,10 +4952,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E13E4A5-10AD-4171-99FD-31881C0A6C11}">
-  <dimension ref="A1:AD34"/>
+  <dimension ref="A1:AD35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11:I11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7:B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4953,162 +4974,162 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="36"/>
-      <c r="G1" s="36"/>
-      <c r="H1" s="36" t="s">
-        <v>158</v>
-      </c>
-      <c r="I1" s="36"/>
-      <c r="J1" s="36"/>
-      <c r="K1" s="36"/>
-      <c r="L1" s="36"/>
-      <c r="M1" s="36"/>
-      <c r="N1" s="36"/>
-      <c r="O1" s="36" t="s">
-        <v>159</v>
-      </c>
-      <c r="P1" s="36"/>
-      <c r="Q1" s="36"/>
-      <c r="R1" s="36"/>
-      <c r="S1" s="36"/>
-      <c r="T1" s="36"/>
-      <c r="U1" s="36"/>
-      <c r="V1" s="36" t="s">
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
+      <c r="H1" s="37" t="s">
+        <v>156</v>
+      </c>
+      <c r="I1" s="37"/>
+      <c r="J1" s="37"/>
+      <c r="K1" s="37"/>
+      <c r="L1" s="37"/>
+      <c r="M1" s="37"/>
+      <c r="N1" s="37"/>
+      <c r="O1" s="37" t="s">
+        <v>157</v>
+      </c>
+      <c r="P1" s="37"/>
+      <c r="Q1" s="37"/>
+      <c r="R1" s="37"/>
+      <c r="S1" s="37"/>
+      <c r="T1" s="37"/>
+      <c r="U1" s="37"/>
+      <c r="V1" s="37" t="s">
         <v>30</v>
       </c>
-      <c r="W1" s="36"/>
-      <c r="X1" s="36"/>
-      <c r="Y1" s="36"/>
-      <c r="Z1" s="36"/>
-      <c r="AA1" s="36"/>
-      <c r="AB1" s="36"/>
+      <c r="W1" s="37"/>
+      <c r="X1" s="37"/>
+      <c r="Y1" s="37"/>
+      <c r="Z1" s="37"/>
+      <c r="AA1" s="37"/>
+      <c r="AB1" s="37"/>
       <c r="AD1" s="19" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="2" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="36"/>
-      <c r="B2" s="36"/>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36"/>
-      <c r="E2" s="36"/>
-      <c r="F2" s="36"/>
-      <c r="G2" s="36"/>
-      <c r="H2" s="36"/>
-      <c r="I2" s="36"/>
-      <c r="J2" s="36"/>
-      <c r="K2" s="36"/>
-      <c r="L2" s="36"/>
-      <c r="M2" s="36"/>
-      <c r="N2" s="36"/>
-      <c r="O2" s="36"/>
-      <c r="P2" s="36"/>
-      <c r="Q2" s="36"/>
-      <c r="R2" s="36"/>
-      <c r="S2" s="36"/>
-      <c r="T2" s="36"/>
-      <c r="U2" s="36"/>
-      <c r="V2" s="36"/>
-      <c r="W2" s="36"/>
-      <c r="X2" s="36"/>
-      <c r="Y2" s="36"/>
-      <c r="Z2" s="36"/>
-      <c r="AA2" s="36"/>
-      <c r="AB2" s="36"/>
+      <c r="A2" s="37"/>
+      <c r="B2" s="37"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="37"/>
+      <c r="H2" s="37"/>
+      <c r="I2" s="37"/>
+      <c r="J2" s="37"/>
+      <c r="K2" s="37"/>
+      <c r="L2" s="37"/>
+      <c r="M2" s="37"/>
+      <c r="N2" s="37"/>
+      <c r="O2" s="37"/>
+      <c r="P2" s="37"/>
+      <c r="Q2" s="37"/>
+      <c r="R2" s="37"/>
+      <c r="S2" s="37"/>
+      <c r="T2" s="37"/>
+      <c r="U2" s="37"/>
+      <c r="V2" s="37"/>
+      <c r="W2" s="37"/>
+      <c r="X2" s="37"/>
+      <c r="Y2" s="37"/>
+      <c r="Z2" s="37"/>
+      <c r="AA2" s="37"/>
+      <c r="AB2" s="37"/>
     </row>
     <row r="3" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A3" s="37" t="s">
+      <c r="A3" s="38" t="s">
         <v>29</v>
       </c>
-      <c r="B3" s="37"/>
-      <c r="C3" s="38" t="s">
+      <c r="B3" s="38"/>
+      <c r="C3" s="39" t="s">
         <v>31</v>
       </c>
-      <c r="D3" s="38"/>
-      <c r="E3" s="38"/>
-      <c r="F3" s="38"/>
-      <c r="G3" s="38"/>
-      <c r="H3" s="37" t="s">
+      <c r="D3" s="39"/>
+      <c r="E3" s="39"/>
+      <c r="F3" s="39"/>
+      <c r="G3" s="39"/>
+      <c r="H3" s="38" t="s">
         <v>29</v>
       </c>
-      <c r="I3" s="37"/>
-      <c r="J3" s="38" t="s">
+      <c r="I3" s="38"/>
+      <c r="J3" s="39" t="s">
         <v>31</v>
       </c>
-      <c r="K3" s="38"/>
-      <c r="L3" s="38"/>
-      <c r="M3" s="38"/>
-      <c r="N3" s="38"/>
-      <c r="O3" s="37" t="s">
+      <c r="K3" s="39"/>
+      <c r="L3" s="39"/>
+      <c r="M3" s="39"/>
+      <c r="N3" s="39"/>
+      <c r="O3" s="38" t="s">
         <v>29</v>
       </c>
-      <c r="P3" s="37"/>
-      <c r="Q3" s="38" t="s">
+      <c r="P3" s="38"/>
+      <c r="Q3" s="39" t="s">
         <v>31</v>
       </c>
-      <c r="R3" s="38"/>
-      <c r="S3" s="38"/>
-      <c r="T3" s="38"/>
-      <c r="U3" s="38"/>
-      <c r="V3" s="37" t="s">
+      <c r="R3" s="39"/>
+      <c r="S3" s="39"/>
+      <c r="T3" s="39"/>
+      <c r="U3" s="39"/>
+      <c r="V3" s="38" t="s">
         <v>29</v>
       </c>
-      <c r="W3" s="37"/>
-      <c r="X3" s="38" t="s">
+      <c r="W3" s="38"/>
+      <c r="X3" s="39" t="s">
         <v>31</v>
       </c>
-      <c r="Y3" s="38"/>
-      <c r="Z3" s="38"/>
-      <c r="AA3" s="38"/>
-      <c r="AB3" s="38"/>
+      <c r="Y3" s="39"/>
+      <c r="Z3" s="39"/>
+      <c r="AA3" s="39"/>
+      <c r="AB3" s="39"/>
     </row>
     <row r="4" spans="1:30" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="33" t="s">
-        <v>35</v>
-      </c>
-      <c r="B4" s="33"/>
-      <c r="C4" s="34" t="s">
-        <v>38</v>
-      </c>
-      <c r="D4" s="34"/>
-      <c r="E4" s="34"/>
-      <c r="F4" s="34"/>
-      <c r="G4" s="34"/>
+      <c r="A4" s="45" t="s">
+        <v>362</v>
+      </c>
+      <c r="B4" s="45"/>
+      <c r="C4" s="46" t="s">
+        <v>363</v>
+      </c>
+      <c r="D4" s="46"/>
+      <c r="E4" s="46"/>
+      <c r="F4" s="46"/>
+      <c r="G4" s="46"/>
       <c r="H4" s="33" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="I4" s="33"/>
       <c r="J4" s="34" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="K4" s="34"/>
       <c r="L4" s="34"/>
       <c r="M4" s="34"/>
       <c r="N4" s="34"/>
       <c r="O4" s="35" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="P4" s="35"/>
       <c r="Q4" s="34" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="R4" s="34"/>
       <c r="S4" s="34"/>
       <c r="T4" s="34"/>
       <c r="U4" s="34"/>
       <c r="V4" s="35" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="W4" s="35"/>
       <c r="X4" s="34" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="Y4" s="34"/>
       <c r="Z4" s="34"/>
@@ -5117,44 +5138,44 @@
     </row>
     <row r="5" spans="1:30" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="33" t="s">
-        <v>32</v>
+        <v>361</v>
       </c>
       <c r="B5" s="33"/>
       <c r="C5" s="34" t="s">
-        <v>223</v>
+        <v>36</v>
       </c>
       <c r="D5" s="34"/>
       <c r="E5" s="34"/>
       <c r="F5" s="34"/>
       <c r="G5" s="34"/>
       <c r="H5" s="33" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="I5" s="33"/>
       <c r="J5" s="34" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="K5" s="34"/>
       <c r="L5" s="34"/>
       <c r="M5" s="34"/>
       <c r="N5" s="34"/>
       <c r="O5" s="35" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="P5" s="35"/>
       <c r="Q5" s="34" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="R5" s="34"/>
       <c r="S5" s="34"/>
       <c r="T5" s="34"/>
       <c r="U5" s="34"/>
       <c r="V5" s="35" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="W5" s="35"/>
       <c r="X5" s="34" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="Y5" s="34"/>
       <c r="Z5" s="34"/>
@@ -5163,44 +5184,44 @@
     </row>
     <row r="6" spans="1:30" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="33" t="s">
-        <v>33</v>
+        <v>364</v>
       </c>
       <c r="B6" s="33"/>
       <c r="C6" s="34" t="s">
-        <v>42</v>
+        <v>221</v>
       </c>
       <c r="D6" s="34"/>
       <c r="E6" s="34"/>
       <c r="F6" s="34"/>
       <c r="G6" s="34"/>
       <c r="H6" s="33" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="I6" s="33"/>
       <c r="J6" s="34" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="K6" s="34"/>
       <c r="L6" s="34"/>
       <c r="M6" s="34"/>
       <c r="N6" s="34"/>
       <c r="O6" s="35" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="P6" s="35"/>
       <c r="Q6" s="34" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="R6" s="34"/>
       <c r="S6" s="34"/>
       <c r="T6" s="34"/>
       <c r="U6" s="34"/>
       <c r="V6" s="35" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="W6" s="35"/>
       <c r="X6" s="34" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="Y6" s="34"/>
       <c r="Z6" s="34"/>
@@ -5209,44 +5230,44 @@
     </row>
     <row r="7" spans="1:30" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="33" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B7" s="33"/>
       <c r="C7" s="34" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D7" s="34"/>
       <c r="E7" s="34"/>
       <c r="F7" s="34"/>
       <c r="G7" s="34"/>
       <c r="H7" s="33" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="I7" s="33"/>
       <c r="J7" s="34" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="K7" s="34"/>
       <c r="L7" s="34"/>
       <c r="M7" s="34"/>
       <c r="N7" s="34"/>
       <c r="O7" s="35" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="P7" s="35"/>
       <c r="Q7" s="34" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="R7" s="34"/>
       <c r="S7" s="34"/>
       <c r="T7" s="34"/>
       <c r="U7" s="34"/>
       <c r="V7" s="35" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="W7" s="35"/>
       <c r="X7" s="34" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="Y7" s="34"/>
       <c r="Z7" s="34"/>
@@ -5255,11 +5276,11 @@
     </row>
     <row r="8" spans="1:30" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="33" t="s">
-        <v>330</v>
+        <v>33</v>
       </c>
       <c r="B8" s="33"/>
       <c r="C8" s="34" t="s">
-        <v>222</v>
+        <v>35</v>
       </c>
       <c r="D8" s="34"/>
       <c r="E8" s="34"/>
@@ -5273,22 +5294,22 @@
       <c r="M8" s="34"/>
       <c r="N8" s="34"/>
       <c r="O8" s="35" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="P8" s="35"/>
       <c r="Q8" s="34" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="R8" s="34"/>
       <c r="S8" s="34"/>
       <c r="T8" s="34"/>
       <c r="U8" s="34"/>
       <c r="V8" s="35" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="W8" s="35"/>
       <c r="X8" s="34" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="Y8" s="34"/>
       <c r="Z8" s="34"/>
@@ -5296,41 +5317,45 @@
       <c r="AB8" s="34"/>
     </row>
     <row r="9" spans="1:30" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="33"/>
+      <c r="A9" s="33" t="s">
+        <v>328</v>
+      </c>
       <c r="B9" s="33"/>
-      <c r="C9" s="34"/>
+      <c r="C9" s="34" t="s">
+        <v>220</v>
+      </c>
       <c r="D9" s="34"/>
       <c r="E9" s="34"/>
       <c r="F9" s="34"/>
       <c r="G9" s="34"/>
       <c r="H9" s="33" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="I9" s="33"/>
       <c r="J9" s="34" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="K9" s="34"/>
       <c r="L9" s="34"/>
       <c r="M9" s="34"/>
       <c r="N9" s="34"/>
       <c r="O9" s="35" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="P9" s="35"/>
       <c r="Q9" s="34" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="R9" s="34"/>
       <c r="S9" s="34"/>
       <c r="T9" s="34"/>
       <c r="U9" s="34"/>
       <c r="V9" s="35" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="W9" s="35"/>
       <c r="X9" s="34" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="Y9" s="34"/>
       <c r="Z9" s="34"/>
@@ -5338,13 +5363,9 @@
       <c r="AB9" s="34"/>
     </row>
     <row r="10" spans="1:30" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="33" t="s">
-        <v>36</v>
-      </c>
+      <c r="A10" s="33"/>
       <c r="B10" s="33"/>
-      <c r="C10" s="34" t="s">
-        <v>43</v>
-      </c>
+      <c r="C10" s="34"/>
       <c r="D10" s="34"/>
       <c r="E10" s="34"/>
       <c r="F10" s="34"/>
@@ -5357,22 +5378,22 @@
       <c r="M10" s="34"/>
       <c r="N10" s="34"/>
       <c r="O10" s="35" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="P10" s="35"/>
       <c r="Q10" s="34" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="R10" s="34"/>
       <c r="S10" s="34"/>
       <c r="T10" s="34"/>
       <c r="U10" s="34"/>
       <c r="V10" s="35" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="W10" s="35"/>
       <c r="X10" s="34" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="Y10" s="34"/>
       <c r="Z10" s="34"/>
@@ -5381,44 +5402,44 @@
     </row>
     <row r="11" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="33" t="s">
-        <v>224</v>
+        <v>34</v>
       </c>
       <c r="B11" s="33"/>
       <c r="C11" s="34" t="s">
-        <v>230</v>
+        <v>41</v>
       </c>
       <c r="D11" s="34"/>
       <c r="E11" s="34"/>
       <c r="F11" s="34"/>
       <c r="G11" s="34"/>
       <c r="H11" s="33" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="I11" s="33"/>
       <c r="J11" s="34" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K11" s="34"/>
       <c r="L11" s="34"/>
       <c r="M11" s="34"/>
       <c r="N11" s="34"/>
       <c r="O11" s="35" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="P11" s="35"/>
       <c r="Q11" s="34" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="R11" s="34"/>
       <c r="S11" s="34"/>
       <c r="T11" s="34"/>
       <c r="U11" s="34"/>
       <c r="V11" s="35" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="W11" s="35"/>
       <c r="X11" s="34" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="Y11" s="34"/>
       <c r="Z11" s="34"/>
@@ -5426,19 +5447,23 @@
       <c r="AB11" s="34"/>
     </row>
     <row r="12" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="33"/>
+      <c r="A12" s="33" t="s">
+        <v>222</v>
+      </c>
       <c r="B12" s="33"/>
-      <c r="C12" s="39"/>
-      <c r="D12" s="39"/>
-      <c r="E12" s="39"/>
-      <c r="F12" s="39"/>
-      <c r="G12" s="39"/>
+      <c r="C12" s="34" t="s">
+        <v>228</v>
+      </c>
+      <c r="D12" s="34"/>
+      <c r="E12" s="34"/>
+      <c r="F12" s="34"/>
+      <c r="G12" s="34"/>
       <c r="H12" s="33" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="I12" s="33"/>
       <c r="J12" s="34" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="K12" s="34"/>
       <c r="L12" s="34"/>
@@ -5460,45 +5485,41 @@
       <c r="AB12" s="34"/>
     </row>
     <row r="13" spans="1:30" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="33" t="s">
-        <v>229</v>
-      </c>
+      <c r="A13" s="33"/>
       <c r="B13" s="33"/>
-      <c r="C13" s="39" t="s">
-        <v>228</v>
-      </c>
-      <c r="D13" s="39"/>
-      <c r="E13" s="39"/>
-      <c r="F13" s="39"/>
-      <c r="G13" s="39"/>
+      <c r="C13" s="36"/>
+      <c r="D13" s="36"/>
+      <c r="E13" s="36"/>
+      <c r="F13" s="36"/>
+      <c r="G13" s="36"/>
       <c r="H13" s="33" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="I13" s="33"/>
       <c r="J13" s="34" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="K13" s="34"/>
       <c r="L13" s="34"/>
       <c r="M13" s="34"/>
       <c r="N13" s="34"/>
       <c r="O13" s="35" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="P13" s="35"/>
       <c r="Q13" s="34" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="R13" s="34"/>
       <c r="S13" s="34"/>
       <c r="T13" s="34"/>
       <c r="U13" s="34"/>
       <c r="V13" s="33" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="W13" s="33"/>
       <c r="X13" s="34" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="Y13" s="34"/>
       <c r="Z13" s="34"/>
@@ -5507,16 +5528,16 @@
     </row>
     <row r="14" spans="1:30" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="33" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="B14" s="33"/>
-      <c r="C14" s="39" t="s">
-        <v>232</v>
-      </c>
-      <c r="D14" s="39"/>
-      <c r="E14" s="39"/>
-      <c r="F14" s="39"/>
-      <c r="G14" s="39"/>
+      <c r="C14" s="36" t="s">
+        <v>226</v>
+      </c>
+      <c r="D14" s="36"/>
+      <c r="E14" s="36"/>
+      <c r="F14" s="36"/>
+      <c r="G14" s="36"/>
       <c r="H14" s="33"/>
       <c r="I14" s="33"/>
       <c r="J14" s="34"/>
@@ -5541,16 +5562,16 @@
     </row>
     <row r="15" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A15" s="33" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="B15" s="33"/>
-      <c r="C15" s="39" t="s">
-        <v>235</v>
-      </c>
-      <c r="D15" s="34"/>
-      <c r="E15" s="34"/>
-      <c r="F15" s="34"/>
-      <c r="G15" s="34"/>
+      <c r="C15" s="36" t="s">
+        <v>230</v>
+      </c>
+      <c r="D15" s="36"/>
+      <c r="E15" s="36"/>
+      <c r="F15" s="36"/>
+      <c r="G15" s="36"/>
       <c r="H15" s="33"/>
       <c r="I15" s="33"/>
       <c r="J15" s="34"/>
@@ -5575,10 +5596,12 @@
     </row>
     <row r="16" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A16" s="33" t="s">
-        <v>333</v>
+        <v>232</v>
       </c>
       <c r="B16" s="33"/>
-      <c r="C16" s="34"/>
+      <c r="C16" s="36" t="s">
+        <v>233</v>
+      </c>
       <c r="D16" s="34"/>
       <c r="E16" s="34"/>
       <c r="F16" s="34"/>
@@ -5606,7 +5629,9 @@
       <c r="AB16" s="34"/>
     </row>
     <row r="17" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A17" s="33"/>
+      <c r="A17" s="33" t="s">
+        <v>331</v>
+      </c>
       <c r="B17" s="33"/>
       <c r="C17" s="34"/>
       <c r="D17" s="34"/>
@@ -6061,214 +6086,25 @@
       <c r="T34" s="34"/>
       <c r="U34" s="34"/>
     </row>
+    <row r="35" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A35" s="33"/>
+      <c r="B35" s="33"/>
+      <c r="C35" s="34"/>
+      <c r="D35" s="34"/>
+      <c r="E35" s="34"/>
+      <c r="F35" s="34"/>
+      <c r="G35" s="34"/>
+    </row>
   </sheetData>
-  <mergeCells count="236">
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="C34:G34"/>
-    <mergeCell ref="H34:I34"/>
-    <mergeCell ref="J34:N34"/>
-    <mergeCell ref="O34:P34"/>
-    <mergeCell ref="Q34:U34"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="C33:G33"/>
-    <mergeCell ref="H33:I33"/>
-    <mergeCell ref="J33:N33"/>
-    <mergeCell ref="O33:P33"/>
-    <mergeCell ref="Q33:U33"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="C32:G32"/>
-    <mergeCell ref="H32:I32"/>
-    <mergeCell ref="J32:N32"/>
-    <mergeCell ref="O32:P32"/>
-    <mergeCell ref="Q32:U32"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="C31:G31"/>
-    <mergeCell ref="H31:I31"/>
-    <mergeCell ref="J31:N31"/>
-    <mergeCell ref="O31:P31"/>
-    <mergeCell ref="Q31:U31"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="C30:G30"/>
-    <mergeCell ref="H30:I30"/>
-    <mergeCell ref="J30:N30"/>
-    <mergeCell ref="O30:P30"/>
-    <mergeCell ref="Q30:U30"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="C29:G29"/>
-    <mergeCell ref="H29:I29"/>
-    <mergeCell ref="J29:N29"/>
-    <mergeCell ref="O29:P29"/>
-    <mergeCell ref="Q29:U29"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="C28:G28"/>
-    <mergeCell ref="H28:I28"/>
-    <mergeCell ref="J28:N28"/>
-    <mergeCell ref="O28:P28"/>
-    <mergeCell ref="Q28:U28"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="C27:G27"/>
-    <mergeCell ref="H27:I27"/>
-    <mergeCell ref="J27:N27"/>
-    <mergeCell ref="O27:P27"/>
-    <mergeCell ref="Q27:U27"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="C26:G26"/>
-    <mergeCell ref="H26:I26"/>
-    <mergeCell ref="J26:N26"/>
-    <mergeCell ref="O26:P26"/>
-    <mergeCell ref="Q26:U26"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="C25:G25"/>
-    <mergeCell ref="H25:I25"/>
-    <mergeCell ref="J25:N25"/>
-    <mergeCell ref="O25:P25"/>
-    <mergeCell ref="Q25:U25"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="C24:G24"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="J24:N24"/>
-    <mergeCell ref="O24:P24"/>
-    <mergeCell ref="Q24:U24"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="C23:G23"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="J23:N23"/>
-    <mergeCell ref="O23:P23"/>
-    <mergeCell ref="Q23:U23"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="C22:G22"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="J22:N22"/>
-    <mergeCell ref="V22:W22"/>
-    <mergeCell ref="X22:AB22"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="C21:G21"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="J21:N21"/>
-    <mergeCell ref="V21:W21"/>
-    <mergeCell ref="X21:AB21"/>
-    <mergeCell ref="O21:P21"/>
-    <mergeCell ref="Q21:U21"/>
-    <mergeCell ref="O22:P22"/>
-    <mergeCell ref="Q22:U22"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="C20:G20"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="J20:N20"/>
-    <mergeCell ref="V20:W20"/>
-    <mergeCell ref="X20:AB20"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="C19:G19"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="J19:N19"/>
-    <mergeCell ref="V19:W19"/>
-    <mergeCell ref="X19:AB19"/>
-    <mergeCell ref="O19:P19"/>
-    <mergeCell ref="Q19:U19"/>
-    <mergeCell ref="O20:P20"/>
-    <mergeCell ref="Q20:U20"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C18:G18"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="J18:N18"/>
-    <mergeCell ref="V18:W18"/>
-    <mergeCell ref="X18:AB18"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="C17:G17"/>
-    <mergeCell ref="V17:W17"/>
-    <mergeCell ref="X17:AB17"/>
-    <mergeCell ref="O17:P17"/>
-    <mergeCell ref="Q17:U17"/>
-    <mergeCell ref="O18:P18"/>
-    <mergeCell ref="Q18:U18"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="J17:N17"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="C13:G13"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="J13:N13"/>
-    <mergeCell ref="X13:AB13"/>
-    <mergeCell ref="O14:P14"/>
-    <mergeCell ref="Q14:U14"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="C16:G16"/>
-    <mergeCell ref="V16:W16"/>
-    <mergeCell ref="X16:AB16"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="C15:G15"/>
-    <mergeCell ref="V15:W15"/>
-    <mergeCell ref="X15:AB15"/>
-    <mergeCell ref="O15:P15"/>
-    <mergeCell ref="Q15:U15"/>
-    <mergeCell ref="O16:P16"/>
-    <mergeCell ref="Q16:U16"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="C12:G12"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="J16:N16"/>
-    <mergeCell ref="V12:W12"/>
-    <mergeCell ref="X12:AB12"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:G11"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="J15:N15"/>
-    <mergeCell ref="V11:W11"/>
-    <mergeCell ref="X11:AB11"/>
-    <mergeCell ref="O11:P11"/>
-    <mergeCell ref="Q11:U11"/>
-    <mergeCell ref="O12:P12"/>
-    <mergeCell ref="Q12:U12"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="J11:N11"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="J12:N12"/>
-    <mergeCell ref="O13:P13"/>
-    <mergeCell ref="Q13:U13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="C14:G14"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="C10:G10"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="J10:N10"/>
-    <mergeCell ref="V10:W10"/>
-    <mergeCell ref="X10:AB10"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="C9:G9"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="J9:N9"/>
-    <mergeCell ref="V9:W9"/>
-    <mergeCell ref="X9:AB9"/>
-    <mergeCell ref="O9:P9"/>
-    <mergeCell ref="Q9:U9"/>
-    <mergeCell ref="O10:P10"/>
-    <mergeCell ref="Q10:U10"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="C8:G8"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="J6:N6"/>
-    <mergeCell ref="V8:W8"/>
-    <mergeCell ref="X8:AB8"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="J7:N7"/>
-    <mergeCell ref="V7:W7"/>
-    <mergeCell ref="X7:AB7"/>
-    <mergeCell ref="O7:P7"/>
-    <mergeCell ref="Q7:U7"/>
-    <mergeCell ref="Q8:U8"/>
-    <mergeCell ref="O8:P8"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="J8:N8"/>
+  <mergeCells count="238">
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="C6:G6"/>
-    <mergeCell ref="O6:P6"/>
-    <mergeCell ref="Q6:U6"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="V13:W13"/>
-    <mergeCell ref="J14:N14"/>
-    <mergeCell ref="V14:W14"/>
-    <mergeCell ref="X14:AB14"/>
+    <mergeCell ref="V5:W5"/>
+    <mergeCell ref="X5:AB5"/>
+    <mergeCell ref="O5:P5"/>
+    <mergeCell ref="Q5:U5"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:G4"/>
     <mergeCell ref="H5:I5"/>
     <mergeCell ref="V6:W6"/>
     <mergeCell ref="X6:AB6"/>
@@ -6284,8 +6120,8 @@
     <mergeCell ref="O1:U2"/>
     <mergeCell ref="O3:P3"/>
     <mergeCell ref="Q3:U3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:G5"/>
     <mergeCell ref="H4:I4"/>
     <mergeCell ref="J4:N4"/>
     <mergeCell ref="V4:W4"/>
@@ -6293,17 +6129,217 @@
     <mergeCell ref="O4:P4"/>
     <mergeCell ref="Q4:U4"/>
     <mergeCell ref="J5:N5"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:G5"/>
-    <mergeCell ref="V5:W5"/>
-    <mergeCell ref="X5:AB5"/>
-    <mergeCell ref="O5:P5"/>
-    <mergeCell ref="Q5:U5"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:G9"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="J6:N6"/>
+    <mergeCell ref="V8:W8"/>
+    <mergeCell ref="X8:AB8"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:N7"/>
+    <mergeCell ref="V7:W7"/>
+    <mergeCell ref="X7:AB7"/>
+    <mergeCell ref="O7:P7"/>
+    <mergeCell ref="Q7:U7"/>
+    <mergeCell ref="Q8:U8"/>
+    <mergeCell ref="O8:P8"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="J8:N8"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="O6:P6"/>
+    <mergeCell ref="Q6:U6"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:G11"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="J10:N10"/>
+    <mergeCell ref="V10:W10"/>
+    <mergeCell ref="X10:AB10"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C10:G10"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="J9:N9"/>
+    <mergeCell ref="V9:W9"/>
+    <mergeCell ref="X9:AB9"/>
+    <mergeCell ref="O9:P9"/>
+    <mergeCell ref="Q9:U9"/>
+    <mergeCell ref="O10:P10"/>
+    <mergeCell ref="Q10:U10"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C13:G13"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="J16:N16"/>
+    <mergeCell ref="V12:W12"/>
+    <mergeCell ref="X12:AB12"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="J15:N15"/>
+    <mergeCell ref="V11:W11"/>
+    <mergeCell ref="X11:AB11"/>
+    <mergeCell ref="O11:P11"/>
+    <mergeCell ref="Q11:U11"/>
+    <mergeCell ref="O12:P12"/>
+    <mergeCell ref="Q12:U12"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="J11:N11"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="J12:N12"/>
+    <mergeCell ref="O13:P13"/>
+    <mergeCell ref="Q13:U13"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C15:G15"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C14:G14"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="J13:N13"/>
+    <mergeCell ref="X13:AB13"/>
+    <mergeCell ref="O14:P14"/>
+    <mergeCell ref="Q14:U14"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C17:G17"/>
+    <mergeCell ref="V16:W16"/>
+    <mergeCell ref="X16:AB16"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:G16"/>
+    <mergeCell ref="V15:W15"/>
+    <mergeCell ref="X15:AB15"/>
+    <mergeCell ref="O15:P15"/>
+    <mergeCell ref="Q15:U15"/>
+    <mergeCell ref="O16:P16"/>
+    <mergeCell ref="Q16:U16"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="V13:W13"/>
+    <mergeCell ref="J14:N14"/>
+    <mergeCell ref="V14:W14"/>
+    <mergeCell ref="X14:AB14"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="J18:N18"/>
+    <mergeCell ref="V18:W18"/>
+    <mergeCell ref="X18:AB18"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="V17:W17"/>
+    <mergeCell ref="X17:AB17"/>
+    <mergeCell ref="O17:P17"/>
+    <mergeCell ref="Q17:U17"/>
+    <mergeCell ref="O18:P18"/>
+    <mergeCell ref="Q18:U18"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="J17:N17"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="J20:N20"/>
+    <mergeCell ref="V20:W20"/>
+    <mergeCell ref="X20:AB20"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="J19:N19"/>
+    <mergeCell ref="V19:W19"/>
+    <mergeCell ref="X19:AB19"/>
+    <mergeCell ref="O19:P19"/>
+    <mergeCell ref="Q19:U19"/>
+    <mergeCell ref="O20:P20"/>
+    <mergeCell ref="Q20:U20"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="C23:G23"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="J22:N22"/>
+    <mergeCell ref="V22:W22"/>
+    <mergeCell ref="X22:AB22"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="C22:G22"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="J21:N21"/>
+    <mergeCell ref="V21:W21"/>
+    <mergeCell ref="X21:AB21"/>
+    <mergeCell ref="O21:P21"/>
+    <mergeCell ref="Q21:U21"/>
+    <mergeCell ref="O22:P22"/>
+    <mergeCell ref="Q22:U22"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="C25:G25"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="J24:N24"/>
+    <mergeCell ref="O24:P24"/>
+    <mergeCell ref="Q24:U24"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="C24:G24"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="J23:N23"/>
+    <mergeCell ref="O23:P23"/>
+    <mergeCell ref="Q23:U23"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="C27:G27"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="J26:N26"/>
+    <mergeCell ref="O26:P26"/>
+    <mergeCell ref="Q26:U26"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="C26:G26"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="J25:N25"/>
+    <mergeCell ref="O25:P25"/>
+    <mergeCell ref="Q25:U25"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="C29:G29"/>
+    <mergeCell ref="H28:I28"/>
+    <mergeCell ref="J28:N28"/>
+    <mergeCell ref="O28:P28"/>
+    <mergeCell ref="Q28:U28"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="C28:G28"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="J27:N27"/>
+    <mergeCell ref="O27:P27"/>
+    <mergeCell ref="Q27:U27"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="C31:G31"/>
+    <mergeCell ref="H30:I30"/>
+    <mergeCell ref="J30:N30"/>
+    <mergeCell ref="O30:P30"/>
+    <mergeCell ref="Q30:U30"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="C30:G30"/>
+    <mergeCell ref="H29:I29"/>
+    <mergeCell ref="J29:N29"/>
+    <mergeCell ref="O29:P29"/>
+    <mergeCell ref="Q29:U29"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="C33:G33"/>
+    <mergeCell ref="H32:I32"/>
+    <mergeCell ref="J32:N32"/>
+    <mergeCell ref="O32:P32"/>
+    <mergeCell ref="Q32:U32"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="C32:G32"/>
+    <mergeCell ref="H31:I31"/>
+    <mergeCell ref="J31:N31"/>
+    <mergeCell ref="O31:P31"/>
+    <mergeCell ref="Q31:U31"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="C35:G35"/>
+    <mergeCell ref="H34:I34"/>
+    <mergeCell ref="J34:N34"/>
+    <mergeCell ref="O34:P34"/>
+    <mergeCell ref="Q34:U34"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="C34:G34"/>
+    <mergeCell ref="H33:I33"/>
+    <mergeCell ref="J33:N33"/>
+    <mergeCell ref="O33:P33"/>
+    <mergeCell ref="Q33:U33"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="C15" r:id="rId1" xr:uid="{868F8F85-B252-4B04-B081-E9B23AD46A23}"/>
-    <hyperlink ref="C14" r:id="rId2" xr:uid="{86E514BE-A9C9-4B5A-AB4D-57536B7FEAAB}"/>
-    <hyperlink ref="C13" r:id="rId3" xr:uid="{CE321704-25F7-4D6A-8585-A2ECF5644FEF}"/>
+    <hyperlink ref="C16" r:id="rId1" xr:uid="{868F8F85-B252-4B04-B081-E9B23AD46A23}"/>
+    <hyperlink ref="C15" r:id="rId2" xr:uid="{86E514BE-A9C9-4B5A-AB4D-57536B7FEAAB}"/>
+    <hyperlink ref="C14" r:id="rId3" xr:uid="{CE321704-25F7-4D6A-8585-A2ECF5644FEF}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
@@ -6332,7 +6368,7 @@
   <sheetData>
     <row r="1" spans="1:9" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A1" s="41" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B1" s="41"/>
       <c r="C1" s="41"/>
@@ -6344,19 +6380,19 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="22" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B2" s="22" t="s">
+        <v>238</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>244</v>
+      </c>
+      <c r="D2" s="22" t="s">
+        <v>239</v>
+      </c>
+      <c r="E2" s="34" t="s">
         <v>240</v>
-      </c>
-      <c r="C2" s="15" t="s">
-        <v>246</v>
-      </c>
-      <c r="D2" s="22" t="s">
-        <v>241</v>
-      </c>
-      <c r="E2" s="34" t="s">
-        <v>242</v>
       </c>
       <c r="F2" s="34"/>
       <c r="G2" s="34"/>
@@ -6364,19 +6400,19 @@
     </row>
     <row r="3" spans="1:9" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C3" s="21">
         <v>1</v>
       </c>
       <c r="D3" s="14" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="E3" s="40" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="F3" s="40"/>
       <c r="G3" s="40"/>
@@ -6384,16 +6420,16 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C4" s="21">
         <v>2</v>
       </c>
       <c r="D4" s="14" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="E4" s="40"/>
       <c r="F4" s="40"/>
@@ -6420,19 +6456,19 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="14" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="C8" s="21">
         <v>2</v>
       </c>
       <c r="D8" s="14" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="E8" s="40" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="F8" s="40"/>
       <c r="G8" s="40"/>
@@ -6440,19 +6476,19 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="C9" s="21">
         <v>1</v>
       </c>
       <c r="D9" s="14" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="E9" s="40" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="F9" s="40"/>
       <c r="G9" s="40"/>
@@ -6460,7 +6496,7 @@
     </row>
     <row r="10" spans="1:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="14" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B10" s="14" t="s">
         <v>14</v>
@@ -6469,33 +6505,33 @@
         <v>2</v>
       </c>
       <c r="D10" s="14" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="E10" s="40" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="F10" s="40"/>
       <c r="G10" s="40"/>
       <c r="H10" s="40"/>
       <c r="I10" s="14" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="14" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="C11" s="21">
         <v>2</v>
       </c>
       <c r="D11" s="14" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="E11" s="40" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="F11" s="40"/>
       <c r="G11" s="40"/>
@@ -6503,19 +6539,19 @@
     </row>
     <row r="12" spans="1:9" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="14" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C12" s="21">
         <v>3</v>
       </c>
       <c r="D12" s="14" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="E12" s="40" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="F12" s="40"/>
       <c r="G12" s="40"/>
@@ -6523,7 +6559,7 @@
     </row>
     <row r="13" spans="1:9" ht="79.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="14" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B13" s="14" t="s">
         <v>14</v>
@@ -6532,10 +6568,10 @@
         <v>4</v>
       </c>
       <c r="D13" s="14" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="E13" s="40" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="F13" s="40"/>
       <c r="G13" s="40"/>
@@ -6543,19 +6579,19 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="14" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="B14" s="14" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="C14" s="21">
         <v>1</v>
       </c>
       <c r="D14" s="14" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="E14" s="40" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="F14" s="40"/>
       <c r="G14" s="40"/>
@@ -6635,14 +6671,12 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="E25:H25"/>
-    <mergeCell ref="E26:H26"/>
-    <mergeCell ref="E19:H19"/>
-    <mergeCell ref="E20:H20"/>
-    <mergeCell ref="E21:H21"/>
-    <mergeCell ref="E22:H22"/>
-    <mergeCell ref="E23:H23"/>
-    <mergeCell ref="E24:H24"/>
+    <mergeCell ref="E6:H6"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="E2:H2"/>
+    <mergeCell ref="E3:H3"/>
+    <mergeCell ref="E4:H4"/>
+    <mergeCell ref="E5:H5"/>
     <mergeCell ref="E18:H18"/>
     <mergeCell ref="E7:H7"/>
     <mergeCell ref="E8:H8"/>
@@ -6655,12 +6689,14 @@
     <mergeCell ref="E15:H15"/>
     <mergeCell ref="E16:H16"/>
     <mergeCell ref="E17:H17"/>
-    <mergeCell ref="E6:H6"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="E2:H2"/>
-    <mergeCell ref="E3:H3"/>
-    <mergeCell ref="E4:H4"/>
-    <mergeCell ref="E5:H5"/>
+    <mergeCell ref="E25:H25"/>
+    <mergeCell ref="E26:H26"/>
+    <mergeCell ref="E19:H19"/>
+    <mergeCell ref="E20:H20"/>
+    <mergeCell ref="E21:H21"/>
+    <mergeCell ref="E22:H22"/>
+    <mergeCell ref="E23:H23"/>
+    <mergeCell ref="E24:H24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6691,7 +6727,7 @@
   <sheetData>
     <row r="1" spans="1:10" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A1" s="43" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="B1" s="43"/>
       <c r="C1" s="43"/>
@@ -6702,99 +6738,99 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="20" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B2" s="20" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C2" s="20" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="D2" s="44" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="E2" s="44"/>
       <c r="F2" s="44"/>
       <c r="G2" s="44"/>
       <c r="I2" s="23" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="16" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D3" s="42" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="E3" s="42"/>
       <c r="F3" s="42"/>
       <c r="G3" s="42"/>
       <c r="I3" s="5" t="s">
+        <v>295</v>
+      </c>
+      <c r="J3" s="5" t="s">
         <v>297</v>
-      </c>
-      <c r="J3" s="5" t="s">
-        <v>299</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="16" t="s">
+        <v>269</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>272</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="D4" s="42" t="s">
         <v>271</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>274</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>243</v>
-      </c>
-      <c r="D4" s="42" t="s">
-        <v>273</v>
       </c>
       <c r="E4" s="42"/>
       <c r="F4" s="42"/>
       <c r="G4" s="42"/>
       <c r="J4" s="5" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="16" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D5" s="42" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="E5" s="42"/>
       <c r="F5" s="42"/>
       <c r="G5" s="42"/>
       <c r="J5" s="5" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="16" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="D6" s="42" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="E6" s="42"/>
       <c r="F6" s="42"/>
@@ -6805,48 +6841,48 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="16" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="D8" s="42"/>
       <c r="E8" s="42"/>
       <c r="F8" s="42"/>
       <c r="G8" s="42"/>
       <c r="I8" s="5" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="J8" s="5" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="16" t="s">
+        <v>300</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>301</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>305</v>
+      </c>
+      <c r="D9" s="42" t="s">
         <v>302</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>303</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>307</v>
-      </c>
-      <c r="D9" s="42" t="s">
-        <v>304</v>
       </c>
       <c r="E9" s="42"/>
       <c r="F9" s="42"/>
       <c r="G9" s="42"/>
       <c r="J9" s="5" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="16" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
@@ -6857,39 +6893,39 @@
     </row>
     <row r="12" spans="1:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>275</v>
+      </c>
+      <c r="C12" s="5" t="s">
         <v>276</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="D12" s="42" t="s">
         <v>277</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>278</v>
-      </c>
-      <c r="D12" s="42" t="s">
-        <v>279</v>
       </c>
       <c r="E12" s="42"/>
       <c r="F12" s="42"/>
       <c r="G12" s="42"/>
       <c r="I12" s="5" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="J12" s="14" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
+        <v>278</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>279</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="D13" s="42" t="s">
         <v>280</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>281</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>243</v>
-      </c>
-      <c r="D13" s="42" t="s">
-        <v>282</v>
       </c>
       <c r="E13" s="42"/>
       <c r="F13" s="42"/>
@@ -6897,16 +6933,16 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
+        <v>308</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>309</v>
+      </c>
+      <c r="C14" s="5" t="s">
         <v>310</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="D14" s="42" t="s">
         <v>311</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>312</v>
-      </c>
-      <c r="D14" s="42" t="s">
-        <v>313</v>
       </c>
       <c r="E14" s="42"/>
       <c r="F14" s="42"/>
@@ -6926,16 +6962,16 @@
     </row>
     <row r="17" spans="1:7" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="C17" s="5" t="s">
+        <v>289</v>
+      </c>
+      <c r="D17" s="40" t="s">
         <v>291</v>
-      </c>
-      <c r="D17" s="40" t="s">
-        <v>293</v>
       </c>
       <c r="E17" s="40"/>
       <c r="F17" s="40"/>
@@ -7021,6 +7057,22 @@
     </row>
   </sheetData>
   <mergeCells count="28">
+    <mergeCell ref="D4:G4"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="D3:G3"/>
+    <mergeCell ref="D6:G6"/>
+    <mergeCell ref="D5:G5"/>
+    <mergeCell ref="D18:G18"/>
+    <mergeCell ref="D8:G8"/>
+    <mergeCell ref="D9:G9"/>
+    <mergeCell ref="D11:G11"/>
+    <mergeCell ref="D12:G12"/>
+    <mergeCell ref="D13:G13"/>
+    <mergeCell ref="D14:G14"/>
+    <mergeCell ref="D15:G15"/>
+    <mergeCell ref="D16:G16"/>
+    <mergeCell ref="D17:G17"/>
     <mergeCell ref="D30:G30"/>
     <mergeCell ref="D19:G19"/>
     <mergeCell ref="D20:G20"/>
@@ -7033,22 +7085,6 @@
     <mergeCell ref="D27:G27"/>
     <mergeCell ref="D28:G28"/>
     <mergeCell ref="D29:G29"/>
-    <mergeCell ref="D18:G18"/>
-    <mergeCell ref="D8:G8"/>
-    <mergeCell ref="D9:G9"/>
-    <mergeCell ref="D11:G11"/>
-    <mergeCell ref="D12:G12"/>
-    <mergeCell ref="D13:G13"/>
-    <mergeCell ref="D14:G14"/>
-    <mergeCell ref="D15:G15"/>
-    <mergeCell ref="D16:G16"/>
-    <mergeCell ref="D17:G17"/>
-    <mergeCell ref="D4:G4"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="D2:G2"/>
-    <mergeCell ref="D3:G3"/>
-    <mergeCell ref="D6:G6"/>
-    <mergeCell ref="D5:G5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/plans/todo.xlsx
+++ b/plans/todo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Edsquid\Documents\Personal Projects\Business\RogueLikeGame\plans\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AEC8ADC-2EAA-498D-9F62-21DA7A5F57C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE773CB4-CA73-4AA9-BB20-DE98D48B4658}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="32865" yWindow="810" windowWidth="19920" windowHeight="13335" tabRatio="509" activeTab="3" xr2:uid="{BA1E511D-BF64-4842-98DF-72E30276ED1C}"/>
   </bookViews>
@@ -1506,8 +1506,11 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1517,6 +1520,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -1531,12 +1537,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -4954,8 +4954,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E13E4A5-10AD-4171-99FD-31881C0A6C11}">
   <dimension ref="A1:AD35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:B7"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="J10" sqref="J10:N10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4974,134 +4974,134 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="37"/>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37"/>
-      <c r="G1" s="37"/>
-      <c r="H1" s="37" t="s">
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="38" t="s">
         <v>156</v>
       </c>
-      <c r="I1" s="37"/>
-      <c r="J1" s="37"/>
-      <c r="K1" s="37"/>
-      <c r="L1" s="37"/>
-      <c r="M1" s="37"/>
-      <c r="N1" s="37"/>
-      <c r="O1" s="37" t="s">
+      <c r="I1" s="38"/>
+      <c r="J1" s="38"/>
+      <c r="K1" s="38"/>
+      <c r="L1" s="38"/>
+      <c r="M1" s="38"/>
+      <c r="N1" s="38"/>
+      <c r="O1" s="38" t="s">
         <v>157</v>
       </c>
-      <c r="P1" s="37"/>
-      <c r="Q1" s="37"/>
-      <c r="R1" s="37"/>
-      <c r="S1" s="37"/>
-      <c r="T1" s="37"/>
-      <c r="U1" s="37"/>
-      <c r="V1" s="37" t="s">
+      <c r="P1" s="38"/>
+      <c r="Q1" s="38"/>
+      <c r="R1" s="38"/>
+      <c r="S1" s="38"/>
+      <c r="T1" s="38"/>
+      <c r="U1" s="38"/>
+      <c r="V1" s="38" t="s">
         <v>30</v>
       </c>
-      <c r="W1" s="37"/>
-      <c r="X1" s="37"/>
-      <c r="Y1" s="37"/>
-      <c r="Z1" s="37"/>
-      <c r="AA1" s="37"/>
-      <c r="AB1" s="37"/>
+      <c r="W1" s="38"/>
+      <c r="X1" s="38"/>
+      <c r="Y1" s="38"/>
+      <c r="Z1" s="38"/>
+      <c r="AA1" s="38"/>
+      <c r="AB1" s="38"/>
       <c r="AD1" s="19" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="2" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="37"/>
-      <c r="B2" s="37"/>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="37"/>
-      <c r="H2" s="37"/>
-      <c r="I2" s="37"/>
-      <c r="J2" s="37"/>
-      <c r="K2" s="37"/>
-      <c r="L2" s="37"/>
-      <c r="M2" s="37"/>
-      <c r="N2" s="37"/>
-      <c r="O2" s="37"/>
-      <c r="P2" s="37"/>
-      <c r="Q2" s="37"/>
-      <c r="R2" s="37"/>
-      <c r="S2" s="37"/>
-      <c r="T2" s="37"/>
-      <c r="U2" s="37"/>
-      <c r="V2" s="37"/>
-      <c r="W2" s="37"/>
-      <c r="X2" s="37"/>
-      <c r="Y2" s="37"/>
-      <c r="Z2" s="37"/>
-      <c r="AA2" s="37"/>
-      <c r="AB2" s="37"/>
+      <c r="A2" s="38"/>
+      <c r="B2" s="38"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="38"/>
+      <c r="I2" s="38"/>
+      <c r="J2" s="38"/>
+      <c r="K2" s="38"/>
+      <c r="L2" s="38"/>
+      <c r="M2" s="38"/>
+      <c r="N2" s="38"/>
+      <c r="O2" s="38"/>
+      <c r="P2" s="38"/>
+      <c r="Q2" s="38"/>
+      <c r="R2" s="38"/>
+      <c r="S2" s="38"/>
+      <c r="T2" s="38"/>
+      <c r="U2" s="38"/>
+      <c r="V2" s="38"/>
+      <c r="W2" s="38"/>
+      <c r="X2" s="38"/>
+      <c r="Y2" s="38"/>
+      <c r="Z2" s="38"/>
+      <c r="AA2" s="38"/>
+      <c r="AB2" s="38"/>
     </row>
     <row r="3" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A3" s="38" t="s">
+      <c r="A3" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="B3" s="38"/>
-      <c r="C3" s="39" t="s">
+      <c r="B3" s="39"/>
+      <c r="C3" s="40" t="s">
         <v>31</v>
       </c>
-      <c r="D3" s="39"/>
-      <c r="E3" s="39"/>
-      <c r="F3" s="39"/>
-      <c r="G3" s="39"/>
-      <c r="H3" s="38" t="s">
+      <c r="D3" s="40"/>
+      <c r="E3" s="40"/>
+      <c r="F3" s="40"/>
+      <c r="G3" s="40"/>
+      <c r="H3" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="I3" s="38"/>
-      <c r="J3" s="39" t="s">
+      <c r="I3" s="39"/>
+      <c r="J3" s="40" t="s">
         <v>31</v>
       </c>
-      <c r="K3" s="39"/>
-      <c r="L3" s="39"/>
-      <c r="M3" s="39"/>
-      <c r="N3" s="39"/>
-      <c r="O3" s="38" t="s">
+      <c r="K3" s="40"/>
+      <c r="L3" s="40"/>
+      <c r="M3" s="40"/>
+      <c r="N3" s="40"/>
+      <c r="O3" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="P3" s="38"/>
-      <c r="Q3" s="39" t="s">
+      <c r="P3" s="39"/>
+      <c r="Q3" s="40" t="s">
         <v>31</v>
       </c>
-      <c r="R3" s="39"/>
-      <c r="S3" s="39"/>
-      <c r="T3" s="39"/>
-      <c r="U3" s="39"/>
-      <c r="V3" s="38" t="s">
+      <c r="R3" s="40"/>
+      <c r="S3" s="40"/>
+      <c r="T3" s="40"/>
+      <c r="U3" s="40"/>
+      <c r="V3" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="W3" s="38"/>
-      <c r="X3" s="39" t="s">
+      <c r="W3" s="39"/>
+      <c r="X3" s="40" t="s">
         <v>31</v>
       </c>
-      <c r="Y3" s="39"/>
-      <c r="Z3" s="39"/>
-      <c r="AA3" s="39"/>
-      <c r="AB3" s="39"/>
+      <c r="Y3" s="40"/>
+      <c r="Z3" s="40"/>
+      <c r="AA3" s="40"/>
+      <c r="AB3" s="40"/>
     </row>
     <row r="4" spans="1:30" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="45" t="s">
+      <c r="A4" s="36" t="s">
         <v>362</v>
       </c>
-      <c r="B4" s="45"/>
-      <c r="C4" s="46" t="s">
+      <c r="B4" s="36"/>
+      <c r="C4" s="37" t="s">
         <v>363</v>
       </c>
-      <c r="D4" s="46"/>
-      <c r="E4" s="46"/>
-      <c r="F4" s="46"/>
-      <c r="G4" s="46"/>
+      <c r="D4" s="37"/>
+      <c r="E4" s="37"/>
+      <c r="F4" s="37"/>
+      <c r="G4" s="37"/>
       <c r="H4" s="33" t="s">
         <v>312</v>
       </c>
@@ -5487,11 +5487,11 @@
     <row r="13" spans="1:30" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="33"/>
       <c r="B13" s="33"/>
-      <c r="C13" s="36"/>
-      <c r="D13" s="36"/>
-      <c r="E13" s="36"/>
-      <c r="F13" s="36"/>
-      <c r="G13" s="36"/>
+      <c r="C13" s="41"/>
+      <c r="D13" s="41"/>
+      <c r="E13" s="41"/>
+      <c r="F13" s="41"/>
+      <c r="G13" s="41"/>
       <c r="H13" s="33" t="s">
         <v>327</v>
       </c>
@@ -5531,13 +5531,13 @@
         <v>227</v>
       </c>
       <c r="B14" s="33"/>
-      <c r="C14" s="36" t="s">
+      <c r="C14" s="41" t="s">
         <v>226</v>
       </c>
-      <c r="D14" s="36"/>
-      <c r="E14" s="36"/>
-      <c r="F14" s="36"/>
-      <c r="G14" s="36"/>
+      <c r="D14" s="41"/>
+      <c r="E14" s="41"/>
+      <c r="F14" s="41"/>
+      <c r="G14" s="41"/>
       <c r="H14" s="33"/>
       <c r="I14" s="33"/>
       <c r="J14" s="34"/>
@@ -5565,13 +5565,13 @@
         <v>231</v>
       </c>
       <c r="B15" s="33"/>
-      <c r="C15" s="36" t="s">
+      <c r="C15" s="41" t="s">
         <v>230</v>
       </c>
-      <c r="D15" s="36"/>
-      <c r="E15" s="36"/>
-      <c r="F15" s="36"/>
-      <c r="G15" s="36"/>
+      <c r="D15" s="41"/>
+      <c r="E15" s="41"/>
+      <c r="F15" s="41"/>
+      <c r="G15" s="41"/>
       <c r="H15" s="33"/>
       <c r="I15" s="33"/>
       <c r="J15" s="34"/>
@@ -5599,7 +5599,7 @@
         <v>232</v>
       </c>
       <c r="B16" s="33"/>
-      <c r="C16" s="36" t="s">
+      <c r="C16" s="41" t="s">
         <v>233</v>
       </c>
       <c r="D16" s="34"/>
@@ -6097,38 +6097,190 @@
     </row>
   </sheetData>
   <mergeCells count="238">
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="V5:W5"/>
-    <mergeCell ref="X5:AB5"/>
-    <mergeCell ref="O5:P5"/>
-    <mergeCell ref="Q5:U5"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:G4"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="V6:W6"/>
-    <mergeCell ref="X6:AB6"/>
-    <mergeCell ref="A1:G2"/>
-    <mergeCell ref="H1:N2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:G3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="V1:AB2"/>
-    <mergeCell ref="V3:W3"/>
-    <mergeCell ref="J3:N3"/>
-    <mergeCell ref="X3:AB3"/>
-    <mergeCell ref="O1:U2"/>
-    <mergeCell ref="O3:P3"/>
-    <mergeCell ref="Q3:U3"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:G5"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="J4:N4"/>
-    <mergeCell ref="V4:W4"/>
-    <mergeCell ref="X4:AB4"/>
-    <mergeCell ref="O4:P4"/>
-    <mergeCell ref="Q4:U4"/>
-    <mergeCell ref="J5:N5"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="C35:G35"/>
+    <mergeCell ref="H34:I34"/>
+    <mergeCell ref="J34:N34"/>
+    <mergeCell ref="O34:P34"/>
+    <mergeCell ref="Q34:U34"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="C34:G34"/>
+    <mergeCell ref="H33:I33"/>
+    <mergeCell ref="J33:N33"/>
+    <mergeCell ref="O33:P33"/>
+    <mergeCell ref="Q33:U33"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="C33:G33"/>
+    <mergeCell ref="H32:I32"/>
+    <mergeCell ref="J32:N32"/>
+    <mergeCell ref="O32:P32"/>
+    <mergeCell ref="Q32:U32"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="C32:G32"/>
+    <mergeCell ref="H31:I31"/>
+    <mergeCell ref="J31:N31"/>
+    <mergeCell ref="O31:P31"/>
+    <mergeCell ref="Q31:U31"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="C31:G31"/>
+    <mergeCell ref="H30:I30"/>
+    <mergeCell ref="J30:N30"/>
+    <mergeCell ref="O30:P30"/>
+    <mergeCell ref="Q30:U30"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="C30:G30"/>
+    <mergeCell ref="H29:I29"/>
+    <mergeCell ref="J29:N29"/>
+    <mergeCell ref="O29:P29"/>
+    <mergeCell ref="Q29:U29"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="C29:G29"/>
+    <mergeCell ref="H28:I28"/>
+    <mergeCell ref="J28:N28"/>
+    <mergeCell ref="O28:P28"/>
+    <mergeCell ref="Q28:U28"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="C28:G28"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="J27:N27"/>
+    <mergeCell ref="O27:P27"/>
+    <mergeCell ref="Q27:U27"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="C27:G27"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="J26:N26"/>
+    <mergeCell ref="O26:P26"/>
+    <mergeCell ref="Q26:U26"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="C26:G26"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="J25:N25"/>
+    <mergeCell ref="O25:P25"/>
+    <mergeCell ref="Q25:U25"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="C25:G25"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="J24:N24"/>
+    <mergeCell ref="O24:P24"/>
+    <mergeCell ref="Q24:U24"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="C24:G24"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="J23:N23"/>
+    <mergeCell ref="O23:P23"/>
+    <mergeCell ref="Q23:U23"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="C23:G23"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="J22:N22"/>
+    <mergeCell ref="V22:W22"/>
+    <mergeCell ref="X22:AB22"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="C22:G22"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="J21:N21"/>
+    <mergeCell ref="V21:W21"/>
+    <mergeCell ref="X21:AB21"/>
+    <mergeCell ref="O21:P21"/>
+    <mergeCell ref="Q21:U21"/>
+    <mergeCell ref="O22:P22"/>
+    <mergeCell ref="Q22:U22"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="J20:N20"/>
+    <mergeCell ref="V20:W20"/>
+    <mergeCell ref="X20:AB20"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="J19:N19"/>
+    <mergeCell ref="V19:W19"/>
+    <mergeCell ref="X19:AB19"/>
+    <mergeCell ref="O19:P19"/>
+    <mergeCell ref="Q19:U19"/>
+    <mergeCell ref="O20:P20"/>
+    <mergeCell ref="Q20:U20"/>
+    <mergeCell ref="V13:W13"/>
+    <mergeCell ref="J14:N14"/>
+    <mergeCell ref="V14:W14"/>
+    <mergeCell ref="X14:AB14"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="J18:N18"/>
+    <mergeCell ref="V18:W18"/>
+    <mergeCell ref="X18:AB18"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="V17:W17"/>
+    <mergeCell ref="X17:AB17"/>
+    <mergeCell ref="O17:P17"/>
+    <mergeCell ref="Q17:U17"/>
+    <mergeCell ref="O18:P18"/>
+    <mergeCell ref="Q18:U18"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="J17:N17"/>
+    <mergeCell ref="Q14:U14"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C17:G17"/>
+    <mergeCell ref="V16:W16"/>
+    <mergeCell ref="X16:AB16"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:G16"/>
+    <mergeCell ref="V15:W15"/>
+    <mergeCell ref="X15:AB15"/>
+    <mergeCell ref="O15:P15"/>
+    <mergeCell ref="Q15:U15"/>
+    <mergeCell ref="O16:P16"/>
+    <mergeCell ref="Q16:U16"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C13:G13"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="J16:N16"/>
+    <mergeCell ref="V12:W12"/>
+    <mergeCell ref="X12:AB12"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="J15:N15"/>
+    <mergeCell ref="O12:P12"/>
+    <mergeCell ref="Q12:U12"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="J12:N12"/>
+    <mergeCell ref="O13:P13"/>
+    <mergeCell ref="Q13:U13"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C15:G15"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C14:G14"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="J13:N13"/>
+    <mergeCell ref="X13:AB13"/>
+    <mergeCell ref="O14:P14"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:G11"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="J10:N10"/>
+    <mergeCell ref="V10:W10"/>
+    <mergeCell ref="X10:AB10"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C10:G10"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="J9:N9"/>
+    <mergeCell ref="V9:W9"/>
+    <mergeCell ref="X9:AB9"/>
+    <mergeCell ref="O9:P9"/>
+    <mergeCell ref="Q9:U9"/>
+    <mergeCell ref="O10:P10"/>
+    <mergeCell ref="Q10:U10"/>
+    <mergeCell ref="V11:W11"/>
+    <mergeCell ref="X11:AB11"/>
+    <mergeCell ref="O11:P11"/>
+    <mergeCell ref="Q11:U11"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="J11:N11"/>
     <mergeCell ref="A9:B9"/>
     <mergeCell ref="C9:G9"/>
     <mergeCell ref="H6:I6"/>
@@ -6151,190 +6303,38 @@
     <mergeCell ref="C7:G7"/>
     <mergeCell ref="O6:P6"/>
     <mergeCell ref="Q6:U6"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:G11"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="J10:N10"/>
-    <mergeCell ref="V10:W10"/>
-    <mergeCell ref="X10:AB10"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="C10:G10"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="J9:N9"/>
-    <mergeCell ref="V9:W9"/>
-    <mergeCell ref="X9:AB9"/>
-    <mergeCell ref="O9:P9"/>
-    <mergeCell ref="Q9:U9"/>
-    <mergeCell ref="O10:P10"/>
-    <mergeCell ref="Q10:U10"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="C13:G13"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="J16:N16"/>
-    <mergeCell ref="V12:W12"/>
-    <mergeCell ref="X12:AB12"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="C12:G12"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="J15:N15"/>
-    <mergeCell ref="V11:W11"/>
-    <mergeCell ref="X11:AB11"/>
-    <mergeCell ref="O11:P11"/>
-    <mergeCell ref="Q11:U11"/>
-    <mergeCell ref="O12:P12"/>
-    <mergeCell ref="Q12:U12"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="J11:N11"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="J12:N12"/>
-    <mergeCell ref="O13:P13"/>
-    <mergeCell ref="Q13:U13"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="C15:G15"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="C14:G14"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="J13:N13"/>
-    <mergeCell ref="X13:AB13"/>
-    <mergeCell ref="O14:P14"/>
-    <mergeCell ref="Q14:U14"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="C17:G17"/>
-    <mergeCell ref="V16:W16"/>
-    <mergeCell ref="X16:AB16"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="C16:G16"/>
-    <mergeCell ref="V15:W15"/>
-    <mergeCell ref="X15:AB15"/>
-    <mergeCell ref="O15:P15"/>
-    <mergeCell ref="Q15:U15"/>
-    <mergeCell ref="O16:P16"/>
-    <mergeCell ref="Q16:U16"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="V13:W13"/>
-    <mergeCell ref="J14:N14"/>
-    <mergeCell ref="V14:W14"/>
-    <mergeCell ref="X14:AB14"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="C19:G19"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="J18:N18"/>
-    <mergeCell ref="V18:W18"/>
-    <mergeCell ref="X18:AB18"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C18:G18"/>
-    <mergeCell ref="V17:W17"/>
-    <mergeCell ref="X17:AB17"/>
-    <mergeCell ref="O17:P17"/>
-    <mergeCell ref="Q17:U17"/>
-    <mergeCell ref="O18:P18"/>
-    <mergeCell ref="Q18:U18"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="J17:N17"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="C21:G21"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="J20:N20"/>
-    <mergeCell ref="V20:W20"/>
-    <mergeCell ref="X20:AB20"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="C20:G20"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="J19:N19"/>
-    <mergeCell ref="V19:W19"/>
-    <mergeCell ref="X19:AB19"/>
-    <mergeCell ref="O19:P19"/>
-    <mergeCell ref="Q19:U19"/>
-    <mergeCell ref="O20:P20"/>
-    <mergeCell ref="Q20:U20"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="C23:G23"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="J22:N22"/>
-    <mergeCell ref="V22:W22"/>
-    <mergeCell ref="X22:AB22"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="C22:G22"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="J21:N21"/>
-    <mergeCell ref="V21:W21"/>
-    <mergeCell ref="X21:AB21"/>
-    <mergeCell ref="O21:P21"/>
-    <mergeCell ref="Q21:U21"/>
-    <mergeCell ref="O22:P22"/>
-    <mergeCell ref="Q22:U22"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="C25:G25"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="J24:N24"/>
-    <mergeCell ref="O24:P24"/>
-    <mergeCell ref="Q24:U24"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="C24:G24"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="J23:N23"/>
-    <mergeCell ref="O23:P23"/>
-    <mergeCell ref="Q23:U23"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="C27:G27"/>
-    <mergeCell ref="H26:I26"/>
-    <mergeCell ref="J26:N26"/>
-    <mergeCell ref="O26:P26"/>
-    <mergeCell ref="Q26:U26"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="C26:G26"/>
-    <mergeCell ref="H25:I25"/>
-    <mergeCell ref="J25:N25"/>
-    <mergeCell ref="O25:P25"/>
-    <mergeCell ref="Q25:U25"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="C29:G29"/>
-    <mergeCell ref="H28:I28"/>
-    <mergeCell ref="J28:N28"/>
-    <mergeCell ref="O28:P28"/>
-    <mergeCell ref="Q28:U28"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="C28:G28"/>
-    <mergeCell ref="H27:I27"/>
-    <mergeCell ref="J27:N27"/>
-    <mergeCell ref="O27:P27"/>
-    <mergeCell ref="Q27:U27"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="C31:G31"/>
-    <mergeCell ref="H30:I30"/>
-    <mergeCell ref="J30:N30"/>
-    <mergeCell ref="O30:P30"/>
-    <mergeCell ref="Q30:U30"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="C30:G30"/>
-    <mergeCell ref="H29:I29"/>
-    <mergeCell ref="J29:N29"/>
-    <mergeCell ref="O29:P29"/>
-    <mergeCell ref="Q29:U29"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="C33:G33"/>
-    <mergeCell ref="H32:I32"/>
-    <mergeCell ref="J32:N32"/>
-    <mergeCell ref="O32:P32"/>
-    <mergeCell ref="Q32:U32"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="C32:G32"/>
-    <mergeCell ref="H31:I31"/>
-    <mergeCell ref="J31:N31"/>
-    <mergeCell ref="O31:P31"/>
-    <mergeCell ref="Q31:U31"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="C35:G35"/>
-    <mergeCell ref="H34:I34"/>
-    <mergeCell ref="J34:N34"/>
-    <mergeCell ref="O34:P34"/>
-    <mergeCell ref="Q34:U34"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="C34:G34"/>
-    <mergeCell ref="H33:I33"/>
-    <mergeCell ref="J33:N33"/>
-    <mergeCell ref="O33:P33"/>
-    <mergeCell ref="Q33:U33"/>
+    <mergeCell ref="A1:G2"/>
+    <mergeCell ref="H1:N2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:G3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="V1:AB2"/>
+    <mergeCell ref="V3:W3"/>
+    <mergeCell ref="J3:N3"/>
+    <mergeCell ref="X3:AB3"/>
+    <mergeCell ref="O1:U2"/>
+    <mergeCell ref="O3:P3"/>
+    <mergeCell ref="Q3:U3"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="V5:W5"/>
+    <mergeCell ref="X5:AB5"/>
+    <mergeCell ref="O5:P5"/>
+    <mergeCell ref="Q5:U5"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="V6:W6"/>
+    <mergeCell ref="X6:AB6"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="J4:N4"/>
+    <mergeCell ref="V4:W4"/>
+    <mergeCell ref="X4:AB4"/>
+    <mergeCell ref="O4:P4"/>
+    <mergeCell ref="Q4:U4"/>
+    <mergeCell ref="J5:N5"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C16" r:id="rId1" xr:uid="{868F8F85-B252-4B04-B081-E9B23AD46A23}"/>
@@ -6367,16 +6367,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="43" t="s">
         <v>236</v>
       </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
-      <c r="F1" s="41"/>
-      <c r="G1" s="41"/>
-      <c r="H1" s="41"/>
+      <c r="B1" s="43"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="43"/>
+      <c r="G1" s="43"/>
+      <c r="H1" s="43"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="22" t="s">
@@ -6411,12 +6411,12 @@
       <c r="D3" s="14" t="s">
         <v>241</v>
       </c>
-      <c r="E3" s="40" t="s">
+      <c r="E3" s="42" t="s">
         <v>248</v>
       </c>
-      <c r="F3" s="40"/>
-      <c r="G3" s="40"/>
-      <c r="H3" s="40"/>
+      <c r="F3" s="42"/>
+      <c r="G3" s="42"/>
+      <c r="H3" s="42"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
@@ -6431,28 +6431,28 @@
       <c r="D4" s="14" t="s">
         <v>251</v>
       </c>
-      <c r="E4" s="40"/>
-      <c r="F4" s="40"/>
-      <c r="G4" s="40"/>
-      <c r="H4" s="40"/>
+      <c r="E4" s="42"/>
+      <c r="F4" s="42"/>
+      <c r="G4" s="42"/>
+      <c r="H4" s="42"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="E5" s="40"/>
-      <c r="F5" s="40"/>
-      <c r="G5" s="40"/>
-      <c r="H5" s="40"/>
+      <c r="E5" s="42"/>
+      <c r="F5" s="42"/>
+      <c r="G5" s="42"/>
+      <c r="H5" s="42"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="E6" s="40"/>
-      <c r="F6" s="40"/>
-      <c r="G6" s="40"/>
-      <c r="H6" s="40"/>
+      <c r="E6" s="42"/>
+      <c r="F6" s="42"/>
+      <c r="G6" s="42"/>
+      <c r="H6" s="42"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="E7" s="40"/>
-      <c r="F7" s="40"/>
-      <c r="G7" s="40"/>
-      <c r="H7" s="40"/>
+      <c r="E7" s="42"/>
+      <c r="F7" s="42"/>
+      <c r="G7" s="42"/>
+      <c r="H7" s="42"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="14" t="s">
@@ -6467,12 +6467,12 @@
       <c r="D8" s="14" t="s">
         <v>245</v>
       </c>
-      <c r="E8" s="40" t="s">
+      <c r="E8" s="42" t="s">
         <v>285</v>
       </c>
-      <c r="F8" s="40"/>
-      <c r="G8" s="40"/>
-      <c r="H8" s="40"/>
+      <c r="F8" s="42"/>
+      <c r="G8" s="42"/>
+      <c r="H8" s="42"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
@@ -6487,12 +6487,12 @@
       <c r="D9" s="14" t="s">
         <v>251</v>
       </c>
-      <c r="E9" s="40" t="s">
+      <c r="E9" s="42" t="s">
         <v>249</v>
       </c>
-      <c r="F9" s="40"/>
-      <c r="G9" s="40"/>
-      <c r="H9" s="40"/>
+      <c r="F9" s="42"/>
+      <c r="G9" s="42"/>
+      <c r="H9" s="42"/>
     </row>
     <row r="10" spans="1:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="14" t="s">
@@ -6507,12 +6507,12 @@
       <c r="D10" s="14" t="s">
         <v>251</v>
       </c>
-      <c r="E10" s="40" t="s">
+      <c r="E10" s="42" t="s">
         <v>252</v>
       </c>
-      <c r="F10" s="40"/>
-      <c r="G10" s="40"/>
-      <c r="H10" s="40"/>
+      <c r="F10" s="42"/>
+      <c r="G10" s="42"/>
+      <c r="H10" s="42"/>
       <c r="I10" s="14" t="s">
         <v>282</v>
       </c>
@@ -6530,12 +6530,12 @@
       <c r="D11" s="14" t="s">
         <v>251</v>
       </c>
-      <c r="E11" s="40" t="s">
+      <c r="E11" s="42" t="s">
         <v>255</v>
       </c>
-      <c r="F11" s="40"/>
-      <c r="G11" s="40"/>
-      <c r="H11" s="40"/>
+      <c r="F11" s="42"/>
+      <c r="G11" s="42"/>
+      <c r="H11" s="42"/>
     </row>
     <row r="12" spans="1:9" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="14" t="s">
@@ -6550,12 +6550,12 @@
       <c r="D12" s="14" t="s">
         <v>251</v>
       </c>
-      <c r="E12" s="40" t="s">
+      <c r="E12" s="42" t="s">
         <v>259</v>
       </c>
-      <c r="F12" s="40"/>
-      <c r="G12" s="40"/>
-      <c r="H12" s="40"/>
+      <c r="F12" s="42"/>
+      <c r="G12" s="42"/>
+      <c r="H12" s="42"/>
     </row>
     <row r="13" spans="1:9" ht="79.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="14" t="s">
@@ -6570,12 +6570,12 @@
       <c r="D13" s="14" t="s">
         <v>251</v>
       </c>
-      <c r="E13" s="40" t="s">
+      <c r="E13" s="42" t="s">
         <v>261</v>
       </c>
-      <c r="F13" s="40"/>
-      <c r="G13" s="40"/>
-      <c r="H13" s="40"/>
+      <c r="F13" s="42"/>
+      <c r="G13" s="42"/>
+      <c r="H13" s="42"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="14" t="s">
@@ -6590,93 +6590,95 @@
       <c r="D14" s="14" t="s">
         <v>251</v>
       </c>
-      <c r="E14" s="40" t="s">
+      <c r="E14" s="42" t="s">
         <v>287</v>
       </c>
-      <c r="F14" s="40"/>
-      <c r="G14" s="40"/>
-      <c r="H14" s="40"/>
+      <c r="F14" s="42"/>
+      <c r="G14" s="42"/>
+      <c r="H14" s="42"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="E15" s="40"/>
-      <c r="F15" s="40"/>
-      <c r="G15" s="40"/>
-      <c r="H15" s="40"/>
+      <c r="E15" s="42"/>
+      <c r="F15" s="42"/>
+      <c r="G15" s="42"/>
+      <c r="H15" s="42"/>
     </row>
     <row r="16" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E16" s="40"/>
-      <c r="F16" s="40"/>
-      <c r="G16" s="40"/>
-      <c r="H16" s="40"/>
+      <c r="E16" s="42"/>
+      <c r="F16" s="42"/>
+      <c r="G16" s="42"/>
+      <c r="H16" s="42"/>
     </row>
     <row r="17" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E17" s="40"/>
-      <c r="F17" s="40"/>
-      <c r="G17" s="40"/>
-      <c r="H17" s="40"/>
+      <c r="E17" s="42"/>
+      <c r="F17" s="42"/>
+      <c r="G17" s="42"/>
+      <c r="H17" s="42"/>
     </row>
     <row r="18" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E18" s="40"/>
-      <c r="F18" s="40"/>
-      <c r="G18" s="40"/>
-      <c r="H18" s="40"/>
+      <c r="E18" s="42"/>
+      <c r="F18" s="42"/>
+      <c r="G18" s="42"/>
+      <c r="H18" s="42"/>
     </row>
     <row r="19" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E19" s="40"/>
-      <c r="F19" s="40"/>
-      <c r="G19" s="40"/>
-      <c r="H19" s="40"/>
+      <c r="E19" s="42"/>
+      <c r="F19" s="42"/>
+      <c r="G19" s="42"/>
+      <c r="H19" s="42"/>
     </row>
     <row r="20" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E20" s="40"/>
-      <c r="F20" s="40"/>
-      <c r="G20" s="40"/>
-      <c r="H20" s="40"/>
+      <c r="E20" s="42"/>
+      <c r="F20" s="42"/>
+      <c r="G20" s="42"/>
+      <c r="H20" s="42"/>
     </row>
     <row r="21" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E21" s="40"/>
-      <c r="F21" s="40"/>
-      <c r="G21" s="40"/>
-      <c r="H21" s="40"/>
+      <c r="E21" s="42"/>
+      <c r="F21" s="42"/>
+      <c r="G21" s="42"/>
+      <c r="H21" s="42"/>
     </row>
     <row r="22" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E22" s="40"/>
-      <c r="F22" s="40"/>
-      <c r="G22" s="40"/>
-      <c r="H22" s="40"/>
+      <c r="E22" s="42"/>
+      <c r="F22" s="42"/>
+      <c r="G22" s="42"/>
+      <c r="H22" s="42"/>
     </row>
     <row r="23" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E23" s="40"/>
-      <c r="F23" s="40"/>
-      <c r="G23" s="40"/>
-      <c r="H23" s="40"/>
+      <c r="E23" s="42"/>
+      <c r="F23" s="42"/>
+      <c r="G23" s="42"/>
+      <c r="H23" s="42"/>
     </row>
     <row r="24" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E24" s="40"/>
-      <c r="F24" s="40"/>
-      <c r="G24" s="40"/>
-      <c r="H24" s="40"/>
+      <c r="E24" s="42"/>
+      <c r="F24" s="42"/>
+      <c r="G24" s="42"/>
+      <c r="H24" s="42"/>
     </row>
     <row r="25" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E25" s="40"/>
-      <c r="F25" s="40"/>
-      <c r="G25" s="40"/>
-      <c r="H25" s="40"/>
+      <c r="E25" s="42"/>
+      <c r="F25" s="42"/>
+      <c r="G25" s="42"/>
+      <c r="H25" s="42"/>
     </row>
     <row r="26" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E26" s="40"/>
-      <c r="F26" s="40"/>
-      <c r="G26" s="40"/>
-      <c r="H26" s="40"/>
+      <c r="E26" s="42"/>
+      <c r="F26" s="42"/>
+      <c r="G26" s="42"/>
+      <c r="H26" s="42"/>
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="E6:H6"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="E2:H2"/>
-    <mergeCell ref="E3:H3"/>
-    <mergeCell ref="E4:H4"/>
-    <mergeCell ref="E5:H5"/>
+    <mergeCell ref="E25:H25"/>
+    <mergeCell ref="E26:H26"/>
+    <mergeCell ref="E19:H19"/>
+    <mergeCell ref="E20:H20"/>
+    <mergeCell ref="E21:H21"/>
+    <mergeCell ref="E22:H22"/>
+    <mergeCell ref="E23:H23"/>
+    <mergeCell ref="E24:H24"/>
     <mergeCell ref="E18:H18"/>
     <mergeCell ref="E7:H7"/>
     <mergeCell ref="E8:H8"/>
@@ -6689,14 +6691,12 @@
     <mergeCell ref="E15:H15"/>
     <mergeCell ref="E16:H16"/>
     <mergeCell ref="E17:H17"/>
-    <mergeCell ref="E25:H25"/>
-    <mergeCell ref="E26:H26"/>
-    <mergeCell ref="E19:H19"/>
-    <mergeCell ref="E20:H20"/>
-    <mergeCell ref="E21:H21"/>
-    <mergeCell ref="E22:H22"/>
-    <mergeCell ref="E23:H23"/>
-    <mergeCell ref="E24:H24"/>
+    <mergeCell ref="E6:H6"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="E2:H2"/>
+    <mergeCell ref="E3:H3"/>
+    <mergeCell ref="E4:H4"/>
+    <mergeCell ref="E5:H5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6726,15 +6726,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="45" t="s">
         <v>262</v>
       </c>
-      <c r="B1" s="43"/>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
-      <c r="E1" s="43"/>
-      <c r="F1" s="43"/>
-      <c r="G1" s="43"/>
+      <c r="B1" s="45"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="45"/>
+      <c r="G1" s="45"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="20" t="s">
@@ -6746,12 +6746,12 @@
       <c r="C2" s="20" t="s">
         <v>237</v>
       </c>
-      <c r="D2" s="44" t="s">
+      <c r="D2" s="46" t="s">
         <v>240</v>
       </c>
-      <c r="E2" s="44"/>
-      <c r="F2" s="44"/>
-      <c r="G2" s="44"/>
+      <c r="E2" s="46"/>
+      <c r="F2" s="46"/>
+      <c r="G2" s="46"/>
       <c r="I2" s="23" t="s">
         <v>294</v>
       </c>
@@ -6766,12 +6766,12 @@
       <c r="C3" s="5" t="s">
         <v>241</v>
       </c>
-      <c r="D3" s="42" t="s">
+      <c r="D3" s="44" t="s">
         <v>264</v>
       </c>
-      <c r="E3" s="42"/>
-      <c r="F3" s="42"/>
-      <c r="G3" s="42"/>
+      <c r="E3" s="44"/>
+      <c r="F3" s="44"/>
+      <c r="G3" s="44"/>
       <c r="I3" s="5" t="s">
         <v>295</v>
       </c>
@@ -6789,12 +6789,12 @@
       <c r="C4" s="5" t="s">
         <v>241</v>
       </c>
-      <c r="D4" s="42" t="s">
+      <c r="D4" s="44" t="s">
         <v>271</v>
       </c>
-      <c r="E4" s="42"/>
-      <c r="F4" s="42"/>
-      <c r="G4" s="42"/>
+      <c r="E4" s="44"/>
+      <c r="F4" s="44"/>
+      <c r="G4" s="44"/>
       <c r="J4" s="5" t="s">
         <v>298</v>
       </c>
@@ -6809,12 +6809,12 @@
       <c r="C5" s="5" t="s">
         <v>241</v>
       </c>
-      <c r="D5" s="42" t="s">
+      <c r="D5" s="44" t="s">
         <v>268</v>
       </c>
-      <c r="E5" s="42"/>
-      <c r="F5" s="42"/>
-      <c r="G5" s="42"/>
+      <c r="E5" s="44"/>
+      <c r="F5" s="44"/>
+      <c r="G5" s="44"/>
       <c r="J5" s="5" t="s">
         <v>299</v>
       </c>
@@ -6829,12 +6829,12 @@
       <c r="C6" s="5" t="s">
         <v>270</v>
       </c>
-      <c r="D6" s="42" t="s">
+      <c r="D6" s="44" t="s">
         <v>265</v>
       </c>
-      <c r="E6" s="42"/>
-      <c r="F6" s="42"/>
-      <c r="G6" s="42"/>
+      <c r="E6" s="44"/>
+      <c r="F6" s="44"/>
+      <c r="G6" s="44"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="16"/>
@@ -6843,10 +6843,10 @@
       <c r="A8" s="16" t="s">
         <v>296</v>
       </c>
-      <c r="D8" s="42"/>
-      <c r="E8" s="42"/>
-      <c r="F8" s="42"/>
-      <c r="G8" s="42"/>
+      <c r="D8" s="44"/>
+      <c r="E8" s="44"/>
+      <c r="F8" s="44"/>
+      <c r="G8" s="44"/>
       <c r="I8" s="5" t="s">
         <v>164</v>
       </c>
@@ -6864,12 +6864,12 @@
       <c r="C9" s="5" t="s">
         <v>305</v>
       </c>
-      <c r="D9" s="42" t="s">
+      <c r="D9" s="44" t="s">
         <v>302</v>
       </c>
-      <c r="E9" s="42"/>
-      <c r="F9" s="42"/>
-      <c r="G9" s="42"/>
+      <c r="E9" s="44"/>
+      <c r="F9" s="44"/>
+      <c r="G9" s="44"/>
       <c r="J9" s="5" t="s">
         <v>304</v>
       </c>
@@ -6886,10 +6886,10 @@
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D11" s="42"/>
-      <c r="E11" s="42"/>
-      <c r="F11" s="42"/>
-      <c r="G11" s="42"/>
+      <c r="D11" s="44"/>
+      <c r="E11" s="44"/>
+      <c r="F11" s="44"/>
+      <c r="G11" s="44"/>
     </row>
     <row r="12" spans="1:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
@@ -6901,12 +6901,12 @@
       <c r="C12" s="5" t="s">
         <v>276</v>
       </c>
-      <c r="D12" s="42" t="s">
+      <c r="D12" s="44" t="s">
         <v>277</v>
       </c>
-      <c r="E12" s="42"/>
-      <c r="F12" s="42"/>
-      <c r="G12" s="42"/>
+      <c r="E12" s="44"/>
+      <c r="F12" s="44"/>
+      <c r="G12" s="44"/>
       <c r="I12" s="5" t="s">
         <v>306</v>
       </c>
@@ -6924,12 +6924,12 @@
       <c r="C13" s="5" t="s">
         <v>241</v>
       </c>
-      <c r="D13" s="42" t="s">
+      <c r="D13" s="44" t="s">
         <v>280</v>
       </c>
-      <c r="E13" s="42"/>
-      <c r="F13" s="42"/>
-      <c r="G13" s="42"/>
+      <c r="E13" s="44"/>
+      <c r="F13" s="44"/>
+      <c r="G13" s="44"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
@@ -6941,24 +6941,24 @@
       <c r="C14" s="5" t="s">
         <v>310</v>
       </c>
-      <c r="D14" s="42" t="s">
+      <c r="D14" s="44" t="s">
         <v>311</v>
       </c>
-      <c r="E14" s="42"/>
-      <c r="F14" s="42"/>
-      <c r="G14" s="42"/>
+      <c r="E14" s="44"/>
+      <c r="F14" s="44"/>
+      <c r="G14" s="44"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D15" s="42"/>
-      <c r="E15" s="42"/>
-      <c r="F15" s="42"/>
-      <c r="G15" s="42"/>
+      <c r="D15" s="44"/>
+      <c r="E15" s="44"/>
+      <c r="F15" s="44"/>
+      <c r="G15" s="44"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D16" s="42"/>
-      <c r="E16" s="42"/>
-      <c r="F16" s="42"/>
-      <c r="G16" s="42"/>
+      <c r="D16" s="44"/>
+      <c r="E16" s="44"/>
+      <c r="F16" s="44"/>
+      <c r="G16" s="44"/>
     </row>
     <row r="17" spans="1:7" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
@@ -6970,109 +6970,93 @@
       <c r="C17" s="5" t="s">
         <v>289</v>
       </c>
-      <c r="D17" s="40" t="s">
+      <c r="D17" s="42" t="s">
         <v>291</v>
       </c>
-      <c r="E17" s="40"/>
-      <c r="F17" s="40"/>
-      <c r="G17" s="40"/>
+      <c r="E17" s="42"/>
+      <c r="F17" s="42"/>
+      <c r="G17" s="42"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D18" s="42"/>
-      <c r="E18" s="42"/>
-      <c r="F18" s="42"/>
-      <c r="G18" s="42"/>
+      <c r="D18" s="44"/>
+      <c r="E18" s="44"/>
+      <c r="F18" s="44"/>
+      <c r="G18" s="44"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D19" s="42"/>
-      <c r="E19" s="42"/>
-      <c r="F19" s="42"/>
-      <c r="G19" s="42"/>
+      <c r="D19" s="44"/>
+      <c r="E19" s="44"/>
+      <c r="F19" s="44"/>
+      <c r="G19" s="44"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D20" s="42"/>
-      <c r="E20" s="42"/>
-      <c r="F20" s="42"/>
-      <c r="G20" s="42"/>
+      <c r="D20" s="44"/>
+      <c r="E20" s="44"/>
+      <c r="F20" s="44"/>
+      <c r="G20" s="44"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D21" s="42"/>
-      <c r="E21" s="42"/>
-      <c r="F21" s="42"/>
-      <c r="G21" s="42"/>
+      <c r="D21" s="44"/>
+      <c r="E21" s="44"/>
+      <c r="F21" s="44"/>
+      <c r="G21" s="44"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D22" s="42"/>
-      <c r="E22" s="42"/>
-      <c r="F22" s="42"/>
-      <c r="G22" s="42"/>
+      <c r="D22" s="44"/>
+      <c r="E22" s="44"/>
+      <c r="F22" s="44"/>
+      <c r="G22" s="44"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D23" s="42"/>
-      <c r="E23" s="42"/>
-      <c r="F23" s="42"/>
-      <c r="G23" s="42"/>
+      <c r="D23" s="44"/>
+      <c r="E23" s="44"/>
+      <c r="F23" s="44"/>
+      <c r="G23" s="44"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D24" s="42"/>
-      <c r="E24" s="42"/>
-      <c r="F24" s="42"/>
-      <c r="G24" s="42"/>
+      <c r="D24" s="44"/>
+      <c r="E24" s="44"/>
+      <c r="F24" s="44"/>
+      <c r="G24" s="44"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D25" s="42"/>
-      <c r="E25" s="42"/>
-      <c r="F25" s="42"/>
-      <c r="G25" s="42"/>
+      <c r="D25" s="44"/>
+      <c r="E25" s="44"/>
+      <c r="F25" s="44"/>
+      <c r="G25" s="44"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D26" s="42"/>
-      <c r="E26" s="42"/>
-      <c r="F26" s="42"/>
-      <c r="G26" s="42"/>
+      <c r="D26" s="44"/>
+      <c r="E26" s="44"/>
+      <c r="F26" s="44"/>
+      <c r="G26" s="44"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D27" s="42"/>
-      <c r="E27" s="42"/>
-      <c r="F27" s="42"/>
-      <c r="G27" s="42"/>
+      <c r="D27" s="44"/>
+      <c r="E27" s="44"/>
+      <c r="F27" s="44"/>
+      <c r="G27" s="44"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D28" s="42"/>
-      <c r="E28" s="42"/>
-      <c r="F28" s="42"/>
-      <c r="G28" s="42"/>
+      <c r="D28" s="44"/>
+      <c r="E28" s="44"/>
+      <c r="F28" s="44"/>
+      <c r="G28" s="44"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D29" s="42"/>
-      <c r="E29" s="42"/>
-      <c r="F29" s="42"/>
-      <c r="G29" s="42"/>
+      <c r="D29" s="44"/>
+      <c r="E29" s="44"/>
+      <c r="F29" s="44"/>
+      <c r="G29" s="44"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D30" s="42"/>
-      <c r="E30" s="42"/>
-      <c r="F30" s="42"/>
-      <c r="G30" s="42"/>
+      <c r="D30" s="44"/>
+      <c r="E30" s="44"/>
+      <c r="F30" s="44"/>
+      <c r="G30" s="44"/>
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="D4:G4"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="D2:G2"/>
-    <mergeCell ref="D3:G3"/>
-    <mergeCell ref="D6:G6"/>
-    <mergeCell ref="D5:G5"/>
-    <mergeCell ref="D18:G18"/>
-    <mergeCell ref="D8:G8"/>
-    <mergeCell ref="D9:G9"/>
-    <mergeCell ref="D11:G11"/>
-    <mergeCell ref="D12:G12"/>
-    <mergeCell ref="D13:G13"/>
-    <mergeCell ref="D14:G14"/>
-    <mergeCell ref="D15:G15"/>
-    <mergeCell ref="D16:G16"/>
-    <mergeCell ref="D17:G17"/>
     <mergeCell ref="D30:G30"/>
     <mergeCell ref="D19:G19"/>
     <mergeCell ref="D20:G20"/>
@@ -7085,6 +7069,22 @@
     <mergeCell ref="D27:G27"/>
     <mergeCell ref="D28:G28"/>
     <mergeCell ref="D29:G29"/>
+    <mergeCell ref="D18:G18"/>
+    <mergeCell ref="D8:G8"/>
+    <mergeCell ref="D9:G9"/>
+    <mergeCell ref="D11:G11"/>
+    <mergeCell ref="D12:G12"/>
+    <mergeCell ref="D13:G13"/>
+    <mergeCell ref="D14:G14"/>
+    <mergeCell ref="D15:G15"/>
+    <mergeCell ref="D16:G16"/>
+    <mergeCell ref="D17:G17"/>
+    <mergeCell ref="D4:G4"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="D3:G3"/>
+    <mergeCell ref="D6:G6"/>
+    <mergeCell ref="D5:G5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/plans/todo.xlsx
+++ b/plans/todo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Edsquid\Documents\Personal Projects\Business\RogueLikeGame\plans\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE773CB4-CA73-4AA9-BB20-DE98D48B4658}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21E215C3-73C5-452F-855A-BE1B59516986}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="32865" yWindow="810" windowWidth="19920" windowHeight="13335" tabRatio="509" activeTab="3" xr2:uid="{BA1E511D-BF64-4842-98DF-72E30276ED1C}"/>
   </bookViews>
@@ -1506,11 +1506,8 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1521,8 +1518,11 @@
     <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -4954,8 +4954,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E13E4A5-10AD-4171-99FD-31881C0A6C11}">
   <dimension ref="A1:AD35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10:N10"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="V5" sqref="V5:W5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4974,134 +4974,134 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="38"/>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38"/>
-      <c r="G1" s="38"/>
-      <c r="H1" s="38" t="s">
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
+      <c r="H1" s="37" t="s">
         <v>156</v>
       </c>
-      <c r="I1" s="38"/>
-      <c r="J1" s="38"/>
-      <c r="K1" s="38"/>
-      <c r="L1" s="38"/>
-      <c r="M1" s="38"/>
-      <c r="N1" s="38"/>
-      <c r="O1" s="38" t="s">
+      <c r="I1" s="37"/>
+      <c r="J1" s="37"/>
+      <c r="K1" s="37"/>
+      <c r="L1" s="37"/>
+      <c r="M1" s="37"/>
+      <c r="N1" s="37"/>
+      <c r="O1" s="37" t="s">
         <v>157</v>
       </c>
-      <c r="P1" s="38"/>
-      <c r="Q1" s="38"/>
-      <c r="R1" s="38"/>
-      <c r="S1" s="38"/>
-      <c r="T1" s="38"/>
-      <c r="U1" s="38"/>
-      <c r="V1" s="38" t="s">
+      <c r="P1" s="37"/>
+      <c r="Q1" s="37"/>
+      <c r="R1" s="37"/>
+      <c r="S1" s="37"/>
+      <c r="T1" s="37"/>
+      <c r="U1" s="37"/>
+      <c r="V1" s="37" t="s">
         <v>30</v>
       </c>
-      <c r="W1" s="38"/>
-      <c r="X1" s="38"/>
-      <c r="Y1" s="38"/>
-      <c r="Z1" s="38"/>
-      <c r="AA1" s="38"/>
-      <c r="AB1" s="38"/>
+      <c r="W1" s="37"/>
+      <c r="X1" s="37"/>
+      <c r="Y1" s="37"/>
+      <c r="Z1" s="37"/>
+      <c r="AA1" s="37"/>
+      <c r="AB1" s="37"/>
       <c r="AD1" s="19" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="2" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="38"/>
-      <c r="B2" s="38"/>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38"/>
-      <c r="F2" s="38"/>
-      <c r="G2" s="38"/>
-      <c r="H2" s="38"/>
-      <c r="I2" s="38"/>
-      <c r="J2" s="38"/>
-      <c r="K2" s="38"/>
-      <c r="L2" s="38"/>
-      <c r="M2" s="38"/>
-      <c r="N2" s="38"/>
-      <c r="O2" s="38"/>
-      <c r="P2" s="38"/>
-      <c r="Q2" s="38"/>
-      <c r="R2" s="38"/>
-      <c r="S2" s="38"/>
-      <c r="T2" s="38"/>
-      <c r="U2" s="38"/>
-      <c r="V2" s="38"/>
-      <c r="W2" s="38"/>
-      <c r="X2" s="38"/>
-      <c r="Y2" s="38"/>
-      <c r="Z2" s="38"/>
-      <c r="AA2" s="38"/>
-      <c r="AB2" s="38"/>
+      <c r="A2" s="37"/>
+      <c r="B2" s="37"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="37"/>
+      <c r="H2" s="37"/>
+      <c r="I2" s="37"/>
+      <c r="J2" s="37"/>
+      <c r="K2" s="37"/>
+      <c r="L2" s="37"/>
+      <c r="M2" s="37"/>
+      <c r="N2" s="37"/>
+      <c r="O2" s="37"/>
+      <c r="P2" s="37"/>
+      <c r="Q2" s="37"/>
+      <c r="R2" s="37"/>
+      <c r="S2" s="37"/>
+      <c r="T2" s="37"/>
+      <c r="U2" s="37"/>
+      <c r="V2" s="37"/>
+      <c r="W2" s="37"/>
+      <c r="X2" s="37"/>
+      <c r="Y2" s="37"/>
+      <c r="Z2" s="37"/>
+      <c r="AA2" s="37"/>
+      <c r="AB2" s="37"/>
     </row>
     <row r="3" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A3" s="39" t="s">
+      <c r="A3" s="38" t="s">
         <v>29</v>
       </c>
-      <c r="B3" s="39"/>
-      <c r="C3" s="40" t="s">
+      <c r="B3" s="38"/>
+      <c r="C3" s="39" t="s">
         <v>31</v>
       </c>
-      <c r="D3" s="40"/>
-      <c r="E3" s="40"/>
-      <c r="F3" s="40"/>
-      <c r="G3" s="40"/>
-      <c r="H3" s="39" t="s">
+      <c r="D3" s="39"/>
+      <c r="E3" s="39"/>
+      <c r="F3" s="39"/>
+      <c r="G3" s="39"/>
+      <c r="H3" s="38" t="s">
         <v>29</v>
       </c>
-      <c r="I3" s="39"/>
-      <c r="J3" s="40" t="s">
+      <c r="I3" s="38"/>
+      <c r="J3" s="39" t="s">
         <v>31</v>
       </c>
-      <c r="K3" s="40"/>
-      <c r="L3" s="40"/>
-      <c r="M3" s="40"/>
-      <c r="N3" s="40"/>
-      <c r="O3" s="39" t="s">
+      <c r="K3" s="39"/>
+      <c r="L3" s="39"/>
+      <c r="M3" s="39"/>
+      <c r="N3" s="39"/>
+      <c r="O3" s="38" t="s">
         <v>29</v>
       </c>
-      <c r="P3" s="39"/>
-      <c r="Q3" s="40" t="s">
+      <c r="P3" s="38"/>
+      <c r="Q3" s="39" t="s">
         <v>31</v>
       </c>
-      <c r="R3" s="40"/>
-      <c r="S3" s="40"/>
-      <c r="T3" s="40"/>
-      <c r="U3" s="40"/>
-      <c r="V3" s="39" t="s">
+      <c r="R3" s="39"/>
+      <c r="S3" s="39"/>
+      <c r="T3" s="39"/>
+      <c r="U3" s="39"/>
+      <c r="V3" s="38" t="s">
         <v>29</v>
       </c>
-      <c r="W3" s="39"/>
-      <c r="X3" s="40" t="s">
+      <c r="W3" s="38"/>
+      <c r="X3" s="39" t="s">
         <v>31</v>
       </c>
-      <c r="Y3" s="40"/>
-      <c r="Z3" s="40"/>
-      <c r="AA3" s="40"/>
-      <c r="AB3" s="40"/>
+      <c r="Y3" s="39"/>
+      <c r="Z3" s="39"/>
+      <c r="AA3" s="39"/>
+      <c r="AB3" s="39"/>
     </row>
     <row r="4" spans="1:30" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="36" t="s">
+      <c r="A4" s="40" t="s">
         <v>362</v>
       </c>
-      <c r="B4" s="36"/>
-      <c r="C4" s="37" t="s">
+      <c r="B4" s="40"/>
+      <c r="C4" s="41" t="s">
         <v>363</v>
       </c>
-      <c r="D4" s="37"/>
-      <c r="E4" s="37"/>
-      <c r="F4" s="37"/>
-      <c r="G4" s="37"/>
+      <c r="D4" s="41"/>
+      <c r="E4" s="41"/>
+      <c r="F4" s="41"/>
+      <c r="G4" s="41"/>
       <c r="H4" s="33" t="s">
         <v>312</v>
       </c>
@@ -5487,11 +5487,11 @@
     <row r="13" spans="1:30" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="33"/>
       <c r="B13" s="33"/>
-      <c r="C13" s="41"/>
-      <c r="D13" s="41"/>
-      <c r="E13" s="41"/>
-      <c r="F13" s="41"/>
-      <c r="G13" s="41"/>
+      <c r="C13" s="36"/>
+      <c r="D13" s="36"/>
+      <c r="E13" s="36"/>
+      <c r="F13" s="36"/>
+      <c r="G13" s="36"/>
       <c r="H13" s="33" t="s">
         <v>327</v>
       </c>
@@ -5531,13 +5531,13 @@
         <v>227</v>
       </c>
       <c r="B14" s="33"/>
-      <c r="C14" s="41" t="s">
+      <c r="C14" s="36" t="s">
         <v>226</v>
       </c>
-      <c r="D14" s="41"/>
-      <c r="E14" s="41"/>
-      <c r="F14" s="41"/>
-      <c r="G14" s="41"/>
+      <c r="D14" s="36"/>
+      <c r="E14" s="36"/>
+      <c r="F14" s="36"/>
+      <c r="G14" s="36"/>
       <c r="H14" s="33"/>
       <c r="I14" s="33"/>
       <c r="J14" s="34"/>
@@ -5565,13 +5565,13 @@
         <v>231</v>
       </c>
       <c r="B15" s="33"/>
-      <c r="C15" s="41" t="s">
+      <c r="C15" s="36" t="s">
         <v>230</v>
       </c>
-      <c r="D15" s="41"/>
-      <c r="E15" s="41"/>
-      <c r="F15" s="41"/>
-      <c r="G15" s="41"/>
+      <c r="D15" s="36"/>
+      <c r="E15" s="36"/>
+      <c r="F15" s="36"/>
+      <c r="G15" s="36"/>
       <c r="H15" s="33"/>
       <c r="I15" s="33"/>
       <c r="J15" s="34"/>
@@ -5599,7 +5599,7 @@
         <v>232</v>
       </c>
       <c r="B16" s="33"/>
-      <c r="C16" s="41" t="s">
+      <c r="C16" s="36" t="s">
         <v>233</v>
       </c>
       <c r="D16" s="34"/>
@@ -6097,110 +6097,116 @@
     </row>
   </sheetData>
   <mergeCells count="238">
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="C35:G35"/>
-    <mergeCell ref="H34:I34"/>
-    <mergeCell ref="J34:N34"/>
-    <mergeCell ref="O34:P34"/>
-    <mergeCell ref="Q34:U34"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="C34:G34"/>
-    <mergeCell ref="H33:I33"/>
-    <mergeCell ref="J33:N33"/>
-    <mergeCell ref="O33:P33"/>
-    <mergeCell ref="Q33:U33"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="C33:G33"/>
-    <mergeCell ref="H32:I32"/>
-    <mergeCell ref="J32:N32"/>
-    <mergeCell ref="O32:P32"/>
-    <mergeCell ref="Q32:U32"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="C32:G32"/>
-    <mergeCell ref="H31:I31"/>
-    <mergeCell ref="J31:N31"/>
-    <mergeCell ref="O31:P31"/>
-    <mergeCell ref="Q31:U31"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="C31:G31"/>
-    <mergeCell ref="H30:I30"/>
-    <mergeCell ref="J30:N30"/>
-    <mergeCell ref="O30:P30"/>
-    <mergeCell ref="Q30:U30"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="C30:G30"/>
-    <mergeCell ref="H29:I29"/>
-    <mergeCell ref="J29:N29"/>
-    <mergeCell ref="O29:P29"/>
-    <mergeCell ref="Q29:U29"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="C29:G29"/>
-    <mergeCell ref="H28:I28"/>
-    <mergeCell ref="J28:N28"/>
-    <mergeCell ref="O28:P28"/>
-    <mergeCell ref="Q28:U28"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="C28:G28"/>
-    <mergeCell ref="H27:I27"/>
-    <mergeCell ref="J27:N27"/>
-    <mergeCell ref="O27:P27"/>
-    <mergeCell ref="Q27:U27"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="C27:G27"/>
-    <mergeCell ref="H26:I26"/>
-    <mergeCell ref="J26:N26"/>
-    <mergeCell ref="O26:P26"/>
-    <mergeCell ref="Q26:U26"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="C26:G26"/>
-    <mergeCell ref="H25:I25"/>
-    <mergeCell ref="J25:N25"/>
-    <mergeCell ref="O25:P25"/>
-    <mergeCell ref="Q25:U25"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="C25:G25"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="J24:N24"/>
-    <mergeCell ref="O24:P24"/>
-    <mergeCell ref="Q24:U24"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="C24:G24"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="J23:N23"/>
-    <mergeCell ref="O23:P23"/>
-    <mergeCell ref="Q23:U23"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="C23:G23"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="J22:N22"/>
-    <mergeCell ref="V22:W22"/>
-    <mergeCell ref="X22:AB22"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="C22:G22"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="J21:N21"/>
-    <mergeCell ref="V21:W21"/>
-    <mergeCell ref="X21:AB21"/>
-    <mergeCell ref="O21:P21"/>
-    <mergeCell ref="Q21:U21"/>
-    <mergeCell ref="O22:P22"/>
-    <mergeCell ref="Q22:U22"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="C21:G21"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="J20:N20"/>
-    <mergeCell ref="V20:W20"/>
-    <mergeCell ref="X20:AB20"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="C20:G20"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="J19:N19"/>
-    <mergeCell ref="V19:W19"/>
-    <mergeCell ref="X19:AB19"/>
-    <mergeCell ref="O19:P19"/>
-    <mergeCell ref="Q19:U19"/>
-    <mergeCell ref="O20:P20"/>
-    <mergeCell ref="Q20:U20"/>
+    <mergeCell ref="V5:W5"/>
+    <mergeCell ref="X5:AB5"/>
+    <mergeCell ref="O5:P5"/>
+    <mergeCell ref="Q5:U5"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="V6:W6"/>
+    <mergeCell ref="X6:AB6"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="J4:N4"/>
+    <mergeCell ref="V4:W4"/>
+    <mergeCell ref="X4:AB4"/>
+    <mergeCell ref="O4:P4"/>
+    <mergeCell ref="Q4:U4"/>
+    <mergeCell ref="J5:N5"/>
+    <mergeCell ref="A1:G2"/>
+    <mergeCell ref="H1:N2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:G3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="V1:AB2"/>
+    <mergeCell ref="V3:W3"/>
+    <mergeCell ref="J3:N3"/>
+    <mergeCell ref="X3:AB3"/>
+    <mergeCell ref="O1:U2"/>
+    <mergeCell ref="O3:P3"/>
+    <mergeCell ref="Q3:U3"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:G9"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="J6:N6"/>
+    <mergeCell ref="V8:W8"/>
+    <mergeCell ref="X8:AB8"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:N7"/>
+    <mergeCell ref="V7:W7"/>
+    <mergeCell ref="X7:AB7"/>
+    <mergeCell ref="O7:P7"/>
+    <mergeCell ref="Q7:U7"/>
+    <mergeCell ref="Q8:U8"/>
+    <mergeCell ref="O8:P8"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="J8:N8"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="O6:P6"/>
+    <mergeCell ref="Q6:U6"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="J9:N9"/>
+    <mergeCell ref="V9:W9"/>
+    <mergeCell ref="X9:AB9"/>
+    <mergeCell ref="O9:P9"/>
+    <mergeCell ref="Q9:U9"/>
+    <mergeCell ref="O10:P10"/>
+    <mergeCell ref="Q10:U10"/>
+    <mergeCell ref="V11:W11"/>
+    <mergeCell ref="X11:AB11"/>
+    <mergeCell ref="O11:P11"/>
+    <mergeCell ref="Q11:U11"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="J11:N11"/>
+    <mergeCell ref="O14:P14"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:G11"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="J10:N10"/>
+    <mergeCell ref="V10:W10"/>
+    <mergeCell ref="X10:AB10"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C10:G10"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C13:G13"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="J16:N16"/>
+    <mergeCell ref="V12:W12"/>
+    <mergeCell ref="X12:AB12"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="J15:N15"/>
+    <mergeCell ref="O12:P12"/>
+    <mergeCell ref="Q12:U12"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="J12:N12"/>
+    <mergeCell ref="O13:P13"/>
+    <mergeCell ref="Q13:U13"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C15:G15"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C14:G14"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="J13:N13"/>
+    <mergeCell ref="X13:AB13"/>
+    <mergeCell ref="X16:AB16"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:G16"/>
+    <mergeCell ref="V15:W15"/>
+    <mergeCell ref="X15:AB15"/>
+    <mergeCell ref="O15:P15"/>
+    <mergeCell ref="Q15:U15"/>
+    <mergeCell ref="O16:P16"/>
+    <mergeCell ref="Q16:U16"/>
     <mergeCell ref="V13:W13"/>
     <mergeCell ref="J14:N14"/>
     <mergeCell ref="V14:W14"/>
@@ -6225,116 +6231,110 @@
     <mergeCell ref="A17:B17"/>
     <mergeCell ref="C17:G17"/>
     <mergeCell ref="V16:W16"/>
-    <mergeCell ref="X16:AB16"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="C16:G16"/>
-    <mergeCell ref="V15:W15"/>
-    <mergeCell ref="X15:AB15"/>
-    <mergeCell ref="O15:P15"/>
-    <mergeCell ref="Q15:U15"/>
-    <mergeCell ref="O16:P16"/>
-    <mergeCell ref="Q16:U16"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="C13:G13"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="J16:N16"/>
-    <mergeCell ref="V12:W12"/>
-    <mergeCell ref="X12:AB12"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="C12:G12"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="J15:N15"/>
-    <mergeCell ref="O12:P12"/>
-    <mergeCell ref="Q12:U12"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="J12:N12"/>
-    <mergeCell ref="O13:P13"/>
-    <mergeCell ref="Q13:U13"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="C15:G15"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="C14:G14"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="J13:N13"/>
-    <mergeCell ref="X13:AB13"/>
-    <mergeCell ref="O14:P14"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:G11"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="J10:N10"/>
-    <mergeCell ref="V10:W10"/>
-    <mergeCell ref="X10:AB10"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="C10:G10"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="J9:N9"/>
-    <mergeCell ref="V9:W9"/>
-    <mergeCell ref="X9:AB9"/>
-    <mergeCell ref="O9:P9"/>
-    <mergeCell ref="Q9:U9"/>
-    <mergeCell ref="O10:P10"/>
-    <mergeCell ref="Q10:U10"/>
-    <mergeCell ref="V11:W11"/>
-    <mergeCell ref="X11:AB11"/>
-    <mergeCell ref="O11:P11"/>
-    <mergeCell ref="Q11:U11"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="J11:N11"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="C9:G9"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="J6:N6"/>
-    <mergeCell ref="V8:W8"/>
-    <mergeCell ref="X8:AB8"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="C8:G8"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="J7:N7"/>
-    <mergeCell ref="V7:W7"/>
-    <mergeCell ref="X7:AB7"/>
-    <mergeCell ref="O7:P7"/>
-    <mergeCell ref="Q7:U7"/>
-    <mergeCell ref="Q8:U8"/>
-    <mergeCell ref="O8:P8"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="J8:N8"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="O6:P6"/>
-    <mergeCell ref="Q6:U6"/>
-    <mergeCell ref="A1:G2"/>
-    <mergeCell ref="H1:N2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:G3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="V1:AB2"/>
-    <mergeCell ref="V3:W3"/>
-    <mergeCell ref="J3:N3"/>
-    <mergeCell ref="X3:AB3"/>
-    <mergeCell ref="O1:U2"/>
-    <mergeCell ref="O3:P3"/>
-    <mergeCell ref="Q3:U3"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="V5:W5"/>
-    <mergeCell ref="X5:AB5"/>
-    <mergeCell ref="O5:P5"/>
-    <mergeCell ref="Q5:U5"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:G4"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="V6:W6"/>
-    <mergeCell ref="X6:AB6"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:G5"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="J4:N4"/>
-    <mergeCell ref="V4:W4"/>
-    <mergeCell ref="X4:AB4"/>
-    <mergeCell ref="O4:P4"/>
-    <mergeCell ref="Q4:U4"/>
-    <mergeCell ref="J5:N5"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="J20:N20"/>
+    <mergeCell ref="V20:W20"/>
+    <mergeCell ref="X20:AB20"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="J19:N19"/>
+    <mergeCell ref="V19:W19"/>
+    <mergeCell ref="X19:AB19"/>
+    <mergeCell ref="O19:P19"/>
+    <mergeCell ref="Q19:U19"/>
+    <mergeCell ref="O20:P20"/>
+    <mergeCell ref="Q20:U20"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="J22:N22"/>
+    <mergeCell ref="V22:W22"/>
+    <mergeCell ref="X22:AB22"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="C22:G22"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="J21:N21"/>
+    <mergeCell ref="V21:W21"/>
+    <mergeCell ref="X21:AB21"/>
+    <mergeCell ref="O21:P21"/>
+    <mergeCell ref="Q21:U21"/>
+    <mergeCell ref="O22:P22"/>
+    <mergeCell ref="Q22:U22"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="J24:N24"/>
+    <mergeCell ref="O24:P24"/>
+    <mergeCell ref="Q24:U24"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="C24:G24"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="J23:N23"/>
+    <mergeCell ref="O23:P23"/>
+    <mergeCell ref="Q23:U23"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="C23:G23"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="J26:N26"/>
+    <mergeCell ref="O26:P26"/>
+    <mergeCell ref="Q26:U26"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="C26:G26"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="J25:N25"/>
+    <mergeCell ref="O25:P25"/>
+    <mergeCell ref="Q25:U25"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="C25:G25"/>
+    <mergeCell ref="H28:I28"/>
+    <mergeCell ref="J28:N28"/>
+    <mergeCell ref="O28:P28"/>
+    <mergeCell ref="Q28:U28"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="C28:G28"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="J27:N27"/>
+    <mergeCell ref="O27:P27"/>
+    <mergeCell ref="Q27:U27"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="C27:G27"/>
+    <mergeCell ref="H30:I30"/>
+    <mergeCell ref="J30:N30"/>
+    <mergeCell ref="O30:P30"/>
+    <mergeCell ref="Q30:U30"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="C30:G30"/>
+    <mergeCell ref="H29:I29"/>
+    <mergeCell ref="J29:N29"/>
+    <mergeCell ref="O29:P29"/>
+    <mergeCell ref="Q29:U29"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="C29:G29"/>
+    <mergeCell ref="H32:I32"/>
+    <mergeCell ref="J32:N32"/>
+    <mergeCell ref="O32:P32"/>
+    <mergeCell ref="Q32:U32"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="C32:G32"/>
+    <mergeCell ref="H31:I31"/>
+    <mergeCell ref="J31:N31"/>
+    <mergeCell ref="O31:P31"/>
+    <mergeCell ref="Q31:U31"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="C31:G31"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="C35:G35"/>
+    <mergeCell ref="H34:I34"/>
+    <mergeCell ref="J34:N34"/>
+    <mergeCell ref="O34:P34"/>
+    <mergeCell ref="Q34:U34"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="C34:G34"/>
+    <mergeCell ref="H33:I33"/>
+    <mergeCell ref="J33:N33"/>
+    <mergeCell ref="O33:P33"/>
+    <mergeCell ref="Q33:U33"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="C33:G33"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C16" r:id="rId1" xr:uid="{868F8F85-B252-4B04-B081-E9B23AD46A23}"/>
@@ -6671,14 +6671,12 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="E25:H25"/>
-    <mergeCell ref="E26:H26"/>
-    <mergeCell ref="E19:H19"/>
-    <mergeCell ref="E20:H20"/>
-    <mergeCell ref="E21:H21"/>
-    <mergeCell ref="E22:H22"/>
-    <mergeCell ref="E23:H23"/>
-    <mergeCell ref="E24:H24"/>
+    <mergeCell ref="E6:H6"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="E2:H2"/>
+    <mergeCell ref="E3:H3"/>
+    <mergeCell ref="E4:H4"/>
+    <mergeCell ref="E5:H5"/>
     <mergeCell ref="E18:H18"/>
     <mergeCell ref="E7:H7"/>
     <mergeCell ref="E8:H8"/>
@@ -6691,12 +6689,14 @@
     <mergeCell ref="E15:H15"/>
     <mergeCell ref="E16:H16"/>
     <mergeCell ref="E17:H17"/>
-    <mergeCell ref="E6:H6"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="E2:H2"/>
-    <mergeCell ref="E3:H3"/>
-    <mergeCell ref="E4:H4"/>
-    <mergeCell ref="E5:H5"/>
+    <mergeCell ref="E25:H25"/>
+    <mergeCell ref="E26:H26"/>
+    <mergeCell ref="E19:H19"/>
+    <mergeCell ref="E20:H20"/>
+    <mergeCell ref="E21:H21"/>
+    <mergeCell ref="E22:H22"/>
+    <mergeCell ref="E23:H23"/>
+    <mergeCell ref="E24:H24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7057,6 +7057,22 @@
     </row>
   </sheetData>
   <mergeCells count="28">
+    <mergeCell ref="D4:G4"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="D3:G3"/>
+    <mergeCell ref="D6:G6"/>
+    <mergeCell ref="D5:G5"/>
+    <mergeCell ref="D18:G18"/>
+    <mergeCell ref="D8:G8"/>
+    <mergeCell ref="D9:G9"/>
+    <mergeCell ref="D11:G11"/>
+    <mergeCell ref="D12:G12"/>
+    <mergeCell ref="D13:G13"/>
+    <mergeCell ref="D14:G14"/>
+    <mergeCell ref="D15:G15"/>
+    <mergeCell ref="D16:G16"/>
+    <mergeCell ref="D17:G17"/>
     <mergeCell ref="D30:G30"/>
     <mergeCell ref="D19:G19"/>
     <mergeCell ref="D20:G20"/>
@@ -7069,22 +7085,6 @@
     <mergeCell ref="D27:G27"/>
     <mergeCell ref="D28:G28"/>
     <mergeCell ref="D29:G29"/>
-    <mergeCell ref="D18:G18"/>
-    <mergeCell ref="D8:G8"/>
-    <mergeCell ref="D9:G9"/>
-    <mergeCell ref="D11:G11"/>
-    <mergeCell ref="D12:G12"/>
-    <mergeCell ref="D13:G13"/>
-    <mergeCell ref="D14:G14"/>
-    <mergeCell ref="D15:G15"/>
-    <mergeCell ref="D16:G16"/>
-    <mergeCell ref="D17:G17"/>
-    <mergeCell ref="D4:G4"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="D2:G2"/>
-    <mergeCell ref="D3:G3"/>
-    <mergeCell ref="D6:G6"/>
-    <mergeCell ref="D5:G5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/plans/todo.xlsx
+++ b/plans/todo.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Edsquid\Documents\Personal Projects\Business\RogueLikeGame\plans\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21E215C3-73C5-452F-855A-BE1B59516986}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92CEE945-C427-4C0D-9CB7-FF7D2261F61D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="32865" yWindow="810" windowWidth="19920" windowHeight="13335" tabRatio="509" activeTab="3" xr2:uid="{BA1E511D-BF64-4842-98DF-72E30276ED1C}"/>
+    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" tabRatio="509" xr2:uid="{BA1E511D-BF64-4842-98DF-72E30276ED1C}"/>
   </bookViews>
   <sheets>
     <sheet name="Attributes" sheetId="3" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="484" uniqueCount="365">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="485" uniqueCount="366">
   <si>
     <t>Max Lives</t>
   </si>
@@ -1136,6 +1136,9 @@
   </si>
   <si>
     <t>Aethertide Lance</t>
+  </si>
+  <si>
+    <t>emporwed</t>
   </si>
 </sst>
 </file>
@@ -1498,16 +1501,19 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1518,11 +1524,8 @@
     <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -1856,8 +1859,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11CE061F-AFA4-4B9D-BFD1-A05915568E6D}">
   <dimension ref="A1:H355"/>
   <sheetViews>
-    <sheetView topLeftCell="A65" workbookViewId="0">
-      <selection activeCell="A136" sqref="A136"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="A52" sqref="A52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2562,6 +2565,9 @@
       <c r="G41" s="2"/>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42" s="2" t="s">
+        <v>365</v>
+      </c>
       <c r="G42" s="2"/>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
@@ -4954,7 +4960,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E13E4A5-10AD-4171-99FD-31881C0A6C11}">
   <dimension ref="A1:AD35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+    <sheetView topLeftCell="J1" workbookViewId="0">
       <selection activeCell="V5" sqref="V5:W5"/>
     </sheetView>
   </sheetViews>
@@ -4974,138 +4980,138 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="37"/>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37"/>
-      <c r="G1" s="37"/>
-      <c r="H1" s="37" t="s">
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="38" t="s">
         <v>156</v>
       </c>
-      <c r="I1" s="37"/>
-      <c r="J1" s="37"/>
-      <c r="K1" s="37"/>
-      <c r="L1" s="37"/>
-      <c r="M1" s="37"/>
-      <c r="N1" s="37"/>
-      <c r="O1" s="37" t="s">
+      <c r="I1" s="38"/>
+      <c r="J1" s="38"/>
+      <c r="K1" s="38"/>
+      <c r="L1" s="38"/>
+      <c r="M1" s="38"/>
+      <c r="N1" s="38"/>
+      <c r="O1" s="38" t="s">
         <v>157</v>
       </c>
-      <c r="P1" s="37"/>
-      <c r="Q1" s="37"/>
-      <c r="R1" s="37"/>
-      <c r="S1" s="37"/>
-      <c r="T1" s="37"/>
-      <c r="U1" s="37"/>
-      <c r="V1" s="37" t="s">
+      <c r="P1" s="38"/>
+      <c r="Q1" s="38"/>
+      <c r="R1" s="38"/>
+      <c r="S1" s="38"/>
+      <c r="T1" s="38"/>
+      <c r="U1" s="38"/>
+      <c r="V1" s="38" t="s">
         <v>30</v>
       </c>
-      <c r="W1" s="37"/>
-      <c r="X1" s="37"/>
-      <c r="Y1" s="37"/>
-      <c r="Z1" s="37"/>
-      <c r="AA1" s="37"/>
-      <c r="AB1" s="37"/>
+      <c r="W1" s="38"/>
+      <c r="X1" s="38"/>
+      <c r="Y1" s="38"/>
+      <c r="Z1" s="38"/>
+      <c r="AA1" s="38"/>
+      <c r="AB1" s="38"/>
       <c r="AD1" s="19" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="2" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="37"/>
-      <c r="B2" s="37"/>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="37"/>
-      <c r="H2" s="37"/>
-      <c r="I2" s="37"/>
-      <c r="J2" s="37"/>
-      <c r="K2" s="37"/>
-      <c r="L2" s="37"/>
-      <c r="M2" s="37"/>
-      <c r="N2" s="37"/>
-      <c r="O2" s="37"/>
-      <c r="P2" s="37"/>
-      <c r="Q2" s="37"/>
-      <c r="R2" s="37"/>
-      <c r="S2" s="37"/>
-      <c r="T2" s="37"/>
-      <c r="U2" s="37"/>
-      <c r="V2" s="37"/>
-      <c r="W2" s="37"/>
-      <c r="X2" s="37"/>
-      <c r="Y2" s="37"/>
-      <c r="Z2" s="37"/>
-      <c r="AA2" s="37"/>
-      <c r="AB2" s="37"/>
+      <c r="A2" s="38"/>
+      <c r="B2" s="38"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="38"/>
+      <c r="I2" s="38"/>
+      <c r="J2" s="38"/>
+      <c r="K2" s="38"/>
+      <c r="L2" s="38"/>
+      <c r="M2" s="38"/>
+      <c r="N2" s="38"/>
+      <c r="O2" s="38"/>
+      <c r="P2" s="38"/>
+      <c r="Q2" s="38"/>
+      <c r="R2" s="38"/>
+      <c r="S2" s="38"/>
+      <c r="T2" s="38"/>
+      <c r="U2" s="38"/>
+      <c r="V2" s="38"/>
+      <c r="W2" s="38"/>
+      <c r="X2" s="38"/>
+      <c r="Y2" s="38"/>
+      <c r="Z2" s="38"/>
+      <c r="AA2" s="38"/>
+      <c r="AB2" s="38"/>
     </row>
     <row r="3" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A3" s="38" t="s">
+      <c r="A3" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="B3" s="38"/>
-      <c r="C3" s="39" t="s">
+      <c r="B3" s="39"/>
+      <c r="C3" s="40" t="s">
         <v>31</v>
       </c>
-      <c r="D3" s="39"/>
-      <c r="E3" s="39"/>
-      <c r="F3" s="39"/>
-      <c r="G3" s="39"/>
-      <c r="H3" s="38" t="s">
+      <c r="D3" s="40"/>
+      <c r="E3" s="40"/>
+      <c r="F3" s="40"/>
+      <c r="G3" s="40"/>
+      <c r="H3" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="I3" s="38"/>
-      <c r="J3" s="39" t="s">
+      <c r="I3" s="39"/>
+      <c r="J3" s="40" t="s">
         <v>31</v>
       </c>
-      <c r="K3" s="39"/>
-      <c r="L3" s="39"/>
-      <c r="M3" s="39"/>
-      <c r="N3" s="39"/>
-      <c r="O3" s="38" t="s">
+      <c r="K3" s="40"/>
+      <c r="L3" s="40"/>
+      <c r="M3" s="40"/>
+      <c r="N3" s="40"/>
+      <c r="O3" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="P3" s="38"/>
-      <c r="Q3" s="39" t="s">
+      <c r="P3" s="39"/>
+      <c r="Q3" s="40" t="s">
         <v>31</v>
       </c>
-      <c r="R3" s="39"/>
-      <c r="S3" s="39"/>
-      <c r="T3" s="39"/>
-      <c r="U3" s="39"/>
-      <c r="V3" s="38" t="s">
+      <c r="R3" s="40"/>
+      <c r="S3" s="40"/>
+      <c r="T3" s="40"/>
+      <c r="U3" s="40"/>
+      <c r="V3" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="W3" s="38"/>
-      <c r="X3" s="39" t="s">
+      <c r="W3" s="39"/>
+      <c r="X3" s="40" t="s">
         <v>31</v>
       </c>
-      <c r="Y3" s="39"/>
-      <c r="Z3" s="39"/>
-      <c r="AA3" s="39"/>
-      <c r="AB3" s="39"/>
+      <c r="Y3" s="40"/>
+      <c r="Z3" s="40"/>
+      <c r="AA3" s="40"/>
+      <c r="AB3" s="40"/>
     </row>
     <row r="4" spans="1:30" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="40" t="s">
+      <c r="A4" s="35" t="s">
         <v>362</v>
       </c>
-      <c r="B4" s="40"/>
-      <c r="C4" s="41" t="s">
+      <c r="B4" s="35"/>
+      <c r="C4" s="36" t="s">
         <v>363</v>
       </c>
-      <c r="D4" s="41"/>
-      <c r="E4" s="41"/>
-      <c r="F4" s="41"/>
-      <c r="G4" s="41"/>
-      <c r="H4" s="33" t="s">
+      <c r="D4" s="36"/>
+      <c r="E4" s="36"/>
+      <c r="F4" s="36"/>
+      <c r="G4" s="36"/>
+      <c r="H4" s="37" t="s">
         <v>312</v>
       </c>
-      <c r="I4" s="33"/>
+      <c r="I4" s="37"/>
       <c r="J4" s="34" t="s">
         <v>37</v>
       </c>
@@ -5113,10 +5119,10 @@
       <c r="L4" s="34"/>
       <c r="M4" s="34"/>
       <c r="N4" s="34"/>
-      <c r="O4" s="35" t="s">
+      <c r="O4" s="33" t="s">
         <v>325</v>
       </c>
-      <c r="P4" s="35"/>
+      <c r="P4" s="33"/>
       <c r="Q4" s="34" t="s">
         <v>158</v>
       </c>
@@ -5124,10 +5130,10 @@
       <c r="S4" s="34"/>
       <c r="T4" s="34"/>
       <c r="U4" s="34"/>
-      <c r="V4" s="35" t="s">
+      <c r="V4" s="33" t="s">
         <v>44</v>
       </c>
-      <c r="W4" s="35"/>
+      <c r="W4" s="33"/>
       <c r="X4" s="34" t="s">
         <v>43</v>
       </c>
@@ -5137,10 +5143,10 @@
       <c r="AB4" s="34"/>
     </row>
     <row r="5" spans="1:30" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="33" t="s">
+      <c r="A5" s="37" t="s">
         <v>361</v>
       </c>
-      <c r="B5" s="33"/>
+      <c r="B5" s="37"/>
       <c r="C5" s="34" t="s">
         <v>36</v>
       </c>
@@ -5148,10 +5154,10 @@
       <c r="E5" s="34"/>
       <c r="F5" s="34"/>
       <c r="G5" s="34"/>
-      <c r="H5" s="33" t="s">
+      <c r="H5" s="37" t="s">
         <v>313</v>
       </c>
-      <c r="I5" s="33"/>
+      <c r="I5" s="37"/>
       <c r="J5" s="34" t="s">
         <v>314</v>
       </c>
@@ -5159,10 +5165,10 @@
       <c r="L5" s="34"/>
       <c r="M5" s="34"/>
       <c r="N5" s="34"/>
-      <c r="O5" s="35" t="s">
+      <c r="O5" s="33" t="s">
         <v>159</v>
       </c>
-      <c r="P5" s="35"/>
+      <c r="P5" s="33"/>
       <c r="Q5" s="34" t="s">
         <v>234</v>
       </c>
@@ -5170,10 +5176,10 @@
       <c r="S5" s="34"/>
       <c r="T5" s="34"/>
       <c r="U5" s="34"/>
-      <c r="V5" s="35" t="s">
+      <c r="V5" s="33" t="s">
         <v>45</v>
       </c>
-      <c r="W5" s="35"/>
+      <c r="W5" s="33"/>
       <c r="X5" s="34" t="s">
         <v>48</v>
       </c>
@@ -5183,10 +5189,10 @@
       <c r="AB5" s="34"/>
     </row>
     <row r="6" spans="1:30" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="33" t="s">
+      <c r="A6" s="37" t="s">
         <v>364</v>
       </c>
-      <c r="B6" s="33"/>
+      <c r="B6" s="37"/>
       <c r="C6" s="34" t="s">
         <v>221</v>
       </c>
@@ -5194,10 +5200,10 @@
       <c r="E6" s="34"/>
       <c r="F6" s="34"/>
       <c r="G6" s="34"/>
-      <c r="H6" s="33" t="s">
+      <c r="H6" s="37" t="s">
         <v>315</v>
       </c>
-      <c r="I6" s="33"/>
+      <c r="I6" s="37"/>
       <c r="J6" s="34" t="s">
         <v>39</v>
       </c>
@@ -5205,10 +5211,10 @@
       <c r="L6" s="34"/>
       <c r="M6" s="34"/>
       <c r="N6" s="34"/>
-      <c r="O6" s="35" t="s">
+      <c r="O6" s="33" t="s">
         <v>160</v>
       </c>
-      <c r="P6" s="35"/>
+      <c r="P6" s="33"/>
       <c r="Q6" s="34" t="s">
         <v>234</v>
       </c>
@@ -5216,10 +5222,10 @@
       <c r="S6" s="34"/>
       <c r="T6" s="34"/>
       <c r="U6" s="34"/>
-      <c r="V6" s="35" t="s">
+      <c r="V6" s="33" t="s">
         <v>46</v>
       </c>
-      <c r="W6" s="35"/>
+      <c r="W6" s="33"/>
       <c r="X6" s="34" t="s">
         <v>47</v>
       </c>
@@ -5229,10 +5235,10 @@
       <c r="AB6" s="34"/>
     </row>
     <row r="7" spans="1:30" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="33" t="s">
+      <c r="A7" s="37" t="s">
         <v>32</v>
       </c>
-      <c r="B7" s="33"/>
+      <c r="B7" s="37"/>
       <c r="C7" s="34" t="s">
         <v>40</v>
       </c>
@@ -5240,10 +5246,10 @@
       <c r="E7" s="34"/>
       <c r="F7" s="34"/>
       <c r="G7" s="34"/>
-      <c r="H7" s="33" t="s">
+      <c r="H7" s="37" t="s">
         <v>324</v>
       </c>
-      <c r="I7" s="33"/>
+      <c r="I7" s="37"/>
       <c r="J7" s="34" t="s">
         <v>360</v>
       </c>
@@ -5251,10 +5257,10 @@
       <c r="L7" s="34"/>
       <c r="M7" s="34"/>
       <c r="N7" s="34"/>
-      <c r="O7" s="35" t="s">
+      <c r="O7" s="33" t="s">
         <v>161</v>
       </c>
-      <c r="P7" s="35"/>
+      <c r="P7" s="33"/>
       <c r="Q7" s="34" t="s">
         <v>235</v>
       </c>
@@ -5262,10 +5268,10 @@
       <c r="S7" s="34"/>
       <c r="T7" s="34"/>
       <c r="U7" s="34"/>
-      <c r="V7" s="35" t="s">
+      <c r="V7" s="33" t="s">
         <v>358</v>
       </c>
-      <c r="W7" s="35"/>
+      <c r="W7" s="33"/>
       <c r="X7" s="34" t="s">
         <v>49</v>
       </c>
@@ -5275,10 +5281,10 @@
       <c r="AB7" s="34"/>
     </row>
     <row r="8" spans="1:30" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="33" t="s">
+      <c r="A8" s="37" t="s">
         <v>33</v>
       </c>
-      <c r="B8" s="33"/>
+      <c r="B8" s="37"/>
       <c r="C8" s="34" t="s">
         <v>35</v>
       </c>
@@ -5286,17 +5292,17 @@
       <c r="E8" s="34"/>
       <c r="F8" s="34"/>
       <c r="G8" s="34"/>
-      <c r="H8" s="33"/>
-      <c r="I8" s="33"/>
+      <c r="H8" s="37"/>
+      <c r="I8" s="37"/>
       <c r="J8" s="34"/>
       <c r="K8" s="34"/>
       <c r="L8" s="34"/>
       <c r="M8" s="34"/>
       <c r="N8" s="34"/>
-      <c r="O8" s="35" t="s">
+      <c r="O8" s="33" t="s">
         <v>330</v>
       </c>
-      <c r="P8" s="35"/>
+      <c r="P8" s="33"/>
       <c r="Q8" s="34" t="s">
         <v>235</v>
       </c>
@@ -5304,10 +5310,10 @@
       <c r="S8" s="34"/>
       <c r="T8" s="34"/>
       <c r="U8" s="34"/>
-      <c r="V8" s="35" t="s">
+      <c r="V8" s="33" t="s">
         <v>50</v>
       </c>
-      <c r="W8" s="35"/>
+      <c r="W8" s="33"/>
       <c r="X8" s="34" t="s">
         <v>43</v>
       </c>
@@ -5317,10 +5323,10 @@
       <c r="AB8" s="34"/>
     </row>
     <row r="9" spans="1:30" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="33" t="s">
+      <c r="A9" s="37" t="s">
         <v>328</v>
       </c>
-      <c r="B9" s="33"/>
+      <c r="B9" s="37"/>
       <c r="C9" s="34" t="s">
         <v>220</v>
       </c>
@@ -5328,10 +5334,10 @@
       <c r="E9" s="34"/>
       <c r="F9" s="34"/>
       <c r="G9" s="34"/>
-      <c r="H9" s="33" t="s">
+      <c r="H9" s="37" t="s">
         <v>323</v>
       </c>
-      <c r="I9" s="33"/>
+      <c r="I9" s="37"/>
       <c r="J9" s="34" t="s">
         <v>326</v>
       </c>
@@ -5339,10 +5345,10 @@
       <c r="L9" s="34"/>
       <c r="M9" s="34"/>
       <c r="N9" s="34"/>
-      <c r="O9" s="35" t="s">
+      <c r="O9" s="33" t="s">
         <v>319</v>
       </c>
-      <c r="P9" s="35"/>
+      <c r="P9" s="33"/>
       <c r="Q9" s="34" t="s">
         <v>281</v>
       </c>
@@ -5350,10 +5356,10 @@
       <c r="S9" s="34"/>
       <c r="T9" s="34"/>
       <c r="U9" s="34"/>
-      <c r="V9" s="35" t="s">
+      <c r="V9" s="33" t="s">
         <v>51</v>
       </c>
-      <c r="W9" s="35"/>
+      <c r="W9" s="33"/>
       <c r="X9" s="34" t="s">
         <v>52</v>
       </c>
@@ -5363,24 +5369,24 @@
       <c r="AB9" s="34"/>
     </row>
     <row r="10" spans="1:30" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="33"/>
-      <c r="B10" s="33"/>
+      <c r="A10" s="37"/>
+      <c r="B10" s="37"/>
       <c r="C10" s="34"/>
       <c r="D10" s="34"/>
       <c r="E10" s="34"/>
       <c r="F10" s="34"/>
       <c r="G10" s="34"/>
-      <c r="H10" s="33"/>
-      <c r="I10" s="33"/>
+      <c r="H10" s="37"/>
+      <c r="I10" s="37"/>
       <c r="J10" s="34"/>
       <c r="K10" s="34"/>
       <c r="L10" s="34"/>
       <c r="M10" s="34"/>
       <c r="N10" s="34"/>
-      <c r="O10" s="35" t="s">
+      <c r="O10" s="33" t="s">
         <v>316</v>
       </c>
-      <c r="P10" s="35"/>
+      <c r="P10" s="33"/>
       <c r="Q10" s="34" t="s">
         <v>317</v>
       </c>
@@ -5388,10 +5394,10 @@
       <c r="S10" s="34"/>
       <c r="T10" s="34"/>
       <c r="U10" s="34"/>
-      <c r="V10" s="35" t="s">
+      <c r="V10" s="33" t="s">
         <v>54</v>
       </c>
-      <c r="W10" s="35"/>
+      <c r="W10" s="33"/>
       <c r="X10" s="34" t="s">
         <v>55</v>
       </c>
@@ -5401,10 +5407,10 @@
       <c r="AB10" s="34"/>
     </row>
     <row r="11" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="33" t="s">
+      <c r="A11" s="37" t="s">
         <v>34</v>
       </c>
-      <c r="B11" s="33"/>
+      <c r="B11" s="37"/>
       <c r="C11" s="34" t="s">
         <v>41</v>
       </c>
@@ -5412,10 +5418,10 @@
       <c r="E11" s="34"/>
       <c r="F11" s="34"/>
       <c r="G11" s="34"/>
-      <c r="H11" s="33" t="s">
+      <c r="H11" s="37" t="s">
         <v>322</v>
       </c>
-      <c r="I11" s="33"/>
+      <c r="I11" s="37"/>
       <c r="J11" s="34" t="s">
         <v>42</v>
       </c>
@@ -5423,10 +5429,10 @@
       <c r="L11" s="34"/>
       <c r="M11" s="34"/>
       <c r="N11" s="34"/>
-      <c r="O11" s="35" t="s">
+      <c r="O11" s="33" t="s">
         <v>318</v>
       </c>
-      <c r="P11" s="35"/>
+      <c r="P11" s="33"/>
       <c r="Q11" s="34" t="s">
         <v>359</v>
       </c>
@@ -5434,10 +5440,10 @@
       <c r="S11" s="34"/>
       <c r="T11" s="34"/>
       <c r="U11" s="34"/>
-      <c r="V11" s="35" t="s">
+      <c r="V11" s="33" t="s">
         <v>56</v>
       </c>
-      <c r="W11" s="35"/>
+      <c r="W11" s="33"/>
       <c r="X11" s="34" t="s">
         <v>57</v>
       </c>
@@ -5447,10 +5453,10 @@
       <c r="AB11" s="34"/>
     </row>
     <row r="12" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="33" t="s">
+      <c r="A12" s="37" t="s">
         <v>222</v>
       </c>
-      <c r="B12" s="33"/>
+      <c r="B12" s="37"/>
       <c r="C12" s="34" t="s">
         <v>228</v>
       </c>
@@ -5458,10 +5464,10 @@
       <c r="E12" s="34"/>
       <c r="F12" s="34"/>
       <c r="G12" s="34"/>
-      <c r="H12" s="33" t="s">
+      <c r="H12" s="37" t="s">
         <v>321</v>
       </c>
-      <c r="I12" s="33"/>
+      <c r="I12" s="37"/>
       <c r="J12" s="34" t="s">
         <v>219</v>
       </c>
@@ -5469,15 +5475,15 @@
       <c r="L12" s="34"/>
       <c r="M12" s="34"/>
       <c r="N12" s="34"/>
-      <c r="O12" s="35"/>
-      <c r="P12" s="35"/>
+      <c r="O12" s="33"/>
+      <c r="P12" s="33"/>
       <c r="Q12" s="34"/>
       <c r="R12" s="34"/>
       <c r="S12" s="34"/>
       <c r="T12" s="34"/>
       <c r="U12" s="34"/>
-      <c r="V12" s="35"/>
-      <c r="W12" s="35"/>
+      <c r="V12" s="33"/>
+      <c r="W12" s="33"/>
       <c r="X12" s="34"/>
       <c r="Y12" s="34"/>
       <c r="Z12" s="34"/>
@@ -5485,17 +5491,17 @@
       <c r="AB12" s="34"/>
     </row>
     <row r="13" spans="1:30" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="33"/>
-      <c r="B13" s="33"/>
-      <c r="C13" s="36"/>
-      <c r="D13" s="36"/>
-      <c r="E13" s="36"/>
-      <c r="F13" s="36"/>
-      <c r="G13" s="36"/>
-      <c r="H13" s="33" t="s">
+      <c r="A13" s="37"/>
+      <c r="B13" s="37"/>
+      <c r="C13" s="41"/>
+      <c r="D13" s="41"/>
+      <c r="E13" s="41"/>
+      <c r="F13" s="41"/>
+      <c r="G13" s="41"/>
+      <c r="H13" s="37" t="s">
         <v>327</v>
       </c>
-      <c r="I13" s="33"/>
+      <c r="I13" s="37"/>
       <c r="J13" s="34" t="s">
         <v>38</v>
       </c>
@@ -5503,10 +5509,10 @@
       <c r="L13" s="34"/>
       <c r="M13" s="34"/>
       <c r="N13" s="34"/>
-      <c r="O13" s="35" t="s">
+      <c r="O13" s="33" t="s">
         <v>320</v>
       </c>
-      <c r="P13" s="35"/>
+      <c r="P13" s="33"/>
       <c r="Q13" s="34" t="s">
         <v>162</v>
       </c>
@@ -5514,10 +5520,10 @@
       <c r="S13" s="34"/>
       <c r="T13" s="34"/>
       <c r="U13" s="34"/>
-      <c r="V13" s="33" t="s">
+      <c r="V13" s="37" t="s">
         <v>229</v>
       </c>
-      <c r="W13" s="33"/>
+      <c r="W13" s="37"/>
       <c r="X13" s="34" t="s">
         <v>49</v>
       </c>
@@ -5527,33 +5533,33 @@
       <c r="AB13" s="34"/>
     </row>
     <row r="14" spans="1:30" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="33" t="s">
+      <c r="A14" s="37" t="s">
         <v>227</v>
       </c>
-      <c r="B14" s="33"/>
-      <c r="C14" s="36" t="s">
+      <c r="B14" s="37"/>
+      <c r="C14" s="41" t="s">
         <v>226</v>
       </c>
-      <c r="D14" s="36"/>
-      <c r="E14" s="36"/>
-      <c r="F14" s="36"/>
-      <c r="G14" s="36"/>
-      <c r="H14" s="33"/>
-      <c r="I14" s="33"/>
+      <c r="D14" s="41"/>
+      <c r="E14" s="41"/>
+      <c r="F14" s="41"/>
+      <c r="G14" s="41"/>
+      <c r="H14" s="37"/>
+      <c r="I14" s="37"/>
       <c r="J14" s="34"/>
       <c r="K14" s="34"/>
       <c r="L14" s="34"/>
       <c r="M14" s="34"/>
       <c r="N14" s="34"/>
-      <c r="O14" s="35"/>
-      <c r="P14" s="35"/>
+      <c r="O14" s="33"/>
+      <c r="P14" s="33"/>
       <c r="Q14" s="34"/>
       <c r="R14" s="34"/>
       <c r="S14" s="34"/>
       <c r="T14" s="34"/>
       <c r="U14" s="34"/>
-      <c r="V14" s="35"/>
-      <c r="W14" s="35"/>
+      <c r="V14" s="33"/>
+      <c r="W14" s="33"/>
       <c r="X14" s="34"/>
       <c r="Y14" s="34"/>
       <c r="Z14" s="34"/>
@@ -5561,33 +5567,33 @@
       <c r="AB14" s="34"/>
     </row>
     <row r="15" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A15" s="33" t="s">
+      <c r="A15" s="37" t="s">
         <v>231</v>
       </c>
-      <c r="B15" s="33"/>
-      <c r="C15" s="36" t="s">
+      <c r="B15" s="37"/>
+      <c r="C15" s="41" t="s">
         <v>230</v>
       </c>
-      <c r="D15" s="36"/>
-      <c r="E15" s="36"/>
-      <c r="F15" s="36"/>
-      <c r="G15" s="36"/>
-      <c r="H15" s="33"/>
-      <c r="I15" s="33"/>
+      <c r="D15" s="41"/>
+      <c r="E15" s="41"/>
+      <c r="F15" s="41"/>
+      <c r="G15" s="41"/>
+      <c r="H15" s="37"/>
+      <c r="I15" s="37"/>
       <c r="J15" s="34"/>
       <c r="K15" s="34"/>
       <c r="L15" s="34"/>
       <c r="M15" s="34"/>
       <c r="N15" s="34"/>
-      <c r="O15" s="35"/>
-      <c r="P15" s="35"/>
+      <c r="O15" s="33"/>
+      <c r="P15" s="33"/>
       <c r="Q15" s="34"/>
       <c r="R15" s="34"/>
       <c r="S15" s="34"/>
       <c r="T15" s="34"/>
       <c r="U15" s="34"/>
-      <c r="V15" s="35"/>
-      <c r="W15" s="35"/>
+      <c r="V15" s="33"/>
+      <c r="W15" s="33"/>
       <c r="X15" s="34"/>
       <c r="Y15" s="34"/>
       <c r="Z15" s="34"/>
@@ -5595,33 +5601,33 @@
       <c r="AB15" s="34"/>
     </row>
     <row r="16" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A16" s="33" t="s">
+      <c r="A16" s="37" t="s">
         <v>232</v>
       </c>
-      <c r="B16" s="33"/>
-      <c r="C16" s="36" t="s">
+      <c r="B16" s="37"/>
+      <c r="C16" s="41" t="s">
         <v>233</v>
       </c>
       <c r="D16" s="34"/>
       <c r="E16" s="34"/>
       <c r="F16" s="34"/>
       <c r="G16" s="34"/>
-      <c r="H16" s="33"/>
-      <c r="I16" s="33"/>
+      <c r="H16" s="37"/>
+      <c r="I16" s="37"/>
       <c r="J16" s="34"/>
       <c r="K16" s="34"/>
       <c r="L16" s="34"/>
       <c r="M16" s="34"/>
       <c r="N16" s="34"/>
-      <c r="O16" s="35"/>
-      <c r="P16" s="35"/>
+      <c r="O16" s="33"/>
+      <c r="P16" s="33"/>
       <c r="Q16" s="34"/>
       <c r="R16" s="34"/>
       <c r="S16" s="34"/>
       <c r="T16" s="34"/>
       <c r="U16" s="34"/>
-      <c r="V16" s="35"/>
-      <c r="W16" s="35"/>
+      <c r="V16" s="33"/>
+      <c r="W16" s="33"/>
       <c r="X16" s="34"/>
       <c r="Y16" s="34"/>
       <c r="Z16" s="34"/>
@@ -5629,31 +5635,31 @@
       <c r="AB16" s="34"/>
     </row>
     <row r="17" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A17" s="33" t="s">
+      <c r="A17" s="37" t="s">
         <v>331</v>
       </c>
-      <c r="B17" s="33"/>
+      <c r="B17" s="37"/>
       <c r="C17" s="34"/>
       <c r="D17" s="34"/>
       <c r="E17" s="34"/>
       <c r="F17" s="34"/>
       <c r="G17" s="34"/>
-      <c r="H17" s="33"/>
-      <c r="I17" s="33"/>
+      <c r="H17" s="37"/>
+      <c r="I17" s="37"/>
       <c r="J17" s="34"/>
       <c r="K17" s="34"/>
       <c r="L17" s="34"/>
       <c r="M17" s="34"/>
       <c r="N17" s="34"/>
-      <c r="O17" s="35"/>
-      <c r="P17" s="35"/>
+      <c r="O17" s="33"/>
+      <c r="P17" s="33"/>
       <c r="Q17" s="34"/>
       <c r="R17" s="34"/>
       <c r="S17" s="34"/>
       <c r="T17" s="34"/>
       <c r="U17" s="34"/>
-      <c r="V17" s="35"/>
-      <c r="W17" s="35"/>
+      <c r="V17" s="33"/>
+      <c r="W17" s="33"/>
       <c r="X17" s="34"/>
       <c r="Y17" s="34"/>
       <c r="Z17" s="34"/>
@@ -5661,29 +5667,29 @@
       <c r="AB17" s="34"/>
     </row>
     <row r="18" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A18" s="33"/>
-      <c r="B18" s="33"/>
+      <c r="A18" s="37"/>
+      <c r="B18" s="37"/>
       <c r="C18" s="34"/>
       <c r="D18" s="34"/>
       <c r="E18" s="34"/>
       <c r="F18" s="34"/>
       <c r="G18" s="34"/>
-      <c r="H18" s="33"/>
-      <c r="I18" s="33"/>
+      <c r="H18" s="37"/>
+      <c r="I18" s="37"/>
       <c r="J18" s="34"/>
       <c r="K18" s="34"/>
       <c r="L18" s="34"/>
       <c r="M18" s="34"/>
       <c r="N18" s="34"/>
-      <c r="O18" s="35"/>
-      <c r="P18" s="35"/>
+      <c r="O18" s="33"/>
+      <c r="P18" s="33"/>
       <c r="Q18" s="34"/>
       <c r="R18" s="34"/>
       <c r="S18" s="34"/>
       <c r="T18" s="34"/>
       <c r="U18" s="34"/>
-      <c r="V18" s="35"/>
-      <c r="W18" s="35"/>
+      <c r="V18" s="33"/>
+      <c r="W18" s="33"/>
       <c r="X18" s="34"/>
       <c r="Y18" s="34"/>
       <c r="Z18" s="34"/>
@@ -5691,29 +5697,29 @@
       <c r="AB18" s="34"/>
     </row>
     <row r="19" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A19" s="33"/>
-      <c r="B19" s="33"/>
+      <c r="A19" s="37"/>
+      <c r="B19" s="37"/>
       <c r="C19" s="34"/>
       <c r="D19" s="34"/>
       <c r="E19" s="34"/>
       <c r="F19" s="34"/>
       <c r="G19" s="34"/>
-      <c r="H19" s="33"/>
-      <c r="I19" s="33"/>
+      <c r="H19" s="37"/>
+      <c r="I19" s="37"/>
       <c r="J19" s="34"/>
       <c r="K19" s="34"/>
       <c r="L19" s="34"/>
       <c r="M19" s="34"/>
       <c r="N19" s="34"/>
-      <c r="O19" s="35"/>
-      <c r="P19" s="35"/>
+      <c r="O19" s="33"/>
+      <c r="P19" s="33"/>
       <c r="Q19" s="34"/>
       <c r="R19" s="34"/>
       <c r="S19" s="34"/>
       <c r="T19" s="34"/>
       <c r="U19" s="34"/>
-      <c r="V19" s="35"/>
-      <c r="W19" s="35"/>
+      <c r="V19" s="33"/>
+      <c r="W19" s="33"/>
       <c r="X19" s="34"/>
       <c r="Y19" s="34"/>
       <c r="Z19" s="34"/>
@@ -5721,29 +5727,29 @@
       <c r="AB19" s="34"/>
     </row>
     <row r="20" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A20" s="33"/>
-      <c r="B20" s="33"/>
+      <c r="A20" s="37"/>
+      <c r="B20" s="37"/>
       <c r="C20" s="34"/>
       <c r="D20" s="34"/>
       <c r="E20" s="34"/>
       <c r="F20" s="34"/>
       <c r="G20" s="34"/>
-      <c r="H20" s="33"/>
-      <c r="I20" s="33"/>
+      <c r="H20" s="37"/>
+      <c r="I20" s="37"/>
       <c r="J20" s="34"/>
       <c r="K20" s="34"/>
       <c r="L20" s="34"/>
       <c r="M20" s="34"/>
       <c r="N20" s="34"/>
-      <c r="O20" s="35"/>
-      <c r="P20" s="35"/>
+      <c r="O20" s="33"/>
+      <c r="P20" s="33"/>
       <c r="Q20" s="34"/>
       <c r="R20" s="34"/>
       <c r="S20" s="34"/>
       <c r="T20" s="34"/>
       <c r="U20" s="34"/>
-      <c r="V20" s="35"/>
-      <c r="W20" s="35"/>
+      <c r="V20" s="33"/>
+      <c r="W20" s="33"/>
       <c r="X20" s="34"/>
       <c r="Y20" s="34"/>
       <c r="Z20" s="34"/>
@@ -5751,29 +5757,29 @@
       <c r="AB20" s="34"/>
     </row>
     <row r="21" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A21" s="33"/>
-      <c r="B21" s="33"/>
+      <c r="A21" s="37"/>
+      <c r="B21" s="37"/>
       <c r="C21" s="34"/>
       <c r="D21" s="34"/>
       <c r="E21" s="34"/>
       <c r="F21" s="34"/>
       <c r="G21" s="34"/>
-      <c r="H21" s="33"/>
-      <c r="I21" s="33"/>
+      <c r="H21" s="37"/>
+      <c r="I21" s="37"/>
       <c r="J21" s="34"/>
       <c r="K21" s="34"/>
       <c r="L21" s="34"/>
       <c r="M21" s="34"/>
       <c r="N21" s="34"/>
-      <c r="O21" s="35"/>
-      <c r="P21" s="35"/>
+      <c r="O21" s="33"/>
+      <c r="P21" s="33"/>
       <c r="Q21" s="34"/>
       <c r="R21" s="34"/>
       <c r="S21" s="34"/>
       <c r="T21" s="34"/>
       <c r="U21" s="34"/>
-      <c r="V21" s="35"/>
-      <c r="W21" s="35"/>
+      <c r="V21" s="33"/>
+      <c r="W21" s="33"/>
       <c r="X21" s="34"/>
       <c r="Y21" s="34"/>
       <c r="Z21" s="34"/>
@@ -5781,29 +5787,29 @@
       <c r="AB21" s="34"/>
     </row>
     <row r="22" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A22" s="33"/>
-      <c r="B22" s="33"/>
+      <c r="A22" s="37"/>
+      <c r="B22" s="37"/>
       <c r="C22" s="34"/>
       <c r="D22" s="34"/>
       <c r="E22" s="34"/>
       <c r="F22" s="34"/>
       <c r="G22" s="34"/>
-      <c r="H22" s="33"/>
-      <c r="I22" s="33"/>
+      <c r="H22" s="37"/>
+      <c r="I22" s="37"/>
       <c r="J22" s="34"/>
       <c r="K22" s="34"/>
       <c r="L22" s="34"/>
       <c r="M22" s="34"/>
       <c r="N22" s="34"/>
-      <c r="O22" s="35"/>
-      <c r="P22" s="35"/>
+      <c r="O22" s="33"/>
+      <c r="P22" s="33"/>
       <c r="Q22" s="34"/>
       <c r="R22" s="34"/>
       <c r="S22" s="34"/>
       <c r="T22" s="34"/>
       <c r="U22" s="34"/>
-      <c r="V22" s="35"/>
-      <c r="W22" s="35"/>
+      <c r="V22" s="33"/>
+      <c r="W22" s="33"/>
       <c r="X22" s="34"/>
       <c r="Y22" s="34"/>
       <c r="Z22" s="34"/>
@@ -5811,22 +5817,22 @@
       <c r="AB22" s="34"/>
     </row>
     <row r="23" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A23" s="33"/>
-      <c r="B23" s="33"/>
+      <c r="A23" s="37"/>
+      <c r="B23" s="37"/>
       <c r="C23" s="34"/>
       <c r="D23" s="34"/>
       <c r="E23" s="34"/>
       <c r="F23" s="34"/>
       <c r="G23" s="34"/>
-      <c r="H23" s="33"/>
-      <c r="I23" s="33"/>
+      <c r="H23" s="37"/>
+      <c r="I23" s="37"/>
       <c r="J23" s="34"/>
       <c r="K23" s="34"/>
       <c r="L23" s="34"/>
       <c r="M23" s="34"/>
       <c r="N23" s="34"/>
-      <c r="O23" s="35"/>
-      <c r="P23" s="35"/>
+      <c r="O23" s="33"/>
+      <c r="P23" s="33"/>
       <c r="Q23" s="34"/>
       <c r="R23" s="34"/>
       <c r="S23" s="34"/>
@@ -5834,22 +5840,22 @@
       <c r="U23" s="34"/>
     </row>
     <row r="24" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A24" s="33"/>
-      <c r="B24" s="33"/>
+      <c r="A24" s="37"/>
+      <c r="B24" s="37"/>
       <c r="C24" s="34"/>
       <c r="D24" s="34"/>
       <c r="E24" s="34"/>
       <c r="F24" s="34"/>
       <c r="G24" s="34"/>
-      <c r="H24" s="33"/>
-      <c r="I24" s="33"/>
+      <c r="H24" s="37"/>
+      <c r="I24" s="37"/>
       <c r="J24" s="34"/>
       <c r="K24" s="34"/>
       <c r="L24" s="34"/>
       <c r="M24" s="34"/>
       <c r="N24" s="34"/>
-      <c r="O24" s="35"/>
-      <c r="P24" s="35"/>
+      <c r="O24" s="33"/>
+      <c r="P24" s="33"/>
       <c r="Q24" s="34"/>
       <c r="R24" s="34"/>
       <c r="S24" s="34"/>
@@ -5857,22 +5863,22 @@
       <c r="U24" s="34"/>
     </row>
     <row r="25" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A25" s="33"/>
-      <c r="B25" s="33"/>
+      <c r="A25" s="37"/>
+      <c r="B25" s="37"/>
       <c r="C25" s="34"/>
       <c r="D25" s="34"/>
       <c r="E25" s="34"/>
       <c r="F25" s="34"/>
       <c r="G25" s="34"/>
-      <c r="H25" s="33"/>
-      <c r="I25" s="33"/>
+      <c r="H25" s="37"/>
+      <c r="I25" s="37"/>
       <c r="J25" s="34"/>
       <c r="K25" s="34"/>
       <c r="L25" s="34"/>
       <c r="M25" s="34"/>
       <c r="N25" s="34"/>
-      <c r="O25" s="35"/>
-      <c r="P25" s="35"/>
+      <c r="O25" s="33"/>
+      <c r="P25" s="33"/>
       <c r="Q25" s="34"/>
       <c r="R25" s="34"/>
       <c r="S25" s="34"/>
@@ -5880,22 +5886,22 @@
       <c r="U25" s="34"/>
     </row>
     <row r="26" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A26" s="33"/>
-      <c r="B26" s="33"/>
+      <c r="A26" s="37"/>
+      <c r="B26" s="37"/>
       <c r="C26" s="34"/>
       <c r="D26" s="34"/>
       <c r="E26" s="34"/>
       <c r="F26" s="34"/>
       <c r="G26" s="34"/>
-      <c r="H26" s="33"/>
-      <c r="I26" s="33"/>
+      <c r="H26" s="37"/>
+      <c r="I26" s="37"/>
       <c r="J26" s="34"/>
       <c r="K26" s="34"/>
       <c r="L26" s="34"/>
       <c r="M26" s="34"/>
       <c r="N26" s="34"/>
-      <c r="O26" s="35"/>
-      <c r="P26" s="35"/>
+      <c r="O26" s="33"/>
+      <c r="P26" s="33"/>
       <c r="Q26" s="34"/>
       <c r="R26" s="34"/>
       <c r="S26" s="34"/>
@@ -5903,22 +5909,22 @@
       <c r="U26" s="34"/>
     </row>
     <row r="27" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A27" s="33"/>
-      <c r="B27" s="33"/>
+      <c r="A27" s="37"/>
+      <c r="B27" s="37"/>
       <c r="C27" s="34"/>
       <c r="D27" s="34"/>
       <c r="E27" s="34"/>
       <c r="F27" s="34"/>
       <c r="G27" s="34"/>
-      <c r="H27" s="33"/>
-      <c r="I27" s="33"/>
+      <c r="H27" s="37"/>
+      <c r="I27" s="37"/>
       <c r="J27" s="34"/>
       <c r="K27" s="34"/>
       <c r="L27" s="34"/>
       <c r="M27" s="34"/>
       <c r="N27" s="34"/>
-      <c r="O27" s="35"/>
-      <c r="P27" s="35"/>
+      <c r="O27" s="33"/>
+      <c r="P27" s="33"/>
       <c r="Q27" s="34"/>
       <c r="R27" s="34"/>
       <c r="S27" s="34"/>
@@ -5926,22 +5932,22 @@
       <c r="U27" s="34"/>
     </row>
     <row r="28" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A28" s="33"/>
-      <c r="B28" s="33"/>
+      <c r="A28" s="37"/>
+      <c r="B28" s="37"/>
       <c r="C28" s="34"/>
       <c r="D28" s="34"/>
       <c r="E28" s="34"/>
       <c r="F28" s="34"/>
       <c r="G28" s="34"/>
-      <c r="H28" s="33"/>
-      <c r="I28" s="33"/>
+      <c r="H28" s="37"/>
+      <c r="I28" s="37"/>
       <c r="J28" s="34"/>
       <c r="K28" s="34"/>
       <c r="L28" s="34"/>
       <c r="M28" s="34"/>
       <c r="N28" s="34"/>
-      <c r="O28" s="35"/>
-      <c r="P28" s="35"/>
+      <c r="O28" s="33"/>
+      <c r="P28" s="33"/>
       <c r="Q28" s="34"/>
       <c r="R28" s="34"/>
       <c r="S28" s="34"/>
@@ -5949,22 +5955,22 @@
       <c r="U28" s="34"/>
     </row>
     <row r="29" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A29" s="33"/>
-      <c r="B29" s="33"/>
+      <c r="A29" s="37"/>
+      <c r="B29" s="37"/>
       <c r="C29" s="34"/>
       <c r="D29" s="34"/>
       <c r="E29" s="34"/>
       <c r="F29" s="34"/>
       <c r="G29" s="34"/>
-      <c r="H29" s="33"/>
-      <c r="I29" s="33"/>
+      <c r="H29" s="37"/>
+      <c r="I29" s="37"/>
       <c r="J29" s="34"/>
       <c r="K29" s="34"/>
       <c r="L29" s="34"/>
       <c r="M29" s="34"/>
       <c r="N29" s="34"/>
-      <c r="O29" s="35"/>
-      <c r="P29" s="35"/>
+      <c r="O29" s="33"/>
+      <c r="P29" s="33"/>
       <c r="Q29" s="34"/>
       <c r="R29" s="34"/>
       <c r="S29" s="34"/>
@@ -5972,22 +5978,22 @@
       <c r="U29" s="34"/>
     </row>
     <row r="30" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A30" s="33"/>
-      <c r="B30" s="33"/>
+      <c r="A30" s="37"/>
+      <c r="B30" s="37"/>
       <c r="C30" s="34"/>
       <c r="D30" s="34"/>
       <c r="E30" s="34"/>
       <c r="F30" s="34"/>
       <c r="G30" s="34"/>
-      <c r="H30" s="33"/>
-      <c r="I30" s="33"/>
+      <c r="H30" s="37"/>
+      <c r="I30" s="37"/>
       <c r="J30" s="34"/>
       <c r="K30" s="34"/>
       <c r="L30" s="34"/>
       <c r="M30" s="34"/>
       <c r="N30" s="34"/>
-      <c r="O30" s="35"/>
-      <c r="P30" s="35"/>
+      <c r="O30" s="33"/>
+      <c r="P30" s="33"/>
       <c r="Q30" s="34"/>
       <c r="R30" s="34"/>
       <c r="S30" s="34"/>
@@ -5995,22 +6001,22 @@
       <c r="U30" s="34"/>
     </row>
     <row r="31" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A31" s="33"/>
-      <c r="B31" s="33"/>
+      <c r="A31" s="37"/>
+      <c r="B31" s="37"/>
       <c r="C31" s="34"/>
       <c r="D31" s="34"/>
       <c r="E31" s="34"/>
       <c r="F31" s="34"/>
       <c r="G31" s="34"/>
-      <c r="H31" s="33"/>
-      <c r="I31" s="33"/>
+      <c r="H31" s="37"/>
+      <c r="I31" s="37"/>
       <c r="J31" s="34"/>
       <c r="K31" s="34"/>
       <c r="L31" s="34"/>
       <c r="M31" s="34"/>
       <c r="N31" s="34"/>
-      <c r="O31" s="35"/>
-      <c r="P31" s="35"/>
+      <c r="O31" s="33"/>
+      <c r="P31" s="33"/>
       <c r="Q31" s="34"/>
       <c r="R31" s="34"/>
       <c r="S31" s="34"/>
@@ -6018,22 +6024,22 @@
       <c r="U31" s="34"/>
     </row>
     <row r="32" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A32" s="33"/>
-      <c r="B32" s="33"/>
+      <c r="A32" s="37"/>
+      <c r="B32" s="37"/>
       <c r="C32" s="34"/>
       <c r="D32" s="34"/>
       <c r="E32" s="34"/>
       <c r="F32" s="34"/>
       <c r="G32" s="34"/>
-      <c r="H32" s="33"/>
-      <c r="I32" s="33"/>
+      <c r="H32" s="37"/>
+      <c r="I32" s="37"/>
       <c r="J32" s="34"/>
       <c r="K32" s="34"/>
       <c r="L32" s="34"/>
       <c r="M32" s="34"/>
       <c r="N32" s="34"/>
-      <c r="O32" s="35"/>
-      <c r="P32" s="35"/>
+      <c r="O32" s="33"/>
+      <c r="P32" s="33"/>
       <c r="Q32" s="34"/>
       <c r="R32" s="34"/>
       <c r="S32" s="34"/>
@@ -6041,22 +6047,22 @@
       <c r="U32" s="34"/>
     </row>
     <row r="33" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A33" s="33"/>
-      <c r="B33" s="33"/>
+      <c r="A33" s="37"/>
+      <c r="B33" s="37"/>
       <c r="C33" s="34"/>
       <c r="D33" s="34"/>
       <c r="E33" s="34"/>
       <c r="F33" s="34"/>
       <c r="G33" s="34"/>
-      <c r="H33" s="33"/>
-      <c r="I33" s="33"/>
+      <c r="H33" s="37"/>
+      <c r="I33" s="37"/>
       <c r="J33" s="34"/>
       <c r="K33" s="34"/>
       <c r="L33" s="34"/>
       <c r="M33" s="34"/>
       <c r="N33" s="34"/>
-      <c r="O33" s="33"/>
-      <c r="P33" s="33"/>
+      <c r="O33" s="37"/>
+      <c r="P33" s="37"/>
       <c r="Q33" s="34"/>
       <c r="R33" s="34"/>
       <c r="S33" s="34"/>
@@ -6064,22 +6070,22 @@
       <c r="U33" s="34"/>
     </row>
     <row r="34" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A34" s="33"/>
-      <c r="B34" s="33"/>
+      <c r="A34" s="37"/>
+      <c r="B34" s="37"/>
       <c r="C34" s="34"/>
       <c r="D34" s="34"/>
       <c r="E34" s="34"/>
       <c r="F34" s="34"/>
       <c r="G34" s="34"/>
-      <c r="H34" s="33"/>
-      <c r="I34" s="33"/>
+      <c r="H34" s="37"/>
+      <c r="I34" s="37"/>
       <c r="J34" s="34"/>
       <c r="K34" s="34"/>
       <c r="L34" s="34"/>
       <c r="M34" s="34"/>
       <c r="N34" s="34"/>
-      <c r="O34" s="33"/>
-      <c r="P34" s="33"/>
+      <c r="O34" s="37"/>
+      <c r="P34" s="37"/>
       <c r="Q34" s="34"/>
       <c r="R34" s="34"/>
       <c r="S34" s="34"/>
@@ -6087,8 +6093,8 @@
       <c r="U34" s="34"/>
     </row>
     <row r="35" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A35" s="33"/>
-      <c r="B35" s="33"/>
+      <c r="A35" s="37"/>
+      <c r="B35" s="37"/>
       <c r="C35" s="34"/>
       <c r="D35" s="34"/>
       <c r="E35" s="34"/>
@@ -6097,36 +6103,190 @@
     </row>
   </sheetData>
   <mergeCells count="238">
-    <mergeCell ref="V5:W5"/>
-    <mergeCell ref="X5:AB5"/>
-    <mergeCell ref="O5:P5"/>
-    <mergeCell ref="Q5:U5"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:G4"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="V6:W6"/>
-    <mergeCell ref="X6:AB6"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:G5"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="J4:N4"/>
-    <mergeCell ref="V4:W4"/>
-    <mergeCell ref="X4:AB4"/>
-    <mergeCell ref="O4:P4"/>
-    <mergeCell ref="Q4:U4"/>
-    <mergeCell ref="J5:N5"/>
-    <mergeCell ref="A1:G2"/>
-    <mergeCell ref="H1:N2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:G3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="V1:AB2"/>
-    <mergeCell ref="V3:W3"/>
-    <mergeCell ref="J3:N3"/>
-    <mergeCell ref="X3:AB3"/>
-    <mergeCell ref="O1:U2"/>
-    <mergeCell ref="O3:P3"/>
-    <mergeCell ref="Q3:U3"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="C35:G35"/>
+    <mergeCell ref="H34:I34"/>
+    <mergeCell ref="J34:N34"/>
+    <mergeCell ref="O34:P34"/>
+    <mergeCell ref="Q34:U34"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="C34:G34"/>
+    <mergeCell ref="H33:I33"/>
+    <mergeCell ref="J33:N33"/>
+    <mergeCell ref="O33:P33"/>
+    <mergeCell ref="Q33:U33"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="C33:G33"/>
+    <mergeCell ref="H32:I32"/>
+    <mergeCell ref="J32:N32"/>
+    <mergeCell ref="O32:P32"/>
+    <mergeCell ref="Q32:U32"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="C32:G32"/>
+    <mergeCell ref="H31:I31"/>
+    <mergeCell ref="J31:N31"/>
+    <mergeCell ref="O31:P31"/>
+    <mergeCell ref="Q31:U31"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="C31:G31"/>
+    <mergeCell ref="H30:I30"/>
+    <mergeCell ref="J30:N30"/>
+    <mergeCell ref="O30:P30"/>
+    <mergeCell ref="Q30:U30"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="C30:G30"/>
+    <mergeCell ref="H29:I29"/>
+    <mergeCell ref="J29:N29"/>
+    <mergeCell ref="O29:P29"/>
+    <mergeCell ref="Q29:U29"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="C29:G29"/>
+    <mergeCell ref="H28:I28"/>
+    <mergeCell ref="J28:N28"/>
+    <mergeCell ref="O28:P28"/>
+    <mergeCell ref="Q28:U28"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="C28:G28"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="J27:N27"/>
+    <mergeCell ref="O27:P27"/>
+    <mergeCell ref="Q27:U27"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="C27:G27"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="J26:N26"/>
+    <mergeCell ref="O26:P26"/>
+    <mergeCell ref="Q26:U26"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="C26:G26"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="J25:N25"/>
+    <mergeCell ref="O25:P25"/>
+    <mergeCell ref="Q25:U25"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="C25:G25"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="J24:N24"/>
+    <mergeCell ref="O24:P24"/>
+    <mergeCell ref="Q24:U24"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="C24:G24"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="J23:N23"/>
+    <mergeCell ref="O23:P23"/>
+    <mergeCell ref="Q23:U23"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="C23:G23"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="J22:N22"/>
+    <mergeCell ref="V22:W22"/>
+    <mergeCell ref="X22:AB22"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="C22:G22"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="J21:N21"/>
+    <mergeCell ref="V21:W21"/>
+    <mergeCell ref="X21:AB21"/>
+    <mergeCell ref="O21:P21"/>
+    <mergeCell ref="Q21:U21"/>
+    <mergeCell ref="O22:P22"/>
+    <mergeCell ref="Q22:U22"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="J20:N20"/>
+    <mergeCell ref="V20:W20"/>
+    <mergeCell ref="X20:AB20"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="J19:N19"/>
+    <mergeCell ref="V19:W19"/>
+    <mergeCell ref="X19:AB19"/>
+    <mergeCell ref="O19:P19"/>
+    <mergeCell ref="Q19:U19"/>
+    <mergeCell ref="O20:P20"/>
+    <mergeCell ref="Q20:U20"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="J18:N18"/>
+    <mergeCell ref="V18:W18"/>
+    <mergeCell ref="X18:AB18"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="V17:W17"/>
+    <mergeCell ref="X17:AB17"/>
+    <mergeCell ref="O17:P17"/>
+    <mergeCell ref="Q17:U17"/>
+    <mergeCell ref="O18:P18"/>
+    <mergeCell ref="Q18:U18"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="J17:N17"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C17:G17"/>
+    <mergeCell ref="V15:W15"/>
+    <mergeCell ref="X15:AB15"/>
+    <mergeCell ref="O15:P15"/>
+    <mergeCell ref="Q15:U15"/>
+    <mergeCell ref="O16:P16"/>
+    <mergeCell ref="Q16:U16"/>
+    <mergeCell ref="V13:W13"/>
+    <mergeCell ref="J14:N14"/>
+    <mergeCell ref="V14:W14"/>
+    <mergeCell ref="X14:AB14"/>
+    <mergeCell ref="Q14:U14"/>
+    <mergeCell ref="V16:W16"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="J16:N16"/>
+    <mergeCell ref="V12:W12"/>
+    <mergeCell ref="X12:AB12"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="J15:N15"/>
+    <mergeCell ref="O12:P12"/>
+    <mergeCell ref="Q12:U12"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="J12:N12"/>
+    <mergeCell ref="O13:P13"/>
+    <mergeCell ref="Q13:U13"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C15:G15"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C14:G14"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="J13:N13"/>
+    <mergeCell ref="X13:AB13"/>
+    <mergeCell ref="X16:AB16"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:G16"/>
+    <mergeCell ref="O14:P14"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:G11"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="J10:N10"/>
+    <mergeCell ref="V10:W10"/>
+    <mergeCell ref="X10:AB10"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C10:G10"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C13:G13"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="J9:N9"/>
+    <mergeCell ref="V9:W9"/>
+    <mergeCell ref="X9:AB9"/>
+    <mergeCell ref="O9:P9"/>
+    <mergeCell ref="Q9:U9"/>
+    <mergeCell ref="O10:P10"/>
+    <mergeCell ref="Q10:U10"/>
+    <mergeCell ref="V11:W11"/>
+    <mergeCell ref="X11:AB11"/>
+    <mergeCell ref="O11:P11"/>
+    <mergeCell ref="Q11:U11"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="J11:N11"/>
     <mergeCell ref="A9:B9"/>
     <mergeCell ref="C9:G9"/>
     <mergeCell ref="H6:I6"/>
@@ -6151,190 +6311,36 @@
     <mergeCell ref="Q6:U6"/>
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="C6:G6"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="J9:N9"/>
-    <mergeCell ref="V9:W9"/>
-    <mergeCell ref="X9:AB9"/>
-    <mergeCell ref="O9:P9"/>
-    <mergeCell ref="Q9:U9"/>
-    <mergeCell ref="O10:P10"/>
-    <mergeCell ref="Q10:U10"/>
-    <mergeCell ref="V11:W11"/>
-    <mergeCell ref="X11:AB11"/>
-    <mergeCell ref="O11:P11"/>
-    <mergeCell ref="Q11:U11"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="J11:N11"/>
-    <mergeCell ref="O14:P14"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:G11"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="J10:N10"/>
-    <mergeCell ref="V10:W10"/>
-    <mergeCell ref="X10:AB10"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="C10:G10"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="C13:G13"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="J16:N16"/>
-    <mergeCell ref="V12:W12"/>
-    <mergeCell ref="X12:AB12"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="C12:G12"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="J15:N15"/>
-    <mergeCell ref="O12:P12"/>
-    <mergeCell ref="Q12:U12"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="J12:N12"/>
-    <mergeCell ref="O13:P13"/>
-    <mergeCell ref="Q13:U13"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="C15:G15"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="C14:G14"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="J13:N13"/>
-    <mergeCell ref="X13:AB13"/>
-    <mergeCell ref="X16:AB16"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="C16:G16"/>
-    <mergeCell ref="V15:W15"/>
-    <mergeCell ref="X15:AB15"/>
-    <mergeCell ref="O15:P15"/>
-    <mergeCell ref="Q15:U15"/>
-    <mergeCell ref="O16:P16"/>
-    <mergeCell ref="Q16:U16"/>
-    <mergeCell ref="V13:W13"/>
-    <mergeCell ref="J14:N14"/>
-    <mergeCell ref="V14:W14"/>
-    <mergeCell ref="X14:AB14"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="C19:G19"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="J18:N18"/>
-    <mergeCell ref="V18:W18"/>
-    <mergeCell ref="X18:AB18"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C18:G18"/>
-    <mergeCell ref="V17:W17"/>
-    <mergeCell ref="X17:AB17"/>
-    <mergeCell ref="O17:P17"/>
-    <mergeCell ref="Q17:U17"/>
-    <mergeCell ref="O18:P18"/>
-    <mergeCell ref="Q18:U18"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="J17:N17"/>
-    <mergeCell ref="Q14:U14"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="C17:G17"/>
-    <mergeCell ref="V16:W16"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="J20:N20"/>
-    <mergeCell ref="V20:W20"/>
-    <mergeCell ref="X20:AB20"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="C20:G20"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="J19:N19"/>
-    <mergeCell ref="V19:W19"/>
-    <mergeCell ref="X19:AB19"/>
-    <mergeCell ref="O19:P19"/>
-    <mergeCell ref="Q19:U19"/>
-    <mergeCell ref="O20:P20"/>
-    <mergeCell ref="Q20:U20"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="J22:N22"/>
-    <mergeCell ref="V22:W22"/>
-    <mergeCell ref="X22:AB22"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="C22:G22"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="J21:N21"/>
-    <mergeCell ref="V21:W21"/>
-    <mergeCell ref="X21:AB21"/>
-    <mergeCell ref="O21:P21"/>
-    <mergeCell ref="Q21:U21"/>
-    <mergeCell ref="O22:P22"/>
-    <mergeCell ref="Q22:U22"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="C21:G21"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="J24:N24"/>
-    <mergeCell ref="O24:P24"/>
-    <mergeCell ref="Q24:U24"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="C24:G24"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="J23:N23"/>
-    <mergeCell ref="O23:P23"/>
-    <mergeCell ref="Q23:U23"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="C23:G23"/>
-    <mergeCell ref="H26:I26"/>
-    <mergeCell ref="J26:N26"/>
-    <mergeCell ref="O26:P26"/>
-    <mergeCell ref="Q26:U26"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="C26:G26"/>
-    <mergeCell ref="H25:I25"/>
-    <mergeCell ref="J25:N25"/>
-    <mergeCell ref="O25:P25"/>
-    <mergeCell ref="Q25:U25"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="C25:G25"/>
-    <mergeCell ref="H28:I28"/>
-    <mergeCell ref="J28:N28"/>
-    <mergeCell ref="O28:P28"/>
-    <mergeCell ref="Q28:U28"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="C28:G28"/>
-    <mergeCell ref="H27:I27"/>
-    <mergeCell ref="J27:N27"/>
-    <mergeCell ref="O27:P27"/>
-    <mergeCell ref="Q27:U27"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="C27:G27"/>
-    <mergeCell ref="H30:I30"/>
-    <mergeCell ref="J30:N30"/>
-    <mergeCell ref="O30:P30"/>
-    <mergeCell ref="Q30:U30"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="C30:G30"/>
-    <mergeCell ref="H29:I29"/>
-    <mergeCell ref="J29:N29"/>
-    <mergeCell ref="O29:P29"/>
-    <mergeCell ref="Q29:U29"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="C29:G29"/>
-    <mergeCell ref="H32:I32"/>
-    <mergeCell ref="J32:N32"/>
-    <mergeCell ref="O32:P32"/>
-    <mergeCell ref="Q32:U32"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="C32:G32"/>
-    <mergeCell ref="H31:I31"/>
-    <mergeCell ref="J31:N31"/>
-    <mergeCell ref="O31:P31"/>
-    <mergeCell ref="Q31:U31"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="C31:G31"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="C35:G35"/>
-    <mergeCell ref="H34:I34"/>
-    <mergeCell ref="J34:N34"/>
-    <mergeCell ref="O34:P34"/>
-    <mergeCell ref="Q34:U34"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="C34:G34"/>
-    <mergeCell ref="H33:I33"/>
-    <mergeCell ref="J33:N33"/>
-    <mergeCell ref="O33:P33"/>
-    <mergeCell ref="Q33:U33"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="C33:G33"/>
+    <mergeCell ref="A1:G2"/>
+    <mergeCell ref="H1:N2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:G3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="V1:AB2"/>
+    <mergeCell ref="V3:W3"/>
+    <mergeCell ref="J3:N3"/>
+    <mergeCell ref="X3:AB3"/>
+    <mergeCell ref="O1:U2"/>
+    <mergeCell ref="O3:P3"/>
+    <mergeCell ref="Q3:U3"/>
+    <mergeCell ref="V5:W5"/>
+    <mergeCell ref="X5:AB5"/>
+    <mergeCell ref="O5:P5"/>
+    <mergeCell ref="Q5:U5"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="V6:W6"/>
+    <mergeCell ref="X6:AB6"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="J4:N4"/>
+    <mergeCell ref="V4:W4"/>
+    <mergeCell ref="X4:AB4"/>
+    <mergeCell ref="O4:P4"/>
+    <mergeCell ref="Q4:U4"/>
+    <mergeCell ref="J5:N5"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C16" r:id="rId1" xr:uid="{868F8F85-B252-4B04-B081-E9B23AD46A23}"/>
@@ -6671,12 +6677,14 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="E6:H6"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="E2:H2"/>
-    <mergeCell ref="E3:H3"/>
-    <mergeCell ref="E4:H4"/>
-    <mergeCell ref="E5:H5"/>
+    <mergeCell ref="E25:H25"/>
+    <mergeCell ref="E26:H26"/>
+    <mergeCell ref="E19:H19"/>
+    <mergeCell ref="E20:H20"/>
+    <mergeCell ref="E21:H21"/>
+    <mergeCell ref="E22:H22"/>
+    <mergeCell ref="E23:H23"/>
+    <mergeCell ref="E24:H24"/>
     <mergeCell ref="E18:H18"/>
     <mergeCell ref="E7:H7"/>
     <mergeCell ref="E8:H8"/>
@@ -6689,14 +6697,12 @@
     <mergeCell ref="E15:H15"/>
     <mergeCell ref="E16:H16"/>
     <mergeCell ref="E17:H17"/>
-    <mergeCell ref="E25:H25"/>
-    <mergeCell ref="E26:H26"/>
-    <mergeCell ref="E19:H19"/>
-    <mergeCell ref="E20:H20"/>
-    <mergeCell ref="E21:H21"/>
-    <mergeCell ref="E22:H22"/>
-    <mergeCell ref="E23:H23"/>
-    <mergeCell ref="E24:H24"/>
+    <mergeCell ref="E6:H6"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="E2:H2"/>
+    <mergeCell ref="E3:H3"/>
+    <mergeCell ref="E4:H4"/>
+    <mergeCell ref="E5:H5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7057,22 +7063,6 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="D4:G4"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="D2:G2"/>
-    <mergeCell ref="D3:G3"/>
-    <mergeCell ref="D6:G6"/>
-    <mergeCell ref="D5:G5"/>
-    <mergeCell ref="D18:G18"/>
-    <mergeCell ref="D8:G8"/>
-    <mergeCell ref="D9:G9"/>
-    <mergeCell ref="D11:G11"/>
-    <mergeCell ref="D12:G12"/>
-    <mergeCell ref="D13:G13"/>
-    <mergeCell ref="D14:G14"/>
-    <mergeCell ref="D15:G15"/>
-    <mergeCell ref="D16:G16"/>
-    <mergeCell ref="D17:G17"/>
     <mergeCell ref="D30:G30"/>
     <mergeCell ref="D19:G19"/>
     <mergeCell ref="D20:G20"/>
@@ -7085,6 +7075,22 @@
     <mergeCell ref="D27:G27"/>
     <mergeCell ref="D28:G28"/>
     <mergeCell ref="D29:G29"/>
+    <mergeCell ref="D18:G18"/>
+    <mergeCell ref="D8:G8"/>
+    <mergeCell ref="D9:G9"/>
+    <mergeCell ref="D11:G11"/>
+    <mergeCell ref="D12:G12"/>
+    <mergeCell ref="D13:G13"/>
+    <mergeCell ref="D14:G14"/>
+    <mergeCell ref="D15:G15"/>
+    <mergeCell ref="D16:G16"/>
+    <mergeCell ref="D17:G17"/>
+    <mergeCell ref="D4:G4"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="D3:G3"/>
+    <mergeCell ref="D6:G6"/>
+    <mergeCell ref="D5:G5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/plans/todo.xlsx
+++ b/plans/todo.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Edsquid\Documents\Personal Projects\Business\RogueLikeGame\plans\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92CEE945-C427-4C0D-9CB7-FF7D2261F61D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68B97235-FA48-4DC4-BE34-7CBA0F33F725}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" tabRatio="509" xr2:uid="{BA1E511D-BF64-4842-98DF-72E30276ED1C}"/>
+    <workbookView xWindow="7305" yWindow="1395" windowWidth="16215" windowHeight="13335" tabRatio="509" activeTab="2" xr2:uid="{BA1E511D-BF64-4842-98DF-72E30276ED1C}"/>
   </bookViews>
   <sheets>
     <sheet name="Attributes" sheetId="3" r:id="rId1"/>
@@ -1501,19 +1501,16 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1524,8 +1521,11 @@
     <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -1859,7 +1859,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11CE061F-AFA4-4B9D-BFD1-A05915568E6D}">
   <dimension ref="A1:H355"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+    <sheetView topLeftCell="A28" workbookViewId="0">
       <selection activeCell="A52" sqref="A52"/>
     </sheetView>
   </sheetViews>
@@ -4820,7 +4820,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADB02B54-F017-44DA-9118-EA158E750E4A}">
   <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
@@ -4980,138 +4980,138 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="38"/>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38"/>
-      <c r="G1" s="38"/>
-      <c r="H1" s="38" t="s">
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
+      <c r="H1" s="37" t="s">
         <v>156</v>
       </c>
-      <c r="I1" s="38"/>
-      <c r="J1" s="38"/>
-      <c r="K1" s="38"/>
-      <c r="L1" s="38"/>
-      <c r="M1" s="38"/>
-      <c r="N1" s="38"/>
-      <c r="O1" s="38" t="s">
+      <c r="I1" s="37"/>
+      <c r="J1" s="37"/>
+      <c r="K1" s="37"/>
+      <c r="L1" s="37"/>
+      <c r="M1" s="37"/>
+      <c r="N1" s="37"/>
+      <c r="O1" s="37" t="s">
         <v>157</v>
       </c>
-      <c r="P1" s="38"/>
-      <c r="Q1" s="38"/>
-      <c r="R1" s="38"/>
-      <c r="S1" s="38"/>
-      <c r="T1" s="38"/>
-      <c r="U1" s="38"/>
-      <c r="V1" s="38" t="s">
+      <c r="P1" s="37"/>
+      <c r="Q1" s="37"/>
+      <c r="R1" s="37"/>
+      <c r="S1" s="37"/>
+      <c r="T1" s="37"/>
+      <c r="U1" s="37"/>
+      <c r="V1" s="37" t="s">
         <v>30</v>
       </c>
-      <c r="W1" s="38"/>
-      <c r="X1" s="38"/>
-      <c r="Y1" s="38"/>
-      <c r="Z1" s="38"/>
-      <c r="AA1" s="38"/>
-      <c r="AB1" s="38"/>
+      <c r="W1" s="37"/>
+      <c r="X1" s="37"/>
+      <c r="Y1" s="37"/>
+      <c r="Z1" s="37"/>
+      <c r="AA1" s="37"/>
+      <c r="AB1" s="37"/>
       <c r="AD1" s="19" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="2" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="38"/>
-      <c r="B2" s="38"/>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38"/>
-      <c r="F2" s="38"/>
-      <c r="G2" s="38"/>
-      <c r="H2" s="38"/>
-      <c r="I2" s="38"/>
-      <c r="J2" s="38"/>
-      <c r="K2" s="38"/>
-      <c r="L2" s="38"/>
-      <c r="M2" s="38"/>
-      <c r="N2" s="38"/>
-      <c r="O2" s="38"/>
-      <c r="P2" s="38"/>
-      <c r="Q2" s="38"/>
-      <c r="R2" s="38"/>
-      <c r="S2" s="38"/>
-      <c r="T2" s="38"/>
-      <c r="U2" s="38"/>
-      <c r="V2" s="38"/>
-      <c r="W2" s="38"/>
-      <c r="X2" s="38"/>
-      <c r="Y2" s="38"/>
-      <c r="Z2" s="38"/>
-      <c r="AA2" s="38"/>
-      <c r="AB2" s="38"/>
+      <c r="A2" s="37"/>
+      <c r="B2" s="37"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="37"/>
+      <c r="H2" s="37"/>
+      <c r="I2" s="37"/>
+      <c r="J2" s="37"/>
+      <c r="K2" s="37"/>
+      <c r="L2" s="37"/>
+      <c r="M2" s="37"/>
+      <c r="N2" s="37"/>
+      <c r="O2" s="37"/>
+      <c r="P2" s="37"/>
+      <c r="Q2" s="37"/>
+      <c r="R2" s="37"/>
+      <c r="S2" s="37"/>
+      <c r="T2" s="37"/>
+      <c r="U2" s="37"/>
+      <c r="V2" s="37"/>
+      <c r="W2" s="37"/>
+      <c r="X2" s="37"/>
+      <c r="Y2" s="37"/>
+      <c r="Z2" s="37"/>
+      <c r="AA2" s="37"/>
+      <c r="AB2" s="37"/>
     </row>
     <row r="3" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A3" s="39" t="s">
+      <c r="A3" s="38" t="s">
         <v>29</v>
       </c>
-      <c r="B3" s="39"/>
-      <c r="C3" s="40" t="s">
+      <c r="B3" s="38"/>
+      <c r="C3" s="39" t="s">
         <v>31</v>
       </c>
-      <c r="D3" s="40"/>
-      <c r="E3" s="40"/>
-      <c r="F3" s="40"/>
-      <c r="G3" s="40"/>
-      <c r="H3" s="39" t="s">
+      <c r="D3" s="39"/>
+      <c r="E3" s="39"/>
+      <c r="F3" s="39"/>
+      <c r="G3" s="39"/>
+      <c r="H3" s="38" t="s">
         <v>29</v>
       </c>
-      <c r="I3" s="39"/>
-      <c r="J3" s="40" t="s">
+      <c r="I3" s="38"/>
+      <c r="J3" s="39" t="s">
         <v>31</v>
       </c>
-      <c r="K3" s="40"/>
-      <c r="L3" s="40"/>
-      <c r="M3" s="40"/>
-      <c r="N3" s="40"/>
-      <c r="O3" s="39" t="s">
+      <c r="K3" s="39"/>
+      <c r="L3" s="39"/>
+      <c r="M3" s="39"/>
+      <c r="N3" s="39"/>
+      <c r="O3" s="38" t="s">
         <v>29</v>
       </c>
-      <c r="P3" s="39"/>
-      <c r="Q3" s="40" t="s">
+      <c r="P3" s="38"/>
+      <c r="Q3" s="39" t="s">
         <v>31</v>
       </c>
-      <c r="R3" s="40"/>
-      <c r="S3" s="40"/>
-      <c r="T3" s="40"/>
-      <c r="U3" s="40"/>
-      <c r="V3" s="39" t="s">
+      <c r="R3" s="39"/>
+      <c r="S3" s="39"/>
+      <c r="T3" s="39"/>
+      <c r="U3" s="39"/>
+      <c r="V3" s="38" t="s">
         <v>29</v>
       </c>
-      <c r="W3" s="39"/>
-      <c r="X3" s="40" t="s">
+      <c r="W3" s="38"/>
+      <c r="X3" s="39" t="s">
         <v>31</v>
       </c>
-      <c r="Y3" s="40"/>
-      <c r="Z3" s="40"/>
-      <c r="AA3" s="40"/>
-      <c r="AB3" s="40"/>
+      <c r="Y3" s="39"/>
+      <c r="Z3" s="39"/>
+      <c r="AA3" s="39"/>
+      <c r="AB3" s="39"/>
     </row>
     <row r="4" spans="1:30" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="35" t="s">
+      <c r="A4" s="40" t="s">
         <v>362</v>
       </c>
-      <c r="B4" s="35"/>
-      <c r="C4" s="36" t="s">
+      <c r="B4" s="40"/>
+      <c r="C4" s="41" t="s">
         <v>363</v>
       </c>
-      <c r="D4" s="36"/>
-      <c r="E4" s="36"/>
-      <c r="F4" s="36"/>
-      <c r="G4" s="36"/>
-      <c r="H4" s="37" t="s">
+      <c r="D4" s="41"/>
+      <c r="E4" s="41"/>
+      <c r="F4" s="41"/>
+      <c r="G4" s="41"/>
+      <c r="H4" s="33" t="s">
         <v>312</v>
       </c>
-      <c r="I4" s="37"/>
+      <c r="I4" s="33"/>
       <c r="J4" s="34" t="s">
         <v>37</v>
       </c>
@@ -5119,10 +5119,10 @@
       <c r="L4" s="34"/>
       <c r="M4" s="34"/>
       <c r="N4" s="34"/>
-      <c r="O4" s="33" t="s">
+      <c r="O4" s="35" t="s">
         <v>325</v>
       </c>
-      <c r="P4" s="33"/>
+      <c r="P4" s="35"/>
       <c r="Q4" s="34" t="s">
         <v>158</v>
       </c>
@@ -5130,10 +5130,10 @@
       <c r="S4" s="34"/>
       <c r="T4" s="34"/>
       <c r="U4" s="34"/>
-      <c r="V4" s="33" t="s">
+      <c r="V4" s="35" t="s">
         <v>44</v>
       </c>
-      <c r="W4" s="33"/>
+      <c r="W4" s="35"/>
       <c r="X4" s="34" t="s">
         <v>43</v>
       </c>
@@ -5143,10 +5143,10 @@
       <c r="AB4" s="34"/>
     </row>
     <row r="5" spans="1:30" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="37" t="s">
+      <c r="A5" s="33" t="s">
         <v>361</v>
       </c>
-      <c r="B5" s="37"/>
+      <c r="B5" s="33"/>
       <c r="C5" s="34" t="s">
         <v>36</v>
       </c>
@@ -5154,10 +5154,10 @@
       <c r="E5" s="34"/>
       <c r="F5" s="34"/>
       <c r="G5" s="34"/>
-      <c r="H5" s="37" t="s">
+      <c r="H5" s="33" t="s">
         <v>313</v>
       </c>
-      <c r="I5" s="37"/>
+      <c r="I5" s="33"/>
       <c r="J5" s="34" t="s">
         <v>314</v>
       </c>
@@ -5165,10 +5165,10 @@
       <c r="L5" s="34"/>
       <c r="M5" s="34"/>
       <c r="N5" s="34"/>
-      <c r="O5" s="33" t="s">
+      <c r="O5" s="35" t="s">
         <v>159</v>
       </c>
-      <c r="P5" s="33"/>
+      <c r="P5" s="35"/>
       <c r="Q5" s="34" t="s">
         <v>234</v>
       </c>
@@ -5176,10 +5176,10 @@
       <c r="S5" s="34"/>
       <c r="T5" s="34"/>
       <c r="U5" s="34"/>
-      <c r="V5" s="33" t="s">
+      <c r="V5" s="35" t="s">
         <v>45</v>
       </c>
-      <c r="W5" s="33"/>
+      <c r="W5" s="35"/>
       <c r="X5" s="34" t="s">
         <v>48</v>
       </c>
@@ -5189,10 +5189,10 @@
       <c r="AB5" s="34"/>
     </row>
     <row r="6" spans="1:30" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="37" t="s">
+      <c r="A6" s="33" t="s">
         <v>364</v>
       </c>
-      <c r="B6" s="37"/>
+      <c r="B6" s="33"/>
       <c r="C6" s="34" t="s">
         <v>221</v>
       </c>
@@ -5200,10 +5200,10 @@
       <c r="E6" s="34"/>
       <c r="F6" s="34"/>
       <c r="G6" s="34"/>
-      <c r="H6" s="37" t="s">
+      <c r="H6" s="33" t="s">
         <v>315</v>
       </c>
-      <c r="I6" s="37"/>
+      <c r="I6" s="33"/>
       <c r="J6" s="34" t="s">
         <v>39</v>
       </c>
@@ -5211,10 +5211,10 @@
       <c r="L6" s="34"/>
       <c r="M6" s="34"/>
       <c r="N6" s="34"/>
-      <c r="O6" s="33" t="s">
+      <c r="O6" s="35" t="s">
         <v>160</v>
       </c>
-      <c r="P6" s="33"/>
+      <c r="P6" s="35"/>
       <c r="Q6" s="34" t="s">
         <v>234</v>
       </c>
@@ -5222,10 +5222,10 @@
       <c r="S6" s="34"/>
       <c r="T6" s="34"/>
       <c r="U6" s="34"/>
-      <c r="V6" s="33" t="s">
+      <c r="V6" s="35" t="s">
         <v>46</v>
       </c>
-      <c r="W6" s="33"/>
+      <c r="W6" s="35"/>
       <c r="X6" s="34" t="s">
         <v>47</v>
       </c>
@@ -5235,10 +5235,10 @@
       <c r="AB6" s="34"/>
     </row>
     <row r="7" spans="1:30" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="37" t="s">
+      <c r="A7" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="B7" s="37"/>
+      <c r="B7" s="33"/>
       <c r="C7" s="34" t="s">
         <v>40</v>
       </c>
@@ -5246,10 +5246,10 @@
       <c r="E7" s="34"/>
       <c r="F7" s="34"/>
       <c r="G7" s="34"/>
-      <c r="H7" s="37" t="s">
+      <c r="H7" s="33" t="s">
         <v>324</v>
       </c>
-      <c r="I7" s="37"/>
+      <c r="I7" s="33"/>
       <c r="J7" s="34" t="s">
         <v>360</v>
       </c>
@@ -5257,10 +5257,10 @@
       <c r="L7" s="34"/>
       <c r="M7" s="34"/>
       <c r="N7" s="34"/>
-      <c r="O7" s="33" t="s">
+      <c r="O7" s="35" t="s">
         <v>161</v>
       </c>
-      <c r="P7" s="33"/>
+      <c r="P7" s="35"/>
       <c r="Q7" s="34" t="s">
         <v>235</v>
       </c>
@@ -5268,10 +5268,10 @@
       <c r="S7" s="34"/>
       <c r="T7" s="34"/>
       <c r="U7" s="34"/>
-      <c r="V7" s="33" t="s">
+      <c r="V7" s="35" t="s">
         <v>358</v>
       </c>
-      <c r="W7" s="33"/>
+      <c r="W7" s="35"/>
       <c r="X7" s="34" t="s">
         <v>49</v>
       </c>
@@ -5281,10 +5281,10 @@
       <c r="AB7" s="34"/>
     </row>
     <row r="8" spans="1:30" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="37" t="s">
+      <c r="A8" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="B8" s="37"/>
+      <c r="B8" s="33"/>
       <c r="C8" s="34" t="s">
         <v>35</v>
       </c>
@@ -5292,17 +5292,17 @@
       <c r="E8" s="34"/>
       <c r="F8" s="34"/>
       <c r="G8" s="34"/>
-      <c r="H8" s="37"/>
-      <c r="I8" s="37"/>
+      <c r="H8" s="33"/>
+      <c r="I8" s="33"/>
       <c r="J8" s="34"/>
       <c r="K8" s="34"/>
       <c r="L8" s="34"/>
       <c r="M8" s="34"/>
       <c r="N8" s="34"/>
-      <c r="O8" s="33" t="s">
+      <c r="O8" s="35" t="s">
         <v>330</v>
       </c>
-      <c r="P8" s="33"/>
+      <c r="P8" s="35"/>
       <c r="Q8" s="34" t="s">
         <v>235</v>
       </c>
@@ -5310,10 +5310,10 @@
       <c r="S8" s="34"/>
       <c r="T8" s="34"/>
       <c r="U8" s="34"/>
-      <c r="V8" s="33" t="s">
+      <c r="V8" s="35" t="s">
         <v>50</v>
       </c>
-      <c r="W8" s="33"/>
+      <c r="W8" s="35"/>
       <c r="X8" s="34" t="s">
         <v>43</v>
       </c>
@@ -5323,10 +5323,10 @@
       <c r="AB8" s="34"/>
     </row>
     <row r="9" spans="1:30" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="37" t="s">
+      <c r="A9" s="33" t="s">
         <v>328</v>
       </c>
-      <c r="B9" s="37"/>
+      <c r="B9" s="33"/>
       <c r="C9" s="34" t="s">
         <v>220</v>
       </c>
@@ -5334,10 +5334,10 @@
       <c r="E9" s="34"/>
       <c r="F9" s="34"/>
       <c r="G9" s="34"/>
-      <c r="H9" s="37" t="s">
+      <c r="H9" s="33" t="s">
         <v>323</v>
       </c>
-      <c r="I9" s="37"/>
+      <c r="I9" s="33"/>
       <c r="J9" s="34" t="s">
         <v>326</v>
       </c>
@@ -5345,10 +5345,10 @@
       <c r="L9" s="34"/>
       <c r="M9" s="34"/>
       <c r="N9" s="34"/>
-      <c r="O9" s="33" t="s">
+      <c r="O9" s="35" t="s">
         <v>319</v>
       </c>
-      <c r="P9" s="33"/>
+      <c r="P9" s="35"/>
       <c r="Q9" s="34" t="s">
         <v>281</v>
       </c>
@@ -5356,10 +5356,10 @@
       <c r="S9" s="34"/>
       <c r="T9" s="34"/>
       <c r="U9" s="34"/>
-      <c r="V9" s="33" t="s">
+      <c r="V9" s="35" t="s">
         <v>51</v>
       </c>
-      <c r="W9" s="33"/>
+      <c r="W9" s="35"/>
       <c r="X9" s="34" t="s">
         <v>52</v>
       </c>
@@ -5369,24 +5369,24 @@
       <c r="AB9" s="34"/>
     </row>
     <row r="10" spans="1:30" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="37"/>
-      <c r="B10" s="37"/>
+      <c r="A10" s="33"/>
+      <c r="B10" s="33"/>
       <c r="C10" s="34"/>
       <c r="D10" s="34"/>
       <c r="E10" s="34"/>
       <c r="F10" s="34"/>
       <c r="G10" s="34"/>
-      <c r="H10" s="37"/>
-      <c r="I10" s="37"/>
+      <c r="H10" s="33"/>
+      <c r="I10" s="33"/>
       <c r="J10" s="34"/>
       <c r="K10" s="34"/>
       <c r="L10" s="34"/>
       <c r="M10" s="34"/>
       <c r="N10" s="34"/>
-      <c r="O10" s="33" t="s">
+      <c r="O10" s="35" t="s">
         <v>316</v>
       </c>
-      <c r="P10" s="33"/>
+      <c r="P10" s="35"/>
       <c r="Q10" s="34" t="s">
         <v>317</v>
       </c>
@@ -5394,10 +5394,10 @@
       <c r="S10" s="34"/>
       <c r="T10" s="34"/>
       <c r="U10" s="34"/>
-      <c r="V10" s="33" t="s">
+      <c r="V10" s="35" t="s">
         <v>54</v>
       </c>
-      <c r="W10" s="33"/>
+      <c r="W10" s="35"/>
       <c r="X10" s="34" t="s">
         <v>55</v>
       </c>
@@ -5407,10 +5407,10 @@
       <c r="AB10" s="34"/>
     </row>
     <row r="11" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="37" t="s">
+      <c r="A11" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="B11" s="37"/>
+      <c r="B11" s="33"/>
       <c r="C11" s="34" t="s">
         <v>41</v>
       </c>
@@ -5418,10 +5418,10 @@
       <c r="E11" s="34"/>
       <c r="F11" s="34"/>
       <c r="G11" s="34"/>
-      <c r="H11" s="37" t="s">
+      <c r="H11" s="33" t="s">
         <v>322</v>
       </c>
-      <c r="I11" s="37"/>
+      <c r="I11" s="33"/>
       <c r="J11" s="34" t="s">
         <v>42</v>
       </c>
@@ -5429,10 +5429,10 @@
       <c r="L11" s="34"/>
       <c r="M11" s="34"/>
       <c r="N11" s="34"/>
-      <c r="O11" s="33" t="s">
+      <c r="O11" s="35" t="s">
         <v>318</v>
       </c>
-      <c r="P11" s="33"/>
+      <c r="P11" s="35"/>
       <c r="Q11" s="34" t="s">
         <v>359</v>
       </c>
@@ -5440,10 +5440,10 @@
       <c r="S11" s="34"/>
       <c r="T11" s="34"/>
       <c r="U11" s="34"/>
-      <c r="V11" s="33" t="s">
+      <c r="V11" s="35" t="s">
         <v>56</v>
       </c>
-      <c r="W11" s="33"/>
+      <c r="W11" s="35"/>
       <c r="X11" s="34" t="s">
         <v>57</v>
       </c>
@@ -5453,10 +5453,10 @@
       <c r="AB11" s="34"/>
     </row>
     <row r="12" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="37" t="s">
+      <c r="A12" s="33" t="s">
         <v>222</v>
       </c>
-      <c r="B12" s="37"/>
+      <c r="B12" s="33"/>
       <c r="C12" s="34" t="s">
         <v>228</v>
       </c>
@@ -5464,10 +5464,10 @@
       <c r="E12" s="34"/>
       <c r="F12" s="34"/>
       <c r="G12" s="34"/>
-      <c r="H12" s="37" t="s">
+      <c r="H12" s="33" t="s">
         <v>321</v>
       </c>
-      <c r="I12" s="37"/>
+      <c r="I12" s="33"/>
       <c r="J12" s="34" t="s">
         <v>219</v>
       </c>
@@ -5475,15 +5475,15 @@
       <c r="L12" s="34"/>
       <c r="M12" s="34"/>
       <c r="N12" s="34"/>
-      <c r="O12" s="33"/>
-      <c r="P12" s="33"/>
+      <c r="O12" s="35"/>
+      <c r="P12" s="35"/>
       <c r="Q12" s="34"/>
       <c r="R12" s="34"/>
       <c r="S12" s="34"/>
       <c r="T12" s="34"/>
       <c r="U12" s="34"/>
-      <c r="V12" s="33"/>
-      <c r="W12" s="33"/>
+      <c r="V12" s="35"/>
+      <c r="W12" s="35"/>
       <c r="X12" s="34"/>
       <c r="Y12" s="34"/>
       <c r="Z12" s="34"/>
@@ -5491,17 +5491,17 @@
       <c r="AB12" s="34"/>
     </row>
     <row r="13" spans="1:30" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="37"/>
-      <c r="B13" s="37"/>
-      <c r="C13" s="41"/>
-      <c r="D13" s="41"/>
-      <c r="E13" s="41"/>
-      <c r="F13" s="41"/>
-      <c r="G13" s="41"/>
-      <c r="H13" s="37" t="s">
+      <c r="A13" s="33"/>
+      <c r="B13" s="33"/>
+      <c r="C13" s="36"/>
+      <c r="D13" s="36"/>
+      <c r="E13" s="36"/>
+      <c r="F13" s="36"/>
+      <c r="G13" s="36"/>
+      <c r="H13" s="33" t="s">
         <v>327</v>
       </c>
-      <c r="I13" s="37"/>
+      <c r="I13" s="33"/>
       <c r="J13" s="34" t="s">
         <v>38</v>
       </c>
@@ -5509,10 +5509,10 @@
       <c r="L13" s="34"/>
       <c r="M13" s="34"/>
       <c r="N13" s="34"/>
-      <c r="O13" s="33" t="s">
+      <c r="O13" s="35" t="s">
         <v>320</v>
       </c>
-      <c r="P13" s="33"/>
+      <c r="P13" s="35"/>
       <c r="Q13" s="34" t="s">
         <v>162</v>
       </c>
@@ -5520,10 +5520,10 @@
       <c r="S13" s="34"/>
       <c r="T13" s="34"/>
       <c r="U13" s="34"/>
-      <c r="V13" s="37" t="s">
+      <c r="V13" s="33" t="s">
         <v>229</v>
       </c>
-      <c r="W13" s="37"/>
+      <c r="W13" s="33"/>
       <c r="X13" s="34" t="s">
         <v>49</v>
       </c>
@@ -5533,33 +5533,33 @@
       <c r="AB13" s="34"/>
     </row>
     <row r="14" spans="1:30" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="37" t="s">
+      <c r="A14" s="33" t="s">
         <v>227</v>
       </c>
-      <c r="B14" s="37"/>
-      <c r="C14" s="41" t="s">
+      <c r="B14" s="33"/>
+      <c r="C14" s="36" t="s">
         <v>226</v>
       </c>
-      <c r="D14" s="41"/>
-      <c r="E14" s="41"/>
-      <c r="F14" s="41"/>
-      <c r="G14" s="41"/>
-      <c r="H14" s="37"/>
-      <c r="I14" s="37"/>
+      <c r="D14" s="36"/>
+      <c r="E14" s="36"/>
+      <c r="F14" s="36"/>
+      <c r="G14" s="36"/>
+      <c r="H14" s="33"/>
+      <c r="I14" s="33"/>
       <c r="J14" s="34"/>
       <c r="K14" s="34"/>
       <c r="L14" s="34"/>
       <c r="M14" s="34"/>
       <c r="N14" s="34"/>
-      <c r="O14" s="33"/>
-      <c r="P14" s="33"/>
+      <c r="O14" s="35"/>
+      <c r="P14" s="35"/>
       <c r="Q14" s="34"/>
       <c r="R14" s="34"/>
       <c r="S14" s="34"/>
       <c r="T14" s="34"/>
       <c r="U14" s="34"/>
-      <c r="V14" s="33"/>
-      <c r="W14" s="33"/>
+      <c r="V14" s="35"/>
+      <c r="W14" s="35"/>
       <c r="X14" s="34"/>
       <c r="Y14" s="34"/>
       <c r="Z14" s="34"/>
@@ -5567,33 +5567,33 @@
       <c r="AB14" s="34"/>
     </row>
     <row r="15" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A15" s="37" t="s">
+      <c r="A15" s="33" t="s">
         <v>231</v>
       </c>
-      <c r="B15" s="37"/>
-      <c r="C15" s="41" t="s">
+      <c r="B15" s="33"/>
+      <c r="C15" s="36" t="s">
         <v>230</v>
       </c>
-      <c r="D15" s="41"/>
-      <c r="E15" s="41"/>
-      <c r="F15" s="41"/>
-      <c r="G15" s="41"/>
-      <c r="H15" s="37"/>
-      <c r="I15" s="37"/>
+      <c r="D15" s="36"/>
+      <c r="E15" s="36"/>
+      <c r="F15" s="36"/>
+      <c r="G15" s="36"/>
+      <c r="H15" s="33"/>
+      <c r="I15" s="33"/>
       <c r="J15" s="34"/>
       <c r="K15" s="34"/>
       <c r="L15" s="34"/>
       <c r="M15" s="34"/>
       <c r="N15" s="34"/>
-      <c r="O15" s="33"/>
-      <c r="P15" s="33"/>
+      <c r="O15" s="35"/>
+      <c r="P15" s="35"/>
       <c r="Q15" s="34"/>
       <c r="R15" s="34"/>
       <c r="S15" s="34"/>
       <c r="T15" s="34"/>
       <c r="U15" s="34"/>
-      <c r="V15" s="33"/>
-      <c r="W15" s="33"/>
+      <c r="V15" s="35"/>
+      <c r="W15" s="35"/>
       <c r="X15" s="34"/>
       <c r="Y15" s="34"/>
       <c r="Z15" s="34"/>
@@ -5601,33 +5601,33 @@
       <c r="AB15" s="34"/>
     </row>
     <row r="16" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A16" s="37" t="s">
+      <c r="A16" s="33" t="s">
         <v>232</v>
       </c>
-      <c r="B16" s="37"/>
-      <c r="C16" s="41" t="s">
+      <c r="B16" s="33"/>
+      <c r="C16" s="36" t="s">
         <v>233</v>
       </c>
       <c r="D16" s="34"/>
       <c r="E16" s="34"/>
       <c r="F16" s="34"/>
       <c r="G16" s="34"/>
-      <c r="H16" s="37"/>
-      <c r="I16" s="37"/>
+      <c r="H16" s="33"/>
+      <c r="I16" s="33"/>
       <c r="J16" s="34"/>
       <c r="K16" s="34"/>
       <c r="L16" s="34"/>
       <c r="M16" s="34"/>
       <c r="N16" s="34"/>
-      <c r="O16" s="33"/>
-      <c r="P16" s="33"/>
+      <c r="O16" s="35"/>
+      <c r="P16" s="35"/>
       <c r="Q16" s="34"/>
       <c r="R16" s="34"/>
       <c r="S16" s="34"/>
       <c r="T16" s="34"/>
       <c r="U16" s="34"/>
-      <c r="V16" s="33"/>
-      <c r="W16" s="33"/>
+      <c r="V16" s="35"/>
+      <c r="W16" s="35"/>
       <c r="X16" s="34"/>
       <c r="Y16" s="34"/>
       <c r="Z16" s="34"/>
@@ -5635,31 +5635,31 @@
       <c r="AB16" s="34"/>
     </row>
     <row r="17" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A17" s="37" t="s">
+      <c r="A17" s="33" t="s">
         <v>331</v>
       </c>
-      <c r="B17" s="37"/>
+      <c r="B17" s="33"/>
       <c r="C17" s="34"/>
       <c r="D17" s="34"/>
       <c r="E17" s="34"/>
       <c r="F17" s="34"/>
       <c r="G17" s="34"/>
-      <c r="H17" s="37"/>
-      <c r="I17" s="37"/>
+      <c r="H17" s="33"/>
+      <c r="I17" s="33"/>
       <c r="J17" s="34"/>
       <c r="K17" s="34"/>
       <c r="L17" s="34"/>
       <c r="M17" s="34"/>
       <c r="N17" s="34"/>
-      <c r="O17" s="33"/>
-      <c r="P17" s="33"/>
+      <c r="O17" s="35"/>
+      <c r="P17" s="35"/>
       <c r="Q17" s="34"/>
       <c r="R17" s="34"/>
       <c r="S17" s="34"/>
       <c r="T17" s="34"/>
       <c r="U17" s="34"/>
-      <c r="V17" s="33"/>
-      <c r="W17" s="33"/>
+      <c r="V17" s="35"/>
+      <c r="W17" s="35"/>
       <c r="X17" s="34"/>
       <c r="Y17" s="34"/>
       <c r="Z17" s="34"/>
@@ -5667,29 +5667,29 @@
       <c r="AB17" s="34"/>
     </row>
     <row r="18" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A18" s="37"/>
-      <c r="B18" s="37"/>
+      <c r="A18" s="33"/>
+      <c r="B18" s="33"/>
       <c r="C18" s="34"/>
       <c r="D18" s="34"/>
       <c r="E18" s="34"/>
       <c r="F18" s="34"/>
       <c r="G18" s="34"/>
-      <c r="H18" s="37"/>
-      <c r="I18" s="37"/>
+      <c r="H18" s="33"/>
+      <c r="I18" s="33"/>
       <c r="J18" s="34"/>
       <c r="K18" s="34"/>
       <c r="L18" s="34"/>
       <c r="M18" s="34"/>
       <c r="N18" s="34"/>
-      <c r="O18" s="33"/>
-      <c r="P18" s="33"/>
+      <c r="O18" s="35"/>
+      <c r="P18" s="35"/>
       <c r="Q18" s="34"/>
       <c r="R18" s="34"/>
       <c r="S18" s="34"/>
       <c r="T18" s="34"/>
       <c r="U18" s="34"/>
-      <c r="V18" s="33"/>
-      <c r="W18" s="33"/>
+      <c r="V18" s="35"/>
+      <c r="W18" s="35"/>
       <c r="X18" s="34"/>
       <c r="Y18" s="34"/>
       <c r="Z18" s="34"/>
@@ -5697,29 +5697,29 @@
       <c r="AB18" s="34"/>
     </row>
     <row r="19" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A19" s="37"/>
-      <c r="B19" s="37"/>
+      <c r="A19" s="33"/>
+      <c r="B19" s="33"/>
       <c r="C19" s="34"/>
       <c r="D19" s="34"/>
       <c r="E19" s="34"/>
       <c r="F19" s="34"/>
       <c r="G19" s="34"/>
-      <c r="H19" s="37"/>
-      <c r="I19" s="37"/>
+      <c r="H19" s="33"/>
+      <c r="I19" s="33"/>
       <c r="J19" s="34"/>
       <c r="K19" s="34"/>
       <c r="L19" s="34"/>
       <c r="M19" s="34"/>
       <c r="N19" s="34"/>
-      <c r="O19" s="33"/>
-      <c r="P19" s="33"/>
+      <c r="O19" s="35"/>
+      <c r="P19" s="35"/>
       <c r="Q19" s="34"/>
       <c r="R19" s="34"/>
       <c r="S19" s="34"/>
       <c r="T19" s="34"/>
       <c r="U19" s="34"/>
-      <c r="V19" s="33"/>
-      <c r="W19" s="33"/>
+      <c r="V19" s="35"/>
+      <c r="W19" s="35"/>
       <c r="X19" s="34"/>
       <c r="Y19" s="34"/>
       <c r="Z19" s="34"/>
@@ -5727,29 +5727,29 @@
       <c r="AB19" s="34"/>
     </row>
     <row r="20" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A20" s="37"/>
-      <c r="B20" s="37"/>
+      <c r="A20" s="33"/>
+      <c r="B20" s="33"/>
       <c r="C20" s="34"/>
       <c r="D20" s="34"/>
       <c r="E20" s="34"/>
       <c r="F20" s="34"/>
       <c r="G20" s="34"/>
-      <c r="H20" s="37"/>
-      <c r="I20" s="37"/>
+      <c r="H20" s="33"/>
+      <c r="I20" s="33"/>
       <c r="J20" s="34"/>
       <c r="K20" s="34"/>
       <c r="L20" s="34"/>
       <c r="M20" s="34"/>
       <c r="N20" s="34"/>
-      <c r="O20" s="33"/>
-      <c r="P20" s="33"/>
+      <c r="O20" s="35"/>
+      <c r="P20" s="35"/>
       <c r="Q20" s="34"/>
       <c r="R20" s="34"/>
       <c r="S20" s="34"/>
       <c r="T20" s="34"/>
       <c r="U20" s="34"/>
-      <c r="V20" s="33"/>
-      <c r="W20" s="33"/>
+      <c r="V20" s="35"/>
+      <c r="W20" s="35"/>
       <c r="X20" s="34"/>
       <c r="Y20" s="34"/>
       <c r="Z20" s="34"/>
@@ -5757,29 +5757,29 @@
       <c r="AB20" s="34"/>
     </row>
     <row r="21" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A21" s="37"/>
-      <c r="B21" s="37"/>
+      <c r="A21" s="33"/>
+      <c r="B21" s="33"/>
       <c r="C21" s="34"/>
       <c r="D21" s="34"/>
       <c r="E21" s="34"/>
       <c r="F21" s="34"/>
       <c r="G21" s="34"/>
-      <c r="H21" s="37"/>
-      <c r="I21" s="37"/>
+      <c r="H21" s="33"/>
+      <c r="I21" s="33"/>
       <c r="J21" s="34"/>
       <c r="K21" s="34"/>
       <c r="L21" s="34"/>
       <c r="M21" s="34"/>
       <c r="N21" s="34"/>
-      <c r="O21" s="33"/>
-      <c r="P21" s="33"/>
+      <c r="O21" s="35"/>
+      <c r="P21" s="35"/>
       <c r="Q21" s="34"/>
       <c r="R21" s="34"/>
       <c r="S21" s="34"/>
       <c r="T21" s="34"/>
       <c r="U21" s="34"/>
-      <c r="V21" s="33"/>
-      <c r="W21" s="33"/>
+      <c r="V21" s="35"/>
+      <c r="W21" s="35"/>
       <c r="X21" s="34"/>
       <c r="Y21" s="34"/>
       <c r="Z21" s="34"/>
@@ -5787,29 +5787,29 @@
       <c r="AB21" s="34"/>
     </row>
     <row r="22" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A22" s="37"/>
-      <c r="B22" s="37"/>
+      <c r="A22" s="33"/>
+      <c r="B22" s="33"/>
       <c r="C22" s="34"/>
       <c r="D22" s="34"/>
       <c r="E22" s="34"/>
       <c r="F22" s="34"/>
       <c r="G22" s="34"/>
-      <c r="H22" s="37"/>
-      <c r="I22" s="37"/>
+      <c r="H22" s="33"/>
+      <c r="I22" s="33"/>
       <c r="J22" s="34"/>
       <c r="K22" s="34"/>
       <c r="L22" s="34"/>
       <c r="M22" s="34"/>
       <c r="N22" s="34"/>
-      <c r="O22" s="33"/>
-      <c r="P22" s="33"/>
+      <c r="O22" s="35"/>
+      <c r="P22" s="35"/>
       <c r="Q22" s="34"/>
       <c r="R22" s="34"/>
       <c r="S22" s="34"/>
       <c r="T22" s="34"/>
       <c r="U22" s="34"/>
-      <c r="V22" s="33"/>
-      <c r="W22" s="33"/>
+      <c r="V22" s="35"/>
+      <c r="W22" s="35"/>
       <c r="X22" s="34"/>
       <c r="Y22" s="34"/>
       <c r="Z22" s="34"/>
@@ -5817,22 +5817,22 @@
       <c r="AB22" s="34"/>
     </row>
     <row r="23" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A23" s="37"/>
-      <c r="B23" s="37"/>
+      <c r="A23" s="33"/>
+      <c r="B23" s="33"/>
       <c r="C23" s="34"/>
       <c r="D23" s="34"/>
       <c r="E23" s="34"/>
       <c r="F23" s="34"/>
       <c r="G23" s="34"/>
-      <c r="H23" s="37"/>
-      <c r="I23" s="37"/>
+      <c r="H23" s="33"/>
+      <c r="I23" s="33"/>
       <c r="J23" s="34"/>
       <c r="K23" s="34"/>
       <c r="L23" s="34"/>
       <c r="M23" s="34"/>
       <c r="N23" s="34"/>
-      <c r="O23" s="33"/>
-      <c r="P23" s="33"/>
+      <c r="O23" s="35"/>
+      <c r="P23" s="35"/>
       <c r="Q23" s="34"/>
       <c r="R23" s="34"/>
       <c r="S23" s="34"/>
@@ -5840,22 +5840,22 @@
       <c r="U23" s="34"/>
     </row>
     <row r="24" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A24" s="37"/>
-      <c r="B24" s="37"/>
+      <c r="A24" s="33"/>
+      <c r="B24" s="33"/>
       <c r="C24" s="34"/>
       <c r="D24" s="34"/>
       <c r="E24" s="34"/>
       <c r="F24" s="34"/>
       <c r="G24" s="34"/>
-      <c r="H24" s="37"/>
-      <c r="I24" s="37"/>
+      <c r="H24" s="33"/>
+      <c r="I24" s="33"/>
       <c r="J24" s="34"/>
       <c r="K24" s="34"/>
       <c r="L24" s="34"/>
       <c r="M24" s="34"/>
       <c r="N24" s="34"/>
-      <c r="O24" s="33"/>
-      <c r="P24" s="33"/>
+      <c r="O24" s="35"/>
+      <c r="P24" s="35"/>
       <c r="Q24" s="34"/>
       <c r="R24" s="34"/>
       <c r="S24" s="34"/>
@@ -5863,22 +5863,22 @@
       <c r="U24" s="34"/>
     </row>
     <row r="25" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A25" s="37"/>
-      <c r="B25" s="37"/>
+      <c r="A25" s="33"/>
+      <c r="B25" s="33"/>
       <c r="C25" s="34"/>
       <c r="D25" s="34"/>
       <c r="E25" s="34"/>
       <c r="F25" s="34"/>
       <c r="G25" s="34"/>
-      <c r="H25" s="37"/>
-      <c r="I25" s="37"/>
+      <c r="H25" s="33"/>
+      <c r="I25" s="33"/>
       <c r="J25" s="34"/>
       <c r="K25" s="34"/>
       <c r="L25" s="34"/>
       <c r="M25" s="34"/>
       <c r="N25" s="34"/>
-      <c r="O25" s="33"/>
-      <c r="P25" s="33"/>
+      <c r="O25" s="35"/>
+      <c r="P25" s="35"/>
       <c r="Q25" s="34"/>
       <c r="R25" s="34"/>
       <c r="S25" s="34"/>
@@ -5886,22 +5886,22 @@
       <c r="U25" s="34"/>
     </row>
     <row r="26" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A26" s="37"/>
-      <c r="B26" s="37"/>
+      <c r="A26" s="33"/>
+      <c r="B26" s="33"/>
       <c r="C26" s="34"/>
       <c r="D26" s="34"/>
       <c r="E26" s="34"/>
       <c r="F26" s="34"/>
       <c r="G26" s="34"/>
-      <c r="H26" s="37"/>
-      <c r="I26" s="37"/>
+      <c r="H26" s="33"/>
+      <c r="I26" s="33"/>
       <c r="J26" s="34"/>
       <c r="K26" s="34"/>
       <c r="L26" s="34"/>
       <c r="M26" s="34"/>
       <c r="N26" s="34"/>
-      <c r="O26" s="33"/>
-      <c r="P26" s="33"/>
+      <c r="O26" s="35"/>
+      <c r="P26" s="35"/>
       <c r="Q26" s="34"/>
       <c r="R26" s="34"/>
       <c r="S26" s="34"/>
@@ -5909,22 +5909,22 @@
       <c r="U26" s="34"/>
     </row>
     <row r="27" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A27" s="37"/>
-      <c r="B27" s="37"/>
+      <c r="A27" s="33"/>
+      <c r="B27" s="33"/>
       <c r="C27" s="34"/>
       <c r="D27" s="34"/>
       <c r="E27" s="34"/>
       <c r="F27" s="34"/>
       <c r="G27" s="34"/>
-      <c r="H27" s="37"/>
-      <c r="I27" s="37"/>
+      <c r="H27" s="33"/>
+      <c r="I27" s="33"/>
       <c r="J27" s="34"/>
       <c r="K27" s="34"/>
       <c r="L27" s="34"/>
       <c r="M27" s="34"/>
       <c r="N27" s="34"/>
-      <c r="O27" s="33"/>
-      <c r="P27" s="33"/>
+      <c r="O27" s="35"/>
+      <c r="P27" s="35"/>
       <c r="Q27" s="34"/>
       <c r="R27" s="34"/>
       <c r="S27" s="34"/>
@@ -5932,22 +5932,22 @@
       <c r="U27" s="34"/>
     </row>
     <row r="28" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A28" s="37"/>
-      <c r="B28" s="37"/>
+      <c r="A28" s="33"/>
+      <c r="B28" s="33"/>
       <c r="C28" s="34"/>
       <c r="D28" s="34"/>
       <c r="E28" s="34"/>
       <c r="F28" s="34"/>
       <c r="G28" s="34"/>
-      <c r="H28" s="37"/>
-      <c r="I28" s="37"/>
+      <c r="H28" s="33"/>
+      <c r="I28" s="33"/>
       <c r="J28" s="34"/>
       <c r="K28" s="34"/>
       <c r="L28" s="34"/>
       <c r="M28" s="34"/>
       <c r="N28" s="34"/>
-      <c r="O28" s="33"/>
-      <c r="P28" s="33"/>
+      <c r="O28" s="35"/>
+      <c r="P28" s="35"/>
       <c r="Q28" s="34"/>
       <c r="R28" s="34"/>
       <c r="S28" s="34"/>
@@ -5955,22 +5955,22 @@
       <c r="U28" s="34"/>
     </row>
     <row r="29" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A29" s="37"/>
-      <c r="B29" s="37"/>
+      <c r="A29" s="33"/>
+      <c r="B29" s="33"/>
       <c r="C29" s="34"/>
       <c r="D29" s="34"/>
       <c r="E29" s="34"/>
       <c r="F29" s="34"/>
       <c r="G29" s="34"/>
-      <c r="H29" s="37"/>
-      <c r="I29" s="37"/>
+      <c r="H29" s="33"/>
+      <c r="I29" s="33"/>
       <c r="J29" s="34"/>
       <c r="K29" s="34"/>
       <c r="L29" s="34"/>
       <c r="M29" s="34"/>
       <c r="N29" s="34"/>
-      <c r="O29" s="33"/>
-      <c r="P29" s="33"/>
+      <c r="O29" s="35"/>
+      <c r="P29" s="35"/>
       <c r="Q29" s="34"/>
       <c r="R29" s="34"/>
       <c r="S29" s="34"/>
@@ -5978,22 +5978,22 @@
       <c r="U29" s="34"/>
     </row>
     <row r="30" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A30" s="37"/>
-      <c r="B30" s="37"/>
+      <c r="A30" s="33"/>
+      <c r="B30" s="33"/>
       <c r="C30" s="34"/>
       <c r="D30" s="34"/>
       <c r="E30" s="34"/>
       <c r="F30" s="34"/>
       <c r="G30" s="34"/>
-      <c r="H30" s="37"/>
-      <c r="I30" s="37"/>
+      <c r="H30" s="33"/>
+      <c r="I30" s="33"/>
       <c r="J30" s="34"/>
       <c r="K30" s="34"/>
       <c r="L30" s="34"/>
       <c r="M30" s="34"/>
       <c r="N30" s="34"/>
-      <c r="O30" s="33"/>
-      <c r="P30" s="33"/>
+      <c r="O30" s="35"/>
+      <c r="P30" s="35"/>
       <c r="Q30" s="34"/>
       <c r="R30" s="34"/>
       <c r="S30" s="34"/>
@@ -6001,22 +6001,22 @@
       <c r="U30" s="34"/>
     </row>
     <row r="31" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A31" s="37"/>
-      <c r="B31" s="37"/>
+      <c r="A31" s="33"/>
+      <c r="B31" s="33"/>
       <c r="C31" s="34"/>
       <c r="D31" s="34"/>
       <c r="E31" s="34"/>
       <c r="F31" s="34"/>
       <c r="G31" s="34"/>
-      <c r="H31" s="37"/>
-      <c r="I31" s="37"/>
+      <c r="H31" s="33"/>
+      <c r="I31" s="33"/>
       <c r="J31" s="34"/>
       <c r="K31" s="34"/>
       <c r="L31" s="34"/>
       <c r="M31" s="34"/>
       <c r="N31" s="34"/>
-      <c r="O31" s="33"/>
-      <c r="P31" s="33"/>
+      <c r="O31" s="35"/>
+      <c r="P31" s="35"/>
       <c r="Q31" s="34"/>
       <c r="R31" s="34"/>
       <c r="S31" s="34"/>
@@ -6024,22 +6024,22 @@
       <c r="U31" s="34"/>
     </row>
     <row r="32" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A32" s="37"/>
-      <c r="B32" s="37"/>
+      <c r="A32" s="33"/>
+      <c r="B32" s="33"/>
       <c r="C32" s="34"/>
       <c r="D32" s="34"/>
       <c r="E32" s="34"/>
       <c r="F32" s="34"/>
       <c r="G32" s="34"/>
-      <c r="H32" s="37"/>
-      <c r="I32" s="37"/>
+      <c r="H32" s="33"/>
+      <c r="I32" s="33"/>
       <c r="J32" s="34"/>
       <c r="K32" s="34"/>
       <c r="L32" s="34"/>
       <c r="M32" s="34"/>
       <c r="N32" s="34"/>
-      <c r="O32" s="33"/>
-      <c r="P32" s="33"/>
+      <c r="O32" s="35"/>
+      <c r="P32" s="35"/>
       <c r="Q32" s="34"/>
       <c r="R32" s="34"/>
       <c r="S32" s="34"/>
@@ -6047,22 +6047,22 @@
       <c r="U32" s="34"/>
     </row>
     <row r="33" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A33" s="37"/>
-      <c r="B33" s="37"/>
+      <c r="A33" s="33"/>
+      <c r="B33" s="33"/>
       <c r="C33" s="34"/>
       <c r="D33" s="34"/>
       <c r="E33" s="34"/>
       <c r="F33" s="34"/>
       <c r="G33" s="34"/>
-      <c r="H33" s="37"/>
-      <c r="I33" s="37"/>
+      <c r="H33" s="33"/>
+      <c r="I33" s="33"/>
       <c r="J33" s="34"/>
       <c r="K33" s="34"/>
       <c r="L33" s="34"/>
       <c r="M33" s="34"/>
       <c r="N33" s="34"/>
-      <c r="O33" s="37"/>
-      <c r="P33" s="37"/>
+      <c r="O33" s="33"/>
+      <c r="P33" s="33"/>
       <c r="Q33" s="34"/>
       <c r="R33" s="34"/>
       <c r="S33" s="34"/>
@@ -6070,22 +6070,22 @@
       <c r="U33" s="34"/>
     </row>
     <row r="34" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A34" s="37"/>
-      <c r="B34" s="37"/>
+      <c r="A34" s="33"/>
+      <c r="B34" s="33"/>
       <c r="C34" s="34"/>
       <c r="D34" s="34"/>
       <c r="E34" s="34"/>
       <c r="F34" s="34"/>
       <c r="G34" s="34"/>
-      <c r="H34" s="37"/>
-      <c r="I34" s="37"/>
+      <c r="H34" s="33"/>
+      <c r="I34" s="33"/>
       <c r="J34" s="34"/>
       <c r="K34" s="34"/>
       <c r="L34" s="34"/>
       <c r="M34" s="34"/>
       <c r="N34" s="34"/>
-      <c r="O34" s="37"/>
-      <c r="P34" s="37"/>
+      <c r="O34" s="33"/>
+      <c r="P34" s="33"/>
       <c r="Q34" s="34"/>
       <c r="R34" s="34"/>
       <c r="S34" s="34"/>
@@ -6093,8 +6093,8 @@
       <c r="U34" s="34"/>
     </row>
     <row r="35" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A35" s="37"/>
-      <c r="B35" s="37"/>
+      <c r="A35" s="33"/>
+      <c r="B35" s="33"/>
       <c r="C35" s="34"/>
       <c r="D35" s="34"/>
       <c r="E35" s="34"/>
@@ -6103,140 +6103,85 @@
     </row>
   </sheetData>
   <mergeCells count="238">
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="C35:G35"/>
-    <mergeCell ref="H34:I34"/>
-    <mergeCell ref="J34:N34"/>
-    <mergeCell ref="O34:P34"/>
-    <mergeCell ref="Q34:U34"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="C34:G34"/>
-    <mergeCell ref="H33:I33"/>
-    <mergeCell ref="J33:N33"/>
-    <mergeCell ref="O33:P33"/>
-    <mergeCell ref="Q33:U33"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="C33:G33"/>
-    <mergeCell ref="H32:I32"/>
-    <mergeCell ref="J32:N32"/>
-    <mergeCell ref="O32:P32"/>
-    <mergeCell ref="Q32:U32"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="C32:G32"/>
-    <mergeCell ref="H31:I31"/>
-    <mergeCell ref="J31:N31"/>
-    <mergeCell ref="O31:P31"/>
-    <mergeCell ref="Q31:U31"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="C31:G31"/>
-    <mergeCell ref="H30:I30"/>
-    <mergeCell ref="J30:N30"/>
-    <mergeCell ref="O30:P30"/>
-    <mergeCell ref="Q30:U30"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="C30:G30"/>
-    <mergeCell ref="H29:I29"/>
-    <mergeCell ref="J29:N29"/>
-    <mergeCell ref="O29:P29"/>
-    <mergeCell ref="Q29:U29"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="C29:G29"/>
-    <mergeCell ref="H28:I28"/>
-    <mergeCell ref="J28:N28"/>
-    <mergeCell ref="O28:P28"/>
-    <mergeCell ref="Q28:U28"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="C28:G28"/>
-    <mergeCell ref="H27:I27"/>
-    <mergeCell ref="J27:N27"/>
-    <mergeCell ref="O27:P27"/>
-    <mergeCell ref="Q27:U27"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="C27:G27"/>
-    <mergeCell ref="H26:I26"/>
-    <mergeCell ref="J26:N26"/>
-    <mergeCell ref="O26:P26"/>
-    <mergeCell ref="Q26:U26"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="C26:G26"/>
-    <mergeCell ref="H25:I25"/>
-    <mergeCell ref="J25:N25"/>
-    <mergeCell ref="O25:P25"/>
-    <mergeCell ref="Q25:U25"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="C25:G25"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="J24:N24"/>
-    <mergeCell ref="O24:P24"/>
-    <mergeCell ref="Q24:U24"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="C24:G24"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="J23:N23"/>
-    <mergeCell ref="O23:P23"/>
-    <mergeCell ref="Q23:U23"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="C23:G23"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="J22:N22"/>
-    <mergeCell ref="V22:W22"/>
-    <mergeCell ref="X22:AB22"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="C22:G22"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="J21:N21"/>
-    <mergeCell ref="V21:W21"/>
-    <mergeCell ref="X21:AB21"/>
-    <mergeCell ref="O21:P21"/>
-    <mergeCell ref="Q21:U21"/>
-    <mergeCell ref="O22:P22"/>
-    <mergeCell ref="Q22:U22"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="C21:G21"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="J20:N20"/>
-    <mergeCell ref="V20:W20"/>
-    <mergeCell ref="X20:AB20"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="C20:G20"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="J19:N19"/>
-    <mergeCell ref="V19:W19"/>
-    <mergeCell ref="X19:AB19"/>
-    <mergeCell ref="O19:P19"/>
-    <mergeCell ref="Q19:U19"/>
-    <mergeCell ref="O20:P20"/>
-    <mergeCell ref="Q20:U20"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="C19:G19"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="J18:N18"/>
-    <mergeCell ref="V18:W18"/>
-    <mergeCell ref="X18:AB18"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C18:G18"/>
-    <mergeCell ref="V17:W17"/>
-    <mergeCell ref="X17:AB17"/>
-    <mergeCell ref="O17:P17"/>
-    <mergeCell ref="Q17:U17"/>
-    <mergeCell ref="O18:P18"/>
-    <mergeCell ref="Q18:U18"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="J17:N17"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="C17:G17"/>
-    <mergeCell ref="V15:W15"/>
-    <mergeCell ref="X15:AB15"/>
-    <mergeCell ref="O15:P15"/>
-    <mergeCell ref="Q15:U15"/>
-    <mergeCell ref="O16:P16"/>
-    <mergeCell ref="Q16:U16"/>
-    <mergeCell ref="V13:W13"/>
-    <mergeCell ref="J14:N14"/>
-    <mergeCell ref="V14:W14"/>
-    <mergeCell ref="X14:AB14"/>
-    <mergeCell ref="Q14:U14"/>
-    <mergeCell ref="V16:W16"/>
+    <mergeCell ref="V5:W5"/>
+    <mergeCell ref="X5:AB5"/>
+    <mergeCell ref="O5:P5"/>
+    <mergeCell ref="Q5:U5"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="V6:W6"/>
+    <mergeCell ref="X6:AB6"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="J4:N4"/>
+    <mergeCell ref="V4:W4"/>
+    <mergeCell ref="X4:AB4"/>
+    <mergeCell ref="O4:P4"/>
+    <mergeCell ref="Q4:U4"/>
+    <mergeCell ref="J5:N5"/>
+    <mergeCell ref="A1:G2"/>
+    <mergeCell ref="H1:N2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:G3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="V1:AB2"/>
+    <mergeCell ref="V3:W3"/>
+    <mergeCell ref="J3:N3"/>
+    <mergeCell ref="X3:AB3"/>
+    <mergeCell ref="O1:U2"/>
+    <mergeCell ref="O3:P3"/>
+    <mergeCell ref="Q3:U3"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:G9"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="J6:N6"/>
+    <mergeCell ref="V8:W8"/>
+    <mergeCell ref="X8:AB8"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:N7"/>
+    <mergeCell ref="V7:W7"/>
+    <mergeCell ref="X7:AB7"/>
+    <mergeCell ref="O7:P7"/>
+    <mergeCell ref="Q7:U7"/>
+    <mergeCell ref="Q8:U8"/>
+    <mergeCell ref="O8:P8"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="J8:N8"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="O6:P6"/>
+    <mergeCell ref="Q6:U6"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="J9:N9"/>
+    <mergeCell ref="V9:W9"/>
+    <mergeCell ref="X9:AB9"/>
+    <mergeCell ref="O9:P9"/>
+    <mergeCell ref="Q9:U9"/>
+    <mergeCell ref="O10:P10"/>
+    <mergeCell ref="Q10:U10"/>
+    <mergeCell ref="V11:W11"/>
+    <mergeCell ref="X11:AB11"/>
+    <mergeCell ref="O11:P11"/>
+    <mergeCell ref="Q11:U11"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="J11:N11"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:G11"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="J10:N10"/>
+    <mergeCell ref="V10:W10"/>
+    <mergeCell ref="X10:AB10"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C10:G10"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C13:G13"/>
     <mergeCell ref="H16:I16"/>
     <mergeCell ref="J16:N16"/>
     <mergeCell ref="V12:W12"/>
@@ -6261,86 +6206,141 @@
     <mergeCell ref="X16:AB16"/>
     <mergeCell ref="A16:B16"/>
     <mergeCell ref="C16:G16"/>
+    <mergeCell ref="V15:W15"/>
+    <mergeCell ref="X15:AB15"/>
+    <mergeCell ref="O15:P15"/>
+    <mergeCell ref="Q15:U15"/>
+    <mergeCell ref="O16:P16"/>
+    <mergeCell ref="Q16:U16"/>
+    <mergeCell ref="V13:W13"/>
+    <mergeCell ref="J14:N14"/>
+    <mergeCell ref="V14:W14"/>
+    <mergeCell ref="X14:AB14"/>
+    <mergeCell ref="Q14:U14"/>
+    <mergeCell ref="V16:W16"/>
     <mergeCell ref="O14:P14"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:G11"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="J10:N10"/>
-    <mergeCell ref="V10:W10"/>
-    <mergeCell ref="X10:AB10"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="C10:G10"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="C13:G13"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="J9:N9"/>
-    <mergeCell ref="V9:W9"/>
-    <mergeCell ref="X9:AB9"/>
-    <mergeCell ref="O9:P9"/>
-    <mergeCell ref="Q9:U9"/>
-    <mergeCell ref="O10:P10"/>
-    <mergeCell ref="Q10:U10"/>
-    <mergeCell ref="V11:W11"/>
-    <mergeCell ref="X11:AB11"/>
-    <mergeCell ref="O11:P11"/>
-    <mergeCell ref="Q11:U11"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="J11:N11"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="C9:G9"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="J6:N6"/>
-    <mergeCell ref="V8:W8"/>
-    <mergeCell ref="X8:AB8"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="C8:G8"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="J7:N7"/>
-    <mergeCell ref="V7:W7"/>
-    <mergeCell ref="X7:AB7"/>
-    <mergeCell ref="O7:P7"/>
-    <mergeCell ref="Q7:U7"/>
-    <mergeCell ref="Q8:U8"/>
-    <mergeCell ref="O8:P8"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="J8:N8"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="O6:P6"/>
-    <mergeCell ref="Q6:U6"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="A1:G2"/>
-    <mergeCell ref="H1:N2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:G3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="V1:AB2"/>
-    <mergeCell ref="V3:W3"/>
-    <mergeCell ref="J3:N3"/>
-    <mergeCell ref="X3:AB3"/>
-    <mergeCell ref="O1:U2"/>
-    <mergeCell ref="O3:P3"/>
-    <mergeCell ref="Q3:U3"/>
-    <mergeCell ref="V5:W5"/>
-    <mergeCell ref="X5:AB5"/>
-    <mergeCell ref="O5:P5"/>
-    <mergeCell ref="Q5:U5"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:G4"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="V6:W6"/>
-    <mergeCell ref="X6:AB6"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:G5"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="J4:N4"/>
-    <mergeCell ref="V4:W4"/>
-    <mergeCell ref="X4:AB4"/>
-    <mergeCell ref="O4:P4"/>
-    <mergeCell ref="Q4:U4"/>
-    <mergeCell ref="J5:N5"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="J18:N18"/>
+    <mergeCell ref="V18:W18"/>
+    <mergeCell ref="X18:AB18"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="V17:W17"/>
+    <mergeCell ref="X17:AB17"/>
+    <mergeCell ref="O17:P17"/>
+    <mergeCell ref="Q17:U17"/>
+    <mergeCell ref="O18:P18"/>
+    <mergeCell ref="Q18:U18"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="J17:N17"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C17:G17"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="J20:N20"/>
+    <mergeCell ref="V20:W20"/>
+    <mergeCell ref="X20:AB20"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="J19:N19"/>
+    <mergeCell ref="V19:W19"/>
+    <mergeCell ref="X19:AB19"/>
+    <mergeCell ref="O19:P19"/>
+    <mergeCell ref="Q19:U19"/>
+    <mergeCell ref="O20:P20"/>
+    <mergeCell ref="Q20:U20"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="J22:N22"/>
+    <mergeCell ref="V22:W22"/>
+    <mergeCell ref="X22:AB22"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="C22:G22"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="J21:N21"/>
+    <mergeCell ref="V21:W21"/>
+    <mergeCell ref="X21:AB21"/>
+    <mergeCell ref="O21:P21"/>
+    <mergeCell ref="Q21:U21"/>
+    <mergeCell ref="O22:P22"/>
+    <mergeCell ref="Q22:U22"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="J24:N24"/>
+    <mergeCell ref="O24:P24"/>
+    <mergeCell ref="Q24:U24"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="C24:G24"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="J23:N23"/>
+    <mergeCell ref="O23:P23"/>
+    <mergeCell ref="Q23:U23"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="C23:G23"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="J26:N26"/>
+    <mergeCell ref="O26:P26"/>
+    <mergeCell ref="Q26:U26"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="C26:G26"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="J25:N25"/>
+    <mergeCell ref="O25:P25"/>
+    <mergeCell ref="Q25:U25"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="C25:G25"/>
+    <mergeCell ref="H28:I28"/>
+    <mergeCell ref="J28:N28"/>
+    <mergeCell ref="O28:P28"/>
+    <mergeCell ref="Q28:U28"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="C28:G28"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="J27:N27"/>
+    <mergeCell ref="O27:P27"/>
+    <mergeCell ref="Q27:U27"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="C27:G27"/>
+    <mergeCell ref="H30:I30"/>
+    <mergeCell ref="J30:N30"/>
+    <mergeCell ref="O30:P30"/>
+    <mergeCell ref="Q30:U30"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="C30:G30"/>
+    <mergeCell ref="H29:I29"/>
+    <mergeCell ref="J29:N29"/>
+    <mergeCell ref="O29:P29"/>
+    <mergeCell ref="Q29:U29"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="C29:G29"/>
+    <mergeCell ref="H32:I32"/>
+    <mergeCell ref="J32:N32"/>
+    <mergeCell ref="O32:P32"/>
+    <mergeCell ref="Q32:U32"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="C32:G32"/>
+    <mergeCell ref="H31:I31"/>
+    <mergeCell ref="J31:N31"/>
+    <mergeCell ref="O31:P31"/>
+    <mergeCell ref="Q31:U31"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="C31:G31"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="C35:G35"/>
+    <mergeCell ref="H34:I34"/>
+    <mergeCell ref="J34:N34"/>
+    <mergeCell ref="O34:P34"/>
+    <mergeCell ref="Q34:U34"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="C34:G34"/>
+    <mergeCell ref="H33:I33"/>
+    <mergeCell ref="J33:N33"/>
+    <mergeCell ref="O33:P33"/>
+    <mergeCell ref="Q33:U33"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="C33:G33"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C16" r:id="rId1" xr:uid="{868F8F85-B252-4B04-B081-E9B23AD46A23}"/>
@@ -6677,14 +6677,12 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="E25:H25"/>
-    <mergeCell ref="E26:H26"/>
-    <mergeCell ref="E19:H19"/>
-    <mergeCell ref="E20:H20"/>
-    <mergeCell ref="E21:H21"/>
-    <mergeCell ref="E22:H22"/>
-    <mergeCell ref="E23:H23"/>
-    <mergeCell ref="E24:H24"/>
+    <mergeCell ref="E6:H6"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="E2:H2"/>
+    <mergeCell ref="E3:H3"/>
+    <mergeCell ref="E4:H4"/>
+    <mergeCell ref="E5:H5"/>
     <mergeCell ref="E18:H18"/>
     <mergeCell ref="E7:H7"/>
     <mergeCell ref="E8:H8"/>
@@ -6697,12 +6695,14 @@
     <mergeCell ref="E15:H15"/>
     <mergeCell ref="E16:H16"/>
     <mergeCell ref="E17:H17"/>
-    <mergeCell ref="E6:H6"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="E2:H2"/>
-    <mergeCell ref="E3:H3"/>
-    <mergeCell ref="E4:H4"/>
-    <mergeCell ref="E5:H5"/>
+    <mergeCell ref="E25:H25"/>
+    <mergeCell ref="E26:H26"/>
+    <mergeCell ref="E19:H19"/>
+    <mergeCell ref="E20:H20"/>
+    <mergeCell ref="E21:H21"/>
+    <mergeCell ref="E22:H22"/>
+    <mergeCell ref="E23:H23"/>
+    <mergeCell ref="E24:H24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7063,6 +7063,22 @@
     </row>
   </sheetData>
   <mergeCells count="28">
+    <mergeCell ref="D4:G4"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="D3:G3"/>
+    <mergeCell ref="D6:G6"/>
+    <mergeCell ref="D5:G5"/>
+    <mergeCell ref="D18:G18"/>
+    <mergeCell ref="D8:G8"/>
+    <mergeCell ref="D9:G9"/>
+    <mergeCell ref="D11:G11"/>
+    <mergeCell ref="D12:G12"/>
+    <mergeCell ref="D13:G13"/>
+    <mergeCell ref="D14:G14"/>
+    <mergeCell ref="D15:G15"/>
+    <mergeCell ref="D16:G16"/>
+    <mergeCell ref="D17:G17"/>
     <mergeCell ref="D30:G30"/>
     <mergeCell ref="D19:G19"/>
     <mergeCell ref="D20:G20"/>
@@ -7075,22 +7091,6 @@
     <mergeCell ref="D27:G27"/>
     <mergeCell ref="D28:G28"/>
     <mergeCell ref="D29:G29"/>
-    <mergeCell ref="D18:G18"/>
-    <mergeCell ref="D8:G8"/>
-    <mergeCell ref="D9:G9"/>
-    <mergeCell ref="D11:G11"/>
-    <mergeCell ref="D12:G12"/>
-    <mergeCell ref="D13:G13"/>
-    <mergeCell ref="D14:G14"/>
-    <mergeCell ref="D15:G15"/>
-    <mergeCell ref="D16:G16"/>
-    <mergeCell ref="D17:G17"/>
-    <mergeCell ref="D4:G4"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="D2:G2"/>
-    <mergeCell ref="D3:G3"/>
-    <mergeCell ref="D6:G6"/>
-    <mergeCell ref="D5:G5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/plans/todo.xlsx
+++ b/plans/todo.xlsx
@@ -8,17 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Edsquid\Documents\Personal Projects\Business\RogueLikeGame\plans\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68B97235-FA48-4DC4-BE34-7CBA0F33F725}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6B346AB-469B-4F22-8CD2-84538FF729F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7305" yWindow="1395" windowWidth="16215" windowHeight="13335" tabRatio="509" activeTab="2" xr2:uid="{BA1E511D-BF64-4842-98DF-72E30276ED1C}"/>
+    <workbookView xWindow="7305" yWindow="1395" windowWidth="16215" windowHeight="13335" tabRatio="509" activeTab="3" xr2:uid="{BA1E511D-BF64-4842-98DF-72E30276ED1C}"/>
   </bookViews>
   <sheets>
     <sheet name="Attributes" sheetId="3" r:id="rId1"/>
     <sheet name="Maps" sheetId="5" r:id="rId2"/>
     <sheet name="Characters" sheetId="4" r:id="rId3"/>
-    <sheet name="Weapons and Secondary" sheetId="2" r:id="rId4"/>
-    <sheet name="Enemies" sheetId="6" r:id="rId5"/>
-    <sheet name="Interactables" sheetId="7" r:id="rId6"/>
+    <sheet name="Achievements" sheetId="8" r:id="rId4"/>
+    <sheet name="Weapons and Secondary" sheetId="2" r:id="rId5"/>
+    <sheet name="Enemies" sheetId="6" r:id="rId6"/>
+    <sheet name="Interactables" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -1434,7 +1435,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1501,16 +1502,19 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1521,11 +1525,8 @@
     <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -1542,6 +1543,7 @@
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -4820,7 +4822,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADB02B54-F017-44DA-9118-EA158E750E4A}">
   <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
@@ -4957,6 +4959,23 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCF194B0-B750-47C3-A920-7899813FCE3E}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="16384" width="9.140625" style="47"/>
+  </cols>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E13E4A5-10AD-4171-99FD-31881C0A6C11}">
   <dimension ref="A1:AD35"/>
   <sheetViews>
@@ -4980,138 +4999,138 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="37"/>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37"/>
-      <c r="G1" s="37"/>
-      <c r="H1" s="37" t="s">
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="38" t="s">
         <v>156</v>
       </c>
-      <c r="I1" s="37"/>
-      <c r="J1" s="37"/>
-      <c r="K1" s="37"/>
-      <c r="L1" s="37"/>
-      <c r="M1" s="37"/>
-      <c r="N1" s="37"/>
-      <c r="O1" s="37" t="s">
+      <c r="I1" s="38"/>
+      <c r="J1" s="38"/>
+      <c r="K1" s="38"/>
+      <c r="L1" s="38"/>
+      <c r="M1" s="38"/>
+      <c r="N1" s="38"/>
+      <c r="O1" s="38" t="s">
         <v>157</v>
       </c>
-      <c r="P1" s="37"/>
-      <c r="Q1" s="37"/>
-      <c r="R1" s="37"/>
-      <c r="S1" s="37"/>
-      <c r="T1" s="37"/>
-      <c r="U1" s="37"/>
-      <c r="V1" s="37" t="s">
+      <c r="P1" s="38"/>
+      <c r="Q1" s="38"/>
+      <c r="R1" s="38"/>
+      <c r="S1" s="38"/>
+      <c r="T1" s="38"/>
+      <c r="U1" s="38"/>
+      <c r="V1" s="38" t="s">
         <v>30</v>
       </c>
-      <c r="W1" s="37"/>
-      <c r="X1" s="37"/>
-      <c r="Y1" s="37"/>
-      <c r="Z1" s="37"/>
-      <c r="AA1" s="37"/>
-      <c r="AB1" s="37"/>
+      <c r="W1" s="38"/>
+      <c r="X1" s="38"/>
+      <c r="Y1" s="38"/>
+      <c r="Z1" s="38"/>
+      <c r="AA1" s="38"/>
+      <c r="AB1" s="38"/>
       <c r="AD1" s="19" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="2" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="37"/>
-      <c r="B2" s="37"/>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="37"/>
-      <c r="H2" s="37"/>
-      <c r="I2" s="37"/>
-      <c r="J2" s="37"/>
-      <c r="K2" s="37"/>
-      <c r="L2" s="37"/>
-      <c r="M2" s="37"/>
-      <c r="N2" s="37"/>
-      <c r="O2" s="37"/>
-      <c r="P2" s="37"/>
-      <c r="Q2" s="37"/>
-      <c r="R2" s="37"/>
-      <c r="S2" s="37"/>
-      <c r="T2" s="37"/>
-      <c r="U2" s="37"/>
-      <c r="V2" s="37"/>
-      <c r="W2" s="37"/>
-      <c r="X2" s="37"/>
-      <c r="Y2" s="37"/>
-      <c r="Z2" s="37"/>
-      <c r="AA2" s="37"/>
-      <c r="AB2" s="37"/>
+      <c r="A2" s="38"/>
+      <c r="B2" s="38"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="38"/>
+      <c r="I2" s="38"/>
+      <c r="J2" s="38"/>
+      <c r="K2" s="38"/>
+      <c r="L2" s="38"/>
+      <c r="M2" s="38"/>
+      <c r="N2" s="38"/>
+      <c r="O2" s="38"/>
+      <c r="P2" s="38"/>
+      <c r="Q2" s="38"/>
+      <c r="R2" s="38"/>
+      <c r="S2" s="38"/>
+      <c r="T2" s="38"/>
+      <c r="U2" s="38"/>
+      <c r="V2" s="38"/>
+      <c r="W2" s="38"/>
+      <c r="X2" s="38"/>
+      <c r="Y2" s="38"/>
+      <c r="Z2" s="38"/>
+      <c r="AA2" s="38"/>
+      <c r="AB2" s="38"/>
     </row>
     <row r="3" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A3" s="38" t="s">
+      <c r="A3" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="B3" s="38"/>
-      <c r="C3" s="39" t="s">
+      <c r="B3" s="39"/>
+      <c r="C3" s="40" t="s">
         <v>31</v>
       </c>
-      <c r="D3" s="39"/>
-      <c r="E3" s="39"/>
-      <c r="F3" s="39"/>
-      <c r="G3" s="39"/>
-      <c r="H3" s="38" t="s">
+      <c r="D3" s="40"/>
+      <c r="E3" s="40"/>
+      <c r="F3" s="40"/>
+      <c r="G3" s="40"/>
+      <c r="H3" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="I3" s="38"/>
-      <c r="J3" s="39" t="s">
+      <c r="I3" s="39"/>
+      <c r="J3" s="40" t="s">
         <v>31</v>
       </c>
-      <c r="K3" s="39"/>
-      <c r="L3" s="39"/>
-      <c r="M3" s="39"/>
-      <c r="N3" s="39"/>
-      <c r="O3" s="38" t="s">
+      <c r="K3" s="40"/>
+      <c r="L3" s="40"/>
+      <c r="M3" s="40"/>
+      <c r="N3" s="40"/>
+      <c r="O3" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="P3" s="38"/>
-      <c r="Q3" s="39" t="s">
+      <c r="P3" s="39"/>
+      <c r="Q3" s="40" t="s">
         <v>31</v>
       </c>
-      <c r="R3" s="39"/>
-      <c r="S3" s="39"/>
-      <c r="T3" s="39"/>
-      <c r="U3" s="39"/>
-      <c r="V3" s="38" t="s">
+      <c r="R3" s="40"/>
+      <c r="S3" s="40"/>
+      <c r="T3" s="40"/>
+      <c r="U3" s="40"/>
+      <c r="V3" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="W3" s="38"/>
-      <c r="X3" s="39" t="s">
+      <c r="W3" s="39"/>
+      <c r="X3" s="40" t="s">
         <v>31</v>
       </c>
-      <c r="Y3" s="39"/>
-      <c r="Z3" s="39"/>
-      <c r="AA3" s="39"/>
-      <c r="AB3" s="39"/>
+      <c r="Y3" s="40"/>
+      <c r="Z3" s="40"/>
+      <c r="AA3" s="40"/>
+      <c r="AB3" s="40"/>
     </row>
     <row r="4" spans="1:30" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="40" t="s">
+      <c r="A4" s="35" t="s">
         <v>362</v>
       </c>
-      <c r="B4" s="40"/>
-      <c r="C4" s="41" t="s">
+      <c r="B4" s="35"/>
+      <c r="C4" s="36" t="s">
         <v>363</v>
       </c>
-      <c r="D4" s="41"/>
-      <c r="E4" s="41"/>
-      <c r="F4" s="41"/>
-      <c r="G4" s="41"/>
-      <c r="H4" s="33" t="s">
+      <c r="D4" s="36"/>
+      <c r="E4" s="36"/>
+      <c r="F4" s="36"/>
+      <c r="G4" s="36"/>
+      <c r="H4" s="37" t="s">
         <v>312</v>
       </c>
-      <c r="I4" s="33"/>
+      <c r="I4" s="37"/>
       <c r="J4" s="34" t="s">
         <v>37</v>
       </c>
@@ -5119,10 +5138,10 @@
       <c r="L4" s="34"/>
       <c r="M4" s="34"/>
       <c r="N4" s="34"/>
-      <c r="O4" s="35" t="s">
+      <c r="O4" s="33" t="s">
         <v>325</v>
       </c>
-      <c r="P4" s="35"/>
+      <c r="P4" s="33"/>
       <c r="Q4" s="34" t="s">
         <v>158</v>
       </c>
@@ -5130,10 +5149,10 @@
       <c r="S4" s="34"/>
       <c r="T4" s="34"/>
       <c r="U4" s="34"/>
-      <c r="V4" s="35" t="s">
+      <c r="V4" s="33" t="s">
         <v>44</v>
       </c>
-      <c r="W4" s="35"/>
+      <c r="W4" s="33"/>
       <c r="X4" s="34" t="s">
         <v>43</v>
       </c>
@@ -5143,10 +5162,10 @@
       <c r="AB4" s="34"/>
     </row>
     <row r="5" spans="1:30" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="33" t="s">
+      <c r="A5" s="37" t="s">
         <v>361</v>
       </c>
-      <c r="B5" s="33"/>
+      <c r="B5" s="37"/>
       <c r="C5" s="34" t="s">
         <v>36</v>
       </c>
@@ -5154,10 +5173,10 @@
       <c r="E5" s="34"/>
       <c r="F5" s="34"/>
       <c r="G5" s="34"/>
-      <c r="H5" s="33" t="s">
+      <c r="H5" s="37" t="s">
         <v>313</v>
       </c>
-      <c r="I5" s="33"/>
+      <c r="I5" s="37"/>
       <c r="J5" s="34" t="s">
         <v>314</v>
       </c>
@@ -5165,10 +5184,10 @@
       <c r="L5" s="34"/>
       <c r="M5" s="34"/>
       <c r="N5" s="34"/>
-      <c r="O5" s="35" t="s">
+      <c r="O5" s="33" t="s">
         <v>159</v>
       </c>
-      <c r="P5" s="35"/>
+      <c r="P5" s="33"/>
       <c r="Q5" s="34" t="s">
         <v>234</v>
       </c>
@@ -5176,10 +5195,10 @@
       <c r="S5" s="34"/>
       <c r="T5" s="34"/>
       <c r="U5" s="34"/>
-      <c r="V5" s="35" t="s">
+      <c r="V5" s="33" t="s">
         <v>45</v>
       </c>
-      <c r="W5" s="35"/>
+      <c r="W5" s="33"/>
       <c r="X5" s="34" t="s">
         <v>48</v>
       </c>
@@ -5189,10 +5208,10 @@
       <c r="AB5" s="34"/>
     </row>
     <row r="6" spans="1:30" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="33" t="s">
+      <c r="A6" s="37" t="s">
         <v>364</v>
       </c>
-      <c r="B6" s="33"/>
+      <c r="B6" s="37"/>
       <c r="C6" s="34" t="s">
         <v>221</v>
       </c>
@@ -5200,10 +5219,10 @@
       <c r="E6" s="34"/>
       <c r="F6" s="34"/>
       <c r="G6" s="34"/>
-      <c r="H6" s="33" t="s">
+      <c r="H6" s="37" t="s">
         <v>315</v>
       </c>
-      <c r="I6" s="33"/>
+      <c r="I6" s="37"/>
       <c r="J6" s="34" t="s">
         <v>39</v>
       </c>
@@ -5211,10 +5230,10 @@
       <c r="L6" s="34"/>
       <c r="M6" s="34"/>
       <c r="N6" s="34"/>
-      <c r="O6" s="35" t="s">
+      <c r="O6" s="33" t="s">
         <v>160</v>
       </c>
-      <c r="P6" s="35"/>
+      <c r="P6" s="33"/>
       <c r="Q6" s="34" t="s">
         <v>234</v>
       </c>
@@ -5222,10 +5241,10 @@
       <c r="S6" s="34"/>
       <c r="T6" s="34"/>
       <c r="U6" s="34"/>
-      <c r="V6" s="35" t="s">
+      <c r="V6" s="33" t="s">
         <v>46</v>
       </c>
-      <c r="W6" s="35"/>
+      <c r="W6" s="33"/>
       <c r="X6" s="34" t="s">
         <v>47</v>
       </c>
@@ -5235,10 +5254,10 @@
       <c r="AB6" s="34"/>
     </row>
     <row r="7" spans="1:30" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="33" t="s">
+      <c r="A7" s="37" t="s">
         <v>32</v>
       </c>
-      <c r="B7" s="33"/>
+      <c r="B7" s="37"/>
       <c r="C7" s="34" t="s">
         <v>40</v>
       </c>
@@ -5246,10 +5265,10 @@
       <c r="E7" s="34"/>
       <c r="F7" s="34"/>
       <c r="G7" s="34"/>
-      <c r="H7" s="33" t="s">
+      <c r="H7" s="37" t="s">
         <v>324</v>
       </c>
-      <c r="I7" s="33"/>
+      <c r="I7" s="37"/>
       <c r="J7" s="34" t="s">
         <v>360</v>
       </c>
@@ -5257,10 +5276,10 @@
       <c r="L7" s="34"/>
       <c r="M7" s="34"/>
       <c r="N7" s="34"/>
-      <c r="O7" s="35" t="s">
+      <c r="O7" s="33" t="s">
         <v>161</v>
       </c>
-      <c r="P7" s="35"/>
+      <c r="P7" s="33"/>
       <c r="Q7" s="34" t="s">
         <v>235</v>
       </c>
@@ -5268,10 +5287,10 @@
       <c r="S7" s="34"/>
       <c r="T7" s="34"/>
       <c r="U7" s="34"/>
-      <c r="V7" s="35" t="s">
+      <c r="V7" s="33" t="s">
         <v>358</v>
       </c>
-      <c r="W7" s="35"/>
+      <c r="W7" s="33"/>
       <c r="X7" s="34" t="s">
         <v>49</v>
       </c>
@@ -5281,10 +5300,10 @@
       <c r="AB7" s="34"/>
     </row>
     <row r="8" spans="1:30" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="33" t="s">
+      <c r="A8" s="37" t="s">
         <v>33</v>
       </c>
-      <c r="B8" s="33"/>
+      <c r="B8" s="37"/>
       <c r="C8" s="34" t="s">
         <v>35</v>
       </c>
@@ -5292,17 +5311,17 @@
       <c r="E8" s="34"/>
       <c r="F8" s="34"/>
       <c r="G8" s="34"/>
-      <c r="H8" s="33"/>
-      <c r="I8" s="33"/>
+      <c r="H8" s="37"/>
+      <c r="I8" s="37"/>
       <c r="J8" s="34"/>
       <c r="K8" s="34"/>
       <c r="L8" s="34"/>
       <c r="M8" s="34"/>
       <c r="N8" s="34"/>
-      <c r="O8" s="35" t="s">
+      <c r="O8" s="33" t="s">
         <v>330</v>
       </c>
-      <c r="P8" s="35"/>
+      <c r="P8" s="33"/>
       <c r="Q8" s="34" t="s">
         <v>235</v>
       </c>
@@ -5310,10 +5329,10 @@
       <c r="S8" s="34"/>
       <c r="T8" s="34"/>
       <c r="U8" s="34"/>
-      <c r="V8" s="35" t="s">
+      <c r="V8" s="33" t="s">
         <v>50</v>
       </c>
-      <c r="W8" s="35"/>
+      <c r="W8" s="33"/>
       <c r="X8" s="34" t="s">
         <v>43</v>
       </c>
@@ -5323,10 +5342,10 @@
       <c r="AB8" s="34"/>
     </row>
     <row r="9" spans="1:30" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="33" t="s">
+      <c r="A9" s="37" t="s">
         <v>328</v>
       </c>
-      <c r="B9" s="33"/>
+      <c r="B9" s="37"/>
       <c r="C9" s="34" t="s">
         <v>220</v>
       </c>
@@ -5334,10 +5353,10 @@
       <c r="E9" s="34"/>
       <c r="F9" s="34"/>
       <c r="G9" s="34"/>
-      <c r="H9" s="33" t="s">
+      <c r="H9" s="37" t="s">
         <v>323</v>
       </c>
-      <c r="I9" s="33"/>
+      <c r="I9" s="37"/>
       <c r="J9" s="34" t="s">
         <v>326</v>
       </c>
@@ -5345,10 +5364,10 @@
       <c r="L9" s="34"/>
       <c r="M9" s="34"/>
       <c r="N9" s="34"/>
-      <c r="O9" s="35" t="s">
+      <c r="O9" s="33" t="s">
         <v>319</v>
       </c>
-      <c r="P9" s="35"/>
+      <c r="P9" s="33"/>
       <c r="Q9" s="34" t="s">
         <v>281</v>
       </c>
@@ -5356,10 +5375,10 @@
       <c r="S9" s="34"/>
       <c r="T9" s="34"/>
       <c r="U9" s="34"/>
-      <c r="V9" s="35" t="s">
+      <c r="V9" s="33" t="s">
         <v>51</v>
       </c>
-      <c r="W9" s="35"/>
+      <c r="W9" s="33"/>
       <c r="X9" s="34" t="s">
         <v>52</v>
       </c>
@@ -5369,24 +5388,24 @@
       <c r="AB9" s="34"/>
     </row>
     <row r="10" spans="1:30" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="33"/>
-      <c r="B10" s="33"/>
+      <c r="A10" s="37"/>
+      <c r="B10" s="37"/>
       <c r="C10" s="34"/>
       <c r="D10" s="34"/>
       <c r="E10" s="34"/>
       <c r="F10" s="34"/>
       <c r="G10" s="34"/>
-      <c r="H10" s="33"/>
-      <c r="I10" s="33"/>
+      <c r="H10" s="37"/>
+      <c r="I10" s="37"/>
       <c r="J10" s="34"/>
       <c r="K10" s="34"/>
       <c r="L10" s="34"/>
       <c r="M10" s="34"/>
       <c r="N10" s="34"/>
-      <c r="O10" s="35" t="s">
+      <c r="O10" s="33" t="s">
         <v>316</v>
       </c>
-      <c r="P10" s="35"/>
+      <c r="P10" s="33"/>
       <c r="Q10" s="34" t="s">
         <v>317</v>
       </c>
@@ -5394,10 +5413,10 @@
       <c r="S10" s="34"/>
       <c r="T10" s="34"/>
       <c r="U10" s="34"/>
-      <c r="V10" s="35" t="s">
+      <c r="V10" s="33" t="s">
         <v>54</v>
       </c>
-      <c r="W10" s="35"/>
+      <c r="W10" s="33"/>
       <c r="X10" s="34" t="s">
         <v>55</v>
       </c>
@@ -5407,10 +5426,10 @@
       <c r="AB10" s="34"/>
     </row>
     <row r="11" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="33" t="s">
+      <c r="A11" s="37" t="s">
         <v>34</v>
       </c>
-      <c r="B11" s="33"/>
+      <c r="B11" s="37"/>
       <c r="C11" s="34" t="s">
         <v>41</v>
       </c>
@@ -5418,10 +5437,10 @@
       <c r="E11" s="34"/>
       <c r="F11" s="34"/>
       <c r="G11" s="34"/>
-      <c r="H11" s="33" t="s">
+      <c r="H11" s="37" t="s">
         <v>322</v>
       </c>
-      <c r="I11" s="33"/>
+      <c r="I11" s="37"/>
       <c r="J11" s="34" t="s">
         <v>42</v>
       </c>
@@ -5429,10 +5448,10 @@
       <c r="L11" s="34"/>
       <c r="M11" s="34"/>
       <c r="N11" s="34"/>
-      <c r="O11" s="35" t="s">
+      <c r="O11" s="33" t="s">
         <v>318</v>
       </c>
-      <c r="P11" s="35"/>
+      <c r="P11" s="33"/>
       <c r="Q11" s="34" t="s">
         <v>359</v>
       </c>
@@ -5440,10 +5459,10 @@
       <c r="S11" s="34"/>
       <c r="T11" s="34"/>
       <c r="U11" s="34"/>
-      <c r="V11" s="35" t="s">
+      <c r="V11" s="33" t="s">
         <v>56</v>
       </c>
-      <c r="W11" s="35"/>
+      <c r="W11" s="33"/>
       <c r="X11" s="34" t="s">
         <v>57</v>
       </c>
@@ -5453,10 +5472,10 @@
       <c r="AB11" s="34"/>
     </row>
     <row r="12" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="33" t="s">
+      <c r="A12" s="37" t="s">
         <v>222</v>
       </c>
-      <c r="B12" s="33"/>
+      <c r="B12" s="37"/>
       <c r="C12" s="34" t="s">
         <v>228</v>
       </c>
@@ -5464,10 +5483,10 @@
       <c r="E12" s="34"/>
       <c r="F12" s="34"/>
       <c r="G12" s="34"/>
-      <c r="H12" s="33" t="s">
+      <c r="H12" s="37" t="s">
         <v>321</v>
       </c>
-      <c r="I12" s="33"/>
+      <c r="I12" s="37"/>
       <c r="J12" s="34" t="s">
         <v>219</v>
       </c>
@@ -5475,15 +5494,15 @@
       <c r="L12" s="34"/>
       <c r="M12" s="34"/>
       <c r="N12" s="34"/>
-      <c r="O12" s="35"/>
-      <c r="P12" s="35"/>
+      <c r="O12" s="33"/>
+      <c r="P12" s="33"/>
       <c r="Q12" s="34"/>
       <c r="R12" s="34"/>
       <c r="S12" s="34"/>
       <c r="T12" s="34"/>
       <c r="U12" s="34"/>
-      <c r="V12" s="35"/>
-      <c r="W12" s="35"/>
+      <c r="V12" s="33"/>
+      <c r="W12" s="33"/>
       <c r="X12" s="34"/>
       <c r="Y12" s="34"/>
       <c r="Z12" s="34"/>
@@ -5491,17 +5510,17 @@
       <c r="AB12" s="34"/>
     </row>
     <row r="13" spans="1:30" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="33"/>
-      <c r="B13" s="33"/>
-      <c r="C13" s="36"/>
-      <c r="D13" s="36"/>
-      <c r="E13" s="36"/>
-      <c r="F13" s="36"/>
-      <c r="G13" s="36"/>
-      <c r="H13" s="33" t="s">
+      <c r="A13" s="37"/>
+      <c r="B13" s="37"/>
+      <c r="C13" s="41"/>
+      <c r="D13" s="41"/>
+      <c r="E13" s="41"/>
+      <c r="F13" s="41"/>
+      <c r="G13" s="41"/>
+      <c r="H13" s="37" t="s">
         <v>327</v>
       </c>
-      <c r="I13" s="33"/>
+      <c r="I13" s="37"/>
       <c r="J13" s="34" t="s">
         <v>38</v>
       </c>
@@ -5509,10 +5528,10 @@
       <c r="L13" s="34"/>
       <c r="M13" s="34"/>
       <c r="N13" s="34"/>
-      <c r="O13" s="35" t="s">
+      <c r="O13" s="33" t="s">
         <v>320</v>
       </c>
-      <c r="P13" s="35"/>
+      <c r="P13" s="33"/>
       <c r="Q13" s="34" t="s">
         <v>162</v>
       </c>
@@ -5520,10 +5539,10 @@
       <c r="S13" s="34"/>
       <c r="T13" s="34"/>
       <c r="U13" s="34"/>
-      <c r="V13" s="33" t="s">
+      <c r="V13" s="37" t="s">
         <v>229</v>
       </c>
-      <c r="W13" s="33"/>
+      <c r="W13" s="37"/>
       <c r="X13" s="34" t="s">
         <v>49</v>
       </c>
@@ -5533,33 +5552,33 @@
       <c r="AB13" s="34"/>
     </row>
     <row r="14" spans="1:30" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="33" t="s">
+      <c r="A14" s="37" t="s">
         <v>227</v>
       </c>
-      <c r="B14" s="33"/>
-      <c r="C14" s="36" t="s">
+      <c r="B14" s="37"/>
+      <c r="C14" s="41" t="s">
         <v>226</v>
       </c>
-      <c r="D14" s="36"/>
-      <c r="E14" s="36"/>
-      <c r="F14" s="36"/>
-      <c r="G14" s="36"/>
-      <c r="H14" s="33"/>
-      <c r="I14" s="33"/>
+      <c r="D14" s="41"/>
+      <c r="E14" s="41"/>
+      <c r="F14" s="41"/>
+      <c r="G14" s="41"/>
+      <c r="H14" s="37"/>
+      <c r="I14" s="37"/>
       <c r="J14" s="34"/>
       <c r="K14" s="34"/>
       <c r="L14" s="34"/>
       <c r="M14" s="34"/>
       <c r="N14" s="34"/>
-      <c r="O14" s="35"/>
-      <c r="P14" s="35"/>
+      <c r="O14" s="33"/>
+      <c r="P14" s="33"/>
       <c r="Q14" s="34"/>
       <c r="R14" s="34"/>
       <c r="S14" s="34"/>
       <c r="T14" s="34"/>
       <c r="U14" s="34"/>
-      <c r="V14" s="35"/>
-      <c r="W14" s="35"/>
+      <c r="V14" s="33"/>
+      <c r="W14" s="33"/>
       <c r="X14" s="34"/>
       <c r="Y14" s="34"/>
       <c r="Z14" s="34"/>
@@ -5567,33 +5586,33 @@
       <c r="AB14" s="34"/>
     </row>
     <row r="15" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A15" s="33" t="s">
+      <c r="A15" s="37" t="s">
         <v>231</v>
       </c>
-      <c r="B15" s="33"/>
-      <c r="C15" s="36" t="s">
+      <c r="B15" s="37"/>
+      <c r="C15" s="41" t="s">
         <v>230</v>
       </c>
-      <c r="D15" s="36"/>
-      <c r="E15" s="36"/>
-      <c r="F15" s="36"/>
-      <c r="G15" s="36"/>
-      <c r="H15" s="33"/>
-      <c r="I15" s="33"/>
+      <c r="D15" s="41"/>
+      <c r="E15" s="41"/>
+      <c r="F15" s="41"/>
+      <c r="G15" s="41"/>
+      <c r="H15" s="37"/>
+      <c r="I15" s="37"/>
       <c r="J15" s="34"/>
       <c r="K15" s="34"/>
       <c r="L15" s="34"/>
       <c r="M15" s="34"/>
       <c r="N15" s="34"/>
-      <c r="O15" s="35"/>
-      <c r="P15" s="35"/>
+      <c r="O15" s="33"/>
+      <c r="P15" s="33"/>
       <c r="Q15" s="34"/>
       <c r="R15" s="34"/>
       <c r="S15" s="34"/>
       <c r="T15" s="34"/>
       <c r="U15" s="34"/>
-      <c r="V15" s="35"/>
-      <c r="W15" s="35"/>
+      <c r="V15" s="33"/>
+      <c r="W15" s="33"/>
       <c r="X15" s="34"/>
       <c r="Y15" s="34"/>
       <c r="Z15" s="34"/>
@@ -5601,33 +5620,33 @@
       <c r="AB15" s="34"/>
     </row>
     <row r="16" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A16" s="33" t="s">
+      <c r="A16" s="37" t="s">
         <v>232</v>
       </c>
-      <c r="B16" s="33"/>
-      <c r="C16" s="36" t="s">
+      <c r="B16" s="37"/>
+      <c r="C16" s="41" t="s">
         <v>233</v>
       </c>
       <c r="D16" s="34"/>
       <c r="E16" s="34"/>
       <c r="F16" s="34"/>
       <c r="G16" s="34"/>
-      <c r="H16" s="33"/>
-      <c r="I16" s="33"/>
+      <c r="H16" s="37"/>
+      <c r="I16" s="37"/>
       <c r="J16" s="34"/>
       <c r="K16" s="34"/>
       <c r="L16" s="34"/>
       <c r="M16" s="34"/>
       <c r="N16" s="34"/>
-      <c r="O16" s="35"/>
-      <c r="P16" s="35"/>
+      <c r="O16" s="33"/>
+      <c r="P16" s="33"/>
       <c r="Q16" s="34"/>
       <c r="R16" s="34"/>
       <c r="S16" s="34"/>
       <c r="T16" s="34"/>
       <c r="U16" s="34"/>
-      <c r="V16" s="35"/>
-      <c r="W16" s="35"/>
+      <c r="V16" s="33"/>
+      <c r="W16" s="33"/>
       <c r="X16" s="34"/>
       <c r="Y16" s="34"/>
       <c r="Z16" s="34"/>
@@ -5635,31 +5654,31 @@
       <c r="AB16" s="34"/>
     </row>
     <row r="17" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A17" s="33" t="s">
+      <c r="A17" s="37" t="s">
         <v>331</v>
       </c>
-      <c r="B17" s="33"/>
+      <c r="B17" s="37"/>
       <c r="C17" s="34"/>
       <c r="D17" s="34"/>
       <c r="E17" s="34"/>
       <c r="F17" s="34"/>
       <c r="G17" s="34"/>
-      <c r="H17" s="33"/>
-      <c r="I17" s="33"/>
+      <c r="H17" s="37"/>
+      <c r="I17" s="37"/>
       <c r="J17" s="34"/>
       <c r="K17" s="34"/>
       <c r="L17" s="34"/>
       <c r="M17" s="34"/>
       <c r="N17" s="34"/>
-      <c r="O17" s="35"/>
-      <c r="P17" s="35"/>
+      <c r="O17" s="33"/>
+      <c r="P17" s="33"/>
       <c r="Q17" s="34"/>
       <c r="R17" s="34"/>
       <c r="S17" s="34"/>
       <c r="T17" s="34"/>
       <c r="U17" s="34"/>
-      <c r="V17" s="35"/>
-      <c r="W17" s="35"/>
+      <c r="V17" s="33"/>
+      <c r="W17" s="33"/>
       <c r="X17" s="34"/>
       <c r="Y17" s="34"/>
       <c r="Z17" s="34"/>
@@ -5667,29 +5686,29 @@
       <c r="AB17" s="34"/>
     </row>
     <row r="18" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A18" s="33"/>
-      <c r="B18" s="33"/>
+      <c r="A18" s="37"/>
+      <c r="B18" s="37"/>
       <c r="C18" s="34"/>
       <c r="D18" s="34"/>
       <c r="E18" s="34"/>
       <c r="F18" s="34"/>
       <c r="G18" s="34"/>
-      <c r="H18" s="33"/>
-      <c r="I18" s="33"/>
+      <c r="H18" s="37"/>
+      <c r="I18" s="37"/>
       <c r="J18" s="34"/>
       <c r="K18" s="34"/>
       <c r="L18" s="34"/>
       <c r="M18" s="34"/>
       <c r="N18" s="34"/>
-      <c r="O18" s="35"/>
-      <c r="P18" s="35"/>
+      <c r="O18" s="33"/>
+      <c r="P18" s="33"/>
       <c r="Q18" s="34"/>
       <c r="R18" s="34"/>
       <c r="S18" s="34"/>
       <c r="T18" s="34"/>
       <c r="U18" s="34"/>
-      <c r="V18" s="35"/>
-      <c r="W18" s="35"/>
+      <c r="V18" s="33"/>
+      <c r="W18" s="33"/>
       <c r="X18" s="34"/>
       <c r="Y18" s="34"/>
       <c r="Z18" s="34"/>
@@ -5697,29 +5716,29 @@
       <c r="AB18" s="34"/>
     </row>
     <row r="19" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A19" s="33"/>
-      <c r="B19" s="33"/>
+      <c r="A19" s="37"/>
+      <c r="B19" s="37"/>
       <c r="C19" s="34"/>
       <c r="D19" s="34"/>
       <c r="E19" s="34"/>
       <c r="F19" s="34"/>
       <c r="G19" s="34"/>
-      <c r="H19" s="33"/>
-      <c r="I19" s="33"/>
+      <c r="H19" s="37"/>
+      <c r="I19" s="37"/>
       <c r="J19" s="34"/>
       <c r="K19" s="34"/>
       <c r="L19" s="34"/>
       <c r="M19" s="34"/>
       <c r="N19" s="34"/>
-      <c r="O19" s="35"/>
-      <c r="P19" s="35"/>
+      <c r="O19" s="33"/>
+      <c r="P19" s="33"/>
       <c r="Q19" s="34"/>
       <c r="R19" s="34"/>
       <c r="S19" s="34"/>
       <c r="T19" s="34"/>
       <c r="U19" s="34"/>
-      <c r="V19" s="35"/>
-      <c r="W19" s="35"/>
+      <c r="V19" s="33"/>
+      <c r="W19" s="33"/>
       <c r="X19" s="34"/>
       <c r="Y19" s="34"/>
       <c r="Z19" s="34"/>
@@ -5727,29 +5746,29 @@
       <c r="AB19" s="34"/>
     </row>
     <row r="20" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A20" s="33"/>
-      <c r="B20" s="33"/>
+      <c r="A20" s="37"/>
+      <c r="B20" s="37"/>
       <c r="C20" s="34"/>
       <c r="D20" s="34"/>
       <c r="E20" s="34"/>
       <c r="F20" s="34"/>
       <c r="G20" s="34"/>
-      <c r="H20" s="33"/>
-      <c r="I20" s="33"/>
+      <c r="H20" s="37"/>
+      <c r="I20" s="37"/>
       <c r="J20" s="34"/>
       <c r="K20" s="34"/>
       <c r="L20" s="34"/>
       <c r="M20" s="34"/>
       <c r="N20" s="34"/>
-      <c r="O20" s="35"/>
-      <c r="P20" s="35"/>
+      <c r="O20" s="33"/>
+      <c r="P20" s="33"/>
       <c r="Q20" s="34"/>
       <c r="R20" s="34"/>
       <c r="S20" s="34"/>
       <c r="T20" s="34"/>
       <c r="U20" s="34"/>
-      <c r="V20" s="35"/>
-      <c r="W20" s="35"/>
+      <c r="V20" s="33"/>
+      <c r="W20" s="33"/>
       <c r="X20" s="34"/>
       <c r="Y20" s="34"/>
       <c r="Z20" s="34"/>
@@ -5757,29 +5776,29 @@
       <c r="AB20" s="34"/>
     </row>
     <row r="21" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A21" s="33"/>
-      <c r="B21" s="33"/>
+      <c r="A21" s="37"/>
+      <c r="B21" s="37"/>
       <c r="C21" s="34"/>
       <c r="D21" s="34"/>
       <c r="E21" s="34"/>
       <c r="F21" s="34"/>
       <c r="G21" s="34"/>
-      <c r="H21" s="33"/>
-      <c r="I21" s="33"/>
+      <c r="H21" s="37"/>
+      <c r="I21" s="37"/>
       <c r="J21" s="34"/>
       <c r="K21" s="34"/>
       <c r="L21" s="34"/>
       <c r="M21" s="34"/>
       <c r="N21" s="34"/>
-      <c r="O21" s="35"/>
-      <c r="P21" s="35"/>
+      <c r="O21" s="33"/>
+      <c r="P21" s="33"/>
       <c r="Q21" s="34"/>
       <c r="R21" s="34"/>
       <c r="S21" s="34"/>
       <c r="T21" s="34"/>
       <c r="U21" s="34"/>
-      <c r="V21" s="35"/>
-      <c r="W21" s="35"/>
+      <c r="V21" s="33"/>
+      <c r="W21" s="33"/>
       <c r="X21" s="34"/>
       <c r="Y21" s="34"/>
       <c r="Z21" s="34"/>
@@ -5787,29 +5806,29 @@
       <c r="AB21" s="34"/>
     </row>
     <row r="22" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A22" s="33"/>
-      <c r="B22" s="33"/>
+      <c r="A22" s="37"/>
+      <c r="B22" s="37"/>
       <c r="C22" s="34"/>
       <c r="D22" s="34"/>
       <c r="E22" s="34"/>
       <c r="F22" s="34"/>
       <c r="G22" s="34"/>
-      <c r="H22" s="33"/>
-      <c r="I22" s="33"/>
+      <c r="H22" s="37"/>
+      <c r="I22" s="37"/>
       <c r="J22" s="34"/>
       <c r="K22" s="34"/>
       <c r="L22" s="34"/>
       <c r="M22" s="34"/>
       <c r="N22" s="34"/>
-      <c r="O22" s="35"/>
-      <c r="P22" s="35"/>
+      <c r="O22" s="33"/>
+      <c r="P22" s="33"/>
       <c r="Q22" s="34"/>
       <c r="R22" s="34"/>
       <c r="S22" s="34"/>
       <c r="T22" s="34"/>
       <c r="U22" s="34"/>
-      <c r="V22" s="35"/>
-      <c r="W22" s="35"/>
+      <c r="V22" s="33"/>
+      <c r="W22" s="33"/>
       <c r="X22" s="34"/>
       <c r="Y22" s="34"/>
       <c r="Z22" s="34"/>
@@ -5817,22 +5836,22 @@
       <c r="AB22" s="34"/>
     </row>
     <row r="23" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A23" s="33"/>
-      <c r="B23" s="33"/>
+      <c r="A23" s="37"/>
+      <c r="B23" s="37"/>
       <c r="C23" s="34"/>
       <c r="D23" s="34"/>
       <c r="E23" s="34"/>
       <c r="F23" s="34"/>
       <c r="G23" s="34"/>
-      <c r="H23" s="33"/>
-      <c r="I23" s="33"/>
+      <c r="H23" s="37"/>
+      <c r="I23" s="37"/>
       <c r="J23" s="34"/>
       <c r="K23" s="34"/>
       <c r="L23" s="34"/>
       <c r="M23" s="34"/>
       <c r="N23" s="34"/>
-      <c r="O23" s="35"/>
-      <c r="P23" s="35"/>
+      <c r="O23" s="33"/>
+      <c r="P23" s="33"/>
       <c r="Q23" s="34"/>
       <c r="R23" s="34"/>
       <c r="S23" s="34"/>
@@ -5840,22 +5859,22 @@
       <c r="U23" s="34"/>
     </row>
     <row r="24" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A24" s="33"/>
-      <c r="B24" s="33"/>
+      <c r="A24" s="37"/>
+      <c r="B24" s="37"/>
       <c r="C24" s="34"/>
       <c r="D24" s="34"/>
       <c r="E24" s="34"/>
       <c r="F24" s="34"/>
       <c r="G24" s="34"/>
-      <c r="H24" s="33"/>
-      <c r="I24" s="33"/>
+      <c r="H24" s="37"/>
+      <c r="I24" s="37"/>
       <c r="J24" s="34"/>
       <c r="K24" s="34"/>
       <c r="L24" s="34"/>
       <c r="M24" s="34"/>
       <c r="N24" s="34"/>
-      <c r="O24" s="35"/>
-      <c r="P24" s="35"/>
+      <c r="O24" s="33"/>
+      <c r="P24" s="33"/>
       <c r="Q24" s="34"/>
       <c r="R24" s="34"/>
       <c r="S24" s="34"/>
@@ -5863,22 +5882,22 @@
       <c r="U24" s="34"/>
     </row>
     <row r="25" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A25" s="33"/>
-      <c r="B25" s="33"/>
+      <c r="A25" s="37"/>
+      <c r="B25" s="37"/>
       <c r="C25" s="34"/>
       <c r="D25" s="34"/>
       <c r="E25" s="34"/>
       <c r="F25" s="34"/>
       <c r="G25" s="34"/>
-      <c r="H25" s="33"/>
-      <c r="I25" s="33"/>
+      <c r="H25" s="37"/>
+      <c r="I25" s="37"/>
       <c r="J25" s="34"/>
       <c r="K25" s="34"/>
       <c r="L25" s="34"/>
       <c r="M25" s="34"/>
       <c r="N25" s="34"/>
-      <c r="O25" s="35"/>
-      <c r="P25" s="35"/>
+      <c r="O25" s="33"/>
+      <c r="P25" s="33"/>
       <c r="Q25" s="34"/>
       <c r="R25" s="34"/>
       <c r="S25" s="34"/>
@@ -5886,22 +5905,22 @@
       <c r="U25" s="34"/>
     </row>
     <row r="26" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A26" s="33"/>
-      <c r="B26" s="33"/>
+      <c r="A26" s="37"/>
+      <c r="B26" s="37"/>
       <c r="C26" s="34"/>
       <c r="D26" s="34"/>
       <c r="E26" s="34"/>
       <c r="F26" s="34"/>
       <c r="G26" s="34"/>
-      <c r="H26" s="33"/>
-      <c r="I26" s="33"/>
+      <c r="H26" s="37"/>
+      <c r="I26" s="37"/>
       <c r="J26" s="34"/>
       <c r="K26" s="34"/>
       <c r="L26" s="34"/>
       <c r="M26" s="34"/>
       <c r="N26" s="34"/>
-      <c r="O26" s="35"/>
-      <c r="P26" s="35"/>
+      <c r="O26" s="33"/>
+      <c r="P26" s="33"/>
       <c r="Q26" s="34"/>
       <c r="R26" s="34"/>
       <c r="S26" s="34"/>
@@ -5909,22 +5928,22 @@
       <c r="U26" s="34"/>
     </row>
     <row r="27" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A27" s="33"/>
-      <c r="B27" s="33"/>
+      <c r="A27" s="37"/>
+      <c r="B27" s="37"/>
       <c r="C27" s="34"/>
       <c r="D27" s="34"/>
       <c r="E27" s="34"/>
       <c r="F27" s="34"/>
       <c r="G27" s="34"/>
-      <c r="H27" s="33"/>
-      <c r="I27" s="33"/>
+      <c r="H27" s="37"/>
+      <c r="I27" s="37"/>
       <c r="J27" s="34"/>
       <c r="K27" s="34"/>
       <c r="L27" s="34"/>
       <c r="M27" s="34"/>
       <c r="N27" s="34"/>
-      <c r="O27" s="35"/>
-      <c r="P27" s="35"/>
+      <c r="O27" s="33"/>
+      <c r="P27" s="33"/>
       <c r="Q27" s="34"/>
       <c r="R27" s="34"/>
       <c r="S27" s="34"/>
@@ -5932,22 +5951,22 @@
       <c r="U27" s="34"/>
     </row>
     <row r="28" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A28" s="33"/>
-      <c r="B28" s="33"/>
+      <c r="A28" s="37"/>
+      <c r="B28" s="37"/>
       <c r="C28" s="34"/>
       <c r="D28" s="34"/>
       <c r="E28" s="34"/>
       <c r="F28" s="34"/>
       <c r="G28" s="34"/>
-      <c r="H28" s="33"/>
-      <c r="I28" s="33"/>
+      <c r="H28" s="37"/>
+      <c r="I28" s="37"/>
       <c r="J28" s="34"/>
       <c r="K28" s="34"/>
       <c r="L28" s="34"/>
       <c r="M28" s="34"/>
       <c r="N28" s="34"/>
-      <c r="O28" s="35"/>
-      <c r="P28" s="35"/>
+      <c r="O28" s="33"/>
+      <c r="P28" s="33"/>
       <c r="Q28" s="34"/>
       <c r="R28" s="34"/>
       <c r="S28" s="34"/>
@@ -5955,22 +5974,22 @@
       <c r="U28" s="34"/>
     </row>
     <row r="29" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A29" s="33"/>
-      <c r="B29" s="33"/>
+      <c r="A29" s="37"/>
+      <c r="B29" s="37"/>
       <c r="C29" s="34"/>
       <c r="D29" s="34"/>
       <c r="E29" s="34"/>
       <c r="F29" s="34"/>
       <c r="G29" s="34"/>
-      <c r="H29" s="33"/>
-      <c r="I29" s="33"/>
+      <c r="H29" s="37"/>
+      <c r="I29" s="37"/>
       <c r="J29" s="34"/>
       <c r="K29" s="34"/>
       <c r="L29" s="34"/>
       <c r="M29" s="34"/>
       <c r="N29" s="34"/>
-      <c r="O29" s="35"/>
-      <c r="P29" s="35"/>
+      <c r="O29" s="33"/>
+      <c r="P29" s="33"/>
       <c r="Q29" s="34"/>
       <c r="R29" s="34"/>
       <c r="S29" s="34"/>
@@ -5978,22 +5997,22 @@
       <c r="U29" s="34"/>
     </row>
     <row r="30" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A30" s="33"/>
-      <c r="B30" s="33"/>
+      <c r="A30" s="37"/>
+      <c r="B30" s="37"/>
       <c r="C30" s="34"/>
       <c r="D30" s="34"/>
       <c r="E30" s="34"/>
       <c r="F30" s="34"/>
       <c r="G30" s="34"/>
-      <c r="H30" s="33"/>
-      <c r="I30" s="33"/>
+      <c r="H30" s="37"/>
+      <c r="I30" s="37"/>
       <c r="J30" s="34"/>
       <c r="K30" s="34"/>
       <c r="L30" s="34"/>
       <c r="M30" s="34"/>
       <c r="N30" s="34"/>
-      <c r="O30" s="35"/>
-      <c r="P30" s="35"/>
+      <c r="O30" s="33"/>
+      <c r="P30" s="33"/>
       <c r="Q30" s="34"/>
       <c r="R30" s="34"/>
       <c r="S30" s="34"/>
@@ -6001,22 +6020,22 @@
       <c r="U30" s="34"/>
     </row>
     <row r="31" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A31" s="33"/>
-      <c r="B31" s="33"/>
+      <c r="A31" s="37"/>
+      <c r="B31" s="37"/>
       <c r="C31" s="34"/>
       <c r="D31" s="34"/>
       <c r="E31" s="34"/>
       <c r="F31" s="34"/>
       <c r="G31" s="34"/>
-      <c r="H31" s="33"/>
-      <c r="I31" s="33"/>
+      <c r="H31" s="37"/>
+      <c r="I31" s="37"/>
       <c r="J31" s="34"/>
       <c r="K31" s="34"/>
       <c r="L31" s="34"/>
       <c r="M31" s="34"/>
       <c r="N31" s="34"/>
-      <c r="O31" s="35"/>
-      <c r="P31" s="35"/>
+      <c r="O31" s="33"/>
+      <c r="P31" s="33"/>
       <c r="Q31" s="34"/>
       <c r="R31" s="34"/>
       <c r="S31" s="34"/>
@@ -6024,22 +6043,22 @@
       <c r="U31" s="34"/>
     </row>
     <row r="32" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A32" s="33"/>
-      <c r="B32" s="33"/>
+      <c r="A32" s="37"/>
+      <c r="B32" s="37"/>
       <c r="C32" s="34"/>
       <c r="D32" s="34"/>
       <c r="E32" s="34"/>
       <c r="F32" s="34"/>
       <c r="G32" s="34"/>
-      <c r="H32" s="33"/>
-      <c r="I32" s="33"/>
+      <c r="H32" s="37"/>
+      <c r="I32" s="37"/>
       <c r="J32" s="34"/>
       <c r="K32" s="34"/>
       <c r="L32" s="34"/>
       <c r="M32" s="34"/>
       <c r="N32" s="34"/>
-      <c r="O32" s="35"/>
-      <c r="P32" s="35"/>
+      <c r="O32" s="33"/>
+      <c r="P32" s="33"/>
       <c r="Q32" s="34"/>
       <c r="R32" s="34"/>
       <c r="S32" s="34"/>
@@ -6047,22 +6066,22 @@
       <c r="U32" s="34"/>
     </row>
     <row r="33" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A33" s="33"/>
-      <c r="B33" s="33"/>
+      <c r="A33" s="37"/>
+      <c r="B33" s="37"/>
       <c r="C33" s="34"/>
       <c r="D33" s="34"/>
       <c r="E33" s="34"/>
       <c r="F33" s="34"/>
       <c r="G33" s="34"/>
-      <c r="H33" s="33"/>
-      <c r="I33" s="33"/>
+      <c r="H33" s="37"/>
+      <c r="I33" s="37"/>
       <c r="J33" s="34"/>
       <c r="K33" s="34"/>
       <c r="L33" s="34"/>
       <c r="M33" s="34"/>
       <c r="N33" s="34"/>
-      <c r="O33" s="33"/>
-      <c r="P33" s="33"/>
+      <c r="O33" s="37"/>
+      <c r="P33" s="37"/>
       <c r="Q33" s="34"/>
       <c r="R33" s="34"/>
       <c r="S33" s="34"/>
@@ -6070,22 +6089,22 @@
       <c r="U33" s="34"/>
     </row>
     <row r="34" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A34" s="33"/>
-      <c r="B34" s="33"/>
+      <c r="A34" s="37"/>
+      <c r="B34" s="37"/>
       <c r="C34" s="34"/>
       <c r="D34" s="34"/>
       <c r="E34" s="34"/>
       <c r="F34" s="34"/>
       <c r="G34" s="34"/>
-      <c r="H34" s="33"/>
-      <c r="I34" s="33"/>
+      <c r="H34" s="37"/>
+      <c r="I34" s="37"/>
       <c r="J34" s="34"/>
       <c r="K34" s="34"/>
       <c r="L34" s="34"/>
       <c r="M34" s="34"/>
       <c r="N34" s="34"/>
-      <c r="O34" s="33"/>
-      <c r="P34" s="33"/>
+      <c r="O34" s="37"/>
+      <c r="P34" s="37"/>
       <c r="Q34" s="34"/>
       <c r="R34" s="34"/>
       <c r="S34" s="34"/>
@@ -6093,8 +6112,8 @@
       <c r="U34" s="34"/>
     </row>
     <row r="35" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A35" s="33"/>
-      <c r="B35" s="33"/>
+      <c r="A35" s="37"/>
+      <c r="B35" s="37"/>
       <c r="C35" s="34"/>
       <c r="D35" s="34"/>
       <c r="E35" s="34"/>
@@ -6103,36 +6122,190 @@
     </row>
   </sheetData>
   <mergeCells count="238">
-    <mergeCell ref="V5:W5"/>
-    <mergeCell ref="X5:AB5"/>
-    <mergeCell ref="O5:P5"/>
-    <mergeCell ref="Q5:U5"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:G4"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="V6:W6"/>
-    <mergeCell ref="X6:AB6"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:G5"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="J4:N4"/>
-    <mergeCell ref="V4:W4"/>
-    <mergeCell ref="X4:AB4"/>
-    <mergeCell ref="O4:P4"/>
-    <mergeCell ref="Q4:U4"/>
-    <mergeCell ref="J5:N5"/>
-    <mergeCell ref="A1:G2"/>
-    <mergeCell ref="H1:N2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:G3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="V1:AB2"/>
-    <mergeCell ref="V3:W3"/>
-    <mergeCell ref="J3:N3"/>
-    <mergeCell ref="X3:AB3"/>
-    <mergeCell ref="O1:U2"/>
-    <mergeCell ref="O3:P3"/>
-    <mergeCell ref="Q3:U3"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="C35:G35"/>
+    <mergeCell ref="H34:I34"/>
+    <mergeCell ref="J34:N34"/>
+    <mergeCell ref="O34:P34"/>
+    <mergeCell ref="Q34:U34"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="C34:G34"/>
+    <mergeCell ref="H33:I33"/>
+    <mergeCell ref="J33:N33"/>
+    <mergeCell ref="O33:P33"/>
+    <mergeCell ref="Q33:U33"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="C33:G33"/>
+    <mergeCell ref="H32:I32"/>
+    <mergeCell ref="J32:N32"/>
+    <mergeCell ref="O32:P32"/>
+    <mergeCell ref="Q32:U32"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="C32:G32"/>
+    <mergeCell ref="H31:I31"/>
+    <mergeCell ref="J31:N31"/>
+    <mergeCell ref="O31:P31"/>
+    <mergeCell ref="Q31:U31"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="C31:G31"/>
+    <mergeCell ref="H30:I30"/>
+    <mergeCell ref="J30:N30"/>
+    <mergeCell ref="O30:P30"/>
+    <mergeCell ref="Q30:U30"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="C30:G30"/>
+    <mergeCell ref="H29:I29"/>
+    <mergeCell ref="J29:N29"/>
+    <mergeCell ref="O29:P29"/>
+    <mergeCell ref="Q29:U29"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="C29:G29"/>
+    <mergeCell ref="H28:I28"/>
+    <mergeCell ref="J28:N28"/>
+    <mergeCell ref="O28:P28"/>
+    <mergeCell ref="Q28:U28"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="C28:G28"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="J27:N27"/>
+    <mergeCell ref="O27:P27"/>
+    <mergeCell ref="Q27:U27"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="C27:G27"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="J26:N26"/>
+    <mergeCell ref="O26:P26"/>
+    <mergeCell ref="Q26:U26"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="C26:G26"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="J25:N25"/>
+    <mergeCell ref="O25:P25"/>
+    <mergeCell ref="Q25:U25"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="C25:G25"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="J24:N24"/>
+    <mergeCell ref="O24:P24"/>
+    <mergeCell ref="Q24:U24"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="C24:G24"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="J23:N23"/>
+    <mergeCell ref="O23:P23"/>
+    <mergeCell ref="Q23:U23"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="C23:G23"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="J22:N22"/>
+    <mergeCell ref="V22:W22"/>
+    <mergeCell ref="X22:AB22"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="C22:G22"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="J21:N21"/>
+    <mergeCell ref="V21:W21"/>
+    <mergeCell ref="X21:AB21"/>
+    <mergeCell ref="O21:P21"/>
+    <mergeCell ref="Q21:U21"/>
+    <mergeCell ref="O22:P22"/>
+    <mergeCell ref="Q22:U22"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="J20:N20"/>
+    <mergeCell ref="V20:W20"/>
+    <mergeCell ref="X20:AB20"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="J19:N19"/>
+    <mergeCell ref="V19:W19"/>
+    <mergeCell ref="X19:AB19"/>
+    <mergeCell ref="O19:P19"/>
+    <mergeCell ref="Q19:U19"/>
+    <mergeCell ref="O20:P20"/>
+    <mergeCell ref="Q20:U20"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="J18:N18"/>
+    <mergeCell ref="V18:W18"/>
+    <mergeCell ref="X18:AB18"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="V17:W17"/>
+    <mergeCell ref="X17:AB17"/>
+    <mergeCell ref="O17:P17"/>
+    <mergeCell ref="Q17:U17"/>
+    <mergeCell ref="O18:P18"/>
+    <mergeCell ref="Q18:U18"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="J17:N17"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C17:G17"/>
+    <mergeCell ref="V15:W15"/>
+    <mergeCell ref="X15:AB15"/>
+    <mergeCell ref="O15:P15"/>
+    <mergeCell ref="Q15:U15"/>
+    <mergeCell ref="O16:P16"/>
+    <mergeCell ref="Q16:U16"/>
+    <mergeCell ref="V13:W13"/>
+    <mergeCell ref="J14:N14"/>
+    <mergeCell ref="V14:W14"/>
+    <mergeCell ref="X14:AB14"/>
+    <mergeCell ref="Q14:U14"/>
+    <mergeCell ref="V16:W16"/>
+    <mergeCell ref="O14:P14"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="J16:N16"/>
+    <mergeCell ref="V12:W12"/>
+    <mergeCell ref="X12:AB12"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="J15:N15"/>
+    <mergeCell ref="O12:P12"/>
+    <mergeCell ref="Q12:U12"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="J12:N12"/>
+    <mergeCell ref="O13:P13"/>
+    <mergeCell ref="Q13:U13"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C15:G15"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C14:G14"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="J13:N13"/>
+    <mergeCell ref="X13:AB13"/>
+    <mergeCell ref="X16:AB16"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:G16"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:G11"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="J10:N10"/>
+    <mergeCell ref="V10:W10"/>
+    <mergeCell ref="X10:AB10"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C10:G10"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C13:G13"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="J9:N9"/>
+    <mergeCell ref="V9:W9"/>
+    <mergeCell ref="X9:AB9"/>
+    <mergeCell ref="O9:P9"/>
+    <mergeCell ref="Q9:U9"/>
+    <mergeCell ref="O10:P10"/>
+    <mergeCell ref="Q10:U10"/>
+    <mergeCell ref="V11:W11"/>
+    <mergeCell ref="X11:AB11"/>
+    <mergeCell ref="O11:P11"/>
+    <mergeCell ref="Q11:U11"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="J11:N11"/>
     <mergeCell ref="A9:B9"/>
     <mergeCell ref="C9:G9"/>
     <mergeCell ref="H6:I6"/>
@@ -6157,190 +6330,36 @@
     <mergeCell ref="Q6:U6"/>
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="C6:G6"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="J9:N9"/>
-    <mergeCell ref="V9:W9"/>
-    <mergeCell ref="X9:AB9"/>
-    <mergeCell ref="O9:P9"/>
-    <mergeCell ref="Q9:U9"/>
-    <mergeCell ref="O10:P10"/>
-    <mergeCell ref="Q10:U10"/>
-    <mergeCell ref="V11:W11"/>
-    <mergeCell ref="X11:AB11"/>
-    <mergeCell ref="O11:P11"/>
-    <mergeCell ref="Q11:U11"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="J11:N11"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:G11"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="J10:N10"/>
-    <mergeCell ref="V10:W10"/>
-    <mergeCell ref="X10:AB10"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="C10:G10"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="C13:G13"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="J16:N16"/>
-    <mergeCell ref="V12:W12"/>
-    <mergeCell ref="X12:AB12"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="C12:G12"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="J15:N15"/>
-    <mergeCell ref="O12:P12"/>
-    <mergeCell ref="Q12:U12"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="J12:N12"/>
-    <mergeCell ref="O13:P13"/>
-    <mergeCell ref="Q13:U13"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="C15:G15"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="C14:G14"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="J13:N13"/>
-    <mergeCell ref="X13:AB13"/>
-    <mergeCell ref="X16:AB16"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="C16:G16"/>
-    <mergeCell ref="V15:W15"/>
-    <mergeCell ref="X15:AB15"/>
-    <mergeCell ref="O15:P15"/>
-    <mergeCell ref="Q15:U15"/>
-    <mergeCell ref="O16:P16"/>
-    <mergeCell ref="Q16:U16"/>
-    <mergeCell ref="V13:W13"/>
-    <mergeCell ref="J14:N14"/>
-    <mergeCell ref="V14:W14"/>
-    <mergeCell ref="X14:AB14"/>
-    <mergeCell ref="Q14:U14"/>
-    <mergeCell ref="V16:W16"/>
-    <mergeCell ref="O14:P14"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="J18:N18"/>
-    <mergeCell ref="V18:W18"/>
-    <mergeCell ref="X18:AB18"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C18:G18"/>
-    <mergeCell ref="V17:W17"/>
-    <mergeCell ref="X17:AB17"/>
-    <mergeCell ref="O17:P17"/>
-    <mergeCell ref="Q17:U17"/>
-    <mergeCell ref="O18:P18"/>
-    <mergeCell ref="Q18:U18"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="J17:N17"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="C17:G17"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="J20:N20"/>
-    <mergeCell ref="V20:W20"/>
-    <mergeCell ref="X20:AB20"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="C20:G20"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="J19:N19"/>
-    <mergeCell ref="V19:W19"/>
-    <mergeCell ref="X19:AB19"/>
-    <mergeCell ref="O19:P19"/>
-    <mergeCell ref="Q19:U19"/>
-    <mergeCell ref="O20:P20"/>
-    <mergeCell ref="Q20:U20"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="C19:G19"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="J22:N22"/>
-    <mergeCell ref="V22:W22"/>
-    <mergeCell ref="X22:AB22"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="C22:G22"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="J21:N21"/>
-    <mergeCell ref="V21:W21"/>
-    <mergeCell ref="X21:AB21"/>
-    <mergeCell ref="O21:P21"/>
-    <mergeCell ref="Q21:U21"/>
-    <mergeCell ref="O22:P22"/>
-    <mergeCell ref="Q22:U22"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="C21:G21"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="J24:N24"/>
-    <mergeCell ref="O24:P24"/>
-    <mergeCell ref="Q24:U24"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="C24:G24"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="J23:N23"/>
-    <mergeCell ref="O23:P23"/>
-    <mergeCell ref="Q23:U23"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="C23:G23"/>
-    <mergeCell ref="H26:I26"/>
-    <mergeCell ref="J26:N26"/>
-    <mergeCell ref="O26:P26"/>
-    <mergeCell ref="Q26:U26"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="C26:G26"/>
-    <mergeCell ref="H25:I25"/>
-    <mergeCell ref="J25:N25"/>
-    <mergeCell ref="O25:P25"/>
-    <mergeCell ref="Q25:U25"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="C25:G25"/>
-    <mergeCell ref="H28:I28"/>
-    <mergeCell ref="J28:N28"/>
-    <mergeCell ref="O28:P28"/>
-    <mergeCell ref="Q28:U28"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="C28:G28"/>
-    <mergeCell ref="H27:I27"/>
-    <mergeCell ref="J27:N27"/>
-    <mergeCell ref="O27:P27"/>
-    <mergeCell ref="Q27:U27"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="C27:G27"/>
-    <mergeCell ref="H30:I30"/>
-    <mergeCell ref="J30:N30"/>
-    <mergeCell ref="O30:P30"/>
-    <mergeCell ref="Q30:U30"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="C30:G30"/>
-    <mergeCell ref="H29:I29"/>
-    <mergeCell ref="J29:N29"/>
-    <mergeCell ref="O29:P29"/>
-    <mergeCell ref="Q29:U29"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="C29:G29"/>
-    <mergeCell ref="H32:I32"/>
-    <mergeCell ref="J32:N32"/>
-    <mergeCell ref="O32:P32"/>
-    <mergeCell ref="Q32:U32"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="C32:G32"/>
-    <mergeCell ref="H31:I31"/>
-    <mergeCell ref="J31:N31"/>
-    <mergeCell ref="O31:P31"/>
-    <mergeCell ref="Q31:U31"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="C31:G31"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="C35:G35"/>
-    <mergeCell ref="H34:I34"/>
-    <mergeCell ref="J34:N34"/>
-    <mergeCell ref="O34:P34"/>
-    <mergeCell ref="Q34:U34"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="C34:G34"/>
-    <mergeCell ref="H33:I33"/>
-    <mergeCell ref="J33:N33"/>
-    <mergeCell ref="O33:P33"/>
-    <mergeCell ref="Q33:U33"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="C33:G33"/>
+    <mergeCell ref="A1:G2"/>
+    <mergeCell ref="H1:N2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:G3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="V1:AB2"/>
+    <mergeCell ref="V3:W3"/>
+    <mergeCell ref="J3:N3"/>
+    <mergeCell ref="X3:AB3"/>
+    <mergeCell ref="O1:U2"/>
+    <mergeCell ref="O3:P3"/>
+    <mergeCell ref="Q3:U3"/>
+    <mergeCell ref="V5:W5"/>
+    <mergeCell ref="X5:AB5"/>
+    <mergeCell ref="O5:P5"/>
+    <mergeCell ref="Q5:U5"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="V6:W6"/>
+    <mergeCell ref="X6:AB6"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="J4:N4"/>
+    <mergeCell ref="V4:W4"/>
+    <mergeCell ref="X4:AB4"/>
+    <mergeCell ref="O4:P4"/>
+    <mergeCell ref="Q4:U4"/>
+    <mergeCell ref="J5:N5"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C16" r:id="rId1" xr:uid="{868F8F85-B252-4B04-B081-E9B23AD46A23}"/>
@@ -6352,7 +6371,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1908B5E3-0D9D-48A8-894B-90B53E0249A0}">
   <dimension ref="A1:I26"/>
   <sheetViews>
@@ -6677,12 +6696,14 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="E6:H6"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="E2:H2"/>
-    <mergeCell ref="E3:H3"/>
-    <mergeCell ref="E4:H4"/>
-    <mergeCell ref="E5:H5"/>
+    <mergeCell ref="E25:H25"/>
+    <mergeCell ref="E26:H26"/>
+    <mergeCell ref="E19:H19"/>
+    <mergeCell ref="E20:H20"/>
+    <mergeCell ref="E21:H21"/>
+    <mergeCell ref="E22:H22"/>
+    <mergeCell ref="E23:H23"/>
+    <mergeCell ref="E24:H24"/>
     <mergeCell ref="E18:H18"/>
     <mergeCell ref="E7:H7"/>
     <mergeCell ref="E8:H8"/>
@@ -6695,20 +6716,18 @@
     <mergeCell ref="E15:H15"/>
     <mergeCell ref="E16:H16"/>
     <mergeCell ref="E17:H17"/>
-    <mergeCell ref="E25:H25"/>
-    <mergeCell ref="E26:H26"/>
-    <mergeCell ref="E19:H19"/>
-    <mergeCell ref="E20:H20"/>
-    <mergeCell ref="E21:H21"/>
-    <mergeCell ref="E22:H22"/>
-    <mergeCell ref="E23:H23"/>
-    <mergeCell ref="E24:H24"/>
+    <mergeCell ref="E6:H6"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="E2:H2"/>
+    <mergeCell ref="E3:H3"/>
+    <mergeCell ref="E4:H4"/>
+    <mergeCell ref="E5:H5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DD47BAA-02B8-4E56-868D-4BC0DFE6F64A}">
   <dimension ref="A1:J30"/>
   <sheetViews>
@@ -7063,22 +7082,6 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="D4:G4"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="D2:G2"/>
-    <mergeCell ref="D3:G3"/>
-    <mergeCell ref="D6:G6"/>
-    <mergeCell ref="D5:G5"/>
-    <mergeCell ref="D18:G18"/>
-    <mergeCell ref="D8:G8"/>
-    <mergeCell ref="D9:G9"/>
-    <mergeCell ref="D11:G11"/>
-    <mergeCell ref="D12:G12"/>
-    <mergeCell ref="D13:G13"/>
-    <mergeCell ref="D14:G14"/>
-    <mergeCell ref="D15:G15"/>
-    <mergeCell ref="D16:G16"/>
-    <mergeCell ref="D17:G17"/>
     <mergeCell ref="D30:G30"/>
     <mergeCell ref="D19:G19"/>
     <mergeCell ref="D20:G20"/>
@@ -7091,6 +7094,22 @@
     <mergeCell ref="D27:G27"/>
     <mergeCell ref="D28:G28"/>
     <mergeCell ref="D29:G29"/>
+    <mergeCell ref="D18:G18"/>
+    <mergeCell ref="D8:G8"/>
+    <mergeCell ref="D9:G9"/>
+    <mergeCell ref="D11:G11"/>
+    <mergeCell ref="D12:G12"/>
+    <mergeCell ref="D13:G13"/>
+    <mergeCell ref="D14:G14"/>
+    <mergeCell ref="D15:G15"/>
+    <mergeCell ref="D16:G16"/>
+    <mergeCell ref="D17:G17"/>
+    <mergeCell ref="D4:G4"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="D3:G3"/>
+    <mergeCell ref="D6:G6"/>
+    <mergeCell ref="D5:G5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/plans/todo.xlsx
+++ b/plans/todo.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Edsquid\Documents\Personal Projects\Business\RogueLikeGame\plans\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6B346AB-469B-4F22-8CD2-84538FF729F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6973DD4-75AF-49DA-8CDA-AFC8AF0AE1BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7305" yWindow="1395" windowWidth="16215" windowHeight="13335" tabRatio="509" activeTab="3" xr2:uid="{BA1E511D-BF64-4842-98DF-72E30276ED1C}"/>
+    <workbookView xWindow="38355" yWindow="165" windowWidth="16215" windowHeight="13335" tabRatio="509" xr2:uid="{BA1E511D-BF64-4842-98DF-72E30276ED1C}"/>
   </bookViews>
   <sheets>
     <sheet name="Attributes" sheetId="3" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="485" uniqueCount="366">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="490" uniqueCount="371">
   <si>
     <t>Max Lives</t>
   </si>
@@ -1140,6 +1140,21 @@
   </si>
   <si>
     <t>emporwed</t>
+  </si>
+  <si>
+    <t>Elemental effects/explosions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">if frozen, shoot out ice </t>
+  </si>
+  <si>
+    <t>if on fire, explode</t>
+  </si>
+  <si>
+    <t>if zaped, chain lightning from corpse</t>
+  </si>
+  <si>
+    <t>increase chance to burn/zap/etc</t>
   </si>
 </sst>
 </file>
@@ -1474,6 +1489,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1502,19 +1518,16 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1525,8 +1538,11 @@
     <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -1543,7 +1559,6 @@
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1861,8 +1876,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11CE061F-AFA4-4B9D-BFD1-A05915568E6D}">
   <dimension ref="A1:H355"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="A52" sqref="A52"/>
+    <sheetView tabSelected="1" topLeftCell="A124" workbookViewId="0">
+      <selection activeCell="A143" sqref="A143"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1879,27 +1894,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="29" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
-      <c r="G1" s="29"/>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
       <c r="H1" s="9" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="30"/>
-      <c r="B2" s="31"/>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="31"/>
-      <c r="G2" s="31"/>
+      <c r="A2" s="31"/>
+      <c r="B2" s="32"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="32"/>
       <c r="H2" s="11" t="s">
         <v>166</v>
       </c>
@@ -1929,15 +1944,15 @@
       <c r="H3" s="8"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="24" t="s">
+      <c r="A4" s="25" t="s">
         <v>167</v>
       </c>
-      <c r="B4" s="24"/>
-      <c r="C4" s="24"/>
-      <c r="D4" s="24"/>
-      <c r="E4" s="24"/>
-      <c r="F4" s="24"/>
-      <c r="G4" s="24"/>
+      <c r="B4" s="25"/>
+      <c r="C4" s="25"/>
+      <c r="D4" s="25"/>
+      <c r="E4" s="25"/>
+      <c r="F4" s="25"/>
+      <c r="G4" s="25"/>
       <c r="H4" s="8"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -2445,15 +2460,15 @@
       <c r="G33" s="4"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="26" t="s">
+      <c r="A34" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="B34" s="26"/>
-      <c r="C34" s="26"/>
-      <c r="D34" s="26"/>
-      <c r="E34" s="26"/>
-      <c r="F34" s="26"/>
-      <c r="G34" s="26"/>
+      <c r="B34" s="27"/>
+      <c r="C34" s="27"/>
+      <c r="D34" s="27"/>
+      <c r="E34" s="27"/>
+      <c r="F34" s="27"/>
+      <c r="G34" s="27"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
@@ -2594,15 +2609,15 @@
       <c r="G43" s="4"/>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A44" s="27" t="s">
+      <c r="A44" s="28" t="s">
         <v>132</v>
       </c>
-      <c r="B44" s="27"/>
-      <c r="C44" s="27"/>
-      <c r="D44" s="27"/>
-      <c r="E44" s="27"/>
-      <c r="F44" s="27"/>
-      <c r="G44" s="27"/>
+      <c r="B44" s="28"/>
+      <c r="C44" s="28"/>
+      <c r="D44" s="28"/>
+      <c r="E44" s="28"/>
+      <c r="F44" s="28"/>
+      <c r="G44" s="28"/>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="16" t="s">
@@ -3351,21 +3366,36 @@
       <c r="G137" s="2"/>
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A138" s="2" t="s">
+        <v>366</v>
+      </c>
       <c r="G138" s="2"/>
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A139" s="2" t="s">
+        <v>367</v>
+      </c>
       <c r="G139" s="2"/>
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A140" s="2" t="s">
+        <v>368</v>
+      </c>
       <c r="F140" s="1">
         <v>5</v>
       </c>
       <c r="G140" s="2"/>
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A141" s="2" t="s">
+        <v>369</v>
+      </c>
       <c r="G141" s="2"/>
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A142" s="2" t="s">
+        <v>370</v>
+      </c>
       <c r="G142" s="2"/>
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.25">
@@ -3417,15 +3447,15 @@
       <c r="G150" s="4"/>
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A151" s="25" t="s">
+      <c r="A151" s="26" t="s">
         <v>140</v>
       </c>
-      <c r="B151" s="25"/>
-      <c r="C151" s="25"/>
-      <c r="D151" s="25"/>
-      <c r="E151" s="25"/>
-      <c r="F151" s="25"/>
-      <c r="G151" s="25"/>
+      <c r="B151" s="26"/>
+      <c r="C151" s="26"/>
+      <c r="D151" s="26"/>
+      <c r="E151" s="26"/>
+      <c r="F151" s="26"/>
+      <c r="G151" s="26"/>
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A152" s="16" t="s">
@@ -4749,15 +4779,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="33" t="s">
         <v>179</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
@@ -4836,13 +4866,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="33" t="s">
         <v>178</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="17" t="s">
@@ -4962,13 +4992,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCF194B0-B750-47C3-A920-7899813FCE3E}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="9.140625" style="47"/>
+    <col min="1" max="16384" width="9.140625" style="24"/>
   </cols>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5116,1147 +5146,1091 @@
       <c r="AB3" s="40"/>
     </row>
     <row r="4" spans="1:30" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="35" t="s">
+      <c r="A4" s="41" t="s">
         <v>362</v>
       </c>
-      <c r="B4" s="35"/>
-      <c r="C4" s="36" t="s">
+      <c r="B4" s="41"/>
+      <c r="C4" s="42" t="s">
         <v>363</v>
       </c>
-      <c r="D4" s="36"/>
-      <c r="E4" s="36"/>
-      <c r="F4" s="36"/>
-      <c r="G4" s="36"/>
-      <c r="H4" s="37" t="s">
+      <c r="D4" s="42"/>
+      <c r="E4" s="42"/>
+      <c r="F4" s="42"/>
+      <c r="G4" s="42"/>
+      <c r="H4" s="34" t="s">
         <v>312</v>
       </c>
-      <c r="I4" s="37"/>
-      <c r="J4" s="34" t="s">
+      <c r="I4" s="34"/>
+      <c r="J4" s="35" t="s">
         <v>37</v>
       </c>
-      <c r="K4" s="34"/>
-      <c r="L4" s="34"/>
-      <c r="M4" s="34"/>
-      <c r="N4" s="34"/>
-      <c r="O4" s="33" t="s">
+      <c r="K4" s="35"/>
+      <c r="L4" s="35"/>
+      <c r="M4" s="35"/>
+      <c r="N4" s="35"/>
+      <c r="O4" s="36" t="s">
         <v>325</v>
       </c>
-      <c r="P4" s="33"/>
-      <c r="Q4" s="34" t="s">
+      <c r="P4" s="36"/>
+      <c r="Q4" s="35" t="s">
         <v>158</v>
       </c>
-      <c r="R4" s="34"/>
-      <c r="S4" s="34"/>
-      <c r="T4" s="34"/>
-      <c r="U4" s="34"/>
-      <c r="V4" s="33" t="s">
+      <c r="R4" s="35"/>
+      <c r="S4" s="35"/>
+      <c r="T4" s="35"/>
+      <c r="U4" s="35"/>
+      <c r="V4" s="36" t="s">
         <v>44</v>
       </c>
-      <c r="W4" s="33"/>
-      <c r="X4" s="34" t="s">
+      <c r="W4" s="36"/>
+      <c r="X4" s="35" t="s">
         <v>43</v>
       </c>
-      <c r="Y4" s="34"/>
-      <c r="Z4" s="34"/>
-      <c r="AA4" s="34"/>
-      <c r="AB4" s="34"/>
+      <c r="Y4" s="35"/>
+      <c r="Z4" s="35"/>
+      <c r="AA4" s="35"/>
+      <c r="AB4" s="35"/>
     </row>
     <row r="5" spans="1:30" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="37" t="s">
+      <c r="A5" s="34" t="s">
         <v>361</v>
       </c>
-      <c r="B5" s="37"/>
-      <c r="C5" s="34" t="s">
+      <c r="B5" s="34"/>
+      <c r="C5" s="35" t="s">
         <v>36</v>
       </c>
-      <c r="D5" s="34"/>
-      <c r="E5" s="34"/>
-      <c r="F5" s="34"/>
-      <c r="G5" s="34"/>
-      <c r="H5" s="37" t="s">
+      <c r="D5" s="35"/>
+      <c r="E5" s="35"/>
+      <c r="F5" s="35"/>
+      <c r="G5" s="35"/>
+      <c r="H5" s="34" t="s">
         <v>313</v>
       </c>
-      <c r="I5" s="37"/>
-      <c r="J5" s="34" t="s">
+      <c r="I5" s="34"/>
+      <c r="J5" s="35" t="s">
         <v>314</v>
       </c>
-      <c r="K5" s="34"/>
-      <c r="L5" s="34"/>
-      <c r="M5" s="34"/>
-      <c r="N5" s="34"/>
-      <c r="O5" s="33" t="s">
+      <c r="K5" s="35"/>
+      <c r="L5" s="35"/>
+      <c r="M5" s="35"/>
+      <c r="N5" s="35"/>
+      <c r="O5" s="36" t="s">
         <v>159</v>
       </c>
-      <c r="P5" s="33"/>
-      <c r="Q5" s="34" t="s">
+      <c r="P5" s="36"/>
+      <c r="Q5" s="35" t="s">
         <v>234</v>
       </c>
-      <c r="R5" s="34"/>
-      <c r="S5" s="34"/>
-      <c r="T5" s="34"/>
-      <c r="U5" s="34"/>
-      <c r="V5" s="33" t="s">
+      <c r="R5" s="35"/>
+      <c r="S5" s="35"/>
+      <c r="T5" s="35"/>
+      <c r="U5" s="35"/>
+      <c r="V5" s="36" t="s">
         <v>45</v>
       </c>
-      <c r="W5" s="33"/>
-      <c r="X5" s="34" t="s">
+      <c r="W5" s="36"/>
+      <c r="X5" s="35" t="s">
         <v>48</v>
       </c>
-      <c r="Y5" s="34"/>
-      <c r="Z5" s="34"/>
-      <c r="AA5" s="34"/>
-      <c r="AB5" s="34"/>
+      <c r="Y5" s="35"/>
+      <c r="Z5" s="35"/>
+      <c r="AA5" s="35"/>
+      <c r="AB5" s="35"/>
     </row>
     <row r="6" spans="1:30" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="37" t="s">
+      <c r="A6" s="34" t="s">
         <v>364</v>
       </c>
-      <c r="B6" s="37"/>
-      <c r="C6" s="34" t="s">
+      <c r="B6" s="34"/>
+      <c r="C6" s="35" t="s">
         <v>221</v>
       </c>
-      <c r="D6" s="34"/>
-      <c r="E6" s="34"/>
-      <c r="F6" s="34"/>
-      <c r="G6" s="34"/>
-      <c r="H6" s="37" t="s">
+      <c r="D6" s="35"/>
+      <c r="E6" s="35"/>
+      <c r="F6" s="35"/>
+      <c r="G6" s="35"/>
+      <c r="H6" s="34" t="s">
         <v>315</v>
       </c>
-      <c r="I6" s="37"/>
-      <c r="J6" s="34" t="s">
+      <c r="I6" s="34"/>
+      <c r="J6" s="35" t="s">
         <v>39</v>
       </c>
-      <c r="K6" s="34"/>
-      <c r="L6" s="34"/>
-      <c r="M6" s="34"/>
-      <c r="N6" s="34"/>
-      <c r="O6" s="33" t="s">
+      <c r="K6" s="35"/>
+      <c r="L6" s="35"/>
+      <c r="M6" s="35"/>
+      <c r="N6" s="35"/>
+      <c r="O6" s="36" t="s">
         <v>160</v>
       </c>
-      <c r="P6" s="33"/>
-      <c r="Q6" s="34" t="s">
+      <c r="P6" s="36"/>
+      <c r="Q6" s="35" t="s">
         <v>234</v>
       </c>
-      <c r="R6" s="34"/>
-      <c r="S6" s="34"/>
-      <c r="T6" s="34"/>
-      <c r="U6" s="34"/>
-      <c r="V6" s="33" t="s">
+      <c r="R6" s="35"/>
+      <c r="S6" s="35"/>
+      <c r="T6" s="35"/>
+      <c r="U6" s="35"/>
+      <c r="V6" s="36" t="s">
         <v>46</v>
       </c>
-      <c r="W6" s="33"/>
-      <c r="X6" s="34" t="s">
+      <c r="W6" s="36"/>
+      <c r="X6" s="35" t="s">
         <v>47</v>
       </c>
-      <c r="Y6" s="34"/>
-      <c r="Z6" s="34"/>
-      <c r="AA6" s="34"/>
-      <c r="AB6" s="34"/>
+      <c r="Y6" s="35"/>
+      <c r="Z6" s="35"/>
+      <c r="AA6" s="35"/>
+      <c r="AB6" s="35"/>
     </row>
     <row r="7" spans="1:30" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="37" t="s">
+      <c r="A7" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="B7" s="37"/>
-      <c r="C7" s="34" t="s">
+      <c r="B7" s="34"/>
+      <c r="C7" s="35" t="s">
         <v>40</v>
       </c>
-      <c r="D7" s="34"/>
-      <c r="E7" s="34"/>
-      <c r="F7" s="34"/>
-      <c r="G7" s="34"/>
-      <c r="H7" s="37" t="s">
+      <c r="D7" s="35"/>
+      <c r="E7" s="35"/>
+      <c r="F7" s="35"/>
+      <c r="G7" s="35"/>
+      <c r="H7" s="34" t="s">
         <v>324</v>
       </c>
-      <c r="I7" s="37"/>
-      <c r="J7" s="34" t="s">
+      <c r="I7" s="34"/>
+      <c r="J7" s="35" t="s">
         <v>360</v>
       </c>
-      <c r="K7" s="34"/>
-      <c r="L7" s="34"/>
-      <c r="M7" s="34"/>
-      <c r="N7" s="34"/>
-      <c r="O7" s="33" t="s">
+      <c r="K7" s="35"/>
+      <c r="L7" s="35"/>
+      <c r="M7" s="35"/>
+      <c r="N7" s="35"/>
+      <c r="O7" s="36" t="s">
         <v>161</v>
       </c>
-      <c r="P7" s="33"/>
-      <c r="Q7" s="34" t="s">
+      <c r="P7" s="36"/>
+      <c r="Q7" s="35" t="s">
         <v>235</v>
       </c>
-      <c r="R7" s="34"/>
-      <c r="S7" s="34"/>
-      <c r="T7" s="34"/>
-      <c r="U7" s="34"/>
-      <c r="V7" s="33" t="s">
+      <c r="R7" s="35"/>
+      <c r="S7" s="35"/>
+      <c r="T7" s="35"/>
+      <c r="U7" s="35"/>
+      <c r="V7" s="36" t="s">
         <v>358</v>
       </c>
-      <c r="W7" s="33"/>
-      <c r="X7" s="34" t="s">
+      <c r="W7" s="36"/>
+      <c r="X7" s="35" t="s">
         <v>49</v>
       </c>
-      <c r="Y7" s="34"/>
-      <c r="Z7" s="34"/>
-      <c r="AA7" s="34"/>
-      <c r="AB7" s="34"/>
+      <c r="Y7" s="35"/>
+      <c r="Z7" s="35"/>
+      <c r="AA7" s="35"/>
+      <c r="AB7" s="35"/>
     </row>
     <row r="8" spans="1:30" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="37" t="s">
+      <c r="A8" s="34" t="s">
         <v>33</v>
       </c>
-      <c r="B8" s="37"/>
-      <c r="C8" s="34" t="s">
+      <c r="B8" s="34"/>
+      <c r="C8" s="35" t="s">
         <v>35</v>
       </c>
-      <c r="D8" s="34"/>
-      <c r="E8" s="34"/>
-      <c r="F8" s="34"/>
-      <c r="G8" s="34"/>
-      <c r="H8" s="37"/>
-      <c r="I8" s="37"/>
-      <c r="J8" s="34"/>
-      <c r="K8" s="34"/>
-      <c r="L8" s="34"/>
-      <c r="M8" s="34"/>
-      <c r="N8" s="34"/>
-      <c r="O8" s="33" t="s">
+      <c r="D8" s="35"/>
+      <c r="E8" s="35"/>
+      <c r="F8" s="35"/>
+      <c r="G8" s="35"/>
+      <c r="H8" s="34"/>
+      <c r="I8" s="34"/>
+      <c r="J8" s="35"/>
+      <c r="K8" s="35"/>
+      <c r="L8" s="35"/>
+      <c r="M8" s="35"/>
+      <c r="N8" s="35"/>
+      <c r="O8" s="36" t="s">
         <v>330</v>
       </c>
-      <c r="P8" s="33"/>
-      <c r="Q8" s="34" t="s">
+      <c r="P8" s="36"/>
+      <c r="Q8" s="35" t="s">
         <v>235</v>
       </c>
-      <c r="R8" s="34"/>
-      <c r="S8" s="34"/>
-      <c r="T8" s="34"/>
-      <c r="U8" s="34"/>
-      <c r="V8" s="33" t="s">
+      <c r="R8" s="35"/>
+      <c r="S8" s="35"/>
+      <c r="T8" s="35"/>
+      <c r="U8" s="35"/>
+      <c r="V8" s="36" t="s">
         <v>50</v>
       </c>
-      <c r="W8" s="33"/>
-      <c r="X8" s="34" t="s">
+      <c r="W8" s="36"/>
+      <c r="X8" s="35" t="s">
         <v>43</v>
       </c>
-      <c r="Y8" s="34"/>
-      <c r="Z8" s="34"/>
-      <c r="AA8" s="34"/>
-      <c r="AB8" s="34"/>
+      <c r="Y8" s="35"/>
+      <c r="Z8" s="35"/>
+      <c r="AA8" s="35"/>
+      <c r="AB8" s="35"/>
     </row>
     <row r="9" spans="1:30" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="37" t="s">
+      <c r="A9" s="34" t="s">
         <v>328</v>
       </c>
-      <c r="B9" s="37"/>
-      <c r="C9" s="34" t="s">
+      <c r="B9" s="34"/>
+      <c r="C9" s="35" t="s">
         <v>220</v>
       </c>
-      <c r="D9" s="34"/>
-      <c r="E9" s="34"/>
-      <c r="F9" s="34"/>
-      <c r="G9" s="34"/>
-      <c r="H9" s="37" t="s">
+      <c r="D9" s="35"/>
+      <c r="E9" s="35"/>
+      <c r="F9" s="35"/>
+      <c r="G9" s="35"/>
+      <c r="H9" s="34" t="s">
         <v>323</v>
       </c>
-      <c r="I9" s="37"/>
-      <c r="J9" s="34" t="s">
+      <c r="I9" s="34"/>
+      <c r="J9" s="35" t="s">
         <v>326</v>
       </c>
-      <c r="K9" s="34"/>
-      <c r="L9" s="34"/>
-      <c r="M9" s="34"/>
-      <c r="N9" s="34"/>
-      <c r="O9" s="33" t="s">
+      <c r="K9" s="35"/>
+      <c r="L9" s="35"/>
+      <c r="M9" s="35"/>
+      <c r="N9" s="35"/>
+      <c r="O9" s="36" t="s">
         <v>319</v>
       </c>
-      <c r="P9" s="33"/>
-      <c r="Q9" s="34" t="s">
+      <c r="P9" s="36"/>
+      <c r="Q9" s="35" t="s">
         <v>281</v>
       </c>
-      <c r="R9" s="34"/>
-      <c r="S9" s="34"/>
-      <c r="T9" s="34"/>
-      <c r="U9" s="34"/>
-      <c r="V9" s="33" t="s">
+      <c r="R9" s="35"/>
+      <c r="S9" s="35"/>
+      <c r="T9" s="35"/>
+      <c r="U9" s="35"/>
+      <c r="V9" s="36" t="s">
         <v>51</v>
       </c>
-      <c r="W9" s="33"/>
-      <c r="X9" s="34" t="s">
+      <c r="W9" s="36"/>
+      <c r="X9" s="35" t="s">
         <v>52</v>
       </c>
-      <c r="Y9" s="34"/>
-      <c r="Z9" s="34"/>
-      <c r="AA9" s="34"/>
-      <c r="AB9" s="34"/>
+      <c r="Y9" s="35"/>
+      <c r="Z9" s="35"/>
+      <c r="AA9" s="35"/>
+      <c r="AB9" s="35"/>
     </row>
     <row r="10" spans="1:30" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="37"/>
-      <c r="B10" s="37"/>
-      <c r="C10" s="34"/>
-      <c r="D10" s="34"/>
-      <c r="E10" s="34"/>
-      <c r="F10" s="34"/>
-      <c r="G10" s="34"/>
-      <c r="H10" s="37"/>
-      <c r="I10" s="37"/>
-      <c r="J10" s="34"/>
-      <c r="K10" s="34"/>
-      <c r="L10" s="34"/>
-      <c r="M10" s="34"/>
-      <c r="N10" s="34"/>
-      <c r="O10" s="33" t="s">
+      <c r="A10" s="34"/>
+      <c r="B10" s="34"/>
+      <c r="C10" s="35"/>
+      <c r="D10" s="35"/>
+      <c r="E10" s="35"/>
+      <c r="F10" s="35"/>
+      <c r="G10" s="35"/>
+      <c r="H10" s="34"/>
+      <c r="I10" s="34"/>
+      <c r="J10" s="35"/>
+      <c r="K10" s="35"/>
+      <c r="L10" s="35"/>
+      <c r="M10" s="35"/>
+      <c r="N10" s="35"/>
+      <c r="O10" s="36" t="s">
         <v>316</v>
       </c>
-      <c r="P10" s="33"/>
-      <c r="Q10" s="34" t="s">
+      <c r="P10" s="36"/>
+      <c r="Q10" s="35" t="s">
         <v>317</v>
       </c>
-      <c r="R10" s="34"/>
-      <c r="S10" s="34"/>
-      <c r="T10" s="34"/>
-      <c r="U10" s="34"/>
-      <c r="V10" s="33" t="s">
+      <c r="R10" s="35"/>
+      <c r="S10" s="35"/>
+      <c r="T10" s="35"/>
+      <c r="U10" s="35"/>
+      <c r="V10" s="36" t="s">
         <v>54</v>
       </c>
-      <c r="W10" s="33"/>
-      <c r="X10" s="34" t="s">
+      <c r="W10" s="36"/>
+      <c r="X10" s="35" t="s">
         <v>55</v>
       </c>
-      <c r="Y10" s="34"/>
-      <c r="Z10" s="34"/>
-      <c r="AA10" s="34"/>
-      <c r="AB10" s="34"/>
+      <c r="Y10" s="35"/>
+      <c r="Z10" s="35"/>
+      <c r="AA10" s="35"/>
+      <c r="AB10" s="35"/>
     </row>
     <row r="11" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="37" t="s">
+      <c r="A11" s="34" t="s">
         <v>34</v>
       </c>
-      <c r="B11" s="37"/>
-      <c r="C11" s="34" t="s">
+      <c r="B11" s="34"/>
+      <c r="C11" s="35" t="s">
         <v>41</v>
       </c>
-      <c r="D11" s="34"/>
-      <c r="E11" s="34"/>
-      <c r="F11" s="34"/>
-      <c r="G11" s="34"/>
-      <c r="H11" s="37" t="s">
+      <c r="D11" s="35"/>
+      <c r="E11" s="35"/>
+      <c r="F11" s="35"/>
+      <c r="G11" s="35"/>
+      <c r="H11" s="34" t="s">
         <v>322</v>
       </c>
-      <c r="I11" s="37"/>
-      <c r="J11" s="34" t="s">
+      <c r="I11" s="34"/>
+      <c r="J11" s="35" t="s">
         <v>42</v>
       </c>
-      <c r="K11" s="34"/>
-      <c r="L11" s="34"/>
-      <c r="M11" s="34"/>
-      <c r="N11" s="34"/>
-      <c r="O11" s="33" t="s">
+      <c r="K11" s="35"/>
+      <c r="L11" s="35"/>
+      <c r="M11" s="35"/>
+      <c r="N11" s="35"/>
+      <c r="O11" s="36" t="s">
         <v>318</v>
       </c>
-      <c r="P11" s="33"/>
-      <c r="Q11" s="34" t="s">
+      <c r="P11" s="36"/>
+      <c r="Q11" s="35" t="s">
         <v>359</v>
       </c>
-      <c r="R11" s="34"/>
-      <c r="S11" s="34"/>
-      <c r="T11" s="34"/>
-      <c r="U11" s="34"/>
-      <c r="V11" s="33" t="s">
+      <c r="R11" s="35"/>
+      <c r="S11" s="35"/>
+      <c r="T11" s="35"/>
+      <c r="U11" s="35"/>
+      <c r="V11" s="36" t="s">
         <v>56</v>
       </c>
-      <c r="W11" s="33"/>
-      <c r="X11" s="34" t="s">
+      <c r="W11" s="36"/>
+      <c r="X11" s="35" t="s">
         <v>57</v>
       </c>
-      <c r="Y11" s="34"/>
-      <c r="Z11" s="34"/>
-      <c r="AA11" s="34"/>
-      <c r="AB11" s="34"/>
+      <c r="Y11" s="35"/>
+      <c r="Z11" s="35"/>
+      <c r="AA11" s="35"/>
+      <c r="AB11" s="35"/>
     </row>
     <row r="12" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="37" t="s">
+      <c r="A12" s="34" t="s">
         <v>222</v>
       </c>
-      <c r="B12" s="37"/>
-      <c r="C12" s="34" t="s">
+      <c r="B12" s="34"/>
+      <c r="C12" s="35" t="s">
         <v>228</v>
       </c>
-      <c r="D12" s="34"/>
-      <c r="E12" s="34"/>
-      <c r="F12" s="34"/>
-      <c r="G12" s="34"/>
-      <c r="H12" s="37" t="s">
+      <c r="D12" s="35"/>
+      <c r="E12" s="35"/>
+      <c r="F12" s="35"/>
+      <c r="G12" s="35"/>
+      <c r="H12" s="34" t="s">
         <v>321</v>
       </c>
-      <c r="I12" s="37"/>
-      <c r="J12" s="34" t="s">
+      <c r="I12" s="34"/>
+      <c r="J12" s="35" t="s">
         <v>219</v>
       </c>
-      <c r="K12" s="34"/>
-      <c r="L12" s="34"/>
-      <c r="M12" s="34"/>
-      <c r="N12" s="34"/>
-      <c r="O12" s="33"/>
-      <c r="P12" s="33"/>
-      <c r="Q12" s="34"/>
-      <c r="R12" s="34"/>
-      <c r="S12" s="34"/>
-      <c r="T12" s="34"/>
-      <c r="U12" s="34"/>
-      <c r="V12" s="33"/>
-      <c r="W12" s="33"/>
-      <c r="X12" s="34"/>
-      <c r="Y12" s="34"/>
-      <c r="Z12" s="34"/>
-      <c r="AA12" s="34"/>
-      <c r="AB12" s="34"/>
+      <c r="K12" s="35"/>
+      <c r="L12" s="35"/>
+      <c r="M12" s="35"/>
+      <c r="N12" s="35"/>
+      <c r="O12" s="36"/>
+      <c r="P12" s="36"/>
+      <c r="Q12" s="35"/>
+      <c r="R12" s="35"/>
+      <c r="S12" s="35"/>
+      <c r="T12" s="35"/>
+      <c r="U12" s="35"/>
+      <c r="V12" s="36"/>
+      <c r="W12" s="36"/>
+      <c r="X12" s="35"/>
+      <c r="Y12" s="35"/>
+      <c r="Z12" s="35"/>
+      <c r="AA12" s="35"/>
+      <c r="AB12" s="35"/>
     </row>
     <row r="13" spans="1:30" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="37"/>
-      <c r="B13" s="37"/>
-      <c r="C13" s="41"/>
-      <c r="D13" s="41"/>
-      <c r="E13" s="41"/>
-      <c r="F13" s="41"/>
-      <c r="G13" s="41"/>
-      <c r="H13" s="37" t="s">
+      <c r="A13" s="34"/>
+      <c r="B13" s="34"/>
+      <c r="C13" s="37"/>
+      <c r="D13" s="37"/>
+      <c r="E13" s="37"/>
+      <c r="F13" s="37"/>
+      <c r="G13" s="37"/>
+      <c r="H13" s="34" t="s">
         <v>327</v>
       </c>
-      <c r="I13" s="37"/>
-      <c r="J13" s="34" t="s">
+      <c r="I13" s="34"/>
+      <c r="J13" s="35" t="s">
         <v>38</v>
       </c>
-      <c r="K13" s="34"/>
-      <c r="L13" s="34"/>
-      <c r="M13" s="34"/>
-      <c r="N13" s="34"/>
-      <c r="O13" s="33" t="s">
+      <c r="K13" s="35"/>
+      <c r="L13" s="35"/>
+      <c r="M13" s="35"/>
+      <c r="N13" s="35"/>
+      <c r="O13" s="36" t="s">
         <v>320</v>
       </c>
-      <c r="P13" s="33"/>
-      <c r="Q13" s="34" t="s">
+      <c r="P13" s="36"/>
+      <c r="Q13" s="35" t="s">
         <v>162</v>
       </c>
-      <c r="R13" s="34"/>
-      <c r="S13" s="34"/>
-      <c r="T13" s="34"/>
-      <c r="U13" s="34"/>
-      <c r="V13" s="37" t="s">
+      <c r="R13" s="35"/>
+      <c r="S13" s="35"/>
+      <c r="T13" s="35"/>
+      <c r="U13" s="35"/>
+      <c r="V13" s="34" t="s">
         <v>229</v>
       </c>
-      <c r="W13" s="37"/>
-      <c r="X13" s="34" t="s">
+      <c r="W13" s="34"/>
+      <c r="X13" s="35" t="s">
         <v>49</v>
       </c>
-      <c r="Y13" s="34"/>
-      <c r="Z13" s="34"/>
-      <c r="AA13" s="34"/>
-      <c r="AB13" s="34"/>
+      <c r="Y13" s="35"/>
+      <c r="Z13" s="35"/>
+      <c r="AA13" s="35"/>
+      <c r="AB13" s="35"/>
     </row>
     <row r="14" spans="1:30" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="37" t="s">
+      <c r="A14" s="34" t="s">
         <v>227</v>
       </c>
-      <c r="B14" s="37"/>
-      <c r="C14" s="41" t="s">
+      <c r="B14" s="34"/>
+      <c r="C14" s="37" t="s">
         <v>226</v>
       </c>
-      <c r="D14" s="41"/>
-      <c r="E14" s="41"/>
-      <c r="F14" s="41"/>
-      <c r="G14" s="41"/>
-      <c r="H14" s="37"/>
-      <c r="I14" s="37"/>
-      <c r="J14" s="34"/>
-      <c r="K14" s="34"/>
-      <c r="L14" s="34"/>
-      <c r="M14" s="34"/>
-      <c r="N14" s="34"/>
-      <c r="O14" s="33"/>
-      <c r="P14" s="33"/>
-      <c r="Q14" s="34"/>
-      <c r="R14" s="34"/>
-      <c r="S14" s="34"/>
-      <c r="T14" s="34"/>
-      <c r="U14" s="34"/>
-      <c r="V14" s="33"/>
-      <c r="W14" s="33"/>
-      <c r="X14" s="34"/>
-      <c r="Y14" s="34"/>
-      <c r="Z14" s="34"/>
-      <c r="AA14" s="34"/>
-      <c r="AB14" s="34"/>
+      <c r="D14" s="37"/>
+      <c r="E14" s="37"/>
+      <c r="F14" s="37"/>
+      <c r="G14" s="37"/>
+      <c r="H14" s="34"/>
+      <c r="I14" s="34"/>
+      <c r="J14" s="35"/>
+      <c r="K14" s="35"/>
+      <c r="L14" s="35"/>
+      <c r="M14" s="35"/>
+      <c r="N14" s="35"/>
+      <c r="O14" s="36"/>
+      <c r="P14" s="36"/>
+      <c r="Q14" s="35"/>
+      <c r="R14" s="35"/>
+      <c r="S14" s="35"/>
+      <c r="T14" s="35"/>
+      <c r="U14" s="35"/>
+      <c r="V14" s="36"/>
+      <c r="W14" s="36"/>
+      <c r="X14" s="35"/>
+      <c r="Y14" s="35"/>
+      <c r="Z14" s="35"/>
+      <c r="AA14" s="35"/>
+      <c r="AB14" s="35"/>
     </row>
     <row r="15" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A15" s="37" t="s">
+      <c r="A15" s="34" t="s">
         <v>231</v>
       </c>
-      <c r="B15" s="37"/>
-      <c r="C15" s="41" t="s">
+      <c r="B15" s="34"/>
+      <c r="C15" s="37" t="s">
         <v>230</v>
       </c>
-      <c r="D15" s="41"/>
-      <c r="E15" s="41"/>
-      <c r="F15" s="41"/>
-      <c r="G15" s="41"/>
-      <c r="H15" s="37"/>
-      <c r="I15" s="37"/>
-      <c r="J15" s="34"/>
-      <c r="K15" s="34"/>
-      <c r="L15" s="34"/>
-      <c r="M15" s="34"/>
-      <c r="N15" s="34"/>
-      <c r="O15" s="33"/>
-      <c r="P15" s="33"/>
-      <c r="Q15" s="34"/>
-      <c r="R15" s="34"/>
-      <c r="S15" s="34"/>
-      <c r="T15" s="34"/>
-      <c r="U15" s="34"/>
-      <c r="V15" s="33"/>
-      <c r="W15" s="33"/>
-      <c r="X15" s="34"/>
-      <c r="Y15" s="34"/>
-      <c r="Z15" s="34"/>
-      <c r="AA15" s="34"/>
-      <c r="AB15" s="34"/>
+      <c r="D15" s="37"/>
+      <c r="E15" s="37"/>
+      <c r="F15" s="37"/>
+      <c r="G15" s="37"/>
+      <c r="H15" s="34"/>
+      <c r="I15" s="34"/>
+      <c r="J15" s="35"/>
+      <c r="K15" s="35"/>
+      <c r="L15" s="35"/>
+      <c r="M15" s="35"/>
+      <c r="N15" s="35"/>
+      <c r="O15" s="36"/>
+      <c r="P15" s="36"/>
+      <c r="Q15" s="35"/>
+      <c r="R15" s="35"/>
+      <c r="S15" s="35"/>
+      <c r="T15" s="35"/>
+      <c r="U15" s="35"/>
+      <c r="V15" s="36"/>
+      <c r="W15" s="36"/>
+      <c r="X15" s="35"/>
+      <c r="Y15" s="35"/>
+      <c r="Z15" s="35"/>
+      <c r="AA15" s="35"/>
+      <c r="AB15" s="35"/>
     </row>
     <row r="16" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A16" s="37" t="s">
+      <c r="A16" s="34" t="s">
         <v>232</v>
       </c>
-      <c r="B16" s="37"/>
-      <c r="C16" s="41" t="s">
+      <c r="B16" s="34"/>
+      <c r="C16" s="37" t="s">
         <v>233</v>
       </c>
-      <c r="D16" s="34"/>
-      <c r="E16" s="34"/>
-      <c r="F16" s="34"/>
-      <c r="G16" s="34"/>
-      <c r="H16" s="37"/>
-      <c r="I16" s="37"/>
-      <c r="J16" s="34"/>
-      <c r="K16" s="34"/>
-      <c r="L16" s="34"/>
-      <c r="M16" s="34"/>
-      <c r="N16" s="34"/>
-      <c r="O16" s="33"/>
-      <c r="P16" s="33"/>
-      <c r="Q16" s="34"/>
-      <c r="R16" s="34"/>
-      <c r="S16" s="34"/>
-      <c r="T16" s="34"/>
-      <c r="U16" s="34"/>
-      <c r="V16" s="33"/>
-      <c r="W16" s="33"/>
-      <c r="X16" s="34"/>
-      <c r="Y16" s="34"/>
-      <c r="Z16" s="34"/>
-      <c r="AA16" s="34"/>
-      <c r="AB16" s="34"/>
+      <c r="D16" s="35"/>
+      <c r="E16" s="35"/>
+      <c r="F16" s="35"/>
+      <c r="G16" s="35"/>
+      <c r="H16" s="34"/>
+      <c r="I16" s="34"/>
+      <c r="J16" s="35"/>
+      <c r="K16" s="35"/>
+      <c r="L16" s="35"/>
+      <c r="M16" s="35"/>
+      <c r="N16" s="35"/>
+      <c r="O16" s="36"/>
+      <c r="P16" s="36"/>
+      <c r="Q16" s="35"/>
+      <c r="R16" s="35"/>
+      <c r="S16" s="35"/>
+      <c r="T16" s="35"/>
+      <c r="U16" s="35"/>
+      <c r="V16" s="36"/>
+      <c r="W16" s="36"/>
+      <c r="X16" s="35"/>
+      <c r="Y16" s="35"/>
+      <c r="Z16" s="35"/>
+      <c r="AA16" s="35"/>
+      <c r="AB16" s="35"/>
     </row>
     <row r="17" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A17" s="37" t="s">
+      <c r="A17" s="34" t="s">
         <v>331</v>
       </c>
-      <c r="B17" s="37"/>
-      <c r="C17" s="34"/>
-      <c r="D17" s="34"/>
-      <c r="E17" s="34"/>
-      <c r="F17" s="34"/>
-      <c r="G17" s="34"/>
-      <c r="H17" s="37"/>
-      <c r="I17" s="37"/>
-      <c r="J17" s="34"/>
-      <c r="K17" s="34"/>
-      <c r="L17" s="34"/>
-      <c r="M17" s="34"/>
-      <c r="N17" s="34"/>
-      <c r="O17" s="33"/>
-      <c r="P17" s="33"/>
-      <c r="Q17" s="34"/>
-      <c r="R17" s="34"/>
-      <c r="S17" s="34"/>
-      <c r="T17" s="34"/>
-      <c r="U17" s="34"/>
-      <c r="V17" s="33"/>
-      <c r="W17" s="33"/>
-      <c r="X17" s="34"/>
-      <c r="Y17" s="34"/>
-      <c r="Z17" s="34"/>
-      <c r="AA17" s="34"/>
-      <c r="AB17" s="34"/>
+      <c r="B17" s="34"/>
+      <c r="C17" s="35"/>
+      <c r="D17" s="35"/>
+      <c r="E17" s="35"/>
+      <c r="F17" s="35"/>
+      <c r="G17" s="35"/>
+      <c r="H17" s="34"/>
+      <c r="I17" s="34"/>
+      <c r="J17" s="35"/>
+      <c r="K17" s="35"/>
+      <c r="L17" s="35"/>
+      <c r="M17" s="35"/>
+      <c r="N17" s="35"/>
+      <c r="O17" s="36"/>
+      <c r="P17" s="36"/>
+      <c r="Q17" s="35"/>
+      <c r="R17" s="35"/>
+      <c r="S17" s="35"/>
+      <c r="T17" s="35"/>
+      <c r="U17" s="35"/>
+      <c r="V17" s="36"/>
+      <c r="W17" s="36"/>
+      <c r="X17" s="35"/>
+      <c r="Y17" s="35"/>
+      <c r="Z17" s="35"/>
+      <c r="AA17" s="35"/>
+      <c r="AB17" s="35"/>
     </row>
     <row r="18" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A18" s="37"/>
-      <c r="B18" s="37"/>
-      <c r="C18" s="34"/>
-      <c r="D18" s="34"/>
-      <c r="E18" s="34"/>
-      <c r="F18" s="34"/>
-      <c r="G18" s="34"/>
-      <c r="H18" s="37"/>
-      <c r="I18" s="37"/>
-      <c r="J18" s="34"/>
-      <c r="K18" s="34"/>
-      <c r="L18" s="34"/>
-      <c r="M18" s="34"/>
-      <c r="N18" s="34"/>
-      <c r="O18" s="33"/>
-      <c r="P18" s="33"/>
-      <c r="Q18" s="34"/>
-      <c r="R18" s="34"/>
-      <c r="S18" s="34"/>
-      <c r="T18" s="34"/>
-      <c r="U18" s="34"/>
-      <c r="V18" s="33"/>
-      <c r="W18" s="33"/>
-      <c r="X18" s="34"/>
-      <c r="Y18" s="34"/>
-      <c r="Z18" s="34"/>
-      <c r="AA18" s="34"/>
-      <c r="AB18" s="34"/>
+      <c r="A18" s="34"/>
+      <c r="B18" s="34"/>
+      <c r="C18" s="35"/>
+      <c r="D18" s="35"/>
+      <c r="E18" s="35"/>
+      <c r="F18" s="35"/>
+      <c r="G18" s="35"/>
+      <c r="H18" s="34"/>
+      <c r="I18" s="34"/>
+      <c r="J18" s="35"/>
+      <c r="K18" s="35"/>
+      <c r="L18" s="35"/>
+      <c r="M18" s="35"/>
+      <c r="N18" s="35"/>
+      <c r="O18" s="36"/>
+      <c r="P18" s="36"/>
+      <c r="Q18" s="35"/>
+      <c r="R18" s="35"/>
+      <c r="S18" s="35"/>
+      <c r="T18" s="35"/>
+      <c r="U18" s="35"/>
+      <c r="V18" s="36"/>
+      <c r="W18" s="36"/>
+      <c r="X18" s="35"/>
+      <c r="Y18" s="35"/>
+      <c r="Z18" s="35"/>
+      <c r="AA18" s="35"/>
+      <c r="AB18" s="35"/>
     </row>
     <row r="19" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A19" s="37"/>
-      <c r="B19" s="37"/>
-      <c r="C19" s="34"/>
-      <c r="D19" s="34"/>
-      <c r="E19" s="34"/>
-      <c r="F19" s="34"/>
-      <c r="G19" s="34"/>
-      <c r="H19" s="37"/>
-      <c r="I19" s="37"/>
-      <c r="J19" s="34"/>
-      <c r="K19" s="34"/>
-      <c r="L19" s="34"/>
-      <c r="M19" s="34"/>
-      <c r="N19" s="34"/>
-      <c r="O19" s="33"/>
-      <c r="P19" s="33"/>
-      <c r="Q19" s="34"/>
-      <c r="R19" s="34"/>
-      <c r="S19" s="34"/>
-      <c r="T19" s="34"/>
-      <c r="U19" s="34"/>
-      <c r="V19" s="33"/>
-      <c r="W19" s="33"/>
-      <c r="X19" s="34"/>
-      <c r="Y19" s="34"/>
-      <c r="Z19" s="34"/>
-      <c r="AA19" s="34"/>
-      <c r="AB19" s="34"/>
+      <c r="A19" s="34"/>
+      <c r="B19" s="34"/>
+      <c r="C19" s="35"/>
+      <c r="D19" s="35"/>
+      <c r="E19" s="35"/>
+      <c r="F19" s="35"/>
+      <c r="G19" s="35"/>
+      <c r="H19" s="34"/>
+      <c r="I19" s="34"/>
+      <c r="J19" s="35"/>
+      <c r="K19" s="35"/>
+      <c r="L19" s="35"/>
+      <c r="M19" s="35"/>
+      <c r="N19" s="35"/>
+      <c r="O19" s="36"/>
+      <c r="P19" s="36"/>
+      <c r="Q19" s="35"/>
+      <c r="R19" s="35"/>
+      <c r="S19" s="35"/>
+      <c r="T19" s="35"/>
+      <c r="U19" s="35"/>
+      <c r="V19" s="36"/>
+      <c r="W19" s="36"/>
+      <c r="X19" s="35"/>
+      <c r="Y19" s="35"/>
+      <c r="Z19" s="35"/>
+      <c r="AA19" s="35"/>
+      <c r="AB19" s="35"/>
     </row>
     <row r="20" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A20" s="37"/>
-      <c r="B20" s="37"/>
-      <c r="C20" s="34"/>
-      <c r="D20" s="34"/>
-      <c r="E20" s="34"/>
-      <c r="F20" s="34"/>
-      <c r="G20" s="34"/>
-      <c r="H20" s="37"/>
-      <c r="I20" s="37"/>
-      <c r="J20" s="34"/>
-      <c r="K20" s="34"/>
-      <c r="L20" s="34"/>
-      <c r="M20" s="34"/>
-      <c r="N20" s="34"/>
-      <c r="O20" s="33"/>
-      <c r="P20" s="33"/>
-      <c r="Q20" s="34"/>
-      <c r="R20" s="34"/>
-      <c r="S20" s="34"/>
-      <c r="T20" s="34"/>
-      <c r="U20" s="34"/>
-      <c r="V20" s="33"/>
-      <c r="W20" s="33"/>
-      <c r="X20" s="34"/>
-      <c r="Y20" s="34"/>
-      <c r="Z20" s="34"/>
-      <c r="AA20" s="34"/>
-      <c r="AB20" s="34"/>
+      <c r="A20" s="34"/>
+      <c r="B20" s="34"/>
+      <c r="C20" s="35"/>
+      <c r="D20" s="35"/>
+      <c r="E20" s="35"/>
+      <c r="F20" s="35"/>
+      <c r="G20" s="35"/>
+      <c r="H20" s="34"/>
+      <c r="I20" s="34"/>
+      <c r="J20" s="35"/>
+      <c r="K20" s="35"/>
+      <c r="L20" s="35"/>
+      <c r="M20" s="35"/>
+      <c r="N20" s="35"/>
+      <c r="O20" s="36"/>
+      <c r="P20" s="36"/>
+      <c r="Q20" s="35"/>
+      <c r="R20" s="35"/>
+      <c r="S20" s="35"/>
+      <c r="T20" s="35"/>
+      <c r="U20" s="35"/>
+      <c r="V20" s="36"/>
+      <c r="W20" s="36"/>
+      <c r="X20" s="35"/>
+      <c r="Y20" s="35"/>
+      <c r="Z20" s="35"/>
+      <c r="AA20" s="35"/>
+      <c r="AB20" s="35"/>
     </row>
     <row r="21" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A21" s="37"/>
-      <c r="B21" s="37"/>
-      <c r="C21" s="34"/>
-      <c r="D21" s="34"/>
-      <c r="E21" s="34"/>
-      <c r="F21" s="34"/>
-      <c r="G21" s="34"/>
-      <c r="H21" s="37"/>
-      <c r="I21" s="37"/>
-      <c r="J21" s="34"/>
-      <c r="K21" s="34"/>
-      <c r="L21" s="34"/>
-      <c r="M21" s="34"/>
-      <c r="N21" s="34"/>
-      <c r="O21" s="33"/>
-      <c r="P21" s="33"/>
-      <c r="Q21" s="34"/>
-      <c r="R21" s="34"/>
-      <c r="S21" s="34"/>
-      <c r="T21" s="34"/>
-      <c r="U21" s="34"/>
-      <c r="V21" s="33"/>
-      <c r="W21" s="33"/>
-      <c r="X21" s="34"/>
-      <c r="Y21" s="34"/>
-      <c r="Z21" s="34"/>
-      <c r="AA21" s="34"/>
-      <c r="AB21" s="34"/>
+      <c r="A21" s="34"/>
+      <c r="B21" s="34"/>
+      <c r="C21" s="35"/>
+      <c r="D21" s="35"/>
+      <c r="E21" s="35"/>
+      <c r="F21" s="35"/>
+      <c r="G21" s="35"/>
+      <c r="H21" s="34"/>
+      <c r="I21" s="34"/>
+      <c r="J21" s="35"/>
+      <c r="K21" s="35"/>
+      <c r="L21" s="35"/>
+      <c r="M21" s="35"/>
+      <c r="N21" s="35"/>
+      <c r="O21" s="36"/>
+      <c r="P21" s="36"/>
+      <c r="Q21" s="35"/>
+      <c r="R21" s="35"/>
+      <c r="S21" s="35"/>
+      <c r="T21" s="35"/>
+      <c r="U21" s="35"/>
+      <c r="V21" s="36"/>
+      <c r="W21" s="36"/>
+      <c r="X21" s="35"/>
+      <c r="Y21" s="35"/>
+      <c r="Z21" s="35"/>
+      <c r="AA21" s="35"/>
+      <c r="AB21" s="35"/>
     </row>
     <row r="22" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A22" s="37"/>
-      <c r="B22" s="37"/>
-      <c r="C22" s="34"/>
-      <c r="D22" s="34"/>
-      <c r="E22" s="34"/>
-      <c r="F22" s="34"/>
-      <c r="G22" s="34"/>
-      <c r="H22" s="37"/>
-      <c r="I22" s="37"/>
-      <c r="J22" s="34"/>
-      <c r="K22" s="34"/>
-      <c r="L22" s="34"/>
-      <c r="M22" s="34"/>
-      <c r="N22" s="34"/>
-      <c r="O22" s="33"/>
-      <c r="P22" s="33"/>
-      <c r="Q22" s="34"/>
-      <c r="R22" s="34"/>
-      <c r="S22" s="34"/>
-      <c r="T22" s="34"/>
-      <c r="U22" s="34"/>
-      <c r="V22" s="33"/>
-      <c r="W22" s="33"/>
-      <c r="X22" s="34"/>
-      <c r="Y22" s="34"/>
-      <c r="Z22" s="34"/>
-      <c r="AA22" s="34"/>
-      <c r="AB22" s="34"/>
+      <c r="A22" s="34"/>
+      <c r="B22" s="34"/>
+      <c r="C22" s="35"/>
+      <c r="D22" s="35"/>
+      <c r="E22" s="35"/>
+      <c r="F22" s="35"/>
+      <c r="G22" s="35"/>
+      <c r="H22" s="34"/>
+      <c r="I22" s="34"/>
+      <c r="J22" s="35"/>
+      <c r="K22" s="35"/>
+      <c r="L22" s="35"/>
+      <c r="M22" s="35"/>
+      <c r="N22" s="35"/>
+      <c r="O22" s="36"/>
+      <c r="P22" s="36"/>
+      <c r="Q22" s="35"/>
+      <c r="R22" s="35"/>
+      <c r="S22" s="35"/>
+      <c r="T22" s="35"/>
+      <c r="U22" s="35"/>
+      <c r="V22" s="36"/>
+      <c r="W22" s="36"/>
+      <c r="X22" s="35"/>
+      <c r="Y22" s="35"/>
+      <c r="Z22" s="35"/>
+      <c r="AA22" s="35"/>
+      <c r="AB22" s="35"/>
     </row>
     <row r="23" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A23" s="37"/>
-      <c r="B23" s="37"/>
-      <c r="C23" s="34"/>
-      <c r="D23" s="34"/>
-      <c r="E23" s="34"/>
-      <c r="F23" s="34"/>
-      <c r="G23" s="34"/>
-      <c r="H23" s="37"/>
-      <c r="I23" s="37"/>
-      <c r="J23" s="34"/>
-      <c r="K23" s="34"/>
-      <c r="L23" s="34"/>
-      <c r="M23" s="34"/>
-      <c r="N23" s="34"/>
-      <c r="O23" s="33"/>
-      <c r="P23" s="33"/>
-      <c r="Q23" s="34"/>
-      <c r="R23" s="34"/>
-      <c r="S23" s="34"/>
-      <c r="T23" s="34"/>
-      <c r="U23" s="34"/>
+      <c r="A23" s="34"/>
+      <c r="B23" s="34"/>
+      <c r="C23" s="35"/>
+      <c r="D23" s="35"/>
+      <c r="E23" s="35"/>
+      <c r="F23" s="35"/>
+      <c r="G23" s="35"/>
+      <c r="H23" s="34"/>
+      <c r="I23" s="34"/>
+      <c r="J23" s="35"/>
+      <c r="K23" s="35"/>
+      <c r="L23" s="35"/>
+      <c r="M23" s="35"/>
+      <c r="N23" s="35"/>
+      <c r="O23" s="36"/>
+      <c r="P23" s="36"/>
+      <c r="Q23" s="35"/>
+      <c r="R23" s="35"/>
+      <c r="S23" s="35"/>
+      <c r="T23" s="35"/>
+      <c r="U23" s="35"/>
     </row>
     <row r="24" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A24" s="37"/>
-      <c r="B24" s="37"/>
-      <c r="C24" s="34"/>
-      <c r="D24" s="34"/>
-      <c r="E24" s="34"/>
-      <c r="F24" s="34"/>
-      <c r="G24" s="34"/>
-      <c r="H24" s="37"/>
-      <c r="I24" s="37"/>
-      <c r="J24" s="34"/>
-      <c r="K24" s="34"/>
-      <c r="L24" s="34"/>
-      <c r="M24" s="34"/>
-      <c r="N24" s="34"/>
-      <c r="O24" s="33"/>
-      <c r="P24" s="33"/>
-      <c r="Q24" s="34"/>
-      <c r="R24" s="34"/>
-      <c r="S24" s="34"/>
-      <c r="T24" s="34"/>
-      <c r="U24" s="34"/>
+      <c r="A24" s="34"/>
+      <c r="B24" s="34"/>
+      <c r="C24" s="35"/>
+      <c r="D24" s="35"/>
+      <c r="E24" s="35"/>
+      <c r="F24" s="35"/>
+      <c r="G24" s="35"/>
+      <c r="H24" s="34"/>
+      <c r="I24" s="34"/>
+      <c r="J24" s="35"/>
+      <c r="K24" s="35"/>
+      <c r="L24" s="35"/>
+      <c r="M24" s="35"/>
+      <c r="N24" s="35"/>
+      <c r="O24" s="36"/>
+      <c r="P24" s="36"/>
+      <c r="Q24" s="35"/>
+      <c r="R24" s="35"/>
+      <c r="S24" s="35"/>
+      <c r="T24" s="35"/>
+      <c r="U24" s="35"/>
     </row>
     <row r="25" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A25" s="37"/>
-      <c r="B25" s="37"/>
-      <c r="C25" s="34"/>
-      <c r="D25" s="34"/>
-      <c r="E25" s="34"/>
-      <c r="F25" s="34"/>
-      <c r="G25" s="34"/>
-      <c r="H25" s="37"/>
-      <c r="I25" s="37"/>
-      <c r="J25" s="34"/>
-      <c r="K25" s="34"/>
-      <c r="L25" s="34"/>
-      <c r="M25" s="34"/>
-      <c r="N25" s="34"/>
-      <c r="O25" s="33"/>
-      <c r="P25" s="33"/>
-      <c r="Q25" s="34"/>
-      <c r="R25" s="34"/>
-      <c r="S25" s="34"/>
-      <c r="T25" s="34"/>
-      <c r="U25" s="34"/>
+      <c r="A25" s="34"/>
+      <c r="B25" s="34"/>
+      <c r="C25" s="35"/>
+      <c r="D25" s="35"/>
+      <c r="E25" s="35"/>
+      <c r="F25" s="35"/>
+      <c r="G25" s="35"/>
+      <c r="H25" s="34"/>
+      <c r="I25" s="34"/>
+      <c r="J25" s="35"/>
+      <c r="K25" s="35"/>
+      <c r="L25" s="35"/>
+      <c r="M25" s="35"/>
+      <c r="N25" s="35"/>
+      <c r="O25" s="36"/>
+      <c r="P25" s="36"/>
+      <c r="Q25" s="35"/>
+      <c r="R25" s="35"/>
+      <c r="S25" s="35"/>
+      <c r="T25" s="35"/>
+      <c r="U25" s="35"/>
     </row>
     <row r="26" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A26" s="37"/>
-      <c r="B26" s="37"/>
-      <c r="C26" s="34"/>
-      <c r="D26" s="34"/>
-      <c r="E26" s="34"/>
-      <c r="F26" s="34"/>
-      <c r="G26" s="34"/>
-      <c r="H26" s="37"/>
-      <c r="I26" s="37"/>
-      <c r="J26" s="34"/>
-      <c r="K26" s="34"/>
-      <c r="L26" s="34"/>
-      <c r="M26" s="34"/>
-      <c r="N26" s="34"/>
-      <c r="O26" s="33"/>
-      <c r="P26" s="33"/>
-      <c r="Q26" s="34"/>
-      <c r="R26" s="34"/>
-      <c r="S26" s="34"/>
-      <c r="T26" s="34"/>
-      <c r="U26" s="34"/>
+      <c r="A26" s="34"/>
+      <c r="B26" s="34"/>
+      <c r="C26" s="35"/>
+      <c r="D26" s="35"/>
+      <c r="E26" s="35"/>
+      <c r="F26" s="35"/>
+      <c r="G26" s="35"/>
+      <c r="H26" s="34"/>
+      <c r="I26" s="34"/>
+      <c r="J26" s="35"/>
+      <c r="K26" s="35"/>
+      <c r="L26" s="35"/>
+      <c r="M26" s="35"/>
+      <c r="N26" s="35"/>
+      <c r="O26" s="36"/>
+      <c r="P26" s="36"/>
+      <c r="Q26" s="35"/>
+      <c r="R26" s="35"/>
+      <c r="S26" s="35"/>
+      <c r="T26" s="35"/>
+      <c r="U26" s="35"/>
     </row>
     <row r="27" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A27" s="37"/>
-      <c r="B27" s="37"/>
-      <c r="C27" s="34"/>
-      <c r="D27" s="34"/>
-      <c r="E27" s="34"/>
-      <c r="F27" s="34"/>
-      <c r="G27" s="34"/>
-      <c r="H27" s="37"/>
-      <c r="I27" s="37"/>
-      <c r="J27" s="34"/>
-      <c r="K27" s="34"/>
-      <c r="L27" s="34"/>
-      <c r="M27" s="34"/>
-      <c r="N27" s="34"/>
-      <c r="O27" s="33"/>
-      <c r="P27" s="33"/>
-      <c r="Q27" s="34"/>
-      <c r="R27" s="34"/>
-      <c r="S27" s="34"/>
-      <c r="T27" s="34"/>
-      <c r="U27" s="34"/>
+      <c r="A27" s="34"/>
+      <c r="B27" s="34"/>
+      <c r="C27" s="35"/>
+      <c r="D27" s="35"/>
+      <c r="E27" s="35"/>
+      <c r="F27" s="35"/>
+      <c r="G27" s="35"/>
+      <c r="H27" s="34"/>
+      <c r="I27" s="34"/>
+      <c r="J27" s="35"/>
+      <c r="K27" s="35"/>
+      <c r="L27" s="35"/>
+      <c r="M27" s="35"/>
+      <c r="N27" s="35"/>
+      <c r="O27" s="36"/>
+      <c r="P27" s="36"/>
+      <c r="Q27" s="35"/>
+      <c r="R27" s="35"/>
+      <c r="S27" s="35"/>
+      <c r="T27" s="35"/>
+      <c r="U27" s="35"/>
     </row>
     <row r="28" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A28" s="37"/>
-      <c r="B28" s="37"/>
-      <c r="C28" s="34"/>
-      <c r="D28" s="34"/>
-      <c r="E28" s="34"/>
-      <c r="F28" s="34"/>
-      <c r="G28" s="34"/>
-      <c r="H28" s="37"/>
-      <c r="I28" s="37"/>
-      <c r="J28" s="34"/>
-      <c r="K28" s="34"/>
-      <c r="L28" s="34"/>
-      <c r="M28" s="34"/>
-      <c r="N28" s="34"/>
-      <c r="O28" s="33"/>
-      <c r="P28" s="33"/>
-      <c r="Q28" s="34"/>
-      <c r="R28" s="34"/>
-      <c r="S28" s="34"/>
-      <c r="T28" s="34"/>
-      <c r="U28" s="34"/>
+      <c r="A28" s="34"/>
+      <c r="B28" s="34"/>
+      <c r="C28" s="35"/>
+      <c r="D28" s="35"/>
+      <c r="E28" s="35"/>
+      <c r="F28" s="35"/>
+      <c r="G28" s="35"/>
+      <c r="H28" s="34"/>
+      <c r="I28" s="34"/>
+      <c r="J28" s="35"/>
+      <c r="K28" s="35"/>
+      <c r="L28" s="35"/>
+      <c r="M28" s="35"/>
+      <c r="N28" s="35"/>
+      <c r="O28" s="36"/>
+      <c r="P28" s="36"/>
+      <c r="Q28" s="35"/>
+      <c r="R28" s="35"/>
+      <c r="S28" s="35"/>
+      <c r="T28" s="35"/>
+      <c r="U28" s="35"/>
     </row>
     <row r="29" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A29" s="37"/>
-      <c r="B29" s="37"/>
-      <c r="C29" s="34"/>
-      <c r="D29" s="34"/>
-      <c r="E29" s="34"/>
-      <c r="F29" s="34"/>
-      <c r="G29" s="34"/>
-      <c r="H29" s="37"/>
-      <c r="I29" s="37"/>
-      <c r="J29" s="34"/>
-      <c r="K29" s="34"/>
-      <c r="L29" s="34"/>
-      <c r="M29" s="34"/>
-      <c r="N29" s="34"/>
-      <c r="O29" s="33"/>
-      <c r="P29" s="33"/>
-      <c r="Q29" s="34"/>
-      <c r="R29" s="34"/>
-      <c r="S29" s="34"/>
-      <c r="T29" s="34"/>
-      <c r="U29" s="34"/>
+      <c r="A29" s="34"/>
+      <c r="B29" s="34"/>
+      <c r="C29" s="35"/>
+      <c r="D29" s="35"/>
+      <c r="E29" s="35"/>
+      <c r="F29" s="35"/>
+      <c r="G29" s="35"/>
+      <c r="H29" s="34"/>
+      <c r="I29" s="34"/>
+      <c r="J29" s="35"/>
+      <c r="K29" s="35"/>
+      <c r="L29" s="35"/>
+      <c r="M29" s="35"/>
+      <c r="N29" s="35"/>
+      <c r="O29" s="36"/>
+      <c r="P29" s="36"/>
+      <c r="Q29" s="35"/>
+      <c r="R29" s="35"/>
+      <c r="S29" s="35"/>
+      <c r="T29" s="35"/>
+      <c r="U29" s="35"/>
     </row>
     <row r="30" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A30" s="37"/>
-      <c r="B30" s="37"/>
-      <c r="C30" s="34"/>
-      <c r="D30" s="34"/>
-      <c r="E30" s="34"/>
-      <c r="F30" s="34"/>
-      <c r="G30" s="34"/>
-      <c r="H30" s="37"/>
-      <c r="I30" s="37"/>
-      <c r="J30" s="34"/>
-      <c r="K30" s="34"/>
-      <c r="L30" s="34"/>
-      <c r="M30" s="34"/>
-      <c r="N30" s="34"/>
-      <c r="O30" s="33"/>
-      <c r="P30" s="33"/>
-      <c r="Q30" s="34"/>
-      <c r="R30" s="34"/>
-      <c r="S30" s="34"/>
-      <c r="T30" s="34"/>
-      <c r="U30" s="34"/>
+      <c r="A30" s="34"/>
+      <c r="B30" s="34"/>
+      <c r="C30" s="35"/>
+      <c r="D30" s="35"/>
+      <c r="E30" s="35"/>
+      <c r="F30" s="35"/>
+      <c r="G30" s="35"/>
+      <c r="H30" s="34"/>
+      <c r="I30" s="34"/>
+      <c r="J30" s="35"/>
+      <c r="K30" s="35"/>
+      <c r="L30" s="35"/>
+      <c r="M30" s="35"/>
+      <c r="N30" s="35"/>
+      <c r="O30" s="36"/>
+      <c r="P30" s="36"/>
+      <c r="Q30" s="35"/>
+      <c r="R30" s="35"/>
+      <c r="S30" s="35"/>
+      <c r="T30" s="35"/>
+      <c r="U30" s="35"/>
     </row>
     <row r="31" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A31" s="37"/>
-      <c r="B31" s="37"/>
-      <c r="C31" s="34"/>
-      <c r="D31" s="34"/>
-      <c r="E31" s="34"/>
-      <c r="F31" s="34"/>
-      <c r="G31" s="34"/>
-      <c r="H31" s="37"/>
-      <c r="I31" s="37"/>
-      <c r="J31" s="34"/>
-      <c r="K31" s="34"/>
-      <c r="L31" s="34"/>
-      <c r="M31" s="34"/>
-      <c r="N31" s="34"/>
-      <c r="O31" s="33"/>
-      <c r="P31" s="33"/>
-      <c r="Q31" s="34"/>
-      <c r="R31" s="34"/>
-      <c r="S31" s="34"/>
-      <c r="T31" s="34"/>
-      <c r="U31" s="34"/>
+      <c r="A31" s="34"/>
+      <c r="B31" s="34"/>
+      <c r="C31" s="35"/>
+      <c r="D31" s="35"/>
+      <c r="E31" s="35"/>
+      <c r="F31" s="35"/>
+      <c r="G31" s="35"/>
+      <c r="H31" s="34"/>
+      <c r="I31" s="34"/>
+      <c r="J31" s="35"/>
+      <c r="K31" s="35"/>
+      <c r="L31" s="35"/>
+      <c r="M31" s="35"/>
+      <c r="N31" s="35"/>
+      <c r="O31" s="36"/>
+      <c r="P31" s="36"/>
+      <c r="Q31" s="35"/>
+      <c r="R31" s="35"/>
+      <c r="S31" s="35"/>
+      <c r="T31" s="35"/>
+      <c r="U31" s="35"/>
     </row>
     <row r="32" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A32" s="37"/>
-      <c r="B32" s="37"/>
-      <c r="C32" s="34"/>
-      <c r="D32" s="34"/>
-      <c r="E32" s="34"/>
-      <c r="F32" s="34"/>
-      <c r="G32" s="34"/>
-      <c r="H32" s="37"/>
-      <c r="I32" s="37"/>
-      <c r="J32" s="34"/>
-      <c r="K32" s="34"/>
-      <c r="L32" s="34"/>
-      <c r="M32" s="34"/>
-      <c r="N32" s="34"/>
-      <c r="O32" s="33"/>
-      <c r="P32" s="33"/>
-      <c r="Q32" s="34"/>
-      <c r="R32" s="34"/>
-      <c r="S32" s="34"/>
-      <c r="T32" s="34"/>
-      <c r="U32" s="34"/>
+      <c r="A32" s="34"/>
+      <c r="B32" s="34"/>
+      <c r="C32" s="35"/>
+      <c r="D32" s="35"/>
+      <c r="E32" s="35"/>
+      <c r="F32" s="35"/>
+      <c r="G32" s="35"/>
+      <c r="H32" s="34"/>
+      <c r="I32" s="34"/>
+      <c r="J32" s="35"/>
+      <c r="K32" s="35"/>
+      <c r="L32" s="35"/>
+      <c r="M32" s="35"/>
+      <c r="N32" s="35"/>
+      <c r="O32" s="36"/>
+      <c r="P32" s="36"/>
+      <c r="Q32" s="35"/>
+      <c r="R32" s="35"/>
+      <c r="S32" s="35"/>
+      <c r="T32" s="35"/>
+      <c r="U32" s="35"/>
     </row>
     <row r="33" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A33" s="37"/>
-      <c r="B33" s="37"/>
-      <c r="C33" s="34"/>
-      <c r="D33" s="34"/>
-      <c r="E33" s="34"/>
-      <c r="F33" s="34"/>
-      <c r="G33" s="34"/>
-      <c r="H33" s="37"/>
-      <c r="I33" s="37"/>
-      <c r="J33" s="34"/>
-      <c r="K33" s="34"/>
-      <c r="L33" s="34"/>
-      <c r="M33" s="34"/>
-      <c r="N33" s="34"/>
-      <c r="O33" s="37"/>
-      <c r="P33" s="37"/>
-      <c r="Q33" s="34"/>
-      <c r="R33" s="34"/>
-      <c r="S33" s="34"/>
-      <c r="T33" s="34"/>
-      <c r="U33" s="34"/>
+      <c r="A33" s="34"/>
+      <c r="B33" s="34"/>
+      <c r="C33" s="35"/>
+      <c r="D33" s="35"/>
+      <c r="E33" s="35"/>
+      <c r="F33" s="35"/>
+      <c r="G33" s="35"/>
+      <c r="H33" s="34"/>
+      <c r="I33" s="34"/>
+      <c r="J33" s="35"/>
+      <c r="K33" s="35"/>
+      <c r="L33" s="35"/>
+      <c r="M33" s="35"/>
+      <c r="N33" s="35"/>
+      <c r="O33" s="34"/>
+      <c r="P33" s="34"/>
+      <c r="Q33" s="35"/>
+      <c r="R33" s="35"/>
+      <c r="S33" s="35"/>
+      <c r="T33" s="35"/>
+      <c r="U33" s="35"/>
     </row>
     <row r="34" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A34" s="37"/>
-      <c r="B34" s="37"/>
-      <c r="C34" s="34"/>
-      <c r="D34" s="34"/>
-      <c r="E34" s="34"/>
-      <c r="F34" s="34"/>
-      <c r="G34" s="34"/>
-      <c r="H34" s="37"/>
-      <c r="I34" s="37"/>
-      <c r="J34" s="34"/>
-      <c r="K34" s="34"/>
-      <c r="L34" s="34"/>
-      <c r="M34" s="34"/>
-      <c r="N34" s="34"/>
-      <c r="O34" s="37"/>
-      <c r="P34" s="37"/>
-      <c r="Q34" s="34"/>
-      <c r="R34" s="34"/>
-      <c r="S34" s="34"/>
-      <c r="T34" s="34"/>
-      <c r="U34" s="34"/>
+      <c r="A34" s="34"/>
+      <c r="B34" s="34"/>
+      <c r="C34" s="35"/>
+      <c r="D34" s="35"/>
+      <c r="E34" s="35"/>
+      <c r="F34" s="35"/>
+      <c r="G34" s="35"/>
+      <c r="H34" s="34"/>
+      <c r="I34" s="34"/>
+      <c r="J34" s="35"/>
+      <c r="K34" s="35"/>
+      <c r="L34" s="35"/>
+      <c r="M34" s="35"/>
+      <c r="N34" s="35"/>
+      <c r="O34" s="34"/>
+      <c r="P34" s="34"/>
+      <c r="Q34" s="35"/>
+      <c r="R34" s="35"/>
+      <c r="S34" s="35"/>
+      <c r="T34" s="35"/>
+      <c r="U34" s="35"/>
     </row>
     <row r="35" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A35" s="37"/>
-      <c r="B35" s="37"/>
-      <c r="C35" s="34"/>
-      <c r="D35" s="34"/>
-      <c r="E35" s="34"/>
-      <c r="F35" s="34"/>
-      <c r="G35" s="34"/>
+      <c r="A35" s="34"/>
+      <c r="B35" s="34"/>
+      <c r="C35" s="35"/>
+      <c r="D35" s="35"/>
+      <c r="E35" s="35"/>
+      <c r="F35" s="35"/>
+      <c r="G35" s="35"/>
     </row>
   </sheetData>
   <mergeCells count="238">
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="C35:G35"/>
-    <mergeCell ref="H34:I34"/>
-    <mergeCell ref="J34:N34"/>
-    <mergeCell ref="O34:P34"/>
-    <mergeCell ref="Q34:U34"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="C34:G34"/>
-    <mergeCell ref="H33:I33"/>
-    <mergeCell ref="J33:N33"/>
-    <mergeCell ref="O33:P33"/>
-    <mergeCell ref="Q33:U33"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="C33:G33"/>
-    <mergeCell ref="H32:I32"/>
-    <mergeCell ref="J32:N32"/>
-    <mergeCell ref="O32:P32"/>
-    <mergeCell ref="Q32:U32"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="C32:G32"/>
-    <mergeCell ref="H31:I31"/>
-    <mergeCell ref="J31:N31"/>
-    <mergeCell ref="O31:P31"/>
-    <mergeCell ref="Q31:U31"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="C31:G31"/>
-    <mergeCell ref="H30:I30"/>
-    <mergeCell ref="J30:N30"/>
-    <mergeCell ref="O30:P30"/>
-    <mergeCell ref="Q30:U30"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="C30:G30"/>
-    <mergeCell ref="H29:I29"/>
-    <mergeCell ref="J29:N29"/>
-    <mergeCell ref="O29:P29"/>
-    <mergeCell ref="Q29:U29"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="C29:G29"/>
-    <mergeCell ref="H28:I28"/>
-    <mergeCell ref="J28:N28"/>
-    <mergeCell ref="O28:P28"/>
-    <mergeCell ref="Q28:U28"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="C28:G28"/>
-    <mergeCell ref="H27:I27"/>
-    <mergeCell ref="J27:N27"/>
-    <mergeCell ref="O27:P27"/>
-    <mergeCell ref="Q27:U27"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="C27:G27"/>
-    <mergeCell ref="H26:I26"/>
-    <mergeCell ref="J26:N26"/>
-    <mergeCell ref="O26:P26"/>
-    <mergeCell ref="Q26:U26"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="C26:G26"/>
-    <mergeCell ref="H25:I25"/>
-    <mergeCell ref="J25:N25"/>
-    <mergeCell ref="O25:P25"/>
-    <mergeCell ref="Q25:U25"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="C25:G25"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="J24:N24"/>
-    <mergeCell ref="O24:P24"/>
-    <mergeCell ref="Q24:U24"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="C24:G24"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="J23:N23"/>
-    <mergeCell ref="O23:P23"/>
-    <mergeCell ref="Q23:U23"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="C23:G23"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="J22:N22"/>
-    <mergeCell ref="V22:W22"/>
-    <mergeCell ref="X22:AB22"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="C22:G22"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="J21:N21"/>
-    <mergeCell ref="V21:W21"/>
-    <mergeCell ref="X21:AB21"/>
-    <mergeCell ref="O21:P21"/>
-    <mergeCell ref="Q21:U21"/>
-    <mergeCell ref="O22:P22"/>
-    <mergeCell ref="Q22:U22"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="C21:G21"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="J20:N20"/>
-    <mergeCell ref="V20:W20"/>
-    <mergeCell ref="X20:AB20"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="C20:G20"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="J19:N19"/>
-    <mergeCell ref="V19:W19"/>
-    <mergeCell ref="X19:AB19"/>
-    <mergeCell ref="O19:P19"/>
-    <mergeCell ref="Q19:U19"/>
-    <mergeCell ref="O20:P20"/>
-    <mergeCell ref="Q20:U20"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="C19:G19"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="J18:N18"/>
-    <mergeCell ref="V18:W18"/>
-    <mergeCell ref="X18:AB18"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C18:G18"/>
-    <mergeCell ref="V17:W17"/>
-    <mergeCell ref="X17:AB17"/>
-    <mergeCell ref="O17:P17"/>
-    <mergeCell ref="Q17:U17"/>
-    <mergeCell ref="O18:P18"/>
-    <mergeCell ref="Q18:U18"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="J17:N17"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="C17:G17"/>
-    <mergeCell ref="V15:W15"/>
-    <mergeCell ref="X15:AB15"/>
-    <mergeCell ref="O15:P15"/>
-    <mergeCell ref="Q15:U15"/>
-    <mergeCell ref="O16:P16"/>
-    <mergeCell ref="Q16:U16"/>
-    <mergeCell ref="V13:W13"/>
-    <mergeCell ref="J14:N14"/>
-    <mergeCell ref="V14:W14"/>
-    <mergeCell ref="X14:AB14"/>
-    <mergeCell ref="Q14:U14"/>
-    <mergeCell ref="V16:W16"/>
-    <mergeCell ref="O14:P14"/>
+    <mergeCell ref="V5:W5"/>
+    <mergeCell ref="X5:AB5"/>
+    <mergeCell ref="O5:P5"/>
+    <mergeCell ref="Q5:U5"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="V6:W6"/>
+    <mergeCell ref="X6:AB6"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="J4:N4"/>
+    <mergeCell ref="V4:W4"/>
+    <mergeCell ref="X4:AB4"/>
+    <mergeCell ref="O4:P4"/>
+    <mergeCell ref="Q4:U4"/>
+    <mergeCell ref="J5:N5"/>
+    <mergeCell ref="A1:G2"/>
+    <mergeCell ref="H1:N2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:G3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="V1:AB2"/>
+    <mergeCell ref="V3:W3"/>
+    <mergeCell ref="J3:N3"/>
+    <mergeCell ref="X3:AB3"/>
+    <mergeCell ref="O1:U2"/>
+    <mergeCell ref="O3:P3"/>
+    <mergeCell ref="Q3:U3"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:G9"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="J6:N6"/>
+    <mergeCell ref="V8:W8"/>
+    <mergeCell ref="X8:AB8"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:N7"/>
+    <mergeCell ref="V7:W7"/>
+    <mergeCell ref="X7:AB7"/>
+    <mergeCell ref="O7:P7"/>
+    <mergeCell ref="Q7:U7"/>
+    <mergeCell ref="Q8:U8"/>
+    <mergeCell ref="O8:P8"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="J8:N8"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="O6:P6"/>
+    <mergeCell ref="Q6:U6"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="J9:N9"/>
+    <mergeCell ref="V9:W9"/>
+    <mergeCell ref="X9:AB9"/>
+    <mergeCell ref="O9:P9"/>
+    <mergeCell ref="Q9:U9"/>
+    <mergeCell ref="O10:P10"/>
+    <mergeCell ref="Q10:U10"/>
+    <mergeCell ref="V11:W11"/>
+    <mergeCell ref="X11:AB11"/>
+    <mergeCell ref="O11:P11"/>
+    <mergeCell ref="Q11:U11"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="J11:N11"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:G11"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="J10:N10"/>
+    <mergeCell ref="V10:W10"/>
+    <mergeCell ref="X10:AB10"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C10:G10"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C13:G13"/>
     <mergeCell ref="H16:I16"/>
     <mergeCell ref="J16:N16"/>
     <mergeCell ref="V12:W12"/>
@@ -6281,85 +6255,141 @@
     <mergeCell ref="X16:AB16"/>
     <mergeCell ref="A16:B16"/>
     <mergeCell ref="C16:G16"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:G11"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="J10:N10"/>
-    <mergeCell ref="V10:W10"/>
-    <mergeCell ref="X10:AB10"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="C10:G10"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="C13:G13"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="J9:N9"/>
-    <mergeCell ref="V9:W9"/>
-    <mergeCell ref="X9:AB9"/>
-    <mergeCell ref="O9:P9"/>
-    <mergeCell ref="Q9:U9"/>
-    <mergeCell ref="O10:P10"/>
-    <mergeCell ref="Q10:U10"/>
-    <mergeCell ref="V11:W11"/>
-    <mergeCell ref="X11:AB11"/>
-    <mergeCell ref="O11:P11"/>
-    <mergeCell ref="Q11:U11"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="J11:N11"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="C9:G9"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="J6:N6"/>
-    <mergeCell ref="V8:W8"/>
-    <mergeCell ref="X8:AB8"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="C8:G8"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="J7:N7"/>
-    <mergeCell ref="V7:W7"/>
-    <mergeCell ref="X7:AB7"/>
-    <mergeCell ref="O7:P7"/>
-    <mergeCell ref="Q7:U7"/>
-    <mergeCell ref="Q8:U8"/>
-    <mergeCell ref="O8:P8"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="J8:N8"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="O6:P6"/>
-    <mergeCell ref="Q6:U6"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="A1:G2"/>
-    <mergeCell ref="H1:N2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:G3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="V1:AB2"/>
-    <mergeCell ref="V3:W3"/>
-    <mergeCell ref="J3:N3"/>
-    <mergeCell ref="X3:AB3"/>
-    <mergeCell ref="O1:U2"/>
-    <mergeCell ref="O3:P3"/>
-    <mergeCell ref="Q3:U3"/>
-    <mergeCell ref="V5:W5"/>
-    <mergeCell ref="X5:AB5"/>
-    <mergeCell ref="O5:P5"/>
-    <mergeCell ref="Q5:U5"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:G4"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="V6:W6"/>
-    <mergeCell ref="X6:AB6"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:G5"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="J4:N4"/>
-    <mergeCell ref="V4:W4"/>
-    <mergeCell ref="X4:AB4"/>
-    <mergeCell ref="O4:P4"/>
-    <mergeCell ref="Q4:U4"/>
-    <mergeCell ref="J5:N5"/>
+    <mergeCell ref="V15:W15"/>
+    <mergeCell ref="X15:AB15"/>
+    <mergeCell ref="O15:P15"/>
+    <mergeCell ref="Q15:U15"/>
+    <mergeCell ref="O16:P16"/>
+    <mergeCell ref="Q16:U16"/>
+    <mergeCell ref="V13:W13"/>
+    <mergeCell ref="J14:N14"/>
+    <mergeCell ref="V14:W14"/>
+    <mergeCell ref="X14:AB14"/>
+    <mergeCell ref="Q14:U14"/>
+    <mergeCell ref="V16:W16"/>
+    <mergeCell ref="O14:P14"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="J18:N18"/>
+    <mergeCell ref="V18:W18"/>
+    <mergeCell ref="X18:AB18"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="V17:W17"/>
+    <mergeCell ref="X17:AB17"/>
+    <mergeCell ref="O17:P17"/>
+    <mergeCell ref="Q17:U17"/>
+    <mergeCell ref="O18:P18"/>
+    <mergeCell ref="Q18:U18"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="J17:N17"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C17:G17"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="J20:N20"/>
+    <mergeCell ref="V20:W20"/>
+    <mergeCell ref="X20:AB20"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="J19:N19"/>
+    <mergeCell ref="V19:W19"/>
+    <mergeCell ref="X19:AB19"/>
+    <mergeCell ref="O19:P19"/>
+    <mergeCell ref="Q19:U19"/>
+    <mergeCell ref="O20:P20"/>
+    <mergeCell ref="Q20:U20"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="J22:N22"/>
+    <mergeCell ref="V22:W22"/>
+    <mergeCell ref="X22:AB22"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="C22:G22"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="J21:N21"/>
+    <mergeCell ref="V21:W21"/>
+    <mergeCell ref="X21:AB21"/>
+    <mergeCell ref="O21:P21"/>
+    <mergeCell ref="Q21:U21"/>
+    <mergeCell ref="O22:P22"/>
+    <mergeCell ref="Q22:U22"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="J24:N24"/>
+    <mergeCell ref="O24:P24"/>
+    <mergeCell ref="Q24:U24"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="C24:G24"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="J23:N23"/>
+    <mergeCell ref="O23:P23"/>
+    <mergeCell ref="Q23:U23"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="C23:G23"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="J26:N26"/>
+    <mergeCell ref="O26:P26"/>
+    <mergeCell ref="Q26:U26"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="C26:G26"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="J25:N25"/>
+    <mergeCell ref="O25:P25"/>
+    <mergeCell ref="Q25:U25"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="C25:G25"/>
+    <mergeCell ref="H28:I28"/>
+    <mergeCell ref="J28:N28"/>
+    <mergeCell ref="O28:P28"/>
+    <mergeCell ref="Q28:U28"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="C28:G28"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="J27:N27"/>
+    <mergeCell ref="O27:P27"/>
+    <mergeCell ref="Q27:U27"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="C27:G27"/>
+    <mergeCell ref="H30:I30"/>
+    <mergeCell ref="J30:N30"/>
+    <mergeCell ref="O30:P30"/>
+    <mergeCell ref="Q30:U30"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="C30:G30"/>
+    <mergeCell ref="H29:I29"/>
+    <mergeCell ref="J29:N29"/>
+    <mergeCell ref="O29:P29"/>
+    <mergeCell ref="Q29:U29"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="C29:G29"/>
+    <mergeCell ref="H32:I32"/>
+    <mergeCell ref="J32:N32"/>
+    <mergeCell ref="O32:P32"/>
+    <mergeCell ref="Q32:U32"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="C32:G32"/>
+    <mergeCell ref="H31:I31"/>
+    <mergeCell ref="J31:N31"/>
+    <mergeCell ref="O31:P31"/>
+    <mergeCell ref="Q31:U31"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="C31:G31"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="C35:G35"/>
+    <mergeCell ref="H34:I34"/>
+    <mergeCell ref="J34:N34"/>
+    <mergeCell ref="O34:P34"/>
+    <mergeCell ref="Q34:U34"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="C34:G34"/>
+    <mergeCell ref="H33:I33"/>
+    <mergeCell ref="J33:N33"/>
+    <mergeCell ref="O33:P33"/>
+    <mergeCell ref="Q33:U33"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="C33:G33"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C16" r:id="rId1" xr:uid="{868F8F85-B252-4B04-B081-E9B23AD46A23}"/>
@@ -6392,16 +6422,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="44" t="s">
         <v>236</v>
       </c>
-      <c r="B1" s="43"/>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
-      <c r="E1" s="43"/>
-      <c r="F1" s="43"/>
-      <c r="G1" s="43"/>
-      <c r="H1" s="43"/>
+      <c r="B1" s="44"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="44"/>
+      <c r="G1" s="44"/>
+      <c r="H1" s="44"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="22" t="s">
@@ -6416,12 +6446,12 @@
       <c r="D2" s="22" t="s">
         <v>239</v>
       </c>
-      <c r="E2" s="34" t="s">
+      <c r="E2" s="35" t="s">
         <v>240</v>
       </c>
-      <c r="F2" s="34"/>
-      <c r="G2" s="34"/>
-      <c r="H2" s="34"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="35"/>
+      <c r="H2" s="35"/>
     </row>
     <row r="3" spans="1:9" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
@@ -6436,12 +6466,12 @@
       <c r="D3" s="14" t="s">
         <v>241</v>
       </c>
-      <c r="E3" s="42" t="s">
+      <c r="E3" s="43" t="s">
         <v>248</v>
       </c>
-      <c r="F3" s="42"/>
-      <c r="G3" s="42"/>
-      <c r="H3" s="42"/>
+      <c r="F3" s="43"/>
+      <c r="G3" s="43"/>
+      <c r="H3" s="43"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
@@ -6456,28 +6486,28 @@
       <c r="D4" s="14" t="s">
         <v>251</v>
       </c>
-      <c r="E4" s="42"/>
-      <c r="F4" s="42"/>
-      <c r="G4" s="42"/>
-      <c r="H4" s="42"/>
+      <c r="E4" s="43"/>
+      <c r="F4" s="43"/>
+      <c r="G4" s="43"/>
+      <c r="H4" s="43"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="E5" s="42"/>
-      <c r="F5" s="42"/>
-      <c r="G5" s="42"/>
-      <c r="H5" s="42"/>
+      <c r="E5" s="43"/>
+      <c r="F5" s="43"/>
+      <c r="G5" s="43"/>
+      <c r="H5" s="43"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="E6" s="42"/>
-      <c r="F6" s="42"/>
-      <c r="G6" s="42"/>
-      <c r="H6" s="42"/>
+      <c r="E6" s="43"/>
+      <c r="F6" s="43"/>
+      <c r="G6" s="43"/>
+      <c r="H6" s="43"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="E7" s="42"/>
-      <c r="F7" s="42"/>
-      <c r="G7" s="42"/>
-      <c r="H7" s="42"/>
+      <c r="E7" s="43"/>
+      <c r="F7" s="43"/>
+      <c r="G7" s="43"/>
+      <c r="H7" s="43"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="14" t="s">
@@ -6492,12 +6522,12 @@
       <c r="D8" s="14" t="s">
         <v>245</v>
       </c>
-      <c r="E8" s="42" t="s">
+      <c r="E8" s="43" t="s">
         <v>285</v>
       </c>
-      <c r="F8" s="42"/>
-      <c r="G8" s="42"/>
-      <c r="H8" s="42"/>
+      <c r="F8" s="43"/>
+      <c r="G8" s="43"/>
+      <c r="H8" s="43"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
@@ -6512,12 +6542,12 @@
       <c r="D9" s="14" t="s">
         <v>251</v>
       </c>
-      <c r="E9" s="42" t="s">
+      <c r="E9" s="43" t="s">
         <v>249</v>
       </c>
-      <c r="F9" s="42"/>
-      <c r="G9" s="42"/>
-      <c r="H9" s="42"/>
+      <c r="F9" s="43"/>
+      <c r="G9" s="43"/>
+      <c r="H9" s="43"/>
     </row>
     <row r="10" spans="1:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="14" t="s">
@@ -6532,12 +6562,12 @@
       <c r="D10" s="14" t="s">
         <v>251</v>
       </c>
-      <c r="E10" s="42" t="s">
+      <c r="E10" s="43" t="s">
         <v>252</v>
       </c>
-      <c r="F10" s="42"/>
-      <c r="G10" s="42"/>
-      <c r="H10" s="42"/>
+      <c r="F10" s="43"/>
+      <c r="G10" s="43"/>
+      <c r="H10" s="43"/>
       <c r="I10" s="14" t="s">
         <v>282</v>
       </c>
@@ -6555,12 +6585,12 @@
       <c r="D11" s="14" t="s">
         <v>251</v>
       </c>
-      <c r="E11" s="42" t="s">
+      <c r="E11" s="43" t="s">
         <v>255</v>
       </c>
-      <c r="F11" s="42"/>
-      <c r="G11" s="42"/>
-      <c r="H11" s="42"/>
+      <c r="F11" s="43"/>
+      <c r="G11" s="43"/>
+      <c r="H11" s="43"/>
     </row>
     <row r="12" spans="1:9" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="14" t="s">
@@ -6575,12 +6605,12 @@
       <c r="D12" s="14" t="s">
         <v>251</v>
       </c>
-      <c r="E12" s="42" t="s">
+      <c r="E12" s="43" t="s">
         <v>259</v>
       </c>
-      <c r="F12" s="42"/>
-      <c r="G12" s="42"/>
-      <c r="H12" s="42"/>
+      <c r="F12" s="43"/>
+      <c r="G12" s="43"/>
+      <c r="H12" s="43"/>
     </row>
     <row r="13" spans="1:9" ht="79.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="14" t="s">
@@ -6595,12 +6625,12 @@
       <c r="D13" s="14" t="s">
         <v>251</v>
       </c>
-      <c r="E13" s="42" t="s">
+      <c r="E13" s="43" t="s">
         <v>261</v>
       </c>
-      <c r="F13" s="42"/>
-      <c r="G13" s="42"/>
-      <c r="H13" s="42"/>
+      <c r="F13" s="43"/>
+      <c r="G13" s="43"/>
+      <c r="H13" s="43"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="14" t="s">
@@ -6615,95 +6645,93 @@
       <c r="D14" s="14" t="s">
         <v>251</v>
       </c>
-      <c r="E14" s="42" t="s">
+      <c r="E14" s="43" t="s">
         <v>287</v>
       </c>
-      <c r="F14" s="42"/>
-      <c r="G14" s="42"/>
-      <c r="H14" s="42"/>
+      <c r="F14" s="43"/>
+      <c r="G14" s="43"/>
+      <c r="H14" s="43"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="E15" s="42"/>
-      <c r="F15" s="42"/>
-      <c r="G15" s="42"/>
-      <c r="H15" s="42"/>
+      <c r="E15" s="43"/>
+      <c r="F15" s="43"/>
+      <c r="G15" s="43"/>
+      <c r="H15" s="43"/>
     </row>
     <row r="16" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E16" s="42"/>
-      <c r="F16" s="42"/>
-      <c r="G16" s="42"/>
-      <c r="H16" s="42"/>
+      <c r="E16" s="43"/>
+      <c r="F16" s="43"/>
+      <c r="G16" s="43"/>
+      <c r="H16" s="43"/>
     </row>
     <row r="17" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E17" s="42"/>
-      <c r="F17" s="42"/>
-      <c r="G17" s="42"/>
-      <c r="H17" s="42"/>
+      <c r="E17" s="43"/>
+      <c r="F17" s="43"/>
+      <c r="G17" s="43"/>
+      <c r="H17" s="43"/>
     </row>
     <row r="18" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E18" s="42"/>
-      <c r="F18" s="42"/>
-      <c r="G18" s="42"/>
-      <c r="H18" s="42"/>
+      <c r="E18" s="43"/>
+      <c r="F18" s="43"/>
+      <c r="G18" s="43"/>
+      <c r="H18" s="43"/>
     </row>
     <row r="19" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E19" s="42"/>
-      <c r="F19" s="42"/>
-      <c r="G19" s="42"/>
-      <c r="H19" s="42"/>
+      <c r="E19" s="43"/>
+      <c r="F19" s="43"/>
+      <c r="G19" s="43"/>
+      <c r="H19" s="43"/>
     </row>
     <row r="20" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E20" s="42"/>
-      <c r="F20" s="42"/>
-      <c r="G20" s="42"/>
-      <c r="H20" s="42"/>
+      <c r="E20" s="43"/>
+      <c r="F20" s="43"/>
+      <c r="G20" s="43"/>
+      <c r="H20" s="43"/>
     </row>
     <row r="21" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E21" s="42"/>
-      <c r="F21" s="42"/>
-      <c r="G21" s="42"/>
-      <c r="H21" s="42"/>
+      <c r="E21" s="43"/>
+      <c r="F21" s="43"/>
+      <c r="G21" s="43"/>
+      <c r="H21" s="43"/>
     </row>
     <row r="22" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E22" s="42"/>
-      <c r="F22" s="42"/>
-      <c r="G22" s="42"/>
-      <c r="H22" s="42"/>
+      <c r="E22" s="43"/>
+      <c r="F22" s="43"/>
+      <c r="G22" s="43"/>
+      <c r="H22" s="43"/>
     </row>
     <row r="23" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E23" s="42"/>
-      <c r="F23" s="42"/>
-      <c r="G23" s="42"/>
-      <c r="H23" s="42"/>
+      <c r="E23" s="43"/>
+      <c r="F23" s="43"/>
+      <c r="G23" s="43"/>
+      <c r="H23" s="43"/>
     </row>
     <row r="24" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E24" s="42"/>
-      <c r="F24" s="42"/>
-      <c r="G24" s="42"/>
-      <c r="H24" s="42"/>
+      <c r="E24" s="43"/>
+      <c r="F24" s="43"/>
+      <c r="G24" s="43"/>
+      <c r="H24" s="43"/>
     </row>
     <row r="25" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E25" s="42"/>
-      <c r="F25" s="42"/>
-      <c r="G25" s="42"/>
-      <c r="H25" s="42"/>
+      <c r="E25" s="43"/>
+      <c r="F25" s="43"/>
+      <c r="G25" s="43"/>
+      <c r="H25" s="43"/>
     </row>
     <row r="26" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E26" s="42"/>
-      <c r="F26" s="42"/>
-      <c r="G26" s="42"/>
-      <c r="H26" s="42"/>
+      <c r="E26" s="43"/>
+      <c r="F26" s="43"/>
+      <c r="G26" s="43"/>
+      <c r="H26" s="43"/>
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="E25:H25"/>
-    <mergeCell ref="E26:H26"/>
-    <mergeCell ref="E19:H19"/>
-    <mergeCell ref="E20:H20"/>
-    <mergeCell ref="E21:H21"/>
-    <mergeCell ref="E22:H22"/>
-    <mergeCell ref="E23:H23"/>
-    <mergeCell ref="E24:H24"/>
+    <mergeCell ref="E6:H6"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="E2:H2"/>
+    <mergeCell ref="E3:H3"/>
+    <mergeCell ref="E4:H4"/>
+    <mergeCell ref="E5:H5"/>
     <mergeCell ref="E18:H18"/>
     <mergeCell ref="E7:H7"/>
     <mergeCell ref="E8:H8"/>
@@ -6716,12 +6744,14 @@
     <mergeCell ref="E15:H15"/>
     <mergeCell ref="E16:H16"/>
     <mergeCell ref="E17:H17"/>
-    <mergeCell ref="E6:H6"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="E2:H2"/>
-    <mergeCell ref="E3:H3"/>
-    <mergeCell ref="E4:H4"/>
-    <mergeCell ref="E5:H5"/>
+    <mergeCell ref="E25:H25"/>
+    <mergeCell ref="E26:H26"/>
+    <mergeCell ref="E19:H19"/>
+    <mergeCell ref="E20:H20"/>
+    <mergeCell ref="E21:H21"/>
+    <mergeCell ref="E22:H22"/>
+    <mergeCell ref="E23:H23"/>
+    <mergeCell ref="E24:H24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6751,15 +6781,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="46" t="s">
         <v>262</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
-      <c r="F1" s="45"/>
-      <c r="G1" s="45"/>
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="46"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="20" t="s">
@@ -6771,12 +6801,12 @@
       <c r="C2" s="20" t="s">
         <v>237</v>
       </c>
-      <c r="D2" s="46" t="s">
+      <c r="D2" s="47" t="s">
         <v>240</v>
       </c>
-      <c r="E2" s="46"/>
-      <c r="F2" s="46"/>
-      <c r="G2" s="46"/>
+      <c r="E2" s="47"/>
+      <c r="F2" s="47"/>
+      <c r="G2" s="47"/>
       <c r="I2" s="23" t="s">
         <v>294</v>
       </c>
@@ -6791,12 +6821,12 @@
       <c r="C3" s="5" t="s">
         <v>241</v>
       </c>
-      <c r="D3" s="44" t="s">
+      <c r="D3" s="45" t="s">
         <v>264</v>
       </c>
-      <c r="E3" s="44"/>
-      <c r="F3" s="44"/>
-      <c r="G3" s="44"/>
+      <c r="E3" s="45"/>
+      <c r="F3" s="45"/>
+      <c r="G3" s="45"/>
       <c r="I3" s="5" t="s">
         <v>295</v>
       </c>
@@ -6814,12 +6844,12 @@
       <c r="C4" s="5" t="s">
         <v>241</v>
       </c>
-      <c r="D4" s="44" t="s">
+      <c r="D4" s="45" t="s">
         <v>271</v>
       </c>
-      <c r="E4" s="44"/>
-      <c r="F4" s="44"/>
-      <c r="G4" s="44"/>
+      <c r="E4" s="45"/>
+      <c r="F4" s="45"/>
+      <c r="G4" s="45"/>
       <c r="J4" s="5" t="s">
         <v>298</v>
       </c>
@@ -6834,12 +6864,12 @@
       <c r="C5" s="5" t="s">
         <v>241</v>
       </c>
-      <c r="D5" s="44" t="s">
+      <c r="D5" s="45" t="s">
         <v>268</v>
       </c>
-      <c r="E5" s="44"/>
-      <c r="F5" s="44"/>
-      <c r="G5" s="44"/>
+      <c r="E5" s="45"/>
+      <c r="F5" s="45"/>
+      <c r="G5" s="45"/>
       <c r="J5" s="5" t="s">
         <v>299</v>
       </c>
@@ -6854,12 +6884,12 @@
       <c r="C6" s="5" t="s">
         <v>270</v>
       </c>
-      <c r="D6" s="44" t="s">
+      <c r="D6" s="45" t="s">
         <v>265</v>
       </c>
-      <c r="E6" s="44"/>
-      <c r="F6" s="44"/>
-      <c r="G6" s="44"/>
+      <c r="E6" s="45"/>
+      <c r="F6" s="45"/>
+      <c r="G6" s="45"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="16"/>
@@ -6868,10 +6898,10 @@
       <c r="A8" s="16" t="s">
         <v>296</v>
       </c>
-      <c r="D8" s="44"/>
-      <c r="E8" s="44"/>
-      <c r="F8" s="44"/>
-      <c r="G8" s="44"/>
+      <c r="D8" s="45"/>
+      <c r="E8" s="45"/>
+      <c r="F8" s="45"/>
+      <c r="G8" s="45"/>
       <c r="I8" s="5" t="s">
         <v>164</v>
       </c>
@@ -6889,12 +6919,12 @@
       <c r="C9" s="5" t="s">
         <v>305</v>
       </c>
-      <c r="D9" s="44" t="s">
+      <c r="D9" s="45" t="s">
         <v>302</v>
       </c>
-      <c r="E9" s="44"/>
-      <c r="F9" s="44"/>
-      <c r="G9" s="44"/>
+      <c r="E9" s="45"/>
+      <c r="F9" s="45"/>
+      <c r="G9" s="45"/>
       <c r="J9" s="5" t="s">
         <v>304</v>
       </c>
@@ -6911,10 +6941,10 @@
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D11" s="44"/>
-      <c r="E11" s="44"/>
-      <c r="F11" s="44"/>
-      <c r="G11" s="44"/>
+      <c r="D11" s="45"/>
+      <c r="E11" s="45"/>
+      <c r="F11" s="45"/>
+      <c r="G11" s="45"/>
     </row>
     <row r="12" spans="1:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
@@ -6926,12 +6956,12 @@
       <c r="C12" s="5" t="s">
         <v>276</v>
       </c>
-      <c r="D12" s="44" t="s">
+      <c r="D12" s="45" t="s">
         <v>277</v>
       </c>
-      <c r="E12" s="44"/>
-      <c r="F12" s="44"/>
-      <c r="G12" s="44"/>
+      <c r="E12" s="45"/>
+      <c r="F12" s="45"/>
+      <c r="G12" s="45"/>
       <c r="I12" s="5" t="s">
         <v>306</v>
       </c>
@@ -6949,12 +6979,12 @@
       <c r="C13" s="5" t="s">
         <v>241</v>
       </c>
-      <c r="D13" s="44" t="s">
+      <c r="D13" s="45" t="s">
         <v>280</v>
       </c>
-      <c r="E13" s="44"/>
-      <c r="F13" s="44"/>
-      <c r="G13" s="44"/>
+      <c r="E13" s="45"/>
+      <c r="F13" s="45"/>
+      <c r="G13" s="45"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
@@ -6966,24 +6996,24 @@
       <c r="C14" s="5" t="s">
         <v>310</v>
       </c>
-      <c r="D14" s="44" t="s">
+      <c r="D14" s="45" t="s">
         <v>311</v>
       </c>
-      <c r="E14" s="44"/>
-      <c r="F14" s="44"/>
-      <c r="G14" s="44"/>
+      <c r="E14" s="45"/>
+      <c r="F14" s="45"/>
+      <c r="G14" s="45"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D15" s="44"/>
-      <c r="E15" s="44"/>
-      <c r="F15" s="44"/>
-      <c r="G15" s="44"/>
+      <c r="D15" s="45"/>
+      <c r="E15" s="45"/>
+      <c r="F15" s="45"/>
+      <c r="G15" s="45"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D16" s="44"/>
-      <c r="E16" s="44"/>
-      <c r="F16" s="44"/>
-      <c r="G16" s="44"/>
+      <c r="D16" s="45"/>
+      <c r="E16" s="45"/>
+      <c r="F16" s="45"/>
+      <c r="G16" s="45"/>
     </row>
     <row r="17" spans="1:7" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
@@ -6995,93 +7025,109 @@
       <c r="C17" s="5" t="s">
         <v>289</v>
       </c>
-      <c r="D17" s="42" t="s">
+      <c r="D17" s="43" t="s">
         <v>291</v>
       </c>
-      <c r="E17" s="42"/>
-      <c r="F17" s="42"/>
-      <c r="G17" s="42"/>
+      <c r="E17" s="43"/>
+      <c r="F17" s="43"/>
+      <c r="G17" s="43"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D18" s="44"/>
-      <c r="E18" s="44"/>
-      <c r="F18" s="44"/>
-      <c r="G18" s="44"/>
+      <c r="D18" s="45"/>
+      <c r="E18" s="45"/>
+      <c r="F18" s="45"/>
+      <c r="G18" s="45"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D19" s="44"/>
-      <c r="E19" s="44"/>
-      <c r="F19" s="44"/>
-      <c r="G19" s="44"/>
+      <c r="D19" s="45"/>
+      <c r="E19" s="45"/>
+      <c r="F19" s="45"/>
+      <c r="G19" s="45"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D20" s="44"/>
-      <c r="E20" s="44"/>
-      <c r="F20" s="44"/>
-      <c r="G20" s="44"/>
+      <c r="D20" s="45"/>
+      <c r="E20" s="45"/>
+      <c r="F20" s="45"/>
+      <c r="G20" s="45"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D21" s="44"/>
-      <c r="E21" s="44"/>
-      <c r="F21" s="44"/>
-      <c r="G21" s="44"/>
+      <c r="D21" s="45"/>
+      <c r="E21" s="45"/>
+      <c r="F21" s="45"/>
+      <c r="G21" s="45"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D22" s="44"/>
-      <c r="E22" s="44"/>
-      <c r="F22" s="44"/>
-      <c r="G22" s="44"/>
+      <c r="D22" s="45"/>
+      <c r="E22" s="45"/>
+      <c r="F22" s="45"/>
+      <c r="G22" s="45"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D23" s="44"/>
-      <c r="E23" s="44"/>
-      <c r="F23" s="44"/>
-      <c r="G23" s="44"/>
+      <c r="D23" s="45"/>
+      <c r="E23" s="45"/>
+      <c r="F23" s="45"/>
+      <c r="G23" s="45"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D24" s="44"/>
-      <c r="E24" s="44"/>
-      <c r="F24" s="44"/>
-      <c r="G24" s="44"/>
+      <c r="D24" s="45"/>
+      <c r="E24" s="45"/>
+      <c r="F24" s="45"/>
+      <c r="G24" s="45"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D25" s="44"/>
-      <c r="E25" s="44"/>
-      <c r="F25" s="44"/>
-      <c r="G25" s="44"/>
+      <c r="D25" s="45"/>
+      <c r="E25" s="45"/>
+      <c r="F25" s="45"/>
+      <c r="G25" s="45"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D26" s="44"/>
-      <c r="E26" s="44"/>
-      <c r="F26" s="44"/>
-      <c r="G26" s="44"/>
+      <c r="D26" s="45"/>
+      <c r="E26" s="45"/>
+      <c r="F26" s="45"/>
+      <c r="G26" s="45"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D27" s="44"/>
-      <c r="E27" s="44"/>
-      <c r="F27" s="44"/>
-      <c r="G27" s="44"/>
+      <c r="D27" s="45"/>
+      <c r="E27" s="45"/>
+      <c r="F27" s="45"/>
+      <c r="G27" s="45"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D28" s="44"/>
-      <c r="E28" s="44"/>
-      <c r="F28" s="44"/>
-      <c r="G28" s="44"/>
+      <c r="D28" s="45"/>
+      <c r="E28" s="45"/>
+      <c r="F28" s="45"/>
+      <c r="G28" s="45"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D29" s="44"/>
-      <c r="E29" s="44"/>
-      <c r="F29" s="44"/>
-      <c r="G29" s="44"/>
+      <c r="D29" s="45"/>
+      <c r="E29" s="45"/>
+      <c r="F29" s="45"/>
+      <c r="G29" s="45"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D30" s="44"/>
-      <c r="E30" s="44"/>
-      <c r="F30" s="44"/>
-      <c r="G30" s="44"/>
+      <c r="D30" s="45"/>
+      <c r="E30" s="45"/>
+      <c r="F30" s="45"/>
+      <c r="G30" s="45"/>
     </row>
   </sheetData>
   <mergeCells count="28">
+    <mergeCell ref="D4:G4"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="D3:G3"/>
+    <mergeCell ref="D6:G6"/>
+    <mergeCell ref="D5:G5"/>
+    <mergeCell ref="D18:G18"/>
+    <mergeCell ref="D8:G8"/>
+    <mergeCell ref="D9:G9"/>
+    <mergeCell ref="D11:G11"/>
+    <mergeCell ref="D12:G12"/>
+    <mergeCell ref="D13:G13"/>
+    <mergeCell ref="D14:G14"/>
+    <mergeCell ref="D15:G15"/>
+    <mergeCell ref="D16:G16"/>
+    <mergeCell ref="D17:G17"/>
     <mergeCell ref="D30:G30"/>
     <mergeCell ref="D19:G19"/>
     <mergeCell ref="D20:G20"/>
@@ -7094,22 +7140,6 @@
     <mergeCell ref="D27:G27"/>
     <mergeCell ref="D28:G28"/>
     <mergeCell ref="D29:G29"/>
-    <mergeCell ref="D18:G18"/>
-    <mergeCell ref="D8:G8"/>
-    <mergeCell ref="D9:G9"/>
-    <mergeCell ref="D11:G11"/>
-    <mergeCell ref="D12:G12"/>
-    <mergeCell ref="D13:G13"/>
-    <mergeCell ref="D14:G14"/>
-    <mergeCell ref="D15:G15"/>
-    <mergeCell ref="D16:G16"/>
-    <mergeCell ref="D17:G17"/>
-    <mergeCell ref="D4:G4"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="D2:G2"/>
-    <mergeCell ref="D3:G3"/>
-    <mergeCell ref="D6:G6"/>
-    <mergeCell ref="D5:G5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/plans/todo.xlsx
+++ b/plans/todo.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Edsquid\Documents\Personal Projects\Business\RogueLikeGame\plans\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6973DD4-75AF-49DA-8CDA-AFC8AF0AE1BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EE55DF4-F3B3-4E6E-880A-7025506006AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38355" yWindow="165" windowWidth="16215" windowHeight="13335" tabRatio="509" xr2:uid="{BA1E511D-BF64-4842-98DF-72E30276ED1C}"/>
+    <workbookView xWindow="7455" yWindow="840" windowWidth="17415" windowHeight="13335" tabRatio="509" xr2:uid="{BA1E511D-BF64-4842-98DF-72E30276ED1C}"/>
   </bookViews>
   <sheets>
     <sheet name="Attributes" sheetId="3" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="490" uniqueCount="371">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="547" uniqueCount="421">
   <si>
     <t>Max Lives</t>
   </si>
@@ -92,9 +92,6 @@
     <t>Electrified</t>
   </si>
   <si>
-    <t>Stun</t>
-  </si>
-  <si>
     <t>Psychic</t>
   </si>
   <si>
@@ -350,9 +347,6 @@
     <t>increase of attack speed</t>
   </si>
   <si>
-    <t>Chill</t>
-  </si>
-  <si>
     <t>Burn</t>
   </si>
   <si>
@@ -455,9 +449,6 @@
     <t>Teleport instead of dash</t>
   </si>
   <si>
-    <t>Next attack after dash is empowered</t>
-  </si>
-  <si>
     <t>Objects surround player</t>
   </si>
   <si>
@@ -548,9 +539,6 @@
     <t>Permanent (unlocked in main menu)</t>
   </si>
   <si>
-    <t>Gravity well</t>
-  </si>
-  <si>
     <t>Pulls in enemies when dash</t>
   </si>
   <si>
@@ -1142,19 +1130,181 @@
     <t>emporwed</t>
   </si>
   <si>
-    <t>Elemental effects/explosions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">if frozen, shoot out ice </t>
-  </si>
-  <si>
-    <t>if on fire, explode</t>
-  </si>
-  <si>
-    <t>if zaped, chain lightning from corpse</t>
-  </si>
-  <si>
-    <t>increase chance to burn/zap/etc</t>
+    <t>DamageType Attributes</t>
+  </si>
+  <si>
+    <t>Fire Passive Gain (Naturally get this ability when X level)</t>
+  </si>
+  <si>
+    <t>.25 You do an extra 10% damage to enemies on fire</t>
+  </si>
+  <si>
+    <t>1.0 50% chance to revive when you die (Pheonix)</t>
+  </si>
+  <si>
+    <t>0.5  If you kill an enemy on fire, your next attack is empowered</t>
+  </si>
+  <si>
+    <t>.75  Chance to burn neighbouring enemies if you kill an enemy on fire</t>
+  </si>
+  <si>
+    <t>Overheating missiles  - First shot after reload change to shoot superhot bullet, expending 2, lights enemy on fire</t>
+  </si>
+  <si>
+    <t>Convert all damage to fire damage</t>
+  </si>
+  <si>
+    <t>Enemies close to you will take increased damage</t>
+  </si>
+  <si>
+    <t>Energy Passive Gain (Naturally get this ability when X level)</t>
+  </si>
+  <si>
+    <t>25% After each kill, gain a small, temporary speed boost</t>
+  </si>
+  <si>
+    <t>50% chance to arc randomly to nearby enemies</t>
+  </si>
+  <si>
+    <t>75% effect durations are 50% as effective on yourself</t>
+  </si>
+  <si>
+    <t>0% Static discharge, attacking builds static that is released when you jump</t>
+  </si>
+  <si>
+    <t>75% dashing is now random, and dangerous.</t>
+  </si>
+  <si>
+    <t>100% Instant reflex, increase dodge chance 25%</t>
+  </si>
+  <si>
+    <t>Reflect damage back to the attacker</t>
+  </si>
+  <si>
+    <t>Convert all damage to energy damage</t>
+  </si>
+  <si>
+    <t>Psychic Passive Gain (Naturally get this ability when X level)</t>
+  </si>
+  <si>
+    <t>Psychic Reach</t>
+  </si>
+  <si>
+    <t>When projectiles get close, theres a chance they reflect towards enemies</t>
+  </si>
+  <si>
+    <t xml:space="preserve">On hit, enemies become confused </t>
+  </si>
+  <si>
+    <t>When a confused enemies hits another enemy, they also become confused</t>
+  </si>
+  <si>
+    <t>Every minute, when struck, you pause time and teleport to a chosen location</t>
+  </si>
+  <si>
+    <t>Jumps last twice as long</t>
+  </si>
+  <si>
+    <t>Gravity well dash</t>
+  </si>
+  <si>
+    <t>Convert all damage to Psychic damage</t>
+  </si>
+  <si>
+    <t>Physical Passive Gain (Naturally get this ability when X level)</t>
+  </si>
+  <si>
+    <t>Dodge chance increases by 15%</t>
+  </si>
+  <si>
+    <t>Crit chance increase</t>
+  </si>
+  <si>
+    <t>When an enemy dies by bleed, they leave a pool of blood behind that slows other enemies and applies bleed</t>
+  </si>
+  <si>
+    <t>dash empower attack</t>
+  </si>
+  <si>
+    <t>Weapon Merge</t>
+  </si>
+  <si>
+    <t>Bleed chance on physical damage increase %25, reduce other chances by 25%</t>
+  </si>
+  <si>
+    <t>If kill enemy that is confused, create grav well</t>
+  </si>
+  <si>
+    <t>Enemies will be randomly stunned each bleed tick</t>
+  </si>
+  <si>
+    <t>Frost Passive Gain (Naturally get this ability when X level)</t>
+  </si>
+  <si>
+    <t>Enemies are slowed the closer they get to you</t>
+  </si>
+  <si>
+    <t>Killing frozen enemies may explode them into iceshards</t>
+  </si>
+  <si>
+    <t>Melee attacking a frozen enemy will shoot them towards the direction hit</t>
+  </si>
+  <si>
+    <t>Using expendables will freeze nearby enemies</t>
+  </si>
+  <si>
+    <t>frost damage is more likely to freeze enemies</t>
+  </si>
+  <si>
+    <t>All damage frost damage</t>
+  </si>
+  <si>
+    <t>Magic Passive Gain (Naturally get this ability when X level)</t>
+  </si>
+  <si>
+    <t>You heal for 2% of expended stamina</t>
+  </si>
+  <si>
+    <t>Unstable magic - you may double cast at no additional cost</t>
+  </si>
+  <si>
+    <t>While reloading you can continue shooting with no cost to stamina</t>
+  </si>
+  <si>
+    <t>Shoot an additional spell type each time you reload</t>
+  </si>
+  <si>
+    <t>Shoot additional projectiles in a cross formation</t>
+  </si>
+  <si>
+    <t>Homing projectiles</t>
+  </si>
+  <si>
+    <t>Melee attacks reflect projectiles</t>
+  </si>
+  <si>
+    <t>All damage magic damage</t>
+  </si>
+  <si>
+    <t>Slow</t>
+  </si>
+  <si>
+    <t>Frozen</t>
+  </si>
+  <si>
+    <t>Bleed</t>
+  </si>
+  <si>
+    <t>crits always bleed, reduce crit damage by 50%</t>
+  </si>
+  <si>
+    <t>Increase attack speed, projectiles are more random</t>
+  </si>
+  <si>
+    <t>on hit, push all enemies away</t>
+  </si>
+  <si>
+    <t>Combination (standing still means you are invincible, but you cant attack)</t>
   </si>
 </sst>
 </file>
@@ -1238,7 +1388,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="17">
+  <fills count="19">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1332,6 +1482,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1450,7 +1612,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1490,10 +1652,20 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="1" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="9" fontId="0" fillId="17" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="1" fillId="18" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1874,15 +2046,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11CE061F-AFA4-4B9D-BFD1-A05915568E6D}">
-  <dimension ref="A1:H355"/>
+  <dimension ref="A1:H356"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A124" workbookViewId="0">
-      <selection activeCell="A143" sqref="A143"/>
+    <sheetView tabSelected="1" topLeftCell="A196" workbookViewId="0">
+      <selection activeCell="A208" sqref="A208"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="76.42578125" style="2" customWidth="1"/>
+    <col min="1" max="1" width="102.140625" style="2" customWidth="1"/>
     <col min="2" max="2" width="28.140625" style="1" customWidth="1"/>
     <col min="3" max="3" width="63.28515625" style="2" customWidth="1"/>
     <col min="4" max="4" width="41.28515625" style="1" bestFit="1" customWidth="1"/>
@@ -1894,79 +2066,79 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="29" t="s">
-        <v>61</v>
-      </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
+      <c r="A1" s="39" t="s">
+        <v>60</v>
+      </c>
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="40"/>
       <c r="H1" s="9" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="31"/>
-      <c r="B2" s="32"/>
-      <c r="C2" s="32"/>
-      <c r="D2" s="32"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="32"/>
-      <c r="G2" s="32"/>
+      <c r="A2" s="41"/>
+      <c r="B2" s="42"/>
+      <c r="C2" s="42"/>
+      <c r="D2" s="42"/>
+      <c r="E2" s="42"/>
+      <c r="F2" s="42"/>
+      <c r="G2" s="42"/>
       <c r="H2" s="11" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="C3" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="D3" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="F3" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="D3" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>65</v>
-      </c>
       <c r="G3" s="7" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="H3" s="8"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="25" t="s">
-        <v>167</v>
-      </c>
-      <c r="B4" s="25"/>
-      <c r="C4" s="25"/>
-      <c r="D4" s="25"/>
-      <c r="E4" s="25"/>
-      <c r="F4" s="25"/>
-      <c r="G4" s="25"/>
+      <c r="A4" s="36" t="s">
+        <v>164</v>
+      </c>
+      <c r="B4" s="36"/>
+      <c r="C4" s="36"/>
+      <c r="D4" s="36"/>
+      <c r="E4" s="36"/>
+      <c r="F4" s="36"/>
+      <c r="G4" s="36"/>
       <c r="H4" s="8"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="16" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E5" s="2">
         <v>0.05</v>
@@ -1978,16 +2150,16 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="16" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E6" s="2">
         <v>0.05</v>
@@ -2002,13 +2174,13 @@
         <v>1</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E7" s="2">
         <v>0.05</v>
@@ -2023,13 +2195,13 @@
         <v>2</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E8" s="2">
         <v>0.05</v>
@@ -2044,13 +2216,13 @@
         <v>3</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E9" s="2">
         <v>0.05</v>
@@ -2065,13 +2237,13 @@
         <v>4</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E10" s="2">
         <v>0.05</v>
@@ -2086,13 +2258,13 @@
         <v>5</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E11" s="2">
         <v>0.05</v>
@@ -2107,13 +2279,13 @@
         <v>6</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E12" s="2">
         <v>0.05</v>
@@ -2128,13 +2300,13 @@
         <v>7</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E13" s="2">
         <v>0.05</v>
@@ -2149,13 +2321,13 @@
         <v>8</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E14" s="2">
         <v>0.05</v>
@@ -2170,13 +2342,13 @@
         <v>9</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E15" s="2">
         <v>0.05</v>
@@ -2191,13 +2363,13 @@
         <v>10</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E16" s="2">
         <v>0.05</v>
@@ -2208,17 +2380,17 @@
       <c r="G16" s="2"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="16" t="s">
+      <c r="A17" s="25" t="s">
         <v>12</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E17" s="2">
         <v>0.05</v>
@@ -2230,16 +2402,16 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E18" s="2">
         <v>0.05</v>
@@ -2251,16 +2423,16 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E19" s="2">
         <v>0.05</v>
@@ -2272,16 +2444,16 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="16" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E20" s="2">
         <v>0.05</v>
@@ -2293,16 +2465,16 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="16" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E21" s="2">
         <v>0.05</v>
@@ -2314,16 +2486,16 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C22" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="B22" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>101</v>
-      </c>
       <c r="D22" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E22" s="2">
         <v>0.01</v>
@@ -2335,16 +2507,16 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="16" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E23" s="2">
         <v>0.05</v>
@@ -2356,16 +2528,16 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="16" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E24" s="2">
         <v>0.05</v>
@@ -2377,16 +2549,16 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="16" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E25" s="2">
         <v>0.05</v>
@@ -2401,13 +2573,13 @@
         <v>0</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E26" s="2">
         <v>1</v>
@@ -2419,7 +2591,7 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="16" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="G27" s="2"/>
     </row>
@@ -2440,48 +2612,48 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B33" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="B33" s="4" t="s">
+      <c r="C33" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="C33" s="4" t="s">
+      <c r="D33" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="E33" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="F33" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="D33" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="E33" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="F33" s="4" t="s">
-        <v>65</v>
-      </c>
       <c r="G33" s="4"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="27" t="s">
+      <c r="A34" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="B34" s="27"/>
-      <c r="C34" s="27"/>
-      <c r="D34" s="27"/>
-      <c r="E34" s="27"/>
-      <c r="F34" s="27"/>
-      <c r="G34" s="27"/>
+      <c r="B34" s="37"/>
+      <c r="C34" s="37"/>
+      <c r="D34" s="37"/>
+      <c r="E34" s="37"/>
+      <c r="F34" s="37"/>
+      <c r="G34" s="37"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C35" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="B35" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>105</v>
-      </c>
       <c r="D35" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="F35" s="1">
         <v>10</v>
@@ -2490,16 +2662,16 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
+        <v>414</v>
+      </c>
+      <c r="B36" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="B36" s="1" t="s">
+      <c r="C36" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="C36" s="2" t="s">
-        <v>106</v>
-      </c>
       <c r="D36" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F36" s="1">
         <v>10</v>
@@ -2511,13 +2683,13 @@
         <v>15</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="F37" s="1">
         <v>10</v>
@@ -2526,16 +2698,16 @@
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
-        <v>16</v>
+        <v>415</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="F38" s="1">
         <v>1</v>
@@ -2544,16 +2716,16 @@
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="F39" s="1">
         <v>5</v>
@@ -2562,13 +2734,13 @@
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="F40" s="1">
         <v>10</v>
@@ -2577,159 +2749,132 @@
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
-        <v>354</v>
+        <v>416</v>
       </c>
       <c r="G41" s="2"/>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
-        <v>365</v>
+        <v>350</v>
       </c>
       <c r="G42" s="2"/>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43" s="4" t="s">
+      <c r="A43" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="G43" s="2"/>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B44" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="B43" s="4" t="s">
+      <c r="C44" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="C43" s="4" t="s">
+      <c r="D44" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="E44" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="F44" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="D43" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="E43" s="4" t="s">
+      <c r="G44" s="4"/>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45" s="38" t="s">
+        <v>130</v>
+      </c>
+      <c r="B45" s="38"/>
+      <c r="C45" s="38"/>
+      <c r="D45" s="38"/>
+      <c r="E45" s="38"/>
+      <c r="F45" s="38"/>
+      <c r="G45" s="38"/>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46" s="16" t="s">
+        <v>328</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="D46" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="F43" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="G43" s="4"/>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A44" s="28" t="s">
-        <v>132</v>
-      </c>
-      <c r="B44" s="28"/>
-      <c r="C44" s="28"/>
-      <c r="D44" s="28"/>
-      <c r="E44" s="28"/>
-      <c r="F44" s="28"/>
-      <c r="G44" s="28"/>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A45" s="16" t="s">
-        <v>332</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C45" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="D45" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="F45" s="1">
-        <v>5</v>
-      </c>
-      <c r="G45" s="2"/>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F46" s="1">
+        <v>5</v>
+      </c>
       <c r="G46" s="2"/>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A47" s="16" t="s">
-        <v>348</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C47" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="F47" s="1">
-        <v>5</v>
-      </c>
       <c r="G47" s="2"/>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="16" t="s">
-        <v>168</v>
+        <v>344</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="E48" s="2" t="s">
-        <v>170</v>
+        <v>114</v>
       </c>
       <c r="F48" s="1">
         <v>5</v>
       </c>
       <c r="G48" s="2"/>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="F49" s="1">
-        <v>5</v>
-      </c>
-      <c r="G49" s="2"/>
-    </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A50" s="16" t="s">
+      <c r="F50" s="1">
+        <v>5</v>
+      </c>
+      <c r="G50" s="2"/>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A51" s="16" t="s">
+        <v>115</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C51" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="B50" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C50" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="F50" s="1">
-        <v>5</v>
-      </c>
-      <c r="G50" s="2"/>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F51" s="1">
+        <v>5</v>
+      </c>
       <c r="G51" s="2"/>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A52" s="12" t="s">
-        <v>329</v>
-      </c>
-      <c r="F52" s="1">
-        <v>5</v>
-      </c>
       <c r="G52" s="2"/>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A54" s="16" t="s">
-        <v>120</v>
-      </c>
-      <c r="B54" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="C54" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="F54" s="1">
-        <v>5</v>
-      </c>
-      <c r="G54" s="2"/>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A53" s="12" t="s">
+        <v>325</v>
+      </c>
+      <c r="F53" s="1">
+        <v>5</v>
+      </c>
+      <c r="G53" s="2"/>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="16" t="s">
+        <v>118</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C55" s="2" t="s">
         <v>121</v>
-      </c>
-      <c r="B55" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="C55" s="2" t="s">
-        <v>123</v>
       </c>
       <c r="F55" s="1">
         <v>5</v>
@@ -2738,72 +2883,75 @@
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" s="16" t="s">
+        <v>119</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="F56" s="1">
+        <v>5</v>
+      </c>
+      <c r="G56" s="2"/>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A57" s="16" t="s">
+        <v>120</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="F57" s="1">
+        <v>5</v>
+      </c>
+      <c r="G57" s="2"/>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A58" s="12" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F59" s="1">
+        <v>5</v>
+      </c>
+      <c r="G59" s="2"/>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A60" s="16" t="s">
+        <v>332</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F60" s="1">
+        <v>5</v>
+      </c>
+      <c r="G60" s="2"/>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G63" s="2"/>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F65" s="1">
+        <v>5</v>
+      </c>
+      <c r="G65" s="2"/>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A66" s="16" t="s">
         <v>122</v>
       </c>
-      <c r="B56" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="C56" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="F56" s="1">
-        <v>5</v>
-      </c>
-      <c r="G56" s="2"/>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A57" s="12" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="F58" s="1">
-        <v>5</v>
-      </c>
-      <c r="G58" s="2"/>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A59" s="16" t="s">
-        <v>336</v>
-      </c>
-      <c r="B59" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="F59" s="1">
-        <v>5</v>
-      </c>
-      <c r="G59" s="2"/>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="G62" s="2"/>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="F64" s="1">
-        <v>5</v>
-      </c>
-      <c r="G64" s="2"/>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A65" s="16" t="s">
-        <v>124</v>
-      </c>
-      <c r="B65" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C65" s="2" t="s">
-        <v>333</v>
-      </c>
-      <c r="F65" s="1">
-        <v>5</v>
-      </c>
-      <c r="G65" s="2"/>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A66" s="2" t="s">
-        <v>126</v>
-      </c>
       <c r="B66" s="1" t="s">
-        <v>118</v>
+        <v>65</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>329</v>
       </c>
       <c r="F66" s="1">
         <v>5</v>
@@ -2812,59 +2960,62 @@
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="F67" s="1">
+        <v>5</v>
+      </c>
+      <c r="G67" s="2"/>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A68" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="F68" s="1">
+        <v>5</v>
+      </c>
+      <c r="G68" s="2"/>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F69" s="1">
+        <v>5</v>
+      </c>
+      <c r="G69" s="2"/>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A70" s="16" t="s">
         <v>125</v>
       </c>
-      <c r="B67" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="C67" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="F67" s="1">
-        <v>5</v>
-      </c>
-      <c r="G67" s="2"/>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="F68" s="1">
-        <v>5</v>
-      </c>
-      <c r="G68" s="2"/>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A69" s="16" t="s">
+      <c r="B70" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C70" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="B69" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C69" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="F69" s="1">
-        <v>5</v>
-      </c>
-      <c r="G69" s="2"/>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A70" s